--- a/api/cp-dss-api/gateway/src/main/resources/reports/Vessel_1_Loading_Plan_Template.xlsx
+++ b/api/cp-dss-api/gateway/src/main/resources/reports/Vessel_1_Loading_Plan_Template.xlsx
@@ -120,6 +120,51 @@
     <author>Sanal Kumar</author>
   </authors>
   <commentList>
+    <comment ref="A1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:
+jx:area(lastCell="Z72")</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="T16" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:
+jx:each(items="sheetOne.arrivalCondition.cargoDetails" var="arrCargoList" lastCell="Z16")</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="T32" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:
+jx:each(items="sheetOne.deparcherCondition.cargoDetails" var="depCargoList" lastCell="Z32")</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="I48" authorId="0" shapeId="0">
       <text>
         <r>
@@ -4668,6 +4713,316 @@
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="51" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="11" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="177" fontId="21" fillId="0" borderId="11" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="174" fontId="28" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="174" fontId="28" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="174" fontId="28" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="174" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="174" fontId="51" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="174" fontId="51" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="174" fontId="51" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="174" fontId="28" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="174" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="174" fontId="51" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="174" fontId="54" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="4" fontId="22" fillId="2" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="9" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="22" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="26" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="176" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="21" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="71" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="174" fontId="28" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" wrapText="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" wrapText="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="174" fontId="51" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="174" fontId="51" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="10" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="17" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -4682,22 +5037,6 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="26" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="10" fontId="22" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="174" fontId="28" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="174" fontId="28" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="17" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4707,32 +5046,9 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="174" fontId="28" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="174" fontId="28" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="174" fontId="28" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -4740,274 +5056,124 @@
       <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="174" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="174" fontId="51" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="174" fontId="51" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="17" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="10" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="14" fontId="22" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="22" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="22" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="174" fontId="51" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="174" fontId="51" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="179" fontId="22" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="179" fontId="22" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="174" fontId="51" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="27" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="174" fontId="51" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="27" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="27" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" wrapText="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" wrapText="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="71" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="62" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="22" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="168" fontId="21" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="176" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="22" fillId="2" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="9" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="174" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="174" fontId="54" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="51" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="11" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="177" fontId="21" fillId="0" borderId="11" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
@@ -5026,134 +5192,396 @@
     <xf numFmtId="0" fontId="46" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="38" fontId="43" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="10" borderId="58" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="10" borderId="59" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="10" borderId="60" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="27" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="61" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="31" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="23" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="33" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="62" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="37" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="63" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="36" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="29" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="64" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="65" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="169" fontId="43" fillId="0" borderId="17" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="169" fontId="43" fillId="0" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="169" fontId="43" fillId="0" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="62" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="22" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="18" fillId="0" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="179" fontId="22" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="179" fontId="22" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="170" fontId="18" fillId="0" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="170" fontId="18" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="170" fontId="18" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="170" fontId="18" fillId="0" borderId="65" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="170" fontId="30" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="43" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="3" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="170" fontId="18" fillId="0" borderId="43" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="1" fontId="27" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="170" fontId="18" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="1" fontId="27" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="170" fontId="18" fillId="0" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="27" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="170" fontId="18" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="14" fontId="22" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="22" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="22" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="18" fillId="0" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="170" fontId="18" fillId="0" borderId="18" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="170" fontId="18" fillId="0" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="170" fontId="18" fillId="0" borderId="17" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="170" fontId="18" fillId="0" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="170" fontId="18" fillId="0" borderId="64" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="170" fontId="8" fillId="0" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="170" fontId="8" fillId="0" borderId="17" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="170" fontId="8" fillId="0" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="170" fontId="8" fillId="0" borderId="66" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="170" fontId="18" fillId="0" borderId="66" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="170" fontId="18" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="30" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="8" fillId="0" borderId="64" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="170" fontId="8" fillId="0" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="170" fontId="8" fillId="0" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="170" fontId="8" fillId="0" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="170" fontId="8" fillId="0" borderId="65" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="170" fontId="8" fillId="0" borderId="18" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="170" fontId="30" fillId="0" borderId="67" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="170" fontId="30" fillId="0" borderId="39" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="170" fontId="30" fillId="0" borderId="21" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="170" fontId="30" fillId="0" borderId="38" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="71" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="68" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="53" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="28" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="72" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="170" fontId="30" fillId="0" borderId="73" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="53" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="72" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="171" fontId="49" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="41" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="8" fillId="0" borderId="64" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="171" fontId="8" fillId="0" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="171" fontId="8" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="171" fontId="8" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="171" fontId="8" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="171" fontId="8" fillId="0" borderId="20" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="171" fontId="8" fillId="0" borderId="19" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="171" fontId="8" fillId="0" borderId="62" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="171" fontId="8" fillId="0" borderId="36" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="171" fontId="8" fillId="0" borderId="37" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="171" fontId="8" fillId="0" borderId="29" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="171" fontId="8" fillId="0" borderId="63" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="173" fontId="49" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="18" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="30" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="173" fontId="41" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="19" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="173" fontId="13" fillId="0" borderId="50" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="173" fontId="13" fillId="0" borderId="34" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="173" fontId="13" fillId="0" borderId="35" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="173" fontId="13" fillId="0" borderId="75" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="173" fontId="13" fillId="0" borderId="76" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="173" fontId="13" fillId="0" borderId="19" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="173" fontId="13" fillId="0" borderId="6" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="173" fontId="13" fillId="0" borderId="5" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="173" fontId="13" fillId="0" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="173" fontId="13" fillId="0" borderId="20" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
@@ -5232,30 +5660,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="173" fontId="13" fillId="0" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="173" fontId="13" fillId="0" borderId="6" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="173" fontId="13" fillId="0" borderId="5" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="173" fontId="13" fillId="0" borderId="20" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="171" fontId="8" fillId="0" borderId="29" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="171" fontId="8" fillId="0" borderId="63" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -5272,14 +5676,6 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="171" fontId="8" fillId="0" borderId="36" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="53" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="47" fillId="0" borderId="28" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
@@ -5295,357 +5691,6 @@
     <xf numFmtId="49" fontId="8" fillId="0" borderId="3" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="170" fontId="8" fillId="0" borderId="17" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="170" fontId="8" fillId="0" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="173" fontId="41" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="173" fontId="13" fillId="0" borderId="50" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="173" fontId="13" fillId="0" borderId="34" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="173" fontId="13" fillId="0" borderId="35" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="173" fontId="13" fillId="0" borderId="75" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="173" fontId="13" fillId="0" borderId="76" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="173" fontId="49" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="173" fontId="13" fillId="0" borderId="19" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="171" fontId="30" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="8" fillId="0" borderId="19" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="171" fontId="8" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="171" fontId="8" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="171" fontId="8" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="171" fontId="8" fillId="0" borderId="20" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="19" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="171" fontId="18" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="8" fillId="0" borderId="62" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="171" fontId="8" fillId="0" borderId="37" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="72" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="171" fontId="49" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="41" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="8" fillId="0" borderId="64" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="171" fontId="8" fillId="0" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="71" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="68" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="53" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="28" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="72" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="170" fontId="30" fillId="0" borderId="38" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="170" fontId="30" fillId="0" borderId="73" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="170" fontId="30" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="18" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="30" fillId="0" borderId="67" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="170" fontId="30" fillId="0" borderId="39" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="170" fontId="30" fillId="0" borderId="21" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="170" fontId="8" fillId="0" borderId="18" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="170" fontId="8" fillId="0" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="170" fontId="8" fillId="0" borderId="66" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="170" fontId="8" fillId="0" borderId="64" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="170" fontId="8" fillId="0" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="170" fontId="8" fillId="0" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="170" fontId="8" fillId="0" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="170" fontId="8" fillId="0" borderId="65" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="170" fontId="18" fillId="0" borderId="17" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="170" fontId="18" fillId="0" borderId="66" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="170" fontId="18" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="170" fontId="30" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="170" fontId="18" fillId="0" borderId="64" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="170" fontId="18" fillId="0" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="170" fontId="18" fillId="0" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="170" fontId="18" fillId="0" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="170" fontId="18" fillId="0" borderId="65" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="170" fontId="18" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="170" fontId="18" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="43" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="3" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="170" fontId="18" fillId="0" borderId="43" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="170" fontId="18" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="170" fontId="18" fillId="0" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="170" fontId="18" fillId="0" borderId="18" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="170" fontId="18" fillId="0" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="170" fontId="18" fillId="0" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="64" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="65" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="169" fontId="43" fillId="0" borderId="17" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="169" fontId="43" fillId="0" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="169" fontId="43" fillId="0" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="29" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="36" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="63" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="62" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="37" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="38" fontId="43" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="10" borderId="58" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="10" borderId="59" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="10" borderId="60" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="27" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="61" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="31" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="23" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="33" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="17">
@@ -5768,7 +5813,7 @@
         <xdr:cNvPr id="30643" name="Line 59">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{26C26646-7311-46E9-9E78-CC1D2B3F626E}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26C26646-7311-46E9-9E78-CC1D2B3F626E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5822,7 +5867,7 @@
         <xdr:cNvPr id="30644" name="Line 60">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B49276F8-0941-4D7D-8146-C269E6ACE4D6}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B49276F8-0941-4D7D-8146-C269E6ACE4D6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5876,7 +5921,7 @@
         <xdr:cNvPr id="30645" name="Line 62">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{49720863-AFF1-493D-8C5B-3E8A332597CC}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49720863-AFF1-493D-8C5B-3E8A332597CC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5930,7 +5975,7 @@
         <xdr:cNvPr id="30646" name="Line 62">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7695EED5-68DE-4941-B396-30D3C770B8B0}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7695EED5-68DE-4941-B396-30D3C770B8B0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5984,7 +6029,7 @@
         <xdr:cNvPr id="30647" name="Line 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD58331C-81A7-4159-9782-8A7161F85FB4}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD58331C-81A7-4159-9782-8A7161F85FB4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6038,7 +6083,7 @@
         <xdr:cNvPr id="30648" name="Line 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D0300261-277A-4B07-916A-FC3A4EA535EC}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D0300261-277A-4B07-916A-FC3A4EA535EC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6092,7 +6137,7 @@
         <xdr:cNvPr id="30649" name="Line 62">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{92E06221-417C-4981-B737-76380BAE82BA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92E06221-417C-4981-B737-76380BAE82BA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6146,7 +6191,7 @@
         <xdr:cNvPr id="30650" name="Line 62">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EC93D721-69B8-4DB6-8611-B0CA263C6701}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC93D721-69B8-4DB6-8611-B0CA263C6701}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6200,7 +6245,7 @@
         <xdr:cNvPr id="30651" name="Line 62">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8FFC3F25-367F-4CB6-8861-0D589CD691A0}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8FFC3F25-367F-4CB6-8861-0D589CD691A0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6254,7 +6299,7 @@
         <xdr:cNvPr id="30652" name="Line 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{132B4608-E2CC-4568-8160-0038A8B8A9B4}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{132B4608-E2CC-4568-8160-0038A8B8A9B4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6308,7 +6353,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{95E86656-9F63-45D0-BC52-81A2571E9B65}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95E86656-9F63-45D0-BC52-81A2571E9B65}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6358,7 +6403,7 @@
         <xdr:cNvPr id="17" name="Line 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{132B4608-E2CC-4568-8160-0038A8B8A9B4}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{132B4608-E2CC-4568-8160-0038A8B8A9B4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6412,7 +6457,7 @@
         <xdr:cNvPr id="19" name="Line 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{132B4608-E2CC-4568-8160-0038A8B8A9B4}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{132B4608-E2CC-4568-8160-0038A8B8A9B4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6466,7 +6511,7 @@
         <xdr:cNvPr id="21" name="Line 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{132B4608-E2CC-4568-8160-0038A8B8A9B4}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{132B4608-E2CC-4568-8160-0038A8B8A9B4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6520,7 +6565,7 @@
         <xdr:cNvPr id="16" name="Line 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{132B4608-E2CC-4568-8160-0038A8B8A9B4}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{132B4608-E2CC-4568-8160-0038A8B8A9B4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6574,7 +6619,7 @@
         <xdr:cNvPr id="18" name="Line 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{132B4608-E2CC-4568-8160-0038A8B8A9B4}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{132B4608-E2CC-4568-8160-0038A8B8A9B4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6628,7 +6673,7 @@
         <xdr:cNvPr id="29" name="Line 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{132B4608-E2CC-4568-8160-0038A8B8A9B4}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{132B4608-E2CC-4568-8160-0038A8B8A9B4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6682,7 +6727,7 @@
         <xdr:cNvPr id="30" name="Line 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{132B4608-E2CC-4568-8160-0038A8B8A9B4}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{132B4608-E2CC-4568-8160-0038A8B8A9B4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6741,7 +6786,7 @@
         <xdr:cNvPr id="3" name="Straight Arrow Connector 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B797E7CF-1A06-4CEA-9ADE-170C48993265}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B797E7CF-1A06-4CEA-9ADE-170C48993265}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6802,7 +6847,7 @@
         <xdr:cNvPr id="4" name="Straight Arrow Connector 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2BEDE635-1F02-453E-9F90-E058C94056D9}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2BEDE635-1F02-453E-9F90-E058C94056D9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6861,7 +6906,7 @@
         <xdr:cNvPr id="5" name="Straight Arrow Connector 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1D5CF2A1-6598-4333-B154-A78E9AC22D5D}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D5CF2A1-6598-4333-B154-A78E9AC22D5D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6920,7 +6965,7 @@
         <xdr:cNvPr id="6" name="Straight Arrow Connector 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{30FF7C50-4679-4D5B-9ECC-0C48D7D6ADB9}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30FF7C50-4679-4D5B-9ECC-0C48D7D6ADB9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6974,7 +7019,7 @@
         <xdr:cNvPr id="7" name="Straight Arrow Connector 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4C71E8CE-FAA4-41F1-897D-31B964D53419}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C71E8CE-FAA4-41F1-897D-31B964D53419}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7028,7 +7073,7 @@
         <xdr:cNvPr id="34111" name="Straight Arrow Connector 24">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{485A3AB8-7B97-44C2-8702-36D95F09D2F0}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{485A3AB8-7B97-44C2-8702-36D95F09D2F0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7089,7 +7134,7 @@
         <xdr:cNvPr id="34112" name="Straight Arrow Connector 58">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9921100B-270F-4162-9D40-E5DBE2FED001}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9921100B-270F-4162-9D40-E5DBE2FED001}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7143,7 +7188,7 @@
         <xdr:cNvPr id="34113" name="Line 265">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8A988748-0676-40ED-9C97-19FD558B0C2D}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A988748-0676-40ED-9C97-19FD558B0C2D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7197,7 +7242,7 @@
         <xdr:cNvPr id="34114" name="Line 261">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{87366128-083F-4AA8-8F19-FD610E433590}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87366128-083F-4AA8-8F19-FD610E433590}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7251,7 +7296,7 @@
         <xdr:cNvPr id="34115" name="Line 261">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8AFB7D6C-C084-4D0A-8E94-D5962E599864}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8AFB7D6C-C084-4D0A-8E94-D5962E599864}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7305,7 +7350,7 @@
         <xdr:cNvPr id="34116" name="Line 496">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{51704B67-DDE3-4ED9-A582-1EF048870D56}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51704B67-DDE3-4ED9-A582-1EF048870D56}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7359,7 +7404,7 @@
         <xdr:cNvPr id="34117" name="Line 496">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AC6F7081-94ED-4045-B528-A9DD515EA330}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC6F7081-94ED-4045-B528-A9DD515EA330}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7413,7 +7458,7 @@
         <xdr:cNvPr id="34118" name="Line 496">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{824C01C1-4260-49A4-9289-9094D0FFFE85}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{824C01C1-4260-49A4-9289-9094D0FFFE85}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7467,7 +7512,7 @@
         <xdr:cNvPr id="34119" name="AutoShape 210">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E995D36A-DE7C-4FB9-900B-AD23C52ADDCA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E995D36A-DE7C-4FB9-900B-AD23C52ADDCA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7520,7 +7565,7 @@
         <xdr:cNvPr id="34120" name="AutoShape 212">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{63113FE4-C7D1-476A-9070-50EF38B88F1D}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{63113FE4-C7D1-476A-9070-50EF38B88F1D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7849,7 +7894,7 @@
   <dimension ref="A1:AS75"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="R31" sqref="R31"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="17.25" customHeight="1"/>
@@ -7906,12 +7951,12 @@
       <c r="I3" s="50"/>
       <c r="J3" s="49"/>
       <c r="K3" s="49"/>
-      <c r="L3" s="514" t="s">
+      <c r="L3" s="430" t="s">
         <v>95</v>
       </c>
-      <c r="M3" s="514"/>
-      <c r="N3" s="514"/>
-      <c r="O3" s="514"/>
+      <c r="M3" s="430"/>
+      <c r="N3" s="430"/>
+      <c r="O3" s="430"/>
       <c r="P3" s="49"/>
       <c r="Q3" s="49"/>
       <c r="R3" s="49"/>
@@ -7931,13 +7976,13 @@
         <v>63</v>
       </c>
       <c r="C4" s="49"/>
-      <c r="D4" s="466" t="s">
+      <c r="D4" s="493" t="s">
         <v>275</v>
       </c>
-      <c r="E4" s="466"/>
-      <c r="F4" s="466"/>
-      <c r="G4" s="466"/>
-      <c r="H4" s="466"/>
+      <c r="E4" s="493"/>
+      <c r="F4" s="493"/>
+      <c r="G4" s="493"/>
+      <c r="H4" s="493"/>
       <c r="I4" s="49"/>
       <c r="J4" s="49"/>
       <c r="K4" s="49"/>
@@ -7964,13 +8009,13 @@
         <v>60</v>
       </c>
       <c r="C5" s="169"/>
-      <c r="D5" s="432" t="s">
+      <c r="D5" s="514" t="s">
         <v>276</v>
       </c>
-      <c r="E5" s="433"/>
-      <c r="F5" s="433"/>
-      <c r="G5" s="433"/>
-      <c r="H5" s="433"/>
+      <c r="E5" s="515"/>
+      <c r="F5" s="515"/>
+      <c r="G5" s="515"/>
+      <c r="H5" s="515"/>
       <c r="I5" s="171"/>
       <c r="J5" s="171"/>
       <c r="K5" s="171"/>
@@ -7988,13 +8033,13 @@
       <c r="U5" s="174" t="s">
         <v>32</v>
       </c>
-      <c r="V5" s="518" t="s">
+      <c r="V5" s="436" t="s">
         <v>279</v>
       </c>
-      <c r="W5" s="518"/>
-      <c r="X5" s="518"/>
-      <c r="Y5" s="518"/>
-      <c r="Z5" s="518"/>
+      <c r="W5" s="436"/>
+      <c r="X5" s="436"/>
+      <c r="Y5" s="436"/>
+      <c r="Z5" s="436"/>
       <c r="AA5" s="50"/>
       <c r="AB5" s="20"/>
     </row>
@@ -8024,13 +8069,13 @@
       <c r="U6" s="174" t="s">
         <v>32</v>
       </c>
-      <c r="V6" s="519" t="s">
+      <c r="V6" s="437" t="s">
         <v>280</v>
       </c>
-      <c r="W6" s="520"/>
-      <c r="X6" s="520"/>
-      <c r="Y6" s="520"/>
-      <c r="Z6" s="520"/>
+      <c r="W6" s="438"/>
+      <c r="X6" s="438"/>
+      <c r="Y6" s="438"/>
+      <c r="Z6" s="438"/>
       <c r="AA6" s="50"/>
       <c r="AB6" s="20"/>
     </row>
@@ -8039,24 +8084,24 @@
       <c r="B7" s="175" t="s">
         <v>257</v>
       </c>
-      <c r="C7" s="467" t="s">
+      <c r="C7" s="494" t="s">
         <v>277</v>
       </c>
-      <c r="D7" s="468"/>
-      <c r="E7" s="468"/>
-      <c r="F7" s="468"/>
-      <c r="G7" s="468"/>
-      <c r="H7" s="477" t="s">
+      <c r="D7" s="495"/>
+      <c r="E7" s="495"/>
+      <c r="F7" s="495"/>
+      <c r="G7" s="495"/>
+      <c r="H7" s="496" t="s">
         <v>258</v>
       </c>
-      <c r="I7" s="478"/>
-      <c r="J7" s="467" t="s">
+      <c r="I7" s="497"/>
+      <c r="J7" s="494" t="s">
         <v>278</v>
       </c>
-      <c r="K7" s="467"/>
-      <c r="L7" s="467"/>
-      <c r="M7" s="467"/>
-      <c r="N7" s="467"/>
+      <c r="K7" s="494"/>
+      <c r="L7" s="494"/>
+      <c r="M7" s="494"/>
+      <c r="N7" s="494"/>
       <c r="O7" s="176"/>
       <c r="P7" s="176"/>
       <c r="Q7" s="176"/>
@@ -8068,13 +8113,13 @@
       <c r="U7" s="174" t="s">
         <v>32</v>
       </c>
-      <c r="V7" s="519" t="s">
+      <c r="V7" s="437" t="s">
         <v>281</v>
       </c>
-      <c r="W7" s="520"/>
-      <c r="X7" s="520"/>
-      <c r="Y7" s="520"/>
-      <c r="Z7" s="520"/>
+      <c r="W7" s="438"/>
+      <c r="X7" s="438"/>
+      <c r="Y7" s="438"/>
+      <c r="Z7" s="438"/>
       <c r="AA7" s="50"/>
       <c r="AB7" s="20"/>
     </row>
@@ -8165,10 +8210,10 @@
       <c r="V10" s="414"/>
       <c r="W10" s="414"/>
       <c r="X10" s="414"/>
-      <c r="Y10" s="488" t="s">
+      <c r="Y10" s="479" t="s">
         <v>282</v>
       </c>
-      <c r="Z10" s="488"/>
+      <c r="Z10" s="479"/>
       <c r="AB10" s="20"/>
     </row>
     <row r="11" spans="1:28" ht="17.25" customHeight="1">
@@ -8200,12 +8245,12 @@
       <c r="T11" s="416"/>
       <c r="U11" s="416"/>
       <c r="V11" s="417"/>
-      <c r="W11" s="489" t="s">
+      <c r="W11" s="480" t="s">
         <v>283</v>
       </c>
-      <c r="X11" s="489"/>
-      <c r="Y11" s="489"/>
-      <c r="Z11" s="489"/>
+      <c r="X11" s="480"/>
+      <c r="Y11" s="480"/>
+      <c r="Z11" s="480"/>
       <c r="AA11" s="59"/>
     </row>
     <row r="12" spans="1:28" s="59" customFormat="1" ht="17.25" customHeight="1">
@@ -8224,19 +8269,19 @@
       <c r="M12" s="164"/>
       <c r="N12" s="164"/>
       <c r="O12" s="164"/>
-      <c r="P12" s="487" t="s">
+      <c r="P12" s="478" t="s">
         <v>242</v>
       </c>
-      <c r="Q12" s="487"/>
-      <c r="R12" s="487"/>
-      <c r="S12" s="487"/>
-      <c r="T12" s="487"/>
-      <c r="U12" s="487"/>
-      <c r="V12" s="487"/>
-      <c r="W12" s="487"/>
-      <c r="X12" s="487"/>
-      <c r="Y12" s="487"/>
-      <c r="Z12" s="487"/>
+      <c r="Q12" s="478"/>
+      <c r="R12" s="478"/>
+      <c r="S12" s="478"/>
+      <c r="T12" s="478"/>
+      <c r="U12" s="478"/>
+      <c r="V12" s="478"/>
+      <c r="W12" s="478"/>
+      <c r="X12" s="478"/>
+      <c r="Y12" s="478"/>
+      <c r="Z12" s="478"/>
     </row>
     <row r="13" spans="1:28" s="59" customFormat="1" ht="17.25" customHeight="1">
       <c r="A13" s="65"/>
@@ -8294,19 +8339,19 @@
         <v>479</v>
       </c>
       <c r="F15" s="387"/>
-      <c r="G15" s="471" t="s">
+      <c r="G15" s="439" t="s">
         <v>480</v>
       </c>
-      <c r="H15" s="472"/>
+      <c r="H15" s="440"/>
       <c r="I15" s="388"/>
       <c r="J15" s="426" t="s">
         <v>481</v>
       </c>
       <c r="K15" s="389"/>
-      <c r="L15" s="471" t="s">
+      <c r="L15" s="439" t="s">
         <v>482</v>
       </c>
-      <c r="M15" s="472"/>
+      <c r="M15" s="440"/>
       <c r="N15" s="389"/>
       <c r="O15" s="426" t="s">
         <v>483</v>
@@ -8315,12 +8360,12 @@
       <c r="Q15" s="191"/>
       <c r="R15" s="192"/>
       <c r="S15" s="192"/>
-      <c r="T15" s="486" t="s">
+      <c r="T15" s="452" t="s">
         <v>84</v>
       </c>
-      <c r="U15" s="486"/>
-      <c r="V15" s="486"/>
-      <c r="W15" s="486"/>
+      <c r="U15" s="452"/>
+      <c r="V15" s="452"/>
+      <c r="W15" s="452"/>
       <c r="X15" s="193"/>
       <c r="Y15" s="194"/>
       <c r="Z15" s="195"/>
@@ -8330,48 +8375,48 @@
     <row r="16" spans="1:28" s="68" customFormat="1" ht="12" customHeight="1">
       <c r="A16" s="60"/>
       <c r="B16" s="69"/>
-      <c r="C16" s="436" t="s">
+      <c r="C16" s="441" t="s">
         <v>298</v>
       </c>
-      <c r="D16" s="447"/>
-      <c r="E16" s="436" t="s">
+      <c r="D16" s="442"/>
+      <c r="E16" s="441" t="s">
         <v>326</v>
       </c>
-      <c r="F16" s="437"/>
-      <c r="G16" s="436" t="s">
+      <c r="F16" s="451"/>
+      <c r="G16" s="441" t="s">
         <v>354</v>
       </c>
-      <c r="H16" s="447"/>
-      <c r="I16" s="437"/>
-      <c r="J16" s="436" t="s">
+      <c r="H16" s="442"/>
+      <c r="I16" s="451"/>
+      <c r="J16" s="441" t="s">
         <v>382</v>
       </c>
-      <c r="K16" s="437"/>
-      <c r="L16" s="436" t="s">
+      <c r="K16" s="451"/>
+      <c r="L16" s="441" t="s">
         <v>410</v>
       </c>
-      <c r="M16" s="447"/>
-      <c r="N16" s="437"/>
-      <c r="O16" s="436" t="s">
+      <c r="M16" s="442"/>
+      <c r="N16" s="451"/>
+      <c r="O16" s="441" t="s">
         <v>438</v>
       </c>
-      <c r="P16" s="437"/>
+      <c r="P16" s="451"/>
       <c r="Q16" s="69"/>
       <c r="R16" s="192"/>
       <c r="S16" s="192"/>
-      <c r="T16" s="490" t="s">
+      <c r="T16" s="481" t="s">
         <v>284</v>
       </c>
-      <c r="U16" s="490"/>
-      <c r="V16" s="490"/>
-      <c r="W16" s="490"/>
+      <c r="U16" s="481"/>
+      <c r="V16" s="481"/>
+      <c r="W16" s="481"/>
       <c r="X16" s="165" t="s">
         <v>32</v>
       </c>
-      <c r="Y16" s="493" t="s">
+      <c r="Y16" s="461" t="s">
         <v>292</v>
       </c>
-      <c r="Z16" s="493"/>
+      <c r="Z16" s="461"/>
       <c r="AA16" s="59"/>
       <c r="AB16" s="59"/>
     </row>
@@ -8390,10 +8435,10 @@
       <c r="F17" s="393" t="s">
         <v>327</v>
       </c>
-      <c r="G17" s="469" t="s">
+      <c r="G17" s="453" t="s">
         <v>496</v>
       </c>
-      <c r="H17" s="470"/>
+      <c r="H17" s="454"/>
       <c r="I17" s="392" t="s">
         <v>355</v>
       </c>
@@ -8403,10 +8448,10 @@
       <c r="K17" s="392" t="s">
         <v>383</v>
       </c>
-      <c r="L17" s="469" t="s">
+      <c r="L17" s="453" t="s">
         <v>502</v>
       </c>
-      <c r="M17" s="470"/>
+      <c r="M17" s="454"/>
       <c r="N17" s="392" t="s">
         <v>411</v>
       </c>
@@ -8437,39 +8482,39 @@
     <row r="18" spans="1:45" s="68" customFormat="1" ht="12" customHeight="1">
       <c r="A18" s="60"/>
       <c r="B18" s="390"/>
-      <c r="C18" s="445" t="s">
+      <c r="C18" s="443" t="s">
         <v>300</v>
       </c>
-      <c r="D18" s="450"/>
-      <c r="E18" s="445" t="s">
+      <c r="D18" s="444"/>
+      <c r="E18" s="443" t="s">
         <v>328</v>
       </c>
-      <c r="F18" s="446"/>
-      <c r="G18" s="445" t="s">
+      <c r="F18" s="488"/>
+      <c r="G18" s="443" t="s">
         <v>356</v>
       </c>
-      <c r="H18" s="450"/>
-      <c r="I18" s="446"/>
-      <c r="J18" s="450" t="s">
+      <c r="H18" s="444"/>
+      <c r="I18" s="488"/>
+      <c r="J18" s="444" t="s">
         <v>384</v>
       </c>
-      <c r="K18" s="450"/>
-      <c r="L18" s="452" t="s">
+      <c r="K18" s="444"/>
+      <c r="L18" s="445" t="s">
         <v>412</v>
       </c>
-      <c r="M18" s="473"/>
-      <c r="N18" s="453"/>
-      <c r="O18" s="450" t="s">
+      <c r="M18" s="446"/>
+      <c r="N18" s="447"/>
+      <c r="O18" s="444" t="s">
         <v>440</v>
       </c>
-      <c r="P18" s="450"/>
+      <c r="P18" s="444"/>
       <c r="Q18" s="69"/>
       <c r="R18" s="192"/>
       <c r="S18" s="192"/>
-      <c r="T18" s="521"/>
-      <c r="U18" s="521"/>
-      <c r="V18" s="521"/>
-      <c r="W18" s="521"/>
+      <c r="T18" s="450"/>
+      <c r="U18" s="450"/>
+      <c r="V18" s="450"/>
+      <c r="W18" s="450"/>
       <c r="X18" s="165"/>
       <c r="Y18" s="383"/>
       <c r="Z18" s="382"/>
@@ -8527,10 +8572,10 @@
       </c>
       <c r="R19" s="192"/>
       <c r="S19" s="192"/>
-      <c r="T19" s="521"/>
-      <c r="U19" s="521"/>
-      <c r="V19" s="521"/>
-      <c r="W19" s="521"/>
+      <c r="T19" s="450"/>
+      <c r="U19" s="450"/>
+      <c r="V19" s="450"/>
+      <c r="W19" s="450"/>
       <c r="X19" s="165"/>
       <c r="Y19" s="383"/>
       <c r="Z19" s="382"/>
@@ -8541,21 +8586,21 @@
     </row>
     <row r="20" spans="1:45" s="68" customFormat="1" ht="12" customHeight="1">
       <c r="A20" s="60"/>
-      <c r="B20" s="516" t="s">
+      <c r="B20" s="432" t="s">
         <v>296</v>
       </c>
       <c r="C20" s="428" t="s">
         <v>491</v>
       </c>
-      <c r="D20" s="483" t="s">
+      <c r="D20" s="485" t="s">
         <v>303</v>
       </c>
-      <c r="E20" s="484"/>
-      <c r="F20" s="485"/>
-      <c r="G20" s="481" t="s">
+      <c r="E20" s="486"/>
+      <c r="F20" s="487"/>
+      <c r="G20" s="448" t="s">
         <v>495</v>
       </c>
-      <c r="H20" s="482"/>
+      <c r="H20" s="449"/>
       <c r="I20" s="395" t="s">
         <v>331</v>
       </c>
@@ -8568,25 +8613,25 @@
       <c r="L20" s="429" t="s">
         <v>500</v>
       </c>
-      <c r="M20" s="479" t="s">
+      <c r="M20" s="489" t="s">
         <v>387</v>
       </c>
-      <c r="N20" s="480"/>
+      <c r="N20" s="490"/>
       <c r="O20" s="429" t="s">
         <v>503</v>
       </c>
       <c r="P20" s="395" t="s">
         <v>415</v>
       </c>
-      <c r="Q20" s="515" t="s">
+      <c r="Q20" s="431" t="s">
         <v>297</v>
       </c>
       <c r="R20" s="192"/>
       <c r="S20" s="192"/>
-      <c r="T20" s="521"/>
-      <c r="U20" s="521"/>
-      <c r="V20" s="521"/>
-      <c r="W20" s="521"/>
+      <c r="T20" s="450"/>
+      <c r="U20" s="450"/>
+      <c r="V20" s="450"/>
+      <c r="W20" s="450"/>
       <c r="X20" s="165"/>
       <c r="Y20" s="383"/>
       <c r="Z20" s="382"/>
@@ -8594,32 +8639,32 @@
     </row>
     <row r="21" spans="1:45" s="68" customFormat="1" ht="12" customHeight="1">
       <c r="A21" s="60"/>
-      <c r="B21" s="516"/>
-      <c r="C21" s="445" t="s">
+      <c r="B21" s="432"/>
+      <c r="C21" s="443" t="s">
         <v>304</v>
       </c>
-      <c r="D21" s="450"/>
-      <c r="E21" s="450"/>
-      <c r="F21" s="446"/>
-      <c r="G21" s="445" t="s">
+      <c r="D21" s="444"/>
+      <c r="E21" s="444"/>
+      <c r="F21" s="488"/>
+      <c r="G21" s="443" t="s">
         <v>332</v>
       </c>
-      <c r="H21" s="450"/>
-      <c r="I21" s="446"/>
-      <c r="J21" s="452" t="s">
+      <c r="H21" s="444"/>
+      <c r="I21" s="488"/>
+      <c r="J21" s="445" t="s">
         <v>360</v>
       </c>
-      <c r="K21" s="453"/>
-      <c r="L21" s="452" t="s">
+      <c r="K21" s="447"/>
+      <c r="L21" s="445" t="s">
         <v>388</v>
       </c>
-      <c r="M21" s="473"/>
-      <c r="N21" s="453"/>
-      <c r="O21" s="452" t="s">
+      <c r="M21" s="446"/>
+      <c r="N21" s="447"/>
+      <c r="O21" s="445" t="s">
         <v>416</v>
       </c>
-      <c r="P21" s="453"/>
-      <c r="Q21" s="515"/>
+      <c r="P21" s="447"/>
+      <c r="Q21" s="431"/>
       <c r="R21" s="192"/>
       <c r="S21" s="192"/>
       <c r="T21" s="192"/>
@@ -8694,10 +8739,10 @@
       <c r="F23" s="394" t="s">
         <v>335</v>
       </c>
-      <c r="G23" s="481" t="s">
+      <c r="G23" s="448" t="s">
         <v>498</v>
       </c>
-      <c r="H23" s="482"/>
+      <c r="H23" s="449"/>
       <c r="I23" s="394" t="s">
         <v>363</v>
       </c>
@@ -8707,10 +8752,10 @@
       <c r="K23" s="394" t="s">
         <v>391</v>
       </c>
-      <c r="L23" s="481" t="s">
+      <c r="L23" s="448" t="s">
         <v>504</v>
       </c>
-      <c r="M23" s="482"/>
+      <c r="M23" s="449"/>
       <c r="N23" s="394" t="s">
         <v>419</v>
       </c>
@@ -8736,41 +8781,41 @@
     <row r="24" spans="1:45" s="68" customFormat="1" ht="12" customHeight="1">
       <c r="A24" s="60"/>
       <c r="B24" s="69"/>
-      <c r="C24" s="445" t="s">
+      <c r="C24" s="443" t="s">
         <v>308</v>
       </c>
-      <c r="D24" s="450"/>
-      <c r="E24" s="445" t="s">
+      <c r="D24" s="444"/>
+      <c r="E24" s="443" t="s">
         <v>336</v>
       </c>
-      <c r="F24" s="450"/>
-      <c r="G24" s="474" t="s">
+      <c r="F24" s="444"/>
+      <c r="G24" s="491" t="s">
         <v>364</v>
       </c>
-      <c r="H24" s="475"/>
-      <c r="I24" s="476"/>
-      <c r="J24" s="445" t="s">
+      <c r="H24" s="458"/>
+      <c r="I24" s="492"/>
+      <c r="J24" s="443" t="s">
         <v>392</v>
       </c>
-      <c r="K24" s="450"/>
-      <c r="L24" s="474" t="s">
+      <c r="K24" s="444"/>
+      <c r="L24" s="491" t="s">
         <v>420</v>
       </c>
-      <c r="M24" s="475"/>
-      <c r="N24" s="476"/>
-      <c r="O24" s="445" t="s">
+      <c r="M24" s="458"/>
+      <c r="N24" s="492"/>
+      <c r="O24" s="443" t="s">
         <v>444</v>
       </c>
-      <c r="P24" s="450"/>
+      <c r="P24" s="444"/>
       <c r="Q24" s="69"/>
       <c r="R24" s="192"/>
       <c r="S24" s="192"/>
-      <c r="T24" s="491" t="s">
+      <c r="T24" s="435" t="s">
         <v>468</v>
       </c>
-      <c r="U24" s="492"/>
-      <c r="V24" s="492"/>
-      <c r="W24" s="492"/>
+      <c r="U24" s="482"/>
+      <c r="V24" s="482"/>
+      <c r="W24" s="482"/>
       <c r="X24" s="193"/>
       <c r="Y24" s="403" t="s">
         <v>476</v>
@@ -8841,19 +8886,19 @@
         <v>485</v>
       </c>
       <c r="F26" s="189"/>
-      <c r="G26" s="441" t="s">
+      <c r="G26" s="483" t="s">
         <v>486</v>
       </c>
-      <c r="H26" s="442"/>
+      <c r="H26" s="484"/>
       <c r="I26" s="384"/>
       <c r="J26" s="424" t="s">
         <v>487</v>
       </c>
       <c r="K26" s="190"/>
-      <c r="L26" s="441" t="s">
+      <c r="L26" s="483" t="s">
         <v>488</v>
       </c>
-      <c r="M26" s="442"/>
+      <c r="M26" s="484"/>
       <c r="N26" s="190"/>
       <c r="O26" s="425" t="s">
         <v>489</v>
@@ -8862,11 +8907,11 @@
       <c r="Q26" s="69"/>
       <c r="R26" s="192"/>
       <c r="S26" s="192"/>
-      <c r="T26" s="517" t="s">
+      <c r="T26" s="433" t="s">
         <v>85</v>
       </c>
-      <c r="U26" s="517"/>
-      <c r="V26" s="517"/>
+      <c r="U26" s="433"/>
+      <c r="V26" s="433"/>
       <c r="W26" s="385" t="s">
         <v>32</v>
       </c>
@@ -8879,40 +8924,40 @@
     <row r="27" spans="1:45" s="68" customFormat="1" ht="12" customHeight="1">
       <c r="A27" s="60"/>
       <c r="B27" s="188"/>
-      <c r="C27" s="436" t="s">
+      <c r="C27" s="441" t="s">
         <v>311</v>
       </c>
-      <c r="D27" s="447"/>
-      <c r="E27" s="436" t="s">
+      <c r="D27" s="442"/>
+      <c r="E27" s="441" t="s">
         <v>339</v>
       </c>
-      <c r="F27" s="447"/>
-      <c r="G27" s="436" t="s">
+      <c r="F27" s="442"/>
+      <c r="G27" s="441" t="s">
         <v>367</v>
       </c>
-      <c r="H27" s="447"/>
-      <c r="I27" s="437"/>
-      <c r="J27" s="436" t="s">
+      <c r="H27" s="442"/>
+      <c r="I27" s="451"/>
+      <c r="J27" s="441" t="s">
         <v>395</v>
       </c>
-      <c r="K27" s="447"/>
-      <c r="L27" s="436" t="s">
+      <c r="K27" s="442"/>
+      <c r="L27" s="441" t="s">
         <v>423</v>
       </c>
-      <c r="M27" s="447"/>
-      <c r="N27" s="437"/>
-      <c r="O27" s="436" t="s">
+      <c r="M27" s="442"/>
+      <c r="N27" s="451"/>
+      <c r="O27" s="441" t="s">
         <v>447</v>
       </c>
-      <c r="P27" s="437"/>
+      <c r="P27" s="451"/>
       <c r="Q27" s="62"/>
       <c r="R27" s="192"/>
       <c r="S27" s="186"/>
-      <c r="T27" s="500" t="s">
+      <c r="T27" s="434" t="s">
         <v>285</v>
       </c>
-      <c r="U27" s="517"/>
-      <c r="V27" s="517"/>
+      <c r="U27" s="433"/>
+      <c r="V27" s="433"/>
       <c r="W27" s="195" t="s">
         <v>32</v>
       </c>
@@ -8942,11 +8987,11 @@
       <c r="Q28" s="62"/>
       <c r="R28" s="192"/>
       <c r="S28" s="186"/>
-      <c r="T28" s="491" t="s">
+      <c r="T28" s="435" t="s">
         <v>87</v>
       </c>
-      <c r="U28" s="491"/>
-      <c r="V28" s="491"/>
+      <c r="U28" s="435"/>
+      <c r="V28" s="435"/>
       <c r="W28" s="195" t="s">
         <v>32</v>
       </c>
@@ -9047,12 +9092,12 @@
       <c r="Q31" s="178"/>
       <c r="R31" s="181"/>
       <c r="S31" s="206"/>
-      <c r="T31" s="486" t="s">
+      <c r="T31" s="452" t="s">
         <v>84</v>
       </c>
-      <c r="U31" s="486"/>
-      <c r="V31" s="486"/>
-      <c r="W31" s="486"/>
+      <c r="U31" s="452"/>
+      <c r="V31" s="452"/>
+      <c r="W31" s="452"/>
       <c r="X31" s="204"/>
       <c r="Y31" s="205"/>
       <c r="Z31" s="195"/>
@@ -9077,30 +9122,30 @@
       <c r="Q32" s="180"/>
       <c r="R32" s="180"/>
       <c r="S32" s="180"/>
-      <c r="T32" s="513" t="s">
+      <c r="T32" s="455" t="s">
         <v>293</v>
       </c>
-      <c r="U32" s="513"/>
-      <c r="V32" s="513"/>
-      <c r="W32" s="513"/>
+      <c r="U32" s="455"/>
+      <c r="V32" s="455"/>
+      <c r="W32" s="455"/>
       <c r="X32" s="165" t="s">
         <v>32</v>
       </c>
-      <c r="Y32" s="493" t="s">
+      <c r="Y32" s="461" t="s">
         <v>294</v>
       </c>
-      <c r="Z32" s="493"/>
+      <c r="Z32" s="461"/>
       <c r="AF32" s="118"/>
       <c r="AG32" s="118"/>
       <c r="AH32" s="118"/>
       <c r="AI32" s="118"/>
-      <c r="AJ32" s="508"/>
-      <c r="AK32" s="508"/>
+      <c r="AJ32" s="456"/>
+      <c r="AK32" s="456"/>
       <c r="AL32" s="119"/>
       <c r="AM32" s="119"/>
       <c r="AN32" s="119"/>
-      <c r="AO32" s="508"/>
-      <c r="AP32" s="508"/>
+      <c r="AO32" s="456"/>
+      <c r="AP32" s="456"/>
       <c r="AQ32" s="119"/>
       <c r="AR32" s="119"/>
       <c r="AS32" s="119"/>
@@ -9116,19 +9161,19 @@
         <v>508</v>
       </c>
       <c r="F33" s="387"/>
-      <c r="G33" s="471" t="s">
+      <c r="G33" s="439" t="s">
         <v>509</v>
       </c>
-      <c r="H33" s="472"/>
+      <c r="H33" s="440"/>
       <c r="I33" s="388"/>
       <c r="J33" s="426" t="s">
         <v>510</v>
       </c>
       <c r="K33" s="389"/>
-      <c r="L33" s="471" t="s">
+      <c r="L33" s="439" t="s">
         <v>511</v>
       </c>
-      <c r="M33" s="472"/>
+      <c r="M33" s="440"/>
       <c r="N33" s="389"/>
       <c r="O33" s="426" t="s">
         <v>512</v>
@@ -9145,50 +9190,50 @@
       <c r="Y33"/>
       <c r="Z33"/>
       <c r="AA33"/>
-      <c r="AF33" s="507"/>
-      <c r="AG33" s="507"/>
-      <c r="AH33" s="507"/>
-      <c r="AI33" s="507"/>
-      <c r="AJ33" s="507"/>
-      <c r="AK33" s="507"/>
-      <c r="AL33" s="507"/>
-      <c r="AM33" s="507"/>
-      <c r="AN33" s="507"/>
-      <c r="AO33" s="507"/>
-      <c r="AP33" s="507"/>
-      <c r="AQ33" s="507"/>
-      <c r="AR33" s="507"/>
-      <c r="AS33" s="507"/>
+      <c r="AF33" s="457"/>
+      <c r="AG33" s="457"/>
+      <c r="AH33" s="457"/>
+      <c r="AI33" s="457"/>
+      <c r="AJ33" s="457"/>
+      <c r="AK33" s="457"/>
+      <c r="AL33" s="457"/>
+      <c r="AM33" s="457"/>
+      <c r="AN33" s="457"/>
+      <c r="AO33" s="457"/>
+      <c r="AP33" s="457"/>
+      <c r="AQ33" s="457"/>
+      <c r="AR33" s="457"/>
+      <c r="AS33" s="457"/>
     </row>
     <row r="34" spans="1:45" s="59" customFormat="1" ht="12" customHeight="1">
       <c r="A34" s="66"/>
       <c r="B34" s="69"/>
-      <c r="C34" s="436" t="s">
+      <c r="C34" s="441" t="s">
         <v>312</v>
       </c>
-      <c r="D34" s="447"/>
-      <c r="E34" s="436" t="s">
+      <c r="D34" s="442"/>
+      <c r="E34" s="441" t="s">
         <v>340</v>
       </c>
-      <c r="F34" s="437"/>
-      <c r="G34" s="436" t="s">
+      <c r="F34" s="451"/>
+      <c r="G34" s="441" t="s">
         <v>368</v>
       </c>
-      <c r="H34" s="447"/>
-      <c r="I34" s="437"/>
-      <c r="J34" s="436" t="s">
+      <c r="H34" s="442"/>
+      <c r="I34" s="451"/>
+      <c r="J34" s="441" t="s">
         <v>396</v>
       </c>
-      <c r="K34" s="437"/>
-      <c r="L34" s="436" t="s">
+      <c r="K34" s="451"/>
+      <c r="L34" s="441" t="s">
         <v>424</v>
       </c>
-      <c r="M34" s="447"/>
-      <c r="N34" s="437"/>
-      <c r="O34" s="436" t="s">
+      <c r="M34" s="442"/>
+      <c r="N34" s="451"/>
+      <c r="O34" s="441" t="s">
         <v>448</v>
       </c>
-      <c r="P34" s="437"/>
+      <c r="P34" s="451"/>
       <c r="Q34" s="69"/>
       <c r="R34" s="164"/>
       <c r="S34" s="210"/>
@@ -9207,13 +9252,13 @@
       <c r="AG34" s="121"/>
       <c r="AH34" s="122"/>
       <c r="AI34" s="123"/>
-      <c r="AJ34" s="510"/>
-      <c r="AK34" s="510"/>
+      <c r="AJ34" s="462"/>
+      <c r="AK34" s="462"/>
       <c r="AL34" s="121"/>
       <c r="AM34" s="120"/>
       <c r="AN34" s="121"/>
-      <c r="AO34" s="510"/>
-      <c r="AP34" s="510"/>
+      <c r="AO34" s="462"/>
+      <c r="AP34" s="462"/>
       <c r="AQ34" s="121"/>
       <c r="AR34" s="120"/>
       <c r="AS34" s="121"/>
@@ -9233,10 +9278,10 @@
       <c r="F35" s="393" t="s">
         <v>341</v>
       </c>
-      <c r="G35" s="469" t="s">
+      <c r="G35" s="453" t="s">
         <v>515</v>
       </c>
-      <c r="H35" s="470"/>
+      <c r="H35" s="454"/>
       <c r="I35" s="392" t="s">
         <v>369</v>
       </c>
@@ -9246,10 +9291,10 @@
       <c r="K35" s="392" t="s">
         <v>397</v>
       </c>
-      <c r="L35" s="469" t="s">
+      <c r="L35" s="453" t="s">
         <v>517</v>
       </c>
-      <c r="M35" s="470"/>
+      <c r="M35" s="454"/>
       <c r="N35" s="392" t="s">
         <v>425</v>
       </c>
@@ -9276,50 +9321,50 @@
       <c r="AD35" s="59" t="s">
         <v>76</v>
       </c>
-      <c r="AF35" s="507"/>
-      <c r="AG35" s="507"/>
-      <c r="AH35" s="475"/>
-      <c r="AI35" s="475"/>
-      <c r="AJ35" s="507"/>
-      <c r="AK35" s="507"/>
-      <c r="AL35" s="507"/>
-      <c r="AM35" s="507"/>
-      <c r="AN35" s="507"/>
-      <c r="AO35" s="475"/>
-      <c r="AP35" s="475"/>
-      <c r="AQ35" s="475"/>
-      <c r="AR35" s="511"/>
-      <c r="AS35" s="511"/>
+      <c r="AF35" s="457"/>
+      <c r="AG35" s="457"/>
+      <c r="AH35" s="458"/>
+      <c r="AI35" s="458"/>
+      <c r="AJ35" s="457"/>
+      <c r="AK35" s="457"/>
+      <c r="AL35" s="457"/>
+      <c r="AM35" s="457"/>
+      <c r="AN35" s="457"/>
+      <c r="AO35" s="458"/>
+      <c r="AP35" s="458"/>
+      <c r="AQ35" s="458"/>
+      <c r="AR35" s="463"/>
+      <c r="AS35" s="463"/>
     </row>
     <row r="36" spans="1:45" s="59" customFormat="1" ht="12" customHeight="1">
       <c r="A36" s="66"/>
       <c r="B36" s="69"/>
-      <c r="C36" s="445" t="s">
+      <c r="C36" s="443" t="s">
         <v>314</v>
       </c>
-      <c r="D36" s="450"/>
-      <c r="E36" s="445" t="s">
+      <c r="D36" s="444"/>
+      <c r="E36" s="443" t="s">
         <v>342</v>
       </c>
-      <c r="F36" s="446"/>
-      <c r="G36" s="445" t="s">
+      <c r="F36" s="488"/>
+      <c r="G36" s="443" t="s">
         <v>370</v>
       </c>
-      <c r="H36" s="450"/>
-      <c r="I36" s="446"/>
-      <c r="J36" s="450" t="s">
+      <c r="H36" s="444"/>
+      <c r="I36" s="488"/>
+      <c r="J36" s="444" t="s">
         <v>398</v>
       </c>
-      <c r="K36" s="450"/>
-      <c r="L36" s="452" t="s">
+      <c r="K36" s="444"/>
+      <c r="L36" s="445" t="s">
         <v>426</v>
       </c>
-      <c r="M36" s="473"/>
-      <c r="N36" s="453"/>
-      <c r="O36" s="450" t="s">
+      <c r="M36" s="446"/>
+      <c r="N36" s="447"/>
+      <c r="O36" s="444" t="s">
         <v>450</v>
       </c>
-      <c r="P36" s="450"/>
+      <c r="P36" s="444"/>
       <c r="Q36" s="69"/>
       <c r="R36" s="164"/>
       <c r="S36" s="210"/>
@@ -9409,37 +9454,37 @@
         <v>76</v>
       </c>
       <c r="AF37" s="122"/>
-      <c r="AG37" s="509"/>
-      <c r="AH37" s="509"/>
-      <c r="AI37" s="509"/>
-      <c r="AJ37" s="506"/>
-      <c r="AK37" s="506"/>
+      <c r="AG37" s="459"/>
+      <c r="AH37" s="459"/>
+      <c r="AI37" s="459"/>
+      <c r="AJ37" s="460"/>
+      <c r="AK37" s="460"/>
       <c r="AL37" s="121"/>
       <c r="AM37" s="122"/>
       <c r="AN37" s="123"/>
       <c r="AO37" s="122"/>
-      <c r="AP37" s="512"/>
-      <c r="AQ37" s="512"/>
+      <c r="AP37" s="464"/>
+      <c r="AQ37" s="464"/>
       <c r="AR37" s="122"/>
       <c r="AS37" s="121"/>
     </row>
     <row r="38" spans="1:45" s="59" customFormat="1" ht="12" customHeight="1">
       <c r="A38" s="66"/>
-      <c r="B38" s="516" t="s">
+      <c r="B38" s="432" t="s">
         <v>457</v>
       </c>
       <c r="C38" s="428" t="s">
         <v>519</v>
       </c>
-      <c r="D38" s="483" t="s">
+      <c r="D38" s="485" t="s">
         <v>317</v>
       </c>
-      <c r="E38" s="484"/>
-      <c r="F38" s="485"/>
-      <c r="G38" s="481" t="s">
+      <c r="E38" s="486"/>
+      <c r="F38" s="487"/>
+      <c r="G38" s="448" t="s">
         <v>520</v>
       </c>
-      <c r="H38" s="482"/>
+      <c r="H38" s="449"/>
       <c r="I38" s="395" t="s">
         <v>345</v>
       </c>
@@ -9452,17 +9497,17 @@
       <c r="L38" s="429" t="s">
         <v>522</v>
       </c>
-      <c r="M38" s="479" t="s">
+      <c r="M38" s="489" t="s">
         <v>401</v>
       </c>
-      <c r="N38" s="480"/>
+      <c r="N38" s="490"/>
       <c r="O38" s="429" t="s">
         <v>523</v>
       </c>
       <c r="P38" s="395" t="s">
         <v>429</v>
       </c>
-      <c r="Q38" s="515" t="s">
+      <c r="Q38" s="431" t="s">
         <v>458</v>
       </c>
       <c r="R38" s="164"/>
@@ -9474,49 +9519,49 @@
       <c r="X38" s="192"/>
       <c r="Y38" s="212"/>
       <c r="Z38" s="192"/>
-      <c r="AF38" s="507"/>
-      <c r="AG38" s="507"/>
-      <c r="AH38" s="507"/>
-      <c r="AI38" s="507"/>
-      <c r="AJ38" s="507"/>
-      <c r="AK38" s="507"/>
-      <c r="AL38" s="507"/>
-      <c r="AM38" s="475"/>
-      <c r="AN38" s="475"/>
-      <c r="AO38" s="475"/>
-      <c r="AP38" s="475"/>
-      <c r="AQ38" s="475"/>
-      <c r="AR38" s="475"/>
-      <c r="AS38" s="475"/>
+      <c r="AF38" s="457"/>
+      <c r="AG38" s="457"/>
+      <c r="AH38" s="457"/>
+      <c r="AI38" s="457"/>
+      <c r="AJ38" s="457"/>
+      <c r="AK38" s="457"/>
+      <c r="AL38" s="457"/>
+      <c r="AM38" s="458"/>
+      <c r="AN38" s="458"/>
+      <c r="AO38" s="458"/>
+      <c r="AP38" s="458"/>
+      <c r="AQ38" s="458"/>
+      <c r="AR38" s="458"/>
+      <c r="AS38" s="458"/>
     </row>
     <row r="39" spans="1:45" s="59" customFormat="1" ht="12" customHeight="1">
       <c r="A39" s="66"/>
-      <c r="B39" s="516"/>
-      <c r="C39" s="445" t="s">
+      <c r="B39" s="432"/>
+      <c r="C39" s="443" t="s">
         <v>318</v>
       </c>
-      <c r="D39" s="450"/>
-      <c r="E39" s="450"/>
-      <c r="F39" s="446"/>
-      <c r="G39" s="445" t="s">
+      <c r="D39" s="444"/>
+      <c r="E39" s="444"/>
+      <c r="F39" s="488"/>
+      <c r="G39" s="443" t="s">
         <v>346</v>
       </c>
-      <c r="H39" s="450"/>
-      <c r="I39" s="446"/>
-      <c r="J39" s="452" t="s">
+      <c r="H39" s="444"/>
+      <c r="I39" s="488"/>
+      <c r="J39" s="445" t="s">
         <v>374</v>
       </c>
-      <c r="K39" s="453"/>
-      <c r="L39" s="452" t="s">
+      <c r="K39" s="447"/>
+      <c r="L39" s="445" t="s">
         <v>402</v>
       </c>
-      <c r="M39" s="473"/>
-      <c r="N39" s="453"/>
-      <c r="O39" s="452" t="s">
+      <c r="M39" s="446"/>
+      <c r="N39" s="447"/>
+      <c r="O39" s="445" t="s">
         <v>430</v>
       </c>
-      <c r="P39" s="453"/>
-      <c r="Q39" s="515"/>
+      <c r="P39" s="447"/>
+      <c r="Q39" s="431"/>
       <c r="R39" s="164"/>
       <c r="S39" s="211"/>
       <c r="T39" s="201" t="s">
@@ -9583,12 +9628,12 @@
       <c r="Q40" s="200"/>
       <c r="R40" s="164"/>
       <c r="S40" s="178"/>
-      <c r="T40" s="491" t="s">
+      <c r="T40" s="435" t="s">
         <v>468</v>
       </c>
-      <c r="U40" s="491"/>
-      <c r="V40" s="491"/>
-      <c r="W40" s="491"/>
+      <c r="U40" s="435"/>
+      <c r="V40" s="435"/>
+      <c r="W40" s="435"/>
       <c r="X40" s="165"/>
       <c r="Y40" s="412" t="s">
         <v>295</v>
@@ -9598,13 +9643,13 @@
       <c r="AG40" s="121"/>
       <c r="AH40" s="122"/>
       <c r="AI40" s="123"/>
-      <c r="AJ40" s="506"/>
-      <c r="AK40" s="506"/>
+      <c r="AJ40" s="460"/>
+      <c r="AK40" s="460"/>
       <c r="AL40" s="121"/>
       <c r="AM40" s="122"/>
       <c r="AN40" s="121"/>
-      <c r="AO40" s="506"/>
-      <c r="AP40" s="506"/>
+      <c r="AO40" s="460"/>
+      <c r="AP40" s="460"/>
       <c r="AQ40" s="121"/>
       <c r="AR40" s="122"/>
       <c r="AS40" s="121"/>
@@ -9624,10 +9669,10 @@
       <c r="F41" s="394" t="s">
         <v>349</v>
       </c>
-      <c r="G41" s="481" t="s">
+      <c r="G41" s="448" t="s">
         <v>526</v>
       </c>
-      <c r="H41" s="482"/>
+      <c r="H41" s="449"/>
       <c r="I41" s="394" t="s">
         <v>377</v>
       </c>
@@ -9637,10 +9682,10 @@
       <c r="K41" s="394" t="s">
         <v>405</v>
       </c>
-      <c r="L41" s="481" t="s">
+      <c r="L41" s="448" t="s">
         <v>528</v>
       </c>
-      <c r="M41" s="482"/>
+      <c r="M41" s="449"/>
       <c r="N41" s="394" t="s">
         <v>433</v>
       </c>
@@ -9660,58 +9705,58 @@
       <c r="X41" s="164"/>
       <c r="Y41" s="413"/>
       <c r="Z41" s="192"/>
-      <c r="AF41" s="475"/>
-      <c r="AG41" s="475"/>
-      <c r="AH41" s="475"/>
-      <c r="AI41" s="475"/>
-      <c r="AJ41" s="475"/>
-      <c r="AK41" s="475"/>
-      <c r="AL41" s="475"/>
-      <c r="AM41" s="507"/>
-      <c r="AN41" s="507"/>
-      <c r="AO41" s="475"/>
-      <c r="AP41" s="475"/>
-      <c r="AQ41" s="475"/>
-      <c r="AR41" s="475"/>
-      <c r="AS41" s="475"/>
+      <c r="AF41" s="458"/>
+      <c r="AG41" s="458"/>
+      <c r="AH41" s="458"/>
+      <c r="AI41" s="458"/>
+      <c r="AJ41" s="458"/>
+      <c r="AK41" s="458"/>
+      <c r="AL41" s="458"/>
+      <c r="AM41" s="457"/>
+      <c r="AN41" s="457"/>
+      <c r="AO41" s="458"/>
+      <c r="AP41" s="458"/>
+      <c r="AQ41" s="458"/>
+      <c r="AR41" s="458"/>
+      <c r="AS41" s="458"/>
     </row>
     <row r="42" spans="1:45" s="59" customFormat="1" ht="12" customHeight="1">
       <c r="A42" s="66"/>
       <c r="B42" s="69"/>
-      <c r="C42" s="445" t="s">
+      <c r="C42" s="443" t="s">
         <v>322</v>
       </c>
-      <c r="D42" s="450"/>
-      <c r="E42" s="445" t="s">
+      <c r="D42" s="444"/>
+      <c r="E42" s="443" t="s">
         <v>350</v>
       </c>
-      <c r="F42" s="450"/>
-      <c r="G42" s="474" t="s">
+      <c r="F42" s="444"/>
+      <c r="G42" s="491" t="s">
         <v>378</v>
       </c>
-      <c r="H42" s="475"/>
-      <c r="I42" s="476"/>
-      <c r="J42" s="445" t="s">
+      <c r="H42" s="458"/>
+      <c r="I42" s="492"/>
+      <c r="J42" s="443" t="s">
         <v>406</v>
       </c>
-      <c r="K42" s="450"/>
-      <c r="L42" s="474" t="s">
+      <c r="K42" s="444"/>
+      <c r="L42" s="491" t="s">
         <v>434</v>
       </c>
-      <c r="M42" s="475"/>
-      <c r="N42" s="476"/>
-      <c r="O42" s="445" t="s">
+      <c r="M42" s="458"/>
+      <c r="N42" s="492"/>
+      <c r="O42" s="443" t="s">
         <v>454</v>
       </c>
-      <c r="P42" s="450"/>
+      <c r="P42" s="444"/>
       <c r="Q42" s="69"/>
       <c r="R42" s="192"/>
       <c r="S42" s="164"/>
-      <c r="T42" s="500" t="s">
+      <c r="T42" s="434" t="s">
         <v>85</v>
       </c>
-      <c r="U42" s="500"/>
-      <c r="V42" s="500"/>
+      <c r="U42" s="434"/>
+      <c r="V42" s="434"/>
       <c r="W42" s="187" t="s">
         <v>32</v>
       </c>
@@ -9779,11 +9824,11 @@
       <c r="Q43" s="69"/>
       <c r="R43" s="192"/>
       <c r="S43" s="164"/>
-      <c r="T43" s="500" t="s">
+      <c r="T43" s="434" t="s">
         <v>285</v>
       </c>
-      <c r="U43" s="500"/>
-      <c r="V43" s="500"/>
+      <c r="U43" s="434"/>
+      <c r="V43" s="434"/>
       <c r="W43" s="187" t="s">
         <v>32</v>
       </c>
@@ -9796,13 +9841,13 @@
       <c r="AG43" s="118"/>
       <c r="AH43" s="118"/>
       <c r="AI43" s="118"/>
-      <c r="AJ43" s="508"/>
-      <c r="AK43" s="508"/>
+      <c r="AJ43" s="456"/>
+      <c r="AK43" s="456"/>
       <c r="AL43" s="119"/>
       <c r="AM43" s="119"/>
       <c r="AN43" s="119"/>
-      <c r="AO43" s="508"/>
-      <c r="AP43" s="508"/>
+      <c r="AO43" s="456"/>
+      <c r="AP43" s="456"/>
       <c r="AQ43" s="119"/>
       <c r="AR43" s="119"/>
       <c r="AS43" s="119"/>
@@ -9818,19 +9863,19 @@
         <v>531</v>
       </c>
       <c r="F44" s="189"/>
-      <c r="G44" s="441" t="s">
+      <c r="G44" s="483" t="s">
         <v>532</v>
       </c>
-      <c r="H44" s="442"/>
+      <c r="H44" s="484"/>
       <c r="I44" s="384"/>
       <c r="J44" s="424" t="s">
         <v>533</v>
       </c>
       <c r="K44" s="190"/>
-      <c r="L44" s="441" t="s">
+      <c r="L44" s="483" t="s">
         <v>534</v>
       </c>
-      <c r="M44" s="442"/>
+      <c r="M44" s="484"/>
       <c r="N44" s="190"/>
       <c r="O44" s="425" t="s">
         <v>535</v>
@@ -9839,11 +9884,11 @@
       <c r="Q44" s="69"/>
       <c r="R44" s="164"/>
       <c r="S44" s="164"/>
-      <c r="T44" s="491" t="s">
+      <c r="T44" s="435" t="s">
         <v>87</v>
       </c>
-      <c r="U44" s="491"/>
-      <c r="V44" s="491"/>
+      <c r="U44" s="435"/>
+      <c r="V44" s="435"/>
       <c r="W44" s="187" t="s">
         <v>32</v>
       </c>
@@ -9855,50 +9900,50 @@
       <c r="AC44" s="59" t="s">
         <v>76</v>
       </c>
-      <c r="AF44" s="507"/>
-      <c r="AG44" s="507"/>
-      <c r="AH44" s="507"/>
-      <c r="AI44" s="507"/>
-      <c r="AJ44" s="507"/>
-      <c r="AK44" s="507"/>
-      <c r="AL44" s="507"/>
-      <c r="AM44" s="507"/>
-      <c r="AN44" s="507"/>
-      <c r="AO44" s="507"/>
-      <c r="AP44" s="507"/>
-      <c r="AQ44" s="507"/>
-      <c r="AR44" s="507"/>
-      <c r="AS44" s="507"/>
+      <c r="AF44" s="457"/>
+      <c r="AG44" s="457"/>
+      <c r="AH44" s="457"/>
+      <c r="AI44" s="457"/>
+      <c r="AJ44" s="457"/>
+      <c r="AK44" s="457"/>
+      <c r="AL44" s="457"/>
+      <c r="AM44" s="457"/>
+      <c r="AN44" s="457"/>
+      <c r="AO44" s="457"/>
+      <c r="AP44" s="457"/>
+      <c r="AQ44" s="457"/>
+      <c r="AR44" s="457"/>
+      <c r="AS44" s="457"/>
     </row>
     <row r="45" spans="1:45" s="59" customFormat="1" ht="12" customHeight="1">
       <c r="A45" s="58"/>
       <c r="B45" s="188"/>
-      <c r="C45" s="436" t="s">
+      <c r="C45" s="441" t="s">
         <v>325</v>
       </c>
-      <c r="D45" s="447"/>
-      <c r="E45" s="436" t="s">
+      <c r="D45" s="442"/>
+      <c r="E45" s="441" t="s">
         <v>353</v>
       </c>
-      <c r="F45" s="447"/>
-      <c r="G45" s="436" t="s">
+      <c r="F45" s="442"/>
+      <c r="G45" s="441" t="s">
         <v>381</v>
       </c>
-      <c r="H45" s="447"/>
-      <c r="I45" s="437"/>
-      <c r="J45" s="436" t="s">
+      <c r="H45" s="442"/>
+      <c r="I45" s="451"/>
+      <c r="J45" s="441" t="s">
         <v>409</v>
       </c>
-      <c r="K45" s="447"/>
-      <c r="L45" s="436" t="s">
+      <c r="K45" s="442"/>
+      <c r="L45" s="441" t="s">
         <v>437</v>
       </c>
-      <c r="M45" s="447"/>
-      <c r="N45" s="437"/>
-      <c r="O45" s="436" t="s">
+      <c r="M45" s="442"/>
+      <c r="N45" s="451"/>
+      <c r="O45" s="441" t="s">
         <v>536</v>
       </c>
-      <c r="P45" s="437"/>
+      <c r="P45" s="451"/>
       <c r="Q45" s="62"/>
       <c r="R45" s="164"/>
       <c r="S45" s="186"/>
@@ -9913,18 +9958,18 @@
     <row r="46" spans="1:45" ht="17.25" customHeight="1">
       <c r="A46" s="20"/>
       <c r="B46" s="214"/>
-      <c r="C46" s="444"/>
-      <c r="D46" s="444"/>
-      <c r="E46" s="444"/>
-      <c r="F46" s="444"/>
-      <c r="G46" s="444"/>
-      <c r="H46" s="444"/>
-      <c r="I46" s="444"/>
-      <c r="J46" s="444"/>
-      <c r="K46" s="444"/>
-      <c r="L46" s="444"/>
-      <c r="M46" s="444"/>
-      <c r="N46" s="444"/>
+      <c r="C46" s="499"/>
+      <c r="D46" s="499"/>
+      <c r="E46" s="499"/>
+      <c r="F46" s="499"/>
+      <c r="G46" s="499"/>
+      <c r="H46" s="499"/>
+      <c r="I46" s="499"/>
+      <c r="J46" s="499"/>
+      <c r="K46" s="499"/>
+      <c r="L46" s="499"/>
+      <c r="M46" s="499"/>
+      <c r="N46" s="499"/>
       <c r="O46" s="209"/>
       <c r="P46" s="207"/>
       <c r="Q46" s="180"/>
@@ -9981,20 +10026,20 @@
       <c r="F48" s="215"/>
       <c r="G48" s="215"/>
       <c r="H48" s="215"/>
-      <c r="I48" s="443"/>
-      <c r="J48" s="443"/>
-      <c r="K48" s="443"/>
-      <c r="L48" s="443"/>
-      <c r="M48" s="454" t="s">
+      <c r="I48" s="519"/>
+      <c r="J48" s="519"/>
+      <c r="K48" s="519"/>
+      <c r="L48" s="519"/>
+      <c r="M48" s="500" t="s">
         <v>40</v>
       </c>
-      <c r="N48" s="455"/>
-      <c r="O48" s="455"/>
-      <c r="P48" s="455"/>
-      <c r="Q48" s="455"/>
-      <c r="R48" s="455"/>
-      <c r="S48" s="455"/>
-      <c r="T48" s="456"/>
+      <c r="N48" s="501"/>
+      <c r="O48" s="501"/>
+      <c r="P48" s="501"/>
+      <c r="Q48" s="501"/>
+      <c r="R48" s="501"/>
+      <c r="S48" s="501"/>
+      <c r="T48" s="502"/>
       <c r="U48" s="408"/>
       <c r="V48" s="408"/>
       <c r="W48" s="408"/>
@@ -10015,22 +10060,22 @@
       <c r="F49" s="217"/>
       <c r="G49" s="217"/>
       <c r="H49" s="218"/>
-      <c r="I49" s="451" t="s">
+      <c r="I49" s="498" t="s">
         <v>470</v>
       </c>
-      <c r="J49" s="451"/>
-      <c r="K49" s="451"/>
-      <c r="L49" s="451"/>
-      <c r="M49" s="457" t="s">
+      <c r="J49" s="498"/>
+      <c r="K49" s="498"/>
+      <c r="L49" s="498"/>
+      <c r="M49" s="503" t="s">
         <v>477</v>
       </c>
-      <c r="N49" s="458"/>
-      <c r="O49" s="458"/>
-      <c r="P49" s="458"/>
-      <c r="Q49" s="458"/>
-      <c r="R49" s="458"/>
-      <c r="S49" s="458"/>
-      <c r="T49" s="459"/>
+      <c r="N49" s="504"/>
+      <c r="O49" s="504"/>
+      <c r="P49" s="504"/>
+      <c r="Q49" s="504"/>
+      <c r="R49" s="504"/>
+      <c r="S49" s="504"/>
+      <c r="T49" s="505"/>
       <c r="U49" s="408"/>
       <c r="V49" s="408"/>
       <c r="W49" s="408"/>
@@ -10051,20 +10096,20 @@
       <c r="F50" s="217"/>
       <c r="G50" s="217"/>
       <c r="H50" s="218"/>
-      <c r="I50" s="451" t="s">
+      <c r="I50" s="498" t="s">
         <v>471</v>
       </c>
-      <c r="J50" s="451"/>
-      <c r="K50" s="451"/>
-      <c r="L50" s="451"/>
-      <c r="M50" s="460"/>
-      <c r="N50" s="461"/>
-      <c r="O50" s="461"/>
-      <c r="P50" s="461"/>
-      <c r="Q50" s="461"/>
-      <c r="R50" s="461"/>
-      <c r="S50" s="461"/>
-      <c r="T50" s="462"/>
+      <c r="J50" s="498"/>
+      <c r="K50" s="498"/>
+      <c r="L50" s="498"/>
+      <c r="M50" s="506"/>
+      <c r="N50" s="507"/>
+      <c r="O50" s="507"/>
+      <c r="P50" s="507"/>
+      <c r="Q50" s="507"/>
+      <c r="R50" s="507"/>
+      <c r="S50" s="507"/>
+      <c r="T50" s="508"/>
       <c r="U50" s="410"/>
       <c r="V50" s="408"/>
       <c r="W50" s="408"/>
@@ -10085,20 +10130,20 @@
       <c r="F51" s="217"/>
       <c r="G51" s="217"/>
       <c r="H51" s="218"/>
-      <c r="I51" s="451" t="s">
+      <c r="I51" s="498" t="s">
         <v>474</v>
       </c>
-      <c r="J51" s="451"/>
-      <c r="K51" s="451"/>
-      <c r="L51" s="451"/>
-      <c r="M51" s="460"/>
-      <c r="N51" s="461"/>
-      <c r="O51" s="461"/>
-      <c r="P51" s="461"/>
-      <c r="Q51" s="461"/>
-      <c r="R51" s="461"/>
-      <c r="S51" s="461"/>
-      <c r="T51" s="462"/>
+      <c r="J51" s="498"/>
+      <c r="K51" s="498"/>
+      <c r="L51" s="498"/>
+      <c r="M51" s="506"/>
+      <c r="N51" s="507"/>
+      <c r="O51" s="507"/>
+      <c r="P51" s="507"/>
+      <c r="Q51" s="507"/>
+      <c r="R51" s="507"/>
+      <c r="S51" s="507"/>
+      <c r="T51" s="508"/>
       <c r="U51" s="410"/>
       <c r="V51" s="408"/>
       <c r="W51" s="408"/>
@@ -10119,20 +10164,20 @@
       <c r="F52" s="217"/>
       <c r="G52" s="217"/>
       <c r="H52" s="218"/>
-      <c r="I52" s="451" t="s">
+      <c r="I52" s="498" t="s">
         <v>473</v>
       </c>
-      <c r="J52" s="451"/>
-      <c r="K52" s="451"/>
-      <c r="L52" s="451"/>
-      <c r="M52" s="460"/>
-      <c r="N52" s="461"/>
-      <c r="O52" s="461"/>
-      <c r="P52" s="461"/>
-      <c r="Q52" s="461"/>
-      <c r="R52" s="461"/>
-      <c r="S52" s="461"/>
-      <c r="T52" s="462"/>
+      <c r="J52" s="498"/>
+      <c r="K52" s="498"/>
+      <c r="L52" s="498"/>
+      <c r="M52" s="506"/>
+      <c r="N52" s="507"/>
+      <c r="O52" s="507"/>
+      <c r="P52" s="507"/>
+      <c r="Q52" s="507"/>
+      <c r="R52" s="507"/>
+      <c r="S52" s="507"/>
+      <c r="T52" s="508"/>
       <c r="U52" s="410"/>
       <c r="V52" s="408"/>
       <c r="W52" s="408"/>
@@ -10153,20 +10198,20 @@
       <c r="F53" s="217"/>
       <c r="G53" s="217"/>
       <c r="H53" s="218"/>
-      <c r="I53" s="451" t="s">
+      <c r="I53" s="498" t="s">
         <v>472</v>
       </c>
-      <c r="J53" s="451"/>
-      <c r="K53" s="451"/>
-      <c r="L53" s="451"/>
-      <c r="M53" s="460"/>
-      <c r="N53" s="461"/>
-      <c r="O53" s="461"/>
-      <c r="P53" s="461"/>
-      <c r="Q53" s="461"/>
-      <c r="R53" s="461"/>
-      <c r="S53" s="461"/>
-      <c r="T53" s="462"/>
+      <c r="J53" s="498"/>
+      <c r="K53" s="498"/>
+      <c r="L53" s="498"/>
+      <c r="M53" s="506"/>
+      <c r="N53" s="507"/>
+      <c r="O53" s="507"/>
+      <c r="P53" s="507"/>
+      <c r="Q53" s="507"/>
+      <c r="R53" s="507"/>
+      <c r="S53" s="507"/>
+      <c r="T53" s="508"/>
       <c r="U53" s="410"/>
       <c r="V53" s="408"/>
       <c r="W53" s="408"/>
@@ -10178,29 +10223,29 @@
     </row>
     <row r="54" spans="1:30" ht="13.2" customHeight="1">
       <c r="A54" s="21"/>
-      <c r="B54" s="438" t="s">
+      <c r="B54" s="516" t="s">
         <v>46</v>
       </c>
-      <c r="C54" s="439"/>
-      <c r="D54" s="439"/>
-      <c r="E54" s="439"/>
-      <c r="F54" s="439"/>
-      <c r="G54" s="439"/>
-      <c r="H54" s="440"/>
-      <c r="I54" s="449" t="s">
+      <c r="C54" s="517"/>
+      <c r="D54" s="517"/>
+      <c r="E54" s="517"/>
+      <c r="F54" s="517"/>
+      <c r="G54" s="517"/>
+      <c r="H54" s="518"/>
+      <c r="I54" s="521" t="s">
         <v>475</v>
       </c>
-      <c r="J54" s="449"/>
-      <c r="K54" s="449"/>
-      <c r="L54" s="449"/>
-      <c r="M54" s="460"/>
-      <c r="N54" s="461"/>
-      <c r="O54" s="461"/>
-      <c r="P54" s="461"/>
-      <c r="Q54" s="461"/>
-      <c r="R54" s="461"/>
-      <c r="S54" s="461"/>
-      <c r="T54" s="462"/>
+      <c r="J54" s="521"/>
+      <c r="K54" s="521"/>
+      <c r="L54" s="521"/>
+      <c r="M54" s="506"/>
+      <c r="N54" s="507"/>
+      <c r="O54" s="507"/>
+      <c r="P54" s="507"/>
+      <c r="Q54" s="507"/>
+      <c r="R54" s="507"/>
+      <c r="S54" s="507"/>
+      <c r="T54" s="508"/>
       <c r="U54" s="410"/>
       <c r="V54" s="408"/>
       <c r="W54" s="408"/>
@@ -10223,18 +10268,18 @@
       <c r="F55" s="222"/>
       <c r="G55" s="222"/>
       <c r="H55" s="223"/>
-      <c r="I55" s="449"/>
-      <c r="J55" s="449"/>
-      <c r="K55" s="449"/>
-      <c r="L55" s="449"/>
-      <c r="M55" s="460"/>
-      <c r="N55" s="461"/>
-      <c r="O55" s="461"/>
-      <c r="P55" s="461"/>
-      <c r="Q55" s="461"/>
-      <c r="R55" s="461"/>
-      <c r="S55" s="461"/>
-      <c r="T55" s="462"/>
+      <c r="I55" s="521"/>
+      <c r="J55" s="521"/>
+      <c r="K55" s="521"/>
+      <c r="L55" s="521"/>
+      <c r="M55" s="506"/>
+      <c r="N55" s="507"/>
+      <c r="O55" s="507"/>
+      <c r="P55" s="507"/>
+      <c r="Q55" s="507"/>
+      <c r="R55" s="507"/>
+      <c r="S55" s="507"/>
+      <c r="T55" s="508"/>
       <c r="U55" s="410"/>
       <c r="V55" s="408"/>
       <c r="W55" s="408"/>
@@ -10257,18 +10302,18 @@
       <c r="F56" s="222"/>
       <c r="G56" s="222"/>
       <c r="H56" s="223"/>
-      <c r="I56" s="449"/>
-      <c r="J56" s="449"/>
-      <c r="K56" s="449"/>
-      <c r="L56" s="449"/>
-      <c r="M56" s="460"/>
-      <c r="N56" s="461"/>
-      <c r="O56" s="461"/>
-      <c r="P56" s="461"/>
-      <c r="Q56" s="461"/>
-      <c r="R56" s="461"/>
-      <c r="S56" s="461"/>
-      <c r="T56" s="462"/>
+      <c r="I56" s="521"/>
+      <c r="J56" s="521"/>
+      <c r="K56" s="521"/>
+      <c r="L56" s="521"/>
+      <c r="M56" s="506"/>
+      <c r="N56" s="507"/>
+      <c r="O56" s="507"/>
+      <c r="P56" s="507"/>
+      <c r="Q56" s="507"/>
+      <c r="R56" s="507"/>
+      <c r="S56" s="507"/>
+      <c r="T56" s="508"/>
       <c r="U56" s="410"/>
       <c r="V56" s="408"/>
       <c r="W56" s="408"/>
@@ -10291,18 +10336,18 @@
       <c r="F57" s="222"/>
       <c r="G57" s="222"/>
       <c r="H57" s="223"/>
-      <c r="I57" s="449"/>
-      <c r="J57" s="449"/>
-      <c r="K57" s="449"/>
-      <c r="L57" s="449"/>
-      <c r="M57" s="460"/>
-      <c r="N57" s="461"/>
-      <c r="O57" s="461"/>
-      <c r="P57" s="461"/>
-      <c r="Q57" s="461"/>
-      <c r="R57" s="461"/>
-      <c r="S57" s="461"/>
-      <c r="T57" s="462"/>
+      <c r="I57" s="521"/>
+      <c r="J57" s="521"/>
+      <c r="K57" s="521"/>
+      <c r="L57" s="521"/>
+      <c r="M57" s="506"/>
+      <c r="N57" s="507"/>
+      <c r="O57" s="507"/>
+      <c r="P57" s="507"/>
+      <c r="Q57" s="507"/>
+      <c r="R57" s="507"/>
+      <c r="S57" s="507"/>
+      <c r="T57" s="508"/>
       <c r="U57" s="410"/>
       <c r="V57" s="408"/>
       <c r="W57" s="408"/>
@@ -10325,18 +10370,18 @@
       <c r="F58" s="222"/>
       <c r="G58" s="222"/>
       <c r="H58" s="223"/>
-      <c r="I58" s="449"/>
-      <c r="J58" s="449"/>
-      <c r="K58" s="449"/>
-      <c r="L58" s="449"/>
-      <c r="M58" s="460"/>
-      <c r="N58" s="461"/>
-      <c r="O58" s="461"/>
-      <c r="P58" s="461"/>
-      <c r="Q58" s="461"/>
-      <c r="R58" s="461"/>
-      <c r="S58" s="461"/>
-      <c r="T58" s="462"/>
+      <c r="I58" s="521"/>
+      <c r="J58" s="521"/>
+      <c r="K58" s="521"/>
+      <c r="L58" s="521"/>
+      <c r="M58" s="506"/>
+      <c r="N58" s="507"/>
+      <c r="O58" s="507"/>
+      <c r="P58" s="507"/>
+      <c r="Q58" s="507"/>
+      <c r="R58" s="507"/>
+      <c r="S58" s="507"/>
+      <c r="T58" s="508"/>
       <c r="U58" s="410"/>
       <c r="V58" s="408"/>
       <c r="W58" s="408"/>
@@ -10359,18 +10404,18 @@
       <c r="F59" s="225"/>
       <c r="G59" s="225"/>
       <c r="H59" s="226"/>
-      <c r="I59" s="449"/>
-      <c r="J59" s="449"/>
-      <c r="K59" s="449"/>
-      <c r="L59" s="449"/>
-      <c r="M59" s="463"/>
-      <c r="N59" s="464"/>
-      <c r="O59" s="464"/>
-      <c r="P59" s="464"/>
-      <c r="Q59" s="464"/>
-      <c r="R59" s="464"/>
-      <c r="S59" s="464"/>
-      <c r="T59" s="465"/>
+      <c r="I59" s="521"/>
+      <c r="J59" s="521"/>
+      <c r="K59" s="521"/>
+      <c r="L59" s="521"/>
+      <c r="M59" s="509"/>
+      <c r="N59" s="510"/>
+      <c r="O59" s="510"/>
+      <c r="P59" s="510"/>
+      <c r="Q59" s="510"/>
+      <c r="R59" s="510"/>
+      <c r="S59" s="510"/>
+      <c r="T59" s="511"/>
       <c r="U59" s="410"/>
       <c r="V59" s="408"/>
       <c r="W59" s="408"/>
@@ -10456,28 +10501,28 @@
       <c r="C62" s="74"/>
       <c r="D62" s="74"/>
       <c r="E62" s="75"/>
-      <c r="F62" s="434" t="s">
+      <c r="F62" s="473" t="s">
         <v>459</v>
       </c>
-      <c r="G62" s="434"/>
-      <c r="H62" s="434"/>
-      <c r="I62" s="434"/>
-      <c r="J62" s="434"/>
-      <c r="K62" s="495"/>
-      <c r="L62" s="495"/>
-      <c r="M62" s="495"/>
-      <c r="N62" s="495"/>
-      <c r="O62" s="495"/>
-      <c r="P62" s="499"/>
-      <c r="Q62" s="499"/>
-      <c r="R62" s="499"/>
-      <c r="S62" s="499"/>
-      <c r="T62" s="499"/>
-      <c r="U62" s="499"/>
-      <c r="V62" s="499"/>
-      <c r="W62" s="499"/>
-      <c r="X62" s="499"/>
-      <c r="Y62" s="499"/>
+      <c r="G62" s="473"/>
+      <c r="H62" s="473"/>
+      <c r="I62" s="473"/>
+      <c r="J62" s="473"/>
+      <c r="K62" s="465"/>
+      <c r="L62" s="465"/>
+      <c r="M62" s="465"/>
+      <c r="N62" s="465"/>
+      <c r="O62" s="465"/>
+      <c r="P62" s="466"/>
+      <c r="Q62" s="466"/>
+      <c r="R62" s="466"/>
+      <c r="S62" s="466"/>
+      <c r="T62" s="466"/>
+      <c r="U62" s="466"/>
+      <c r="V62" s="466"/>
+      <c r="W62" s="466"/>
+      <c r="X62" s="466"/>
+      <c r="Y62" s="466"/>
       <c r="Z62" s="20"/>
       <c r="AA62" s="20"/>
       <c r="AB62" s="20"/>
@@ -10490,37 +10535,37 @@
         <v>52</v>
       </c>
       <c r="C63" s="77"/>
-      <c r="D63" s="430" t="s">
+      <c r="D63" s="512" t="s">
         <v>53</v>
       </c>
-      <c r="E63" s="431"/>
-      <c r="F63" s="434" t="s">
+      <c r="E63" s="513"/>
+      <c r="F63" s="473" t="s">
         <v>460</v>
       </c>
-      <c r="G63" s="434"/>
-      <c r="H63" s="434"/>
-      <c r="I63" s="434"/>
-      <c r="J63" s="434"/>
-      <c r="K63" s="495"/>
-      <c r="L63" s="495"/>
-      <c r="M63" s="495"/>
-      <c r="N63" s="495"/>
-      <c r="O63" s="495"/>
-      <c r="P63" s="495"/>
-      <c r="Q63" s="495"/>
-      <c r="R63" s="495"/>
-      <c r="S63" s="495"/>
-      <c r="T63" s="495"/>
-      <c r="U63" s="495"/>
-      <c r="V63" s="495"/>
-      <c r="W63" s="495"/>
-      <c r="X63" s="495"/>
-      <c r="Y63" s="495"/>
-      <c r="Z63" s="494"/>
-      <c r="AA63" s="494"/>
-      <c r="AB63" s="494"/>
-      <c r="AC63" s="494"/>
-      <c r="AD63" s="494"/>
+      <c r="G63" s="473"/>
+      <c r="H63" s="473"/>
+      <c r="I63" s="473"/>
+      <c r="J63" s="473"/>
+      <c r="K63" s="465"/>
+      <c r="L63" s="465"/>
+      <c r="M63" s="465"/>
+      <c r="N63" s="465"/>
+      <c r="O63" s="465"/>
+      <c r="P63" s="465"/>
+      <c r="Q63" s="465"/>
+      <c r="R63" s="465"/>
+      <c r="S63" s="465"/>
+      <c r="T63" s="465"/>
+      <c r="U63" s="465"/>
+      <c r="V63" s="465"/>
+      <c r="W63" s="465"/>
+      <c r="X63" s="465"/>
+      <c r="Y63" s="465"/>
+      <c r="Z63" s="476"/>
+      <c r="AA63" s="476"/>
+      <c r="AB63" s="476"/>
+      <c r="AC63" s="476"/>
+      <c r="AD63" s="476"/>
     </row>
     <row r="64" spans="1:30" ht="17.25" customHeight="1">
       <c r="A64" s="59"/>
@@ -10530,33 +10575,33 @@
       <c r="C64" s="74"/>
       <c r="D64" s="74"/>
       <c r="E64" s="75"/>
-      <c r="F64" s="434" t="s">
+      <c r="F64" s="473" t="s">
         <v>461</v>
       </c>
-      <c r="G64" s="434"/>
-      <c r="H64" s="434"/>
-      <c r="I64" s="434"/>
-      <c r="J64" s="434"/>
-      <c r="K64" s="495"/>
-      <c r="L64" s="495"/>
-      <c r="M64" s="495"/>
-      <c r="N64" s="495"/>
-      <c r="O64" s="495"/>
-      <c r="P64" s="495"/>
-      <c r="Q64" s="495"/>
-      <c r="R64" s="495"/>
-      <c r="S64" s="495"/>
-      <c r="T64" s="495"/>
-      <c r="U64" s="495"/>
-      <c r="V64" s="495"/>
-      <c r="W64" s="495"/>
-      <c r="X64" s="495"/>
-      <c r="Y64" s="495"/>
-      <c r="Z64" s="494"/>
-      <c r="AA64" s="494"/>
-      <c r="AB64" s="494"/>
-      <c r="AC64" s="494"/>
-      <c r="AD64" s="494"/>
+      <c r="G64" s="473"/>
+      <c r="H64" s="473"/>
+      <c r="I64" s="473"/>
+      <c r="J64" s="473"/>
+      <c r="K64" s="465"/>
+      <c r="L64" s="465"/>
+      <c r="M64" s="465"/>
+      <c r="N64" s="465"/>
+      <c r="O64" s="465"/>
+      <c r="P64" s="465"/>
+      <c r="Q64" s="465"/>
+      <c r="R64" s="465"/>
+      <c r="S64" s="465"/>
+      <c r="T64" s="465"/>
+      <c r="U64" s="465"/>
+      <c r="V64" s="465"/>
+      <c r="W64" s="465"/>
+      <c r="X64" s="465"/>
+      <c r="Y64" s="465"/>
+      <c r="Z64" s="476"/>
+      <c r="AA64" s="476"/>
+      <c r="AB64" s="476"/>
+      <c r="AC64" s="476"/>
+      <c r="AD64" s="476"/>
     </row>
     <row r="65" spans="1:30" ht="17.25" customHeight="1">
       <c r="A65" s="59"/>
@@ -10566,33 +10611,33 @@
       <c r="C65" s="74"/>
       <c r="D65" s="74"/>
       <c r="E65" s="75"/>
-      <c r="F65" s="434" t="s">
+      <c r="F65" s="473" t="s">
         <v>462</v>
       </c>
-      <c r="G65" s="434"/>
-      <c r="H65" s="434"/>
-      <c r="I65" s="434"/>
-      <c r="J65" s="434"/>
-      <c r="K65" s="497"/>
-      <c r="L65" s="497"/>
-      <c r="M65" s="497"/>
-      <c r="N65" s="497"/>
-      <c r="O65" s="497"/>
-      <c r="P65" s="497"/>
-      <c r="Q65" s="497"/>
-      <c r="R65" s="497"/>
-      <c r="S65" s="497"/>
-      <c r="T65" s="497"/>
-      <c r="U65" s="497"/>
-      <c r="V65" s="497"/>
-      <c r="W65" s="497"/>
-      <c r="X65" s="497"/>
-      <c r="Y65" s="497"/>
-      <c r="Z65" s="494"/>
-      <c r="AA65" s="494"/>
-      <c r="AB65" s="494"/>
-      <c r="AC65" s="494"/>
-      <c r="AD65" s="494"/>
+      <c r="G65" s="473"/>
+      <c r="H65" s="473"/>
+      <c r="I65" s="473"/>
+      <c r="J65" s="473"/>
+      <c r="K65" s="474"/>
+      <c r="L65" s="474"/>
+      <c r="M65" s="474"/>
+      <c r="N65" s="474"/>
+      <c r="O65" s="474"/>
+      <c r="P65" s="474"/>
+      <c r="Q65" s="474"/>
+      <c r="R65" s="474"/>
+      <c r="S65" s="474"/>
+      <c r="T65" s="474"/>
+      <c r="U65" s="474"/>
+      <c r="V65" s="474"/>
+      <c r="W65" s="474"/>
+      <c r="X65" s="474"/>
+      <c r="Y65" s="474"/>
+      <c r="Z65" s="476"/>
+      <c r="AA65" s="476"/>
+      <c r="AB65" s="476"/>
+      <c r="AC65" s="476"/>
+      <c r="AD65" s="476"/>
     </row>
     <row r="66" spans="1:30" ht="17.25" customHeight="1">
       <c r="A66" s="59"/>
@@ -10602,69 +10647,69 @@
       <c r="C66" s="74"/>
       <c r="D66" s="74"/>
       <c r="E66" s="75"/>
-      <c r="F66" s="434" t="s">
+      <c r="F66" s="473" t="s">
         <v>463</v>
       </c>
-      <c r="G66" s="434"/>
-      <c r="H66" s="434"/>
-      <c r="I66" s="434"/>
-      <c r="J66" s="434"/>
-      <c r="K66" s="497"/>
-      <c r="L66" s="497"/>
-      <c r="M66" s="497"/>
-      <c r="N66" s="497"/>
-      <c r="O66" s="497"/>
-      <c r="P66" s="497"/>
-      <c r="Q66" s="497"/>
-      <c r="R66" s="497"/>
-      <c r="S66" s="497"/>
-      <c r="T66" s="497"/>
-      <c r="U66" s="497"/>
-      <c r="V66" s="497"/>
-      <c r="W66" s="497"/>
-      <c r="X66" s="497"/>
-      <c r="Y66" s="497"/>
-      <c r="Z66" s="496"/>
-      <c r="AA66" s="496"/>
-      <c r="AB66" s="496"/>
-      <c r="AC66" s="496"/>
-      <c r="AD66" s="496"/>
+      <c r="G66" s="473"/>
+      <c r="H66" s="473"/>
+      <c r="I66" s="473"/>
+      <c r="J66" s="473"/>
+      <c r="K66" s="474"/>
+      <c r="L66" s="474"/>
+      <c r="M66" s="474"/>
+      <c r="N66" s="474"/>
+      <c r="O66" s="474"/>
+      <c r="P66" s="474"/>
+      <c r="Q66" s="474"/>
+      <c r="R66" s="474"/>
+      <c r="S66" s="474"/>
+      <c r="T66" s="474"/>
+      <c r="U66" s="474"/>
+      <c r="V66" s="474"/>
+      <c r="W66" s="474"/>
+      <c r="X66" s="474"/>
+      <c r="Y66" s="474"/>
+      <c r="Z66" s="477"/>
+      <c r="AA66" s="477"/>
+      <c r="AB66" s="477"/>
+      <c r="AC66" s="477"/>
+      <c r="AD66" s="477"/>
     </row>
     <row r="67" spans="1:30" ht="17.25" customHeight="1">
       <c r="A67" s="59"/>
-      <c r="B67" s="448" t="s">
+      <c r="B67" s="520" t="s">
         <v>96</v>
       </c>
-      <c r="C67" s="430"/>
-      <c r="D67" s="430"/>
-      <c r="E67" s="431"/>
-      <c r="F67" s="434" t="s">
+      <c r="C67" s="512"/>
+      <c r="D67" s="512"/>
+      <c r="E67" s="513"/>
+      <c r="F67" s="473" t="s">
         <v>464</v>
       </c>
-      <c r="G67" s="434"/>
-      <c r="H67" s="434"/>
-      <c r="I67" s="434"/>
-      <c r="J67" s="434"/>
-      <c r="K67" s="497"/>
-      <c r="L67" s="497"/>
-      <c r="M67" s="497"/>
-      <c r="N67" s="497"/>
-      <c r="O67" s="497"/>
-      <c r="P67" s="497"/>
-      <c r="Q67" s="497"/>
-      <c r="R67" s="497"/>
-      <c r="S67" s="497"/>
-      <c r="T67" s="497"/>
-      <c r="U67" s="497"/>
-      <c r="V67" s="497"/>
-      <c r="W67" s="497"/>
-      <c r="X67" s="497"/>
-      <c r="Y67" s="497"/>
-      <c r="Z67" s="496"/>
-      <c r="AA67" s="496"/>
-      <c r="AB67" s="496"/>
-      <c r="AC67" s="496"/>
-      <c r="AD67" s="496"/>
+      <c r="G67" s="473"/>
+      <c r="H67" s="473"/>
+      <c r="I67" s="473"/>
+      <c r="J67" s="473"/>
+      <c r="K67" s="474"/>
+      <c r="L67" s="474"/>
+      <c r="M67" s="474"/>
+      <c r="N67" s="474"/>
+      <c r="O67" s="474"/>
+      <c r="P67" s="474"/>
+      <c r="Q67" s="474"/>
+      <c r="R67" s="474"/>
+      <c r="S67" s="474"/>
+      <c r="T67" s="474"/>
+      <c r="U67" s="474"/>
+      <c r="V67" s="474"/>
+      <c r="W67" s="474"/>
+      <c r="X67" s="474"/>
+      <c r="Y67" s="474"/>
+      <c r="Z67" s="477"/>
+      <c r="AA67" s="477"/>
+      <c r="AB67" s="477"/>
+      <c r="AC67" s="477"/>
+      <c r="AD67" s="477"/>
     </row>
     <row r="68" spans="1:30" ht="17.25" customHeight="1">
       <c r="A68" s="59"/>
@@ -10674,28 +10719,28 @@
       <c r="C68" s="74"/>
       <c r="D68" s="74"/>
       <c r="E68" s="75"/>
-      <c r="F68" s="434" t="s">
+      <c r="F68" s="473" t="s">
         <v>465</v>
       </c>
-      <c r="G68" s="434"/>
-      <c r="H68" s="434"/>
-      <c r="I68" s="434"/>
-      <c r="J68" s="434"/>
-      <c r="K68" s="435"/>
-      <c r="L68" s="435"/>
-      <c r="M68" s="435"/>
-      <c r="N68" s="435"/>
-      <c r="O68" s="435"/>
-      <c r="P68" s="435"/>
-      <c r="Q68" s="435"/>
-      <c r="R68" s="435"/>
-      <c r="S68" s="435"/>
-      <c r="T68" s="435"/>
-      <c r="U68" s="435"/>
-      <c r="V68" s="435"/>
-      <c r="W68" s="435"/>
-      <c r="X68" s="435"/>
-      <c r="Y68" s="435"/>
+      <c r="G68" s="473"/>
+      <c r="H68" s="473"/>
+      <c r="I68" s="473"/>
+      <c r="J68" s="473"/>
+      <c r="K68" s="469"/>
+      <c r="L68" s="469"/>
+      <c r="M68" s="469"/>
+      <c r="N68" s="469"/>
+      <c r="O68" s="469"/>
+      <c r="P68" s="469"/>
+      <c r="Q68" s="469"/>
+      <c r="R68" s="469"/>
+      <c r="S68" s="469"/>
+      <c r="T68" s="469"/>
+      <c r="U68" s="469"/>
+      <c r="V68" s="469"/>
+      <c r="W68" s="469"/>
+      <c r="X68" s="469"/>
+      <c r="Y68" s="469"/>
       <c r="Z68" s="404"/>
       <c r="AA68" s="48"/>
       <c r="AB68" s="404"/>
@@ -10710,33 +10755,33 @@
       <c r="C69" s="74"/>
       <c r="D69" s="74"/>
       <c r="E69" s="75"/>
-      <c r="F69" s="434" t="s">
+      <c r="F69" s="473" t="s">
         <v>466</v>
       </c>
-      <c r="G69" s="434"/>
-      <c r="H69" s="434"/>
-      <c r="I69" s="434"/>
-      <c r="J69" s="434"/>
-      <c r="K69" s="498"/>
-      <c r="L69" s="498"/>
-      <c r="M69" s="498"/>
-      <c r="N69" s="498"/>
-      <c r="O69" s="498"/>
-      <c r="P69" s="498"/>
-      <c r="Q69" s="498"/>
-      <c r="R69" s="498"/>
-      <c r="S69" s="498"/>
-      <c r="T69" s="498"/>
-      <c r="U69" s="498"/>
-      <c r="V69" s="498"/>
-      <c r="W69" s="498"/>
-      <c r="X69" s="498"/>
-      <c r="Y69" s="498"/>
-      <c r="Z69" s="494"/>
-      <c r="AA69" s="494"/>
-      <c r="AB69" s="494"/>
-      <c r="AC69" s="494"/>
-      <c r="AD69" s="494"/>
+      <c r="G69" s="473"/>
+      <c r="H69" s="473"/>
+      <c r="I69" s="473"/>
+      <c r="J69" s="473"/>
+      <c r="K69" s="475"/>
+      <c r="L69" s="475"/>
+      <c r="M69" s="475"/>
+      <c r="N69" s="475"/>
+      <c r="O69" s="475"/>
+      <c r="P69" s="475"/>
+      <c r="Q69" s="475"/>
+      <c r="R69" s="475"/>
+      <c r="S69" s="475"/>
+      <c r="T69" s="475"/>
+      <c r="U69" s="475"/>
+      <c r="V69" s="475"/>
+      <c r="W69" s="475"/>
+      <c r="X69" s="475"/>
+      <c r="Y69" s="475"/>
+      <c r="Z69" s="476"/>
+      <c r="AA69" s="476"/>
+      <c r="AB69" s="476"/>
+      <c r="AC69" s="476"/>
+      <c r="AD69" s="476"/>
     </row>
     <row r="70" spans="1:30" ht="13.5" customHeight="1">
       <c r="A70" s="59"/>
@@ -10746,27 +10791,27 @@
       <c r="C70" s="74"/>
       <c r="D70" s="74"/>
       <c r="E70" s="75"/>
-      <c r="F70" s="503" t="s">
+      <c r="F70" s="470" t="s">
         <v>467</v>
       </c>
-      <c r="G70" s="504"/>
-      <c r="H70" s="504"/>
-      <c r="I70" s="504"/>
-      <c r="J70" s="505"/>
+      <c r="G70" s="471"/>
+      <c r="H70" s="471"/>
+      <c r="I70" s="471"/>
+      <c r="J70" s="472"/>
       <c r="K70" s="166"/>
-      <c r="L70" s="495"/>
-      <c r="M70" s="495"/>
-      <c r="N70" s="495"/>
+      <c r="L70" s="465"/>
+      <c r="M70" s="465"/>
+      <c r="N70" s="465"/>
       <c r="O70" s="166"/>
       <c r="P70" s="166"/>
-      <c r="Q70" s="495"/>
-      <c r="R70" s="495"/>
-      <c r="S70" s="495"/>
+      <c r="Q70" s="465"/>
+      <c r="R70" s="465"/>
+      <c r="S70" s="465"/>
       <c r="T70" s="166"/>
       <c r="U70" s="166"/>
-      <c r="V70" s="495"/>
-      <c r="W70" s="495"/>
-      <c r="X70" s="495"/>
+      <c r="V70" s="465"/>
+      <c r="W70" s="465"/>
+      <c r="X70" s="465"/>
       <c r="Y70" s="166"/>
       <c r="Z70" s="20"/>
       <c r="AA70" s="20"/>
@@ -10812,10 +10857,10 @@
       <c r="N72" s="23"/>
     </row>
     <row r="73" spans="1:30" ht="17.25" customHeight="1">
-      <c r="J73" s="501"/>
-      <c r="K73" s="502"/>
-      <c r="L73" s="502"/>
-      <c r="M73" s="502"/>
+      <c r="J73" s="467"/>
+      <c r="K73" s="468"/>
+      <c r="L73" s="468"/>
+      <c r="M73" s="468"/>
       <c r="W73" s="24"/>
     </row>
     <row r="75" spans="1:30" ht="17.25" customHeight="1">
@@ -10826,6 +10871,195 @@
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
   <mergeCells count="213">
+    <mergeCell ref="D63:E63"/>
+    <mergeCell ref="D5:H5"/>
+    <mergeCell ref="F68:J68"/>
+    <mergeCell ref="K68:O68"/>
+    <mergeCell ref="O34:P34"/>
+    <mergeCell ref="B54:H54"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="F62:J62"/>
+    <mergeCell ref="F64:J64"/>
+    <mergeCell ref="F63:J63"/>
+    <mergeCell ref="F65:J65"/>
+    <mergeCell ref="I48:L48"/>
+    <mergeCell ref="P68:T68"/>
+    <mergeCell ref="C46:F46"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="B67:E67"/>
+    <mergeCell ref="F67:J67"/>
+    <mergeCell ref="I54:L59"/>
+    <mergeCell ref="O36:P36"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="I49:L49"/>
+    <mergeCell ref="I50:L50"/>
+    <mergeCell ref="I51:L51"/>
+    <mergeCell ref="I52:L52"/>
+    <mergeCell ref="I53:L53"/>
+    <mergeCell ref="O39:P39"/>
+    <mergeCell ref="O42:P42"/>
+    <mergeCell ref="L45:N45"/>
+    <mergeCell ref="I46:J46"/>
+    <mergeCell ref="G45:I45"/>
+    <mergeCell ref="M46:N46"/>
+    <mergeCell ref="J45:K45"/>
+    <mergeCell ref="K46:L46"/>
+    <mergeCell ref="O45:P45"/>
+    <mergeCell ref="M48:T48"/>
+    <mergeCell ref="M49:T59"/>
+    <mergeCell ref="D4:H4"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="J7:N7"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="L16:N16"/>
+    <mergeCell ref="L21:N21"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="L24:N24"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="G42:I42"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="L36:N36"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="J42:K42"/>
+    <mergeCell ref="M38:N38"/>
+    <mergeCell ref="L42:N42"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="G39:I39"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="C39:F39"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="T15:W15"/>
+    <mergeCell ref="P12:Z12"/>
+    <mergeCell ref="Y10:Z10"/>
+    <mergeCell ref="W11:Z11"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="T16:W16"/>
+    <mergeCell ref="T24:W24"/>
+    <mergeCell ref="O24:P24"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="Y16:Z16"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="L27:N27"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="Z64:AD64"/>
+    <mergeCell ref="U64:Y64"/>
+    <mergeCell ref="P64:T64"/>
+    <mergeCell ref="Z69:AD69"/>
+    <mergeCell ref="Z67:AD67"/>
+    <mergeCell ref="P63:T63"/>
+    <mergeCell ref="U65:Y65"/>
+    <mergeCell ref="U66:Y66"/>
+    <mergeCell ref="Z65:AD65"/>
+    <mergeCell ref="Z66:AD66"/>
+    <mergeCell ref="Z63:AD63"/>
+    <mergeCell ref="U69:Y69"/>
+    <mergeCell ref="U67:Y67"/>
+    <mergeCell ref="P67:T67"/>
+    <mergeCell ref="K63:O63"/>
+    <mergeCell ref="K64:O64"/>
+    <mergeCell ref="P62:T62"/>
+    <mergeCell ref="V70:X70"/>
+    <mergeCell ref="T43:V43"/>
+    <mergeCell ref="T44:V44"/>
+    <mergeCell ref="J73:M73"/>
+    <mergeCell ref="U68:Y68"/>
+    <mergeCell ref="U62:Y62"/>
+    <mergeCell ref="U63:Y63"/>
+    <mergeCell ref="F70:J70"/>
+    <mergeCell ref="F66:J66"/>
+    <mergeCell ref="F69:J69"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="K67:O67"/>
+    <mergeCell ref="L70:N70"/>
+    <mergeCell ref="K69:O69"/>
+    <mergeCell ref="K65:O65"/>
+    <mergeCell ref="K66:O66"/>
+    <mergeCell ref="P69:T69"/>
+    <mergeCell ref="P65:T65"/>
+    <mergeCell ref="P66:T66"/>
+    <mergeCell ref="Q70:S70"/>
+    <mergeCell ref="K62:O62"/>
+    <mergeCell ref="AO40:AP40"/>
+    <mergeCell ref="AO41:AQ41"/>
+    <mergeCell ref="AF38:AI38"/>
+    <mergeCell ref="AJ38:AL38"/>
+    <mergeCell ref="AM38:AN38"/>
+    <mergeCell ref="AO38:AQ38"/>
+    <mergeCell ref="AH41:AI41"/>
+    <mergeCell ref="AJ41:AL41"/>
+    <mergeCell ref="AM41:AN41"/>
+    <mergeCell ref="AR44:AS44"/>
+    <mergeCell ref="AJ43:AK43"/>
+    <mergeCell ref="AO43:AP43"/>
+    <mergeCell ref="AF44:AG44"/>
+    <mergeCell ref="AH44:AI44"/>
+    <mergeCell ref="AR41:AS41"/>
+    <mergeCell ref="AJ44:AL44"/>
+    <mergeCell ref="AM44:AN44"/>
+    <mergeCell ref="AO44:AQ44"/>
+    <mergeCell ref="AO32:AP32"/>
+    <mergeCell ref="AF33:AG33"/>
+    <mergeCell ref="AH33:AI33"/>
+    <mergeCell ref="AJ33:AL33"/>
+    <mergeCell ref="AM33:AN33"/>
+    <mergeCell ref="AO33:AQ33"/>
+    <mergeCell ref="O16:P16"/>
+    <mergeCell ref="AR38:AS38"/>
+    <mergeCell ref="AF41:AG41"/>
+    <mergeCell ref="AG37:AI37"/>
+    <mergeCell ref="AJ37:AK37"/>
+    <mergeCell ref="AJ32:AK32"/>
+    <mergeCell ref="Y32:Z32"/>
+    <mergeCell ref="AR33:AS33"/>
+    <mergeCell ref="AJ34:AK34"/>
+    <mergeCell ref="AO34:AP34"/>
+    <mergeCell ref="AF35:AG35"/>
+    <mergeCell ref="AH35:AI35"/>
+    <mergeCell ref="AJ35:AL35"/>
+    <mergeCell ref="AM35:AN35"/>
+    <mergeCell ref="AO35:AQ35"/>
+    <mergeCell ref="AR35:AS35"/>
+    <mergeCell ref="AP37:AQ37"/>
+    <mergeCell ref="AJ40:AK40"/>
+    <mergeCell ref="O27:P27"/>
+    <mergeCell ref="T31:W31"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="J39:K39"/>
+    <mergeCell ref="L39:N39"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="L34:N34"/>
+    <mergeCell ref="T32:W32"/>
+    <mergeCell ref="G34:I34"/>
+    <mergeCell ref="J27:K27"/>
     <mergeCell ref="L3:O3"/>
     <mergeCell ref="Q20:Q21"/>
     <mergeCell ref="B20:B21"/>
@@ -10850,195 +11084,6 @@
     <mergeCell ref="T20:W20"/>
     <mergeCell ref="V7:Z7"/>
     <mergeCell ref="L33:M33"/>
-    <mergeCell ref="O27:P27"/>
-    <mergeCell ref="T31:W31"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="J39:K39"/>
-    <mergeCell ref="L39:N39"/>
-    <mergeCell ref="L35:M35"/>
-    <mergeCell ref="L34:N34"/>
-    <mergeCell ref="T32:W32"/>
-    <mergeCell ref="G34:I34"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="AO32:AP32"/>
-    <mergeCell ref="AF33:AG33"/>
-    <mergeCell ref="AH33:AI33"/>
-    <mergeCell ref="AJ33:AL33"/>
-    <mergeCell ref="AM33:AN33"/>
-    <mergeCell ref="AO33:AQ33"/>
-    <mergeCell ref="O16:P16"/>
-    <mergeCell ref="AR38:AS38"/>
-    <mergeCell ref="AF41:AG41"/>
-    <mergeCell ref="AG37:AI37"/>
-    <mergeCell ref="AJ37:AK37"/>
-    <mergeCell ref="AJ32:AK32"/>
-    <mergeCell ref="Y32:Z32"/>
-    <mergeCell ref="AR33:AS33"/>
-    <mergeCell ref="AJ34:AK34"/>
-    <mergeCell ref="AO34:AP34"/>
-    <mergeCell ref="AF35:AG35"/>
-    <mergeCell ref="AH35:AI35"/>
-    <mergeCell ref="AJ35:AL35"/>
-    <mergeCell ref="AM35:AN35"/>
-    <mergeCell ref="AO35:AQ35"/>
-    <mergeCell ref="AR35:AS35"/>
-    <mergeCell ref="AP37:AQ37"/>
-    <mergeCell ref="AJ40:AK40"/>
-    <mergeCell ref="AR44:AS44"/>
-    <mergeCell ref="AJ43:AK43"/>
-    <mergeCell ref="AO43:AP43"/>
-    <mergeCell ref="AF44:AG44"/>
-    <mergeCell ref="AH44:AI44"/>
-    <mergeCell ref="AR41:AS41"/>
-    <mergeCell ref="AJ44:AL44"/>
-    <mergeCell ref="AM44:AN44"/>
-    <mergeCell ref="AO44:AQ44"/>
-    <mergeCell ref="AO40:AP40"/>
-    <mergeCell ref="AO41:AQ41"/>
-    <mergeCell ref="AF38:AI38"/>
-    <mergeCell ref="AJ38:AL38"/>
-    <mergeCell ref="AM38:AN38"/>
-    <mergeCell ref="AO38:AQ38"/>
-    <mergeCell ref="AH41:AI41"/>
-    <mergeCell ref="AJ41:AL41"/>
-    <mergeCell ref="AM41:AN41"/>
-    <mergeCell ref="K63:O63"/>
-    <mergeCell ref="K64:O64"/>
-    <mergeCell ref="P62:T62"/>
-    <mergeCell ref="V70:X70"/>
-    <mergeCell ref="T43:V43"/>
-    <mergeCell ref="T44:V44"/>
-    <mergeCell ref="J73:M73"/>
-    <mergeCell ref="U68:Y68"/>
-    <mergeCell ref="U62:Y62"/>
-    <mergeCell ref="U63:Y63"/>
-    <mergeCell ref="F70:J70"/>
-    <mergeCell ref="F66:J66"/>
-    <mergeCell ref="F69:J69"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="K67:O67"/>
-    <mergeCell ref="L70:N70"/>
-    <mergeCell ref="K69:O69"/>
-    <mergeCell ref="K65:O65"/>
-    <mergeCell ref="K66:O66"/>
-    <mergeCell ref="P69:T69"/>
-    <mergeCell ref="P65:T65"/>
-    <mergeCell ref="P66:T66"/>
-    <mergeCell ref="Q70:S70"/>
-    <mergeCell ref="K62:O62"/>
-    <mergeCell ref="Z64:AD64"/>
-    <mergeCell ref="U64:Y64"/>
-    <mergeCell ref="P64:T64"/>
-    <mergeCell ref="Z69:AD69"/>
-    <mergeCell ref="Z67:AD67"/>
-    <mergeCell ref="P63:T63"/>
-    <mergeCell ref="U65:Y65"/>
-    <mergeCell ref="U66:Y66"/>
-    <mergeCell ref="Z65:AD65"/>
-    <mergeCell ref="Z66:AD66"/>
-    <mergeCell ref="Z63:AD63"/>
-    <mergeCell ref="U69:Y69"/>
-    <mergeCell ref="U67:Y67"/>
-    <mergeCell ref="P67:T67"/>
-    <mergeCell ref="O18:P18"/>
-    <mergeCell ref="T15:W15"/>
-    <mergeCell ref="P12:Z12"/>
-    <mergeCell ref="Y10:Z10"/>
-    <mergeCell ref="W11:Z11"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="T16:W16"/>
-    <mergeCell ref="T24:W24"/>
-    <mergeCell ref="O24:P24"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="Y16:Z16"/>
-    <mergeCell ref="L26:M26"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="L27:N27"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="G42:I42"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="L36:N36"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="J42:K42"/>
-    <mergeCell ref="M38:N38"/>
-    <mergeCell ref="L42:N42"/>
-    <mergeCell ref="L41:M41"/>
-    <mergeCell ref="G39:I39"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="J36:K36"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="C39:F39"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="D4:H4"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="J7:N7"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="L16:N16"/>
-    <mergeCell ref="L21:N21"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="L24:N24"/>
-    <mergeCell ref="I51:L51"/>
-    <mergeCell ref="I52:L52"/>
-    <mergeCell ref="I53:L53"/>
-    <mergeCell ref="O39:P39"/>
-    <mergeCell ref="O42:P42"/>
-    <mergeCell ref="L45:N45"/>
-    <mergeCell ref="I46:J46"/>
-    <mergeCell ref="G45:I45"/>
-    <mergeCell ref="M46:N46"/>
-    <mergeCell ref="J45:K45"/>
-    <mergeCell ref="K46:L46"/>
-    <mergeCell ref="O45:P45"/>
-    <mergeCell ref="M48:T48"/>
-    <mergeCell ref="M49:T59"/>
-    <mergeCell ref="D63:E63"/>
-    <mergeCell ref="D5:H5"/>
-    <mergeCell ref="F68:J68"/>
-    <mergeCell ref="K68:O68"/>
-    <mergeCell ref="O34:P34"/>
-    <mergeCell ref="B54:H54"/>
-    <mergeCell ref="G44:H44"/>
-    <mergeCell ref="F62:J62"/>
-    <mergeCell ref="F64:J64"/>
-    <mergeCell ref="F63:J63"/>
-    <mergeCell ref="F65:J65"/>
-    <mergeCell ref="I48:L48"/>
-    <mergeCell ref="P68:T68"/>
-    <mergeCell ref="C46:F46"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="G46:H46"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="B67:E67"/>
-    <mergeCell ref="F67:J67"/>
-    <mergeCell ref="I54:L59"/>
-    <mergeCell ref="O36:P36"/>
-    <mergeCell ref="L44:M44"/>
-    <mergeCell ref="I49:L49"/>
-    <mergeCell ref="I50:L50"/>
   </mergeCells>
   <phoneticPr fontId="21" type="noConversion"/>
   <dataValidations count="1">
@@ -11441,8 +11486,8 @@
       <c r="D37" s="201"/>
       <c r="E37" s="201"/>
       <c r="F37" s="201"/>
-      <c r="H37" s="544"/>
-      <c r="I37" s="545"/>
+      <c r="H37" s="528"/>
+      <c r="I37" s="529"/>
       <c r="J37" s="164" t="s">
         <v>132</v>
       </c>
@@ -11498,13 +11543,13 @@
       <c r="K39" s="165" t="s">
         <v>140</v>
       </c>
-      <c r="L39" s="559" t="s">
+      <c r="L39" s="525" t="s">
         <v>244</v>
       </c>
-      <c r="M39" s="559"/>
-      <c r="N39" s="559"/>
-      <c r="O39" s="559"/>
-      <c r="P39" s="559"/>
+      <c r="M39" s="525"/>
+      <c r="N39" s="525"/>
+      <c r="O39" s="525"/>
+      <c r="P39" s="525"/>
       <c r="Q39" s="164"/>
       <c r="R39" s="239"/>
       <c r="S39" s="164" t="s">
@@ -11528,14 +11573,14 @@
       </c>
       <c r="I40" s="164"/>
       <c r="J40" s="164"/>
-      <c r="K40" s="546"/>
-      <c r="L40" s="547"/>
-      <c r="M40" s="548" t="s">
+      <c r="K40" s="526"/>
+      <c r="L40" s="527"/>
+      <c r="M40" s="530" t="s">
         <v>143</v>
       </c>
-      <c r="N40" s="548"/>
-      <c r="O40" s="546"/>
-      <c r="P40" s="547"/>
+      <c r="N40" s="530"/>
+      <c r="O40" s="526"/>
+      <c r="P40" s="527"/>
       <c r="Q40" s="236" t="s">
         <v>144</v>
       </c>
@@ -11574,9 +11619,9 @@
       </c>
       <c r="P41" s="165"/>
       <c r="Q41" s="164"/>
-      <c r="R41" s="556"/>
-      <c r="S41" s="557"/>
-      <c r="T41" s="558"/>
+      <c r="R41" s="522"/>
+      <c r="S41" s="523"/>
+      <c r="T41" s="524"/>
       <c r="U41" s="201"/>
       <c r="V41" s="201"/>
       <c r="W41" s="201"/>
@@ -11636,19 +11681,19 @@
       </c>
       <c r="C44" s="185"/>
       <c r="E44" s="183"/>
-      <c r="F44" s="546" t="s">
+      <c r="F44" s="526" t="s">
         <v>245</v>
       </c>
-      <c r="G44" s="547"/>
-      <c r="H44" s="551"/>
-      <c r="I44" s="547"/>
+      <c r="G44" s="527"/>
+      <c r="H44" s="534"/>
+      <c r="I44" s="527"/>
       <c r="J44" s="183"/>
-      <c r="K44" s="546" t="s">
+      <c r="K44" s="526" t="s">
         <v>246</v>
       </c>
-      <c r="L44" s="547"/>
-      <c r="M44" s="546"/>
-      <c r="N44" s="547"/>
+      <c r="L44" s="527"/>
+      <c r="M44" s="526"/>
+      <c r="N44" s="527"/>
       <c r="O44" s="201"/>
       <c r="P44" s="165"/>
       <c r="Q44" s="164"/>
@@ -11665,19 +11710,19 @@
         <v>152</v>
       </c>
       <c r="E45" s="183"/>
-      <c r="F45" s="546" t="s">
+      <c r="F45" s="526" t="s">
         <v>245</v>
       </c>
-      <c r="G45" s="547"/>
-      <c r="H45" s="546"/>
-      <c r="I45" s="547"/>
+      <c r="G45" s="527"/>
+      <c r="H45" s="526"/>
+      <c r="I45" s="527"/>
       <c r="J45" s="183"/>
-      <c r="K45" s="546" t="s">
+      <c r="K45" s="526" t="s">
         <v>246</v>
       </c>
-      <c r="L45" s="547"/>
-      <c r="M45" s="549"/>
-      <c r="N45" s="550"/>
+      <c r="L45" s="527"/>
+      <c r="M45" s="532"/>
+      <c r="N45" s="533"/>
       <c r="O45" s="201"/>
       <c r="P45" s="165"/>
       <c r="Q45" s="164"/>
@@ -11769,18 +11814,18 @@
       <c r="E49" s="183"/>
       <c r="F49" s="183"/>
       <c r="G49" s="237"/>
-      <c r="H49" s="552"/>
-      <c r="I49" s="553"/>
+      <c r="H49" s="535"/>
+      <c r="I49" s="536"/>
       <c r="J49" s="164" t="s">
         <v>132</v>
       </c>
       <c r="K49" s="165"/>
-      <c r="L49" s="546" t="s">
+      <c r="L49" s="526" t="s">
         <v>247</v>
       </c>
-      <c r="M49" s="547"/>
-      <c r="N49" s="546"/>
-      <c r="O49" s="547"/>
+      <c r="M49" s="527"/>
+      <c r="N49" s="526"/>
+      <c r="O49" s="527"/>
       <c r="P49" s="165"/>
       <c r="Q49" s="164"/>
       <c r="R49" s="201"/>
@@ -11792,22 +11837,22 @@
       <c r="X49" s="201"/>
     </row>
     <row r="50" spans="2:24" ht="19.5" customHeight="1">
-      <c r="B50" s="554" t="s">
+      <c r="B50" s="539" t="s">
         <v>263</v>
       </c>
-      <c r="C50" s="554"/>
-      <c r="D50" s="554"/>
-      <c r="E50" s="554"/>
-      <c r="F50" s="554"/>
-      <c r="G50" s="554"/>
-      <c r="H50" s="554"/>
-      <c r="I50" s="552"/>
-      <c r="J50" s="555"/>
-      <c r="K50" s="555"/>
-      <c r="L50" s="555"/>
-      <c r="M50" s="555"/>
-      <c r="N50" s="555"/>
-      <c r="O50" s="553"/>
+      <c r="C50" s="539"/>
+      <c r="D50" s="539"/>
+      <c r="E50" s="539"/>
+      <c r="F50" s="539"/>
+      <c r="G50" s="539"/>
+      <c r="H50" s="539"/>
+      <c r="I50" s="535"/>
+      <c r="J50" s="540"/>
+      <c r="K50" s="540"/>
+      <c r="L50" s="540"/>
+      <c r="M50" s="540"/>
+      <c r="N50" s="540"/>
+      <c r="O50" s="536"/>
       <c r="P50" s="227"/>
       <c r="S50" s="227"/>
     </row>
@@ -11829,69 +11874,69 @@
       <c r="S51" s="227"/>
     </row>
     <row r="52" spans="2:24" ht="21.75" customHeight="1">
-      <c r="B52" s="522"/>
-      <c r="C52" s="523"/>
-      <c r="D52" s="523"/>
-      <c r="E52" s="523"/>
-      <c r="F52" s="523"/>
-      <c r="G52" s="523"/>
-      <c r="H52" s="523"/>
-      <c r="I52" s="523"/>
-      <c r="J52" s="523"/>
-      <c r="K52" s="523"/>
-      <c r="L52" s="523"/>
-      <c r="M52" s="523"/>
-      <c r="N52" s="523"/>
-      <c r="O52" s="523"/>
-      <c r="P52" s="523"/>
-      <c r="Q52" s="523"/>
-      <c r="R52" s="523"/>
-      <c r="S52" s="523"/>
-      <c r="T52" s="524"/>
+      <c r="B52" s="554"/>
+      <c r="C52" s="555"/>
+      <c r="D52" s="555"/>
+      <c r="E52" s="555"/>
+      <c r="F52" s="555"/>
+      <c r="G52" s="555"/>
+      <c r="H52" s="555"/>
+      <c r="I52" s="555"/>
+      <c r="J52" s="555"/>
+      <c r="K52" s="555"/>
+      <c r="L52" s="555"/>
+      <c r="M52" s="555"/>
+      <c r="N52" s="555"/>
+      <c r="O52" s="555"/>
+      <c r="P52" s="555"/>
+      <c r="Q52" s="555"/>
+      <c r="R52" s="555"/>
+      <c r="S52" s="555"/>
+      <c r="T52" s="556"/>
     </row>
     <row r="53" spans="2:24" ht="26.25" customHeight="1">
-      <c r="B53" s="525" t="s">
+      <c r="B53" s="557" t="s">
         <v>265</v>
       </c>
-      <c r="C53" s="525"/>
-      <c r="D53" s="525"/>
-      <c r="E53" s="525"/>
-      <c r="F53" s="525"/>
-      <c r="G53" s="525"/>
-      <c r="H53" s="525"/>
-      <c r="I53" s="525"/>
-      <c r="J53" s="525"/>
-      <c r="K53" s="525"/>
-      <c r="L53" s="525"/>
-      <c r="M53" s="525"/>
-      <c r="N53" s="525"/>
-      <c r="O53" s="525"/>
-      <c r="P53" s="525"/>
-      <c r="Q53" s="525"/>
-      <c r="R53" s="525"/>
-      <c r="S53" s="525"/>
-      <c r="T53" s="525"/>
+      <c r="C53" s="557"/>
+      <c r="D53" s="557"/>
+      <c r="E53" s="557"/>
+      <c r="F53" s="557"/>
+      <c r="G53" s="557"/>
+      <c r="H53" s="557"/>
+      <c r="I53" s="557"/>
+      <c r="J53" s="557"/>
+      <c r="K53" s="557"/>
+      <c r="L53" s="557"/>
+      <c r="M53" s="557"/>
+      <c r="N53" s="557"/>
+      <c r="O53" s="557"/>
+      <c r="P53" s="557"/>
+      <c r="Q53" s="557"/>
+      <c r="R53" s="557"/>
+      <c r="S53" s="557"/>
+      <c r="T53" s="557"/>
     </row>
     <row r="54" spans="2:24" ht="21.75" customHeight="1">
-      <c r="B54" s="522"/>
-      <c r="C54" s="523"/>
-      <c r="D54" s="523"/>
-      <c r="E54" s="523"/>
-      <c r="F54" s="523"/>
-      <c r="G54" s="523"/>
-      <c r="H54" s="523"/>
-      <c r="I54" s="523"/>
-      <c r="J54" s="523"/>
-      <c r="K54" s="523"/>
-      <c r="L54" s="523"/>
-      <c r="M54" s="523"/>
-      <c r="N54" s="523"/>
-      <c r="O54" s="523"/>
-      <c r="P54" s="523"/>
-      <c r="Q54" s="523"/>
-      <c r="R54" s="523"/>
-      <c r="S54" s="523"/>
-      <c r="T54" s="524"/>
+      <c r="B54" s="554"/>
+      <c r="C54" s="555"/>
+      <c r="D54" s="555"/>
+      <c r="E54" s="555"/>
+      <c r="F54" s="555"/>
+      <c r="G54" s="555"/>
+      <c r="H54" s="555"/>
+      <c r="I54" s="555"/>
+      <c r="J54" s="555"/>
+      <c r="K54" s="555"/>
+      <c r="L54" s="555"/>
+      <c r="M54" s="555"/>
+      <c r="N54" s="555"/>
+      <c r="O54" s="555"/>
+      <c r="P54" s="555"/>
+      <c r="Q54" s="555"/>
+      <c r="R54" s="555"/>
+      <c r="S54" s="555"/>
+      <c r="T54" s="556"/>
     </row>
     <row r="55" spans="2:24" ht="17.25" customHeight="1">
       <c r="B55" s="185"/>
@@ -11945,8 +11990,8 @@
       <c r="B57" s="237" t="s">
         <v>157</v>
       </c>
-      <c r="D57" s="529"/>
-      <c r="E57" s="531"/>
+      <c r="D57" s="537"/>
+      <c r="E57" s="538"/>
       <c r="F57" s="183"/>
       <c r="G57" s="237" t="s">
         <v>238</v>
@@ -13413,56 +13458,56 @@
       </c>
     </row>
     <row r="117" spans="1:25" ht="17.25" customHeight="1">
-      <c r="B117" s="540" t="s">
+      <c r="B117" s="531" t="s">
         <v>208</v>
       </c>
-      <c r="C117" s="540"/>
-      <c r="D117" s="540"/>
-      <c r="E117" s="540"/>
-      <c r="F117" s="540"/>
-      <c r="G117" s="540"/>
-      <c r="H117" s="540"/>
-      <c r="I117" s="540"/>
-      <c r="J117" s="540"/>
-      <c r="K117" s="540"/>
-      <c r="L117" s="540"/>
-      <c r="M117" s="540"/>
-      <c r="N117" s="540"/>
-      <c r="O117" s="540"/>
-      <c r="P117" s="540"/>
-      <c r="Q117" s="540"/>
-      <c r="R117" s="540"/>
-      <c r="S117" s="540"/>
-      <c r="T117" s="540"/>
-      <c r="U117" s="540"/>
-      <c r="V117" s="540"/>
-      <c r="W117" s="540"/>
-      <c r="X117" s="540"/>
+      <c r="C117" s="531"/>
+      <c r="D117" s="531"/>
+      <c r="E117" s="531"/>
+      <c r="F117" s="531"/>
+      <c r="G117" s="531"/>
+      <c r="H117" s="531"/>
+      <c r="I117" s="531"/>
+      <c r="J117" s="531"/>
+      <c r="K117" s="531"/>
+      <c r="L117" s="531"/>
+      <c r="M117" s="531"/>
+      <c r="N117" s="531"/>
+      <c r="O117" s="531"/>
+      <c r="P117" s="531"/>
+      <c r="Q117" s="531"/>
+      <c r="R117" s="531"/>
+      <c r="S117" s="531"/>
+      <c r="T117" s="531"/>
+      <c r="U117" s="531"/>
+      <c r="V117" s="531"/>
+      <c r="W117" s="531"/>
+      <c r="X117" s="531"/>
     </row>
     <row r="118" spans="1:25" ht="15.75" customHeight="1">
-      <c r="B118" s="540"/>
-      <c r="C118" s="540"/>
-      <c r="D118" s="540"/>
-      <c r="E118" s="540"/>
-      <c r="F118" s="540"/>
-      <c r="G118" s="540"/>
-      <c r="H118" s="540"/>
-      <c r="I118" s="540"/>
-      <c r="J118" s="540"/>
-      <c r="K118" s="540"/>
-      <c r="L118" s="540"/>
-      <c r="M118" s="540"/>
-      <c r="N118" s="540"/>
-      <c r="O118" s="540"/>
-      <c r="P118" s="540"/>
-      <c r="Q118" s="540"/>
-      <c r="R118" s="540"/>
-      <c r="S118" s="540"/>
-      <c r="T118" s="540"/>
-      <c r="U118" s="540"/>
-      <c r="V118" s="540"/>
-      <c r="W118" s="540"/>
-      <c r="X118" s="540"/>
+      <c r="B118" s="531"/>
+      <c r="C118" s="531"/>
+      <c r="D118" s="531"/>
+      <c r="E118" s="531"/>
+      <c r="F118" s="531"/>
+      <c r="G118" s="531"/>
+      <c r="H118" s="531"/>
+      <c r="I118" s="531"/>
+      <c r="J118" s="531"/>
+      <c r="K118" s="531"/>
+      <c r="L118" s="531"/>
+      <c r="M118" s="531"/>
+      <c r="N118" s="531"/>
+      <c r="O118" s="531"/>
+      <c r="P118" s="531"/>
+      <c r="Q118" s="531"/>
+      <c r="R118" s="531"/>
+      <c r="S118" s="531"/>
+      <c r="T118" s="531"/>
+      <c r="U118" s="531"/>
+      <c r="V118" s="531"/>
+      <c r="W118" s="531"/>
+      <c r="X118" s="531"/>
     </row>
     <row r="119" spans="1:25" ht="18.75" customHeight="1">
       <c r="A119" s="260">
@@ -13475,358 +13520,358 @@
       <c r="D119" s="541"/>
       <c r="E119" s="541"/>
       <c r="F119" s="542"/>
-      <c r="G119" s="532"/>
-      <c r="H119" s="532"/>
-      <c r="I119" s="532"/>
-      <c r="J119" s="532"/>
-      <c r="K119" s="532"/>
-      <c r="L119" s="532"/>
-      <c r="M119" s="532"/>
-      <c r="N119" s="532"/>
-      <c r="O119" s="532"/>
-      <c r="P119" s="532"/>
-      <c r="Q119" s="532"/>
-      <c r="R119" s="532"/>
-      <c r="S119" s="532"/>
-      <c r="T119" s="532"/>
-      <c r="U119" s="532"/>
-      <c r="V119" s="532"/>
-      <c r="W119" s="532"/>
-      <c r="X119" s="543"/>
+      <c r="G119" s="543"/>
+      <c r="H119" s="543"/>
+      <c r="I119" s="543"/>
+      <c r="J119" s="543"/>
+      <c r="K119" s="543"/>
+      <c r="L119" s="543"/>
+      <c r="M119" s="543"/>
+      <c r="N119" s="543"/>
+      <c r="O119" s="543"/>
+      <c r="P119" s="543"/>
+      <c r="Q119" s="543"/>
+      <c r="R119" s="543"/>
+      <c r="S119" s="543"/>
+      <c r="T119" s="543"/>
+      <c r="U119" s="543"/>
+      <c r="V119" s="543"/>
+      <c r="W119" s="543"/>
+      <c r="X119" s="544"/>
     </row>
     <row r="120" spans="1:25" ht="18.75" customHeight="1">
       <c r="A120" s="261"/>
-      <c r="B120" s="538" t="s">
+      <c r="B120" s="545" t="s">
         <v>210</v>
       </c>
-      <c r="C120" s="538"/>
-      <c r="D120" s="538"/>
-      <c r="E120" s="538"/>
-      <c r="F120" s="538"/>
-      <c r="G120" s="538"/>
-      <c r="H120" s="538"/>
-      <c r="I120" s="538"/>
-      <c r="J120" s="538"/>
-      <c r="K120" s="538"/>
-      <c r="L120" s="538"/>
-      <c r="M120" s="538"/>
-      <c r="N120" s="538"/>
-      <c r="O120" s="538"/>
-      <c r="P120" s="538"/>
-      <c r="Q120" s="538"/>
-      <c r="R120" s="538"/>
-      <c r="S120" s="538"/>
-      <c r="T120" s="538"/>
-      <c r="U120" s="538"/>
-      <c r="V120" s="538"/>
-      <c r="W120" s="538"/>
-      <c r="X120" s="538"/>
+      <c r="C120" s="545"/>
+      <c r="D120" s="545"/>
+      <c r="E120" s="545"/>
+      <c r="F120" s="545"/>
+      <c r="G120" s="545"/>
+      <c r="H120" s="545"/>
+      <c r="I120" s="545"/>
+      <c r="J120" s="545"/>
+      <c r="K120" s="545"/>
+      <c r="L120" s="545"/>
+      <c r="M120" s="545"/>
+      <c r="N120" s="545"/>
+      <c r="O120" s="545"/>
+      <c r="P120" s="545"/>
+      <c r="Q120" s="545"/>
+      <c r="R120" s="545"/>
+      <c r="S120" s="545"/>
+      <c r="T120" s="545"/>
+      <c r="U120" s="545"/>
+      <c r="V120" s="545"/>
+      <c r="W120" s="545"/>
+      <c r="X120" s="545"/>
     </row>
     <row r="121" spans="1:25" ht="19.5" customHeight="1">
       <c r="A121" s="261"/>
-      <c r="B121" s="537" t="s">
+      <c r="B121" s="546" t="s">
         <v>211</v>
       </c>
-      <c r="C121" s="537"/>
-      <c r="D121" s="537"/>
-      <c r="E121" s="537"/>
-      <c r="F121" s="537"/>
-      <c r="G121" s="537"/>
-      <c r="H121" s="537"/>
-      <c r="I121" s="537"/>
-      <c r="J121" s="537"/>
-      <c r="K121" s="537"/>
-      <c r="L121" s="537"/>
-      <c r="M121" s="537"/>
-      <c r="N121" s="537"/>
-      <c r="O121" s="537"/>
-      <c r="P121" s="537"/>
-      <c r="Q121" s="537"/>
-      <c r="R121" s="537"/>
-      <c r="S121" s="537"/>
-      <c r="T121" s="537"/>
-      <c r="U121" s="537"/>
-      <c r="V121" s="537"/>
-      <c r="W121" s="537"/>
-      <c r="X121" s="537"/>
+      <c r="C121" s="546"/>
+      <c r="D121" s="546"/>
+      <c r="E121" s="546"/>
+      <c r="F121" s="546"/>
+      <c r="G121" s="546"/>
+      <c r="H121" s="546"/>
+      <c r="I121" s="546"/>
+      <c r="J121" s="546"/>
+      <c r="K121" s="546"/>
+      <c r="L121" s="546"/>
+      <c r="M121" s="546"/>
+      <c r="N121" s="546"/>
+      <c r="O121" s="546"/>
+      <c r="P121" s="546"/>
+      <c r="Q121" s="546"/>
+      <c r="R121" s="546"/>
+      <c r="S121" s="546"/>
+      <c r="T121" s="546"/>
+      <c r="U121" s="546"/>
+      <c r="V121" s="546"/>
+      <c r="W121" s="546"/>
+      <c r="X121" s="546"/>
     </row>
     <row r="122" spans="1:25" ht="19.5" customHeight="1">
       <c r="A122" s="261"/>
-      <c r="B122" s="537" t="s">
+      <c r="B122" s="546" t="s">
         <v>212</v>
       </c>
-      <c r="C122" s="537"/>
-      <c r="D122" s="537"/>
-      <c r="E122" s="537"/>
-      <c r="F122" s="537"/>
-      <c r="G122" s="537"/>
-      <c r="H122" s="537"/>
-      <c r="I122" s="537"/>
-      <c r="J122" s="537"/>
-      <c r="K122" s="537"/>
-      <c r="L122" s="537"/>
-      <c r="M122" s="537"/>
-      <c r="N122" s="537"/>
-      <c r="O122" s="537"/>
-      <c r="P122" s="537"/>
-      <c r="Q122" s="537"/>
-      <c r="R122" s="537"/>
-      <c r="S122" s="537"/>
-      <c r="T122" s="537"/>
-      <c r="U122" s="537"/>
-      <c r="V122" s="537"/>
-      <c r="W122" s="537"/>
-      <c r="X122" s="537"/>
+      <c r="C122" s="546"/>
+      <c r="D122" s="546"/>
+      <c r="E122" s="546"/>
+      <c r="F122" s="546"/>
+      <c r="G122" s="546"/>
+      <c r="H122" s="546"/>
+      <c r="I122" s="546"/>
+      <c r="J122" s="546"/>
+      <c r="K122" s="546"/>
+      <c r="L122" s="546"/>
+      <c r="M122" s="546"/>
+      <c r="N122" s="546"/>
+      <c r="O122" s="546"/>
+      <c r="P122" s="546"/>
+      <c r="Q122" s="546"/>
+      <c r="R122" s="546"/>
+      <c r="S122" s="546"/>
+      <c r="T122" s="546"/>
+      <c r="U122" s="546"/>
+      <c r="V122" s="546"/>
+      <c r="W122" s="546"/>
+      <c r="X122" s="546"/>
     </row>
     <row r="123" spans="1:25" ht="16.5" customHeight="1">
       <c r="A123" s="165"/>
-      <c r="B123" s="539" t="s">
+      <c r="B123" s="547" t="s">
         <v>213</v>
       </c>
-      <c r="C123" s="539"/>
-      <c r="D123" s="539"/>
-      <c r="E123" s="539"/>
-      <c r="F123" s="539"/>
-      <c r="G123" s="539"/>
-      <c r="H123" s="539"/>
-      <c r="I123" s="539"/>
-      <c r="J123" s="539"/>
-      <c r="K123" s="539"/>
-      <c r="L123" s="539"/>
-      <c r="M123" s="539"/>
-      <c r="N123" s="539"/>
-      <c r="O123" s="539"/>
-      <c r="P123" s="539"/>
-      <c r="Q123" s="539"/>
-      <c r="R123" s="539"/>
-      <c r="S123" s="539"/>
-      <c r="T123" s="539"/>
-      <c r="U123" s="539"/>
-      <c r="V123" s="539"/>
-      <c r="W123" s="539"/>
-      <c r="X123" s="539"/>
+      <c r="C123" s="547"/>
+      <c r="D123" s="547"/>
+      <c r="E123" s="547"/>
+      <c r="F123" s="547"/>
+      <c r="G123" s="547"/>
+      <c r="H123" s="547"/>
+      <c r="I123" s="547"/>
+      <c r="J123" s="547"/>
+      <c r="K123" s="547"/>
+      <c r="L123" s="547"/>
+      <c r="M123" s="547"/>
+      <c r="N123" s="547"/>
+      <c r="O123" s="547"/>
+      <c r="P123" s="547"/>
+      <c r="Q123" s="547"/>
+      <c r="R123" s="547"/>
+      <c r="S123" s="547"/>
+      <c r="T123" s="547"/>
+      <c r="U123" s="547"/>
+      <c r="V123" s="547"/>
+      <c r="W123" s="547"/>
+      <c r="X123" s="547"/>
     </row>
     <row r="124" spans="1:25" ht="16.5" customHeight="1">
       <c r="A124" s="165"/>
-      <c r="B124" s="537" t="s">
+      <c r="B124" s="546" t="s">
         <v>214</v>
       </c>
-      <c r="C124" s="537"/>
-      <c r="D124" s="537"/>
-      <c r="E124" s="537"/>
-      <c r="F124" s="537"/>
-      <c r="G124" s="537"/>
-      <c r="H124" s="537"/>
-      <c r="I124" s="537"/>
-      <c r="J124" s="537"/>
-      <c r="K124" s="537"/>
-      <c r="L124" s="537"/>
-      <c r="M124" s="537"/>
-      <c r="N124" s="537"/>
-      <c r="O124" s="537"/>
-      <c r="P124" s="537"/>
-      <c r="Q124" s="537"/>
-      <c r="R124" s="537"/>
-      <c r="S124" s="537"/>
-      <c r="T124" s="537"/>
-      <c r="U124" s="537"/>
-      <c r="V124" s="537"/>
-      <c r="W124" s="537"/>
-      <c r="X124" s="537"/>
+      <c r="C124" s="546"/>
+      <c r="D124" s="546"/>
+      <c r="E124" s="546"/>
+      <c r="F124" s="546"/>
+      <c r="G124" s="546"/>
+      <c r="H124" s="546"/>
+      <c r="I124" s="546"/>
+      <c r="J124" s="546"/>
+      <c r="K124" s="546"/>
+      <c r="L124" s="546"/>
+      <c r="M124" s="546"/>
+      <c r="N124" s="546"/>
+      <c r="O124" s="546"/>
+      <c r="P124" s="546"/>
+      <c r="Q124" s="546"/>
+      <c r="R124" s="546"/>
+      <c r="S124" s="546"/>
+      <c r="T124" s="546"/>
+      <c r="U124" s="546"/>
+      <c r="V124" s="546"/>
+      <c r="W124" s="546"/>
+      <c r="X124" s="546"/>
     </row>
     <row r="125" spans="1:25" ht="18.75" customHeight="1">
       <c r="A125" s="165"/>
-      <c r="B125" s="537" t="s">
+      <c r="B125" s="546" t="s">
         <v>215</v>
       </c>
-      <c r="C125" s="537"/>
-      <c r="D125" s="537"/>
-      <c r="E125" s="537"/>
-      <c r="F125" s="537"/>
-      <c r="G125" s="537"/>
-      <c r="H125" s="537"/>
-      <c r="I125" s="537"/>
-      <c r="J125" s="537"/>
-      <c r="K125" s="537"/>
-      <c r="L125" s="537"/>
-      <c r="M125" s="537"/>
-      <c r="N125" s="537"/>
-      <c r="O125" s="537"/>
-      <c r="P125" s="537"/>
-      <c r="Q125" s="537"/>
-      <c r="R125" s="537"/>
-      <c r="S125" s="537"/>
-      <c r="T125" s="537"/>
-      <c r="U125" s="537"/>
-      <c r="V125" s="537"/>
-      <c r="W125" s="537"/>
-      <c r="X125" s="537"/>
+      <c r="C125" s="546"/>
+      <c r="D125" s="546"/>
+      <c r="E125" s="546"/>
+      <c r="F125" s="546"/>
+      <c r="G125" s="546"/>
+      <c r="H125" s="546"/>
+      <c r="I125" s="546"/>
+      <c r="J125" s="546"/>
+      <c r="K125" s="546"/>
+      <c r="L125" s="546"/>
+      <c r="M125" s="546"/>
+      <c r="N125" s="546"/>
+      <c r="O125" s="546"/>
+      <c r="P125" s="546"/>
+      <c r="Q125" s="546"/>
+      <c r="R125" s="546"/>
+      <c r="S125" s="546"/>
+      <c r="T125" s="546"/>
+      <c r="U125" s="546"/>
+      <c r="V125" s="546"/>
+      <c r="W125" s="546"/>
+      <c r="X125" s="546"/>
     </row>
     <row r="126" spans="1:25" ht="19.5" customHeight="1">
       <c r="A126" s="165"/>
-      <c r="B126" s="537" t="s">
+      <c r="B126" s="546" t="s">
         <v>216</v>
       </c>
-      <c r="C126" s="537"/>
-      <c r="D126" s="537"/>
-      <c r="E126" s="537"/>
-      <c r="F126" s="537"/>
-      <c r="G126" s="537"/>
-      <c r="H126" s="537"/>
-      <c r="I126" s="537"/>
-      <c r="J126" s="537"/>
-      <c r="K126" s="537"/>
-      <c r="L126" s="537"/>
-      <c r="M126" s="537"/>
-      <c r="N126" s="537"/>
-      <c r="O126" s="537"/>
-      <c r="P126" s="537"/>
-      <c r="Q126" s="537"/>
-      <c r="R126" s="537"/>
-      <c r="S126" s="537"/>
-      <c r="T126" s="537"/>
-      <c r="U126" s="537"/>
-      <c r="V126" s="537"/>
-      <c r="W126" s="537"/>
-      <c r="X126" s="537"/>
+      <c r="C126" s="546"/>
+      <c r="D126" s="546"/>
+      <c r="E126" s="546"/>
+      <c r="F126" s="546"/>
+      <c r="G126" s="546"/>
+      <c r="H126" s="546"/>
+      <c r="I126" s="546"/>
+      <c r="J126" s="546"/>
+      <c r="K126" s="546"/>
+      <c r="L126" s="546"/>
+      <c r="M126" s="546"/>
+      <c r="N126" s="546"/>
+      <c r="O126" s="546"/>
+      <c r="P126" s="546"/>
+      <c r="Q126" s="546"/>
+      <c r="R126" s="546"/>
+      <c r="S126" s="546"/>
+      <c r="T126" s="546"/>
+      <c r="U126" s="546"/>
+      <c r="V126" s="546"/>
+      <c r="W126" s="546"/>
+      <c r="X126" s="546"/>
     </row>
     <row r="127" spans="1:25" ht="19.5" customHeight="1">
       <c r="A127" s="262"/>
-      <c r="B127" s="536" t="s">
+      <c r="B127" s="551" t="s">
         <v>273</v>
       </c>
-      <c r="C127" s="537"/>
-      <c r="D127" s="537"/>
-      <c r="E127" s="537"/>
-      <c r="F127" s="537"/>
-      <c r="G127" s="537"/>
-      <c r="H127" s="537"/>
-      <c r="I127" s="537"/>
-      <c r="J127" s="537"/>
-      <c r="K127" s="537"/>
-      <c r="L127" s="537"/>
-      <c r="M127" s="537"/>
-      <c r="N127" s="537"/>
-      <c r="O127" s="537"/>
-      <c r="P127" s="537"/>
-      <c r="Q127" s="537"/>
-      <c r="R127" s="537"/>
-      <c r="S127" s="537"/>
-      <c r="T127" s="537"/>
-      <c r="U127" s="537"/>
-      <c r="V127" s="537"/>
-      <c r="W127" s="537"/>
-      <c r="X127" s="537"/>
+      <c r="C127" s="546"/>
+      <c r="D127" s="546"/>
+      <c r="E127" s="546"/>
+      <c r="F127" s="546"/>
+      <c r="G127" s="546"/>
+      <c r="H127" s="546"/>
+      <c r="I127" s="546"/>
+      <c r="J127" s="546"/>
+      <c r="K127" s="546"/>
+      <c r="L127" s="546"/>
+      <c r="M127" s="546"/>
+      <c r="N127" s="546"/>
+      <c r="O127" s="546"/>
+      <c r="P127" s="546"/>
+      <c r="Q127" s="546"/>
+      <c r="R127" s="546"/>
+      <c r="S127" s="546"/>
+      <c r="T127" s="546"/>
+      <c r="U127" s="546"/>
+      <c r="V127" s="546"/>
+      <c r="W127" s="546"/>
+      <c r="X127" s="546"/>
     </row>
     <row r="128" spans="1:25" ht="19.5" customHeight="1">
       <c r="A128" s="260"/>
-      <c r="B128" s="537" t="s">
+      <c r="B128" s="546" t="s">
         <v>217</v>
       </c>
-      <c r="C128" s="537"/>
-      <c r="D128" s="537"/>
-      <c r="E128" s="537"/>
-      <c r="F128" s="537"/>
-      <c r="G128" s="537"/>
-      <c r="H128" s="537"/>
-      <c r="I128" s="537"/>
-      <c r="J128" s="537"/>
-      <c r="K128" s="537"/>
-      <c r="L128" s="537"/>
-      <c r="M128" s="537"/>
-      <c r="N128" s="537"/>
-      <c r="O128" s="537"/>
-      <c r="P128" s="537"/>
-      <c r="Q128" s="537"/>
-      <c r="R128" s="537"/>
-      <c r="S128" s="537"/>
-      <c r="T128" s="537"/>
-      <c r="U128" s="537"/>
-      <c r="V128" s="537"/>
-      <c r="W128" s="537"/>
-      <c r="X128" s="537"/>
+      <c r="C128" s="546"/>
+      <c r="D128" s="546"/>
+      <c r="E128" s="546"/>
+      <c r="F128" s="546"/>
+      <c r="G128" s="546"/>
+      <c r="H128" s="546"/>
+      <c r="I128" s="546"/>
+      <c r="J128" s="546"/>
+      <c r="K128" s="546"/>
+      <c r="L128" s="546"/>
+      <c r="M128" s="546"/>
+      <c r="N128" s="546"/>
+      <c r="O128" s="546"/>
+      <c r="P128" s="546"/>
+      <c r="Q128" s="546"/>
+      <c r="R128" s="546"/>
+      <c r="S128" s="546"/>
+      <c r="T128" s="546"/>
+      <c r="U128" s="546"/>
+      <c r="V128" s="546"/>
+      <c r="W128" s="546"/>
+      <c r="X128" s="546"/>
     </row>
     <row r="129" spans="1:24" ht="19.5" customHeight="1">
       <c r="A129" s="260"/>
-      <c r="B129" s="536" t="s">
+      <c r="B129" s="551" t="s">
         <v>274</v>
       </c>
-      <c r="C129" s="537"/>
-      <c r="D129" s="537"/>
-      <c r="E129" s="537"/>
-      <c r="F129" s="537"/>
-      <c r="G129" s="537"/>
-      <c r="H129" s="537"/>
-      <c r="I129" s="537"/>
-      <c r="J129" s="537"/>
-      <c r="K129" s="537"/>
-      <c r="L129" s="537"/>
-      <c r="M129" s="537"/>
-      <c r="N129" s="537"/>
-      <c r="O129" s="537"/>
-      <c r="P129" s="537"/>
-      <c r="Q129" s="537"/>
-      <c r="R129" s="537"/>
-      <c r="S129" s="537"/>
-      <c r="T129" s="537"/>
-      <c r="U129" s="537"/>
-      <c r="V129" s="537"/>
-      <c r="W129" s="537"/>
-      <c r="X129" s="537"/>
+      <c r="C129" s="546"/>
+      <c r="D129" s="546"/>
+      <c r="E129" s="546"/>
+      <c r="F129" s="546"/>
+      <c r="G129" s="546"/>
+      <c r="H129" s="546"/>
+      <c r="I129" s="546"/>
+      <c r="J129" s="546"/>
+      <c r="K129" s="546"/>
+      <c r="L129" s="546"/>
+      <c r="M129" s="546"/>
+      <c r="N129" s="546"/>
+      <c r="O129" s="546"/>
+      <c r="P129" s="546"/>
+      <c r="Q129" s="546"/>
+      <c r="R129" s="546"/>
+      <c r="S129" s="546"/>
+      <c r="T129" s="546"/>
+      <c r="U129" s="546"/>
+      <c r="V129" s="546"/>
+      <c r="W129" s="546"/>
+      <c r="X129" s="546"/>
     </row>
     <row r="130" spans="1:24" ht="19.5" customHeight="1">
-      <c r="B130" s="538" t="s">
+      <c r="B130" s="545" t="s">
         <v>218</v>
       </c>
-      <c r="C130" s="538"/>
-      <c r="D130" s="538"/>
-      <c r="E130" s="538"/>
-      <c r="F130" s="538"/>
-      <c r="G130" s="538"/>
-      <c r="H130" s="538"/>
-      <c r="I130" s="538"/>
-      <c r="J130" s="538"/>
-      <c r="K130" s="538"/>
-      <c r="L130" s="538"/>
-      <c r="M130" s="538"/>
-      <c r="N130" s="538"/>
-      <c r="O130" s="538"/>
-      <c r="P130" s="538"/>
-      <c r="Q130" s="538"/>
-      <c r="R130" s="538"/>
-      <c r="S130" s="538"/>
-      <c r="T130" s="538"/>
-      <c r="U130" s="538"/>
-      <c r="V130" s="538"/>
-      <c r="W130" s="538"/>
-      <c r="X130" s="538"/>
+      <c r="C130" s="545"/>
+      <c r="D130" s="545"/>
+      <c r="E130" s="545"/>
+      <c r="F130" s="545"/>
+      <c r="G130" s="545"/>
+      <c r="H130" s="545"/>
+      <c r="I130" s="545"/>
+      <c r="J130" s="545"/>
+      <c r="K130" s="545"/>
+      <c r="L130" s="545"/>
+      <c r="M130" s="545"/>
+      <c r="N130" s="545"/>
+      <c r="O130" s="545"/>
+      <c r="P130" s="545"/>
+      <c r="Q130" s="545"/>
+      <c r="R130" s="545"/>
+      <c r="S130" s="545"/>
+      <c r="T130" s="545"/>
+      <c r="U130" s="545"/>
+      <c r="V130" s="545"/>
+      <c r="W130" s="545"/>
+      <c r="X130" s="545"/>
     </row>
     <row r="131" spans="1:24" ht="19.5" customHeight="1">
-      <c r="B131" s="539" t="s">
+      <c r="B131" s="547" t="s">
         <v>219</v>
       </c>
-      <c r="C131" s="539"/>
-      <c r="D131" s="539"/>
-      <c r="E131" s="539"/>
-      <c r="F131" s="539"/>
-      <c r="G131" s="539"/>
-      <c r="H131" s="539"/>
-      <c r="I131" s="539"/>
-      <c r="J131" s="539"/>
-      <c r="K131" s="539"/>
-      <c r="L131" s="539"/>
-      <c r="M131" s="539"/>
-      <c r="N131" s="539"/>
-      <c r="O131" s="539"/>
-      <c r="P131" s="539"/>
-      <c r="Q131" s="539"/>
-      <c r="R131" s="539"/>
-      <c r="S131" s="539"/>
-      <c r="T131" s="539"/>
-      <c r="U131" s="539"/>
-      <c r="V131" s="539"/>
-      <c r="W131" s="539"/>
-      <c r="X131" s="539"/>
+      <c r="C131" s="547"/>
+      <c r="D131" s="547"/>
+      <c r="E131" s="547"/>
+      <c r="F131" s="547"/>
+      <c r="G131" s="547"/>
+      <c r="H131" s="547"/>
+      <c r="I131" s="547"/>
+      <c r="J131" s="547"/>
+      <c r="K131" s="547"/>
+      <c r="L131" s="547"/>
+      <c r="M131" s="547"/>
+      <c r="N131" s="547"/>
+      <c r="O131" s="547"/>
+      <c r="P131" s="547"/>
+      <c r="Q131" s="547"/>
+      <c r="R131" s="547"/>
+      <c r="S131" s="547"/>
+      <c r="T131" s="547"/>
+      <c r="U131" s="547"/>
+      <c r="V131" s="547"/>
+      <c r="W131" s="547"/>
+      <c r="X131" s="547"/>
     </row>
     <row r="132" spans="1:24" ht="19.5" customHeight="1">
       <c r="B132" s="201"/>
@@ -13885,9 +13930,9 @@
       <c r="L134" s="271" t="s">
         <v>222</v>
       </c>
-      <c r="M134" s="529"/>
-      <c r="N134" s="530"/>
-      <c r="O134" s="531"/>
+      <c r="M134" s="537"/>
+      <c r="N134" s="559"/>
+      <c r="O134" s="538"/>
       <c r="P134" s="272"/>
       <c r="Q134" s="270" t="s">
         <v>57</v>
@@ -13910,15 +13955,15 @@
       <c r="D135" s="271"/>
       <c r="E135" s="271"/>
       <c r="F135" s="279"/>
-      <c r="G135" s="529"/>
-      <c r="H135" s="530"/>
-      <c r="I135" s="530"/>
-      <c r="J135" s="530"/>
-      <c r="K135" s="530"/>
-      <c r="L135" s="530"/>
-      <c r="M135" s="530"/>
-      <c r="N135" s="530"/>
-      <c r="O135" s="531"/>
+      <c r="G135" s="537"/>
+      <c r="H135" s="559"/>
+      <c r="I135" s="559"/>
+      <c r="J135" s="559"/>
+      <c r="K135" s="559"/>
+      <c r="L135" s="559"/>
+      <c r="M135" s="559"/>
+      <c r="N135" s="559"/>
+      <c r="O135" s="538"/>
       <c r="P135" s="280"/>
       <c r="Q135" s="183" t="s">
         <v>58</v>
@@ -13941,30 +13986,30 @@
       <c r="D136" s="271"/>
       <c r="E136" s="271"/>
       <c r="F136" s="285"/>
-      <c r="G136" s="529"/>
-      <c r="H136" s="530"/>
-      <c r="I136" s="530"/>
+      <c r="G136" s="537"/>
+      <c r="H136" s="559"/>
+      <c r="I136" s="559"/>
       <c r="J136" s="286"/>
       <c r="K136" s="282" t="s">
         <v>62</v>
       </c>
       <c r="L136" s="274"/>
-      <c r="M136" s="530"/>
-      <c r="N136" s="530"/>
-      <c r="O136" s="531"/>
+      <c r="M136" s="559"/>
+      <c r="N136" s="559"/>
+      <c r="O136" s="538"/>
       <c r="P136" s="287"/>
       <c r="Q136" s="270" t="s">
         <v>59</v>
       </c>
       <c r="R136" s="270"/>
       <c r="S136" s="273"/>
-      <c r="T136" s="533" t="s">
+      <c r="T136" s="548" t="s">
         <v>223</v>
       </c>
-      <c r="U136" s="534"/>
-      <c r="V136" s="534"/>
-      <c r="W136" s="534"/>
-      <c r="X136" s="535"/>
+      <c r="U136" s="549"/>
+      <c r="V136" s="549"/>
+      <c r="W136" s="549"/>
+      <c r="X136" s="550"/>
     </row>
     <row r="137" spans="1:24" ht="19.5" customHeight="1"/>
     <row r="138" spans="1:24" ht="19.5" customHeight="1">
@@ -13994,326 +14039,326 @@
       <c r="U138" s="201"/>
     </row>
     <row r="139" spans="1:24" ht="19.5" customHeight="1">
-      <c r="B139" s="527" t="s">
+      <c r="B139" s="558" t="s">
         <v>271</v>
       </c>
-      <c r="C139" s="527"/>
-      <c r="D139" s="527"/>
-      <c r="E139" s="527"/>
-      <c r="F139" s="527"/>
-      <c r="G139" s="527"/>
-      <c r="H139" s="527"/>
-      <c r="I139" s="527"/>
-      <c r="J139" s="527"/>
-      <c r="K139" s="527"/>
-      <c r="L139" s="527"/>
-      <c r="M139" s="527"/>
-      <c r="N139" s="527"/>
-      <c r="O139" s="527"/>
-      <c r="P139" s="527"/>
-      <c r="Q139" s="527"/>
-      <c r="R139" s="527"/>
-      <c r="S139" s="527"/>
-      <c r="T139" s="527"/>
-      <c r="U139" s="527"/>
-      <c r="V139" s="527"/>
+      <c r="C139" s="558"/>
+      <c r="D139" s="558"/>
+      <c r="E139" s="558"/>
+      <c r="F139" s="558"/>
+      <c r="G139" s="558"/>
+      <c r="H139" s="558"/>
+      <c r="I139" s="558"/>
+      <c r="J139" s="558"/>
+      <c r="K139" s="558"/>
+      <c r="L139" s="558"/>
+      <c r="M139" s="558"/>
+      <c r="N139" s="558"/>
+      <c r="O139" s="558"/>
+      <c r="P139" s="558"/>
+      <c r="Q139" s="558"/>
+      <c r="R139" s="558"/>
+      <c r="S139" s="558"/>
+      <c r="T139" s="558"/>
+      <c r="U139" s="558"/>
+      <c r="V139" s="558"/>
       <c r="W139" s="289"/>
       <c r="X139" s="289"/>
     </row>
     <row r="140" spans="1:24" ht="19.5" customHeight="1">
-      <c r="B140" s="528" t="s">
+      <c r="B140" s="553" t="s">
         <v>225</v>
       </c>
-      <c r="C140" s="528"/>
-      <c r="D140" s="528"/>
-      <c r="E140" s="528"/>
-      <c r="F140" s="528"/>
-      <c r="G140" s="528"/>
-      <c r="H140" s="528"/>
-      <c r="I140" s="528"/>
-      <c r="J140" s="528"/>
-      <c r="K140" s="528"/>
-      <c r="L140" s="528"/>
-      <c r="M140" s="528"/>
-      <c r="N140" s="528"/>
-      <c r="O140" s="528"/>
-      <c r="P140" s="528"/>
-      <c r="Q140" s="528"/>
-      <c r="R140" s="528"/>
-      <c r="S140" s="528"/>
-      <c r="T140" s="528"/>
-      <c r="U140" s="528"/>
-      <c r="V140" s="528"/>
+      <c r="C140" s="553"/>
+      <c r="D140" s="553"/>
+      <c r="E140" s="553"/>
+      <c r="F140" s="553"/>
+      <c r="G140" s="553"/>
+      <c r="H140" s="553"/>
+      <c r="I140" s="553"/>
+      <c r="J140" s="553"/>
+      <c r="K140" s="553"/>
+      <c r="L140" s="553"/>
+      <c r="M140" s="553"/>
+      <c r="N140" s="553"/>
+      <c r="O140" s="553"/>
+      <c r="P140" s="553"/>
+      <c r="Q140" s="553"/>
+      <c r="R140" s="553"/>
+      <c r="S140" s="553"/>
+      <c r="T140" s="553"/>
+      <c r="U140" s="553"/>
+      <c r="V140" s="553"/>
       <c r="W140" s="254"/>
       <c r="X140" s="254"/>
     </row>
     <row r="141" spans="1:24" ht="19.5" customHeight="1">
-      <c r="B141" s="528" t="s">
+      <c r="B141" s="553" t="s">
         <v>226</v>
       </c>
-      <c r="C141" s="528"/>
-      <c r="D141" s="528"/>
-      <c r="E141" s="528"/>
-      <c r="F141" s="528"/>
-      <c r="G141" s="528"/>
-      <c r="H141" s="528"/>
-      <c r="I141" s="528"/>
-      <c r="J141" s="528"/>
-      <c r="K141" s="528"/>
-      <c r="L141" s="528"/>
-      <c r="M141" s="528"/>
-      <c r="N141" s="528"/>
-      <c r="O141" s="528"/>
-      <c r="P141" s="528"/>
-      <c r="Q141" s="528"/>
-      <c r="R141" s="528"/>
-      <c r="S141" s="528"/>
-      <c r="T141" s="528"/>
-      <c r="U141" s="528"/>
-      <c r="V141" s="528"/>
+      <c r="C141" s="553"/>
+      <c r="D141" s="553"/>
+      <c r="E141" s="553"/>
+      <c r="F141" s="553"/>
+      <c r="G141" s="553"/>
+      <c r="H141" s="553"/>
+      <c r="I141" s="553"/>
+      <c r="J141" s="553"/>
+      <c r="K141" s="553"/>
+      <c r="L141" s="553"/>
+      <c r="M141" s="553"/>
+      <c r="N141" s="553"/>
+      <c r="O141" s="553"/>
+      <c r="P141" s="553"/>
+      <c r="Q141" s="553"/>
+      <c r="R141" s="553"/>
+      <c r="S141" s="553"/>
+      <c r="T141" s="553"/>
+      <c r="U141" s="553"/>
+      <c r="V141" s="553"/>
       <c r="W141" s="254"/>
       <c r="X141" s="254"/>
     </row>
     <row r="142" spans="1:24" ht="19.5" customHeight="1">
-      <c r="B142" s="528" t="s">
+      <c r="B142" s="553" t="s">
         <v>227</v>
       </c>
-      <c r="C142" s="528"/>
-      <c r="D142" s="528"/>
-      <c r="E142" s="528"/>
-      <c r="F142" s="528"/>
-      <c r="G142" s="528"/>
-      <c r="H142" s="528"/>
-      <c r="I142" s="528"/>
-      <c r="J142" s="528"/>
-      <c r="K142" s="528"/>
-      <c r="L142" s="528"/>
-      <c r="M142" s="528"/>
-      <c r="N142" s="528"/>
-      <c r="O142" s="528"/>
-      <c r="P142" s="528"/>
-      <c r="Q142" s="528"/>
-      <c r="R142" s="528"/>
-      <c r="S142" s="528"/>
-      <c r="T142" s="528"/>
-      <c r="U142" s="528"/>
-      <c r="V142" s="528"/>
+      <c r="C142" s="553"/>
+      <c r="D142" s="553"/>
+      <c r="E142" s="553"/>
+      <c r="F142" s="553"/>
+      <c r="G142" s="553"/>
+      <c r="H142" s="553"/>
+      <c r="I142" s="553"/>
+      <c r="J142" s="553"/>
+      <c r="K142" s="553"/>
+      <c r="L142" s="553"/>
+      <c r="M142" s="553"/>
+      <c r="N142" s="553"/>
+      <c r="O142" s="553"/>
+      <c r="P142" s="553"/>
+      <c r="Q142" s="553"/>
+      <c r="R142" s="553"/>
+      <c r="S142" s="553"/>
+      <c r="T142" s="553"/>
+      <c r="U142" s="553"/>
+      <c r="V142" s="553"/>
       <c r="W142" s="254"/>
       <c r="X142" s="254"/>
     </row>
     <row r="143" spans="1:24" ht="19.5" customHeight="1">
-      <c r="B143" s="528" t="s">
+      <c r="B143" s="553" t="s">
         <v>228</v>
       </c>
-      <c r="C143" s="528"/>
-      <c r="D143" s="528"/>
-      <c r="E143" s="528"/>
-      <c r="F143" s="528"/>
-      <c r="G143" s="528"/>
-      <c r="H143" s="528"/>
-      <c r="I143" s="528"/>
-      <c r="J143" s="528"/>
-      <c r="K143" s="528"/>
-      <c r="L143" s="528"/>
-      <c r="M143" s="528"/>
-      <c r="N143" s="528"/>
-      <c r="O143" s="528"/>
-      <c r="P143" s="528"/>
-      <c r="Q143" s="528"/>
-      <c r="R143" s="528"/>
-      <c r="S143" s="528"/>
-      <c r="T143" s="528"/>
-      <c r="U143" s="528"/>
-      <c r="V143" s="528"/>
+      <c r="C143" s="553"/>
+      <c r="D143" s="553"/>
+      <c r="E143" s="553"/>
+      <c r="F143" s="553"/>
+      <c r="G143" s="553"/>
+      <c r="H143" s="553"/>
+      <c r="I143" s="553"/>
+      <c r="J143" s="553"/>
+      <c r="K143" s="553"/>
+      <c r="L143" s="553"/>
+      <c r="M143" s="553"/>
+      <c r="N143" s="553"/>
+      <c r="O143" s="553"/>
+      <c r="P143" s="553"/>
+      <c r="Q143" s="553"/>
+      <c r="R143" s="553"/>
+      <c r="S143" s="553"/>
+      <c r="T143" s="553"/>
+      <c r="U143" s="553"/>
+      <c r="V143" s="553"/>
       <c r="W143" s="254"/>
       <c r="X143" s="254"/>
     </row>
     <row r="144" spans="1:24" ht="17.25" customHeight="1">
-      <c r="B144" s="528" t="s">
+      <c r="B144" s="553" t="s">
         <v>229</v>
       </c>
-      <c r="C144" s="528"/>
-      <c r="D144" s="528"/>
-      <c r="E144" s="528"/>
-      <c r="F144" s="528"/>
-      <c r="G144" s="528"/>
-      <c r="H144" s="528"/>
-      <c r="I144" s="528"/>
-      <c r="J144" s="528"/>
-      <c r="K144" s="528"/>
-      <c r="L144" s="528"/>
-      <c r="M144" s="528"/>
-      <c r="N144" s="528"/>
-      <c r="O144" s="528"/>
-      <c r="P144" s="528"/>
-      <c r="Q144" s="528"/>
-      <c r="R144" s="528"/>
-      <c r="S144" s="528"/>
-      <c r="T144" s="528"/>
-      <c r="U144" s="528"/>
-      <c r="V144" s="528"/>
+      <c r="C144" s="553"/>
+      <c r="D144" s="553"/>
+      <c r="E144" s="553"/>
+      <c r="F144" s="553"/>
+      <c r="G144" s="553"/>
+      <c r="H144" s="553"/>
+      <c r="I144" s="553"/>
+      <c r="J144" s="553"/>
+      <c r="K144" s="553"/>
+      <c r="L144" s="553"/>
+      <c r="M144" s="553"/>
+      <c r="N144" s="553"/>
+      <c r="O144" s="553"/>
+      <c r="P144" s="553"/>
+      <c r="Q144" s="553"/>
+      <c r="R144" s="553"/>
+      <c r="S144" s="553"/>
+      <c r="T144" s="553"/>
+      <c r="U144" s="553"/>
+      <c r="V144" s="553"/>
       <c r="W144" s="254"/>
       <c r="X144" s="254"/>
     </row>
     <row r="145" spans="1:24" ht="17.25" customHeight="1">
-      <c r="B145" s="528" t="s">
+      <c r="B145" s="553" t="s">
         <v>230</v>
       </c>
-      <c r="C145" s="528"/>
-      <c r="D145" s="528"/>
-      <c r="E145" s="528"/>
-      <c r="F145" s="528"/>
-      <c r="G145" s="528"/>
-      <c r="H145" s="528"/>
-      <c r="I145" s="528"/>
-      <c r="J145" s="528"/>
-      <c r="K145" s="528"/>
-      <c r="L145" s="528"/>
-      <c r="M145" s="528"/>
-      <c r="N145" s="528"/>
-      <c r="O145" s="528"/>
-      <c r="P145" s="528"/>
-      <c r="Q145" s="528"/>
-      <c r="R145" s="528"/>
-      <c r="S145" s="528"/>
-      <c r="T145" s="528"/>
-      <c r="U145" s="528"/>
-      <c r="V145" s="528"/>
+      <c r="C145" s="553"/>
+      <c r="D145" s="553"/>
+      <c r="E145" s="553"/>
+      <c r="F145" s="553"/>
+      <c r="G145" s="553"/>
+      <c r="H145" s="553"/>
+      <c r="I145" s="553"/>
+      <c r="J145" s="553"/>
+      <c r="K145" s="553"/>
+      <c r="L145" s="553"/>
+      <c r="M145" s="553"/>
+      <c r="N145" s="553"/>
+      <c r="O145" s="553"/>
+      <c r="P145" s="553"/>
+      <c r="Q145" s="553"/>
+      <c r="R145" s="553"/>
+      <c r="S145" s="553"/>
+      <c r="T145" s="553"/>
+      <c r="U145" s="553"/>
+      <c r="V145" s="553"/>
       <c r="W145" s="290"/>
       <c r="X145" s="290"/>
     </row>
     <row r="146" spans="1:24" ht="17.25" customHeight="1">
-      <c r="B146" s="532" t="s">
+      <c r="B146" s="543" t="s">
         <v>231</v>
       </c>
-      <c r="C146" s="532"/>
-      <c r="D146" s="532"/>
-      <c r="E146" s="532"/>
-      <c r="F146" s="532"/>
-      <c r="G146" s="532"/>
-      <c r="H146" s="532"/>
-      <c r="I146" s="532"/>
-      <c r="J146" s="532"/>
-      <c r="K146" s="532"/>
-      <c r="L146" s="532"/>
-      <c r="M146" s="532"/>
-      <c r="N146" s="532"/>
-      <c r="O146" s="532"/>
-      <c r="P146" s="532"/>
-      <c r="Q146" s="532"/>
-      <c r="R146" s="532"/>
-      <c r="S146" s="532"/>
-      <c r="T146" s="532"/>
-      <c r="U146" s="532"/>
-      <c r="V146" s="532"/>
-      <c r="W146" s="532"/>
-      <c r="X146" s="532"/>
+      <c r="C146" s="543"/>
+      <c r="D146" s="543"/>
+      <c r="E146" s="543"/>
+      <c r="F146" s="543"/>
+      <c r="G146" s="543"/>
+      <c r="H146" s="543"/>
+      <c r="I146" s="543"/>
+      <c r="J146" s="543"/>
+      <c r="K146" s="543"/>
+      <c r="L146" s="543"/>
+      <c r="M146" s="543"/>
+      <c r="N146" s="543"/>
+      <c r="O146" s="543"/>
+      <c r="P146" s="543"/>
+      <c r="Q146" s="543"/>
+      <c r="R146" s="543"/>
+      <c r="S146" s="543"/>
+      <c r="T146" s="543"/>
+      <c r="U146" s="543"/>
+      <c r="V146" s="543"/>
+      <c r="W146" s="543"/>
+      <c r="X146" s="543"/>
     </row>
     <row r="147" spans="1:24" ht="17.25" customHeight="1">
       <c r="A147" s="259"/>
-      <c r="B147" s="532"/>
-      <c r="C147" s="532"/>
-      <c r="D147" s="532"/>
-      <c r="E147" s="532"/>
-      <c r="F147" s="532"/>
-      <c r="G147" s="532"/>
-      <c r="H147" s="532"/>
-      <c r="I147" s="532"/>
-      <c r="J147" s="532"/>
-      <c r="K147" s="532"/>
-      <c r="L147" s="532"/>
-      <c r="M147" s="532"/>
-      <c r="N147" s="532"/>
-      <c r="O147" s="532"/>
-      <c r="P147" s="532"/>
-      <c r="Q147" s="532"/>
-      <c r="R147" s="532"/>
-      <c r="S147" s="532"/>
-      <c r="T147" s="532"/>
-      <c r="U147" s="532"/>
-      <c r="V147" s="532"/>
-      <c r="W147" s="532"/>
-      <c r="X147" s="532"/>
+      <c r="B147" s="543"/>
+      <c r="C147" s="543"/>
+      <c r="D147" s="543"/>
+      <c r="E147" s="543"/>
+      <c r="F147" s="543"/>
+      <c r="G147" s="543"/>
+      <c r="H147" s="543"/>
+      <c r="I147" s="543"/>
+      <c r="J147" s="543"/>
+      <c r="K147" s="543"/>
+      <c r="L147" s="543"/>
+      <c r="M147" s="543"/>
+      <c r="N147" s="543"/>
+      <c r="O147" s="543"/>
+      <c r="P147" s="543"/>
+      <c r="Q147" s="543"/>
+      <c r="R147" s="543"/>
+      <c r="S147" s="543"/>
+      <c r="T147" s="543"/>
+      <c r="U147" s="543"/>
+      <c r="V147" s="543"/>
+      <c r="W147" s="543"/>
+      <c r="X147" s="543"/>
     </row>
     <row r="148" spans="1:24" ht="17.25" customHeight="1">
       <c r="A148" s="259">
         <v>11</v>
       </c>
-      <c r="B148" s="532" t="s">
+      <c r="B148" s="543" t="s">
         <v>232</v>
       </c>
-      <c r="C148" s="532"/>
-      <c r="D148" s="532"/>
-      <c r="E148" s="532"/>
-      <c r="F148" s="532"/>
-      <c r="G148" s="532"/>
-      <c r="H148" s="532"/>
-      <c r="I148" s="532"/>
-      <c r="J148" s="532"/>
-      <c r="K148" s="532"/>
-      <c r="L148" s="532"/>
-      <c r="M148" s="532"/>
-      <c r="N148" s="532"/>
-      <c r="O148" s="532"/>
-      <c r="P148" s="532"/>
-      <c r="Q148" s="532"/>
-      <c r="R148" s="532"/>
-      <c r="S148" s="532"/>
-      <c r="T148" s="532"/>
-      <c r="U148" s="532"/>
-      <c r="V148" s="532"/>
-      <c r="W148" s="532"/>
-      <c r="X148" s="532"/>
+      <c r="C148" s="543"/>
+      <c r="D148" s="543"/>
+      <c r="E148" s="543"/>
+      <c r="F148" s="543"/>
+      <c r="G148" s="543"/>
+      <c r="H148" s="543"/>
+      <c r="I148" s="543"/>
+      <c r="J148" s="543"/>
+      <c r="K148" s="543"/>
+      <c r="L148" s="543"/>
+      <c r="M148" s="543"/>
+      <c r="N148" s="543"/>
+      <c r="O148" s="543"/>
+      <c r="P148" s="543"/>
+      <c r="Q148" s="543"/>
+      <c r="R148" s="543"/>
+      <c r="S148" s="543"/>
+      <c r="T148" s="543"/>
+      <c r="U148" s="543"/>
+      <c r="V148" s="543"/>
+      <c r="W148" s="543"/>
+      <c r="X148" s="543"/>
     </row>
     <row r="149" spans="1:24" ht="17.25" customHeight="1">
-      <c r="B149" s="532"/>
-      <c r="C149" s="532"/>
-      <c r="D149" s="532"/>
-      <c r="E149" s="532"/>
-      <c r="F149" s="532"/>
-      <c r="G149" s="532"/>
-      <c r="H149" s="532"/>
-      <c r="I149" s="532"/>
-      <c r="J149" s="532"/>
-      <c r="K149" s="532"/>
-      <c r="L149" s="532"/>
-      <c r="M149" s="532"/>
-      <c r="N149" s="532"/>
-      <c r="O149" s="532"/>
-      <c r="P149" s="532"/>
-      <c r="Q149" s="532"/>
-      <c r="R149" s="532"/>
-      <c r="S149" s="532"/>
-      <c r="T149" s="532"/>
-      <c r="U149" s="532"/>
-      <c r="V149" s="532"/>
-      <c r="W149" s="532"/>
-      <c r="X149" s="532"/>
+      <c r="B149" s="543"/>
+      <c r="C149" s="543"/>
+      <c r="D149" s="543"/>
+      <c r="E149" s="543"/>
+      <c r="F149" s="543"/>
+      <c r="G149" s="543"/>
+      <c r="H149" s="543"/>
+      <c r="I149" s="543"/>
+      <c r="J149" s="543"/>
+      <c r="K149" s="543"/>
+      <c r="L149" s="543"/>
+      <c r="M149" s="543"/>
+      <c r="N149" s="543"/>
+      <c r="O149" s="543"/>
+      <c r="P149" s="543"/>
+      <c r="Q149" s="543"/>
+      <c r="R149" s="543"/>
+      <c r="S149" s="543"/>
+      <c r="T149" s="543"/>
+      <c r="U149" s="543"/>
+      <c r="V149" s="543"/>
+      <c r="W149" s="543"/>
+      <c r="X149" s="543"/>
     </row>
     <row r="150" spans="1:24" ht="17.25" customHeight="1">
-      <c r="B150" s="532"/>
-      <c r="C150" s="532"/>
-      <c r="D150" s="532"/>
-      <c r="E150" s="532"/>
-      <c r="F150" s="532"/>
-      <c r="G150" s="532"/>
-      <c r="H150" s="532"/>
-      <c r="I150" s="532"/>
-      <c r="J150" s="532"/>
-      <c r="K150" s="532"/>
-      <c r="L150" s="532"/>
-      <c r="M150" s="532"/>
-      <c r="N150" s="532"/>
-      <c r="O150" s="532"/>
-      <c r="P150" s="532"/>
-      <c r="Q150" s="532"/>
-      <c r="R150" s="532"/>
-      <c r="S150" s="532"/>
-      <c r="T150" s="532"/>
-      <c r="U150" s="532"/>
-      <c r="V150" s="532"/>
-      <c r="W150" s="532"/>
-      <c r="X150" s="532"/>
+      <c r="B150" s="543"/>
+      <c r="C150" s="543"/>
+      <c r="D150" s="543"/>
+      <c r="E150" s="543"/>
+      <c r="F150" s="543"/>
+      <c r="G150" s="543"/>
+      <c r="H150" s="543"/>
+      <c r="I150" s="543"/>
+      <c r="J150" s="543"/>
+      <c r="K150" s="543"/>
+      <c r="L150" s="543"/>
+      <c r="M150" s="543"/>
+      <c r="N150" s="543"/>
+      <c r="O150" s="543"/>
+      <c r="P150" s="543"/>
+      <c r="Q150" s="543"/>
+      <c r="R150" s="543"/>
+      <c r="S150" s="543"/>
+      <c r="T150" s="543"/>
+      <c r="U150" s="543"/>
+      <c r="V150" s="543"/>
+      <c r="W150" s="543"/>
+      <c r="X150" s="543"/>
     </row>
     <row r="151" spans="1:24" ht="17.25" customHeight="1">
       <c r="B151" s="201"/>
@@ -14344,23 +14389,23 @@
       <c r="B152" s="233" t="s">
         <v>233</v>
       </c>
-      <c r="D152" s="490" t="s">
+      <c r="D152" s="481" t="s">
         <v>272</v>
       </c>
-      <c r="E152" s="490"/>
-      <c r="F152" s="490"/>
-      <c r="G152" s="490"/>
-      <c r="H152" s="490"/>
+      <c r="E152" s="481"/>
+      <c r="F152" s="481"/>
+      <c r="G152" s="481"/>
+      <c r="H152" s="481"/>
       <c r="Q152" s="233" t="s">
         <v>234</v>
       </c>
-      <c r="R152" s="490" t="s">
+      <c r="R152" s="481" t="s">
         <v>272</v>
       </c>
-      <c r="S152" s="490"/>
-      <c r="T152" s="490"/>
-      <c r="U152" s="490"/>
-      <c r="V152" s="490"/>
+      <c r="S152" s="481"/>
+      <c r="T152" s="481"/>
+      <c r="U152" s="481"/>
+      <c r="V152" s="481"/>
       <c r="W152" s="201"/>
       <c r="X152" s="201"/>
     </row>
@@ -14375,87 +14420,87 @@
       <c r="B154" s="184" t="s">
         <v>235</v>
       </c>
-      <c r="C154" s="490"/>
-      <c r="D154" s="490"/>
-      <c r="E154" s="490"/>
-      <c r="F154" s="490"/>
-      <c r="G154" s="490"/>
+      <c r="C154" s="481"/>
+      <c r="D154" s="481"/>
+      <c r="E154" s="481"/>
+      <c r="F154" s="481"/>
+      <c r="G154" s="481"/>
       <c r="I154" s="184" t="s">
         <v>64</v>
       </c>
-      <c r="J154" s="490"/>
-      <c r="K154" s="490"/>
-      <c r="L154" s="490"/>
-      <c r="M154" s="490"/>
-      <c r="N154" s="490"/>
-      <c r="O154" s="490"/>
+      <c r="J154" s="481"/>
+      <c r="K154" s="481"/>
+      <c r="L154" s="481"/>
+      <c r="M154" s="481"/>
+      <c r="N154" s="481"/>
+      <c r="O154" s="481"/>
       <c r="Q154" s="184" t="s">
         <v>249</v>
       </c>
-      <c r="R154" s="526"/>
-      <c r="S154" s="526"/>
-      <c r="T154" s="526"/>
-      <c r="U154" s="526"/>
-      <c r="V154" s="526"/>
-      <c r="W154" s="526"/>
+      <c r="R154" s="552"/>
+      <c r="S154" s="552"/>
+      <c r="T154" s="552"/>
+      <c r="U154" s="552"/>
+      <c r="V154" s="552"/>
+      <c r="W154" s="552"/>
       <c r="X154" s="201"/>
     </row>
     <row r="155" spans="1:24" ht="22.5" customHeight="1">
       <c r="B155" s="227" t="s">
         <v>248</v>
       </c>
-      <c r="C155" s="490"/>
-      <c r="D155" s="490"/>
-      <c r="E155" s="490"/>
-      <c r="F155" s="490"/>
-      <c r="G155" s="490"/>
+      <c r="C155" s="481"/>
+      <c r="D155" s="481"/>
+      <c r="E155" s="481"/>
+      <c r="F155" s="481"/>
+      <c r="G155" s="481"/>
       <c r="I155" s="184" t="s">
         <v>250</v>
       </c>
-      <c r="J155" s="490"/>
-      <c r="K155" s="490"/>
-      <c r="L155" s="490"/>
-      <c r="M155" s="490"/>
-      <c r="N155" s="490"/>
-      <c r="O155" s="490"/>
+      <c r="J155" s="481"/>
+      <c r="K155" s="481"/>
+      <c r="L155" s="481"/>
+      <c r="M155" s="481"/>
+      <c r="N155" s="481"/>
+      <c r="O155" s="481"/>
       <c r="Q155" s="184" t="s">
         <v>251</v>
       </c>
-      <c r="R155" s="526"/>
-      <c r="S155" s="526"/>
-      <c r="T155" s="526"/>
-      <c r="U155" s="526"/>
-      <c r="V155" s="526"/>
-      <c r="W155" s="526"/>
+      <c r="R155" s="552"/>
+      <c r="S155" s="552"/>
+      <c r="T155" s="552"/>
+      <c r="U155" s="552"/>
+      <c r="V155" s="552"/>
+      <c r="W155" s="552"/>
       <c r="X155" s="201"/>
     </row>
     <row r="156" spans="1:24" ht="26.25" customHeight="1">
       <c r="B156" s="184" t="s">
         <v>252</v>
       </c>
-      <c r="C156" s="490"/>
-      <c r="D156" s="490"/>
-      <c r="E156" s="490"/>
-      <c r="F156" s="490"/>
-      <c r="G156" s="490"/>
+      <c r="C156" s="481"/>
+      <c r="D156" s="481"/>
+      <c r="E156" s="481"/>
+      <c r="F156" s="481"/>
+      <c r="G156" s="481"/>
       <c r="I156" s="184" t="s">
         <v>253</v>
       </c>
-      <c r="J156" s="490"/>
-      <c r="K156" s="490"/>
-      <c r="L156" s="490"/>
-      <c r="M156" s="490"/>
-      <c r="N156" s="490"/>
-      <c r="O156" s="490"/>
+      <c r="J156" s="481"/>
+      <c r="K156" s="481"/>
+      <c r="L156" s="481"/>
+      <c r="M156" s="481"/>
+      <c r="N156" s="481"/>
+      <c r="O156" s="481"/>
       <c r="Q156" s="184" t="s">
         <v>254</v>
       </c>
-      <c r="R156" s="526"/>
-      <c r="S156" s="526"/>
-      <c r="T156" s="526"/>
-      <c r="U156" s="526"/>
-      <c r="V156" s="526"/>
-      <c r="W156" s="526"/>
+      <c r="R156" s="552"/>
+      <c r="S156" s="552"/>
+      <c r="T156" s="552"/>
+      <c r="U156" s="552"/>
+      <c r="V156" s="552"/>
+      <c r="W156" s="552"/>
       <c r="X156" s="201"/>
     </row>
     <row r="157" spans="1:24" ht="17.25" customHeight="1">
@@ -14478,11 +14523,52 @@
   </sheetData>
   <sheetProtection formatColumns="0" formatRows="0" selectLockedCells="1"/>
   <mergeCells count="67">
-    <mergeCell ref="R41:T41"/>
-    <mergeCell ref="L39:P39"/>
-    <mergeCell ref="K45:L45"/>
-    <mergeCell ref="N49:O49"/>
-    <mergeCell ref="L49:M49"/>
+    <mergeCell ref="B52:T52"/>
+    <mergeCell ref="B53:T53"/>
+    <mergeCell ref="B54:T54"/>
+    <mergeCell ref="C155:G155"/>
+    <mergeCell ref="J155:O155"/>
+    <mergeCell ref="R154:W154"/>
+    <mergeCell ref="R155:W155"/>
+    <mergeCell ref="B139:V139"/>
+    <mergeCell ref="B140:V140"/>
+    <mergeCell ref="B141:V141"/>
+    <mergeCell ref="B142:V142"/>
+    <mergeCell ref="B143:V143"/>
+    <mergeCell ref="M134:O134"/>
+    <mergeCell ref="G135:O135"/>
+    <mergeCell ref="G136:I136"/>
+    <mergeCell ref="M136:O136"/>
+    <mergeCell ref="C156:G156"/>
+    <mergeCell ref="J156:O156"/>
+    <mergeCell ref="R156:W156"/>
+    <mergeCell ref="B144:V144"/>
+    <mergeCell ref="D152:H152"/>
+    <mergeCell ref="R152:V152"/>
+    <mergeCell ref="C154:G154"/>
+    <mergeCell ref="J154:O154"/>
+    <mergeCell ref="B145:V145"/>
+    <mergeCell ref="B146:X146"/>
+    <mergeCell ref="B147:X147"/>
+    <mergeCell ref="B148:X148"/>
+    <mergeCell ref="B149:X149"/>
+    <mergeCell ref="B150:X150"/>
+    <mergeCell ref="T136:X136"/>
+    <mergeCell ref="B127:X127"/>
+    <mergeCell ref="B128:X128"/>
+    <mergeCell ref="B129:X129"/>
+    <mergeCell ref="B130:X130"/>
+    <mergeCell ref="B131:X131"/>
+    <mergeCell ref="B122:X122"/>
+    <mergeCell ref="B123:X123"/>
+    <mergeCell ref="B124:X124"/>
+    <mergeCell ref="B125:X125"/>
+    <mergeCell ref="B126:X126"/>
+    <mergeCell ref="B118:X118"/>
+    <mergeCell ref="B119:E119"/>
+    <mergeCell ref="F119:X119"/>
+    <mergeCell ref="B120:X120"/>
+    <mergeCell ref="B121:X121"/>
     <mergeCell ref="H37:I37"/>
     <mergeCell ref="K40:L40"/>
     <mergeCell ref="M40:N40"/>
@@ -14499,52 +14585,11 @@
     <mergeCell ref="D57:E57"/>
     <mergeCell ref="B50:H50"/>
     <mergeCell ref="I50:O50"/>
-    <mergeCell ref="B118:X118"/>
-    <mergeCell ref="B119:E119"/>
-    <mergeCell ref="F119:X119"/>
-    <mergeCell ref="B120:X120"/>
-    <mergeCell ref="B121:X121"/>
-    <mergeCell ref="B122:X122"/>
-    <mergeCell ref="B123:X123"/>
-    <mergeCell ref="B124:X124"/>
-    <mergeCell ref="B125:X125"/>
-    <mergeCell ref="B126:X126"/>
-    <mergeCell ref="T136:X136"/>
-    <mergeCell ref="B127:X127"/>
-    <mergeCell ref="B128:X128"/>
-    <mergeCell ref="B129:X129"/>
-    <mergeCell ref="B130:X130"/>
-    <mergeCell ref="B131:X131"/>
-    <mergeCell ref="C156:G156"/>
-    <mergeCell ref="J156:O156"/>
-    <mergeCell ref="R156:W156"/>
-    <mergeCell ref="B144:V144"/>
-    <mergeCell ref="D152:H152"/>
-    <mergeCell ref="R152:V152"/>
-    <mergeCell ref="C154:G154"/>
-    <mergeCell ref="J154:O154"/>
-    <mergeCell ref="B145:V145"/>
-    <mergeCell ref="B146:X146"/>
-    <mergeCell ref="B147:X147"/>
-    <mergeCell ref="B148:X148"/>
-    <mergeCell ref="B149:X149"/>
-    <mergeCell ref="B150:X150"/>
-    <mergeCell ref="B52:T52"/>
-    <mergeCell ref="B53:T53"/>
-    <mergeCell ref="B54:T54"/>
-    <mergeCell ref="C155:G155"/>
-    <mergeCell ref="J155:O155"/>
-    <mergeCell ref="R154:W154"/>
-    <mergeCell ref="R155:W155"/>
-    <mergeCell ref="B139:V139"/>
-    <mergeCell ref="B140:V140"/>
-    <mergeCell ref="B141:V141"/>
-    <mergeCell ref="B142:V142"/>
-    <mergeCell ref="B143:V143"/>
-    <mergeCell ref="M134:O134"/>
-    <mergeCell ref="G135:O135"/>
-    <mergeCell ref="G136:I136"/>
-    <mergeCell ref="M136:O136"/>
+    <mergeCell ref="R41:T41"/>
+    <mergeCell ref="L39:P39"/>
+    <mergeCell ref="K45:L45"/>
+    <mergeCell ref="N49:O49"/>
+    <mergeCell ref="L49:M49"/>
   </mergeCells>
   <phoneticPr fontId="21" type="noConversion"/>
   <dataValidations count="4">
@@ -14617,37 +14662,37 @@
       <c r="A2" s="80" t="s">
         <v>90</v>
       </c>
-      <c r="B2" s="676" t="s">
+      <c r="B2" s="560" t="s">
         <v>272</v>
       </c>
-      <c r="C2" s="676"/>
-      <c r="D2" s="676"/>
-      <c r="E2" s="679" t="s">
+      <c r="C2" s="560"/>
+      <c r="D2" s="560"/>
+      <c r="E2" s="563" t="s">
         <v>236</v>
       </c>
-      <c r="F2" s="680"/>
-      <c r="G2" s="680"/>
-      <c r="H2" s="680"/>
-      <c r="I2" s="680"/>
-      <c r="J2" s="680"/>
-      <c r="K2" s="680"/>
-      <c r="L2" s="680"/>
-      <c r="M2" s="680"/>
-      <c r="N2" s="680"/>
-      <c r="O2" s="680"/>
-      <c r="P2" s="680"/>
-      <c r="Q2" s="680"/>
-      <c r="R2" s="680"/>
-      <c r="S2" s="680"/>
-      <c r="T2" s="680"/>
-      <c r="U2" s="680"/>
-      <c r="V2" s="680"/>
-      <c r="W2" s="680"/>
-      <c r="X2" s="680"/>
-      <c r="Y2" s="680"/>
-      <c r="Z2" s="680"/>
-      <c r="AA2" s="680"/>
-      <c r="AB2" s="681"/>
+      <c r="F2" s="564"/>
+      <c r="G2" s="564"/>
+      <c r="H2" s="564"/>
+      <c r="I2" s="564"/>
+      <c r="J2" s="564"/>
+      <c r="K2" s="564"/>
+      <c r="L2" s="564"/>
+      <c r="M2" s="564"/>
+      <c r="N2" s="564"/>
+      <c r="O2" s="564"/>
+      <c r="P2" s="564"/>
+      <c r="Q2" s="564"/>
+      <c r="R2" s="564"/>
+      <c r="S2" s="564"/>
+      <c r="T2" s="564"/>
+      <c r="U2" s="564"/>
+      <c r="V2" s="564"/>
+      <c r="W2" s="564"/>
+      <c r="X2" s="564"/>
+      <c r="Y2" s="564"/>
+      <c r="Z2" s="564"/>
+      <c r="AA2" s="564"/>
+      <c r="AB2" s="565"/>
       <c r="AC2" s="79"/>
       <c r="AD2" s="79"/>
       <c r="AE2" s="79"/>
@@ -14657,20 +14702,20 @@
       <c r="AI2" s="53"/>
       <c r="AJ2" s="53"/>
       <c r="AP2" s="6"/>
-      <c r="BF2" s="677"/>
-      <c r="BG2" s="677"/>
-      <c r="BH2" s="677"/>
-      <c r="BI2" s="677"/>
-      <c r="BJ2" s="677"/>
-      <c r="BK2" s="677"/>
-      <c r="BL2" s="677"/>
-      <c r="BM2" s="677"/>
-      <c r="BN2" s="677"/>
-      <c r="BO2" s="677"/>
-      <c r="BP2" s="677"/>
-      <c r="BQ2" s="677"/>
-      <c r="BR2" s="677"/>
-      <c r="BS2" s="677"/>
+      <c r="BF2" s="561"/>
+      <c r="BG2" s="561"/>
+      <c r="BH2" s="561"/>
+      <c r="BI2" s="561"/>
+      <c r="BJ2" s="561"/>
+      <c r="BK2" s="561"/>
+      <c r="BL2" s="561"/>
+      <c r="BM2" s="561"/>
+      <c r="BN2" s="561"/>
+      <c r="BO2" s="561"/>
+      <c r="BP2" s="561"/>
+      <c r="BQ2" s="561"/>
+      <c r="BR2" s="561"/>
+      <c r="BS2" s="561"/>
     </row>
     <row r="3" spans="1:75" ht="30.75" customHeight="1" thickBot="1">
       <c r="A3" s="81" t="s">
@@ -14746,30 +14791,30 @@
       <c r="A4" s="34"/>
       <c r="B4" s="34"/>
       <c r="C4" s="34"/>
-      <c r="E4" s="682"/>
-      <c r="F4" s="683"/>
-      <c r="G4" s="683"/>
-      <c r="H4" s="683"/>
-      <c r="I4" s="683"/>
-      <c r="J4" s="683"/>
-      <c r="K4" s="683"/>
-      <c r="L4" s="683"/>
-      <c r="M4" s="683"/>
-      <c r="N4" s="683"/>
-      <c r="O4" s="683"/>
-      <c r="P4" s="683"/>
-      <c r="Q4" s="683"/>
-      <c r="R4" s="683"/>
-      <c r="S4" s="683"/>
-      <c r="T4" s="683"/>
-      <c r="U4" s="683"/>
-      <c r="V4" s="683"/>
-      <c r="W4" s="683"/>
-      <c r="X4" s="683"/>
-      <c r="Y4" s="683"/>
-      <c r="Z4" s="683"/>
-      <c r="AA4" s="683"/>
-      <c r="AB4" s="684"/>
+      <c r="E4" s="566"/>
+      <c r="F4" s="567"/>
+      <c r="G4" s="567"/>
+      <c r="H4" s="567"/>
+      <c r="I4" s="567"/>
+      <c r="J4" s="567"/>
+      <c r="K4" s="567"/>
+      <c r="L4" s="567"/>
+      <c r="M4" s="567"/>
+      <c r="N4" s="567"/>
+      <c r="O4" s="567"/>
+      <c r="P4" s="567"/>
+      <c r="Q4" s="567"/>
+      <c r="R4" s="567"/>
+      <c r="S4" s="567"/>
+      <c r="T4" s="567"/>
+      <c r="U4" s="567"/>
+      <c r="V4" s="567"/>
+      <c r="W4" s="567"/>
+      <c r="X4" s="567"/>
+      <c r="Y4" s="567"/>
+      <c r="Z4" s="567"/>
+      <c r="AA4" s="567"/>
+      <c r="AB4" s="568"/>
       <c r="AC4" s="154"/>
       <c r="AD4" s="154"/>
       <c r="AE4" s="154"/>
@@ -14823,38 +14868,38 @@
       <c r="D5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="685"/>
-      <c r="F5" s="686"/>
-      <c r="G5" s="686"/>
-      <c r="H5" s="686"/>
-      <c r="I5" s="686"/>
-      <c r="J5" s="686"/>
-      <c r="K5" s="686"/>
-      <c r="L5" s="686"/>
-      <c r="M5" s="686"/>
-      <c r="N5" s="686"/>
-      <c r="O5" s="686"/>
-      <c r="P5" s="686"/>
-      <c r="Q5" s="686"/>
-      <c r="R5" s="686"/>
-      <c r="S5" s="686"/>
-      <c r="T5" s="686"/>
-      <c r="U5" s="686"/>
-      <c r="V5" s="686"/>
-      <c r="W5" s="686"/>
-      <c r="X5" s="686"/>
-      <c r="Y5" s="686"/>
-      <c r="Z5" s="686"/>
-      <c r="AA5" s="686"/>
-      <c r="AB5" s="687"/>
+      <c r="E5" s="569"/>
+      <c r="F5" s="570"/>
+      <c r="G5" s="570"/>
+      <c r="H5" s="570"/>
+      <c r="I5" s="570"/>
+      <c r="J5" s="570"/>
+      <c r="K5" s="570"/>
+      <c r="L5" s="570"/>
+      <c r="M5" s="570"/>
+      <c r="N5" s="570"/>
+      <c r="O5" s="570"/>
+      <c r="P5" s="570"/>
+      <c r="Q5" s="570"/>
+      <c r="R5" s="570"/>
+      <c r="S5" s="570"/>
+      <c r="T5" s="570"/>
+      <c r="U5" s="570"/>
+      <c r="V5" s="570"/>
+      <c r="W5" s="570"/>
+      <c r="X5" s="570"/>
+      <c r="Y5" s="570"/>
+      <c r="Z5" s="570"/>
+      <c r="AA5" s="570"/>
+      <c r="AB5" s="571"/>
       <c r="AC5" s="157"/>
       <c r="AD5" s="157"/>
       <c r="AE5" s="158"/>
       <c r="AF5" s="158"/>
-      <c r="AG5" s="678"/>
-      <c r="AH5" s="678"/>
-      <c r="AI5" s="678"/>
-      <c r="AJ5" s="678"/>
+      <c r="AG5" s="562"/>
+      <c r="AH5" s="562"/>
+      <c r="AI5" s="562"/>
+      <c r="AJ5" s="562"/>
       <c r="AK5" s="159"/>
       <c r="AL5" s="54"/>
       <c r="AM5" s="28"/>
@@ -14906,62 +14951,62 @@
       <c r="D6" s="83" t="s">
         <v>78</v>
       </c>
-      <c r="E6" s="672">
+      <c r="E6" s="572">
         <v>2</v>
       </c>
-      <c r="F6" s="671"/>
-      <c r="G6" s="672">
+      <c r="F6" s="574"/>
+      <c r="G6" s="572">
         <v>4</v>
       </c>
-      <c r="H6" s="670"/>
-      <c r="I6" s="669">
+      <c r="H6" s="575"/>
+      <c r="I6" s="576">
         <v>6</v>
       </c>
-      <c r="J6" s="671"/>
-      <c r="K6" s="672">
+      <c r="J6" s="574"/>
+      <c r="K6" s="572">
         <v>8</v>
       </c>
-      <c r="L6" s="671"/>
-      <c r="M6" s="672">
+      <c r="L6" s="574"/>
+      <c r="M6" s="572">
         <v>10</v>
       </c>
-      <c r="N6" s="671"/>
-      <c r="O6" s="672">
+      <c r="N6" s="574"/>
+      <c r="O6" s="572">
         <v>12</v>
       </c>
-      <c r="P6" s="670"/>
-      <c r="Q6" s="669">
+      <c r="P6" s="575"/>
+      <c r="Q6" s="576">
         <v>14</v>
       </c>
-      <c r="R6" s="670"/>
-      <c r="S6" s="669">
+      <c r="R6" s="575"/>
+      <c r="S6" s="576">
         <v>16</v>
       </c>
-      <c r="T6" s="671"/>
-      <c r="U6" s="672">
+      <c r="T6" s="574"/>
+      <c r="U6" s="572">
         <v>18</v>
       </c>
-      <c r="V6" s="675"/>
-      <c r="W6" s="672">
+      <c r="V6" s="573"/>
+      <c r="W6" s="572">
         <v>20</v>
       </c>
-      <c r="X6" s="675"/>
-      <c r="Y6" s="672">
+      <c r="X6" s="573"/>
+      <c r="Y6" s="572">
         <v>22</v>
       </c>
-      <c r="Z6" s="675"/>
-      <c r="AA6" s="672">
+      <c r="Z6" s="573"/>
+      <c r="AA6" s="572">
         <v>24</v>
       </c>
-      <c r="AB6" s="671"/>
-      <c r="AC6" s="673"/>
-      <c r="AD6" s="673"/>
-      <c r="AE6" s="674"/>
-      <c r="AF6" s="674"/>
+      <c r="AB6" s="574"/>
+      <c r="AC6" s="584"/>
+      <c r="AD6" s="584"/>
+      <c r="AE6" s="585"/>
+      <c r="AF6" s="585"/>
       <c r="AG6" s="160"/>
       <c r="AH6" s="161"/>
-      <c r="AI6" s="674"/>
-      <c r="AJ6" s="674"/>
+      <c r="AI6" s="585"/>
+      <c r="AJ6" s="585"/>
       <c r="AK6" s="161"/>
       <c r="AL6" s="31"/>
       <c r="AM6" s="31"/>
@@ -15089,16 +15134,16 @@
       <c r="AA8" s="300"/>
       <c r="AB8" s="301"/>
       <c r="AC8" s="99"/>
-      <c r="AD8" s="666" t="s">
+      <c r="AD8" s="581" t="s">
         <v>92</v>
       </c>
-      <c r="AE8" s="667"/>
-      <c r="AF8" s="667"/>
-      <c r="AG8" s="667"/>
-      <c r="AH8" s="667"/>
-      <c r="AI8" s="667"/>
-      <c r="AJ8" s="667"/>
-      <c r="AK8" s="668"/>
+      <c r="AE8" s="582"/>
+      <c r="AF8" s="582"/>
+      <c r="AG8" s="582"/>
+      <c r="AH8" s="582"/>
+      <c r="AI8" s="582"/>
+      <c r="AJ8" s="582"/>
+      <c r="AK8" s="583"/>
       <c r="AL8" s="40"/>
       <c r="AP8" s="6"/>
       <c r="BO8" s="7"/>
@@ -15993,12 +16038,12 @@
       <c r="BW23" s="27"/>
     </row>
     <row r="24" spans="1:75" ht="45.75" customHeight="1">
-      <c r="A24" s="663" t="s">
+      <c r="A24" s="578" t="s">
         <v>237</v>
       </c>
-      <c r="B24" s="664"/>
-      <c r="C24" s="664"/>
-      <c r="D24" s="665"/>
+      <c r="B24" s="579"/>
+      <c r="C24" s="579"/>
+      <c r="D24" s="580"/>
       <c r="E24" s="315"/>
       <c r="F24" s="316"/>
       <c r="G24" s="317"/>
@@ -16025,12 +16070,12 @@
       <c r="AB24" s="321"/>
       <c r="AC24" s="111"/>
       <c r="AD24" s="112"/>
-      <c r="AE24" s="656"/>
-      <c r="AF24" s="656"/>
-      <c r="AG24" s="656"/>
-      <c r="AH24" s="656"/>
-      <c r="AI24" s="656"/>
-      <c r="AJ24" s="656"/>
+      <c r="AE24" s="577"/>
+      <c r="AF24" s="577"/>
+      <c r="AG24" s="577"/>
+      <c r="AH24" s="577"/>
+      <c r="AI24" s="577"/>
+      <c r="AJ24" s="577"/>
       <c r="AK24" s="113"/>
       <c r="AL24" s="47"/>
       <c r="AM24" s="34"/>
@@ -16149,44 +16194,44 @@
       <c r="BW25" s="38"/>
     </row>
     <row r="26" spans="1:75" s="10" customFormat="1" ht="24.75" customHeight="1">
-      <c r="A26" s="654"/>
-      <c r="B26" s="655"/>
+      <c r="A26" s="592"/>
+      <c r="B26" s="593"/>
       <c r="C26" s="84" t="s">
         <v>2</v>
       </c>
       <c r="D26" s="379"/>
-      <c r="E26" s="657"/>
-      <c r="F26" s="658"/>
-      <c r="G26" s="659"/>
-      <c r="H26" s="658"/>
-      <c r="I26" s="659"/>
-      <c r="J26" s="645"/>
-      <c r="K26" s="659"/>
-      <c r="L26" s="645"/>
-      <c r="M26" s="657"/>
-      <c r="N26" s="658"/>
-      <c r="O26" s="650"/>
-      <c r="P26" s="650"/>
-      <c r="Q26" s="649"/>
-      <c r="R26" s="648"/>
-      <c r="S26" s="652"/>
-      <c r="T26" s="653"/>
+      <c r="E26" s="594"/>
+      <c r="F26" s="595"/>
+      <c r="G26" s="596"/>
+      <c r="H26" s="595"/>
+      <c r="I26" s="596"/>
+      <c r="J26" s="597"/>
+      <c r="K26" s="596"/>
+      <c r="L26" s="597"/>
+      <c r="M26" s="594"/>
+      <c r="N26" s="595"/>
+      <c r="O26" s="598"/>
+      <c r="P26" s="598"/>
+      <c r="Q26" s="586"/>
+      <c r="R26" s="587"/>
+      <c r="S26" s="588"/>
+      <c r="T26" s="589"/>
       <c r="U26" s="326"/>
       <c r="V26" s="327"/>
       <c r="W26" s="326"/>
       <c r="X26" s="327"/>
       <c r="Y26" s="326"/>
       <c r="Z26" s="326"/>
-      <c r="AA26" s="649"/>
-      <c r="AB26" s="651"/>
-      <c r="AC26" s="645"/>
-      <c r="AD26" s="645"/>
-      <c r="AE26" s="646"/>
-      <c r="AF26" s="646"/>
-      <c r="AG26" s="646"/>
-      <c r="AH26" s="646"/>
-      <c r="AI26" s="646"/>
-      <c r="AJ26" s="646"/>
+      <c r="AA26" s="586"/>
+      <c r="AB26" s="590"/>
+      <c r="AC26" s="597"/>
+      <c r="AD26" s="597"/>
+      <c r="AE26" s="591"/>
+      <c r="AF26" s="591"/>
+      <c r="AG26" s="591"/>
+      <c r="AH26" s="591"/>
+      <c r="AI26" s="591"/>
+      <c r="AJ26" s="591"/>
       <c r="AK26" s="116"/>
       <c r="AL26" s="13"/>
       <c r="AM26" s="13"/>
@@ -16228,44 +16273,44 @@
       <c r="BW26" s="13"/>
     </row>
     <row r="27" spans="1:75" s="10" customFormat="1" ht="24.75" customHeight="1">
-      <c r="A27" s="654"/>
-      <c r="B27" s="655"/>
+      <c r="A27" s="592"/>
+      <c r="B27" s="593"/>
       <c r="C27" s="85" t="s">
         <v>66</v>
       </c>
       <c r="D27" s="380"/>
-      <c r="E27" s="660"/>
-      <c r="F27" s="661"/>
-      <c r="G27" s="643"/>
-      <c r="H27" s="661"/>
-      <c r="I27" s="643"/>
-      <c r="J27" s="662"/>
-      <c r="K27" s="643"/>
-      <c r="L27" s="662"/>
-      <c r="M27" s="660"/>
-      <c r="N27" s="661"/>
-      <c r="O27" s="662"/>
-      <c r="P27" s="662"/>
-      <c r="Q27" s="643"/>
-      <c r="R27" s="661"/>
-      <c r="S27" s="643"/>
-      <c r="T27" s="661"/>
+      <c r="E27" s="599"/>
+      <c r="F27" s="600"/>
+      <c r="G27" s="601"/>
+      <c r="H27" s="600"/>
+      <c r="I27" s="601"/>
+      <c r="J27" s="602"/>
+      <c r="K27" s="601"/>
+      <c r="L27" s="602"/>
+      <c r="M27" s="599"/>
+      <c r="N27" s="600"/>
+      <c r="O27" s="602"/>
+      <c r="P27" s="602"/>
+      <c r="Q27" s="601"/>
+      <c r="R27" s="600"/>
+      <c r="S27" s="601"/>
+      <c r="T27" s="600"/>
       <c r="U27" s="328"/>
       <c r="V27" s="329"/>
       <c r="W27" s="328"/>
       <c r="X27" s="329"/>
       <c r="Y27" s="328"/>
       <c r="Z27" s="328"/>
-      <c r="AA27" s="643"/>
-      <c r="AB27" s="644"/>
-      <c r="AC27" s="645"/>
-      <c r="AD27" s="645"/>
-      <c r="AE27" s="646"/>
-      <c r="AF27" s="646"/>
-      <c r="AG27" s="646"/>
-      <c r="AH27" s="646"/>
-      <c r="AI27" s="646"/>
-      <c r="AJ27" s="646"/>
+      <c r="AA27" s="601"/>
+      <c r="AB27" s="608"/>
+      <c r="AC27" s="597"/>
+      <c r="AD27" s="597"/>
+      <c r="AE27" s="591"/>
+      <c r="AF27" s="591"/>
+      <c r="AG27" s="591"/>
+      <c r="AH27" s="591"/>
+      <c r="AI27" s="591"/>
+      <c r="AJ27" s="591"/>
       <c r="AK27" s="117"/>
       <c r="AL27" s="11"/>
       <c r="AM27" s="13"/>
@@ -16307,44 +16352,44 @@
       <c r="BW27" s="13"/>
     </row>
     <row r="28" spans="1:75" s="10" customFormat="1" ht="24.75" customHeight="1">
-      <c r="A28" s="654"/>
-      <c r="B28" s="655"/>
+      <c r="A28" s="592"/>
+      <c r="B28" s="593"/>
       <c r="C28" s="84" t="s">
         <v>67</v>
       </c>
       <c r="D28" s="379"/>
-      <c r="E28" s="647"/>
-      <c r="F28" s="648"/>
-      <c r="G28" s="649"/>
-      <c r="H28" s="648"/>
-      <c r="I28" s="649"/>
-      <c r="J28" s="650"/>
-      <c r="K28" s="649"/>
-      <c r="L28" s="650"/>
-      <c r="M28" s="647"/>
-      <c r="N28" s="648"/>
-      <c r="O28" s="650"/>
-      <c r="P28" s="650"/>
-      <c r="Q28" s="649"/>
-      <c r="R28" s="648"/>
-      <c r="S28" s="649"/>
-      <c r="T28" s="648"/>
+      <c r="E28" s="603"/>
+      <c r="F28" s="587"/>
+      <c r="G28" s="586"/>
+      <c r="H28" s="587"/>
+      <c r="I28" s="586"/>
+      <c r="J28" s="598"/>
+      <c r="K28" s="586"/>
+      <c r="L28" s="598"/>
+      <c r="M28" s="603"/>
+      <c r="N28" s="587"/>
+      <c r="O28" s="598"/>
+      <c r="P28" s="598"/>
+      <c r="Q28" s="586"/>
+      <c r="R28" s="587"/>
+      <c r="S28" s="586"/>
+      <c r="T28" s="587"/>
       <c r="U28" s="326"/>
       <c r="V28" s="330"/>
       <c r="W28" s="326"/>
       <c r="X28" s="330"/>
       <c r="Y28" s="326"/>
       <c r="Z28" s="326"/>
-      <c r="AA28" s="649"/>
-      <c r="AB28" s="651"/>
-      <c r="AC28" s="631"/>
-      <c r="AD28" s="631"/>
-      <c r="AE28" s="630"/>
-      <c r="AF28" s="630"/>
-      <c r="AG28" s="630"/>
-      <c r="AH28" s="630"/>
-      <c r="AI28" s="630"/>
-      <c r="AJ28" s="630"/>
+      <c r="AA28" s="586"/>
+      <c r="AB28" s="590"/>
+      <c r="AC28" s="609"/>
+      <c r="AD28" s="609"/>
+      <c r="AE28" s="610"/>
+      <c r="AF28" s="610"/>
+      <c r="AG28" s="610"/>
+      <c r="AH28" s="610"/>
+      <c r="AI28" s="610"/>
+      <c r="AJ28" s="610"/>
       <c r="AK28" s="13"/>
       <c r="AL28" s="13"/>
       <c r="AM28" s="13"/>
@@ -16386,44 +16431,44 @@
       <c r="BW28" s="13"/>
     </row>
     <row r="29" spans="1:75" s="10" customFormat="1" ht="24.75" customHeight="1">
-      <c r="A29" s="654"/>
-      <c r="B29" s="655"/>
+      <c r="A29" s="592"/>
+      <c r="B29" s="593"/>
       <c r="C29" s="85" t="s">
         <v>68</v>
       </c>
       <c r="D29" s="380"/>
-      <c r="E29" s="635"/>
-      <c r="F29" s="597"/>
-      <c r="G29" s="596"/>
-      <c r="H29" s="597"/>
-      <c r="I29" s="596"/>
-      <c r="J29" s="636"/>
-      <c r="K29" s="596"/>
-      <c r="L29" s="636"/>
-      <c r="M29" s="635"/>
-      <c r="N29" s="597"/>
-      <c r="O29" s="636"/>
-      <c r="P29" s="636"/>
-      <c r="Q29" s="596"/>
-      <c r="R29" s="597"/>
-      <c r="S29" s="596"/>
-      <c r="T29" s="597"/>
+      <c r="E29" s="616"/>
+      <c r="F29" s="606"/>
+      <c r="G29" s="605"/>
+      <c r="H29" s="606"/>
+      <c r="I29" s="605"/>
+      <c r="J29" s="604"/>
+      <c r="K29" s="605"/>
+      <c r="L29" s="604"/>
+      <c r="M29" s="616"/>
+      <c r="N29" s="606"/>
+      <c r="O29" s="604"/>
+      <c r="P29" s="604"/>
+      <c r="Q29" s="605"/>
+      <c r="R29" s="606"/>
+      <c r="S29" s="605"/>
+      <c r="T29" s="606"/>
       <c r="U29" s="331"/>
       <c r="V29" s="332"/>
       <c r="W29" s="331"/>
       <c r="X29" s="332"/>
       <c r="Y29" s="331"/>
       <c r="Z29" s="331"/>
-      <c r="AA29" s="596"/>
-      <c r="AB29" s="637"/>
-      <c r="AC29" s="631"/>
-      <c r="AD29" s="631"/>
-      <c r="AE29" s="630"/>
-      <c r="AF29" s="630"/>
-      <c r="AG29" s="630"/>
-      <c r="AH29" s="630"/>
-      <c r="AI29" s="630"/>
-      <c r="AJ29" s="630"/>
+      <c r="AA29" s="605"/>
+      <c r="AB29" s="607"/>
+      <c r="AC29" s="609"/>
+      <c r="AD29" s="609"/>
+      <c r="AE29" s="610"/>
+      <c r="AF29" s="610"/>
+      <c r="AG29" s="610"/>
+      <c r="AH29" s="610"/>
+      <c r="AI29" s="610"/>
+      <c r="AJ29" s="610"/>
       <c r="AK29" s="13"/>
       <c r="AL29" s="13"/>
       <c r="AM29" s="13"/>
@@ -16465,44 +16510,44 @@
       <c r="BW29" s="13"/>
     </row>
     <row r="30" spans="1:75" s="10" customFormat="1" ht="24.75" customHeight="1">
-      <c r="A30" s="654"/>
-      <c r="B30" s="655"/>
+      <c r="A30" s="592"/>
+      <c r="B30" s="593"/>
       <c r="C30" s="84" t="s">
         <v>69</v>
       </c>
       <c r="D30" s="379"/>
-      <c r="E30" s="638"/>
-      <c r="F30" s="639"/>
-      <c r="G30" s="640"/>
-      <c r="H30" s="639"/>
-      <c r="I30" s="640"/>
-      <c r="J30" s="641"/>
-      <c r="K30" s="640"/>
-      <c r="L30" s="641"/>
-      <c r="M30" s="638"/>
-      <c r="N30" s="639"/>
-      <c r="O30" s="641"/>
-      <c r="P30" s="641"/>
-      <c r="Q30" s="640"/>
-      <c r="R30" s="639"/>
-      <c r="S30" s="640"/>
-      <c r="T30" s="639"/>
+      <c r="E30" s="611"/>
+      <c r="F30" s="612"/>
+      <c r="G30" s="613"/>
+      <c r="H30" s="612"/>
+      <c r="I30" s="613"/>
+      <c r="J30" s="614"/>
+      <c r="K30" s="613"/>
+      <c r="L30" s="614"/>
+      <c r="M30" s="611"/>
+      <c r="N30" s="612"/>
+      <c r="O30" s="614"/>
+      <c r="P30" s="614"/>
+      <c r="Q30" s="613"/>
+      <c r="R30" s="612"/>
+      <c r="S30" s="613"/>
+      <c r="T30" s="612"/>
       <c r="U30" s="333"/>
       <c r="V30" s="334"/>
       <c r="W30" s="333"/>
       <c r="X30" s="334"/>
       <c r="Y30" s="333"/>
       <c r="Z30" s="333"/>
-      <c r="AA30" s="640"/>
-      <c r="AB30" s="642"/>
-      <c r="AC30" s="631"/>
-      <c r="AD30" s="631"/>
-      <c r="AE30" s="630"/>
-      <c r="AF30" s="630"/>
-      <c r="AG30" s="630"/>
-      <c r="AH30" s="630"/>
-      <c r="AI30" s="630"/>
-      <c r="AJ30" s="630"/>
+      <c r="AA30" s="613"/>
+      <c r="AB30" s="615"/>
+      <c r="AC30" s="609"/>
+      <c r="AD30" s="609"/>
+      <c r="AE30" s="610"/>
+      <c r="AF30" s="610"/>
+      <c r="AG30" s="610"/>
+      <c r="AH30" s="610"/>
+      <c r="AI30" s="610"/>
+      <c r="AJ30" s="610"/>
       <c r="AK30" s="13"/>
       <c r="AL30" s="13"/>
       <c r="AM30" s="13"/>
@@ -16544,44 +16589,44 @@
       <c r="BW30" s="13"/>
     </row>
     <row r="31" spans="1:75" s="10" customFormat="1" ht="24.75" customHeight="1">
-      <c r="A31" s="654"/>
-      <c r="B31" s="655"/>
+      <c r="A31" s="592"/>
+      <c r="B31" s="593"/>
       <c r="C31" s="85" t="s">
         <v>75</v>
       </c>
       <c r="D31" s="380"/>
-      <c r="E31" s="635"/>
-      <c r="F31" s="597"/>
-      <c r="G31" s="596"/>
-      <c r="H31" s="597"/>
-      <c r="I31" s="596"/>
-      <c r="J31" s="636"/>
-      <c r="K31" s="596"/>
-      <c r="L31" s="636"/>
-      <c r="M31" s="635"/>
-      <c r="N31" s="597"/>
-      <c r="O31" s="636"/>
-      <c r="P31" s="636"/>
-      <c r="Q31" s="596"/>
-      <c r="R31" s="597"/>
-      <c r="S31" s="596"/>
-      <c r="T31" s="597"/>
+      <c r="E31" s="616"/>
+      <c r="F31" s="606"/>
+      <c r="G31" s="605"/>
+      <c r="H31" s="606"/>
+      <c r="I31" s="605"/>
+      <c r="J31" s="604"/>
+      <c r="K31" s="605"/>
+      <c r="L31" s="604"/>
+      <c r="M31" s="616"/>
+      <c r="N31" s="606"/>
+      <c r="O31" s="604"/>
+      <c r="P31" s="604"/>
+      <c r="Q31" s="605"/>
+      <c r="R31" s="606"/>
+      <c r="S31" s="605"/>
+      <c r="T31" s="606"/>
       <c r="U31" s="331"/>
       <c r="V31" s="332"/>
       <c r="W31" s="331"/>
       <c r="X31" s="332"/>
       <c r="Y31" s="331"/>
       <c r="Z31" s="331"/>
-      <c r="AA31" s="596"/>
-      <c r="AB31" s="637"/>
-      <c r="AC31" s="631"/>
-      <c r="AD31" s="631"/>
-      <c r="AE31" s="630"/>
-      <c r="AF31" s="630"/>
-      <c r="AG31" s="630"/>
-      <c r="AH31" s="630"/>
-      <c r="AI31" s="630"/>
-      <c r="AJ31" s="630"/>
+      <c r="AA31" s="605"/>
+      <c r="AB31" s="607"/>
+      <c r="AC31" s="609"/>
+      <c r="AD31" s="609"/>
+      <c r="AE31" s="610"/>
+      <c r="AF31" s="610"/>
+      <c r="AG31" s="610"/>
+      <c r="AH31" s="610"/>
+      <c r="AI31" s="610"/>
+      <c r="AJ31" s="610"/>
       <c r="AK31" s="13"/>
       <c r="AL31" s="13"/>
       <c r="AM31" s="13"/>
@@ -16623,44 +16668,44 @@
       <c r="BW31" s="13"/>
     </row>
     <row r="32" spans="1:75" s="10" customFormat="1" ht="24.75" customHeight="1">
-      <c r="A32" s="654"/>
-      <c r="B32" s="655"/>
+      <c r="A32" s="592"/>
+      <c r="B32" s="593"/>
       <c r="C32" s="84" t="s">
         <v>70</v>
       </c>
       <c r="D32" s="379"/>
-      <c r="E32" s="638"/>
-      <c r="F32" s="639"/>
-      <c r="G32" s="640"/>
-      <c r="H32" s="639"/>
-      <c r="I32" s="640"/>
-      <c r="J32" s="641"/>
-      <c r="K32" s="640"/>
-      <c r="L32" s="641"/>
-      <c r="M32" s="638"/>
-      <c r="N32" s="639"/>
-      <c r="O32" s="641"/>
-      <c r="P32" s="641"/>
-      <c r="Q32" s="640"/>
-      <c r="R32" s="639"/>
-      <c r="S32" s="640"/>
-      <c r="T32" s="639"/>
+      <c r="E32" s="611"/>
+      <c r="F32" s="612"/>
+      <c r="G32" s="613"/>
+      <c r="H32" s="612"/>
+      <c r="I32" s="613"/>
+      <c r="J32" s="614"/>
+      <c r="K32" s="613"/>
+      <c r="L32" s="614"/>
+      <c r="M32" s="611"/>
+      <c r="N32" s="612"/>
+      <c r="O32" s="614"/>
+      <c r="P32" s="614"/>
+      <c r="Q32" s="613"/>
+      <c r="R32" s="612"/>
+      <c r="S32" s="613"/>
+      <c r="T32" s="612"/>
       <c r="U32" s="333"/>
       <c r="V32" s="334"/>
       <c r="W32" s="333"/>
       <c r="X32" s="334"/>
       <c r="Y32" s="333"/>
       <c r="Z32" s="333"/>
-      <c r="AA32" s="640"/>
-      <c r="AB32" s="642"/>
-      <c r="AC32" s="631"/>
-      <c r="AD32" s="631"/>
-      <c r="AE32" s="630"/>
-      <c r="AF32" s="630"/>
-      <c r="AG32" s="630"/>
-      <c r="AH32" s="630"/>
-      <c r="AI32" s="630"/>
-      <c r="AJ32" s="630"/>
+      <c r="AA32" s="613"/>
+      <c r="AB32" s="615"/>
+      <c r="AC32" s="609"/>
+      <c r="AD32" s="609"/>
+      <c r="AE32" s="610"/>
+      <c r="AF32" s="610"/>
+      <c r="AG32" s="610"/>
+      <c r="AH32" s="610"/>
+      <c r="AI32" s="610"/>
+      <c r="AJ32" s="610"/>
       <c r="AK32" s="13"/>
       <c r="AL32" s="13"/>
       <c r="AM32" s="13"/>
@@ -16702,46 +16747,46 @@
       <c r="BW32" s="13"/>
     </row>
     <row r="33" spans="1:75" s="10" customFormat="1" ht="24.75" customHeight="1">
-      <c r="A33" s="594" t="s">
+      <c r="A33" s="686" t="s">
         <v>4</v>
       </c>
-      <c r="B33" s="595"/>
+      <c r="B33" s="687"/>
       <c r="C33" s="85" t="s">
         <v>71</v>
       </c>
       <c r="D33" s="380"/>
-      <c r="E33" s="635"/>
-      <c r="F33" s="597"/>
-      <c r="G33" s="596"/>
-      <c r="H33" s="597"/>
-      <c r="I33" s="596"/>
-      <c r="J33" s="636"/>
-      <c r="K33" s="596"/>
-      <c r="L33" s="636"/>
-      <c r="M33" s="635"/>
-      <c r="N33" s="597"/>
-      <c r="O33" s="636"/>
-      <c r="P33" s="636"/>
-      <c r="Q33" s="596"/>
-      <c r="R33" s="597"/>
-      <c r="S33" s="596"/>
-      <c r="T33" s="597"/>
+      <c r="E33" s="616"/>
+      <c r="F33" s="606"/>
+      <c r="G33" s="605"/>
+      <c r="H33" s="606"/>
+      <c r="I33" s="605"/>
+      <c r="J33" s="604"/>
+      <c r="K33" s="605"/>
+      <c r="L33" s="604"/>
+      <c r="M33" s="616"/>
+      <c r="N33" s="606"/>
+      <c r="O33" s="604"/>
+      <c r="P33" s="604"/>
+      <c r="Q33" s="605"/>
+      <c r="R33" s="606"/>
+      <c r="S33" s="605"/>
+      <c r="T33" s="606"/>
       <c r="U33" s="331"/>
       <c r="V33" s="332"/>
       <c r="W33" s="331"/>
       <c r="X33" s="332"/>
       <c r="Y33" s="331"/>
       <c r="Z33" s="331"/>
-      <c r="AA33" s="596"/>
-      <c r="AB33" s="637"/>
-      <c r="AC33" s="631"/>
-      <c r="AD33" s="631"/>
-      <c r="AE33" s="630"/>
-      <c r="AF33" s="630"/>
-      <c r="AG33" s="630"/>
-      <c r="AH33" s="630"/>
-      <c r="AI33" s="630"/>
-      <c r="AJ33" s="630"/>
+      <c r="AA33" s="605"/>
+      <c r="AB33" s="607"/>
+      <c r="AC33" s="609"/>
+      <c r="AD33" s="609"/>
+      <c r="AE33" s="610"/>
+      <c r="AF33" s="610"/>
+      <c r="AG33" s="610"/>
+      <c r="AH33" s="610"/>
+      <c r="AI33" s="610"/>
+      <c r="AJ33" s="610"/>
       <c r="AK33" s="13"/>
       <c r="AL33" s="13"/>
       <c r="AM33" s="13"/>
@@ -16783,44 +16828,44 @@
       <c r="BW33" s="13"/>
     </row>
     <row r="34" spans="1:75" s="10" customFormat="1" ht="24.75" customHeight="1">
-      <c r="A34" s="594"/>
-      <c r="B34" s="595"/>
+      <c r="A34" s="686"/>
+      <c r="B34" s="687"/>
       <c r="C34" s="84" t="s">
         <v>72</v>
       </c>
       <c r="D34" s="379"/>
-      <c r="E34" s="638"/>
-      <c r="F34" s="639"/>
-      <c r="G34" s="640"/>
-      <c r="H34" s="639"/>
-      <c r="I34" s="640"/>
-      <c r="J34" s="641"/>
-      <c r="K34" s="640"/>
-      <c r="L34" s="641"/>
-      <c r="M34" s="638"/>
-      <c r="N34" s="639"/>
-      <c r="O34" s="641"/>
-      <c r="P34" s="641"/>
-      <c r="Q34" s="640"/>
-      <c r="R34" s="639"/>
-      <c r="S34" s="640"/>
-      <c r="T34" s="639"/>
+      <c r="E34" s="611"/>
+      <c r="F34" s="612"/>
+      <c r="G34" s="613"/>
+      <c r="H34" s="612"/>
+      <c r="I34" s="613"/>
+      <c r="J34" s="614"/>
+      <c r="K34" s="613"/>
+      <c r="L34" s="614"/>
+      <c r="M34" s="611"/>
+      <c r="N34" s="612"/>
+      <c r="O34" s="614"/>
+      <c r="P34" s="614"/>
+      <c r="Q34" s="613"/>
+      <c r="R34" s="612"/>
+      <c r="S34" s="613"/>
+      <c r="T34" s="612"/>
       <c r="U34" s="333"/>
       <c r="V34" s="334"/>
       <c r="W34" s="333"/>
       <c r="X34" s="334"/>
       <c r="Y34" s="333"/>
       <c r="Z34" s="333"/>
-      <c r="AA34" s="640"/>
-      <c r="AB34" s="642"/>
-      <c r="AC34" s="631"/>
-      <c r="AD34" s="631"/>
-      <c r="AE34" s="630"/>
-      <c r="AF34" s="630"/>
-      <c r="AG34" s="630"/>
-      <c r="AH34" s="630"/>
-      <c r="AI34" s="630"/>
-      <c r="AJ34" s="630"/>
+      <c r="AA34" s="613"/>
+      <c r="AB34" s="615"/>
+      <c r="AC34" s="609"/>
+      <c r="AD34" s="609"/>
+      <c r="AE34" s="610"/>
+      <c r="AF34" s="610"/>
+      <c r="AG34" s="610"/>
+      <c r="AH34" s="610"/>
+      <c r="AI34" s="610"/>
+      <c r="AJ34" s="610"/>
       <c r="AK34" s="13"/>
       <c r="AL34" s="12"/>
       <c r="AM34" s="13"/>
@@ -16862,44 +16907,44 @@
       <c r="BW34" s="13"/>
     </row>
     <row r="35" spans="1:75" s="10" customFormat="1" ht="24.75" customHeight="1">
-      <c r="A35" s="594"/>
-      <c r="B35" s="595"/>
+      <c r="A35" s="686"/>
+      <c r="B35" s="687"/>
       <c r="C35" s="85" t="s">
         <v>73</v>
       </c>
       <c r="D35" s="380"/>
-      <c r="E35" s="635"/>
-      <c r="F35" s="597"/>
-      <c r="G35" s="596"/>
-      <c r="H35" s="597"/>
-      <c r="I35" s="596"/>
-      <c r="J35" s="636"/>
-      <c r="K35" s="596"/>
-      <c r="L35" s="636"/>
-      <c r="M35" s="635"/>
-      <c r="N35" s="597"/>
-      <c r="O35" s="636"/>
-      <c r="P35" s="636"/>
-      <c r="Q35" s="596"/>
-      <c r="R35" s="597"/>
-      <c r="S35" s="596"/>
-      <c r="T35" s="597"/>
+      <c r="E35" s="616"/>
+      <c r="F35" s="606"/>
+      <c r="G35" s="605"/>
+      <c r="H35" s="606"/>
+      <c r="I35" s="605"/>
+      <c r="J35" s="604"/>
+      <c r="K35" s="605"/>
+      <c r="L35" s="604"/>
+      <c r="M35" s="616"/>
+      <c r="N35" s="606"/>
+      <c r="O35" s="604"/>
+      <c r="P35" s="604"/>
+      <c r="Q35" s="605"/>
+      <c r="R35" s="606"/>
+      <c r="S35" s="605"/>
+      <c r="T35" s="606"/>
       <c r="U35" s="331"/>
       <c r="V35" s="332"/>
       <c r="W35" s="331"/>
       <c r="X35" s="332"/>
       <c r="Y35" s="331"/>
       <c r="Z35" s="331"/>
-      <c r="AA35" s="596"/>
-      <c r="AB35" s="637"/>
-      <c r="AC35" s="631"/>
-      <c r="AD35" s="631"/>
-      <c r="AE35" s="630"/>
-      <c r="AF35" s="630"/>
-      <c r="AG35" s="630"/>
-      <c r="AH35" s="630"/>
-      <c r="AI35" s="630"/>
-      <c r="AJ35" s="630"/>
+      <c r="AA35" s="605"/>
+      <c r="AB35" s="607"/>
+      <c r="AC35" s="609"/>
+      <c r="AD35" s="609"/>
+      <c r="AE35" s="610"/>
+      <c r="AF35" s="610"/>
+      <c r="AG35" s="610"/>
+      <c r="AH35" s="610"/>
+      <c r="AI35" s="610"/>
+      <c r="AJ35" s="610"/>
       <c r="AK35" s="13"/>
       <c r="AL35" s="11"/>
       <c r="AM35" s="13"/>
@@ -16941,44 +16986,44 @@
       <c r="BW35" s="13"/>
     </row>
     <row r="36" spans="1:75" s="10" customFormat="1" ht="24.75" customHeight="1">
-      <c r="A36" s="594"/>
-      <c r="B36" s="595"/>
+      <c r="A36" s="686"/>
+      <c r="B36" s="687"/>
       <c r="C36" s="84" t="s">
         <v>74</v>
       </c>
       <c r="D36" s="379"/>
-      <c r="E36" s="638"/>
-      <c r="F36" s="639"/>
-      <c r="G36" s="640"/>
-      <c r="H36" s="639"/>
-      <c r="I36" s="640"/>
-      <c r="J36" s="641"/>
-      <c r="K36" s="640"/>
-      <c r="L36" s="641"/>
-      <c r="M36" s="638"/>
-      <c r="N36" s="639"/>
-      <c r="O36" s="641"/>
-      <c r="P36" s="641"/>
-      <c r="Q36" s="640"/>
-      <c r="R36" s="639"/>
-      <c r="S36" s="640"/>
-      <c r="T36" s="639"/>
+      <c r="E36" s="611"/>
+      <c r="F36" s="612"/>
+      <c r="G36" s="613"/>
+      <c r="H36" s="612"/>
+      <c r="I36" s="613"/>
+      <c r="J36" s="614"/>
+      <c r="K36" s="613"/>
+      <c r="L36" s="614"/>
+      <c r="M36" s="611"/>
+      <c r="N36" s="612"/>
+      <c r="O36" s="614"/>
+      <c r="P36" s="614"/>
+      <c r="Q36" s="613"/>
+      <c r="R36" s="612"/>
+      <c r="S36" s="613"/>
+      <c r="T36" s="612"/>
       <c r="U36" s="333"/>
       <c r="V36" s="334"/>
       <c r="W36" s="333"/>
       <c r="X36" s="334"/>
       <c r="Y36" s="333"/>
       <c r="Z36" s="333"/>
-      <c r="AA36" s="640"/>
-      <c r="AB36" s="642"/>
-      <c r="AC36" s="631"/>
-      <c r="AD36" s="631"/>
-      <c r="AE36" s="630"/>
-      <c r="AF36" s="630"/>
-      <c r="AG36" s="630"/>
-      <c r="AH36" s="630"/>
-      <c r="AI36" s="630"/>
-      <c r="AJ36" s="630"/>
+      <c r="AA36" s="613"/>
+      <c r="AB36" s="615"/>
+      <c r="AC36" s="609"/>
+      <c r="AD36" s="609"/>
+      <c r="AE36" s="610"/>
+      <c r="AF36" s="610"/>
+      <c r="AG36" s="610"/>
+      <c r="AH36" s="610"/>
+      <c r="AI36" s="610"/>
+      <c r="AJ36" s="610"/>
       <c r="AK36" s="56"/>
       <c r="AL36" s="12"/>
       <c r="AM36" s="13"/>
@@ -17020,44 +17065,44 @@
       <c r="BW36" s="13"/>
     </row>
     <row r="37" spans="1:75" s="10" customFormat="1" ht="24.75" customHeight="1">
-      <c r="A37" s="594"/>
-      <c r="B37" s="595"/>
+      <c r="A37" s="686"/>
+      <c r="B37" s="687"/>
       <c r="C37" s="85" t="s">
         <v>81</v>
       </c>
       <c r="D37" s="380"/>
-      <c r="E37" s="635"/>
-      <c r="F37" s="597"/>
-      <c r="G37" s="596"/>
-      <c r="H37" s="597"/>
-      <c r="I37" s="596"/>
-      <c r="J37" s="636"/>
-      <c r="K37" s="596"/>
-      <c r="L37" s="636"/>
-      <c r="M37" s="635"/>
-      <c r="N37" s="597"/>
-      <c r="O37" s="636"/>
-      <c r="P37" s="636"/>
-      <c r="Q37" s="596"/>
-      <c r="R37" s="597"/>
-      <c r="S37" s="596"/>
-      <c r="T37" s="597"/>
+      <c r="E37" s="616"/>
+      <c r="F37" s="606"/>
+      <c r="G37" s="605"/>
+      <c r="H37" s="606"/>
+      <c r="I37" s="605"/>
+      <c r="J37" s="604"/>
+      <c r="K37" s="605"/>
+      <c r="L37" s="604"/>
+      <c r="M37" s="616"/>
+      <c r="N37" s="606"/>
+      <c r="O37" s="604"/>
+      <c r="P37" s="604"/>
+      <c r="Q37" s="605"/>
+      <c r="R37" s="606"/>
+      <c r="S37" s="605"/>
+      <c r="T37" s="606"/>
       <c r="U37" s="331"/>
       <c r="V37" s="332"/>
       <c r="W37" s="331"/>
       <c r="X37" s="332"/>
       <c r="Y37" s="331"/>
       <c r="Z37" s="332"/>
-      <c r="AA37" s="636"/>
-      <c r="AB37" s="637"/>
-      <c r="AC37" s="631"/>
-      <c r="AD37" s="631"/>
-      <c r="AE37" s="630"/>
-      <c r="AF37" s="630"/>
-      <c r="AG37" s="630"/>
-      <c r="AH37" s="630"/>
-      <c r="AI37" s="630"/>
-      <c r="AJ37" s="630"/>
+      <c r="AA37" s="604"/>
+      <c r="AB37" s="607"/>
+      <c r="AC37" s="609"/>
+      <c r="AD37" s="609"/>
+      <c r="AE37" s="610"/>
+      <c r="AF37" s="610"/>
+      <c r="AG37" s="610"/>
+      <c r="AH37" s="610"/>
+      <c r="AI37" s="610"/>
+      <c r="AJ37" s="610"/>
       <c r="AK37" s="13"/>
       <c r="AL37" s="11"/>
       <c r="AM37" s="13"/>
@@ -17099,44 +17144,44 @@
       <c r="BW37" s="13"/>
     </row>
     <row r="38" spans="1:75" s="10" customFormat="1" ht="24.75" customHeight="1">
-      <c r="A38" s="594"/>
-      <c r="B38" s="595"/>
+      <c r="A38" s="686"/>
+      <c r="B38" s="687"/>
       <c r="C38" s="84" t="s">
         <v>82</v>
       </c>
       <c r="D38" s="379"/>
-      <c r="E38" s="638"/>
-      <c r="F38" s="639"/>
-      <c r="G38" s="640"/>
-      <c r="H38" s="639"/>
-      <c r="I38" s="640"/>
-      <c r="J38" s="641"/>
-      <c r="K38" s="640"/>
-      <c r="L38" s="641"/>
-      <c r="M38" s="638"/>
-      <c r="N38" s="639"/>
-      <c r="O38" s="641"/>
-      <c r="P38" s="641"/>
-      <c r="Q38" s="640"/>
-      <c r="R38" s="639"/>
-      <c r="S38" s="640"/>
-      <c r="T38" s="639"/>
+      <c r="E38" s="611"/>
+      <c r="F38" s="612"/>
+      <c r="G38" s="613"/>
+      <c r="H38" s="612"/>
+      <c r="I38" s="613"/>
+      <c r="J38" s="614"/>
+      <c r="K38" s="613"/>
+      <c r="L38" s="614"/>
+      <c r="M38" s="611"/>
+      <c r="N38" s="612"/>
+      <c r="O38" s="614"/>
+      <c r="P38" s="614"/>
+      <c r="Q38" s="613"/>
+      <c r="R38" s="612"/>
+      <c r="S38" s="613"/>
+      <c r="T38" s="612"/>
       <c r="U38" s="333"/>
       <c r="V38" s="334"/>
       <c r="W38" s="333"/>
       <c r="X38" s="334"/>
       <c r="Y38" s="333"/>
       <c r="Z38" s="334"/>
-      <c r="AA38" s="641"/>
-      <c r="AB38" s="642"/>
-      <c r="AC38" s="631"/>
-      <c r="AD38" s="631"/>
-      <c r="AE38" s="630"/>
-      <c r="AF38" s="630"/>
-      <c r="AG38" s="630"/>
-      <c r="AH38" s="630"/>
-      <c r="AI38" s="630"/>
-      <c r="AJ38" s="630"/>
+      <c r="AA38" s="614"/>
+      <c r="AB38" s="615"/>
+      <c r="AC38" s="609"/>
+      <c r="AD38" s="609"/>
+      <c r="AE38" s="610"/>
+      <c r="AF38" s="610"/>
+      <c r="AG38" s="610"/>
+      <c r="AH38" s="610"/>
+      <c r="AI38" s="610"/>
+      <c r="AJ38" s="610"/>
       <c r="AK38" s="56"/>
       <c r="AL38" s="12"/>
       <c r="AM38" s="13"/>
@@ -17178,44 +17223,44 @@
       <c r="BW38" s="13"/>
     </row>
     <row r="39" spans="1:75" s="10" customFormat="1" ht="24.75" customHeight="1">
-      <c r="A39" s="594"/>
-      <c r="B39" s="595"/>
+      <c r="A39" s="686"/>
+      <c r="B39" s="687"/>
       <c r="C39" s="85" t="s">
         <v>1</v>
       </c>
       <c r="D39" s="380"/>
-      <c r="E39" s="635"/>
-      <c r="F39" s="597"/>
-      <c r="G39" s="596"/>
-      <c r="H39" s="597"/>
-      <c r="I39" s="596"/>
-      <c r="J39" s="636"/>
-      <c r="K39" s="596"/>
-      <c r="L39" s="636"/>
-      <c r="M39" s="635"/>
-      <c r="N39" s="597"/>
-      <c r="O39" s="636"/>
-      <c r="P39" s="636"/>
-      <c r="Q39" s="596"/>
-      <c r="R39" s="597"/>
-      <c r="S39" s="596"/>
-      <c r="T39" s="597"/>
+      <c r="E39" s="616"/>
+      <c r="F39" s="606"/>
+      <c r="G39" s="605"/>
+      <c r="H39" s="606"/>
+      <c r="I39" s="605"/>
+      <c r="J39" s="604"/>
+      <c r="K39" s="605"/>
+      <c r="L39" s="604"/>
+      <c r="M39" s="616"/>
+      <c r="N39" s="606"/>
+      <c r="O39" s="604"/>
+      <c r="P39" s="604"/>
+      <c r="Q39" s="605"/>
+      <c r="R39" s="606"/>
+      <c r="S39" s="605"/>
+      <c r="T39" s="606"/>
       <c r="U39" s="331"/>
       <c r="V39" s="332"/>
       <c r="W39" s="331"/>
       <c r="X39" s="332"/>
       <c r="Y39" s="331"/>
       <c r="Z39" s="332"/>
-      <c r="AA39" s="636"/>
-      <c r="AB39" s="637"/>
-      <c r="AC39" s="631"/>
-      <c r="AD39" s="631"/>
-      <c r="AE39" s="630"/>
-      <c r="AF39" s="630"/>
-      <c r="AG39" s="630"/>
-      <c r="AH39" s="630"/>
-      <c r="AI39" s="630"/>
-      <c r="AJ39" s="630"/>
+      <c r="AA39" s="604"/>
+      <c r="AB39" s="607"/>
+      <c r="AC39" s="609"/>
+      <c r="AD39" s="609"/>
+      <c r="AE39" s="610"/>
+      <c r="AF39" s="610"/>
+      <c r="AG39" s="610"/>
+      <c r="AH39" s="610"/>
+      <c r="AI39" s="610"/>
+      <c r="AJ39" s="610"/>
       <c r="AK39" s="11"/>
       <c r="AL39" s="11"/>
       <c r="AM39" s="13"/>
@@ -17257,42 +17302,42 @@
       <c r="BW39" s="13"/>
     </row>
     <row r="40" spans="1:75" s="10" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A40" s="594"/>
-      <c r="B40" s="595"/>
+      <c r="A40" s="686"/>
+      <c r="B40" s="687"/>
       <c r="C40" s="84"/>
       <c r="D40" s="381"/>
-      <c r="E40" s="632"/>
-      <c r="F40" s="633"/>
-      <c r="G40" s="634"/>
-      <c r="H40" s="633"/>
-      <c r="I40" s="634"/>
-      <c r="J40" s="628"/>
-      <c r="K40" s="634"/>
-      <c r="L40" s="628"/>
-      <c r="M40" s="632"/>
-      <c r="N40" s="633"/>
-      <c r="O40" s="628"/>
-      <c r="P40" s="628"/>
-      <c r="Q40" s="634"/>
-      <c r="R40" s="633"/>
-      <c r="S40" s="634"/>
-      <c r="T40" s="633"/>
+      <c r="E40" s="617"/>
+      <c r="F40" s="618"/>
+      <c r="G40" s="619"/>
+      <c r="H40" s="618"/>
+      <c r="I40" s="619"/>
+      <c r="J40" s="620"/>
+      <c r="K40" s="619"/>
+      <c r="L40" s="620"/>
+      <c r="M40" s="617"/>
+      <c r="N40" s="618"/>
+      <c r="O40" s="620"/>
+      <c r="P40" s="620"/>
+      <c r="Q40" s="619"/>
+      <c r="R40" s="618"/>
+      <c r="S40" s="619"/>
+      <c r="T40" s="618"/>
       <c r="U40" s="335"/>
       <c r="V40" s="336"/>
       <c r="W40" s="335"/>
       <c r="X40" s="336"/>
       <c r="Y40" s="335"/>
       <c r="Z40" s="336"/>
-      <c r="AA40" s="628"/>
-      <c r="AB40" s="629"/>
-      <c r="AC40" s="630"/>
-      <c r="AD40" s="630"/>
-      <c r="AE40" s="630"/>
-      <c r="AF40" s="630"/>
-      <c r="AG40" s="630"/>
-      <c r="AH40" s="630"/>
-      <c r="AI40" s="630"/>
-      <c r="AJ40" s="630"/>
+      <c r="AA40" s="620"/>
+      <c r="AB40" s="626"/>
+      <c r="AC40" s="610"/>
+      <c r="AD40" s="610"/>
+      <c r="AE40" s="610"/>
+      <c r="AF40" s="610"/>
+      <c r="AG40" s="610"/>
+      <c r="AH40" s="610"/>
+      <c r="AI40" s="610"/>
+      <c r="AJ40" s="610"/>
       <c r="AK40" s="13"/>
       <c r="AL40" s="13"/>
       <c r="AM40" s="13"/>
@@ -17334,44 +17379,44 @@
       <c r="BW40" s="13"/>
     </row>
     <row r="41" spans="1:75" s="10" customFormat="1" ht="27" customHeight="1">
-      <c r="A41" s="594"/>
-      <c r="B41" s="595"/>
+      <c r="A41" s="686"/>
+      <c r="B41" s="687"/>
       <c r="C41" s="86" t="s">
         <v>65</v>
       </c>
       <c r="D41" s="92"/>
-      <c r="E41" s="623"/>
-      <c r="F41" s="624"/>
-      <c r="G41" s="625"/>
-      <c r="H41" s="624"/>
-      <c r="I41" s="625"/>
-      <c r="J41" s="626"/>
-      <c r="K41" s="624"/>
-      <c r="L41" s="627"/>
-      <c r="M41" s="623"/>
-      <c r="N41" s="624"/>
-      <c r="O41" s="591"/>
-      <c r="P41" s="592"/>
-      <c r="Q41" s="593"/>
-      <c r="R41" s="593"/>
-      <c r="S41" s="568"/>
-      <c r="T41" s="569"/>
-      <c r="U41" s="568"/>
-      <c r="V41" s="569"/>
-      <c r="W41" s="568"/>
-      <c r="X41" s="569"/>
-      <c r="Y41" s="568"/>
-      <c r="Z41" s="569"/>
-      <c r="AA41" s="591"/>
-      <c r="AB41" s="618"/>
-      <c r="AC41" s="617"/>
-      <c r="AD41" s="617"/>
-      <c r="AE41" s="617"/>
-      <c r="AF41" s="617"/>
-      <c r="AG41" s="617"/>
-      <c r="AH41" s="617"/>
-      <c r="AI41" s="617"/>
-      <c r="AJ41" s="617"/>
+      <c r="E41" s="621"/>
+      <c r="F41" s="622"/>
+      <c r="G41" s="623"/>
+      <c r="H41" s="622"/>
+      <c r="I41" s="623"/>
+      <c r="J41" s="624"/>
+      <c r="K41" s="622"/>
+      <c r="L41" s="625"/>
+      <c r="M41" s="621"/>
+      <c r="N41" s="622"/>
+      <c r="O41" s="628"/>
+      <c r="P41" s="684"/>
+      <c r="Q41" s="685"/>
+      <c r="R41" s="685"/>
+      <c r="S41" s="668"/>
+      <c r="T41" s="669"/>
+      <c r="U41" s="668"/>
+      <c r="V41" s="669"/>
+      <c r="W41" s="668"/>
+      <c r="X41" s="669"/>
+      <c r="Y41" s="668"/>
+      <c r="Z41" s="669"/>
+      <c r="AA41" s="628"/>
+      <c r="AB41" s="629"/>
+      <c r="AC41" s="627"/>
+      <c r="AD41" s="627"/>
+      <c r="AE41" s="627"/>
+      <c r="AF41" s="627"/>
+      <c r="AG41" s="627"/>
+      <c r="AH41" s="627"/>
+      <c r="AI41" s="627"/>
+      <c r="AJ41" s="627"/>
       <c r="AK41" s="56"/>
       <c r="AL41" s="13"/>
       <c r="AM41" s="13"/>
@@ -17413,8 +17458,8 @@
       <c r="BW41" s="13"/>
     </row>
     <row r="42" spans="1:75" s="10" customFormat="1" ht="27" customHeight="1">
-      <c r="A42" s="594"/>
-      <c r="B42" s="595"/>
+      <c r="A42" s="686"/>
+      <c r="B42" s="687"/>
       <c r="C42" s="87" t="s">
         <v>27</v>
       </c>
@@ -17492,8 +17537,8 @@
       <c r="BW42" s="13"/>
     </row>
     <row r="43" spans="1:75" s="10" customFormat="1" ht="27" customHeight="1" thickBot="1">
-      <c r="A43" s="594"/>
-      <c r="B43" s="595"/>
+      <c r="A43" s="686"/>
+      <c r="B43" s="687"/>
       <c r="C43" s="95" t="s">
         <v>28</v>
       </c>
@@ -17571,46 +17616,46 @@
       <c r="BW43" s="13"/>
     </row>
     <row r="44" spans="1:75" s="10" customFormat="1" ht="27" customHeight="1">
-      <c r="A44" s="586" t="s">
+      <c r="A44" s="680" t="s">
         <v>23</v>
       </c>
-      <c r="B44" s="587"/>
+      <c r="B44" s="681"/>
       <c r="C44" s="151" t="s">
         <v>29</v>
       </c>
       <c r="D44" s="97"/>
-      <c r="E44" s="615"/>
-      <c r="F44" s="590"/>
-      <c r="G44" s="616"/>
-      <c r="H44" s="590"/>
-      <c r="I44" s="616"/>
-      <c r="J44" s="616"/>
-      <c r="K44" s="584"/>
-      <c r="L44" s="585"/>
-      <c r="M44" s="615"/>
-      <c r="N44" s="616"/>
-      <c r="O44" s="584"/>
-      <c r="P44" s="590"/>
-      <c r="Q44" s="584"/>
-      <c r="R44" s="616"/>
-      <c r="S44" s="584"/>
-      <c r="T44" s="590"/>
+      <c r="E44" s="639"/>
+      <c r="F44" s="640"/>
+      <c r="G44" s="641"/>
+      <c r="H44" s="640"/>
+      <c r="I44" s="641"/>
+      <c r="J44" s="641"/>
+      <c r="K44" s="642"/>
+      <c r="L44" s="643"/>
+      <c r="M44" s="639"/>
+      <c r="N44" s="641"/>
+      <c r="O44" s="642"/>
+      <c r="P44" s="640"/>
+      <c r="Q44" s="642"/>
+      <c r="R44" s="641"/>
+      <c r="S44" s="642"/>
+      <c r="T44" s="640"/>
       <c r="U44" s="366"/>
       <c r="V44" s="367"/>
       <c r="W44" s="366"/>
       <c r="X44" s="367"/>
       <c r="Y44" s="366"/>
       <c r="Z44" s="366"/>
-      <c r="AA44" s="584"/>
-      <c r="AB44" s="585"/>
-      <c r="AC44" s="619"/>
-      <c r="AD44" s="619"/>
-      <c r="AE44" s="620"/>
-      <c r="AF44" s="620"/>
-      <c r="AG44" s="620"/>
-      <c r="AH44" s="620"/>
-      <c r="AI44" s="620"/>
-      <c r="AJ44" s="620"/>
+      <c r="AA44" s="642"/>
+      <c r="AB44" s="643"/>
+      <c r="AC44" s="630"/>
+      <c r="AD44" s="630"/>
+      <c r="AE44" s="631"/>
+      <c r="AF44" s="631"/>
+      <c r="AG44" s="631"/>
+      <c r="AH44" s="631"/>
+      <c r="AI44" s="631"/>
+      <c r="AJ44" s="631"/>
       <c r="AK44" s="57"/>
       <c r="AL44" s="13"/>
       <c r="AM44" s="13"/>
@@ -17652,44 +17697,44 @@
       <c r="BW44" s="13"/>
     </row>
     <row r="45" spans="1:75" s="10" customFormat="1" ht="27" customHeight="1">
-      <c r="A45" s="588"/>
-      <c r="B45" s="589"/>
+      <c r="A45" s="682"/>
+      <c r="B45" s="683"/>
       <c r="C45" s="152" t="s">
         <v>30</v>
       </c>
       <c r="D45" s="94"/>
-      <c r="E45" s="621"/>
-      <c r="F45" s="622"/>
-      <c r="G45" s="609"/>
-      <c r="H45" s="608"/>
-      <c r="I45" s="609"/>
-      <c r="J45" s="609"/>
-      <c r="K45" s="610"/>
-      <c r="L45" s="611"/>
-      <c r="M45" s="607"/>
-      <c r="N45" s="609"/>
-      <c r="O45" s="610"/>
-      <c r="P45" s="608"/>
-      <c r="Q45" s="610"/>
-      <c r="R45" s="608"/>
-      <c r="S45" s="609"/>
-      <c r="T45" s="608"/>
+      <c r="E45" s="632"/>
+      <c r="F45" s="633"/>
+      <c r="G45" s="634"/>
+      <c r="H45" s="635"/>
+      <c r="I45" s="634"/>
+      <c r="J45" s="634"/>
+      <c r="K45" s="636"/>
+      <c r="L45" s="637"/>
+      <c r="M45" s="638"/>
+      <c r="N45" s="634"/>
+      <c r="O45" s="636"/>
+      <c r="P45" s="635"/>
+      <c r="Q45" s="636"/>
+      <c r="R45" s="635"/>
+      <c r="S45" s="634"/>
+      <c r="T45" s="635"/>
       <c r="U45" s="368"/>
       <c r="V45" s="369"/>
       <c r="W45" s="368"/>
       <c r="X45" s="369"/>
       <c r="Y45" s="368"/>
       <c r="Z45" s="368"/>
-      <c r="AA45" s="610"/>
-      <c r="AB45" s="611"/>
-      <c r="AC45" s="619"/>
-      <c r="AD45" s="619"/>
-      <c r="AE45" s="620"/>
-      <c r="AF45" s="620"/>
-      <c r="AG45" s="620"/>
-      <c r="AH45" s="620"/>
-      <c r="AI45" s="620"/>
-      <c r="AJ45" s="620"/>
+      <c r="AA45" s="636"/>
+      <c r="AB45" s="637"/>
+      <c r="AC45" s="630"/>
+      <c r="AD45" s="630"/>
+      <c r="AE45" s="631"/>
+      <c r="AF45" s="631"/>
+      <c r="AG45" s="631"/>
+      <c r="AH45" s="631"/>
+      <c r="AI45" s="631"/>
+      <c r="AJ45" s="631"/>
       <c r="AK45" s="57"/>
       <c r="AL45" s="13"/>
       <c r="AM45" s="13"/>
@@ -17731,44 +17776,44 @@
       <c r="BW45" s="13"/>
     </row>
     <row r="46" spans="1:75" s="10" customFormat="1" ht="27" customHeight="1">
-      <c r="A46" s="571"/>
-      <c r="B46" s="572"/>
+      <c r="A46" s="671"/>
+      <c r="B46" s="672"/>
       <c r="C46" s="152" t="s">
         <v>3</v>
       </c>
       <c r="D46" s="94"/>
-      <c r="E46" s="612"/>
-      <c r="F46" s="613"/>
-      <c r="G46" s="610"/>
-      <c r="H46" s="608"/>
-      <c r="I46" s="610"/>
-      <c r="J46" s="609"/>
-      <c r="K46" s="610"/>
-      <c r="L46" s="611"/>
-      <c r="M46" s="607"/>
-      <c r="N46" s="609"/>
-      <c r="O46" s="610"/>
-      <c r="P46" s="608"/>
-      <c r="Q46" s="610"/>
-      <c r="R46" s="608"/>
-      <c r="S46" s="609"/>
-      <c r="T46" s="608"/>
+      <c r="E46" s="648"/>
+      <c r="F46" s="649"/>
+      <c r="G46" s="636"/>
+      <c r="H46" s="635"/>
+      <c r="I46" s="636"/>
+      <c r="J46" s="634"/>
+      <c r="K46" s="636"/>
+      <c r="L46" s="637"/>
+      <c r="M46" s="638"/>
+      <c r="N46" s="634"/>
+      <c r="O46" s="636"/>
+      <c r="P46" s="635"/>
+      <c r="Q46" s="636"/>
+      <c r="R46" s="635"/>
+      <c r="S46" s="634"/>
+      <c r="T46" s="635"/>
       <c r="U46" s="368"/>
       <c r="V46" s="369"/>
       <c r="W46" s="368"/>
       <c r="X46" s="369"/>
       <c r="Y46" s="368"/>
       <c r="Z46" s="368"/>
-      <c r="AA46" s="610"/>
-      <c r="AB46" s="611"/>
-      <c r="AC46" s="614"/>
-      <c r="AD46" s="614"/>
-      <c r="AE46" s="606"/>
-      <c r="AF46" s="606"/>
-      <c r="AG46" s="606"/>
-      <c r="AH46" s="606"/>
-      <c r="AI46" s="606"/>
-      <c r="AJ46" s="606"/>
+      <c r="AA46" s="636"/>
+      <c r="AB46" s="637"/>
+      <c r="AC46" s="645"/>
+      <c r="AD46" s="645"/>
+      <c r="AE46" s="646"/>
+      <c r="AF46" s="646"/>
+      <c r="AG46" s="646"/>
+      <c r="AH46" s="646"/>
+      <c r="AI46" s="646"/>
+      <c r="AJ46" s="646"/>
       <c r="AK46" s="57"/>
       <c r="AL46" s="13"/>
       <c r="AM46" s="13"/>
@@ -17810,8 +17855,8 @@
       <c r="BW46" s="13"/>
     </row>
     <row r="47" spans="1:75" s="10" customFormat="1" ht="27" customHeight="1">
-      <c r="A47" s="561"/>
-      <c r="B47" s="570"/>
+      <c r="A47" s="661"/>
+      <c r="B47" s="670"/>
       <c r="C47" s="152" t="s">
         <v>256</v>
       </c>
@@ -17889,44 +17934,44 @@
       <c r="BW47" s="13"/>
     </row>
     <row r="48" spans="1:75" s="10" customFormat="1" ht="27" customHeight="1">
-      <c r="A48" s="571"/>
-      <c r="B48" s="572"/>
+      <c r="A48" s="671"/>
+      <c r="B48" s="672"/>
       <c r="C48" s="153" t="s">
         <v>79</v>
       </c>
       <c r="D48" s="94"/>
-      <c r="E48" s="607"/>
-      <c r="F48" s="608"/>
-      <c r="G48" s="609"/>
-      <c r="H48" s="608"/>
-      <c r="I48" s="609"/>
-      <c r="J48" s="609"/>
-      <c r="K48" s="610"/>
-      <c r="L48" s="611"/>
-      <c r="M48" s="607"/>
-      <c r="N48" s="609"/>
-      <c r="O48" s="610"/>
-      <c r="P48" s="608"/>
-      <c r="Q48" s="610"/>
-      <c r="R48" s="608"/>
-      <c r="S48" s="609"/>
-      <c r="T48" s="608"/>
+      <c r="E48" s="638"/>
+      <c r="F48" s="635"/>
+      <c r="G48" s="634"/>
+      <c r="H48" s="635"/>
+      <c r="I48" s="634"/>
+      <c r="J48" s="634"/>
+      <c r="K48" s="636"/>
+      <c r="L48" s="637"/>
+      <c r="M48" s="638"/>
+      <c r="N48" s="634"/>
+      <c r="O48" s="636"/>
+      <c r="P48" s="635"/>
+      <c r="Q48" s="636"/>
+      <c r="R48" s="635"/>
+      <c r="S48" s="634"/>
+      <c r="T48" s="635"/>
       <c r="U48" s="368"/>
       <c r="V48" s="369"/>
       <c r="W48" s="368"/>
       <c r="X48" s="369"/>
       <c r="Y48" s="368"/>
       <c r="Z48" s="368"/>
-      <c r="AA48" s="610"/>
-      <c r="AB48" s="611"/>
-      <c r="AC48" s="614"/>
-      <c r="AD48" s="614"/>
-      <c r="AE48" s="606"/>
-      <c r="AF48" s="606"/>
-      <c r="AG48" s="606"/>
-      <c r="AH48" s="606"/>
-      <c r="AI48" s="606"/>
-      <c r="AJ48" s="606"/>
+      <c r="AA48" s="636"/>
+      <c r="AB48" s="637"/>
+      <c r="AC48" s="645"/>
+      <c r="AD48" s="645"/>
+      <c r="AE48" s="646"/>
+      <c r="AF48" s="646"/>
+      <c r="AG48" s="646"/>
+      <c r="AH48" s="646"/>
+      <c r="AI48" s="646"/>
+      <c r="AJ48" s="646"/>
       <c r="AK48" s="57"/>
       <c r="AL48" s="13"/>
       <c r="AM48" s="13"/>
@@ -17968,44 +18013,44 @@
       <c r="BW48" s="13"/>
     </row>
     <row r="49" spans="1:75" s="10" customFormat="1" ht="32.25" customHeight="1">
-      <c r="A49" s="561" t="s">
+      <c r="A49" s="661" t="s">
         <v>93</v>
       </c>
-      <c r="B49" s="562"/>
-      <c r="C49" s="562"/>
-      <c r="D49" s="563"/>
-      <c r="E49" s="605"/>
-      <c r="F49" s="581"/>
-      <c r="G49" s="582"/>
-      <c r="H49" s="581"/>
-      <c r="I49" s="582"/>
-      <c r="J49" s="582"/>
-      <c r="K49" s="580"/>
-      <c r="L49" s="583"/>
-      <c r="M49" s="605"/>
-      <c r="N49" s="582"/>
-      <c r="O49" s="580"/>
-      <c r="P49" s="581"/>
-      <c r="Q49" s="580"/>
-      <c r="R49" s="581"/>
-      <c r="S49" s="582"/>
-      <c r="T49" s="581"/>
+      <c r="B49" s="662"/>
+      <c r="C49" s="662"/>
+      <c r="D49" s="663"/>
+      <c r="E49" s="655"/>
+      <c r="F49" s="656"/>
+      <c r="G49" s="657"/>
+      <c r="H49" s="656"/>
+      <c r="I49" s="657"/>
+      <c r="J49" s="657"/>
+      <c r="K49" s="658"/>
+      <c r="L49" s="659"/>
+      <c r="M49" s="655"/>
+      <c r="N49" s="657"/>
+      <c r="O49" s="658"/>
+      <c r="P49" s="656"/>
+      <c r="Q49" s="658"/>
+      <c r="R49" s="656"/>
+      <c r="S49" s="657"/>
+      <c r="T49" s="656"/>
       <c r="U49" s="375"/>
       <c r="V49" s="376"/>
       <c r="W49" s="375"/>
       <c r="X49" s="376"/>
       <c r="Y49" s="375"/>
       <c r="Z49" s="375"/>
-      <c r="AA49" s="580"/>
-      <c r="AB49" s="583"/>
-      <c r="AC49" s="604"/>
-      <c r="AD49" s="604"/>
-      <c r="AE49" s="598"/>
-      <c r="AF49" s="598"/>
-      <c r="AG49" s="598"/>
-      <c r="AH49" s="598"/>
-      <c r="AI49" s="598"/>
-      <c r="AJ49" s="598"/>
+      <c r="AA49" s="658"/>
+      <c r="AB49" s="659"/>
+      <c r="AC49" s="644"/>
+      <c r="AD49" s="644"/>
+      <c r="AE49" s="647"/>
+      <c r="AF49" s="647"/>
+      <c r="AG49" s="647"/>
+      <c r="AH49" s="647"/>
+      <c r="AI49" s="647"/>
+      <c r="AJ49" s="647"/>
       <c r="AK49" s="57"/>
       <c r="AL49" s="13"/>
       <c r="AM49" s="13"/>
@@ -18047,44 +18092,44 @@
       <c r="BW49" s="13"/>
     </row>
     <row r="50" spans="1:75" s="10" customFormat="1" ht="32.25" customHeight="1" thickBot="1">
-      <c r="A50" s="564" t="s">
+      <c r="A50" s="664" t="s">
         <v>94</v>
       </c>
-      <c r="B50" s="565"/>
-      <c r="C50" s="565"/>
-      <c r="D50" s="566"/>
-      <c r="E50" s="599"/>
-      <c r="F50" s="600"/>
-      <c r="G50" s="601"/>
-      <c r="H50" s="600"/>
-      <c r="I50" s="601"/>
-      <c r="J50" s="601"/>
-      <c r="K50" s="602"/>
-      <c r="L50" s="603"/>
-      <c r="M50" s="599"/>
-      <c r="N50" s="601"/>
-      <c r="O50" s="602"/>
-      <c r="P50" s="600"/>
-      <c r="Q50" s="602"/>
-      <c r="R50" s="600"/>
-      <c r="S50" s="601"/>
-      <c r="T50" s="600"/>
+      <c r="B50" s="665"/>
+      <c r="C50" s="665"/>
+      <c r="D50" s="666"/>
+      <c r="E50" s="650"/>
+      <c r="F50" s="651"/>
+      <c r="G50" s="652"/>
+      <c r="H50" s="651"/>
+      <c r="I50" s="652"/>
+      <c r="J50" s="652"/>
+      <c r="K50" s="653"/>
+      <c r="L50" s="654"/>
+      <c r="M50" s="650"/>
+      <c r="N50" s="652"/>
+      <c r="O50" s="653"/>
+      <c r="P50" s="651"/>
+      <c r="Q50" s="653"/>
+      <c r="R50" s="651"/>
+      <c r="S50" s="652"/>
+      <c r="T50" s="651"/>
       <c r="U50" s="377"/>
       <c r="V50" s="378"/>
       <c r="W50" s="377"/>
       <c r="X50" s="378"/>
       <c r="Y50" s="377"/>
       <c r="Z50" s="377"/>
-      <c r="AA50" s="602"/>
-      <c r="AB50" s="603"/>
-      <c r="AC50" s="604"/>
-      <c r="AD50" s="604"/>
-      <c r="AE50" s="598"/>
-      <c r="AF50" s="598"/>
-      <c r="AG50" s="598"/>
-      <c r="AH50" s="598"/>
-      <c r="AI50" s="598"/>
-      <c r="AJ50" s="598"/>
+      <c r="AA50" s="653"/>
+      <c r="AB50" s="654"/>
+      <c r="AC50" s="644"/>
+      <c r="AD50" s="644"/>
+      <c r="AE50" s="647"/>
+      <c r="AF50" s="647"/>
+      <c r="AG50" s="647"/>
+      <c r="AH50" s="647"/>
+      <c r="AI50" s="647"/>
+      <c r="AJ50" s="647"/>
       <c r="AK50" s="57"/>
       <c r="AL50" s="13"/>
       <c r="AM50" s="13"/>
@@ -18132,17 +18177,17 @@
       <c r="D51" s="89"/>
       <c r="E51" s="90"/>
       <c r="F51" s="90"/>
-      <c r="G51" s="560"/>
-      <c r="H51" s="560"/>
-      <c r="I51" s="560"/>
+      <c r="G51" s="660"/>
+      <c r="H51" s="660"/>
+      <c r="I51" s="660"/>
       <c r="J51" s="90"/>
       <c r="K51" s="90"/>
       <c r="L51" s="90"/>
       <c r="M51" s="90"/>
       <c r="N51" s="90"/>
-      <c r="O51" s="560"/>
-      <c r="P51" s="560"/>
-      <c r="Q51" s="560"/>
+      <c r="O51" s="660"/>
+      <c r="P51" s="660"/>
+      <c r="Q51" s="660"/>
       <c r="R51" s="90"/>
       <c r="S51" s="90"/>
       <c r="T51" s="90"/>
@@ -18172,9 +18217,9 @@
       <c r="D52" s="90"/>
       <c r="E52" s="90"/>
       <c r="F52" s="90"/>
-      <c r="G52" s="573"/>
-      <c r="H52" s="573"/>
-      <c r="I52" s="573"/>
+      <c r="G52" s="673"/>
+      <c r="H52" s="673"/>
+      <c r="I52" s="673"/>
       <c r="J52" s="90"/>
       <c r="K52" s="90"/>
       <c r="L52" s="90"/>
@@ -18207,35 +18252,35 @@
     </row>
     <row r="53" spans="1:75" ht="14.1" customHeight="1">
       <c r="A53" s="88"/>
-      <c r="B53" s="567" t="s">
+      <c r="B53" s="667" t="s">
         <v>83</v>
       </c>
-      <c r="C53" s="574"/>
-      <c r="D53" s="575"/>
-      <c r="E53" s="575"/>
-      <c r="F53" s="575"/>
-      <c r="G53" s="575"/>
-      <c r="H53" s="575"/>
-      <c r="I53" s="575"/>
-      <c r="J53" s="575"/>
-      <c r="K53" s="575"/>
-      <c r="L53" s="575"/>
-      <c r="M53" s="575"/>
-      <c r="N53" s="575"/>
-      <c r="O53" s="575"/>
-      <c r="P53" s="575"/>
-      <c r="Q53" s="575"/>
-      <c r="R53" s="575"/>
-      <c r="S53" s="575"/>
-      <c r="T53" s="575"/>
-      <c r="U53" s="575"/>
-      <c r="V53" s="575"/>
-      <c r="W53" s="575"/>
-      <c r="X53" s="575"/>
-      <c r="Y53" s="575"/>
-      <c r="Z53" s="575"/>
-      <c r="AA53" s="575"/>
-      <c r="AB53" s="576"/>
+      <c r="C53" s="674"/>
+      <c r="D53" s="675"/>
+      <c r="E53" s="675"/>
+      <c r="F53" s="675"/>
+      <c r="G53" s="675"/>
+      <c r="H53" s="675"/>
+      <c r="I53" s="675"/>
+      <c r="J53" s="675"/>
+      <c r="K53" s="675"/>
+      <c r="L53" s="675"/>
+      <c r="M53" s="675"/>
+      <c r="N53" s="675"/>
+      <c r="O53" s="675"/>
+      <c r="P53" s="675"/>
+      <c r="Q53" s="675"/>
+      <c r="R53" s="675"/>
+      <c r="S53" s="675"/>
+      <c r="T53" s="675"/>
+      <c r="U53" s="675"/>
+      <c r="V53" s="675"/>
+      <c r="W53" s="675"/>
+      <c r="X53" s="675"/>
+      <c r="Y53" s="675"/>
+      <c r="Z53" s="675"/>
+      <c r="AA53" s="675"/>
+      <c r="AB53" s="676"/>
       <c r="AC53" s="70"/>
       <c r="AD53" s="70"/>
       <c r="AE53" s="70"/>
@@ -18256,33 +18301,33 @@
     </row>
     <row r="54" spans="1:75" ht="28.5" customHeight="1">
       <c r="A54" s="88"/>
-      <c r="B54" s="567"/>
-      <c r="C54" s="577"/>
-      <c r="D54" s="578"/>
-      <c r="E54" s="578"/>
-      <c r="F54" s="578"/>
-      <c r="G54" s="578"/>
-      <c r="H54" s="578"/>
-      <c r="I54" s="578"/>
-      <c r="J54" s="578"/>
-      <c r="K54" s="578"/>
-      <c r="L54" s="578"/>
-      <c r="M54" s="578"/>
-      <c r="N54" s="578"/>
-      <c r="O54" s="578"/>
-      <c r="P54" s="578"/>
-      <c r="Q54" s="578"/>
-      <c r="R54" s="578"/>
-      <c r="S54" s="578"/>
-      <c r="T54" s="578"/>
-      <c r="U54" s="578"/>
-      <c r="V54" s="578"/>
-      <c r="W54" s="578"/>
-      <c r="X54" s="578"/>
-      <c r="Y54" s="578"/>
-      <c r="Z54" s="578"/>
-      <c r="AA54" s="578"/>
-      <c r="AB54" s="579"/>
+      <c r="B54" s="667"/>
+      <c r="C54" s="677"/>
+      <c r="D54" s="678"/>
+      <c r="E54" s="678"/>
+      <c r="F54" s="678"/>
+      <c r="G54" s="678"/>
+      <c r="H54" s="678"/>
+      <c r="I54" s="678"/>
+      <c r="J54" s="678"/>
+      <c r="K54" s="678"/>
+      <c r="L54" s="678"/>
+      <c r="M54" s="678"/>
+      <c r="N54" s="678"/>
+      <c r="O54" s="678"/>
+      <c r="P54" s="678"/>
+      <c r="Q54" s="678"/>
+      <c r="R54" s="678"/>
+      <c r="S54" s="678"/>
+      <c r="T54" s="678"/>
+      <c r="U54" s="678"/>
+      <c r="V54" s="678"/>
+      <c r="W54" s="678"/>
+      <c r="X54" s="678"/>
+      <c r="Y54" s="678"/>
+      <c r="Z54" s="678"/>
+      <c r="AA54" s="678"/>
+      <c r="AB54" s="679"/>
       <c r="AC54" s="70"/>
       <c r="AD54" s="70"/>
       <c r="AE54" s="70"/>
@@ -37376,29 +37421,284 @@
   </sheetData>
   <sheetProtection formatColumns="0" formatRows="0"/>
   <mergeCells count="325">
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="BF2:BS2"/>
-    <mergeCell ref="AG5:AJ5"/>
-    <mergeCell ref="E2:AB2"/>
-    <mergeCell ref="E4:AB5"/>
-    <mergeCell ref="W6:X6"/>
-    <mergeCell ref="Y6:Z6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="AI24:AJ24"/>
-    <mergeCell ref="A24:D24"/>
-    <mergeCell ref="AD8:AK8"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="S6:T6"/>
-    <mergeCell ref="AA6:AB6"/>
-    <mergeCell ref="AC6:AD6"/>
-    <mergeCell ref="AE6:AF6"/>
-    <mergeCell ref="AI6:AJ6"/>
-    <mergeCell ref="U6:V6"/>
+    <mergeCell ref="G51:I51"/>
+    <mergeCell ref="O51:Q51"/>
+    <mergeCell ref="A49:D49"/>
+    <mergeCell ref="A50:D50"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="U41:V41"/>
+    <mergeCell ref="W41:X41"/>
+    <mergeCell ref="Y41:Z41"/>
+    <mergeCell ref="A47:B48"/>
+    <mergeCell ref="G52:I52"/>
+    <mergeCell ref="C53:AB54"/>
+    <mergeCell ref="Q49:R49"/>
+    <mergeCell ref="O49:P49"/>
+    <mergeCell ref="S49:T49"/>
+    <mergeCell ref="AA49:AB49"/>
+    <mergeCell ref="AA44:AB44"/>
+    <mergeCell ref="A44:B46"/>
+    <mergeCell ref="S44:T44"/>
+    <mergeCell ref="O41:P41"/>
+    <mergeCell ref="Q41:R41"/>
+    <mergeCell ref="S41:T41"/>
+    <mergeCell ref="A33:B43"/>
+    <mergeCell ref="Q33:R33"/>
+    <mergeCell ref="S33:T33"/>
+    <mergeCell ref="AI49:AJ49"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="I50:J50"/>
+    <mergeCell ref="K50:L50"/>
+    <mergeCell ref="M50:N50"/>
+    <mergeCell ref="O50:P50"/>
+    <mergeCell ref="Q50:R50"/>
+    <mergeCell ref="S50:T50"/>
+    <mergeCell ref="AA50:AB50"/>
+    <mergeCell ref="AC50:AD50"/>
+    <mergeCell ref="AE50:AF50"/>
+    <mergeCell ref="AG50:AH50"/>
+    <mergeCell ref="AI50:AJ50"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="I49:J49"/>
+    <mergeCell ref="K49:L49"/>
+    <mergeCell ref="M49:N49"/>
+    <mergeCell ref="AI46:AJ46"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="G48:H48"/>
+    <mergeCell ref="I48:J48"/>
+    <mergeCell ref="K48:L48"/>
+    <mergeCell ref="M48:N48"/>
+    <mergeCell ref="O48:P48"/>
+    <mergeCell ref="Q48:R48"/>
+    <mergeCell ref="S48:T48"/>
+    <mergeCell ref="AA48:AB48"/>
+    <mergeCell ref="AI48:AJ48"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="I46:J46"/>
+    <mergeCell ref="K46:L46"/>
+    <mergeCell ref="M46:N46"/>
+    <mergeCell ref="O46:P46"/>
+    <mergeCell ref="Q46:R46"/>
+    <mergeCell ref="S46:T46"/>
+    <mergeCell ref="AC48:AD48"/>
+    <mergeCell ref="AE48:AF48"/>
+    <mergeCell ref="AG48:AH48"/>
+    <mergeCell ref="K44:L44"/>
+    <mergeCell ref="M44:N44"/>
+    <mergeCell ref="O44:P44"/>
+    <mergeCell ref="Q44:R44"/>
+    <mergeCell ref="AC49:AD49"/>
+    <mergeCell ref="AA46:AB46"/>
+    <mergeCell ref="AC46:AD46"/>
+    <mergeCell ref="AE46:AF46"/>
+    <mergeCell ref="AG46:AH46"/>
+    <mergeCell ref="AE49:AF49"/>
+    <mergeCell ref="AG49:AH49"/>
+    <mergeCell ref="AI41:AJ41"/>
+    <mergeCell ref="AE41:AF41"/>
+    <mergeCell ref="AA41:AB41"/>
+    <mergeCell ref="AC41:AD41"/>
+    <mergeCell ref="AC44:AD44"/>
+    <mergeCell ref="AE44:AF44"/>
+    <mergeCell ref="AG44:AH44"/>
+    <mergeCell ref="AI44:AJ44"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="I45:J45"/>
+    <mergeCell ref="K45:L45"/>
+    <mergeCell ref="M45:N45"/>
+    <mergeCell ref="O45:P45"/>
+    <mergeCell ref="Q45:R45"/>
+    <mergeCell ref="S45:T45"/>
+    <mergeCell ref="AA45:AB45"/>
+    <mergeCell ref="AC45:AD45"/>
+    <mergeCell ref="AE45:AF45"/>
+    <mergeCell ref="AG45:AH45"/>
+    <mergeCell ref="AI45:AJ45"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="I44:J44"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="K41:L41"/>
+    <mergeCell ref="M41:N41"/>
+    <mergeCell ref="AA40:AB40"/>
+    <mergeCell ref="AC40:AD40"/>
+    <mergeCell ref="AE40:AF40"/>
+    <mergeCell ref="AG41:AH41"/>
+    <mergeCell ref="AC39:AD39"/>
+    <mergeCell ref="AE39:AF39"/>
+    <mergeCell ref="AG39:AH39"/>
+    <mergeCell ref="AI39:AJ39"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="K40:L40"/>
+    <mergeCell ref="M40:N40"/>
+    <mergeCell ref="O40:P40"/>
+    <mergeCell ref="Q40:R40"/>
+    <mergeCell ref="S40:T40"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="M39:N39"/>
+    <mergeCell ref="O39:P39"/>
+    <mergeCell ref="Q39:R39"/>
+    <mergeCell ref="S39:T39"/>
+    <mergeCell ref="AA39:AB39"/>
+    <mergeCell ref="AG40:AH40"/>
+    <mergeCell ref="AI40:AJ40"/>
+    <mergeCell ref="AA37:AB37"/>
+    <mergeCell ref="AC37:AD37"/>
+    <mergeCell ref="AE37:AF37"/>
+    <mergeCell ref="AG37:AH37"/>
+    <mergeCell ref="AI37:AJ37"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="K38:L38"/>
+    <mergeCell ref="M38:N38"/>
+    <mergeCell ref="O38:P38"/>
+    <mergeCell ref="Q38:R38"/>
+    <mergeCell ref="S38:T38"/>
+    <mergeCell ref="AA38:AB38"/>
+    <mergeCell ref="AC38:AD38"/>
+    <mergeCell ref="AE38:AF38"/>
+    <mergeCell ref="AG38:AH38"/>
+    <mergeCell ref="AI38:AJ38"/>
+    <mergeCell ref="AA35:AB35"/>
+    <mergeCell ref="AC35:AD35"/>
+    <mergeCell ref="AE35:AF35"/>
+    <mergeCell ref="AG35:AH35"/>
+    <mergeCell ref="AI35:AJ35"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="M36:N36"/>
+    <mergeCell ref="O36:P36"/>
+    <mergeCell ref="Q36:R36"/>
+    <mergeCell ref="S36:T36"/>
+    <mergeCell ref="AA36:AB36"/>
+    <mergeCell ref="AC36:AD36"/>
+    <mergeCell ref="AE36:AF36"/>
+    <mergeCell ref="AG36:AH36"/>
+    <mergeCell ref="AI36:AJ36"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="M35:N35"/>
+    <mergeCell ref="O35:P35"/>
+    <mergeCell ref="AA33:AB33"/>
+    <mergeCell ref="AC33:AD33"/>
+    <mergeCell ref="AE33:AF33"/>
+    <mergeCell ref="AG33:AH33"/>
+    <mergeCell ref="AI33:AJ33"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="M34:N34"/>
+    <mergeCell ref="O34:P34"/>
+    <mergeCell ref="Q34:R34"/>
+    <mergeCell ref="S34:T34"/>
+    <mergeCell ref="AA34:AB34"/>
+    <mergeCell ref="AC34:AD34"/>
+    <mergeCell ref="AE34:AF34"/>
+    <mergeCell ref="AG34:AH34"/>
+    <mergeCell ref="AI34:AJ34"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="M33:N33"/>
+    <mergeCell ref="O33:P33"/>
+    <mergeCell ref="Q35:R35"/>
+    <mergeCell ref="S35:T35"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="M37:N37"/>
+    <mergeCell ref="O37:P37"/>
+    <mergeCell ref="Q37:R37"/>
+    <mergeCell ref="S37:T37"/>
+    <mergeCell ref="AC31:AD31"/>
+    <mergeCell ref="AE31:AF31"/>
+    <mergeCell ref="AG31:AH31"/>
+    <mergeCell ref="AI31:AJ31"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="M32:N32"/>
+    <mergeCell ref="O32:P32"/>
+    <mergeCell ref="Q32:R32"/>
+    <mergeCell ref="S32:T32"/>
+    <mergeCell ref="AA32:AB32"/>
+    <mergeCell ref="AC32:AD32"/>
+    <mergeCell ref="AE32:AF32"/>
+    <mergeCell ref="AG32:AH32"/>
+    <mergeCell ref="AI32:AJ32"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="M31:N31"/>
+    <mergeCell ref="O31:P31"/>
+    <mergeCell ref="Q31:R31"/>
+    <mergeCell ref="S31:T31"/>
+    <mergeCell ref="AA31:AB31"/>
+    <mergeCell ref="AC29:AD29"/>
+    <mergeCell ref="AE29:AF29"/>
+    <mergeCell ref="AG29:AH29"/>
+    <mergeCell ref="AI29:AJ29"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="M30:N30"/>
+    <mergeCell ref="O30:P30"/>
+    <mergeCell ref="Q30:R30"/>
+    <mergeCell ref="S30:T30"/>
+    <mergeCell ref="AA30:AB30"/>
+    <mergeCell ref="AC30:AD30"/>
+    <mergeCell ref="AE30:AF30"/>
+    <mergeCell ref="AG30:AH30"/>
+    <mergeCell ref="AI30:AJ30"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="O29:P29"/>
+    <mergeCell ref="Q29:R29"/>
+    <mergeCell ref="S29:T29"/>
+    <mergeCell ref="AA29:AB29"/>
+    <mergeCell ref="AA27:AB27"/>
+    <mergeCell ref="AC27:AD27"/>
+    <mergeCell ref="AE27:AF27"/>
+    <mergeCell ref="AG27:AH27"/>
+    <mergeCell ref="AI27:AJ27"/>
+    <mergeCell ref="AC28:AD28"/>
+    <mergeCell ref="AE28:AF28"/>
+    <mergeCell ref="AG28:AH28"/>
+    <mergeCell ref="AI28:AJ28"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="O28:P28"/>
+    <mergeCell ref="Q28:R28"/>
+    <mergeCell ref="S28:T28"/>
+    <mergeCell ref="AA28:AB28"/>
     <mergeCell ref="Q26:R26"/>
     <mergeCell ref="S26:T26"/>
     <mergeCell ref="AA26:AB26"/>
@@ -37423,284 +37723,29 @@
     <mergeCell ref="O27:P27"/>
     <mergeCell ref="Q27:R27"/>
     <mergeCell ref="S27:T27"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="M28:N28"/>
-    <mergeCell ref="O28:P28"/>
-    <mergeCell ref="Q28:R28"/>
-    <mergeCell ref="S28:T28"/>
-    <mergeCell ref="AA28:AB28"/>
-    <mergeCell ref="O29:P29"/>
-    <mergeCell ref="Q29:R29"/>
-    <mergeCell ref="S29:T29"/>
-    <mergeCell ref="AA29:AB29"/>
-    <mergeCell ref="AA27:AB27"/>
-    <mergeCell ref="AC27:AD27"/>
-    <mergeCell ref="AE27:AF27"/>
-    <mergeCell ref="AG27:AH27"/>
-    <mergeCell ref="AI27:AJ27"/>
-    <mergeCell ref="AC28:AD28"/>
-    <mergeCell ref="AE28:AF28"/>
-    <mergeCell ref="AG28:AH28"/>
-    <mergeCell ref="AI28:AJ28"/>
-    <mergeCell ref="S31:T31"/>
-    <mergeCell ref="AA31:AB31"/>
-    <mergeCell ref="AC29:AD29"/>
-    <mergeCell ref="AE29:AF29"/>
-    <mergeCell ref="AG29:AH29"/>
-    <mergeCell ref="AI29:AJ29"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="M30:N30"/>
-    <mergeCell ref="O30:P30"/>
-    <mergeCell ref="Q30:R30"/>
-    <mergeCell ref="S30:T30"/>
-    <mergeCell ref="AA30:AB30"/>
-    <mergeCell ref="AC30:AD30"/>
-    <mergeCell ref="AE30:AF30"/>
-    <mergeCell ref="AG30:AH30"/>
-    <mergeCell ref="AI30:AJ30"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="M29:N29"/>
-    <mergeCell ref="AC31:AD31"/>
-    <mergeCell ref="AE31:AF31"/>
-    <mergeCell ref="AG31:AH31"/>
-    <mergeCell ref="AI31:AJ31"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="M32:N32"/>
-    <mergeCell ref="O32:P32"/>
-    <mergeCell ref="Q32:R32"/>
-    <mergeCell ref="S32:T32"/>
-    <mergeCell ref="AA32:AB32"/>
-    <mergeCell ref="AC32:AD32"/>
-    <mergeCell ref="AE32:AF32"/>
-    <mergeCell ref="AG32:AH32"/>
-    <mergeCell ref="AI32:AJ32"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="M31:N31"/>
-    <mergeCell ref="O31:P31"/>
-    <mergeCell ref="Q31:R31"/>
-    <mergeCell ref="Q35:R35"/>
-    <mergeCell ref="S35:T35"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="M37:N37"/>
-    <mergeCell ref="O37:P37"/>
-    <mergeCell ref="Q37:R37"/>
-    <mergeCell ref="S37:T37"/>
-    <mergeCell ref="AA33:AB33"/>
-    <mergeCell ref="AC33:AD33"/>
-    <mergeCell ref="AE33:AF33"/>
-    <mergeCell ref="AG33:AH33"/>
-    <mergeCell ref="AI33:AJ33"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="K34:L34"/>
-    <mergeCell ref="M34:N34"/>
-    <mergeCell ref="O34:P34"/>
-    <mergeCell ref="Q34:R34"/>
-    <mergeCell ref="S34:T34"/>
-    <mergeCell ref="AA34:AB34"/>
-    <mergeCell ref="AC34:AD34"/>
-    <mergeCell ref="AE34:AF34"/>
-    <mergeCell ref="AG34:AH34"/>
-    <mergeCell ref="AI34:AJ34"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="M33:N33"/>
-    <mergeCell ref="O33:P33"/>
-    <mergeCell ref="AA35:AB35"/>
-    <mergeCell ref="AC35:AD35"/>
-    <mergeCell ref="AE35:AF35"/>
-    <mergeCell ref="AG35:AH35"/>
-    <mergeCell ref="AI35:AJ35"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="M36:N36"/>
-    <mergeCell ref="O36:P36"/>
-    <mergeCell ref="Q36:R36"/>
-    <mergeCell ref="S36:T36"/>
-    <mergeCell ref="AA36:AB36"/>
-    <mergeCell ref="AC36:AD36"/>
-    <mergeCell ref="AE36:AF36"/>
-    <mergeCell ref="AG36:AH36"/>
-    <mergeCell ref="AI36:AJ36"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="M35:N35"/>
-    <mergeCell ref="O35:P35"/>
-    <mergeCell ref="AA37:AB37"/>
-    <mergeCell ref="AC37:AD37"/>
-    <mergeCell ref="AE37:AF37"/>
-    <mergeCell ref="AG37:AH37"/>
-    <mergeCell ref="AI37:AJ37"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="K38:L38"/>
-    <mergeCell ref="M38:N38"/>
-    <mergeCell ref="O38:P38"/>
-    <mergeCell ref="Q38:R38"/>
-    <mergeCell ref="S38:T38"/>
-    <mergeCell ref="AA38:AB38"/>
-    <mergeCell ref="AC38:AD38"/>
-    <mergeCell ref="AE38:AF38"/>
-    <mergeCell ref="AG38:AH38"/>
-    <mergeCell ref="AI38:AJ38"/>
-    <mergeCell ref="AC39:AD39"/>
-    <mergeCell ref="AE39:AF39"/>
-    <mergeCell ref="AG39:AH39"/>
-    <mergeCell ref="AI39:AJ39"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="I40:J40"/>
-    <mergeCell ref="K40:L40"/>
-    <mergeCell ref="M40:N40"/>
-    <mergeCell ref="O40:P40"/>
-    <mergeCell ref="Q40:R40"/>
-    <mergeCell ref="S40:T40"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="K39:L39"/>
-    <mergeCell ref="M39:N39"/>
-    <mergeCell ref="O39:P39"/>
-    <mergeCell ref="Q39:R39"/>
-    <mergeCell ref="S39:T39"/>
-    <mergeCell ref="AA39:AB39"/>
-    <mergeCell ref="AG40:AH40"/>
-    <mergeCell ref="AI40:AJ40"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="K41:L41"/>
-    <mergeCell ref="M41:N41"/>
-    <mergeCell ref="AA40:AB40"/>
-    <mergeCell ref="AC40:AD40"/>
-    <mergeCell ref="AE40:AF40"/>
-    <mergeCell ref="AG41:AH41"/>
-    <mergeCell ref="AI41:AJ41"/>
-    <mergeCell ref="AE41:AF41"/>
-    <mergeCell ref="AA41:AB41"/>
-    <mergeCell ref="AC41:AD41"/>
-    <mergeCell ref="AC44:AD44"/>
-    <mergeCell ref="AE44:AF44"/>
-    <mergeCell ref="AG44:AH44"/>
-    <mergeCell ref="AI44:AJ44"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="G45:H45"/>
-    <mergeCell ref="I45:J45"/>
-    <mergeCell ref="K45:L45"/>
-    <mergeCell ref="M45:N45"/>
-    <mergeCell ref="O45:P45"/>
-    <mergeCell ref="Q45:R45"/>
-    <mergeCell ref="S45:T45"/>
-    <mergeCell ref="AA45:AB45"/>
-    <mergeCell ref="AC45:AD45"/>
-    <mergeCell ref="AE45:AF45"/>
-    <mergeCell ref="AG45:AH45"/>
-    <mergeCell ref="AI45:AJ45"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="G44:H44"/>
-    <mergeCell ref="I44:J44"/>
-    <mergeCell ref="K44:L44"/>
-    <mergeCell ref="M44:N44"/>
-    <mergeCell ref="O44:P44"/>
-    <mergeCell ref="Q44:R44"/>
-    <mergeCell ref="AC49:AD49"/>
-    <mergeCell ref="AA46:AB46"/>
-    <mergeCell ref="AC46:AD46"/>
-    <mergeCell ref="AE46:AF46"/>
-    <mergeCell ref="AG46:AH46"/>
-    <mergeCell ref="AE49:AF49"/>
-    <mergeCell ref="AG49:AH49"/>
-    <mergeCell ref="AI46:AJ46"/>
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="G48:H48"/>
-    <mergeCell ref="I48:J48"/>
-    <mergeCell ref="K48:L48"/>
-    <mergeCell ref="M48:N48"/>
-    <mergeCell ref="O48:P48"/>
-    <mergeCell ref="Q48:R48"/>
-    <mergeCell ref="S48:T48"/>
-    <mergeCell ref="AA48:AB48"/>
-    <mergeCell ref="AI48:AJ48"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="G46:H46"/>
-    <mergeCell ref="I46:J46"/>
-    <mergeCell ref="K46:L46"/>
-    <mergeCell ref="M46:N46"/>
-    <mergeCell ref="O46:P46"/>
-    <mergeCell ref="Q46:R46"/>
-    <mergeCell ref="S46:T46"/>
-    <mergeCell ref="AC48:AD48"/>
-    <mergeCell ref="AE48:AF48"/>
-    <mergeCell ref="AG48:AH48"/>
-    <mergeCell ref="AI49:AJ49"/>
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="G50:H50"/>
-    <mergeCell ref="I50:J50"/>
-    <mergeCell ref="K50:L50"/>
-    <mergeCell ref="M50:N50"/>
-    <mergeCell ref="O50:P50"/>
-    <mergeCell ref="Q50:R50"/>
-    <mergeCell ref="S50:T50"/>
-    <mergeCell ref="AA50:AB50"/>
-    <mergeCell ref="AC50:AD50"/>
-    <mergeCell ref="AE50:AF50"/>
-    <mergeCell ref="AG50:AH50"/>
-    <mergeCell ref="AI50:AJ50"/>
-    <mergeCell ref="E49:F49"/>
-    <mergeCell ref="G49:H49"/>
-    <mergeCell ref="I49:J49"/>
-    <mergeCell ref="K49:L49"/>
-    <mergeCell ref="M49:N49"/>
-    <mergeCell ref="G51:I51"/>
-    <mergeCell ref="O51:Q51"/>
-    <mergeCell ref="A49:D49"/>
-    <mergeCell ref="A50:D50"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="U41:V41"/>
-    <mergeCell ref="W41:X41"/>
-    <mergeCell ref="Y41:Z41"/>
-    <mergeCell ref="A47:B48"/>
-    <mergeCell ref="G52:I52"/>
-    <mergeCell ref="C53:AB54"/>
-    <mergeCell ref="Q49:R49"/>
-    <mergeCell ref="O49:P49"/>
-    <mergeCell ref="S49:T49"/>
-    <mergeCell ref="AA49:AB49"/>
-    <mergeCell ref="AA44:AB44"/>
-    <mergeCell ref="A44:B46"/>
-    <mergeCell ref="S44:T44"/>
-    <mergeCell ref="O41:P41"/>
-    <mergeCell ref="Q41:R41"/>
-    <mergeCell ref="S41:T41"/>
-    <mergeCell ref="A33:B43"/>
-    <mergeCell ref="Q33:R33"/>
-    <mergeCell ref="S33:T33"/>
+    <mergeCell ref="AI24:AJ24"/>
+    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="AD8:AK8"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="S6:T6"/>
+    <mergeCell ref="AA6:AB6"/>
+    <mergeCell ref="AC6:AD6"/>
+    <mergeCell ref="AE6:AF6"/>
+    <mergeCell ref="AI6:AJ6"/>
+    <mergeCell ref="U6:V6"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="BF2:BS2"/>
+    <mergeCell ref="AG5:AJ5"/>
+    <mergeCell ref="E2:AB2"/>
+    <mergeCell ref="E4:AB5"/>
+    <mergeCell ref="W6:X6"/>
+    <mergeCell ref="Y6:Z6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="O6:P6"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Enter a valid Decimal Value" prompt="Decimal Value" sqref="C7:C23">
@@ -37727,15 +37772,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101004D4CCBE22655944796F59B17B9006C15" ma:contentTypeVersion="" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="f481576c72d824a80c867b56d5274a41">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b7c6cbfa-29cf-4ada-90bf-db8e550dae8d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3bc755a260c778b5f630b987d93a78f8" ns2:_="">
     <xsd:import namespace="b7c6cbfa-29cf-4ada-90bf-db8e550dae8d"/>
@@ -37913,6 +37949,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ECA946AD-4EA3-4FCA-B864-262800288FDF}">
   <ds:schemaRefs>
@@ -37930,14 +37975,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5458833A-D997-4113-BB83-F938CBB9D86E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{82807CA0-8C25-4FF6-8C67-D0A8F7400434}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -37953,4 +37990,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5458833A-D997-4113-BB83-F938CBB9D86E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/api/cp-dss-api/gateway/src/main/resources/reports/Vessel_1_Loading_Plan_Template.xlsx
+++ b/api/cp-dss-api/gateway/src/main/resources/reports/Vessel_1_Loading_Plan_Template.xlsx
@@ -13,9 +13,8 @@
   </bookViews>
   <sheets>
     <sheet name="CRUD - 021 pg1" sheetId="27" r:id="rId1"/>
-    <sheet name="CRUD-021 pg2 " sheetId="25" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="29" r:id="rId3"/>
-    <sheet name="CRUD-021 pg3" sheetId="28" r:id="rId4"/>
+    <sheet name="CRUD-021 pg2 " sheetId="29" r:id="rId2"/>
+    <sheet name="CRUD-021 pg3" sheetId="28" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="\A" localSheetId="0">#REF!</definedName>
@@ -35,23 +34,22 @@
     <definedName name="B" localSheetId="0">#REF!</definedName>
     <definedName name="B">#REF!</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'CRUD - 021 pg1'!$A$1:$Z$71</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'CRUD-021 pg2 '!$A$1:$Y$60</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">'CRUD-021 pg3'!$A$1:$AM$85</definedName>
-    <definedName name="SSSN_2NDOF">'CRUD-021 pg2 '!#REF!</definedName>
-    <definedName name="SSSN_3RDOF">'CRUD-021 pg2 '!#REF!</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'CRUD-021 pg3'!$A$1:$AM$85</definedName>
+    <definedName name="SSSN_2NDOF">#REF!</definedName>
+    <definedName name="SSSN_3RDOF">#REF!</definedName>
     <definedName name="SSSN_AFIG">'CRUD - 021 pg1'!$C$15:$P$27</definedName>
     <definedName name="SSSN_ALAH">'CRUD - 021 pg1'!$Y$35:$Y$36</definedName>
-    <definedName name="SSSN_ALLCOW">'CRUD-021 pg2 '!#REF!</definedName>
+    <definedName name="SSSN_ALLCOW">#REF!</definedName>
     <definedName name="SSSN_ALLE">#REF!</definedName>
     <definedName name="SSSN_APT">'CRUD - 021 pg1'!$B$19:$B$21</definedName>
     <definedName name="SSSN_APTS">'CRUD - 021 pg1'!$B$37:$B$39</definedName>
     <definedName name="SSSN_BRTINFO">'CRUD - 021 pg1'!$I$49:$AA$59</definedName>
     <definedName name="SSSN_BSTR">'CRUD - 021 pg1'!$Y$40</definedName>
-    <definedName name="SSSN_BUNKSR">'CRUD-021 pg2 '!#REF!</definedName>
+    <definedName name="SSSN_BUNKSR">#REF!</definedName>
     <definedName name="SSSN_CO">'CRUD - 021 pg1'!$J$7:$N$7</definedName>
     <definedName name="SSSN_COMP">#REF!</definedName>
-    <definedName name="SSSN_COWWAS">'CRUD-021 pg2 '!#REF!</definedName>
-    <definedName name="SSSN_CRGDIS">'CRUD-021 pg2 '!$B$4:$Y$6</definedName>
+    <definedName name="SSSN_COWWAS">#REF!</definedName>
+    <definedName name="SSSN_CRGDIS">#REF!</definedName>
     <definedName name="SSSN_CRGMT1">#REF!</definedName>
     <definedName name="SSSN_CRGMT4">#REF!</definedName>
     <definedName name="SSSN_CRGO">'CRUD - 021 pg1'!$Y$16:$Y$20</definedName>
@@ -60,8 +58,8 @@
     <definedName name="SSSN_DRFT">'CRUD - 021 pg1'!$Y$26:$Y$28</definedName>
     <definedName name="SSSN_DRFT22">#REF!</definedName>
     <definedName name="SSSN_DTRIM">'CRUD - 021 pg1'!$Y$42:$Y$44</definedName>
-    <definedName name="SSSN_E3OF">'CRUD-021 pg2 '!#REF!</definedName>
-    <definedName name="SSSN_EMR">'CRUD-021 pg2 '!$B$8:$Y$26</definedName>
+    <definedName name="SSSN_E3OF">#REF!</definedName>
+    <definedName name="SSSN_EMR">#REF!</definedName>
     <definedName name="SSSN_FC1">#REF!</definedName>
     <definedName name="SSSN_FC2">#REF!</definedName>
     <definedName name="SSSN_FLD1">#REF!</definedName>
@@ -74,16 +72,16 @@
     <definedName name="SSSN_GMMER">#REF!</definedName>
     <definedName name="SSSN_GPT">#REF!</definedName>
     <definedName name="SSSN_GSPU">#REF!</definedName>
-    <definedName name="SSSN_KL">'CRUD-021 pg2 '!$T$2:$U$2</definedName>
-    <definedName name="SSSN_KND">'CRUD-021 pg2 '!#REF!</definedName>
+    <definedName name="SSSN_KL">#REF!</definedName>
+    <definedName name="SSSN_KND">#REF!</definedName>
     <definedName name="SSSN_MLS">#REF!</definedName>
     <definedName name="SSSN_MST">'CRUD - 021 pg1'!$C$7:$G$7</definedName>
     <definedName name="SSSN_MT3">#REF!</definedName>
     <definedName name="SSSN_MURBA">'CRUD - 021 pg1'!$Y$32</definedName>
-    <definedName name="SSSN_NOO">'CRUD-021 pg2 '!#REF!</definedName>
-    <definedName name="SSSN_NUMS">'CRUD-021 pg2 '!#REF!</definedName>
-    <definedName name="SSSN_OHE">'CRUD-021 pg2 '!#REF!</definedName>
-    <definedName name="SSSN_PRESES">'CRUD-021 pg2 '!#REF!</definedName>
+    <definedName name="SSSN_NOO">#REF!</definedName>
+    <definedName name="SSSN_NUMS">#REF!</definedName>
+    <definedName name="SSSN_OHE">#REF!</definedName>
+    <definedName name="SSSN_PRESES">#REF!</definedName>
     <definedName name="SSSN_PRT">'CRUD - 021 pg1'!$V$5:$Z$7</definedName>
     <definedName name="SSSN_REM">'CRUD - 021 pg1'!$F$62:$Y$70</definedName>
     <definedName name="SSSN_SAILCON">'CRUD - 021 pg1'!$C$33:$P$45</definedName>
@@ -92,16 +90,16 @@
     <definedName name="SSSN_STG2">#REF!</definedName>
     <definedName name="SSSN_STG3S">#REF!</definedName>
     <definedName name="SSSN_STG44">#REF!</definedName>
-    <definedName name="SSSN_STS">'CRUD-021 pg2 '!#REF!</definedName>
-    <definedName name="SSSN_STU">'CRUD-021 pg2 '!#REF!</definedName>
-    <definedName name="SSSN_TOTLS">'CRUD-021 pg2 '!#REF!</definedName>
-    <definedName name="SSSN_TOTSER">'CRUD-021 pg2 '!#REF!</definedName>
-    <definedName name="SSSN_TTSL">'CRUD-021 pg2 '!#REF!</definedName>
+    <definedName name="SSSN_STS">#REF!</definedName>
+    <definedName name="SSSN_STU">#REF!</definedName>
+    <definedName name="SSSN_TOTLS">#REF!</definedName>
+    <definedName name="SSSN_TOTSER">#REF!</definedName>
+    <definedName name="SSSN_TTSL">#REF!</definedName>
     <definedName name="SSSN_ULLAGE">#REF!</definedName>
     <definedName name="SSSN_VSL">'CRUD - 021 pg1'!$D$4:$H$4</definedName>
     <definedName name="SSSN_VYG">'CRUD - 021 pg1'!$D$5:$E$5</definedName>
-    <definedName name="SSSN_YESE">'CRUD-021 pg2 '!#REF!</definedName>
-    <definedName name="SSSN_YS">'CRUD-021 pg2 '!#REF!</definedName>
+    <definedName name="SSSN_YESE">#REF!</definedName>
+    <definedName name="SSSN_YS">#REF!</definedName>
   </definedNames>
   <calcPr calcId="0" calcOnSave="0"/>
   <extLst>
@@ -3413,7 +3411,7 @@
     <numFmt numFmtId="175" formatCode="0.0\ &quot;hrs&quot;"/>
     <numFmt numFmtId="176" formatCode="dd\-mmm\-yyyy\ hh:mm\ AM/PM"/>
   </numFmts>
-  <fonts count="46">
+  <fonts count="47">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -3698,6 +3696,13 @@
       <color rgb="FF000000"/>
       <name val="Consolas"/>
       <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -4090,7 +4095,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="358">
+  <cellXfs count="359">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="8" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1"/>
@@ -4572,9 +4577,7 @@
     <xf numFmtId="0" fontId="45" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -5125,6 +5128,7 @@
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="16">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -9704,84 +9708,18 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:A59"/>
-  <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="R12" sqref="R12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="5.6640625" defaultRowHeight="17.25" customHeight="1"/>
-  <cols>
-    <col min="1" max="1" width="3.6640625" customWidth="1"/>
-    <col min="2" max="2" width="5.6640625" customWidth="1"/>
-    <col min="3" max="3" width="10.5546875" customWidth="1"/>
-    <col min="4" max="4" width="5.6640625" customWidth="1"/>
-    <col min="5" max="5" width="8.6640625" customWidth="1"/>
-    <col min="6" max="6" width="8.44140625" customWidth="1"/>
-    <col min="7" max="7" width="7.6640625" customWidth="1"/>
-    <col min="8" max="8" width="5" customWidth="1"/>
-    <col min="9" max="9" width="5.109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.6640625" customWidth="1"/>
-    <col min="11" max="12" width="5.6640625" customWidth="1"/>
-    <col min="13" max="13" width="8.109375" customWidth="1"/>
-    <col min="14" max="14" width="7.33203125" customWidth="1"/>
-    <col min="16" max="16" width="7.44140625" customWidth="1"/>
-    <col min="17" max="17" width="15" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="8.6640625" customWidth="1"/>
-    <col min="26" max="26" width="1.88671875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="20.25" customHeight="1"/>
-    <row r="5" ht="26.25" customHeight="1"/>
-    <row r="20" ht="19.5" customHeight="1"/>
-    <row r="22" ht="21.75" customHeight="1"/>
-    <row r="23" ht="26.25" customHeight="1"/>
-    <row r="24" ht="21.75" customHeight="1"/>
-    <row r="38" ht="12" customHeight="1"/>
-    <row r="41" ht="18.75" customHeight="1"/>
-    <row r="42" ht="19.5" customHeight="1"/>
-    <row r="43" ht="19.5" customHeight="1"/>
-    <row r="44" ht="19.5" customHeight="1"/>
-    <row r="45" ht="19.5" customHeight="1"/>
-    <row r="46" ht="26.25" customHeight="1"/>
-    <row r="47" ht="19.5" customHeight="1"/>
-    <row r="48" ht="19.5" customHeight="1"/>
-    <row r="49" ht="19.5" customHeight="1"/>
-    <row r="57" ht="20.25" customHeight="1"/>
-    <row r="58" ht="22.5" customHeight="1"/>
-    <row r="59" ht="26.25" customHeight="1"/>
-  </sheetData>
-  <sheetProtection formatColumns="0" formatRows="0" selectLockedCells="1"/>
-  <phoneticPr fontId="6" type="noConversion"/>
-  <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.5" right="0" top="0.6" bottom="0.5" header="0.25" footer="0.5"/>
-  <pageSetup paperSize="9" scale="55" fitToHeight="2" orientation="portrait" r:id="rId1"/>
-  <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;C&amp;G</oddHeader>
-    <oddFooter>&amp;LVersion 1&amp;RCRUD-021</oddFooter>
-  </headerFooter>
-  <rowBreaks count="1" manualBreakCount="1">
-    <brk id="35" max="24" man="1"/>
-  </rowBreaks>
-  <legacyDrawingHF r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
   <sheetData>
     <row r="1" spans="1:4"/>
     <row r="2" spans="1:4">
-      <c r="A2" s="208" t="s">
+      <c r="A2" s="358" t="s">
         <v>488</v>
       </c>
     </row>
@@ -9801,12 +9739,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BW1039"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A58" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="A81" sqref="A81:B81"/>
+    <sheetView showGridLines="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.33203125" defaultRowHeight="15"/>

--- a/api/cp-dss-api/gateway/src/main/resources/reports/Vessel_1_Loading_Plan_Template.xlsx
+++ b/api/cp-dss-api/gateway/src/main/resources/reports/Vessel_1_Loading_Plan_Template.xlsx
@@ -101,7 +101,7 @@
     <definedName name="SSSN_YESE">#REF!</definedName>
     <definedName name="SSSN_YS">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="0" calcOnSave="0"/>
+  <calcPr calcId="152511" calcOnSave="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -215,7 +215,7 @@
             <family val="2"/>
           </rPr>
           <t>Author:
-jx:area(lastCell="AD5")</t>
+jx:area(lastCell="AD48")</t>
         </r>
       </text>
     </comment>
@@ -230,7 +230,7 @@
             <family val="2"/>
           </rPr>
           <t>Author:
-jx:each(items="sheetTwo.instructions" var="myGroup" groupBy="group"  lastCell="B5")</t>
+jx:each(items="sheetTwo.instructions" var="myGroup" groupBy="group"  lastCell="Z40")</t>
         </r>
         <r>
           <rPr>
@@ -255,6 +255,34 @@
             <family val="2"/>
           </rPr>
           <t>jx:each(items="myGroup.items" var="myInstruction" lastCell="A3")</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A5" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>jx:if(condition="myGroup.items[0].cargoLoadingVisible == true", lastCell="Z34", areas=["A5:Z34","A40:Z40"])</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A35" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>jx:if(condition="myGroup.items[0].machineryInuseVisible == true", lastCell="Z38", areas=["A35:Z38","A40:Z40"])</t>
         </r>
       </text>
     </comment>
@@ -1919,7 +1947,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="490">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="567">
   <si>
     <t>APT</t>
   </si>
@@ -3390,6 +3418,248 @@
   </si>
   <si>
     <t>${myInstruction.instruction}</t>
+  </si>
+  <si>
+    <t>m3/hr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No of Ballast pumps:   </t>
+  </si>
+  <si>
+    <t>Capacity per pump :</t>
+  </si>
+  <si>
+    <t>Topping Off Rate:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SHIPS MANIFOLD: </t>
+  </si>
+  <si>
+    <t>Summer draft:</t>
+  </si>
+  <si>
+    <t>Tropical draft-</t>
+  </si>
+  <si>
+    <t>Fresh(MLD)</t>
+  </si>
+  <si>
+    <t>Summer Deadweight :</t>
+  </si>
+  <si>
+    <t>MT</t>
+  </si>
+  <si>
+    <t>Summer displacement :</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Cargo tank capacity (98%): </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>High Velocity Vent :</t>
+  </si>
+  <si>
+    <t>All loading C.O.T. IG branch valves to be kept open and locked. Key will be with duty officer.</t>
+  </si>
+  <si>
+    <t>Pressure: mmAq</t>
+  </si>
+  <si>
+    <t>Vac mmAq</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PV Breaker : </t>
+  </si>
+  <si>
+    <t>Terminal Information (also refer point no 3 Berth information on Page 1):</t>
+  </si>
+  <si>
+    <t>Security Level :</t>
+  </si>
+  <si>
+    <t>Expected Changes in sea/harbour water densities</t>
+  </si>
+  <si>
+    <t>Cargo Segregation requirements (If any)</t>
+  </si>
+  <si>
+    <t>Cargo Information (also refer point 4. Cargo on page 1) :</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cargo- </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Product Information:  </t>
+  </si>
+  <si>
+    <t>As per MSDS (to be given by terminal)</t>
+  </si>
+  <si>
+    <t>a) Product in Eye: Flush eyes with large amount of water till irritation subsides. If irritation persists get medical attention.</t>
+  </si>
+  <si>
+    <t>b) Skin contact: Remove contaminated clothing and wash with plenty of soap.</t>
+  </si>
+  <si>
+    <t>Vessel particulars :</t>
+  </si>
+  <si>
+    <t>Initial Loading Rate (vessel request) :</t>
+  </si>
+  <si>
+    <t>Ship Maximum Loading rate :</t>
+  </si>
+  <si>
+    <t>Max Loading Rate for Slop (S) :</t>
+  </si>
+  <si>
+    <t>Vessel venting capacity:</t>
+  </si>
+  <si>
+    <t>Expected Average Loading Rate:</t>
+  </si>
+  <si>
+    <t>Safety Information (if Exposed):  Refer to MSDS for precise details</t>
+  </si>
+  <si>
+    <t>Chief Officer</t>
+  </si>
+  <si>
+    <t>Master</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2/O</t>
+  </si>
+  <si>
+    <t>3/O</t>
+  </si>
+  <si>
+    <t>Pumpman</t>
+  </si>
+  <si>
+    <t>Bosun</t>
+  </si>
+  <si>
+    <t>AB 1</t>
+  </si>
+  <si>
+    <t>AB 2</t>
+  </si>
+  <si>
+    <t>AB 3</t>
+  </si>
+  <si>
+    <t>OS 1</t>
+  </si>
+  <si>
+    <t>OS 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ${sheetTwo.vesselPurticulars.shipMaxLoadingRate}  m3/hr</t>
+  </si>
+  <si>
+    <t>Ship Max Loading rate/manifold:</t>
+  </si>
+  <si>
+    <t>Max loading rate per tank (1w,4w):</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Max Loading rate for Slop(P) : </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ${sheetTwo.vesselPurticulars.shipMaxFlowRatePerTank}  m3/hr</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ${sheetTwo.vesselPurticulars.maxLoadingRateSlopS}  m3/hr</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ${sheetTwo.vesselPurticulars.maxLoadingRateSlopP}  m3/hr</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ${sheetTwo.vesselPurticulars.shipMaxFlowRate}  m3/hr</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ${sheetTwo.vesselPurticulars.ballastPumpCount}</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ${sheetTwo.vesselPurticulars.capacityPerPump} m3/hr</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ${sheetTwo.vesselPurticulars.shipManifold}</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ${sheetTwo.vesselPurticulars.summerDraft}</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ${sheetTwo.vesselPurticulars.tropicalDraft}</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ${sheetTwo.vesselPurticulars.summerDeadweight} MT</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ${sheetTwo.vesselPurticulars.summerDisplacement} MT</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ${sheetTwo.vesselPurticulars.cargoTankCapacity}</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ${sheetTwo.vesselPurticulars.highVelocityVentingPressure}</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ${sheetTwo.vesselPurticulars.highVelocityVentingVaccum}</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ${sheetTwo.vesselPurticulars.pvBreakerVentingPressure}</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ${sheetTwo.vesselPurticulars.pvBreakerVentingVaccum}</t>
+  </si>
+  <si>
+    <t>6. CARGO LOADING OPERATION :</t>
+  </si>
+  <si>
+    <t>CARGO MACH. IN USE :</t>
+  </si>
+  <si>
+    <t>CARGO MANIFOLD</t>
+  </si>
+  <si>
+    <t>1.</t>
+  </si>
+  <si>
+    <t>2.</t>
+  </si>
+  <si>
+    <t>TBC</t>
+  </si>
+  <si>
+    <t>G.S. PUMP</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>I.G.S</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                   BALLAST      PUMP</t>
+  </si>
+  <si>
+    <t>Others machines</t>
+  </si>
+  <si>
+    <t>M'ship crane, Mooring Winches, Deck air/water.</t>
   </si>
 </sst>
 </file>
@@ -3411,7 +3681,7 @@
     <numFmt numFmtId="175" formatCode="0.0\ &quot;hrs&quot;"/>
     <numFmt numFmtId="176" formatCode="dd\-mmm\-yyyy\ hh:mm\ AM/PM"/>
   </numFmts>
-  <fonts count="47">
+  <fonts count="52">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -3692,17 +3962,56 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="8"/>
-      <color rgb="FF000000"/>
-      <name val="Consolas"/>
-      <family val="3"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <u/>
-      <sz val="10"/>
-      <name val="Arial"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="6">
@@ -3737,7 +4046,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="30">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -4061,21 +4370,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF888888"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF888888"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF888888"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF888888"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -4095,7 +4389,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="359">
+  <cellXfs count="458">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="8" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1"/>
@@ -4574,171 +4868,115 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="22" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="47" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="10" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="10" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="173" fontId="13" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="173" fontId="13" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="173" fontId="13" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="173" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="173" fontId="22" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="173" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="173" fontId="22" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="173" fontId="13" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="173" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="173" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="173" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="7" fillId="2" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="10" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
@@ -4746,37 +4984,26 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="10" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="175" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="173" fontId="13" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="6" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="173" fontId="13" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
@@ -4786,62 +5013,46 @@
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" wrapText="1"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" wrapText="1"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" wrapText="1"/>
+    <xf numFmtId="173" fontId="13" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="173" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" wrapText="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" wrapText="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="173" fontId="22" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="173" fontId="13" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="173" fontId="22" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="10" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="173" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="173" fontId="22" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="173" fontId="22" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4888,37 +5099,433 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="10" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="173" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="173" fontId="22" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="173" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="173" fontId="22" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" wrapText="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" wrapText="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="168" fontId="6" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="175" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="2" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="173" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="173" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="22" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="10" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="10" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="172" fontId="26" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="2" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="14" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="5" borderId="18" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="169" fontId="26" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="169" fontId="26" fillId="0" borderId="15" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="171" fontId="26" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="2" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="2" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="5" borderId="18" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="33" fillId="5" borderId="17" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="33" fillId="5" borderId="13" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="33" fillId="5" borderId="16" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="26" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="169" fontId="26" fillId="0" borderId="19" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="169" fontId="26" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="39" fillId="5" borderId="20" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="5" borderId="21" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="26" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="169" fontId="26" fillId="0" borderId="15" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    <xf numFmtId="38" fontId="9" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="5" borderId="22" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="5" borderId="16" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="24" fillId="5" borderId="17" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="24" fillId="5" borderId="13" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="24" fillId="5" borderId="16" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="169" fontId="26" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="169" fontId="26" fillId="0" borderId="15" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="169" fontId="26" fillId="0" borderId="18" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="41" fillId="4" borderId="24" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -4973,162 +5580,146 @@
     <xf numFmtId="0" fontId="39" fillId="5" borderId="6" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="45" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="169" fontId="26" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="45" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="centerContinuous"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="169" fontId="26" fillId="0" borderId="19" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="centerContinuous"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="169" fontId="26" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="centerContinuous"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="169" fontId="26" fillId="0" borderId="15" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="24" fillId="5" borderId="17" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="24" fillId="5" borderId="13" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="24" fillId="5" borderId="16" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="169" fontId="26" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="169" fontId="26" fillId="0" borderId="15" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="169" fontId="26" fillId="0" borderId="18" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="38" fontId="9" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="5" borderId="22" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="5" borderId="16" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="26" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="169" fontId="26" fillId="0" borderId="15" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="5" borderId="20" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="5" borderId="21" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="2" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="5" borderId="18" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="33" fillId="5" borderId="17" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="33" fillId="5" borderId="13" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="33" fillId="5" borderId="16" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="26" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="2" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="26" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="2" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="14" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="5" borderId="18" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="169" fontId="26" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="16">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -5252,7 +5843,7 @@
         <xdr:cNvPr id="30643" name="Line 59">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26C26646-7311-46E9-9E78-CC1D2B3F626E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{26C26646-7311-46E9-9E78-CC1D2B3F626E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5306,7 +5897,7 @@
         <xdr:cNvPr id="30644" name="Line 60">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B49276F8-0941-4D7D-8146-C269E6ACE4D6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B49276F8-0941-4D7D-8146-C269E6ACE4D6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5360,7 +5951,7 @@
         <xdr:cNvPr id="30645" name="Line 62">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49720863-AFF1-493D-8C5B-3E8A332597CC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{49720863-AFF1-493D-8C5B-3E8A332597CC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5414,7 +6005,7 @@
         <xdr:cNvPr id="30646" name="Line 62">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7695EED5-68DE-4941-B396-30D3C770B8B0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7695EED5-68DE-4941-B396-30D3C770B8B0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5468,7 +6059,7 @@
         <xdr:cNvPr id="30647" name="Line 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD58331C-81A7-4159-9782-8A7161F85FB4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD58331C-81A7-4159-9782-8A7161F85FB4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5522,7 +6113,7 @@
         <xdr:cNvPr id="30648" name="Line 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D0300261-277A-4B07-916A-FC3A4EA535EC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D0300261-277A-4B07-916A-FC3A4EA535EC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5576,7 +6167,7 @@
         <xdr:cNvPr id="30649" name="Line 62">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92E06221-417C-4981-B737-76380BAE82BA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{92E06221-417C-4981-B737-76380BAE82BA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5630,7 +6221,7 @@
         <xdr:cNvPr id="30650" name="Line 62">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC93D721-69B8-4DB6-8611-B0CA263C6701}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EC93D721-69B8-4DB6-8611-B0CA263C6701}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5684,7 +6275,7 @@
         <xdr:cNvPr id="30651" name="Line 62">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8FFC3F25-367F-4CB6-8861-0D589CD691A0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8FFC3F25-367F-4CB6-8861-0D589CD691A0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5738,7 +6329,7 @@
         <xdr:cNvPr id="30652" name="Line 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{132B4608-E2CC-4568-8160-0038A8B8A9B4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{132B4608-E2CC-4568-8160-0038A8B8A9B4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5792,7 +6383,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95E86656-9F63-45D0-BC52-81A2571E9B65}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{95E86656-9F63-45D0-BC52-81A2571E9B65}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5842,7 +6433,7 @@
         <xdr:cNvPr id="17" name="Line 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{132B4608-E2CC-4568-8160-0038A8B8A9B4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{132B4608-E2CC-4568-8160-0038A8B8A9B4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5896,7 +6487,7 @@
         <xdr:cNvPr id="19" name="Line 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{132B4608-E2CC-4568-8160-0038A8B8A9B4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{132B4608-E2CC-4568-8160-0038A8B8A9B4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5950,7 +6541,7 @@
         <xdr:cNvPr id="21" name="Line 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{132B4608-E2CC-4568-8160-0038A8B8A9B4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{132B4608-E2CC-4568-8160-0038A8B8A9B4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6004,7 +6595,7 @@
         <xdr:cNvPr id="16" name="Line 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{132B4608-E2CC-4568-8160-0038A8B8A9B4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{132B4608-E2CC-4568-8160-0038A8B8A9B4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6058,7 +6649,7 @@
         <xdr:cNvPr id="18" name="Line 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{132B4608-E2CC-4568-8160-0038A8B8A9B4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{132B4608-E2CC-4568-8160-0038A8B8A9B4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6112,7 +6703,7 @@
         <xdr:cNvPr id="29" name="Line 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{132B4608-E2CC-4568-8160-0038A8B8A9B4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{132B4608-E2CC-4568-8160-0038A8B8A9B4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6166,7 +6757,7 @@
         <xdr:cNvPr id="30" name="Line 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{132B4608-E2CC-4568-8160-0038A8B8A9B4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{132B4608-E2CC-4568-8160-0038A8B8A9B4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6495,7 +7086,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AS75"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A43" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="J7" sqref="J7:N7"/>
     </sheetView>
   </sheetViews>
@@ -6553,12 +7144,12 @@
       <c r="I3" s="10"/>
       <c r="J3" s="9"/>
       <c r="K3" s="9"/>
-      <c r="L3" s="209" t="s">
+      <c r="L3" s="329" t="s">
         <v>52</v>
       </c>
-      <c r="M3" s="209"/>
-      <c r="N3" s="209"/>
-      <c r="O3" s="209"/>
+      <c r="M3" s="329"/>
+      <c r="N3" s="329"/>
+      <c r="O3" s="329"/>
       <c r="P3" s="9"/>
       <c r="Q3" s="9"/>
       <c r="R3" s="9"/>
@@ -6578,13 +7169,13 @@
         <v>35</v>
       </c>
       <c r="C4" s="9"/>
-      <c r="D4" s="272" t="s">
+      <c r="D4" s="281" t="s">
         <v>65</v>
       </c>
-      <c r="E4" s="272"/>
-      <c r="F4" s="272"/>
-      <c r="G4" s="272"/>
-      <c r="H4" s="272"/>
+      <c r="E4" s="281"/>
+      <c r="F4" s="281"/>
+      <c r="G4" s="281"/>
+      <c r="H4" s="281"/>
       <c r="I4" s="9"/>
       <c r="J4" s="9"/>
       <c r="K4" s="9"/>
@@ -6611,13 +7202,13 @@
         <v>33</v>
       </c>
       <c r="C5" s="47"/>
-      <c r="D5" s="293" t="s">
+      <c r="D5" s="247" t="s">
         <v>66</v>
       </c>
-      <c r="E5" s="294"/>
-      <c r="F5" s="294"/>
-      <c r="G5" s="294"/>
-      <c r="H5" s="294"/>
+      <c r="E5" s="248"/>
+      <c r="F5" s="248"/>
+      <c r="G5" s="248"/>
+      <c r="H5" s="248"/>
       <c r="I5" s="49"/>
       <c r="J5" s="49"/>
       <c r="K5" s="49"/>
@@ -6635,13 +7226,13 @@
       <c r="U5" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="V5" s="215" t="s">
+      <c r="V5" s="333" t="s">
         <v>69</v>
       </c>
-      <c r="W5" s="215"/>
-      <c r="X5" s="215"/>
-      <c r="Y5" s="215"/>
-      <c r="Z5" s="215"/>
+      <c r="W5" s="333"/>
+      <c r="X5" s="333"/>
+      <c r="Y5" s="333"/>
+      <c r="Z5" s="333"/>
       <c r="AA5" s="10"/>
       <c r="AB5" s="3"/>
     </row>
@@ -6671,13 +7262,13 @@
       <c r="U6" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="V6" s="216" t="s">
+      <c r="V6" s="334" t="s">
         <v>70</v>
       </c>
-      <c r="W6" s="217"/>
-      <c r="X6" s="217"/>
-      <c r="Y6" s="217"/>
-      <c r="Z6" s="217"/>
+      <c r="W6" s="335"/>
+      <c r="X6" s="335"/>
+      <c r="Y6" s="335"/>
+      <c r="Z6" s="335"/>
       <c r="AA6" s="10"/>
       <c r="AB6" s="3"/>
     </row>
@@ -6686,24 +7277,24 @@
       <c r="B7" s="53" t="s">
         <v>61</v>
       </c>
-      <c r="C7" s="273" t="s">
+      <c r="C7" s="282" t="s">
         <v>67</v>
       </c>
-      <c r="D7" s="274"/>
-      <c r="E7" s="274"/>
-      <c r="F7" s="274"/>
-      <c r="G7" s="274"/>
-      <c r="H7" s="275" t="s">
+      <c r="D7" s="283"/>
+      <c r="E7" s="283"/>
+      <c r="F7" s="283"/>
+      <c r="G7" s="283"/>
+      <c r="H7" s="292" t="s">
         <v>62</v>
       </c>
-      <c r="I7" s="276"/>
-      <c r="J7" s="273" t="s">
+      <c r="I7" s="293"/>
+      <c r="J7" s="282" t="s">
         <v>68</v>
       </c>
-      <c r="K7" s="273"/>
-      <c r="L7" s="273"/>
-      <c r="M7" s="273"/>
-      <c r="N7" s="273"/>
+      <c r="K7" s="282"/>
+      <c r="L7" s="282"/>
+      <c r="M7" s="282"/>
+      <c r="N7" s="282"/>
       <c r="O7" s="54"/>
       <c r="P7" s="54"/>
       <c r="Q7" s="54"/>
@@ -6715,13 +7306,13 @@
       <c r="U7" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="V7" s="216" t="s">
+      <c r="V7" s="334" t="s">
         <v>71</v>
       </c>
-      <c r="W7" s="217"/>
-      <c r="X7" s="217"/>
-      <c r="Y7" s="217"/>
-      <c r="Z7" s="217"/>
+      <c r="W7" s="335"/>
+      <c r="X7" s="335"/>
+      <c r="Y7" s="335"/>
+      <c r="Z7" s="335"/>
       <c r="AA7" s="10"/>
       <c r="AB7" s="3"/>
     </row>
@@ -6812,10 +7403,10 @@
       <c r="V10" s="136"/>
       <c r="W10" s="136"/>
       <c r="X10" s="136"/>
-      <c r="Y10" s="258" t="s">
+      <c r="Y10" s="303" t="s">
         <v>72</v>
       </c>
-      <c r="Z10" s="258"/>
+      <c r="Z10" s="303"/>
       <c r="AB10" s="3"/>
     </row>
     <row r="11" spans="1:28" ht="17.25" customHeight="1">
@@ -6847,12 +7438,12 @@
       <c r="T11" s="138"/>
       <c r="U11" s="138"/>
       <c r="V11" s="139"/>
-      <c r="W11" s="259" t="s">
+      <c r="W11" s="304" t="s">
         <v>73</v>
       </c>
-      <c r="X11" s="259"/>
-      <c r="Y11" s="259"/>
-      <c r="Z11" s="259"/>
+      <c r="X11" s="304"/>
+      <c r="Y11" s="304"/>
+      <c r="Z11" s="304"/>
       <c r="AA11" s="13"/>
     </row>
     <row r="12" spans="1:28" s="13" customFormat="1" ht="17.25" customHeight="1">
@@ -6871,19 +7462,19 @@
       <c r="M12" s="42"/>
       <c r="N12" s="42"/>
       <c r="O12" s="42"/>
-      <c r="P12" s="257" t="s">
+      <c r="P12" s="302" t="s">
         <v>58</v>
       </c>
-      <c r="Q12" s="257"/>
-      <c r="R12" s="257"/>
-      <c r="S12" s="257"/>
-      <c r="T12" s="257"/>
-      <c r="U12" s="257"/>
-      <c r="V12" s="257"/>
-      <c r="W12" s="257"/>
-      <c r="X12" s="257"/>
-      <c r="Y12" s="257"/>
-      <c r="Z12" s="257"/>
+      <c r="Q12" s="302"/>
+      <c r="R12" s="302"/>
+      <c r="S12" s="302"/>
+      <c r="T12" s="302"/>
+      <c r="U12" s="302"/>
+      <c r="V12" s="302"/>
+      <c r="W12" s="302"/>
+      <c r="X12" s="302"/>
+      <c r="Y12" s="302"/>
+      <c r="Z12" s="302"/>
     </row>
     <row r="13" spans="1:28" s="13" customFormat="1" ht="17.25" customHeight="1">
       <c r="A13" s="18"/>
@@ -6941,19 +7532,19 @@
         <v>269</v>
       </c>
       <c r="F15" s="109"/>
-      <c r="G15" s="218" t="s">
+      <c r="G15" s="286" t="s">
         <v>270</v>
       </c>
-      <c r="H15" s="219"/>
+      <c r="H15" s="287"/>
       <c r="I15" s="110"/>
       <c r="J15" s="148" t="s">
         <v>271</v>
       </c>
       <c r="K15" s="111"/>
-      <c r="L15" s="218" t="s">
+      <c r="L15" s="286" t="s">
         <v>272</v>
       </c>
-      <c r="M15" s="219"/>
+      <c r="M15" s="287"/>
       <c r="N15" s="111"/>
       <c r="O15" s="148" t="s">
         <v>273</v>
@@ -6962,12 +7553,12 @@
       <c r="Q15" s="68"/>
       <c r="R15" s="69"/>
       <c r="S15" s="69"/>
-      <c r="T15" s="231" t="s">
+      <c r="T15" s="301" t="s">
         <v>42</v>
       </c>
-      <c r="U15" s="231"/>
-      <c r="V15" s="231"/>
-      <c r="W15" s="231"/>
+      <c r="U15" s="301"/>
+      <c r="V15" s="301"/>
+      <c r="W15" s="301"/>
       <c r="X15" s="70"/>
       <c r="Y15" s="71"/>
       <c r="Z15" s="72"/>
@@ -6977,48 +7568,48 @@
     <row r="16" spans="1:28" s="21" customFormat="1" ht="12" customHeight="1">
       <c r="A16" s="14"/>
       <c r="B16" s="22"/>
-      <c r="C16" s="220" t="s">
+      <c r="C16" s="251" t="s">
         <v>88</v>
       </c>
-      <c r="D16" s="221"/>
-      <c r="E16" s="220" t="s">
+      <c r="D16" s="262"/>
+      <c r="E16" s="251" t="s">
         <v>116</v>
       </c>
-      <c r="F16" s="230"/>
-      <c r="G16" s="220" t="s">
+      <c r="F16" s="252"/>
+      <c r="G16" s="251" t="s">
         <v>144</v>
       </c>
-      <c r="H16" s="221"/>
-      <c r="I16" s="230"/>
-      <c r="J16" s="220" t="s">
+      <c r="H16" s="262"/>
+      <c r="I16" s="252"/>
+      <c r="J16" s="251" t="s">
         <v>172</v>
       </c>
-      <c r="K16" s="230"/>
-      <c r="L16" s="220" t="s">
+      <c r="K16" s="252"/>
+      <c r="L16" s="251" t="s">
         <v>200</v>
       </c>
-      <c r="M16" s="221"/>
-      <c r="N16" s="230"/>
-      <c r="O16" s="220" t="s">
+      <c r="M16" s="262"/>
+      <c r="N16" s="252"/>
+      <c r="O16" s="251" t="s">
         <v>228</v>
       </c>
-      <c r="P16" s="230"/>
+      <c r="P16" s="252"/>
       <c r="Q16" s="22"/>
       <c r="R16" s="69"/>
       <c r="S16" s="69"/>
-      <c r="T16" s="260" t="s">
+      <c r="T16" s="305" t="s">
         <v>74</v>
       </c>
-      <c r="U16" s="260"/>
-      <c r="V16" s="260"/>
-      <c r="W16" s="260"/>
+      <c r="U16" s="305"/>
+      <c r="V16" s="305"/>
+      <c r="W16" s="305"/>
       <c r="X16" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="Y16" s="240" t="s">
+      <c r="Y16" s="308" t="s">
         <v>82</v>
       </c>
-      <c r="Z16" s="240"/>
+      <c r="Z16" s="308"/>
       <c r="AA16" s="13"/>
       <c r="AB16" s="13"/>
     </row>
@@ -7037,10 +7628,10 @@
       <c r="F17" s="115" t="s">
         <v>117</v>
       </c>
-      <c r="G17" s="232" t="s">
+      <c r="G17" s="284" t="s">
         <v>286</v>
       </c>
-      <c r="H17" s="233"/>
+      <c r="H17" s="285"/>
       <c r="I17" s="114" t="s">
         <v>145</v>
       </c>
@@ -7050,10 +7641,10 @@
       <c r="K17" s="114" t="s">
         <v>173</v>
       </c>
-      <c r="L17" s="232" t="s">
+      <c r="L17" s="284" t="s">
         <v>292</v>
       </c>
-      <c r="M17" s="233"/>
+      <c r="M17" s="285"/>
       <c r="N17" s="114" t="s">
         <v>201</v>
       </c>
@@ -7084,39 +7675,39 @@
     <row r="18" spans="1:45" s="21" customFormat="1" ht="12" customHeight="1">
       <c r="A18" s="14"/>
       <c r="B18" s="112"/>
-      <c r="C18" s="222" t="s">
+      <c r="C18" s="260" t="s">
         <v>90</v>
       </c>
-      <c r="D18" s="223"/>
-      <c r="E18" s="222" t="s">
+      <c r="D18" s="265"/>
+      <c r="E18" s="260" t="s">
         <v>118</v>
       </c>
-      <c r="F18" s="267"/>
-      <c r="G18" s="222" t="s">
+      <c r="F18" s="261"/>
+      <c r="G18" s="260" t="s">
         <v>146</v>
       </c>
-      <c r="H18" s="223"/>
-      <c r="I18" s="267"/>
-      <c r="J18" s="223" t="s">
+      <c r="H18" s="265"/>
+      <c r="I18" s="261"/>
+      <c r="J18" s="265" t="s">
         <v>174</v>
       </c>
-      <c r="K18" s="223"/>
-      <c r="L18" s="224" t="s">
+      <c r="K18" s="265"/>
+      <c r="L18" s="267" t="s">
         <v>202</v>
       </c>
-      <c r="M18" s="225"/>
-      <c r="N18" s="226"/>
-      <c r="O18" s="223" t="s">
+      <c r="M18" s="288"/>
+      <c r="N18" s="268"/>
+      <c r="O18" s="265" t="s">
         <v>230</v>
       </c>
-      <c r="P18" s="223"/>
+      <c r="P18" s="265"/>
       <c r="Q18" s="22"/>
       <c r="R18" s="69"/>
       <c r="S18" s="69"/>
-      <c r="T18" s="229"/>
-      <c r="U18" s="229"/>
-      <c r="V18" s="229"/>
-      <c r="W18" s="229"/>
+      <c r="T18" s="336"/>
+      <c r="U18" s="336"/>
+      <c r="V18" s="336"/>
+      <c r="W18" s="336"/>
       <c r="X18" s="43"/>
       <c r="Y18" s="105"/>
       <c r="Z18" s="104"/>
@@ -7174,10 +7765,10 @@
       </c>
       <c r="R19" s="69"/>
       <c r="S19" s="69"/>
-      <c r="T19" s="229"/>
-      <c r="U19" s="229"/>
-      <c r="V19" s="229"/>
-      <c r="W19" s="229"/>
+      <c r="T19" s="336"/>
+      <c r="U19" s="336"/>
+      <c r="V19" s="336"/>
+      <c r="W19" s="336"/>
       <c r="X19" s="43"/>
       <c r="Y19" s="105"/>
       <c r="Z19" s="104"/>
@@ -7188,21 +7779,21 @@
     </row>
     <row r="20" spans="1:45" s="21" customFormat="1" ht="12" customHeight="1">
       <c r="A20" s="14"/>
-      <c r="B20" s="211" t="s">
+      <c r="B20" s="331" t="s">
         <v>86</v>
       </c>
       <c r="C20" s="150" t="s">
         <v>281</v>
       </c>
-      <c r="D20" s="264" t="s">
+      <c r="D20" s="298" t="s">
         <v>93</v>
       </c>
-      <c r="E20" s="265"/>
-      <c r="F20" s="266"/>
-      <c r="G20" s="227" t="s">
+      <c r="E20" s="299"/>
+      <c r="F20" s="300"/>
+      <c r="G20" s="296" t="s">
         <v>285</v>
       </c>
-      <c r="H20" s="228"/>
+      <c r="H20" s="297"/>
       <c r="I20" s="117" t="s">
         <v>121</v>
       </c>
@@ -7215,25 +7806,25 @@
       <c r="L20" s="151" t="s">
         <v>290</v>
       </c>
-      <c r="M20" s="268" t="s">
+      <c r="M20" s="294" t="s">
         <v>177</v>
       </c>
-      <c r="N20" s="269"/>
+      <c r="N20" s="295"/>
       <c r="O20" s="151" t="s">
         <v>293</v>
       </c>
       <c r="P20" s="117" t="s">
         <v>205</v>
       </c>
-      <c r="Q20" s="210" t="s">
+      <c r="Q20" s="330" t="s">
         <v>87</v>
       </c>
       <c r="R20" s="69"/>
       <c r="S20" s="69"/>
-      <c r="T20" s="229"/>
-      <c r="U20" s="229"/>
-      <c r="V20" s="229"/>
-      <c r="W20" s="229"/>
+      <c r="T20" s="336"/>
+      <c r="U20" s="336"/>
+      <c r="V20" s="336"/>
+      <c r="W20" s="336"/>
       <c r="X20" s="43"/>
       <c r="Y20" s="105"/>
       <c r="Z20" s="104"/>
@@ -7241,32 +7832,32 @@
     </row>
     <row r="21" spans="1:45" s="21" customFormat="1" ht="12" customHeight="1">
       <c r="A21" s="14"/>
-      <c r="B21" s="211"/>
-      <c r="C21" s="222" t="s">
+      <c r="B21" s="331"/>
+      <c r="C21" s="260" t="s">
         <v>94</v>
       </c>
-      <c r="D21" s="223"/>
-      <c r="E21" s="223"/>
-      <c r="F21" s="267"/>
-      <c r="G21" s="222" t="s">
+      <c r="D21" s="265"/>
+      <c r="E21" s="265"/>
+      <c r="F21" s="261"/>
+      <c r="G21" s="260" t="s">
         <v>122</v>
       </c>
-      <c r="H21" s="223"/>
-      <c r="I21" s="267"/>
-      <c r="J21" s="224" t="s">
+      <c r="H21" s="265"/>
+      <c r="I21" s="261"/>
+      <c r="J21" s="267" t="s">
         <v>150</v>
       </c>
-      <c r="K21" s="226"/>
-      <c r="L21" s="224" t="s">
+      <c r="K21" s="268"/>
+      <c r="L21" s="267" t="s">
         <v>178</v>
       </c>
-      <c r="M21" s="225"/>
-      <c r="N21" s="226"/>
-      <c r="O21" s="224" t="s">
+      <c r="M21" s="288"/>
+      <c r="N21" s="268"/>
+      <c r="O21" s="267" t="s">
         <v>206</v>
       </c>
-      <c r="P21" s="226"/>
-      <c r="Q21" s="210"/>
+      <c r="P21" s="268"/>
+      <c r="Q21" s="330"/>
       <c r="R21" s="69"/>
       <c r="S21" s="69"/>
       <c r="T21" s="69"/>
@@ -7341,10 +7932,10 @@
       <c r="F23" s="116" t="s">
         <v>125</v>
       </c>
-      <c r="G23" s="227" t="s">
+      <c r="G23" s="296" t="s">
         <v>288</v>
       </c>
-      <c r="H23" s="228"/>
+      <c r="H23" s="297"/>
       <c r="I23" s="116" t="s">
         <v>153</v>
       </c>
@@ -7354,10 +7945,10 @@
       <c r="K23" s="116" t="s">
         <v>181</v>
       </c>
-      <c r="L23" s="227" t="s">
+      <c r="L23" s="296" t="s">
         <v>294</v>
       </c>
-      <c r="M23" s="228"/>
+      <c r="M23" s="297"/>
       <c r="N23" s="116" t="s">
         <v>209</v>
       </c>
@@ -7383,41 +7974,41 @@
     <row r="24" spans="1:45" s="21" customFormat="1" ht="12" customHeight="1">
       <c r="A24" s="14"/>
       <c r="B24" s="22"/>
-      <c r="C24" s="222" t="s">
+      <c r="C24" s="260" t="s">
         <v>98</v>
       </c>
-      <c r="D24" s="223"/>
-      <c r="E24" s="222" t="s">
+      <c r="D24" s="265"/>
+      <c r="E24" s="260" t="s">
         <v>126</v>
       </c>
-      <c r="F24" s="223"/>
-      <c r="G24" s="270" t="s">
+      <c r="F24" s="265"/>
+      <c r="G24" s="289" t="s">
         <v>154</v>
       </c>
-      <c r="H24" s="237"/>
-      <c r="I24" s="271"/>
-      <c r="J24" s="222" t="s">
+      <c r="H24" s="290"/>
+      <c r="I24" s="291"/>
+      <c r="J24" s="260" t="s">
         <v>182</v>
       </c>
-      <c r="K24" s="223"/>
-      <c r="L24" s="270" t="s">
+      <c r="K24" s="265"/>
+      <c r="L24" s="289" t="s">
         <v>210</v>
       </c>
-      <c r="M24" s="237"/>
-      <c r="N24" s="271"/>
-      <c r="O24" s="222" t="s">
+      <c r="M24" s="290"/>
+      <c r="N24" s="291"/>
+      <c r="O24" s="260" t="s">
         <v>234</v>
       </c>
-      <c r="P24" s="223"/>
+      <c r="P24" s="265"/>
       <c r="Q24" s="22"/>
       <c r="R24" s="69"/>
       <c r="S24" s="69"/>
-      <c r="T24" s="214" t="s">
+      <c r="T24" s="306" t="s">
         <v>258</v>
       </c>
-      <c r="U24" s="261"/>
-      <c r="V24" s="261"/>
-      <c r="W24" s="261"/>
+      <c r="U24" s="307"/>
+      <c r="V24" s="307"/>
+      <c r="W24" s="307"/>
       <c r="X24" s="70"/>
       <c r="Y24" s="125" t="s">
         <v>266</v>
@@ -7488,19 +8079,19 @@
         <v>275</v>
       </c>
       <c r="F26" s="66"/>
-      <c r="G26" s="262" t="s">
+      <c r="G26" s="256" t="s">
         <v>276</v>
       </c>
-      <c r="H26" s="263"/>
+      <c r="H26" s="257"/>
       <c r="I26" s="106"/>
       <c r="J26" s="146" t="s">
         <v>277</v>
       </c>
       <c r="K26" s="67"/>
-      <c r="L26" s="262" t="s">
+      <c r="L26" s="256" t="s">
         <v>278</v>
       </c>
-      <c r="M26" s="263"/>
+      <c r="M26" s="257"/>
       <c r="N26" s="67"/>
       <c r="O26" s="147" t="s">
         <v>279</v>
@@ -7509,11 +8100,11 @@
       <c r="Q26" s="22"/>
       <c r="R26" s="69"/>
       <c r="S26" s="69"/>
-      <c r="T26" s="212" t="s">
+      <c r="T26" s="332" t="s">
         <v>43</v>
       </c>
-      <c r="U26" s="212"/>
-      <c r="V26" s="212"/>
+      <c r="U26" s="332"/>
+      <c r="V26" s="332"/>
       <c r="W26" s="107" t="s">
         <v>10</v>
       </c>
@@ -7526,40 +8117,40 @@
     <row r="27" spans="1:45" s="21" customFormat="1" ht="12" customHeight="1">
       <c r="A27" s="14"/>
       <c r="B27" s="65"/>
-      <c r="C27" s="220" t="s">
+      <c r="C27" s="251" t="s">
         <v>101</v>
       </c>
-      <c r="D27" s="221"/>
-      <c r="E27" s="220" t="s">
+      <c r="D27" s="262"/>
+      <c r="E27" s="251" t="s">
         <v>129</v>
       </c>
-      <c r="F27" s="221"/>
-      <c r="G27" s="220" t="s">
+      <c r="F27" s="262"/>
+      <c r="G27" s="251" t="s">
         <v>157</v>
       </c>
-      <c r="H27" s="221"/>
-      <c r="I27" s="230"/>
-      <c r="J27" s="220" t="s">
+      <c r="H27" s="262"/>
+      <c r="I27" s="252"/>
+      <c r="J27" s="251" t="s">
         <v>185</v>
       </c>
-      <c r="K27" s="221"/>
-      <c r="L27" s="220" t="s">
+      <c r="K27" s="262"/>
+      <c r="L27" s="251" t="s">
         <v>213</v>
       </c>
-      <c r="M27" s="221"/>
-      <c r="N27" s="230"/>
-      <c r="O27" s="220" t="s">
+      <c r="M27" s="262"/>
+      <c r="N27" s="252"/>
+      <c r="O27" s="251" t="s">
         <v>237</v>
       </c>
-      <c r="P27" s="230"/>
+      <c r="P27" s="252"/>
       <c r="Q27" s="16"/>
       <c r="R27" s="69"/>
       <c r="S27" s="63"/>
-      <c r="T27" s="213" t="s">
+      <c r="T27" s="315" t="s">
         <v>75</v>
       </c>
-      <c r="U27" s="212"/>
-      <c r="V27" s="212"/>
+      <c r="U27" s="332"/>
+      <c r="V27" s="332"/>
       <c r="W27" s="72" t="s">
         <v>10</v>
       </c>
@@ -7589,11 +8180,11 @@
       <c r="Q28" s="16"/>
       <c r="R28" s="69"/>
       <c r="S28" s="63"/>
-      <c r="T28" s="214" t="s">
+      <c r="T28" s="306" t="s">
         <v>45</v>
       </c>
-      <c r="U28" s="214"/>
-      <c r="V28" s="214"/>
+      <c r="U28" s="306"/>
+      <c r="V28" s="306"/>
       <c r="W28" s="72" t="s">
         <v>10</v>
       </c>
@@ -7694,12 +8285,12 @@
       <c r="Q31" s="56"/>
       <c r="R31" s="59"/>
       <c r="S31" s="83"/>
-      <c r="T31" s="231" t="s">
+      <c r="T31" s="301" t="s">
         <v>42</v>
       </c>
-      <c r="U31" s="231"/>
-      <c r="V31" s="231"/>
-      <c r="W31" s="231"/>
+      <c r="U31" s="301"/>
+      <c r="V31" s="301"/>
+      <c r="W31" s="301"/>
       <c r="X31" s="81"/>
       <c r="Y31" s="82"/>
       <c r="Z31" s="72"/>
@@ -7724,30 +8315,30 @@
       <c r="Q32" s="58"/>
       <c r="R32" s="58"/>
       <c r="S32" s="58"/>
-      <c r="T32" s="234" t="s">
+      <c r="T32" s="328" t="s">
         <v>83</v>
       </c>
-      <c r="U32" s="234"/>
-      <c r="V32" s="234"/>
-      <c r="W32" s="234"/>
+      <c r="U32" s="328"/>
+      <c r="V32" s="328"/>
+      <c r="W32" s="328"/>
       <c r="X32" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="Y32" s="240" t="s">
+      <c r="Y32" s="308" t="s">
         <v>84</v>
       </c>
-      <c r="Z32" s="240"/>
+      <c r="Z32" s="308"/>
       <c r="AF32" s="31"/>
       <c r="AG32" s="31"/>
       <c r="AH32" s="31"/>
       <c r="AI32" s="31"/>
-      <c r="AJ32" s="235"/>
-      <c r="AK32" s="235"/>
+      <c r="AJ32" s="323"/>
+      <c r="AK32" s="323"/>
       <c r="AL32" s="32"/>
       <c r="AM32" s="32"/>
       <c r="AN32" s="32"/>
-      <c r="AO32" s="235"/>
-      <c r="AP32" s="235"/>
+      <c r="AO32" s="323"/>
+      <c r="AP32" s="323"/>
       <c r="AQ32" s="32"/>
       <c r="AR32" s="32"/>
       <c r="AS32" s="32"/>
@@ -7763,19 +8354,19 @@
         <v>298</v>
       </c>
       <c r="F33" s="109"/>
-      <c r="G33" s="218" t="s">
+      <c r="G33" s="286" t="s">
         <v>299</v>
       </c>
-      <c r="H33" s="219"/>
+      <c r="H33" s="287"/>
       <c r="I33" s="110"/>
       <c r="J33" s="148" t="s">
         <v>300</v>
       </c>
       <c r="K33" s="111"/>
-      <c r="L33" s="218" t="s">
+      <c r="L33" s="286" t="s">
         <v>301</v>
       </c>
-      <c r="M33" s="219"/>
+      <c r="M33" s="287"/>
       <c r="N33" s="111"/>
       <c r="O33" s="148" t="s">
         <v>302</v>
@@ -7792,50 +8383,50 @@
       <c r="Y33"/>
       <c r="Z33"/>
       <c r="AA33"/>
-      <c r="AF33" s="236"/>
-      <c r="AG33" s="236"/>
-      <c r="AH33" s="236"/>
-      <c r="AI33" s="236"/>
-      <c r="AJ33" s="236"/>
-      <c r="AK33" s="236"/>
-      <c r="AL33" s="236"/>
-      <c r="AM33" s="236"/>
-      <c r="AN33" s="236"/>
-      <c r="AO33" s="236"/>
-      <c r="AP33" s="236"/>
-      <c r="AQ33" s="236"/>
-      <c r="AR33" s="236"/>
-      <c r="AS33" s="236"/>
+      <c r="AF33" s="322"/>
+      <c r="AG33" s="322"/>
+      <c r="AH33" s="322"/>
+      <c r="AI33" s="322"/>
+      <c r="AJ33" s="322"/>
+      <c r="AK33" s="322"/>
+      <c r="AL33" s="322"/>
+      <c r="AM33" s="322"/>
+      <c r="AN33" s="322"/>
+      <c r="AO33" s="322"/>
+      <c r="AP33" s="322"/>
+      <c r="AQ33" s="322"/>
+      <c r="AR33" s="322"/>
+      <c r="AS33" s="322"/>
     </row>
     <row r="34" spans="1:45" s="13" customFormat="1" ht="12" customHeight="1">
       <c r="A34" s="19"/>
       <c r="B34" s="22"/>
-      <c r="C34" s="220" t="s">
+      <c r="C34" s="251" t="s">
         <v>102</v>
       </c>
-      <c r="D34" s="221"/>
-      <c r="E34" s="220" t="s">
+      <c r="D34" s="262"/>
+      <c r="E34" s="251" t="s">
         <v>130</v>
       </c>
-      <c r="F34" s="230"/>
-      <c r="G34" s="220" t="s">
+      <c r="F34" s="252"/>
+      <c r="G34" s="251" t="s">
         <v>158</v>
       </c>
-      <c r="H34" s="221"/>
-      <c r="I34" s="230"/>
-      <c r="J34" s="220" t="s">
+      <c r="H34" s="262"/>
+      <c r="I34" s="252"/>
+      <c r="J34" s="251" t="s">
         <v>186</v>
       </c>
-      <c r="K34" s="230"/>
-      <c r="L34" s="220" t="s">
+      <c r="K34" s="252"/>
+      <c r="L34" s="251" t="s">
         <v>214</v>
       </c>
-      <c r="M34" s="221"/>
-      <c r="N34" s="230"/>
-      <c r="O34" s="220" t="s">
+      <c r="M34" s="262"/>
+      <c r="N34" s="252"/>
+      <c r="O34" s="251" t="s">
         <v>238</v>
       </c>
-      <c r="P34" s="230"/>
+      <c r="P34" s="252"/>
       <c r="Q34" s="22"/>
       <c r="R34" s="42"/>
       <c r="S34" s="87"/>
@@ -7854,13 +8445,13 @@
       <c r="AG34" s="34"/>
       <c r="AH34" s="35"/>
       <c r="AI34" s="36"/>
-      <c r="AJ34" s="241"/>
-      <c r="AK34" s="241"/>
+      <c r="AJ34" s="325"/>
+      <c r="AK34" s="325"/>
       <c r="AL34" s="34"/>
       <c r="AM34" s="33"/>
       <c r="AN34" s="34"/>
-      <c r="AO34" s="241"/>
-      <c r="AP34" s="241"/>
+      <c r="AO34" s="325"/>
+      <c r="AP34" s="325"/>
       <c r="AQ34" s="34"/>
       <c r="AR34" s="33"/>
       <c r="AS34" s="34"/>
@@ -7880,10 +8471,10 @@
       <c r="F35" s="115" t="s">
         <v>131</v>
       </c>
-      <c r="G35" s="232" t="s">
+      <c r="G35" s="284" t="s">
         <v>305</v>
       </c>
-      <c r="H35" s="233"/>
+      <c r="H35" s="285"/>
       <c r="I35" s="114" t="s">
         <v>159</v>
       </c>
@@ -7893,10 +8484,10 @@
       <c r="K35" s="114" t="s">
         <v>187</v>
       </c>
-      <c r="L35" s="232" t="s">
+      <c r="L35" s="284" t="s">
         <v>307</v>
       </c>
-      <c r="M35" s="233"/>
+      <c r="M35" s="285"/>
       <c r="N35" s="114" t="s">
         <v>215</v>
       </c>
@@ -7923,50 +8514,50 @@
       <c r="AD35" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="AF35" s="236"/>
-      <c r="AG35" s="236"/>
-      <c r="AH35" s="237"/>
-      <c r="AI35" s="237"/>
-      <c r="AJ35" s="236"/>
-      <c r="AK35" s="236"/>
-      <c r="AL35" s="236"/>
-      <c r="AM35" s="236"/>
-      <c r="AN35" s="236"/>
-      <c r="AO35" s="237"/>
-      <c r="AP35" s="237"/>
-      <c r="AQ35" s="237"/>
-      <c r="AR35" s="242"/>
-      <c r="AS35" s="242"/>
+      <c r="AF35" s="322"/>
+      <c r="AG35" s="322"/>
+      <c r="AH35" s="290"/>
+      <c r="AI35" s="290"/>
+      <c r="AJ35" s="322"/>
+      <c r="AK35" s="322"/>
+      <c r="AL35" s="322"/>
+      <c r="AM35" s="322"/>
+      <c r="AN35" s="322"/>
+      <c r="AO35" s="290"/>
+      <c r="AP35" s="290"/>
+      <c r="AQ35" s="290"/>
+      <c r="AR35" s="326"/>
+      <c r="AS35" s="326"/>
     </row>
     <row r="36" spans="1:45" s="13" customFormat="1" ht="12" customHeight="1">
       <c r="A36" s="19"/>
       <c r="B36" s="22"/>
-      <c r="C36" s="222" t="s">
+      <c r="C36" s="260" t="s">
         <v>104</v>
       </c>
-      <c r="D36" s="223"/>
-      <c r="E36" s="222" t="s">
+      <c r="D36" s="265"/>
+      <c r="E36" s="260" t="s">
         <v>132</v>
       </c>
-      <c r="F36" s="267"/>
-      <c r="G36" s="222" t="s">
+      <c r="F36" s="261"/>
+      <c r="G36" s="260" t="s">
         <v>160</v>
       </c>
-      <c r="H36" s="223"/>
-      <c r="I36" s="267"/>
-      <c r="J36" s="223" t="s">
+      <c r="H36" s="265"/>
+      <c r="I36" s="261"/>
+      <c r="J36" s="265" t="s">
         <v>188</v>
       </c>
-      <c r="K36" s="223"/>
-      <c r="L36" s="224" t="s">
+      <c r="K36" s="265"/>
+      <c r="L36" s="267" t="s">
         <v>216</v>
       </c>
-      <c r="M36" s="225"/>
-      <c r="N36" s="226"/>
-      <c r="O36" s="223" t="s">
+      <c r="M36" s="288"/>
+      <c r="N36" s="268"/>
+      <c r="O36" s="265" t="s">
         <v>240</v>
       </c>
-      <c r="P36" s="223"/>
+      <c r="P36" s="265"/>
       <c r="Q36" s="22"/>
       <c r="R36" s="42"/>
       <c r="S36" s="87"/>
@@ -8056,37 +8647,37 @@
         <v>37</v>
       </c>
       <c r="AF37" s="35"/>
-      <c r="AG37" s="238"/>
-      <c r="AH37" s="238"/>
-      <c r="AI37" s="238"/>
-      <c r="AJ37" s="239"/>
-      <c r="AK37" s="239"/>
+      <c r="AG37" s="324"/>
+      <c r="AH37" s="324"/>
+      <c r="AI37" s="324"/>
+      <c r="AJ37" s="321"/>
+      <c r="AK37" s="321"/>
       <c r="AL37" s="34"/>
       <c r="AM37" s="35"/>
       <c r="AN37" s="36"/>
       <c r="AO37" s="35"/>
-      <c r="AP37" s="243"/>
-      <c r="AQ37" s="243"/>
+      <c r="AP37" s="327"/>
+      <c r="AQ37" s="327"/>
       <c r="AR37" s="35"/>
       <c r="AS37" s="34"/>
     </row>
     <row r="38" spans="1:45" s="13" customFormat="1" ht="12" customHeight="1">
       <c r="A38" s="19"/>
-      <c r="B38" s="211" t="s">
+      <c r="B38" s="331" t="s">
         <v>247</v>
       </c>
       <c r="C38" s="150" t="s">
         <v>309</v>
       </c>
-      <c r="D38" s="264" t="s">
+      <c r="D38" s="298" t="s">
         <v>107</v>
       </c>
-      <c r="E38" s="265"/>
-      <c r="F38" s="266"/>
-      <c r="G38" s="227" t="s">
+      <c r="E38" s="299"/>
+      <c r="F38" s="300"/>
+      <c r="G38" s="296" t="s">
         <v>310</v>
       </c>
-      <c r="H38" s="228"/>
+      <c r="H38" s="297"/>
       <c r="I38" s="117" t="s">
         <v>135</v>
       </c>
@@ -8099,17 +8690,17 @@
       <c r="L38" s="151" t="s">
         <v>312</v>
       </c>
-      <c r="M38" s="268" t="s">
+      <c r="M38" s="294" t="s">
         <v>191</v>
       </c>
-      <c r="N38" s="269"/>
+      <c r="N38" s="295"/>
       <c r="O38" s="151" t="s">
         <v>313</v>
       </c>
       <c r="P38" s="117" t="s">
         <v>219</v>
       </c>
-      <c r="Q38" s="210" t="s">
+      <c r="Q38" s="330" t="s">
         <v>248</v>
       </c>
       <c r="R38" s="42"/>
@@ -8121,49 +8712,49 @@
       <c r="X38" s="69"/>
       <c r="Y38" s="89"/>
       <c r="Z38" s="69"/>
-      <c r="AF38" s="236"/>
-      <c r="AG38" s="236"/>
-      <c r="AH38" s="236"/>
-      <c r="AI38" s="236"/>
-      <c r="AJ38" s="236"/>
-      <c r="AK38" s="236"/>
-      <c r="AL38" s="236"/>
-      <c r="AM38" s="237"/>
-      <c r="AN38" s="237"/>
-      <c r="AO38" s="237"/>
-      <c r="AP38" s="237"/>
-      <c r="AQ38" s="237"/>
-      <c r="AR38" s="237"/>
-      <c r="AS38" s="237"/>
+      <c r="AF38" s="322"/>
+      <c r="AG38" s="322"/>
+      <c r="AH38" s="322"/>
+      <c r="AI38" s="322"/>
+      <c r="AJ38" s="322"/>
+      <c r="AK38" s="322"/>
+      <c r="AL38" s="322"/>
+      <c r="AM38" s="290"/>
+      <c r="AN38" s="290"/>
+      <c r="AO38" s="290"/>
+      <c r="AP38" s="290"/>
+      <c r="AQ38" s="290"/>
+      <c r="AR38" s="290"/>
+      <c r="AS38" s="290"/>
     </row>
     <row r="39" spans="1:45" s="13" customFormat="1" ht="12" customHeight="1">
       <c r="A39" s="19"/>
-      <c r="B39" s="211"/>
-      <c r="C39" s="222" t="s">
+      <c r="B39" s="331"/>
+      <c r="C39" s="260" t="s">
         <v>108</v>
       </c>
-      <c r="D39" s="223"/>
-      <c r="E39" s="223"/>
-      <c r="F39" s="267"/>
-      <c r="G39" s="222" t="s">
+      <c r="D39" s="265"/>
+      <c r="E39" s="265"/>
+      <c r="F39" s="261"/>
+      <c r="G39" s="260" t="s">
         <v>136</v>
       </c>
-      <c r="H39" s="223"/>
-      <c r="I39" s="267"/>
-      <c r="J39" s="224" t="s">
+      <c r="H39" s="265"/>
+      <c r="I39" s="261"/>
+      <c r="J39" s="267" t="s">
         <v>164</v>
       </c>
-      <c r="K39" s="226"/>
-      <c r="L39" s="224" t="s">
+      <c r="K39" s="268"/>
+      <c r="L39" s="267" t="s">
         <v>192</v>
       </c>
-      <c r="M39" s="225"/>
-      <c r="N39" s="226"/>
-      <c r="O39" s="224" t="s">
+      <c r="M39" s="288"/>
+      <c r="N39" s="268"/>
+      <c r="O39" s="267" t="s">
         <v>220</v>
       </c>
-      <c r="P39" s="226"/>
-      <c r="Q39" s="210"/>
+      <c r="P39" s="268"/>
+      <c r="Q39" s="330"/>
       <c r="R39" s="42"/>
       <c r="S39" s="88"/>
       <c r="T39" s="78" t="s">
@@ -8230,12 +8821,12 @@
       <c r="Q40" s="77"/>
       <c r="R40" s="42"/>
       <c r="S40" s="56"/>
-      <c r="T40" s="214" t="s">
+      <c r="T40" s="306" t="s">
         <v>258</v>
       </c>
-      <c r="U40" s="214"/>
-      <c r="V40" s="214"/>
-      <c r="W40" s="214"/>
+      <c r="U40" s="306"/>
+      <c r="V40" s="306"/>
+      <c r="W40" s="306"/>
       <c r="X40" s="43"/>
       <c r="Y40" s="134" t="s">
         <v>85</v>
@@ -8245,13 +8836,13 @@
       <c r="AG40" s="34"/>
       <c r="AH40" s="35"/>
       <c r="AI40" s="36"/>
-      <c r="AJ40" s="239"/>
-      <c r="AK40" s="239"/>
+      <c r="AJ40" s="321"/>
+      <c r="AK40" s="321"/>
       <c r="AL40" s="34"/>
       <c r="AM40" s="35"/>
       <c r="AN40" s="34"/>
-      <c r="AO40" s="239"/>
-      <c r="AP40" s="239"/>
+      <c r="AO40" s="321"/>
+      <c r="AP40" s="321"/>
       <c r="AQ40" s="34"/>
       <c r="AR40" s="35"/>
       <c r="AS40" s="34"/>
@@ -8271,10 +8862,10 @@
       <c r="F41" s="116" t="s">
         <v>139</v>
       </c>
-      <c r="G41" s="227" t="s">
+      <c r="G41" s="296" t="s">
         <v>316</v>
       </c>
-      <c r="H41" s="228"/>
+      <c r="H41" s="297"/>
       <c r="I41" s="116" t="s">
         <v>167</v>
       </c>
@@ -8284,10 +8875,10 @@
       <c r="K41" s="116" t="s">
         <v>195</v>
       </c>
-      <c r="L41" s="227" t="s">
+      <c r="L41" s="296" t="s">
         <v>318</v>
       </c>
-      <c r="M41" s="228"/>
+      <c r="M41" s="297"/>
       <c r="N41" s="116" t="s">
         <v>223</v>
       </c>
@@ -8307,58 +8898,58 @@
       <c r="X41" s="42"/>
       <c r="Y41" s="135"/>
       <c r="Z41" s="69"/>
-      <c r="AF41" s="237"/>
-      <c r="AG41" s="237"/>
-      <c r="AH41" s="237"/>
-      <c r="AI41" s="237"/>
-      <c r="AJ41" s="237"/>
-      <c r="AK41" s="237"/>
-      <c r="AL41" s="237"/>
-      <c r="AM41" s="236"/>
-      <c r="AN41" s="236"/>
-      <c r="AO41" s="237"/>
-      <c r="AP41" s="237"/>
-      <c r="AQ41" s="237"/>
-      <c r="AR41" s="237"/>
-      <c r="AS41" s="237"/>
+      <c r="AF41" s="290"/>
+      <c r="AG41" s="290"/>
+      <c r="AH41" s="290"/>
+      <c r="AI41" s="290"/>
+      <c r="AJ41" s="290"/>
+      <c r="AK41" s="290"/>
+      <c r="AL41" s="290"/>
+      <c r="AM41" s="322"/>
+      <c r="AN41" s="322"/>
+      <c r="AO41" s="290"/>
+      <c r="AP41" s="290"/>
+      <c r="AQ41" s="290"/>
+      <c r="AR41" s="290"/>
+      <c r="AS41" s="290"/>
     </row>
     <row r="42" spans="1:45" s="13" customFormat="1" ht="12" customHeight="1">
       <c r="A42" s="19"/>
       <c r="B42" s="22"/>
-      <c r="C42" s="222" t="s">
+      <c r="C42" s="260" t="s">
         <v>112</v>
       </c>
-      <c r="D42" s="223"/>
-      <c r="E42" s="222" t="s">
+      <c r="D42" s="265"/>
+      <c r="E42" s="260" t="s">
         <v>140</v>
       </c>
-      <c r="F42" s="223"/>
-      <c r="G42" s="270" t="s">
+      <c r="F42" s="265"/>
+      <c r="G42" s="289" t="s">
         <v>168</v>
       </c>
-      <c r="H42" s="237"/>
-      <c r="I42" s="271"/>
-      <c r="J42" s="222" t="s">
+      <c r="H42" s="290"/>
+      <c r="I42" s="291"/>
+      <c r="J42" s="260" t="s">
         <v>196</v>
       </c>
-      <c r="K42" s="223"/>
-      <c r="L42" s="270" t="s">
+      <c r="K42" s="265"/>
+      <c r="L42" s="289" t="s">
         <v>224</v>
       </c>
-      <c r="M42" s="237"/>
-      <c r="N42" s="271"/>
-      <c r="O42" s="222" t="s">
+      <c r="M42" s="290"/>
+      <c r="N42" s="291"/>
+      <c r="O42" s="260" t="s">
         <v>244</v>
       </c>
-      <c r="P42" s="223"/>
+      <c r="P42" s="265"/>
       <c r="Q42" s="22"/>
       <c r="R42" s="69"/>
       <c r="S42" s="42"/>
-      <c r="T42" s="213" t="s">
+      <c r="T42" s="315" t="s">
         <v>43</v>
       </c>
-      <c r="U42" s="213"/>
-      <c r="V42" s="213"/>
+      <c r="U42" s="315"/>
+      <c r="V42" s="315"/>
       <c r="W42" s="64" t="s">
         <v>10</v>
       </c>
@@ -8426,11 +9017,11 @@
       <c r="Q43" s="22"/>
       <c r="R43" s="69"/>
       <c r="S43" s="42"/>
-      <c r="T43" s="213" t="s">
+      <c r="T43" s="315" t="s">
         <v>75</v>
       </c>
-      <c r="U43" s="213"/>
-      <c r="V43" s="213"/>
+      <c r="U43" s="315"/>
+      <c r="V43" s="315"/>
       <c r="W43" s="64" t="s">
         <v>10</v>
       </c>
@@ -8443,13 +9034,13 @@
       <c r="AG43" s="31"/>
       <c r="AH43" s="31"/>
       <c r="AI43" s="31"/>
-      <c r="AJ43" s="235"/>
-      <c r="AK43" s="235"/>
+      <c r="AJ43" s="323"/>
+      <c r="AK43" s="323"/>
       <c r="AL43" s="32"/>
       <c r="AM43" s="32"/>
       <c r="AN43" s="32"/>
-      <c r="AO43" s="235"/>
-      <c r="AP43" s="235"/>
+      <c r="AO43" s="323"/>
+      <c r="AP43" s="323"/>
       <c r="AQ43" s="32"/>
       <c r="AR43" s="32"/>
       <c r="AS43" s="32"/>
@@ -8465,19 +9056,19 @@
         <v>321</v>
       </c>
       <c r="F44" s="66"/>
-      <c r="G44" s="262" t="s">
+      <c r="G44" s="256" t="s">
         <v>322</v>
       </c>
-      <c r="H44" s="263"/>
+      <c r="H44" s="257"/>
       <c r="I44" s="106"/>
       <c r="J44" s="146" t="s">
         <v>323</v>
       </c>
       <c r="K44" s="67"/>
-      <c r="L44" s="262" t="s">
+      <c r="L44" s="256" t="s">
         <v>324</v>
       </c>
-      <c r="M44" s="263"/>
+      <c r="M44" s="257"/>
       <c r="N44" s="67"/>
       <c r="O44" s="147" t="s">
         <v>325</v>
@@ -8486,11 +9077,11 @@
       <c r="Q44" s="22"/>
       <c r="R44" s="42"/>
       <c r="S44" s="42"/>
-      <c r="T44" s="214" t="s">
+      <c r="T44" s="306" t="s">
         <v>45</v>
       </c>
-      <c r="U44" s="214"/>
-      <c r="V44" s="214"/>
+      <c r="U44" s="306"/>
+      <c r="V44" s="306"/>
       <c r="W44" s="64" t="s">
         <v>10</v>
       </c>
@@ -8502,50 +9093,50 @@
       <c r="AC44" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="AF44" s="236"/>
-      <c r="AG44" s="236"/>
-      <c r="AH44" s="236"/>
-      <c r="AI44" s="236"/>
-      <c r="AJ44" s="236"/>
-      <c r="AK44" s="236"/>
-      <c r="AL44" s="236"/>
-      <c r="AM44" s="236"/>
-      <c r="AN44" s="236"/>
-      <c r="AO44" s="236"/>
-      <c r="AP44" s="236"/>
-      <c r="AQ44" s="236"/>
-      <c r="AR44" s="236"/>
-      <c r="AS44" s="236"/>
+      <c r="AF44" s="322"/>
+      <c r="AG44" s="322"/>
+      <c r="AH44" s="322"/>
+      <c r="AI44" s="322"/>
+      <c r="AJ44" s="322"/>
+      <c r="AK44" s="322"/>
+      <c r="AL44" s="322"/>
+      <c r="AM44" s="322"/>
+      <c r="AN44" s="322"/>
+      <c r="AO44" s="322"/>
+      <c r="AP44" s="322"/>
+      <c r="AQ44" s="322"/>
+      <c r="AR44" s="322"/>
+      <c r="AS44" s="322"/>
     </row>
     <row r="45" spans="1:45" s="13" customFormat="1" ht="12" customHeight="1">
       <c r="A45" s="12"/>
       <c r="B45" s="65"/>
-      <c r="C45" s="220" t="s">
+      <c r="C45" s="251" t="s">
         <v>115</v>
       </c>
-      <c r="D45" s="221"/>
-      <c r="E45" s="220" t="s">
+      <c r="D45" s="262"/>
+      <c r="E45" s="251" t="s">
         <v>143</v>
       </c>
-      <c r="F45" s="221"/>
-      <c r="G45" s="220" t="s">
+      <c r="F45" s="262"/>
+      <c r="G45" s="251" t="s">
         <v>171</v>
       </c>
-      <c r="H45" s="221"/>
-      <c r="I45" s="230"/>
-      <c r="J45" s="220" t="s">
+      <c r="H45" s="262"/>
+      <c r="I45" s="252"/>
+      <c r="J45" s="251" t="s">
         <v>199</v>
       </c>
-      <c r="K45" s="221"/>
-      <c r="L45" s="220" t="s">
+      <c r="K45" s="262"/>
+      <c r="L45" s="251" t="s">
         <v>227</v>
       </c>
-      <c r="M45" s="221"/>
-      <c r="N45" s="230"/>
-      <c r="O45" s="220" t="s">
+      <c r="M45" s="262"/>
+      <c r="N45" s="252"/>
+      <c r="O45" s="251" t="s">
         <v>326</v>
       </c>
-      <c r="P45" s="230"/>
+      <c r="P45" s="252"/>
       <c r="Q45" s="16"/>
       <c r="R45" s="42"/>
       <c r="S45" s="63"/>
@@ -8560,18 +9151,18 @@
     <row r="46" spans="1:45" ht="17.25" customHeight="1">
       <c r="A46" s="3"/>
       <c r="B46" s="91"/>
-      <c r="C46" s="278"/>
-      <c r="D46" s="278"/>
-      <c r="E46" s="278"/>
-      <c r="F46" s="278"/>
-      <c r="G46" s="278"/>
-      <c r="H46" s="278"/>
-      <c r="I46" s="278"/>
-      <c r="J46" s="278"/>
-      <c r="K46" s="278"/>
-      <c r="L46" s="278"/>
-      <c r="M46" s="278"/>
-      <c r="N46" s="278"/>
+      <c r="C46" s="259"/>
+      <c r="D46" s="259"/>
+      <c r="E46" s="259"/>
+      <c r="F46" s="259"/>
+      <c r="G46" s="259"/>
+      <c r="H46" s="259"/>
+      <c r="I46" s="259"/>
+      <c r="J46" s="259"/>
+      <c r="K46" s="259"/>
+      <c r="L46" s="259"/>
+      <c r="M46" s="259"/>
+      <c r="N46" s="259"/>
       <c r="O46" s="86"/>
       <c r="P46" s="84"/>
       <c r="Q46" s="58"/>
@@ -8628,20 +9219,20 @@
       <c r="F48" s="92"/>
       <c r="G48" s="92"/>
       <c r="H48" s="92"/>
-      <c r="I48" s="298"/>
-      <c r="J48" s="298"/>
-      <c r="K48" s="298"/>
-      <c r="L48" s="298"/>
-      <c r="M48" s="279" t="s">
+      <c r="I48" s="258"/>
+      <c r="J48" s="258"/>
+      <c r="K48" s="258"/>
+      <c r="L48" s="258"/>
+      <c r="M48" s="269" t="s">
         <v>17</v>
       </c>
-      <c r="N48" s="280"/>
-      <c r="O48" s="280"/>
-      <c r="P48" s="280"/>
-      <c r="Q48" s="280"/>
-      <c r="R48" s="280"/>
-      <c r="S48" s="280"/>
-      <c r="T48" s="281"/>
+      <c r="N48" s="270"/>
+      <c r="O48" s="270"/>
+      <c r="P48" s="270"/>
+      <c r="Q48" s="270"/>
+      <c r="R48" s="270"/>
+      <c r="S48" s="270"/>
+      <c r="T48" s="271"/>
       <c r="U48" s="130"/>
       <c r="V48" s="130"/>
       <c r="W48" s="130"/>
@@ -8662,22 +9253,22 @@
       <c r="F49" s="94"/>
       <c r="G49" s="94"/>
       <c r="H49" s="95"/>
-      <c r="I49" s="277" t="s">
+      <c r="I49" s="266" t="s">
         <v>260</v>
       </c>
-      <c r="J49" s="277"/>
-      <c r="K49" s="277"/>
-      <c r="L49" s="277"/>
-      <c r="M49" s="282" t="s">
+      <c r="J49" s="266"/>
+      <c r="K49" s="266"/>
+      <c r="L49" s="266"/>
+      <c r="M49" s="272" t="s">
         <v>267</v>
       </c>
-      <c r="N49" s="283"/>
-      <c r="O49" s="283"/>
-      <c r="P49" s="283"/>
-      <c r="Q49" s="283"/>
-      <c r="R49" s="283"/>
-      <c r="S49" s="283"/>
-      <c r="T49" s="284"/>
+      <c r="N49" s="273"/>
+      <c r="O49" s="273"/>
+      <c r="P49" s="273"/>
+      <c r="Q49" s="273"/>
+      <c r="R49" s="273"/>
+      <c r="S49" s="273"/>
+      <c r="T49" s="274"/>
       <c r="U49" s="130"/>
       <c r="V49" s="130"/>
       <c r="W49" s="130"/>
@@ -8698,20 +9289,20 @@
       <c r="F50" s="94"/>
       <c r="G50" s="94"/>
       <c r="H50" s="95"/>
-      <c r="I50" s="277" t="s">
+      <c r="I50" s="266" t="s">
         <v>261</v>
       </c>
-      <c r="J50" s="277"/>
-      <c r="K50" s="277"/>
-      <c r="L50" s="277"/>
-      <c r="M50" s="285"/>
-      <c r="N50" s="286"/>
-      <c r="O50" s="286"/>
-      <c r="P50" s="286"/>
-      <c r="Q50" s="286"/>
-      <c r="R50" s="286"/>
-      <c r="S50" s="286"/>
-      <c r="T50" s="287"/>
+      <c r="J50" s="266"/>
+      <c r="K50" s="266"/>
+      <c r="L50" s="266"/>
+      <c r="M50" s="275"/>
+      <c r="N50" s="276"/>
+      <c r="O50" s="276"/>
+      <c r="P50" s="276"/>
+      <c r="Q50" s="276"/>
+      <c r="R50" s="276"/>
+      <c r="S50" s="276"/>
+      <c r="T50" s="277"/>
       <c r="U50" s="132"/>
       <c r="V50" s="130"/>
       <c r="W50" s="130"/>
@@ -8732,20 +9323,20 @@
       <c r="F51" s="94"/>
       <c r="G51" s="94"/>
       <c r="H51" s="95"/>
-      <c r="I51" s="277" t="s">
+      <c r="I51" s="266" t="s">
         <v>264</v>
       </c>
-      <c r="J51" s="277"/>
-      <c r="K51" s="277"/>
-      <c r="L51" s="277"/>
-      <c r="M51" s="285"/>
-      <c r="N51" s="286"/>
-      <c r="O51" s="286"/>
-      <c r="P51" s="286"/>
-      <c r="Q51" s="286"/>
-      <c r="R51" s="286"/>
-      <c r="S51" s="286"/>
-      <c r="T51" s="287"/>
+      <c r="J51" s="266"/>
+      <c r="K51" s="266"/>
+      <c r="L51" s="266"/>
+      <c r="M51" s="275"/>
+      <c r="N51" s="276"/>
+      <c r="O51" s="276"/>
+      <c r="P51" s="276"/>
+      <c r="Q51" s="276"/>
+      <c r="R51" s="276"/>
+      <c r="S51" s="276"/>
+      <c r="T51" s="277"/>
       <c r="U51" s="132"/>
       <c r="V51" s="130"/>
       <c r="W51" s="130"/>
@@ -8766,20 +9357,20 @@
       <c r="F52" s="94"/>
       <c r="G52" s="94"/>
       <c r="H52" s="95"/>
-      <c r="I52" s="277" t="s">
+      <c r="I52" s="266" t="s">
         <v>263</v>
       </c>
-      <c r="J52" s="277"/>
-      <c r="K52" s="277"/>
-      <c r="L52" s="277"/>
-      <c r="M52" s="285"/>
-      <c r="N52" s="286"/>
-      <c r="O52" s="286"/>
-      <c r="P52" s="286"/>
-      <c r="Q52" s="286"/>
-      <c r="R52" s="286"/>
-      <c r="S52" s="286"/>
-      <c r="T52" s="287"/>
+      <c r="J52" s="266"/>
+      <c r="K52" s="266"/>
+      <c r="L52" s="266"/>
+      <c r="M52" s="275"/>
+      <c r="N52" s="276"/>
+      <c r="O52" s="276"/>
+      <c r="P52" s="276"/>
+      <c r="Q52" s="276"/>
+      <c r="R52" s="276"/>
+      <c r="S52" s="276"/>
+      <c r="T52" s="277"/>
       <c r="U52" s="132"/>
       <c r="V52" s="130"/>
       <c r="W52" s="130"/>
@@ -8800,20 +9391,20 @@
       <c r="F53" s="94"/>
       <c r="G53" s="94"/>
       <c r="H53" s="95"/>
-      <c r="I53" s="277" t="s">
+      <c r="I53" s="266" t="s">
         <v>262</v>
       </c>
-      <c r="J53" s="277"/>
-      <c r="K53" s="277"/>
-      <c r="L53" s="277"/>
-      <c r="M53" s="285"/>
-      <c r="N53" s="286"/>
-      <c r="O53" s="286"/>
-      <c r="P53" s="286"/>
-      <c r="Q53" s="286"/>
-      <c r="R53" s="286"/>
-      <c r="S53" s="286"/>
-      <c r="T53" s="287"/>
+      <c r="J53" s="266"/>
+      <c r="K53" s="266"/>
+      <c r="L53" s="266"/>
+      <c r="M53" s="275"/>
+      <c r="N53" s="276"/>
+      <c r="O53" s="276"/>
+      <c r="P53" s="276"/>
+      <c r="Q53" s="276"/>
+      <c r="R53" s="276"/>
+      <c r="S53" s="276"/>
+      <c r="T53" s="277"/>
       <c r="U53" s="132"/>
       <c r="V53" s="130"/>
       <c r="W53" s="130"/>
@@ -8825,29 +9416,29 @@
     </row>
     <row r="54" spans="1:30" ht="13.2" customHeight="1">
       <c r="A54" s="4"/>
-      <c r="B54" s="295" t="s">
+      <c r="B54" s="253" t="s">
         <v>23</v>
       </c>
-      <c r="C54" s="296"/>
-      <c r="D54" s="296"/>
-      <c r="E54" s="296"/>
-      <c r="F54" s="296"/>
-      <c r="G54" s="296"/>
-      <c r="H54" s="297"/>
-      <c r="I54" s="300" t="s">
+      <c r="C54" s="254"/>
+      <c r="D54" s="254"/>
+      <c r="E54" s="254"/>
+      <c r="F54" s="254"/>
+      <c r="G54" s="254"/>
+      <c r="H54" s="255"/>
+      <c r="I54" s="264" t="s">
         <v>265</v>
       </c>
-      <c r="J54" s="300"/>
-      <c r="K54" s="300"/>
-      <c r="L54" s="300"/>
-      <c r="M54" s="285"/>
-      <c r="N54" s="286"/>
-      <c r="O54" s="286"/>
-      <c r="P54" s="286"/>
-      <c r="Q54" s="286"/>
-      <c r="R54" s="286"/>
-      <c r="S54" s="286"/>
-      <c r="T54" s="287"/>
+      <c r="J54" s="264"/>
+      <c r="K54" s="264"/>
+      <c r="L54" s="264"/>
+      <c r="M54" s="275"/>
+      <c r="N54" s="276"/>
+      <c r="O54" s="276"/>
+      <c r="P54" s="276"/>
+      <c r="Q54" s="276"/>
+      <c r="R54" s="276"/>
+      <c r="S54" s="276"/>
+      <c r="T54" s="277"/>
       <c r="U54" s="132"/>
       <c r="V54" s="130"/>
       <c r="W54" s="130"/>
@@ -8870,18 +9461,18 @@
       <c r="F55" s="99"/>
       <c r="G55" s="99"/>
       <c r="H55" s="100"/>
-      <c r="I55" s="300"/>
-      <c r="J55" s="300"/>
-      <c r="K55" s="300"/>
-      <c r="L55" s="300"/>
-      <c r="M55" s="285"/>
-      <c r="N55" s="286"/>
-      <c r="O55" s="286"/>
-      <c r="P55" s="286"/>
-      <c r="Q55" s="286"/>
-      <c r="R55" s="286"/>
-      <c r="S55" s="286"/>
-      <c r="T55" s="287"/>
+      <c r="I55" s="264"/>
+      <c r="J55" s="264"/>
+      <c r="K55" s="264"/>
+      <c r="L55" s="264"/>
+      <c r="M55" s="275"/>
+      <c r="N55" s="276"/>
+      <c r="O55" s="276"/>
+      <c r="P55" s="276"/>
+      <c r="Q55" s="276"/>
+      <c r="R55" s="276"/>
+      <c r="S55" s="276"/>
+      <c r="T55" s="277"/>
       <c r="U55" s="132"/>
       <c r="V55" s="130"/>
       <c r="W55" s="130"/>
@@ -8904,18 +9495,18 @@
       <c r="F56" s="99"/>
       <c r="G56" s="99"/>
       <c r="H56" s="100"/>
-      <c r="I56" s="300"/>
-      <c r="J56" s="300"/>
-      <c r="K56" s="300"/>
-      <c r="L56" s="300"/>
-      <c r="M56" s="285"/>
-      <c r="N56" s="286"/>
-      <c r="O56" s="286"/>
-      <c r="P56" s="286"/>
-      <c r="Q56" s="286"/>
-      <c r="R56" s="286"/>
-      <c r="S56" s="286"/>
-      <c r="T56" s="287"/>
+      <c r="I56" s="264"/>
+      <c r="J56" s="264"/>
+      <c r="K56" s="264"/>
+      <c r="L56" s="264"/>
+      <c r="M56" s="275"/>
+      <c r="N56" s="276"/>
+      <c r="O56" s="276"/>
+      <c r="P56" s="276"/>
+      <c r="Q56" s="276"/>
+      <c r="R56" s="276"/>
+      <c r="S56" s="276"/>
+      <c r="T56" s="277"/>
       <c r="U56" s="132"/>
       <c r="V56" s="130"/>
       <c r="W56" s="130"/>
@@ -8938,18 +9529,18 @@
       <c r="F57" s="99"/>
       <c r="G57" s="99"/>
       <c r="H57" s="100"/>
-      <c r="I57" s="300"/>
-      <c r="J57" s="300"/>
-      <c r="K57" s="300"/>
-      <c r="L57" s="300"/>
-      <c r="M57" s="285"/>
-      <c r="N57" s="286"/>
-      <c r="O57" s="286"/>
-      <c r="P57" s="286"/>
-      <c r="Q57" s="286"/>
-      <c r="R57" s="286"/>
-      <c r="S57" s="286"/>
-      <c r="T57" s="287"/>
+      <c r="I57" s="264"/>
+      <c r="J57" s="264"/>
+      <c r="K57" s="264"/>
+      <c r="L57" s="264"/>
+      <c r="M57" s="275"/>
+      <c r="N57" s="276"/>
+      <c r="O57" s="276"/>
+      <c r="P57" s="276"/>
+      <c r="Q57" s="276"/>
+      <c r="R57" s="276"/>
+      <c r="S57" s="276"/>
+      <c r="T57" s="277"/>
       <c r="U57" s="132"/>
       <c r="V57" s="130"/>
       <c r="W57" s="130"/>
@@ -8972,18 +9563,18 @@
       <c r="F58" s="99"/>
       <c r="G58" s="99"/>
       <c r="H58" s="100"/>
-      <c r="I58" s="300"/>
-      <c r="J58" s="300"/>
-      <c r="K58" s="300"/>
-      <c r="L58" s="300"/>
-      <c r="M58" s="285"/>
-      <c r="N58" s="286"/>
-      <c r="O58" s="286"/>
-      <c r="P58" s="286"/>
-      <c r="Q58" s="286"/>
-      <c r="R58" s="286"/>
-      <c r="S58" s="286"/>
-      <c r="T58" s="287"/>
+      <c r="I58" s="264"/>
+      <c r="J58" s="264"/>
+      <c r="K58" s="264"/>
+      <c r="L58" s="264"/>
+      <c r="M58" s="275"/>
+      <c r="N58" s="276"/>
+      <c r="O58" s="276"/>
+      <c r="P58" s="276"/>
+      <c r="Q58" s="276"/>
+      <c r="R58" s="276"/>
+      <c r="S58" s="276"/>
+      <c r="T58" s="277"/>
       <c r="U58" s="132"/>
       <c r="V58" s="130"/>
       <c r="W58" s="130"/>
@@ -9006,18 +9597,18 @@
       <c r="F59" s="102"/>
       <c r="G59" s="102"/>
       <c r="H59" s="103"/>
-      <c r="I59" s="300"/>
-      <c r="J59" s="300"/>
-      <c r="K59" s="300"/>
-      <c r="L59" s="300"/>
-      <c r="M59" s="288"/>
-      <c r="N59" s="289"/>
-      <c r="O59" s="289"/>
-      <c r="P59" s="289"/>
-      <c r="Q59" s="289"/>
-      <c r="R59" s="289"/>
-      <c r="S59" s="289"/>
-      <c r="T59" s="290"/>
+      <c r="I59" s="264"/>
+      <c r="J59" s="264"/>
+      <c r="K59" s="264"/>
+      <c r="L59" s="264"/>
+      <c r="M59" s="278"/>
+      <c r="N59" s="279"/>
+      <c r="O59" s="279"/>
+      <c r="P59" s="279"/>
+      <c r="Q59" s="279"/>
+      <c r="R59" s="279"/>
+      <c r="S59" s="279"/>
+      <c r="T59" s="280"/>
       <c r="U59" s="132"/>
       <c r="V59" s="130"/>
       <c r="W59" s="130"/>
@@ -9103,28 +9694,28 @@
       <c r="C62" s="26"/>
       <c r="D62" s="26"/>
       <c r="E62" s="27"/>
-      <c r="F62" s="252" t="s">
+      <c r="F62" s="249" t="s">
         <v>249</v>
       </c>
-      <c r="G62" s="252"/>
-      <c r="H62" s="252"/>
-      <c r="I62" s="252"/>
-      <c r="J62" s="252"/>
-      <c r="K62" s="244"/>
-      <c r="L62" s="244"/>
-      <c r="M62" s="244"/>
-      <c r="N62" s="244"/>
-      <c r="O62" s="244"/>
-      <c r="P62" s="245"/>
-      <c r="Q62" s="245"/>
-      <c r="R62" s="245"/>
-      <c r="S62" s="245"/>
-      <c r="T62" s="245"/>
-      <c r="U62" s="245"/>
-      <c r="V62" s="245"/>
-      <c r="W62" s="245"/>
-      <c r="X62" s="245"/>
-      <c r="Y62" s="245"/>
+      <c r="G62" s="249"/>
+      <c r="H62" s="249"/>
+      <c r="I62" s="249"/>
+      <c r="J62" s="249"/>
+      <c r="K62" s="310"/>
+      <c r="L62" s="310"/>
+      <c r="M62" s="310"/>
+      <c r="N62" s="310"/>
+      <c r="O62" s="310"/>
+      <c r="P62" s="314"/>
+      <c r="Q62" s="314"/>
+      <c r="R62" s="314"/>
+      <c r="S62" s="314"/>
+      <c r="T62" s="314"/>
+      <c r="U62" s="314"/>
+      <c r="V62" s="314"/>
+      <c r="W62" s="314"/>
+      <c r="X62" s="314"/>
+      <c r="Y62" s="314"/>
       <c r="Z62" s="3"/>
       <c r="AA62" s="3"/>
       <c r="AB62" s="3"/>
@@ -9137,37 +9728,37 @@
         <v>29</v>
       </c>
       <c r="C63" s="29"/>
-      <c r="D63" s="291" t="s">
+      <c r="D63" s="245" t="s">
         <v>30</v>
       </c>
-      <c r="E63" s="292"/>
-      <c r="F63" s="252" t="s">
+      <c r="E63" s="246"/>
+      <c r="F63" s="249" t="s">
         <v>250</v>
       </c>
-      <c r="G63" s="252"/>
-      <c r="H63" s="252"/>
-      <c r="I63" s="252"/>
-      <c r="J63" s="252"/>
-      <c r="K63" s="244"/>
-      <c r="L63" s="244"/>
-      <c r="M63" s="244"/>
-      <c r="N63" s="244"/>
-      <c r="O63" s="244"/>
-      <c r="P63" s="244"/>
-      <c r="Q63" s="244"/>
-      <c r="R63" s="244"/>
-      <c r="S63" s="244"/>
-      <c r="T63" s="244"/>
-      <c r="U63" s="244"/>
-      <c r="V63" s="244"/>
-      <c r="W63" s="244"/>
-      <c r="X63" s="244"/>
-      <c r="Y63" s="244"/>
-      <c r="Z63" s="255"/>
-      <c r="AA63" s="255"/>
-      <c r="AB63" s="255"/>
-      <c r="AC63" s="255"/>
-      <c r="AD63" s="255"/>
+      <c r="G63" s="249"/>
+      <c r="H63" s="249"/>
+      <c r="I63" s="249"/>
+      <c r="J63" s="249"/>
+      <c r="K63" s="310"/>
+      <c r="L63" s="310"/>
+      <c r="M63" s="310"/>
+      <c r="N63" s="310"/>
+      <c r="O63" s="310"/>
+      <c r="P63" s="310"/>
+      <c r="Q63" s="310"/>
+      <c r="R63" s="310"/>
+      <c r="S63" s="310"/>
+      <c r="T63" s="310"/>
+      <c r="U63" s="310"/>
+      <c r="V63" s="310"/>
+      <c r="W63" s="310"/>
+      <c r="X63" s="310"/>
+      <c r="Y63" s="310"/>
+      <c r="Z63" s="309"/>
+      <c r="AA63" s="309"/>
+      <c r="AB63" s="309"/>
+      <c r="AC63" s="309"/>
+      <c r="AD63" s="309"/>
     </row>
     <row r="64" spans="1:30" ht="17.25" customHeight="1">
       <c r="A64" s="13"/>
@@ -9177,33 +9768,33 @@
       <c r="C64" s="26"/>
       <c r="D64" s="26"/>
       <c r="E64" s="27"/>
-      <c r="F64" s="252" t="s">
+      <c r="F64" s="249" t="s">
         <v>251</v>
       </c>
-      <c r="G64" s="252"/>
-      <c r="H64" s="252"/>
-      <c r="I64" s="252"/>
-      <c r="J64" s="252"/>
-      <c r="K64" s="244"/>
-      <c r="L64" s="244"/>
-      <c r="M64" s="244"/>
-      <c r="N64" s="244"/>
-      <c r="O64" s="244"/>
-      <c r="P64" s="244"/>
-      <c r="Q64" s="244"/>
-      <c r="R64" s="244"/>
-      <c r="S64" s="244"/>
-      <c r="T64" s="244"/>
-      <c r="U64" s="244"/>
-      <c r="V64" s="244"/>
-      <c r="W64" s="244"/>
-      <c r="X64" s="244"/>
-      <c r="Y64" s="244"/>
-      <c r="Z64" s="255"/>
-      <c r="AA64" s="255"/>
-      <c r="AB64" s="255"/>
-      <c r="AC64" s="255"/>
-      <c r="AD64" s="255"/>
+      <c r="G64" s="249"/>
+      <c r="H64" s="249"/>
+      <c r="I64" s="249"/>
+      <c r="J64" s="249"/>
+      <c r="K64" s="310"/>
+      <c r="L64" s="310"/>
+      <c r="M64" s="310"/>
+      <c r="N64" s="310"/>
+      <c r="O64" s="310"/>
+      <c r="P64" s="310"/>
+      <c r="Q64" s="310"/>
+      <c r="R64" s="310"/>
+      <c r="S64" s="310"/>
+      <c r="T64" s="310"/>
+      <c r="U64" s="310"/>
+      <c r="V64" s="310"/>
+      <c r="W64" s="310"/>
+      <c r="X64" s="310"/>
+      <c r="Y64" s="310"/>
+      <c r="Z64" s="309"/>
+      <c r="AA64" s="309"/>
+      <c r="AB64" s="309"/>
+      <c r="AC64" s="309"/>
+      <c r="AD64" s="309"/>
     </row>
     <row r="65" spans="1:30" ht="17.25" customHeight="1">
       <c r="A65" s="13"/>
@@ -9213,33 +9804,33 @@
       <c r="C65" s="26"/>
       <c r="D65" s="26"/>
       <c r="E65" s="27"/>
-      <c r="F65" s="252" t="s">
+      <c r="F65" s="249" t="s">
         <v>252</v>
       </c>
-      <c r="G65" s="252"/>
-      <c r="H65" s="252"/>
-      <c r="I65" s="252"/>
-      <c r="J65" s="252"/>
-      <c r="K65" s="253"/>
-      <c r="L65" s="253"/>
-      <c r="M65" s="253"/>
-      <c r="N65" s="253"/>
-      <c r="O65" s="253"/>
-      <c r="P65" s="253"/>
-      <c r="Q65" s="253"/>
-      <c r="R65" s="253"/>
-      <c r="S65" s="253"/>
-      <c r="T65" s="253"/>
-      <c r="U65" s="253"/>
-      <c r="V65" s="253"/>
-      <c r="W65" s="253"/>
-      <c r="X65" s="253"/>
-      <c r="Y65" s="253"/>
-      <c r="Z65" s="255"/>
-      <c r="AA65" s="255"/>
-      <c r="AB65" s="255"/>
-      <c r="AC65" s="255"/>
-      <c r="AD65" s="255"/>
+      <c r="G65" s="249"/>
+      <c r="H65" s="249"/>
+      <c r="I65" s="249"/>
+      <c r="J65" s="249"/>
+      <c r="K65" s="312"/>
+      <c r="L65" s="312"/>
+      <c r="M65" s="312"/>
+      <c r="N65" s="312"/>
+      <c r="O65" s="312"/>
+      <c r="P65" s="312"/>
+      <c r="Q65" s="312"/>
+      <c r="R65" s="312"/>
+      <c r="S65" s="312"/>
+      <c r="T65" s="312"/>
+      <c r="U65" s="312"/>
+      <c r="V65" s="312"/>
+      <c r="W65" s="312"/>
+      <c r="X65" s="312"/>
+      <c r="Y65" s="312"/>
+      <c r="Z65" s="309"/>
+      <c r="AA65" s="309"/>
+      <c r="AB65" s="309"/>
+      <c r="AC65" s="309"/>
+      <c r="AD65" s="309"/>
     </row>
     <row r="66" spans="1:30" ht="17.25" customHeight="1">
       <c r="A66" s="13"/>
@@ -9249,69 +9840,69 @@
       <c r="C66" s="26"/>
       <c r="D66" s="26"/>
       <c r="E66" s="27"/>
-      <c r="F66" s="252" t="s">
+      <c r="F66" s="249" t="s">
         <v>253</v>
       </c>
-      <c r="G66" s="252"/>
-      <c r="H66" s="252"/>
-      <c r="I66" s="252"/>
-      <c r="J66" s="252"/>
-      <c r="K66" s="253"/>
-      <c r="L66" s="253"/>
-      <c r="M66" s="253"/>
-      <c r="N66" s="253"/>
-      <c r="O66" s="253"/>
-      <c r="P66" s="253"/>
-      <c r="Q66" s="253"/>
-      <c r="R66" s="253"/>
-      <c r="S66" s="253"/>
-      <c r="T66" s="253"/>
-      <c r="U66" s="253"/>
-      <c r="V66" s="253"/>
-      <c r="W66" s="253"/>
-      <c r="X66" s="253"/>
-      <c r="Y66" s="253"/>
-      <c r="Z66" s="256"/>
-      <c r="AA66" s="256"/>
-      <c r="AB66" s="256"/>
-      <c r="AC66" s="256"/>
-      <c r="AD66" s="256"/>
+      <c r="G66" s="249"/>
+      <c r="H66" s="249"/>
+      <c r="I66" s="249"/>
+      <c r="J66" s="249"/>
+      <c r="K66" s="312"/>
+      <c r="L66" s="312"/>
+      <c r="M66" s="312"/>
+      <c r="N66" s="312"/>
+      <c r="O66" s="312"/>
+      <c r="P66" s="312"/>
+      <c r="Q66" s="312"/>
+      <c r="R66" s="312"/>
+      <c r="S66" s="312"/>
+      <c r="T66" s="312"/>
+      <c r="U66" s="312"/>
+      <c r="V66" s="312"/>
+      <c r="W66" s="312"/>
+      <c r="X66" s="312"/>
+      <c r="Y66" s="312"/>
+      <c r="Z66" s="311"/>
+      <c r="AA66" s="311"/>
+      <c r="AB66" s="311"/>
+      <c r="AC66" s="311"/>
+      <c r="AD66" s="311"/>
     </row>
     <row r="67" spans="1:30" ht="17.25" customHeight="1">
       <c r="A67" s="13"/>
-      <c r="B67" s="299" t="s">
+      <c r="B67" s="263" t="s">
         <v>53</v>
       </c>
-      <c r="C67" s="291"/>
-      <c r="D67" s="291"/>
-      <c r="E67" s="292"/>
-      <c r="F67" s="252" t="s">
+      <c r="C67" s="245"/>
+      <c r="D67" s="245"/>
+      <c r="E67" s="246"/>
+      <c r="F67" s="249" t="s">
         <v>254</v>
       </c>
-      <c r="G67" s="252"/>
-      <c r="H67" s="252"/>
-      <c r="I67" s="252"/>
-      <c r="J67" s="252"/>
-      <c r="K67" s="253"/>
-      <c r="L67" s="253"/>
-      <c r="M67" s="253"/>
-      <c r="N67" s="253"/>
-      <c r="O67" s="253"/>
-      <c r="P67" s="253"/>
-      <c r="Q67" s="253"/>
-      <c r="R67" s="253"/>
-      <c r="S67" s="253"/>
-      <c r="T67" s="253"/>
-      <c r="U67" s="253"/>
-      <c r="V67" s="253"/>
-      <c r="W67" s="253"/>
-      <c r="X67" s="253"/>
-      <c r="Y67" s="253"/>
-      <c r="Z67" s="256"/>
-      <c r="AA67" s="256"/>
-      <c r="AB67" s="256"/>
-      <c r="AC67" s="256"/>
-      <c r="AD67" s="256"/>
+      <c r="G67" s="249"/>
+      <c r="H67" s="249"/>
+      <c r="I67" s="249"/>
+      <c r="J67" s="249"/>
+      <c r="K67" s="312"/>
+      <c r="L67" s="312"/>
+      <c r="M67" s="312"/>
+      <c r="N67" s="312"/>
+      <c r="O67" s="312"/>
+      <c r="P67" s="312"/>
+      <c r="Q67" s="312"/>
+      <c r="R67" s="312"/>
+      <c r="S67" s="312"/>
+      <c r="T67" s="312"/>
+      <c r="U67" s="312"/>
+      <c r="V67" s="312"/>
+      <c r="W67" s="312"/>
+      <c r="X67" s="312"/>
+      <c r="Y67" s="312"/>
+      <c r="Z67" s="311"/>
+      <c r="AA67" s="311"/>
+      <c r="AB67" s="311"/>
+      <c r="AC67" s="311"/>
+      <c r="AD67" s="311"/>
     </row>
     <row r="68" spans="1:30" ht="17.25" customHeight="1">
       <c r="A68" s="13"/>
@@ -9321,28 +9912,28 @@
       <c r="C68" s="26"/>
       <c r="D68" s="26"/>
       <c r="E68" s="27"/>
-      <c r="F68" s="252" t="s">
+      <c r="F68" s="249" t="s">
         <v>255</v>
       </c>
-      <c r="G68" s="252"/>
-      <c r="H68" s="252"/>
-      <c r="I68" s="252"/>
-      <c r="J68" s="252"/>
-      <c r="K68" s="248"/>
-      <c r="L68" s="248"/>
-      <c r="M68" s="248"/>
-      <c r="N68" s="248"/>
-      <c r="O68" s="248"/>
-      <c r="P68" s="248"/>
-      <c r="Q68" s="248"/>
-      <c r="R68" s="248"/>
-      <c r="S68" s="248"/>
-      <c r="T68" s="248"/>
-      <c r="U68" s="248"/>
-      <c r="V68" s="248"/>
-      <c r="W68" s="248"/>
-      <c r="X68" s="248"/>
-      <c r="Y68" s="248"/>
+      <c r="G68" s="249"/>
+      <c r="H68" s="249"/>
+      <c r="I68" s="249"/>
+      <c r="J68" s="249"/>
+      <c r="K68" s="250"/>
+      <c r="L68" s="250"/>
+      <c r="M68" s="250"/>
+      <c r="N68" s="250"/>
+      <c r="O68" s="250"/>
+      <c r="P68" s="250"/>
+      <c r="Q68" s="250"/>
+      <c r="R68" s="250"/>
+      <c r="S68" s="250"/>
+      <c r="T68" s="250"/>
+      <c r="U68" s="250"/>
+      <c r="V68" s="250"/>
+      <c r="W68" s="250"/>
+      <c r="X68" s="250"/>
+      <c r="Y68" s="250"/>
       <c r="Z68" s="126"/>
       <c r="AA68" s="8"/>
       <c r="AB68" s="126"/>
@@ -9357,33 +9948,33 @@
       <c r="C69" s="26"/>
       <c r="D69" s="26"/>
       <c r="E69" s="27"/>
-      <c r="F69" s="252" t="s">
+      <c r="F69" s="249" t="s">
         <v>256</v>
       </c>
-      <c r="G69" s="252"/>
-      <c r="H69" s="252"/>
-      <c r="I69" s="252"/>
-      <c r="J69" s="252"/>
-      <c r="K69" s="254"/>
-      <c r="L69" s="254"/>
-      <c r="M69" s="254"/>
-      <c r="N69" s="254"/>
-      <c r="O69" s="254"/>
-      <c r="P69" s="254"/>
-      <c r="Q69" s="254"/>
-      <c r="R69" s="254"/>
-      <c r="S69" s="254"/>
-      <c r="T69" s="254"/>
-      <c r="U69" s="254"/>
-      <c r="V69" s="254"/>
-      <c r="W69" s="254"/>
-      <c r="X69" s="254"/>
-      <c r="Y69" s="254"/>
-      <c r="Z69" s="255"/>
-      <c r="AA69" s="255"/>
-      <c r="AB69" s="255"/>
-      <c r="AC69" s="255"/>
-      <c r="AD69" s="255"/>
+      <c r="G69" s="249"/>
+      <c r="H69" s="249"/>
+      <c r="I69" s="249"/>
+      <c r="J69" s="249"/>
+      <c r="K69" s="313"/>
+      <c r="L69" s="313"/>
+      <c r="M69" s="313"/>
+      <c r="N69" s="313"/>
+      <c r="O69" s="313"/>
+      <c r="P69" s="313"/>
+      <c r="Q69" s="313"/>
+      <c r="R69" s="313"/>
+      <c r="S69" s="313"/>
+      <c r="T69" s="313"/>
+      <c r="U69" s="313"/>
+      <c r="V69" s="313"/>
+      <c r="W69" s="313"/>
+      <c r="X69" s="313"/>
+      <c r="Y69" s="313"/>
+      <c r="Z69" s="309"/>
+      <c r="AA69" s="309"/>
+      <c r="AB69" s="309"/>
+      <c r="AC69" s="309"/>
+      <c r="AD69" s="309"/>
     </row>
     <row r="70" spans="1:30" ht="13.5" customHeight="1">
       <c r="A70" s="13"/>
@@ -9393,27 +9984,27 @@
       <c r="C70" s="26"/>
       <c r="D70" s="26"/>
       <c r="E70" s="27"/>
-      <c r="F70" s="249" t="s">
+      <c r="F70" s="318" t="s">
         <v>257</v>
       </c>
-      <c r="G70" s="250"/>
-      <c r="H70" s="250"/>
-      <c r="I70" s="250"/>
-      <c r="J70" s="251"/>
+      <c r="G70" s="319"/>
+      <c r="H70" s="319"/>
+      <c r="I70" s="319"/>
+      <c r="J70" s="320"/>
       <c r="K70" s="44"/>
-      <c r="L70" s="244"/>
-      <c r="M70" s="244"/>
-      <c r="N70" s="244"/>
+      <c r="L70" s="310"/>
+      <c r="M70" s="310"/>
+      <c r="N70" s="310"/>
       <c r="O70" s="44"/>
       <c r="P70" s="44"/>
-      <c r="Q70" s="244"/>
-      <c r="R70" s="244"/>
-      <c r="S70" s="244"/>
+      <c r="Q70" s="310"/>
+      <c r="R70" s="310"/>
+      <c r="S70" s="310"/>
       <c r="T70" s="44"/>
       <c r="U70" s="44"/>
-      <c r="V70" s="244"/>
-      <c r="W70" s="244"/>
-      <c r="X70" s="244"/>
+      <c r="V70" s="310"/>
+      <c r="W70" s="310"/>
+      <c r="X70" s="310"/>
       <c r="Y70" s="44"/>
       <c r="Z70" s="3"/>
       <c r="AA70" s="3"/>
@@ -9459,10 +10050,10 @@
       <c r="N72" s="6"/>
     </row>
     <row r="73" spans="1:30" ht="17.25" customHeight="1">
-      <c r="J73" s="246"/>
-      <c r="K73" s="247"/>
-      <c r="L73" s="247"/>
-      <c r="M73" s="247"/>
+      <c r="J73" s="316"/>
+      <c r="K73" s="317"/>
+      <c r="L73" s="317"/>
+      <c r="M73" s="317"/>
       <c r="W73" s="7"/>
     </row>
     <row r="75" spans="1:30" ht="17.25" customHeight="1">
@@ -9473,6 +10064,195 @@
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
   <mergeCells count="213">
+    <mergeCell ref="L3:O3"/>
+    <mergeCell ref="Q20:Q21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="Q38:Q39"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="T26:V26"/>
+    <mergeCell ref="T27:V27"/>
+    <mergeCell ref="T28:V28"/>
+    <mergeCell ref="T42:V42"/>
+    <mergeCell ref="T40:W40"/>
+    <mergeCell ref="V5:Z5"/>
+    <mergeCell ref="V6:Z6"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="L18:N18"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="T18:W18"/>
+    <mergeCell ref="O21:P21"/>
+    <mergeCell ref="T19:W19"/>
+    <mergeCell ref="T20:W20"/>
+    <mergeCell ref="V7:Z7"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="O27:P27"/>
+    <mergeCell ref="T31:W31"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="J39:K39"/>
+    <mergeCell ref="L39:N39"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="L34:N34"/>
+    <mergeCell ref="T32:W32"/>
+    <mergeCell ref="G34:I34"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="AO32:AP32"/>
+    <mergeCell ref="AF33:AG33"/>
+    <mergeCell ref="AH33:AI33"/>
+    <mergeCell ref="AJ33:AL33"/>
+    <mergeCell ref="AM33:AN33"/>
+    <mergeCell ref="AO33:AQ33"/>
+    <mergeCell ref="O16:P16"/>
+    <mergeCell ref="AR38:AS38"/>
+    <mergeCell ref="AF41:AG41"/>
+    <mergeCell ref="AG37:AI37"/>
+    <mergeCell ref="AJ37:AK37"/>
+    <mergeCell ref="AJ32:AK32"/>
+    <mergeCell ref="Y32:Z32"/>
+    <mergeCell ref="AR33:AS33"/>
+    <mergeCell ref="AJ34:AK34"/>
+    <mergeCell ref="AO34:AP34"/>
+    <mergeCell ref="AF35:AG35"/>
+    <mergeCell ref="AH35:AI35"/>
+    <mergeCell ref="AJ35:AL35"/>
+    <mergeCell ref="AM35:AN35"/>
+    <mergeCell ref="AO35:AQ35"/>
+    <mergeCell ref="AR35:AS35"/>
+    <mergeCell ref="AP37:AQ37"/>
+    <mergeCell ref="AJ40:AK40"/>
+    <mergeCell ref="AR44:AS44"/>
+    <mergeCell ref="AJ43:AK43"/>
+    <mergeCell ref="AO43:AP43"/>
+    <mergeCell ref="AF44:AG44"/>
+    <mergeCell ref="AH44:AI44"/>
+    <mergeCell ref="AR41:AS41"/>
+    <mergeCell ref="AJ44:AL44"/>
+    <mergeCell ref="AM44:AN44"/>
+    <mergeCell ref="AO44:AQ44"/>
+    <mergeCell ref="AO40:AP40"/>
+    <mergeCell ref="AO41:AQ41"/>
+    <mergeCell ref="AF38:AI38"/>
+    <mergeCell ref="AJ38:AL38"/>
+    <mergeCell ref="AM38:AN38"/>
+    <mergeCell ref="AO38:AQ38"/>
+    <mergeCell ref="AH41:AI41"/>
+    <mergeCell ref="AJ41:AL41"/>
+    <mergeCell ref="AM41:AN41"/>
+    <mergeCell ref="K63:O63"/>
+    <mergeCell ref="K64:O64"/>
+    <mergeCell ref="P62:T62"/>
+    <mergeCell ref="V70:X70"/>
+    <mergeCell ref="T43:V43"/>
+    <mergeCell ref="T44:V44"/>
+    <mergeCell ref="J73:M73"/>
+    <mergeCell ref="U68:Y68"/>
+    <mergeCell ref="U62:Y62"/>
+    <mergeCell ref="U63:Y63"/>
+    <mergeCell ref="F70:J70"/>
+    <mergeCell ref="F66:J66"/>
+    <mergeCell ref="F69:J69"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="K67:O67"/>
+    <mergeCell ref="L70:N70"/>
+    <mergeCell ref="K69:O69"/>
+    <mergeCell ref="K65:O65"/>
+    <mergeCell ref="K66:O66"/>
+    <mergeCell ref="P69:T69"/>
+    <mergeCell ref="P65:T65"/>
+    <mergeCell ref="P66:T66"/>
+    <mergeCell ref="Q70:S70"/>
+    <mergeCell ref="K62:O62"/>
+    <mergeCell ref="Z64:AD64"/>
+    <mergeCell ref="U64:Y64"/>
+    <mergeCell ref="P64:T64"/>
+    <mergeCell ref="Z69:AD69"/>
+    <mergeCell ref="Z67:AD67"/>
+    <mergeCell ref="P63:T63"/>
+    <mergeCell ref="U65:Y65"/>
+    <mergeCell ref="U66:Y66"/>
+    <mergeCell ref="Z65:AD65"/>
+    <mergeCell ref="Z66:AD66"/>
+    <mergeCell ref="Z63:AD63"/>
+    <mergeCell ref="U69:Y69"/>
+    <mergeCell ref="U67:Y67"/>
+    <mergeCell ref="P67:T67"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="T15:W15"/>
+    <mergeCell ref="P12:Z12"/>
+    <mergeCell ref="Y10:Z10"/>
+    <mergeCell ref="W11:Z11"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="T16:W16"/>
+    <mergeCell ref="T24:W24"/>
+    <mergeCell ref="O24:P24"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="Y16:Z16"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="L27:N27"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="G42:I42"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="L36:N36"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="J42:K42"/>
+    <mergeCell ref="M38:N38"/>
+    <mergeCell ref="L42:N42"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="G39:I39"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="C39:F39"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="D4:H4"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="J7:N7"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="L16:N16"/>
+    <mergeCell ref="L21:N21"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="L24:N24"/>
+    <mergeCell ref="I51:L51"/>
+    <mergeCell ref="I52:L52"/>
+    <mergeCell ref="I53:L53"/>
+    <mergeCell ref="O39:P39"/>
+    <mergeCell ref="O42:P42"/>
+    <mergeCell ref="L45:N45"/>
+    <mergeCell ref="I46:J46"/>
+    <mergeCell ref="G45:I45"/>
+    <mergeCell ref="M46:N46"/>
+    <mergeCell ref="J45:K45"/>
+    <mergeCell ref="K46:L46"/>
+    <mergeCell ref="O45:P45"/>
+    <mergeCell ref="M48:T48"/>
+    <mergeCell ref="M49:T59"/>
     <mergeCell ref="D63:E63"/>
     <mergeCell ref="D5:H5"/>
     <mergeCell ref="F68:J68"/>
@@ -9497,195 +10277,6 @@
     <mergeCell ref="L44:M44"/>
     <mergeCell ref="I49:L49"/>
     <mergeCell ref="I50:L50"/>
-    <mergeCell ref="I51:L51"/>
-    <mergeCell ref="I52:L52"/>
-    <mergeCell ref="I53:L53"/>
-    <mergeCell ref="O39:P39"/>
-    <mergeCell ref="O42:P42"/>
-    <mergeCell ref="L45:N45"/>
-    <mergeCell ref="I46:J46"/>
-    <mergeCell ref="G45:I45"/>
-    <mergeCell ref="M46:N46"/>
-    <mergeCell ref="J45:K45"/>
-    <mergeCell ref="K46:L46"/>
-    <mergeCell ref="O45:P45"/>
-    <mergeCell ref="M48:T48"/>
-    <mergeCell ref="M49:T59"/>
-    <mergeCell ref="D4:H4"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="J7:N7"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="L16:N16"/>
-    <mergeCell ref="L21:N21"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="L24:N24"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="G42:I42"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="L36:N36"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="J42:K42"/>
-    <mergeCell ref="M38:N38"/>
-    <mergeCell ref="L42:N42"/>
-    <mergeCell ref="L41:M41"/>
-    <mergeCell ref="G39:I39"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="J36:K36"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="C39:F39"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="O18:P18"/>
-    <mergeCell ref="T15:W15"/>
-    <mergeCell ref="P12:Z12"/>
-    <mergeCell ref="Y10:Z10"/>
-    <mergeCell ref="W11:Z11"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="T16:W16"/>
-    <mergeCell ref="T24:W24"/>
-    <mergeCell ref="O24:P24"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="Y16:Z16"/>
-    <mergeCell ref="L26:M26"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="L27:N27"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="Z64:AD64"/>
-    <mergeCell ref="U64:Y64"/>
-    <mergeCell ref="P64:T64"/>
-    <mergeCell ref="Z69:AD69"/>
-    <mergeCell ref="Z67:AD67"/>
-    <mergeCell ref="P63:T63"/>
-    <mergeCell ref="U65:Y65"/>
-    <mergeCell ref="U66:Y66"/>
-    <mergeCell ref="Z65:AD65"/>
-    <mergeCell ref="Z66:AD66"/>
-    <mergeCell ref="Z63:AD63"/>
-    <mergeCell ref="U69:Y69"/>
-    <mergeCell ref="U67:Y67"/>
-    <mergeCell ref="P67:T67"/>
-    <mergeCell ref="K63:O63"/>
-    <mergeCell ref="K64:O64"/>
-    <mergeCell ref="P62:T62"/>
-    <mergeCell ref="V70:X70"/>
-    <mergeCell ref="T43:V43"/>
-    <mergeCell ref="T44:V44"/>
-    <mergeCell ref="J73:M73"/>
-    <mergeCell ref="U68:Y68"/>
-    <mergeCell ref="U62:Y62"/>
-    <mergeCell ref="U63:Y63"/>
-    <mergeCell ref="F70:J70"/>
-    <mergeCell ref="F66:J66"/>
-    <mergeCell ref="F69:J69"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="K67:O67"/>
-    <mergeCell ref="L70:N70"/>
-    <mergeCell ref="K69:O69"/>
-    <mergeCell ref="K65:O65"/>
-    <mergeCell ref="K66:O66"/>
-    <mergeCell ref="P69:T69"/>
-    <mergeCell ref="P65:T65"/>
-    <mergeCell ref="P66:T66"/>
-    <mergeCell ref="Q70:S70"/>
-    <mergeCell ref="K62:O62"/>
-    <mergeCell ref="AO40:AP40"/>
-    <mergeCell ref="AO41:AQ41"/>
-    <mergeCell ref="AF38:AI38"/>
-    <mergeCell ref="AJ38:AL38"/>
-    <mergeCell ref="AM38:AN38"/>
-    <mergeCell ref="AO38:AQ38"/>
-    <mergeCell ref="AH41:AI41"/>
-    <mergeCell ref="AJ41:AL41"/>
-    <mergeCell ref="AM41:AN41"/>
-    <mergeCell ref="AR44:AS44"/>
-    <mergeCell ref="AJ43:AK43"/>
-    <mergeCell ref="AO43:AP43"/>
-    <mergeCell ref="AF44:AG44"/>
-    <mergeCell ref="AH44:AI44"/>
-    <mergeCell ref="AR41:AS41"/>
-    <mergeCell ref="AJ44:AL44"/>
-    <mergeCell ref="AM44:AN44"/>
-    <mergeCell ref="AO44:AQ44"/>
-    <mergeCell ref="AO32:AP32"/>
-    <mergeCell ref="AF33:AG33"/>
-    <mergeCell ref="AH33:AI33"/>
-    <mergeCell ref="AJ33:AL33"/>
-    <mergeCell ref="AM33:AN33"/>
-    <mergeCell ref="AO33:AQ33"/>
-    <mergeCell ref="O16:P16"/>
-    <mergeCell ref="AR38:AS38"/>
-    <mergeCell ref="AF41:AG41"/>
-    <mergeCell ref="AG37:AI37"/>
-    <mergeCell ref="AJ37:AK37"/>
-    <mergeCell ref="AJ32:AK32"/>
-    <mergeCell ref="Y32:Z32"/>
-    <mergeCell ref="AR33:AS33"/>
-    <mergeCell ref="AJ34:AK34"/>
-    <mergeCell ref="AO34:AP34"/>
-    <mergeCell ref="AF35:AG35"/>
-    <mergeCell ref="AH35:AI35"/>
-    <mergeCell ref="AJ35:AL35"/>
-    <mergeCell ref="AM35:AN35"/>
-    <mergeCell ref="AO35:AQ35"/>
-    <mergeCell ref="AR35:AS35"/>
-    <mergeCell ref="AP37:AQ37"/>
-    <mergeCell ref="AJ40:AK40"/>
-    <mergeCell ref="O27:P27"/>
-    <mergeCell ref="T31:W31"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="J39:K39"/>
-    <mergeCell ref="L39:N39"/>
-    <mergeCell ref="L35:M35"/>
-    <mergeCell ref="L34:N34"/>
-    <mergeCell ref="T32:W32"/>
-    <mergeCell ref="G34:I34"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="L3:O3"/>
-    <mergeCell ref="Q20:Q21"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="Q38:Q39"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="T26:V26"/>
-    <mergeCell ref="T27:V27"/>
-    <mergeCell ref="T28:V28"/>
-    <mergeCell ref="T42:V42"/>
-    <mergeCell ref="T40:W40"/>
-    <mergeCell ref="V5:Z5"/>
-    <mergeCell ref="V6:Z6"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="L18:N18"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="T18:W18"/>
-    <mergeCell ref="O21:P21"/>
-    <mergeCell ref="T19:W19"/>
-    <mergeCell ref="T20:W20"/>
-    <mergeCell ref="V7:Z7"/>
-    <mergeCell ref="L33:M33"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <dataValidations count="1">
@@ -9709,30 +10300,1150 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:AB48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N15" sqref="N15:P15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="4.77734375" style="207" customWidth="1"/>
+    <col min="2" max="2" width="7.6640625" style="207" customWidth="1"/>
+    <col min="3" max="14" width="8.88671875" style="207"/>
+    <col min="15" max="15" width="7.6640625" style="207" customWidth="1"/>
+    <col min="16" max="16384" width="8.88671875" style="207"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4"/>
-    <row r="2" spans="1:4">
-      <c r="A2" s="358" t="s">
+    <row r="1" spans="1:28"/>
+    <row r="2" spans="1:28">
+      <c r="A2" s="208" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="208" t="s">
+    <row r="3" spans="1:28">
+      <c r="A3" s="209" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="13.8" thickBot="1"/>
-    <row r="13" spans="1:4" ht="13.8" thickBot="1">
-      <c r="D13" s="207"/>
+    <row r="5" spans="1:28">
+      <c r="A5" s="208" t="s">
+        <v>555</v>
+      </c>
+      <c r="B5" s="418"/>
+      <c r="C5" s="418"/>
+      <c r="D5" s="418"/>
+      <c r="E5" s="211"/>
+      <c r="F5" s="211"/>
+      <c r="G5" s="211"/>
+      <c r="H5" s="211"/>
+      <c r="I5" s="211"/>
+      <c r="J5" s="211"/>
+      <c r="K5" s="211"/>
+      <c r="L5" s="211"/>
+      <c r="M5" s="211"/>
+      <c r="N5" s="211"/>
+      <c r="O5" s="211"/>
+      <c r="P5" s="211"/>
+      <c r="Q5" s="211"/>
+      <c r="R5" s="211"/>
+      <c r="S5" s="211"/>
+      <c r="T5" s="211"/>
+      <c r="U5" s="211"/>
+      <c r="V5" s="211"/>
+      <c r="W5" s="211"/>
+      <c r="X5" s="211"/>
+      <c r="Y5" s="211"/>
+      <c r="Z5" s="211"/>
+      <c r="AA5" s="211"/>
+      <c r="AB5" s="211"/>
+    </row>
+    <row r="6" spans="1:28">
+      <c r="D6" s="212"/>
+    </row>
+    <row r="7" spans="1:28">
+      <c r="B7" s="213" t="s">
+        <v>517</v>
+      </c>
+      <c r="C7" s="214"/>
+      <c r="D7" s="214"/>
+      <c r="E7" s="214"/>
+      <c r="F7" s="214"/>
+      <c r="G7" s="214"/>
+      <c r="H7" s="214"/>
+      <c r="I7" s="214"/>
+      <c r="J7" s="214"/>
+      <c r="K7" s="214"/>
+      <c r="L7" s="214"/>
+      <c r="M7" s="214"/>
+      <c r="N7" s="214"/>
+      <c r="O7" s="214"/>
+      <c r="P7" s="214"/>
+      <c r="Q7" s="214"/>
+      <c r="R7" s="214"/>
+      <c r="S7" s="214"/>
+      <c r="T7" s="214"/>
+    </row>
+    <row r="8" spans="1:28">
+      <c r="B8" s="415" t="s">
+        <v>518</v>
+      </c>
+      <c r="C8" s="415"/>
+      <c r="D8" s="415"/>
+      <c r="E8" s="415"/>
+      <c r="F8" s="413"/>
+      <c r="G8" s="414"/>
+      <c r="J8" s="415" t="s">
+        <v>519</v>
+      </c>
+      <c r="K8" s="415"/>
+      <c r="L8" s="415"/>
+      <c r="M8" s="416"/>
+      <c r="N8" s="413" t="s">
+        <v>535</v>
+      </c>
+      <c r="O8" s="414"/>
+      <c r="R8" s="214"/>
+    </row>
+    <row r="9" spans="1:28">
+      <c r="B9" s="415" t="s">
+        <v>536</v>
+      </c>
+      <c r="C9" s="415"/>
+      <c r="D9" s="415"/>
+      <c r="E9" s="415"/>
+      <c r="F9" s="413" t="s">
+        <v>542</v>
+      </c>
+      <c r="G9" s="414"/>
+      <c r="J9" s="415" t="s">
+        <v>537</v>
+      </c>
+      <c r="K9" s="415"/>
+      <c r="L9" s="415"/>
+      <c r="M9" s="416"/>
+      <c r="N9" s="413" t="s">
+        <v>539</v>
+      </c>
+      <c r="O9" s="414"/>
+      <c r="R9" s="214"/>
+    </row>
+    <row r="10" spans="1:28">
+      <c r="B10" s="415" t="s">
+        <v>538</v>
+      </c>
+      <c r="C10" s="415"/>
+      <c r="D10" s="415"/>
+      <c r="E10" s="415"/>
+      <c r="F10" s="413" t="s">
+        <v>541</v>
+      </c>
+      <c r="G10" s="414"/>
+      <c r="J10" s="415" t="s">
+        <v>520</v>
+      </c>
+      <c r="K10" s="415"/>
+      <c r="L10" s="415"/>
+      <c r="M10" s="416"/>
+      <c r="N10" s="413" t="s">
+        <v>540</v>
+      </c>
+      <c r="O10" s="414"/>
+      <c r="R10" s="214"/>
+    </row>
+    <row r="11" spans="1:28">
+      <c r="B11" s="216"/>
+      <c r="C11" s="244"/>
+      <c r="D11" s="244"/>
+      <c r="E11" s="244"/>
+      <c r="F11" s="244"/>
+      <c r="G11" s="244"/>
+      <c r="H11" s="244"/>
+      <c r="I11" s="244"/>
+      <c r="R11" s="214"/>
+    </row>
+    <row r="12" spans="1:28">
+      <c r="B12" s="216"/>
+      <c r="C12" s="214"/>
+      <c r="D12" s="214"/>
+      <c r="E12" s="214"/>
+      <c r="F12" s="348"/>
+      <c r="G12" s="348"/>
+      <c r="H12" s="214"/>
+      <c r="I12" s="214"/>
+      <c r="J12"/>
+      <c r="K12"/>
+      <c r="L12"/>
+      <c r="M12"/>
+      <c r="N12"/>
+      <c r="O12"/>
+      <c r="R12" s="214"/>
+    </row>
+    <row r="13" spans="1:28">
+      <c r="B13" s="216"/>
+      <c r="C13" s="214"/>
+      <c r="D13" s="214"/>
+      <c r="E13" s="214"/>
+      <c r="F13" s="214"/>
+      <c r="G13" s="214"/>
+      <c r="H13" s="214"/>
+      <c r="I13" s="214"/>
+      <c r="J13" s="215"/>
+      <c r="K13" s="214"/>
+      <c r="L13" s="214"/>
+      <c r="M13" s="214"/>
+      <c r="N13" s="217"/>
+      <c r="O13" s="217"/>
+      <c r="R13" s="214"/>
+    </row>
+    <row r="14" spans="1:28">
+      <c r="B14" s="337" t="s">
+        <v>491</v>
+      </c>
+      <c r="C14" s="337"/>
+      <c r="D14" s="337"/>
+      <c r="E14" s="413" t="s">
+        <v>543</v>
+      </c>
+      <c r="F14" s="414"/>
+      <c r="H14" s="218" t="s">
+        <v>492</v>
+      </c>
+      <c r="I14" s="218"/>
+      <c r="J14" s="218"/>
+      <c r="K14" s="417" t="s">
+        <v>544</v>
+      </c>
+      <c r="L14" s="417" t="s">
+        <v>490</v>
+      </c>
+      <c r="M14" s="217"/>
+      <c r="N14" s="337" t="s">
+        <v>493</v>
+      </c>
+      <c r="O14" s="337"/>
+      <c r="P14" s="337"/>
+      <c r="Q14" s="413" t="s">
+        <v>490</v>
+      </c>
+      <c r="R14" s="414"/>
+      <c r="S14" s="219"/>
+      <c r="T14" s="219"/>
+    </row>
+    <row r="15" spans="1:28">
+      <c r="B15" s="337" t="s">
+        <v>494</v>
+      </c>
+      <c r="C15" s="337"/>
+      <c r="D15" s="337"/>
+      <c r="E15" s="413" t="s">
+        <v>545</v>
+      </c>
+      <c r="F15" s="414"/>
+      <c r="H15" s="218" t="s">
+        <v>495</v>
+      </c>
+      <c r="I15" s="218"/>
+      <c r="J15" s="218"/>
+      <c r="K15" s="417" t="s">
+        <v>546</v>
+      </c>
+      <c r="L15" s="417"/>
+      <c r="M15" s="217"/>
+      <c r="N15" s="337" t="s">
+        <v>496</v>
+      </c>
+      <c r="O15" s="337"/>
+      <c r="P15" s="337"/>
+      <c r="Q15" s="413" t="s">
+        <v>547</v>
+      </c>
+      <c r="R15" s="414"/>
+      <c r="T15" s="337" t="s">
+        <v>497</v>
+      </c>
+      <c r="U15" s="337"/>
+      <c r="V15" s="413"/>
+      <c r="W15" s="414"/>
+    </row>
+    <row r="16" spans="1:28">
+      <c r="B16" s="337" t="s">
+        <v>498</v>
+      </c>
+      <c r="C16" s="337"/>
+      <c r="D16" s="337"/>
+      <c r="E16" s="413" t="s">
+        <v>548</v>
+      </c>
+      <c r="F16" s="414"/>
+      <c r="H16" s="218" t="s">
+        <v>500</v>
+      </c>
+      <c r="I16" s="218"/>
+      <c r="J16" s="218"/>
+      <c r="K16" s="417" t="s">
+        <v>549</v>
+      </c>
+      <c r="L16" s="417" t="s">
+        <v>499</v>
+      </c>
+      <c r="M16" s="217"/>
+      <c r="N16" s="337" t="s">
+        <v>501</v>
+      </c>
+      <c r="O16" s="337"/>
+      <c r="P16" s="337"/>
+      <c r="Q16" s="413" t="s">
+        <v>550</v>
+      </c>
+      <c r="R16" s="414"/>
+      <c r="S16" s="219"/>
+      <c r="T16" s="219"/>
+      <c r="V16" s="209"/>
+    </row>
+    <row r="17" spans="2:22">
+      <c r="E17" s="220"/>
+      <c r="F17" s="220"/>
+    </row>
+    <row r="18" spans="2:22">
+      <c r="B18" s="221" t="s">
+        <v>521</v>
+      </c>
+      <c r="C18" s="211"/>
+      <c r="D18" s="211"/>
+      <c r="E18" s="222"/>
+      <c r="F18" s="222"/>
+      <c r="G18" s="210"/>
+      <c r="H18" s="223"/>
+      <c r="I18" s="224"/>
+      <c r="J18" s="224"/>
+      <c r="K18" s="223"/>
+      <c r="L18" s="224"/>
+      <c r="M18" s="225"/>
+      <c r="N18" s="226"/>
+      <c r="O18" s="225"/>
+    </row>
+    <row r="19" spans="2:22" ht="15" customHeight="1">
+      <c r="B19" s="226" t="s">
+        <v>502</v>
+      </c>
+      <c r="C19" s="226"/>
+      <c r="D19" s="211"/>
+      <c r="E19" s="222"/>
+      <c r="F19" s="341" t="s">
+        <v>504</v>
+      </c>
+      <c r="G19" s="342"/>
+      <c r="H19" s="413" t="s">
+        <v>551</v>
+      </c>
+      <c r="I19" s="414"/>
+      <c r="J19" s="222"/>
+      <c r="K19" s="341" t="s">
+        <v>505</v>
+      </c>
+      <c r="L19" s="342"/>
+      <c r="M19" s="413" t="s">
+        <v>552</v>
+      </c>
+      <c r="N19" s="414"/>
+      <c r="O19" s="225"/>
+    </row>
+    <row r="20" spans="2:22" ht="15" customHeight="1">
+      <c r="B20" s="226" t="s">
+        <v>506</v>
+      </c>
+      <c r="C20" s="211"/>
+      <c r="D20" s="211"/>
+      <c r="E20" s="222"/>
+      <c r="F20" s="341" t="s">
+        <v>504</v>
+      </c>
+      <c r="G20" s="342"/>
+      <c r="H20" s="413" t="s">
+        <v>553</v>
+      </c>
+      <c r="I20" s="414"/>
+      <c r="J20" s="222"/>
+      <c r="K20" s="341" t="s">
+        <v>505</v>
+      </c>
+      <c r="L20" s="342"/>
+      <c r="M20" s="413" t="s">
+        <v>554</v>
+      </c>
+      <c r="N20" s="414"/>
+      <c r="O20" s="225"/>
+    </row>
+    <row r="21" spans="2:22">
+      <c r="B21" s="226" t="s">
+        <v>503</v>
+      </c>
+      <c r="C21" s="211"/>
+      <c r="D21" s="211"/>
+      <c r="E21" s="222"/>
+      <c r="F21" s="222"/>
+      <c r="G21" s="210"/>
+      <c r="H21" s="223"/>
+      <c r="I21" s="224"/>
+      <c r="J21" s="222"/>
+      <c r="K21" s="222"/>
+      <c r="L21" s="222"/>
+      <c r="M21" s="225"/>
+      <c r="N21" s="226"/>
+      <c r="O21" s="225"/>
+    </row>
+    <row r="23" spans="2:22">
+      <c r="B23" s="221" t="s">
+        <v>507</v>
+      </c>
+      <c r="C23" s="211"/>
+      <c r="D23" s="211"/>
+      <c r="E23" s="222"/>
+      <c r="F23" s="222"/>
+      <c r="G23" s="210"/>
+      <c r="H23" s="223"/>
+      <c r="I23" s="224"/>
+      <c r="J23" s="224"/>
+      <c r="K23" s="223"/>
+      <c r="L23" s="224"/>
+      <c r="M23" s="225"/>
+      <c r="N23" s="226"/>
+      <c r="O23" s="225"/>
+      <c r="P23" s="223"/>
+      <c r="Q23" s="224"/>
+      <c r="R23" s="225"/>
+      <c r="S23" s="223"/>
+      <c r="T23" s="224"/>
+      <c r="U23" s="225"/>
+      <c r="V23" s="225"/>
+    </row>
+    <row r="24" spans="2:22">
+      <c r="B24" s="226" t="s">
+        <v>522</v>
+      </c>
+      <c r="C24" s="211"/>
+      <c r="D24" s="211"/>
+      <c r="E24" s="222"/>
+      <c r="F24" s="222"/>
+      <c r="G24" s="210"/>
+      <c r="H24" s="343" t="s">
+        <v>490</v>
+      </c>
+      <c r="I24" s="343" t="s">
+        <v>490</v>
+      </c>
+      <c r="J24" s="222"/>
+      <c r="K24" s="222"/>
+      <c r="L24" s="344" t="s">
+        <v>508</v>
+      </c>
+      <c r="M24" s="345"/>
+      <c r="N24" s="346"/>
+      <c r="O24" s="347"/>
+      <c r="P24" s="223"/>
+      <c r="Q24" s="224"/>
+      <c r="R24" s="225"/>
+      <c r="S24" s="223"/>
+      <c r="T24" s="224"/>
+      <c r="U24" s="225"/>
+      <c r="V24" s="225"/>
+    </row>
+    <row r="25" spans="2:22">
+      <c r="B25" s="352" t="s">
+        <v>509</v>
+      </c>
+      <c r="C25" s="352"/>
+      <c r="D25" s="352"/>
+      <c r="E25" s="352"/>
+      <c r="F25" s="352"/>
+      <c r="G25" s="352"/>
+      <c r="H25" s="346"/>
+      <c r="I25" s="353"/>
+      <c r="J25" s="353"/>
+      <c r="K25" s="353"/>
+      <c r="L25" s="353"/>
+      <c r="M25" s="353"/>
+      <c r="N25" s="353"/>
+      <c r="O25" s="347"/>
+      <c r="P25" s="227"/>
+      <c r="Q25" s="211"/>
+      <c r="R25" s="211"/>
+      <c r="S25" s="227"/>
+      <c r="T25" s="211"/>
+      <c r="U25" s="211"/>
+      <c r="V25" s="211"/>
+    </row>
+    <row r="26" spans="2:22">
+      <c r="B26" s="228" t="s">
+        <v>510</v>
+      </c>
+      <c r="C26" s="211"/>
+      <c r="D26" s="211"/>
+      <c r="E26" s="229"/>
+      <c r="F26" s="229"/>
+      <c r="G26" s="210"/>
+      <c r="H26" s="230"/>
+      <c r="I26" s="230"/>
+      <c r="J26" s="211"/>
+      <c r="K26" s="227"/>
+      <c r="L26" s="231"/>
+      <c r="M26" s="231"/>
+      <c r="N26" s="231"/>
+      <c r="O26" s="231"/>
+      <c r="P26" s="227"/>
+      <c r="Q26" s="211"/>
+      <c r="R26" s="211"/>
+      <c r="S26" s="227"/>
+      <c r="T26" s="211"/>
+      <c r="U26" s="211"/>
+      <c r="V26" s="211"/>
+    </row>
+    <row r="27" spans="2:22">
+      <c r="B27" s="338"/>
+      <c r="C27" s="339"/>
+      <c r="D27" s="339"/>
+      <c r="E27" s="339"/>
+      <c r="F27" s="339"/>
+      <c r="G27" s="339"/>
+      <c r="H27" s="339"/>
+      <c r="I27" s="339"/>
+      <c r="J27" s="339"/>
+      <c r="K27" s="339"/>
+      <c r="L27" s="339"/>
+      <c r="M27" s="339"/>
+      <c r="N27" s="339"/>
+      <c r="O27" s="339"/>
+      <c r="P27" s="339"/>
+      <c r="Q27" s="339"/>
+      <c r="R27" s="339"/>
+      <c r="S27" s="339"/>
+      <c r="T27" s="340"/>
+      <c r="U27" s="211"/>
+      <c r="V27" s="211"/>
+    </row>
+    <row r="29" spans="2:22">
+      <c r="B29" s="221" t="s">
+        <v>511</v>
+      </c>
+      <c r="C29" s="211"/>
+      <c r="D29" s="211"/>
+      <c r="E29" s="222"/>
+      <c r="F29" s="222"/>
+      <c r="G29" s="210"/>
+      <c r="H29" s="232"/>
+      <c r="I29" s="232"/>
+      <c r="J29" s="224"/>
+      <c r="K29" s="223"/>
+      <c r="L29" s="224"/>
+      <c r="M29" s="225"/>
+      <c r="N29" s="226"/>
+      <c r="O29" s="225"/>
+      <c r="P29" s="223"/>
+      <c r="Q29" s="224"/>
+    </row>
+    <row r="30" spans="2:22">
+      <c r="B30" s="210" t="s">
+        <v>512</v>
+      </c>
+      <c r="C30" s="338"/>
+      <c r="D30" s="339"/>
+      <c r="E30" s="339"/>
+      <c r="F30" s="340"/>
+      <c r="G30" s="210" t="s">
+        <v>513</v>
+      </c>
+      <c r="H30" s="232"/>
+      <c r="I30" s="232"/>
+      <c r="J30" s="233" t="s">
+        <v>514</v>
+      </c>
+      <c r="K30" s="234"/>
+      <c r="L30" s="233"/>
+      <c r="M30" s="235"/>
+      <c r="N30" s="236"/>
+      <c r="O30" s="235"/>
+      <c r="P30" s="234"/>
+      <c r="Q30" s="233"/>
+    </row>
+    <row r="31" spans="2:22">
+      <c r="B31" s="235" t="s">
+        <v>523</v>
+      </c>
+      <c r="C31" s="237"/>
+      <c r="D31" s="237"/>
+      <c r="E31" s="238"/>
+      <c r="F31" s="238"/>
+      <c r="G31" s="237"/>
+      <c r="H31" s="234"/>
+      <c r="I31" s="234"/>
+      <c r="J31" s="233"/>
+      <c r="K31" s="234"/>
+      <c r="L31" s="233"/>
+      <c r="M31" s="235"/>
+      <c r="N31" s="235"/>
+      <c r="O31" s="235"/>
+      <c r="P31" s="234"/>
+      <c r="Q31" s="233"/>
+    </row>
+    <row r="32" spans="2:22">
+      <c r="B32" s="237" t="s">
+        <v>515</v>
+      </c>
+      <c r="C32" s="237"/>
+      <c r="D32" s="237"/>
+      <c r="E32" s="238"/>
+      <c r="F32" s="238"/>
+      <c r="G32" s="239"/>
+      <c r="H32" s="240"/>
+      <c r="I32" s="240"/>
+      <c r="J32" s="233"/>
+      <c r="K32" s="234"/>
+      <c r="L32" s="233"/>
+      <c r="M32" s="235"/>
+      <c r="N32" s="236"/>
+      <c r="O32" s="235"/>
+      <c r="P32" s="234"/>
+      <c r="Q32" s="233"/>
+    </row>
+    <row r="33" spans="1:25">
+      <c r="B33" s="235" t="s">
+        <v>516</v>
+      </c>
+      <c r="C33" s="237"/>
+      <c r="D33" s="237"/>
+      <c r="E33" s="238"/>
+      <c r="F33" s="238"/>
+      <c r="G33" s="239"/>
+      <c r="H33" s="240"/>
+      <c r="I33" s="240"/>
+      <c r="J33" s="233"/>
+      <c r="K33" s="234"/>
+      <c r="L33" s="233"/>
+      <c r="M33" s="235"/>
+      <c r="N33" s="236"/>
+      <c r="O33" s="235"/>
+      <c r="P33" s="234"/>
+      <c r="Q33" s="233"/>
+    </row>
+    <row r="34" spans="1:25">
+      <c r="B34" s="221"/>
+      <c r="C34" s="211"/>
+      <c r="D34" s="211"/>
+      <c r="E34" s="222"/>
+      <c r="F34" s="222"/>
+      <c r="G34" s="210"/>
+      <c r="H34" s="232"/>
+      <c r="I34" s="232"/>
+      <c r="J34" s="224"/>
+      <c r="K34" s="223"/>
+      <c r="L34" s="224"/>
+      <c r="M34" s="225"/>
+      <c r="N34" s="226"/>
+      <c r="O34" s="225"/>
+      <c r="P34" s="223"/>
+      <c r="Q34" s="224"/>
+    </row>
+    <row r="35" spans="1:25">
+      <c r="A35" s="419">
+        <v>9</v>
+      </c>
+      <c r="B35" s="420" t="s">
+        <v>556</v>
+      </c>
+      <c r="C35" s="420"/>
+      <c r="D35" s="420"/>
+      <c r="E35" s="421"/>
+      <c r="F35" s="421"/>
+      <c r="G35" s="421"/>
+      <c r="H35" s="421"/>
+      <c r="I35" s="421"/>
+      <c r="J35" s="421"/>
+      <c r="K35" s="421"/>
+      <c r="L35" s="421"/>
+      <c r="M35" s="421"/>
+      <c r="N35" s="421"/>
+      <c r="O35" s="421"/>
+      <c r="P35" s="421"/>
+      <c r="Q35" s="421"/>
+      <c r="R35" s="421"/>
+      <c r="S35" s="421"/>
+      <c r="T35" s="421"/>
+      <c r="U35" s="421"/>
+      <c r="V35" s="421"/>
+      <c r="W35" s="421"/>
+      <c r="X35" s="421"/>
+      <c r="Y35" s="421"/>
+    </row>
+    <row r="36" spans="1:25">
+      <c r="A36" s="422"/>
+      <c r="B36" s="423" t="s">
+        <v>557</v>
+      </c>
+      <c r="C36" s="424"/>
+      <c r="D36" s="424"/>
+      <c r="E36" s="424"/>
+      <c r="F36" s="425"/>
+      <c r="G36" s="426" t="s">
+        <v>558</v>
+      </c>
+      <c r="H36" s="427" t="s">
+        <v>559</v>
+      </c>
+      <c r="I36" s="428">
+        <v>3</v>
+      </c>
+      <c r="J36" s="429"/>
+      <c r="K36" s="430" t="s">
+        <v>37</v>
+      </c>
+      <c r="L36" s="431" t="s">
+        <v>560</v>
+      </c>
+      <c r="M36" s="432"/>
+      <c r="N36" s="433"/>
+      <c r="O36" s="434"/>
+      <c r="P36" s="435"/>
+      <c r="Q36" s="430" t="s">
+        <v>561</v>
+      </c>
+      <c r="R36" s="430"/>
+      <c r="S36" s="436"/>
+      <c r="T36" s="430"/>
+      <c r="U36" s="437"/>
+      <c r="V36" s="438" t="s">
+        <v>562</v>
+      </c>
+      <c r="W36" s="439"/>
+      <c r="X36" s="440"/>
+      <c r="Y36" s="421"/>
+    </row>
+    <row r="37" spans="1:25">
+      <c r="A37" s="422"/>
+      <c r="B37" s="441" t="s">
+        <v>37</v>
+      </c>
+      <c r="C37" s="431"/>
+      <c r="D37" s="431"/>
+      <c r="E37" s="431"/>
+      <c r="F37" s="442"/>
+      <c r="G37" s="432"/>
+      <c r="H37" s="433"/>
+      <c r="I37" s="433"/>
+      <c r="J37" s="433"/>
+      <c r="K37" s="433"/>
+      <c r="L37" s="433"/>
+      <c r="M37" s="433"/>
+      <c r="N37" s="433"/>
+      <c r="O37" s="434"/>
+      <c r="P37" s="443"/>
+      <c r="Q37" s="242" t="s">
+        <v>563</v>
+      </c>
+      <c r="R37" s="242"/>
+      <c r="S37" s="444"/>
+      <c r="T37" s="242"/>
+      <c r="U37" s="439"/>
+      <c r="V37" s="445" t="s">
+        <v>562</v>
+      </c>
+      <c r="W37" s="446"/>
+      <c r="X37" s="447"/>
+      <c r="Y37" s="421"/>
+    </row>
+    <row r="38" spans="1:25" ht="14.4" customHeight="1">
+      <c r="A38" s="422"/>
+      <c r="B38" s="441" t="s">
+        <v>564</v>
+      </c>
+      <c r="C38" s="431"/>
+      <c r="D38" s="431"/>
+      <c r="E38" s="431"/>
+      <c r="F38" s="448"/>
+      <c r="G38" s="432"/>
+      <c r="H38" s="433"/>
+      <c r="I38" s="433"/>
+      <c r="J38" s="449"/>
+      <c r="K38" s="445" t="s">
+        <v>562</v>
+      </c>
+      <c r="L38" s="437"/>
+      <c r="M38" s="433"/>
+      <c r="N38" s="433"/>
+      <c r="O38" s="434"/>
+      <c r="P38" s="450"/>
+      <c r="Q38" s="430" t="s">
+        <v>565</v>
+      </c>
+      <c r="R38" s="430"/>
+      <c r="S38" s="436"/>
+      <c r="T38" s="451" t="s">
+        <v>566</v>
+      </c>
+      <c r="U38" s="452"/>
+      <c r="V38" s="452"/>
+      <c r="W38" s="452"/>
+      <c r="X38" s="453"/>
+      <c r="Y38" s="421"/>
+    </row>
+    <row r="39" spans="1:25" ht="14.4" customHeight="1">
+      <c r="A39" s="422"/>
+      <c r="B39" s="454"/>
+      <c r="C39" s="454"/>
+      <c r="D39" s="454"/>
+      <c r="E39" s="454"/>
+      <c r="F39" s="454"/>
+      <c r="G39" s="455"/>
+      <c r="H39" s="455"/>
+      <c r="I39" s="455"/>
+      <c r="J39" s="243"/>
+      <c r="K39" s="43"/>
+      <c r="L39" s="456"/>
+      <c r="M39" s="455"/>
+      <c r="N39" s="455"/>
+      <c r="O39" s="455"/>
+      <c r="P39" s="242"/>
+      <c r="Q39" s="242"/>
+      <c r="R39" s="242"/>
+      <c r="S39" s="242"/>
+      <c r="T39" s="457"/>
+      <c r="U39" s="457"/>
+      <c r="V39" s="457"/>
+      <c r="W39" s="457"/>
+      <c r="X39" s="457"/>
+      <c r="Y39" s="421"/>
+    </row>
+    <row r="40" spans="1:25" ht="14.4" customHeight="1">
+      <c r="A40" s="422"/>
+      <c r="B40" s="454"/>
+      <c r="C40" s="454"/>
+      <c r="D40" s="454"/>
+      <c r="E40" s="454"/>
+      <c r="F40" s="454"/>
+      <c r="G40" s="455"/>
+      <c r="H40" s="455"/>
+      <c r="I40" s="455"/>
+      <c r="J40" s="243"/>
+      <c r="K40" s="43"/>
+      <c r="L40" s="456"/>
+      <c r="M40" s="455"/>
+      <c r="N40" s="455"/>
+      <c r="O40" s="455"/>
+      <c r="P40" s="242"/>
+      <c r="Q40" s="242"/>
+      <c r="R40" s="242"/>
+      <c r="S40" s="242"/>
+      <c r="T40" s="457"/>
+      <c r="U40" s="457"/>
+      <c r="V40" s="457"/>
+      <c r="W40" s="457"/>
+      <c r="X40" s="457"/>
+      <c r="Y40" s="421"/>
+    </row>
+    <row r="41" spans="1:25" ht="14.4" customHeight="1">
+      <c r="A41" s="422"/>
+      <c r="B41" s="454"/>
+      <c r="C41" s="454"/>
+      <c r="D41" s="454"/>
+      <c r="E41" s="454"/>
+      <c r="F41" s="454"/>
+      <c r="G41" s="455"/>
+      <c r="H41" s="455"/>
+      <c r="I41" s="455"/>
+      <c r="J41" s="243"/>
+      <c r="K41" s="43"/>
+      <c r="L41" s="456"/>
+      <c r="M41" s="455"/>
+      <c r="N41" s="455"/>
+      <c r="O41" s="455"/>
+      <c r="P41" s="242"/>
+      <c r="Q41" s="242"/>
+      <c r="R41" s="242"/>
+      <c r="S41" s="242"/>
+      <c r="T41" s="457"/>
+      <c r="U41" s="457"/>
+      <c r="V41" s="457"/>
+      <c r="W41" s="457"/>
+      <c r="X41" s="457"/>
+      <c r="Y41" s="421"/>
+    </row>
+    <row r="42" spans="1:25">
+      <c r="B42" s="354" t="s">
+        <v>524</v>
+      </c>
+      <c r="C42" s="354"/>
+      <c r="D42" s="351" t="s">
+        <v>68</v>
+      </c>
+      <c r="E42" s="351"/>
+      <c r="F42" s="351"/>
+      <c r="G42" s="351"/>
+      <c r="H42" s="351"/>
+      <c r="I42" s="211"/>
+      <c r="J42" s="211"/>
+      <c r="K42" s="211"/>
+      <c r="L42" s="211"/>
+      <c r="M42" s="211"/>
+      <c r="N42" s="211"/>
+      <c r="O42" s="211"/>
+      <c r="P42" s="211"/>
+      <c r="Q42" s="241" t="s">
+        <v>525</v>
+      </c>
+      <c r="R42" s="355" t="s">
+        <v>67</v>
+      </c>
+      <c r="S42" s="355"/>
+      <c r="T42" s="355"/>
+      <c r="U42" s="355"/>
+      <c r="V42" s="355"/>
+      <c r="W42" s="355"/>
+      <c r="X42" s="225"/>
+    </row>
+    <row r="43" spans="1:25">
+      <c r="B43" s="227"/>
+      <c r="C43" s="211"/>
+      <c r="D43" s="211"/>
+      <c r="E43" s="211"/>
+      <c r="F43" s="211"/>
+      <c r="G43" s="211"/>
+      <c r="H43" s="211"/>
+      <c r="I43" s="229"/>
+      <c r="J43" s="211"/>
+      <c r="K43" s="211"/>
+      <c r="L43" s="211"/>
+      <c r="M43" s="211"/>
+      <c r="N43" s="211"/>
+      <c r="O43" s="211"/>
+      <c r="P43" s="211"/>
+      <c r="Q43" s="211"/>
+      <c r="R43" s="211"/>
+      <c r="S43" s="211"/>
+      <c r="T43" s="211"/>
+      <c r="U43" s="211"/>
+      <c r="V43" s="225"/>
+      <c r="W43" s="225"/>
+      <c r="X43" s="225"/>
+    </row>
+    <row r="44" spans="1:25">
+      <c r="B44" s="229" t="s">
+        <v>526</v>
+      </c>
+      <c r="C44" s="349"/>
+      <c r="D44" s="349"/>
+      <c r="E44" s="349"/>
+      <c r="F44" s="349"/>
+      <c r="G44" s="349"/>
+      <c r="H44" s="211"/>
+      <c r="I44" s="211" t="s">
+        <v>527</v>
+      </c>
+      <c r="J44" s="349"/>
+      <c r="K44" s="349"/>
+      <c r="L44" s="349"/>
+      <c r="M44" s="349"/>
+      <c r="N44" s="349"/>
+      <c r="O44" s="349"/>
+      <c r="P44" s="211"/>
+      <c r="Q44" s="211" t="s">
+        <v>528</v>
+      </c>
+      <c r="R44" s="350"/>
+      <c r="S44" s="350"/>
+      <c r="T44" s="350"/>
+      <c r="U44" s="350"/>
+      <c r="V44" s="350"/>
+      <c r="W44" s="350"/>
+      <c r="X44" s="225"/>
+    </row>
+    <row r="45" spans="1:25">
+      <c r="B45" s="229" t="s">
+        <v>529</v>
+      </c>
+      <c r="C45" s="349"/>
+      <c r="D45" s="349"/>
+      <c r="E45" s="349"/>
+      <c r="F45" s="349"/>
+      <c r="G45" s="349"/>
+      <c r="H45" s="211"/>
+      <c r="I45" s="211" t="s">
+        <v>530</v>
+      </c>
+      <c r="J45" s="349"/>
+      <c r="K45" s="349"/>
+      <c r="L45" s="349"/>
+      <c r="M45" s="349"/>
+      <c r="N45" s="349"/>
+      <c r="O45" s="349"/>
+      <c r="P45" s="211"/>
+      <c r="Q45" s="211" t="s">
+        <v>531</v>
+      </c>
+      <c r="R45" s="350"/>
+      <c r="S45" s="350"/>
+      <c r="T45" s="350"/>
+      <c r="U45" s="350"/>
+      <c r="V45" s="350"/>
+      <c r="W45" s="350"/>
+      <c r="X45" s="225"/>
+    </row>
+    <row r="46" spans="1:25">
+      <c r="B46" s="229" t="s">
+        <v>532</v>
+      </c>
+      <c r="C46" s="349"/>
+      <c r="D46" s="349"/>
+      <c r="E46" s="349"/>
+      <c r="F46" s="349"/>
+      <c r="G46" s="349"/>
+      <c r="H46" s="211"/>
+      <c r="I46" s="211" t="s">
+        <v>533</v>
+      </c>
+      <c r="J46" s="349"/>
+      <c r="K46" s="349"/>
+      <c r="L46" s="349"/>
+      <c r="M46" s="349"/>
+      <c r="N46" s="349"/>
+      <c r="O46" s="349"/>
+      <c r="P46" s="211"/>
+      <c r="Q46" s="211" t="s">
+        <v>534</v>
+      </c>
+      <c r="R46" s="350"/>
+      <c r="S46" s="350"/>
+      <c r="T46" s="350"/>
+      <c r="U46" s="350"/>
+      <c r="V46" s="350"/>
+      <c r="W46" s="350"/>
+      <c r="X46" s="225"/>
+    </row>
+    <row r="47" spans="1:25">
+      <c r="B47" s="227"/>
+      <c r="C47" s="211"/>
+      <c r="D47" s="211"/>
+      <c r="E47" s="211"/>
+      <c r="F47" s="211"/>
+      <c r="G47" s="211"/>
+      <c r="H47" s="211"/>
+      <c r="I47" s="211"/>
+      <c r="J47" s="211"/>
+      <c r="K47" s="211"/>
+      <c r="L47" s="211"/>
+      <c r="M47" s="211"/>
+      <c r="N47" s="211"/>
+      <c r="O47" s="211"/>
+      <c r="P47" s="211"/>
+      <c r="Q47" s="211"/>
+      <c r="R47" s="211"/>
+      <c r="S47" s="211"/>
+      <c r="T47" s="211"/>
+      <c r="U47" s="211"/>
+      <c r="V47" s="225"/>
+      <c r="W47" s="225"/>
+      <c r="X47" s="225"/>
+    </row>
+    <row r="48" spans="1:25">
+      <c r="B48" s="211"/>
+      <c r="C48" s="211"/>
+      <c r="D48" s="211"/>
+      <c r="E48" s="211"/>
+      <c r="F48" s="211"/>
+      <c r="G48" s="211"/>
+      <c r="H48" s="211"/>
+      <c r="I48" s="211"/>
+      <c r="J48" s="211"/>
+      <c r="K48" s="211"/>
+      <c r="L48" s="211"/>
+      <c r="M48" s="211"/>
+      <c r="N48" s="211"/>
+      <c r="O48" s="211"/>
+      <c r="P48" s="211"/>
+      <c r="Q48" s="211"/>
+      <c r="R48" s="211"/>
+      <c r="S48" s="211"/>
+      <c r="T48" s="211"/>
+      <c r="U48" s="211"/>
+      <c r="V48" s="225"/>
+      <c r="W48" s="225"/>
+      <c r="X48" s="225"/>
     </row>
   </sheetData>
+  <mergeCells count="62">
+    <mergeCell ref="M36:O36"/>
+    <mergeCell ref="G37:O37"/>
+    <mergeCell ref="G38:I38"/>
+    <mergeCell ref="M38:O38"/>
+    <mergeCell ref="T38:X38"/>
+    <mergeCell ref="J10:M10"/>
+    <mergeCell ref="J8:M8"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="C46:G46"/>
+    <mergeCell ref="J46:O46"/>
+    <mergeCell ref="R46:W46"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="R42:W42"/>
+    <mergeCell ref="C44:G44"/>
+    <mergeCell ref="J44:O44"/>
+    <mergeCell ref="R44:W44"/>
+    <mergeCell ref="C45:G45"/>
+    <mergeCell ref="J45:O45"/>
+    <mergeCell ref="R45:W45"/>
+    <mergeCell ref="C30:F30"/>
+    <mergeCell ref="D42:H42"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="T15:U15"/>
+    <mergeCell ref="B25:G25"/>
+    <mergeCell ref="H25:O25"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="B27:T27"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="V15:W15"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="N14:P14"/>
+    <mergeCell ref="N15:P15"/>
+    <mergeCell ref="N16:P16"/>
+    <mergeCell ref="J9:M9"/>
+  </mergeCells>
+  <dataValidations count="3">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Enter a valid Numeric Value" prompt="Numeric Value" sqref="H26:I26">
+      <formula1>0</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W36:W37 L38:L41">
+      <formula1>"NO"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J38:J41 U36:U37">
+      <formula1>"YES"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
@@ -9780,37 +11491,37 @@
       <c r="A2" s="204" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="328" t="s">
+      <c r="B2" s="388" t="s">
         <v>65</v>
       </c>
-      <c r="C2" s="328"/>
-      <c r="D2" s="328"/>
-      <c r="E2" s="305" t="s">
+      <c r="C2" s="388"/>
+      <c r="D2" s="388"/>
+      <c r="E2" s="403" t="s">
         <v>56</v>
       </c>
-      <c r="F2" s="306"/>
-      <c r="G2" s="306"/>
-      <c r="H2" s="306"/>
-      <c r="I2" s="306"/>
-      <c r="J2" s="306"/>
-      <c r="K2" s="306"/>
-      <c r="L2" s="306"/>
-      <c r="M2" s="306"/>
-      <c r="N2" s="306"/>
-      <c r="O2" s="306"/>
-      <c r="P2" s="306"/>
-      <c r="Q2" s="306"/>
-      <c r="R2" s="306"/>
-      <c r="S2" s="306"/>
-      <c r="T2" s="306"/>
-      <c r="U2" s="306"/>
-      <c r="V2" s="306"/>
-      <c r="W2" s="306"/>
-      <c r="X2" s="306"/>
-      <c r="Y2" s="306"/>
-      <c r="Z2" s="306"/>
-      <c r="AA2" s="306"/>
-      <c r="AB2" s="307"/>
+      <c r="F2" s="404"/>
+      <c r="G2" s="404"/>
+      <c r="H2" s="404"/>
+      <c r="I2" s="404"/>
+      <c r="J2" s="404"/>
+      <c r="K2" s="404"/>
+      <c r="L2" s="404"/>
+      <c r="M2" s="404"/>
+      <c r="N2" s="404"/>
+      <c r="O2" s="404"/>
+      <c r="P2" s="404"/>
+      <c r="Q2" s="404"/>
+      <c r="R2" s="404"/>
+      <c r="S2" s="404"/>
+      <c r="T2" s="404"/>
+      <c r="U2" s="404"/>
+      <c r="V2" s="404"/>
+      <c r="W2" s="404"/>
+      <c r="X2" s="404"/>
+      <c r="Y2" s="404"/>
+      <c r="Z2" s="404"/>
+      <c r="AA2" s="404"/>
+      <c r="AB2" s="405"/>
       <c r="AC2" s="160"/>
       <c r="AD2" s="160"/>
       <c r="AE2" s="160"/>
@@ -9820,54 +11531,54 @@
       <c r="AI2" s="161"/>
       <c r="AJ2" s="161"/>
       <c r="AP2" s="159"/>
-      <c r="BF2" s="329"/>
-      <c r="BG2" s="329"/>
-      <c r="BH2" s="329"/>
-      <c r="BI2" s="329"/>
-      <c r="BJ2" s="329"/>
-      <c r="BK2" s="329"/>
-      <c r="BL2" s="329"/>
-      <c r="BM2" s="329"/>
-      <c r="BN2" s="329"/>
-      <c r="BO2" s="329"/>
-      <c r="BP2" s="329"/>
-      <c r="BQ2" s="329"/>
-      <c r="BR2" s="329"/>
-      <c r="BS2" s="329"/>
+      <c r="BF2" s="389"/>
+      <c r="BG2" s="389"/>
+      <c r="BH2" s="389"/>
+      <c r="BI2" s="389"/>
+      <c r="BJ2" s="389"/>
+      <c r="BK2" s="389"/>
+      <c r="BL2" s="389"/>
+      <c r="BM2" s="389"/>
+      <c r="BN2" s="389"/>
+      <c r="BO2" s="389"/>
+      <c r="BP2" s="389"/>
+      <c r="BQ2" s="389"/>
+      <c r="BR2" s="389"/>
+      <c r="BS2" s="389"/>
     </row>
     <row r="3" spans="1:75" ht="46.8" customHeight="1" thickBot="1">
       <c r="A3" s="206" t="s">
         <v>49</v>
       </c>
-      <c r="B3" s="328" t="s">
+      <c r="B3" s="388" t="s">
         <v>66</v>
       </c>
-      <c r="C3" s="328"/>
-      <c r="D3" s="328"/>
-      <c r="E3" s="308"/>
-      <c r="F3" s="309"/>
-      <c r="G3" s="309"/>
-      <c r="H3" s="309"/>
-      <c r="I3" s="309"/>
-      <c r="J3" s="309"/>
-      <c r="K3" s="309"/>
-      <c r="L3" s="309"/>
-      <c r="M3" s="309"/>
-      <c r="N3" s="309"/>
-      <c r="O3" s="309"/>
-      <c r="P3" s="309"/>
-      <c r="Q3" s="309"/>
-      <c r="R3" s="309"/>
-      <c r="S3" s="309"/>
-      <c r="T3" s="309"/>
-      <c r="U3" s="309"/>
-      <c r="V3" s="309"/>
-      <c r="W3" s="309"/>
-      <c r="X3" s="309"/>
-      <c r="Y3" s="309"/>
-      <c r="Z3" s="309"/>
-      <c r="AA3" s="309"/>
-      <c r="AB3" s="310"/>
+      <c r="C3" s="388"/>
+      <c r="D3" s="388"/>
+      <c r="E3" s="406"/>
+      <c r="F3" s="407"/>
+      <c r="G3" s="407"/>
+      <c r="H3" s="407"/>
+      <c r="I3" s="407"/>
+      <c r="J3" s="407"/>
+      <c r="K3" s="407"/>
+      <c r="L3" s="407"/>
+      <c r="M3" s="407"/>
+      <c r="N3" s="407"/>
+      <c r="O3" s="407"/>
+      <c r="P3" s="407"/>
+      <c r="Q3" s="407"/>
+      <c r="R3" s="407"/>
+      <c r="S3" s="407"/>
+      <c r="T3" s="407"/>
+      <c r="U3" s="407"/>
+      <c r="V3" s="407"/>
+      <c r="W3" s="407"/>
+      <c r="X3" s="407"/>
+      <c r="Y3" s="407"/>
+      <c r="Z3" s="407"/>
+      <c r="AA3" s="407"/>
+      <c r="AB3" s="408"/>
       <c r="AC3" s="160"/>
       <c r="AD3" s="160"/>
       <c r="AE3" s="160"/>
@@ -9976,22 +11687,22 @@
       <c r="BO4" s="157"/>
     </row>
     <row r="5" spans="1:75" ht="18" customHeight="1">
-      <c r="A5" s="336" t="s">
+      <c r="A5" s="384" t="s">
         <v>327</v>
       </c>
-      <c r="B5" s="311" t="s">
+      <c r="B5" s="409" t="s">
         <v>454</v>
       </c>
-      <c r="C5" s="331" t="s">
+      <c r="C5" s="391" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="313" t="s">
+      <c r="D5" s="411" t="s">
         <v>455</v>
       </c>
-      <c r="E5" s="301" t="s">
+      <c r="E5" s="399" t="s">
         <v>448</v>
       </c>
-      <c r="F5" s="302"/>
+      <c r="F5" s="400"/>
       <c r="G5" s="205"/>
       <c r="H5" s="205"/>
       <c r="I5" s="205"/>
@@ -10018,10 +11729,10 @@
       <c r="AD5" s="167"/>
       <c r="AE5" s="168"/>
       <c r="AF5" s="168"/>
-      <c r="AG5" s="330"/>
-      <c r="AH5" s="330"/>
-      <c r="AI5" s="330"/>
-      <c r="AJ5" s="330"/>
+      <c r="AG5" s="390"/>
+      <c r="AH5" s="390"/>
+      <c r="AI5" s="390"/>
+      <c r="AJ5" s="390"/>
       <c r="AK5" s="169"/>
       <c r="AL5" s="170"/>
       <c r="AM5" s="171"/>
@@ -10063,12 +11774,12 @@
       <c r="BW5" s="171"/>
     </row>
     <row r="6" spans="1:75" ht="18" customHeight="1" thickBot="1">
-      <c r="A6" s="337"/>
-      <c r="B6" s="312"/>
-      <c r="C6" s="332"/>
-      <c r="D6" s="314"/>
-      <c r="E6" s="303"/>
-      <c r="F6" s="304"/>
+      <c r="A6" s="385"/>
+      <c r="B6" s="410"/>
+      <c r="C6" s="392"/>
+      <c r="D6" s="412"/>
+      <c r="E6" s="401"/>
+      <c r="F6" s="402"/>
       <c r="G6"/>
       <c r="H6"/>
       <c r="I6"/>
@@ -10093,12 +11804,12 @@
       <c r="AB6"/>
       <c r="AC6"/>
       <c r="AD6"/>
-      <c r="AE6" s="335"/>
-      <c r="AF6" s="335"/>
+      <c r="AE6" s="381"/>
+      <c r="AF6" s="381"/>
       <c r="AG6" s="172"/>
       <c r="AH6" s="173"/>
-      <c r="AI6" s="335"/>
-      <c r="AJ6" s="335"/>
+      <c r="AI6" s="381"/>
+      <c r="AJ6" s="381"/>
       <c r="AK6" s="173"/>
       <c r="AL6" s="174"/>
       <c r="AM6" s="174"/>
@@ -10140,22 +11851,22 @@
       <c r="BW6" s="154"/>
     </row>
     <row r="7" spans="1:75">
-      <c r="A7" s="320" t="s">
+      <c r="A7" s="382" t="s">
         <v>366</v>
       </c>
-      <c r="B7" s="315" t="s">
+      <c r="B7" s="377" t="s">
         <v>367</v>
       </c>
-      <c r="C7" s="320" t="s">
+      <c r="C7" s="382" t="s">
         <v>368</v>
       </c>
-      <c r="D7" s="321" t="s">
+      <c r="D7" s="383" t="s">
         <v>369</v>
       </c>
-      <c r="E7" s="316" t="s">
+      <c r="E7" s="378" t="s">
         <v>334</v>
       </c>
-      <c r="F7" s="317"/>
+      <c r="F7" s="379"/>
       <c r="G7"/>
       <c r="H7"/>
       <c r="I7"/>
@@ -10205,14 +11916,14 @@
       <c r="BW7" s="179"/>
     </row>
     <row r="8" spans="1:75">
-      <c r="A8" s="320"/>
-      <c r="B8" s="315"/>
-      <c r="C8" s="320"/>
-      <c r="D8" s="321"/>
-      <c r="E8" s="316" t="s">
+      <c r="A8" s="382"/>
+      <c r="B8" s="377"/>
+      <c r="C8" s="382"/>
+      <c r="D8" s="383"/>
+      <c r="E8" s="378" t="s">
         <v>456</v>
       </c>
-      <c r="F8" s="317"/>
+      <c r="F8" s="379"/>
       <c r="G8"/>
       <c r="H8"/>
       <c r="I8"/>
@@ -10259,22 +11970,22 @@
       <c r="BW8" s="179"/>
     </row>
     <row r="9" spans="1:75">
-      <c r="A9" s="320" t="s">
+      <c r="A9" s="382" t="s">
         <v>370</v>
       </c>
-      <c r="B9" s="315" t="s">
+      <c r="B9" s="377" t="s">
         <v>371</v>
       </c>
-      <c r="C9" s="320" t="s">
+      <c r="C9" s="382" t="s">
         <v>372</v>
       </c>
-      <c r="D9" s="321" t="s">
+      <c r="D9" s="383" t="s">
         <v>373</v>
       </c>
-      <c r="E9" s="316" t="s">
+      <c r="E9" s="378" t="s">
         <v>350</v>
       </c>
-      <c r="F9" s="317"/>
+      <c r="F9" s="379"/>
       <c r="G9"/>
       <c r="H9"/>
       <c r="I9"/>
@@ -10321,14 +12032,14 @@
       <c r="BW9" s="179"/>
     </row>
     <row r="10" spans="1:75">
-      <c r="A10" s="320"/>
-      <c r="B10" s="315"/>
-      <c r="C10" s="320"/>
-      <c r="D10" s="321"/>
-      <c r="E10" s="316" t="s">
+      <c r="A10" s="382"/>
+      <c r="B10" s="377"/>
+      <c r="C10" s="382"/>
+      <c r="D10" s="383"/>
+      <c r="E10" s="378" t="s">
         <v>457</v>
       </c>
-      <c r="F10" s="317"/>
+      <c r="F10" s="379"/>
       <c r="G10"/>
       <c r="H10"/>
       <c r="I10"/>
@@ -10379,22 +12090,22 @@
       <c r="BW10" s="179"/>
     </row>
     <row r="11" spans="1:75">
-      <c r="A11" s="320" t="s">
+      <c r="A11" s="382" t="s">
         <v>374</v>
       </c>
-      <c r="B11" s="315" t="s">
+      <c r="B11" s="377" t="s">
         <v>375</v>
       </c>
-      <c r="C11" s="320" t="s">
+      <c r="C11" s="382" t="s">
         <v>376</v>
       </c>
-      <c r="D11" s="321" t="s">
+      <c r="D11" s="383" t="s">
         <v>377</v>
       </c>
-      <c r="E11" s="316" t="s">
+      <c r="E11" s="378" t="s">
         <v>349</v>
       </c>
-      <c r="F11" s="317"/>
+      <c r="F11" s="379"/>
       <c r="G11"/>
       <c r="H11"/>
       <c r="I11"/>
@@ -10446,14 +12157,14 @@
       <c r="BW11" s="179"/>
     </row>
     <row r="12" spans="1:75">
-      <c r="A12" s="320"/>
-      <c r="B12" s="315"/>
-      <c r="C12" s="320"/>
-      <c r="D12" s="321"/>
-      <c r="E12" s="316" t="s">
+      <c r="A12" s="382"/>
+      <c r="B12" s="377"/>
+      <c r="C12" s="382"/>
+      <c r="D12" s="383"/>
+      <c r="E12" s="378" t="s">
         <v>458</v>
       </c>
-      <c r="F12" s="317"/>
+      <c r="F12" s="379"/>
       <c r="G12"/>
       <c r="H12"/>
       <c r="I12"/>
@@ -10505,22 +12216,22 @@
       <c r="BW12" s="179"/>
     </row>
     <row r="13" spans="1:75">
-      <c r="A13" s="320" t="s">
+      <c r="A13" s="382" t="s">
         <v>378</v>
       </c>
-      <c r="B13" s="315" t="s">
+      <c r="B13" s="377" t="s">
         <v>379</v>
       </c>
-      <c r="C13" s="320" t="s">
+      <c r="C13" s="382" t="s">
         <v>380</v>
       </c>
-      <c r="D13" s="321" t="s">
+      <c r="D13" s="383" t="s">
         <v>381</v>
       </c>
-      <c r="E13" s="316" t="s">
+      <c r="E13" s="378" t="s">
         <v>348</v>
       </c>
-      <c r="F13" s="317"/>
+      <c r="F13" s="379"/>
       <c r="G13"/>
       <c r="H13"/>
       <c r="I13"/>
@@ -10572,14 +12283,14 @@
       <c r="BW13" s="179"/>
     </row>
     <row r="14" spans="1:75">
-      <c r="A14" s="320"/>
-      <c r="B14" s="315"/>
-      <c r="C14" s="320"/>
-      <c r="D14" s="321"/>
-      <c r="E14" s="316" t="s">
+      <c r="A14" s="382"/>
+      <c r="B14" s="377"/>
+      <c r="C14" s="382"/>
+      <c r="D14" s="383"/>
+      <c r="E14" s="378" t="s">
         <v>459</v>
       </c>
-      <c r="F14" s="317"/>
+      <c r="F14" s="379"/>
       <c r="G14"/>
       <c r="H14"/>
       <c r="I14"/>
@@ -10631,22 +12342,22 @@
       <c r="BW14" s="179"/>
     </row>
     <row r="15" spans="1:75">
-      <c r="A15" s="320" t="s">
+      <c r="A15" s="382" t="s">
         <v>382</v>
       </c>
-      <c r="B15" s="315" t="s">
+      <c r="B15" s="377" t="s">
         <v>383</v>
       </c>
-      <c r="C15" s="320" t="s">
+      <c r="C15" s="382" t="s">
         <v>384</v>
       </c>
-      <c r="D15" s="321" t="s">
+      <c r="D15" s="383" t="s">
         <v>385</v>
       </c>
-      <c r="E15" s="316" t="s">
+      <c r="E15" s="378" t="s">
         <v>347</v>
       </c>
-      <c r="F15" s="317"/>
+      <c r="F15" s="379"/>
       <c r="G15"/>
       <c r="H15"/>
       <c r="I15"/>
@@ -10698,14 +12409,14 @@
       <c r="BW15" s="179"/>
     </row>
     <row r="16" spans="1:75">
-      <c r="A16" s="320"/>
-      <c r="B16" s="315"/>
-      <c r="C16" s="320"/>
-      <c r="D16" s="321"/>
-      <c r="E16" s="316" t="s">
+      <c r="A16" s="382"/>
+      <c r="B16" s="377"/>
+      <c r="C16" s="382"/>
+      <c r="D16" s="383"/>
+      <c r="E16" s="378" t="s">
         <v>460</v>
       </c>
-      <c r="F16" s="317"/>
+      <c r="F16" s="379"/>
       <c r="G16"/>
       <c r="H16"/>
       <c r="I16"/>
@@ -10752,22 +12463,22 @@
       <c r="BW16" s="179"/>
     </row>
     <row r="17" spans="1:75">
-      <c r="A17" s="320" t="s">
+      <c r="A17" s="382" t="s">
         <v>386</v>
       </c>
-      <c r="B17" s="315" t="s">
+      <c r="B17" s="377" t="s">
         <v>387</v>
       </c>
-      <c r="C17" s="320" t="s">
+      <c r="C17" s="382" t="s">
         <v>388</v>
       </c>
-      <c r="D17" s="321" t="s">
+      <c r="D17" s="383" t="s">
         <v>389</v>
       </c>
-      <c r="E17" s="316" t="s">
+      <c r="E17" s="378" t="s">
         <v>346</v>
       </c>
-      <c r="F17" s="317"/>
+      <c r="F17" s="379"/>
       <c r="G17"/>
       <c r="H17"/>
       <c r="I17"/>
@@ -10814,14 +12525,14 @@
       <c r="BW17" s="179"/>
     </row>
     <row r="18" spans="1:75">
-      <c r="A18" s="320"/>
-      <c r="B18" s="315"/>
-      <c r="C18" s="320"/>
-      <c r="D18" s="321"/>
-      <c r="E18" s="316" t="s">
+      <c r="A18" s="382"/>
+      <c r="B18" s="377"/>
+      <c r="C18" s="382"/>
+      <c r="D18" s="383"/>
+      <c r="E18" s="378" t="s">
         <v>461</v>
       </c>
-      <c r="F18" s="317"/>
+      <c r="F18" s="379"/>
       <c r="G18"/>
       <c r="H18"/>
       <c r="I18"/>
@@ -10876,22 +12587,22 @@
       <c r="BW18" s="179"/>
     </row>
     <row r="19" spans="1:75">
-      <c r="A19" s="320" t="s">
+      <c r="A19" s="382" t="s">
         <v>390</v>
       </c>
-      <c r="B19" s="315" t="s">
+      <c r="B19" s="377" t="s">
         <v>391</v>
       </c>
-      <c r="C19" s="320" t="s">
+      <c r="C19" s="382" t="s">
         <v>392</v>
       </c>
-      <c r="D19" s="321" t="s">
+      <c r="D19" s="383" t="s">
         <v>393</v>
       </c>
-      <c r="E19" s="316" t="s">
+      <c r="E19" s="378" t="s">
         <v>345</v>
       </c>
-      <c r="F19" s="317"/>
+      <c r="F19" s="379"/>
       <c r="G19"/>
       <c r="H19"/>
       <c r="I19"/>
@@ -10938,14 +12649,14 @@
       <c r="BW19" s="179"/>
     </row>
     <row r="20" spans="1:75">
-      <c r="A20" s="320"/>
-      <c r="B20" s="315"/>
-      <c r="C20" s="320"/>
-      <c r="D20" s="321"/>
-      <c r="E20" s="316" t="s">
+      <c r="A20" s="382"/>
+      <c r="B20" s="377"/>
+      <c r="C20" s="382"/>
+      <c r="D20" s="383"/>
+      <c r="E20" s="378" t="s">
         <v>462</v>
       </c>
-      <c r="F20" s="317"/>
+      <c r="F20" s="379"/>
       <c r="G20"/>
       <c r="H20"/>
       <c r="I20"/>
@@ -10992,22 +12703,22 @@
       <c r="BW20" s="179"/>
     </row>
     <row r="21" spans="1:75">
-      <c r="A21" s="320" t="s">
+      <c r="A21" s="382" t="s">
         <v>394</v>
       </c>
-      <c r="B21" s="315" t="s">
+      <c r="B21" s="377" t="s">
         <v>395</v>
       </c>
-      <c r="C21" s="320" t="s">
+      <c r="C21" s="382" t="s">
         <v>396</v>
       </c>
-      <c r="D21" s="321" t="s">
+      <c r="D21" s="383" t="s">
         <v>397</v>
       </c>
-      <c r="E21" s="316" t="s">
+      <c r="E21" s="378" t="s">
         <v>344</v>
       </c>
-      <c r="F21" s="317"/>
+      <c r="F21" s="379"/>
       <c r="G21"/>
       <c r="H21"/>
       <c r="I21"/>
@@ -11054,14 +12765,14 @@
       <c r="BW21" s="179"/>
     </row>
     <row r="22" spans="1:75">
-      <c r="A22" s="320"/>
-      <c r="B22" s="315"/>
-      <c r="C22" s="320"/>
-      <c r="D22" s="321"/>
-      <c r="E22" s="316" t="s">
+      <c r="A22" s="382"/>
+      <c r="B22" s="377"/>
+      <c r="C22" s="382"/>
+      <c r="D22" s="383"/>
+      <c r="E22" s="378" t="s">
         <v>463</v>
       </c>
-      <c r="F22" s="317"/>
+      <c r="F22" s="379"/>
       <c r="G22"/>
       <c r="H22"/>
       <c r="I22"/>
@@ -11108,22 +12819,22 @@
       <c r="BW22" s="179"/>
     </row>
     <row r="23" spans="1:75">
-      <c r="A23" s="320" t="s">
+      <c r="A23" s="382" t="s">
         <v>398</v>
       </c>
-      <c r="B23" s="315" t="s">
+      <c r="B23" s="377" t="s">
         <v>399</v>
       </c>
-      <c r="C23" s="320" t="s">
+      <c r="C23" s="382" t="s">
         <v>400</v>
       </c>
-      <c r="D23" s="321" t="s">
+      <c r="D23" s="383" t="s">
         <v>401</v>
       </c>
-      <c r="E23" s="316" t="s">
+      <c r="E23" s="378" t="s">
         <v>343</v>
       </c>
-      <c r="F23" s="317"/>
+      <c r="F23" s="379"/>
       <c r="G23"/>
       <c r="H23"/>
       <c r="I23"/>
@@ -11170,14 +12881,14 @@
       <c r="BW23" s="179"/>
     </row>
     <row r="24" spans="1:75">
-      <c r="A24" s="320"/>
-      <c r="B24" s="315"/>
-      <c r="C24" s="320"/>
-      <c r="D24" s="321"/>
-      <c r="E24" s="316" t="s">
+      <c r="A24" s="382"/>
+      <c r="B24" s="377"/>
+      <c r="C24" s="382"/>
+      <c r="D24" s="383"/>
+      <c r="E24" s="378" t="s">
         <v>464</v>
       </c>
-      <c r="F24" s="317"/>
+      <c r="F24" s="379"/>
       <c r="G24"/>
       <c r="H24"/>
       <c r="I24"/>
@@ -11224,22 +12935,22 @@
       <c r="BW24" s="179"/>
     </row>
     <row r="25" spans="1:75">
-      <c r="A25" s="320" t="s">
+      <c r="A25" s="382" t="s">
         <v>402</v>
       </c>
-      <c r="B25" s="315" t="s">
+      <c r="B25" s="377" t="s">
         <v>403</v>
       </c>
-      <c r="C25" s="320" t="s">
+      <c r="C25" s="382" t="s">
         <v>404</v>
       </c>
-      <c r="D25" s="321" t="s">
+      <c r="D25" s="383" t="s">
         <v>405</v>
       </c>
-      <c r="E25" s="316" t="s">
+      <c r="E25" s="378" t="s">
         <v>342</v>
       </c>
-      <c r="F25" s="317"/>
+      <c r="F25" s="379"/>
       <c r="G25"/>
       <c r="H25"/>
       <c r="I25"/>
@@ -11286,14 +12997,14 @@
       <c r="BW25" s="179"/>
     </row>
     <row r="26" spans="1:75">
-      <c r="A26" s="320"/>
-      <c r="B26" s="315"/>
-      <c r="C26" s="320"/>
-      <c r="D26" s="321"/>
-      <c r="E26" s="316" t="s">
+      <c r="A26" s="382"/>
+      <c r="B26" s="377"/>
+      <c r="C26" s="382"/>
+      <c r="D26" s="383"/>
+      <c r="E26" s="378" t="s">
         <v>465</v>
       </c>
-      <c r="F26" s="317"/>
+      <c r="F26" s="379"/>
       <c r="G26"/>
       <c r="H26"/>
       <c r="I26"/>
@@ -11340,22 +13051,22 @@
       <c r="BW26" s="179"/>
     </row>
     <row r="27" spans="1:75">
-      <c r="A27" s="320" t="s">
+      <c r="A27" s="382" t="s">
         <v>406</v>
       </c>
-      <c r="B27" s="315" t="s">
+      <c r="B27" s="377" t="s">
         <v>407</v>
       </c>
-      <c r="C27" s="320" t="s">
+      <c r="C27" s="382" t="s">
         <v>408</v>
       </c>
-      <c r="D27" s="321" t="s">
+      <c r="D27" s="383" t="s">
         <v>409</v>
       </c>
-      <c r="E27" s="316" t="s">
+      <c r="E27" s="378" t="s">
         <v>341</v>
       </c>
-      <c r="F27" s="317"/>
+      <c r="F27" s="379"/>
       <c r="G27"/>
       <c r="H27"/>
       <c r="I27"/>
@@ -11402,14 +13113,14 @@
       <c r="BW27" s="179"/>
     </row>
     <row r="28" spans="1:75">
-      <c r="A28" s="320"/>
-      <c r="B28" s="315"/>
-      <c r="C28" s="320"/>
-      <c r="D28" s="321"/>
-      <c r="E28" s="316" t="s">
+      <c r="A28" s="382"/>
+      <c r="B28" s="377"/>
+      <c r="C28" s="382"/>
+      <c r="D28" s="383"/>
+      <c r="E28" s="378" t="s">
         <v>466</v>
       </c>
-      <c r="F28" s="317"/>
+      <c r="F28" s="379"/>
       <c r="G28"/>
       <c r="H28"/>
       <c r="I28"/>
@@ -11456,22 +13167,22 @@
       <c r="BW28" s="179"/>
     </row>
     <row r="29" spans="1:75">
-      <c r="A29" s="320" t="s">
+      <c r="A29" s="382" t="s">
         <v>410</v>
       </c>
-      <c r="B29" s="315" t="s">
+      <c r="B29" s="377" t="s">
         <v>411</v>
       </c>
-      <c r="C29" s="320" t="s">
+      <c r="C29" s="382" t="s">
         <v>412</v>
       </c>
-      <c r="D29" s="321" t="s">
+      <c r="D29" s="383" t="s">
         <v>413</v>
       </c>
-      <c r="E29" s="316" t="s">
+      <c r="E29" s="378" t="s">
         <v>340</v>
       </c>
-      <c r="F29" s="317"/>
+      <c r="F29" s="379"/>
       <c r="G29"/>
       <c r="H29"/>
       <c r="I29"/>
@@ -11518,14 +13229,14 @@
       <c r="BW29" s="179"/>
     </row>
     <row r="30" spans="1:75">
-      <c r="A30" s="320"/>
-      <c r="B30" s="315"/>
-      <c r="C30" s="320"/>
-      <c r="D30" s="321"/>
-      <c r="E30" s="316" t="s">
+      <c r="A30" s="382"/>
+      <c r="B30" s="377"/>
+      <c r="C30" s="382"/>
+      <c r="D30" s="383"/>
+      <c r="E30" s="378" t="s">
         <v>467</v>
       </c>
-      <c r="F30" s="317"/>
+      <c r="F30" s="379"/>
       <c r="G30"/>
       <c r="H30"/>
       <c r="I30"/>
@@ -11572,22 +13283,22 @@
       <c r="BW30" s="179"/>
     </row>
     <row r="31" spans="1:75">
-      <c r="A31" s="320" t="s">
+      <c r="A31" s="382" t="s">
         <v>414</v>
       </c>
-      <c r="B31" s="315" t="s">
+      <c r="B31" s="377" t="s">
         <v>415</v>
       </c>
-      <c r="C31" s="320" t="s">
+      <c r="C31" s="382" t="s">
         <v>416</v>
       </c>
-      <c r="D31" s="321" t="s">
+      <c r="D31" s="383" t="s">
         <v>417</v>
       </c>
-      <c r="E31" s="316" t="s">
+      <c r="E31" s="378" t="s">
         <v>339</v>
       </c>
-      <c r="F31" s="317"/>
+      <c r="F31" s="379"/>
       <c r="G31"/>
       <c r="H31"/>
       <c r="I31"/>
@@ -11634,14 +13345,14 @@
       <c r="BW31" s="179"/>
     </row>
     <row r="32" spans="1:75">
-      <c r="A32" s="320"/>
-      <c r="B32" s="315"/>
-      <c r="C32" s="320"/>
-      <c r="D32" s="321"/>
-      <c r="E32" s="316" t="s">
+      <c r="A32" s="382"/>
+      <c r="B32" s="377"/>
+      <c r="C32" s="382"/>
+      <c r="D32" s="383"/>
+      <c r="E32" s="378" t="s">
         <v>468</v>
       </c>
-      <c r="F32" s="317"/>
+      <c r="F32" s="379"/>
       <c r="G32"/>
       <c r="H32"/>
       <c r="I32"/>
@@ -11688,22 +13399,22 @@
       <c r="BW32" s="179"/>
     </row>
     <row r="33" spans="1:75">
-      <c r="A33" s="320" t="s">
+      <c r="A33" s="382" t="s">
         <v>418</v>
       </c>
-      <c r="B33" s="315" t="s">
+      <c r="B33" s="377" t="s">
         <v>419</v>
       </c>
-      <c r="C33" s="320" t="s">
+      <c r="C33" s="382" t="s">
         <v>420</v>
       </c>
-      <c r="D33" s="321" t="s">
+      <c r="D33" s="383" t="s">
         <v>421</v>
       </c>
-      <c r="E33" s="316" t="s">
+      <c r="E33" s="378" t="s">
         <v>338</v>
       </c>
-      <c r="F33" s="317"/>
+      <c r="F33" s="379"/>
       <c r="G33"/>
       <c r="H33"/>
       <c r="I33"/>
@@ -11750,14 +13461,14 @@
       <c r="BW33" s="179"/>
     </row>
     <row r="34" spans="1:75">
-      <c r="A34" s="320"/>
-      <c r="B34" s="315"/>
-      <c r="C34" s="320"/>
-      <c r="D34" s="321"/>
-      <c r="E34" s="316" t="s">
+      <c r="A34" s="382"/>
+      <c r="B34" s="377"/>
+      <c r="C34" s="382"/>
+      <c r="D34" s="383"/>
+      <c r="E34" s="378" t="s">
         <v>469</v>
       </c>
-      <c r="F34" s="317"/>
+      <c r="F34" s="379"/>
       <c r="G34"/>
       <c r="H34"/>
       <c r="I34"/>
@@ -11804,22 +13515,22 @@
       <c r="BW34" s="179"/>
     </row>
     <row r="35" spans="1:75">
-      <c r="A35" s="320" t="s">
+      <c r="A35" s="382" t="s">
         <v>422</v>
       </c>
-      <c r="B35" s="315" t="s">
+      <c r="B35" s="377" t="s">
         <v>423</v>
       </c>
-      <c r="C35" s="320" t="s">
+      <c r="C35" s="382" t="s">
         <v>424</v>
       </c>
-      <c r="D35" s="321" t="s">
+      <c r="D35" s="383" t="s">
         <v>425</v>
       </c>
-      <c r="E35" s="316" t="s">
+      <c r="E35" s="378" t="s">
         <v>337</v>
       </c>
-      <c r="F35" s="317"/>
+      <c r="F35" s="379"/>
       <c r="G35"/>
       <c r="H35"/>
       <c r="I35"/>
@@ -11866,14 +13577,14 @@
       <c r="BW35" s="179"/>
     </row>
     <row r="36" spans="1:75">
-      <c r="A36" s="320"/>
-      <c r="B36" s="315"/>
-      <c r="C36" s="320"/>
-      <c r="D36" s="321"/>
-      <c r="E36" s="316" t="s">
+      <c r="A36" s="382"/>
+      <c r="B36" s="377"/>
+      <c r="C36" s="382"/>
+      <c r="D36" s="383"/>
+      <c r="E36" s="378" t="s">
         <v>470</v>
       </c>
-      <c r="F36" s="317"/>
+      <c r="F36" s="379"/>
       <c r="G36"/>
       <c r="H36"/>
       <c r="I36"/>
@@ -11920,22 +13631,22 @@
       <c r="BW36" s="179"/>
     </row>
     <row r="37" spans="1:75">
-      <c r="A37" s="320" t="s">
+      <c r="A37" s="382" t="s">
         <v>426</v>
       </c>
-      <c r="B37" s="315" t="s">
+      <c r="B37" s="377" t="s">
         <v>427</v>
       </c>
-      <c r="C37" s="320" t="s">
+      <c r="C37" s="382" t="s">
         <v>428</v>
       </c>
-      <c r="D37" s="321" t="s">
+      <c r="D37" s="383" t="s">
         <v>429</v>
       </c>
-      <c r="E37" s="316" t="s">
+      <c r="E37" s="378" t="s">
         <v>336</v>
       </c>
-      <c r="F37" s="317"/>
+      <c r="F37" s="379"/>
       <c r="G37"/>
       <c r="H37"/>
       <c r="I37"/>
@@ -11982,14 +13693,14 @@
       <c r="BW37" s="179"/>
     </row>
     <row r="38" spans="1:75">
-      <c r="A38" s="320"/>
-      <c r="B38" s="315"/>
-      <c r="C38" s="320"/>
-      <c r="D38" s="321"/>
-      <c r="E38" s="316" t="s">
+      <c r="A38" s="382"/>
+      <c r="B38" s="377"/>
+      <c r="C38" s="382"/>
+      <c r="D38" s="383"/>
+      <c r="E38" s="378" t="s">
         <v>471</v>
       </c>
-      <c r="F38" s="317"/>
+      <c r="F38" s="379"/>
       <c r="G38"/>
       <c r="H38"/>
       <c r="I38"/>
@@ -12036,22 +13747,22 @@
       <c r="BW38" s="179"/>
     </row>
     <row r="39" spans="1:75">
-      <c r="A39" s="320" t="s">
+      <c r="A39" s="382" t="s">
         <v>430</v>
       </c>
-      <c r="B39" s="315" t="s">
+      <c r="B39" s="377" t="s">
         <v>431</v>
       </c>
-      <c r="C39" s="320" t="s">
+      <c r="C39" s="382" t="s">
         <v>432</v>
       </c>
-      <c r="D39" s="321" t="s">
+      <c r="D39" s="383" t="s">
         <v>433</v>
       </c>
-      <c r="E39" s="316" t="s">
+      <c r="E39" s="378" t="s">
         <v>335</v>
       </c>
-      <c r="F39" s="317"/>
+      <c r="F39" s="379"/>
       <c r="G39"/>
       <c r="H39"/>
       <c r="I39"/>
@@ -12098,14 +13809,14 @@
       <c r="BW39" s="179"/>
     </row>
     <row r="40" spans="1:75" ht="15.6">
-      <c r="A40" s="320"/>
-      <c r="B40" s="315"/>
-      <c r="C40" s="320"/>
-      <c r="D40" s="321"/>
-      <c r="E40" s="316" t="s">
+      <c r="A40" s="382"/>
+      <c r="B40" s="377"/>
+      <c r="C40" s="382"/>
+      <c r="D40" s="383"/>
+      <c r="E40" s="378" t="s">
         <v>472</v>
       </c>
-      <c r="F40" s="317"/>
+      <c r="F40" s="379"/>
       <c r="G40"/>
       <c r="H40"/>
       <c r="I40"/>
@@ -12176,16 +13887,16 @@
       <c r="BW40" s="155"/>
     </row>
     <row r="41" spans="1:75" ht="45.75" customHeight="1">
-      <c r="A41" s="339" t="s">
+      <c r="A41" s="373" t="s">
         <v>450</v>
       </c>
-      <c r="B41" s="339"/>
-      <c r="C41" s="339"/>
-      <c r="D41" s="339"/>
-      <c r="E41" s="333" t="s">
+      <c r="B41" s="373"/>
+      <c r="C41" s="373"/>
+      <c r="D41" s="373"/>
+      <c r="E41" s="386" t="s">
         <v>449</v>
       </c>
-      <c r="F41" s="334"/>
+      <c r="F41" s="387"/>
       <c r="G41"/>
       <c r="H41"/>
       <c r="I41"/>
@@ -12255,16 +13966,16 @@
       <c r="BW41" s="159"/>
     </row>
     <row r="42" spans="1:75" s="186" customFormat="1" ht="15" customHeight="1">
-      <c r="A42" s="340" t="s">
+      <c r="A42" s="374" t="s">
         <v>365</v>
       </c>
-      <c r="B42" s="315" t="s">
+      <c r="B42" s="377" t="s">
         <v>434</v>
       </c>
-      <c r="C42" s="316" t="s">
+      <c r="C42" s="378" t="s">
         <v>351</v>
       </c>
-      <c r="D42" s="317"/>
+      <c r="D42" s="379"/>
       <c r="E42"/>
       <c r="F42"/>
       <c r="G42"/>
@@ -12336,12 +14047,12 @@
       <c r="BW42" s="182"/>
     </row>
     <row r="43" spans="1:75" s="186" customFormat="1">
-      <c r="A43" s="341"/>
-      <c r="B43" s="315"/>
-      <c r="C43" s="318" t="s">
+      <c r="A43" s="375"/>
+      <c r="B43" s="377"/>
+      <c r="C43" s="380" t="s">
         <v>473</v>
       </c>
-      <c r="D43" s="319"/>
+      <c r="D43" s="368"/>
       <c r="E43"/>
       <c r="F43"/>
       <c r="G43"/>
@@ -12413,14 +14124,14 @@
       <c r="BW43" s="182"/>
     </row>
     <row r="44" spans="1:75" s="186" customFormat="1">
-      <c r="A44" s="341"/>
-      <c r="B44" s="315" t="s">
+      <c r="A44" s="375"/>
+      <c r="B44" s="377" t="s">
         <v>435</v>
       </c>
-      <c r="C44" s="316" t="s">
+      <c r="C44" s="378" t="s">
         <v>352</v>
       </c>
-      <c r="D44" s="317"/>
+      <c r="D44" s="379"/>
       <c r="E44"/>
       <c r="F44"/>
       <c r="G44"/>
@@ -12492,12 +14203,12 @@
       <c r="BW44" s="182"/>
     </row>
     <row r="45" spans="1:75" s="186" customFormat="1">
-      <c r="A45" s="341"/>
-      <c r="B45" s="315"/>
-      <c r="C45" s="318" t="s">
+      <c r="A45" s="375"/>
+      <c r="B45" s="377"/>
+      <c r="C45" s="380" t="s">
         <v>474</v>
       </c>
-      <c r="D45" s="319"/>
+      <c r="D45" s="368"/>
       <c r="E45"/>
       <c r="F45"/>
       <c r="G45"/>
@@ -12569,14 +14280,14 @@
       <c r="BW45" s="182"/>
     </row>
     <row r="46" spans="1:75" s="186" customFormat="1">
-      <c r="A46" s="341"/>
-      <c r="B46" s="315" t="s">
+      <c r="A46" s="375"/>
+      <c r="B46" s="377" t="s">
         <v>436</v>
       </c>
-      <c r="C46" s="316" t="s">
+      <c r="C46" s="378" t="s">
         <v>353</v>
       </c>
-      <c r="D46" s="317"/>
+      <c r="D46" s="379"/>
       <c r="E46"/>
       <c r="F46"/>
       <c r="G46"/>
@@ -12603,10 +14314,10 @@
       <c r="AD46"/>
       <c r="AE46"/>
       <c r="AF46"/>
-      <c r="AG46" s="338"/>
-      <c r="AH46" s="338"/>
-      <c r="AI46" s="338"/>
-      <c r="AJ46" s="338"/>
+      <c r="AG46" s="371"/>
+      <c r="AH46" s="371"/>
+      <c r="AI46" s="371"/>
+      <c r="AJ46" s="371"/>
       <c r="AK46" s="182"/>
       <c r="AL46" s="182"/>
       <c r="AM46" s="182"/>
@@ -12648,12 +14359,12 @@
       <c r="BW46" s="182"/>
     </row>
     <row r="47" spans="1:75" s="186" customFormat="1">
-      <c r="A47" s="341"/>
-      <c r="B47" s="315"/>
-      <c r="C47" s="318" t="s">
+      <c r="A47" s="375"/>
+      <c r="B47" s="377"/>
+      <c r="C47" s="380" t="s">
         <v>475</v>
       </c>
-      <c r="D47" s="319"/>
+      <c r="D47" s="368"/>
       <c r="E47"/>
       <c r="F47"/>
       <c r="G47"/>
@@ -12725,14 +14436,14 @@
       <c r="BW47" s="182"/>
     </row>
     <row r="48" spans="1:75" s="186" customFormat="1">
-      <c r="A48" s="341"/>
-      <c r="B48" s="315" t="s">
+      <c r="A48" s="375"/>
+      <c r="B48" s="377" t="s">
         <v>437</v>
       </c>
-      <c r="C48" s="316" t="s">
+      <c r="C48" s="378" t="s">
         <v>354</v>
       </c>
-      <c r="D48" s="317"/>
+      <c r="D48" s="379"/>
       <c r="E48"/>
       <c r="F48"/>
       <c r="G48"/>
@@ -12759,10 +14470,10 @@
       <c r="AD48"/>
       <c r="AE48"/>
       <c r="AF48"/>
-      <c r="AG48" s="338"/>
-      <c r="AH48" s="338"/>
-      <c r="AI48" s="338"/>
-      <c r="AJ48" s="338"/>
+      <c r="AG48" s="371"/>
+      <c r="AH48" s="371"/>
+      <c r="AI48" s="371"/>
+      <c r="AJ48" s="371"/>
       <c r="AK48" s="182"/>
       <c r="AL48" s="182"/>
       <c r="AM48" s="182"/>
@@ -12804,12 +14515,12 @@
       <c r="BW48" s="182"/>
     </row>
     <row r="49" spans="1:75" s="186" customFormat="1">
-      <c r="A49" s="341"/>
-      <c r="B49" s="315"/>
-      <c r="C49" s="318" t="s">
+      <c r="A49" s="375"/>
+      <c r="B49" s="377"/>
+      <c r="C49" s="380" t="s">
         <v>476</v>
       </c>
-      <c r="D49" s="319"/>
+      <c r="D49" s="368"/>
       <c r="E49"/>
       <c r="F49"/>
       <c r="G49"/>
@@ -12881,14 +14592,14 @@
       <c r="BW49" s="182"/>
     </row>
     <row r="50" spans="1:75" s="186" customFormat="1">
-      <c r="A50" s="341"/>
-      <c r="B50" s="315" t="s">
+      <c r="A50" s="375"/>
+      <c r="B50" s="377" t="s">
         <v>438</v>
       </c>
-      <c r="C50" s="316" t="s">
+      <c r="C50" s="378" t="s">
         <v>355</v>
       </c>
-      <c r="D50" s="317"/>
+      <c r="D50" s="379"/>
       <c r="E50"/>
       <c r="F50"/>
       <c r="G50"/>
@@ -12915,10 +14626,10 @@
       <c r="AD50"/>
       <c r="AE50"/>
       <c r="AF50"/>
-      <c r="AG50" s="338"/>
-      <c r="AH50" s="338"/>
-      <c r="AI50" s="338"/>
-      <c r="AJ50" s="338"/>
+      <c r="AG50" s="371"/>
+      <c r="AH50" s="371"/>
+      <c r="AI50" s="371"/>
+      <c r="AJ50" s="371"/>
       <c r="AK50" s="182"/>
       <c r="AL50" s="182"/>
       <c r="AM50" s="182"/>
@@ -12960,12 +14671,12 @@
       <c r="BW50" s="182"/>
     </row>
     <row r="51" spans="1:75" s="186" customFormat="1">
-      <c r="A51" s="341"/>
-      <c r="B51" s="315"/>
-      <c r="C51" s="318" t="s">
+      <c r="A51" s="375"/>
+      <c r="B51" s="377"/>
+      <c r="C51" s="380" t="s">
         <v>477</v>
       </c>
-      <c r="D51" s="319"/>
+      <c r="D51" s="368"/>
       <c r="E51"/>
       <c r="F51"/>
       <c r="G51"/>
@@ -13037,14 +14748,14 @@
       <c r="BW51" s="182"/>
     </row>
     <row r="52" spans="1:75" s="186" customFormat="1">
-      <c r="A52" s="341"/>
-      <c r="B52" s="315" t="s">
+      <c r="A52" s="375"/>
+      <c r="B52" s="377" t="s">
         <v>439</v>
       </c>
-      <c r="C52" s="316" t="s">
+      <c r="C52" s="378" t="s">
         <v>356</v>
       </c>
-      <c r="D52" s="317"/>
+      <c r="D52" s="379"/>
       <c r="E52"/>
       <c r="F52"/>
       <c r="G52"/>
@@ -13071,10 +14782,10 @@
       <c r="AD52"/>
       <c r="AE52"/>
       <c r="AF52"/>
-      <c r="AG52" s="338"/>
-      <c r="AH52" s="338"/>
-      <c r="AI52" s="338"/>
-      <c r="AJ52" s="338"/>
+      <c r="AG52" s="371"/>
+      <c r="AH52" s="371"/>
+      <c r="AI52" s="371"/>
+      <c r="AJ52" s="371"/>
       <c r="AK52" s="182"/>
       <c r="AL52" s="182"/>
       <c r="AM52" s="182"/>
@@ -13116,12 +14827,12 @@
       <c r="BW52" s="182"/>
     </row>
     <row r="53" spans="1:75" s="186" customFormat="1">
-      <c r="A53" s="341"/>
-      <c r="B53" s="315"/>
-      <c r="C53" s="318" t="s">
+      <c r="A53" s="375"/>
+      <c r="B53" s="377"/>
+      <c r="C53" s="380" t="s">
         <v>478</v>
       </c>
-      <c r="D53" s="319"/>
+      <c r="D53" s="368"/>
       <c r="E53"/>
       <c r="F53"/>
       <c r="G53"/>
@@ -13193,14 +14904,14 @@
       <c r="BW53" s="182"/>
     </row>
     <row r="54" spans="1:75" s="186" customFormat="1">
-      <c r="A54" s="341"/>
-      <c r="B54" s="315" t="s">
+      <c r="A54" s="375"/>
+      <c r="B54" s="377" t="s">
         <v>440</v>
       </c>
-      <c r="C54" s="316" t="s">
+      <c r="C54" s="378" t="s">
         <v>357</v>
       </c>
-      <c r="D54" s="317"/>
+      <c r="D54" s="379"/>
       <c r="E54"/>
       <c r="F54"/>
       <c r="G54"/>
@@ -13227,10 +14938,10 @@
       <c r="AD54"/>
       <c r="AE54"/>
       <c r="AF54"/>
-      <c r="AG54" s="338"/>
-      <c r="AH54" s="338"/>
-      <c r="AI54" s="338"/>
-      <c r="AJ54" s="338"/>
+      <c r="AG54" s="371"/>
+      <c r="AH54" s="371"/>
+      <c r="AI54" s="371"/>
+      <c r="AJ54" s="371"/>
       <c r="AK54" s="182"/>
       <c r="AL54" s="182"/>
       <c r="AM54" s="182"/>
@@ -13272,12 +14983,12 @@
       <c r="BW54" s="182"/>
     </row>
     <row r="55" spans="1:75" s="186" customFormat="1">
-      <c r="A55" s="341"/>
-      <c r="B55" s="315"/>
-      <c r="C55" s="318" t="s">
+      <c r="A55" s="375"/>
+      <c r="B55" s="377"/>
+      <c r="C55" s="380" t="s">
         <v>479</v>
       </c>
-      <c r="D55" s="319"/>
+      <c r="D55" s="368"/>
       <c r="E55"/>
       <c r="F55"/>
       <c r="G55"/>
@@ -13349,14 +15060,14 @@
       <c r="BW55" s="182"/>
     </row>
     <row r="56" spans="1:75" s="186" customFormat="1">
-      <c r="A56" s="341"/>
-      <c r="B56" s="315" t="s">
+      <c r="A56" s="375"/>
+      <c r="B56" s="377" t="s">
         <v>441</v>
       </c>
-      <c r="C56" s="318" t="s">
+      <c r="C56" s="380" t="s">
         <v>358</v>
       </c>
-      <c r="D56" s="319"/>
+      <c r="D56" s="368"/>
       <c r="E56"/>
       <c r="F56"/>
       <c r="G56"/>
@@ -13383,10 +15094,10 @@
       <c r="AD56"/>
       <c r="AE56"/>
       <c r="AF56"/>
-      <c r="AG56" s="338"/>
-      <c r="AH56" s="338"/>
-      <c r="AI56" s="338"/>
-      <c r="AJ56" s="338"/>
+      <c r="AG56" s="371"/>
+      <c r="AH56" s="371"/>
+      <c r="AI56" s="371"/>
+      <c r="AJ56" s="371"/>
       <c r="AK56" s="182"/>
       <c r="AL56" s="182"/>
       <c r="AM56" s="182"/>
@@ -13428,12 +15139,12 @@
       <c r="BW56" s="182"/>
     </row>
     <row r="57" spans="1:75" s="186" customFormat="1">
-      <c r="A57" s="341"/>
-      <c r="B57" s="315"/>
-      <c r="C57" s="318" t="s">
+      <c r="A57" s="375"/>
+      <c r="B57" s="377"/>
+      <c r="C57" s="380" t="s">
         <v>480</v>
       </c>
-      <c r="D57" s="319"/>
+      <c r="D57" s="368"/>
       <c r="E57"/>
       <c r="F57"/>
       <c r="G57"/>
@@ -13505,14 +15216,14 @@
       <c r="BW57" s="182"/>
     </row>
     <row r="58" spans="1:75" s="186" customFormat="1">
-      <c r="A58" s="341"/>
-      <c r="B58" s="315" t="s">
+      <c r="A58" s="375"/>
+      <c r="B58" s="377" t="s">
         <v>442</v>
       </c>
-      <c r="C58" s="316" t="s">
+      <c r="C58" s="378" t="s">
         <v>359</v>
       </c>
-      <c r="D58" s="317"/>
+      <c r="D58" s="379"/>
       <c r="E58"/>
       <c r="F58"/>
       <c r="G58"/>
@@ -13539,10 +15250,10 @@
       <c r="AD58"/>
       <c r="AE58"/>
       <c r="AF58"/>
-      <c r="AG58" s="338"/>
-      <c r="AH58" s="338"/>
-      <c r="AI58" s="338"/>
-      <c r="AJ58" s="338"/>
+      <c r="AG58" s="371"/>
+      <c r="AH58" s="371"/>
+      <c r="AI58" s="371"/>
+      <c r="AJ58" s="371"/>
       <c r="AK58" s="182"/>
       <c r="AL58" s="184"/>
       <c r="AM58" s="182"/>
@@ -13584,12 +15295,12 @@
       <c r="BW58" s="182"/>
     </row>
     <row r="59" spans="1:75" s="186" customFormat="1">
-      <c r="A59" s="341"/>
-      <c r="B59" s="315"/>
-      <c r="C59" s="318" t="s">
+      <c r="A59" s="375"/>
+      <c r="B59" s="377"/>
+      <c r="C59" s="380" t="s">
         <v>481</v>
       </c>
-      <c r="D59" s="319"/>
+      <c r="D59" s="368"/>
       <c r="E59"/>
       <c r="F59"/>
       <c r="G59"/>
@@ -13661,14 +15372,14 @@
       <c r="BW59" s="182"/>
     </row>
     <row r="60" spans="1:75" s="186" customFormat="1">
-      <c r="A60" s="341"/>
-      <c r="B60" s="315" t="s">
+      <c r="A60" s="375"/>
+      <c r="B60" s="377" t="s">
         <v>443</v>
       </c>
-      <c r="C60" s="316" t="s">
+      <c r="C60" s="378" t="s">
         <v>360</v>
       </c>
-      <c r="D60" s="317"/>
+      <c r="D60" s="379"/>
       <c r="E60"/>
       <c r="F60"/>
       <c r="G60"/>
@@ -13695,10 +15406,10 @@
       <c r="AD60"/>
       <c r="AE60"/>
       <c r="AF60"/>
-      <c r="AG60" s="338"/>
-      <c r="AH60" s="338"/>
-      <c r="AI60" s="338"/>
-      <c r="AJ60" s="338"/>
+      <c r="AG60" s="371"/>
+      <c r="AH60" s="371"/>
+      <c r="AI60" s="371"/>
+      <c r="AJ60" s="371"/>
       <c r="AK60" s="182"/>
       <c r="AL60" s="183"/>
       <c r="AM60" s="182"/>
@@ -13740,12 +15451,12 @@
       <c r="BW60" s="182"/>
     </row>
     <row r="61" spans="1:75" s="186" customFormat="1">
-      <c r="A61" s="341"/>
-      <c r="B61" s="315"/>
-      <c r="C61" s="318" t="s">
+      <c r="A61" s="375"/>
+      <c r="B61" s="377"/>
+      <c r="C61" s="380" t="s">
         <v>482</v>
       </c>
-      <c r="D61" s="319"/>
+      <c r="D61" s="368"/>
       <c r="E61"/>
       <c r="F61"/>
       <c r="G61"/>
@@ -13817,14 +15528,14 @@
       <c r="BW61" s="182"/>
     </row>
     <row r="62" spans="1:75" s="186" customFormat="1">
-      <c r="A62" s="341"/>
-      <c r="B62" s="315" t="s">
+      <c r="A62" s="375"/>
+      <c r="B62" s="377" t="s">
         <v>444</v>
       </c>
-      <c r="C62" s="316" t="s">
+      <c r="C62" s="378" t="s">
         <v>361</v>
       </c>
-      <c r="D62" s="317"/>
+      <c r="D62" s="379"/>
       <c r="E62"/>
       <c r="F62"/>
       <c r="G62"/>
@@ -13851,10 +15562,10 @@
       <c r="AD62"/>
       <c r="AE62"/>
       <c r="AF62"/>
-      <c r="AG62" s="338"/>
-      <c r="AH62" s="338"/>
-      <c r="AI62" s="338"/>
-      <c r="AJ62" s="338"/>
+      <c r="AG62" s="371"/>
+      <c r="AH62" s="371"/>
+      <c r="AI62" s="371"/>
+      <c r="AJ62" s="371"/>
       <c r="AK62" s="188"/>
       <c r="AL62" s="184"/>
       <c r="AM62" s="182"/>
@@ -13896,12 +15607,12 @@
       <c r="BW62" s="182"/>
     </row>
     <row r="63" spans="1:75" s="186" customFormat="1">
-      <c r="A63" s="341"/>
-      <c r="B63" s="315"/>
-      <c r="C63" s="318" t="s">
+      <c r="A63" s="375"/>
+      <c r="B63" s="377"/>
+      <c r="C63" s="380" t="s">
         <v>483</v>
       </c>
-      <c r="D63" s="319"/>
+      <c r="D63" s="368"/>
       <c r="E63"/>
       <c r="F63"/>
       <c r="G63"/>
@@ -13973,14 +15684,14 @@
       <c r="BW63" s="182"/>
     </row>
     <row r="64" spans="1:75" s="186" customFormat="1">
-      <c r="A64" s="341"/>
-      <c r="B64" s="315" t="s">
+      <c r="A64" s="375"/>
+      <c r="B64" s="377" t="s">
         <v>445</v>
       </c>
-      <c r="C64" s="316" t="s">
+      <c r="C64" s="378" t="s">
         <v>362</v>
       </c>
-      <c r="D64" s="317"/>
+      <c r="D64" s="379"/>
       <c r="E64"/>
       <c r="F64"/>
       <c r="G64"/>
@@ -14007,10 +15718,10 @@
       <c r="AD64"/>
       <c r="AE64"/>
       <c r="AF64"/>
-      <c r="AG64" s="338"/>
-      <c r="AH64" s="338"/>
-      <c r="AI64" s="338"/>
-      <c r="AJ64" s="338"/>
+      <c r="AG64" s="371"/>
+      <c r="AH64" s="371"/>
+      <c r="AI64" s="371"/>
+      <c r="AJ64" s="371"/>
       <c r="AK64" s="182"/>
       <c r="AL64" s="183"/>
       <c r="AM64" s="182"/>
@@ -14052,12 +15763,12 @@
       <c r="BW64" s="182"/>
     </row>
     <row r="65" spans="1:75" s="186" customFormat="1">
-      <c r="A65" s="341"/>
-      <c r="B65" s="315"/>
-      <c r="C65" s="318" t="s">
+      <c r="A65" s="375"/>
+      <c r="B65" s="377"/>
+      <c r="C65" s="380" t="s">
         <v>484</v>
       </c>
-      <c r="D65" s="319"/>
+      <c r="D65" s="368"/>
       <c r="E65"/>
       <c r="F65"/>
       <c r="G65"/>
@@ -14129,14 +15840,14 @@
       <c r="BW65" s="182"/>
     </row>
     <row r="66" spans="1:75" s="186" customFormat="1">
-      <c r="A66" s="341"/>
-      <c r="B66" s="315" t="s">
+      <c r="A66" s="375"/>
+      <c r="B66" s="377" t="s">
         <v>446</v>
       </c>
-      <c r="C66" s="316" t="s">
+      <c r="C66" s="378" t="s">
         <v>363</v>
       </c>
-      <c r="D66" s="317"/>
+      <c r="D66" s="379"/>
       <c r="E66"/>
       <c r="F66"/>
       <c r="G66"/>
@@ -14163,10 +15874,10 @@
       <c r="AD66"/>
       <c r="AE66"/>
       <c r="AF66"/>
-      <c r="AG66" s="338"/>
-      <c r="AH66" s="338"/>
-      <c r="AI66" s="338"/>
-      <c r="AJ66" s="338"/>
+      <c r="AG66" s="371"/>
+      <c r="AH66" s="371"/>
+      <c r="AI66" s="371"/>
+      <c r="AJ66" s="371"/>
       <c r="AK66" s="188"/>
       <c r="AL66" s="184"/>
       <c r="AM66" s="182"/>
@@ -14208,12 +15919,12 @@
       <c r="BW66" s="182"/>
     </row>
     <row r="67" spans="1:75" s="186" customFormat="1">
-      <c r="A67" s="341"/>
-      <c r="B67" s="315"/>
-      <c r="C67" s="318" t="s">
+      <c r="A67" s="375"/>
+      <c r="B67" s="377"/>
+      <c r="C67" s="380" t="s">
         <v>485</v>
       </c>
-      <c r="D67" s="319"/>
+      <c r="D67" s="368"/>
       <c r="E67"/>
       <c r="F67"/>
       <c r="G67"/>
@@ -14285,14 +15996,14 @@
       <c r="BW67" s="182"/>
     </row>
     <row r="68" spans="1:75" s="186" customFormat="1">
-      <c r="A68" s="341"/>
-      <c r="B68" s="315" t="s">
+      <c r="A68" s="375"/>
+      <c r="B68" s="377" t="s">
         <v>447</v>
       </c>
-      <c r="C68" s="316" t="s">
+      <c r="C68" s="378" t="s">
         <v>364</v>
       </c>
-      <c r="D68" s="317"/>
+      <c r="D68" s="379"/>
       <c r="E68"/>
       <c r="F68"/>
       <c r="G68"/>
@@ -14321,10 +16032,10 @@
       <c r="AD68"/>
       <c r="AE68"/>
       <c r="AF68"/>
-      <c r="AG68" s="338"/>
-      <c r="AH68" s="338"/>
-      <c r="AI68" s="338"/>
-      <c r="AJ68" s="338"/>
+      <c r="AG68" s="371"/>
+      <c r="AH68" s="371"/>
+      <c r="AI68" s="371"/>
+      <c r="AJ68" s="371"/>
       <c r="AK68" s="183"/>
       <c r="AL68" s="183"/>
       <c r="AM68" s="182"/>
@@ -14366,12 +16077,12 @@
       <c r="BW68" s="182"/>
     </row>
     <row r="69" spans="1:75" s="186" customFormat="1">
-      <c r="A69" s="341"/>
-      <c r="B69" s="315"/>
-      <c r="C69" s="318" t="s">
+      <c r="A69" s="375"/>
+      <c r="B69" s="377"/>
+      <c r="C69" s="380" t="s">
         <v>486</v>
       </c>
-      <c r="D69" s="319"/>
+      <c r="D69" s="368"/>
       <c r="E69"/>
       <c r="F69"/>
       <c r="G69"/>
@@ -14445,14 +16156,14 @@
       <c r="BW69" s="182"/>
     </row>
     <row r="70" spans="1:75" s="186" customFormat="1">
-      <c r="A70" s="341"/>
-      <c r="B70" s="315" t="s">
+      <c r="A70" s="375"/>
+      <c r="B70" s="377" t="s">
         <v>451</v>
       </c>
-      <c r="C70" s="316" t="s">
+      <c r="C70" s="378" t="s">
         <v>452</v>
       </c>
-      <c r="D70" s="317"/>
+      <c r="D70" s="379"/>
       <c r="E70"/>
       <c r="F70"/>
       <c r="G70"/>
@@ -14526,12 +16237,12 @@
       <c r="BW70" s="182"/>
     </row>
     <row r="71" spans="1:75" s="186" customFormat="1">
-      <c r="A71" s="341"/>
-      <c r="B71" s="315"/>
-      <c r="C71" s="318" t="s">
+      <c r="A71" s="375"/>
+      <c r="B71" s="377"/>
+      <c r="C71" s="380" t="s">
         <v>487</v>
       </c>
-      <c r="D71" s="319"/>
+      <c r="D71" s="368"/>
       <c r="E71"/>
       <c r="F71"/>
       <c r="G71"/>
@@ -14605,12 +16316,12 @@
       <c r="BW71" s="182"/>
     </row>
     <row r="72" spans="1:75" s="186" customFormat="1" ht="15.6">
-      <c r="A72" s="341"/>
+      <c r="A72" s="375"/>
       <c r="B72" s="198" t="s">
         <v>36</v>
       </c>
-      <c r="C72" s="325"/>
-      <c r="D72" s="326"/>
+      <c r="C72" s="396"/>
+      <c r="D72" s="397"/>
       <c r="E72"/>
       <c r="F72"/>
       <c r="G72"/>
@@ -14639,10 +16350,10 @@
       <c r="AD72"/>
       <c r="AE72"/>
       <c r="AF72"/>
-      <c r="AG72" s="343"/>
-      <c r="AH72" s="343"/>
-      <c r="AI72" s="343"/>
-      <c r="AJ72" s="343"/>
+      <c r="AG72" s="372"/>
+      <c r="AH72" s="372"/>
+      <c r="AI72" s="372"/>
+      <c r="AJ72" s="372"/>
       <c r="AK72" s="188"/>
       <c r="AL72" s="182"/>
       <c r="AM72" s="182"/>
@@ -14684,12 +16395,12 @@
       <c r="BW72" s="182"/>
     </row>
     <row r="73" spans="1:75" s="186" customFormat="1" ht="15.6">
-      <c r="A73" s="341"/>
+      <c r="A73" s="375"/>
       <c r="B73" s="199" t="s">
         <v>5</v>
       </c>
-      <c r="C73" s="325"/>
-      <c r="D73" s="326"/>
+      <c r="C73" s="396"/>
+      <c r="D73" s="397"/>
       <c r="E73"/>
       <c r="F73"/>
       <c r="G73"/>
@@ -14763,12 +16474,12 @@
       <c r="BW73" s="182"/>
     </row>
     <row r="74" spans="1:75" s="186" customFormat="1" ht="15.6">
-      <c r="A74" s="342"/>
+      <c r="A74" s="376"/>
       <c r="B74" s="199" t="s">
         <v>6</v>
       </c>
-      <c r="C74" s="325"/>
-      <c r="D74" s="326"/>
+      <c r="C74" s="396"/>
+      <c r="D74" s="397"/>
       <c r="E74"/>
       <c r="F74"/>
       <c r="G74"/>
@@ -14842,16 +16553,16 @@
       <c r="BW74" s="182"/>
     </row>
     <row r="75" spans="1:75" s="186" customFormat="1" ht="27" customHeight="1">
-      <c r="A75" s="322" t="s">
+      <c r="A75" s="393" t="s">
         <v>3</v>
       </c>
       <c r="B75" s="197" t="s">
         <v>7</v>
       </c>
-      <c r="C75" s="327" t="s">
+      <c r="C75" s="398" t="s">
         <v>328</v>
       </c>
-      <c r="D75" s="327"/>
+      <c r="D75" s="398"/>
       <c r="E75"/>
       <c r="F75"/>
       <c r="G75"/>
@@ -14880,10 +16591,10 @@
       <c r="AD75"/>
       <c r="AE75"/>
       <c r="AF75"/>
-      <c r="AG75" s="344"/>
-      <c r="AH75" s="344"/>
-      <c r="AI75" s="344"/>
-      <c r="AJ75" s="344"/>
+      <c r="AG75" s="369"/>
+      <c r="AH75" s="369"/>
+      <c r="AI75" s="369"/>
+      <c r="AJ75" s="369"/>
       <c r="AK75" s="188"/>
       <c r="AL75" s="182"/>
       <c r="AM75" s="182"/>
@@ -14925,14 +16636,14 @@
       <c r="BW75" s="182"/>
     </row>
     <row r="76" spans="1:75" s="186" customFormat="1" ht="27" customHeight="1">
-      <c r="A76" s="323"/>
+      <c r="A76" s="394"/>
       <c r="B76" s="197" t="s">
         <v>8</v>
       </c>
-      <c r="C76" s="327" t="s">
+      <c r="C76" s="398" t="s">
         <v>329</v>
       </c>
-      <c r="D76" s="327"/>
+      <c r="D76" s="398"/>
       <c r="E76"/>
       <c r="F76"/>
       <c r="G76"/>
@@ -14961,10 +16672,10 @@
       <c r="AD76"/>
       <c r="AE76"/>
       <c r="AF76"/>
-      <c r="AG76" s="344"/>
-      <c r="AH76" s="344"/>
-      <c r="AI76" s="344"/>
-      <c r="AJ76" s="344"/>
+      <c r="AG76" s="369"/>
+      <c r="AH76" s="369"/>
+      <c r="AI76" s="369"/>
+      <c r="AJ76" s="369"/>
       <c r="AK76" s="188"/>
       <c r="AL76" s="182"/>
       <c r="AM76" s="182"/>
@@ -15006,14 +16717,14 @@
       <c r="BW76" s="182"/>
     </row>
     <row r="77" spans="1:75" s="186" customFormat="1" ht="27" customHeight="1">
-      <c r="A77" s="323"/>
+      <c r="A77" s="394"/>
       <c r="B77" s="197" t="s">
         <v>2</v>
       </c>
-      <c r="C77" s="327" t="s">
+      <c r="C77" s="398" t="s">
         <v>330</v>
       </c>
-      <c r="D77" s="327"/>
+      <c r="D77" s="398"/>
       <c r="E77"/>
       <c r="F77"/>
       <c r="G77"/>
@@ -15042,10 +16753,10 @@
       <c r="AD77"/>
       <c r="AE77"/>
       <c r="AF77"/>
-      <c r="AG77" s="345"/>
-      <c r="AH77" s="345"/>
-      <c r="AI77" s="345"/>
-      <c r="AJ77" s="345"/>
+      <c r="AG77" s="370"/>
+      <c r="AH77" s="370"/>
+      <c r="AI77" s="370"/>
+      <c r="AJ77" s="370"/>
       <c r="AK77" s="188"/>
       <c r="AL77" s="182"/>
       <c r="AM77" s="182"/>
@@ -15087,14 +16798,14 @@
       <c r="BW77" s="182"/>
     </row>
     <row r="78" spans="1:75" s="186" customFormat="1" ht="27" customHeight="1">
-      <c r="A78" s="323"/>
+      <c r="A78" s="394"/>
       <c r="B78" s="197" t="s">
         <v>60</v>
       </c>
-      <c r="C78" s="327" t="s">
+      <c r="C78" s="398" t="s">
         <v>331</v>
       </c>
-      <c r="D78" s="327"/>
+      <c r="D78" s="398"/>
       <c r="E78"/>
       <c r="F78"/>
       <c r="G78"/>
@@ -15168,14 +16879,14 @@
       <c r="BW78" s="182"/>
     </row>
     <row r="79" spans="1:75" s="186" customFormat="1" ht="27" customHeight="1">
-      <c r="A79" s="324"/>
+      <c r="A79" s="395"/>
       <c r="B79" s="197" t="s">
         <v>39</v>
       </c>
-      <c r="C79" s="327" t="s">
+      <c r="C79" s="398" t="s">
         <v>453</v>
       </c>
-      <c r="D79" s="327"/>
+      <c r="D79" s="398"/>
       <c r="E79"/>
       <c r="F79"/>
       <c r="G79"/>
@@ -15204,10 +16915,10 @@
       <c r="AD79"/>
       <c r="AE79"/>
       <c r="AF79"/>
-      <c r="AG79" s="345"/>
-      <c r="AH79" s="345"/>
-      <c r="AI79" s="345"/>
-      <c r="AJ79" s="345"/>
+      <c r="AG79" s="370"/>
+      <c r="AH79" s="370"/>
+      <c r="AI79" s="370"/>
+      <c r="AJ79" s="370"/>
       <c r="AK79" s="188"/>
       <c r="AL79" s="182"/>
       <c r="AM79" s="182"/>
@@ -15249,14 +16960,14 @@
       <c r="BW79" s="182"/>
     </row>
     <row r="80" spans="1:75" s="186" customFormat="1" ht="32.25" customHeight="1">
-      <c r="A80" s="356" t="s">
+      <c r="A80" s="366" t="s">
         <v>50</v>
       </c>
-      <c r="B80" s="356"/>
-      <c r="C80" s="357" t="s">
+      <c r="B80" s="366"/>
+      <c r="C80" s="367" t="s">
         <v>332</v>
       </c>
-      <c r="D80" s="319"/>
+      <c r="D80" s="368"/>
       <c r="E80"/>
       <c r="F80"/>
       <c r="G80"/>
@@ -15285,10 +16996,10 @@
       <c r="AD80"/>
       <c r="AE80"/>
       <c r="AF80"/>
-      <c r="AG80" s="346"/>
-      <c r="AH80" s="346"/>
-      <c r="AI80" s="346"/>
-      <c r="AJ80" s="346"/>
+      <c r="AG80" s="356"/>
+      <c r="AH80" s="356"/>
+      <c r="AI80" s="356"/>
+      <c r="AJ80" s="356"/>
       <c r="AK80" s="188"/>
       <c r="AL80" s="182"/>
       <c r="AM80" s="182"/>
@@ -15330,14 +17041,14 @@
       <c r="BW80" s="182"/>
     </row>
     <row r="81" spans="1:75" s="186" customFormat="1" ht="32.25" customHeight="1">
-      <c r="A81" s="356" t="s">
+      <c r="A81" s="366" t="s">
         <v>51</v>
       </c>
-      <c r="B81" s="356"/>
-      <c r="C81" s="357" t="s">
+      <c r="B81" s="366"/>
+      <c r="C81" s="367" t="s">
         <v>333</v>
       </c>
-      <c r="D81" s="319"/>
+      <c r="D81" s="368"/>
       <c r="E81"/>
       <c r="F81"/>
       <c r="G81"/>
@@ -15366,10 +17077,10 @@
       <c r="AD81"/>
       <c r="AE81"/>
       <c r="AF81"/>
-      <c r="AG81" s="346"/>
-      <c r="AH81" s="346"/>
-      <c r="AI81" s="346"/>
-      <c r="AJ81" s="346"/>
+      <c r="AG81" s="356"/>
+      <c r="AH81" s="356"/>
+      <c r="AI81" s="356"/>
+      <c r="AJ81" s="356"/>
       <c r="AK81" s="188"/>
       <c r="AL81" s="182"/>
       <c r="AM81" s="182"/>
@@ -15417,17 +17128,17 @@
       <c r="D82" s="192"/>
       <c r="E82" s="192"/>
       <c r="F82" s="192"/>
-      <c r="G82" s="347"/>
-      <c r="H82" s="347"/>
-      <c r="I82" s="347"/>
+      <c r="G82" s="357"/>
+      <c r="H82" s="357"/>
+      <c r="I82" s="357"/>
       <c r="J82" s="192"/>
       <c r="K82" s="192"/>
       <c r="L82" s="192"/>
       <c r="M82" s="192"/>
       <c r="N82" s="192"/>
-      <c r="O82" s="347"/>
-      <c r="P82" s="347"/>
-      <c r="Q82" s="347"/>
+      <c r="O82" s="357"/>
+      <c r="P82" s="357"/>
+      <c r="Q82" s="357"/>
       <c r="R82" s="192"/>
       <c r="S82" s="192"/>
       <c r="T82" s="192"/>
@@ -15457,9 +17168,9 @@
       <c r="D83" s="192"/>
       <c r="E83" s="192"/>
       <c r="F83" s="192"/>
-      <c r="G83" s="349"/>
-      <c r="H83" s="349"/>
-      <c r="I83" s="349"/>
+      <c r="G83" s="359"/>
+      <c r="H83" s="359"/>
+      <c r="I83" s="359"/>
       <c r="J83" s="192"/>
       <c r="K83" s="192"/>
       <c r="L83" s="192"/>
@@ -15492,35 +17203,35 @@
     </row>
     <row r="84" spans="1:75" ht="14.1" customHeight="1">
       <c r="A84" s="191"/>
-      <c r="B84" s="348" t="s">
+      <c r="B84" s="358" t="s">
         <v>41</v>
       </c>
-      <c r="C84" s="350"/>
-      <c r="D84" s="351"/>
-      <c r="E84" s="351"/>
-      <c r="F84" s="351"/>
-      <c r="G84" s="351"/>
-      <c r="H84" s="351"/>
-      <c r="I84" s="351"/>
-      <c r="J84" s="351"/>
-      <c r="K84" s="351"/>
-      <c r="L84" s="351"/>
-      <c r="M84" s="351"/>
-      <c r="N84" s="351"/>
-      <c r="O84" s="351"/>
-      <c r="P84" s="351"/>
-      <c r="Q84" s="351"/>
-      <c r="R84" s="351"/>
-      <c r="S84" s="351"/>
-      <c r="T84" s="351"/>
-      <c r="U84" s="351"/>
-      <c r="V84" s="351"/>
-      <c r="W84" s="351"/>
-      <c r="X84" s="351"/>
-      <c r="Y84" s="351"/>
-      <c r="Z84" s="351"/>
-      <c r="AA84" s="351"/>
-      <c r="AB84" s="352"/>
+      <c r="C84" s="360"/>
+      <c r="D84" s="361"/>
+      <c r="E84" s="361"/>
+      <c r="F84" s="361"/>
+      <c r="G84" s="361"/>
+      <c r="H84" s="361"/>
+      <c r="I84" s="361"/>
+      <c r="J84" s="361"/>
+      <c r="K84" s="361"/>
+      <c r="L84" s="361"/>
+      <c r="M84" s="361"/>
+      <c r="N84" s="361"/>
+      <c r="O84" s="361"/>
+      <c r="P84" s="361"/>
+      <c r="Q84" s="361"/>
+      <c r="R84" s="361"/>
+      <c r="S84" s="361"/>
+      <c r="T84" s="361"/>
+      <c r="U84" s="361"/>
+      <c r="V84" s="361"/>
+      <c r="W84" s="361"/>
+      <c r="X84" s="361"/>
+      <c r="Y84" s="361"/>
+      <c r="Z84" s="361"/>
+      <c r="AA84" s="361"/>
+      <c r="AB84" s="362"/>
       <c r="AC84" s="156"/>
       <c r="AD84" s="156"/>
       <c r="AE84" s="156"/>
@@ -15541,33 +17252,33 @@
     </row>
     <row r="85" spans="1:75" ht="28.5" customHeight="1">
       <c r="A85" s="191"/>
-      <c r="B85" s="348"/>
-      <c r="C85" s="353"/>
-      <c r="D85" s="354"/>
-      <c r="E85" s="354"/>
-      <c r="F85" s="354"/>
-      <c r="G85" s="354"/>
-      <c r="H85" s="354"/>
-      <c r="I85" s="354"/>
-      <c r="J85" s="354"/>
-      <c r="K85" s="354"/>
-      <c r="L85" s="354"/>
-      <c r="M85" s="354"/>
-      <c r="N85" s="354"/>
-      <c r="O85" s="354"/>
-      <c r="P85" s="354"/>
-      <c r="Q85" s="354"/>
-      <c r="R85" s="354"/>
-      <c r="S85" s="354"/>
-      <c r="T85" s="354"/>
-      <c r="U85" s="354"/>
-      <c r="V85" s="354"/>
-      <c r="W85" s="354"/>
-      <c r="X85" s="354"/>
-      <c r="Y85" s="354"/>
-      <c r="Z85" s="354"/>
-      <c r="AA85" s="354"/>
-      <c r="AB85" s="355"/>
+      <c r="B85" s="358"/>
+      <c r="C85" s="363"/>
+      <c r="D85" s="364"/>
+      <c r="E85" s="364"/>
+      <c r="F85" s="364"/>
+      <c r="G85" s="364"/>
+      <c r="H85" s="364"/>
+      <c r="I85" s="364"/>
+      <c r="J85" s="364"/>
+      <c r="K85" s="364"/>
+      <c r="L85" s="364"/>
+      <c r="M85" s="364"/>
+      <c r="N85" s="364"/>
+      <c r="O85" s="364"/>
+      <c r="P85" s="364"/>
+      <c r="Q85" s="364"/>
+      <c r="R85" s="364"/>
+      <c r="S85" s="364"/>
+      <c r="T85" s="364"/>
+      <c r="U85" s="364"/>
+      <c r="V85" s="364"/>
+      <c r="W85" s="364"/>
+      <c r="X85" s="364"/>
+      <c r="Y85" s="364"/>
+      <c r="Z85" s="364"/>
+      <c r="AA85" s="364"/>
+      <c r="AB85" s="365"/>
       <c r="AC85" s="156"/>
       <c r="AD85" s="156"/>
       <c r="AE85" s="156"/>
@@ -34661,45 +36372,161 @@
   </sheetData>
   <sheetProtection formatColumns="0" formatRows="0"/>
   <mergeCells count="218">
-    <mergeCell ref="AG81:AH81"/>
-    <mergeCell ref="AI81:AJ81"/>
-    <mergeCell ref="G82:I82"/>
-    <mergeCell ref="O82:Q82"/>
-    <mergeCell ref="B84:B85"/>
-    <mergeCell ref="G83:I83"/>
-    <mergeCell ref="C84:AB85"/>
-    <mergeCell ref="A80:B80"/>
-    <mergeCell ref="A81:B81"/>
-    <mergeCell ref="C80:D80"/>
-    <mergeCell ref="C81:D81"/>
-    <mergeCell ref="AG75:AH75"/>
-    <mergeCell ref="AI75:AJ75"/>
-    <mergeCell ref="AG76:AH76"/>
-    <mergeCell ref="AI76:AJ76"/>
-    <mergeCell ref="AG77:AH77"/>
-    <mergeCell ref="AG80:AH80"/>
-    <mergeCell ref="AI77:AJ77"/>
-    <mergeCell ref="AI79:AJ79"/>
-    <mergeCell ref="AG79:AH79"/>
-    <mergeCell ref="AI80:AJ80"/>
-    <mergeCell ref="AG66:AH66"/>
-    <mergeCell ref="AI66:AJ66"/>
-    <mergeCell ref="AG68:AH68"/>
-    <mergeCell ref="AI68:AJ68"/>
-    <mergeCell ref="AG72:AH72"/>
-    <mergeCell ref="AI72:AJ72"/>
-    <mergeCell ref="AG54:AH54"/>
-    <mergeCell ref="AI54:AJ54"/>
-    <mergeCell ref="AG56:AH56"/>
-    <mergeCell ref="AI56:AJ56"/>
-    <mergeCell ref="AG58:AH58"/>
-    <mergeCell ref="AI58:AJ58"/>
-    <mergeCell ref="AG60:AH60"/>
-    <mergeCell ref="AI60:AJ60"/>
-    <mergeCell ref="AG62:AH62"/>
-    <mergeCell ref="AI62:AJ62"/>
-    <mergeCell ref="AG64:AH64"/>
-    <mergeCell ref="AI64:AJ64"/>
+    <mergeCell ref="E5:F6"/>
+    <mergeCell ref="E2:AB3"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="B70:B71"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="B64:B65"/>
+    <mergeCell ref="B66:B67"/>
+    <mergeCell ref="B68:B69"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="B60:B61"/>
+    <mergeCell ref="B62:B63"/>
+    <mergeCell ref="C68:D68"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="A75:A79"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="C67:D67"/>
+    <mergeCell ref="C69:D69"/>
+    <mergeCell ref="C72:D72"/>
+    <mergeCell ref="C73:D73"/>
+    <mergeCell ref="C74:D74"/>
+    <mergeCell ref="C75:D75"/>
+    <mergeCell ref="C76:D76"/>
+    <mergeCell ref="C77:D77"/>
+    <mergeCell ref="C78:D78"/>
+    <mergeCell ref="C79:D79"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="BF2:BS2"/>
+    <mergeCell ref="AG5:AJ5"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="AE6:AF6"/>
+    <mergeCell ref="AI6:AJ6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="B27:B28"/>
     <mergeCell ref="AG46:AH46"/>
     <mergeCell ref="AI46:AJ46"/>
     <mergeCell ref="AG48:AH48"/>
@@ -34724,161 +36551,45 @@
     <mergeCell ref="C62:D62"/>
     <mergeCell ref="C64:D64"/>
     <mergeCell ref="C66:D66"/>
-    <mergeCell ref="AE6:AF6"/>
-    <mergeCell ref="AI6:AJ6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="BF2:BS2"/>
-    <mergeCell ref="AG5:AJ5"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="A75:A79"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="C61:D61"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="C65:D65"/>
-    <mergeCell ref="C67:D67"/>
-    <mergeCell ref="C69:D69"/>
-    <mergeCell ref="C72:D72"/>
-    <mergeCell ref="C73:D73"/>
-    <mergeCell ref="C74:D74"/>
-    <mergeCell ref="C75:D75"/>
-    <mergeCell ref="C76:D76"/>
-    <mergeCell ref="C77:D77"/>
-    <mergeCell ref="C78:D78"/>
-    <mergeCell ref="C79:D79"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="E5:F6"/>
-    <mergeCell ref="E2:AB3"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="B70:B71"/>
-    <mergeCell ref="C70:D70"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="B64:B65"/>
-    <mergeCell ref="B66:B67"/>
-    <mergeCell ref="B68:B69"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="B54:B55"/>
-    <mergeCell ref="B56:B57"/>
-    <mergeCell ref="B58:B59"/>
-    <mergeCell ref="B60:B61"/>
-    <mergeCell ref="B62:B63"/>
-    <mergeCell ref="C68:D68"/>
+    <mergeCell ref="AG66:AH66"/>
+    <mergeCell ref="AI66:AJ66"/>
+    <mergeCell ref="AG68:AH68"/>
+    <mergeCell ref="AI68:AJ68"/>
+    <mergeCell ref="AG72:AH72"/>
+    <mergeCell ref="AI72:AJ72"/>
+    <mergeCell ref="AG54:AH54"/>
+    <mergeCell ref="AI54:AJ54"/>
+    <mergeCell ref="AG56:AH56"/>
+    <mergeCell ref="AI56:AJ56"/>
+    <mergeCell ref="AG58:AH58"/>
+    <mergeCell ref="AI58:AJ58"/>
+    <mergeCell ref="AG60:AH60"/>
+    <mergeCell ref="AI60:AJ60"/>
+    <mergeCell ref="AG62:AH62"/>
+    <mergeCell ref="AI62:AJ62"/>
+    <mergeCell ref="AG64:AH64"/>
+    <mergeCell ref="AI64:AJ64"/>
+    <mergeCell ref="AG75:AH75"/>
+    <mergeCell ref="AI75:AJ75"/>
+    <mergeCell ref="AG76:AH76"/>
+    <mergeCell ref="AI76:AJ76"/>
+    <mergeCell ref="AG77:AH77"/>
+    <mergeCell ref="AG80:AH80"/>
+    <mergeCell ref="AI77:AJ77"/>
+    <mergeCell ref="AI79:AJ79"/>
+    <mergeCell ref="AG79:AH79"/>
+    <mergeCell ref="AI80:AJ80"/>
+    <mergeCell ref="AG81:AH81"/>
+    <mergeCell ref="AI81:AJ81"/>
+    <mergeCell ref="G82:I82"/>
+    <mergeCell ref="O82:Q82"/>
+    <mergeCell ref="B84:B85"/>
+    <mergeCell ref="G83:I83"/>
+    <mergeCell ref="C84:AB85"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="C80:D80"/>
+    <mergeCell ref="C81:D81"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.118110236220472" right="0.118110236220472" top="0.35433070866141703" bottom="0.55118110236220497" header="0.31496062992126" footer="0.31496062992126"/>
@@ -34894,6 +36605,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101004D4CCBE22655944796F59B17B9006C15" ma:contentTypeVersion="" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="f481576c72d824a80c867b56d5274a41">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b7c6cbfa-29cf-4ada-90bf-db8e550dae8d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3bc755a260c778b5f630b987d93a78f8" ns2:_="">
     <xsd:import namespace="b7c6cbfa-29cf-4ada-90bf-db8e550dae8d"/>
@@ -35071,22 +36797,31 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ECA946AD-4EA3-4FCA-B864-262800288FDF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="b7c6cbfa-29cf-4ada-90bf-db8e550dae8d"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5458833A-D997-4113-BB83-F938CBB9D86E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{82807CA0-8C25-4FF6-8C67-D0A8F7400434}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -35102,28 +36837,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5458833A-D997-4113-BB83-F938CBB9D86E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ECA946AD-4EA3-4FCA-B864-262800288FDF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="b7c6cbfa-29cf-4ada-90bf-db8e550dae8d"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/api/cp-dss-api/gateway/src/main/resources/reports/Vessel_1_Loading_Plan_Template.xlsx
+++ b/api/cp-dss-api/gateway/src/main/resources/reports/Vessel_1_Loading_Plan_Template.xlsx
@@ -9,12 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17316" windowHeight="6156" tabRatio="738"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17316" windowHeight="6156" tabRatio="738" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="CRUD - 021 pg1" sheetId="27" r:id="rId1"/>
-    <sheet name="CRUD-021 pg2 " sheetId="29" r:id="rId2"/>
-    <sheet name="CRUD-021 pg3" sheetId="28" r:id="rId3"/>
+    <sheet name="CRUD - 021 pg2 " sheetId="29" r:id="rId2"/>
+    <sheet name="CRUD - 021 pg3" sheetId="28" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="\A" localSheetId="0">#REF!</definedName>
@@ -34,7 +34,7 @@
     <definedName name="B" localSheetId="0">#REF!</definedName>
     <definedName name="B">#REF!</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'CRUD - 021 pg1'!$A$1:$Z$71</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">'CRUD-021 pg3'!$A$1:$AM$87</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'CRUD - 021 pg3'!$A$1:$AM$87</definedName>
     <definedName name="SSSN_2NDOF">#REF!</definedName>
     <definedName name="SSSN_3RDOF">#REF!</definedName>
     <definedName name="SSSN_AFIG">'CRUD - 021 pg1'!$C$15:$P$27</definedName>
@@ -2982,99 +2982,6 @@
     <t>${bm}</t>
   </si>
   <si>
-    <t>${cargoTankStatus.present}</t>
-  </si>
-  <si>
-    <t>${cargoTankStatus16.present}</t>
-  </si>
-  <si>
-    <t>${cargoTankStatus15.present}</t>
-  </si>
-  <si>
-    <t>${cargoTankStatus14.present}</t>
-  </si>
-  <si>
-    <t>${cargoTankStatus13.present}</t>
-  </si>
-  <si>
-    <t>${cargoTankStatus12.present}</t>
-  </si>
-  <si>
-    <t>${cargoTankStatus11.present}</t>
-  </si>
-  <si>
-    <t>${cargoTankStatus10.present}</t>
-  </si>
-  <si>
-    <t>${cargoTankStatus9.present}</t>
-  </si>
-  <si>
-    <t>${cargoTankStatus8.present}</t>
-  </si>
-  <si>
-    <t>${cargoTankStatus7.present}</t>
-  </si>
-  <si>
-    <t>${cargoTankStatus6.present}</t>
-  </si>
-  <si>
-    <t>${cargoTankStatus5.present}</t>
-  </si>
-  <si>
-    <t>${cargoTankStatus4.present}</t>
-  </si>
-  <si>
-    <t>${cargoTankStatus3.present}</t>
-  </si>
-  <si>
-    <t>${cargoTankStatus2.present}</t>
-  </si>
-  <si>
-    <t>${cargoTankStatus1.present}</t>
-  </si>
-  <si>
-    <t>${ballastTankStatus.present}</t>
-  </si>
-  <si>
-    <t>${ballastTankStatus1.present}</t>
-  </si>
-  <si>
-    <t>${ballastTankStatus2.present}</t>
-  </si>
-  <si>
-    <t>${ballastTankStatus3.present}</t>
-  </si>
-  <si>
-    <t>${ballastTankStatus4.present}</t>
-  </si>
-  <si>
-    <t>${ballastTankStatus5.present}</t>
-  </si>
-  <si>
-    <t>${ballastTankStatus6.present}</t>
-  </si>
-  <si>
-    <t>${ballastTankStatus7.present}</t>
-  </si>
-  <si>
-    <t>${ballastTankStatus8.present}</t>
-  </si>
-  <si>
-    <t>${ballastTankStatus9.present}</t>
-  </si>
-  <si>
-    <t>${ballastTankStatus10.present}</t>
-  </si>
-  <si>
-    <t>${ballastTankStatus11.present}</t>
-  </si>
-  <si>
-    <t>${ballastTankStatus12.present}</t>
-  </si>
-  <si>
-    <t>${ballastTankStatus13.present}</t>
-  </si>
-  <si>
     <t>BALLAST TANKS</t>
   </si>
   <si>
@@ -3334,9 +3241,6 @@
   </si>
   <si>
     <t>${sheetThree.ballastTanks[14].tankName}</t>
-  </si>
-  <si>
-    <t>${ballastTankStatus14.present}</t>
   </si>
   <si>
     <t>${gm}</t>
@@ -3699,6 +3603,102 @@
   </si>
   <si>
     <t>9. CARGO MACH. IN USE :</t>
+  </si>
+  <si>
+    <t>${cargoTankStatus.colorCode}</t>
+  </si>
+  <si>
+    <t>${cargoTankStatus1.colorCode}</t>
+  </si>
+  <si>
+    <t>${cargoTankStatus2.colorCode}</t>
+  </si>
+  <si>
+    <t>${cargoTankStatus3.colorCode}</t>
+  </si>
+  <si>
+    <t>${cargoTankStatus4.colorCode}</t>
+  </si>
+  <si>
+    <t>${cargoTankStatus5.colorCode}</t>
+  </si>
+  <si>
+    <t>${cargoTankStatus6.colorCode}</t>
+  </si>
+  <si>
+    <t>${cargoTankStatus7.colorCode}</t>
+  </si>
+  <si>
+    <t>${cargoTankStatus8.colorCode}</t>
+  </si>
+  <si>
+    <t>${cargoTankStatus9.colorCode}</t>
+  </si>
+  <si>
+    <t>${cargoTankStatus10.colorCode}</t>
+  </si>
+  <si>
+    <t>${cargoTankStatus11.colorCode}</t>
+  </si>
+  <si>
+    <t>${cargoTankStatus12.colorCode}</t>
+  </si>
+  <si>
+    <t>${cargoTankStatus13.colorCode}</t>
+  </si>
+  <si>
+    <t>${cargoTankStatus14.colorCode}</t>
+  </si>
+  <si>
+    <t>${cargoTankStatus15.colorCode}</t>
+  </si>
+  <si>
+    <t>${cargoTankStatus16.colorCode}</t>
+  </si>
+  <si>
+    <t>${ballastTankStatus.colorCode}</t>
+  </si>
+  <si>
+    <t>${ballastTankStatus1.colorCode}</t>
+  </si>
+  <si>
+    <t>${ballastTankStatus2.colorCode}</t>
+  </si>
+  <si>
+    <t>${ballastTankStatus3.colorCode}</t>
+  </si>
+  <si>
+    <t>${ballastTankStatus4.colorCode}</t>
+  </si>
+  <si>
+    <t>${ballastTankStatus5.colorCode}</t>
+  </si>
+  <si>
+    <t>${ballastTankStatus6.colorCode}</t>
+  </si>
+  <si>
+    <t>${ballastTankStatus7.colorCode}</t>
+  </si>
+  <si>
+    <t>${ballastTankStatus8.colorCode}</t>
+  </si>
+  <si>
+    <t>${ballastTankStatus9.colorCode}</t>
+  </si>
+  <si>
+    <t>${ballastTankStatus10.colorCode}</t>
+  </si>
+  <si>
+    <t>${ballastTankStatus11.colorCode}</t>
+  </si>
+  <si>
+    <t>${ballastTankStatus12.colorCode}</t>
+  </si>
+  <si>
+    <t>${ballastTankStatus13.colorCode}</t>
+  </si>
+  <si>
+    <t>${ballastTankStatus14.colorCode}</t>
   </si>
 </sst>
 </file>
@@ -4120,7 +4120,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="29">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -4440,6 +4440,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -4459,7 +4472,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="444">
+  <cellXfs count="446">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -5085,11 +5098,29 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="174" fontId="35" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="174" fontId="35" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="174" fontId="35" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="174" fontId="35" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -5101,40 +5132,6 @@
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="174" fontId="35" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="174" fontId="35" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="9" fontId="39" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="9" fontId="39" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="174" fontId="35" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="174" fontId="35" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="173" fontId="35" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -5149,11 +5146,27 @@
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
@@ -5256,6 +5269,22 @@
       <alignment horizontal="right" wrapText="1" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="9" fontId="39" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="9" fontId="39" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="174" fontId="35" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="174" fontId="35" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" wrapText="1"/>
       <protection locked="0"/>
@@ -5263,12 +5292,12 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="174" fontId="35" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="174" fontId="35" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="14" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5298,14 +5327,6 @@
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="17" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="8" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -5355,6 +5376,14 @@
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="11" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -5633,6 +5662,12 @@
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="5" borderId="19" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -5754,22 +5789,6 @@
     </xf>
     <xf numFmtId="49" fontId="23" fillId="5" borderId="17" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -7138,7 +7157,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AS75"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A25" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A25" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
@@ -7254,13 +7273,13 @@
         <v>33</v>
       </c>
       <c r="C5" s="51"/>
-      <c r="D5" s="313" t="s">
+      <c r="D5" s="315" t="s">
         <v>66</v>
       </c>
-      <c r="E5" s="313"/>
-      <c r="F5" s="313"/>
-      <c r="G5" s="313"/>
-      <c r="H5" s="313"/>
+      <c r="E5" s="315"/>
+      <c r="F5" s="315"/>
+      <c r="G5" s="315"/>
+      <c r="H5" s="315"/>
       <c r="I5" s="52"/>
       <c r="J5" s="52"/>
       <c r="K5" s="52"/>
@@ -7278,13 +7297,13 @@
       <c r="U5" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="V5" s="255" t="s">
+      <c r="V5" s="259" t="s">
         <v>69</v>
       </c>
-      <c r="W5" s="255"/>
-      <c r="X5" s="255"/>
-      <c r="Y5" s="255"/>
-      <c r="Z5" s="255"/>
+      <c r="W5" s="259"/>
+      <c r="X5" s="259"/>
+      <c r="Y5" s="259"/>
+      <c r="Z5" s="259"/>
       <c r="AA5" s="48"/>
       <c r="AB5" s="56"/>
     </row>
@@ -7314,13 +7333,13 @@
       <c r="U6" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="V6" s="256" t="s">
+      <c r="V6" s="260" t="s">
         <v>70</v>
       </c>
-      <c r="W6" s="256"/>
-      <c r="X6" s="256"/>
-      <c r="Y6" s="256"/>
-      <c r="Z6" s="256"/>
+      <c r="W6" s="260"/>
+      <c r="X6" s="260"/>
+      <c r="Y6" s="260"/>
+      <c r="Z6" s="260"/>
       <c r="AA6" s="48"/>
       <c r="AB6" s="56"/>
     </row>
@@ -7358,13 +7377,13 @@
       <c r="U7" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="V7" s="256" t="s">
+      <c r="V7" s="260" t="s">
         <v>71</v>
       </c>
-      <c r="W7" s="256"/>
-      <c r="X7" s="256"/>
-      <c r="Y7" s="256"/>
-      <c r="Z7" s="256"/>
+      <c r="W7" s="260"/>
+      <c r="X7" s="260"/>
+      <c r="Y7" s="260"/>
+      <c r="Z7" s="260"/>
       <c r="AA7" s="48"/>
       <c r="AB7" s="56"/>
     </row>
@@ -7587,8 +7606,8 @@
       <c r="G15" s="234" t="s">
         <v>270</v>
       </c>
-      <c r="H15" s="440"/>
-      <c r="I15" s="441"/>
+      <c r="H15" s="304"/>
+      <c r="I15" s="305"/>
       <c r="J15" s="79" t="s">
         <v>271</v>
       </c>
@@ -7596,8 +7615,8 @@
       <c r="L15" s="234" t="s">
         <v>272</v>
       </c>
-      <c r="M15" s="440"/>
-      <c r="N15" s="441"/>
+      <c r="M15" s="304"/>
+      <c r="N15" s="305"/>
       <c r="O15" s="79" t="s">
         <v>273</v>
       </c>
@@ -7605,12 +7624,12 @@
       <c r="Q15" s="81"/>
       <c r="R15" s="71"/>
       <c r="S15" s="71"/>
-      <c r="T15" s="258" t="s">
+      <c r="T15" s="267" t="s">
         <v>42</v>
       </c>
-      <c r="U15" s="258"/>
-      <c r="V15" s="258"/>
-      <c r="W15" s="258"/>
+      <c r="U15" s="267"/>
+      <c r="V15" s="267"/>
+      <c r="W15" s="267"/>
       <c r="X15" s="82"/>
       <c r="Y15" s="83"/>
       <c r="Z15" s="74"/>
@@ -7679,10 +7698,10 @@
       <c r="G17" s="229" t="s">
         <v>286</v>
       </c>
-      <c r="H17" s="268" t="s">
+      <c r="H17" s="263" t="s">
         <v>145</v>
       </c>
-      <c r="I17" s="269"/>
+      <c r="I17" s="264"/>
       <c r="J17" s="86" t="s">
         <v>289</v>
       </c>
@@ -7692,10 +7711,10 @@
       <c r="L17" s="229" t="s">
         <v>292</v>
       </c>
-      <c r="M17" s="268" t="s">
+      <c r="M17" s="263" t="s">
         <v>201</v>
       </c>
-      <c r="N17" s="269"/>
+      <c r="N17" s="264"/>
       <c r="O17" s="86" t="s">
         <v>295</v>
       </c>
@@ -7751,10 +7770,10 @@
       <c r="Q18" s="85"/>
       <c r="R18" s="71"/>
       <c r="S18" s="71"/>
-      <c r="T18" s="257"/>
-      <c r="U18" s="257"/>
-      <c r="V18" s="257"/>
-      <c r="W18" s="257"/>
+      <c r="T18" s="261"/>
+      <c r="U18" s="261"/>
+      <c r="V18" s="261"/>
+      <c r="W18" s="261"/>
       <c r="X18" s="82"/>
       <c r="Y18" s="90"/>
       <c r="Z18" s="74"/>
@@ -7782,10 +7801,10 @@
       <c r="G19" s="231" t="s">
         <v>147</v>
       </c>
-      <c r="H19" s="263" t="s">
+      <c r="H19" s="253" t="s">
         <v>148</v>
       </c>
-      <c r="I19" s="264"/>
+      <c r="I19" s="254"/>
       <c r="J19" s="93" t="s">
         <v>175</v>
       </c>
@@ -7795,10 +7814,10 @@
       <c r="L19" s="93" t="s">
         <v>203</v>
       </c>
-      <c r="M19" s="263" t="s">
+      <c r="M19" s="253" t="s">
         <v>204</v>
       </c>
-      <c r="N19" s="264"/>
+      <c r="N19" s="254"/>
       <c r="O19" s="95" t="s">
         <v>231</v>
       </c>
@@ -7810,10 +7829,10 @@
       </c>
       <c r="R19" s="71"/>
       <c r="S19" s="71"/>
-      <c r="T19" s="257"/>
-      <c r="U19" s="257"/>
-      <c r="V19" s="257"/>
-      <c r="W19" s="257"/>
+      <c r="T19" s="261"/>
+      <c r="U19" s="261"/>
+      <c r="V19" s="261"/>
+      <c r="W19" s="261"/>
       <c r="X19" s="82"/>
       <c r="Y19" s="90"/>
       <c r="Z19" s="74"/>
@@ -7838,10 +7857,10 @@
       <c r="G20" s="230" t="s">
         <v>285</v>
       </c>
-      <c r="H20" s="311" t="s">
+      <c r="H20" s="255" t="s">
         <v>121</v>
       </c>
-      <c r="I20" s="312"/>
+      <c r="I20" s="256"/>
       <c r="J20" s="97" t="s">
         <v>287</v>
       </c>
@@ -7866,10 +7885,10 @@
       </c>
       <c r="R20" s="71"/>
       <c r="S20" s="71"/>
-      <c r="T20" s="257"/>
-      <c r="U20" s="257"/>
-      <c r="V20" s="257"/>
-      <c r="W20" s="257"/>
+      <c r="T20" s="261"/>
+      <c r="U20" s="261"/>
+      <c r="V20" s="261"/>
+      <c r="W20" s="261"/>
       <c r="X20" s="82"/>
       <c r="Y20" s="90"/>
       <c r="Z20" s="74"/>
@@ -7920,18 +7939,18 @@
       <c r="C22" s="232" t="s">
         <v>95</v>
       </c>
-      <c r="D22" s="261" t="s">
+      <c r="D22" s="298" t="s">
         <v>96</v>
       </c>
-      <c r="E22" s="261"/>
-      <c r="F22" s="262"/>
+      <c r="E22" s="298"/>
+      <c r="F22" s="299"/>
       <c r="G22" s="105" t="s">
         <v>123</v>
       </c>
-      <c r="H22" s="261" t="s">
+      <c r="H22" s="298" t="s">
         <v>124</v>
       </c>
-      <c r="I22" s="262"/>
+      <c r="I22" s="299"/>
       <c r="J22" s="102" t="s">
         <v>151</v>
       </c>
@@ -7941,10 +7960,10 @@
       <c r="L22" s="102" t="s">
         <v>179</v>
       </c>
-      <c r="M22" s="261" t="s">
+      <c r="M22" s="298" t="s">
         <v>180</v>
       </c>
-      <c r="N22" s="262"/>
+      <c r="N22" s="299"/>
       <c r="O22" s="106" t="s">
         <v>207</v>
       </c>
@@ -7980,10 +7999,10 @@
       <c r="G23" s="230" t="s">
         <v>288</v>
       </c>
-      <c r="H23" s="311" t="s">
+      <c r="H23" s="255" t="s">
         <v>153</v>
       </c>
-      <c r="I23" s="312"/>
+      <c r="I23" s="256"/>
       <c r="J23" s="97" t="s">
         <v>291</v>
       </c>
@@ -7993,10 +8012,10 @@
       <c r="L23" s="230" t="s">
         <v>294</v>
       </c>
-      <c r="M23" s="311" t="s">
+      <c r="M23" s="255" t="s">
         <v>209</v>
       </c>
-      <c r="N23" s="312"/>
+      <c r="N23" s="256"/>
       <c r="O23" s="97" t="s">
         <v>296</v>
       </c>
@@ -8048,12 +8067,12 @@
       <c r="Q24" s="85"/>
       <c r="R24" s="71"/>
       <c r="S24" s="71"/>
-      <c r="T24" s="254" t="s">
+      <c r="T24" s="266" t="s">
         <v>258</v>
       </c>
-      <c r="U24" s="254"/>
-      <c r="V24" s="254"/>
-      <c r="W24" s="254"/>
+      <c r="U24" s="266"/>
+      <c r="V24" s="266"/>
+      <c r="W24" s="266"/>
       <c r="X24" s="82"/>
       <c r="Y24" s="108" t="s">
         <v>266</v>
@@ -8078,10 +8097,10 @@
       <c r="G25" s="231" t="s">
         <v>155</v>
       </c>
-      <c r="H25" s="300" t="s">
+      <c r="H25" s="257" t="s">
         <v>156</v>
       </c>
-      <c r="I25" s="301"/>
+      <c r="I25" s="258"/>
       <c r="J25" s="93" t="s">
         <v>183</v>
       </c>
@@ -8091,10 +8110,10 @@
       <c r="L25" s="93" t="s">
         <v>211</v>
       </c>
-      <c r="M25" s="259" t="s">
+      <c r="M25" s="300" t="s">
         <v>212</v>
       </c>
-      <c r="N25" s="260"/>
+      <c r="N25" s="301"/>
       <c r="O25" s="93" t="s">
         <v>235</v>
       </c>
@@ -8129,8 +8148,8 @@
       <c r="G26" s="233" t="s">
         <v>276</v>
       </c>
-      <c r="H26" s="442"/>
-      <c r="I26" s="443"/>
+      <c r="H26" s="328"/>
+      <c r="I26" s="329"/>
       <c r="J26" s="109" t="s">
         <v>277</v>
       </c>
@@ -8138,8 +8157,8 @@
       <c r="L26" s="233" t="s">
         <v>278</v>
       </c>
-      <c r="M26" s="442"/>
-      <c r="N26" s="443"/>
+      <c r="M26" s="328"/>
+      <c r="N26" s="329"/>
       <c r="O26" s="76" t="s">
         <v>279</v>
       </c>
@@ -8147,11 +8166,11 @@
       <c r="Q26" s="85"/>
       <c r="R26" s="71"/>
       <c r="S26" s="71"/>
-      <c r="T26" s="253" t="s">
+      <c r="T26" s="265" t="s">
         <v>43</v>
       </c>
-      <c r="U26" s="253"/>
-      <c r="V26" s="253"/>
+      <c r="U26" s="265"/>
+      <c r="V26" s="265"/>
       <c r="W26" s="74" t="s">
         <v>10</v>
       </c>
@@ -8193,11 +8212,11 @@
       <c r="Q27" s="113"/>
       <c r="R27" s="71"/>
       <c r="S27" s="73"/>
-      <c r="T27" s="253" t="s">
+      <c r="T27" s="265" t="s">
         <v>75</v>
       </c>
-      <c r="U27" s="253"/>
-      <c r="V27" s="253"/>
+      <c r="U27" s="265"/>
+      <c r="V27" s="265"/>
       <c r="W27" s="74" t="s">
         <v>10</v>
       </c>
@@ -8227,11 +8246,11 @@
       <c r="Q28" s="113"/>
       <c r="R28" s="71"/>
       <c r="S28" s="73"/>
-      <c r="T28" s="254" t="s">
+      <c r="T28" s="266" t="s">
         <v>45</v>
       </c>
-      <c r="U28" s="254"/>
-      <c r="V28" s="254"/>
+      <c r="U28" s="266"/>
+      <c r="V28" s="266"/>
       <c r="W28" s="74" t="s">
         <v>10</v>
       </c>
@@ -8332,12 +8351,12 @@
       <c r="Q31" s="65"/>
       <c r="R31" s="116"/>
       <c r="S31" s="120"/>
-      <c r="T31" s="258" t="s">
+      <c r="T31" s="267" t="s">
         <v>42</v>
       </c>
-      <c r="U31" s="258"/>
-      <c r="V31" s="258"/>
-      <c r="W31" s="258"/>
+      <c r="U31" s="267"/>
+      <c r="V31" s="267"/>
+      <c r="W31" s="267"/>
       <c r="X31" s="118"/>
       <c r="Y31" s="119"/>
       <c r="Z31" s="74"/>
@@ -8362,12 +8381,12 @@
       <c r="Q32" s="121"/>
       <c r="R32" s="121"/>
       <c r="S32" s="121"/>
-      <c r="T32" s="265" t="s">
+      <c r="T32" s="268" t="s">
         <v>83</v>
       </c>
-      <c r="U32" s="265"/>
-      <c r="V32" s="265"/>
-      <c r="W32" s="265"/>
+      <c r="U32" s="268"/>
+      <c r="V32" s="268"/>
+      <c r="W32" s="268"/>
       <c r="X32" s="82" t="s">
         <v>10</v>
       </c>
@@ -8379,13 +8398,13 @@
       <c r="AG32" s="123"/>
       <c r="AH32" s="123"/>
       <c r="AI32" s="123"/>
-      <c r="AJ32" s="266"/>
-      <c r="AK32" s="266"/>
+      <c r="AJ32" s="271"/>
+      <c r="AK32" s="271"/>
       <c r="AL32" s="124"/>
       <c r="AM32" s="124"/>
       <c r="AN32" s="124"/>
-      <c r="AO32" s="266"/>
-      <c r="AP32" s="266"/>
+      <c r="AO32" s="271"/>
+      <c r="AP32" s="271"/>
       <c r="AQ32" s="124"/>
       <c r="AR32" s="124"/>
       <c r="AS32" s="124"/>
@@ -8404,8 +8423,8 @@
       <c r="G33" s="234" t="s">
         <v>299</v>
       </c>
-      <c r="H33" s="440"/>
-      <c r="I33" s="441"/>
+      <c r="H33" s="304"/>
+      <c r="I33" s="305"/>
       <c r="J33" s="226" t="s">
         <v>300</v>
       </c>
@@ -8413,8 +8432,8 @@
       <c r="L33" s="234" t="s">
         <v>301</v>
       </c>
-      <c r="M33" s="440"/>
-      <c r="N33" s="441"/>
+      <c r="M33" s="304"/>
+      <c r="N33" s="305"/>
       <c r="O33" s="226" t="s">
         <v>302</v>
       </c>
@@ -8430,20 +8449,20 @@
       <c r="Y33" s="126"/>
       <c r="Z33" s="126"/>
       <c r="AA33" s="126"/>
-      <c r="AF33" s="267"/>
-      <c r="AG33" s="267"/>
-      <c r="AH33" s="267"/>
-      <c r="AI33" s="267"/>
-      <c r="AJ33" s="267"/>
-      <c r="AK33" s="267"/>
-      <c r="AL33" s="267"/>
-      <c r="AM33" s="267"/>
-      <c r="AN33" s="267"/>
-      <c r="AO33" s="267"/>
-      <c r="AP33" s="267"/>
-      <c r="AQ33" s="267"/>
-      <c r="AR33" s="267"/>
-      <c r="AS33" s="267"/>
+      <c r="AF33" s="262"/>
+      <c r="AG33" s="262"/>
+      <c r="AH33" s="262"/>
+      <c r="AI33" s="262"/>
+      <c r="AJ33" s="262"/>
+      <c r="AK33" s="262"/>
+      <c r="AL33" s="262"/>
+      <c r="AM33" s="262"/>
+      <c r="AN33" s="262"/>
+      <c r="AO33" s="262"/>
+      <c r="AP33" s="262"/>
+      <c r="AQ33" s="262"/>
+      <c r="AR33" s="262"/>
+      <c r="AS33" s="262"/>
     </row>
     <row r="34" spans="1:45" s="69" customFormat="1" ht="12" customHeight="1">
       <c r="A34" s="127"/>
@@ -8521,10 +8540,10 @@
       <c r="G35" s="229" t="s">
         <v>305</v>
       </c>
-      <c r="H35" s="268" t="s">
+      <c r="H35" s="263" t="s">
         <v>159</v>
       </c>
-      <c r="I35" s="269"/>
+      <c r="I35" s="264"/>
       <c r="J35" s="229" t="s">
         <v>306</v>
       </c>
@@ -8534,10 +8553,10 @@
       <c r="L35" s="229" t="s">
         <v>307</v>
       </c>
-      <c r="M35" s="268" t="s">
+      <c r="M35" s="263" t="s">
         <v>215</v>
       </c>
-      <c r="N35" s="269"/>
+      <c r="N35" s="264"/>
       <c r="O35" s="229" t="s">
         <v>308</v>
       </c>
@@ -8561,15 +8580,15 @@
       <c r="AD35" s="69" t="s">
         <v>37</v>
       </c>
-      <c r="AF35" s="267"/>
-      <c r="AG35" s="267"/>
+      <c r="AF35" s="262"/>
+      <c r="AG35" s="262"/>
       <c r="AH35" s="248"/>
       <c r="AI35" s="248"/>
-      <c r="AJ35" s="267"/>
-      <c r="AK35" s="267"/>
-      <c r="AL35" s="267"/>
-      <c r="AM35" s="267"/>
-      <c r="AN35" s="267"/>
+      <c r="AJ35" s="262"/>
+      <c r="AK35" s="262"/>
+      <c r="AL35" s="262"/>
+      <c r="AM35" s="262"/>
+      <c r="AN35" s="262"/>
       <c r="AO35" s="248"/>
       <c r="AP35" s="248"/>
       <c r="AQ35" s="248"/>
@@ -8654,10 +8673,10 @@
       <c r="G37" s="93" t="s">
         <v>161</v>
       </c>
-      <c r="H37" s="263" t="s">
+      <c r="H37" s="253" t="s">
         <v>162</v>
       </c>
-      <c r="I37" s="264"/>
+      <c r="I37" s="254"/>
       <c r="J37" s="93" t="s">
         <v>189</v>
       </c>
@@ -8667,10 +8686,10 @@
       <c r="L37" s="93" t="s">
         <v>217</v>
       </c>
-      <c r="M37" s="263" t="s">
+      <c r="M37" s="253" t="s">
         <v>218</v>
       </c>
-      <c r="N37" s="264"/>
+      <c r="N37" s="254"/>
       <c r="O37" s="95" t="s">
         <v>241</v>
       </c>
@@ -8694,11 +8713,11 @@
         <v>37</v>
       </c>
       <c r="AF37" s="103"/>
-      <c r="AG37" s="270"/>
-      <c r="AH37" s="270"/>
-      <c r="AI37" s="270"/>
-      <c r="AJ37" s="271"/>
-      <c r="AK37" s="271"/>
+      <c r="AG37" s="269"/>
+      <c r="AH37" s="269"/>
+      <c r="AI37" s="269"/>
+      <c r="AJ37" s="270"/>
+      <c r="AK37" s="270"/>
       <c r="AL37" s="129"/>
       <c r="AM37" s="103"/>
       <c r="AN37" s="130"/>
@@ -8720,14 +8739,14 @@
         <v>107</v>
       </c>
       <c r="E38" s="294"/>
-      <c r="F38" s="298"/>
+      <c r="F38" s="302"/>
       <c r="G38" s="230" t="s">
         <v>310</v>
       </c>
-      <c r="H38" s="311" t="s">
+      <c r="H38" s="255" t="s">
         <v>135</v>
       </c>
-      <c r="I38" s="312"/>
+      <c r="I38" s="256"/>
       <c r="J38" s="227" t="s">
         <v>311</v>
       </c>
@@ -8759,13 +8778,13 @@
       <c r="X38" s="71"/>
       <c r="Y38" s="136"/>
       <c r="Z38" s="71"/>
-      <c r="AF38" s="267"/>
-      <c r="AG38" s="267"/>
-      <c r="AH38" s="267"/>
-      <c r="AI38" s="267"/>
-      <c r="AJ38" s="267"/>
-      <c r="AK38" s="267"/>
-      <c r="AL38" s="267"/>
+      <c r="AF38" s="262"/>
+      <c r="AG38" s="262"/>
+      <c r="AH38" s="262"/>
+      <c r="AI38" s="262"/>
+      <c r="AJ38" s="262"/>
+      <c r="AK38" s="262"/>
+      <c r="AL38" s="262"/>
       <c r="AM38" s="248"/>
       <c r="AN38" s="248"/>
       <c r="AO38" s="248"/>
@@ -8834,18 +8853,18 @@
       <c r="C40" s="232" t="s">
         <v>109</v>
       </c>
-      <c r="D40" s="261" t="s">
+      <c r="D40" s="298" t="s">
         <v>110</v>
       </c>
-      <c r="E40" s="261"/>
-      <c r="F40" s="262"/>
+      <c r="E40" s="298"/>
+      <c r="F40" s="299"/>
       <c r="G40" s="105" t="s">
         <v>137</v>
       </c>
-      <c r="H40" s="261" t="s">
+      <c r="H40" s="298" t="s">
         <v>138</v>
       </c>
-      <c r="I40" s="262"/>
+      <c r="I40" s="299"/>
       <c r="J40" s="102" t="s">
         <v>165</v>
       </c>
@@ -8855,10 +8874,10 @@
       <c r="L40" s="102" t="s">
         <v>193</v>
       </c>
-      <c r="M40" s="261" t="s">
+      <c r="M40" s="298" t="s">
         <v>194</v>
       </c>
-      <c r="N40" s="262"/>
+      <c r="N40" s="299"/>
       <c r="O40" s="106" t="s">
         <v>221</v>
       </c>
@@ -8868,12 +8887,12 @@
       <c r="Q40" s="107"/>
       <c r="R40" s="71"/>
       <c r="S40" s="65"/>
-      <c r="T40" s="254" t="s">
+      <c r="T40" s="266" t="s">
         <v>258</v>
       </c>
-      <c r="U40" s="254"/>
-      <c r="V40" s="254"/>
-      <c r="W40" s="254"/>
+      <c r="U40" s="266"/>
+      <c r="V40" s="266"/>
+      <c r="W40" s="266"/>
       <c r="X40" s="82"/>
       <c r="Y40" s="137" t="s">
         <v>85</v>
@@ -8883,13 +8902,13 @@
       <c r="AG40" s="129"/>
       <c r="AH40" s="103"/>
       <c r="AI40" s="130"/>
-      <c r="AJ40" s="271"/>
-      <c r="AK40" s="271"/>
+      <c r="AJ40" s="270"/>
+      <c r="AK40" s="270"/>
       <c r="AL40" s="129"/>
       <c r="AM40" s="103"/>
       <c r="AN40" s="129"/>
-      <c r="AO40" s="271"/>
-      <c r="AP40" s="271"/>
+      <c r="AO40" s="270"/>
+      <c r="AP40" s="270"/>
       <c r="AQ40" s="129"/>
       <c r="AR40" s="103"/>
       <c r="AS40" s="129"/>
@@ -8912,10 +8931,10 @@
       <c r="G41" s="230" t="s">
         <v>316</v>
       </c>
-      <c r="H41" s="311" t="s">
+      <c r="H41" s="255" t="s">
         <v>167</v>
       </c>
-      <c r="I41" s="312"/>
+      <c r="I41" s="256"/>
       <c r="J41" s="227" t="s">
         <v>317</v>
       </c>
@@ -8925,10 +8944,10 @@
       <c r="L41" s="230" t="s">
         <v>318</v>
       </c>
-      <c r="M41" s="311" t="s">
+      <c r="M41" s="255" t="s">
         <v>223</v>
       </c>
-      <c r="N41" s="312"/>
+      <c r="N41" s="256"/>
       <c r="O41" s="227" t="s">
         <v>319</v>
       </c>
@@ -8952,8 +8971,8 @@
       <c r="AJ41" s="248"/>
       <c r="AK41" s="248"/>
       <c r="AL41" s="248"/>
-      <c r="AM41" s="267"/>
-      <c r="AN41" s="267"/>
+      <c r="AM41" s="262"/>
+      <c r="AN41" s="262"/>
       <c r="AO41" s="248"/>
       <c r="AP41" s="248"/>
       <c r="AQ41" s="248"/>
@@ -8992,11 +9011,11 @@
       <c r="Q42" s="85"/>
       <c r="R42" s="71"/>
       <c r="S42" s="71"/>
-      <c r="T42" s="253" t="s">
+      <c r="T42" s="265" t="s">
         <v>43</v>
       </c>
-      <c r="U42" s="253"/>
-      <c r="V42" s="253"/>
+      <c r="U42" s="265"/>
+      <c r="V42" s="265"/>
       <c r="W42" s="74" t="s">
         <v>10</v>
       </c>
@@ -9038,10 +9057,10 @@
       <c r="G43" s="93" t="s">
         <v>169</v>
       </c>
-      <c r="H43" s="300" t="s">
+      <c r="H43" s="257" t="s">
         <v>170</v>
       </c>
-      <c r="I43" s="301"/>
+      <c r="I43" s="258"/>
       <c r="J43" s="93" t="s">
         <v>197</v>
       </c>
@@ -9051,10 +9070,10 @@
       <c r="L43" s="93" t="s">
         <v>225</v>
       </c>
-      <c r="M43" s="263" t="s">
+      <c r="M43" s="253" t="s">
         <v>226</v>
       </c>
-      <c r="N43" s="264"/>
+      <c r="N43" s="254"/>
       <c r="O43" s="93" t="s">
         <v>245</v>
       </c>
@@ -9064,11 +9083,11 @@
       <c r="Q43" s="85"/>
       <c r="R43" s="71"/>
       <c r="S43" s="71"/>
-      <c r="T43" s="253" t="s">
+      <c r="T43" s="265" t="s">
         <v>75</v>
       </c>
-      <c r="U43" s="253"/>
-      <c r="V43" s="253"/>
+      <c r="U43" s="265"/>
+      <c r="V43" s="265"/>
       <c r="W43" s="74" t="s">
         <v>10</v>
       </c>
@@ -9081,13 +9100,13 @@
       <c r="AG43" s="123"/>
       <c r="AH43" s="123"/>
       <c r="AI43" s="123"/>
-      <c r="AJ43" s="266"/>
-      <c r="AK43" s="266"/>
+      <c r="AJ43" s="271"/>
+      <c r="AK43" s="271"/>
       <c r="AL43" s="124"/>
       <c r="AM43" s="124"/>
       <c r="AN43" s="124"/>
-      <c r="AO43" s="266"/>
-      <c r="AP43" s="266"/>
+      <c r="AO43" s="271"/>
+      <c r="AP43" s="271"/>
       <c r="AQ43" s="124"/>
       <c r="AR43" s="124"/>
       <c r="AS43" s="124"/>
@@ -9106,8 +9125,8 @@
       <c r="G44" s="234" t="s">
         <v>322</v>
       </c>
-      <c r="H44" s="440"/>
-      <c r="I44" s="441"/>
+      <c r="H44" s="304"/>
+      <c r="I44" s="305"/>
       <c r="J44" s="109" t="s">
         <v>323</v>
       </c>
@@ -9115,8 +9134,8 @@
       <c r="L44" s="234" t="s">
         <v>324</v>
       </c>
-      <c r="M44" s="440"/>
-      <c r="N44" s="441"/>
+      <c r="M44" s="304"/>
+      <c r="N44" s="305"/>
       <c r="O44" s="76" t="s">
         <v>325</v>
       </c>
@@ -9124,11 +9143,11 @@
       <c r="Q44" s="85"/>
       <c r="R44" s="71"/>
       <c r="S44" s="71"/>
-      <c r="T44" s="254" t="s">
+      <c r="T44" s="266" t="s">
         <v>45</v>
       </c>
-      <c r="U44" s="254"/>
-      <c r="V44" s="254"/>
+      <c r="U44" s="266"/>
+      <c r="V44" s="266"/>
       <c r="W44" s="74" t="s">
         <v>10</v>
       </c>
@@ -9140,20 +9159,20 @@
       <c r="AC44" s="69" t="s">
         <v>37</v>
       </c>
-      <c r="AF44" s="267"/>
-      <c r="AG44" s="267"/>
-      <c r="AH44" s="267"/>
-      <c r="AI44" s="267"/>
-      <c r="AJ44" s="267"/>
-      <c r="AK44" s="267"/>
-      <c r="AL44" s="267"/>
-      <c r="AM44" s="267"/>
-      <c r="AN44" s="267"/>
-      <c r="AO44" s="267"/>
-      <c r="AP44" s="267"/>
-      <c r="AQ44" s="267"/>
-      <c r="AR44" s="267"/>
-      <c r="AS44" s="267"/>
+      <c r="AF44" s="262"/>
+      <c r="AG44" s="262"/>
+      <c r="AH44" s="262"/>
+      <c r="AI44" s="262"/>
+      <c r="AJ44" s="262"/>
+      <c r="AK44" s="262"/>
+      <c r="AL44" s="262"/>
+      <c r="AM44" s="262"/>
+      <c r="AN44" s="262"/>
+      <c r="AO44" s="262"/>
+      <c r="AP44" s="262"/>
+      <c r="AQ44" s="262"/>
+      <c r="AR44" s="262"/>
+      <c r="AS44" s="262"/>
     </row>
     <row r="45" spans="1:45" s="69" customFormat="1" ht="12" customHeight="1">
       <c r="A45" s="84"/>
@@ -9198,18 +9217,18 @@
     <row r="46" spans="1:45" ht="17.25" customHeight="1">
       <c r="A46" s="56"/>
       <c r="B46" s="140"/>
-      <c r="C46" s="299"/>
-      <c r="D46" s="299"/>
-      <c r="E46" s="299"/>
-      <c r="F46" s="299"/>
-      <c r="G46" s="299"/>
-      <c r="H46" s="299"/>
-      <c r="I46" s="299"/>
-      <c r="J46" s="299"/>
-      <c r="K46" s="299"/>
-      <c r="L46" s="299"/>
-      <c r="M46" s="299"/>
-      <c r="N46" s="299"/>
+      <c r="C46" s="303"/>
+      <c r="D46" s="303"/>
+      <c r="E46" s="303"/>
+      <c r="F46" s="303"/>
+      <c r="G46" s="303"/>
+      <c r="H46" s="303"/>
+      <c r="I46" s="303"/>
+      <c r="J46" s="303"/>
+      <c r="K46" s="303"/>
+      <c r="L46" s="303"/>
+      <c r="M46" s="303"/>
+      <c r="N46" s="303"/>
       <c r="O46" s="122"/>
       <c r="P46" s="121"/>
       <c r="Q46" s="121"/>
@@ -9266,20 +9285,20 @@
       <c r="F48" s="142"/>
       <c r="G48" s="142"/>
       <c r="H48" s="142"/>
-      <c r="I48" s="305"/>
-      <c r="J48" s="305"/>
-      <c r="K48" s="305"/>
-      <c r="L48" s="305"/>
-      <c r="M48" s="314" t="s">
+      <c r="I48" s="309"/>
+      <c r="J48" s="309"/>
+      <c r="K48" s="309"/>
+      <c r="L48" s="309"/>
+      <c r="M48" s="316" t="s">
         <v>17</v>
       </c>
-      <c r="N48" s="315"/>
-      <c r="O48" s="315"/>
-      <c r="P48" s="315"/>
-      <c r="Q48" s="315"/>
-      <c r="R48" s="315"/>
-      <c r="S48" s="315"/>
-      <c r="T48" s="316"/>
+      <c r="N48" s="317"/>
+      <c r="O48" s="317"/>
+      <c r="P48" s="317"/>
+      <c r="Q48" s="317"/>
+      <c r="R48" s="317"/>
+      <c r="S48" s="317"/>
+      <c r="T48" s="318"/>
       <c r="U48" s="145"/>
       <c r="V48" s="145"/>
       <c r="W48" s="145"/>
@@ -9300,22 +9319,22 @@
       <c r="F49" s="148"/>
       <c r="G49" s="148"/>
       <c r="H49" s="149"/>
-      <c r="I49" s="310" t="s">
+      <c r="I49" s="314" t="s">
         <v>260</v>
       </c>
-      <c r="J49" s="310"/>
-      <c r="K49" s="310"/>
-      <c r="L49" s="310"/>
-      <c r="M49" s="317" t="s">
+      <c r="J49" s="314"/>
+      <c r="K49" s="314"/>
+      <c r="L49" s="314"/>
+      <c r="M49" s="319" t="s">
         <v>267</v>
       </c>
-      <c r="N49" s="318"/>
-      <c r="O49" s="318"/>
-      <c r="P49" s="318"/>
-      <c r="Q49" s="318"/>
-      <c r="R49" s="318"/>
-      <c r="S49" s="318"/>
-      <c r="T49" s="319"/>
+      <c r="N49" s="320"/>
+      <c r="O49" s="320"/>
+      <c r="P49" s="320"/>
+      <c r="Q49" s="320"/>
+      <c r="R49" s="320"/>
+      <c r="S49" s="320"/>
+      <c r="T49" s="321"/>
       <c r="U49" s="145"/>
       <c r="V49" s="145"/>
       <c r="W49" s="145"/>
@@ -9336,20 +9355,20 @@
       <c r="F50" s="148"/>
       <c r="G50" s="148"/>
       <c r="H50" s="149"/>
-      <c r="I50" s="310" t="s">
+      <c r="I50" s="314" t="s">
         <v>261</v>
       </c>
-      <c r="J50" s="310"/>
-      <c r="K50" s="310"/>
-      <c r="L50" s="310"/>
-      <c r="M50" s="320"/>
-      <c r="N50" s="321"/>
-      <c r="O50" s="321"/>
-      <c r="P50" s="321"/>
-      <c r="Q50" s="321"/>
-      <c r="R50" s="321"/>
-      <c r="S50" s="321"/>
-      <c r="T50" s="322"/>
+      <c r="J50" s="314"/>
+      <c r="K50" s="314"/>
+      <c r="L50" s="314"/>
+      <c r="M50" s="322"/>
+      <c r="N50" s="323"/>
+      <c r="O50" s="323"/>
+      <c r="P50" s="323"/>
+      <c r="Q50" s="323"/>
+      <c r="R50" s="323"/>
+      <c r="S50" s="323"/>
+      <c r="T50" s="324"/>
       <c r="U50" s="146"/>
       <c r="V50" s="145"/>
       <c r="W50" s="145"/>
@@ -9370,20 +9389,20 @@
       <c r="F51" s="148"/>
       <c r="G51" s="148"/>
       <c r="H51" s="149"/>
-      <c r="I51" s="310" t="s">
+      <c r="I51" s="314" t="s">
         <v>264</v>
       </c>
-      <c r="J51" s="310"/>
-      <c r="K51" s="310"/>
-      <c r="L51" s="310"/>
-      <c r="M51" s="320"/>
-      <c r="N51" s="321"/>
-      <c r="O51" s="321"/>
-      <c r="P51" s="321"/>
-      <c r="Q51" s="321"/>
-      <c r="R51" s="321"/>
-      <c r="S51" s="321"/>
-      <c r="T51" s="322"/>
+      <c r="J51" s="314"/>
+      <c r="K51" s="314"/>
+      <c r="L51" s="314"/>
+      <c r="M51" s="322"/>
+      <c r="N51" s="323"/>
+      <c r="O51" s="323"/>
+      <c r="P51" s="323"/>
+      <c r="Q51" s="323"/>
+      <c r="R51" s="323"/>
+      <c r="S51" s="323"/>
+      <c r="T51" s="324"/>
       <c r="U51" s="146"/>
       <c r="V51" s="145"/>
       <c r="W51" s="145"/>
@@ -9404,20 +9423,20 @@
       <c r="F52" s="148"/>
       <c r="G52" s="148"/>
       <c r="H52" s="149"/>
-      <c r="I52" s="310" t="s">
+      <c r="I52" s="314" t="s">
         <v>263</v>
       </c>
-      <c r="J52" s="310"/>
-      <c r="K52" s="310"/>
-      <c r="L52" s="310"/>
-      <c r="M52" s="320"/>
-      <c r="N52" s="321"/>
-      <c r="O52" s="321"/>
-      <c r="P52" s="321"/>
-      <c r="Q52" s="321"/>
-      <c r="R52" s="321"/>
-      <c r="S52" s="321"/>
-      <c r="T52" s="322"/>
+      <c r="J52" s="314"/>
+      <c r="K52" s="314"/>
+      <c r="L52" s="314"/>
+      <c r="M52" s="322"/>
+      <c r="N52" s="323"/>
+      <c r="O52" s="323"/>
+      <c r="P52" s="323"/>
+      <c r="Q52" s="323"/>
+      <c r="R52" s="323"/>
+      <c r="S52" s="323"/>
+      <c r="T52" s="324"/>
       <c r="U52" s="146"/>
       <c r="V52" s="145"/>
       <c r="W52" s="145"/>
@@ -9438,20 +9457,20 @@
       <c r="F53" s="148"/>
       <c r="G53" s="148"/>
       <c r="H53" s="149"/>
-      <c r="I53" s="310" t="s">
+      <c r="I53" s="314" t="s">
         <v>262</v>
       </c>
-      <c r="J53" s="310"/>
-      <c r="K53" s="310"/>
-      <c r="L53" s="310"/>
-      <c r="M53" s="320"/>
-      <c r="N53" s="321"/>
-      <c r="O53" s="321"/>
-      <c r="P53" s="321"/>
-      <c r="Q53" s="321"/>
-      <c r="R53" s="321"/>
-      <c r="S53" s="321"/>
-      <c r="T53" s="322"/>
+      <c r="J53" s="314"/>
+      <c r="K53" s="314"/>
+      <c r="L53" s="314"/>
+      <c r="M53" s="322"/>
+      <c r="N53" s="323"/>
+      <c r="O53" s="323"/>
+      <c r="P53" s="323"/>
+      <c r="Q53" s="323"/>
+      <c r="R53" s="323"/>
+      <c r="S53" s="323"/>
+      <c r="T53" s="324"/>
       <c r="U53" s="146"/>
       <c r="V53" s="145"/>
       <c r="W53" s="145"/>
@@ -9463,29 +9482,29 @@
     </row>
     <row r="54" spans="1:30" ht="13.2" customHeight="1">
       <c r="A54" s="144"/>
-      <c r="B54" s="302" t="s">
+      <c r="B54" s="306" t="s">
         <v>23</v>
       </c>
-      <c r="C54" s="303"/>
-      <c r="D54" s="303"/>
-      <c r="E54" s="303"/>
-      <c r="F54" s="303"/>
-      <c r="G54" s="303"/>
-      <c r="H54" s="304"/>
-      <c r="I54" s="309" t="s">
+      <c r="C54" s="307"/>
+      <c r="D54" s="307"/>
+      <c r="E54" s="307"/>
+      <c r="F54" s="307"/>
+      <c r="G54" s="307"/>
+      <c r="H54" s="308"/>
+      <c r="I54" s="313" t="s">
         <v>265</v>
       </c>
-      <c r="J54" s="309"/>
-      <c r="K54" s="309"/>
-      <c r="L54" s="309"/>
-      <c r="M54" s="320"/>
-      <c r="N54" s="321"/>
-      <c r="O54" s="321"/>
-      <c r="P54" s="321"/>
-      <c r="Q54" s="321"/>
-      <c r="R54" s="321"/>
-      <c r="S54" s="321"/>
-      <c r="T54" s="322"/>
+      <c r="J54" s="313"/>
+      <c r="K54" s="313"/>
+      <c r="L54" s="313"/>
+      <c r="M54" s="322"/>
+      <c r="N54" s="323"/>
+      <c r="O54" s="323"/>
+      <c r="P54" s="323"/>
+      <c r="Q54" s="323"/>
+      <c r="R54" s="323"/>
+      <c r="S54" s="323"/>
+      <c r="T54" s="324"/>
       <c r="U54" s="146"/>
       <c r="V54" s="145"/>
       <c r="W54" s="145"/>
@@ -9508,18 +9527,18 @@
       <c r="F55" s="152"/>
       <c r="G55" s="152"/>
       <c r="H55" s="153"/>
-      <c r="I55" s="309"/>
-      <c r="J55" s="309"/>
-      <c r="K55" s="309"/>
-      <c r="L55" s="309"/>
-      <c r="M55" s="320"/>
-      <c r="N55" s="321"/>
-      <c r="O55" s="321"/>
-      <c r="P55" s="321"/>
-      <c r="Q55" s="321"/>
-      <c r="R55" s="321"/>
-      <c r="S55" s="321"/>
-      <c r="T55" s="322"/>
+      <c r="I55" s="313"/>
+      <c r="J55" s="313"/>
+      <c r="K55" s="313"/>
+      <c r="L55" s="313"/>
+      <c r="M55" s="322"/>
+      <c r="N55" s="323"/>
+      <c r="O55" s="323"/>
+      <c r="P55" s="323"/>
+      <c r="Q55" s="323"/>
+      <c r="R55" s="323"/>
+      <c r="S55" s="323"/>
+      <c r="T55" s="324"/>
       <c r="U55" s="146"/>
       <c r="V55" s="145"/>
       <c r="W55" s="145"/>
@@ -9542,18 +9561,18 @@
       <c r="F56" s="152"/>
       <c r="G56" s="152"/>
       <c r="H56" s="153"/>
-      <c r="I56" s="309"/>
-      <c r="J56" s="309"/>
-      <c r="K56" s="309"/>
-      <c r="L56" s="309"/>
-      <c r="M56" s="320"/>
-      <c r="N56" s="321"/>
-      <c r="O56" s="321"/>
-      <c r="P56" s="321"/>
-      <c r="Q56" s="321"/>
-      <c r="R56" s="321"/>
-      <c r="S56" s="321"/>
-      <c r="T56" s="322"/>
+      <c r="I56" s="313"/>
+      <c r="J56" s="313"/>
+      <c r="K56" s="313"/>
+      <c r="L56" s="313"/>
+      <c r="M56" s="322"/>
+      <c r="N56" s="323"/>
+      <c r="O56" s="323"/>
+      <c r="P56" s="323"/>
+      <c r="Q56" s="323"/>
+      <c r="R56" s="323"/>
+      <c r="S56" s="323"/>
+      <c r="T56" s="324"/>
       <c r="U56" s="146"/>
       <c r="V56" s="145"/>
       <c r="W56" s="145"/>
@@ -9576,18 +9595,18 @@
       <c r="F57" s="152"/>
       <c r="G57" s="152"/>
       <c r="H57" s="153"/>
-      <c r="I57" s="309"/>
-      <c r="J57" s="309"/>
-      <c r="K57" s="309"/>
-      <c r="L57" s="309"/>
-      <c r="M57" s="320"/>
-      <c r="N57" s="321"/>
-      <c r="O57" s="321"/>
-      <c r="P57" s="321"/>
-      <c r="Q57" s="321"/>
-      <c r="R57" s="321"/>
-      <c r="S57" s="321"/>
-      <c r="T57" s="322"/>
+      <c r="I57" s="313"/>
+      <c r="J57" s="313"/>
+      <c r="K57" s="313"/>
+      <c r="L57" s="313"/>
+      <c r="M57" s="322"/>
+      <c r="N57" s="323"/>
+      <c r="O57" s="323"/>
+      <c r="P57" s="323"/>
+      <c r="Q57" s="323"/>
+      <c r="R57" s="323"/>
+      <c r="S57" s="323"/>
+      <c r="T57" s="324"/>
       <c r="U57" s="146"/>
       <c r="V57" s="145"/>
       <c r="W57" s="145"/>
@@ -9610,18 +9629,18 @@
       <c r="F58" s="152"/>
       <c r="G58" s="152"/>
       <c r="H58" s="153"/>
-      <c r="I58" s="309"/>
-      <c r="J58" s="309"/>
-      <c r="K58" s="309"/>
-      <c r="L58" s="309"/>
-      <c r="M58" s="320"/>
-      <c r="N58" s="321"/>
-      <c r="O58" s="321"/>
-      <c r="P58" s="321"/>
-      <c r="Q58" s="321"/>
-      <c r="R58" s="321"/>
-      <c r="S58" s="321"/>
-      <c r="T58" s="322"/>
+      <c r="I58" s="313"/>
+      <c r="J58" s="313"/>
+      <c r="K58" s="313"/>
+      <c r="L58" s="313"/>
+      <c r="M58" s="322"/>
+      <c r="N58" s="323"/>
+      <c r="O58" s="323"/>
+      <c r="P58" s="323"/>
+      <c r="Q58" s="323"/>
+      <c r="R58" s="323"/>
+      <c r="S58" s="323"/>
+      <c r="T58" s="324"/>
       <c r="U58" s="146"/>
       <c r="V58" s="145"/>
       <c r="W58" s="145"/>
@@ -9644,18 +9663,18 @@
       <c r="F59" s="154"/>
       <c r="G59" s="154"/>
       <c r="H59" s="155"/>
-      <c r="I59" s="309"/>
-      <c r="J59" s="309"/>
-      <c r="K59" s="309"/>
-      <c r="L59" s="309"/>
-      <c r="M59" s="323"/>
-      <c r="N59" s="324"/>
-      <c r="O59" s="324"/>
-      <c r="P59" s="324"/>
-      <c r="Q59" s="324"/>
-      <c r="R59" s="324"/>
-      <c r="S59" s="324"/>
-      <c r="T59" s="325"/>
+      <c r="I59" s="313"/>
+      <c r="J59" s="313"/>
+      <c r="K59" s="313"/>
+      <c r="L59" s="313"/>
+      <c r="M59" s="325"/>
+      <c r="N59" s="326"/>
+      <c r="O59" s="326"/>
+      <c r="P59" s="326"/>
+      <c r="Q59" s="326"/>
+      <c r="R59" s="326"/>
+      <c r="S59" s="326"/>
+      <c r="T59" s="327"/>
       <c r="U59" s="146"/>
       <c r="V59" s="145"/>
       <c r="W59" s="145"/>
@@ -9775,10 +9794,10 @@
         <v>29</v>
       </c>
       <c r="C63" s="163"/>
-      <c r="D63" s="307" t="s">
+      <c r="D63" s="311" t="s">
         <v>30</v>
       </c>
-      <c r="E63" s="308"/>
+      <c r="E63" s="312"/>
       <c r="F63" s="284" t="s">
         <v>250</v>
       </c>
@@ -9917,12 +9936,12 @@
     </row>
     <row r="67" spans="1:30" ht="17.25" customHeight="1">
       <c r="A67" s="69"/>
-      <c r="B67" s="306" t="s">
+      <c r="B67" s="310" t="s">
         <v>53</v>
       </c>
-      <c r="C67" s="307"/>
-      <c r="D67" s="307"/>
-      <c r="E67" s="308"/>
+      <c r="C67" s="311"/>
+      <c r="D67" s="311"/>
+      <c r="E67" s="312"/>
       <c r="F67" s="284" t="s">
         <v>254</v>
       </c>
@@ -10189,12 +10208,6 @@
     <mergeCell ref="H41:I41"/>
     <mergeCell ref="D40:F40"/>
     <mergeCell ref="H38:I38"/>
-    <mergeCell ref="T15:W15"/>
-    <mergeCell ref="P12:Z12"/>
-    <mergeCell ref="Y10:Z10"/>
-    <mergeCell ref="W11:Z11"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="T16:W16"/>
     <mergeCell ref="T24:W24"/>
     <mergeCell ref="O24:P24"/>
     <mergeCell ref="G27:I27"/>
@@ -10211,6 +10224,8 @@
     <mergeCell ref="E24:F24"/>
     <mergeCell ref="T26:V26"/>
     <mergeCell ref="D22:F22"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="M22:N22"/>
     <mergeCell ref="Z64:AD64"/>
     <mergeCell ref="U64:Y64"/>
     <mergeCell ref="P64:T64"/>
@@ -10296,6 +10311,12 @@
     <mergeCell ref="T28:V28"/>
     <mergeCell ref="T42:V42"/>
     <mergeCell ref="T40:W40"/>
+    <mergeCell ref="O27:P27"/>
+    <mergeCell ref="T31:W31"/>
+    <mergeCell ref="J39:K39"/>
+    <mergeCell ref="L39:N39"/>
+    <mergeCell ref="T32:W32"/>
+    <mergeCell ref="G34:I34"/>
     <mergeCell ref="V5:Z5"/>
     <mergeCell ref="V6:Z6"/>
     <mergeCell ref="C16:D16"/>
@@ -10306,15 +10327,12 @@
     <mergeCell ref="T19:W19"/>
     <mergeCell ref="T20:W20"/>
     <mergeCell ref="V7:Z7"/>
-    <mergeCell ref="O27:P27"/>
-    <mergeCell ref="T31:W31"/>
-    <mergeCell ref="J39:K39"/>
-    <mergeCell ref="L39:N39"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="M22:N22"/>
     <mergeCell ref="M19:N19"/>
-    <mergeCell ref="T32:W32"/>
-    <mergeCell ref="G34:I34"/>
+    <mergeCell ref="T15:W15"/>
+    <mergeCell ref="P12:Z12"/>
+    <mergeCell ref="Y10:Z10"/>
+    <mergeCell ref="W11:Z11"/>
+    <mergeCell ref="T16:W16"/>
     <mergeCell ref="L3:O3"/>
     <mergeCell ref="Q20:Q21"/>
     <mergeCell ref="B20:B21"/>
@@ -10338,6 +10356,7 @@
     <mergeCell ref="O39:P39"/>
     <mergeCell ref="M23:N23"/>
     <mergeCell ref="H25:I25"/>
+    <mergeCell ref="C27:D27"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <dataValidations count="1">
@@ -10379,18 +10398,18 @@
     <row r="1" spans="1:28"/>
     <row r="2" spans="1:28">
       <c r="A2" s="2" t="s">
-        <v>488</v>
+        <v>456</v>
       </c>
     </row>
     <row r="3" spans="1:28">
       <c r="A3" s="3" t="s">
-        <v>489</v>
+        <v>457</v>
       </c>
     </row>
     <row r="4" spans="1:28"/>
     <row r="5" spans="1:28">
       <c r="A5" s="2" t="s">
-        <v>555</v>
+        <v>523</v>
       </c>
       <c r="B5" s="38"/>
       <c r="C5" s="38"/>
@@ -10425,7 +10444,7 @@
     </row>
     <row r="7" spans="1:28">
       <c r="B7" s="7" t="s">
-        <v>517</v>
+        <v>485</v>
       </c>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
@@ -10447,70 +10466,70 @@
       <c r="T7" s="8"/>
     </row>
     <row r="8" spans="1:28">
-      <c r="B8" s="332" t="s">
-        <v>518</v>
-      </c>
-      <c r="C8" s="332"/>
-      <c r="D8" s="332"/>
-      <c r="E8" s="332"/>
-      <c r="F8" s="330"/>
-      <c r="G8" s="331"/>
-      <c r="J8" s="332" t="s">
-        <v>519</v>
-      </c>
-      <c r="K8" s="332"/>
-      <c r="L8" s="332"/>
-      <c r="M8" s="333"/>
-      <c r="N8" s="330" t="s">
-        <v>535</v>
-      </c>
-      <c r="O8" s="331"/>
+      <c r="B8" s="336" t="s">
+        <v>486</v>
+      </c>
+      <c r="C8" s="336"/>
+      <c r="D8" s="336"/>
+      <c r="E8" s="336"/>
+      <c r="F8" s="334"/>
+      <c r="G8" s="335"/>
+      <c r="J8" s="336" t="s">
+        <v>487</v>
+      </c>
+      <c r="K8" s="336"/>
+      <c r="L8" s="336"/>
+      <c r="M8" s="337"/>
+      <c r="N8" s="334" t="s">
+        <v>503</v>
+      </c>
+      <c r="O8" s="335"/>
       <c r="R8" s="8"/>
     </row>
     <row r="9" spans="1:28">
-      <c r="B9" s="332" t="s">
-        <v>536</v>
-      </c>
-      <c r="C9" s="332"/>
-      <c r="D9" s="332"/>
-      <c r="E9" s="332"/>
-      <c r="F9" s="330" t="s">
-        <v>542</v>
-      </c>
-      <c r="G9" s="331"/>
-      <c r="J9" s="332" t="s">
-        <v>537</v>
-      </c>
-      <c r="K9" s="332"/>
-      <c r="L9" s="332"/>
-      <c r="M9" s="333"/>
-      <c r="N9" s="330" t="s">
-        <v>539</v>
-      </c>
-      <c r="O9" s="331"/>
+      <c r="B9" s="336" t="s">
+        <v>504</v>
+      </c>
+      <c r="C9" s="336"/>
+      <c r="D9" s="336"/>
+      <c r="E9" s="336"/>
+      <c r="F9" s="334" t="s">
+        <v>510</v>
+      </c>
+      <c r="G9" s="335"/>
+      <c r="J9" s="336" t="s">
+        <v>505</v>
+      </c>
+      <c r="K9" s="336"/>
+      <c r="L9" s="336"/>
+      <c r="M9" s="337"/>
+      <c r="N9" s="334" t="s">
+        <v>507</v>
+      </c>
+      <c r="O9" s="335"/>
       <c r="R9" s="8"/>
     </row>
     <row r="10" spans="1:28">
-      <c r="B10" s="332" t="s">
-        <v>538</v>
-      </c>
-      <c r="C10" s="332"/>
-      <c r="D10" s="332"/>
-      <c r="E10" s="332"/>
-      <c r="F10" s="330" t="s">
-        <v>541</v>
-      </c>
-      <c r="G10" s="331"/>
-      <c r="J10" s="332" t="s">
-        <v>520</v>
-      </c>
-      <c r="K10" s="332"/>
-      <c r="L10" s="332"/>
-      <c r="M10" s="333"/>
-      <c r="N10" s="330" t="s">
-        <v>540</v>
-      </c>
-      <c r="O10" s="331"/>
+      <c r="B10" s="336" t="s">
+        <v>506</v>
+      </c>
+      <c r="C10" s="336"/>
+      <c r="D10" s="336"/>
+      <c r="E10" s="336"/>
+      <c r="F10" s="334" t="s">
+        <v>509</v>
+      </c>
+      <c r="G10" s="335"/>
+      <c r="J10" s="336" t="s">
+        <v>488</v>
+      </c>
+      <c r="K10" s="336"/>
+      <c r="L10" s="336"/>
+      <c r="M10" s="337"/>
+      <c r="N10" s="334" t="s">
+        <v>508</v>
+      </c>
+      <c r="O10" s="335"/>
       <c r="R10" s="8"/>
     </row>
     <row r="11" spans="1:28">
@@ -10542,106 +10561,106 @@
       <c r="R12" s="8"/>
     </row>
     <row r="13" spans="1:28">
-      <c r="B13" s="344" t="s">
-        <v>491</v>
-      </c>
-      <c r="C13" s="344"/>
-      <c r="D13" s="344"/>
-      <c r="E13" s="330" t="s">
-        <v>543</v>
-      </c>
-      <c r="F13" s="331"/>
+      <c r="B13" s="348" t="s">
+        <v>459</v>
+      </c>
+      <c r="C13" s="348"/>
+      <c r="D13" s="348"/>
+      <c r="E13" s="334" t="s">
+        <v>511</v>
+      </c>
+      <c r="F13" s="335"/>
       <c r="H13" s="12" t="s">
-        <v>492</v>
+        <v>460</v>
       </c>
       <c r="I13" s="12"/>
       <c r="J13" s="12"/>
-      <c r="K13" s="345" t="s">
-        <v>544</v>
-      </c>
-      <c r="L13" s="345" t="s">
-        <v>490</v>
+      <c r="K13" s="349" t="s">
+        <v>512</v>
+      </c>
+      <c r="L13" s="349" t="s">
+        <v>458</v>
       </c>
       <c r="M13" s="11"/>
-      <c r="N13" s="344" t="s">
-        <v>493</v>
-      </c>
-      <c r="O13" s="344"/>
-      <c r="P13" s="344"/>
-      <c r="Q13" s="330" t="s">
-        <v>490</v>
-      </c>
-      <c r="R13" s="331"/>
+      <c r="N13" s="348" t="s">
+        <v>461</v>
+      </c>
+      <c r="O13" s="348"/>
+      <c r="P13" s="348"/>
+      <c r="Q13" s="334" t="s">
+        <v>458</v>
+      </c>
+      <c r="R13" s="335"/>
       <c r="S13" s="13"/>
       <c r="T13" s="13"/>
     </row>
     <row r="14" spans="1:28">
-      <c r="B14" s="344" t="s">
-        <v>494</v>
-      </c>
-      <c r="C14" s="344"/>
-      <c r="D14" s="344"/>
-      <c r="E14" s="330" t="s">
-        <v>545</v>
-      </c>
-      <c r="F14" s="331"/>
+      <c r="B14" s="348" t="s">
+        <v>462</v>
+      </c>
+      <c r="C14" s="348"/>
+      <c r="D14" s="348"/>
+      <c r="E14" s="334" t="s">
+        <v>513</v>
+      </c>
+      <c r="F14" s="335"/>
       <c r="H14" s="12" t="s">
-        <v>495</v>
+        <v>463</v>
       </c>
       <c r="I14" s="12"/>
       <c r="J14" s="12"/>
-      <c r="K14" s="345" t="s">
-        <v>546</v>
-      </c>
-      <c r="L14" s="345"/>
+      <c r="K14" s="349" t="s">
+        <v>514</v>
+      </c>
+      <c r="L14" s="349"/>
       <c r="M14" s="11"/>
-      <c r="N14" s="344" t="s">
-        <v>496</v>
-      </c>
-      <c r="O14" s="344"/>
-      <c r="P14" s="344"/>
-      <c r="Q14" s="330" t="s">
-        <v>547</v>
-      </c>
-      <c r="R14" s="331"/>
-      <c r="T14" s="344" t="s">
-        <v>497</v>
-      </c>
-      <c r="U14" s="344"/>
-      <c r="V14" s="330"/>
-      <c r="W14" s="331"/>
+      <c r="N14" s="348" t="s">
+        <v>464</v>
+      </c>
+      <c r="O14" s="348"/>
+      <c r="P14" s="348"/>
+      <c r="Q14" s="334" t="s">
+        <v>515</v>
+      </c>
+      <c r="R14" s="335"/>
+      <c r="T14" s="348" t="s">
+        <v>465</v>
+      </c>
+      <c r="U14" s="348"/>
+      <c r="V14" s="334"/>
+      <c r="W14" s="335"/>
     </row>
     <row r="15" spans="1:28">
-      <c r="B15" s="344" t="s">
-        <v>498</v>
-      </c>
-      <c r="C15" s="344"/>
-      <c r="D15" s="344"/>
-      <c r="E15" s="330" t="s">
-        <v>548</v>
-      </c>
-      <c r="F15" s="331"/>
+      <c r="B15" s="348" t="s">
+        <v>466</v>
+      </c>
+      <c r="C15" s="348"/>
+      <c r="D15" s="348"/>
+      <c r="E15" s="334" t="s">
+        <v>516</v>
+      </c>
+      <c r="F15" s="335"/>
       <c r="H15" s="12" t="s">
-        <v>500</v>
+        <v>468</v>
       </c>
       <c r="I15" s="12"/>
       <c r="J15" s="12"/>
-      <c r="K15" s="345" t="s">
-        <v>549</v>
-      </c>
-      <c r="L15" s="345" t="s">
-        <v>499</v>
+      <c r="K15" s="349" t="s">
+        <v>517</v>
+      </c>
+      <c r="L15" s="349" t="s">
+        <v>467</v>
       </c>
       <c r="M15" s="11"/>
-      <c r="N15" s="344" t="s">
-        <v>501</v>
-      </c>
-      <c r="O15" s="344"/>
-      <c r="P15" s="344"/>
-      <c r="Q15" s="330" t="s">
-        <v>550</v>
-      </c>
-      <c r="R15" s="331"/>
+      <c r="N15" s="348" t="s">
+        <v>469</v>
+      </c>
+      <c r="O15" s="348"/>
+      <c r="P15" s="348"/>
+      <c r="Q15" s="334" t="s">
+        <v>518</v>
+      </c>
+      <c r="R15" s="335"/>
       <c r="S15" s="13"/>
       <c r="T15" s="13"/>
       <c r="V15" s="3"/>
@@ -10652,7 +10671,7 @@
     </row>
     <row r="17" spans="2:22">
       <c r="B17" s="15" t="s">
-        <v>521</v>
+        <v>489</v>
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
@@ -10670,59 +10689,59 @@
     </row>
     <row r="18" spans="2:22" ht="15" customHeight="1">
       <c r="B18" s="20" t="s">
-        <v>502</v>
+        <v>470</v>
       </c>
       <c r="C18" s="20"/>
       <c r="D18" s="5"/>
       <c r="E18" s="16"/>
-      <c r="F18" s="337" t="s">
-        <v>504</v>
-      </c>
-      <c r="G18" s="338"/>
-      <c r="H18" s="330" t="s">
-        <v>551</v>
-      </c>
-      <c r="I18" s="331"/>
+      <c r="F18" s="341" t="s">
+        <v>472</v>
+      </c>
+      <c r="G18" s="342"/>
+      <c r="H18" s="334" t="s">
+        <v>519</v>
+      </c>
+      <c r="I18" s="335"/>
       <c r="J18" s="16"/>
-      <c r="K18" s="337" t="s">
-        <v>505</v>
-      </c>
-      <c r="L18" s="338"/>
-      <c r="M18" s="330" t="s">
-        <v>552</v>
-      </c>
-      <c r="N18" s="331"/>
+      <c r="K18" s="341" t="s">
+        <v>473</v>
+      </c>
+      <c r="L18" s="342"/>
+      <c r="M18" s="334" t="s">
+        <v>520</v>
+      </c>
+      <c r="N18" s="335"/>
       <c r="O18" s="19"/>
     </row>
     <row r="19" spans="2:22" ht="15" customHeight="1">
       <c r="B19" s="20" t="s">
-        <v>506</v>
+        <v>474</v>
       </c>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
       <c r="E19" s="16"/>
-      <c r="F19" s="337" t="s">
-        <v>504</v>
-      </c>
-      <c r="G19" s="338"/>
-      <c r="H19" s="330" t="s">
-        <v>553</v>
-      </c>
-      <c r="I19" s="331"/>
+      <c r="F19" s="341" t="s">
+        <v>472</v>
+      </c>
+      <c r="G19" s="342"/>
+      <c r="H19" s="334" t="s">
+        <v>521</v>
+      </c>
+      <c r="I19" s="335"/>
       <c r="J19" s="16"/>
-      <c r="K19" s="337" t="s">
-        <v>505</v>
-      </c>
-      <c r="L19" s="338"/>
-      <c r="M19" s="330" t="s">
-        <v>554</v>
-      </c>
-      <c r="N19" s="331"/>
+      <c r="K19" s="341" t="s">
+        <v>473</v>
+      </c>
+      <c r="L19" s="342"/>
+      <c r="M19" s="334" t="s">
+        <v>522</v>
+      </c>
+      <c r="N19" s="335"/>
       <c r="O19" s="19"/>
     </row>
     <row r="20" spans="2:22">
       <c r="B20" s="20" t="s">
-        <v>503</v>
+        <v>471</v>
       </c>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
@@ -10740,7 +10759,7 @@
     </row>
     <row r="22" spans="2:22">
       <c r="B22" s="15" t="s">
-        <v>507</v>
+        <v>475</v>
       </c>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
@@ -10765,27 +10784,27 @@
     </row>
     <row r="23" spans="2:22">
       <c r="B23" s="20" t="s">
-        <v>522</v>
+        <v>490</v>
       </c>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
       <c r="E23" s="16"/>
       <c r="F23" s="16"/>
       <c r="G23" s="4"/>
-      <c r="H23" s="339" t="s">
-        <v>490</v>
-      </c>
-      <c r="I23" s="339" t="s">
-        <v>490</v>
+      <c r="H23" s="343" t="s">
+        <v>458</v>
+      </c>
+      <c r="I23" s="343" t="s">
+        <v>458</v>
       </c>
       <c r="J23" s="16"/>
       <c r="K23" s="16"/>
-      <c r="L23" s="340" t="s">
-        <v>508</v>
-      </c>
-      <c r="M23" s="341"/>
-      <c r="N23" s="342"/>
-      <c r="O23" s="343"/>
+      <c r="L23" s="344" t="s">
+        <v>476</v>
+      </c>
+      <c r="M23" s="345"/>
+      <c r="N23" s="346"/>
+      <c r="O23" s="347"/>
       <c r="P23" s="17"/>
       <c r="Q23" s="18"/>
       <c r="R23" s="19"/>
@@ -10795,22 +10814,22 @@
       <c r="V23" s="19"/>
     </row>
     <row r="24" spans="2:22">
-      <c r="B24" s="346" t="s">
-        <v>509</v>
-      </c>
-      <c r="C24" s="346"/>
-      <c r="D24" s="346"/>
-      <c r="E24" s="346"/>
-      <c r="F24" s="346"/>
-      <c r="G24" s="346"/>
-      <c r="H24" s="342"/>
-      <c r="I24" s="347"/>
-      <c r="J24" s="347"/>
-      <c r="K24" s="347"/>
-      <c r="L24" s="347"/>
-      <c r="M24" s="347"/>
-      <c r="N24" s="347"/>
-      <c r="O24" s="343"/>
+      <c r="B24" s="350" t="s">
+        <v>477</v>
+      </c>
+      <c r="C24" s="350"/>
+      <c r="D24" s="350"/>
+      <c r="E24" s="350"/>
+      <c r="F24" s="350"/>
+      <c r="G24" s="350"/>
+      <c r="H24" s="346"/>
+      <c r="I24" s="351"/>
+      <c r="J24" s="351"/>
+      <c r="K24" s="351"/>
+      <c r="L24" s="351"/>
+      <c r="M24" s="351"/>
+      <c r="N24" s="351"/>
+      <c r="O24" s="347"/>
       <c r="P24" s="21"/>
       <c r="Q24" s="5"/>
       <c r="R24" s="5"/>
@@ -10821,7 +10840,7 @@
     </row>
     <row r="25" spans="2:22">
       <c r="B25" s="22" t="s">
-        <v>510</v>
+        <v>478</v>
       </c>
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
@@ -10845,31 +10864,31 @@
       <c r="V25" s="5"/>
     </row>
     <row r="26" spans="2:22">
-      <c r="B26" s="334"/>
-      <c r="C26" s="335"/>
-      <c r="D26" s="335"/>
-      <c r="E26" s="335"/>
-      <c r="F26" s="335"/>
-      <c r="G26" s="335"/>
-      <c r="H26" s="335"/>
-      <c r="I26" s="335"/>
-      <c r="J26" s="335"/>
-      <c r="K26" s="335"/>
-      <c r="L26" s="335"/>
-      <c r="M26" s="335"/>
-      <c r="N26" s="335"/>
-      <c r="O26" s="335"/>
-      <c r="P26" s="335"/>
-      <c r="Q26" s="335"/>
-      <c r="R26" s="335"/>
-      <c r="S26" s="335"/>
-      <c r="T26" s="336"/>
+      <c r="B26" s="338"/>
+      <c r="C26" s="339"/>
+      <c r="D26" s="339"/>
+      <c r="E26" s="339"/>
+      <c r="F26" s="339"/>
+      <c r="G26" s="339"/>
+      <c r="H26" s="339"/>
+      <c r="I26" s="339"/>
+      <c r="J26" s="339"/>
+      <c r="K26" s="339"/>
+      <c r="L26" s="339"/>
+      <c r="M26" s="339"/>
+      <c r="N26" s="339"/>
+      <c r="O26" s="339"/>
+      <c r="P26" s="339"/>
+      <c r="Q26" s="339"/>
+      <c r="R26" s="339"/>
+      <c r="S26" s="339"/>
+      <c r="T26" s="340"/>
       <c r="U26" s="5"/>
       <c r="V26" s="5"/>
     </row>
     <row r="28" spans="2:22">
       <c r="B28" s="15" t="s">
-        <v>511</v>
+        <v>479</v>
       </c>
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
@@ -10889,19 +10908,19 @@
     </row>
     <row r="29" spans="2:22">
       <c r="B29" s="4" t="s">
-        <v>512</v>
-      </c>
-      <c r="C29" s="334"/>
-      <c r="D29" s="335"/>
-      <c r="E29" s="335"/>
-      <c r="F29" s="336"/>
-      <c r="H29" s="353" t="s">
-        <v>513</v>
-      </c>
-      <c r="I29" s="353"/>
-      <c r="J29" s="353"/>
+        <v>480</v>
+      </c>
+      <c r="C29" s="338"/>
+      <c r="D29" s="339"/>
+      <c r="E29" s="339"/>
+      <c r="F29" s="340"/>
+      <c r="H29" s="357" t="s">
+        <v>481</v>
+      </c>
+      <c r="I29" s="357"/>
+      <c r="J29" s="357"/>
       <c r="K29" s="27" t="s">
-        <v>514</v>
+        <v>482</v>
       </c>
       <c r="L29" s="28"/>
       <c r="M29" s="27"/>
@@ -10909,7 +10928,7 @@
     </row>
     <row r="30" spans="2:22">
       <c r="B30" s="29" t="s">
-        <v>523</v>
+        <v>491</v>
       </c>
       <c r="C30" s="31"/>
       <c r="D30" s="31"/>
@@ -10929,7 +10948,7 @@
     </row>
     <row r="31" spans="2:22">
       <c r="B31" s="31" t="s">
-        <v>515</v>
+        <v>483</v>
       </c>
       <c r="C31" s="31"/>
       <c r="D31" s="31"/>
@@ -10949,7 +10968,7 @@
     </row>
     <row r="32" spans="2:22">
       <c r="B32" s="29" t="s">
-        <v>516</v>
+        <v>484</v>
       </c>
       <c r="C32" s="31"/>
       <c r="D32" s="31"/>
@@ -10987,7 +11006,7 @@
     </row>
     <row r="34" spans="1:25">
       <c r="A34" s="2" t="s">
-        <v>569</v>
+        <v>537</v>
       </c>
       <c r="B34" s="39"/>
       <c r="C34" s="39"/>
@@ -11016,39 +11035,39 @@
     </row>
     <row r="35" spans="1:25">
       <c r="A35" s="41"/>
-      <c r="B35" s="361" t="s">
-        <v>556</v>
-      </c>
-      <c r="C35" s="362"/>
-      <c r="D35" s="362"/>
-      <c r="E35" s="362"/>
-      <c r="F35" s="363"/>
-      <c r="G35" s="351" t="s">
-        <v>562</v>
-      </c>
-      <c r="H35" s="351"/>
-      <c r="I35" s="351"/>
-      <c r="J35" s="351"/>
-      <c r="K35" s="351"/>
+      <c r="B35" s="365" t="s">
+        <v>524</v>
+      </c>
+      <c r="C35" s="366"/>
+      <c r="D35" s="366"/>
+      <c r="E35" s="366"/>
+      <c r="F35" s="367"/>
+      <c r="G35" s="355" t="s">
+        <v>530</v>
+      </c>
+      <c r="H35" s="355"/>
+      <c r="I35" s="355"/>
+      <c r="J35" s="355"/>
+      <c r="K35" s="355"/>
       <c r="L35" s="42" t="s">
-        <v>557</v>
-      </c>
-      <c r="M35" s="358"/>
-      <c r="N35" s="359"/>
-      <c r="O35" s="360"/>
-      <c r="P35" s="365" t="s">
-        <v>558</v>
-      </c>
-      <c r="Q35" s="366"/>
-      <c r="R35" s="366"/>
-      <c r="S35" s="367"/>
-      <c r="T35" s="348" t="s">
-        <v>563</v>
-      </c>
-      <c r="U35" s="349"/>
-      <c r="V35" s="349"/>
-      <c r="W35" s="349"/>
-      <c r="X35" s="350"/>
+        <v>525</v>
+      </c>
+      <c r="M35" s="362"/>
+      <c r="N35" s="363"/>
+      <c r="O35" s="364"/>
+      <c r="P35" s="369" t="s">
+        <v>526</v>
+      </c>
+      <c r="Q35" s="370"/>
+      <c r="R35" s="370"/>
+      <c r="S35" s="371"/>
+      <c r="T35" s="352" t="s">
+        <v>531</v>
+      </c>
+      <c r="U35" s="353"/>
+      <c r="V35" s="353"/>
+      <c r="W35" s="353"/>
+      <c r="X35" s="354"/>
       <c r="Y35" s="40"/>
     </row>
     <row r="36" spans="1:25">
@@ -11060,78 +11079,78 @@
       <c r="D36" s="42"/>
       <c r="E36" s="42"/>
       <c r="F36" s="44"/>
-      <c r="G36" s="354"/>
-      <c r="H36" s="355"/>
-      <c r="I36" s="355"/>
-      <c r="J36" s="355"/>
-      <c r="K36" s="355"/>
-      <c r="L36" s="355"/>
-      <c r="M36" s="355"/>
-      <c r="N36" s="355"/>
-      <c r="O36" s="356"/>
-      <c r="P36" s="365" t="s">
-        <v>559</v>
-      </c>
-      <c r="Q36" s="366"/>
-      <c r="R36" s="366"/>
-      <c r="S36" s="367"/>
-      <c r="T36" s="351" t="s">
-        <v>564</v>
-      </c>
-      <c r="U36" s="351"/>
-      <c r="V36" s="351"/>
-      <c r="W36" s="351"/>
-      <c r="X36" s="351"/>
+      <c r="G36" s="358"/>
+      <c r="H36" s="359"/>
+      <c r="I36" s="359"/>
+      <c r="J36" s="359"/>
+      <c r="K36" s="359"/>
+      <c r="L36" s="359"/>
+      <c r="M36" s="359"/>
+      <c r="N36" s="359"/>
+      <c r="O36" s="360"/>
+      <c r="P36" s="369" t="s">
+        <v>527</v>
+      </c>
+      <c r="Q36" s="370"/>
+      <c r="R36" s="370"/>
+      <c r="S36" s="371"/>
+      <c r="T36" s="355" t="s">
+        <v>532</v>
+      </c>
+      <c r="U36" s="355"/>
+      <c r="V36" s="355"/>
+      <c r="W36" s="355"/>
+      <c r="X36" s="355"/>
       <c r="Y36" s="40"/>
     </row>
     <row r="37" spans="1:25" ht="14.4" customHeight="1">
       <c r="A37" s="41"/>
-      <c r="B37" s="364" t="s">
-        <v>566</v>
-      </c>
-      <c r="C37" s="364"/>
-      <c r="D37" s="364"/>
-      <c r="E37" s="364"/>
-      <c r="F37" s="364"/>
-      <c r="G37" s="352" t="s">
-        <v>565</v>
-      </c>
-      <c r="H37" s="352"/>
-      <c r="I37" s="352"/>
-      <c r="J37" s="352"/>
-      <c r="K37" s="352"/>
-      <c r="L37" s="352"/>
-      <c r="M37" s="352"/>
-      <c r="N37" s="352"/>
-      <c r="O37" s="352"/>
-      <c r="P37" s="368" t="s">
-        <v>560</v>
-      </c>
-      <c r="Q37" s="368"/>
-      <c r="R37" s="368"/>
-      <c r="S37" s="368"/>
-      <c r="T37" s="357" t="s">
-        <v>561</v>
-      </c>
-      <c r="U37" s="357"/>
-      <c r="V37" s="357"/>
-      <c r="W37" s="357"/>
-      <c r="X37" s="357"/>
+      <c r="B37" s="368" t="s">
+        <v>534</v>
+      </c>
+      <c r="C37" s="368"/>
+      <c r="D37" s="368"/>
+      <c r="E37" s="368"/>
+      <c r="F37" s="368"/>
+      <c r="G37" s="356" t="s">
+        <v>533</v>
+      </c>
+      <c r="H37" s="356"/>
+      <c r="I37" s="356"/>
+      <c r="J37" s="356"/>
+      <c r="K37" s="356"/>
+      <c r="L37" s="356"/>
+      <c r="M37" s="356"/>
+      <c r="N37" s="356"/>
+      <c r="O37" s="356"/>
+      <c r="P37" s="372" t="s">
+        <v>528</v>
+      </c>
+      <c r="Q37" s="372"/>
+      <c r="R37" s="372"/>
+      <c r="S37" s="372"/>
+      <c r="T37" s="361" t="s">
+        <v>529</v>
+      </c>
+      <c r="U37" s="361"/>
+      <c r="V37" s="361"/>
+      <c r="W37" s="361"/>
+      <c r="X37" s="361"/>
       <c r="Y37" s="40"/>
     </row>
     <row r="38" spans="1:25" customFormat="1" ht="14.4" customHeight="1"/>
     <row r="39" spans="1:25">
-      <c r="B39" s="328" t="s">
-        <v>524</v>
-      </c>
-      <c r="C39" s="328"/>
-      <c r="D39" s="329" t="s">
+      <c r="B39" s="332" t="s">
+        <v>492</v>
+      </c>
+      <c r="C39" s="332"/>
+      <c r="D39" s="333" t="s">
         <v>68</v>
       </c>
-      <c r="E39" s="329"/>
-      <c r="F39" s="329"/>
-      <c r="G39" s="329"/>
-      <c r="H39" s="329"/>
+      <c r="E39" s="333"/>
+      <c r="F39" s="333"/>
+      <c r="G39" s="333"/>
+      <c r="H39" s="333"/>
       <c r="I39" s="5"/>
       <c r="J39" s="5"/>
       <c r="K39" s="5"/>
@@ -11141,15 +11160,15 @@
       <c r="O39" s="5"/>
       <c r="P39" s="5"/>
       <c r="Q39" s="35" t="s">
-        <v>525</v>
-      </c>
-      <c r="R39" s="329" t="s">
+        <v>493</v>
+      </c>
+      <c r="R39" s="333" t="s">
         <v>67</v>
       </c>
-      <c r="S39" s="329"/>
-      <c r="T39" s="329"/>
-      <c r="U39" s="329"/>
-      <c r="V39" s="329"/>
+      <c r="S39" s="333"/>
+      <c r="T39" s="333"/>
+      <c r="U39" s="333"/>
+      <c r="V39" s="333"/>
       <c r="W39" s="225"/>
       <c r="X39" s="19"/>
     </row>
@@ -11180,95 +11199,95 @@
     </row>
     <row r="41" spans="1:25">
       <c r="B41" s="37" t="s">
-        <v>526</v>
-      </c>
-      <c r="C41" s="326"/>
-      <c r="D41" s="326"/>
-      <c r="E41" s="326"/>
-      <c r="F41" s="326"/>
-      <c r="G41" s="326"/>
+        <v>494</v>
+      </c>
+      <c r="C41" s="330"/>
+      <c r="D41" s="330"/>
+      <c r="E41" s="330"/>
+      <c r="F41" s="330"/>
+      <c r="G41" s="330"/>
       <c r="H41" s="5"/>
       <c r="I41" s="4" t="s">
-        <v>527</v>
-      </c>
-      <c r="J41" s="326"/>
-      <c r="K41" s="326"/>
-      <c r="L41" s="326"/>
-      <c r="M41" s="326"/>
-      <c r="N41" s="326"/>
-      <c r="O41" s="326"/>
+        <v>495</v>
+      </c>
+      <c r="J41" s="330"/>
+      <c r="K41" s="330"/>
+      <c r="L41" s="330"/>
+      <c r="M41" s="330"/>
+      <c r="N41" s="330"/>
+      <c r="O41" s="330"/>
       <c r="P41" s="5"/>
       <c r="Q41" s="4" t="s">
-        <v>528</v>
-      </c>
-      <c r="R41" s="327"/>
-      <c r="S41" s="327"/>
-      <c r="T41" s="327"/>
-      <c r="U41" s="327"/>
-      <c r="V41" s="327"/>
-      <c r="W41" s="327"/>
+        <v>496</v>
+      </c>
+      <c r="R41" s="331"/>
+      <c r="S41" s="331"/>
+      <c r="T41" s="331"/>
+      <c r="U41" s="331"/>
+      <c r="V41" s="331"/>
+      <c r="W41" s="331"/>
       <c r="X41" s="19"/>
     </row>
     <row r="42" spans="1:25">
       <c r="B42" s="37" t="s">
-        <v>529</v>
-      </c>
-      <c r="C42" s="326"/>
-      <c r="D42" s="326"/>
-      <c r="E42" s="326"/>
-      <c r="F42" s="326"/>
-      <c r="G42" s="326"/>
+        <v>497</v>
+      </c>
+      <c r="C42" s="330"/>
+      <c r="D42" s="330"/>
+      <c r="E42" s="330"/>
+      <c r="F42" s="330"/>
+      <c r="G42" s="330"/>
       <c r="H42" s="5"/>
       <c r="I42" s="4" t="s">
-        <v>530</v>
-      </c>
-      <c r="J42" s="326"/>
-      <c r="K42" s="326"/>
-      <c r="L42" s="326"/>
-      <c r="M42" s="326"/>
-      <c r="N42" s="326"/>
-      <c r="O42" s="326"/>
+        <v>498</v>
+      </c>
+      <c r="J42" s="330"/>
+      <c r="K42" s="330"/>
+      <c r="L42" s="330"/>
+      <c r="M42" s="330"/>
+      <c r="N42" s="330"/>
+      <c r="O42" s="330"/>
       <c r="P42" s="5"/>
       <c r="Q42" s="4" t="s">
-        <v>531</v>
-      </c>
-      <c r="R42" s="327"/>
-      <c r="S42" s="327"/>
-      <c r="T42" s="327"/>
-      <c r="U42" s="327"/>
-      <c r="V42" s="327"/>
-      <c r="W42" s="327"/>
+        <v>499</v>
+      </c>
+      <c r="R42" s="331"/>
+      <c r="S42" s="331"/>
+      <c r="T42" s="331"/>
+      <c r="U42" s="331"/>
+      <c r="V42" s="331"/>
+      <c r="W42" s="331"/>
       <c r="X42" s="19"/>
     </row>
     <row r="43" spans="1:25">
       <c r="B43" s="37" t="s">
-        <v>532</v>
-      </c>
-      <c r="C43" s="326"/>
-      <c r="D43" s="326"/>
-      <c r="E43" s="326"/>
-      <c r="F43" s="326"/>
-      <c r="G43" s="326"/>
+        <v>500</v>
+      </c>
+      <c r="C43" s="330"/>
+      <c r="D43" s="330"/>
+      <c r="E43" s="330"/>
+      <c r="F43" s="330"/>
+      <c r="G43" s="330"/>
       <c r="H43" s="5"/>
       <c r="I43" s="4" t="s">
-        <v>533</v>
-      </c>
-      <c r="J43" s="326"/>
-      <c r="K43" s="326"/>
-      <c r="L43" s="326"/>
-      <c r="M43" s="326"/>
-      <c r="N43" s="326"/>
-      <c r="O43" s="326"/>
+        <v>501</v>
+      </c>
+      <c r="J43" s="330"/>
+      <c r="K43" s="330"/>
+      <c r="L43" s="330"/>
+      <c r="M43" s="330"/>
+      <c r="N43" s="330"/>
+      <c r="O43" s="330"/>
       <c r="P43" s="5"/>
       <c r="Q43" s="4" t="s">
-        <v>534</v>
-      </c>
-      <c r="R43" s="327"/>
-      <c r="S43" s="327"/>
-      <c r="T43" s="327"/>
-      <c r="U43" s="327"/>
-      <c r="V43" s="327"/>
-      <c r="W43" s="327"/>
+        <v>502</v>
+      </c>
+      <c r="R43" s="331"/>
+      <c r="S43" s="331"/>
+      <c r="T43" s="331"/>
+      <c r="U43" s="331"/>
+      <c r="V43" s="331"/>
+      <c r="W43" s="331"/>
       <c r="X43" s="19"/>
     </row>
     <row r="44" spans="1:25">
@@ -11408,8 +11427,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BW1041"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C86" sqref="C86:AB87"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.33203125" defaultRowHeight="15.6"/>
@@ -11445,37 +11464,37 @@
       <c r="A2" s="174" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="397" t="s">
+      <c r="B2" s="401" t="s">
         <v>65</v>
       </c>
-      <c r="C2" s="397"/>
-      <c r="D2" s="397"/>
-      <c r="E2" s="374" t="s">
+      <c r="C2" s="401"/>
+      <c r="D2" s="401"/>
+      <c r="E2" s="378" t="s">
         <v>56</v>
       </c>
-      <c r="F2" s="375"/>
-      <c r="G2" s="375"/>
-      <c r="H2" s="375"/>
-      <c r="I2" s="375"/>
-      <c r="J2" s="375"/>
-      <c r="K2" s="375"/>
-      <c r="L2" s="375"/>
-      <c r="M2" s="375"/>
-      <c r="N2" s="375"/>
-      <c r="O2" s="375"/>
-      <c r="P2" s="375"/>
-      <c r="Q2" s="375"/>
-      <c r="R2" s="375"/>
-      <c r="S2" s="375"/>
-      <c r="T2" s="375"/>
-      <c r="U2" s="375"/>
-      <c r="V2" s="375"/>
-      <c r="W2" s="375"/>
-      <c r="X2" s="375"/>
-      <c r="Y2" s="375"/>
-      <c r="Z2" s="375"/>
-      <c r="AA2" s="375"/>
-      <c r="AB2" s="376"/>
+      <c r="F2" s="379"/>
+      <c r="G2" s="379"/>
+      <c r="H2" s="379"/>
+      <c r="I2" s="379"/>
+      <c r="J2" s="379"/>
+      <c r="K2" s="379"/>
+      <c r="L2" s="379"/>
+      <c r="M2" s="379"/>
+      <c r="N2" s="379"/>
+      <c r="O2" s="379"/>
+      <c r="P2" s="379"/>
+      <c r="Q2" s="379"/>
+      <c r="R2" s="379"/>
+      <c r="S2" s="379"/>
+      <c r="T2" s="379"/>
+      <c r="U2" s="379"/>
+      <c r="V2" s="379"/>
+      <c r="W2" s="379"/>
+      <c r="X2" s="379"/>
+      <c r="Y2" s="379"/>
+      <c r="Z2" s="379"/>
+      <c r="AA2" s="379"/>
+      <c r="AB2" s="380"/>
       <c r="AC2" s="175"/>
       <c r="AD2" s="175"/>
       <c r="AE2" s="175"/>
@@ -11485,54 +11504,54 @@
       <c r="AI2" s="176"/>
       <c r="AJ2" s="176"/>
       <c r="AP2" s="173"/>
-      <c r="BF2" s="398"/>
-      <c r="BG2" s="398"/>
-      <c r="BH2" s="398"/>
-      <c r="BI2" s="398"/>
-      <c r="BJ2" s="398"/>
-      <c r="BK2" s="398"/>
-      <c r="BL2" s="398"/>
-      <c r="BM2" s="398"/>
-      <c r="BN2" s="398"/>
-      <c r="BO2" s="398"/>
-      <c r="BP2" s="398"/>
-      <c r="BQ2" s="398"/>
-      <c r="BR2" s="398"/>
-      <c r="BS2" s="398"/>
+      <c r="BF2" s="402"/>
+      <c r="BG2" s="402"/>
+      <c r="BH2" s="402"/>
+      <c r="BI2" s="402"/>
+      <c r="BJ2" s="402"/>
+      <c r="BK2" s="402"/>
+      <c r="BL2" s="402"/>
+      <c r="BM2" s="402"/>
+      <c r="BN2" s="402"/>
+      <c r="BO2" s="402"/>
+      <c r="BP2" s="402"/>
+      <c r="BQ2" s="402"/>
+      <c r="BR2" s="402"/>
+      <c r="BS2" s="402"/>
     </row>
     <row r="3" spans="1:75" ht="46.8" customHeight="1" thickBot="1">
       <c r="A3" s="174" t="s">
         <v>49</v>
       </c>
-      <c r="B3" s="397" t="s">
+      <c r="B3" s="401" t="s">
         <v>66</v>
       </c>
-      <c r="C3" s="397"/>
-      <c r="D3" s="397"/>
-      <c r="E3" s="377"/>
-      <c r="F3" s="378"/>
-      <c r="G3" s="378"/>
-      <c r="H3" s="378"/>
-      <c r="I3" s="378"/>
-      <c r="J3" s="378"/>
-      <c r="K3" s="378"/>
-      <c r="L3" s="378"/>
-      <c r="M3" s="378"/>
-      <c r="N3" s="378"/>
-      <c r="O3" s="378"/>
-      <c r="P3" s="378"/>
-      <c r="Q3" s="378"/>
-      <c r="R3" s="378"/>
-      <c r="S3" s="378"/>
-      <c r="T3" s="378"/>
-      <c r="U3" s="378"/>
-      <c r="V3" s="378"/>
-      <c r="W3" s="378"/>
-      <c r="X3" s="378"/>
-      <c r="Y3" s="378"/>
-      <c r="Z3" s="378"/>
-      <c r="AA3" s="378"/>
-      <c r="AB3" s="379"/>
+      <c r="C3" s="401"/>
+      <c r="D3" s="401"/>
+      <c r="E3" s="381"/>
+      <c r="F3" s="382"/>
+      <c r="G3" s="382"/>
+      <c r="H3" s="382"/>
+      <c r="I3" s="382"/>
+      <c r="J3" s="382"/>
+      <c r="K3" s="382"/>
+      <c r="L3" s="382"/>
+      <c r="M3" s="382"/>
+      <c r="N3" s="382"/>
+      <c r="O3" s="382"/>
+      <c r="P3" s="382"/>
+      <c r="Q3" s="382"/>
+      <c r="R3" s="382"/>
+      <c r="S3" s="382"/>
+      <c r="T3" s="382"/>
+      <c r="U3" s="382"/>
+      <c r="V3" s="382"/>
+      <c r="W3" s="382"/>
+      <c r="X3" s="382"/>
+      <c r="Y3" s="382"/>
+      <c r="Z3" s="382"/>
+      <c r="AA3" s="382"/>
+      <c r="AB3" s="383"/>
       <c r="AC3" s="175"/>
       <c r="AD3" s="175"/>
       <c r="AE3" s="175"/>
@@ -11641,22 +11660,22 @@
       <c r="BO4" s="171"/>
     </row>
     <row r="5" spans="1:75" ht="18" customHeight="1">
-      <c r="A5" s="405" t="s">
+      <c r="A5" s="411" t="s">
         <v>327</v>
       </c>
-      <c r="B5" s="380" t="s">
-        <v>454</v>
-      </c>
-      <c r="C5" s="402" t="s">
+      <c r="B5" s="384" t="s">
+        <v>422</v>
+      </c>
+      <c r="C5" s="406" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="382" t="s">
-        <v>455</v>
-      </c>
-      <c r="E5" s="387" t="s">
-        <v>448</v>
-      </c>
-      <c r="F5" s="388"/>
+      <c r="D5" s="386" t="s">
+        <v>423</v>
+      </c>
+      <c r="E5" s="391" t="s">
+        <v>417</v>
+      </c>
+      <c r="F5" s="392"/>
       <c r="G5" s="181"/>
       <c r="H5" s="181"/>
       <c r="I5" s="181"/>
@@ -11683,10 +11702,10 @@
       <c r="AD5" s="185"/>
       <c r="AE5" s="186"/>
       <c r="AF5" s="186"/>
-      <c r="AG5" s="399"/>
-      <c r="AH5" s="399"/>
-      <c r="AI5" s="399"/>
-      <c r="AJ5" s="399"/>
+      <c r="AG5" s="403"/>
+      <c r="AH5" s="403"/>
+      <c r="AI5" s="403"/>
+      <c r="AJ5" s="403"/>
       <c r="AK5" s="187"/>
       <c r="AL5" s="188"/>
       <c r="AM5" s="189"/>
@@ -11728,12 +11747,12 @@
       <c r="BW5" s="189"/>
     </row>
     <row r="6" spans="1:75" ht="18" customHeight="1">
-      <c r="A6" s="406"/>
-      <c r="B6" s="381"/>
-      <c r="C6" s="403"/>
-      <c r="D6" s="383"/>
-      <c r="E6" s="389"/>
-      <c r="F6" s="390"/>
+      <c r="A6" s="412"/>
+      <c r="B6" s="385"/>
+      <c r="C6" s="407"/>
+      <c r="D6" s="387"/>
+      <c r="E6" s="393"/>
+      <c r="F6" s="394"/>
       <c r="G6" s="126"/>
       <c r="H6" s="126"/>
       <c r="I6" s="126"/>
@@ -11758,12 +11777,12 @@
       <c r="AB6" s="126"/>
       <c r="AC6" s="126"/>
       <c r="AD6" s="126"/>
-      <c r="AE6" s="404"/>
-      <c r="AF6" s="404"/>
+      <c r="AE6" s="408"/>
+      <c r="AF6" s="408"/>
       <c r="AG6" s="190"/>
       <c r="AH6" s="191"/>
-      <c r="AI6" s="404"/>
-      <c r="AJ6" s="404"/>
+      <c r="AI6" s="408"/>
+      <c r="AJ6" s="408"/>
       <c r="AK6" s="191"/>
       <c r="AL6" s="192"/>
       <c r="AM6" s="192"/>
@@ -11805,22 +11824,22 @@
       <c r="BW6" s="193"/>
     </row>
     <row r="7" spans="1:75">
-      <c r="A7" s="384" t="s">
-        <v>366</v>
-      </c>
-      <c r="B7" s="385" t="s">
-        <v>367</v>
-      </c>
-      <c r="C7" s="384" t="s">
-        <v>368</v>
-      </c>
-      <c r="D7" s="386" t="s">
-        <v>369</v>
-      </c>
-      <c r="E7" s="400" t="s">
-        <v>334</v>
-      </c>
-      <c r="F7" s="401"/>
+      <c r="A7" s="388" t="s">
+        <v>335</v>
+      </c>
+      <c r="B7" s="409" t="s">
+        <v>336</v>
+      </c>
+      <c r="C7" s="388" t="s">
+        <v>337</v>
+      </c>
+      <c r="D7" s="390" t="s">
+        <v>338</v>
+      </c>
+      <c r="E7" s="404" t="s">
+        <v>538</v>
+      </c>
+      <c r="F7" s="405"/>
       <c r="G7" s="126"/>
       <c r="H7" s="126"/>
       <c r="I7" s="126"/>
@@ -11870,14 +11889,14 @@
       <c r="BW7" s="200"/>
     </row>
     <row r="8" spans="1:75">
-      <c r="A8" s="384"/>
-      <c r="B8" s="385"/>
-      <c r="C8" s="384"/>
-      <c r="D8" s="386"/>
-      <c r="E8" s="400" t="s">
-        <v>456</v>
-      </c>
-      <c r="F8" s="401"/>
+      <c r="A8" s="388"/>
+      <c r="B8" s="410"/>
+      <c r="C8" s="388"/>
+      <c r="D8" s="390"/>
+      <c r="E8" s="404" t="s">
+        <v>424</v>
+      </c>
+      <c r="F8" s="405"/>
       <c r="G8" s="126"/>
       <c r="H8" s="126"/>
       <c r="I8" s="126"/>
@@ -11924,22 +11943,22 @@
       <c r="BW8" s="200"/>
     </row>
     <row r="9" spans="1:75">
-      <c r="A9" s="384" t="s">
-        <v>370</v>
-      </c>
-      <c r="B9" s="385" t="s">
-        <v>371</v>
-      </c>
-      <c r="C9" s="384" t="s">
-        <v>372</v>
-      </c>
-      <c r="D9" s="386" t="s">
-        <v>373</v>
-      </c>
-      <c r="E9" s="400" t="s">
-        <v>350</v>
-      </c>
-      <c r="F9" s="401"/>
+      <c r="A9" s="388" t="s">
+        <v>339</v>
+      </c>
+      <c r="B9" s="389" t="s">
+        <v>340</v>
+      </c>
+      <c r="C9" s="388" t="s">
+        <v>341</v>
+      </c>
+      <c r="D9" s="390" t="s">
+        <v>342</v>
+      </c>
+      <c r="E9" s="404" t="s">
+        <v>539</v>
+      </c>
+      <c r="F9" s="405"/>
       <c r="G9" s="126"/>
       <c r="H9" s="126"/>
       <c r="I9" s="126"/>
@@ -11986,14 +12005,14 @@
       <c r="BW9" s="200"/>
     </row>
     <row r="10" spans="1:75">
-      <c r="A10" s="384"/>
-      <c r="B10" s="385"/>
-      <c r="C10" s="384"/>
-      <c r="D10" s="386"/>
-      <c r="E10" s="400" t="s">
-        <v>457</v>
-      </c>
-      <c r="F10" s="401"/>
+      <c r="A10" s="388"/>
+      <c r="B10" s="389"/>
+      <c r="C10" s="388"/>
+      <c r="D10" s="390"/>
+      <c r="E10" s="404" t="s">
+        <v>425</v>
+      </c>
+      <c r="F10" s="405"/>
       <c r="G10" s="126"/>
       <c r="H10" s="126"/>
       <c r="I10" s="126"/>
@@ -12044,22 +12063,22 @@
       <c r="BW10" s="200"/>
     </row>
     <row r="11" spans="1:75">
-      <c r="A11" s="384" t="s">
-        <v>374</v>
-      </c>
-      <c r="B11" s="385" t="s">
-        <v>375</v>
-      </c>
-      <c r="C11" s="384" t="s">
-        <v>376</v>
-      </c>
-      <c r="D11" s="386" t="s">
-        <v>377</v>
-      </c>
-      <c r="E11" s="400" t="s">
-        <v>349</v>
-      </c>
-      <c r="F11" s="401"/>
+      <c r="A11" s="388" t="s">
+        <v>343</v>
+      </c>
+      <c r="B11" s="389" t="s">
+        <v>344</v>
+      </c>
+      <c r="C11" s="388" t="s">
+        <v>345</v>
+      </c>
+      <c r="D11" s="390" t="s">
+        <v>346</v>
+      </c>
+      <c r="E11" s="404" t="s">
+        <v>540</v>
+      </c>
+      <c r="F11" s="405"/>
       <c r="G11" s="126"/>
       <c r="H11" s="126"/>
       <c r="I11" s="126"/>
@@ -12111,14 +12130,14 @@
       <c r="BW11" s="200"/>
     </row>
     <row r="12" spans="1:75">
-      <c r="A12" s="384"/>
-      <c r="B12" s="385"/>
-      <c r="C12" s="384"/>
-      <c r="D12" s="386"/>
-      <c r="E12" s="400" t="s">
-        <v>458</v>
-      </c>
-      <c r="F12" s="401"/>
+      <c r="A12" s="388"/>
+      <c r="B12" s="389"/>
+      <c r="C12" s="388"/>
+      <c r="D12" s="390"/>
+      <c r="E12" s="404" t="s">
+        <v>426</v>
+      </c>
+      <c r="F12" s="405"/>
       <c r="G12" s="126"/>
       <c r="H12" s="126"/>
       <c r="I12" s="126"/>
@@ -12170,22 +12189,22 @@
       <c r="BW12" s="200"/>
     </row>
     <row r="13" spans="1:75">
-      <c r="A13" s="384" t="s">
-        <v>378</v>
-      </c>
-      <c r="B13" s="385" t="s">
-        <v>379</v>
-      </c>
-      <c r="C13" s="384" t="s">
-        <v>380</v>
-      </c>
-      <c r="D13" s="386" t="s">
-        <v>381</v>
-      </c>
-      <c r="E13" s="400" t="s">
+      <c r="A13" s="388" t="s">
+        <v>347</v>
+      </c>
+      <c r="B13" s="389" t="s">
         <v>348</v>
       </c>
-      <c r="F13" s="401"/>
+      <c r="C13" s="388" t="s">
+        <v>349</v>
+      </c>
+      <c r="D13" s="390" t="s">
+        <v>350</v>
+      </c>
+      <c r="E13" s="404" t="s">
+        <v>541</v>
+      </c>
+      <c r="F13" s="405"/>
       <c r="G13" s="126"/>
       <c r="H13" s="126"/>
       <c r="I13" s="126"/>
@@ -12237,14 +12256,14 @@
       <c r="BW13" s="200"/>
     </row>
     <row r="14" spans="1:75">
-      <c r="A14" s="384"/>
-      <c r="B14" s="385"/>
-      <c r="C14" s="384"/>
-      <c r="D14" s="386"/>
-      <c r="E14" s="400" t="s">
-        <v>459</v>
-      </c>
-      <c r="F14" s="401"/>
+      <c r="A14" s="388"/>
+      <c r="B14" s="389"/>
+      <c r="C14" s="388"/>
+      <c r="D14" s="390"/>
+      <c r="E14" s="404" t="s">
+        <v>427</v>
+      </c>
+      <c r="F14" s="405"/>
       <c r="G14" s="126"/>
       <c r="H14" s="126"/>
       <c r="I14" s="126"/>
@@ -12296,22 +12315,22 @@
       <c r="BW14" s="200"/>
     </row>
     <row r="15" spans="1:75">
-      <c r="A15" s="384" t="s">
-        <v>382</v>
-      </c>
-      <c r="B15" s="385" t="s">
-        <v>383</v>
-      </c>
-      <c r="C15" s="384" t="s">
-        <v>384</v>
-      </c>
-      <c r="D15" s="386" t="s">
-        <v>385</v>
-      </c>
-      <c r="E15" s="400" t="s">
-        <v>347</v>
-      </c>
-      <c r="F15" s="401"/>
+      <c r="A15" s="388" t="s">
+        <v>351</v>
+      </c>
+      <c r="B15" s="389" t="s">
+        <v>352</v>
+      </c>
+      <c r="C15" s="388" t="s">
+        <v>353</v>
+      </c>
+      <c r="D15" s="390" t="s">
+        <v>354</v>
+      </c>
+      <c r="E15" s="404" t="s">
+        <v>542</v>
+      </c>
+      <c r="F15" s="405"/>
       <c r="G15" s="126"/>
       <c r="H15" s="126"/>
       <c r="I15" s="126"/>
@@ -12363,14 +12382,14 @@
       <c r="BW15" s="200"/>
     </row>
     <row r="16" spans="1:75">
-      <c r="A16" s="384"/>
-      <c r="B16" s="385"/>
-      <c r="C16" s="384"/>
-      <c r="D16" s="386"/>
-      <c r="E16" s="400" t="s">
-        <v>460</v>
-      </c>
-      <c r="F16" s="401"/>
+      <c r="A16" s="388"/>
+      <c r="B16" s="389"/>
+      <c r="C16" s="388"/>
+      <c r="D16" s="390"/>
+      <c r="E16" s="404" t="s">
+        <v>428</v>
+      </c>
+      <c r="F16" s="405"/>
       <c r="G16" s="126"/>
       <c r="H16" s="126"/>
       <c r="I16" s="126"/>
@@ -12417,22 +12436,22 @@
       <c r="BW16" s="200"/>
     </row>
     <row r="17" spans="1:75">
-      <c r="A17" s="384" t="s">
-        <v>386</v>
-      </c>
-      <c r="B17" s="385" t="s">
-        <v>387</v>
-      </c>
-      <c r="C17" s="384" t="s">
-        <v>388</v>
-      </c>
-      <c r="D17" s="386" t="s">
-        <v>389</v>
-      </c>
-      <c r="E17" s="400" t="s">
-        <v>346</v>
-      </c>
-      <c r="F17" s="401"/>
+      <c r="A17" s="388" t="s">
+        <v>355</v>
+      </c>
+      <c r="B17" s="389" t="s">
+        <v>356</v>
+      </c>
+      <c r="C17" s="388" t="s">
+        <v>357</v>
+      </c>
+      <c r="D17" s="390" t="s">
+        <v>358</v>
+      </c>
+      <c r="E17" s="404" t="s">
+        <v>543</v>
+      </c>
+      <c r="F17" s="405"/>
       <c r="G17" s="126"/>
       <c r="H17" s="126"/>
       <c r="I17" s="126"/>
@@ -12479,14 +12498,14 @@
       <c r="BW17" s="200"/>
     </row>
     <row r="18" spans="1:75">
-      <c r="A18" s="384"/>
-      <c r="B18" s="385"/>
-      <c r="C18" s="384"/>
-      <c r="D18" s="386"/>
-      <c r="E18" s="400" t="s">
-        <v>461</v>
-      </c>
-      <c r="F18" s="401"/>
+      <c r="A18" s="388"/>
+      <c r="B18" s="389"/>
+      <c r="C18" s="388"/>
+      <c r="D18" s="390"/>
+      <c r="E18" s="404" t="s">
+        <v>429</v>
+      </c>
+      <c r="F18" s="405"/>
       <c r="G18" s="126"/>
       <c r="H18" s="126"/>
       <c r="I18" s="126"/>
@@ -12541,22 +12560,22 @@
       <c r="BW18" s="200"/>
     </row>
     <row r="19" spans="1:75">
-      <c r="A19" s="384" t="s">
-        <v>390</v>
-      </c>
-      <c r="B19" s="385" t="s">
-        <v>391</v>
-      </c>
-      <c r="C19" s="384" t="s">
-        <v>392</v>
-      </c>
-      <c r="D19" s="386" t="s">
-        <v>393</v>
-      </c>
-      <c r="E19" s="400" t="s">
-        <v>345</v>
-      </c>
-      <c r="F19" s="401"/>
+      <c r="A19" s="388" t="s">
+        <v>359</v>
+      </c>
+      <c r="B19" s="389" t="s">
+        <v>360</v>
+      </c>
+      <c r="C19" s="388" t="s">
+        <v>361</v>
+      </c>
+      <c r="D19" s="390" t="s">
+        <v>362</v>
+      </c>
+      <c r="E19" s="404" t="s">
+        <v>544</v>
+      </c>
+      <c r="F19" s="405"/>
       <c r="G19" s="126"/>
       <c r="H19" s="126"/>
       <c r="I19" s="126"/>
@@ -12603,14 +12622,14 @@
       <c r="BW19" s="200"/>
     </row>
     <row r="20" spans="1:75">
-      <c r="A20" s="384"/>
-      <c r="B20" s="385"/>
-      <c r="C20" s="384"/>
-      <c r="D20" s="386"/>
-      <c r="E20" s="400" t="s">
-        <v>462</v>
-      </c>
-      <c r="F20" s="401"/>
+      <c r="A20" s="388"/>
+      <c r="B20" s="389"/>
+      <c r="C20" s="388"/>
+      <c r="D20" s="390"/>
+      <c r="E20" s="404" t="s">
+        <v>430</v>
+      </c>
+      <c r="F20" s="405"/>
       <c r="G20" s="126"/>
       <c r="H20" s="126"/>
       <c r="I20" s="126"/>
@@ -12657,22 +12676,22 @@
       <c r="BW20" s="200"/>
     </row>
     <row r="21" spans="1:75">
-      <c r="A21" s="384" t="s">
-        <v>394</v>
-      </c>
-      <c r="B21" s="385" t="s">
-        <v>395</v>
-      </c>
-      <c r="C21" s="384" t="s">
-        <v>396</v>
-      </c>
-      <c r="D21" s="386" t="s">
-        <v>397</v>
-      </c>
-      <c r="E21" s="400" t="s">
-        <v>344</v>
-      </c>
-      <c r="F21" s="401"/>
+      <c r="A21" s="388" t="s">
+        <v>363</v>
+      </c>
+      <c r="B21" s="389" t="s">
+        <v>364</v>
+      </c>
+      <c r="C21" s="388" t="s">
+        <v>365</v>
+      </c>
+      <c r="D21" s="390" t="s">
+        <v>366</v>
+      </c>
+      <c r="E21" s="404" t="s">
+        <v>545</v>
+      </c>
+      <c r="F21" s="405"/>
       <c r="G21" s="126"/>
       <c r="H21" s="126"/>
       <c r="I21" s="126"/>
@@ -12719,14 +12738,14 @@
       <c r="BW21" s="200"/>
     </row>
     <row r="22" spans="1:75">
-      <c r="A22" s="384"/>
-      <c r="B22" s="385"/>
-      <c r="C22" s="384"/>
-      <c r="D22" s="386"/>
-      <c r="E22" s="400" t="s">
-        <v>463</v>
-      </c>
-      <c r="F22" s="401"/>
+      <c r="A22" s="388"/>
+      <c r="B22" s="389"/>
+      <c r="C22" s="388"/>
+      <c r="D22" s="390"/>
+      <c r="E22" s="404" t="s">
+        <v>431</v>
+      </c>
+      <c r="F22" s="405"/>
       <c r="G22" s="126"/>
       <c r="H22" s="126"/>
       <c r="I22" s="126"/>
@@ -12773,22 +12792,22 @@
       <c r="BW22" s="200"/>
     </row>
     <row r="23" spans="1:75">
-      <c r="A23" s="384" t="s">
-        <v>398</v>
-      </c>
-      <c r="B23" s="385" t="s">
-        <v>399</v>
-      </c>
-      <c r="C23" s="384" t="s">
-        <v>400</v>
-      </c>
-      <c r="D23" s="386" t="s">
-        <v>401</v>
-      </c>
-      <c r="E23" s="400" t="s">
-        <v>343</v>
-      </c>
-      <c r="F23" s="401"/>
+      <c r="A23" s="388" t="s">
+        <v>367</v>
+      </c>
+      <c r="B23" s="389" t="s">
+        <v>368</v>
+      </c>
+      <c r="C23" s="388" t="s">
+        <v>369</v>
+      </c>
+      <c r="D23" s="390" t="s">
+        <v>370</v>
+      </c>
+      <c r="E23" s="404" t="s">
+        <v>546</v>
+      </c>
+      <c r="F23" s="405"/>
       <c r="G23" s="126"/>
       <c r="H23" s="126"/>
       <c r="I23" s="126"/>
@@ -12835,14 +12854,14 @@
       <c r="BW23" s="200"/>
     </row>
     <row r="24" spans="1:75">
-      <c r="A24" s="384"/>
-      <c r="B24" s="385"/>
-      <c r="C24" s="384"/>
-      <c r="D24" s="386"/>
-      <c r="E24" s="400" t="s">
-        <v>464</v>
-      </c>
-      <c r="F24" s="401"/>
+      <c r="A24" s="388"/>
+      <c r="B24" s="389"/>
+      <c r="C24" s="388"/>
+      <c r="D24" s="390"/>
+      <c r="E24" s="404" t="s">
+        <v>432</v>
+      </c>
+      <c r="F24" s="405"/>
       <c r="G24" s="126"/>
       <c r="H24" s="126"/>
       <c r="I24" s="126"/>
@@ -12889,22 +12908,22 @@
       <c r="BW24" s="200"/>
     </row>
     <row r="25" spans="1:75">
-      <c r="A25" s="384" t="s">
-        <v>402</v>
-      </c>
-      <c r="B25" s="385" t="s">
-        <v>403</v>
-      </c>
-      <c r="C25" s="384" t="s">
-        <v>404</v>
-      </c>
-      <c r="D25" s="386" t="s">
-        <v>405</v>
-      </c>
-      <c r="E25" s="400" t="s">
-        <v>342</v>
-      </c>
-      <c r="F25" s="401"/>
+      <c r="A25" s="388" t="s">
+        <v>371</v>
+      </c>
+      <c r="B25" s="389" t="s">
+        <v>372</v>
+      </c>
+      <c r="C25" s="388" t="s">
+        <v>373</v>
+      </c>
+      <c r="D25" s="390" t="s">
+        <v>374</v>
+      </c>
+      <c r="E25" s="404" t="s">
+        <v>547</v>
+      </c>
+      <c r="F25" s="405"/>
       <c r="G25" s="126"/>
       <c r="H25" s="126"/>
       <c r="I25" s="126"/>
@@ -12951,14 +12970,14 @@
       <c r="BW25" s="200"/>
     </row>
     <row r="26" spans="1:75">
-      <c r="A26" s="384"/>
-      <c r="B26" s="385"/>
-      <c r="C26" s="384"/>
-      <c r="D26" s="386"/>
-      <c r="E26" s="400" t="s">
-        <v>465</v>
-      </c>
-      <c r="F26" s="401"/>
+      <c r="A26" s="388"/>
+      <c r="B26" s="389"/>
+      <c r="C26" s="388"/>
+      <c r="D26" s="390"/>
+      <c r="E26" s="404" t="s">
+        <v>433</v>
+      </c>
+      <c r="F26" s="405"/>
       <c r="G26" s="126"/>
       <c r="H26" s="126"/>
       <c r="I26" s="126"/>
@@ -13005,22 +13024,22 @@
       <c r="BW26" s="200"/>
     </row>
     <row r="27" spans="1:75">
-      <c r="A27" s="384" t="s">
-        <v>406</v>
-      </c>
-      <c r="B27" s="385" t="s">
-        <v>407</v>
-      </c>
-      <c r="C27" s="384" t="s">
-        <v>408</v>
-      </c>
-      <c r="D27" s="386" t="s">
-        <v>409</v>
-      </c>
-      <c r="E27" s="400" t="s">
-        <v>341</v>
-      </c>
-      <c r="F27" s="401"/>
+      <c r="A27" s="388" t="s">
+        <v>375</v>
+      </c>
+      <c r="B27" s="389" t="s">
+        <v>376</v>
+      </c>
+      <c r="C27" s="388" t="s">
+        <v>377</v>
+      </c>
+      <c r="D27" s="390" t="s">
+        <v>378</v>
+      </c>
+      <c r="E27" s="404" t="s">
+        <v>548</v>
+      </c>
+      <c r="F27" s="405"/>
       <c r="G27" s="126"/>
       <c r="H27" s="126"/>
       <c r="I27" s="126"/>
@@ -13067,14 +13086,14 @@
       <c r="BW27" s="200"/>
     </row>
     <row r="28" spans="1:75">
-      <c r="A28" s="384"/>
-      <c r="B28" s="385"/>
-      <c r="C28" s="384"/>
-      <c r="D28" s="386"/>
-      <c r="E28" s="400" t="s">
-        <v>466</v>
-      </c>
-      <c r="F28" s="401"/>
+      <c r="A28" s="388"/>
+      <c r="B28" s="389"/>
+      <c r="C28" s="388"/>
+      <c r="D28" s="390"/>
+      <c r="E28" s="404" t="s">
+        <v>434</v>
+      </c>
+      <c r="F28" s="405"/>
       <c r="G28" s="126"/>
       <c r="H28" s="126"/>
       <c r="I28" s="126"/>
@@ -13121,22 +13140,22 @@
       <c r="BW28" s="200"/>
     </row>
     <row r="29" spans="1:75">
-      <c r="A29" s="384" t="s">
-        <v>410</v>
-      </c>
-      <c r="B29" s="385" t="s">
-        <v>411</v>
-      </c>
-      <c r="C29" s="384" t="s">
-        <v>412</v>
-      </c>
-      <c r="D29" s="386" t="s">
-        <v>413</v>
-      </c>
-      <c r="E29" s="400" t="s">
-        <v>340</v>
-      </c>
-      <c r="F29" s="401"/>
+      <c r="A29" s="388" t="s">
+        <v>379</v>
+      </c>
+      <c r="B29" s="389" t="s">
+        <v>380</v>
+      </c>
+      <c r="C29" s="388" t="s">
+        <v>381</v>
+      </c>
+      <c r="D29" s="390" t="s">
+        <v>382</v>
+      </c>
+      <c r="E29" s="404" t="s">
+        <v>549</v>
+      </c>
+      <c r="F29" s="405"/>
       <c r="G29" s="126"/>
       <c r="H29" s="126"/>
       <c r="I29" s="126"/>
@@ -13183,14 +13202,14 @@
       <c r="BW29" s="200"/>
     </row>
     <row r="30" spans="1:75">
-      <c r="A30" s="384"/>
-      <c r="B30" s="385"/>
-      <c r="C30" s="384"/>
-      <c r="D30" s="386"/>
-      <c r="E30" s="400" t="s">
-        <v>467</v>
-      </c>
-      <c r="F30" s="401"/>
+      <c r="A30" s="388"/>
+      <c r="B30" s="389"/>
+      <c r="C30" s="388"/>
+      <c r="D30" s="390"/>
+      <c r="E30" s="404" t="s">
+        <v>435</v>
+      </c>
+      <c r="F30" s="405"/>
       <c r="G30" s="126"/>
       <c r="H30" s="126"/>
       <c r="I30" s="126"/>
@@ -13237,22 +13256,22 @@
       <c r="BW30" s="200"/>
     </row>
     <row r="31" spans="1:75">
-      <c r="A31" s="384" t="s">
-        <v>414</v>
-      </c>
-      <c r="B31" s="385" t="s">
-        <v>415</v>
-      </c>
-      <c r="C31" s="384" t="s">
-        <v>416</v>
-      </c>
-      <c r="D31" s="386" t="s">
-        <v>417</v>
-      </c>
-      <c r="E31" s="400" t="s">
-        <v>339</v>
-      </c>
-      <c r="F31" s="401"/>
+      <c r="A31" s="388" t="s">
+        <v>383</v>
+      </c>
+      <c r="B31" s="389" t="s">
+        <v>384</v>
+      </c>
+      <c r="C31" s="388" t="s">
+        <v>385</v>
+      </c>
+      <c r="D31" s="390" t="s">
+        <v>386</v>
+      </c>
+      <c r="E31" s="404" t="s">
+        <v>550</v>
+      </c>
+      <c r="F31" s="405"/>
       <c r="G31" s="126"/>
       <c r="H31" s="126"/>
       <c r="I31" s="126"/>
@@ -13299,14 +13318,14 @@
       <c r="BW31" s="200"/>
     </row>
     <row r="32" spans="1:75">
-      <c r="A32" s="384"/>
-      <c r="B32" s="385"/>
-      <c r="C32" s="384"/>
-      <c r="D32" s="386"/>
-      <c r="E32" s="400" t="s">
-        <v>468</v>
-      </c>
-      <c r="F32" s="401"/>
+      <c r="A32" s="388"/>
+      <c r="B32" s="389"/>
+      <c r="C32" s="388"/>
+      <c r="D32" s="390"/>
+      <c r="E32" s="404" t="s">
+        <v>436</v>
+      </c>
+      <c r="F32" s="405"/>
       <c r="G32" s="126"/>
       <c r="H32" s="126"/>
       <c r="I32" s="126"/>
@@ -13353,22 +13372,22 @@
       <c r="BW32" s="200"/>
     </row>
     <row r="33" spans="1:75">
-      <c r="A33" s="384" t="s">
-        <v>418</v>
-      </c>
-      <c r="B33" s="385" t="s">
-        <v>419</v>
-      </c>
-      <c r="C33" s="384" t="s">
-        <v>420</v>
-      </c>
-      <c r="D33" s="386" t="s">
-        <v>421</v>
-      </c>
-      <c r="E33" s="400" t="s">
-        <v>338</v>
-      </c>
-      <c r="F33" s="401"/>
+      <c r="A33" s="388" t="s">
+        <v>387</v>
+      </c>
+      <c r="B33" s="389" t="s">
+        <v>388</v>
+      </c>
+      <c r="C33" s="388" t="s">
+        <v>389</v>
+      </c>
+      <c r="D33" s="390" t="s">
+        <v>390</v>
+      </c>
+      <c r="E33" s="404" t="s">
+        <v>551</v>
+      </c>
+      <c r="F33" s="405"/>
       <c r="G33" s="126"/>
       <c r="H33" s="126"/>
       <c r="I33" s="126"/>
@@ -13415,14 +13434,14 @@
       <c r="BW33" s="200"/>
     </row>
     <row r="34" spans="1:75">
-      <c r="A34" s="384"/>
-      <c r="B34" s="385"/>
-      <c r="C34" s="384"/>
-      <c r="D34" s="386"/>
-      <c r="E34" s="400" t="s">
-        <v>469</v>
-      </c>
-      <c r="F34" s="401"/>
+      <c r="A34" s="388"/>
+      <c r="B34" s="389"/>
+      <c r="C34" s="388"/>
+      <c r="D34" s="390"/>
+      <c r="E34" s="404" t="s">
+        <v>437</v>
+      </c>
+      <c r="F34" s="405"/>
       <c r="G34" s="126"/>
       <c r="H34" s="126"/>
       <c r="I34" s="126"/>
@@ -13469,22 +13488,22 @@
       <c r="BW34" s="200"/>
     </row>
     <row r="35" spans="1:75">
-      <c r="A35" s="384" t="s">
-        <v>422</v>
-      </c>
-      <c r="B35" s="385" t="s">
-        <v>423</v>
-      </c>
-      <c r="C35" s="384" t="s">
-        <v>424</v>
-      </c>
-      <c r="D35" s="386" t="s">
-        <v>425</v>
-      </c>
-      <c r="E35" s="400" t="s">
-        <v>337</v>
-      </c>
-      <c r="F35" s="401"/>
+      <c r="A35" s="388" t="s">
+        <v>391</v>
+      </c>
+      <c r="B35" s="389" t="s">
+        <v>392</v>
+      </c>
+      <c r="C35" s="388" t="s">
+        <v>393</v>
+      </c>
+      <c r="D35" s="390" t="s">
+        <v>394</v>
+      </c>
+      <c r="E35" s="404" t="s">
+        <v>552</v>
+      </c>
+      <c r="F35" s="405"/>
       <c r="G35" s="126"/>
       <c r="H35" s="126"/>
       <c r="I35" s="126"/>
@@ -13531,14 +13550,14 @@
       <c r="BW35" s="200"/>
     </row>
     <row r="36" spans="1:75">
-      <c r="A36" s="384"/>
-      <c r="B36" s="385"/>
-      <c r="C36" s="384"/>
-      <c r="D36" s="386"/>
-      <c r="E36" s="400" t="s">
-        <v>470</v>
-      </c>
-      <c r="F36" s="401"/>
+      <c r="A36" s="388"/>
+      <c r="B36" s="389"/>
+      <c r="C36" s="388"/>
+      <c r="D36" s="390"/>
+      <c r="E36" s="404" t="s">
+        <v>438</v>
+      </c>
+      <c r="F36" s="405"/>
       <c r="G36" s="126"/>
       <c r="H36" s="126"/>
       <c r="I36" s="126"/>
@@ -13585,22 +13604,22 @@
       <c r="BW36" s="200"/>
     </row>
     <row r="37" spans="1:75">
-      <c r="A37" s="384" t="s">
-        <v>426</v>
-      </c>
-      <c r="B37" s="385" t="s">
-        <v>427</v>
-      </c>
-      <c r="C37" s="384" t="s">
-        <v>428</v>
-      </c>
-      <c r="D37" s="386" t="s">
-        <v>429</v>
-      </c>
-      <c r="E37" s="400" t="s">
-        <v>336</v>
-      </c>
-      <c r="F37" s="401"/>
+      <c r="A37" s="388" t="s">
+        <v>395</v>
+      </c>
+      <c r="B37" s="389" t="s">
+        <v>396</v>
+      </c>
+      <c r="C37" s="388" t="s">
+        <v>397</v>
+      </c>
+      <c r="D37" s="390" t="s">
+        <v>398</v>
+      </c>
+      <c r="E37" s="404" t="s">
+        <v>553</v>
+      </c>
+      <c r="F37" s="405"/>
       <c r="G37" s="126"/>
       <c r="H37" s="126"/>
       <c r="I37" s="126"/>
@@ -13647,14 +13666,14 @@
       <c r="BW37" s="200"/>
     </row>
     <row r="38" spans="1:75">
-      <c r="A38" s="384"/>
-      <c r="B38" s="385"/>
-      <c r="C38" s="384"/>
-      <c r="D38" s="386"/>
-      <c r="E38" s="400" t="s">
-        <v>471</v>
-      </c>
-      <c r="F38" s="401"/>
+      <c r="A38" s="388"/>
+      <c r="B38" s="389"/>
+      <c r="C38" s="388"/>
+      <c r="D38" s="390"/>
+      <c r="E38" s="404" t="s">
+        <v>439</v>
+      </c>
+      <c r="F38" s="405"/>
       <c r="G38" s="126"/>
       <c r="H38" s="126"/>
       <c r="I38" s="126"/>
@@ -13701,22 +13720,22 @@
       <c r="BW38" s="200"/>
     </row>
     <row r="39" spans="1:75">
-      <c r="A39" s="384" t="s">
-        <v>430</v>
-      </c>
-      <c r="B39" s="385" t="s">
-        <v>431</v>
-      </c>
-      <c r="C39" s="384" t="s">
-        <v>432</v>
-      </c>
-      <c r="D39" s="386" t="s">
-        <v>433</v>
-      </c>
-      <c r="E39" s="400" t="s">
-        <v>335</v>
-      </c>
-      <c r="F39" s="401"/>
+      <c r="A39" s="388" t="s">
+        <v>399</v>
+      </c>
+      <c r="B39" s="389" t="s">
+        <v>400</v>
+      </c>
+      <c r="C39" s="388" t="s">
+        <v>401</v>
+      </c>
+      <c r="D39" s="390" t="s">
+        <v>402</v>
+      </c>
+      <c r="E39" s="404" t="s">
+        <v>554</v>
+      </c>
+      <c r="F39" s="405"/>
       <c r="G39" s="126"/>
       <c r="H39" s="126"/>
       <c r="I39" s="126"/>
@@ -13763,14 +13782,14 @@
       <c r="BW39" s="200"/>
     </row>
     <row r="40" spans="1:75">
-      <c r="A40" s="384"/>
-      <c r="B40" s="385"/>
-      <c r="C40" s="384"/>
-      <c r="D40" s="386"/>
-      <c r="E40" s="400" t="s">
-        <v>472</v>
-      </c>
-      <c r="F40" s="401"/>
+      <c r="A40" s="388"/>
+      <c r="B40" s="389"/>
+      <c r="C40" s="388"/>
+      <c r="D40" s="390"/>
+      <c r="E40" s="404" t="s">
+        <v>440</v>
+      </c>
+      <c r="F40" s="405"/>
       <c r="G40" s="126"/>
       <c r="H40" s="126"/>
       <c r="I40" s="126"/>
@@ -13841,18 +13860,18 @@
       <c r="BW40" s="202"/>
     </row>
     <row r="41" spans="1:75" ht="45.75" customHeight="1">
-      <c r="A41" s="371" t="s">
-        <v>450</v>
-      </c>
-      <c r="B41" s="372"/>
-      <c r="C41" s="372"/>
-      <c r="D41" s="372"/>
-      <c r="E41" s="372"/>
-      <c r="F41" s="373"/>
-      <c r="G41" s="369" t="s">
-        <v>449</v>
-      </c>
-      <c r="H41" s="370"/>
+      <c r="A41" s="375" t="s">
+        <v>419</v>
+      </c>
+      <c r="B41" s="376"/>
+      <c r="C41" s="376"/>
+      <c r="D41" s="376"/>
+      <c r="E41" s="376"/>
+      <c r="F41" s="377"/>
+      <c r="G41" s="373" t="s">
+        <v>418</v>
+      </c>
+      <c r="H41" s="374"/>
       <c r="I41" s="126"/>
       <c r="J41" s="126"/>
       <c r="K41" s="126"/>
@@ -13920,18 +13939,18 @@
       <c r="BW41" s="173"/>
     </row>
     <row r="42" spans="1:75" s="204" customFormat="1" ht="15" customHeight="1">
-      <c r="A42" s="410" t="s">
-        <v>365</v>
-      </c>
-      <c r="B42" s="411"/>
-      <c r="C42" s="414" t="s">
-        <v>434</v>
-      </c>
-      <c r="D42" s="415"/>
-      <c r="E42" s="400" t="s">
-        <v>351</v>
-      </c>
-      <c r="F42" s="401"/>
+      <c r="A42" s="416" t="s">
+        <v>334</v>
+      </c>
+      <c r="B42" s="417"/>
+      <c r="C42" s="420" t="s">
+        <v>403</v>
+      </c>
+      <c r="D42" s="421"/>
+      <c r="E42" s="404" t="s">
+        <v>555</v>
+      </c>
+      <c r="F42" s="405"/>
       <c r="G42" s="126"/>
       <c r="H42" s="126"/>
       <c r="I42" s="126"/>
@@ -14001,14 +14020,14 @@
       <c r="BW42" s="205"/>
     </row>
     <row r="43" spans="1:75" s="204" customFormat="1">
-      <c r="A43" s="410"/>
-      <c r="B43" s="411"/>
-      <c r="C43" s="416"/>
-      <c r="D43" s="417"/>
-      <c r="E43" s="408" t="s">
-        <v>473</v>
-      </c>
-      <c r="F43" s="409"/>
+      <c r="A43" s="416"/>
+      <c r="B43" s="417"/>
+      <c r="C43" s="422"/>
+      <c r="D43" s="423"/>
+      <c r="E43" s="414" t="s">
+        <v>441</v>
+      </c>
+      <c r="F43" s="415"/>
       <c r="G43" s="126"/>
       <c r="H43" s="126"/>
       <c r="I43" s="126"/>
@@ -14078,16 +14097,16 @@
       <c r="BW43" s="205"/>
     </row>
     <row r="44" spans="1:75" s="204" customFormat="1">
-      <c r="A44" s="410"/>
-      <c r="B44" s="411"/>
-      <c r="C44" s="418" t="s">
-        <v>435</v>
-      </c>
-      <c r="D44" s="419"/>
-      <c r="E44" s="400" t="s">
-        <v>352</v>
-      </c>
-      <c r="F44" s="401"/>
+      <c r="A44" s="416"/>
+      <c r="B44" s="417"/>
+      <c r="C44" s="424" t="s">
+        <v>404</v>
+      </c>
+      <c r="D44" s="425"/>
+      <c r="E44" s="404" t="s">
+        <v>556</v>
+      </c>
+      <c r="F44" s="405"/>
       <c r="G44" s="126"/>
       <c r="H44" s="126"/>
       <c r="I44" s="126"/>
@@ -14157,14 +14176,14 @@
       <c r="BW44" s="205"/>
     </row>
     <row r="45" spans="1:75" s="204" customFormat="1">
-      <c r="A45" s="410"/>
-      <c r="B45" s="411"/>
-      <c r="C45" s="416"/>
-      <c r="D45" s="417"/>
-      <c r="E45" s="408" t="s">
-        <v>474</v>
-      </c>
-      <c r="F45" s="409"/>
+      <c r="A45" s="416"/>
+      <c r="B45" s="417"/>
+      <c r="C45" s="422"/>
+      <c r="D45" s="423"/>
+      <c r="E45" s="414" t="s">
+        <v>442</v>
+      </c>
+      <c r="F45" s="415"/>
       <c r="G45" s="126"/>
       <c r="H45" s="126"/>
       <c r="I45" s="126"/>
@@ -14234,16 +14253,16 @@
       <c r="BW45" s="205"/>
     </row>
     <row r="46" spans="1:75" s="204" customFormat="1">
-      <c r="A46" s="410"/>
-      <c r="B46" s="411"/>
-      <c r="C46" s="418" t="s">
-        <v>436</v>
-      </c>
-      <c r="D46" s="419"/>
-      <c r="E46" s="400" t="s">
-        <v>353</v>
-      </c>
-      <c r="F46" s="401"/>
+      <c r="A46" s="416"/>
+      <c r="B46" s="417"/>
+      <c r="C46" s="424" t="s">
+        <v>405</v>
+      </c>
+      <c r="D46" s="425"/>
+      <c r="E46" s="404" t="s">
+        <v>557</v>
+      </c>
+      <c r="F46" s="405"/>
       <c r="G46" s="126"/>
       <c r="H46" s="126"/>
       <c r="I46" s="126"/>
@@ -14268,10 +14287,10 @@
       <c r="AD46" s="126"/>
       <c r="AE46" s="126"/>
       <c r="AF46" s="126"/>
-      <c r="AG46" s="407"/>
-      <c r="AH46" s="407"/>
-      <c r="AI46" s="407"/>
-      <c r="AJ46" s="407"/>
+      <c r="AG46" s="413"/>
+      <c r="AH46" s="413"/>
+      <c r="AI46" s="413"/>
+      <c r="AJ46" s="413"/>
       <c r="AK46" s="205"/>
       <c r="AL46" s="205"/>
       <c r="AM46" s="205"/>
@@ -14313,14 +14332,14 @@
       <c r="BW46" s="205"/>
     </row>
     <row r="47" spans="1:75" s="204" customFormat="1">
-      <c r="A47" s="410"/>
-      <c r="B47" s="411"/>
-      <c r="C47" s="416"/>
-      <c r="D47" s="417"/>
-      <c r="E47" s="408" t="s">
-        <v>475</v>
-      </c>
-      <c r="F47" s="409"/>
+      <c r="A47" s="416"/>
+      <c r="B47" s="417"/>
+      <c r="C47" s="422"/>
+      <c r="D47" s="423"/>
+      <c r="E47" s="414" t="s">
+        <v>443</v>
+      </c>
+      <c r="F47" s="415"/>
       <c r="G47" s="126"/>
       <c r="H47" s="126"/>
       <c r="I47" s="126"/>
@@ -14390,16 +14409,16 @@
       <c r="BW47" s="205"/>
     </row>
     <row r="48" spans="1:75" s="204" customFormat="1">
-      <c r="A48" s="410"/>
-      <c r="B48" s="411"/>
-      <c r="C48" s="418" t="s">
-        <v>437</v>
-      </c>
-      <c r="D48" s="419"/>
-      <c r="E48" s="400" t="s">
-        <v>354</v>
-      </c>
-      <c r="F48" s="401"/>
+      <c r="A48" s="416"/>
+      <c r="B48" s="417"/>
+      <c r="C48" s="424" t="s">
+        <v>406</v>
+      </c>
+      <c r="D48" s="425"/>
+      <c r="E48" s="404" t="s">
+        <v>558</v>
+      </c>
+      <c r="F48" s="405"/>
       <c r="G48" s="126"/>
       <c r="H48" s="126"/>
       <c r="I48" s="126"/>
@@ -14424,10 +14443,10 @@
       <c r="AD48" s="126"/>
       <c r="AE48" s="126"/>
       <c r="AF48" s="126"/>
-      <c r="AG48" s="407"/>
-      <c r="AH48" s="407"/>
-      <c r="AI48" s="407"/>
-      <c r="AJ48" s="407"/>
+      <c r="AG48" s="413"/>
+      <c r="AH48" s="413"/>
+      <c r="AI48" s="413"/>
+      <c r="AJ48" s="413"/>
       <c r="AK48" s="205"/>
       <c r="AL48" s="205"/>
       <c r="AM48" s="205"/>
@@ -14469,14 +14488,14 @@
       <c r="BW48" s="205"/>
     </row>
     <row r="49" spans="1:75" s="204" customFormat="1">
-      <c r="A49" s="410"/>
-      <c r="B49" s="411"/>
-      <c r="C49" s="416"/>
-      <c r="D49" s="417"/>
-      <c r="E49" s="408" t="s">
-        <v>476</v>
-      </c>
-      <c r="F49" s="409"/>
+      <c r="A49" s="416"/>
+      <c r="B49" s="417"/>
+      <c r="C49" s="422"/>
+      <c r="D49" s="423"/>
+      <c r="E49" s="414" t="s">
+        <v>444</v>
+      </c>
+      <c r="F49" s="415"/>
       <c r="G49" s="126"/>
       <c r="H49" s="126"/>
       <c r="I49" s="126"/>
@@ -14546,16 +14565,16 @@
       <c r="BW49" s="205"/>
     </row>
     <row r="50" spans="1:75" s="204" customFormat="1">
-      <c r="A50" s="410"/>
-      <c r="B50" s="411"/>
-      <c r="C50" s="418" t="s">
-        <v>438</v>
-      </c>
-      <c r="D50" s="419"/>
-      <c r="E50" s="400" t="s">
-        <v>355</v>
-      </c>
-      <c r="F50" s="401"/>
+      <c r="A50" s="416"/>
+      <c r="B50" s="417"/>
+      <c r="C50" s="424" t="s">
+        <v>407</v>
+      </c>
+      <c r="D50" s="425"/>
+      <c r="E50" s="404" t="s">
+        <v>559</v>
+      </c>
+      <c r="F50" s="405"/>
       <c r="G50" s="126"/>
       <c r="H50" s="126"/>
       <c r="I50" s="126"/>
@@ -14580,10 +14599,10 @@
       <c r="AD50" s="126"/>
       <c r="AE50" s="126"/>
       <c r="AF50" s="126"/>
-      <c r="AG50" s="407"/>
-      <c r="AH50" s="407"/>
-      <c r="AI50" s="407"/>
-      <c r="AJ50" s="407"/>
+      <c r="AG50" s="413"/>
+      <c r="AH50" s="413"/>
+      <c r="AI50" s="413"/>
+      <c r="AJ50" s="413"/>
       <c r="AK50" s="205"/>
       <c r="AL50" s="205"/>
       <c r="AM50" s="205"/>
@@ -14625,14 +14644,14 @@
       <c r="BW50" s="205"/>
     </row>
     <row r="51" spans="1:75" s="204" customFormat="1">
-      <c r="A51" s="410"/>
-      <c r="B51" s="411"/>
-      <c r="C51" s="416"/>
-      <c r="D51" s="417"/>
-      <c r="E51" s="408" t="s">
-        <v>477</v>
-      </c>
-      <c r="F51" s="409"/>
+      <c r="A51" s="416"/>
+      <c r="B51" s="417"/>
+      <c r="C51" s="422"/>
+      <c r="D51" s="423"/>
+      <c r="E51" s="414" t="s">
+        <v>445</v>
+      </c>
+      <c r="F51" s="415"/>
       <c r="G51" s="126"/>
       <c r="H51" s="126"/>
       <c r="I51" s="126"/>
@@ -14702,16 +14721,16 @@
       <c r="BW51" s="205"/>
     </row>
     <row r="52" spans="1:75" s="204" customFormat="1">
-      <c r="A52" s="410"/>
-      <c r="B52" s="411"/>
-      <c r="C52" s="418" t="s">
-        <v>439</v>
-      </c>
-      <c r="D52" s="419"/>
-      <c r="E52" s="400" t="s">
-        <v>356</v>
-      </c>
-      <c r="F52" s="401"/>
+      <c r="A52" s="416"/>
+      <c r="B52" s="417"/>
+      <c r="C52" s="424" t="s">
+        <v>408</v>
+      </c>
+      <c r="D52" s="425"/>
+      <c r="E52" s="404" t="s">
+        <v>560</v>
+      </c>
+      <c r="F52" s="405"/>
       <c r="G52" s="126"/>
       <c r="H52" s="126"/>
       <c r="I52" s="126"/>
@@ -14736,10 +14755,10 @@
       <c r="AD52" s="126"/>
       <c r="AE52" s="126"/>
       <c r="AF52" s="126"/>
-      <c r="AG52" s="407"/>
-      <c r="AH52" s="407"/>
-      <c r="AI52" s="407"/>
-      <c r="AJ52" s="407"/>
+      <c r="AG52" s="413"/>
+      <c r="AH52" s="413"/>
+      <c r="AI52" s="413"/>
+      <c r="AJ52" s="413"/>
       <c r="AK52" s="205"/>
       <c r="AL52" s="205"/>
       <c r="AM52" s="205"/>
@@ -14781,14 +14800,14 @@
       <c r="BW52" s="205"/>
     </row>
     <row r="53" spans="1:75" s="204" customFormat="1">
-      <c r="A53" s="410"/>
-      <c r="B53" s="411"/>
-      <c r="C53" s="416"/>
-      <c r="D53" s="417"/>
-      <c r="E53" s="408" t="s">
-        <v>478</v>
-      </c>
-      <c r="F53" s="409"/>
+      <c r="A53" s="416"/>
+      <c r="B53" s="417"/>
+      <c r="C53" s="422"/>
+      <c r="D53" s="423"/>
+      <c r="E53" s="414" t="s">
+        <v>446</v>
+      </c>
+      <c r="F53" s="415"/>
       <c r="G53" s="126"/>
       <c r="H53" s="126"/>
       <c r="I53" s="126"/>
@@ -14858,16 +14877,16 @@
       <c r="BW53" s="205"/>
     </row>
     <row r="54" spans="1:75" s="204" customFormat="1">
-      <c r="A54" s="410"/>
-      <c r="B54" s="411"/>
-      <c r="C54" s="418" t="s">
-        <v>440</v>
-      </c>
-      <c r="D54" s="419"/>
-      <c r="E54" s="400" t="s">
-        <v>357</v>
-      </c>
-      <c r="F54" s="401"/>
+      <c r="A54" s="416"/>
+      <c r="B54" s="417"/>
+      <c r="C54" s="424" t="s">
+        <v>409</v>
+      </c>
+      <c r="D54" s="425"/>
+      <c r="E54" s="404" t="s">
+        <v>561</v>
+      </c>
+      <c r="F54" s="405"/>
       <c r="G54" s="126"/>
       <c r="H54" s="126"/>
       <c r="I54" s="126"/>
@@ -14892,10 +14911,10 @@
       <c r="AD54" s="126"/>
       <c r="AE54" s="126"/>
       <c r="AF54" s="126"/>
-      <c r="AG54" s="407"/>
-      <c r="AH54" s="407"/>
-      <c r="AI54" s="407"/>
-      <c r="AJ54" s="407"/>
+      <c r="AG54" s="413"/>
+      <c r="AH54" s="413"/>
+      <c r="AI54" s="413"/>
+      <c r="AJ54" s="413"/>
       <c r="AK54" s="205"/>
       <c r="AL54" s="205"/>
       <c r="AM54" s="205"/>
@@ -14937,14 +14956,14 @@
       <c r="BW54" s="205"/>
     </row>
     <row r="55" spans="1:75" s="204" customFormat="1">
-      <c r="A55" s="410"/>
-      <c r="B55" s="411"/>
-      <c r="C55" s="416"/>
-      <c r="D55" s="417"/>
-      <c r="E55" s="408" t="s">
-        <v>479</v>
-      </c>
-      <c r="F55" s="409"/>
+      <c r="A55" s="416"/>
+      <c r="B55" s="417"/>
+      <c r="C55" s="422"/>
+      <c r="D55" s="423"/>
+      <c r="E55" s="414" t="s">
+        <v>447</v>
+      </c>
+      <c r="F55" s="415"/>
       <c r="G55" s="126"/>
       <c r="H55" s="126"/>
       <c r="I55" s="126"/>
@@ -15014,16 +15033,16 @@
       <c r="BW55" s="205"/>
     </row>
     <row r="56" spans="1:75" s="204" customFormat="1">
-      <c r="A56" s="410"/>
-      <c r="B56" s="411"/>
-      <c r="C56" s="418" t="s">
-        <v>441</v>
-      </c>
-      <c r="D56" s="419"/>
-      <c r="E56" s="408" t="s">
-        <v>358</v>
-      </c>
-      <c r="F56" s="409"/>
+      <c r="A56" s="416"/>
+      <c r="B56" s="417"/>
+      <c r="C56" s="424" t="s">
+        <v>410</v>
+      </c>
+      <c r="D56" s="425"/>
+      <c r="E56" s="414" t="s">
+        <v>562</v>
+      </c>
+      <c r="F56" s="415"/>
       <c r="G56" s="126"/>
       <c r="H56" s="126"/>
       <c r="I56" s="126"/>
@@ -15048,10 +15067,10 @@
       <c r="AD56" s="126"/>
       <c r="AE56" s="126"/>
       <c r="AF56" s="126"/>
-      <c r="AG56" s="407"/>
-      <c r="AH56" s="407"/>
-      <c r="AI56" s="407"/>
-      <c r="AJ56" s="407"/>
+      <c r="AG56" s="413"/>
+      <c r="AH56" s="413"/>
+      <c r="AI56" s="413"/>
+      <c r="AJ56" s="413"/>
       <c r="AK56" s="205"/>
       <c r="AL56" s="205"/>
       <c r="AM56" s="205"/>
@@ -15093,14 +15112,14 @@
       <c r="BW56" s="205"/>
     </row>
     <row r="57" spans="1:75" s="204" customFormat="1">
-      <c r="A57" s="410"/>
-      <c r="B57" s="411"/>
-      <c r="C57" s="416"/>
-      <c r="D57" s="417"/>
-      <c r="E57" s="408" t="s">
-        <v>480</v>
-      </c>
-      <c r="F57" s="409"/>
+      <c r="A57" s="416"/>
+      <c r="B57" s="417"/>
+      <c r="C57" s="422"/>
+      <c r="D57" s="423"/>
+      <c r="E57" s="414" t="s">
+        <v>448</v>
+      </c>
+      <c r="F57" s="415"/>
       <c r="G57" s="126"/>
       <c r="H57" s="126"/>
       <c r="I57" s="126"/>
@@ -15170,16 +15189,16 @@
       <c r="BW57" s="205"/>
     </row>
     <row r="58" spans="1:75" s="204" customFormat="1">
-      <c r="A58" s="410"/>
-      <c r="B58" s="411"/>
-      <c r="C58" s="418" t="s">
-        <v>442</v>
-      </c>
-      <c r="D58" s="419"/>
-      <c r="E58" s="400" t="s">
-        <v>359</v>
-      </c>
-      <c r="F58" s="401"/>
+      <c r="A58" s="416"/>
+      <c r="B58" s="417"/>
+      <c r="C58" s="424" t="s">
+        <v>411</v>
+      </c>
+      <c r="D58" s="425"/>
+      <c r="E58" s="404" t="s">
+        <v>563</v>
+      </c>
+      <c r="F58" s="405"/>
       <c r="G58" s="126"/>
       <c r="H58" s="126"/>
       <c r="I58" s="126"/>
@@ -15204,10 +15223,10 @@
       <c r="AD58" s="126"/>
       <c r="AE58" s="126"/>
       <c r="AF58" s="126"/>
-      <c r="AG58" s="407"/>
-      <c r="AH58" s="407"/>
-      <c r="AI58" s="407"/>
-      <c r="AJ58" s="407"/>
+      <c r="AG58" s="413"/>
+      <c r="AH58" s="413"/>
+      <c r="AI58" s="413"/>
+      <c r="AJ58" s="413"/>
       <c r="AK58" s="205"/>
       <c r="AL58" s="207"/>
       <c r="AM58" s="205"/>
@@ -15249,14 +15268,14 @@
       <c r="BW58" s="205"/>
     </row>
     <row r="59" spans="1:75" s="204" customFormat="1">
-      <c r="A59" s="410"/>
-      <c r="B59" s="411"/>
-      <c r="C59" s="416"/>
-      <c r="D59" s="417"/>
-      <c r="E59" s="408" t="s">
-        <v>481</v>
-      </c>
-      <c r="F59" s="409"/>
+      <c r="A59" s="416"/>
+      <c r="B59" s="417"/>
+      <c r="C59" s="422"/>
+      <c r="D59" s="423"/>
+      <c r="E59" s="414" t="s">
+        <v>449</v>
+      </c>
+      <c r="F59" s="415"/>
       <c r="G59" s="126"/>
       <c r="H59" s="126"/>
       <c r="I59" s="126"/>
@@ -15326,16 +15345,16 @@
       <c r="BW59" s="205"/>
     </row>
     <row r="60" spans="1:75" s="204" customFormat="1">
-      <c r="A60" s="410"/>
-      <c r="B60" s="411"/>
-      <c r="C60" s="418" t="s">
-        <v>443</v>
-      </c>
-      <c r="D60" s="419"/>
-      <c r="E60" s="400" t="s">
-        <v>360</v>
-      </c>
-      <c r="F60" s="401"/>
+      <c r="A60" s="416"/>
+      <c r="B60" s="417"/>
+      <c r="C60" s="424" t="s">
+        <v>412</v>
+      </c>
+      <c r="D60" s="425"/>
+      <c r="E60" s="404" t="s">
+        <v>564</v>
+      </c>
+      <c r="F60" s="405"/>
       <c r="G60" s="126"/>
       <c r="H60" s="126"/>
       <c r="I60" s="126"/>
@@ -15360,10 +15379,10 @@
       <c r="AD60" s="126"/>
       <c r="AE60" s="126"/>
       <c r="AF60" s="126"/>
-      <c r="AG60" s="407"/>
-      <c r="AH60" s="407"/>
-      <c r="AI60" s="407"/>
-      <c r="AJ60" s="407"/>
+      <c r="AG60" s="413"/>
+      <c r="AH60" s="413"/>
+      <c r="AI60" s="413"/>
+      <c r="AJ60" s="413"/>
       <c r="AK60" s="205"/>
       <c r="AL60" s="206"/>
       <c r="AM60" s="205"/>
@@ -15405,14 +15424,14 @@
       <c r="BW60" s="205"/>
     </row>
     <row r="61" spans="1:75" s="204" customFormat="1">
-      <c r="A61" s="410"/>
-      <c r="B61" s="411"/>
-      <c r="C61" s="416"/>
-      <c r="D61" s="417"/>
-      <c r="E61" s="408" t="s">
-        <v>482</v>
-      </c>
-      <c r="F61" s="409"/>
+      <c r="A61" s="416"/>
+      <c r="B61" s="417"/>
+      <c r="C61" s="422"/>
+      <c r="D61" s="423"/>
+      <c r="E61" s="414" t="s">
+        <v>450</v>
+      </c>
+      <c r="F61" s="415"/>
       <c r="G61" s="126"/>
       <c r="H61" s="126"/>
       <c r="I61" s="126"/>
@@ -15482,16 +15501,16 @@
       <c r="BW61" s="205"/>
     </row>
     <row r="62" spans="1:75" s="204" customFormat="1">
-      <c r="A62" s="410"/>
-      <c r="B62" s="411"/>
-      <c r="C62" s="418" t="s">
-        <v>444</v>
-      </c>
-      <c r="D62" s="419"/>
-      <c r="E62" s="400" t="s">
-        <v>361</v>
-      </c>
-      <c r="F62" s="401"/>
+      <c r="A62" s="416"/>
+      <c r="B62" s="417"/>
+      <c r="C62" s="424" t="s">
+        <v>413</v>
+      </c>
+      <c r="D62" s="425"/>
+      <c r="E62" s="404" t="s">
+        <v>565</v>
+      </c>
+      <c r="F62" s="405"/>
       <c r="G62" s="126"/>
       <c r="H62" s="126"/>
       <c r="I62" s="126"/>
@@ -15516,10 +15535,10 @@
       <c r="AD62" s="126"/>
       <c r="AE62" s="126"/>
       <c r="AF62" s="126"/>
-      <c r="AG62" s="407"/>
-      <c r="AH62" s="407"/>
-      <c r="AI62" s="407"/>
-      <c r="AJ62" s="407"/>
+      <c r="AG62" s="413"/>
+      <c r="AH62" s="413"/>
+      <c r="AI62" s="413"/>
+      <c r="AJ62" s="413"/>
       <c r="AK62" s="211"/>
       <c r="AL62" s="207"/>
       <c r="AM62" s="205"/>
@@ -15561,14 +15580,14 @@
       <c r="BW62" s="205"/>
     </row>
     <row r="63" spans="1:75" s="204" customFormat="1">
-      <c r="A63" s="410"/>
-      <c r="B63" s="411"/>
-      <c r="C63" s="416"/>
-      <c r="D63" s="417"/>
-      <c r="E63" s="408" t="s">
-        <v>483</v>
-      </c>
-      <c r="F63" s="409"/>
+      <c r="A63" s="416"/>
+      <c r="B63" s="417"/>
+      <c r="C63" s="422"/>
+      <c r="D63" s="423"/>
+      <c r="E63" s="414" t="s">
+        <v>451</v>
+      </c>
+      <c r="F63" s="415"/>
       <c r="G63" s="126"/>
       <c r="H63" s="126"/>
       <c r="I63" s="126"/>
@@ -15638,16 +15657,16 @@
       <c r="BW63" s="205"/>
     </row>
     <row r="64" spans="1:75" s="204" customFormat="1">
-      <c r="A64" s="410"/>
-      <c r="B64" s="411"/>
-      <c r="C64" s="418" t="s">
-        <v>445</v>
-      </c>
-      <c r="D64" s="419"/>
-      <c r="E64" s="400" t="s">
-        <v>362</v>
-      </c>
-      <c r="F64" s="401"/>
+      <c r="A64" s="416"/>
+      <c r="B64" s="417"/>
+      <c r="C64" s="424" t="s">
+        <v>414</v>
+      </c>
+      <c r="D64" s="425"/>
+      <c r="E64" s="404" t="s">
+        <v>566</v>
+      </c>
+      <c r="F64" s="405"/>
       <c r="G64" s="126"/>
       <c r="H64" s="126"/>
       <c r="I64" s="126"/>
@@ -15672,10 +15691,10 @@
       <c r="AD64" s="126"/>
       <c r="AE64" s="126"/>
       <c r="AF64" s="126"/>
-      <c r="AG64" s="407"/>
-      <c r="AH64" s="407"/>
-      <c r="AI64" s="407"/>
-      <c r="AJ64" s="407"/>
+      <c r="AG64" s="413"/>
+      <c r="AH64" s="413"/>
+      <c r="AI64" s="413"/>
+      <c r="AJ64" s="413"/>
       <c r="AK64" s="205"/>
       <c r="AL64" s="206"/>
       <c r="AM64" s="205"/>
@@ -15717,14 +15736,14 @@
       <c r="BW64" s="205"/>
     </row>
     <row r="65" spans="1:75" s="204" customFormat="1">
-      <c r="A65" s="410"/>
-      <c r="B65" s="411"/>
-      <c r="C65" s="416"/>
-      <c r="D65" s="417"/>
-      <c r="E65" s="408" t="s">
-        <v>484</v>
-      </c>
-      <c r="F65" s="409"/>
+      <c r="A65" s="416"/>
+      <c r="B65" s="417"/>
+      <c r="C65" s="422"/>
+      <c r="D65" s="423"/>
+      <c r="E65" s="414" t="s">
+        <v>452</v>
+      </c>
+      <c r="F65" s="415"/>
       <c r="G65" s="126"/>
       <c r="H65" s="126"/>
       <c r="I65" s="126"/>
@@ -15794,16 +15813,16 @@
       <c r="BW65" s="205"/>
     </row>
     <row r="66" spans="1:75" s="204" customFormat="1">
-      <c r="A66" s="410"/>
-      <c r="B66" s="411"/>
-      <c r="C66" s="418" t="s">
-        <v>446</v>
-      </c>
-      <c r="D66" s="419"/>
-      <c r="E66" s="400" t="s">
-        <v>363</v>
-      </c>
-      <c r="F66" s="401"/>
+      <c r="A66" s="416"/>
+      <c r="B66" s="417"/>
+      <c r="C66" s="424" t="s">
+        <v>415</v>
+      </c>
+      <c r="D66" s="425"/>
+      <c r="E66" s="404" t="s">
+        <v>567</v>
+      </c>
+      <c r="F66" s="405"/>
       <c r="G66" s="126"/>
       <c r="H66" s="126"/>
       <c r="I66" s="126"/>
@@ -15828,10 +15847,10 @@
       <c r="AD66" s="126"/>
       <c r="AE66" s="126"/>
       <c r="AF66" s="126"/>
-      <c r="AG66" s="407"/>
-      <c r="AH66" s="407"/>
-      <c r="AI66" s="407"/>
-      <c r="AJ66" s="407"/>
+      <c r="AG66" s="413"/>
+      <c r="AH66" s="413"/>
+      <c r="AI66" s="413"/>
+      <c r="AJ66" s="413"/>
       <c r="AK66" s="211"/>
       <c r="AL66" s="207"/>
       <c r="AM66" s="205"/>
@@ -15873,14 +15892,14 @@
       <c r="BW66" s="205"/>
     </row>
     <row r="67" spans="1:75" s="204" customFormat="1">
-      <c r="A67" s="410"/>
-      <c r="B67" s="411"/>
-      <c r="C67" s="416"/>
-      <c r="D67" s="417"/>
-      <c r="E67" s="408" t="s">
-        <v>485</v>
-      </c>
-      <c r="F67" s="409"/>
+      <c r="A67" s="416"/>
+      <c r="B67" s="417"/>
+      <c r="C67" s="422"/>
+      <c r="D67" s="423"/>
+      <c r="E67" s="414" t="s">
+        <v>453</v>
+      </c>
+      <c r="F67" s="415"/>
       <c r="G67" s="126"/>
       <c r="H67" s="126"/>
       <c r="I67" s="126"/>
@@ -15950,16 +15969,16 @@
       <c r="BW67" s="205"/>
     </row>
     <row r="68" spans="1:75" s="204" customFormat="1">
-      <c r="A68" s="410"/>
-      <c r="B68" s="411"/>
-      <c r="C68" s="418" t="s">
-        <v>447</v>
-      </c>
-      <c r="D68" s="419"/>
-      <c r="E68" s="400" t="s">
-        <v>364</v>
-      </c>
-      <c r="F68" s="401"/>
+      <c r="A68" s="416"/>
+      <c r="B68" s="417"/>
+      <c r="C68" s="424" t="s">
+        <v>416</v>
+      </c>
+      <c r="D68" s="425"/>
+      <c r="E68" s="404" t="s">
+        <v>568</v>
+      </c>
+      <c r="F68" s="405"/>
       <c r="G68" s="126"/>
       <c r="H68" s="126"/>
       <c r="I68" s="126"/>
@@ -15986,10 +16005,10 @@
       <c r="AD68" s="126"/>
       <c r="AE68" s="126"/>
       <c r="AF68" s="126"/>
-      <c r="AG68" s="407"/>
-      <c r="AH68" s="407"/>
-      <c r="AI68" s="407"/>
-      <c r="AJ68" s="407"/>
+      <c r="AG68" s="413"/>
+      <c r="AH68" s="413"/>
+      <c r="AI68" s="413"/>
+      <c r="AJ68" s="413"/>
       <c r="AK68" s="206"/>
       <c r="AL68" s="206"/>
       <c r="AM68" s="205"/>
@@ -16031,14 +16050,14 @@
       <c r="BW68" s="205"/>
     </row>
     <row r="69" spans="1:75" s="204" customFormat="1">
-      <c r="A69" s="410"/>
-      <c r="B69" s="411"/>
-      <c r="C69" s="416"/>
-      <c r="D69" s="417"/>
-      <c r="E69" s="408" t="s">
-        <v>486</v>
-      </c>
-      <c r="F69" s="409"/>
+      <c r="A69" s="416"/>
+      <c r="B69" s="417"/>
+      <c r="C69" s="422"/>
+      <c r="D69" s="423"/>
+      <c r="E69" s="414" t="s">
+        <v>454</v>
+      </c>
+      <c r="F69" s="415"/>
       <c r="G69" s="126"/>
       <c r="H69" s="126"/>
       <c r="I69" s="126"/>
@@ -16110,16 +16129,16 @@
       <c r="BW69" s="205"/>
     </row>
     <row r="70" spans="1:75" s="204" customFormat="1">
-      <c r="A70" s="410"/>
-      <c r="B70" s="411"/>
-      <c r="C70" s="418" t="s">
-        <v>451</v>
-      </c>
-      <c r="D70" s="419"/>
-      <c r="E70" s="400" t="s">
-        <v>452</v>
-      </c>
-      <c r="F70" s="401"/>
+      <c r="A70" s="416"/>
+      <c r="B70" s="417"/>
+      <c r="C70" s="424" t="s">
+        <v>420</v>
+      </c>
+      <c r="D70" s="425"/>
+      <c r="E70" s="404" t="s">
+        <v>569</v>
+      </c>
+      <c r="F70" s="405"/>
       <c r="G70" s="126"/>
       <c r="H70" s="126"/>
       <c r="I70" s="126"/>
@@ -16191,14 +16210,14 @@
       <c r="BW70" s="205"/>
     </row>
     <row r="71" spans="1:75" s="204" customFormat="1">
-      <c r="A71" s="410"/>
-      <c r="B71" s="411"/>
-      <c r="C71" s="416"/>
-      <c r="D71" s="417"/>
-      <c r="E71" s="408" t="s">
-        <v>487</v>
-      </c>
-      <c r="F71" s="409"/>
+      <c r="A71" s="416"/>
+      <c r="B71" s="417"/>
+      <c r="C71" s="422"/>
+      <c r="D71" s="423"/>
+      <c r="E71" s="414" t="s">
+        <v>455</v>
+      </c>
+      <c r="F71" s="415"/>
       <c r="G71" s="126"/>
       <c r="H71" s="126"/>
       <c r="I71" s="126"/>
@@ -16270,12 +16289,12 @@
       <c r="BW71" s="205"/>
     </row>
     <row r="72" spans="1:75" s="204" customFormat="1">
-      <c r="A72" s="410"/>
-      <c r="B72" s="411"/>
-      <c r="C72" s="391" t="s">
+      <c r="A72" s="416"/>
+      <c r="B72" s="417"/>
+      <c r="C72" s="395" t="s">
         <v>36</v>
       </c>
-      <c r="D72" s="392"/>
+      <c r="D72" s="396"/>
       <c r="E72" s="126"/>
       <c r="F72" s="126"/>
       <c r="G72" s="126"/>
@@ -16304,10 +16323,10 @@
       <c r="AD72" s="126"/>
       <c r="AE72" s="126"/>
       <c r="AF72" s="126"/>
-      <c r="AG72" s="420"/>
-      <c r="AH72" s="420"/>
-      <c r="AI72" s="420"/>
-      <c r="AJ72" s="420"/>
+      <c r="AG72" s="426"/>
+      <c r="AH72" s="426"/>
+      <c r="AI72" s="426"/>
+      <c r="AJ72" s="426"/>
       <c r="AK72" s="211"/>
       <c r="AL72" s="205"/>
       <c r="AM72" s="205"/>
@@ -16349,12 +16368,12 @@
       <c r="BW72" s="205"/>
     </row>
     <row r="73" spans="1:75" s="204" customFormat="1">
-      <c r="A73" s="410"/>
-      <c r="B73" s="411"/>
-      <c r="C73" s="393" t="s">
+      <c r="A73" s="416"/>
+      <c r="B73" s="417"/>
+      <c r="C73" s="397" t="s">
         <v>5</v>
       </c>
-      <c r="D73" s="394"/>
+      <c r="D73" s="398"/>
       <c r="E73" s="126"/>
       <c r="F73" s="126"/>
       <c r="G73" s="126"/>
@@ -16428,12 +16447,12 @@
       <c r="BW73" s="205"/>
     </row>
     <row r="74" spans="1:75" s="204" customFormat="1">
-      <c r="A74" s="412"/>
-      <c r="B74" s="413"/>
-      <c r="C74" s="393" t="s">
+      <c r="A74" s="418"/>
+      <c r="B74" s="419"/>
+      <c r="C74" s="397" t="s">
         <v>6</v>
       </c>
-      <c r="D74" s="394"/>
+      <c r="D74" s="398"/>
       <c r="E74" s="126"/>
       <c r="F74" s="126"/>
       <c r="G74" s="126"/>
@@ -16507,18 +16526,18 @@
       <c r="BW74" s="205"/>
     </row>
     <row r="75" spans="1:75" s="204" customFormat="1" ht="27" customHeight="1">
-      <c r="A75" s="434" t="s">
+      <c r="A75" s="440" t="s">
         <v>3</v>
       </c>
-      <c r="B75" s="435"/>
-      <c r="C75" s="395" t="s">
+      <c r="B75" s="441"/>
+      <c r="C75" s="399" t="s">
         <v>7</v>
       </c>
-      <c r="D75" s="396"/>
-      <c r="E75" s="408" t="s">
+      <c r="D75" s="400"/>
+      <c r="E75" s="414" t="s">
         <v>328</v>
       </c>
-      <c r="F75" s="409"/>
+      <c r="F75" s="415"/>
       <c r="G75" s="126"/>
       <c r="H75" s="126"/>
       <c r="I75" s="126"/>
@@ -16545,10 +16564,10 @@
       <c r="AD75" s="126"/>
       <c r="AE75" s="126"/>
       <c r="AF75" s="126"/>
-      <c r="AG75" s="421"/>
-      <c r="AH75" s="421"/>
-      <c r="AI75" s="421"/>
-      <c r="AJ75" s="421"/>
+      <c r="AG75" s="427"/>
+      <c r="AH75" s="427"/>
+      <c r="AI75" s="427"/>
+      <c r="AJ75" s="427"/>
       <c r="AK75" s="211"/>
       <c r="AL75" s="205"/>
       <c r="AM75" s="205"/>
@@ -16590,16 +16609,16 @@
       <c r="BW75" s="205"/>
     </row>
     <row r="76" spans="1:75" s="204" customFormat="1" ht="27" customHeight="1">
-      <c r="A76" s="436"/>
-      <c r="B76" s="437"/>
-      <c r="C76" s="395" t="s">
+      <c r="A76" s="442"/>
+      <c r="B76" s="443"/>
+      <c r="C76" s="399" t="s">
         <v>8</v>
       </c>
-      <c r="D76" s="396"/>
-      <c r="E76" s="408" t="s">
+      <c r="D76" s="400"/>
+      <c r="E76" s="414" t="s">
         <v>329</v>
       </c>
-      <c r="F76" s="409"/>
+      <c r="F76" s="415"/>
       <c r="G76" s="126"/>
       <c r="H76" s="126"/>
       <c r="I76" s="126"/>
@@ -16626,10 +16645,10 @@
       <c r="AD76" s="126"/>
       <c r="AE76" s="126"/>
       <c r="AF76" s="126"/>
-      <c r="AG76" s="421"/>
-      <c r="AH76" s="421"/>
-      <c r="AI76" s="421"/>
-      <c r="AJ76" s="421"/>
+      <c r="AG76" s="427"/>
+      <c r="AH76" s="427"/>
+      <c r="AI76" s="427"/>
+      <c r="AJ76" s="427"/>
       <c r="AK76" s="211"/>
       <c r="AL76" s="205"/>
       <c r="AM76" s="205"/>
@@ -16671,16 +16690,16 @@
       <c r="BW76" s="205"/>
     </row>
     <row r="77" spans="1:75" s="204" customFormat="1" ht="27" customHeight="1">
-      <c r="A77" s="436"/>
-      <c r="B77" s="437"/>
-      <c r="C77" s="395" t="s">
+      <c r="A77" s="442"/>
+      <c r="B77" s="443"/>
+      <c r="C77" s="399" t="s">
         <v>2</v>
       </c>
-      <c r="D77" s="396"/>
-      <c r="E77" s="408" t="s">
+      <c r="D77" s="400"/>
+      <c r="E77" s="414" t="s">
         <v>330</v>
       </c>
-      <c r="F77" s="409"/>
+      <c r="F77" s="415"/>
       <c r="G77" s="126"/>
       <c r="H77" s="126"/>
       <c r="I77" s="126"/>
@@ -16707,10 +16726,10 @@
       <c r="AD77" s="126"/>
       <c r="AE77" s="126"/>
       <c r="AF77" s="126"/>
-      <c r="AG77" s="422"/>
-      <c r="AH77" s="422"/>
-      <c r="AI77" s="422"/>
-      <c r="AJ77" s="422"/>
+      <c r="AG77" s="428"/>
+      <c r="AH77" s="428"/>
+      <c r="AI77" s="428"/>
+      <c r="AJ77" s="428"/>
       <c r="AK77" s="211"/>
       <c r="AL77" s="205"/>
       <c r="AM77" s="205"/>
@@ -16752,16 +16771,16 @@
       <c r="BW77" s="205"/>
     </row>
     <row r="78" spans="1:75" s="204" customFormat="1" ht="27" customHeight="1">
-      <c r="A78" s="436"/>
-      <c r="B78" s="437"/>
-      <c r="C78" s="395" t="s">
+      <c r="A78" s="442"/>
+      <c r="B78" s="443"/>
+      <c r="C78" s="399" t="s">
         <v>60</v>
       </c>
-      <c r="D78" s="396"/>
-      <c r="E78" s="408" t="s">
+      <c r="D78" s="400"/>
+      <c r="E78" s="414" t="s">
         <v>331</v>
       </c>
-      <c r="F78" s="409"/>
+      <c r="F78" s="415"/>
       <c r="G78" s="126"/>
       <c r="H78" s="126"/>
       <c r="I78" s="126"/>
@@ -16833,16 +16852,16 @@
       <c r="BW78" s="205"/>
     </row>
     <row r="79" spans="1:75" s="204" customFormat="1" ht="27" customHeight="1">
-      <c r="A79" s="436"/>
-      <c r="B79" s="437"/>
-      <c r="C79" s="395" t="s">
+      <c r="A79" s="442"/>
+      <c r="B79" s="443"/>
+      <c r="C79" s="399" t="s">
         <v>39</v>
       </c>
-      <c r="D79" s="396"/>
-      <c r="E79" s="408" t="s">
-        <v>453</v>
-      </c>
-      <c r="F79" s="409"/>
+      <c r="D79" s="400"/>
+      <c r="E79" s="414" t="s">
+        <v>421</v>
+      </c>
+      <c r="F79" s="415"/>
       <c r="G79" s="126"/>
       <c r="H79" s="126"/>
       <c r="I79" s="126"/>
@@ -16869,10 +16888,10 @@
       <c r="AD79" s="126"/>
       <c r="AE79" s="126"/>
       <c r="AF79" s="126"/>
-      <c r="AG79" s="422"/>
-      <c r="AH79" s="422"/>
-      <c r="AI79" s="422"/>
-      <c r="AJ79" s="422"/>
+      <c r="AG79" s="428"/>
+      <c r="AH79" s="428"/>
+      <c r="AI79" s="428"/>
+      <c r="AJ79" s="428"/>
       <c r="AK79" s="211"/>
       <c r="AL79" s="205"/>
       <c r="AM79" s="205"/>
@@ -16914,16 +16933,16 @@
       <c r="BW79" s="205"/>
     </row>
     <row r="80" spans="1:75" s="204" customFormat="1" ht="32.25" customHeight="1">
-      <c r="A80" s="439" t="s">
+      <c r="A80" s="445" t="s">
         <v>50</v>
       </c>
-      <c r="B80" s="439"/>
-      <c r="C80" s="439"/>
-      <c r="D80" s="439"/>
-      <c r="E80" s="438" t="s">
+      <c r="B80" s="445"/>
+      <c r="C80" s="445"/>
+      <c r="D80" s="445"/>
+      <c r="E80" s="444" t="s">
         <v>332</v>
       </c>
-      <c r="F80" s="409"/>
+      <c r="F80" s="415"/>
       <c r="G80" s="126"/>
       <c r="H80" s="126"/>
       <c r="I80" s="126"/>
@@ -16950,10 +16969,10 @@
       <c r="AD80" s="126"/>
       <c r="AE80" s="126"/>
       <c r="AF80" s="126"/>
-      <c r="AG80" s="423"/>
-      <c r="AH80" s="423"/>
-      <c r="AI80" s="423"/>
-      <c r="AJ80" s="423"/>
+      <c r="AG80" s="429"/>
+      <c r="AH80" s="429"/>
+      <c r="AI80" s="429"/>
+      <c r="AJ80" s="429"/>
       <c r="AK80" s="211"/>
       <c r="AL80" s="205"/>
       <c r="AM80" s="205"/>
@@ -16995,16 +17014,16 @@
       <c r="BW80" s="205"/>
     </row>
     <row r="81" spans="1:75" s="204" customFormat="1" ht="32.25" customHeight="1">
-      <c r="A81" s="439" t="s">
+      <c r="A81" s="445" t="s">
         <v>51</v>
       </c>
-      <c r="B81" s="439"/>
-      <c r="C81" s="439"/>
-      <c r="D81" s="439"/>
-      <c r="E81" s="438" t="s">
+      <c r="B81" s="445"/>
+      <c r="C81" s="445"/>
+      <c r="D81" s="445"/>
+      <c r="E81" s="444" t="s">
         <v>333</v>
       </c>
-      <c r="F81" s="409"/>
+      <c r="F81" s="415"/>
       <c r="G81" s="126"/>
       <c r="H81" s="126"/>
       <c r="I81" s="126"/>
@@ -17031,10 +17050,10 @@
       <c r="AD81" s="126"/>
       <c r="AE81" s="126"/>
       <c r="AF81" s="126"/>
-      <c r="AG81" s="423"/>
-      <c r="AH81" s="423"/>
-      <c r="AI81" s="423"/>
-      <c r="AJ81" s="423"/>
+      <c r="AG81" s="429"/>
+      <c r="AH81" s="429"/>
+      <c r="AI81" s="429"/>
+      <c r="AJ81" s="429"/>
       <c r="AK81" s="211"/>
       <c r="AL81" s="205"/>
       <c r="AM81" s="205"/>
@@ -17082,17 +17101,17 @@
       <c r="D82" s="215"/>
       <c r="E82" s="215"/>
       <c r="F82" s="215"/>
-      <c r="G82" s="424"/>
-      <c r="H82" s="424"/>
-      <c r="I82" s="424"/>
+      <c r="G82" s="430"/>
+      <c r="H82" s="430"/>
+      <c r="I82" s="430"/>
       <c r="J82" s="215"/>
       <c r="K82" s="215"/>
       <c r="L82" s="215"/>
       <c r="M82" s="215"/>
       <c r="N82" s="215"/>
-      <c r="O82" s="424"/>
-      <c r="P82" s="424"/>
-      <c r="Q82" s="424"/>
+      <c r="O82" s="430"/>
+      <c r="P82" s="430"/>
+      <c r="Q82" s="430"/>
       <c r="R82" s="215"/>
       <c r="S82" s="215"/>
       <c r="T82" s="215"/>
@@ -17118,13 +17137,13 @@
     <row r="83" spans="1:75" ht="14.1" customHeight="1" thickBot="1">
       <c r="A83" s="214"/>
       <c r="B83" s="223" t="s">
-        <v>567</v>
+        <v>535</v>
       </c>
       <c r="C83" s="222"/>
-      <c r="D83" s="433" t="s">
+      <c r="D83" s="439" t="s">
         <v>67</v>
       </c>
-      <c r="E83" s="433"/>
+      <c r="E83" s="439"/>
       <c r="F83" s="215"/>
       <c r="G83" s="221"/>
       <c r="H83" s="221"/>
@@ -17162,13 +17181,13 @@
     <row r="84" spans="1:75" ht="13.8" customHeight="1" thickBot="1">
       <c r="A84" s="214"/>
       <c r="B84" s="224" t="s">
-        <v>568</v>
+        <v>536</v>
       </c>
       <c r="C84" s="222"/>
-      <c r="D84" s="433" t="s">
+      <c r="D84" s="439" t="s">
         <v>68</v>
       </c>
-      <c r="E84" s="433"/>
+      <c r="E84" s="439"/>
       <c r="F84" s="215"/>
       <c r="G84" s="221"/>
       <c r="H84" s="221"/>
@@ -17210,9 +17229,9 @@
       <c r="D85" s="215"/>
       <c r="E85" s="215"/>
       <c r="F85" s="215"/>
-      <c r="G85" s="426"/>
-      <c r="H85" s="426"/>
-      <c r="I85" s="426"/>
+      <c r="G85" s="432"/>
+      <c r="H85" s="432"/>
+      <c r="I85" s="432"/>
       <c r="J85" s="215"/>
       <c r="K85" s="215"/>
       <c r="L85" s="215"/>
@@ -17245,35 +17264,35 @@
     </row>
     <row r="86" spans="1:75" ht="14.1" customHeight="1">
       <c r="A86" s="214"/>
-      <c r="B86" s="425" t="s">
+      <c r="B86" s="431" t="s">
         <v>41</v>
       </c>
-      <c r="C86" s="427"/>
-      <c r="D86" s="428"/>
-      <c r="E86" s="428"/>
-      <c r="F86" s="428"/>
-      <c r="G86" s="428"/>
-      <c r="H86" s="428"/>
-      <c r="I86" s="428"/>
-      <c r="J86" s="428"/>
-      <c r="K86" s="428"/>
-      <c r="L86" s="428"/>
-      <c r="M86" s="428"/>
-      <c r="N86" s="428"/>
-      <c r="O86" s="428"/>
-      <c r="P86" s="428"/>
-      <c r="Q86" s="428"/>
-      <c r="R86" s="428"/>
-      <c r="S86" s="428"/>
-      <c r="T86" s="428"/>
-      <c r="U86" s="428"/>
-      <c r="V86" s="428"/>
-      <c r="W86" s="428"/>
-      <c r="X86" s="428"/>
-      <c r="Y86" s="428"/>
-      <c r="Z86" s="428"/>
-      <c r="AA86" s="428"/>
-      <c r="AB86" s="429"/>
+      <c r="C86" s="433"/>
+      <c r="D86" s="434"/>
+      <c r="E86" s="434"/>
+      <c r="F86" s="434"/>
+      <c r="G86" s="434"/>
+      <c r="H86" s="434"/>
+      <c r="I86" s="434"/>
+      <c r="J86" s="434"/>
+      <c r="K86" s="434"/>
+      <c r="L86" s="434"/>
+      <c r="M86" s="434"/>
+      <c r="N86" s="434"/>
+      <c r="O86" s="434"/>
+      <c r="P86" s="434"/>
+      <c r="Q86" s="434"/>
+      <c r="R86" s="434"/>
+      <c r="S86" s="434"/>
+      <c r="T86" s="434"/>
+      <c r="U86" s="434"/>
+      <c r="V86" s="434"/>
+      <c r="W86" s="434"/>
+      <c r="X86" s="434"/>
+      <c r="Y86" s="434"/>
+      <c r="Z86" s="434"/>
+      <c r="AA86" s="434"/>
+      <c r="AB86" s="435"/>
       <c r="AC86" s="217"/>
       <c r="AD86" s="217"/>
       <c r="AE86" s="217"/>
@@ -17294,33 +17313,33 @@
     </row>
     <row r="87" spans="1:75" ht="28.5" customHeight="1">
       <c r="A87" s="214"/>
-      <c r="B87" s="425"/>
-      <c r="C87" s="430"/>
-      <c r="D87" s="431"/>
-      <c r="E87" s="431"/>
-      <c r="F87" s="431"/>
-      <c r="G87" s="431"/>
-      <c r="H87" s="431"/>
-      <c r="I87" s="431"/>
-      <c r="J87" s="431"/>
-      <c r="K87" s="431"/>
-      <c r="L87" s="431"/>
-      <c r="M87" s="431"/>
-      <c r="N87" s="431"/>
-      <c r="O87" s="431"/>
-      <c r="P87" s="431"/>
-      <c r="Q87" s="431"/>
-      <c r="R87" s="431"/>
-      <c r="S87" s="431"/>
-      <c r="T87" s="431"/>
-      <c r="U87" s="431"/>
-      <c r="V87" s="431"/>
-      <c r="W87" s="431"/>
-      <c r="X87" s="431"/>
-      <c r="Y87" s="431"/>
-      <c r="Z87" s="431"/>
-      <c r="AA87" s="431"/>
-      <c r="AB87" s="432"/>
+      <c r="B87" s="431"/>
+      <c r="C87" s="436"/>
+      <c r="D87" s="437"/>
+      <c r="E87" s="437"/>
+      <c r="F87" s="437"/>
+      <c r="G87" s="437"/>
+      <c r="H87" s="437"/>
+      <c r="I87" s="437"/>
+      <c r="J87" s="437"/>
+      <c r="K87" s="437"/>
+      <c r="L87" s="437"/>
+      <c r="M87" s="437"/>
+      <c r="N87" s="437"/>
+      <c r="O87" s="437"/>
+      <c r="P87" s="437"/>
+      <c r="Q87" s="437"/>
+      <c r="R87" s="437"/>
+      <c r="S87" s="437"/>
+      <c r="T87" s="437"/>
+      <c r="U87" s="437"/>
+      <c r="V87" s="437"/>
+      <c r="W87" s="437"/>
+      <c r="X87" s="437"/>
+      <c r="Y87" s="437"/>
+      <c r="Z87" s="437"/>
+      <c r="AA87" s="437"/>
+      <c r="AB87" s="438"/>
       <c r="AC87" s="217"/>
       <c r="AD87" s="217"/>
       <c r="AE87" s="217"/>
@@ -36654,21 +36673,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101004D4CCBE22655944796F59B17B9006C15" ma:contentTypeVersion="" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="f481576c72d824a80c867b56d5274a41">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b7c6cbfa-29cf-4ada-90bf-db8e550dae8d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3bc755a260c778b5f630b987d93a78f8" ns2:_="">
     <xsd:import namespace="b7c6cbfa-29cf-4ada-90bf-db8e550dae8d"/>
@@ -36846,31 +36850,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5458833A-D997-4113-BB83-F938CBB9D86E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ECA946AD-4EA3-4FCA-B864-262800288FDF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="b7c6cbfa-29cf-4ada-90bf-db8e550dae8d"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{82807CA0-8C25-4FF6-8C67-D0A8F7400434}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -36886,4 +36881,28 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5458833A-D997-4113-BB83-F938CBB9D86E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ECA946AD-4EA3-4FCA-B864-262800288FDF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="b7c6cbfa-29cf-4ada-90bf-db8e550dae8d"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/api/cp-dss-api/gateway/src/main/resources/reports/Vessel_1_Loading_Plan_Template.xlsx
+++ b/api/cp-dss-api/gateway/src/main/resources/reports/Vessel_1_Loading_Plan_Template.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17316" windowHeight="6156" tabRatio="738"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17316" windowHeight="6156" tabRatio="738" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="CRUD - 021 pg1" sheetId="27" r:id="rId1"/>
@@ -2039,7 +2039,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="581">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="585">
   <si>
     <t>TRIM</t>
   </si>
@@ -3631,18 +3631,6 @@
     <t>M'ship crane, Mooring Winches, Deck air/water.</t>
   </si>
   <si>
-    <t xml:space="preserve"> ${sheetTwo.cargoMAchineryInUse.cargoManifold}</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ${sheetTwo.cargoMAchineryInUse.gsPump}</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ${sheetTwo.cargoMAchineryInUse.igsPump}</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ${sheetTwo.cargoMAchineryInUse.ballastPump}</t>
-  </si>
-  <si>
     <t>BALLAST PUMP</t>
   </si>
   <si>
@@ -3794,6 +3782,30 @@
   </si>
   <si>
     <t>${sheetOne.deparcherCondition.fpt.quantity}</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ${sheetTwo.vesselPurticulars.toppingOffRate} m3/hr</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ${sheetTwo.vesselPurticulars.averageLoadingRate} m3/hr</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ${sheetTwo.manifoldNames}</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ${sheetTwo.gsPump}</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ${sheetTwo.igsPump}</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ${sheetTwo.ballastPump}</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ${sheetThree.initialLoadingRate}  m3/hr</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ${sheetTwo.vesselPurticulars.freshWaterDraft}</t>
   </si>
 </sst>
 </file>
@@ -4580,7 +4592,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="456">
+  <cellXfs count="455">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -5169,32 +5181,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="17" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="173" fontId="35" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="173" fontId="35" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="173" fontId="35" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -5209,11 +5204,287 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="173" fontId="35" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="10" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="173" fontId="39" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="173" fontId="39" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="173" fontId="39" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="173" fontId="39" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="173" fontId="39" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="173" fontId="39" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="173" fontId="35" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="173" fontId="35" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="174" fontId="53" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="174" fontId="53" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="174" fontId="53" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="174" fontId="53" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="176" fontId="30" fillId="0" borderId="10" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="10" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="39" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" wrapText="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" wrapText="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="39" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="173" fontId="35" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="173" fontId="40" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="4" fontId="25" fillId="2" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="25" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="17" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="175" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="30" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="54" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="9" fontId="54" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="174" fontId="53" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="174" fontId="53" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="14" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="25" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="17" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="17" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1" shrinkToFit="1"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="8" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -5264,296 +5535,82 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="173" fontId="39" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="173" fontId="39" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="173" fontId="35" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="173" fontId="39" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="173" fontId="39" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="173" fontId="39" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="9" fontId="54" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="9" fontId="54" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="174" fontId="53" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="174" fontId="53" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="174" fontId="53" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="174" fontId="53" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="17" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="10" fontId="25" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="14" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="17" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="174" fontId="53" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="174" fontId="53" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="3" fontId="39" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="173" fontId="39" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" wrapText="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" wrapText="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="168" fontId="30" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="175" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="4" fontId="25" fillId="2" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="173" fontId="35" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="173" fontId="40" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="3" fontId="39" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="176" fontId="30" fillId="0" borderId="10" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="10" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" wrapText="1"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" wrapText="1"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="10" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -5598,267 +5655,33 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="47" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="169" fontId="47" fillId="0" borderId="15" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="43" fillId="5" borderId="14" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="43" fillId="5" borderId="9" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="43" fillId="5" borderId="7" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="43" fillId="5" borderId="2" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="169" fontId="47" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="23" fillId="5" borderId="17" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="169" fontId="47" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="169" fontId="47" fillId="0" borderId="18" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="172" fontId="47" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="2" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="14" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="8" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="9" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="6" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="10" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="11" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="47" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="42" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="49" fillId="5" borderId="7" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="49" fillId="5" borderId="2" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="49" fillId="5" borderId="6" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="49" fillId="5" borderId="11" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="42" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="19" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="20" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="38" fontId="29" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="21" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="16" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="43" fillId="0" borderId="3" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="43" fillId="0" borderId="5" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="43" fillId="0" borderId="3" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="43" fillId="0" borderId="5" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="43" fillId="0" borderId="14" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="43" fillId="0" borderId="9" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="169" fontId="47" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -5916,6 +5739,15 @@
     <xf numFmtId="0" fontId="23" fillId="5" borderId="6" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="46" fillId="4" borderId="1" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" wrapText="1"/>
       <protection locked="0"/>
@@ -5932,7 +5764,184 @@
       <alignment horizontal="right" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="43" fillId="0" borderId="3" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="43" fillId="0" borderId="5" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="43" fillId="0" borderId="3" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="43" fillId="0" borderId="5" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="43" fillId="0" borderId="14" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="43" fillId="0" borderId="9" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="38" fontId="29" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="169" fontId="47" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="169" fontId="47" fillId="0" borderId="18" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="21" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="16" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="19" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="20" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="42" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="47" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="169" fontId="47" fillId="0" borderId="15" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="49" fillId="5" borderId="7" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="49" fillId="5" borderId="2" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="49" fillId="5" borderId="6" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="49" fillId="5" borderId="11" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="47" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="42" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="47" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="2" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="14" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="8" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="9" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="6" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="10" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="11" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="43" fillId="5" borderId="14" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="43" fillId="5" borderId="9" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="43" fillId="5" borderId="7" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="43" fillId="5" borderId="2" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="169" fontId="47" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="23" fillId="5" borderId="17" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -6059,7 +6068,7 @@
         <xdr:cNvPr id="30643" name="Line 59">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{26C26646-7311-46E9-9E78-CC1D2B3F626E}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26C26646-7311-46E9-9E78-CC1D2B3F626E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6113,7 +6122,7 @@
         <xdr:cNvPr id="30644" name="Line 60">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B49276F8-0941-4D7D-8146-C269E6ACE4D6}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B49276F8-0941-4D7D-8146-C269E6ACE4D6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6167,7 +6176,7 @@
         <xdr:cNvPr id="30645" name="Line 62">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{49720863-AFF1-493D-8C5B-3E8A332597CC}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49720863-AFF1-493D-8C5B-3E8A332597CC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6221,7 +6230,7 @@
         <xdr:cNvPr id="30646" name="Line 62">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7695EED5-68DE-4941-B396-30D3C770B8B0}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7695EED5-68DE-4941-B396-30D3C770B8B0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6275,7 +6284,7 @@
         <xdr:cNvPr id="30647" name="Line 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD58331C-81A7-4159-9782-8A7161F85FB4}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD58331C-81A7-4159-9782-8A7161F85FB4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6329,7 +6338,7 @@
         <xdr:cNvPr id="30648" name="Line 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D0300261-277A-4B07-916A-FC3A4EA535EC}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D0300261-277A-4B07-916A-FC3A4EA535EC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6383,7 +6392,7 @@
         <xdr:cNvPr id="30649" name="Line 62">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{92E06221-417C-4981-B737-76380BAE82BA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92E06221-417C-4981-B737-76380BAE82BA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6437,7 +6446,7 @@
         <xdr:cNvPr id="30650" name="Line 62">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EC93D721-69B8-4DB6-8611-B0CA263C6701}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC93D721-69B8-4DB6-8611-B0CA263C6701}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6491,7 +6500,7 @@
         <xdr:cNvPr id="30651" name="Line 62">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8FFC3F25-367F-4CB6-8861-0D589CD691A0}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8FFC3F25-367F-4CB6-8861-0D589CD691A0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6545,7 +6554,7 @@
         <xdr:cNvPr id="30652" name="Line 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{132B4608-E2CC-4568-8160-0038A8B8A9B4}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{132B4608-E2CC-4568-8160-0038A8B8A9B4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6599,7 +6608,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{95E86656-9F63-45D0-BC52-81A2571E9B65}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95E86656-9F63-45D0-BC52-81A2571E9B65}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6649,7 +6658,7 @@
         <xdr:cNvPr id="17" name="Line 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{132B4608-E2CC-4568-8160-0038A8B8A9B4}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{132B4608-E2CC-4568-8160-0038A8B8A9B4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6703,7 +6712,7 @@
         <xdr:cNvPr id="19" name="Line 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{132B4608-E2CC-4568-8160-0038A8B8A9B4}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{132B4608-E2CC-4568-8160-0038A8B8A9B4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6757,7 +6766,7 @@
         <xdr:cNvPr id="21" name="Line 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{132B4608-E2CC-4568-8160-0038A8B8A9B4}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{132B4608-E2CC-4568-8160-0038A8B8A9B4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6811,7 +6820,7 @@
         <xdr:cNvPr id="16" name="Line 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{132B4608-E2CC-4568-8160-0038A8B8A9B4}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{132B4608-E2CC-4568-8160-0038A8B8A9B4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6865,7 +6874,7 @@
         <xdr:cNvPr id="18" name="Line 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{132B4608-E2CC-4568-8160-0038A8B8A9B4}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{132B4608-E2CC-4568-8160-0038A8B8A9B4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6919,7 +6928,7 @@
         <xdr:cNvPr id="29" name="Line 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{132B4608-E2CC-4568-8160-0038A8B8A9B4}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{132B4608-E2CC-4568-8160-0038A8B8A9B4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6973,7 +6982,7 @@
         <xdr:cNvPr id="30" name="Line 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{132B4608-E2CC-4568-8160-0038A8B8A9B4}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{132B4608-E2CC-4568-8160-0038A8B8A9B4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7302,8 +7311,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AS75"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AF38" sqref="AF38:AF39"/>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="Q39" sqref="Q39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="17.25" customHeight="1"/>
@@ -7360,12 +7369,12 @@
       <c r="I3" s="48"/>
       <c r="J3" s="47"/>
       <c r="K3" s="47"/>
-      <c r="L3" s="334" t="s">
+      <c r="L3" s="245" t="s">
         <v>50</v>
       </c>
-      <c r="M3" s="334"/>
-      <c r="N3" s="334"/>
-      <c r="O3" s="334"/>
+      <c r="M3" s="245"/>
+      <c r="N3" s="245"/>
+      <c r="O3" s="245"/>
       <c r="P3" s="47"/>
       <c r="Q3" s="47"/>
       <c r="R3" s="47"/>
@@ -7385,13 +7394,13 @@
         <v>33</v>
       </c>
       <c r="C4" s="47"/>
-      <c r="D4" s="336" t="s">
+      <c r="D4" s="251" t="s">
         <v>63</v>
       </c>
-      <c r="E4" s="336"/>
-      <c r="F4" s="336"/>
-      <c r="G4" s="336"/>
-      <c r="H4" s="336"/>
+      <c r="E4" s="251"/>
+      <c r="F4" s="251"/>
+      <c r="G4" s="251"/>
+      <c r="H4" s="251"/>
       <c r="I4" s="47"/>
       <c r="J4" s="47"/>
       <c r="K4" s="47"/>
@@ -7418,13 +7427,13 @@
         <v>31</v>
       </c>
       <c r="C5" s="51"/>
-      <c r="D5" s="256" t="s">
+      <c r="D5" s="325" t="s">
         <v>64</v>
       </c>
-      <c r="E5" s="256"/>
-      <c r="F5" s="256"/>
-      <c r="G5" s="256"/>
-      <c r="H5" s="256"/>
+      <c r="E5" s="325"/>
+      <c r="F5" s="325"/>
+      <c r="G5" s="325"/>
+      <c r="H5" s="325"/>
       <c r="I5" s="52"/>
       <c r="J5" s="52"/>
       <c r="K5" s="52"/>
@@ -7442,13 +7451,13 @@
       <c r="U5" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="V5" s="325" t="s">
+      <c r="V5" s="268" t="s">
         <v>67</v>
       </c>
-      <c r="W5" s="325"/>
-      <c r="X5" s="325"/>
-      <c r="Y5" s="325"/>
-      <c r="Z5" s="325"/>
+      <c r="W5" s="268"/>
+      <c r="X5" s="268"/>
+      <c r="Y5" s="268"/>
+      <c r="Z5" s="268"/>
       <c r="AA5" s="48"/>
       <c r="AB5" s="56"/>
     </row>
@@ -7478,13 +7487,13 @@
       <c r="U6" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="V6" s="326" t="s">
+      <c r="V6" s="269" t="s">
         <v>68</v>
       </c>
-      <c r="W6" s="326"/>
-      <c r="X6" s="326"/>
-      <c r="Y6" s="326"/>
-      <c r="Z6" s="326"/>
+      <c r="W6" s="269"/>
+      <c r="X6" s="269"/>
+      <c r="Y6" s="269"/>
+      <c r="Z6" s="269"/>
       <c r="AA6" s="48"/>
       <c r="AB6" s="56"/>
     </row>
@@ -7493,24 +7502,24 @@
       <c r="B7" s="58" t="s">
         <v>59</v>
       </c>
-      <c r="C7" s="337" t="s">
+      <c r="C7" s="252" t="s">
         <v>65</v>
       </c>
-      <c r="D7" s="337"/>
-      <c r="E7" s="337"/>
-      <c r="F7" s="337"/>
-      <c r="G7" s="337"/>
-      <c r="H7" s="338" t="s">
+      <c r="D7" s="252"/>
+      <c r="E7" s="252"/>
+      <c r="F7" s="252"/>
+      <c r="G7" s="252"/>
+      <c r="H7" s="259" t="s">
         <v>60</v>
       </c>
-      <c r="I7" s="338"/>
-      <c r="J7" s="337" t="s">
+      <c r="I7" s="259"/>
+      <c r="J7" s="252" t="s">
         <v>66</v>
       </c>
-      <c r="K7" s="337"/>
-      <c r="L7" s="337"/>
-      <c r="M7" s="337"/>
-      <c r="N7" s="337"/>
+      <c r="K7" s="252"/>
+      <c r="L7" s="252"/>
+      <c r="M7" s="252"/>
+      <c r="N7" s="252"/>
       <c r="O7" s="59"/>
       <c r="P7" s="59"/>
       <c r="Q7" s="59"/>
@@ -7522,13 +7531,13 @@
       <c r="U7" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="V7" s="326" t="s">
+      <c r="V7" s="269" t="s">
         <v>69</v>
       </c>
-      <c r="W7" s="326"/>
-      <c r="X7" s="326"/>
-      <c r="Y7" s="326"/>
-      <c r="Z7" s="326"/>
+      <c r="W7" s="269"/>
+      <c r="X7" s="269"/>
+      <c r="Y7" s="269"/>
+      <c r="Z7" s="269"/>
       <c r="AA7" s="48"/>
       <c r="AB7" s="56"/>
     </row>
@@ -7619,10 +7628,10 @@
       <c r="V10" s="61"/>
       <c r="W10" s="61"/>
       <c r="X10" s="61"/>
-      <c r="Y10" s="329" t="s">
+      <c r="Y10" s="273" t="s">
         <v>70</v>
       </c>
-      <c r="Z10" s="329"/>
+      <c r="Z10" s="273"/>
       <c r="AB10" s="56"/>
     </row>
     <row r="11" spans="1:32" ht="17.25" customHeight="1">
@@ -7654,12 +7663,12 @@
       <c r="T11" s="67"/>
       <c r="U11" s="67"/>
       <c r="V11" s="68"/>
-      <c r="W11" s="330" t="s">
+      <c r="W11" s="274" t="s">
         <v>71</v>
       </c>
-      <c r="X11" s="330"/>
-      <c r="Y11" s="330"/>
-      <c r="Z11" s="330"/>
+      <c r="X11" s="274"/>
+      <c r="Y11" s="274"/>
+      <c r="Z11" s="274"/>
       <c r="AA11" s="69"/>
     </row>
     <row r="12" spans="1:32" s="69" customFormat="1" ht="17.25" customHeight="1">
@@ -7678,19 +7687,19 @@
       <c r="M12" s="71"/>
       <c r="N12" s="71"/>
       <c r="O12" s="71"/>
-      <c r="P12" s="328" t="s">
+      <c r="P12" s="272" t="s">
         <v>56</v>
       </c>
-      <c r="Q12" s="328"/>
-      <c r="R12" s="328"/>
-      <c r="S12" s="328"/>
-      <c r="T12" s="328"/>
-      <c r="U12" s="328"/>
-      <c r="V12" s="328"/>
-      <c r="W12" s="328"/>
-      <c r="X12" s="328"/>
-      <c r="Y12" s="328"/>
-      <c r="Z12" s="328"/>
+      <c r="Q12" s="272"/>
+      <c r="R12" s="272"/>
+      <c r="S12" s="272"/>
+      <c r="T12" s="272"/>
+      <c r="U12" s="272"/>
+      <c r="V12" s="272"/>
+      <c r="W12" s="272"/>
+      <c r="X12" s="272"/>
+      <c r="Y12" s="272"/>
+      <c r="Z12" s="272"/>
     </row>
     <row r="13" spans="1:32" s="69" customFormat="1" ht="17.25" customHeight="1">
       <c r="A13" s="70"/>
@@ -7751,8 +7760,8 @@
       <c r="G15" s="223" t="s">
         <v>266</v>
       </c>
-      <c r="H15" s="246"/>
-      <c r="I15" s="247"/>
+      <c r="H15" s="338"/>
+      <c r="I15" s="339"/>
       <c r="J15" s="79" t="s">
         <v>267</v>
       </c>
@@ -7760,8 +7769,8 @@
       <c r="L15" s="223" t="s">
         <v>268</v>
       </c>
-      <c r="M15" s="246"/>
-      <c r="N15" s="247"/>
+      <c r="M15" s="338"/>
+      <c r="N15" s="339"/>
       <c r="O15" s="79" t="s">
         <v>269</v>
       </c>
@@ -7769,12 +7778,12 @@
       <c r="Q15" s="81"/>
       <c r="R15" s="71"/>
       <c r="S15" s="71"/>
-      <c r="T15" s="323" t="s">
+      <c r="T15" s="271" t="s">
         <v>40</v>
       </c>
-      <c r="U15" s="323"/>
-      <c r="V15" s="323"/>
-      <c r="W15" s="323"/>
+      <c r="U15" s="271"/>
+      <c r="V15" s="271"/>
+      <c r="W15" s="271"/>
       <c r="X15" s="82"/>
       <c r="Y15" s="83"/>
       <c r="Z15" s="74"/>
@@ -7782,47 +7791,47 @@
     <row r="16" spans="1:32" s="69" customFormat="1" ht="12" customHeight="1">
       <c r="A16" s="84"/>
       <c r="B16" s="85"/>
-      <c r="C16" s="251" t="s">
+      <c r="C16" s="247" t="s">
         <v>85</v>
       </c>
-      <c r="D16" s="252"/>
-      <c r="E16" s="251" t="s">
+      <c r="D16" s="248"/>
+      <c r="E16" s="247" t="s">
         <v>113</v>
       </c>
-      <c r="F16" s="253"/>
-      <c r="G16" s="251" t="s">
+      <c r="F16" s="249"/>
+      <c r="G16" s="247" t="s">
         <v>141</v>
       </c>
-      <c r="H16" s="252"/>
-      <c r="I16" s="253"/>
-      <c r="J16" s="251" t="s">
+      <c r="H16" s="248"/>
+      <c r="I16" s="249"/>
+      <c r="J16" s="247" t="s">
         <v>169</v>
       </c>
-      <c r="K16" s="253"/>
-      <c r="L16" s="251" t="s">
+      <c r="K16" s="249"/>
+      <c r="L16" s="247" t="s">
         <v>197</v>
       </c>
-      <c r="M16" s="252"/>
-      <c r="N16" s="253"/>
-      <c r="O16" s="251" t="s">
+      <c r="M16" s="248"/>
+      <c r="N16" s="249"/>
+      <c r="O16" s="247" t="s">
         <v>225</v>
       </c>
-      <c r="P16" s="253"/>
+      <c r="P16" s="249"/>
       <c r="Q16" s="85"/>
       <c r="S16" s="71"/>
-      <c r="T16" s="331" t="s">
+      <c r="T16" s="275" t="s">
         <v>72</v>
       </c>
-      <c r="U16" s="331"/>
-      <c r="V16" s="331"/>
-      <c r="W16" s="331"/>
+      <c r="U16" s="275"/>
+      <c r="V16" s="275"/>
+      <c r="W16" s="275"/>
       <c r="X16" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="Y16" s="318" t="s">
+      <c r="Y16" s="277" t="s">
         <v>80</v>
       </c>
-      <c r="Z16" s="318"/>
+      <c r="Z16" s="277"/>
       <c r="AF16" s="104"/>
     </row>
     <row r="17" spans="1:45" s="69" customFormat="1" ht="12" customHeight="1">
@@ -7843,10 +7852,10 @@
       <c r="G17" s="220" t="s">
         <v>282</v>
       </c>
-      <c r="H17" s="277" t="s">
+      <c r="H17" s="285" t="s">
         <v>142</v>
       </c>
-      <c r="I17" s="278"/>
+      <c r="I17" s="286"/>
       <c r="J17" s="86" t="s">
         <v>285</v>
       </c>
@@ -7856,10 +7865,10 @@
       <c r="L17" s="220" t="s">
         <v>288</v>
       </c>
-      <c r="M17" s="277" t="s">
+      <c r="M17" s="285" t="s">
         <v>198</v>
       </c>
-      <c r="N17" s="278"/>
+      <c r="N17" s="286"/>
       <c r="O17" s="86" t="s">
         <v>291</v>
       </c>
@@ -7867,7 +7876,7 @@
         <v>226</v>
       </c>
       <c r="Q17" s="240" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="S17" s="71"/>
       <c r="T17" s="84"/>
@@ -7888,40 +7897,40 @@
     <row r="18" spans="1:45" s="69" customFormat="1" ht="12" customHeight="1">
       <c r="A18" s="84"/>
       <c r="B18" s="91"/>
-      <c r="C18" s="249" t="s">
+      <c r="C18" s="260" t="s">
         <v>87</v>
       </c>
-      <c r="D18" s="271"/>
-      <c r="E18" s="249" t="s">
+      <c r="D18" s="250"/>
+      <c r="E18" s="260" t="s">
         <v>115</v>
       </c>
-      <c r="F18" s="250"/>
-      <c r="G18" s="249" t="s">
+      <c r="F18" s="261"/>
+      <c r="G18" s="260" t="s">
         <v>143</v>
       </c>
-      <c r="H18" s="271"/>
-      <c r="I18" s="250"/>
-      <c r="J18" s="271" t="s">
+      <c r="H18" s="250"/>
+      <c r="I18" s="261"/>
+      <c r="J18" s="250" t="s">
         <v>171</v>
       </c>
-      <c r="K18" s="271"/>
-      <c r="L18" s="269" t="s">
+      <c r="K18" s="250"/>
+      <c r="L18" s="253" t="s">
         <v>199</v>
       </c>
-      <c r="M18" s="298"/>
-      <c r="N18" s="270"/>
-      <c r="O18" s="271" t="s">
+      <c r="M18" s="254"/>
+      <c r="N18" s="255"/>
+      <c r="O18" s="250" t="s">
         <v>227</v>
       </c>
-      <c r="P18" s="271"/>
-      <c r="Q18" s="297" t="s">
-        <v>568</v>
+      <c r="P18" s="250"/>
+      <c r="Q18" s="276" t="s">
+        <v>564</v>
       </c>
       <c r="S18" s="71"/>
-      <c r="T18" s="327"/>
-      <c r="U18" s="327"/>
-      <c r="V18" s="327"/>
-      <c r="W18" s="327"/>
+      <c r="T18" s="270"/>
+      <c r="U18" s="270"/>
+      <c r="V18" s="270"/>
+      <c r="W18" s="270"/>
       <c r="X18" s="82"/>
       <c r="Y18" s="90"/>
       <c r="Z18" s="74"/>
@@ -7933,7 +7942,7 @@
     <row r="19" spans="1:45" s="69" customFormat="1" ht="12" customHeight="1">
       <c r="A19" s="84"/>
       <c r="B19" s="240" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="C19" s="224" t="s">
         <v>88</v>
@@ -7950,10 +7959,10 @@
       <c r="G19" s="226" t="s">
         <v>144</v>
       </c>
-      <c r="H19" s="279" t="s">
+      <c r="H19" s="262" t="s">
         <v>145</v>
       </c>
-      <c r="I19" s="280"/>
+      <c r="I19" s="263"/>
       <c r="J19" s="224" t="s">
         <v>172</v>
       </c>
@@ -7963,22 +7972,22 @@
       <c r="L19" s="224" t="s">
         <v>200</v>
       </c>
-      <c r="M19" s="279" t="s">
+      <c r="M19" s="262" t="s">
         <v>201</v>
       </c>
-      <c r="N19" s="280"/>
+      <c r="N19" s="263"/>
       <c r="O19" s="227" t="s">
         <v>228</v>
       </c>
       <c r="P19" s="225" t="s">
         <v>229</v>
       </c>
-      <c r="Q19" s="297"/>
+      <c r="Q19" s="276"/>
       <c r="S19" s="71"/>
-      <c r="T19" s="327"/>
-      <c r="U19" s="327"/>
-      <c r="V19" s="327"/>
-      <c r="W19" s="327"/>
+      <c r="T19" s="270"/>
+      <c r="U19" s="270"/>
+      <c r="V19" s="270"/>
+      <c r="W19" s="270"/>
       <c r="X19" s="82"/>
       <c r="Y19" s="90"/>
       <c r="Z19" s="74"/>
@@ -7989,30 +7998,30 @@
       <c r="AD19"/>
       <c r="AE19"/>
       <c r="AF19" s="243" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="AG19"/>
     </row>
     <row r="20" spans="1:45" s="69" customFormat="1" ht="12" customHeight="1">
       <c r="A20" s="84"/>
-      <c r="B20" s="335" t="s">
+      <c r="B20" s="246" t="s">
         <v>84</v>
       </c>
       <c r="C20" s="92" t="s">
         <v>277</v>
       </c>
-      <c r="D20" s="332" t="s">
+      <c r="D20" s="278" t="s">
         <v>90</v>
       </c>
-      <c r="E20" s="301"/>
-      <c r="F20" s="333"/>
+      <c r="E20" s="279"/>
+      <c r="F20" s="280"/>
       <c r="G20" s="221" t="s">
         <v>281</v>
       </c>
-      <c r="H20" s="281" t="s">
+      <c r="H20" s="264" t="s">
         <v>118</v>
       </c>
-      <c r="I20" s="282"/>
+      <c r="I20" s="265"/>
       <c r="J20" s="92" t="s">
         <v>283</v>
       </c>
@@ -8022,10 +8031,10 @@
       <c r="L20" s="95" t="s">
         <v>286</v>
       </c>
-      <c r="M20" s="299" t="s">
+      <c r="M20" s="281" t="s">
         <v>174</v>
       </c>
-      <c r="N20" s="300"/>
+      <c r="N20" s="282"/>
       <c r="O20" s="95" t="s">
         <v>289</v>
       </c>
@@ -8034,48 +8043,48 @@
       </c>
       <c r="Q20" s="233"/>
       <c r="S20" s="71"/>
-      <c r="T20" s="327"/>
-      <c r="U20" s="327"/>
-      <c r="V20" s="327"/>
-      <c r="W20" s="327"/>
+      <c r="T20" s="270"/>
+      <c r="U20" s="270"/>
+      <c r="V20" s="270"/>
+      <c r="W20" s="270"/>
       <c r="X20" s="82"/>
       <c r="Y20" s="90"/>
       <c r="Z20" s="74"/>
       <c r="AA20" s="84"/>
       <c r="AD20"/>
       <c r="AE20"/>
-      <c r="AF20" s="322" t="s">
-        <v>573</v>
+      <c r="AF20" s="283" t="s">
+        <v>569</v>
       </c>
       <c r="AG20"/>
     </row>
     <row r="21" spans="1:45" s="69" customFormat="1" ht="12" customHeight="1">
       <c r="A21" s="84"/>
-      <c r="B21" s="335"/>
-      <c r="C21" s="249" t="s">
+      <c r="B21" s="246"/>
+      <c r="C21" s="260" t="s">
         <v>91</v>
       </c>
-      <c r="D21" s="271"/>
-      <c r="E21" s="271"/>
-      <c r="F21" s="250"/>
-      <c r="G21" s="249" t="s">
+      <c r="D21" s="250"/>
+      <c r="E21" s="250"/>
+      <c r="F21" s="261"/>
+      <c r="G21" s="260" t="s">
         <v>119</v>
       </c>
-      <c r="H21" s="271"/>
-      <c r="I21" s="250"/>
-      <c r="J21" s="269" t="s">
+      <c r="H21" s="250"/>
+      <c r="I21" s="261"/>
+      <c r="J21" s="253" t="s">
         <v>147</v>
       </c>
-      <c r="K21" s="270"/>
-      <c r="L21" s="269" t="s">
+      <c r="K21" s="255"/>
+      <c r="L21" s="253" t="s">
         <v>175</v>
       </c>
-      <c r="M21" s="298"/>
-      <c r="N21" s="270"/>
-      <c r="O21" s="269" t="s">
+      <c r="M21" s="254"/>
+      <c r="N21" s="255"/>
+      <c r="O21" s="253" t="s">
         <v>203</v>
       </c>
-      <c r="P21" s="270"/>
+      <c r="P21" s="255"/>
       <c r="Q21" s="234"/>
       <c r="S21" s="71"/>
       <c r="T21" s="71"/>
@@ -8088,7 +8097,7 @@
       <c r="AA21" s="84"/>
       <c r="AD21"/>
       <c r="AE21"/>
-      <c r="AF21" s="322"/>
+      <c r="AF21" s="283"/>
       <c r="AG21"/>
     </row>
     <row r="22" spans="1:45" s="69" customFormat="1" ht="12" customHeight="1">
@@ -8097,18 +8106,18 @@
       <c r="C22" s="228" t="s">
         <v>92</v>
       </c>
-      <c r="D22" s="275" t="s">
+      <c r="D22" s="308" t="s">
         <v>93</v>
       </c>
-      <c r="E22" s="275"/>
-      <c r="F22" s="276"/>
+      <c r="E22" s="308"/>
+      <c r="F22" s="309"/>
       <c r="G22" s="229" t="s">
         <v>120</v>
       </c>
-      <c r="H22" s="275" t="s">
+      <c r="H22" s="308" t="s">
         <v>121</v>
       </c>
-      <c r="I22" s="276"/>
+      <c r="I22" s="309"/>
       <c r="J22" s="230" t="s">
         <v>148</v>
       </c>
@@ -8118,10 +8127,10 @@
       <c r="L22" s="230" t="s">
         <v>176</v>
       </c>
-      <c r="M22" s="275" t="s">
+      <c r="M22" s="308" t="s">
         <v>177</v>
       </c>
-      <c r="N22" s="276"/>
+      <c r="N22" s="309"/>
       <c r="O22" s="232" t="s">
         <v>204</v>
       </c>
@@ -8160,10 +8169,10 @@
       <c r="G23" s="221" t="s">
         <v>284</v>
       </c>
-      <c r="H23" s="281" t="s">
+      <c r="H23" s="264" t="s">
         <v>150</v>
       </c>
-      <c r="I23" s="282"/>
+      <c r="I23" s="265"/>
       <c r="J23" s="92" t="s">
         <v>287</v>
       </c>
@@ -8173,10 +8182,10 @@
       <c r="L23" s="221" t="s">
         <v>290</v>
       </c>
-      <c r="M23" s="281" t="s">
+      <c r="M23" s="264" t="s">
         <v>206</v>
       </c>
-      <c r="N23" s="282"/>
+      <c r="N23" s="265"/>
       <c r="O23" s="92" t="s">
         <v>292</v>
       </c>
@@ -8184,7 +8193,7 @@
         <v>230</v>
       </c>
       <c r="Q23" s="240" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="S23" s="71"/>
       <c r="T23" s="73" t="s">
@@ -8206,42 +8215,42 @@
     <row r="24" spans="1:45" s="69" customFormat="1" ht="12" customHeight="1">
       <c r="A24" s="84"/>
       <c r="B24" s="85"/>
-      <c r="C24" s="249" t="s">
+      <c r="C24" s="260" t="s">
         <v>95</v>
       </c>
-      <c r="D24" s="271"/>
-      <c r="E24" s="249" t="s">
+      <c r="D24" s="250"/>
+      <c r="E24" s="260" t="s">
         <v>123</v>
       </c>
-      <c r="F24" s="271"/>
-      <c r="G24" s="272" t="s">
+      <c r="F24" s="250"/>
+      <c r="G24" s="256" t="s">
         <v>151</v>
       </c>
-      <c r="H24" s="273"/>
-      <c r="I24" s="274"/>
-      <c r="J24" s="249" t="s">
+      <c r="H24" s="257"/>
+      <c r="I24" s="258"/>
+      <c r="J24" s="260" t="s">
         <v>179</v>
       </c>
-      <c r="K24" s="271"/>
-      <c r="L24" s="272" t="s">
+      <c r="K24" s="250"/>
+      <c r="L24" s="256" t="s">
         <v>207</v>
       </c>
-      <c r="M24" s="273"/>
-      <c r="N24" s="274"/>
-      <c r="O24" s="249" t="s">
+      <c r="M24" s="257"/>
+      <c r="N24" s="258"/>
+      <c r="O24" s="260" t="s">
         <v>231</v>
       </c>
-      <c r="P24" s="271"/>
-      <c r="Q24" s="297" t="s">
-        <v>566</v>
+      <c r="P24" s="250"/>
+      <c r="Q24" s="276" t="s">
+        <v>562</v>
       </c>
       <c r="S24" s="71"/>
-      <c r="T24" s="309" t="s">
+      <c r="T24" s="288" t="s">
         <v>254</v>
       </c>
-      <c r="U24" s="309"/>
-      <c r="V24" s="309"/>
-      <c r="W24" s="309"/>
+      <c r="U24" s="288"/>
+      <c r="V24" s="288"/>
+      <c r="W24" s="288"/>
       <c r="X24" s="82"/>
       <c r="Y24" s="99" t="s">
         <v>262</v>
@@ -8272,10 +8281,10 @@
       <c r="G25" s="226" t="s">
         <v>152</v>
       </c>
-      <c r="H25" s="283" t="s">
+      <c r="H25" s="266" t="s">
         <v>153</v>
       </c>
-      <c r="I25" s="284"/>
+      <c r="I25" s="267"/>
       <c r="J25" s="224" t="s">
         <v>180</v>
       </c>
@@ -8285,17 +8294,17 @@
       <c r="L25" s="224" t="s">
         <v>208</v>
       </c>
-      <c r="M25" s="295" t="s">
+      <c r="M25" s="310" t="s">
         <v>209</v>
       </c>
-      <c r="N25" s="296"/>
+      <c r="N25" s="311"/>
       <c r="O25" s="224" t="s">
         <v>232</v>
       </c>
       <c r="P25" s="225" t="s">
         <v>233</v>
       </c>
-      <c r="Q25" s="297"/>
+      <c r="Q25" s="276"/>
       <c r="S25" s="71"/>
       <c r="T25" s="71"/>
       <c r="U25" s="71"/>
@@ -8325,8 +8334,8 @@
       <c r="G26" s="222" t="s">
         <v>272</v>
       </c>
-      <c r="H26" s="244"/>
-      <c r="I26" s="245"/>
+      <c r="H26" s="313"/>
+      <c r="I26" s="314"/>
       <c r="J26" s="100" t="s">
         <v>273</v>
       </c>
@@ -8334,19 +8343,19 @@
       <c r="L26" s="222" t="s">
         <v>274</v>
       </c>
-      <c r="M26" s="244"/>
-      <c r="N26" s="245"/>
+      <c r="M26" s="313"/>
+      <c r="N26" s="314"/>
       <c r="O26" s="76" t="s">
         <v>275</v>
       </c>
       <c r="P26" s="103"/>
       <c r="Q26" s="85"/>
       <c r="S26" s="71"/>
-      <c r="T26" s="294" t="s">
+      <c r="T26" s="287" t="s">
         <v>41</v>
       </c>
-      <c r="U26" s="294"/>
-      <c r="V26" s="294"/>
+      <c r="U26" s="287"/>
+      <c r="V26" s="287"/>
       <c r="W26" s="74" t="s">
         <v>8</v>
       </c>
@@ -8365,40 +8374,40 @@
     <row r="27" spans="1:45" s="69" customFormat="1" ht="12" customHeight="1">
       <c r="A27" s="84"/>
       <c r="B27" s="75"/>
-      <c r="C27" s="251" t="s">
+      <c r="C27" s="247" t="s">
         <v>98</v>
       </c>
-      <c r="D27" s="252"/>
-      <c r="E27" s="251" t="s">
+      <c r="D27" s="248"/>
+      <c r="E27" s="247" t="s">
         <v>126</v>
       </c>
-      <c r="F27" s="252"/>
-      <c r="G27" s="251" t="s">
+      <c r="F27" s="248"/>
+      <c r="G27" s="247" t="s">
         <v>154</v>
       </c>
-      <c r="H27" s="252"/>
-      <c r="I27" s="253"/>
-      <c r="J27" s="251" t="s">
+      <c r="H27" s="248"/>
+      <c r="I27" s="249"/>
+      <c r="J27" s="247" t="s">
         <v>182</v>
       </c>
-      <c r="K27" s="252"/>
-      <c r="L27" s="251" t="s">
+      <c r="K27" s="248"/>
+      <c r="L27" s="247" t="s">
         <v>210</v>
       </c>
-      <c r="M27" s="252"/>
-      <c r="N27" s="253"/>
-      <c r="O27" s="251" t="s">
+      <c r="M27" s="248"/>
+      <c r="N27" s="249"/>
+      <c r="O27" s="247" t="s">
         <v>234</v>
       </c>
-      <c r="P27" s="253"/>
+      <c r="P27" s="249"/>
       <c r="Q27" s="104"/>
       <c r="R27" s="71"/>
       <c r="S27" s="73"/>
-      <c r="T27" s="294" t="s">
+      <c r="T27" s="287" t="s">
         <v>73</v>
       </c>
-      <c r="U27" s="294"/>
-      <c r="V27" s="294"/>
+      <c r="U27" s="287"/>
+      <c r="V27" s="287"/>
       <c r="W27" s="74" t="s">
         <v>8</v>
       </c>
@@ -8434,11 +8443,11 @@
       <c r="Q28" s="104"/>
       <c r="R28" s="71"/>
       <c r="S28" s="73"/>
-      <c r="T28" s="309" t="s">
+      <c r="T28" s="288" t="s">
         <v>43</v>
       </c>
-      <c r="U28" s="309"/>
-      <c r="V28" s="309"/>
+      <c r="U28" s="288"/>
+      <c r="V28" s="288"/>
       <c r="W28" s="74" t="s">
         <v>8</v>
       </c>
@@ -8557,12 +8566,12 @@
       <c r="Q31" s="65"/>
       <c r="R31" s="107"/>
       <c r="S31" s="111"/>
-      <c r="T31" s="323" t="s">
+      <c r="T31" s="271" t="s">
         <v>40</v>
       </c>
-      <c r="U31" s="323"/>
-      <c r="V31" s="323"/>
-      <c r="W31" s="323"/>
+      <c r="U31" s="271"/>
+      <c r="V31" s="271"/>
+      <c r="W31" s="271"/>
       <c r="X31" s="109"/>
       <c r="Y31" s="110"/>
       <c r="Z31" s="74"/>
@@ -8593,32 +8602,32 @@
       <c r="Q32" s="112"/>
       <c r="R32" s="112"/>
       <c r="S32" s="112"/>
-      <c r="T32" s="324" t="s">
+      <c r="T32" s="289" t="s">
         <v>81</v>
       </c>
-      <c r="U32" s="324"/>
-      <c r="V32" s="324"/>
-      <c r="W32" s="324"/>
+      <c r="U32" s="289"/>
+      <c r="V32" s="289"/>
+      <c r="W32" s="289"/>
       <c r="X32" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="Y32" s="318" t="s">
+      <c r="Y32" s="277" t="s">
         <v>82</v>
       </c>
-      <c r="Z32" s="318"/>
+      <c r="Z32" s="277"/>
       <c r="AD32"/>
       <c r="AE32"/>
       <c r="AF32"/>
       <c r="AG32"/>
       <c r="AH32"/>
       <c r="AI32"/>
-      <c r="AJ32" s="316"/>
-      <c r="AK32" s="316"/>
+      <c r="AJ32" s="291"/>
+      <c r="AK32" s="291"/>
       <c r="AL32" s="115"/>
       <c r="AM32" s="115"/>
       <c r="AN32" s="115"/>
-      <c r="AO32" s="316"/>
-      <c r="AP32" s="316"/>
+      <c r="AO32" s="291"/>
+      <c r="AP32" s="291"/>
       <c r="AQ32" s="115"/>
       <c r="AR32" s="115"/>
       <c r="AS32" s="115"/>
@@ -8637,8 +8646,8 @@
       <c r="G33" s="223" t="s">
         <v>295</v>
       </c>
-      <c r="H33" s="246"/>
-      <c r="I33" s="247"/>
+      <c r="H33" s="338"/>
+      <c r="I33" s="339"/>
       <c r="J33" s="217" t="s">
         <v>296</v>
       </c>
@@ -8646,8 +8655,8 @@
       <c r="L33" s="223" t="s">
         <v>297</v>
       </c>
-      <c r="M33" s="246"/>
-      <c r="N33" s="247"/>
+      <c r="M33" s="338"/>
+      <c r="N33" s="339"/>
       <c r="O33" s="217" t="s">
         <v>298</v>
       </c>
@@ -8669,46 +8678,46 @@
       <c r="AG33"/>
       <c r="AH33"/>
       <c r="AI33"/>
-      <c r="AJ33" s="315"/>
-      <c r="AK33" s="315"/>
-      <c r="AL33" s="315"/>
-      <c r="AM33" s="315"/>
-      <c r="AN33" s="315"/>
-      <c r="AO33" s="315"/>
-      <c r="AP33" s="315"/>
-      <c r="AQ33" s="315"/>
-      <c r="AR33" s="315"/>
-      <c r="AS33" s="315"/>
+      <c r="AJ33" s="284"/>
+      <c r="AK33" s="284"/>
+      <c r="AL33" s="284"/>
+      <c r="AM33" s="284"/>
+      <c r="AN33" s="284"/>
+      <c r="AO33" s="284"/>
+      <c r="AP33" s="284"/>
+      <c r="AQ33" s="284"/>
+      <c r="AR33" s="284"/>
+      <c r="AS33" s="284"/>
     </row>
     <row r="34" spans="1:45" s="69" customFormat="1" ht="12" customHeight="1">
       <c r="A34" s="118"/>
       <c r="B34" s="85"/>
-      <c r="C34" s="251" t="s">
+      <c r="C34" s="247" t="s">
         <v>99</v>
       </c>
-      <c r="D34" s="253"/>
-      <c r="E34" s="251" t="s">
+      <c r="D34" s="249"/>
+      <c r="E34" s="247" t="s">
         <v>127</v>
       </c>
-      <c r="F34" s="253"/>
-      <c r="G34" s="251" t="s">
+      <c r="F34" s="249"/>
+      <c r="G34" s="247" t="s">
         <v>155</v>
       </c>
-      <c r="H34" s="252"/>
-      <c r="I34" s="253"/>
-      <c r="J34" s="251" t="s">
+      <c r="H34" s="248"/>
+      <c r="I34" s="249"/>
+      <c r="J34" s="247" t="s">
         <v>183</v>
       </c>
-      <c r="K34" s="253"/>
-      <c r="L34" s="251" t="s">
+      <c r="K34" s="249"/>
+      <c r="L34" s="247" t="s">
         <v>211</v>
       </c>
-      <c r="M34" s="252"/>
-      <c r="N34" s="253"/>
-      <c r="O34" s="251" t="s">
+      <c r="M34" s="248"/>
+      <c r="N34" s="249"/>
+      <c r="O34" s="247" t="s">
         <v>235</v>
       </c>
-      <c r="P34" s="253"/>
+      <c r="P34" s="249"/>
       <c r="Q34" s="85"/>
       <c r="S34" s="116"/>
       <c r="T34" s="117"/>
@@ -8726,13 +8735,13 @@
       <c r="AG34"/>
       <c r="AH34"/>
       <c r="AI34"/>
-      <c r="AJ34" s="319"/>
-      <c r="AK34" s="319"/>
+      <c r="AJ34" s="292"/>
+      <c r="AK34" s="292"/>
       <c r="AL34" s="120"/>
       <c r="AM34" s="119"/>
       <c r="AN34" s="120"/>
-      <c r="AO34" s="319"/>
-      <c r="AP34" s="319"/>
+      <c r="AO34" s="292"/>
+      <c r="AP34" s="292"/>
       <c r="AQ34" s="120"/>
       <c r="AR34" s="119"/>
       <c r="AS34" s="120"/>
@@ -8755,10 +8764,10 @@
       <c r="G35" s="220" t="s">
         <v>301</v>
       </c>
-      <c r="H35" s="277" t="s">
+      <c r="H35" s="285" t="s">
         <v>156</v>
       </c>
-      <c r="I35" s="278"/>
+      <c r="I35" s="286"/>
       <c r="J35" s="220" t="s">
         <v>302</v>
       </c>
@@ -8768,18 +8777,18 @@
       <c r="L35" s="220" t="s">
         <v>303</v>
       </c>
-      <c r="M35" s="277" t="s">
+      <c r="M35" s="285" t="s">
         <v>212</v>
       </c>
-      <c r="N35" s="278"/>
+      <c r="N35" s="286"/>
       <c r="O35" s="220" t="s">
         <v>304</v>
       </c>
       <c r="P35" s="89" t="s">
         <v>236</v>
       </c>
-      <c r="Q35" s="455" t="s">
-        <v>576</v>
+      <c r="Q35" s="244" t="s">
+        <v>572</v>
       </c>
       <c r="S35" s="116"/>
       <c r="T35" s="117"/>
@@ -8800,48 +8809,48 @@
       <c r="AG35"/>
       <c r="AH35"/>
       <c r="AI35"/>
-      <c r="AJ35" s="315"/>
-      <c r="AK35" s="315"/>
-      <c r="AL35" s="315"/>
-      <c r="AM35" s="315"/>
-      <c r="AN35" s="315"/>
-      <c r="AO35" s="273"/>
-      <c r="AP35" s="273"/>
-      <c r="AQ35" s="273"/>
-      <c r="AR35" s="320"/>
-      <c r="AS35" s="320"/>
+      <c r="AJ35" s="284"/>
+      <c r="AK35" s="284"/>
+      <c r="AL35" s="284"/>
+      <c r="AM35" s="284"/>
+      <c r="AN35" s="284"/>
+      <c r="AO35" s="257"/>
+      <c r="AP35" s="257"/>
+      <c r="AQ35" s="257"/>
+      <c r="AR35" s="293"/>
+      <c r="AS35" s="293"/>
     </row>
     <row r="36" spans="1:45" s="69" customFormat="1" ht="12" customHeight="1">
       <c r="A36" s="118"/>
       <c r="B36" s="85"/>
-      <c r="C36" s="249" t="s">
+      <c r="C36" s="260" t="s">
         <v>101</v>
       </c>
-      <c r="D36" s="250"/>
-      <c r="E36" s="249" t="s">
+      <c r="D36" s="261"/>
+      <c r="E36" s="260" t="s">
         <v>129</v>
       </c>
-      <c r="F36" s="250"/>
-      <c r="G36" s="249" t="s">
+      <c r="F36" s="261"/>
+      <c r="G36" s="260" t="s">
         <v>157</v>
       </c>
-      <c r="H36" s="271"/>
-      <c r="I36" s="250"/>
-      <c r="J36" s="249" t="s">
+      <c r="H36" s="250"/>
+      <c r="I36" s="261"/>
+      <c r="J36" s="260" t="s">
         <v>185</v>
       </c>
-      <c r="K36" s="250"/>
-      <c r="L36" s="269" t="s">
+      <c r="K36" s="261"/>
+      <c r="L36" s="253" t="s">
         <v>213</v>
       </c>
-      <c r="M36" s="298"/>
-      <c r="N36" s="270"/>
-      <c r="O36" s="249" t="s">
+      <c r="M36" s="254"/>
+      <c r="N36" s="255"/>
+      <c r="O36" s="260" t="s">
         <v>237</v>
       </c>
-      <c r="P36" s="250"/>
-      <c r="Q36" s="297" t="s">
-        <v>569</v>
+      <c r="P36" s="261"/>
+      <c r="Q36" s="276" t="s">
+        <v>565</v>
       </c>
       <c r="S36" s="116"/>
       <c r="T36" s="117"/>
@@ -8873,7 +8882,7 @@
     <row r="37" spans="1:45" s="69" customFormat="1" ht="12" customHeight="1">
       <c r="A37" s="118"/>
       <c r="B37" s="242" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="C37" s="224" t="s">
         <v>102</v>
@@ -8890,10 +8899,10 @@
       <c r="G37" s="224" t="s">
         <v>158</v>
       </c>
-      <c r="H37" s="279" t="s">
+      <c r="H37" s="262" t="s">
         <v>159</v>
       </c>
-      <c r="I37" s="280"/>
+      <c r="I37" s="263"/>
       <c r="J37" s="224" t="s">
         <v>186</v>
       </c>
@@ -8903,17 +8912,17 @@
       <c r="L37" s="224" t="s">
         <v>214</v>
       </c>
-      <c r="M37" s="279" t="s">
+      <c r="M37" s="262" t="s">
         <v>215</v>
       </c>
-      <c r="N37" s="280"/>
+      <c r="N37" s="263"/>
       <c r="O37" s="227" t="s">
         <v>238</v>
       </c>
       <c r="P37" s="225" t="s">
         <v>239</v>
       </c>
-      <c r="Q37" s="297"/>
+      <c r="Q37" s="276"/>
       <c r="S37" s="126"/>
       <c r="T37" s="117"/>
       <c r="U37" s="117"/>
@@ -8927,42 +8936,42 @@
         <v>35</v>
       </c>
       <c r="AF37" s="243" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="AG37" s="237"/>
       <c r="AH37" s="237"/>
       <c r="AI37" s="237"/>
-      <c r="AJ37" s="317"/>
-      <c r="AK37" s="317"/>
+      <c r="AJ37" s="290"/>
+      <c r="AK37" s="290"/>
       <c r="AL37" s="120"/>
       <c r="AM37" s="97"/>
       <c r="AN37" s="121"/>
       <c r="AO37" s="97"/>
-      <c r="AP37" s="321"/>
-      <c r="AQ37" s="321"/>
+      <c r="AP37" s="294"/>
+      <c r="AQ37" s="294"/>
       <c r="AR37" s="97"/>
       <c r="AS37" s="120"/>
     </row>
     <row r="38" spans="1:45" s="69" customFormat="1" ht="12" customHeight="1">
       <c r="A38" s="118"/>
-      <c r="B38" s="335" t="s">
+      <c r="B38" s="246" t="s">
         <v>244</v>
       </c>
       <c r="C38" s="218" t="s">
         <v>305</v>
       </c>
-      <c r="D38" s="301" t="s">
+      <c r="D38" s="279" t="s">
         <v>104</v>
       </c>
-      <c r="E38" s="301"/>
-      <c r="F38" s="302"/>
+      <c r="E38" s="279"/>
+      <c r="F38" s="312"/>
       <c r="G38" s="221" t="s">
         <v>306</v>
       </c>
-      <c r="H38" s="281" t="s">
+      <c r="H38" s="264" t="s">
         <v>132</v>
       </c>
-      <c r="I38" s="282"/>
+      <c r="I38" s="265"/>
       <c r="J38" s="218" t="s">
         <v>307</v>
       </c>
@@ -8972,10 +8981,10 @@
       <c r="L38" s="95" t="s">
         <v>308</v>
       </c>
-      <c r="M38" s="299" t="s">
+      <c r="M38" s="281" t="s">
         <v>188</v>
       </c>
-      <c r="N38" s="300"/>
+      <c r="N38" s="282"/>
       <c r="O38" s="95" t="s">
         <v>309</v>
       </c>
@@ -8991,50 +9000,50 @@
       <c r="X38" s="71"/>
       <c r="Y38" s="127"/>
       <c r="Z38" s="71"/>
-      <c r="AF38" s="322" t="s">
-        <v>580</v>
+      <c r="AF38" s="283" t="s">
+        <v>576</v>
       </c>
       <c r="AG38" s="236"/>
       <c r="AH38" s="236"/>
       <c r="AI38" s="236"/>
-      <c r="AJ38" s="315"/>
-      <c r="AK38" s="315"/>
-      <c r="AL38" s="315"/>
-      <c r="AM38" s="273"/>
-      <c r="AN38" s="273"/>
-      <c r="AO38" s="273"/>
-      <c r="AP38" s="273"/>
-      <c r="AQ38" s="273"/>
-      <c r="AR38" s="273"/>
-      <c r="AS38" s="273"/>
+      <c r="AJ38" s="284"/>
+      <c r="AK38" s="284"/>
+      <c r="AL38" s="284"/>
+      <c r="AM38" s="257"/>
+      <c r="AN38" s="257"/>
+      <c r="AO38" s="257"/>
+      <c r="AP38" s="257"/>
+      <c r="AQ38" s="257"/>
+      <c r="AR38" s="257"/>
+      <c r="AS38" s="257"/>
     </row>
     <row r="39" spans="1:45" s="69" customFormat="1" ht="12" customHeight="1">
       <c r="A39" s="118"/>
-      <c r="B39" s="335"/>
-      <c r="C39" s="249" t="s">
+      <c r="B39" s="246"/>
+      <c r="C39" s="260" t="s">
         <v>105</v>
       </c>
-      <c r="D39" s="271"/>
-      <c r="E39" s="271"/>
-      <c r="F39" s="250"/>
-      <c r="G39" s="249" t="s">
+      <c r="D39" s="250"/>
+      <c r="E39" s="250"/>
+      <c r="F39" s="261"/>
+      <c r="G39" s="260" t="s">
         <v>133</v>
       </c>
-      <c r="H39" s="271"/>
-      <c r="I39" s="250"/>
-      <c r="J39" s="269" t="s">
+      <c r="H39" s="250"/>
+      <c r="I39" s="261"/>
+      <c r="J39" s="253" t="s">
         <v>161</v>
       </c>
-      <c r="K39" s="270"/>
-      <c r="L39" s="269" t="s">
+      <c r="K39" s="255"/>
+      <c r="L39" s="253" t="s">
         <v>189</v>
       </c>
-      <c r="M39" s="298"/>
-      <c r="N39" s="270"/>
-      <c r="O39" s="269" t="s">
+      <c r="M39" s="254"/>
+      <c r="N39" s="255"/>
+      <c r="O39" s="253" t="s">
         <v>217</v>
       </c>
-      <c r="P39" s="270"/>
+      <c r="P39" s="255"/>
       <c r="Q39" s="234"/>
       <c r="S39" s="126"/>
       <c r="T39" s="73" t="s">
@@ -9046,7 +9055,7 @@
       <c r="X39" s="71"/>
       <c r="Y39" s="127"/>
       <c r="Z39" s="74"/>
-      <c r="AF39" s="322"/>
+      <c r="AF39" s="283"/>
       <c r="AG39" s="238"/>
       <c r="AH39" s="238"/>
       <c r="AI39" s="125"/>
@@ -9067,18 +9076,18 @@
       <c r="C40" s="228" t="s">
         <v>106</v>
       </c>
-      <c r="D40" s="275" t="s">
+      <c r="D40" s="308" t="s">
         <v>107</v>
       </c>
-      <c r="E40" s="275"/>
-      <c r="F40" s="276"/>
+      <c r="E40" s="308"/>
+      <c r="F40" s="309"/>
       <c r="G40" s="229" t="s">
         <v>134</v>
       </c>
-      <c r="H40" s="275" t="s">
+      <c r="H40" s="308" t="s">
         <v>135</v>
       </c>
-      <c r="I40" s="276"/>
+      <c r="I40" s="309"/>
       <c r="J40" s="230" t="s">
         <v>162</v>
       </c>
@@ -9088,10 +9097,10 @@
       <c r="L40" s="230" t="s">
         <v>190</v>
       </c>
-      <c r="M40" s="275" t="s">
+      <c r="M40" s="308" t="s">
         <v>191</v>
       </c>
-      <c r="N40" s="276"/>
+      <c r="N40" s="309"/>
       <c r="O40" s="232" t="s">
         <v>218</v>
       </c>
@@ -9100,12 +9109,12 @@
       </c>
       <c r="Q40" s="98"/>
       <c r="S40" s="65"/>
-      <c r="T40" s="309" t="s">
+      <c r="T40" s="288" t="s">
         <v>254</v>
       </c>
-      <c r="U40" s="309"/>
-      <c r="V40" s="309"/>
-      <c r="W40" s="309"/>
+      <c r="U40" s="288"/>
+      <c r="V40" s="288"/>
+      <c r="W40" s="288"/>
       <c r="X40" s="82"/>
       <c r="Y40" s="128" t="s">
         <v>83</v>
@@ -9115,13 +9124,13 @@
       <c r="AG40" s="120"/>
       <c r="AH40" s="238"/>
       <c r="AI40" s="237"/>
-      <c r="AJ40" s="317"/>
-      <c r="AK40" s="317"/>
+      <c r="AJ40" s="290"/>
+      <c r="AK40" s="290"/>
       <c r="AL40" s="120"/>
       <c r="AM40" s="97"/>
       <c r="AN40" s="120"/>
-      <c r="AO40" s="317"/>
-      <c r="AP40" s="317"/>
+      <c r="AO40" s="290"/>
+      <c r="AP40" s="290"/>
       <c r="AQ40" s="120"/>
       <c r="AR40" s="97"/>
       <c r="AS40" s="120"/>
@@ -9144,10 +9153,10 @@
       <c r="G41" s="221" t="s">
         <v>312</v>
       </c>
-      <c r="H41" s="281" t="s">
+      <c r="H41" s="264" t="s">
         <v>164</v>
       </c>
-      <c r="I41" s="282"/>
+      <c r="I41" s="265"/>
       <c r="J41" s="218" t="s">
         <v>313</v>
       </c>
@@ -9157,18 +9166,18 @@
       <c r="L41" s="221" t="s">
         <v>314</v>
       </c>
-      <c r="M41" s="281" t="s">
+      <c r="M41" s="264" t="s">
         <v>220</v>
       </c>
-      <c r="N41" s="282"/>
+      <c r="N41" s="265"/>
       <c r="O41" s="218" t="s">
         <v>315</v>
       </c>
       <c r="P41" s="89" t="s">
         <v>240</v>
       </c>
-      <c r="Q41" s="455" t="s">
-        <v>578</v>
+      <c r="Q41" s="244" t="s">
+        <v>574</v>
       </c>
       <c r="S41" s="112"/>
       <c r="T41" s="71"/>
@@ -9182,55 +9191,55 @@
       <c r="AG41" s="235"/>
       <c r="AH41" s="235"/>
       <c r="AI41" s="235"/>
-      <c r="AJ41" s="273"/>
-      <c r="AK41" s="273"/>
-      <c r="AL41" s="273"/>
-      <c r="AM41" s="315"/>
-      <c r="AN41" s="315"/>
-      <c r="AO41" s="273"/>
-      <c r="AP41" s="273"/>
-      <c r="AQ41" s="273"/>
-      <c r="AR41" s="273"/>
-      <c r="AS41" s="273"/>
+      <c r="AJ41" s="257"/>
+      <c r="AK41" s="257"/>
+      <c r="AL41" s="257"/>
+      <c r="AM41" s="284"/>
+      <c r="AN41" s="284"/>
+      <c r="AO41" s="257"/>
+      <c r="AP41" s="257"/>
+      <c r="AQ41" s="257"/>
+      <c r="AR41" s="257"/>
+      <c r="AS41" s="257"/>
     </row>
     <row r="42" spans="1:45" s="69" customFormat="1" ht="12" customHeight="1">
       <c r="A42" s="118"/>
       <c r="B42" s="85"/>
-      <c r="C42" s="249" t="s">
+      <c r="C42" s="260" t="s">
         <v>109</v>
       </c>
-      <c r="D42" s="250"/>
-      <c r="E42" s="249" t="s">
+      <c r="D42" s="261"/>
+      <c r="E42" s="260" t="s">
         <v>137</v>
       </c>
-      <c r="F42" s="250"/>
-      <c r="G42" s="272" t="s">
+      <c r="F42" s="261"/>
+      <c r="G42" s="256" t="s">
         <v>165</v>
       </c>
-      <c r="H42" s="273"/>
-      <c r="I42" s="274"/>
-      <c r="J42" s="249" t="s">
+      <c r="H42" s="257"/>
+      <c r="I42" s="258"/>
+      <c r="J42" s="260" t="s">
         <v>193</v>
       </c>
-      <c r="K42" s="250"/>
-      <c r="L42" s="272" t="s">
+      <c r="K42" s="261"/>
+      <c r="L42" s="256" t="s">
         <v>221</v>
       </c>
-      <c r="M42" s="273"/>
-      <c r="N42" s="274"/>
-      <c r="O42" s="249" t="s">
+      <c r="M42" s="257"/>
+      <c r="N42" s="258"/>
+      <c r="O42" s="260" t="s">
         <v>241</v>
       </c>
-      <c r="P42" s="250"/>
-      <c r="Q42" s="297" t="s">
-        <v>567</v>
+      <c r="P42" s="261"/>
+      <c r="Q42" s="276" t="s">
+        <v>563</v>
       </c>
       <c r="S42" s="71"/>
-      <c r="T42" s="294" t="s">
+      <c r="T42" s="287" t="s">
         <v>41</v>
       </c>
-      <c r="U42" s="294"/>
-      <c r="V42" s="294"/>
+      <c r="U42" s="287"/>
+      <c r="V42" s="287"/>
       <c r="W42" s="74" t="s">
         <v>8</v>
       </c>
@@ -9272,10 +9281,10 @@
       <c r="G43" s="224" t="s">
         <v>166</v>
       </c>
-      <c r="H43" s="283" t="s">
+      <c r="H43" s="266" t="s">
         <v>167</v>
       </c>
-      <c r="I43" s="284"/>
+      <c r="I43" s="267"/>
       <c r="J43" s="224" t="s">
         <v>194</v>
       </c>
@@ -9285,23 +9294,23 @@
       <c r="L43" s="224" t="s">
         <v>222</v>
       </c>
-      <c r="M43" s="279" t="s">
+      <c r="M43" s="262" t="s">
         <v>223</v>
       </c>
-      <c r="N43" s="280"/>
+      <c r="N43" s="263"/>
       <c r="O43" s="224" t="s">
         <v>242</v>
       </c>
       <c r="P43" s="225" t="s">
         <v>243</v>
       </c>
-      <c r="Q43" s="297"/>
+      <c r="Q43" s="276"/>
       <c r="S43" s="71"/>
-      <c r="T43" s="294" t="s">
+      <c r="T43" s="287" t="s">
         <v>73</v>
       </c>
-      <c r="U43" s="294"/>
-      <c r="V43" s="294"/>
+      <c r="U43" s="287"/>
+      <c r="V43" s="287"/>
       <c r="W43" s="74" t="s">
         <v>8</v>
       </c>
@@ -9314,13 +9323,13 @@
       <c r="AG43" s="239"/>
       <c r="AH43" s="239"/>
       <c r="AI43" s="239"/>
-      <c r="AJ43" s="316"/>
-      <c r="AK43" s="316"/>
+      <c r="AJ43" s="291"/>
+      <c r="AK43" s="291"/>
       <c r="AL43" s="115"/>
       <c r="AM43" s="115"/>
       <c r="AN43" s="115"/>
-      <c r="AO43" s="316"/>
-      <c r="AP43" s="316"/>
+      <c r="AO43" s="291"/>
+      <c r="AP43" s="291"/>
       <c r="AQ43" s="115"/>
       <c r="AR43" s="115"/>
       <c r="AS43" s="115"/>
@@ -9339,8 +9348,8 @@
       <c r="G44" s="223" t="s">
         <v>318</v>
       </c>
-      <c r="H44" s="246"/>
-      <c r="I44" s="247"/>
+      <c r="H44" s="338"/>
+      <c r="I44" s="339"/>
       <c r="J44" s="100" t="s">
         <v>319</v>
       </c>
@@ -9348,19 +9357,19 @@
       <c r="L44" s="223" t="s">
         <v>320</v>
       </c>
-      <c r="M44" s="246"/>
-      <c r="N44" s="247"/>
+      <c r="M44" s="338"/>
+      <c r="N44" s="339"/>
       <c r="O44" s="76" t="s">
         <v>321</v>
       </c>
       <c r="P44" s="103"/>
       <c r="Q44" s="85"/>
       <c r="S44" s="71"/>
-      <c r="T44" s="309" t="s">
+      <c r="T44" s="288" t="s">
         <v>43</v>
       </c>
-      <c r="U44" s="309"/>
-      <c r="V44" s="309"/>
+      <c r="U44" s="288"/>
+      <c r="V44" s="288"/>
       <c r="W44" s="74" t="s">
         <v>8</v>
       </c>
@@ -9376,46 +9385,46 @@
       <c r="AG44" s="236"/>
       <c r="AH44" s="236"/>
       <c r="AI44" s="236"/>
-      <c r="AJ44" s="315"/>
-      <c r="AK44" s="315"/>
-      <c r="AL44" s="315"/>
-      <c r="AM44" s="315"/>
-      <c r="AN44" s="315"/>
-      <c r="AO44" s="315"/>
-      <c r="AP44" s="315"/>
-      <c r="AQ44" s="315"/>
-      <c r="AR44" s="315"/>
-      <c r="AS44" s="315"/>
+      <c r="AJ44" s="284"/>
+      <c r="AK44" s="284"/>
+      <c r="AL44" s="284"/>
+      <c r="AM44" s="284"/>
+      <c r="AN44" s="284"/>
+      <c r="AO44" s="284"/>
+      <c r="AP44" s="284"/>
+      <c r="AQ44" s="284"/>
+      <c r="AR44" s="284"/>
+      <c r="AS44" s="284"/>
     </row>
     <row r="45" spans="1:45" s="69" customFormat="1" ht="12" customHeight="1">
       <c r="A45" s="84"/>
       <c r="B45" s="75"/>
-      <c r="C45" s="251" t="s">
+      <c r="C45" s="247" t="s">
         <v>112</v>
       </c>
-      <c r="D45" s="253"/>
-      <c r="E45" s="251" t="s">
+      <c r="D45" s="249"/>
+      <c r="E45" s="247" t="s">
         <v>140</v>
       </c>
-      <c r="F45" s="253"/>
-      <c r="G45" s="251" t="s">
+      <c r="F45" s="249"/>
+      <c r="G45" s="247" t="s">
         <v>168</v>
       </c>
-      <c r="H45" s="252"/>
-      <c r="I45" s="253"/>
-      <c r="J45" s="251" t="s">
+      <c r="H45" s="248"/>
+      <c r="I45" s="249"/>
+      <c r="J45" s="247" t="s">
         <v>196</v>
       </c>
-      <c r="K45" s="253"/>
-      <c r="L45" s="251" t="s">
+      <c r="K45" s="249"/>
+      <c r="L45" s="247" t="s">
         <v>224</v>
       </c>
-      <c r="M45" s="252"/>
-      <c r="N45" s="253"/>
-      <c r="O45" s="251" t="s">
+      <c r="M45" s="248"/>
+      <c r="N45" s="249"/>
+      <c r="O45" s="247" t="s">
         <v>322</v>
       </c>
-      <c r="P45" s="253"/>
+      <c r="P45" s="249"/>
       <c r="Q45" s="104"/>
       <c r="R45" s="71"/>
       <c r="S45" s="73"/>
@@ -9430,18 +9439,18 @@
     <row r="46" spans="1:45" ht="17.25" customHeight="1">
       <c r="A46" s="56"/>
       <c r="B46" s="131"/>
-      <c r="C46" s="291"/>
-      <c r="D46" s="291"/>
-      <c r="E46" s="291"/>
-      <c r="F46" s="291"/>
-      <c r="G46" s="291"/>
-      <c r="H46" s="291"/>
-      <c r="I46" s="291"/>
-      <c r="J46" s="291"/>
-      <c r="K46" s="291"/>
-      <c r="L46" s="291"/>
-      <c r="M46" s="291"/>
-      <c r="N46" s="291"/>
+      <c r="C46" s="319"/>
+      <c r="D46" s="319"/>
+      <c r="E46" s="319"/>
+      <c r="F46" s="319"/>
+      <c r="G46" s="319"/>
+      <c r="H46" s="319"/>
+      <c r="I46" s="319"/>
+      <c r="J46" s="319"/>
+      <c r="K46" s="319"/>
+      <c r="L46" s="319"/>
+      <c r="M46" s="319"/>
+      <c r="N46" s="319"/>
       <c r="O46" s="113"/>
       <c r="P46" s="112"/>
       <c r="Q46" s="112"/>
@@ -9498,20 +9507,20 @@
       <c r="F48" s="133"/>
       <c r="G48" s="133"/>
       <c r="H48" s="133"/>
-      <c r="I48" s="290"/>
-      <c r="J48" s="290"/>
-      <c r="K48" s="290"/>
-      <c r="L48" s="290"/>
-      <c r="M48" s="257" t="s">
+      <c r="I48" s="318"/>
+      <c r="J48" s="318"/>
+      <c r="K48" s="318"/>
+      <c r="L48" s="318"/>
+      <c r="M48" s="326" t="s">
         <v>15</v>
       </c>
-      <c r="N48" s="258"/>
-      <c r="O48" s="258"/>
-      <c r="P48" s="258"/>
-      <c r="Q48" s="258"/>
-      <c r="R48" s="258"/>
-      <c r="S48" s="258"/>
-      <c r="T48" s="259"/>
+      <c r="N48" s="327"/>
+      <c r="O48" s="327"/>
+      <c r="P48" s="327"/>
+      <c r="Q48" s="327"/>
+      <c r="R48" s="327"/>
+      <c r="S48" s="327"/>
+      <c r="T48" s="328"/>
       <c r="U48" s="136"/>
       <c r="V48" s="136"/>
       <c r="W48" s="136"/>
@@ -9532,22 +9541,22 @@
       <c r="F49" s="139"/>
       <c r="G49" s="139"/>
       <c r="H49" s="140"/>
-      <c r="I49" s="248" t="s">
+      <c r="I49" s="324" t="s">
         <v>256</v>
       </c>
-      <c r="J49" s="248"/>
-      <c r="K49" s="248"/>
-      <c r="L49" s="248"/>
-      <c r="M49" s="260" t="s">
+      <c r="J49" s="324"/>
+      <c r="K49" s="324"/>
+      <c r="L49" s="324"/>
+      <c r="M49" s="329" t="s">
         <v>263</v>
       </c>
-      <c r="N49" s="261"/>
-      <c r="O49" s="261"/>
-      <c r="P49" s="261"/>
-      <c r="Q49" s="261"/>
-      <c r="R49" s="261"/>
-      <c r="S49" s="261"/>
-      <c r="T49" s="262"/>
+      <c r="N49" s="330"/>
+      <c r="O49" s="330"/>
+      <c r="P49" s="330"/>
+      <c r="Q49" s="330"/>
+      <c r="R49" s="330"/>
+      <c r="S49" s="330"/>
+      <c r="T49" s="331"/>
       <c r="U49" s="136"/>
       <c r="V49" s="136"/>
       <c r="W49" s="136"/>
@@ -9568,20 +9577,20 @@
       <c r="F50" s="139"/>
       <c r="G50" s="139"/>
       <c r="H50" s="140"/>
-      <c r="I50" s="248" t="s">
+      <c r="I50" s="324" t="s">
         <v>257</v>
       </c>
-      <c r="J50" s="248"/>
-      <c r="K50" s="248"/>
-      <c r="L50" s="248"/>
-      <c r="M50" s="263"/>
-      <c r="N50" s="264"/>
-      <c r="O50" s="264"/>
-      <c r="P50" s="264"/>
-      <c r="Q50" s="264"/>
-      <c r="R50" s="264"/>
-      <c r="S50" s="264"/>
-      <c r="T50" s="265"/>
+      <c r="J50" s="324"/>
+      <c r="K50" s="324"/>
+      <c r="L50" s="324"/>
+      <c r="M50" s="332"/>
+      <c r="N50" s="333"/>
+      <c r="O50" s="333"/>
+      <c r="P50" s="333"/>
+      <c r="Q50" s="333"/>
+      <c r="R50" s="333"/>
+      <c r="S50" s="333"/>
+      <c r="T50" s="334"/>
       <c r="U50" s="137"/>
       <c r="V50" s="136"/>
       <c r="W50" s="136"/>
@@ -9602,20 +9611,20 @@
       <c r="F51" s="139"/>
       <c r="G51" s="139"/>
       <c r="H51" s="140"/>
-      <c r="I51" s="248" t="s">
+      <c r="I51" s="324" t="s">
         <v>260</v>
       </c>
-      <c r="J51" s="248"/>
-      <c r="K51" s="248"/>
-      <c r="L51" s="248"/>
-      <c r="M51" s="263"/>
-      <c r="N51" s="264"/>
-      <c r="O51" s="264"/>
-      <c r="P51" s="264"/>
-      <c r="Q51" s="264"/>
-      <c r="R51" s="264"/>
-      <c r="S51" s="264"/>
-      <c r="T51" s="265"/>
+      <c r="J51" s="324"/>
+      <c r="K51" s="324"/>
+      <c r="L51" s="324"/>
+      <c r="M51" s="332"/>
+      <c r="N51" s="333"/>
+      <c r="O51" s="333"/>
+      <c r="P51" s="333"/>
+      <c r="Q51" s="333"/>
+      <c r="R51" s="333"/>
+      <c r="S51" s="333"/>
+      <c r="T51" s="334"/>
       <c r="U51" s="137"/>
       <c r="V51" s="136"/>
       <c r="W51" s="136"/>
@@ -9636,20 +9645,20 @@
       <c r="F52" s="139"/>
       <c r="G52" s="139"/>
       <c r="H52" s="140"/>
-      <c r="I52" s="248" t="s">
+      <c r="I52" s="324" t="s">
         <v>259</v>
       </c>
-      <c r="J52" s="248"/>
-      <c r="K52" s="248"/>
-      <c r="L52" s="248"/>
-      <c r="M52" s="263"/>
-      <c r="N52" s="264"/>
-      <c r="O52" s="264"/>
-      <c r="P52" s="264"/>
-      <c r="Q52" s="264"/>
-      <c r="R52" s="264"/>
-      <c r="S52" s="264"/>
-      <c r="T52" s="265"/>
+      <c r="J52" s="324"/>
+      <c r="K52" s="324"/>
+      <c r="L52" s="324"/>
+      <c r="M52" s="332"/>
+      <c r="N52" s="333"/>
+      <c r="O52" s="333"/>
+      <c r="P52" s="333"/>
+      <c r="Q52" s="333"/>
+      <c r="R52" s="333"/>
+      <c r="S52" s="333"/>
+      <c r="T52" s="334"/>
       <c r="U52" s="137"/>
       <c r="V52" s="136"/>
       <c r="W52" s="136"/>
@@ -9670,20 +9679,20 @@
       <c r="F53" s="139"/>
       <c r="G53" s="139"/>
       <c r="H53" s="140"/>
-      <c r="I53" s="248" t="s">
+      <c r="I53" s="324" t="s">
         <v>258</v>
       </c>
-      <c r="J53" s="248"/>
-      <c r="K53" s="248"/>
-      <c r="L53" s="248"/>
-      <c r="M53" s="263"/>
-      <c r="N53" s="264"/>
-      <c r="O53" s="264"/>
-      <c r="P53" s="264"/>
-      <c r="Q53" s="264"/>
-      <c r="R53" s="264"/>
-      <c r="S53" s="264"/>
-      <c r="T53" s="265"/>
+      <c r="J53" s="324"/>
+      <c r="K53" s="324"/>
+      <c r="L53" s="324"/>
+      <c r="M53" s="332"/>
+      <c r="N53" s="333"/>
+      <c r="O53" s="333"/>
+      <c r="P53" s="333"/>
+      <c r="Q53" s="333"/>
+      <c r="R53" s="333"/>
+      <c r="S53" s="333"/>
+      <c r="T53" s="334"/>
       <c r="U53" s="137"/>
       <c r="V53" s="136"/>
       <c r="W53" s="136"/>
@@ -9695,29 +9704,29 @@
     </row>
     <row r="54" spans="1:30" ht="13.2" customHeight="1">
       <c r="A54" s="135"/>
-      <c r="B54" s="287" t="s">
+      <c r="B54" s="315" t="s">
         <v>21</v>
       </c>
-      <c r="C54" s="288"/>
-      <c r="D54" s="288"/>
-      <c r="E54" s="288"/>
-      <c r="F54" s="288"/>
-      <c r="G54" s="288"/>
-      <c r="H54" s="289"/>
-      <c r="I54" s="293" t="s">
+      <c r="C54" s="316"/>
+      <c r="D54" s="316"/>
+      <c r="E54" s="316"/>
+      <c r="F54" s="316"/>
+      <c r="G54" s="316"/>
+      <c r="H54" s="317"/>
+      <c r="I54" s="323" t="s">
         <v>261</v>
       </c>
-      <c r="J54" s="293"/>
-      <c r="K54" s="293"/>
-      <c r="L54" s="293"/>
-      <c r="M54" s="263"/>
-      <c r="N54" s="264"/>
-      <c r="O54" s="264"/>
-      <c r="P54" s="264"/>
-      <c r="Q54" s="264"/>
-      <c r="R54" s="264"/>
-      <c r="S54" s="264"/>
-      <c r="T54" s="265"/>
+      <c r="J54" s="323"/>
+      <c r="K54" s="323"/>
+      <c r="L54" s="323"/>
+      <c r="M54" s="332"/>
+      <c r="N54" s="333"/>
+      <c r="O54" s="333"/>
+      <c r="P54" s="333"/>
+      <c r="Q54" s="333"/>
+      <c r="R54" s="333"/>
+      <c r="S54" s="333"/>
+      <c r="T54" s="334"/>
       <c r="U54" s="137"/>
       <c r="V54" s="136"/>
       <c r="W54" s="136"/>
@@ -9740,18 +9749,18 @@
       <c r="F55" s="143"/>
       <c r="G55" s="143"/>
       <c r="H55" s="144"/>
-      <c r="I55" s="293"/>
-      <c r="J55" s="293"/>
-      <c r="K55" s="293"/>
-      <c r="L55" s="293"/>
-      <c r="M55" s="263"/>
-      <c r="N55" s="264"/>
-      <c r="O55" s="264"/>
-      <c r="P55" s="264"/>
-      <c r="Q55" s="264"/>
-      <c r="R55" s="264"/>
-      <c r="S55" s="264"/>
-      <c r="T55" s="265"/>
+      <c r="I55" s="323"/>
+      <c r="J55" s="323"/>
+      <c r="K55" s="323"/>
+      <c r="L55" s="323"/>
+      <c r="M55" s="332"/>
+      <c r="N55" s="333"/>
+      <c r="O55" s="333"/>
+      <c r="P55" s="333"/>
+      <c r="Q55" s="333"/>
+      <c r="R55" s="333"/>
+      <c r="S55" s="333"/>
+      <c r="T55" s="334"/>
       <c r="U55" s="137"/>
       <c r="V55" s="136"/>
       <c r="W55" s="136"/>
@@ -9774,18 +9783,18 @@
       <c r="F56" s="143"/>
       <c r="G56" s="143"/>
       <c r="H56" s="144"/>
-      <c r="I56" s="293"/>
-      <c r="J56" s="293"/>
-      <c r="K56" s="293"/>
-      <c r="L56" s="293"/>
-      <c r="M56" s="263"/>
-      <c r="N56" s="264"/>
-      <c r="O56" s="264"/>
-      <c r="P56" s="264"/>
-      <c r="Q56" s="264"/>
-      <c r="R56" s="264"/>
-      <c r="S56" s="264"/>
-      <c r="T56" s="265"/>
+      <c r="I56" s="323"/>
+      <c r="J56" s="323"/>
+      <c r="K56" s="323"/>
+      <c r="L56" s="323"/>
+      <c r="M56" s="332"/>
+      <c r="N56" s="333"/>
+      <c r="O56" s="333"/>
+      <c r="P56" s="333"/>
+      <c r="Q56" s="333"/>
+      <c r="R56" s="333"/>
+      <c r="S56" s="333"/>
+      <c r="T56" s="334"/>
       <c r="U56" s="137"/>
       <c r="V56" s="136"/>
       <c r="W56" s="136"/>
@@ -9808,18 +9817,18 @@
       <c r="F57" s="143"/>
       <c r="G57" s="143"/>
       <c r="H57" s="144"/>
-      <c r="I57" s="293"/>
-      <c r="J57" s="293"/>
-      <c r="K57" s="293"/>
-      <c r="L57" s="293"/>
-      <c r="M57" s="263"/>
-      <c r="N57" s="264"/>
-      <c r="O57" s="264"/>
-      <c r="P57" s="264"/>
-      <c r="Q57" s="264"/>
-      <c r="R57" s="264"/>
-      <c r="S57" s="264"/>
-      <c r="T57" s="265"/>
+      <c r="I57" s="323"/>
+      <c r="J57" s="323"/>
+      <c r="K57" s="323"/>
+      <c r="L57" s="323"/>
+      <c r="M57" s="332"/>
+      <c r="N57" s="333"/>
+      <c r="O57" s="333"/>
+      <c r="P57" s="333"/>
+      <c r="Q57" s="333"/>
+      <c r="R57" s="333"/>
+      <c r="S57" s="333"/>
+      <c r="T57" s="334"/>
       <c r="U57" s="137"/>
       <c r="V57" s="136"/>
       <c r="W57" s="136"/>
@@ -9842,18 +9851,18 @@
       <c r="F58" s="143"/>
       <c r="G58" s="143"/>
       <c r="H58" s="144"/>
-      <c r="I58" s="293"/>
-      <c r="J58" s="293"/>
-      <c r="K58" s="293"/>
-      <c r="L58" s="293"/>
-      <c r="M58" s="263"/>
-      <c r="N58" s="264"/>
-      <c r="O58" s="264"/>
-      <c r="P58" s="264"/>
-      <c r="Q58" s="264"/>
-      <c r="R58" s="264"/>
-      <c r="S58" s="264"/>
-      <c r="T58" s="265"/>
+      <c r="I58" s="323"/>
+      <c r="J58" s="323"/>
+      <c r="K58" s="323"/>
+      <c r="L58" s="323"/>
+      <c r="M58" s="332"/>
+      <c r="N58" s="333"/>
+      <c r="O58" s="333"/>
+      <c r="P58" s="333"/>
+      <c r="Q58" s="333"/>
+      <c r="R58" s="333"/>
+      <c r="S58" s="333"/>
+      <c r="T58" s="334"/>
       <c r="U58" s="137"/>
       <c r="V58" s="136"/>
       <c r="W58" s="136"/>
@@ -9876,18 +9885,18 @@
       <c r="F59" s="145"/>
       <c r="G59" s="145"/>
       <c r="H59" s="146"/>
-      <c r="I59" s="293"/>
-      <c r="J59" s="293"/>
-      <c r="K59" s="293"/>
-      <c r="L59" s="293"/>
-      <c r="M59" s="266"/>
-      <c r="N59" s="267"/>
-      <c r="O59" s="267"/>
-      <c r="P59" s="267"/>
-      <c r="Q59" s="267"/>
-      <c r="R59" s="267"/>
-      <c r="S59" s="267"/>
-      <c r="T59" s="268"/>
+      <c r="I59" s="323"/>
+      <c r="J59" s="323"/>
+      <c r="K59" s="323"/>
+      <c r="L59" s="323"/>
+      <c r="M59" s="335"/>
+      <c r="N59" s="336"/>
+      <c r="O59" s="336"/>
+      <c r="P59" s="336"/>
+      <c r="Q59" s="336"/>
+      <c r="R59" s="336"/>
+      <c r="S59" s="336"/>
+      <c r="T59" s="337"/>
       <c r="U59" s="137"/>
       <c r="V59" s="136"/>
       <c r="W59" s="136"/>
@@ -9973,28 +9982,28 @@
       <c r="C62" s="151"/>
       <c r="D62" s="151"/>
       <c r="E62" s="152"/>
-      <c r="F62" s="285" t="s">
+      <c r="F62" s="303" t="s">
         <v>245</v>
       </c>
-      <c r="G62" s="285"/>
-      <c r="H62" s="285"/>
-      <c r="I62" s="285"/>
-      <c r="J62" s="285"/>
-      <c r="K62" s="304"/>
-      <c r="L62" s="304"/>
-      <c r="M62" s="304"/>
-      <c r="N62" s="304"/>
-      <c r="O62" s="304"/>
-      <c r="P62" s="308"/>
-      <c r="Q62" s="308"/>
-      <c r="R62" s="308"/>
-      <c r="S62" s="308"/>
-      <c r="T62" s="308"/>
-      <c r="U62" s="308"/>
-      <c r="V62" s="308"/>
-      <c r="W62" s="308"/>
-      <c r="X62" s="308"/>
-      <c r="Y62" s="308"/>
+      <c r="G62" s="303"/>
+      <c r="H62" s="303"/>
+      <c r="I62" s="303"/>
+      <c r="J62" s="303"/>
+      <c r="K62" s="295"/>
+      <c r="L62" s="295"/>
+      <c r="M62" s="295"/>
+      <c r="N62" s="295"/>
+      <c r="O62" s="295"/>
+      <c r="P62" s="299"/>
+      <c r="Q62" s="299"/>
+      <c r="R62" s="299"/>
+      <c r="S62" s="299"/>
+      <c r="T62" s="299"/>
+      <c r="U62" s="299"/>
+      <c r="V62" s="299"/>
+      <c r="W62" s="299"/>
+      <c r="X62" s="299"/>
+      <c r="Y62" s="299"/>
       <c r="Z62" s="56"/>
       <c r="AA62" s="56"/>
       <c r="AB62" s="56"/>
@@ -10007,37 +10016,37 @@
         <v>27</v>
       </c>
       <c r="C63" s="154"/>
-      <c r="D63" s="254" t="s">
+      <c r="D63" s="321" t="s">
         <v>28</v>
       </c>
-      <c r="E63" s="255"/>
-      <c r="F63" s="285" t="s">
+      <c r="E63" s="322"/>
+      <c r="F63" s="303" t="s">
         <v>246</v>
       </c>
-      <c r="G63" s="285"/>
-      <c r="H63" s="285"/>
-      <c r="I63" s="285"/>
-      <c r="J63" s="285"/>
-      <c r="K63" s="304"/>
-      <c r="L63" s="304"/>
-      <c r="M63" s="304"/>
-      <c r="N63" s="304"/>
-      <c r="O63" s="304"/>
-      <c r="P63" s="304"/>
-      <c r="Q63" s="304"/>
-      <c r="R63" s="304"/>
-      <c r="S63" s="304"/>
-      <c r="T63" s="304"/>
-      <c r="U63" s="304"/>
-      <c r="V63" s="304"/>
-      <c r="W63" s="304"/>
-      <c r="X63" s="304"/>
-      <c r="Y63" s="304"/>
-      <c r="Z63" s="303"/>
-      <c r="AA63" s="303"/>
-      <c r="AB63" s="303"/>
-      <c r="AC63" s="303"/>
-      <c r="AD63" s="303"/>
+      <c r="G63" s="303"/>
+      <c r="H63" s="303"/>
+      <c r="I63" s="303"/>
+      <c r="J63" s="303"/>
+      <c r="K63" s="295"/>
+      <c r="L63" s="295"/>
+      <c r="M63" s="295"/>
+      <c r="N63" s="295"/>
+      <c r="O63" s="295"/>
+      <c r="P63" s="295"/>
+      <c r="Q63" s="295"/>
+      <c r="R63" s="295"/>
+      <c r="S63" s="295"/>
+      <c r="T63" s="295"/>
+      <c r="U63" s="295"/>
+      <c r="V63" s="295"/>
+      <c r="W63" s="295"/>
+      <c r="X63" s="295"/>
+      <c r="Y63" s="295"/>
+      <c r="Z63" s="306"/>
+      <c r="AA63" s="306"/>
+      <c r="AB63" s="306"/>
+      <c r="AC63" s="306"/>
+      <c r="AD63" s="306"/>
     </row>
     <row r="64" spans="1:30" ht="17.25" customHeight="1">
       <c r="A64" s="69"/>
@@ -10047,33 +10056,33 @@
       <c r="C64" s="151"/>
       <c r="D64" s="151"/>
       <c r="E64" s="152"/>
-      <c r="F64" s="285" t="s">
+      <c r="F64" s="303" t="s">
         <v>247</v>
       </c>
-      <c r="G64" s="285"/>
-      <c r="H64" s="285"/>
-      <c r="I64" s="285"/>
-      <c r="J64" s="285"/>
-      <c r="K64" s="304"/>
-      <c r="L64" s="304"/>
-      <c r="M64" s="304"/>
-      <c r="N64" s="304"/>
-      <c r="O64" s="304"/>
-      <c r="P64" s="304"/>
-      <c r="Q64" s="304"/>
-      <c r="R64" s="304"/>
-      <c r="S64" s="304"/>
-      <c r="T64" s="304"/>
-      <c r="U64" s="304"/>
-      <c r="V64" s="304"/>
-      <c r="W64" s="304"/>
-      <c r="X64" s="304"/>
-      <c r="Y64" s="304"/>
-      <c r="Z64" s="303"/>
-      <c r="AA64" s="303"/>
-      <c r="AB64" s="303"/>
-      <c r="AC64" s="303"/>
-      <c r="AD64" s="303"/>
+      <c r="G64" s="303"/>
+      <c r="H64" s="303"/>
+      <c r="I64" s="303"/>
+      <c r="J64" s="303"/>
+      <c r="K64" s="295"/>
+      <c r="L64" s="295"/>
+      <c r="M64" s="295"/>
+      <c r="N64" s="295"/>
+      <c r="O64" s="295"/>
+      <c r="P64" s="295"/>
+      <c r="Q64" s="295"/>
+      <c r="R64" s="295"/>
+      <c r="S64" s="295"/>
+      <c r="T64" s="295"/>
+      <c r="U64" s="295"/>
+      <c r="V64" s="295"/>
+      <c r="W64" s="295"/>
+      <c r="X64" s="295"/>
+      <c r="Y64" s="295"/>
+      <c r="Z64" s="306"/>
+      <c r="AA64" s="306"/>
+      <c r="AB64" s="306"/>
+      <c r="AC64" s="306"/>
+      <c r="AD64" s="306"/>
     </row>
     <row r="65" spans="1:30" ht="17.25" customHeight="1">
       <c r="A65" s="69"/>
@@ -10083,33 +10092,33 @@
       <c r="C65" s="151"/>
       <c r="D65" s="151"/>
       <c r="E65" s="152"/>
-      <c r="F65" s="285" t="s">
+      <c r="F65" s="303" t="s">
         <v>248</v>
       </c>
-      <c r="G65" s="285"/>
-      <c r="H65" s="285"/>
-      <c r="I65" s="285"/>
-      <c r="J65" s="285"/>
-      <c r="K65" s="306"/>
-      <c r="L65" s="306"/>
-      <c r="M65" s="306"/>
-      <c r="N65" s="306"/>
-      <c r="O65" s="306"/>
-      <c r="P65" s="306"/>
-      <c r="Q65" s="306"/>
-      <c r="R65" s="306"/>
-      <c r="S65" s="306"/>
-      <c r="T65" s="306"/>
-      <c r="U65" s="306"/>
-      <c r="V65" s="306"/>
-      <c r="W65" s="306"/>
-      <c r="X65" s="306"/>
-      <c r="Y65" s="306"/>
-      <c r="Z65" s="303"/>
-      <c r="AA65" s="303"/>
-      <c r="AB65" s="303"/>
-      <c r="AC65" s="303"/>
-      <c r="AD65" s="303"/>
+      <c r="G65" s="303"/>
+      <c r="H65" s="303"/>
+      <c r="I65" s="303"/>
+      <c r="J65" s="303"/>
+      <c r="K65" s="304"/>
+      <c r="L65" s="304"/>
+      <c r="M65" s="304"/>
+      <c r="N65" s="304"/>
+      <c r="O65" s="304"/>
+      <c r="P65" s="304"/>
+      <c r="Q65" s="304"/>
+      <c r="R65" s="304"/>
+      <c r="S65" s="304"/>
+      <c r="T65" s="304"/>
+      <c r="U65" s="304"/>
+      <c r="V65" s="304"/>
+      <c r="W65" s="304"/>
+      <c r="X65" s="304"/>
+      <c r="Y65" s="304"/>
+      <c r="Z65" s="306"/>
+      <c r="AA65" s="306"/>
+      <c r="AB65" s="306"/>
+      <c r="AC65" s="306"/>
+      <c r="AD65" s="306"/>
     </row>
     <row r="66" spans="1:30" ht="17.25" customHeight="1">
       <c r="A66" s="69"/>
@@ -10119,69 +10128,69 @@
       <c r="C66" s="151"/>
       <c r="D66" s="151"/>
       <c r="E66" s="152"/>
-      <c r="F66" s="285" t="s">
+      <c r="F66" s="303" t="s">
         <v>249</v>
       </c>
-      <c r="G66" s="285"/>
-      <c r="H66" s="285"/>
-      <c r="I66" s="285"/>
-      <c r="J66" s="285"/>
-      <c r="K66" s="306"/>
-      <c r="L66" s="306"/>
-      <c r="M66" s="306"/>
-      <c r="N66" s="306"/>
-      <c r="O66" s="306"/>
-      <c r="P66" s="306"/>
-      <c r="Q66" s="306"/>
-      <c r="R66" s="306"/>
-      <c r="S66" s="306"/>
-      <c r="T66" s="306"/>
-      <c r="U66" s="306"/>
-      <c r="V66" s="306"/>
-      <c r="W66" s="306"/>
-      <c r="X66" s="306"/>
-      <c r="Y66" s="306"/>
-      <c r="Z66" s="305"/>
-      <c r="AA66" s="305"/>
-      <c r="AB66" s="305"/>
-      <c r="AC66" s="305"/>
-      <c r="AD66" s="305"/>
+      <c r="G66" s="303"/>
+      <c r="H66" s="303"/>
+      <c r="I66" s="303"/>
+      <c r="J66" s="303"/>
+      <c r="K66" s="304"/>
+      <c r="L66" s="304"/>
+      <c r="M66" s="304"/>
+      <c r="N66" s="304"/>
+      <c r="O66" s="304"/>
+      <c r="P66" s="304"/>
+      <c r="Q66" s="304"/>
+      <c r="R66" s="304"/>
+      <c r="S66" s="304"/>
+      <c r="T66" s="304"/>
+      <c r="U66" s="304"/>
+      <c r="V66" s="304"/>
+      <c r="W66" s="304"/>
+      <c r="X66" s="304"/>
+      <c r="Y66" s="304"/>
+      <c r="Z66" s="307"/>
+      <c r="AA66" s="307"/>
+      <c r="AB66" s="307"/>
+      <c r="AC66" s="307"/>
+      <c r="AD66" s="307"/>
     </row>
     <row r="67" spans="1:30" ht="17.25" customHeight="1">
       <c r="A67" s="69"/>
-      <c r="B67" s="292" t="s">
+      <c r="B67" s="320" t="s">
         <v>51</v>
       </c>
-      <c r="C67" s="254"/>
-      <c r="D67" s="254"/>
-      <c r="E67" s="255"/>
-      <c r="F67" s="285" t="s">
+      <c r="C67" s="321"/>
+      <c r="D67" s="321"/>
+      <c r="E67" s="322"/>
+      <c r="F67" s="303" t="s">
         <v>250</v>
       </c>
-      <c r="G67" s="285"/>
-      <c r="H67" s="285"/>
-      <c r="I67" s="285"/>
-      <c r="J67" s="285"/>
-      <c r="K67" s="306"/>
-      <c r="L67" s="306"/>
-      <c r="M67" s="306"/>
-      <c r="N67" s="306"/>
-      <c r="O67" s="306"/>
-      <c r="P67" s="306"/>
-      <c r="Q67" s="306"/>
-      <c r="R67" s="306"/>
-      <c r="S67" s="306"/>
-      <c r="T67" s="306"/>
-      <c r="U67" s="306"/>
-      <c r="V67" s="306"/>
-      <c r="W67" s="306"/>
-      <c r="X67" s="306"/>
-      <c r="Y67" s="306"/>
-      <c r="Z67" s="305"/>
-      <c r="AA67" s="305"/>
-      <c r="AB67" s="305"/>
-      <c r="AC67" s="305"/>
-      <c r="AD67" s="305"/>
+      <c r="G67" s="303"/>
+      <c r="H67" s="303"/>
+      <c r="I67" s="303"/>
+      <c r="J67" s="303"/>
+      <c r="K67" s="304"/>
+      <c r="L67" s="304"/>
+      <c r="M67" s="304"/>
+      <c r="N67" s="304"/>
+      <c r="O67" s="304"/>
+      <c r="P67" s="304"/>
+      <c r="Q67" s="304"/>
+      <c r="R67" s="304"/>
+      <c r="S67" s="304"/>
+      <c r="T67" s="304"/>
+      <c r="U67" s="304"/>
+      <c r="V67" s="304"/>
+      <c r="W67" s="304"/>
+      <c r="X67" s="304"/>
+      <c r="Y67" s="304"/>
+      <c r="Z67" s="307"/>
+      <c r="AA67" s="307"/>
+      <c r="AB67" s="307"/>
+      <c r="AC67" s="307"/>
+      <c r="AD67" s="307"/>
     </row>
     <row r="68" spans="1:30" ht="17.25" customHeight="1">
       <c r="A68" s="69"/>
@@ -10191,28 +10200,28 @@
       <c r="C68" s="151"/>
       <c r="D68" s="151"/>
       <c r="E68" s="152"/>
-      <c r="F68" s="285" t="s">
+      <c r="F68" s="303" t="s">
         <v>251</v>
       </c>
-      <c r="G68" s="285"/>
-      <c r="H68" s="285"/>
-      <c r="I68" s="285"/>
-      <c r="J68" s="285"/>
-      <c r="K68" s="286"/>
-      <c r="L68" s="286"/>
-      <c r="M68" s="286"/>
-      <c r="N68" s="286"/>
-      <c r="O68" s="286"/>
-      <c r="P68" s="286"/>
-      <c r="Q68" s="286"/>
-      <c r="R68" s="286"/>
-      <c r="S68" s="286"/>
-      <c r="T68" s="286"/>
-      <c r="U68" s="286"/>
-      <c r="V68" s="286"/>
-      <c r="W68" s="286"/>
-      <c r="X68" s="286"/>
-      <c r="Y68" s="286"/>
+      <c r="G68" s="303"/>
+      <c r="H68" s="303"/>
+      <c r="I68" s="303"/>
+      <c r="J68" s="303"/>
+      <c r="K68" s="298"/>
+      <c r="L68" s="298"/>
+      <c r="M68" s="298"/>
+      <c r="N68" s="298"/>
+      <c r="O68" s="298"/>
+      <c r="P68" s="298"/>
+      <c r="Q68" s="298"/>
+      <c r="R68" s="298"/>
+      <c r="S68" s="298"/>
+      <c r="T68" s="298"/>
+      <c r="U68" s="298"/>
+      <c r="V68" s="298"/>
+      <c r="W68" s="298"/>
+      <c r="X68" s="298"/>
+      <c r="Y68" s="298"/>
       <c r="Z68" s="155"/>
       <c r="AA68" s="156"/>
       <c r="AB68" s="155"/>
@@ -10227,33 +10236,33 @@
       <c r="C69" s="151"/>
       <c r="D69" s="151"/>
       <c r="E69" s="152"/>
-      <c r="F69" s="285" t="s">
+      <c r="F69" s="303" t="s">
         <v>252</v>
       </c>
-      <c r="G69" s="285"/>
-      <c r="H69" s="285"/>
-      <c r="I69" s="285"/>
-      <c r="J69" s="285"/>
-      <c r="K69" s="307"/>
-      <c r="L69" s="307"/>
-      <c r="M69" s="307"/>
-      <c r="N69" s="307"/>
-      <c r="O69" s="307"/>
-      <c r="P69" s="307"/>
-      <c r="Q69" s="307"/>
-      <c r="R69" s="307"/>
-      <c r="S69" s="307"/>
-      <c r="T69" s="307"/>
-      <c r="U69" s="307"/>
-      <c r="V69" s="307"/>
-      <c r="W69" s="307"/>
-      <c r="X69" s="307"/>
-      <c r="Y69" s="307"/>
-      <c r="Z69" s="303"/>
-      <c r="AA69" s="303"/>
-      <c r="AB69" s="303"/>
-      <c r="AC69" s="303"/>
-      <c r="AD69" s="303"/>
+      <c r="G69" s="303"/>
+      <c r="H69" s="303"/>
+      <c r="I69" s="303"/>
+      <c r="J69" s="303"/>
+      <c r="K69" s="305"/>
+      <c r="L69" s="305"/>
+      <c r="M69" s="305"/>
+      <c r="N69" s="305"/>
+      <c r="O69" s="305"/>
+      <c r="P69" s="305"/>
+      <c r="Q69" s="305"/>
+      <c r="R69" s="305"/>
+      <c r="S69" s="305"/>
+      <c r="T69" s="305"/>
+      <c r="U69" s="305"/>
+      <c r="V69" s="305"/>
+      <c r="W69" s="305"/>
+      <c r="X69" s="305"/>
+      <c r="Y69" s="305"/>
+      <c r="Z69" s="306"/>
+      <c r="AA69" s="306"/>
+      <c r="AB69" s="306"/>
+      <c r="AC69" s="306"/>
+      <c r="AD69" s="306"/>
     </row>
     <row r="70" spans="1:30" ht="13.5" customHeight="1">
       <c r="A70" s="69"/>
@@ -10263,27 +10272,27 @@
       <c r="C70" s="151"/>
       <c r="D70" s="151"/>
       <c r="E70" s="152"/>
-      <c r="F70" s="312" t="s">
+      <c r="F70" s="300" t="s">
         <v>253</v>
       </c>
-      <c r="G70" s="313"/>
-      <c r="H70" s="313"/>
-      <c r="I70" s="313"/>
-      <c r="J70" s="314"/>
+      <c r="G70" s="301"/>
+      <c r="H70" s="301"/>
+      <c r="I70" s="301"/>
+      <c r="J70" s="302"/>
       <c r="K70" s="114"/>
-      <c r="L70" s="304"/>
-      <c r="M70" s="304"/>
-      <c r="N70" s="304"/>
+      <c r="L70" s="295"/>
+      <c r="M70" s="295"/>
+      <c r="N70" s="295"/>
       <c r="O70" s="114"/>
       <c r="P70" s="114"/>
-      <c r="Q70" s="304"/>
-      <c r="R70" s="304"/>
-      <c r="S70" s="304"/>
+      <c r="Q70" s="295"/>
+      <c r="R70" s="295"/>
+      <c r="S70" s="295"/>
       <c r="T70" s="114"/>
       <c r="U70" s="114"/>
-      <c r="V70" s="304"/>
-      <c r="W70" s="304"/>
-      <c r="X70" s="304"/>
+      <c r="V70" s="295"/>
+      <c r="W70" s="295"/>
+      <c r="X70" s="295"/>
       <c r="Y70" s="114"/>
       <c r="Z70" s="56"/>
       <c r="AA70" s="56"/>
@@ -10329,10 +10338,10 @@
       <c r="N72" s="160"/>
     </row>
     <row r="73" spans="1:30" ht="17.25" customHeight="1">
-      <c r="J73" s="310"/>
-      <c r="K73" s="311"/>
-      <c r="L73" s="311"/>
-      <c r="M73" s="311"/>
+      <c r="J73" s="296"/>
+      <c r="K73" s="297"/>
+      <c r="L73" s="297"/>
+      <c r="M73" s="297"/>
       <c r="W73" s="161"/>
     </row>
     <row r="75" spans="1:30" ht="17.25" customHeight="1">
@@ -10343,6 +10352,203 @@
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
   <mergeCells count="221">
+    <mergeCell ref="K63:O63"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="M33:N33"/>
+    <mergeCell ref="M44:N44"/>
+    <mergeCell ref="I51:L51"/>
+    <mergeCell ref="I52:L52"/>
+    <mergeCell ref="O42:P42"/>
+    <mergeCell ref="L45:N45"/>
+    <mergeCell ref="O45:P45"/>
+    <mergeCell ref="M43:N43"/>
+    <mergeCell ref="H43:I43"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="I46:J46"/>
+    <mergeCell ref="P62:T62"/>
+    <mergeCell ref="M46:N46"/>
+    <mergeCell ref="J45:K45"/>
+    <mergeCell ref="K46:L46"/>
+    <mergeCell ref="D5:H5"/>
+    <mergeCell ref="I53:L53"/>
+    <mergeCell ref="M48:T48"/>
+    <mergeCell ref="M49:T59"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="L24:N24"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="L27:N27"/>
+    <mergeCell ref="O34:P34"/>
+    <mergeCell ref="B54:H54"/>
+    <mergeCell ref="F62:J62"/>
+    <mergeCell ref="F64:J64"/>
+    <mergeCell ref="F63:J63"/>
+    <mergeCell ref="F65:J65"/>
+    <mergeCell ref="I48:L48"/>
+    <mergeCell ref="P68:T68"/>
+    <mergeCell ref="C46:F46"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="B67:E67"/>
+    <mergeCell ref="F67:J67"/>
+    <mergeCell ref="I54:L59"/>
+    <mergeCell ref="O36:P36"/>
+    <mergeCell ref="I49:L49"/>
+    <mergeCell ref="I50:L50"/>
+    <mergeCell ref="M41:N41"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="D40:F40"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="K64:O64"/>
+    <mergeCell ref="D63:E63"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="T26:V26"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="Q24:Q25"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="G42:I42"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="L36:N36"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="J42:K42"/>
+    <mergeCell ref="M38:N38"/>
+    <mergeCell ref="L42:N42"/>
+    <mergeCell ref="G39:I39"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="C39:F39"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="M40:N40"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="Z64:AD64"/>
+    <mergeCell ref="U64:Y64"/>
+    <mergeCell ref="P64:T64"/>
+    <mergeCell ref="Z69:AD69"/>
+    <mergeCell ref="Z67:AD67"/>
+    <mergeCell ref="P63:T63"/>
+    <mergeCell ref="U65:Y65"/>
+    <mergeCell ref="U66:Y66"/>
+    <mergeCell ref="Z65:AD65"/>
+    <mergeCell ref="Z66:AD66"/>
+    <mergeCell ref="Z63:AD63"/>
+    <mergeCell ref="U69:Y69"/>
+    <mergeCell ref="U67:Y67"/>
+    <mergeCell ref="P67:T67"/>
+    <mergeCell ref="V70:X70"/>
+    <mergeCell ref="T43:V43"/>
+    <mergeCell ref="T44:V44"/>
+    <mergeCell ref="J73:M73"/>
+    <mergeCell ref="U68:Y68"/>
+    <mergeCell ref="U62:Y62"/>
+    <mergeCell ref="U63:Y63"/>
+    <mergeCell ref="F70:J70"/>
+    <mergeCell ref="F66:J66"/>
+    <mergeCell ref="F69:J69"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="K67:O67"/>
+    <mergeCell ref="L70:N70"/>
+    <mergeCell ref="K69:O69"/>
+    <mergeCell ref="K65:O65"/>
+    <mergeCell ref="K66:O66"/>
+    <mergeCell ref="P69:T69"/>
+    <mergeCell ref="P65:T65"/>
+    <mergeCell ref="P66:T66"/>
+    <mergeCell ref="Q70:S70"/>
+    <mergeCell ref="K62:O62"/>
+    <mergeCell ref="F68:J68"/>
+    <mergeCell ref="K68:O68"/>
+    <mergeCell ref="G45:I45"/>
+    <mergeCell ref="AR44:AS44"/>
+    <mergeCell ref="AJ43:AK43"/>
+    <mergeCell ref="AO43:AP43"/>
+    <mergeCell ref="AR41:AS41"/>
+    <mergeCell ref="AJ44:AL44"/>
+    <mergeCell ref="AM44:AN44"/>
+    <mergeCell ref="AO44:AQ44"/>
+    <mergeCell ref="AO41:AQ41"/>
+    <mergeCell ref="AJ41:AL41"/>
+    <mergeCell ref="AM41:AN41"/>
+    <mergeCell ref="AR38:AS38"/>
+    <mergeCell ref="AJ37:AK37"/>
+    <mergeCell ref="AJ32:AK32"/>
+    <mergeCell ref="Y32:Z32"/>
+    <mergeCell ref="AR33:AS33"/>
+    <mergeCell ref="AJ34:AK34"/>
+    <mergeCell ref="AO34:AP34"/>
+    <mergeCell ref="AJ35:AL35"/>
+    <mergeCell ref="AM35:AN35"/>
+    <mergeCell ref="AO35:AQ35"/>
+    <mergeCell ref="AR35:AS35"/>
+    <mergeCell ref="AP37:AQ37"/>
+    <mergeCell ref="AJ38:AL38"/>
+    <mergeCell ref="AM38:AN38"/>
+    <mergeCell ref="AO38:AQ38"/>
+    <mergeCell ref="AO32:AP32"/>
+    <mergeCell ref="AF20:AF21"/>
+    <mergeCell ref="AJ33:AL33"/>
+    <mergeCell ref="AM33:AN33"/>
+    <mergeCell ref="AO33:AQ33"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="M35:N35"/>
+    <mergeCell ref="T27:V27"/>
+    <mergeCell ref="T28:V28"/>
+    <mergeCell ref="T42:V42"/>
+    <mergeCell ref="T40:W40"/>
+    <mergeCell ref="O27:P27"/>
+    <mergeCell ref="T31:W31"/>
+    <mergeCell ref="J39:K39"/>
+    <mergeCell ref="L39:N39"/>
+    <mergeCell ref="T32:W32"/>
+    <mergeCell ref="G34:I34"/>
+    <mergeCell ref="Q36:Q37"/>
+    <mergeCell ref="Q42:Q43"/>
+    <mergeCell ref="AF38:AF39"/>
+    <mergeCell ref="AJ40:AK40"/>
+    <mergeCell ref="AO40:AP40"/>
+    <mergeCell ref="T24:W24"/>
+    <mergeCell ref="O24:P24"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="V5:Z5"/>
+    <mergeCell ref="V6:Z6"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="L18:N18"/>
+    <mergeCell ref="T18:W18"/>
+    <mergeCell ref="O21:P21"/>
+    <mergeCell ref="T19:W19"/>
+    <mergeCell ref="T20:W20"/>
+    <mergeCell ref="V7:Z7"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="T15:W15"/>
+    <mergeCell ref="P12:Z12"/>
+    <mergeCell ref="Y10:Z10"/>
+    <mergeCell ref="W11:Z11"/>
+    <mergeCell ref="T16:W16"/>
+    <mergeCell ref="Q18:Q19"/>
+    <mergeCell ref="Y16:Z16"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E18:F18"/>
     <mergeCell ref="L3:O3"/>
     <mergeCell ref="B20:B21"/>
     <mergeCell ref="B38:B39"/>
@@ -10367,203 +10573,6 @@
     <mergeCell ref="C27:D27"/>
     <mergeCell ref="E27:F27"/>
     <mergeCell ref="C24:D24"/>
-    <mergeCell ref="V5:Z5"/>
-    <mergeCell ref="V6:Z6"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="L18:N18"/>
-    <mergeCell ref="T18:W18"/>
-    <mergeCell ref="O21:P21"/>
-    <mergeCell ref="T19:W19"/>
-    <mergeCell ref="T20:W20"/>
-    <mergeCell ref="V7:Z7"/>
-    <mergeCell ref="M19:N19"/>
-    <mergeCell ref="T15:W15"/>
-    <mergeCell ref="P12:Z12"/>
-    <mergeCell ref="Y10:Z10"/>
-    <mergeCell ref="W11:Z11"/>
-    <mergeCell ref="T16:W16"/>
-    <mergeCell ref="Q18:Q19"/>
-    <mergeCell ref="Y16:Z16"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="AF20:AF21"/>
-    <mergeCell ref="AJ33:AL33"/>
-    <mergeCell ref="AM33:AN33"/>
-    <mergeCell ref="AO33:AQ33"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="M35:N35"/>
-    <mergeCell ref="T27:V27"/>
-    <mergeCell ref="T28:V28"/>
-    <mergeCell ref="T42:V42"/>
-    <mergeCell ref="T40:W40"/>
-    <mergeCell ref="O27:P27"/>
-    <mergeCell ref="T31:W31"/>
-    <mergeCell ref="J39:K39"/>
-    <mergeCell ref="L39:N39"/>
-    <mergeCell ref="T32:W32"/>
-    <mergeCell ref="G34:I34"/>
-    <mergeCell ref="Q36:Q37"/>
-    <mergeCell ref="Q42:Q43"/>
-    <mergeCell ref="AF38:AF39"/>
-    <mergeCell ref="AJ40:AK40"/>
-    <mergeCell ref="AO40:AP40"/>
-    <mergeCell ref="T24:W24"/>
-    <mergeCell ref="O24:P24"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="AR38:AS38"/>
-    <mergeCell ref="AJ37:AK37"/>
-    <mergeCell ref="AJ32:AK32"/>
-    <mergeCell ref="Y32:Z32"/>
-    <mergeCell ref="AR33:AS33"/>
-    <mergeCell ref="AJ34:AK34"/>
-    <mergeCell ref="AO34:AP34"/>
-    <mergeCell ref="AJ35:AL35"/>
-    <mergeCell ref="AM35:AN35"/>
-    <mergeCell ref="AO35:AQ35"/>
-    <mergeCell ref="AR35:AS35"/>
-    <mergeCell ref="AP37:AQ37"/>
-    <mergeCell ref="AJ38:AL38"/>
-    <mergeCell ref="AM38:AN38"/>
-    <mergeCell ref="AO38:AQ38"/>
-    <mergeCell ref="AO32:AP32"/>
-    <mergeCell ref="AR44:AS44"/>
-    <mergeCell ref="AJ43:AK43"/>
-    <mergeCell ref="AO43:AP43"/>
-    <mergeCell ref="AR41:AS41"/>
-    <mergeCell ref="AJ44:AL44"/>
-    <mergeCell ref="AM44:AN44"/>
-    <mergeCell ref="AO44:AQ44"/>
-    <mergeCell ref="AO41:AQ41"/>
-    <mergeCell ref="AJ41:AL41"/>
-    <mergeCell ref="AM41:AN41"/>
-    <mergeCell ref="K64:O64"/>
-    <mergeCell ref="P62:T62"/>
-    <mergeCell ref="V70:X70"/>
-    <mergeCell ref="T43:V43"/>
-    <mergeCell ref="T44:V44"/>
-    <mergeCell ref="J73:M73"/>
-    <mergeCell ref="U68:Y68"/>
-    <mergeCell ref="U62:Y62"/>
-    <mergeCell ref="U63:Y63"/>
-    <mergeCell ref="F70:J70"/>
-    <mergeCell ref="F66:J66"/>
-    <mergeCell ref="F69:J69"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="K67:O67"/>
-    <mergeCell ref="L70:N70"/>
-    <mergeCell ref="K69:O69"/>
-    <mergeCell ref="K65:O65"/>
-    <mergeCell ref="K66:O66"/>
-    <mergeCell ref="P69:T69"/>
-    <mergeCell ref="P65:T65"/>
-    <mergeCell ref="P66:T66"/>
-    <mergeCell ref="Q70:S70"/>
-    <mergeCell ref="K62:O62"/>
-    <mergeCell ref="Z64:AD64"/>
-    <mergeCell ref="U64:Y64"/>
-    <mergeCell ref="P64:T64"/>
-    <mergeCell ref="Z69:AD69"/>
-    <mergeCell ref="Z67:AD67"/>
-    <mergeCell ref="P63:T63"/>
-    <mergeCell ref="U65:Y65"/>
-    <mergeCell ref="U66:Y66"/>
-    <mergeCell ref="Z65:AD65"/>
-    <mergeCell ref="Z66:AD66"/>
-    <mergeCell ref="Z63:AD63"/>
-    <mergeCell ref="U69:Y69"/>
-    <mergeCell ref="U67:Y67"/>
-    <mergeCell ref="P67:T67"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="T26:V26"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="M22:N22"/>
-    <mergeCell ref="Q24:Q25"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="G42:I42"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="L36:N36"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="J42:K42"/>
-    <mergeCell ref="M38:N38"/>
-    <mergeCell ref="L42:N42"/>
-    <mergeCell ref="G39:I39"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="J36:K36"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="C39:F39"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="M40:N40"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="F68:J68"/>
-    <mergeCell ref="K68:O68"/>
-    <mergeCell ref="O34:P34"/>
-    <mergeCell ref="B54:H54"/>
-    <mergeCell ref="F62:J62"/>
-    <mergeCell ref="F64:J64"/>
-    <mergeCell ref="F63:J63"/>
-    <mergeCell ref="F65:J65"/>
-    <mergeCell ref="I48:L48"/>
-    <mergeCell ref="P68:T68"/>
-    <mergeCell ref="C46:F46"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="G46:H46"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="B67:E67"/>
-    <mergeCell ref="F67:J67"/>
-    <mergeCell ref="I54:L59"/>
-    <mergeCell ref="O36:P36"/>
-    <mergeCell ref="I49:L49"/>
-    <mergeCell ref="I50:L50"/>
-    <mergeCell ref="M41:N41"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="D40:F40"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="D5:H5"/>
-    <mergeCell ref="I53:L53"/>
-    <mergeCell ref="M48:T48"/>
-    <mergeCell ref="M49:T59"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="L24:N24"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="O45:P45"/>
-    <mergeCell ref="M43:N43"/>
-    <mergeCell ref="H43:I43"/>
-    <mergeCell ref="H44:I44"/>
-    <mergeCell ref="I46:J46"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="M33:N33"/>
-    <mergeCell ref="M44:N44"/>
-    <mergeCell ref="I51:L51"/>
-    <mergeCell ref="I52:L52"/>
-    <mergeCell ref="O42:P42"/>
-    <mergeCell ref="L45:N45"/>
-    <mergeCell ref="D63:E63"/>
-    <mergeCell ref="G45:I45"/>
-    <mergeCell ref="M46:N46"/>
-    <mergeCell ref="J45:K45"/>
-    <mergeCell ref="K46:L46"/>
-    <mergeCell ref="L27:N27"/>
-    <mergeCell ref="K63:O63"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <dataValidations disablePrompts="1" count="1">
@@ -10589,8 +10598,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB45"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AA4" sqref="AA4"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="V14" sqref="V14:W14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -10673,70 +10682,72 @@
       <c r="T7" s="8"/>
     </row>
     <row r="8" spans="1:28">
-      <c r="B8" s="367" t="s">
+      <c r="B8" s="346" t="s">
         <v>482</v>
       </c>
-      <c r="C8" s="367"/>
-      <c r="D8" s="367"/>
-      <c r="E8" s="367"/>
-      <c r="F8" s="360"/>
-      <c r="G8" s="361"/>
-      <c r="J8" s="367" t="s">
+      <c r="C8" s="346"/>
+      <c r="D8" s="346"/>
+      <c r="E8" s="346"/>
+      <c r="F8" s="344" t="s">
+        <v>583</v>
+      </c>
+      <c r="G8" s="345"/>
+      <c r="J8" s="346" t="s">
         <v>483</v>
       </c>
-      <c r="K8" s="367"/>
-      <c r="L8" s="367"/>
-      <c r="M8" s="368"/>
-      <c r="N8" s="360" t="s">
+      <c r="K8" s="346"/>
+      <c r="L8" s="346"/>
+      <c r="M8" s="347"/>
+      <c r="N8" s="344" t="s">
         <v>499</v>
       </c>
-      <c r="O8" s="361"/>
+      <c r="O8" s="345"/>
       <c r="R8" s="8"/>
     </row>
     <row r="9" spans="1:28">
-      <c r="B9" s="367" t="s">
+      <c r="B9" s="346" t="s">
         <v>500</v>
       </c>
-      <c r="C9" s="367"/>
-      <c r="D9" s="367"/>
-      <c r="E9" s="367"/>
-      <c r="F9" s="360" t="s">
+      <c r="C9" s="346"/>
+      <c r="D9" s="346"/>
+      <c r="E9" s="346"/>
+      <c r="F9" s="344" t="s">
         <v>506</v>
       </c>
-      <c r="G9" s="361"/>
-      <c r="J9" s="367" t="s">
+      <c r="G9" s="345"/>
+      <c r="J9" s="346" t="s">
         <v>501</v>
       </c>
-      <c r="K9" s="367"/>
-      <c r="L9" s="367"/>
-      <c r="M9" s="368"/>
-      <c r="N9" s="360" t="s">
+      <c r="K9" s="346"/>
+      <c r="L9" s="346"/>
+      <c r="M9" s="347"/>
+      <c r="N9" s="344" t="s">
         <v>503</v>
       </c>
-      <c r="O9" s="361"/>
+      <c r="O9" s="345"/>
       <c r="R9" s="8"/>
     </row>
     <row r="10" spans="1:28">
-      <c r="B10" s="367" t="s">
+      <c r="B10" s="346" t="s">
         <v>502</v>
       </c>
-      <c r="C10" s="367"/>
-      <c r="D10" s="367"/>
-      <c r="E10" s="367"/>
-      <c r="F10" s="360" t="s">
+      <c r="C10" s="346"/>
+      <c r="D10" s="346"/>
+      <c r="E10" s="346"/>
+      <c r="F10" s="344" t="s">
         <v>505</v>
       </c>
-      <c r="G10" s="361"/>
-      <c r="J10" s="367" t="s">
+      <c r="G10" s="345"/>
+      <c r="J10" s="346" t="s">
         <v>484</v>
       </c>
-      <c r="K10" s="367"/>
-      <c r="L10" s="367"/>
-      <c r="M10" s="368"/>
-      <c r="N10" s="360" t="s">
+      <c r="K10" s="346"/>
+      <c r="L10" s="346"/>
+      <c r="M10" s="347"/>
+      <c r="N10" s="344" t="s">
         <v>504</v>
       </c>
-      <c r="O10" s="361"/>
+      <c r="O10" s="345"/>
       <c r="R10" s="8"/>
     </row>
     <row r="11" spans="1:28">
@@ -10768,106 +10779,108 @@
       <c r="R12" s="8"/>
     </row>
     <row r="13" spans="1:28">
-      <c r="B13" s="362" t="s">
+      <c r="B13" s="358" t="s">
         <v>455</v>
       </c>
-      <c r="C13" s="362"/>
-      <c r="D13" s="362"/>
-      <c r="E13" s="360" t="s">
+      <c r="C13" s="358"/>
+      <c r="D13" s="358"/>
+      <c r="E13" s="344" t="s">
         <v>507</v>
       </c>
-      <c r="F13" s="361"/>
+      <c r="F13" s="345"/>
       <c r="H13" s="12" t="s">
         <v>456</v>
       </c>
       <c r="I13" s="12"/>
       <c r="J13" s="12"/>
-      <c r="K13" s="363" t="s">
+      <c r="K13" s="353" t="s">
         <v>508</v>
       </c>
-      <c r="L13" s="363" t="s">
+      <c r="L13" s="353" t="s">
         <v>454</v>
       </c>
       <c r="M13" s="11"/>
-      <c r="N13" s="362" t="s">
+      <c r="N13" s="358" t="s">
         <v>457</v>
       </c>
-      <c r="O13" s="362"/>
-      <c r="P13" s="362"/>
-      <c r="Q13" s="360" t="s">
-        <v>454</v>
-      </c>
-      <c r="R13" s="361"/>
+      <c r="O13" s="358"/>
+      <c r="P13" s="358"/>
+      <c r="Q13" s="344" t="s">
+        <v>577</v>
+      </c>
+      <c r="R13" s="345"/>
       <c r="S13" s="13"/>
       <c r="T13" s="13"/>
     </row>
     <row r="14" spans="1:28">
-      <c r="B14" s="362" t="s">
+      <c r="B14" s="358" t="s">
         <v>458</v>
       </c>
-      <c r="C14" s="362"/>
-      <c r="D14" s="362"/>
-      <c r="E14" s="360" t="s">
+      <c r="C14" s="358"/>
+      <c r="D14" s="358"/>
+      <c r="E14" s="344" t="s">
         <v>509</v>
       </c>
-      <c r="F14" s="361"/>
+      <c r="F14" s="345"/>
       <c r="H14" s="12" t="s">
         <v>459</v>
       </c>
       <c r="I14" s="12"/>
       <c r="J14" s="12"/>
-      <c r="K14" s="363" t="s">
+      <c r="K14" s="353" t="s">
         <v>510</v>
       </c>
-      <c r="L14" s="363"/>
+      <c r="L14" s="353"/>
       <c r="M14" s="11"/>
-      <c r="N14" s="362" t="s">
+      <c r="N14" s="358" t="s">
         <v>460</v>
       </c>
-      <c r="O14" s="362"/>
-      <c r="P14" s="362"/>
-      <c r="Q14" s="360" t="s">
+      <c r="O14" s="358"/>
+      <c r="P14" s="358"/>
+      <c r="Q14" s="344" t="s">
         <v>511</v>
       </c>
-      <c r="R14" s="361"/>
-      <c r="T14" s="362" t="s">
+      <c r="R14" s="345"/>
+      <c r="T14" s="358" t="s">
         <v>461</v>
       </c>
-      <c r="U14" s="362"/>
-      <c r="V14" s="360"/>
-      <c r="W14" s="361"/>
+      <c r="U14" s="358"/>
+      <c r="V14" s="344" t="s">
+        <v>584</v>
+      </c>
+      <c r="W14" s="345"/>
     </row>
     <row r="15" spans="1:28">
-      <c r="B15" s="362" t="s">
+      <c r="B15" s="358" t="s">
         <v>462</v>
       </c>
-      <c r="C15" s="362"/>
-      <c r="D15" s="362"/>
-      <c r="E15" s="360" t="s">
+      <c r="C15" s="358"/>
+      <c r="D15" s="358"/>
+      <c r="E15" s="344" t="s">
         <v>512</v>
       </c>
-      <c r="F15" s="361"/>
+      <c r="F15" s="345"/>
       <c r="H15" s="12" t="s">
         <v>464</v>
       </c>
       <c r="I15" s="12"/>
       <c r="J15" s="12"/>
-      <c r="K15" s="363" t="s">
+      <c r="K15" s="353" t="s">
         <v>513</v>
       </c>
-      <c r="L15" s="363" t="s">
+      <c r="L15" s="353" t="s">
         <v>463</v>
       </c>
       <c r="M15" s="11"/>
-      <c r="N15" s="362" t="s">
+      <c r="N15" s="358" t="s">
         <v>465</v>
       </c>
-      <c r="O15" s="362"/>
-      <c r="P15" s="362"/>
-      <c r="Q15" s="360" t="s">
+      <c r="O15" s="358"/>
+      <c r="P15" s="358"/>
+      <c r="Q15" s="344" t="s">
         <v>514</v>
       </c>
-      <c r="R15" s="361"/>
+      <c r="R15" s="345"/>
       <c r="S15" s="13"/>
       <c r="T15" s="13"/>
       <c r="V15" s="3"/>
@@ -10901,23 +10914,23 @@
       <c r="C18" s="20"/>
       <c r="D18" s="5"/>
       <c r="E18" s="16"/>
-      <c r="F18" s="369" t="s">
+      <c r="F18" s="351" t="s">
         <v>468</v>
       </c>
-      <c r="G18" s="370"/>
-      <c r="H18" s="360" t="s">
+      <c r="G18" s="352"/>
+      <c r="H18" s="344" t="s">
         <v>515</v>
       </c>
-      <c r="I18" s="361"/>
+      <c r="I18" s="345"/>
       <c r="J18" s="16"/>
-      <c r="K18" s="369" t="s">
+      <c r="K18" s="351" t="s">
         <v>469</v>
       </c>
-      <c r="L18" s="370"/>
-      <c r="M18" s="360" t="s">
+      <c r="L18" s="352"/>
+      <c r="M18" s="344" t="s">
         <v>516</v>
       </c>
-      <c r="N18" s="361"/>
+      <c r="N18" s="345"/>
       <c r="O18" s="19"/>
     </row>
     <row r="19" spans="2:22" ht="15" customHeight="1">
@@ -10927,23 +10940,23 @@
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
       <c r="E19" s="16"/>
-      <c r="F19" s="369" t="s">
+      <c r="F19" s="351" t="s">
         <v>468</v>
       </c>
-      <c r="G19" s="370"/>
-      <c r="H19" s="360" t="s">
+      <c r="G19" s="352"/>
+      <c r="H19" s="344" t="s">
         <v>517</v>
       </c>
-      <c r="I19" s="361"/>
+      <c r="I19" s="345"/>
       <c r="J19" s="16"/>
-      <c r="K19" s="369" t="s">
+      <c r="K19" s="351" t="s">
         <v>469</v>
       </c>
-      <c r="L19" s="370"/>
-      <c r="M19" s="360" t="s">
+      <c r="L19" s="352"/>
+      <c r="M19" s="344" t="s">
         <v>518</v>
       </c>
-      <c r="N19" s="361"/>
+      <c r="N19" s="345"/>
       <c r="O19" s="19"/>
     </row>
     <row r="20" spans="2:22">
@@ -10998,20 +11011,20 @@
       <c r="E23" s="16"/>
       <c r="F23" s="16"/>
       <c r="G23" s="4"/>
-      <c r="H23" s="375" t="s">
-        <v>454</v>
-      </c>
-      <c r="I23" s="375" t="s">
+      <c r="H23" s="353" t="s">
+        <v>578</v>
+      </c>
+      <c r="I23" s="353" t="s">
         <v>454</v>
       </c>
       <c r="J23" s="16"/>
       <c r="K23" s="16"/>
-      <c r="L23" s="376" t="s">
+      <c r="L23" s="354" t="s">
         <v>472</v>
       </c>
-      <c r="M23" s="377"/>
-      <c r="N23" s="364"/>
-      <c r="O23" s="366"/>
+      <c r="M23" s="355"/>
+      <c r="N23" s="356"/>
+      <c r="O23" s="357"/>
       <c r="P23" s="17"/>
       <c r="Q23" s="18"/>
       <c r="R23" s="19"/>
@@ -11021,22 +11034,22 @@
       <c r="V23" s="19"/>
     </row>
     <row r="24" spans="2:22">
-      <c r="B24" s="371" t="s">
+      <c r="B24" s="360" t="s">
         <v>473</v>
       </c>
-      <c r="C24" s="371"/>
-      <c r="D24" s="371"/>
-      <c r="E24" s="371"/>
-      <c r="F24" s="371"/>
-      <c r="G24" s="371"/>
-      <c r="H24" s="364"/>
-      <c r="I24" s="365"/>
-      <c r="J24" s="365"/>
-      <c r="K24" s="365"/>
-      <c r="L24" s="365"/>
-      <c r="M24" s="365"/>
-      <c r="N24" s="365"/>
-      <c r="O24" s="366"/>
+      <c r="C24" s="360"/>
+      <c r="D24" s="360"/>
+      <c r="E24" s="360"/>
+      <c r="F24" s="360"/>
+      <c r="G24" s="360"/>
+      <c r="H24" s="356"/>
+      <c r="I24" s="359"/>
+      <c r="J24" s="359"/>
+      <c r="K24" s="359"/>
+      <c r="L24" s="359"/>
+      <c r="M24" s="359"/>
+      <c r="N24" s="359"/>
+      <c r="O24" s="357"/>
       <c r="P24" s="21"/>
       <c r="Q24" s="5"/>
       <c r="R24" s="5"/>
@@ -11071,25 +11084,25 @@
       <c r="V25" s="5"/>
     </row>
     <row r="26" spans="2:22">
-      <c r="B26" s="372"/>
-      <c r="C26" s="373"/>
-      <c r="D26" s="373"/>
-      <c r="E26" s="373"/>
-      <c r="F26" s="373"/>
-      <c r="G26" s="373"/>
-      <c r="H26" s="373"/>
-      <c r="I26" s="373"/>
-      <c r="J26" s="373"/>
-      <c r="K26" s="373"/>
-      <c r="L26" s="373"/>
-      <c r="M26" s="373"/>
-      <c r="N26" s="373"/>
-      <c r="O26" s="373"/>
-      <c r="P26" s="373"/>
-      <c r="Q26" s="373"/>
-      <c r="R26" s="373"/>
-      <c r="S26" s="373"/>
-      <c r="T26" s="374"/>
+      <c r="B26" s="348"/>
+      <c r="C26" s="349"/>
+      <c r="D26" s="349"/>
+      <c r="E26" s="349"/>
+      <c r="F26" s="349"/>
+      <c r="G26" s="349"/>
+      <c r="H26" s="349"/>
+      <c r="I26" s="349"/>
+      <c r="J26" s="349"/>
+      <c r="K26" s="349"/>
+      <c r="L26" s="349"/>
+      <c r="M26" s="349"/>
+      <c r="N26" s="349"/>
+      <c r="O26" s="349"/>
+      <c r="P26" s="349"/>
+      <c r="Q26" s="349"/>
+      <c r="R26" s="349"/>
+      <c r="S26" s="349"/>
+      <c r="T26" s="350"/>
       <c r="U26" s="5"/>
       <c r="V26" s="5"/>
     </row>
@@ -11117,17 +11130,17 @@
       <c r="B29" s="4" t="s">
         <v>476</v>
       </c>
-      <c r="C29" s="364" t="s">
-        <v>570</v>
-      </c>
-      <c r="D29" s="365"/>
-      <c r="E29" s="365"/>
-      <c r="F29" s="366"/>
-      <c r="H29" s="352" t="s">
+      <c r="C29" s="356" t="s">
+        <v>566</v>
+      </c>
+      <c r="D29" s="359"/>
+      <c r="E29" s="359"/>
+      <c r="F29" s="357"/>
+      <c r="H29" s="366" t="s">
         <v>477</v>
       </c>
-      <c r="I29" s="352"/>
-      <c r="J29" s="352"/>
+      <c r="I29" s="366"/>
+      <c r="J29" s="366"/>
       <c r="K29" s="27" t="s">
         <v>478</v>
       </c>
@@ -11215,7 +11228,7 @@
     </row>
     <row r="34" spans="1:25">
       <c r="A34" s="2" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="B34" s="39"/>
       <c r="C34" s="39"/>
@@ -11244,39 +11257,39 @@
     </row>
     <row r="35" spans="1:25">
       <c r="A35" s="41"/>
-      <c r="B35" s="339" t="s">
+      <c r="B35" s="374" t="s">
         <v>520</v>
       </c>
-      <c r="C35" s="340"/>
-      <c r="D35" s="340"/>
-      <c r="E35" s="340"/>
-      <c r="F35" s="341"/>
-      <c r="G35" s="350" t="s">
-        <v>526</v>
-      </c>
-      <c r="H35" s="350"/>
-      <c r="I35" s="350"/>
-      <c r="J35" s="350"/>
-      <c r="K35" s="350"/>
+      <c r="C35" s="375"/>
+      <c r="D35" s="375"/>
+      <c r="E35" s="375"/>
+      <c r="F35" s="376"/>
+      <c r="G35" s="364" t="s">
+        <v>579</v>
+      </c>
+      <c r="H35" s="364"/>
+      <c r="I35" s="364"/>
+      <c r="J35" s="364"/>
+      <c r="K35" s="364"/>
       <c r="L35" s="42" t="s">
         <v>521</v>
       </c>
-      <c r="M35" s="357"/>
-      <c r="N35" s="358"/>
-      <c r="O35" s="359"/>
-      <c r="P35" s="343" t="s">
+      <c r="M35" s="371"/>
+      <c r="N35" s="372"/>
+      <c r="O35" s="373"/>
+      <c r="P35" s="378" t="s">
         <v>522</v>
       </c>
-      <c r="Q35" s="344"/>
-      <c r="R35" s="344"/>
-      <c r="S35" s="345"/>
-      <c r="T35" s="347" t="s">
-        <v>527</v>
-      </c>
-      <c r="U35" s="348"/>
-      <c r="V35" s="348"/>
-      <c r="W35" s="348"/>
-      <c r="X35" s="349"/>
+      <c r="Q35" s="379"/>
+      <c r="R35" s="379"/>
+      <c r="S35" s="380"/>
+      <c r="T35" s="361" t="s">
+        <v>580</v>
+      </c>
+      <c r="U35" s="362"/>
+      <c r="V35" s="362"/>
+      <c r="W35" s="362"/>
+      <c r="X35" s="363"/>
       <c r="Y35" s="40"/>
     </row>
     <row r="36" spans="1:25">
@@ -11288,78 +11301,78 @@
       <c r="D36" s="42"/>
       <c r="E36" s="42"/>
       <c r="F36" s="44"/>
-      <c r="G36" s="353"/>
-      <c r="H36" s="354"/>
-      <c r="I36" s="354"/>
-      <c r="J36" s="354"/>
-      <c r="K36" s="354"/>
-      <c r="L36" s="354"/>
-      <c r="M36" s="354"/>
-      <c r="N36" s="354"/>
-      <c r="O36" s="355"/>
-      <c r="P36" s="343" t="s">
+      <c r="G36" s="367"/>
+      <c r="H36" s="368"/>
+      <c r="I36" s="368"/>
+      <c r="J36" s="368"/>
+      <c r="K36" s="368"/>
+      <c r="L36" s="368"/>
+      <c r="M36" s="368"/>
+      <c r="N36" s="368"/>
+      <c r="O36" s="369"/>
+      <c r="P36" s="378" t="s">
         <v>523</v>
       </c>
-      <c r="Q36" s="344"/>
-      <c r="R36" s="344"/>
-      <c r="S36" s="345"/>
-      <c r="T36" s="350" t="s">
-        <v>528</v>
-      </c>
-      <c r="U36" s="350"/>
-      <c r="V36" s="350"/>
-      <c r="W36" s="350"/>
-      <c r="X36" s="350"/>
+      <c r="Q36" s="379"/>
+      <c r="R36" s="379"/>
+      <c r="S36" s="380"/>
+      <c r="T36" s="364" t="s">
+        <v>581</v>
+      </c>
+      <c r="U36" s="364"/>
+      <c r="V36" s="364"/>
+      <c r="W36" s="364"/>
+      <c r="X36" s="364"/>
       <c r="Y36" s="40"/>
     </row>
     <row r="37" spans="1:25" ht="14.4" customHeight="1">
       <c r="A37" s="41"/>
-      <c r="B37" s="342" t="s">
-        <v>530</v>
-      </c>
-      <c r="C37" s="342"/>
-      <c r="D37" s="342"/>
-      <c r="E37" s="342"/>
-      <c r="F37" s="342"/>
-      <c r="G37" s="351" t="s">
-        <v>529</v>
-      </c>
-      <c r="H37" s="351"/>
-      <c r="I37" s="351"/>
-      <c r="J37" s="351"/>
-      <c r="K37" s="351"/>
-      <c r="L37" s="351"/>
-      <c r="M37" s="351"/>
-      <c r="N37" s="351"/>
-      <c r="O37" s="351"/>
-      <c r="P37" s="346" t="s">
+      <c r="B37" s="377" t="s">
+        <v>526</v>
+      </c>
+      <c r="C37" s="377"/>
+      <c r="D37" s="377"/>
+      <c r="E37" s="377"/>
+      <c r="F37" s="377"/>
+      <c r="G37" s="365" t="s">
+        <v>582</v>
+      </c>
+      <c r="H37" s="365"/>
+      <c r="I37" s="365"/>
+      <c r="J37" s="365"/>
+      <c r="K37" s="365"/>
+      <c r="L37" s="365"/>
+      <c r="M37" s="365"/>
+      <c r="N37" s="365"/>
+      <c r="O37" s="365"/>
+      <c r="P37" s="381" t="s">
         <v>524</v>
       </c>
-      <c r="Q37" s="346"/>
-      <c r="R37" s="346"/>
-      <c r="S37" s="346"/>
-      <c r="T37" s="356" t="s">
+      <c r="Q37" s="381"/>
+      <c r="R37" s="381"/>
+      <c r="S37" s="381"/>
+      <c r="T37" s="370" t="s">
         <v>525</v>
       </c>
-      <c r="U37" s="356"/>
-      <c r="V37" s="356"/>
-      <c r="W37" s="356"/>
-      <c r="X37" s="356"/>
+      <c r="U37" s="370"/>
+      <c r="V37" s="370"/>
+      <c r="W37" s="370"/>
+      <c r="X37" s="370"/>
       <c r="Y37" s="40"/>
     </row>
     <row r="38" spans="1:25" customFormat="1" ht="14.4" customHeight="1"/>
     <row r="39" spans="1:25">
-      <c r="B39" s="380" t="s">
+      <c r="B39" s="342" t="s">
         <v>488</v>
       </c>
-      <c r="C39" s="380"/>
-      <c r="D39" s="381" t="s">
+      <c r="C39" s="342"/>
+      <c r="D39" s="343" t="s">
         <v>66</v>
       </c>
-      <c r="E39" s="381"/>
-      <c r="F39" s="381"/>
-      <c r="G39" s="381"/>
-      <c r="H39" s="381"/>
+      <c r="E39" s="343"/>
+      <c r="F39" s="343"/>
+      <c r="G39" s="343"/>
+      <c r="H39" s="343"/>
       <c r="I39" s="5"/>
       <c r="J39" s="5"/>
       <c r="K39" s="5"/>
@@ -11371,13 +11384,13 @@
       <c r="Q39" s="35" t="s">
         <v>489</v>
       </c>
-      <c r="R39" s="381" t="s">
+      <c r="R39" s="343" t="s">
         <v>65</v>
       </c>
-      <c r="S39" s="381"/>
-      <c r="T39" s="381"/>
-      <c r="U39" s="381"/>
-      <c r="V39" s="381"/>
+      <c r="S39" s="343"/>
+      <c r="T39" s="343"/>
+      <c r="U39" s="343"/>
+      <c r="V39" s="343"/>
       <c r="W39" s="216"/>
       <c r="X39" s="19"/>
     </row>
@@ -11410,93 +11423,93 @@
       <c r="B41" s="37" t="s">
         <v>490</v>
       </c>
-      <c r="C41" s="378"/>
-      <c r="D41" s="378"/>
-      <c r="E41" s="378"/>
-      <c r="F41" s="378"/>
-      <c r="G41" s="378"/>
+      <c r="C41" s="340"/>
+      <c r="D41" s="340"/>
+      <c r="E41" s="340"/>
+      <c r="F41" s="340"/>
+      <c r="G41" s="340"/>
       <c r="H41" s="5"/>
       <c r="I41" s="4" t="s">
         <v>491</v>
       </c>
-      <c r="J41" s="378"/>
-      <c r="K41" s="378"/>
-      <c r="L41" s="378"/>
-      <c r="M41" s="378"/>
-      <c r="N41" s="378"/>
-      <c r="O41" s="378"/>
+      <c r="J41" s="340"/>
+      <c r="K41" s="340"/>
+      <c r="L41" s="340"/>
+      <c r="M41" s="340"/>
+      <c r="N41" s="340"/>
+      <c r="O41" s="340"/>
       <c r="P41" s="5"/>
       <c r="Q41" s="4" t="s">
         <v>492</v>
       </c>
-      <c r="R41" s="379"/>
-      <c r="S41" s="379"/>
-      <c r="T41" s="379"/>
-      <c r="U41" s="379"/>
-      <c r="V41" s="379"/>
-      <c r="W41" s="379"/>
+      <c r="R41" s="341"/>
+      <c r="S41" s="341"/>
+      <c r="T41" s="341"/>
+      <c r="U41" s="341"/>
+      <c r="V41" s="341"/>
+      <c r="W41" s="341"/>
       <c r="X41" s="19"/>
     </row>
     <row r="42" spans="1:25">
       <c r="B42" s="37" t="s">
         <v>493</v>
       </c>
-      <c r="C42" s="378"/>
-      <c r="D42" s="378"/>
-      <c r="E42" s="378"/>
-      <c r="F42" s="378"/>
-      <c r="G42" s="378"/>
+      <c r="C42" s="340"/>
+      <c r="D42" s="340"/>
+      <c r="E42" s="340"/>
+      <c r="F42" s="340"/>
+      <c r="G42" s="340"/>
       <c r="H42" s="5"/>
       <c r="I42" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="J42" s="378"/>
-      <c r="K42" s="378"/>
-      <c r="L42" s="378"/>
-      <c r="M42" s="378"/>
-      <c r="N42" s="378"/>
-      <c r="O42" s="378"/>
+      <c r="J42" s="340"/>
+      <c r="K42" s="340"/>
+      <c r="L42" s="340"/>
+      <c r="M42" s="340"/>
+      <c r="N42" s="340"/>
+      <c r="O42" s="340"/>
       <c r="P42" s="5"/>
       <c r="Q42" s="4" t="s">
         <v>495</v>
       </c>
-      <c r="R42" s="379"/>
-      <c r="S42" s="379"/>
-      <c r="T42" s="379"/>
-      <c r="U42" s="379"/>
-      <c r="V42" s="379"/>
-      <c r="W42" s="379"/>
+      <c r="R42" s="341"/>
+      <c r="S42" s="341"/>
+      <c r="T42" s="341"/>
+      <c r="U42" s="341"/>
+      <c r="V42" s="341"/>
+      <c r="W42" s="341"/>
       <c r="X42" s="19"/>
     </row>
     <row r="43" spans="1:25">
       <c r="B43" s="37" t="s">
         <v>496</v>
       </c>
-      <c r="C43" s="378"/>
-      <c r="D43" s="378"/>
-      <c r="E43" s="378"/>
-      <c r="F43" s="378"/>
-      <c r="G43" s="378"/>
+      <c r="C43" s="340"/>
+      <c r="D43" s="340"/>
+      <c r="E43" s="340"/>
+      <c r="F43" s="340"/>
+      <c r="G43" s="340"/>
       <c r="H43" s="5"/>
       <c r="I43" s="4" t="s">
         <v>497</v>
       </c>
-      <c r="J43" s="378"/>
-      <c r="K43" s="378"/>
-      <c r="L43" s="378"/>
-      <c r="M43" s="378"/>
-      <c r="N43" s="378"/>
-      <c r="O43" s="378"/>
+      <c r="J43" s="340"/>
+      <c r="K43" s="340"/>
+      <c r="L43" s="340"/>
+      <c r="M43" s="340"/>
+      <c r="N43" s="340"/>
+      <c r="O43" s="340"/>
       <c r="P43" s="5"/>
       <c r="Q43" s="4" t="s">
         <v>498</v>
       </c>
-      <c r="R43" s="379"/>
-      <c r="S43" s="379"/>
-      <c r="T43" s="379"/>
-      <c r="U43" s="379"/>
-      <c r="V43" s="379"/>
-      <c r="W43" s="379"/>
+      <c r="R43" s="341"/>
+      <c r="S43" s="341"/>
+      <c r="T43" s="341"/>
+      <c r="U43" s="341"/>
+      <c r="V43" s="341"/>
+      <c r="W43" s="341"/>
       <c r="X43" s="19"/>
     </row>
     <row r="44" spans="1:25">
@@ -11551,18 +11564,47 @@
     </row>
   </sheetData>
   <mergeCells count="69">
-    <mergeCell ref="C43:G43"/>
-    <mergeCell ref="J43:O43"/>
-    <mergeCell ref="R43:W43"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="C41:G41"/>
-    <mergeCell ref="J41:O41"/>
-    <mergeCell ref="R41:W41"/>
-    <mergeCell ref="C42:G42"/>
-    <mergeCell ref="J42:O42"/>
-    <mergeCell ref="R42:W42"/>
-    <mergeCell ref="D39:H39"/>
-    <mergeCell ref="R39:V39"/>
+    <mergeCell ref="B35:F35"/>
+    <mergeCell ref="B37:F37"/>
+    <mergeCell ref="P35:S35"/>
+    <mergeCell ref="P36:S36"/>
+    <mergeCell ref="P37:S37"/>
+    <mergeCell ref="T35:X35"/>
+    <mergeCell ref="T36:X36"/>
+    <mergeCell ref="G37:O37"/>
+    <mergeCell ref="G35:K35"/>
+    <mergeCell ref="H29:J29"/>
+    <mergeCell ref="G36:O36"/>
+    <mergeCell ref="T37:X37"/>
+    <mergeCell ref="M35:O35"/>
+    <mergeCell ref="V14:W14"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="N13:P13"/>
+    <mergeCell ref="N14:P14"/>
+    <mergeCell ref="N15:P15"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="C29:F29"/>
+    <mergeCell ref="J10:M10"/>
+    <mergeCell ref="J8:M8"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="B24:G24"/>
+    <mergeCell ref="H24:O24"/>
     <mergeCell ref="N8:O8"/>
     <mergeCell ref="N9:O9"/>
     <mergeCell ref="N10:O10"/>
@@ -11579,47 +11621,18 @@
     <mergeCell ref="Q14:R14"/>
     <mergeCell ref="Q15:R15"/>
     <mergeCell ref="T14:U14"/>
-    <mergeCell ref="C29:F29"/>
-    <mergeCell ref="J10:M10"/>
-    <mergeCell ref="J8:M8"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="B24:G24"/>
-    <mergeCell ref="H24:O24"/>
-    <mergeCell ref="V14:W14"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="N13:P13"/>
-    <mergeCell ref="N14:P14"/>
-    <mergeCell ref="N15:P15"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="T35:X35"/>
-    <mergeCell ref="T36:X36"/>
-    <mergeCell ref="G37:O37"/>
-    <mergeCell ref="G35:K35"/>
-    <mergeCell ref="H29:J29"/>
-    <mergeCell ref="G36:O36"/>
-    <mergeCell ref="T37:X37"/>
-    <mergeCell ref="M35:O35"/>
-    <mergeCell ref="B35:F35"/>
-    <mergeCell ref="B37:F37"/>
-    <mergeCell ref="P35:S35"/>
-    <mergeCell ref="P36:S36"/>
-    <mergeCell ref="P37:S37"/>
+    <mergeCell ref="C43:G43"/>
+    <mergeCell ref="J43:O43"/>
+    <mergeCell ref="R43:W43"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="J41:O41"/>
+    <mergeCell ref="R41:W41"/>
+    <mergeCell ref="C42:G42"/>
+    <mergeCell ref="J42:O42"/>
+    <mergeCell ref="R42:W42"/>
+    <mergeCell ref="D39:H39"/>
+    <mergeCell ref="R39:V39"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Enter a valid Numeric Value" prompt="Numeric Value" sqref="H25:I25">
@@ -11636,7 +11649,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BW1041"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A67" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="A42" sqref="A42:B74"/>
     </sheetView>
   </sheetViews>
@@ -11673,37 +11686,37 @@
       <c r="A2" s="165" t="s">
         <v>46</v>
       </c>
-      <c r="B2" s="425" t="s">
+      <c r="B2" s="410" t="s">
         <v>63</v>
       </c>
-      <c r="C2" s="425"/>
-      <c r="D2" s="425"/>
-      <c r="E2" s="441" t="s">
+      <c r="C2" s="410"/>
+      <c r="D2" s="410"/>
+      <c r="E2" s="387" t="s">
         <v>54</v>
       </c>
-      <c r="F2" s="442"/>
-      <c r="G2" s="442"/>
-      <c r="H2" s="442"/>
-      <c r="I2" s="442"/>
-      <c r="J2" s="442"/>
-      <c r="K2" s="442"/>
-      <c r="L2" s="442"/>
-      <c r="M2" s="442"/>
-      <c r="N2" s="442"/>
-      <c r="O2" s="442"/>
-      <c r="P2" s="442"/>
-      <c r="Q2" s="442"/>
-      <c r="R2" s="442"/>
-      <c r="S2" s="442"/>
-      <c r="T2" s="442"/>
-      <c r="U2" s="442"/>
-      <c r="V2" s="442"/>
-      <c r="W2" s="442"/>
-      <c r="X2" s="442"/>
-      <c r="Y2" s="442"/>
-      <c r="Z2" s="442"/>
-      <c r="AA2" s="442"/>
-      <c r="AB2" s="443"/>
+      <c r="F2" s="388"/>
+      <c r="G2" s="388"/>
+      <c r="H2" s="388"/>
+      <c r="I2" s="388"/>
+      <c r="J2" s="388"/>
+      <c r="K2" s="388"/>
+      <c r="L2" s="388"/>
+      <c r="M2" s="388"/>
+      <c r="N2" s="388"/>
+      <c r="O2" s="388"/>
+      <c r="P2" s="388"/>
+      <c r="Q2" s="388"/>
+      <c r="R2" s="388"/>
+      <c r="S2" s="388"/>
+      <c r="T2" s="388"/>
+      <c r="U2" s="388"/>
+      <c r="V2" s="388"/>
+      <c r="W2" s="388"/>
+      <c r="X2" s="388"/>
+      <c r="Y2" s="388"/>
+      <c r="Z2" s="388"/>
+      <c r="AA2" s="388"/>
+      <c r="AB2" s="389"/>
       <c r="AC2" s="166"/>
       <c r="AD2" s="166"/>
       <c r="AE2" s="166"/>
@@ -11713,54 +11726,54 @@
       <c r="AI2" s="167"/>
       <c r="AJ2" s="167"/>
       <c r="AP2" s="164"/>
-      <c r="BF2" s="426"/>
-      <c r="BG2" s="426"/>
-      <c r="BH2" s="426"/>
-      <c r="BI2" s="426"/>
-      <c r="BJ2" s="426"/>
-      <c r="BK2" s="426"/>
-      <c r="BL2" s="426"/>
-      <c r="BM2" s="426"/>
-      <c r="BN2" s="426"/>
-      <c r="BO2" s="426"/>
-      <c r="BP2" s="426"/>
-      <c r="BQ2" s="426"/>
-      <c r="BR2" s="426"/>
-      <c r="BS2" s="426"/>
+      <c r="BF2" s="411"/>
+      <c r="BG2" s="411"/>
+      <c r="BH2" s="411"/>
+      <c r="BI2" s="411"/>
+      <c r="BJ2" s="411"/>
+      <c r="BK2" s="411"/>
+      <c r="BL2" s="411"/>
+      <c r="BM2" s="411"/>
+      <c r="BN2" s="411"/>
+      <c r="BO2" s="411"/>
+      <c r="BP2" s="411"/>
+      <c r="BQ2" s="411"/>
+      <c r="BR2" s="411"/>
+      <c r="BS2" s="411"/>
     </row>
     <row r="3" spans="1:75" ht="46.8" customHeight="1" thickBot="1">
       <c r="A3" s="165" t="s">
         <v>47</v>
       </c>
-      <c r="B3" s="425" t="s">
+      <c r="B3" s="410" t="s">
         <v>64</v>
       </c>
-      <c r="C3" s="425"/>
-      <c r="D3" s="425"/>
-      <c r="E3" s="444"/>
-      <c r="F3" s="445"/>
-      <c r="G3" s="445"/>
-      <c r="H3" s="445"/>
-      <c r="I3" s="445"/>
-      <c r="J3" s="445"/>
-      <c r="K3" s="445"/>
-      <c r="L3" s="445"/>
-      <c r="M3" s="445"/>
-      <c r="N3" s="445"/>
-      <c r="O3" s="445"/>
-      <c r="P3" s="445"/>
-      <c r="Q3" s="445"/>
-      <c r="R3" s="445"/>
-      <c r="S3" s="445"/>
-      <c r="T3" s="445"/>
-      <c r="U3" s="445"/>
-      <c r="V3" s="445"/>
-      <c r="W3" s="445"/>
-      <c r="X3" s="445"/>
-      <c r="Y3" s="445"/>
-      <c r="Z3" s="445"/>
-      <c r="AA3" s="445"/>
-      <c r="AB3" s="446"/>
+      <c r="C3" s="410"/>
+      <c r="D3" s="410"/>
+      <c r="E3" s="390"/>
+      <c r="F3" s="391"/>
+      <c r="G3" s="391"/>
+      <c r="H3" s="391"/>
+      <c r="I3" s="391"/>
+      <c r="J3" s="391"/>
+      <c r="K3" s="391"/>
+      <c r="L3" s="391"/>
+      <c r="M3" s="391"/>
+      <c r="N3" s="391"/>
+      <c r="O3" s="391"/>
+      <c r="P3" s="391"/>
+      <c r="Q3" s="391"/>
+      <c r="R3" s="391"/>
+      <c r="S3" s="391"/>
+      <c r="T3" s="391"/>
+      <c r="U3" s="391"/>
+      <c r="V3" s="391"/>
+      <c r="W3" s="391"/>
+      <c r="X3" s="391"/>
+      <c r="Y3" s="391"/>
+      <c r="Z3" s="391"/>
+      <c r="AA3" s="391"/>
+      <c r="AB3" s="392"/>
       <c r="AC3" s="166"/>
       <c r="AD3" s="166"/>
       <c r="AE3" s="166"/>
@@ -11869,22 +11882,22 @@
       <c r="BO4" s="162"/>
     </row>
     <row r="5" spans="1:75" ht="18" customHeight="1">
-      <c r="A5" s="422" t="s">
+      <c r="A5" s="420" t="s">
         <v>323</v>
       </c>
-      <c r="B5" s="447" t="s">
+      <c r="B5" s="393" t="s">
         <v>418</v>
       </c>
-      <c r="C5" s="428" t="s">
+      <c r="C5" s="415" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="449" t="s">
+      <c r="D5" s="395" t="s">
         <v>419</v>
       </c>
-      <c r="E5" s="451" t="s">
+      <c r="E5" s="400" t="s">
         <v>413</v>
       </c>
-      <c r="F5" s="452"/>
+      <c r="F5" s="401"/>
       <c r="G5" s="172"/>
       <c r="H5" s="172"/>
       <c r="I5" s="172"/>
@@ -11911,10 +11924,10 @@
       <c r="AD5" s="176"/>
       <c r="AE5" s="177"/>
       <c r="AF5" s="177"/>
-      <c r="AG5" s="427"/>
-      <c r="AH5" s="427"/>
-      <c r="AI5" s="427"/>
-      <c r="AJ5" s="427"/>
+      <c r="AG5" s="412"/>
+      <c r="AH5" s="412"/>
+      <c r="AI5" s="412"/>
+      <c r="AJ5" s="412"/>
       <c r="AK5" s="178"/>
       <c r="AL5" s="179"/>
       <c r="AM5" s="180"/>
@@ -11956,12 +11969,12 @@
       <c r="BW5" s="180"/>
     </row>
     <row r="6" spans="1:75" ht="18" customHeight="1">
-      <c r="A6" s="423"/>
-      <c r="B6" s="448"/>
-      <c r="C6" s="429"/>
-      <c r="D6" s="450"/>
-      <c r="E6" s="453"/>
-      <c r="F6" s="454"/>
+      <c r="A6" s="421"/>
+      <c r="B6" s="394"/>
+      <c r="C6" s="416"/>
+      <c r="D6" s="396"/>
+      <c r="E6" s="402"/>
+      <c r="F6" s="403"/>
       <c r="G6" s="117"/>
       <c r="H6" s="117"/>
       <c r="I6" s="117"/>
@@ -12033,22 +12046,22 @@
       <c r="BW6" s="184"/>
     </row>
     <row r="7" spans="1:75">
-      <c r="A7" s="418" t="s">
+      <c r="A7" s="397" t="s">
         <v>331</v>
       </c>
-      <c r="B7" s="419" t="s">
+      <c r="B7" s="418" t="s">
         <v>332</v>
       </c>
-      <c r="C7" s="418" t="s">
+      <c r="C7" s="397" t="s">
         <v>333</v>
       </c>
-      <c r="D7" s="421" t="s">
+      <c r="D7" s="399" t="s">
         <v>334</v>
       </c>
-      <c r="E7" s="394" t="s">
-        <v>534</v>
-      </c>
-      <c r="F7" s="395"/>
+      <c r="E7" s="413" t="s">
+        <v>530</v>
+      </c>
+      <c r="F7" s="414"/>
       <c r="G7" s="117"/>
       <c r="H7" s="117"/>
       <c r="I7" s="117"/>
@@ -12098,14 +12111,14 @@
       <c r="BW7" s="191"/>
     </row>
     <row r="8" spans="1:75">
-      <c r="A8" s="418"/>
-      <c r="B8" s="420"/>
-      <c r="C8" s="418"/>
-      <c r="D8" s="421"/>
-      <c r="E8" s="394" t="s">
+      <c r="A8" s="397"/>
+      <c r="B8" s="419"/>
+      <c r="C8" s="397"/>
+      <c r="D8" s="399"/>
+      <c r="E8" s="413" t="s">
         <v>420</v>
       </c>
-      <c r="F8" s="395"/>
+      <c r="F8" s="414"/>
       <c r="G8" s="117"/>
       <c r="H8" s="117"/>
       <c r="I8" s="117"/>
@@ -12152,22 +12165,22 @@
       <c r="BW8" s="191"/>
     </row>
     <row r="9" spans="1:75">
-      <c r="A9" s="418" t="s">
+      <c r="A9" s="397" t="s">
         <v>335</v>
       </c>
-      <c r="B9" s="424" t="s">
+      <c r="B9" s="398" t="s">
         <v>336</v>
       </c>
-      <c r="C9" s="418" t="s">
+      <c r="C9" s="397" t="s">
         <v>337</v>
       </c>
-      <c r="D9" s="421" t="s">
+      <c r="D9" s="399" t="s">
         <v>338</v>
       </c>
-      <c r="E9" s="394" t="s">
-        <v>535</v>
-      </c>
-      <c r="F9" s="395"/>
+      <c r="E9" s="413" t="s">
+        <v>531</v>
+      </c>
+      <c r="F9" s="414"/>
       <c r="G9" s="117"/>
       <c r="H9" s="117"/>
       <c r="I9" s="117"/>
@@ -12214,14 +12227,14 @@
       <c r="BW9" s="191"/>
     </row>
     <row r="10" spans="1:75">
-      <c r="A10" s="418"/>
-      <c r="B10" s="424"/>
-      <c r="C10" s="418"/>
-      <c r="D10" s="421"/>
-      <c r="E10" s="394" t="s">
+      <c r="A10" s="397"/>
+      <c r="B10" s="398"/>
+      <c r="C10" s="397"/>
+      <c r="D10" s="399"/>
+      <c r="E10" s="413" t="s">
         <v>421</v>
       </c>
-      <c r="F10" s="395"/>
+      <c r="F10" s="414"/>
       <c r="G10" s="117"/>
       <c r="H10" s="117"/>
       <c r="I10" s="117"/>
@@ -12272,22 +12285,22 @@
       <c r="BW10" s="191"/>
     </row>
     <row r="11" spans="1:75">
-      <c r="A11" s="418" t="s">
+      <c r="A11" s="397" t="s">
         <v>339</v>
       </c>
-      <c r="B11" s="424" t="s">
+      <c r="B11" s="398" t="s">
         <v>340</v>
       </c>
-      <c r="C11" s="418" t="s">
+      <c r="C11" s="397" t="s">
         <v>341</v>
       </c>
-      <c r="D11" s="421" t="s">
+      <c r="D11" s="399" t="s">
         <v>342</v>
       </c>
-      <c r="E11" s="394" t="s">
-        <v>536</v>
-      </c>
-      <c r="F11" s="395"/>
+      <c r="E11" s="413" t="s">
+        <v>532</v>
+      </c>
+      <c r="F11" s="414"/>
       <c r="G11" s="117"/>
       <c r="H11" s="117"/>
       <c r="I11" s="117"/>
@@ -12339,14 +12352,14 @@
       <c r="BW11" s="191"/>
     </row>
     <row r="12" spans="1:75">
-      <c r="A12" s="418"/>
-      <c r="B12" s="424"/>
-      <c r="C12" s="418"/>
-      <c r="D12" s="421"/>
-      <c r="E12" s="394" t="s">
+      <c r="A12" s="397"/>
+      <c r="B12" s="398"/>
+      <c r="C12" s="397"/>
+      <c r="D12" s="399"/>
+      <c r="E12" s="413" t="s">
         <v>422</v>
       </c>
-      <c r="F12" s="395"/>
+      <c r="F12" s="414"/>
       <c r="G12" s="117"/>
       <c r="H12" s="117"/>
       <c r="I12" s="117"/>
@@ -12398,22 +12411,22 @@
       <c r="BW12" s="191"/>
     </row>
     <row r="13" spans="1:75">
-      <c r="A13" s="418" t="s">
+      <c r="A13" s="397" t="s">
         <v>343</v>
       </c>
-      <c r="B13" s="424" t="s">
+      <c r="B13" s="398" t="s">
         <v>344</v>
       </c>
-      <c r="C13" s="418" t="s">
+      <c r="C13" s="397" t="s">
         <v>345</v>
       </c>
-      <c r="D13" s="421" t="s">
+      <c r="D13" s="399" t="s">
         <v>346</v>
       </c>
-      <c r="E13" s="394" t="s">
-        <v>537</v>
-      </c>
-      <c r="F13" s="395"/>
+      <c r="E13" s="413" t="s">
+        <v>533</v>
+      </c>
+      <c r="F13" s="414"/>
       <c r="G13" s="117"/>
       <c r="H13" s="117"/>
       <c r="I13" s="117"/>
@@ -12465,14 +12478,14 @@
       <c r="BW13" s="191"/>
     </row>
     <row r="14" spans="1:75">
-      <c r="A14" s="418"/>
-      <c r="B14" s="424"/>
-      <c r="C14" s="418"/>
-      <c r="D14" s="421"/>
-      <c r="E14" s="394" t="s">
+      <c r="A14" s="397"/>
+      <c r="B14" s="398"/>
+      <c r="C14" s="397"/>
+      <c r="D14" s="399"/>
+      <c r="E14" s="413" t="s">
         <v>423</v>
       </c>
-      <c r="F14" s="395"/>
+      <c r="F14" s="414"/>
       <c r="G14" s="117"/>
       <c r="H14" s="117"/>
       <c r="I14" s="117"/>
@@ -12524,22 +12537,22 @@
       <c r="BW14" s="191"/>
     </row>
     <row r="15" spans="1:75">
-      <c r="A15" s="418" t="s">
+      <c r="A15" s="397" t="s">
         <v>347</v>
       </c>
-      <c r="B15" s="424" t="s">
+      <c r="B15" s="398" t="s">
         <v>348</v>
       </c>
-      <c r="C15" s="418" t="s">
+      <c r="C15" s="397" t="s">
         <v>349</v>
       </c>
-      <c r="D15" s="421" t="s">
+      <c r="D15" s="399" t="s">
         <v>350</v>
       </c>
-      <c r="E15" s="394" t="s">
-        <v>538</v>
-      </c>
-      <c r="F15" s="395"/>
+      <c r="E15" s="413" t="s">
+        <v>534</v>
+      </c>
+      <c r="F15" s="414"/>
       <c r="G15" s="117"/>
       <c r="H15" s="117"/>
       <c r="I15" s="117"/>
@@ -12591,14 +12604,14 @@
       <c r="BW15" s="191"/>
     </row>
     <row r="16" spans="1:75">
-      <c r="A16" s="418"/>
-      <c r="B16" s="424"/>
-      <c r="C16" s="418"/>
-      <c r="D16" s="421"/>
-      <c r="E16" s="394" t="s">
+      <c r="A16" s="397"/>
+      <c r="B16" s="398"/>
+      <c r="C16" s="397"/>
+      <c r="D16" s="399"/>
+      <c r="E16" s="413" t="s">
         <v>424</v>
       </c>
-      <c r="F16" s="395"/>
+      <c r="F16" s="414"/>
       <c r="G16" s="117"/>
       <c r="H16" s="117"/>
       <c r="I16" s="117"/>
@@ -12645,22 +12658,22 @@
       <c r="BW16" s="191"/>
     </row>
     <row r="17" spans="1:75">
-      <c r="A17" s="418" t="s">
+      <c r="A17" s="397" t="s">
         <v>351</v>
       </c>
-      <c r="B17" s="424" t="s">
+      <c r="B17" s="398" t="s">
         <v>352</v>
       </c>
-      <c r="C17" s="418" t="s">
+      <c r="C17" s="397" t="s">
         <v>353</v>
       </c>
-      <c r="D17" s="421" t="s">
+      <c r="D17" s="399" t="s">
         <v>354</v>
       </c>
-      <c r="E17" s="394" t="s">
-        <v>539</v>
-      </c>
-      <c r="F17" s="395"/>
+      <c r="E17" s="413" t="s">
+        <v>535</v>
+      </c>
+      <c r="F17" s="414"/>
       <c r="G17" s="117"/>
       <c r="H17" s="117"/>
       <c r="I17" s="117"/>
@@ -12707,14 +12720,14 @@
       <c r="BW17" s="191"/>
     </row>
     <row r="18" spans="1:75">
-      <c r="A18" s="418"/>
-      <c r="B18" s="424"/>
-      <c r="C18" s="418"/>
-      <c r="D18" s="421"/>
-      <c r="E18" s="394" t="s">
+      <c r="A18" s="397"/>
+      <c r="B18" s="398"/>
+      <c r="C18" s="397"/>
+      <c r="D18" s="399"/>
+      <c r="E18" s="413" t="s">
         <v>425</v>
       </c>
-      <c r="F18" s="395"/>
+      <c r="F18" s="414"/>
       <c r="G18" s="117"/>
       <c r="H18" s="117"/>
       <c r="I18" s="117"/>
@@ -12769,22 +12782,22 @@
       <c r="BW18" s="191"/>
     </row>
     <row r="19" spans="1:75">
-      <c r="A19" s="418" t="s">
+      <c r="A19" s="397" t="s">
         <v>355</v>
       </c>
-      <c r="B19" s="424" t="s">
+      <c r="B19" s="398" t="s">
         <v>356</v>
       </c>
-      <c r="C19" s="418" t="s">
+      <c r="C19" s="397" t="s">
         <v>357</v>
       </c>
-      <c r="D19" s="421" t="s">
+      <c r="D19" s="399" t="s">
         <v>358</v>
       </c>
-      <c r="E19" s="394" t="s">
-        <v>540</v>
-      </c>
-      <c r="F19" s="395"/>
+      <c r="E19" s="413" t="s">
+        <v>536</v>
+      </c>
+      <c r="F19" s="414"/>
       <c r="G19" s="117"/>
       <c r="H19" s="117"/>
       <c r="I19" s="117"/>
@@ -12831,14 +12844,14 @@
       <c r="BW19" s="191"/>
     </row>
     <row r="20" spans="1:75">
-      <c r="A20" s="418"/>
-      <c r="B20" s="424"/>
-      <c r="C20" s="418"/>
-      <c r="D20" s="421"/>
-      <c r="E20" s="394" t="s">
+      <c r="A20" s="397"/>
+      <c r="B20" s="398"/>
+      <c r="C20" s="397"/>
+      <c r="D20" s="399"/>
+      <c r="E20" s="413" t="s">
         <v>426</v>
       </c>
-      <c r="F20" s="395"/>
+      <c r="F20" s="414"/>
       <c r="G20" s="117"/>
       <c r="H20" s="117"/>
       <c r="I20" s="117"/>
@@ -12885,22 +12898,22 @@
       <c r="BW20" s="191"/>
     </row>
     <row r="21" spans="1:75">
-      <c r="A21" s="418" t="s">
+      <c r="A21" s="397" t="s">
         <v>359</v>
       </c>
-      <c r="B21" s="424" t="s">
+      <c r="B21" s="398" t="s">
         <v>360</v>
       </c>
-      <c r="C21" s="418" t="s">
+      <c r="C21" s="397" t="s">
         <v>361</v>
       </c>
-      <c r="D21" s="421" t="s">
+      <c r="D21" s="399" t="s">
         <v>362</v>
       </c>
-      <c r="E21" s="394" t="s">
-        <v>541</v>
-      </c>
-      <c r="F21" s="395"/>
+      <c r="E21" s="413" t="s">
+        <v>537</v>
+      </c>
+      <c r="F21" s="414"/>
       <c r="G21" s="117"/>
       <c r="H21" s="117"/>
       <c r="I21" s="117"/>
@@ -12947,14 +12960,14 @@
       <c r="BW21" s="191"/>
     </row>
     <row r="22" spans="1:75">
-      <c r="A22" s="418"/>
-      <c r="B22" s="424"/>
-      <c r="C22" s="418"/>
-      <c r="D22" s="421"/>
-      <c r="E22" s="394" t="s">
+      <c r="A22" s="397"/>
+      <c r="B22" s="398"/>
+      <c r="C22" s="397"/>
+      <c r="D22" s="399"/>
+      <c r="E22" s="413" t="s">
         <v>427</v>
       </c>
-      <c r="F22" s="395"/>
+      <c r="F22" s="414"/>
       <c r="G22" s="117"/>
       <c r="H22" s="117"/>
       <c r="I22" s="117"/>
@@ -13001,22 +13014,22 @@
       <c r="BW22" s="191"/>
     </row>
     <row r="23" spans="1:75">
-      <c r="A23" s="418" t="s">
+      <c r="A23" s="397" t="s">
         <v>363</v>
       </c>
-      <c r="B23" s="424" t="s">
+      <c r="B23" s="398" t="s">
         <v>364</v>
       </c>
-      <c r="C23" s="418" t="s">
+      <c r="C23" s="397" t="s">
         <v>365</v>
       </c>
-      <c r="D23" s="421" t="s">
+      <c r="D23" s="399" t="s">
         <v>366</v>
       </c>
-      <c r="E23" s="394" t="s">
-        <v>542</v>
-      </c>
-      <c r="F23" s="395"/>
+      <c r="E23" s="413" t="s">
+        <v>538</v>
+      </c>
+      <c r="F23" s="414"/>
       <c r="G23" s="117"/>
       <c r="H23" s="117"/>
       <c r="I23" s="117"/>
@@ -13063,14 +13076,14 @@
       <c r="BW23" s="191"/>
     </row>
     <row r="24" spans="1:75">
-      <c r="A24" s="418"/>
-      <c r="B24" s="424"/>
-      <c r="C24" s="418"/>
-      <c r="D24" s="421"/>
-      <c r="E24" s="394" t="s">
+      <c r="A24" s="397"/>
+      <c r="B24" s="398"/>
+      <c r="C24" s="397"/>
+      <c r="D24" s="399"/>
+      <c r="E24" s="413" t="s">
         <v>428</v>
       </c>
-      <c r="F24" s="395"/>
+      <c r="F24" s="414"/>
       <c r="G24" s="117"/>
       <c r="H24" s="117"/>
       <c r="I24" s="117"/>
@@ -13117,22 +13130,22 @@
       <c r="BW24" s="191"/>
     </row>
     <row r="25" spans="1:75">
-      <c r="A25" s="418" t="s">
+      <c r="A25" s="397" t="s">
         <v>367</v>
       </c>
-      <c r="B25" s="424" t="s">
+      <c r="B25" s="398" t="s">
         <v>368</v>
       </c>
-      <c r="C25" s="418" t="s">
+      <c r="C25" s="397" t="s">
         <v>369</v>
       </c>
-      <c r="D25" s="421" t="s">
+      <c r="D25" s="399" t="s">
         <v>370</v>
       </c>
-      <c r="E25" s="394" t="s">
-        <v>543</v>
-      </c>
-      <c r="F25" s="395"/>
+      <c r="E25" s="413" t="s">
+        <v>539</v>
+      </c>
+      <c r="F25" s="414"/>
       <c r="G25" s="117"/>
       <c r="H25" s="117"/>
       <c r="I25" s="117"/>
@@ -13179,14 +13192,14 @@
       <c r="BW25" s="191"/>
     </row>
     <row r="26" spans="1:75">
-      <c r="A26" s="418"/>
-      <c r="B26" s="424"/>
-      <c r="C26" s="418"/>
-      <c r="D26" s="421"/>
-      <c r="E26" s="394" t="s">
+      <c r="A26" s="397"/>
+      <c r="B26" s="398"/>
+      <c r="C26" s="397"/>
+      <c r="D26" s="399"/>
+      <c r="E26" s="413" t="s">
         <v>429</v>
       </c>
-      <c r="F26" s="395"/>
+      <c r="F26" s="414"/>
       <c r="G26" s="117"/>
       <c r="H26" s="117"/>
       <c r="I26" s="117"/>
@@ -13233,22 +13246,22 @@
       <c r="BW26" s="191"/>
     </row>
     <row r="27" spans="1:75">
-      <c r="A27" s="418" t="s">
+      <c r="A27" s="397" t="s">
         <v>371</v>
       </c>
-      <c r="B27" s="424" t="s">
+      <c r="B27" s="398" t="s">
         <v>372</v>
       </c>
-      <c r="C27" s="418" t="s">
+      <c r="C27" s="397" t="s">
         <v>373</v>
       </c>
-      <c r="D27" s="421" t="s">
+      <c r="D27" s="399" t="s">
         <v>374</v>
       </c>
-      <c r="E27" s="394" t="s">
-        <v>544</v>
-      </c>
-      <c r="F27" s="395"/>
+      <c r="E27" s="413" t="s">
+        <v>540</v>
+      </c>
+      <c r="F27" s="414"/>
       <c r="G27" s="117"/>
       <c r="H27" s="117"/>
       <c r="I27" s="117"/>
@@ -13295,14 +13308,14 @@
       <c r="BW27" s="191"/>
     </row>
     <row r="28" spans="1:75">
-      <c r="A28" s="418"/>
-      <c r="B28" s="424"/>
-      <c r="C28" s="418"/>
-      <c r="D28" s="421"/>
-      <c r="E28" s="394" t="s">
+      <c r="A28" s="397"/>
+      <c r="B28" s="398"/>
+      <c r="C28" s="397"/>
+      <c r="D28" s="399"/>
+      <c r="E28" s="413" t="s">
         <v>430</v>
       </c>
-      <c r="F28" s="395"/>
+      <c r="F28" s="414"/>
       <c r="G28" s="117"/>
       <c r="H28" s="117"/>
       <c r="I28" s="117"/>
@@ -13349,22 +13362,22 @@
       <c r="BW28" s="191"/>
     </row>
     <row r="29" spans="1:75">
-      <c r="A29" s="418" t="s">
+      <c r="A29" s="397" t="s">
         <v>375</v>
       </c>
-      <c r="B29" s="424" t="s">
+      <c r="B29" s="398" t="s">
         <v>376</v>
       </c>
-      <c r="C29" s="418" t="s">
+      <c r="C29" s="397" t="s">
         <v>377</v>
       </c>
-      <c r="D29" s="421" t="s">
+      <c r="D29" s="399" t="s">
         <v>378</v>
       </c>
-      <c r="E29" s="394" t="s">
-        <v>545</v>
-      </c>
-      <c r="F29" s="395"/>
+      <c r="E29" s="413" t="s">
+        <v>541</v>
+      </c>
+      <c r="F29" s="414"/>
       <c r="G29" s="117"/>
       <c r="H29" s="117"/>
       <c r="I29" s="117"/>
@@ -13411,14 +13424,14 @@
       <c r="BW29" s="191"/>
     </row>
     <row r="30" spans="1:75">
-      <c r="A30" s="418"/>
-      <c r="B30" s="424"/>
-      <c r="C30" s="418"/>
-      <c r="D30" s="421"/>
-      <c r="E30" s="394" t="s">
+      <c r="A30" s="397"/>
+      <c r="B30" s="398"/>
+      <c r="C30" s="397"/>
+      <c r="D30" s="399"/>
+      <c r="E30" s="413" t="s">
         <v>431</v>
       </c>
-      <c r="F30" s="395"/>
+      <c r="F30" s="414"/>
       <c r="G30" s="117"/>
       <c r="H30" s="117"/>
       <c r="I30" s="117"/>
@@ -13465,22 +13478,22 @@
       <c r="BW30" s="191"/>
     </row>
     <row r="31" spans="1:75">
-      <c r="A31" s="418" t="s">
+      <c r="A31" s="397" t="s">
         <v>379</v>
       </c>
-      <c r="B31" s="424" t="s">
+      <c r="B31" s="398" t="s">
         <v>380</v>
       </c>
-      <c r="C31" s="418" t="s">
+      <c r="C31" s="397" t="s">
         <v>381</v>
       </c>
-      <c r="D31" s="421" t="s">
+      <c r="D31" s="399" t="s">
         <v>382</v>
       </c>
-      <c r="E31" s="394" t="s">
-        <v>546</v>
-      </c>
-      <c r="F31" s="395"/>
+      <c r="E31" s="413" t="s">
+        <v>542</v>
+      </c>
+      <c r="F31" s="414"/>
       <c r="G31" s="117"/>
       <c r="H31" s="117"/>
       <c r="I31" s="117"/>
@@ -13527,14 +13540,14 @@
       <c r="BW31" s="191"/>
     </row>
     <row r="32" spans="1:75">
-      <c r="A32" s="418"/>
-      <c r="B32" s="424"/>
-      <c r="C32" s="418"/>
-      <c r="D32" s="421"/>
-      <c r="E32" s="394" t="s">
+      <c r="A32" s="397"/>
+      <c r="B32" s="398"/>
+      <c r="C32" s="397"/>
+      <c r="D32" s="399"/>
+      <c r="E32" s="413" t="s">
         <v>432</v>
       </c>
-      <c r="F32" s="395"/>
+      <c r="F32" s="414"/>
       <c r="G32" s="117"/>
       <c r="H32" s="117"/>
       <c r="I32" s="117"/>
@@ -13581,22 +13594,22 @@
       <c r="BW32" s="191"/>
     </row>
     <row r="33" spans="1:75">
-      <c r="A33" s="418" t="s">
+      <c r="A33" s="397" t="s">
         <v>383</v>
       </c>
-      <c r="B33" s="424" t="s">
+      <c r="B33" s="398" t="s">
         <v>384</v>
       </c>
-      <c r="C33" s="418" t="s">
+      <c r="C33" s="397" t="s">
         <v>385</v>
       </c>
-      <c r="D33" s="421" t="s">
+      <c r="D33" s="399" t="s">
         <v>386</v>
       </c>
-      <c r="E33" s="394" t="s">
-        <v>547</v>
-      </c>
-      <c r="F33" s="395"/>
+      <c r="E33" s="413" t="s">
+        <v>543</v>
+      </c>
+      <c r="F33" s="414"/>
       <c r="G33" s="117"/>
       <c r="H33" s="117"/>
       <c r="I33" s="117"/>
@@ -13643,14 +13656,14 @@
       <c r="BW33" s="191"/>
     </row>
     <row r="34" spans="1:75">
-      <c r="A34" s="418"/>
-      <c r="B34" s="424"/>
-      <c r="C34" s="418"/>
-      <c r="D34" s="421"/>
-      <c r="E34" s="394" t="s">
+      <c r="A34" s="397"/>
+      <c r="B34" s="398"/>
+      <c r="C34" s="397"/>
+      <c r="D34" s="399"/>
+      <c r="E34" s="413" t="s">
         <v>433</v>
       </c>
-      <c r="F34" s="395"/>
+      <c r="F34" s="414"/>
       <c r="G34" s="117"/>
       <c r="H34" s="117"/>
       <c r="I34" s="117"/>
@@ -13697,22 +13710,22 @@
       <c r="BW34" s="191"/>
     </row>
     <row r="35" spans="1:75">
-      <c r="A35" s="418" t="s">
+      <c r="A35" s="397" t="s">
         <v>387</v>
       </c>
-      <c r="B35" s="424" t="s">
+      <c r="B35" s="398" t="s">
         <v>388</v>
       </c>
-      <c r="C35" s="418" t="s">
+      <c r="C35" s="397" t="s">
         <v>389</v>
       </c>
-      <c r="D35" s="421" t="s">
+      <c r="D35" s="399" t="s">
         <v>390</v>
       </c>
-      <c r="E35" s="394" t="s">
-        <v>548</v>
-      </c>
-      <c r="F35" s="395"/>
+      <c r="E35" s="413" t="s">
+        <v>544</v>
+      </c>
+      <c r="F35" s="414"/>
       <c r="G35" s="117"/>
       <c r="H35" s="117"/>
       <c r="I35" s="117"/>
@@ -13759,14 +13772,14 @@
       <c r="BW35" s="191"/>
     </row>
     <row r="36" spans="1:75">
-      <c r="A36" s="418"/>
-      <c r="B36" s="424"/>
-      <c r="C36" s="418"/>
-      <c r="D36" s="421"/>
-      <c r="E36" s="394" t="s">
+      <c r="A36" s="397"/>
+      <c r="B36" s="398"/>
+      <c r="C36" s="397"/>
+      <c r="D36" s="399"/>
+      <c r="E36" s="413" t="s">
         <v>434</v>
       </c>
-      <c r="F36" s="395"/>
+      <c r="F36" s="414"/>
       <c r="G36" s="117"/>
       <c r="H36" s="117"/>
       <c r="I36" s="117"/>
@@ -13813,22 +13826,22 @@
       <c r="BW36" s="191"/>
     </row>
     <row r="37" spans="1:75">
-      <c r="A37" s="418" t="s">
+      <c r="A37" s="397" t="s">
         <v>391</v>
       </c>
-      <c r="B37" s="424" t="s">
+      <c r="B37" s="398" t="s">
         <v>392</v>
       </c>
-      <c r="C37" s="418" t="s">
+      <c r="C37" s="397" t="s">
         <v>393</v>
       </c>
-      <c r="D37" s="421" t="s">
+      <c r="D37" s="399" t="s">
         <v>394</v>
       </c>
-      <c r="E37" s="394" t="s">
-        <v>549</v>
-      </c>
-      <c r="F37" s="395"/>
+      <c r="E37" s="413" t="s">
+        <v>545</v>
+      </c>
+      <c r="F37" s="414"/>
       <c r="G37" s="117"/>
       <c r="H37" s="117"/>
       <c r="I37" s="117"/>
@@ -13875,14 +13888,14 @@
       <c r="BW37" s="191"/>
     </row>
     <row r="38" spans="1:75">
-      <c r="A38" s="418"/>
-      <c r="B38" s="424"/>
-      <c r="C38" s="418"/>
-      <c r="D38" s="421"/>
-      <c r="E38" s="394" t="s">
+      <c r="A38" s="397"/>
+      <c r="B38" s="398"/>
+      <c r="C38" s="397"/>
+      <c r="D38" s="399"/>
+      <c r="E38" s="413" t="s">
         <v>435</v>
       </c>
-      <c r="F38" s="395"/>
+      <c r="F38" s="414"/>
       <c r="G38" s="117"/>
       <c r="H38" s="117"/>
       <c r="I38" s="117"/>
@@ -13929,22 +13942,22 @@
       <c r="BW38" s="191"/>
     </row>
     <row r="39" spans="1:75">
-      <c r="A39" s="418" t="s">
+      <c r="A39" s="397" t="s">
         <v>395</v>
       </c>
-      <c r="B39" s="424" t="s">
+      <c r="B39" s="398" t="s">
         <v>396</v>
       </c>
-      <c r="C39" s="418" t="s">
+      <c r="C39" s="397" t="s">
         <v>397</v>
       </c>
-      <c r="D39" s="421" t="s">
+      <c r="D39" s="399" t="s">
         <v>398</v>
       </c>
-      <c r="E39" s="394" t="s">
-        <v>550</v>
-      </c>
-      <c r="F39" s="395"/>
+      <c r="E39" s="413" t="s">
+        <v>546</v>
+      </c>
+      <c r="F39" s="414"/>
       <c r="G39" s="117"/>
       <c r="H39" s="117"/>
       <c r="I39" s="117"/>
@@ -13991,14 +14004,14 @@
       <c r="BW39" s="191"/>
     </row>
     <row r="40" spans="1:75">
-      <c r="A40" s="418"/>
-      <c r="B40" s="424"/>
-      <c r="C40" s="418"/>
-      <c r="D40" s="421"/>
-      <c r="E40" s="394" t="s">
+      <c r="A40" s="397"/>
+      <c r="B40" s="398"/>
+      <c r="C40" s="397"/>
+      <c r="D40" s="399"/>
+      <c r="E40" s="413" t="s">
         <v>436</v>
       </c>
-      <c r="F40" s="395"/>
+      <c r="F40" s="414"/>
       <c r="G40" s="117"/>
       <c r="H40" s="117"/>
       <c r="I40" s="117"/>
@@ -14069,18 +14082,18 @@
       <c r="BW40" s="193"/>
     </row>
     <row r="41" spans="1:75" ht="45.75" customHeight="1">
-      <c r="A41" s="438" t="s">
+      <c r="A41" s="384" t="s">
         <v>415</v>
       </c>
-      <c r="B41" s="439"/>
-      <c r="C41" s="439"/>
-      <c r="D41" s="439"/>
-      <c r="E41" s="439"/>
-      <c r="F41" s="440"/>
-      <c r="G41" s="436" t="s">
+      <c r="B41" s="385"/>
+      <c r="C41" s="385"/>
+      <c r="D41" s="385"/>
+      <c r="E41" s="385"/>
+      <c r="F41" s="386"/>
+      <c r="G41" s="382" t="s">
         <v>414</v>
       </c>
-      <c r="H41" s="437"/>
+      <c r="H41" s="383"/>
       <c r="I41" s="117"/>
       <c r="J41" s="117"/>
       <c r="K41" s="117"/>
@@ -14148,18 +14161,18 @@
       <c r="BW41" s="164"/>
     </row>
     <row r="42" spans="1:75" s="195" customFormat="1" ht="15" customHeight="1">
-      <c r="A42" s="409" t="s">
+      <c r="A42" s="425" t="s">
         <v>330</v>
       </c>
-      <c r="B42" s="410"/>
-      <c r="C42" s="413" t="s">
+      <c r="B42" s="426"/>
+      <c r="C42" s="429" t="s">
         <v>399</v>
       </c>
-      <c r="D42" s="414"/>
-      <c r="E42" s="394" t="s">
-        <v>551</v>
-      </c>
-      <c r="F42" s="395"/>
+      <c r="D42" s="430"/>
+      <c r="E42" s="413" t="s">
+        <v>547</v>
+      </c>
+      <c r="F42" s="414"/>
       <c r="G42" s="117"/>
       <c r="H42" s="117"/>
       <c r="I42" s="117"/>
@@ -14229,14 +14242,14 @@
       <c r="BW42" s="196"/>
     </row>
     <row r="43" spans="1:75" s="195" customFormat="1">
-      <c r="A43" s="409"/>
-      <c r="B43" s="410"/>
-      <c r="C43" s="384"/>
-      <c r="D43" s="385"/>
-      <c r="E43" s="386" t="s">
+      <c r="A43" s="425"/>
+      <c r="B43" s="426"/>
+      <c r="C43" s="431"/>
+      <c r="D43" s="432"/>
+      <c r="E43" s="423" t="s">
         <v>437</v>
       </c>
-      <c r="F43" s="387"/>
+      <c r="F43" s="424"/>
       <c r="G43" s="117"/>
       <c r="H43" s="117"/>
       <c r="I43" s="117"/>
@@ -14306,16 +14319,16 @@
       <c r="BW43" s="196"/>
     </row>
     <row r="44" spans="1:75" s="195" customFormat="1">
-      <c r="A44" s="409"/>
-      <c r="B44" s="410"/>
-      <c r="C44" s="382" t="s">
+      <c r="A44" s="425"/>
+      <c r="B44" s="426"/>
+      <c r="C44" s="433" t="s">
         <v>400</v>
       </c>
-      <c r="D44" s="383"/>
-      <c r="E44" s="394" t="s">
-        <v>552</v>
-      </c>
-      <c r="F44" s="395"/>
+      <c r="D44" s="434"/>
+      <c r="E44" s="413" t="s">
+        <v>548</v>
+      </c>
+      <c r="F44" s="414"/>
       <c r="G44" s="117"/>
       <c r="H44" s="117"/>
       <c r="I44" s="117"/>
@@ -14385,14 +14398,14 @@
       <c r="BW44" s="196"/>
     </row>
     <row r="45" spans="1:75" s="195" customFormat="1">
-      <c r="A45" s="409"/>
-      <c r="B45" s="410"/>
-      <c r="C45" s="384"/>
-      <c r="D45" s="385"/>
-      <c r="E45" s="386" t="s">
+      <c r="A45" s="425"/>
+      <c r="B45" s="426"/>
+      <c r="C45" s="431"/>
+      <c r="D45" s="432"/>
+      <c r="E45" s="423" t="s">
         <v>438</v>
       </c>
-      <c r="F45" s="387"/>
+      <c r="F45" s="424"/>
       <c r="G45" s="117"/>
       <c r="H45" s="117"/>
       <c r="I45" s="117"/>
@@ -14462,16 +14475,16 @@
       <c r="BW45" s="196"/>
     </row>
     <row r="46" spans="1:75" s="195" customFormat="1">
-      <c r="A46" s="409"/>
-      <c r="B46" s="410"/>
-      <c r="C46" s="382" t="s">
+      <c r="A46" s="425"/>
+      <c r="B46" s="426"/>
+      <c r="C46" s="433" t="s">
         <v>401</v>
       </c>
-      <c r="D46" s="383"/>
-      <c r="E46" s="394" t="s">
-        <v>553</v>
-      </c>
-      <c r="F46" s="395"/>
+      <c r="D46" s="434"/>
+      <c r="E46" s="413" t="s">
+        <v>549</v>
+      </c>
+      <c r="F46" s="414"/>
       <c r="G46" s="117"/>
       <c r="H46" s="117"/>
       <c r="I46" s="117"/>
@@ -14496,10 +14509,10 @@
       <c r="AD46" s="117"/>
       <c r="AE46" s="117"/>
       <c r="AF46" s="117"/>
-      <c r="AG46" s="415"/>
-      <c r="AH46" s="415"/>
-      <c r="AI46" s="415"/>
-      <c r="AJ46" s="415"/>
+      <c r="AG46" s="422"/>
+      <c r="AH46" s="422"/>
+      <c r="AI46" s="422"/>
+      <c r="AJ46" s="422"/>
       <c r="AK46" s="196"/>
       <c r="AL46" s="196"/>
       <c r="AM46" s="196"/>
@@ -14541,14 +14554,14 @@
       <c r="BW46" s="196"/>
     </row>
     <row r="47" spans="1:75" s="195" customFormat="1">
-      <c r="A47" s="409"/>
-      <c r="B47" s="410"/>
-      <c r="C47" s="384"/>
-      <c r="D47" s="385"/>
-      <c r="E47" s="386" t="s">
+      <c r="A47" s="425"/>
+      <c r="B47" s="426"/>
+      <c r="C47" s="431"/>
+      <c r="D47" s="432"/>
+      <c r="E47" s="423" t="s">
         <v>439</v>
       </c>
-      <c r="F47" s="387"/>
+      <c r="F47" s="424"/>
       <c r="G47" s="117"/>
       <c r="H47" s="117"/>
       <c r="I47" s="117"/>
@@ -14618,16 +14631,16 @@
       <c r="BW47" s="196"/>
     </row>
     <row r="48" spans="1:75" s="195" customFormat="1">
-      <c r="A48" s="409"/>
-      <c r="B48" s="410"/>
-      <c r="C48" s="382" t="s">
+      <c r="A48" s="425"/>
+      <c r="B48" s="426"/>
+      <c r="C48" s="433" t="s">
         <v>402</v>
       </c>
-      <c r="D48" s="383"/>
-      <c r="E48" s="394" t="s">
-        <v>554</v>
-      </c>
-      <c r="F48" s="395"/>
+      <c r="D48" s="434"/>
+      <c r="E48" s="413" t="s">
+        <v>550</v>
+      </c>
+      <c r="F48" s="414"/>
       <c r="G48" s="117"/>
       <c r="H48" s="117"/>
       <c r="I48" s="117"/>
@@ -14652,10 +14665,10 @@
       <c r="AD48" s="117"/>
       <c r="AE48" s="117"/>
       <c r="AF48" s="117"/>
-      <c r="AG48" s="415"/>
-      <c r="AH48" s="415"/>
-      <c r="AI48" s="415"/>
-      <c r="AJ48" s="415"/>
+      <c r="AG48" s="422"/>
+      <c r="AH48" s="422"/>
+      <c r="AI48" s="422"/>
+      <c r="AJ48" s="422"/>
       <c r="AK48" s="196"/>
       <c r="AL48" s="196"/>
       <c r="AM48" s="196"/>
@@ -14697,14 +14710,14 @@
       <c r="BW48" s="196"/>
     </row>
     <row r="49" spans="1:75" s="195" customFormat="1">
-      <c r="A49" s="409"/>
-      <c r="B49" s="410"/>
-      <c r="C49" s="384"/>
-      <c r="D49" s="385"/>
-      <c r="E49" s="386" t="s">
+      <c r="A49" s="425"/>
+      <c r="B49" s="426"/>
+      <c r="C49" s="431"/>
+      <c r="D49" s="432"/>
+      <c r="E49" s="423" t="s">
         <v>440</v>
       </c>
-      <c r="F49" s="387"/>
+      <c r="F49" s="424"/>
       <c r="G49" s="117"/>
       <c r="H49" s="117"/>
       <c r="I49" s="117"/>
@@ -14774,16 +14787,16 @@
       <c r="BW49" s="196"/>
     </row>
     <row r="50" spans="1:75" s="195" customFormat="1">
-      <c r="A50" s="409"/>
-      <c r="B50" s="410"/>
-      <c r="C50" s="382" t="s">
+      <c r="A50" s="425"/>
+      <c r="B50" s="426"/>
+      <c r="C50" s="433" t="s">
         <v>403</v>
       </c>
-      <c r="D50" s="383"/>
-      <c r="E50" s="394" t="s">
-        <v>555</v>
-      </c>
-      <c r="F50" s="395"/>
+      <c r="D50" s="434"/>
+      <c r="E50" s="413" t="s">
+        <v>551</v>
+      </c>
+      <c r="F50" s="414"/>
       <c r="G50" s="117"/>
       <c r="H50" s="117"/>
       <c r="I50" s="117"/>
@@ -14808,10 +14821,10 @@
       <c r="AD50" s="117"/>
       <c r="AE50" s="117"/>
       <c r="AF50" s="117"/>
-      <c r="AG50" s="415"/>
-      <c r="AH50" s="415"/>
-      <c r="AI50" s="415"/>
-      <c r="AJ50" s="415"/>
+      <c r="AG50" s="422"/>
+      <c r="AH50" s="422"/>
+      <c r="AI50" s="422"/>
+      <c r="AJ50" s="422"/>
       <c r="AK50" s="196"/>
       <c r="AL50" s="196"/>
       <c r="AM50" s="196"/>
@@ -14853,14 +14866,14 @@
       <c r="BW50" s="196"/>
     </row>
     <row r="51" spans="1:75" s="195" customFormat="1">
-      <c r="A51" s="409"/>
-      <c r="B51" s="410"/>
-      <c r="C51" s="384"/>
-      <c r="D51" s="385"/>
-      <c r="E51" s="386" t="s">
+      <c r="A51" s="425"/>
+      <c r="B51" s="426"/>
+      <c r="C51" s="431"/>
+      <c r="D51" s="432"/>
+      <c r="E51" s="423" t="s">
         <v>441</v>
       </c>
-      <c r="F51" s="387"/>
+      <c r="F51" s="424"/>
       <c r="G51" s="117"/>
       <c r="H51" s="117"/>
       <c r="I51" s="117"/>
@@ -14930,16 +14943,16 @@
       <c r="BW51" s="196"/>
     </row>
     <row r="52" spans="1:75" s="195" customFormat="1">
-      <c r="A52" s="409"/>
-      <c r="B52" s="410"/>
-      <c r="C52" s="382" t="s">
+      <c r="A52" s="425"/>
+      <c r="B52" s="426"/>
+      <c r="C52" s="433" t="s">
         <v>404</v>
       </c>
-      <c r="D52" s="383"/>
-      <c r="E52" s="394" t="s">
-        <v>556</v>
-      </c>
-      <c r="F52" s="395"/>
+      <c r="D52" s="434"/>
+      <c r="E52" s="413" t="s">
+        <v>552</v>
+      </c>
+      <c r="F52" s="414"/>
       <c r="G52" s="117"/>
       <c r="H52" s="117"/>
       <c r="I52" s="117"/>
@@ -14964,10 +14977,10 @@
       <c r="AD52" s="117"/>
       <c r="AE52" s="117"/>
       <c r="AF52" s="117"/>
-      <c r="AG52" s="415"/>
-      <c r="AH52" s="415"/>
-      <c r="AI52" s="415"/>
-      <c r="AJ52" s="415"/>
+      <c r="AG52" s="422"/>
+      <c r="AH52" s="422"/>
+      <c r="AI52" s="422"/>
+      <c r="AJ52" s="422"/>
       <c r="AK52" s="196"/>
       <c r="AL52" s="196"/>
       <c r="AM52" s="196"/>
@@ -15009,14 +15022,14 @@
       <c r="BW52" s="196"/>
     </row>
     <row r="53" spans="1:75" s="195" customFormat="1">
-      <c r="A53" s="409"/>
-      <c r="B53" s="410"/>
-      <c r="C53" s="384"/>
-      <c r="D53" s="385"/>
-      <c r="E53" s="386" t="s">
+      <c r="A53" s="425"/>
+      <c r="B53" s="426"/>
+      <c r="C53" s="431"/>
+      <c r="D53" s="432"/>
+      <c r="E53" s="423" t="s">
         <v>442</v>
       </c>
-      <c r="F53" s="387"/>
+      <c r="F53" s="424"/>
       <c r="G53" s="117"/>
       <c r="H53" s="117"/>
       <c r="I53" s="117"/>
@@ -15086,16 +15099,16 @@
       <c r="BW53" s="196"/>
     </row>
     <row r="54" spans="1:75" s="195" customFormat="1">
-      <c r="A54" s="409"/>
-      <c r="B54" s="410"/>
-      <c r="C54" s="382" t="s">
+      <c r="A54" s="425"/>
+      <c r="B54" s="426"/>
+      <c r="C54" s="433" t="s">
         <v>405</v>
       </c>
-      <c r="D54" s="383"/>
-      <c r="E54" s="394" t="s">
-        <v>557</v>
-      </c>
-      <c r="F54" s="395"/>
+      <c r="D54" s="434"/>
+      <c r="E54" s="413" t="s">
+        <v>553</v>
+      </c>
+      <c r="F54" s="414"/>
       <c r="G54" s="117"/>
       <c r="H54" s="117"/>
       <c r="I54" s="117"/>
@@ -15120,10 +15133,10 @@
       <c r="AD54" s="117"/>
       <c r="AE54" s="117"/>
       <c r="AF54" s="117"/>
-      <c r="AG54" s="415"/>
-      <c r="AH54" s="415"/>
-      <c r="AI54" s="415"/>
-      <c r="AJ54" s="415"/>
+      <c r="AG54" s="422"/>
+      <c r="AH54" s="422"/>
+      <c r="AI54" s="422"/>
+      <c r="AJ54" s="422"/>
       <c r="AK54" s="196"/>
       <c r="AL54" s="196"/>
       <c r="AM54" s="196"/>
@@ -15165,14 +15178,14 @@
       <c r="BW54" s="196"/>
     </row>
     <row r="55" spans="1:75" s="195" customFormat="1">
-      <c r="A55" s="409"/>
-      <c r="B55" s="410"/>
-      <c r="C55" s="384"/>
-      <c r="D55" s="385"/>
-      <c r="E55" s="386" t="s">
+      <c r="A55" s="425"/>
+      <c r="B55" s="426"/>
+      <c r="C55" s="431"/>
+      <c r="D55" s="432"/>
+      <c r="E55" s="423" t="s">
         <v>443</v>
       </c>
-      <c r="F55" s="387"/>
+      <c r="F55" s="424"/>
       <c r="G55" s="117"/>
       <c r="H55" s="117"/>
       <c r="I55" s="117"/>
@@ -15242,16 +15255,16 @@
       <c r="BW55" s="196"/>
     </row>
     <row r="56" spans="1:75" s="195" customFormat="1">
-      <c r="A56" s="409"/>
-      <c r="B56" s="410"/>
-      <c r="C56" s="382" t="s">
+      <c r="A56" s="425"/>
+      <c r="B56" s="426"/>
+      <c r="C56" s="433" t="s">
         <v>406</v>
       </c>
-      <c r="D56" s="383"/>
-      <c r="E56" s="386" t="s">
-        <v>558</v>
-      </c>
-      <c r="F56" s="387"/>
+      <c r="D56" s="434"/>
+      <c r="E56" s="423" t="s">
+        <v>554</v>
+      </c>
+      <c r="F56" s="424"/>
       <c r="G56" s="117"/>
       <c r="H56" s="117"/>
       <c r="I56" s="117"/>
@@ -15276,10 +15289,10 @@
       <c r="AD56" s="117"/>
       <c r="AE56" s="117"/>
       <c r="AF56" s="117"/>
-      <c r="AG56" s="415"/>
-      <c r="AH56" s="415"/>
-      <c r="AI56" s="415"/>
-      <c r="AJ56" s="415"/>
+      <c r="AG56" s="422"/>
+      <c r="AH56" s="422"/>
+      <c r="AI56" s="422"/>
+      <c r="AJ56" s="422"/>
       <c r="AK56" s="196"/>
       <c r="AL56" s="196"/>
       <c r="AM56" s="196"/>
@@ -15321,14 +15334,14 @@
       <c r="BW56" s="196"/>
     </row>
     <row r="57" spans="1:75" s="195" customFormat="1">
-      <c r="A57" s="409"/>
-      <c r="B57" s="410"/>
-      <c r="C57" s="384"/>
-      <c r="D57" s="385"/>
-      <c r="E57" s="386" t="s">
+      <c r="A57" s="425"/>
+      <c r="B57" s="426"/>
+      <c r="C57" s="431"/>
+      <c r="D57" s="432"/>
+      <c r="E57" s="423" t="s">
         <v>444</v>
       </c>
-      <c r="F57" s="387"/>
+      <c r="F57" s="424"/>
       <c r="G57" s="117"/>
       <c r="H57" s="117"/>
       <c r="I57" s="117"/>
@@ -15398,16 +15411,16 @@
       <c r="BW57" s="196"/>
     </row>
     <row r="58" spans="1:75" s="195" customFormat="1">
-      <c r="A58" s="409"/>
-      <c r="B58" s="410"/>
-      <c r="C58" s="382" t="s">
+      <c r="A58" s="425"/>
+      <c r="B58" s="426"/>
+      <c r="C58" s="433" t="s">
         <v>407</v>
       </c>
-      <c r="D58" s="383"/>
-      <c r="E58" s="394" t="s">
-        <v>559</v>
-      </c>
-      <c r="F58" s="395"/>
+      <c r="D58" s="434"/>
+      <c r="E58" s="413" t="s">
+        <v>555</v>
+      </c>
+      <c r="F58" s="414"/>
       <c r="G58" s="117"/>
       <c r="H58" s="117"/>
       <c r="I58" s="117"/>
@@ -15432,10 +15445,10 @@
       <c r="AD58" s="117"/>
       <c r="AE58" s="117"/>
       <c r="AF58" s="117"/>
-      <c r="AG58" s="415"/>
-      <c r="AH58" s="415"/>
-      <c r="AI58" s="415"/>
-      <c r="AJ58" s="415"/>
+      <c r="AG58" s="422"/>
+      <c r="AH58" s="422"/>
+      <c r="AI58" s="422"/>
+      <c r="AJ58" s="422"/>
       <c r="AK58" s="196"/>
       <c r="AL58" s="198"/>
       <c r="AM58" s="196"/>
@@ -15477,14 +15490,14 @@
       <c r="BW58" s="196"/>
     </row>
     <row r="59" spans="1:75" s="195" customFormat="1">
-      <c r="A59" s="409"/>
-      <c r="B59" s="410"/>
-      <c r="C59" s="384"/>
-      <c r="D59" s="385"/>
-      <c r="E59" s="386" t="s">
+      <c r="A59" s="425"/>
+      <c r="B59" s="426"/>
+      <c r="C59" s="431"/>
+      <c r="D59" s="432"/>
+      <c r="E59" s="423" t="s">
         <v>445</v>
       </c>
-      <c r="F59" s="387"/>
+      <c r="F59" s="424"/>
       <c r="G59" s="117"/>
       <c r="H59" s="117"/>
       <c r="I59" s="117"/>
@@ -15554,16 +15567,16 @@
       <c r="BW59" s="196"/>
     </row>
     <row r="60" spans="1:75" s="195" customFormat="1">
-      <c r="A60" s="409"/>
-      <c r="B60" s="410"/>
-      <c r="C60" s="382" t="s">
+      <c r="A60" s="425"/>
+      <c r="B60" s="426"/>
+      <c r="C60" s="433" t="s">
         <v>408</v>
       </c>
-      <c r="D60" s="383"/>
-      <c r="E60" s="394" t="s">
-        <v>560</v>
-      </c>
-      <c r="F60" s="395"/>
+      <c r="D60" s="434"/>
+      <c r="E60" s="413" t="s">
+        <v>556</v>
+      </c>
+      <c r="F60" s="414"/>
       <c r="G60" s="117"/>
       <c r="H60" s="117"/>
       <c r="I60" s="117"/>
@@ -15588,10 +15601,10 @@
       <c r="AD60" s="117"/>
       <c r="AE60" s="117"/>
       <c r="AF60" s="117"/>
-      <c r="AG60" s="415"/>
-      <c r="AH60" s="415"/>
-      <c r="AI60" s="415"/>
-      <c r="AJ60" s="415"/>
+      <c r="AG60" s="422"/>
+      <c r="AH60" s="422"/>
+      <c r="AI60" s="422"/>
+      <c r="AJ60" s="422"/>
       <c r="AK60" s="196"/>
       <c r="AL60" s="197"/>
       <c r="AM60" s="196"/>
@@ -15633,14 +15646,14 @@
       <c r="BW60" s="196"/>
     </row>
     <row r="61" spans="1:75" s="195" customFormat="1">
-      <c r="A61" s="409"/>
-      <c r="B61" s="410"/>
-      <c r="C61" s="384"/>
-      <c r="D61" s="385"/>
-      <c r="E61" s="386" t="s">
+      <c r="A61" s="425"/>
+      <c r="B61" s="426"/>
+      <c r="C61" s="431"/>
+      <c r="D61" s="432"/>
+      <c r="E61" s="423" t="s">
         <v>446</v>
       </c>
-      <c r="F61" s="387"/>
+      <c r="F61" s="424"/>
       <c r="G61" s="117"/>
       <c r="H61" s="117"/>
       <c r="I61" s="117"/>
@@ -15710,16 +15723,16 @@
       <c r="BW61" s="196"/>
     </row>
     <row r="62" spans="1:75" s="195" customFormat="1">
-      <c r="A62" s="409"/>
-      <c r="B62" s="410"/>
-      <c r="C62" s="382" t="s">
+      <c r="A62" s="425"/>
+      <c r="B62" s="426"/>
+      <c r="C62" s="433" t="s">
         <v>409</v>
       </c>
-      <c r="D62" s="383"/>
-      <c r="E62" s="394" t="s">
-        <v>561</v>
-      </c>
-      <c r="F62" s="395"/>
+      <c r="D62" s="434"/>
+      <c r="E62" s="413" t="s">
+        <v>557</v>
+      </c>
+      <c r="F62" s="414"/>
       <c r="G62" s="117"/>
       <c r="H62" s="117"/>
       <c r="I62" s="117"/>
@@ -15744,10 +15757,10 @@
       <c r="AD62" s="117"/>
       <c r="AE62" s="117"/>
       <c r="AF62" s="117"/>
-      <c r="AG62" s="415"/>
-      <c r="AH62" s="415"/>
-      <c r="AI62" s="415"/>
-      <c r="AJ62" s="415"/>
+      <c r="AG62" s="422"/>
+      <c r="AH62" s="422"/>
+      <c r="AI62" s="422"/>
+      <c r="AJ62" s="422"/>
       <c r="AK62" s="202"/>
       <c r="AL62" s="198"/>
       <c r="AM62" s="196"/>
@@ -15789,14 +15802,14 @@
       <c r="BW62" s="196"/>
     </row>
     <row r="63" spans="1:75" s="195" customFormat="1">
-      <c r="A63" s="409"/>
-      <c r="B63" s="410"/>
-      <c r="C63" s="384"/>
-      <c r="D63" s="385"/>
-      <c r="E63" s="386" t="s">
+      <c r="A63" s="425"/>
+      <c r="B63" s="426"/>
+      <c r="C63" s="431"/>
+      <c r="D63" s="432"/>
+      <c r="E63" s="423" t="s">
         <v>447</v>
       </c>
-      <c r="F63" s="387"/>
+      <c r="F63" s="424"/>
       <c r="G63" s="117"/>
       <c r="H63" s="117"/>
       <c r="I63" s="117"/>
@@ -15866,16 +15879,16 @@
       <c r="BW63" s="196"/>
     </row>
     <row r="64" spans="1:75" s="195" customFormat="1">
-      <c r="A64" s="409"/>
-      <c r="B64" s="410"/>
-      <c r="C64" s="382" t="s">
+      <c r="A64" s="425"/>
+      <c r="B64" s="426"/>
+      <c r="C64" s="433" t="s">
         <v>410</v>
       </c>
-      <c r="D64" s="383"/>
-      <c r="E64" s="394" t="s">
-        <v>562</v>
-      </c>
-      <c r="F64" s="395"/>
+      <c r="D64" s="434"/>
+      <c r="E64" s="413" t="s">
+        <v>558</v>
+      </c>
+      <c r="F64" s="414"/>
       <c r="G64" s="117"/>
       <c r="H64" s="117"/>
       <c r="I64" s="117"/>
@@ -15900,10 +15913,10 @@
       <c r="AD64" s="117"/>
       <c r="AE64" s="117"/>
       <c r="AF64" s="117"/>
-      <c r="AG64" s="415"/>
-      <c r="AH64" s="415"/>
-      <c r="AI64" s="415"/>
-      <c r="AJ64" s="415"/>
+      <c r="AG64" s="422"/>
+      <c r="AH64" s="422"/>
+      <c r="AI64" s="422"/>
+      <c r="AJ64" s="422"/>
       <c r="AK64" s="196"/>
       <c r="AL64" s="197"/>
       <c r="AM64" s="196"/>
@@ -15945,14 +15958,14 @@
       <c r="BW64" s="196"/>
     </row>
     <row r="65" spans="1:75" s="195" customFormat="1">
-      <c r="A65" s="409"/>
-      <c r="B65" s="410"/>
-      <c r="C65" s="384"/>
-      <c r="D65" s="385"/>
-      <c r="E65" s="386" t="s">
+      <c r="A65" s="425"/>
+      <c r="B65" s="426"/>
+      <c r="C65" s="431"/>
+      <c r="D65" s="432"/>
+      <c r="E65" s="423" t="s">
         <v>448</v>
       </c>
-      <c r="F65" s="387"/>
+      <c r="F65" s="424"/>
       <c r="G65" s="117"/>
       <c r="H65" s="117"/>
       <c r="I65" s="117"/>
@@ -16022,16 +16035,16 @@
       <c r="BW65" s="196"/>
     </row>
     <row r="66" spans="1:75" s="195" customFormat="1">
-      <c r="A66" s="409"/>
-      <c r="B66" s="410"/>
-      <c r="C66" s="382" t="s">
+      <c r="A66" s="425"/>
+      <c r="B66" s="426"/>
+      <c r="C66" s="433" t="s">
         <v>411</v>
       </c>
-      <c r="D66" s="383"/>
-      <c r="E66" s="394" t="s">
-        <v>563</v>
-      </c>
-      <c r="F66" s="395"/>
+      <c r="D66" s="434"/>
+      <c r="E66" s="413" t="s">
+        <v>559</v>
+      </c>
+      <c r="F66" s="414"/>
       <c r="G66" s="117"/>
       <c r="H66" s="117"/>
       <c r="I66" s="117"/>
@@ -16056,10 +16069,10 @@
       <c r="AD66" s="117"/>
       <c r="AE66" s="117"/>
       <c r="AF66" s="117"/>
-      <c r="AG66" s="415"/>
-      <c r="AH66" s="415"/>
-      <c r="AI66" s="415"/>
-      <c r="AJ66" s="415"/>
+      <c r="AG66" s="422"/>
+      <c r="AH66" s="422"/>
+      <c r="AI66" s="422"/>
+      <c r="AJ66" s="422"/>
       <c r="AK66" s="202"/>
       <c r="AL66" s="198"/>
       <c r="AM66" s="196"/>
@@ -16101,14 +16114,14 @@
       <c r="BW66" s="196"/>
     </row>
     <row r="67" spans="1:75" s="195" customFormat="1">
-      <c r="A67" s="409"/>
-      <c r="B67" s="410"/>
-      <c r="C67" s="384"/>
-      <c r="D67" s="385"/>
-      <c r="E67" s="386" t="s">
+      <c r="A67" s="425"/>
+      <c r="B67" s="426"/>
+      <c r="C67" s="431"/>
+      <c r="D67" s="432"/>
+      <c r="E67" s="423" t="s">
         <v>449</v>
       </c>
-      <c r="F67" s="387"/>
+      <c r="F67" s="424"/>
       <c r="G67" s="117"/>
       <c r="H67" s="117"/>
       <c r="I67" s="117"/>
@@ -16178,16 +16191,16 @@
       <c r="BW67" s="196"/>
     </row>
     <row r="68" spans="1:75" s="195" customFormat="1">
-      <c r="A68" s="409"/>
-      <c r="B68" s="410"/>
-      <c r="C68" s="382" t="s">
+      <c r="A68" s="425"/>
+      <c r="B68" s="426"/>
+      <c r="C68" s="433" t="s">
         <v>412</v>
       </c>
-      <c r="D68" s="383"/>
-      <c r="E68" s="394" t="s">
-        <v>564</v>
-      </c>
-      <c r="F68" s="395"/>
+      <c r="D68" s="434"/>
+      <c r="E68" s="413" t="s">
+        <v>560</v>
+      </c>
+      <c r="F68" s="414"/>
       <c r="G68" s="117"/>
       <c r="H68" s="117"/>
       <c r="I68" s="117"/>
@@ -16214,10 +16227,10 @@
       <c r="AD68" s="117"/>
       <c r="AE68" s="117"/>
       <c r="AF68" s="117"/>
-      <c r="AG68" s="415"/>
-      <c r="AH68" s="415"/>
-      <c r="AI68" s="415"/>
-      <c r="AJ68" s="415"/>
+      <c r="AG68" s="422"/>
+      <c r="AH68" s="422"/>
+      <c r="AI68" s="422"/>
+      <c r="AJ68" s="422"/>
       <c r="AK68" s="197"/>
       <c r="AL68" s="197"/>
       <c r="AM68" s="196"/>
@@ -16259,14 +16272,14 @@
       <c r="BW68" s="196"/>
     </row>
     <row r="69" spans="1:75" s="195" customFormat="1">
-      <c r="A69" s="409"/>
-      <c r="B69" s="410"/>
-      <c r="C69" s="384"/>
-      <c r="D69" s="385"/>
-      <c r="E69" s="386" t="s">
+      <c r="A69" s="425"/>
+      <c r="B69" s="426"/>
+      <c r="C69" s="431"/>
+      <c r="D69" s="432"/>
+      <c r="E69" s="423" t="s">
         <v>450</v>
       </c>
-      <c r="F69" s="387"/>
+      <c r="F69" s="424"/>
       <c r="G69" s="117"/>
       <c r="H69" s="117"/>
       <c r="I69" s="117"/>
@@ -16338,16 +16351,16 @@
       <c r="BW69" s="196"/>
     </row>
     <row r="70" spans="1:75" s="195" customFormat="1">
-      <c r="A70" s="409"/>
-      <c r="B70" s="410"/>
-      <c r="C70" s="382" t="s">
+      <c r="A70" s="425"/>
+      <c r="B70" s="426"/>
+      <c r="C70" s="433" t="s">
         <v>416</v>
       </c>
-      <c r="D70" s="383"/>
-      <c r="E70" s="394" t="s">
-        <v>565</v>
-      </c>
-      <c r="F70" s="395"/>
+      <c r="D70" s="434"/>
+      <c r="E70" s="413" t="s">
+        <v>561</v>
+      </c>
+      <c r="F70" s="414"/>
       <c r="G70" s="117"/>
       <c r="H70" s="117"/>
       <c r="I70" s="117"/>
@@ -16419,14 +16432,14 @@
       <c r="BW70" s="196"/>
     </row>
     <row r="71" spans="1:75" s="195" customFormat="1">
-      <c r="A71" s="409"/>
-      <c r="B71" s="410"/>
-      <c r="C71" s="384"/>
-      <c r="D71" s="385"/>
-      <c r="E71" s="386" t="s">
+      <c r="A71" s="425"/>
+      <c r="B71" s="426"/>
+      <c r="C71" s="431"/>
+      <c r="D71" s="432"/>
+      <c r="E71" s="423" t="s">
         <v>451</v>
       </c>
-      <c r="F71" s="387"/>
+      <c r="F71" s="424"/>
       <c r="G71" s="117"/>
       <c r="H71" s="117"/>
       <c r="I71" s="117"/>
@@ -16498,12 +16511,12 @@
       <c r="BW71" s="196"/>
     </row>
     <row r="72" spans="1:75" s="195" customFormat="1">
-      <c r="A72" s="409"/>
-      <c r="B72" s="410"/>
-      <c r="C72" s="430" t="s">
+      <c r="A72" s="425"/>
+      <c r="B72" s="426"/>
+      <c r="C72" s="404" t="s">
         <v>34</v>
       </c>
-      <c r="D72" s="431"/>
+      <c r="D72" s="405"/>
       <c r="E72" s="117"/>
       <c r="F72" s="117"/>
       <c r="G72" s="117"/>
@@ -16532,10 +16545,10 @@
       <c r="AD72" s="117"/>
       <c r="AE72" s="117"/>
       <c r="AF72" s="117"/>
-      <c r="AG72" s="416"/>
-      <c r="AH72" s="416"/>
-      <c r="AI72" s="416"/>
-      <c r="AJ72" s="416"/>
+      <c r="AG72" s="435"/>
+      <c r="AH72" s="435"/>
+      <c r="AI72" s="435"/>
+      <c r="AJ72" s="435"/>
       <c r="AK72" s="202"/>
       <c r="AL72" s="196"/>
       <c r="AM72" s="196"/>
@@ -16577,12 +16590,12 @@
       <c r="BW72" s="196"/>
     </row>
     <row r="73" spans="1:75" s="195" customFormat="1">
-      <c r="A73" s="409"/>
-      <c r="B73" s="410"/>
-      <c r="C73" s="432" t="s">
+      <c r="A73" s="425"/>
+      <c r="B73" s="426"/>
+      <c r="C73" s="406" t="s">
         <v>3</v>
       </c>
-      <c r="D73" s="433"/>
+      <c r="D73" s="407"/>
       <c r="E73" s="117"/>
       <c r="F73" s="117"/>
       <c r="G73" s="117"/>
@@ -16656,12 +16669,12 @@
       <c r="BW73" s="196"/>
     </row>
     <row r="74" spans="1:75" s="195" customFormat="1">
-      <c r="A74" s="411"/>
-      <c r="B74" s="412"/>
-      <c r="C74" s="432" t="s">
+      <c r="A74" s="427"/>
+      <c r="B74" s="428"/>
+      <c r="C74" s="406" t="s">
         <v>4</v>
       </c>
-      <c r="D74" s="433"/>
+      <c r="D74" s="407"/>
       <c r="E74" s="117"/>
       <c r="F74" s="117"/>
       <c r="G74" s="117"/>
@@ -16735,18 +16748,18 @@
       <c r="BW74" s="196"/>
     </row>
     <row r="75" spans="1:75" s="195" customFormat="1" ht="27" customHeight="1">
-      <c r="A75" s="388" t="s">
+      <c r="A75" s="449" t="s">
         <v>1</v>
       </c>
-      <c r="B75" s="389"/>
-      <c r="C75" s="434" t="s">
+      <c r="B75" s="450"/>
+      <c r="C75" s="408" t="s">
         <v>5</v>
       </c>
-      <c r="D75" s="435"/>
-      <c r="E75" s="386" t="s">
+      <c r="D75" s="409"/>
+      <c r="E75" s="423" t="s">
         <v>324</v>
       </c>
-      <c r="F75" s="387"/>
+      <c r="F75" s="424"/>
       <c r="G75" s="117"/>
       <c r="H75" s="117"/>
       <c r="I75" s="117"/>
@@ -16773,10 +16786,10 @@
       <c r="AD75" s="117"/>
       <c r="AE75" s="117"/>
       <c r="AF75" s="117"/>
-      <c r="AG75" s="407"/>
-      <c r="AH75" s="407"/>
-      <c r="AI75" s="407"/>
-      <c r="AJ75" s="407"/>
+      <c r="AG75" s="436"/>
+      <c r="AH75" s="436"/>
+      <c r="AI75" s="436"/>
+      <c r="AJ75" s="436"/>
       <c r="AK75" s="202"/>
       <c r="AL75" s="196"/>
       <c r="AM75" s="196"/>
@@ -16818,16 +16831,16 @@
       <c r="BW75" s="196"/>
     </row>
     <row r="76" spans="1:75" s="195" customFormat="1" ht="27" customHeight="1">
-      <c r="A76" s="390"/>
-      <c r="B76" s="391"/>
-      <c r="C76" s="434" t="s">
+      <c r="A76" s="451"/>
+      <c r="B76" s="452"/>
+      <c r="C76" s="408" t="s">
         <v>6</v>
       </c>
-      <c r="D76" s="435"/>
-      <c r="E76" s="386" t="s">
+      <c r="D76" s="409"/>
+      <c r="E76" s="423" t="s">
         <v>325</v>
       </c>
-      <c r="F76" s="387"/>
+      <c r="F76" s="424"/>
       <c r="G76" s="117"/>
       <c r="H76" s="117"/>
       <c r="I76" s="117"/>
@@ -16854,10 +16867,10 @@
       <c r="AD76" s="117"/>
       <c r="AE76" s="117"/>
       <c r="AF76" s="117"/>
-      <c r="AG76" s="407"/>
-      <c r="AH76" s="407"/>
-      <c r="AI76" s="407"/>
-      <c r="AJ76" s="407"/>
+      <c r="AG76" s="436"/>
+      <c r="AH76" s="436"/>
+      <c r="AI76" s="436"/>
+      <c r="AJ76" s="436"/>
       <c r="AK76" s="202"/>
       <c r="AL76" s="196"/>
       <c r="AM76" s="196"/>
@@ -16899,16 +16912,16 @@
       <c r="BW76" s="196"/>
     </row>
     <row r="77" spans="1:75" s="195" customFormat="1" ht="27" customHeight="1">
-      <c r="A77" s="390"/>
-      <c r="B77" s="391"/>
-      <c r="C77" s="434" t="s">
+      <c r="A77" s="451"/>
+      <c r="B77" s="452"/>
+      <c r="C77" s="408" t="s">
         <v>0</v>
       </c>
-      <c r="D77" s="435"/>
-      <c r="E77" s="386" t="s">
+      <c r="D77" s="409"/>
+      <c r="E77" s="423" t="s">
         <v>326</v>
       </c>
-      <c r="F77" s="387"/>
+      <c r="F77" s="424"/>
       <c r="G77" s="117"/>
       <c r="H77" s="117"/>
       <c r="I77" s="117"/>
@@ -16935,10 +16948,10 @@
       <c r="AD77" s="117"/>
       <c r="AE77" s="117"/>
       <c r="AF77" s="117"/>
-      <c r="AG77" s="408"/>
-      <c r="AH77" s="408"/>
-      <c r="AI77" s="408"/>
-      <c r="AJ77" s="408"/>
+      <c r="AG77" s="437"/>
+      <c r="AH77" s="437"/>
+      <c r="AI77" s="437"/>
+      <c r="AJ77" s="437"/>
       <c r="AK77" s="202"/>
       <c r="AL77" s="196"/>
       <c r="AM77" s="196"/>
@@ -16980,16 +16993,16 @@
       <c r="BW77" s="196"/>
     </row>
     <row r="78" spans="1:75" s="195" customFormat="1" ht="27" customHeight="1">
-      <c r="A78" s="390"/>
-      <c r="B78" s="391"/>
-      <c r="C78" s="434" t="s">
+      <c r="A78" s="451"/>
+      <c r="B78" s="452"/>
+      <c r="C78" s="408" t="s">
         <v>58</v>
       </c>
-      <c r="D78" s="435"/>
-      <c r="E78" s="386" t="s">
+      <c r="D78" s="409"/>
+      <c r="E78" s="423" t="s">
         <v>327</v>
       </c>
-      <c r="F78" s="387"/>
+      <c r="F78" s="424"/>
       <c r="G78" s="117"/>
       <c r="H78" s="117"/>
       <c r="I78" s="117"/>
@@ -17061,16 +17074,16 @@
       <c r="BW78" s="196"/>
     </row>
     <row r="79" spans="1:75" s="195" customFormat="1" ht="27" customHeight="1">
-      <c r="A79" s="390"/>
-      <c r="B79" s="391"/>
-      <c r="C79" s="434" t="s">
+      <c r="A79" s="451"/>
+      <c r="B79" s="452"/>
+      <c r="C79" s="408" t="s">
         <v>37</v>
       </c>
-      <c r="D79" s="435"/>
-      <c r="E79" s="386" t="s">
+      <c r="D79" s="409"/>
+      <c r="E79" s="423" t="s">
         <v>417</v>
       </c>
-      <c r="F79" s="387"/>
+      <c r="F79" s="424"/>
       <c r="G79" s="117"/>
       <c r="H79" s="117"/>
       <c r="I79" s="117"/>
@@ -17097,10 +17110,10 @@
       <c r="AD79" s="117"/>
       <c r="AE79" s="117"/>
       <c r="AF79" s="117"/>
-      <c r="AG79" s="408"/>
-      <c r="AH79" s="408"/>
-      <c r="AI79" s="408"/>
-      <c r="AJ79" s="408"/>
+      <c r="AG79" s="437"/>
+      <c r="AH79" s="437"/>
+      <c r="AI79" s="437"/>
+      <c r="AJ79" s="437"/>
       <c r="AK79" s="202"/>
       <c r="AL79" s="196"/>
       <c r="AM79" s="196"/>
@@ -17142,16 +17155,16 @@
       <c r="BW79" s="196"/>
     </row>
     <row r="80" spans="1:75" s="195" customFormat="1" ht="32.25" customHeight="1">
-      <c r="A80" s="393" t="s">
+      <c r="A80" s="454" t="s">
         <v>48</v>
       </c>
-      <c r="B80" s="393"/>
-      <c r="C80" s="393"/>
-      <c r="D80" s="393"/>
-      <c r="E80" s="392" t="s">
+      <c r="B80" s="454"/>
+      <c r="C80" s="454"/>
+      <c r="D80" s="454"/>
+      <c r="E80" s="453" t="s">
         <v>328</v>
       </c>
-      <c r="F80" s="387"/>
+      <c r="F80" s="424"/>
       <c r="G80" s="117"/>
       <c r="H80" s="117"/>
       <c r="I80" s="117"/>
@@ -17178,10 +17191,10 @@
       <c r="AD80" s="117"/>
       <c r="AE80" s="117"/>
       <c r="AF80" s="117"/>
-      <c r="AG80" s="396"/>
-      <c r="AH80" s="396"/>
-      <c r="AI80" s="396"/>
-      <c r="AJ80" s="396"/>
+      <c r="AG80" s="438"/>
+      <c r="AH80" s="438"/>
+      <c r="AI80" s="438"/>
+      <c r="AJ80" s="438"/>
       <c r="AK80" s="202"/>
       <c r="AL80" s="196"/>
       <c r="AM80" s="196"/>
@@ -17223,16 +17236,16 @@
       <c r="BW80" s="196"/>
     </row>
     <row r="81" spans="1:75" s="195" customFormat="1" ht="32.25" customHeight="1">
-      <c r="A81" s="393" t="s">
+      <c r="A81" s="454" t="s">
         <v>49</v>
       </c>
-      <c r="B81" s="393"/>
-      <c r="C81" s="393"/>
-      <c r="D81" s="393"/>
-      <c r="E81" s="392" t="s">
+      <c r="B81" s="454"/>
+      <c r="C81" s="454"/>
+      <c r="D81" s="454"/>
+      <c r="E81" s="453" t="s">
         <v>329</v>
       </c>
-      <c r="F81" s="387"/>
+      <c r="F81" s="424"/>
       <c r="G81" s="117"/>
       <c r="H81" s="117"/>
       <c r="I81" s="117"/>
@@ -17259,10 +17272,10 @@
       <c r="AD81" s="117"/>
       <c r="AE81" s="117"/>
       <c r="AF81" s="117"/>
-      <c r="AG81" s="396"/>
-      <c r="AH81" s="396"/>
-      <c r="AI81" s="396"/>
-      <c r="AJ81" s="396"/>
+      <c r="AG81" s="438"/>
+      <c r="AH81" s="438"/>
+      <c r="AI81" s="438"/>
+      <c r="AJ81" s="438"/>
       <c r="AK81" s="202"/>
       <c r="AL81" s="196"/>
       <c r="AM81" s="196"/>
@@ -17310,17 +17323,17 @@
       <c r="D82" s="206"/>
       <c r="E82" s="206"/>
       <c r="F82" s="206"/>
-      <c r="G82" s="397"/>
-      <c r="H82" s="397"/>
-      <c r="I82" s="397"/>
+      <c r="G82" s="439"/>
+      <c r="H82" s="439"/>
+      <c r="I82" s="439"/>
       <c r="J82" s="206"/>
       <c r="K82" s="206"/>
       <c r="L82" s="206"/>
       <c r="M82" s="206"/>
       <c r="N82" s="206"/>
-      <c r="O82" s="397"/>
-      <c r="P82" s="397"/>
-      <c r="Q82" s="397"/>
+      <c r="O82" s="439"/>
+      <c r="P82" s="439"/>
+      <c r="Q82" s="439"/>
       <c r="R82" s="206"/>
       <c r="S82" s="206"/>
       <c r="T82" s="206"/>
@@ -17346,13 +17359,13 @@
     <row r="83" spans="1:75" ht="14.1" customHeight="1" thickBot="1">
       <c r="A83" s="205"/>
       <c r="B83" s="214" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="C83" s="213"/>
-      <c r="D83" s="406" t="s">
+      <c r="D83" s="448" t="s">
         <v>65</v>
       </c>
-      <c r="E83" s="406"/>
+      <c r="E83" s="448"/>
       <c r="F83" s="206"/>
       <c r="G83" s="212"/>
       <c r="H83" s="212"/>
@@ -17390,13 +17403,13 @@
     <row r="84" spans="1:75" ht="13.8" customHeight="1" thickBot="1">
       <c r="A84" s="205"/>
       <c r="B84" s="215" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="C84" s="213"/>
-      <c r="D84" s="406" t="s">
+      <c r="D84" s="448" t="s">
         <v>66</v>
       </c>
-      <c r="E84" s="406"/>
+      <c r="E84" s="448"/>
       <c r="F84" s="206"/>
       <c r="G84" s="212"/>
       <c r="H84" s="212"/>
@@ -17438,9 +17451,9 @@
       <c r="D85" s="206"/>
       <c r="E85" s="206"/>
       <c r="F85" s="206"/>
-      <c r="G85" s="399"/>
-      <c r="H85" s="399"/>
-      <c r="I85" s="399"/>
+      <c r="G85" s="441"/>
+      <c r="H85" s="441"/>
+      <c r="I85" s="441"/>
       <c r="J85" s="206"/>
       <c r="K85" s="206"/>
       <c r="L85" s="206"/>
@@ -17473,35 +17486,35 @@
     </row>
     <row r="86" spans="1:75" ht="14.1" customHeight="1">
       <c r="A86" s="205"/>
-      <c r="B86" s="398" t="s">
+      <c r="B86" s="440" t="s">
         <v>39</v>
       </c>
-      <c r="C86" s="400"/>
-      <c r="D86" s="401"/>
-      <c r="E86" s="401"/>
-      <c r="F86" s="401"/>
-      <c r="G86" s="401"/>
-      <c r="H86" s="401"/>
-      <c r="I86" s="401"/>
-      <c r="J86" s="401"/>
-      <c r="K86" s="401"/>
-      <c r="L86" s="401"/>
-      <c r="M86" s="401"/>
-      <c r="N86" s="401"/>
-      <c r="O86" s="401"/>
-      <c r="P86" s="401"/>
-      <c r="Q86" s="401"/>
-      <c r="R86" s="401"/>
-      <c r="S86" s="401"/>
-      <c r="T86" s="401"/>
-      <c r="U86" s="401"/>
-      <c r="V86" s="401"/>
-      <c r="W86" s="401"/>
-      <c r="X86" s="401"/>
-      <c r="Y86" s="401"/>
-      <c r="Z86" s="401"/>
-      <c r="AA86" s="401"/>
-      <c r="AB86" s="402"/>
+      <c r="C86" s="442"/>
+      <c r="D86" s="443"/>
+      <c r="E86" s="443"/>
+      <c r="F86" s="443"/>
+      <c r="G86" s="443"/>
+      <c r="H86" s="443"/>
+      <c r="I86" s="443"/>
+      <c r="J86" s="443"/>
+      <c r="K86" s="443"/>
+      <c r="L86" s="443"/>
+      <c r="M86" s="443"/>
+      <c r="N86" s="443"/>
+      <c r="O86" s="443"/>
+      <c r="P86" s="443"/>
+      <c r="Q86" s="443"/>
+      <c r="R86" s="443"/>
+      <c r="S86" s="443"/>
+      <c r="T86" s="443"/>
+      <c r="U86" s="443"/>
+      <c r="V86" s="443"/>
+      <c r="W86" s="443"/>
+      <c r="X86" s="443"/>
+      <c r="Y86" s="443"/>
+      <c r="Z86" s="443"/>
+      <c r="AA86" s="443"/>
+      <c r="AB86" s="444"/>
       <c r="AC86" s="208"/>
       <c r="AD86" s="208"/>
       <c r="AE86" s="208"/>
@@ -17522,33 +17535,33 @@
     </row>
     <row r="87" spans="1:75" ht="28.5" customHeight="1">
       <c r="A87" s="205"/>
-      <c r="B87" s="398"/>
-      <c r="C87" s="403"/>
-      <c r="D87" s="404"/>
-      <c r="E87" s="404"/>
-      <c r="F87" s="404"/>
-      <c r="G87" s="404"/>
-      <c r="H87" s="404"/>
-      <c r="I87" s="404"/>
-      <c r="J87" s="404"/>
-      <c r="K87" s="404"/>
-      <c r="L87" s="404"/>
-      <c r="M87" s="404"/>
-      <c r="N87" s="404"/>
-      <c r="O87" s="404"/>
-      <c r="P87" s="404"/>
-      <c r="Q87" s="404"/>
-      <c r="R87" s="404"/>
-      <c r="S87" s="404"/>
-      <c r="T87" s="404"/>
-      <c r="U87" s="404"/>
-      <c r="V87" s="404"/>
-      <c r="W87" s="404"/>
-      <c r="X87" s="404"/>
-      <c r="Y87" s="404"/>
-      <c r="Z87" s="404"/>
-      <c r="AA87" s="404"/>
-      <c r="AB87" s="405"/>
+      <c r="B87" s="440"/>
+      <c r="C87" s="445"/>
+      <c r="D87" s="446"/>
+      <c r="E87" s="446"/>
+      <c r="F87" s="446"/>
+      <c r="G87" s="446"/>
+      <c r="H87" s="446"/>
+      <c r="I87" s="446"/>
+      <c r="J87" s="446"/>
+      <c r="K87" s="446"/>
+      <c r="L87" s="446"/>
+      <c r="M87" s="446"/>
+      <c r="N87" s="446"/>
+      <c r="O87" s="446"/>
+      <c r="P87" s="446"/>
+      <c r="Q87" s="446"/>
+      <c r="R87" s="446"/>
+      <c r="S87" s="446"/>
+      <c r="T87" s="446"/>
+      <c r="U87" s="446"/>
+      <c r="V87" s="446"/>
+      <c r="W87" s="446"/>
+      <c r="X87" s="446"/>
+      <c r="Y87" s="446"/>
+      <c r="Z87" s="446"/>
+      <c r="AA87" s="446"/>
+      <c r="AB87" s="447"/>
       <c r="AC87" s="208"/>
       <c r="AD87" s="208"/>
       <c r="AE87" s="208"/>
@@ -36642,6 +36655,207 @@
   </sheetData>
   <sheetProtection formatColumns="0" formatRows="0"/>
   <mergeCells count="225">
+    <mergeCell ref="C48:D49"/>
+    <mergeCell ref="C50:D51"/>
+    <mergeCell ref="C52:D53"/>
+    <mergeCell ref="C54:D55"/>
+    <mergeCell ref="C56:D57"/>
+    <mergeCell ref="C58:D59"/>
+    <mergeCell ref="C60:D61"/>
+    <mergeCell ref="C62:D63"/>
+    <mergeCell ref="C64:D65"/>
+    <mergeCell ref="E75:F75"/>
+    <mergeCell ref="E76:F76"/>
+    <mergeCell ref="E77:F77"/>
+    <mergeCell ref="E78:F78"/>
+    <mergeCell ref="E79:F79"/>
+    <mergeCell ref="A75:B79"/>
+    <mergeCell ref="E80:F80"/>
+    <mergeCell ref="E81:F81"/>
+    <mergeCell ref="A80:D80"/>
+    <mergeCell ref="A81:D81"/>
+    <mergeCell ref="E55:F55"/>
+    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="E57:F57"/>
+    <mergeCell ref="E58:F58"/>
+    <mergeCell ref="E59:F59"/>
+    <mergeCell ref="E69:F69"/>
+    <mergeCell ref="E70:F70"/>
+    <mergeCell ref="E71:F71"/>
+    <mergeCell ref="C68:D69"/>
+    <mergeCell ref="C70:D71"/>
+    <mergeCell ref="E60:F60"/>
+    <mergeCell ref="E61:F61"/>
+    <mergeCell ref="E62:F62"/>
+    <mergeCell ref="E63:F63"/>
+    <mergeCell ref="E64:F64"/>
+    <mergeCell ref="E65:F65"/>
+    <mergeCell ref="E66:F66"/>
+    <mergeCell ref="E67:F67"/>
+    <mergeCell ref="E68:F68"/>
+    <mergeCell ref="C66:D67"/>
+    <mergeCell ref="AG81:AH81"/>
+    <mergeCell ref="AI81:AJ81"/>
+    <mergeCell ref="G82:I82"/>
+    <mergeCell ref="O82:Q82"/>
+    <mergeCell ref="B86:B87"/>
+    <mergeCell ref="G85:I85"/>
+    <mergeCell ref="C86:AB87"/>
+    <mergeCell ref="D84:E84"/>
+    <mergeCell ref="D83:E83"/>
+    <mergeCell ref="AG75:AH75"/>
+    <mergeCell ref="AI75:AJ75"/>
+    <mergeCell ref="AG76:AH76"/>
+    <mergeCell ref="AI76:AJ76"/>
+    <mergeCell ref="AG77:AH77"/>
+    <mergeCell ref="AG80:AH80"/>
+    <mergeCell ref="AI77:AJ77"/>
+    <mergeCell ref="AI79:AJ79"/>
+    <mergeCell ref="AG79:AH79"/>
+    <mergeCell ref="AI80:AJ80"/>
+    <mergeCell ref="A42:B74"/>
+    <mergeCell ref="C42:D43"/>
+    <mergeCell ref="C44:D45"/>
+    <mergeCell ref="C46:D47"/>
+    <mergeCell ref="AG66:AH66"/>
+    <mergeCell ref="AI66:AJ66"/>
+    <mergeCell ref="AG68:AH68"/>
+    <mergeCell ref="AI68:AJ68"/>
+    <mergeCell ref="AG72:AH72"/>
+    <mergeCell ref="AI72:AJ72"/>
+    <mergeCell ref="AG54:AH54"/>
+    <mergeCell ref="AI54:AJ54"/>
+    <mergeCell ref="AG56:AH56"/>
+    <mergeCell ref="AI56:AJ56"/>
+    <mergeCell ref="AG58:AH58"/>
+    <mergeCell ref="AI58:AJ58"/>
+    <mergeCell ref="AG60:AH60"/>
+    <mergeCell ref="AI60:AJ60"/>
+    <mergeCell ref="AG62:AH62"/>
+    <mergeCell ref="AI62:AJ62"/>
+    <mergeCell ref="AG64:AH64"/>
+    <mergeCell ref="AI64:AJ64"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="AG46:AH46"/>
+    <mergeCell ref="AI46:AJ46"/>
+    <mergeCell ref="AG48:AH48"/>
+    <mergeCell ref="AI48:AJ48"/>
+    <mergeCell ref="AG50:AH50"/>
+    <mergeCell ref="AI50:AJ50"/>
+    <mergeCell ref="AG52:AH52"/>
+    <mergeCell ref="AI52:AJ52"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="AE6:AF6"/>
+    <mergeCell ref="AI6:AJ6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="BF2:BS2"/>
+    <mergeCell ref="AG5:AJ5"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="C72:D72"/>
+    <mergeCell ref="C73:D73"/>
+    <mergeCell ref="C74:D74"/>
+    <mergeCell ref="C75:D75"/>
+    <mergeCell ref="C76:D76"/>
+    <mergeCell ref="C77:D77"/>
+    <mergeCell ref="C78:D78"/>
+    <mergeCell ref="C79:D79"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="B27:B28"/>
     <mergeCell ref="G41:H41"/>
     <mergeCell ref="A41:F41"/>
     <mergeCell ref="E2:AB3"/>
@@ -36666,207 +36880,6 @@
     <mergeCell ref="C31:C32"/>
     <mergeCell ref="D31:D32"/>
     <mergeCell ref="A33:A34"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="C72:D72"/>
-    <mergeCell ref="C73:D73"/>
-    <mergeCell ref="C74:D74"/>
-    <mergeCell ref="C75:D75"/>
-    <mergeCell ref="C76:D76"/>
-    <mergeCell ref="C77:D77"/>
-    <mergeCell ref="C78:D78"/>
-    <mergeCell ref="C79:D79"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="BF2:BS2"/>
-    <mergeCell ref="AG5:AJ5"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="AE6:AF6"/>
-    <mergeCell ref="AI6:AJ6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="AG46:AH46"/>
-    <mergeCell ref="AI46:AJ46"/>
-    <mergeCell ref="AG48:AH48"/>
-    <mergeCell ref="AI48:AJ48"/>
-    <mergeCell ref="AG50:AH50"/>
-    <mergeCell ref="AI50:AJ50"/>
-    <mergeCell ref="AG52:AH52"/>
-    <mergeCell ref="AI52:AJ52"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="E47:F47"/>
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="E49:F49"/>
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="A42:B74"/>
-    <mergeCell ref="C42:D43"/>
-    <mergeCell ref="C44:D45"/>
-    <mergeCell ref="C46:D47"/>
-    <mergeCell ref="AG66:AH66"/>
-    <mergeCell ref="AI66:AJ66"/>
-    <mergeCell ref="AG68:AH68"/>
-    <mergeCell ref="AI68:AJ68"/>
-    <mergeCell ref="AG72:AH72"/>
-    <mergeCell ref="AI72:AJ72"/>
-    <mergeCell ref="AG54:AH54"/>
-    <mergeCell ref="AI54:AJ54"/>
-    <mergeCell ref="AG56:AH56"/>
-    <mergeCell ref="AI56:AJ56"/>
-    <mergeCell ref="AG58:AH58"/>
-    <mergeCell ref="AI58:AJ58"/>
-    <mergeCell ref="AG60:AH60"/>
-    <mergeCell ref="AI60:AJ60"/>
-    <mergeCell ref="AG62:AH62"/>
-    <mergeCell ref="AI62:AJ62"/>
-    <mergeCell ref="AG64:AH64"/>
-    <mergeCell ref="AI64:AJ64"/>
-    <mergeCell ref="E53:F53"/>
-    <mergeCell ref="E54:F54"/>
-    <mergeCell ref="AG75:AH75"/>
-    <mergeCell ref="AI75:AJ75"/>
-    <mergeCell ref="AG76:AH76"/>
-    <mergeCell ref="AI76:AJ76"/>
-    <mergeCell ref="AG77:AH77"/>
-    <mergeCell ref="AG80:AH80"/>
-    <mergeCell ref="AI77:AJ77"/>
-    <mergeCell ref="AI79:AJ79"/>
-    <mergeCell ref="AG79:AH79"/>
-    <mergeCell ref="AI80:AJ80"/>
-    <mergeCell ref="AG81:AH81"/>
-    <mergeCell ref="AI81:AJ81"/>
-    <mergeCell ref="G82:I82"/>
-    <mergeCell ref="O82:Q82"/>
-    <mergeCell ref="B86:B87"/>
-    <mergeCell ref="G85:I85"/>
-    <mergeCell ref="C86:AB87"/>
-    <mergeCell ref="D84:E84"/>
-    <mergeCell ref="D83:E83"/>
-    <mergeCell ref="E55:F55"/>
-    <mergeCell ref="E56:F56"/>
-    <mergeCell ref="E57:F57"/>
-    <mergeCell ref="E58:F58"/>
-    <mergeCell ref="E59:F59"/>
-    <mergeCell ref="E69:F69"/>
-    <mergeCell ref="E70:F70"/>
-    <mergeCell ref="E71:F71"/>
-    <mergeCell ref="C68:D69"/>
-    <mergeCell ref="C70:D71"/>
-    <mergeCell ref="E60:F60"/>
-    <mergeCell ref="E61:F61"/>
-    <mergeCell ref="E62:F62"/>
-    <mergeCell ref="E63:F63"/>
-    <mergeCell ref="E64:F64"/>
-    <mergeCell ref="E65:F65"/>
-    <mergeCell ref="E66:F66"/>
-    <mergeCell ref="E67:F67"/>
-    <mergeCell ref="E68:F68"/>
-    <mergeCell ref="C66:D67"/>
-    <mergeCell ref="E75:F75"/>
-    <mergeCell ref="E76:F76"/>
-    <mergeCell ref="E77:F77"/>
-    <mergeCell ref="E78:F78"/>
-    <mergeCell ref="E79:F79"/>
-    <mergeCell ref="A75:B79"/>
-    <mergeCell ref="E80:F80"/>
-    <mergeCell ref="E81:F81"/>
-    <mergeCell ref="A80:D80"/>
-    <mergeCell ref="A81:D81"/>
-    <mergeCell ref="C48:D49"/>
-    <mergeCell ref="C50:D51"/>
-    <mergeCell ref="C52:D53"/>
-    <mergeCell ref="C54:D55"/>
-    <mergeCell ref="C56:D57"/>
-    <mergeCell ref="C58:D59"/>
-    <mergeCell ref="C60:D61"/>
-    <mergeCell ref="C62:D63"/>
-    <mergeCell ref="C64:D65"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.118110236220472" right="0.118110236220472" top="0.35433070866141703" bottom="0.55118110236220497" header="0.31496062992126" footer="0.31496062992126"/>
@@ -37060,18 +37073,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -37093,6 +37106,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5458833A-D997-4113-BB83-F938CBB9D86E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ECA946AD-4EA3-4FCA-B864-262800288FDF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
@@ -37106,12 +37127,4 @@
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5458833A-D997-4113-BB83-F938CBB9D86E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/api/cp-dss-api/gateway/src/main/resources/reports/Vessel_1_Loading_Plan_Template.xlsx
+++ b/api/cp-dss-api/gateway/src/main/resources/reports/Vessel_1_Loading_Plan_Template.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17316" windowHeight="6156" tabRatio="738" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17316" windowHeight="6156" tabRatio="738"/>
   </bookViews>
   <sheets>
     <sheet name="CRUD - 021 pg1" sheetId="27" r:id="rId1"/>
@@ -2095,9 +2095,6 @@
     <t>Alongside, Hose Connection</t>
   </si>
   <si>
-    <t>Max.Mani.Press. / Max.Dis.Rate</t>
-  </si>
-  <si>
     <t>Limitation of Draft /  Air Draft</t>
   </si>
   <si>
@@ -3282,9 +3279,6 @@
   </si>
   <si>
     <t xml:space="preserve">${tickPoints}      </t>
-  </si>
-  <si>
-    <t>${loadingRate.rate} M3/HR</t>
   </si>
   <si>
     <t>LOADING RATE(M3/HR)</t>
@@ -3806,6 +3800,12 @@
   </si>
   <si>
     <t xml:space="preserve"> ${sheetTwo.vesselPurticulars.freshWaterDraft}</t>
+  </si>
+  <si>
+    <t>${loadingRate.rate} M3/HR</t>
+  </si>
+  <si>
+    <t>Max.Mani.Press. / Max.Loading.Rate</t>
   </si>
 </sst>
 </file>
@@ -5454,15 +5454,6 @@
       <alignment horizontal="center" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="14" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -5542,6 +5533,15 @@
     <xf numFmtId="0" fontId="30" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="14" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
@@ -7311,8 +7311,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AS75"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="Q39" sqref="Q39"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="L3" sqref="L3:O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="17.25" customHeight="1"/>
@@ -7370,7 +7370,7 @@
       <c r="J3" s="47"/>
       <c r="K3" s="47"/>
       <c r="L3" s="245" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M3" s="245"/>
       <c r="N3" s="245"/>
@@ -7391,11 +7391,11 @@
     <row r="4" spans="1:32" ht="17.25" customHeight="1">
       <c r="A4" s="47"/>
       <c r="B4" s="49" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C4" s="47"/>
       <c r="D4" s="251" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E4" s="251"/>
       <c r="F4" s="251"/>
@@ -7424,16 +7424,16 @@
     <row r="5" spans="1:32" ht="17.25" customHeight="1">
       <c r="A5" s="47"/>
       <c r="B5" s="50" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C5" s="51"/>
-      <c r="D5" s="325" t="s">
-        <v>64</v>
-      </c>
-      <c r="E5" s="325"/>
-      <c r="F5" s="325"/>
-      <c r="G5" s="325"/>
-      <c r="H5" s="325"/>
+      <c r="D5" s="322" t="s">
+        <v>63</v>
+      </c>
+      <c r="E5" s="322"/>
+      <c r="F5" s="322"/>
+      <c r="G5" s="322"/>
+      <c r="H5" s="322"/>
       <c r="I5" s="52"/>
       <c r="J5" s="52"/>
       <c r="K5" s="52"/>
@@ -7452,7 +7452,7 @@
         <v>8</v>
       </c>
       <c r="V5" s="268" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="W5" s="268"/>
       <c r="X5" s="268"/>
@@ -7488,7 +7488,7 @@
         <v>8</v>
       </c>
       <c r="V6" s="269" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="W6" s="269"/>
       <c r="X6" s="269"/>
@@ -7500,21 +7500,21 @@
     <row r="7" spans="1:32" ht="17.25" customHeight="1">
       <c r="A7" s="57"/>
       <c r="B7" s="58" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C7" s="252" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D7" s="252"/>
       <c r="E7" s="252"/>
       <c r="F7" s="252"/>
       <c r="G7" s="252"/>
       <c r="H7" s="259" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I7" s="259"/>
       <c r="J7" s="252" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K7" s="252"/>
       <c r="L7" s="252"/>
@@ -7532,7 +7532,7 @@
         <v>8</v>
       </c>
       <c r="V7" s="269" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="W7" s="269"/>
       <c r="X7" s="269"/>
@@ -7618,7 +7618,7 @@
       <c r="N10" s="60"/>
       <c r="O10" s="60"/>
       <c r="P10" s="61" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Q10" s="62"/>
       <c r="R10" s="62"/>
@@ -7629,17 +7629,17 @@
       <c r="W10" s="61"/>
       <c r="X10" s="61"/>
       <c r="Y10" s="273" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Z10" s="273"/>
       <c r="AB10" s="56"/>
     </row>
     <row r="11" spans="1:32" ht="17.25" customHeight="1">
       <c r="A11" s="63" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B11" s="64" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C11" s="65"/>
       <c r="D11" s="65"/>
@@ -7655,7 +7655,7 @@
       <c r="N11" s="65"/>
       <c r="O11" s="66"/>
       <c r="P11" s="67" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q11" s="67"/>
       <c r="R11" s="67"/>
@@ -7664,7 +7664,7 @@
       <c r="U11" s="67"/>
       <c r="V11" s="68"/>
       <c r="W11" s="274" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="X11" s="274"/>
       <c r="Y11" s="274"/>
@@ -7688,7 +7688,7 @@
       <c r="N12" s="71"/>
       <c r="O12" s="71"/>
       <c r="P12" s="272" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="Q12" s="272"/>
       <c r="R12" s="272"/>
@@ -7750,36 +7750,36 @@
       <c r="A15" s="70"/>
       <c r="B15" s="75"/>
       <c r="C15" s="76" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D15" s="77"/>
       <c r="E15" s="76" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F15" s="78"/>
       <c r="G15" s="223" t="s">
+        <v>265</v>
+      </c>
+      <c r="H15" s="335"/>
+      <c r="I15" s="336"/>
+      <c r="J15" s="79" t="s">
         <v>266</v>
-      </c>
-      <c r="H15" s="338"/>
-      <c r="I15" s="339"/>
-      <c r="J15" s="79" t="s">
-        <v>267</v>
       </c>
       <c r="K15" s="80"/>
       <c r="L15" s="223" t="s">
+        <v>267</v>
+      </c>
+      <c r="M15" s="335"/>
+      <c r="N15" s="336"/>
+      <c r="O15" s="79" t="s">
         <v>268</v>
-      </c>
-      <c r="M15" s="338"/>
-      <c r="N15" s="339"/>
-      <c r="O15" s="79" t="s">
-        <v>269</v>
       </c>
       <c r="P15" s="80"/>
       <c r="Q15" s="81"/>
       <c r="R15" s="71"/>
       <c r="S15" s="71"/>
       <c r="T15" s="271" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="U15" s="271"/>
       <c r="V15" s="271"/>
@@ -7792,35 +7792,35 @@
       <c r="A16" s="84"/>
       <c r="B16" s="85"/>
       <c r="C16" s="247" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D16" s="248"/>
       <c r="E16" s="247" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F16" s="249"/>
       <c r="G16" s="247" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H16" s="248"/>
       <c r="I16" s="249"/>
       <c r="J16" s="247" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K16" s="249"/>
       <c r="L16" s="247" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="M16" s="248"/>
       <c r="N16" s="249"/>
       <c r="O16" s="247" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="P16" s="249"/>
       <c r="Q16" s="85"/>
       <c r="S16" s="71"/>
       <c r="T16" s="275" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="U16" s="275"/>
       <c r="V16" s="275"/>
@@ -7829,7 +7829,7 @@
         <v>8</v>
       </c>
       <c r="Y16" s="277" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Z16" s="277"/>
       <c r="AF16" s="104"/>
@@ -7838,45 +7838,45 @@
       <c r="A17" s="84"/>
       <c r="B17" s="85"/>
       <c r="C17" s="86" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D17" s="87" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E17" s="86" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F17" s="88" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G17" s="220" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H17" s="285" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I17" s="286"/>
       <c r="J17" s="86" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="K17" s="87" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="L17" s="220" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="M17" s="285" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="N17" s="286"/>
       <c r="O17" s="86" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="P17" s="89" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="Q17" s="240" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="S17" s="71"/>
       <c r="T17" s="84"/>
@@ -7887,10 +7887,10 @@
       <c r="Y17" s="90"/>
       <c r="Z17" s="74"/>
       <c r="AB17" s="69" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AD17" s="69" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AF17" s="104"/>
     </row>
@@ -7898,33 +7898,33 @@
       <c r="A18" s="84"/>
       <c r="B18" s="91"/>
       <c r="C18" s="260" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D18" s="250"/>
       <c r="E18" s="260" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F18" s="261"/>
       <c r="G18" s="260" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H18" s="250"/>
       <c r="I18" s="261"/>
       <c r="J18" s="250" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="K18" s="250"/>
       <c r="L18" s="253" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="M18" s="254"/>
       <c r="N18" s="255"/>
       <c r="O18" s="250" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="P18" s="250"/>
       <c r="Q18" s="276" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="S18" s="71"/>
       <c r="T18" s="270"/>
@@ -7935,52 +7935,52 @@
       <c r="Y18" s="90"/>
       <c r="Z18" s="74"/>
       <c r="AC18" s="69" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AF18" s="104"/>
     </row>
     <row r="19" spans="1:45" s="69" customFormat="1" ht="12" customHeight="1">
       <c r="A19" s="84"/>
       <c r="B19" s="240" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="C19" s="224" t="s">
+        <v>87</v>
+      </c>
+      <c r="D19" s="225" t="s">
         <v>88</v>
       </c>
-      <c r="D19" s="225" t="s">
-        <v>89</v>
-      </c>
       <c r="E19" s="224" t="s">
+        <v>115</v>
+      </c>
+      <c r="F19" s="225" t="s">
         <v>116</v>
       </c>
-      <c r="F19" s="225" t="s">
-        <v>117</v>
-      </c>
       <c r="G19" s="226" t="s">
+        <v>143</v>
+      </c>
+      <c r="H19" s="262" t="s">
         <v>144</v>
-      </c>
-      <c r="H19" s="262" t="s">
-        <v>145</v>
       </c>
       <c r="I19" s="263"/>
       <c r="J19" s="224" t="s">
+        <v>171</v>
+      </c>
+      <c r="K19" s="225" t="s">
         <v>172</v>
       </c>
-      <c r="K19" s="225" t="s">
-        <v>173</v>
-      </c>
       <c r="L19" s="224" t="s">
+        <v>199</v>
+      </c>
+      <c r="M19" s="262" t="s">
         <v>200</v>
-      </c>
-      <c r="M19" s="262" t="s">
-        <v>201</v>
       </c>
       <c r="N19" s="263"/>
       <c r="O19" s="227" t="s">
+        <v>227</v>
+      </c>
+      <c r="P19" s="225" t="s">
         <v>228</v>
-      </c>
-      <c r="P19" s="225" t="s">
-        <v>229</v>
       </c>
       <c r="Q19" s="276"/>
       <c r="S19" s="71"/>
@@ -7993,53 +7993,53 @@
       <c r="Z19" s="74"/>
       <c r="AA19" s="84"/>
       <c r="AC19" s="69" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AD19"/>
       <c r="AE19"/>
       <c r="AF19" s="243" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="AG19"/>
     </row>
     <row r="20" spans="1:45" s="69" customFormat="1" ht="12" customHeight="1">
       <c r="A20" s="84"/>
       <c r="B20" s="246" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C20" s="92" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D20" s="278" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E20" s="279"/>
       <c r="F20" s="280"/>
       <c r="G20" s="221" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H20" s="264" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I20" s="265"/>
       <c r="J20" s="92" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="K20" s="94" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="L20" s="95" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="M20" s="281" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="N20" s="282"/>
       <c r="O20" s="95" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="P20" s="93" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="Q20" s="233"/>
       <c r="S20" s="71"/>
@@ -8054,7 +8054,7 @@
       <c r="AD20"/>
       <c r="AE20"/>
       <c r="AF20" s="283" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="AG20"/>
     </row>
@@ -8062,27 +8062,27 @@
       <c r="A21" s="84"/>
       <c r="B21" s="246"/>
       <c r="C21" s="260" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D21" s="250"/>
       <c r="E21" s="250"/>
       <c r="F21" s="261"/>
       <c r="G21" s="260" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H21" s="250"/>
       <c r="I21" s="261"/>
       <c r="J21" s="253" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K21" s="255"/>
       <c r="L21" s="253" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="M21" s="254"/>
       <c r="N21" s="255"/>
       <c r="O21" s="253" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="P21" s="255"/>
       <c r="Q21" s="234"/>
@@ -8104,38 +8104,38 @@
       <c r="A22" s="84"/>
       <c r="B22" s="85"/>
       <c r="C22" s="228" t="s">
+        <v>91</v>
+      </c>
+      <c r="D22" s="308" t="s">
         <v>92</v>
-      </c>
-      <c r="D22" s="308" t="s">
-        <v>93</v>
       </c>
       <c r="E22" s="308"/>
       <c r="F22" s="309"/>
       <c r="G22" s="229" t="s">
+        <v>119</v>
+      </c>
+      <c r="H22" s="308" t="s">
         <v>120</v>
-      </c>
-      <c r="H22" s="308" t="s">
-        <v>121</v>
       </c>
       <c r="I22" s="309"/>
       <c r="J22" s="230" t="s">
+        <v>147</v>
+      </c>
+      <c r="K22" s="231" t="s">
         <v>148</v>
       </c>
-      <c r="K22" s="231" t="s">
-        <v>149</v>
-      </c>
       <c r="L22" s="230" t="s">
+        <v>175</v>
+      </c>
+      <c r="M22" s="308" t="s">
         <v>176</v>
-      </c>
-      <c r="M22" s="308" t="s">
-        <v>177</v>
       </c>
       <c r="N22" s="309"/>
       <c r="O22" s="232" t="s">
+        <v>203</v>
+      </c>
+      <c r="P22" s="231" t="s">
         <v>204</v>
-      </c>
-      <c r="P22" s="231" t="s">
-        <v>205</v>
       </c>
       <c r="Q22" s="98"/>
       <c r="S22" s="71"/>
@@ -8155,49 +8155,49 @@
       <c r="A23" s="84"/>
       <c r="B23" s="85"/>
       <c r="C23" s="92" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D23" s="89" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E23" s="92" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F23" s="89" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G23" s="221" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H23" s="264" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I23" s="265"/>
       <c r="J23" s="92" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="K23" s="89" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="L23" s="221" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="M23" s="264" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="N23" s="265"/>
       <c r="O23" s="92" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="P23" s="89" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="Q23" s="240" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="S23" s="71"/>
       <c r="T23" s="73" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U23" s="73"/>
       <c r="V23" s="73"/>
@@ -8216,44 +8216,44 @@
       <c r="A24" s="84"/>
       <c r="B24" s="85"/>
       <c r="C24" s="260" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D24" s="250"/>
       <c r="E24" s="260" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F24" s="250"/>
       <c r="G24" s="256" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H24" s="257"/>
       <c r="I24" s="258"/>
       <c r="J24" s="260" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="K24" s="250"/>
       <c r="L24" s="256" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="M24" s="257"/>
       <c r="N24" s="258"/>
       <c r="O24" s="260" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="P24" s="250"/>
       <c r="Q24" s="276" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="S24" s="71"/>
       <c r="T24" s="288" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="U24" s="288"/>
       <c r="V24" s="288"/>
       <c r="W24" s="288"/>
       <c r="X24" s="82"/>
       <c r="Y24" s="99" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="Z24" s="74"/>
       <c r="AD24"/>
@@ -8267,42 +8267,42 @@
       <c r="A25" s="84"/>
       <c r="B25" s="85"/>
       <c r="C25" s="224" t="s">
+        <v>95</v>
+      </c>
+      <c r="D25" s="225" t="s">
         <v>96</v>
       </c>
-      <c r="D25" s="225" t="s">
-        <v>97</v>
-      </c>
       <c r="E25" s="224" t="s">
+        <v>123</v>
+      </c>
+      <c r="F25" s="225" t="s">
         <v>124</v>
       </c>
-      <c r="F25" s="225" t="s">
-        <v>125</v>
-      </c>
       <c r="G25" s="226" t="s">
+        <v>151</v>
+      </c>
+      <c r="H25" s="266" t="s">
         <v>152</v>
-      </c>
-      <c r="H25" s="266" t="s">
-        <v>153</v>
       </c>
       <c r="I25" s="267"/>
       <c r="J25" s="224" t="s">
+        <v>179</v>
+      </c>
+      <c r="K25" s="225" t="s">
         <v>180</v>
       </c>
-      <c r="K25" s="225" t="s">
-        <v>181</v>
-      </c>
       <c r="L25" s="224" t="s">
+        <v>207</v>
+      </c>
+      <c r="M25" s="310" t="s">
         <v>208</v>
-      </c>
-      <c r="M25" s="310" t="s">
-        <v>209</v>
       </c>
       <c r="N25" s="311"/>
       <c r="O25" s="224" t="s">
+        <v>231</v>
+      </c>
+      <c r="P25" s="225" t="s">
         <v>232</v>
-      </c>
-      <c r="P25" s="225" t="s">
-        <v>233</v>
       </c>
       <c r="Q25" s="276"/>
       <c r="S25" s="71"/>
@@ -8324,35 +8324,35 @@
       <c r="A26" s="70"/>
       <c r="B26" s="85"/>
       <c r="C26" s="100" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D26" s="101"/>
       <c r="E26" s="100" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F26" s="102"/>
       <c r="G26" s="222" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H26" s="313"/>
       <c r="I26" s="314"/>
       <c r="J26" s="100" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="K26" s="103"/>
       <c r="L26" s="222" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="M26" s="313"/>
       <c r="N26" s="314"/>
       <c r="O26" s="76" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="P26" s="103"/>
       <c r="Q26" s="85"/>
       <c r="S26" s="71"/>
       <c r="T26" s="287" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="U26" s="287"/>
       <c r="V26" s="287"/>
@@ -8361,7 +8361,7 @@
       </c>
       <c r="X26" s="82"/>
       <c r="Y26" s="99" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Z26" s="71"/>
       <c r="AD26"/>
@@ -8375,36 +8375,36 @@
       <c r="A27" s="84"/>
       <c r="B27" s="75"/>
       <c r="C27" s="247" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D27" s="248"/>
       <c r="E27" s="247" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F27" s="248"/>
       <c r="G27" s="247" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H27" s="248"/>
       <c r="I27" s="249"/>
       <c r="J27" s="247" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="K27" s="248"/>
       <c r="L27" s="247" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="M27" s="248"/>
       <c r="N27" s="249"/>
       <c r="O27" s="247" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="P27" s="249"/>
       <c r="Q27" s="104"/>
       <c r="R27" s="71"/>
       <c r="S27" s="73"/>
       <c r="T27" s="287" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="U27" s="287"/>
       <c r="V27" s="287"/>
@@ -8413,7 +8413,7 @@
       </c>
       <c r="X27" s="82"/>
       <c r="Y27" s="99" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Z27" s="73"/>
       <c r="AD27"/>
@@ -8444,7 +8444,7 @@
       <c r="R28" s="71"/>
       <c r="S28" s="73"/>
       <c r="T28" s="288" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="U28" s="288"/>
       <c r="V28" s="288"/>
@@ -8453,7 +8453,7 @@
       </c>
       <c r="X28" s="73"/>
       <c r="Y28" s="99" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="Z28" s="73"/>
       <c r="AD28"/>
@@ -8480,12 +8480,12 @@
       <c r="N29" s="104"/>
       <c r="O29" s="104"/>
       <c r="P29" s="104" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Q29" s="104"/>
       <c r="R29" s="71"/>
       <c r="S29" s="73" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="T29" s="71"/>
       <c r="U29" s="104"/>
@@ -8526,14 +8526,14 @@
       <c r="Q30" s="65"/>
       <c r="R30" s="107"/>
       <c r="S30" s="107" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="T30" s="107"/>
       <c r="U30" s="107"/>
       <c r="V30" s="108"/>
       <c r="W30" s="108"/>
       <c r="X30" s="109" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Y30" s="110"/>
       <c r="Z30" s="65"/>
@@ -8551,7 +8551,7 @@
       <c r="D31" s="66"/>
       <c r="E31" s="66"/>
       <c r="F31" s="66" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G31" s="66"/>
       <c r="H31" s="66"/>
@@ -8567,7 +8567,7 @@
       <c r="R31" s="107"/>
       <c r="S31" s="111"/>
       <c r="T31" s="271" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="U31" s="271"/>
       <c r="V31" s="271"/>
@@ -8603,7 +8603,7 @@
       <c r="R32" s="112"/>
       <c r="S32" s="112"/>
       <c r="T32" s="289" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="U32" s="289"/>
       <c r="V32" s="289"/>
@@ -8612,7 +8612,7 @@
         <v>8</v>
       </c>
       <c r="Y32" s="277" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Z32" s="277"/>
       <c r="AD32"/>
@@ -8636,29 +8636,29 @@
       <c r="A33" s="70"/>
       <c r="B33" s="75"/>
       <c r="C33" s="76" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D33" s="77"/>
       <c r="E33" s="76" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F33" s="78"/>
       <c r="G33" s="223" t="s">
+        <v>294</v>
+      </c>
+      <c r="H33" s="335"/>
+      <c r="I33" s="336"/>
+      <c r="J33" s="217" t="s">
         <v>295</v>
-      </c>
-      <c r="H33" s="338"/>
-      <c r="I33" s="339"/>
-      <c r="J33" s="217" t="s">
-        <v>296</v>
       </c>
       <c r="K33" s="80"/>
       <c r="L33" s="223" t="s">
+        <v>296</v>
+      </c>
+      <c r="M33" s="335"/>
+      <c r="N33" s="336"/>
+      <c r="O33" s="217" t="s">
         <v>297</v>
-      </c>
-      <c r="M33" s="338"/>
-      <c r="N33" s="339"/>
-      <c r="O33" s="217" t="s">
-        <v>298</v>
       </c>
       <c r="P33" s="80"/>
       <c r="Q33" s="81"/>
@@ -8693,29 +8693,29 @@
       <c r="A34" s="118"/>
       <c r="B34" s="85"/>
       <c r="C34" s="247" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D34" s="249"/>
       <c r="E34" s="247" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F34" s="249"/>
       <c r="G34" s="247" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H34" s="248"/>
       <c r="I34" s="249"/>
       <c r="J34" s="247" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="K34" s="249"/>
       <c r="L34" s="247" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="M34" s="248"/>
       <c r="N34" s="249"/>
       <c r="O34" s="247" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="P34" s="249"/>
       <c r="Q34" s="85"/>
@@ -8729,7 +8729,7 @@
       <c r="Z34" s="117"/>
       <c r="AA34" s="117"/>
       <c r="AB34" s="69" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AF34" s="104"/>
       <c r="AG34"/>
@@ -8750,45 +8750,45 @@
       <c r="A35" s="118"/>
       <c r="B35" s="85"/>
       <c r="C35" s="220" t="s">
+        <v>298</v>
+      </c>
+      <c r="D35" s="87" t="s">
+        <v>99</v>
+      </c>
+      <c r="E35" s="220" t="s">
         <v>299</v>
       </c>
-      <c r="D35" s="87" t="s">
-        <v>100</v>
-      </c>
-      <c r="E35" s="220" t="s">
+      <c r="F35" s="88" t="s">
+        <v>127</v>
+      </c>
+      <c r="G35" s="220" t="s">
         <v>300</v>
       </c>
-      <c r="F35" s="88" t="s">
-        <v>128</v>
-      </c>
-      <c r="G35" s="220" t="s">
-        <v>301</v>
-      </c>
       <c r="H35" s="285" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I35" s="286"/>
       <c r="J35" s="220" t="s">
+        <v>301</v>
+      </c>
+      <c r="K35" s="87" t="s">
+        <v>183</v>
+      </c>
+      <c r="L35" s="220" t="s">
         <v>302</v>
       </c>
-      <c r="K35" s="87" t="s">
-        <v>184</v>
-      </c>
-      <c r="L35" s="220" t="s">
-        <v>303</v>
-      </c>
       <c r="M35" s="285" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="N35" s="286"/>
       <c r="O35" s="220" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="P35" s="89" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="Q35" s="244" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="S35" s="116"/>
       <c r="T35" s="117"/>
@@ -8800,10 +8800,10 @@
       <c r="Z35" s="117"/>
       <c r="AA35" s="117"/>
       <c r="AB35" s="69" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AD35" s="69" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AF35" s="104"/>
       <c r="AG35"/>
@@ -8824,33 +8824,33 @@
       <c r="A36" s="118"/>
       <c r="B36" s="85"/>
       <c r="C36" s="260" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D36" s="261"/>
       <c r="E36" s="260" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F36" s="261"/>
       <c r="G36" s="260" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H36" s="250"/>
       <c r="I36" s="261"/>
       <c r="J36" s="260" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="K36" s="261"/>
       <c r="L36" s="253" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="M36" s="254"/>
       <c r="N36" s="255"/>
       <c r="O36" s="260" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="P36" s="261"/>
       <c r="Q36" s="276" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="S36" s="116"/>
       <c r="T36" s="117"/>
@@ -8862,7 +8862,7 @@
       <c r="Z36" s="117"/>
       <c r="AA36" s="117"/>
       <c r="AC36" s="69" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AF36" s="104"/>
       <c r="AG36"/>
@@ -8882,45 +8882,45 @@
     <row r="37" spans="1:45" s="69" customFormat="1" ht="12" customHeight="1">
       <c r="A37" s="118"/>
       <c r="B37" s="242" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="C37" s="224" t="s">
+        <v>101</v>
+      </c>
+      <c r="D37" s="225" t="s">
         <v>102</v>
       </c>
-      <c r="D37" s="225" t="s">
-        <v>103</v>
-      </c>
       <c r="E37" s="224" t="s">
+        <v>129</v>
+      </c>
+      <c r="F37" s="225" t="s">
         <v>130</v>
       </c>
-      <c r="F37" s="225" t="s">
-        <v>131</v>
-      </c>
       <c r="G37" s="224" t="s">
+        <v>157</v>
+      </c>
+      <c r="H37" s="262" t="s">
         <v>158</v>
-      </c>
-      <c r="H37" s="262" t="s">
-        <v>159</v>
       </c>
       <c r="I37" s="263"/>
       <c r="J37" s="224" t="s">
+        <v>185</v>
+      </c>
+      <c r="K37" s="225" t="s">
         <v>186</v>
       </c>
-      <c r="K37" s="225" t="s">
-        <v>187</v>
-      </c>
       <c r="L37" s="224" t="s">
+        <v>213</v>
+      </c>
+      <c r="M37" s="262" t="s">
         <v>214</v>
-      </c>
-      <c r="M37" s="262" t="s">
-        <v>215</v>
       </c>
       <c r="N37" s="263"/>
       <c r="O37" s="227" t="s">
+        <v>237</v>
+      </c>
+      <c r="P37" s="225" t="s">
         <v>238</v>
-      </c>
-      <c r="P37" s="225" t="s">
-        <v>239</v>
       </c>
       <c r="Q37" s="276"/>
       <c r="S37" s="126"/>
@@ -8933,10 +8933,10 @@
       <c r="Z37" s="117"/>
       <c r="AA37" s="117"/>
       <c r="AC37" s="69" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AF37" s="243" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="AG37" s="237"/>
       <c r="AH37" s="237"/>
@@ -8955,41 +8955,41 @@
     <row r="38" spans="1:45" s="69" customFormat="1" ht="12" customHeight="1">
       <c r="A38" s="118"/>
       <c r="B38" s="246" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C38" s="218" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D38" s="279" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E38" s="279"/>
       <c r="F38" s="312"/>
       <c r="G38" s="221" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="H38" s="264" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I38" s="265"/>
       <c r="J38" s="218" t="s">
+        <v>306</v>
+      </c>
+      <c r="K38" s="219" t="s">
+        <v>159</v>
+      </c>
+      <c r="L38" s="95" t="s">
         <v>307</v>
       </c>
-      <c r="K38" s="219" t="s">
-        <v>160</v>
-      </c>
-      <c r="L38" s="95" t="s">
-        <v>308</v>
-      </c>
       <c r="M38" s="281" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="N38" s="282"/>
       <c r="O38" s="95" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="P38" s="93" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="Q38" s="233"/>
       <c r="S38" s="116"/>
@@ -9001,7 +9001,7 @@
       <c r="Y38" s="127"/>
       <c r="Z38" s="71"/>
       <c r="AF38" s="283" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="AG38" s="236"/>
       <c r="AH38" s="236"/>
@@ -9021,33 +9021,33 @@
       <c r="A39" s="118"/>
       <c r="B39" s="246"/>
       <c r="C39" s="260" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D39" s="250"/>
       <c r="E39" s="250"/>
       <c r="F39" s="261"/>
       <c r="G39" s="260" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H39" s="250"/>
       <c r="I39" s="261"/>
       <c r="J39" s="253" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K39" s="255"/>
       <c r="L39" s="253" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="M39" s="254"/>
       <c r="N39" s="255"/>
       <c r="O39" s="253" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="P39" s="255"/>
       <c r="Q39" s="234"/>
       <c r="S39" s="126"/>
       <c r="T39" s="73" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U39" s="73"/>
       <c r="V39" s="73"/>
@@ -9074,50 +9074,50 @@
       <c r="A40" s="118"/>
       <c r="B40" s="85"/>
       <c r="C40" s="228" t="s">
+        <v>105</v>
+      </c>
+      <c r="D40" s="308" t="s">
         <v>106</v>
-      </c>
-      <c r="D40" s="308" t="s">
-        <v>107</v>
       </c>
       <c r="E40" s="308"/>
       <c r="F40" s="309"/>
       <c r="G40" s="229" t="s">
+        <v>133</v>
+      </c>
+      <c r="H40" s="308" t="s">
         <v>134</v>
-      </c>
-      <c r="H40" s="308" t="s">
-        <v>135</v>
       </c>
       <c r="I40" s="309"/>
       <c r="J40" s="230" t="s">
+        <v>161</v>
+      </c>
+      <c r="K40" s="231" t="s">
         <v>162</v>
       </c>
-      <c r="K40" s="231" t="s">
-        <v>163</v>
-      </c>
       <c r="L40" s="230" t="s">
+        <v>189</v>
+      </c>
+      <c r="M40" s="308" t="s">
         <v>190</v>
-      </c>
-      <c r="M40" s="308" t="s">
-        <v>191</v>
       </c>
       <c r="N40" s="309"/>
       <c r="O40" s="232" t="s">
+        <v>217</v>
+      </c>
+      <c r="P40" s="231" t="s">
         <v>218</v>
-      </c>
-      <c r="P40" s="231" t="s">
-        <v>219</v>
       </c>
       <c r="Q40" s="98"/>
       <c r="S40" s="65"/>
       <c r="T40" s="288" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="U40" s="288"/>
       <c r="V40" s="288"/>
       <c r="W40" s="288"/>
       <c r="X40" s="82"/>
       <c r="Y40" s="128" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Z40" s="74"/>
       <c r="AF40" s="241"/>
@@ -9139,45 +9139,45 @@
       <c r="A41" s="118"/>
       <c r="B41" s="85"/>
       <c r="C41" s="218" t="s">
+        <v>309</v>
+      </c>
+      <c r="D41" s="89" t="s">
+        <v>107</v>
+      </c>
+      <c r="E41" s="218" t="s">
         <v>310</v>
       </c>
-      <c r="D41" s="89" t="s">
-        <v>108</v>
-      </c>
-      <c r="E41" s="218" t="s">
+      <c r="F41" s="89" t="s">
+        <v>135</v>
+      </c>
+      <c r="G41" s="221" t="s">
         <v>311</v>
       </c>
-      <c r="F41" s="89" t="s">
-        <v>136</v>
-      </c>
-      <c r="G41" s="221" t="s">
-        <v>312</v>
-      </c>
       <c r="H41" s="264" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I41" s="265"/>
       <c r="J41" s="218" t="s">
+        <v>312</v>
+      </c>
+      <c r="K41" s="89" t="s">
+        <v>191</v>
+      </c>
+      <c r="L41" s="221" t="s">
         <v>313</v>
       </c>
-      <c r="K41" s="89" t="s">
-        <v>192</v>
-      </c>
-      <c r="L41" s="221" t="s">
-        <v>314</v>
-      </c>
       <c r="M41" s="264" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="N41" s="265"/>
       <c r="O41" s="218" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="P41" s="89" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="Q41" s="244" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="S41" s="112"/>
       <c r="T41" s="71"/>
@@ -9206,37 +9206,37 @@
       <c r="A42" s="118"/>
       <c r="B42" s="85"/>
       <c r="C42" s="260" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D42" s="261"/>
       <c r="E42" s="260" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F42" s="261"/>
       <c r="G42" s="256" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H42" s="257"/>
       <c r="I42" s="258"/>
       <c r="J42" s="260" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="K42" s="261"/>
       <c r="L42" s="256" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="M42" s="257"/>
       <c r="N42" s="258"/>
       <c r="O42" s="260" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="P42" s="261"/>
       <c r="Q42" s="276" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="S42" s="71"/>
       <c r="T42" s="287" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="U42" s="287"/>
       <c r="V42" s="287"/>
@@ -9245,7 +9245,7 @@
       </c>
       <c r="X42" s="82"/>
       <c r="Y42" s="128" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Z42" s="71"/>
       <c r="AF42" s="104"/>
@@ -9267,47 +9267,47 @@
       <c r="A43" s="118"/>
       <c r="B43" s="85"/>
       <c r="C43" s="224" t="s">
+        <v>109</v>
+      </c>
+      <c r="D43" s="225" t="s">
         <v>110</v>
       </c>
-      <c r="D43" s="225" t="s">
-        <v>111</v>
-      </c>
       <c r="E43" s="224" t="s">
+        <v>137</v>
+      </c>
+      <c r="F43" s="225" t="s">
         <v>138</v>
       </c>
-      <c r="F43" s="225" t="s">
-        <v>139</v>
-      </c>
       <c r="G43" s="224" t="s">
+        <v>165</v>
+      </c>
+      <c r="H43" s="266" t="s">
         <v>166</v>
-      </c>
-      <c r="H43" s="266" t="s">
-        <v>167</v>
       </c>
       <c r="I43" s="267"/>
       <c r="J43" s="224" t="s">
+        <v>193</v>
+      </c>
+      <c r="K43" s="225" t="s">
         <v>194</v>
       </c>
-      <c r="K43" s="225" t="s">
-        <v>195</v>
-      </c>
       <c r="L43" s="224" t="s">
+        <v>221</v>
+      </c>
+      <c r="M43" s="262" t="s">
         <v>222</v>
-      </c>
-      <c r="M43" s="262" t="s">
-        <v>223</v>
       </c>
       <c r="N43" s="263"/>
       <c r="O43" s="224" t="s">
+        <v>241</v>
+      </c>
+      <c r="P43" s="225" t="s">
         <v>242</v>
-      </c>
-      <c r="P43" s="225" t="s">
-        <v>243</v>
       </c>
       <c r="Q43" s="276"/>
       <c r="S43" s="71"/>
       <c r="T43" s="287" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="U43" s="287"/>
       <c r="V43" s="287"/>
@@ -9316,7 +9316,7 @@
       </c>
       <c r="X43" s="82"/>
       <c r="Y43" s="128" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="Z43" s="73"/>
       <c r="AF43" s="104"/>
@@ -9338,35 +9338,35 @@
       <c r="A44" s="129"/>
       <c r="B44" s="85"/>
       <c r="C44" s="100" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D44" s="101"/>
       <c r="E44" s="100" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F44" s="102"/>
       <c r="G44" s="223" t="s">
+        <v>317</v>
+      </c>
+      <c r="H44" s="335"/>
+      <c r="I44" s="336"/>
+      <c r="J44" s="100" t="s">
         <v>318</v>
-      </c>
-      <c r="H44" s="338"/>
-      <c r="I44" s="339"/>
-      <c r="J44" s="100" t="s">
-        <v>319</v>
       </c>
       <c r="K44" s="103"/>
       <c r="L44" s="223" t="s">
+        <v>319</v>
+      </c>
+      <c r="M44" s="335"/>
+      <c r="N44" s="336"/>
+      <c r="O44" s="76" t="s">
         <v>320</v>
-      </c>
-      <c r="M44" s="338"/>
-      <c r="N44" s="339"/>
-      <c r="O44" s="76" t="s">
-        <v>321</v>
       </c>
       <c r="P44" s="103"/>
       <c r="Q44" s="85"/>
       <c r="S44" s="71"/>
       <c r="T44" s="288" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="U44" s="288"/>
       <c r="V44" s="288"/>
@@ -9375,11 +9375,11 @@
       </c>
       <c r="X44" s="73"/>
       <c r="Y44" s="128" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Z44" s="73"/>
       <c r="AC44" s="69" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AF44" s="104"/>
       <c r="AG44" s="236"/>
@@ -9400,29 +9400,29 @@
       <c r="A45" s="84"/>
       <c r="B45" s="75"/>
       <c r="C45" s="247" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D45" s="249"/>
       <c r="E45" s="247" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F45" s="249"/>
       <c r="G45" s="247" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H45" s="248"/>
       <c r="I45" s="249"/>
       <c r="J45" s="247" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="K45" s="249"/>
       <c r="L45" s="247" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="M45" s="248"/>
       <c r="N45" s="249"/>
       <c r="O45" s="247" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="P45" s="249"/>
       <c r="Q45" s="104"/>
@@ -9439,18 +9439,18 @@
     <row r="46" spans="1:45" ht="17.25" customHeight="1">
       <c r="A46" s="56"/>
       <c r="B46" s="131"/>
-      <c r="C46" s="319"/>
-      <c r="D46" s="319"/>
-      <c r="E46" s="319"/>
-      <c r="F46" s="319"/>
-      <c r="G46" s="319"/>
-      <c r="H46" s="319"/>
-      <c r="I46" s="319"/>
-      <c r="J46" s="319"/>
-      <c r="K46" s="319"/>
-      <c r="L46" s="319"/>
-      <c r="M46" s="319"/>
-      <c r="N46" s="319"/>
+      <c r="C46" s="316"/>
+      <c r="D46" s="316"/>
+      <c r="E46" s="316"/>
+      <c r="F46" s="316"/>
+      <c r="G46" s="316"/>
+      <c r="H46" s="316"/>
+      <c r="I46" s="316"/>
+      <c r="J46" s="316"/>
+      <c r="K46" s="316"/>
+      <c r="L46" s="316"/>
+      <c r="M46" s="316"/>
+      <c r="N46" s="316"/>
       <c r="O46" s="113"/>
       <c r="P46" s="112"/>
       <c r="Q46" s="112"/>
@@ -9507,20 +9507,20 @@
       <c r="F48" s="133"/>
       <c r="G48" s="133"/>
       <c r="H48" s="133"/>
-      <c r="I48" s="318"/>
-      <c r="J48" s="318"/>
-      <c r="K48" s="318"/>
-      <c r="L48" s="318"/>
-      <c r="M48" s="326" t="s">
+      <c r="I48" s="315"/>
+      <c r="J48" s="315"/>
+      <c r="K48" s="315"/>
+      <c r="L48" s="315"/>
+      <c r="M48" s="323" t="s">
         <v>15</v>
       </c>
-      <c r="N48" s="327"/>
-      <c r="O48" s="327"/>
-      <c r="P48" s="327"/>
-      <c r="Q48" s="327"/>
-      <c r="R48" s="327"/>
-      <c r="S48" s="327"/>
-      <c r="T48" s="328"/>
+      <c r="N48" s="324"/>
+      <c r="O48" s="324"/>
+      <c r="P48" s="324"/>
+      <c r="Q48" s="324"/>
+      <c r="R48" s="324"/>
+      <c r="S48" s="324"/>
+      <c r="T48" s="325"/>
       <c r="U48" s="136"/>
       <c r="V48" s="136"/>
       <c r="W48" s="136"/>
@@ -9541,22 +9541,22 @@
       <c r="F49" s="139"/>
       <c r="G49" s="139"/>
       <c r="H49" s="140"/>
-      <c r="I49" s="324" t="s">
-        <v>256</v>
-      </c>
-      <c r="J49" s="324"/>
-      <c r="K49" s="324"/>
-      <c r="L49" s="324"/>
-      <c r="M49" s="329" t="s">
-        <v>263</v>
-      </c>
-      <c r="N49" s="330"/>
-      <c r="O49" s="330"/>
-      <c r="P49" s="330"/>
-      <c r="Q49" s="330"/>
-      <c r="R49" s="330"/>
-      <c r="S49" s="330"/>
-      <c r="T49" s="331"/>
+      <c r="I49" s="321" t="s">
+        <v>255</v>
+      </c>
+      <c r="J49" s="321"/>
+      <c r="K49" s="321"/>
+      <c r="L49" s="321"/>
+      <c r="M49" s="326" t="s">
+        <v>262</v>
+      </c>
+      <c r="N49" s="327"/>
+      <c r="O49" s="327"/>
+      <c r="P49" s="327"/>
+      <c r="Q49" s="327"/>
+      <c r="R49" s="327"/>
+      <c r="S49" s="327"/>
+      <c r="T49" s="328"/>
       <c r="U49" s="136"/>
       <c r="V49" s="136"/>
       <c r="W49" s="136"/>
@@ -9577,20 +9577,20 @@
       <c r="F50" s="139"/>
       <c r="G50" s="139"/>
       <c r="H50" s="140"/>
-      <c r="I50" s="324" t="s">
-        <v>257</v>
-      </c>
-      <c r="J50" s="324"/>
-      <c r="K50" s="324"/>
-      <c r="L50" s="324"/>
-      <c r="M50" s="332"/>
-      <c r="N50" s="333"/>
-      <c r="O50" s="333"/>
-      <c r="P50" s="333"/>
-      <c r="Q50" s="333"/>
-      <c r="R50" s="333"/>
-      <c r="S50" s="333"/>
-      <c r="T50" s="334"/>
+      <c r="I50" s="321" t="s">
+        <v>256</v>
+      </c>
+      <c r="J50" s="321"/>
+      <c r="K50" s="321"/>
+      <c r="L50" s="321"/>
+      <c r="M50" s="329"/>
+      <c r="N50" s="330"/>
+      <c r="O50" s="330"/>
+      <c r="P50" s="330"/>
+      <c r="Q50" s="330"/>
+      <c r="R50" s="330"/>
+      <c r="S50" s="330"/>
+      <c r="T50" s="331"/>
       <c r="U50" s="137"/>
       <c r="V50" s="136"/>
       <c r="W50" s="136"/>
@@ -9604,27 +9604,27 @@
       <c r="A51" s="135"/>
       <c r="B51" s="141"/>
       <c r="C51" s="139" t="s">
-        <v>18</v>
+        <v>584</v>
       </c>
       <c r="D51" s="139"/>
       <c r="E51" s="139"/>
       <c r="F51" s="139"/>
       <c r="G51" s="139"/>
       <c r="H51" s="140"/>
-      <c r="I51" s="324" t="s">
-        <v>260</v>
-      </c>
-      <c r="J51" s="324"/>
-      <c r="K51" s="324"/>
-      <c r="L51" s="324"/>
-      <c r="M51" s="332"/>
-      <c r="N51" s="333"/>
-      <c r="O51" s="333"/>
-      <c r="P51" s="333"/>
-      <c r="Q51" s="333"/>
-      <c r="R51" s="333"/>
-      <c r="S51" s="333"/>
-      <c r="T51" s="334"/>
+      <c r="I51" s="321" t="s">
+        <v>259</v>
+      </c>
+      <c r="J51" s="321"/>
+      <c r="K51" s="321"/>
+      <c r="L51" s="321"/>
+      <c r="M51" s="329"/>
+      <c r="N51" s="330"/>
+      <c r="O51" s="330"/>
+      <c r="P51" s="330"/>
+      <c r="Q51" s="330"/>
+      <c r="R51" s="330"/>
+      <c r="S51" s="330"/>
+      <c r="T51" s="331"/>
       <c r="U51" s="137"/>
       <c r="V51" s="136"/>
       <c r="W51" s="136"/>
@@ -9638,27 +9638,27 @@
       <c r="A52" s="135"/>
       <c r="B52" s="141"/>
       <c r="C52" s="139" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D52" s="139"/>
       <c r="E52" s="139"/>
       <c r="F52" s="139"/>
       <c r="G52" s="139"/>
       <c r="H52" s="140"/>
-      <c r="I52" s="324" t="s">
-        <v>259</v>
-      </c>
-      <c r="J52" s="324"/>
-      <c r="K52" s="324"/>
-      <c r="L52" s="324"/>
-      <c r="M52" s="332"/>
-      <c r="N52" s="333"/>
-      <c r="O52" s="333"/>
-      <c r="P52" s="333"/>
-      <c r="Q52" s="333"/>
-      <c r="R52" s="333"/>
-      <c r="S52" s="333"/>
-      <c r="T52" s="334"/>
+      <c r="I52" s="321" t="s">
+        <v>258</v>
+      </c>
+      <c r="J52" s="321"/>
+      <c r="K52" s="321"/>
+      <c r="L52" s="321"/>
+      <c r="M52" s="329"/>
+      <c r="N52" s="330"/>
+      <c r="O52" s="330"/>
+      <c r="P52" s="330"/>
+      <c r="Q52" s="330"/>
+      <c r="R52" s="330"/>
+      <c r="S52" s="330"/>
+      <c r="T52" s="331"/>
       <c r="U52" s="137"/>
       <c r="V52" s="136"/>
       <c r="W52" s="136"/>
@@ -9672,27 +9672,27 @@
       <c r="A53" s="135"/>
       <c r="B53" s="141"/>
       <c r="C53" s="139" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D53" s="139"/>
       <c r="E53" s="139"/>
       <c r="F53" s="139"/>
       <c r="G53" s="139"/>
       <c r="H53" s="140"/>
-      <c r="I53" s="324" t="s">
-        <v>258</v>
-      </c>
-      <c r="J53" s="324"/>
-      <c r="K53" s="324"/>
-      <c r="L53" s="324"/>
-      <c r="M53" s="332"/>
-      <c r="N53" s="333"/>
-      <c r="O53" s="333"/>
-      <c r="P53" s="333"/>
-      <c r="Q53" s="333"/>
-      <c r="R53" s="333"/>
-      <c r="S53" s="333"/>
-      <c r="T53" s="334"/>
+      <c r="I53" s="321" t="s">
+        <v>257</v>
+      </c>
+      <c r="J53" s="321"/>
+      <c r="K53" s="321"/>
+      <c r="L53" s="321"/>
+      <c r="M53" s="329"/>
+      <c r="N53" s="330"/>
+      <c r="O53" s="330"/>
+      <c r="P53" s="330"/>
+      <c r="Q53" s="330"/>
+      <c r="R53" s="330"/>
+      <c r="S53" s="330"/>
+      <c r="T53" s="331"/>
       <c r="U53" s="137"/>
       <c r="V53" s="136"/>
       <c r="W53" s="136"/>
@@ -9704,29 +9704,29 @@
     </row>
     <row r="54" spans="1:30" ht="13.2" customHeight="1">
       <c r="A54" s="135"/>
-      <c r="B54" s="315" t="s">
-        <v>21</v>
-      </c>
-      <c r="C54" s="316"/>
-      <c r="D54" s="316"/>
-      <c r="E54" s="316"/>
-      <c r="F54" s="316"/>
-      <c r="G54" s="316"/>
-      <c r="H54" s="317"/>
-      <c r="I54" s="323" t="s">
-        <v>261</v>
-      </c>
-      <c r="J54" s="323"/>
-      <c r="K54" s="323"/>
-      <c r="L54" s="323"/>
-      <c r="M54" s="332"/>
-      <c r="N54" s="333"/>
-      <c r="O54" s="333"/>
-      <c r="P54" s="333"/>
-      <c r="Q54" s="333"/>
-      <c r="R54" s="333"/>
-      <c r="S54" s="333"/>
-      <c r="T54" s="334"/>
+      <c r="B54" s="337" t="s">
+        <v>20</v>
+      </c>
+      <c r="C54" s="338"/>
+      <c r="D54" s="338"/>
+      <c r="E54" s="338"/>
+      <c r="F54" s="338"/>
+      <c r="G54" s="338"/>
+      <c r="H54" s="339"/>
+      <c r="I54" s="320" t="s">
+        <v>260</v>
+      </c>
+      <c r="J54" s="320"/>
+      <c r="K54" s="320"/>
+      <c r="L54" s="320"/>
+      <c r="M54" s="329"/>
+      <c r="N54" s="330"/>
+      <c r="O54" s="330"/>
+      <c r="P54" s="330"/>
+      <c r="Q54" s="330"/>
+      <c r="R54" s="330"/>
+      <c r="S54" s="330"/>
+      <c r="T54" s="331"/>
       <c r="U54" s="137"/>
       <c r="V54" s="136"/>
       <c r="W54" s="136"/>
@@ -9742,25 +9742,25 @@
         <v>1</v>
       </c>
       <c r="C55" s="143" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D55" s="143"/>
       <c r="E55" s="143"/>
       <c r="F55" s="143"/>
       <c r="G55" s="143"/>
       <c r="H55" s="144"/>
-      <c r="I55" s="323"/>
-      <c r="J55" s="323"/>
-      <c r="K55" s="323"/>
-      <c r="L55" s="323"/>
-      <c r="M55" s="332"/>
-      <c r="N55" s="333"/>
-      <c r="O55" s="333"/>
-      <c r="P55" s="333"/>
-      <c r="Q55" s="333"/>
-      <c r="R55" s="333"/>
-      <c r="S55" s="333"/>
-      <c r="T55" s="334"/>
+      <c r="I55" s="320"/>
+      <c r="J55" s="320"/>
+      <c r="K55" s="320"/>
+      <c r="L55" s="320"/>
+      <c r="M55" s="329"/>
+      <c r="N55" s="330"/>
+      <c r="O55" s="330"/>
+      <c r="P55" s="330"/>
+      <c r="Q55" s="330"/>
+      <c r="R55" s="330"/>
+      <c r="S55" s="330"/>
+      <c r="T55" s="331"/>
       <c r="U55" s="137"/>
       <c r="V55" s="136"/>
       <c r="W55" s="136"/>
@@ -9776,25 +9776,25 @@
         <v>2</v>
       </c>
       <c r="C56" s="143" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D56" s="143"/>
       <c r="E56" s="143"/>
       <c r="F56" s="143"/>
       <c r="G56" s="143"/>
       <c r="H56" s="144"/>
-      <c r="I56" s="323"/>
-      <c r="J56" s="323"/>
-      <c r="K56" s="323"/>
-      <c r="L56" s="323"/>
-      <c r="M56" s="332"/>
-      <c r="N56" s="333"/>
-      <c r="O56" s="333"/>
-      <c r="P56" s="333"/>
-      <c r="Q56" s="333"/>
-      <c r="R56" s="333"/>
-      <c r="S56" s="333"/>
-      <c r="T56" s="334"/>
+      <c r="I56" s="320"/>
+      <c r="J56" s="320"/>
+      <c r="K56" s="320"/>
+      <c r="L56" s="320"/>
+      <c r="M56" s="329"/>
+      <c r="N56" s="330"/>
+      <c r="O56" s="330"/>
+      <c r="P56" s="330"/>
+      <c r="Q56" s="330"/>
+      <c r="R56" s="330"/>
+      <c r="S56" s="330"/>
+      <c r="T56" s="331"/>
       <c r="U56" s="137"/>
       <c r="V56" s="136"/>
       <c r="W56" s="136"/>
@@ -9810,25 +9810,25 @@
         <v>3</v>
       </c>
       <c r="C57" s="143" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D57" s="143"/>
       <c r="E57" s="143"/>
       <c r="F57" s="143"/>
       <c r="G57" s="143"/>
       <c r="H57" s="144"/>
-      <c r="I57" s="323"/>
-      <c r="J57" s="323"/>
-      <c r="K57" s="323"/>
-      <c r="L57" s="323"/>
-      <c r="M57" s="332"/>
-      <c r="N57" s="333"/>
-      <c r="O57" s="333"/>
-      <c r="P57" s="333"/>
-      <c r="Q57" s="333"/>
-      <c r="R57" s="333"/>
-      <c r="S57" s="333"/>
-      <c r="T57" s="334"/>
+      <c r="I57" s="320"/>
+      <c r="J57" s="320"/>
+      <c r="K57" s="320"/>
+      <c r="L57" s="320"/>
+      <c r="M57" s="329"/>
+      <c r="N57" s="330"/>
+      <c r="O57" s="330"/>
+      <c r="P57" s="330"/>
+      <c r="Q57" s="330"/>
+      <c r="R57" s="330"/>
+      <c r="S57" s="330"/>
+      <c r="T57" s="331"/>
       <c r="U57" s="137"/>
       <c r="V57" s="136"/>
       <c r="W57" s="136"/>
@@ -9844,25 +9844,25 @@
         <v>4</v>
       </c>
       <c r="C58" s="143" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D58" s="143"/>
       <c r="E58" s="143"/>
       <c r="F58" s="143"/>
       <c r="G58" s="143"/>
       <c r="H58" s="144"/>
-      <c r="I58" s="323"/>
-      <c r="J58" s="323"/>
-      <c r="K58" s="323"/>
-      <c r="L58" s="323"/>
-      <c r="M58" s="332"/>
-      <c r="N58" s="333"/>
-      <c r="O58" s="333"/>
-      <c r="P58" s="333"/>
-      <c r="Q58" s="333"/>
-      <c r="R58" s="333"/>
-      <c r="S58" s="333"/>
-      <c r="T58" s="334"/>
+      <c r="I58" s="320"/>
+      <c r="J58" s="320"/>
+      <c r="K58" s="320"/>
+      <c r="L58" s="320"/>
+      <c r="M58" s="329"/>
+      <c r="N58" s="330"/>
+      <c r="O58" s="330"/>
+      <c r="P58" s="330"/>
+      <c r="Q58" s="330"/>
+      <c r="R58" s="330"/>
+      <c r="S58" s="330"/>
+      <c r="T58" s="331"/>
       <c r="U58" s="137"/>
       <c r="V58" s="136"/>
       <c r="W58" s="136"/>
@@ -9878,25 +9878,25 @@
         <v>5</v>
       </c>
       <c r="C59" s="145" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D59" s="145"/>
       <c r="E59" s="145"/>
       <c r="F59" s="145"/>
       <c r="G59" s="145"/>
       <c r="H59" s="146"/>
-      <c r="I59" s="323"/>
-      <c r="J59" s="323"/>
-      <c r="K59" s="323"/>
-      <c r="L59" s="323"/>
-      <c r="M59" s="335"/>
-      <c r="N59" s="336"/>
-      <c r="O59" s="336"/>
-      <c r="P59" s="336"/>
-      <c r="Q59" s="336"/>
-      <c r="R59" s="336"/>
-      <c r="S59" s="336"/>
-      <c r="T59" s="337"/>
+      <c r="I59" s="320"/>
+      <c r="J59" s="320"/>
+      <c r="K59" s="320"/>
+      <c r="L59" s="320"/>
+      <c r="M59" s="332"/>
+      <c r="N59" s="333"/>
+      <c r="O59" s="333"/>
+      <c r="P59" s="333"/>
+      <c r="Q59" s="333"/>
+      <c r="R59" s="333"/>
+      <c r="S59" s="333"/>
+      <c r="T59" s="334"/>
       <c r="U59" s="137"/>
       <c r="V59" s="136"/>
       <c r="W59" s="136"/>
@@ -9921,7 +9921,7 @@
       <c r="L60" s="133"/>
       <c r="M60" s="133"/>
       <c r="N60" s="133" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O60" s="133"/>
       <c r="P60" s="133"/>
@@ -9940,10 +9940,10 @@
     </row>
     <row r="61" spans="1:30" ht="17.25" customHeight="1">
       <c r="A61" s="147" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B61" s="148" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C61" s="148"/>
       <c r="D61" s="148"/>
@@ -9977,13 +9977,13 @@
     <row r="62" spans="1:30" ht="17.25" customHeight="1">
       <c r="A62" s="69"/>
       <c r="B62" s="150" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C62" s="151"/>
       <c r="D62" s="151"/>
       <c r="E62" s="152"/>
       <c r="F62" s="303" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G62" s="303"/>
       <c r="H62" s="303"/>
@@ -10013,15 +10013,15 @@
     <row r="63" spans="1:30" ht="17.25" customHeight="1">
       <c r="A63" s="69"/>
       <c r="B63" s="153" t="s">
+        <v>26</v>
+      </c>
+      <c r="C63" s="154"/>
+      <c r="D63" s="318" t="s">
         <v>27</v>
       </c>
-      <c r="C63" s="154"/>
-      <c r="D63" s="321" t="s">
-        <v>28</v>
-      </c>
-      <c r="E63" s="322"/>
+      <c r="E63" s="319"/>
       <c r="F63" s="303" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G63" s="303"/>
       <c r="H63" s="303"/>
@@ -10051,13 +10051,13 @@
     <row r="64" spans="1:30" ht="17.25" customHeight="1">
       <c r="A64" s="69"/>
       <c r="B64" s="150" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C64" s="151"/>
       <c r="D64" s="151"/>
       <c r="E64" s="152"/>
       <c r="F64" s="303" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G64" s="303"/>
       <c r="H64" s="303"/>
@@ -10087,13 +10087,13 @@
     <row r="65" spans="1:30" ht="17.25" customHeight="1">
       <c r="A65" s="69"/>
       <c r="B65" s="150" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C65" s="151"/>
       <c r="D65" s="151"/>
       <c r="E65" s="152"/>
       <c r="F65" s="303" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G65" s="303"/>
       <c r="H65" s="303"/>
@@ -10123,13 +10123,13 @@
     <row r="66" spans="1:30" ht="17.25" customHeight="1">
       <c r="A66" s="69"/>
       <c r="B66" s="150" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C66" s="151"/>
       <c r="D66" s="151"/>
       <c r="E66" s="152"/>
       <c r="F66" s="303" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G66" s="303"/>
       <c r="H66" s="303"/>
@@ -10158,14 +10158,14 @@
     </row>
     <row r="67" spans="1:30" ht="17.25" customHeight="1">
       <c r="A67" s="69"/>
-      <c r="B67" s="320" t="s">
-        <v>51</v>
-      </c>
-      <c r="C67" s="321"/>
-      <c r="D67" s="321"/>
-      <c r="E67" s="322"/>
+      <c r="B67" s="317" t="s">
+        <v>50</v>
+      </c>
+      <c r="C67" s="318"/>
+      <c r="D67" s="318"/>
+      <c r="E67" s="319"/>
       <c r="F67" s="303" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G67" s="303"/>
       <c r="H67" s="303"/>
@@ -10195,13 +10195,13 @@
     <row r="68" spans="1:30" ht="17.25" customHeight="1">
       <c r="A68" s="69"/>
       <c r="B68" s="150" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C68" s="151"/>
       <c r="D68" s="151"/>
       <c r="E68" s="152"/>
       <c r="F68" s="303" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G68" s="303"/>
       <c r="H68" s="303"/>
@@ -10231,13 +10231,13 @@
     <row r="69" spans="1:30" ht="17.25" customHeight="1">
       <c r="A69" s="69"/>
       <c r="B69" s="150" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C69" s="151"/>
       <c r="D69" s="151"/>
       <c r="E69" s="152"/>
       <c r="F69" s="303" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G69" s="303"/>
       <c r="H69" s="303"/>
@@ -10267,13 +10267,13 @@
     <row r="70" spans="1:30" ht="13.5" customHeight="1">
       <c r="A70" s="69"/>
       <c r="B70" s="150" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C70" s="151"/>
       <c r="D70" s="151"/>
       <c r="E70" s="152"/>
       <c r="F70" s="300" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G70" s="301"/>
       <c r="H70" s="301"/>
@@ -10302,7 +10302,7 @@
     </row>
     <row r="71" spans="1:30" ht="15.75" customHeight="1">
       <c r="A71" s="157" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B71" s="69"/>
       <c r="C71" s="158"/>
@@ -10346,17 +10346,12 @@
     </row>
     <row r="75" spans="1:30" ht="17.25" customHeight="1">
       <c r="R75" s="45" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
   <mergeCells count="221">
-    <mergeCell ref="K63:O63"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="M33:N33"/>
-    <mergeCell ref="M44:N44"/>
-    <mergeCell ref="I51:L51"/>
     <mergeCell ref="I52:L52"/>
     <mergeCell ref="O42:P42"/>
     <mergeCell ref="L45:N45"/>
@@ -10369,6 +10364,7 @@
     <mergeCell ref="M46:N46"/>
     <mergeCell ref="J45:K45"/>
     <mergeCell ref="K46:L46"/>
+    <mergeCell ref="F62:J62"/>
     <mergeCell ref="D5:H5"/>
     <mergeCell ref="I53:L53"/>
     <mergeCell ref="M48:T48"/>
@@ -10391,7 +10387,8 @@
     <mergeCell ref="L27:N27"/>
     <mergeCell ref="O34:P34"/>
     <mergeCell ref="B54:H54"/>
-    <mergeCell ref="F62:J62"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="T26:V26"/>
     <mergeCell ref="F64:J64"/>
     <mergeCell ref="F63:J63"/>
     <mergeCell ref="F65:J65"/>
@@ -10413,8 +10410,9 @@
     <mergeCell ref="H38:I38"/>
     <mergeCell ref="K64:O64"/>
     <mergeCell ref="D63:E63"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="T26:V26"/>
+    <mergeCell ref="K63:O63"/>
+    <mergeCell ref="M44:N44"/>
+    <mergeCell ref="I51:L51"/>
     <mergeCell ref="D22:F22"/>
     <mergeCell ref="M25:N25"/>
     <mergeCell ref="M22:N22"/>
@@ -10437,6 +10435,8 @@
     <mergeCell ref="M40:N40"/>
     <mergeCell ref="H40:I40"/>
     <mergeCell ref="M26:N26"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="M33:N33"/>
     <mergeCell ref="Z64:AD64"/>
     <mergeCell ref="U64:Y64"/>
     <mergeCell ref="P64:T64"/>
@@ -10598,7 +10598,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB45"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView showGridLines="0" showRowColHeaders="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="V14" sqref="V14:W14"/>
     </sheetView>
   </sheetViews>
@@ -10614,18 +10614,18 @@
     <row r="1" spans="1:28"/>
     <row r="2" spans="1:28">
       <c r="A2" s="2" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="3" spans="1:28">
       <c r="A3" s="3" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="4" spans="1:28"/>
     <row r="5" spans="1:28">
       <c r="A5" s="2" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="B5" s="38"/>
       <c r="C5" s="38"/>
@@ -10660,7 +10660,7 @@
     </row>
     <row r="7" spans="1:28">
       <c r="B7" s="7" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
@@ -10683,69 +10683,69 @@
     </row>
     <row r="8" spans="1:28">
       <c r="B8" s="346" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="C8" s="346"/>
       <c r="D8" s="346"/>
       <c r="E8" s="346"/>
       <c r="F8" s="344" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="G8" s="345"/>
       <c r="J8" s="346" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="K8" s="346"/>
       <c r="L8" s="346"/>
       <c r="M8" s="347"/>
       <c r="N8" s="344" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="O8" s="345"/>
       <c r="R8" s="8"/>
     </row>
     <row r="9" spans="1:28">
       <c r="B9" s="346" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="C9" s="346"/>
       <c r="D9" s="346"/>
       <c r="E9" s="346"/>
       <c r="F9" s="344" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="G9" s="345"/>
       <c r="J9" s="346" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="K9" s="346"/>
       <c r="L9" s="346"/>
       <c r="M9" s="347"/>
       <c r="N9" s="344" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="O9" s="345"/>
       <c r="R9" s="8"/>
     </row>
     <row r="10" spans="1:28">
       <c r="B10" s="346" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="C10" s="346"/>
       <c r="D10" s="346"/>
       <c r="E10" s="346"/>
       <c r="F10" s="344" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="G10" s="345"/>
       <c r="J10" s="346" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="K10" s="346"/>
       <c r="L10" s="346"/>
       <c r="M10" s="347"/>
       <c r="N10" s="344" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="O10" s="345"/>
       <c r="R10" s="8"/>
@@ -10780,33 +10780,33 @@
     </row>
     <row r="13" spans="1:28">
       <c r="B13" s="358" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="C13" s="358"/>
       <c r="D13" s="358"/>
       <c r="E13" s="344" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="F13" s="345"/>
       <c r="H13" s="12" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="I13" s="12"/>
       <c r="J13" s="12"/>
       <c r="K13" s="353" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="L13" s="353" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="M13" s="11"/>
       <c r="N13" s="358" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="O13" s="358"/>
       <c r="P13" s="358"/>
       <c r="Q13" s="344" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="R13" s="345"/>
       <c r="S13" s="13"/>
@@ -10814,71 +10814,71 @@
     </row>
     <row r="14" spans="1:28">
       <c r="B14" s="358" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="C14" s="358"/>
       <c r="D14" s="358"/>
       <c r="E14" s="344" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="F14" s="345"/>
       <c r="H14" s="12" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="I14" s="12"/>
       <c r="J14" s="12"/>
       <c r="K14" s="353" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="L14" s="353"/>
       <c r="M14" s="11"/>
       <c r="N14" s="358" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="O14" s="358"/>
       <c r="P14" s="358"/>
       <c r="Q14" s="344" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="R14" s="345"/>
       <c r="T14" s="358" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="U14" s="358"/>
       <c r="V14" s="344" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="W14" s="345"/>
     </row>
     <row r="15" spans="1:28">
       <c r="B15" s="358" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="C15" s="358"/>
       <c r="D15" s="358"/>
       <c r="E15" s="344" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="F15" s="345"/>
       <c r="H15" s="12" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="I15" s="12"/>
       <c r="J15" s="12"/>
       <c r="K15" s="353" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="L15" s="353" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="M15" s="11"/>
       <c r="N15" s="358" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="O15" s="358"/>
       <c r="P15" s="358"/>
       <c r="Q15" s="344" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="R15" s="345"/>
       <c r="S15" s="13"/>
@@ -10891,7 +10891,7 @@
     </row>
     <row r="17" spans="2:22">
       <c r="B17" s="15" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
@@ -10909,59 +10909,59 @@
     </row>
     <row r="18" spans="2:22" ht="15" customHeight="1">
       <c r="B18" s="20" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="C18" s="20"/>
       <c r="D18" s="5"/>
       <c r="E18" s="16"/>
       <c r="F18" s="351" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="G18" s="352"/>
       <c r="H18" s="344" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="I18" s="345"/>
       <c r="J18" s="16"/>
       <c r="K18" s="351" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="L18" s="352"/>
       <c r="M18" s="344" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="N18" s="345"/>
       <c r="O18" s="19"/>
     </row>
     <row r="19" spans="2:22" ht="15" customHeight="1">
       <c r="B19" s="20" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
       <c r="E19" s="16"/>
       <c r="F19" s="351" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="G19" s="352"/>
       <c r="H19" s="344" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="I19" s="345"/>
       <c r="J19" s="16"/>
       <c r="K19" s="351" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="L19" s="352"/>
       <c r="M19" s="344" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="N19" s="345"/>
       <c r="O19" s="19"/>
     </row>
     <row r="20" spans="2:22">
       <c r="B20" s="20" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
@@ -10979,7 +10979,7 @@
     </row>
     <row r="22" spans="2:22">
       <c r="B22" s="15" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
@@ -11004,7 +11004,7 @@
     </row>
     <row r="23" spans="2:22">
       <c r="B23" s="20" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
@@ -11012,15 +11012,15 @@
       <c r="F23" s="16"/>
       <c r="G23" s="4"/>
       <c r="H23" s="353" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="I23" s="353" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="J23" s="16"/>
       <c r="K23" s="16"/>
       <c r="L23" s="354" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="M23" s="355"/>
       <c r="N23" s="356"/>
@@ -11035,7 +11035,7 @@
     </row>
     <row r="24" spans="2:22">
       <c r="B24" s="360" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="C24" s="360"/>
       <c r="D24" s="360"/>
@@ -11060,7 +11060,7 @@
     </row>
     <row r="25" spans="2:22">
       <c r="B25" s="22" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
@@ -11108,7 +11108,7 @@
     </row>
     <row r="28" spans="2:22">
       <c r="B28" s="15" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
@@ -11128,21 +11128,21 @@
     </row>
     <row r="29" spans="2:22">
       <c r="B29" s="4" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="C29" s="356" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="D29" s="359"/>
       <c r="E29" s="359"/>
       <c r="F29" s="357"/>
       <c r="H29" s="366" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="I29" s="366"/>
       <c r="J29" s="366"/>
       <c r="K29" s="27" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="L29" s="28"/>
       <c r="M29" s="27"/>
@@ -11150,7 +11150,7 @@
     </row>
     <row r="30" spans="2:22">
       <c r="B30" s="29" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="C30" s="31"/>
       <c r="D30" s="31"/>
@@ -11170,7 +11170,7 @@
     </row>
     <row r="31" spans="2:22">
       <c r="B31" s="31" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="C31" s="31"/>
       <c r="D31" s="31"/>
@@ -11190,7 +11190,7 @@
     </row>
     <row r="32" spans="2:22">
       <c r="B32" s="29" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="C32" s="31"/>
       <c r="D32" s="31"/>
@@ -11228,7 +11228,7 @@
     </row>
     <row r="34" spans="1:25">
       <c r="A34" s="2" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="B34" s="39"/>
       <c r="C34" s="39"/>
@@ -11258,33 +11258,33 @@
     <row r="35" spans="1:25">
       <c r="A35" s="41"/>
       <c r="B35" s="374" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="C35" s="375"/>
       <c r="D35" s="375"/>
       <c r="E35" s="375"/>
       <c r="F35" s="376"/>
       <c r="G35" s="364" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="H35" s="364"/>
       <c r="I35" s="364"/>
       <c r="J35" s="364"/>
       <c r="K35" s="364"/>
       <c r="L35" s="42" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="M35" s="371"/>
       <c r="N35" s="372"/>
       <c r="O35" s="373"/>
       <c r="P35" s="378" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="Q35" s="379"/>
       <c r="R35" s="379"/>
       <c r="S35" s="380"/>
       <c r="T35" s="361" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="U35" s="362"/>
       <c r="V35" s="362"/>
@@ -11295,7 +11295,7 @@
     <row r="36" spans="1:25">
       <c r="A36" s="41"/>
       <c r="B36" s="43" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C36" s="42"/>
       <c r="D36" s="42"/>
@@ -11311,13 +11311,13 @@
       <c r="N36" s="368"/>
       <c r="O36" s="369"/>
       <c r="P36" s="378" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="Q36" s="379"/>
       <c r="R36" s="379"/>
       <c r="S36" s="380"/>
       <c r="T36" s="364" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="U36" s="364"/>
       <c r="V36" s="364"/>
@@ -11328,14 +11328,14 @@
     <row r="37" spans="1:25" ht="14.4" customHeight="1">
       <c r="A37" s="41"/>
       <c r="B37" s="377" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="C37" s="377"/>
       <c r="D37" s="377"/>
       <c r="E37" s="377"/>
       <c r="F37" s="377"/>
       <c r="G37" s="365" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="H37" s="365"/>
       <c r="I37" s="365"/>
@@ -11346,13 +11346,13 @@
       <c r="N37" s="365"/>
       <c r="O37" s="365"/>
       <c r="P37" s="381" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="Q37" s="381"/>
       <c r="R37" s="381"/>
       <c r="S37" s="381"/>
       <c r="T37" s="370" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="U37" s="370"/>
       <c r="V37" s="370"/>
@@ -11363,11 +11363,11 @@
     <row r="38" spans="1:25" customFormat="1" ht="14.4" customHeight="1"/>
     <row r="39" spans="1:25">
       <c r="B39" s="342" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="C39" s="342"/>
       <c r="D39" s="343" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E39" s="343"/>
       <c r="F39" s="343"/>
@@ -11382,10 +11382,10 @@
       <c r="O39" s="5"/>
       <c r="P39" s="5"/>
       <c r="Q39" s="35" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="R39" s="343" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="S39" s="343"/>
       <c r="T39" s="343"/>
@@ -11421,7 +11421,7 @@
     </row>
     <row r="41" spans="1:25">
       <c r="B41" s="37" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="C41" s="340"/>
       <c r="D41" s="340"/>
@@ -11430,7 +11430,7 @@
       <c r="G41" s="340"/>
       <c r="H41" s="5"/>
       <c r="I41" s="4" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="J41" s="340"/>
       <c r="K41" s="340"/>
@@ -11440,7 +11440,7 @@
       <c r="O41" s="340"/>
       <c r="P41" s="5"/>
       <c r="Q41" s="4" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="R41" s="341"/>
       <c r="S41" s="341"/>
@@ -11452,7 +11452,7 @@
     </row>
     <row r="42" spans="1:25">
       <c r="B42" s="37" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="C42" s="340"/>
       <c r="D42" s="340"/>
@@ -11461,7 +11461,7 @@
       <c r="G42" s="340"/>
       <c r="H42" s="5"/>
       <c r="I42" s="4" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="J42" s="340"/>
       <c r="K42" s="340"/>
@@ -11471,7 +11471,7 @@
       <c r="O42" s="340"/>
       <c r="P42" s="5"/>
       <c r="Q42" s="4" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="R42" s="341"/>
       <c r="S42" s="341"/>
@@ -11483,7 +11483,7 @@
     </row>
     <row r="43" spans="1:25">
       <c r="B43" s="37" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C43" s="340"/>
       <c r="D43" s="340"/>
@@ -11492,7 +11492,7 @@
       <c r="G43" s="340"/>
       <c r="H43" s="5"/>
       <c r="I43" s="4" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="J43" s="340"/>
       <c r="K43" s="340"/>
@@ -11502,7 +11502,7 @@
       <c r="O43" s="340"/>
       <c r="P43" s="5"/>
       <c r="Q43" s="4" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="R43" s="341"/>
       <c r="S43" s="341"/>
@@ -11649,8 +11649,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BW1041"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A42" sqref="A42:B74"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:AB3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.33203125" defaultRowHeight="15.6"/>
@@ -11684,15 +11684,15 @@
     </row>
     <row r="2" spans="1:75" ht="54.6" customHeight="1">
       <c r="A2" s="165" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B2" s="410" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C2" s="410"/>
       <c r="D2" s="410"/>
       <c r="E2" s="387" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F2" s="388"/>
       <c r="G2" s="388"/>
@@ -11743,10 +11743,10 @@
     </row>
     <row r="3" spans="1:75" ht="46.8" customHeight="1" thickBot="1">
       <c r="A3" s="165" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B3" s="410" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C3" s="410"/>
       <c r="D3" s="410"/>
@@ -11883,19 +11883,19 @@
     </row>
     <row r="5" spans="1:75" ht="18" customHeight="1">
       <c r="A5" s="420" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B5" s="393" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C5" s="415" t="s">
         <v>2</v>
       </c>
       <c r="D5" s="395" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="E5" s="400" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="F5" s="401"/>
       <c r="G5" s="172"/>
@@ -12047,19 +12047,19 @@
     </row>
     <row r="7" spans="1:75">
       <c r="A7" s="397" t="s">
+        <v>330</v>
+      </c>
+      <c r="B7" s="418" t="s">
         <v>331</v>
       </c>
-      <c r="B7" s="418" t="s">
+      <c r="C7" s="397" t="s">
         <v>332</v>
       </c>
-      <c r="C7" s="397" t="s">
+      <c r="D7" s="399" t="s">
         <v>333</v>
       </c>
-      <c r="D7" s="399" t="s">
-        <v>334</v>
-      </c>
       <c r="E7" s="413" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="F7" s="414"/>
       <c r="G7" s="117"/>
@@ -12116,7 +12116,7 @@
       <c r="C8" s="397"/>
       <c r="D8" s="399"/>
       <c r="E8" s="413" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="F8" s="414"/>
       <c r="G8" s="117"/>
@@ -12166,19 +12166,19 @@
     </row>
     <row r="9" spans="1:75">
       <c r="A9" s="397" t="s">
+        <v>334</v>
+      </c>
+      <c r="B9" s="398" t="s">
         <v>335</v>
       </c>
-      <c r="B9" s="398" t="s">
+      <c r="C9" s="397" t="s">
         <v>336</v>
       </c>
-      <c r="C9" s="397" t="s">
+      <c r="D9" s="399" t="s">
         <v>337</v>
       </c>
-      <c r="D9" s="399" t="s">
-        <v>338</v>
-      </c>
       <c r="E9" s="413" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="F9" s="414"/>
       <c r="G9" s="117"/>
@@ -12232,7 +12232,7 @@
       <c r="C10" s="397"/>
       <c r="D10" s="399"/>
       <c r="E10" s="413" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="F10" s="414"/>
       <c r="G10" s="117"/>
@@ -12286,19 +12286,19 @@
     </row>
     <row r="11" spans="1:75">
       <c r="A11" s="397" t="s">
+        <v>338</v>
+      </c>
+      <c r="B11" s="398" t="s">
         <v>339</v>
       </c>
-      <c r="B11" s="398" t="s">
+      <c r="C11" s="397" t="s">
         <v>340</v>
       </c>
-      <c r="C11" s="397" t="s">
+      <c r="D11" s="399" t="s">
         <v>341</v>
       </c>
-      <c r="D11" s="399" t="s">
-        <v>342</v>
-      </c>
       <c r="E11" s="413" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="F11" s="414"/>
       <c r="G11" s="117"/>
@@ -12357,7 +12357,7 @@
       <c r="C12" s="397"/>
       <c r="D12" s="399"/>
       <c r="E12" s="413" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="F12" s="414"/>
       <c r="G12" s="117"/>
@@ -12412,19 +12412,19 @@
     </row>
     <row r="13" spans="1:75">
       <c r="A13" s="397" t="s">
+        <v>342</v>
+      </c>
+      <c r="B13" s="398" t="s">
         <v>343</v>
       </c>
-      <c r="B13" s="398" t="s">
+      <c r="C13" s="397" t="s">
         <v>344</v>
       </c>
-      <c r="C13" s="397" t="s">
+      <c r="D13" s="399" t="s">
         <v>345</v>
       </c>
-      <c r="D13" s="399" t="s">
-        <v>346</v>
-      </c>
       <c r="E13" s="413" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="F13" s="414"/>
       <c r="G13" s="117"/>
@@ -12483,7 +12483,7 @@
       <c r="C14" s="397"/>
       <c r="D14" s="399"/>
       <c r="E14" s="413" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="F14" s="414"/>
       <c r="G14" s="117"/>
@@ -12538,19 +12538,19 @@
     </row>
     <row r="15" spans="1:75">
       <c r="A15" s="397" t="s">
+        <v>346</v>
+      </c>
+      <c r="B15" s="398" t="s">
         <v>347</v>
       </c>
-      <c r="B15" s="398" t="s">
+      <c r="C15" s="397" t="s">
         <v>348</v>
       </c>
-      <c r="C15" s="397" t="s">
+      <c r="D15" s="399" t="s">
         <v>349</v>
       </c>
-      <c r="D15" s="399" t="s">
-        <v>350</v>
-      </c>
       <c r="E15" s="413" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="F15" s="414"/>
       <c r="G15" s="117"/>
@@ -12609,7 +12609,7 @@
       <c r="C16" s="397"/>
       <c r="D16" s="399"/>
       <c r="E16" s="413" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="F16" s="414"/>
       <c r="G16" s="117"/>
@@ -12659,19 +12659,19 @@
     </row>
     <row r="17" spans="1:75">
       <c r="A17" s="397" t="s">
+        <v>350</v>
+      </c>
+      <c r="B17" s="398" t="s">
         <v>351</v>
       </c>
-      <c r="B17" s="398" t="s">
+      <c r="C17" s="397" t="s">
         <v>352</v>
       </c>
-      <c r="C17" s="397" t="s">
+      <c r="D17" s="399" t="s">
         <v>353</v>
       </c>
-      <c r="D17" s="399" t="s">
-        <v>354</v>
-      </c>
       <c r="E17" s="413" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="F17" s="414"/>
       <c r="G17" s="117"/>
@@ -12725,7 +12725,7 @@
       <c r="C18" s="397"/>
       <c r="D18" s="399"/>
       <c r="E18" s="413" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="F18" s="414"/>
       <c r="G18" s="117"/>
@@ -12783,19 +12783,19 @@
     </row>
     <row r="19" spans="1:75">
       <c r="A19" s="397" t="s">
+        <v>354</v>
+      </c>
+      <c r="B19" s="398" t="s">
         <v>355</v>
       </c>
-      <c r="B19" s="398" t="s">
+      <c r="C19" s="397" t="s">
         <v>356</v>
       </c>
-      <c r="C19" s="397" t="s">
+      <c r="D19" s="399" t="s">
         <v>357</v>
       </c>
-      <c r="D19" s="399" t="s">
-        <v>358</v>
-      </c>
       <c r="E19" s="413" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="F19" s="414"/>
       <c r="G19" s="117"/>
@@ -12849,7 +12849,7 @@
       <c r="C20" s="397"/>
       <c r="D20" s="399"/>
       <c r="E20" s="413" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="F20" s="414"/>
       <c r="G20" s="117"/>
@@ -12899,19 +12899,19 @@
     </row>
     <row r="21" spans="1:75">
       <c r="A21" s="397" t="s">
+        <v>358</v>
+      </c>
+      <c r="B21" s="398" t="s">
         <v>359</v>
       </c>
-      <c r="B21" s="398" t="s">
+      <c r="C21" s="397" t="s">
         <v>360</v>
       </c>
-      <c r="C21" s="397" t="s">
+      <c r="D21" s="399" t="s">
         <v>361</v>
       </c>
-      <c r="D21" s="399" t="s">
-        <v>362</v>
-      </c>
       <c r="E21" s="413" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="F21" s="414"/>
       <c r="G21" s="117"/>
@@ -12965,7 +12965,7 @@
       <c r="C22" s="397"/>
       <c r="D22" s="399"/>
       <c r="E22" s="413" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="F22" s="414"/>
       <c r="G22" s="117"/>
@@ -13015,19 +13015,19 @@
     </row>
     <row r="23" spans="1:75">
       <c r="A23" s="397" t="s">
+        <v>362</v>
+      </c>
+      <c r="B23" s="398" t="s">
         <v>363</v>
       </c>
-      <c r="B23" s="398" t="s">
+      <c r="C23" s="397" t="s">
         <v>364</v>
       </c>
-      <c r="C23" s="397" t="s">
+      <c r="D23" s="399" t="s">
         <v>365</v>
       </c>
-      <c r="D23" s="399" t="s">
-        <v>366</v>
-      </c>
       <c r="E23" s="413" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="F23" s="414"/>
       <c r="G23" s="117"/>
@@ -13081,7 +13081,7 @@
       <c r="C24" s="397"/>
       <c r="D24" s="399"/>
       <c r="E24" s="413" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="F24" s="414"/>
       <c r="G24" s="117"/>
@@ -13131,19 +13131,19 @@
     </row>
     <row r="25" spans="1:75">
       <c r="A25" s="397" t="s">
+        <v>366</v>
+      </c>
+      <c r="B25" s="398" t="s">
         <v>367</v>
       </c>
-      <c r="B25" s="398" t="s">
+      <c r="C25" s="397" t="s">
         <v>368</v>
       </c>
-      <c r="C25" s="397" t="s">
+      <c r="D25" s="399" t="s">
         <v>369</v>
       </c>
-      <c r="D25" s="399" t="s">
-        <v>370</v>
-      </c>
       <c r="E25" s="413" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="F25" s="414"/>
       <c r="G25" s="117"/>
@@ -13197,7 +13197,7 @@
       <c r="C26" s="397"/>
       <c r="D26" s="399"/>
       <c r="E26" s="413" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="F26" s="414"/>
       <c r="G26" s="117"/>
@@ -13247,19 +13247,19 @@
     </row>
     <row r="27" spans="1:75">
       <c r="A27" s="397" t="s">
+        <v>370</v>
+      </c>
+      <c r="B27" s="398" t="s">
         <v>371</v>
       </c>
-      <c r="B27" s="398" t="s">
+      <c r="C27" s="397" t="s">
         <v>372</v>
       </c>
-      <c r="C27" s="397" t="s">
+      <c r="D27" s="399" t="s">
         <v>373</v>
       </c>
-      <c r="D27" s="399" t="s">
-        <v>374</v>
-      </c>
       <c r="E27" s="413" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="F27" s="414"/>
       <c r="G27" s="117"/>
@@ -13313,7 +13313,7 @@
       <c r="C28" s="397"/>
       <c r="D28" s="399"/>
       <c r="E28" s="413" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="F28" s="414"/>
       <c r="G28" s="117"/>
@@ -13363,19 +13363,19 @@
     </row>
     <row r="29" spans="1:75">
       <c r="A29" s="397" t="s">
+        <v>374</v>
+      </c>
+      <c r="B29" s="398" t="s">
         <v>375</v>
       </c>
-      <c r="B29" s="398" t="s">
+      <c r="C29" s="397" t="s">
         <v>376</v>
       </c>
-      <c r="C29" s="397" t="s">
+      <c r="D29" s="399" t="s">
         <v>377</v>
       </c>
-      <c r="D29" s="399" t="s">
-        <v>378</v>
-      </c>
       <c r="E29" s="413" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="F29" s="414"/>
       <c r="G29" s="117"/>
@@ -13429,7 +13429,7 @@
       <c r="C30" s="397"/>
       <c r="D30" s="399"/>
       <c r="E30" s="413" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="F30" s="414"/>
       <c r="G30" s="117"/>
@@ -13479,19 +13479,19 @@
     </row>
     <row r="31" spans="1:75">
       <c r="A31" s="397" t="s">
+        <v>378</v>
+      </c>
+      <c r="B31" s="398" t="s">
         <v>379</v>
       </c>
-      <c r="B31" s="398" t="s">
+      <c r="C31" s="397" t="s">
         <v>380</v>
       </c>
-      <c r="C31" s="397" t="s">
+      <c r="D31" s="399" t="s">
         <v>381</v>
       </c>
-      <c r="D31" s="399" t="s">
-        <v>382</v>
-      </c>
       <c r="E31" s="413" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="F31" s="414"/>
       <c r="G31" s="117"/>
@@ -13545,7 +13545,7 @@
       <c r="C32" s="397"/>
       <c r="D32" s="399"/>
       <c r="E32" s="413" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="F32" s="414"/>
       <c r="G32" s="117"/>
@@ -13595,19 +13595,19 @@
     </row>
     <row r="33" spans="1:75">
       <c r="A33" s="397" t="s">
+        <v>382</v>
+      </c>
+      <c r="B33" s="398" t="s">
         <v>383</v>
       </c>
-      <c r="B33" s="398" t="s">
+      <c r="C33" s="397" t="s">
         <v>384</v>
       </c>
-      <c r="C33" s="397" t="s">
+      <c r="D33" s="399" t="s">
         <v>385</v>
       </c>
-      <c r="D33" s="399" t="s">
-        <v>386</v>
-      </c>
       <c r="E33" s="413" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="F33" s="414"/>
       <c r="G33" s="117"/>
@@ -13661,7 +13661,7 @@
       <c r="C34" s="397"/>
       <c r="D34" s="399"/>
       <c r="E34" s="413" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="F34" s="414"/>
       <c r="G34" s="117"/>
@@ -13711,19 +13711,19 @@
     </row>
     <row r="35" spans="1:75">
       <c r="A35" s="397" t="s">
+        <v>386</v>
+      </c>
+      <c r="B35" s="398" t="s">
         <v>387</v>
       </c>
-      <c r="B35" s="398" t="s">
+      <c r="C35" s="397" t="s">
         <v>388</v>
       </c>
-      <c r="C35" s="397" t="s">
+      <c r="D35" s="399" t="s">
         <v>389</v>
       </c>
-      <c r="D35" s="399" t="s">
-        <v>390</v>
-      </c>
       <c r="E35" s="413" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="F35" s="414"/>
       <c r="G35" s="117"/>
@@ -13777,7 +13777,7 @@
       <c r="C36" s="397"/>
       <c r="D36" s="399"/>
       <c r="E36" s="413" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="F36" s="414"/>
       <c r="G36" s="117"/>
@@ -13827,19 +13827,19 @@
     </row>
     <row r="37" spans="1:75">
       <c r="A37" s="397" t="s">
+        <v>390</v>
+      </c>
+      <c r="B37" s="398" t="s">
         <v>391</v>
       </c>
-      <c r="B37" s="398" t="s">
+      <c r="C37" s="397" t="s">
         <v>392</v>
       </c>
-      <c r="C37" s="397" t="s">
+      <c r="D37" s="399" t="s">
         <v>393</v>
       </c>
-      <c r="D37" s="399" t="s">
-        <v>394</v>
-      </c>
       <c r="E37" s="413" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="F37" s="414"/>
       <c r="G37" s="117"/>
@@ -13893,7 +13893,7 @@
       <c r="C38" s="397"/>
       <c r="D38" s="399"/>
       <c r="E38" s="413" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="F38" s="414"/>
       <c r="G38" s="117"/>
@@ -13943,19 +13943,19 @@
     </row>
     <row r="39" spans="1:75">
       <c r="A39" s="397" t="s">
+        <v>394</v>
+      </c>
+      <c r="B39" s="398" t="s">
         <v>395</v>
       </c>
-      <c r="B39" s="398" t="s">
+      <c r="C39" s="397" t="s">
         <v>396</v>
       </c>
-      <c r="C39" s="397" t="s">
+      <c r="D39" s="399" t="s">
         <v>397</v>
       </c>
-      <c r="D39" s="399" t="s">
-        <v>398</v>
-      </c>
       <c r="E39" s="413" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="F39" s="414"/>
       <c r="G39" s="117"/>
@@ -14009,7 +14009,7 @@
       <c r="C40" s="397"/>
       <c r="D40" s="399"/>
       <c r="E40" s="413" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="F40" s="414"/>
       <c r="G40" s="117"/>
@@ -14083,7 +14083,7 @@
     </row>
     <row r="41" spans="1:75" ht="45.75" customHeight="1">
       <c r="A41" s="384" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B41" s="385"/>
       <c r="C41" s="385"/>
@@ -14091,7 +14091,7 @@
       <c r="E41" s="385"/>
       <c r="F41" s="386"/>
       <c r="G41" s="382" t="s">
-        <v>414</v>
+        <v>583</v>
       </c>
       <c r="H41" s="383"/>
       <c r="I41" s="117"/>
@@ -14162,15 +14162,15 @@
     </row>
     <row r="42" spans="1:75" s="195" customFormat="1" ht="15" customHeight="1">
       <c r="A42" s="425" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B42" s="426"/>
       <c r="C42" s="429" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D42" s="430"/>
       <c r="E42" s="413" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="F42" s="414"/>
       <c r="G42" s="117"/>
@@ -14247,7 +14247,7 @@
       <c r="C43" s="431"/>
       <c r="D43" s="432"/>
       <c r="E43" s="423" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="F43" s="424"/>
       <c r="G43" s="117"/>
@@ -14322,11 +14322,11 @@
       <c r="A44" s="425"/>
       <c r="B44" s="426"/>
       <c r="C44" s="433" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D44" s="434"/>
       <c r="E44" s="413" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="F44" s="414"/>
       <c r="G44" s="117"/>
@@ -14403,7 +14403,7 @@
       <c r="C45" s="431"/>
       <c r="D45" s="432"/>
       <c r="E45" s="423" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="F45" s="424"/>
       <c r="G45" s="117"/>
@@ -14478,11 +14478,11 @@
       <c r="A46" s="425"/>
       <c r="B46" s="426"/>
       <c r="C46" s="433" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D46" s="434"/>
       <c r="E46" s="413" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="F46" s="414"/>
       <c r="G46" s="117"/>
@@ -14559,7 +14559,7 @@
       <c r="C47" s="431"/>
       <c r="D47" s="432"/>
       <c r="E47" s="423" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="F47" s="424"/>
       <c r="G47" s="117"/>
@@ -14634,11 +14634,11 @@
       <c r="A48" s="425"/>
       <c r="B48" s="426"/>
       <c r="C48" s="433" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D48" s="434"/>
       <c r="E48" s="413" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="F48" s="414"/>
       <c r="G48" s="117"/>
@@ -14715,7 +14715,7 @@
       <c r="C49" s="431"/>
       <c r="D49" s="432"/>
       <c r="E49" s="423" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="F49" s="424"/>
       <c r="G49" s="117"/>
@@ -14790,11 +14790,11 @@
       <c r="A50" s="425"/>
       <c r="B50" s="426"/>
       <c r="C50" s="433" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D50" s="434"/>
       <c r="E50" s="413" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="F50" s="414"/>
       <c r="G50" s="117"/>
@@ -14871,7 +14871,7 @@
       <c r="C51" s="431"/>
       <c r="D51" s="432"/>
       <c r="E51" s="423" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="F51" s="424"/>
       <c r="G51" s="117"/>
@@ -14946,11 +14946,11 @@
       <c r="A52" s="425"/>
       <c r="B52" s="426"/>
       <c r="C52" s="433" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D52" s="434"/>
       <c r="E52" s="413" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="F52" s="414"/>
       <c r="G52" s="117"/>
@@ -15027,7 +15027,7 @@
       <c r="C53" s="431"/>
       <c r="D53" s="432"/>
       <c r="E53" s="423" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="F53" s="424"/>
       <c r="G53" s="117"/>
@@ -15102,11 +15102,11 @@
       <c r="A54" s="425"/>
       <c r="B54" s="426"/>
       <c r="C54" s="433" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D54" s="434"/>
       <c r="E54" s="413" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="F54" s="414"/>
       <c r="G54" s="117"/>
@@ -15183,7 +15183,7 @@
       <c r="C55" s="431"/>
       <c r="D55" s="432"/>
       <c r="E55" s="423" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="F55" s="424"/>
       <c r="G55" s="117"/>
@@ -15258,11 +15258,11 @@
       <c r="A56" s="425"/>
       <c r="B56" s="426"/>
       <c r="C56" s="433" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D56" s="434"/>
       <c r="E56" s="423" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="F56" s="424"/>
       <c r="G56" s="117"/>
@@ -15339,7 +15339,7 @@
       <c r="C57" s="431"/>
       <c r="D57" s="432"/>
       <c r="E57" s="423" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="F57" s="424"/>
       <c r="G57" s="117"/>
@@ -15414,11 +15414,11 @@
       <c r="A58" s="425"/>
       <c r="B58" s="426"/>
       <c r="C58" s="433" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D58" s="434"/>
       <c r="E58" s="413" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="F58" s="414"/>
       <c r="G58" s="117"/>
@@ -15495,7 +15495,7 @@
       <c r="C59" s="431"/>
       <c r="D59" s="432"/>
       <c r="E59" s="423" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="F59" s="424"/>
       <c r="G59" s="117"/>
@@ -15570,11 +15570,11 @@
       <c r="A60" s="425"/>
       <c r="B60" s="426"/>
       <c r="C60" s="433" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D60" s="434"/>
       <c r="E60" s="413" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="F60" s="414"/>
       <c r="G60" s="117"/>
@@ -15651,7 +15651,7 @@
       <c r="C61" s="431"/>
       <c r="D61" s="432"/>
       <c r="E61" s="423" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="F61" s="424"/>
       <c r="G61" s="117"/>
@@ -15726,11 +15726,11 @@
       <c r="A62" s="425"/>
       <c r="B62" s="426"/>
       <c r="C62" s="433" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D62" s="434"/>
       <c r="E62" s="413" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="F62" s="414"/>
       <c r="G62" s="117"/>
@@ -15807,7 +15807,7 @@
       <c r="C63" s="431"/>
       <c r="D63" s="432"/>
       <c r="E63" s="423" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="F63" s="424"/>
       <c r="G63" s="117"/>
@@ -15882,11 +15882,11 @@
       <c r="A64" s="425"/>
       <c r="B64" s="426"/>
       <c r="C64" s="433" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D64" s="434"/>
       <c r="E64" s="413" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="F64" s="414"/>
       <c r="G64" s="117"/>
@@ -15963,7 +15963,7 @@
       <c r="C65" s="431"/>
       <c r="D65" s="432"/>
       <c r="E65" s="423" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="F65" s="424"/>
       <c r="G65" s="117"/>
@@ -16038,11 +16038,11 @@
       <c r="A66" s="425"/>
       <c r="B66" s="426"/>
       <c r="C66" s="433" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D66" s="434"/>
       <c r="E66" s="413" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="F66" s="414"/>
       <c r="G66" s="117"/>
@@ -16119,7 +16119,7 @@
       <c r="C67" s="431"/>
       <c r="D67" s="432"/>
       <c r="E67" s="423" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="F67" s="424"/>
       <c r="G67" s="117"/>
@@ -16194,11 +16194,11 @@
       <c r="A68" s="425"/>
       <c r="B68" s="426"/>
       <c r="C68" s="433" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D68" s="434"/>
       <c r="E68" s="413" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="F68" s="414"/>
       <c r="G68" s="117"/>
@@ -16277,7 +16277,7 @@
       <c r="C69" s="431"/>
       <c r="D69" s="432"/>
       <c r="E69" s="423" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="F69" s="424"/>
       <c r="G69" s="117"/>
@@ -16354,11 +16354,11 @@
       <c r="A70" s="425"/>
       <c r="B70" s="426"/>
       <c r="C70" s="433" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="D70" s="434"/>
       <c r="E70" s="413" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="F70" s="414"/>
       <c r="G70" s="117"/>
@@ -16437,7 +16437,7 @@
       <c r="C71" s="431"/>
       <c r="D71" s="432"/>
       <c r="E71" s="423" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="F71" s="424"/>
       <c r="G71" s="117"/>
@@ -16514,7 +16514,7 @@
       <c r="A72" s="425"/>
       <c r="B72" s="426"/>
       <c r="C72" s="404" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D72" s="405"/>
       <c r="E72" s="117"/>
@@ -16757,7 +16757,7 @@
       </c>
       <c r="D75" s="409"/>
       <c r="E75" s="423" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="F75" s="424"/>
       <c r="G75" s="117"/>
@@ -16838,7 +16838,7 @@
       </c>
       <c r="D76" s="409"/>
       <c r="E76" s="423" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F76" s="424"/>
       <c r="G76" s="117"/>
@@ -16919,7 +16919,7 @@
       </c>
       <c r="D77" s="409"/>
       <c r="E77" s="423" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F77" s="424"/>
       <c r="G77" s="117"/>
@@ -16996,11 +16996,11 @@
       <c r="A78" s="451"/>
       <c r="B78" s="452"/>
       <c r="C78" s="408" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D78" s="409"/>
       <c r="E78" s="423" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F78" s="424"/>
       <c r="G78" s="117"/>
@@ -17077,11 +17077,11 @@
       <c r="A79" s="451"/>
       <c r="B79" s="452"/>
       <c r="C79" s="408" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D79" s="409"/>
       <c r="E79" s="423" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="F79" s="424"/>
       <c r="G79" s="117"/>
@@ -17156,13 +17156,13 @@
     </row>
     <row r="80" spans="1:75" s="195" customFormat="1" ht="32.25" customHeight="1">
       <c r="A80" s="454" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B80" s="454"/>
       <c r="C80" s="454"/>
       <c r="D80" s="454"/>
       <c r="E80" s="453" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F80" s="424"/>
       <c r="G80" s="117"/>
@@ -17237,13 +17237,13 @@
     </row>
     <row r="81" spans="1:75" s="195" customFormat="1" ht="32.25" customHeight="1">
       <c r="A81" s="454" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B81" s="454"/>
       <c r="C81" s="454"/>
       <c r="D81" s="454"/>
       <c r="E81" s="453" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F81" s="424"/>
       <c r="G81" s="117"/>
@@ -17359,11 +17359,11 @@
     <row r="83" spans="1:75" ht="14.1" customHeight="1" thickBot="1">
       <c r="A83" s="205"/>
       <c r="B83" s="214" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="C83" s="213"/>
       <c r="D83" s="448" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E83" s="448"/>
       <c r="F83" s="206"/>
@@ -17403,11 +17403,11 @@
     <row r="84" spans="1:75" ht="13.8" customHeight="1" thickBot="1">
       <c r="A84" s="205"/>
       <c r="B84" s="215" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="C84" s="213"/>
       <c r="D84" s="448" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E84" s="448"/>
       <c r="F84" s="206"/>
@@ -17487,7 +17487,7 @@
     <row r="86" spans="1:75" ht="14.1" customHeight="1">
       <c r="A86" s="205"/>
       <c r="B86" s="440" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C86" s="442"/>
       <c r="D86" s="443"/>

--- a/api/cp-dss-api/gateway/src/main/resources/reports/Vessel_1_Loading_Plan_Template.xlsx
+++ b/api/cp-dss-api/gateway/src/main/resources/reports/Vessel_1_Loading_Plan_Template.xlsx
@@ -2251,9 +2251,6 @@
     <t>${sheetOne.vesselCompliance}</t>
   </si>
   <si>
-    <t>${sheetOne.LoadLineZone}</t>
-  </si>
-  <si>
     <t>${arrCargoList.cargoName}</t>
   </si>
   <si>
@@ -3806,6 +3803,9 @@
   </si>
   <si>
     <t>Max.Mani.Press. / Max.Loading.Rate</t>
+  </si>
+  <si>
+    <t>${sheetOne.loadLineZone}</t>
   </si>
 </sst>
 </file>
@@ -5185,11 +5185,16 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="17" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1" shrinkToFit="1"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="173" fontId="35" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="173" fontId="35" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="173" fontId="35" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -5204,66 +5209,11 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="173" fontId="35" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="10" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="173" fontId="39" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="173" fontId="39" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="173" fontId="39" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="173" fontId="39" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="173" fontId="39" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="173" fontId="39" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="173" fontId="35" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="173" fontId="35" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="174" fontId="53" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="174" fontId="53" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -5275,206 +5225,23 @@
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="176" fontId="30" fillId="0" borderId="10" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="10" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="3" fontId="39" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" wrapText="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" wrapText="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="3" fontId="39" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="173" fontId="35" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="173" fontId="40" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="4" fontId="25" fillId="2" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="25" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="17" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="3" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="175" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="30" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="54" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="9" fontId="54" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="174" fontId="53" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="174" fontId="53" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="17" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="17" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="8" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -5526,12 +5293,60 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="173" fontId="39" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="173" fontId="39" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="173" fontId="35" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="173" fontId="39" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="173" fontId="39" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="173" fontId="39" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="9" fontId="54" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="9" fontId="54" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="top"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="top"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="14" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5543,74 +5358,218 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="9" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="25" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="17" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="174" fontId="53" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="174" fontId="53" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="39" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="173" fontId="39" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" wrapText="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" wrapText="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="30" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="175" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="4" fontId="25" fillId="2" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="173" fontId="35" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="173" fontId="40" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="39" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="176" fontId="30" fillId="0" borderId="10" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="10" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="10" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -5655,33 +5614,264 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="47" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="169" fontId="47" fillId="0" borderId="15" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="43" fillId="5" borderId="14" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="43" fillId="5" borderId="9" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="43" fillId="5" borderId="7" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="43" fillId="5" borderId="2" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="169" fontId="47" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="23" fillId="5" borderId="17" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="169" fontId="47" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="169" fontId="47" fillId="0" borderId="18" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="172" fontId="47" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="2" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="14" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="8" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="9" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="6" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="10" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="11" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="47" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="42" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="49" fillId="5" borderId="7" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="49" fillId="5" borderId="2" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="49" fillId="5" borderId="6" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="49" fillId="5" borderId="11" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="42" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="19" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="20" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="38" fontId="29" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="21" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="16" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="43" fillId="0" borderId="3" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="43" fillId="0" borderId="5" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="43" fillId="0" borderId="3" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="43" fillId="0" borderId="5" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="43" fillId="0" borderId="14" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="43" fillId="0" borderId="9" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="169" fontId="47" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -5739,15 +5929,6 @@
     <xf numFmtId="0" fontId="23" fillId="5" borderId="6" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="46" fillId="4" borderId="1" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" wrapText="1"/>
       <protection locked="0"/>
@@ -5762,187 +5943,6 @@
     </xf>
     <xf numFmtId="0" fontId="46" fillId="4" borderId="18" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="43" fillId="0" borderId="3" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="43" fillId="0" borderId="5" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="43" fillId="0" borderId="3" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="43" fillId="0" borderId="5" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="43" fillId="0" borderId="14" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="43" fillId="0" borderId="9" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="38" fontId="29" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="169" fontId="47" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="169" fontId="47" fillId="0" borderId="18" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="21" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="16" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="19" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="20" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="42" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="47" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="169" fontId="47" fillId="0" borderId="15" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="49" fillId="5" borderId="7" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="49" fillId="5" borderId="2" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="49" fillId="5" borderId="6" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="49" fillId="5" borderId="11" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="47" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="42" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="47" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="2" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="14" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="8" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="9" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="6" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="10" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="11" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="43" fillId="5" borderId="14" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="43" fillId="5" borderId="9" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="43" fillId="5" borderId="7" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="43" fillId="5" borderId="2" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="169" fontId="47" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="23" fillId="5" borderId="17" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -6068,7 +6068,7 @@
         <xdr:cNvPr id="30643" name="Line 59">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26C26646-7311-46E9-9E78-CC1D2B3F626E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{26C26646-7311-46E9-9E78-CC1D2B3F626E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6122,7 +6122,7 @@
         <xdr:cNvPr id="30644" name="Line 60">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B49276F8-0941-4D7D-8146-C269E6ACE4D6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B49276F8-0941-4D7D-8146-C269E6ACE4D6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6176,7 +6176,7 @@
         <xdr:cNvPr id="30645" name="Line 62">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49720863-AFF1-493D-8C5B-3E8A332597CC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{49720863-AFF1-493D-8C5B-3E8A332597CC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6230,7 +6230,7 @@
         <xdr:cNvPr id="30646" name="Line 62">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7695EED5-68DE-4941-B396-30D3C770B8B0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7695EED5-68DE-4941-B396-30D3C770B8B0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6284,7 +6284,7 @@
         <xdr:cNvPr id="30647" name="Line 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD58331C-81A7-4159-9782-8A7161F85FB4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD58331C-81A7-4159-9782-8A7161F85FB4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6338,7 +6338,7 @@
         <xdr:cNvPr id="30648" name="Line 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D0300261-277A-4B07-916A-FC3A4EA535EC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D0300261-277A-4B07-916A-FC3A4EA535EC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6392,7 +6392,7 @@
         <xdr:cNvPr id="30649" name="Line 62">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92E06221-417C-4981-B737-76380BAE82BA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{92E06221-417C-4981-B737-76380BAE82BA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6446,7 +6446,7 @@
         <xdr:cNvPr id="30650" name="Line 62">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC93D721-69B8-4DB6-8611-B0CA263C6701}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EC93D721-69B8-4DB6-8611-B0CA263C6701}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6500,7 +6500,7 @@
         <xdr:cNvPr id="30651" name="Line 62">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8FFC3F25-367F-4CB6-8861-0D589CD691A0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8FFC3F25-367F-4CB6-8861-0D589CD691A0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6554,7 +6554,7 @@
         <xdr:cNvPr id="30652" name="Line 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{132B4608-E2CC-4568-8160-0038A8B8A9B4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{132B4608-E2CC-4568-8160-0038A8B8A9B4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6608,7 +6608,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95E86656-9F63-45D0-BC52-81A2571E9B65}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{95E86656-9F63-45D0-BC52-81A2571E9B65}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6658,7 +6658,7 @@
         <xdr:cNvPr id="17" name="Line 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{132B4608-E2CC-4568-8160-0038A8B8A9B4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{132B4608-E2CC-4568-8160-0038A8B8A9B4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6712,7 +6712,7 @@
         <xdr:cNvPr id="19" name="Line 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{132B4608-E2CC-4568-8160-0038A8B8A9B4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{132B4608-E2CC-4568-8160-0038A8B8A9B4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6766,7 +6766,7 @@
         <xdr:cNvPr id="21" name="Line 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{132B4608-E2CC-4568-8160-0038A8B8A9B4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{132B4608-E2CC-4568-8160-0038A8B8A9B4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6820,7 +6820,7 @@
         <xdr:cNvPr id="16" name="Line 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{132B4608-E2CC-4568-8160-0038A8B8A9B4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{132B4608-E2CC-4568-8160-0038A8B8A9B4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6874,7 +6874,7 @@
         <xdr:cNvPr id="18" name="Line 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{132B4608-E2CC-4568-8160-0038A8B8A9B4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{132B4608-E2CC-4568-8160-0038A8B8A9B4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6928,7 +6928,7 @@
         <xdr:cNvPr id="29" name="Line 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{132B4608-E2CC-4568-8160-0038A8B8A9B4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{132B4608-E2CC-4568-8160-0038A8B8A9B4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6982,7 +6982,7 @@
         <xdr:cNvPr id="30" name="Line 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{132B4608-E2CC-4568-8160-0038A8B8A9B4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{132B4608-E2CC-4568-8160-0038A8B8A9B4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7312,7 +7312,7 @@
   <dimension ref="A1:AS75"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3:O3"/>
+      <selection activeCell="W11" sqref="W11:Z11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="17.25" customHeight="1"/>
@@ -7369,12 +7369,12 @@
       <c r="I3" s="48"/>
       <c r="J3" s="47"/>
       <c r="K3" s="47"/>
-      <c r="L3" s="245" t="s">
+      <c r="L3" s="335" t="s">
         <v>49</v>
       </c>
-      <c r="M3" s="245"/>
-      <c r="N3" s="245"/>
-      <c r="O3" s="245"/>
+      <c r="M3" s="335"/>
+      <c r="N3" s="335"/>
+      <c r="O3" s="335"/>
       <c r="P3" s="47"/>
       <c r="Q3" s="47"/>
       <c r="R3" s="47"/>
@@ -7394,13 +7394,13 @@
         <v>32</v>
       </c>
       <c r="C4" s="47"/>
-      <c r="D4" s="251" t="s">
+      <c r="D4" s="337" t="s">
         <v>62</v>
       </c>
-      <c r="E4" s="251"/>
-      <c r="F4" s="251"/>
-      <c r="G4" s="251"/>
-      <c r="H4" s="251"/>
+      <c r="E4" s="337"/>
+      <c r="F4" s="337"/>
+      <c r="G4" s="337"/>
+      <c r="H4" s="337"/>
       <c r="I4" s="47"/>
       <c r="J4" s="47"/>
       <c r="K4" s="47"/>
@@ -7427,13 +7427,13 @@
         <v>30</v>
       </c>
       <c r="C5" s="51"/>
-      <c r="D5" s="322" t="s">
+      <c r="D5" s="260" t="s">
         <v>63</v>
       </c>
-      <c r="E5" s="322"/>
-      <c r="F5" s="322"/>
-      <c r="G5" s="322"/>
-      <c r="H5" s="322"/>
+      <c r="E5" s="260"/>
+      <c r="F5" s="260"/>
+      <c r="G5" s="260"/>
+      <c r="H5" s="260"/>
       <c r="I5" s="52"/>
       <c r="J5" s="52"/>
       <c r="K5" s="52"/>
@@ -7451,13 +7451,13 @@
       <c r="U5" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="V5" s="268" t="s">
+      <c r="V5" s="326" t="s">
         <v>66</v>
       </c>
-      <c r="W5" s="268"/>
-      <c r="X5" s="268"/>
-      <c r="Y5" s="268"/>
-      <c r="Z5" s="268"/>
+      <c r="W5" s="326"/>
+      <c r="X5" s="326"/>
+      <c r="Y5" s="326"/>
+      <c r="Z5" s="326"/>
       <c r="AA5" s="48"/>
       <c r="AB5" s="56"/>
     </row>
@@ -7487,13 +7487,13 @@
       <c r="U6" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="V6" s="269" t="s">
+      <c r="V6" s="327" t="s">
         <v>67</v>
       </c>
-      <c r="W6" s="269"/>
-      <c r="X6" s="269"/>
-      <c r="Y6" s="269"/>
-      <c r="Z6" s="269"/>
+      <c r="W6" s="327"/>
+      <c r="X6" s="327"/>
+      <c r="Y6" s="327"/>
+      <c r="Z6" s="327"/>
       <c r="AA6" s="48"/>
       <c r="AB6" s="56"/>
     </row>
@@ -7502,24 +7502,24 @@
       <c r="B7" s="58" t="s">
         <v>58</v>
       </c>
-      <c r="C7" s="252" t="s">
+      <c r="C7" s="338" t="s">
         <v>64</v>
       </c>
-      <c r="D7" s="252"/>
-      <c r="E7" s="252"/>
-      <c r="F7" s="252"/>
-      <c r="G7" s="252"/>
-      <c r="H7" s="259" t="s">
+      <c r="D7" s="338"/>
+      <c r="E7" s="338"/>
+      <c r="F7" s="338"/>
+      <c r="G7" s="338"/>
+      <c r="H7" s="339" t="s">
         <v>59</v>
       </c>
-      <c r="I7" s="259"/>
-      <c r="J7" s="252" t="s">
+      <c r="I7" s="339"/>
+      <c r="J7" s="338" t="s">
         <v>65</v>
       </c>
-      <c r="K7" s="252"/>
-      <c r="L7" s="252"/>
-      <c r="M7" s="252"/>
-      <c r="N7" s="252"/>
+      <c r="K7" s="338"/>
+      <c r="L7" s="338"/>
+      <c r="M7" s="338"/>
+      <c r="N7" s="338"/>
       <c r="O7" s="59"/>
       <c r="P7" s="59"/>
       <c r="Q7" s="59"/>
@@ -7531,13 +7531,13 @@
       <c r="U7" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="V7" s="269" t="s">
+      <c r="V7" s="327" t="s">
         <v>68</v>
       </c>
-      <c r="W7" s="269"/>
-      <c r="X7" s="269"/>
-      <c r="Y7" s="269"/>
-      <c r="Z7" s="269"/>
+      <c r="W7" s="327"/>
+      <c r="X7" s="327"/>
+      <c r="Y7" s="327"/>
+      <c r="Z7" s="327"/>
       <c r="AA7" s="48"/>
       <c r="AB7" s="56"/>
     </row>
@@ -7628,10 +7628,10 @@
       <c r="V10" s="61"/>
       <c r="W10" s="61"/>
       <c r="X10" s="61"/>
-      <c r="Y10" s="273" t="s">
+      <c r="Y10" s="330" t="s">
         <v>69</v>
       </c>
-      <c r="Z10" s="273"/>
+      <c r="Z10" s="330"/>
       <c r="AB10" s="56"/>
     </row>
     <row r="11" spans="1:32" ht="17.25" customHeight="1">
@@ -7663,12 +7663,12 @@
       <c r="T11" s="67"/>
       <c r="U11" s="67"/>
       <c r="V11" s="68"/>
-      <c r="W11" s="274" t="s">
-        <v>70</v>
-      </c>
-      <c r="X11" s="274"/>
-      <c r="Y11" s="274"/>
-      <c r="Z11" s="274"/>
+      <c r="W11" s="331" t="s">
+        <v>584</v>
+      </c>
+      <c r="X11" s="331"/>
+      <c r="Y11" s="331"/>
+      <c r="Z11" s="331"/>
       <c r="AA11" s="69"/>
     </row>
     <row r="12" spans="1:32" s="69" customFormat="1" ht="17.25" customHeight="1">
@@ -7687,19 +7687,19 @@
       <c r="M12" s="71"/>
       <c r="N12" s="71"/>
       <c r="O12" s="71"/>
-      <c r="P12" s="272" t="s">
+      <c r="P12" s="329" t="s">
         <v>55</v>
       </c>
-      <c r="Q12" s="272"/>
-      <c r="R12" s="272"/>
-      <c r="S12" s="272"/>
-      <c r="T12" s="272"/>
-      <c r="U12" s="272"/>
-      <c r="V12" s="272"/>
-      <c r="W12" s="272"/>
-      <c r="X12" s="272"/>
-      <c r="Y12" s="272"/>
-      <c r="Z12" s="272"/>
+      <c r="Q12" s="329"/>
+      <c r="R12" s="329"/>
+      <c r="S12" s="329"/>
+      <c r="T12" s="329"/>
+      <c r="U12" s="329"/>
+      <c r="V12" s="329"/>
+      <c r="W12" s="329"/>
+      <c r="X12" s="329"/>
+      <c r="Y12" s="329"/>
+      <c r="Z12" s="329"/>
     </row>
     <row r="13" spans="1:32" s="69" customFormat="1" ht="17.25" customHeight="1">
       <c r="A13" s="70"/>
@@ -7750,40 +7750,40 @@
       <c r="A15" s="70"/>
       <c r="B15" s="75"/>
       <c r="C15" s="76" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D15" s="77"/>
       <c r="E15" s="76" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F15" s="78"/>
       <c r="G15" s="223" t="s">
+        <v>264</v>
+      </c>
+      <c r="H15" s="255"/>
+      <c r="I15" s="256"/>
+      <c r="J15" s="79" t="s">
         <v>265</v>
-      </c>
-      <c r="H15" s="335"/>
-      <c r="I15" s="336"/>
-      <c r="J15" s="79" t="s">
-        <v>266</v>
       </c>
       <c r="K15" s="80"/>
       <c r="L15" s="223" t="s">
+        <v>266</v>
+      </c>
+      <c r="M15" s="255"/>
+      <c r="N15" s="256"/>
+      <c r="O15" s="79" t="s">
         <v>267</v>
-      </c>
-      <c r="M15" s="335"/>
-      <c r="N15" s="336"/>
-      <c r="O15" s="79" t="s">
-        <v>268</v>
       </c>
       <c r="P15" s="80"/>
       <c r="Q15" s="81"/>
       <c r="R15" s="71"/>
       <c r="S15" s="71"/>
-      <c r="T15" s="271" t="s">
+      <c r="T15" s="324" t="s">
         <v>39</v>
       </c>
-      <c r="U15" s="271"/>
-      <c r="V15" s="271"/>
-      <c r="W15" s="271"/>
+      <c r="U15" s="324"/>
+      <c r="V15" s="324"/>
+      <c r="W15" s="324"/>
       <c r="X15" s="82"/>
       <c r="Y15" s="83"/>
       <c r="Z15" s="74"/>
@@ -7791,92 +7791,92 @@
     <row r="16" spans="1:32" s="69" customFormat="1" ht="12" customHeight="1">
       <c r="A16" s="84"/>
       <c r="B16" s="85"/>
-      <c r="C16" s="247" t="s">
-        <v>84</v>
-      </c>
-      <c r="D16" s="248"/>
-      <c r="E16" s="247" t="s">
-        <v>112</v>
-      </c>
-      <c r="F16" s="249"/>
-      <c r="G16" s="247" t="s">
-        <v>140</v>
-      </c>
-      <c r="H16" s="248"/>
-      <c r="I16" s="249"/>
-      <c r="J16" s="247" t="s">
-        <v>168</v>
-      </c>
-      <c r="K16" s="249"/>
-      <c r="L16" s="247" t="s">
-        <v>196</v>
-      </c>
-      <c r="M16" s="248"/>
-      <c r="N16" s="249"/>
-      <c r="O16" s="247" t="s">
-        <v>224</v>
-      </c>
-      <c r="P16" s="249"/>
+      <c r="C16" s="248" t="s">
+        <v>83</v>
+      </c>
+      <c r="D16" s="249"/>
+      <c r="E16" s="248" t="s">
+        <v>111</v>
+      </c>
+      <c r="F16" s="250"/>
+      <c r="G16" s="248" t="s">
+        <v>139</v>
+      </c>
+      <c r="H16" s="249"/>
+      <c r="I16" s="250"/>
+      <c r="J16" s="248" t="s">
+        <v>167</v>
+      </c>
+      <c r="K16" s="250"/>
+      <c r="L16" s="248" t="s">
+        <v>195</v>
+      </c>
+      <c r="M16" s="249"/>
+      <c r="N16" s="250"/>
+      <c r="O16" s="248" t="s">
+        <v>223</v>
+      </c>
+      <c r="P16" s="250"/>
       <c r="Q16" s="85"/>
       <c r="S16" s="71"/>
-      <c r="T16" s="275" t="s">
-        <v>71</v>
-      </c>
-      <c r="U16" s="275"/>
-      <c r="V16" s="275"/>
-      <c r="W16" s="275"/>
+      <c r="T16" s="332" t="s">
+        <v>70</v>
+      </c>
+      <c r="U16" s="332"/>
+      <c r="V16" s="332"/>
+      <c r="W16" s="332"/>
       <c r="X16" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="Y16" s="277" t="s">
-        <v>79</v>
-      </c>
-      <c r="Z16" s="277"/>
+      <c r="Y16" s="319" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z16" s="319"/>
       <c r="AF16" s="104"/>
     </row>
     <row r="17" spans="1:45" s="69" customFormat="1" ht="12" customHeight="1">
       <c r="A17" s="84"/>
       <c r="B17" s="85"/>
       <c r="C17" s="86" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D17" s="87" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E17" s="86" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F17" s="88" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G17" s="220" t="s">
-        <v>281</v>
-      </c>
-      <c r="H17" s="285" t="s">
-        <v>141</v>
-      </c>
-      <c r="I17" s="286"/>
+        <v>280</v>
+      </c>
+      <c r="H17" s="281" t="s">
+        <v>140</v>
+      </c>
+      <c r="I17" s="282"/>
       <c r="J17" s="86" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="K17" s="87" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="L17" s="220" t="s">
-        <v>287</v>
-      </c>
-      <c r="M17" s="285" t="s">
-        <v>197</v>
-      </c>
-      <c r="N17" s="286"/>
+        <v>286</v>
+      </c>
+      <c r="M17" s="281" t="s">
+        <v>196</v>
+      </c>
+      <c r="N17" s="282"/>
       <c r="O17" s="86" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="P17" s="89" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="Q17" s="240" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="S17" s="71"/>
       <c r="T17" s="84"/>
@@ -7897,40 +7897,40 @@
     <row r="18" spans="1:45" s="69" customFormat="1" ht="12" customHeight="1">
       <c r="A18" s="84"/>
       <c r="B18" s="91"/>
-      <c r="C18" s="260" t="s">
-        <v>86</v>
-      </c>
-      <c r="D18" s="250"/>
-      <c r="E18" s="260" t="s">
-        <v>114</v>
-      </c>
-      <c r="F18" s="261"/>
-      <c r="G18" s="260" t="s">
-        <v>142</v>
-      </c>
-      <c r="H18" s="250"/>
-      <c r="I18" s="261"/>
-      <c r="J18" s="250" t="s">
-        <v>170</v>
-      </c>
-      <c r="K18" s="250"/>
-      <c r="L18" s="253" t="s">
-        <v>198</v>
-      </c>
-      <c r="M18" s="254"/>
-      <c r="N18" s="255"/>
-      <c r="O18" s="250" t="s">
-        <v>226</v>
-      </c>
-      <c r="P18" s="250"/>
-      <c r="Q18" s="276" t="s">
-        <v>562</v>
+      <c r="C18" s="246" t="s">
+        <v>85</v>
+      </c>
+      <c r="D18" s="275"/>
+      <c r="E18" s="246" t="s">
+        <v>113</v>
+      </c>
+      <c r="F18" s="247"/>
+      <c r="G18" s="246" t="s">
+        <v>141</v>
+      </c>
+      <c r="H18" s="275"/>
+      <c r="I18" s="247"/>
+      <c r="J18" s="275" t="s">
+        <v>169</v>
+      </c>
+      <c r="K18" s="275"/>
+      <c r="L18" s="273" t="s">
+        <v>197</v>
+      </c>
+      <c r="M18" s="301"/>
+      <c r="N18" s="274"/>
+      <c r="O18" s="275" t="s">
+        <v>225</v>
+      </c>
+      <c r="P18" s="275"/>
+      <c r="Q18" s="300" t="s">
+        <v>561</v>
       </c>
       <c r="S18" s="71"/>
-      <c r="T18" s="270"/>
-      <c r="U18" s="270"/>
-      <c r="V18" s="270"/>
-      <c r="W18" s="270"/>
+      <c r="T18" s="328"/>
+      <c r="U18" s="328"/>
+      <c r="V18" s="328"/>
+      <c r="W18" s="328"/>
       <c r="X18" s="82"/>
       <c r="Y18" s="90"/>
       <c r="Z18" s="74"/>
@@ -7942,52 +7942,52 @@
     <row r="19" spans="1:45" s="69" customFormat="1" ht="12" customHeight="1">
       <c r="A19" s="84"/>
       <c r="B19" s="240" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C19" s="224" t="s">
+        <v>86</v>
+      </c>
+      <c r="D19" s="225" t="s">
         <v>87</v>
       </c>
-      <c r="D19" s="225" t="s">
-        <v>88</v>
-      </c>
       <c r="E19" s="224" t="s">
+        <v>114</v>
+      </c>
+      <c r="F19" s="225" t="s">
         <v>115</v>
       </c>
-      <c r="F19" s="225" t="s">
-        <v>116</v>
-      </c>
       <c r="G19" s="226" t="s">
+        <v>142</v>
+      </c>
+      <c r="H19" s="251" t="s">
         <v>143</v>
       </c>
-      <c r="H19" s="262" t="s">
-        <v>144</v>
-      </c>
-      <c r="I19" s="263"/>
+      <c r="I19" s="252"/>
       <c r="J19" s="224" t="s">
+        <v>170</v>
+      </c>
+      <c r="K19" s="225" t="s">
         <v>171</v>
       </c>
-      <c r="K19" s="225" t="s">
-        <v>172</v>
-      </c>
       <c r="L19" s="224" t="s">
+        <v>198</v>
+      </c>
+      <c r="M19" s="251" t="s">
         <v>199</v>
       </c>
-      <c r="M19" s="262" t="s">
-        <v>200</v>
-      </c>
-      <c r="N19" s="263"/>
+      <c r="N19" s="252"/>
       <c r="O19" s="227" t="s">
+        <v>226</v>
+      </c>
+      <c r="P19" s="225" t="s">
         <v>227</v>
       </c>
-      <c r="P19" s="225" t="s">
-        <v>228</v>
-      </c>
-      <c r="Q19" s="276"/>
+      <c r="Q19" s="300"/>
       <c r="S19" s="71"/>
-      <c r="T19" s="270"/>
-      <c r="U19" s="270"/>
-      <c r="V19" s="270"/>
-      <c r="W19" s="270"/>
+      <c r="T19" s="328"/>
+      <c r="U19" s="328"/>
+      <c r="V19" s="328"/>
+      <c r="W19" s="328"/>
       <c r="X19" s="82"/>
       <c r="Y19" s="90"/>
       <c r="Z19" s="74"/>
@@ -7998,93 +7998,93 @@
       <c r="AD19"/>
       <c r="AE19"/>
       <c r="AF19" s="243" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="AG19"/>
     </row>
     <row r="20" spans="1:45" s="69" customFormat="1" ht="12" customHeight="1">
       <c r="A20" s="84"/>
-      <c r="B20" s="246" t="s">
-        <v>83</v>
+      <c r="B20" s="336" t="s">
+        <v>82</v>
       </c>
       <c r="C20" s="92" t="s">
-        <v>276</v>
-      </c>
-      <c r="D20" s="278" t="s">
-        <v>89</v>
-      </c>
-      <c r="E20" s="279"/>
-      <c r="F20" s="280"/>
+        <v>275</v>
+      </c>
+      <c r="D20" s="333" t="s">
+        <v>88</v>
+      </c>
+      <c r="E20" s="304"/>
+      <c r="F20" s="334"/>
       <c r="G20" s="221" t="s">
-        <v>280</v>
-      </c>
-      <c r="H20" s="264" t="s">
-        <v>117</v>
-      </c>
-      <c r="I20" s="265"/>
+        <v>279</v>
+      </c>
+      <c r="H20" s="283" t="s">
+        <v>116</v>
+      </c>
+      <c r="I20" s="284"/>
       <c r="J20" s="92" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="K20" s="94" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="L20" s="95" t="s">
-        <v>285</v>
-      </c>
-      <c r="M20" s="281" t="s">
-        <v>173</v>
-      </c>
-      <c r="N20" s="282"/>
+        <v>284</v>
+      </c>
+      <c r="M20" s="302" t="s">
+        <v>172</v>
+      </c>
+      <c r="N20" s="303"/>
       <c r="O20" s="95" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="P20" s="93" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="Q20" s="233"/>
       <c r="S20" s="71"/>
-      <c r="T20" s="270"/>
-      <c r="U20" s="270"/>
-      <c r="V20" s="270"/>
-      <c r="W20" s="270"/>
+      <c r="T20" s="328"/>
+      <c r="U20" s="328"/>
+      <c r="V20" s="328"/>
+      <c r="W20" s="328"/>
       <c r="X20" s="82"/>
       <c r="Y20" s="90"/>
       <c r="Z20" s="74"/>
       <c r="AA20" s="84"/>
       <c r="AD20"/>
       <c r="AE20"/>
-      <c r="AF20" s="283" t="s">
-        <v>567</v>
+      <c r="AF20" s="323" t="s">
+        <v>566</v>
       </c>
       <c r="AG20"/>
     </row>
     <row r="21" spans="1:45" s="69" customFormat="1" ht="12" customHeight="1">
       <c r="A21" s="84"/>
-      <c r="B21" s="246"/>
-      <c r="C21" s="260" t="s">
-        <v>90</v>
-      </c>
-      <c r="D21" s="250"/>
-      <c r="E21" s="250"/>
-      <c r="F21" s="261"/>
-      <c r="G21" s="260" t="s">
-        <v>118</v>
-      </c>
-      <c r="H21" s="250"/>
-      <c r="I21" s="261"/>
-      <c r="J21" s="253" t="s">
-        <v>146</v>
-      </c>
-      <c r="K21" s="255"/>
-      <c r="L21" s="253" t="s">
-        <v>174</v>
-      </c>
-      <c r="M21" s="254"/>
-      <c r="N21" s="255"/>
-      <c r="O21" s="253" t="s">
-        <v>202</v>
-      </c>
-      <c r="P21" s="255"/>
+      <c r="B21" s="336"/>
+      <c r="C21" s="246" t="s">
+        <v>89</v>
+      </c>
+      <c r="D21" s="275"/>
+      <c r="E21" s="275"/>
+      <c r="F21" s="247"/>
+      <c r="G21" s="246" t="s">
+        <v>117</v>
+      </c>
+      <c r="H21" s="275"/>
+      <c r="I21" s="247"/>
+      <c r="J21" s="273" t="s">
+        <v>145</v>
+      </c>
+      <c r="K21" s="274"/>
+      <c r="L21" s="273" t="s">
+        <v>173</v>
+      </c>
+      <c r="M21" s="301"/>
+      <c r="N21" s="274"/>
+      <c r="O21" s="273" t="s">
+        <v>201</v>
+      </c>
+      <c r="P21" s="274"/>
       <c r="Q21" s="234"/>
       <c r="S21" s="71"/>
       <c r="T21" s="71"/>
@@ -8097,45 +8097,45 @@
       <c r="AA21" s="84"/>
       <c r="AD21"/>
       <c r="AE21"/>
-      <c r="AF21" s="283"/>
+      <c r="AF21" s="323"/>
       <c r="AG21"/>
     </row>
     <row r="22" spans="1:45" s="69" customFormat="1" ht="12" customHeight="1">
       <c r="A22" s="84"/>
       <c r="B22" s="85"/>
       <c r="C22" s="228" t="s">
+        <v>90</v>
+      </c>
+      <c r="D22" s="279" t="s">
         <v>91</v>
       </c>
-      <c r="D22" s="308" t="s">
-        <v>92</v>
-      </c>
-      <c r="E22" s="308"/>
-      <c r="F22" s="309"/>
+      <c r="E22" s="279"/>
+      <c r="F22" s="280"/>
       <c r="G22" s="229" t="s">
+        <v>118</v>
+      </c>
+      <c r="H22" s="279" t="s">
         <v>119</v>
       </c>
-      <c r="H22" s="308" t="s">
-        <v>120</v>
-      </c>
-      <c r="I22" s="309"/>
+      <c r="I22" s="280"/>
       <c r="J22" s="230" t="s">
+        <v>146</v>
+      </c>
+      <c r="K22" s="231" t="s">
         <v>147</v>
       </c>
-      <c r="K22" s="231" t="s">
-        <v>148</v>
-      </c>
       <c r="L22" s="230" t="s">
+        <v>174</v>
+      </c>
+      <c r="M22" s="279" t="s">
         <v>175</v>
       </c>
-      <c r="M22" s="308" t="s">
-        <v>176</v>
-      </c>
-      <c r="N22" s="309"/>
+      <c r="N22" s="280"/>
       <c r="O22" s="232" t="s">
+        <v>202</v>
+      </c>
+      <c r="P22" s="231" t="s">
         <v>203</v>
-      </c>
-      <c r="P22" s="231" t="s">
-        <v>204</v>
       </c>
       <c r="Q22" s="98"/>
       <c r="S22" s="71"/>
@@ -8155,45 +8155,45 @@
       <c r="A23" s="84"/>
       <c r="B23" s="85"/>
       <c r="C23" s="92" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D23" s="89" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E23" s="92" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F23" s="89" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G23" s="221" t="s">
-        <v>283</v>
-      </c>
-      <c r="H23" s="264" t="s">
-        <v>149</v>
-      </c>
-      <c r="I23" s="265"/>
+        <v>282</v>
+      </c>
+      <c r="H23" s="283" t="s">
+        <v>148</v>
+      </c>
+      <c r="I23" s="284"/>
       <c r="J23" s="92" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="K23" s="89" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="L23" s="221" t="s">
-        <v>289</v>
-      </c>
-      <c r="M23" s="264" t="s">
-        <v>205</v>
-      </c>
-      <c r="N23" s="265"/>
+        <v>288</v>
+      </c>
+      <c r="M23" s="283" t="s">
+        <v>204</v>
+      </c>
+      <c r="N23" s="284"/>
       <c r="O23" s="92" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="P23" s="89" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="Q23" s="240" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="S23" s="71"/>
       <c r="T23" s="73" t="s">
@@ -8215,45 +8215,45 @@
     <row r="24" spans="1:45" s="69" customFormat="1" ht="12" customHeight="1">
       <c r="A24" s="84"/>
       <c r="B24" s="85"/>
-      <c r="C24" s="260" t="s">
-        <v>94</v>
-      </c>
-      <c r="D24" s="250"/>
-      <c r="E24" s="260" t="s">
-        <v>122</v>
-      </c>
-      <c r="F24" s="250"/>
-      <c r="G24" s="256" t="s">
-        <v>150</v>
-      </c>
-      <c r="H24" s="257"/>
-      <c r="I24" s="258"/>
-      <c r="J24" s="260" t="s">
-        <v>178</v>
-      </c>
-      <c r="K24" s="250"/>
-      <c r="L24" s="256" t="s">
-        <v>206</v>
-      </c>
-      <c r="M24" s="257"/>
-      <c r="N24" s="258"/>
-      <c r="O24" s="260" t="s">
-        <v>230</v>
-      </c>
-      <c r="P24" s="250"/>
-      <c r="Q24" s="276" t="s">
-        <v>560</v>
+      <c r="C24" s="246" t="s">
+        <v>93</v>
+      </c>
+      <c r="D24" s="275"/>
+      <c r="E24" s="246" t="s">
+        <v>121</v>
+      </c>
+      <c r="F24" s="275"/>
+      <c r="G24" s="276" t="s">
+        <v>149</v>
+      </c>
+      <c r="H24" s="277"/>
+      <c r="I24" s="278"/>
+      <c r="J24" s="246" t="s">
+        <v>177</v>
+      </c>
+      <c r="K24" s="275"/>
+      <c r="L24" s="276" t="s">
+        <v>205</v>
+      </c>
+      <c r="M24" s="277"/>
+      <c r="N24" s="278"/>
+      <c r="O24" s="246" t="s">
+        <v>229</v>
+      </c>
+      <c r="P24" s="275"/>
+      <c r="Q24" s="300" t="s">
+        <v>559</v>
       </c>
       <c r="S24" s="71"/>
-      <c r="T24" s="288" t="s">
-        <v>253</v>
-      </c>
-      <c r="U24" s="288"/>
-      <c r="V24" s="288"/>
-      <c r="W24" s="288"/>
+      <c r="T24" s="310" t="s">
+        <v>252</v>
+      </c>
+      <c r="U24" s="310"/>
+      <c r="V24" s="310"/>
+      <c r="W24" s="310"/>
       <c r="X24" s="82"/>
       <c r="Y24" s="99" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="Z24" s="74"/>
       <c r="AD24"/>
@@ -8267,44 +8267,44 @@
       <c r="A25" s="84"/>
       <c r="B25" s="85"/>
       <c r="C25" s="224" t="s">
+        <v>94</v>
+      </c>
+      <c r="D25" s="225" t="s">
         <v>95</v>
       </c>
-      <c r="D25" s="225" t="s">
-        <v>96</v>
-      </c>
       <c r="E25" s="224" t="s">
+        <v>122</v>
+      </c>
+      <c r="F25" s="225" t="s">
         <v>123</v>
       </c>
-      <c r="F25" s="225" t="s">
-        <v>124</v>
-      </c>
       <c r="G25" s="226" t="s">
+        <v>150</v>
+      </c>
+      <c r="H25" s="253" t="s">
         <v>151</v>
       </c>
-      <c r="H25" s="266" t="s">
-        <v>152</v>
-      </c>
-      <c r="I25" s="267"/>
+      <c r="I25" s="254"/>
       <c r="J25" s="224" t="s">
+        <v>178</v>
+      </c>
+      <c r="K25" s="225" t="s">
         <v>179</v>
       </c>
-      <c r="K25" s="225" t="s">
-        <v>180</v>
-      </c>
       <c r="L25" s="224" t="s">
+        <v>206</v>
+      </c>
+      <c r="M25" s="298" t="s">
         <v>207</v>
       </c>
-      <c r="M25" s="310" t="s">
-        <v>208</v>
-      </c>
-      <c r="N25" s="311"/>
+      <c r="N25" s="299"/>
       <c r="O25" s="224" t="s">
+        <v>230</v>
+      </c>
+      <c r="P25" s="225" t="s">
         <v>231</v>
       </c>
-      <c r="P25" s="225" t="s">
-        <v>232</v>
-      </c>
-      <c r="Q25" s="276"/>
+      <c r="Q25" s="300"/>
       <c r="S25" s="71"/>
       <c r="T25" s="71"/>
       <c r="U25" s="71"/>
@@ -8324,44 +8324,44 @@
       <c r="A26" s="70"/>
       <c r="B26" s="85"/>
       <c r="C26" s="100" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D26" s="101"/>
       <c r="E26" s="100" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F26" s="102"/>
       <c r="G26" s="222" t="s">
+        <v>270</v>
+      </c>
+      <c r="H26" s="285"/>
+      <c r="I26" s="286"/>
+      <c r="J26" s="100" t="s">
         <v>271</v>
-      </c>
-      <c r="H26" s="313"/>
-      <c r="I26" s="314"/>
-      <c r="J26" s="100" t="s">
-        <v>272</v>
       </c>
       <c r="K26" s="103"/>
       <c r="L26" s="222" t="s">
+        <v>272</v>
+      </c>
+      <c r="M26" s="285"/>
+      <c r="N26" s="286"/>
+      <c r="O26" s="76" t="s">
         <v>273</v>
-      </c>
-      <c r="M26" s="313"/>
-      <c r="N26" s="314"/>
-      <c r="O26" s="76" t="s">
-        <v>274</v>
       </c>
       <c r="P26" s="103"/>
       <c r="Q26" s="85"/>
       <c r="S26" s="71"/>
-      <c r="T26" s="287" t="s">
+      <c r="T26" s="290" t="s">
         <v>40</v>
       </c>
-      <c r="U26" s="287"/>
-      <c r="V26" s="287"/>
+      <c r="U26" s="290"/>
+      <c r="V26" s="290"/>
       <c r="W26" s="74" t="s">
         <v>8</v>
       </c>
       <c r="X26" s="82"/>
       <c r="Y26" s="99" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Z26" s="71"/>
       <c r="AD26"/>
@@ -8374,46 +8374,46 @@
     <row r="27" spans="1:45" s="69" customFormat="1" ht="12" customHeight="1">
       <c r="A27" s="84"/>
       <c r="B27" s="75"/>
-      <c r="C27" s="247" t="s">
-        <v>97</v>
-      </c>
-      <c r="D27" s="248"/>
-      <c r="E27" s="247" t="s">
-        <v>125</v>
-      </c>
-      <c r="F27" s="248"/>
-      <c r="G27" s="247" t="s">
-        <v>153</v>
-      </c>
-      <c r="H27" s="248"/>
-      <c r="I27" s="249"/>
-      <c r="J27" s="247" t="s">
-        <v>181</v>
-      </c>
-      <c r="K27" s="248"/>
-      <c r="L27" s="247" t="s">
-        <v>209</v>
-      </c>
-      <c r="M27" s="248"/>
-      <c r="N27" s="249"/>
-      <c r="O27" s="247" t="s">
-        <v>233</v>
-      </c>
-      <c r="P27" s="249"/>
+      <c r="C27" s="248" t="s">
+        <v>96</v>
+      </c>
+      <c r="D27" s="249"/>
+      <c r="E27" s="248" t="s">
+        <v>124</v>
+      </c>
+      <c r="F27" s="249"/>
+      <c r="G27" s="248" t="s">
+        <v>152</v>
+      </c>
+      <c r="H27" s="249"/>
+      <c r="I27" s="250"/>
+      <c r="J27" s="248" t="s">
+        <v>180</v>
+      </c>
+      <c r="K27" s="249"/>
+      <c r="L27" s="248" t="s">
+        <v>208</v>
+      </c>
+      <c r="M27" s="249"/>
+      <c r="N27" s="250"/>
+      <c r="O27" s="248" t="s">
+        <v>232</v>
+      </c>
+      <c r="P27" s="250"/>
       <c r="Q27" s="104"/>
       <c r="R27" s="71"/>
       <c r="S27" s="73"/>
-      <c r="T27" s="287" t="s">
-        <v>72</v>
-      </c>
-      <c r="U27" s="287"/>
-      <c r="V27" s="287"/>
+      <c r="T27" s="290" t="s">
+        <v>71</v>
+      </c>
+      <c r="U27" s="290"/>
+      <c r="V27" s="290"/>
       <c r="W27" s="74" t="s">
         <v>8</v>
       </c>
       <c r="X27" s="82"/>
       <c r="Y27" s="99" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="Z27" s="73"/>
       <c r="AD27"/>
@@ -8443,17 +8443,17 @@
       <c r="Q28" s="104"/>
       <c r="R28" s="71"/>
       <c r="S28" s="73"/>
-      <c r="T28" s="288" t="s">
+      <c r="T28" s="310" t="s">
         <v>42</v>
       </c>
-      <c r="U28" s="288"/>
-      <c r="V28" s="288"/>
+      <c r="U28" s="310"/>
+      <c r="V28" s="310"/>
       <c r="W28" s="74" t="s">
         <v>8</v>
       </c>
       <c r="X28" s="73"/>
       <c r="Y28" s="99" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Z28" s="73"/>
       <c r="AD28"/>
@@ -8566,12 +8566,12 @@
       <c r="Q31" s="65"/>
       <c r="R31" s="107"/>
       <c r="S31" s="111"/>
-      <c r="T31" s="271" t="s">
+      <c r="T31" s="324" t="s">
         <v>39</v>
       </c>
-      <c r="U31" s="271"/>
-      <c r="V31" s="271"/>
-      <c r="W31" s="271"/>
+      <c r="U31" s="324"/>
+      <c r="V31" s="324"/>
+      <c r="W31" s="324"/>
       <c r="X31" s="109"/>
       <c r="Y31" s="110"/>
       <c r="Z31" s="74"/>
@@ -8602,32 +8602,32 @@
       <c r="Q32" s="112"/>
       <c r="R32" s="112"/>
       <c r="S32" s="112"/>
-      <c r="T32" s="289" t="s">
-        <v>80</v>
-      </c>
-      <c r="U32" s="289"/>
-      <c r="V32" s="289"/>
-      <c r="W32" s="289"/>
+      <c r="T32" s="325" t="s">
+        <v>79</v>
+      </c>
+      <c r="U32" s="325"/>
+      <c r="V32" s="325"/>
+      <c r="W32" s="325"/>
       <c r="X32" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="Y32" s="277" t="s">
-        <v>81</v>
-      </c>
-      <c r="Z32" s="277"/>
+      <c r="Y32" s="319" t="s">
+        <v>80</v>
+      </c>
+      <c r="Z32" s="319"/>
       <c r="AD32"/>
       <c r="AE32"/>
       <c r="AF32"/>
       <c r="AG32"/>
       <c r="AH32"/>
       <c r="AI32"/>
-      <c r="AJ32" s="291"/>
-      <c r="AK32" s="291"/>
+      <c r="AJ32" s="317"/>
+      <c r="AK32" s="317"/>
       <c r="AL32" s="115"/>
       <c r="AM32" s="115"/>
       <c r="AN32" s="115"/>
-      <c r="AO32" s="291"/>
-      <c r="AP32" s="291"/>
+      <c r="AO32" s="317"/>
+      <c r="AP32" s="317"/>
       <c r="AQ32" s="115"/>
       <c r="AR32" s="115"/>
       <c r="AS32" s="115"/>
@@ -8636,29 +8636,29 @@
       <c r="A33" s="70"/>
       <c r="B33" s="75"/>
       <c r="C33" s="76" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D33" s="77"/>
       <c r="E33" s="76" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F33" s="78"/>
       <c r="G33" s="223" t="s">
+        <v>293</v>
+      </c>
+      <c r="H33" s="255"/>
+      <c r="I33" s="256"/>
+      <c r="J33" s="217" t="s">
         <v>294</v>
-      </c>
-      <c r="H33" s="335"/>
-      <c r="I33" s="336"/>
-      <c r="J33" s="217" t="s">
-        <v>295</v>
       </c>
       <c r="K33" s="80"/>
       <c r="L33" s="223" t="s">
+        <v>295</v>
+      </c>
+      <c r="M33" s="255"/>
+      <c r="N33" s="256"/>
+      <c r="O33" s="217" t="s">
         <v>296</v>
-      </c>
-      <c r="M33" s="335"/>
-      <c r="N33" s="336"/>
-      <c r="O33" s="217" t="s">
-        <v>297</v>
       </c>
       <c r="P33" s="80"/>
       <c r="Q33" s="81"/>
@@ -8678,46 +8678,46 @@
       <c r="AG33"/>
       <c r="AH33"/>
       <c r="AI33"/>
-      <c r="AJ33" s="284"/>
-      <c r="AK33" s="284"/>
-      <c r="AL33" s="284"/>
-      <c r="AM33" s="284"/>
-      <c r="AN33" s="284"/>
-      <c r="AO33" s="284"/>
-      <c r="AP33" s="284"/>
-      <c r="AQ33" s="284"/>
-      <c r="AR33" s="284"/>
-      <c r="AS33" s="284"/>
+      <c r="AJ33" s="316"/>
+      <c r="AK33" s="316"/>
+      <c r="AL33" s="316"/>
+      <c r="AM33" s="316"/>
+      <c r="AN33" s="316"/>
+      <c r="AO33" s="316"/>
+      <c r="AP33" s="316"/>
+      <c r="AQ33" s="316"/>
+      <c r="AR33" s="316"/>
+      <c r="AS33" s="316"/>
     </row>
     <row r="34" spans="1:45" s="69" customFormat="1" ht="12" customHeight="1">
       <c r="A34" s="118"/>
       <c r="B34" s="85"/>
-      <c r="C34" s="247" t="s">
-        <v>98</v>
-      </c>
-      <c r="D34" s="249"/>
-      <c r="E34" s="247" t="s">
-        <v>126</v>
-      </c>
-      <c r="F34" s="249"/>
-      <c r="G34" s="247" t="s">
-        <v>154</v>
-      </c>
-      <c r="H34" s="248"/>
-      <c r="I34" s="249"/>
-      <c r="J34" s="247" t="s">
-        <v>182</v>
-      </c>
-      <c r="K34" s="249"/>
-      <c r="L34" s="247" t="s">
-        <v>210</v>
-      </c>
-      <c r="M34" s="248"/>
-      <c r="N34" s="249"/>
-      <c r="O34" s="247" t="s">
-        <v>234</v>
-      </c>
-      <c r="P34" s="249"/>
+      <c r="C34" s="248" t="s">
+        <v>97</v>
+      </c>
+      <c r="D34" s="250"/>
+      <c r="E34" s="248" t="s">
+        <v>125</v>
+      </c>
+      <c r="F34" s="250"/>
+      <c r="G34" s="248" t="s">
+        <v>153</v>
+      </c>
+      <c r="H34" s="249"/>
+      <c r="I34" s="250"/>
+      <c r="J34" s="248" t="s">
+        <v>181</v>
+      </c>
+      <c r="K34" s="250"/>
+      <c r="L34" s="248" t="s">
+        <v>209</v>
+      </c>
+      <c r="M34" s="249"/>
+      <c r="N34" s="250"/>
+      <c r="O34" s="248" t="s">
+        <v>233</v>
+      </c>
+      <c r="P34" s="250"/>
       <c r="Q34" s="85"/>
       <c r="S34" s="116"/>
       <c r="T34" s="117"/>
@@ -8735,13 +8735,13 @@
       <c r="AG34"/>
       <c r="AH34"/>
       <c r="AI34"/>
-      <c r="AJ34" s="292"/>
-      <c r="AK34" s="292"/>
+      <c r="AJ34" s="320"/>
+      <c r="AK34" s="320"/>
       <c r="AL34" s="120"/>
       <c r="AM34" s="119"/>
       <c r="AN34" s="120"/>
-      <c r="AO34" s="292"/>
-      <c r="AP34" s="292"/>
+      <c r="AO34" s="320"/>
+      <c r="AP34" s="320"/>
       <c r="AQ34" s="120"/>
       <c r="AR34" s="119"/>
       <c r="AS34" s="120"/>
@@ -8750,45 +8750,45 @@
       <c r="A35" s="118"/>
       <c r="B35" s="85"/>
       <c r="C35" s="220" t="s">
+        <v>297</v>
+      </c>
+      <c r="D35" s="87" t="s">
+        <v>98</v>
+      </c>
+      <c r="E35" s="220" t="s">
         <v>298</v>
       </c>
-      <c r="D35" s="87" t="s">
-        <v>99</v>
-      </c>
-      <c r="E35" s="220" t="s">
+      <c r="F35" s="88" t="s">
+        <v>126</v>
+      </c>
+      <c r="G35" s="220" t="s">
         <v>299</v>
       </c>
-      <c r="F35" s="88" t="s">
-        <v>127</v>
-      </c>
-      <c r="G35" s="220" t="s">
+      <c r="H35" s="281" t="s">
+        <v>154</v>
+      </c>
+      <c r="I35" s="282"/>
+      <c r="J35" s="220" t="s">
         <v>300</v>
       </c>
-      <c r="H35" s="285" t="s">
-        <v>155</v>
-      </c>
-      <c r="I35" s="286"/>
-      <c r="J35" s="220" t="s">
+      <c r="K35" s="87" t="s">
+        <v>182</v>
+      </c>
+      <c r="L35" s="220" t="s">
         <v>301</v>
       </c>
-      <c r="K35" s="87" t="s">
-        <v>183</v>
-      </c>
-      <c r="L35" s="220" t="s">
+      <c r="M35" s="281" t="s">
+        <v>210</v>
+      </c>
+      <c r="N35" s="282"/>
+      <c r="O35" s="220" t="s">
         <v>302</v>
       </c>
-      <c r="M35" s="285" t="s">
-        <v>211</v>
-      </c>
-      <c r="N35" s="286"/>
-      <c r="O35" s="220" t="s">
-        <v>303</v>
-      </c>
       <c r="P35" s="89" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="Q35" s="244" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="S35" s="116"/>
       <c r="T35" s="117"/>
@@ -8809,48 +8809,48 @@
       <c r="AG35"/>
       <c r="AH35"/>
       <c r="AI35"/>
-      <c r="AJ35" s="284"/>
-      <c r="AK35" s="284"/>
-      <c r="AL35" s="284"/>
-      <c r="AM35" s="284"/>
-      <c r="AN35" s="284"/>
-      <c r="AO35" s="257"/>
-      <c r="AP35" s="257"/>
-      <c r="AQ35" s="257"/>
-      <c r="AR35" s="293"/>
-      <c r="AS35" s="293"/>
+      <c r="AJ35" s="316"/>
+      <c r="AK35" s="316"/>
+      <c r="AL35" s="316"/>
+      <c r="AM35" s="316"/>
+      <c r="AN35" s="316"/>
+      <c r="AO35" s="277"/>
+      <c r="AP35" s="277"/>
+      <c r="AQ35" s="277"/>
+      <c r="AR35" s="321"/>
+      <c r="AS35" s="321"/>
     </row>
     <row r="36" spans="1:45" s="69" customFormat="1" ht="12" customHeight="1">
       <c r="A36" s="118"/>
       <c r="B36" s="85"/>
-      <c r="C36" s="260" t="s">
-        <v>100</v>
-      </c>
-      <c r="D36" s="261"/>
-      <c r="E36" s="260" t="s">
-        <v>128</v>
-      </c>
-      <c r="F36" s="261"/>
-      <c r="G36" s="260" t="s">
-        <v>156</v>
-      </c>
-      <c r="H36" s="250"/>
-      <c r="I36" s="261"/>
-      <c r="J36" s="260" t="s">
-        <v>184</v>
-      </c>
-      <c r="K36" s="261"/>
-      <c r="L36" s="253" t="s">
-        <v>212</v>
-      </c>
-      <c r="M36" s="254"/>
-      <c r="N36" s="255"/>
-      <c r="O36" s="260" t="s">
-        <v>236</v>
-      </c>
-      <c r="P36" s="261"/>
-      <c r="Q36" s="276" t="s">
-        <v>563</v>
+      <c r="C36" s="246" t="s">
+        <v>99</v>
+      </c>
+      <c r="D36" s="247"/>
+      <c r="E36" s="246" t="s">
+        <v>127</v>
+      </c>
+      <c r="F36" s="247"/>
+      <c r="G36" s="246" t="s">
+        <v>155</v>
+      </c>
+      <c r="H36" s="275"/>
+      <c r="I36" s="247"/>
+      <c r="J36" s="246" t="s">
+        <v>183</v>
+      </c>
+      <c r="K36" s="247"/>
+      <c r="L36" s="273" t="s">
+        <v>211</v>
+      </c>
+      <c r="M36" s="301"/>
+      <c r="N36" s="274"/>
+      <c r="O36" s="246" t="s">
+        <v>235</v>
+      </c>
+      <c r="P36" s="247"/>
+      <c r="Q36" s="300" t="s">
+        <v>562</v>
       </c>
       <c r="S36" s="116"/>
       <c r="T36" s="117"/>
@@ -8882,47 +8882,47 @@
     <row r="37" spans="1:45" s="69" customFormat="1" ht="12" customHeight="1">
       <c r="A37" s="118"/>
       <c r="B37" s="242" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C37" s="224" t="s">
+        <v>100</v>
+      </c>
+      <c r="D37" s="225" t="s">
         <v>101</v>
       </c>
-      <c r="D37" s="225" t="s">
-        <v>102</v>
-      </c>
       <c r="E37" s="224" t="s">
+        <v>128</v>
+      </c>
+      <c r="F37" s="225" t="s">
         <v>129</v>
       </c>
-      <c r="F37" s="225" t="s">
-        <v>130</v>
-      </c>
       <c r="G37" s="224" t="s">
+        <v>156</v>
+      </c>
+      <c r="H37" s="251" t="s">
         <v>157</v>
       </c>
-      <c r="H37" s="262" t="s">
-        <v>158</v>
-      </c>
-      <c r="I37" s="263"/>
+      <c r="I37" s="252"/>
       <c r="J37" s="224" t="s">
+        <v>184</v>
+      </c>
+      <c r="K37" s="225" t="s">
         <v>185</v>
       </c>
-      <c r="K37" s="225" t="s">
-        <v>186</v>
-      </c>
       <c r="L37" s="224" t="s">
+        <v>212</v>
+      </c>
+      <c r="M37" s="251" t="s">
         <v>213</v>
       </c>
-      <c r="M37" s="262" t="s">
-        <v>214</v>
-      </c>
-      <c r="N37" s="263"/>
+      <c r="N37" s="252"/>
       <c r="O37" s="227" t="s">
+        <v>236</v>
+      </c>
+      <c r="P37" s="225" t="s">
         <v>237</v>
       </c>
-      <c r="P37" s="225" t="s">
-        <v>238</v>
-      </c>
-      <c r="Q37" s="276"/>
+      <c r="Q37" s="300"/>
       <c r="S37" s="126"/>
       <c r="T37" s="117"/>
       <c r="U37" s="117"/>
@@ -8936,60 +8936,60 @@
         <v>34</v>
       </c>
       <c r="AF37" s="243" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="AG37" s="237"/>
       <c r="AH37" s="237"/>
       <c r="AI37" s="237"/>
-      <c r="AJ37" s="290"/>
-      <c r="AK37" s="290"/>
+      <c r="AJ37" s="318"/>
+      <c r="AK37" s="318"/>
       <c r="AL37" s="120"/>
       <c r="AM37" s="97"/>
       <c r="AN37" s="121"/>
       <c r="AO37" s="97"/>
-      <c r="AP37" s="294"/>
-      <c r="AQ37" s="294"/>
+      <c r="AP37" s="322"/>
+      <c r="AQ37" s="322"/>
       <c r="AR37" s="97"/>
       <c r="AS37" s="120"/>
     </row>
     <row r="38" spans="1:45" s="69" customFormat="1" ht="12" customHeight="1">
       <c r="A38" s="118"/>
-      <c r="B38" s="246" t="s">
-        <v>243</v>
+      <c r="B38" s="336" t="s">
+        <v>242</v>
       </c>
       <c r="C38" s="218" t="s">
+        <v>303</v>
+      </c>
+      <c r="D38" s="304" t="s">
+        <v>102</v>
+      </c>
+      <c r="E38" s="304"/>
+      <c r="F38" s="305"/>
+      <c r="G38" s="221" t="s">
         <v>304</v>
       </c>
-      <c r="D38" s="279" t="s">
-        <v>103</v>
-      </c>
-      <c r="E38" s="279"/>
-      <c r="F38" s="312"/>
-      <c r="G38" s="221" t="s">
+      <c r="H38" s="283" t="s">
+        <v>130</v>
+      </c>
+      <c r="I38" s="284"/>
+      <c r="J38" s="218" t="s">
         <v>305</v>
       </c>
-      <c r="H38" s="264" t="s">
-        <v>131</v>
-      </c>
-      <c r="I38" s="265"/>
-      <c r="J38" s="218" t="s">
+      <c r="K38" s="219" t="s">
+        <v>158</v>
+      </c>
+      <c r="L38" s="95" t="s">
         <v>306</v>
       </c>
-      <c r="K38" s="219" t="s">
-        <v>159</v>
-      </c>
-      <c r="L38" s="95" t="s">
+      <c r="M38" s="302" t="s">
+        <v>186</v>
+      </c>
+      <c r="N38" s="303"/>
+      <c r="O38" s="95" t="s">
         <v>307</v>
       </c>
-      <c r="M38" s="281" t="s">
-        <v>187</v>
-      </c>
-      <c r="N38" s="282"/>
-      <c r="O38" s="95" t="s">
-        <v>308</v>
-      </c>
       <c r="P38" s="93" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="Q38" s="233"/>
       <c r="S38" s="116"/>
@@ -9000,50 +9000,50 @@
       <c r="X38" s="71"/>
       <c r="Y38" s="127"/>
       <c r="Z38" s="71"/>
-      <c r="AF38" s="283" t="s">
-        <v>574</v>
+      <c r="AF38" s="323" t="s">
+        <v>573</v>
       </c>
       <c r="AG38" s="236"/>
       <c r="AH38" s="236"/>
       <c r="AI38" s="236"/>
-      <c r="AJ38" s="284"/>
-      <c r="AK38" s="284"/>
-      <c r="AL38" s="284"/>
-      <c r="AM38" s="257"/>
-      <c r="AN38" s="257"/>
-      <c r="AO38" s="257"/>
-      <c r="AP38" s="257"/>
-      <c r="AQ38" s="257"/>
-      <c r="AR38" s="257"/>
-      <c r="AS38" s="257"/>
+      <c r="AJ38" s="316"/>
+      <c r="AK38" s="316"/>
+      <c r="AL38" s="316"/>
+      <c r="AM38" s="277"/>
+      <c r="AN38" s="277"/>
+      <c r="AO38" s="277"/>
+      <c r="AP38" s="277"/>
+      <c r="AQ38" s="277"/>
+      <c r="AR38" s="277"/>
+      <c r="AS38" s="277"/>
     </row>
     <row r="39" spans="1:45" s="69" customFormat="1" ht="12" customHeight="1">
       <c r="A39" s="118"/>
-      <c r="B39" s="246"/>
-      <c r="C39" s="260" t="s">
-        <v>104</v>
-      </c>
-      <c r="D39" s="250"/>
-      <c r="E39" s="250"/>
-      <c r="F39" s="261"/>
-      <c r="G39" s="260" t="s">
-        <v>132</v>
-      </c>
-      <c r="H39" s="250"/>
-      <c r="I39" s="261"/>
-      <c r="J39" s="253" t="s">
-        <v>160</v>
-      </c>
-      <c r="K39" s="255"/>
-      <c r="L39" s="253" t="s">
-        <v>188</v>
-      </c>
-      <c r="M39" s="254"/>
-      <c r="N39" s="255"/>
-      <c r="O39" s="253" t="s">
-        <v>216</v>
-      </c>
-      <c r="P39" s="255"/>
+      <c r="B39" s="336"/>
+      <c r="C39" s="246" t="s">
+        <v>103</v>
+      </c>
+      <c r="D39" s="275"/>
+      <c r="E39" s="275"/>
+      <c r="F39" s="247"/>
+      <c r="G39" s="246" t="s">
+        <v>131</v>
+      </c>
+      <c r="H39" s="275"/>
+      <c r="I39" s="247"/>
+      <c r="J39" s="273" t="s">
+        <v>159</v>
+      </c>
+      <c r="K39" s="274"/>
+      <c r="L39" s="273" t="s">
+        <v>187</v>
+      </c>
+      <c r="M39" s="301"/>
+      <c r="N39" s="274"/>
+      <c r="O39" s="273" t="s">
+        <v>215</v>
+      </c>
+      <c r="P39" s="274"/>
       <c r="Q39" s="234"/>
       <c r="S39" s="126"/>
       <c r="T39" s="73" t="s">
@@ -9055,7 +9055,7 @@
       <c r="X39" s="71"/>
       <c r="Y39" s="127"/>
       <c r="Z39" s="74"/>
-      <c r="AF39" s="283"/>
+      <c r="AF39" s="323"/>
       <c r="AG39" s="238"/>
       <c r="AH39" s="238"/>
       <c r="AI39" s="125"/>
@@ -9074,63 +9074,63 @@
       <c r="A40" s="118"/>
       <c r="B40" s="85"/>
       <c r="C40" s="228" t="s">
+        <v>104</v>
+      </c>
+      <c r="D40" s="279" t="s">
         <v>105</v>
       </c>
-      <c r="D40" s="308" t="s">
-        <v>106</v>
-      </c>
-      <c r="E40" s="308"/>
-      <c r="F40" s="309"/>
+      <c r="E40" s="279"/>
+      <c r="F40" s="280"/>
       <c r="G40" s="229" t="s">
+        <v>132</v>
+      </c>
+      <c r="H40" s="279" t="s">
         <v>133</v>
       </c>
-      <c r="H40" s="308" t="s">
-        <v>134</v>
-      </c>
-      <c r="I40" s="309"/>
+      <c r="I40" s="280"/>
       <c r="J40" s="230" t="s">
+        <v>160</v>
+      </c>
+      <c r="K40" s="231" t="s">
         <v>161</v>
       </c>
-      <c r="K40" s="231" t="s">
-        <v>162</v>
-      </c>
       <c r="L40" s="230" t="s">
+        <v>188</v>
+      </c>
+      <c r="M40" s="279" t="s">
         <v>189</v>
       </c>
-      <c r="M40" s="308" t="s">
-        <v>190</v>
-      </c>
-      <c r="N40" s="309"/>
+      <c r="N40" s="280"/>
       <c r="O40" s="232" t="s">
+        <v>216</v>
+      </c>
+      <c r="P40" s="231" t="s">
         <v>217</v>
-      </c>
-      <c r="P40" s="231" t="s">
-        <v>218</v>
       </c>
       <c r="Q40" s="98"/>
       <c r="S40" s="65"/>
-      <c r="T40" s="288" t="s">
-        <v>253</v>
-      </c>
-      <c r="U40" s="288"/>
-      <c r="V40" s="288"/>
-      <c r="W40" s="288"/>
+      <c r="T40" s="310" t="s">
+        <v>252</v>
+      </c>
+      <c r="U40" s="310"/>
+      <c r="V40" s="310"/>
+      <c r="W40" s="310"/>
       <c r="X40" s="82"/>
       <c r="Y40" s="128" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Z40" s="74"/>
       <c r="AF40" s="241"/>
       <c r="AG40" s="120"/>
       <c r="AH40" s="238"/>
       <c r="AI40" s="237"/>
-      <c r="AJ40" s="290"/>
-      <c r="AK40" s="290"/>
+      <c r="AJ40" s="318"/>
+      <c r="AK40" s="318"/>
       <c r="AL40" s="120"/>
       <c r="AM40" s="97"/>
       <c r="AN40" s="120"/>
-      <c r="AO40" s="290"/>
-      <c r="AP40" s="290"/>
+      <c r="AO40" s="318"/>
+      <c r="AP40" s="318"/>
       <c r="AQ40" s="120"/>
       <c r="AR40" s="97"/>
       <c r="AS40" s="120"/>
@@ -9139,45 +9139,45 @@
       <c r="A41" s="118"/>
       <c r="B41" s="85"/>
       <c r="C41" s="218" t="s">
+        <v>308</v>
+      </c>
+      <c r="D41" s="89" t="s">
+        <v>106</v>
+      </c>
+      <c r="E41" s="218" t="s">
         <v>309</v>
       </c>
-      <c r="D41" s="89" t="s">
-        <v>107</v>
-      </c>
-      <c r="E41" s="218" t="s">
+      <c r="F41" s="89" t="s">
+        <v>134</v>
+      </c>
+      <c r="G41" s="221" t="s">
         <v>310</v>
       </c>
-      <c r="F41" s="89" t="s">
-        <v>135</v>
-      </c>
-      <c r="G41" s="221" t="s">
+      <c r="H41" s="283" t="s">
+        <v>162</v>
+      </c>
+      <c r="I41" s="284"/>
+      <c r="J41" s="218" t="s">
         <v>311</v>
       </c>
-      <c r="H41" s="264" t="s">
-        <v>163</v>
-      </c>
-      <c r="I41" s="265"/>
-      <c r="J41" s="218" t="s">
+      <c r="K41" s="89" t="s">
+        <v>190</v>
+      </c>
+      <c r="L41" s="221" t="s">
         <v>312</v>
       </c>
-      <c r="K41" s="89" t="s">
-        <v>191</v>
-      </c>
-      <c r="L41" s="221" t="s">
+      <c r="M41" s="283" t="s">
+        <v>218</v>
+      </c>
+      <c r="N41" s="284"/>
+      <c r="O41" s="218" t="s">
         <v>313</v>
       </c>
-      <c r="M41" s="264" t="s">
-        <v>219</v>
-      </c>
-      <c r="N41" s="265"/>
-      <c r="O41" s="218" t="s">
-        <v>314</v>
-      </c>
       <c r="P41" s="89" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="Q41" s="244" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="S41" s="112"/>
       <c r="T41" s="71"/>
@@ -9191,61 +9191,61 @@
       <c r="AG41" s="235"/>
       <c r="AH41" s="235"/>
       <c r="AI41" s="235"/>
-      <c r="AJ41" s="257"/>
-      <c r="AK41" s="257"/>
-      <c r="AL41" s="257"/>
-      <c r="AM41" s="284"/>
-      <c r="AN41" s="284"/>
-      <c r="AO41" s="257"/>
-      <c r="AP41" s="257"/>
-      <c r="AQ41" s="257"/>
-      <c r="AR41" s="257"/>
-      <c r="AS41" s="257"/>
+      <c r="AJ41" s="277"/>
+      <c r="AK41" s="277"/>
+      <c r="AL41" s="277"/>
+      <c r="AM41" s="316"/>
+      <c r="AN41" s="316"/>
+      <c r="AO41" s="277"/>
+      <c r="AP41" s="277"/>
+      <c r="AQ41" s="277"/>
+      <c r="AR41" s="277"/>
+      <c r="AS41" s="277"/>
     </row>
     <row r="42" spans="1:45" s="69" customFormat="1" ht="12" customHeight="1">
       <c r="A42" s="118"/>
       <c r="B42" s="85"/>
-      <c r="C42" s="260" t="s">
-        <v>108</v>
-      </c>
-      <c r="D42" s="261"/>
-      <c r="E42" s="260" t="s">
-        <v>136</v>
-      </c>
-      <c r="F42" s="261"/>
-      <c r="G42" s="256" t="s">
-        <v>164</v>
-      </c>
-      <c r="H42" s="257"/>
-      <c r="I42" s="258"/>
-      <c r="J42" s="260" t="s">
-        <v>192</v>
-      </c>
-      <c r="K42" s="261"/>
-      <c r="L42" s="256" t="s">
-        <v>220</v>
-      </c>
-      <c r="M42" s="257"/>
-      <c r="N42" s="258"/>
-      <c r="O42" s="260" t="s">
-        <v>240</v>
-      </c>
-      <c r="P42" s="261"/>
-      <c r="Q42" s="276" t="s">
-        <v>561</v>
+      <c r="C42" s="246" t="s">
+        <v>107</v>
+      </c>
+      <c r="D42" s="247"/>
+      <c r="E42" s="246" t="s">
+        <v>135</v>
+      </c>
+      <c r="F42" s="247"/>
+      <c r="G42" s="276" t="s">
+        <v>163</v>
+      </c>
+      <c r="H42" s="277"/>
+      <c r="I42" s="278"/>
+      <c r="J42" s="246" t="s">
+        <v>191</v>
+      </c>
+      <c r="K42" s="247"/>
+      <c r="L42" s="276" t="s">
+        <v>219</v>
+      </c>
+      <c r="M42" s="277"/>
+      <c r="N42" s="278"/>
+      <c r="O42" s="246" t="s">
+        <v>239</v>
+      </c>
+      <c r="P42" s="247"/>
+      <c r="Q42" s="300" t="s">
+        <v>560</v>
       </c>
       <c r="S42" s="71"/>
-      <c r="T42" s="287" t="s">
+      <c r="T42" s="290" t="s">
         <v>40</v>
       </c>
-      <c r="U42" s="287"/>
-      <c r="V42" s="287"/>
+      <c r="U42" s="290"/>
+      <c r="V42" s="290"/>
       <c r="W42" s="74" t="s">
         <v>8</v>
       </c>
       <c r="X42" s="82"/>
       <c r="Y42" s="128" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Z42" s="71"/>
       <c r="AF42" s="104"/>
@@ -9267,69 +9267,69 @@
       <c r="A43" s="118"/>
       <c r="B43" s="85"/>
       <c r="C43" s="224" t="s">
+        <v>108</v>
+      </c>
+      <c r="D43" s="225" t="s">
         <v>109</v>
       </c>
-      <c r="D43" s="225" t="s">
-        <v>110</v>
-      </c>
       <c r="E43" s="224" t="s">
+        <v>136</v>
+      </c>
+      <c r="F43" s="225" t="s">
         <v>137</v>
       </c>
-      <c r="F43" s="225" t="s">
-        <v>138</v>
-      </c>
       <c r="G43" s="224" t="s">
+        <v>164</v>
+      </c>
+      <c r="H43" s="253" t="s">
         <v>165</v>
       </c>
-      <c r="H43" s="266" t="s">
-        <v>166</v>
-      </c>
-      <c r="I43" s="267"/>
+      <c r="I43" s="254"/>
       <c r="J43" s="224" t="s">
+        <v>192</v>
+      </c>
+      <c r="K43" s="225" t="s">
         <v>193</v>
       </c>
-      <c r="K43" s="225" t="s">
-        <v>194</v>
-      </c>
       <c r="L43" s="224" t="s">
+        <v>220</v>
+      </c>
+      <c r="M43" s="251" t="s">
         <v>221</v>
       </c>
-      <c r="M43" s="262" t="s">
-        <v>222</v>
-      </c>
-      <c r="N43" s="263"/>
+      <c r="N43" s="252"/>
       <c r="O43" s="224" t="s">
+        <v>240</v>
+      </c>
+      <c r="P43" s="225" t="s">
         <v>241</v>
       </c>
-      <c r="P43" s="225" t="s">
-        <v>242</v>
-      </c>
-      <c r="Q43" s="276"/>
+      <c r="Q43" s="300"/>
       <c r="S43" s="71"/>
-      <c r="T43" s="287" t="s">
-        <v>72</v>
-      </c>
-      <c r="U43" s="287"/>
-      <c r="V43" s="287"/>
+      <c r="T43" s="290" t="s">
+        <v>71</v>
+      </c>
+      <c r="U43" s="290"/>
+      <c r="V43" s="290"/>
       <c r="W43" s="74" t="s">
         <v>8</v>
       </c>
       <c r="X43" s="82"/>
       <c r="Y43" s="128" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Z43" s="73"/>
       <c r="AF43" s="104"/>
       <c r="AG43" s="239"/>
       <c r="AH43" s="239"/>
       <c r="AI43" s="239"/>
-      <c r="AJ43" s="291"/>
-      <c r="AK43" s="291"/>
+      <c r="AJ43" s="317"/>
+      <c r="AK43" s="317"/>
       <c r="AL43" s="115"/>
       <c r="AM43" s="115"/>
       <c r="AN43" s="115"/>
-      <c r="AO43" s="291"/>
-      <c r="AP43" s="291"/>
+      <c r="AO43" s="317"/>
+      <c r="AP43" s="317"/>
       <c r="AQ43" s="115"/>
       <c r="AR43" s="115"/>
       <c r="AS43" s="115"/>
@@ -9338,44 +9338,44 @@
       <c r="A44" s="129"/>
       <c r="B44" s="85"/>
       <c r="C44" s="100" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D44" s="101"/>
       <c r="E44" s="100" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="F44" s="102"/>
       <c r="G44" s="223" t="s">
+        <v>316</v>
+      </c>
+      <c r="H44" s="255"/>
+      <c r="I44" s="256"/>
+      <c r="J44" s="100" t="s">
         <v>317</v>
-      </c>
-      <c r="H44" s="335"/>
-      <c r="I44" s="336"/>
-      <c r="J44" s="100" t="s">
-        <v>318</v>
       </c>
       <c r="K44" s="103"/>
       <c r="L44" s="223" t="s">
+        <v>318</v>
+      </c>
+      <c r="M44" s="255"/>
+      <c r="N44" s="256"/>
+      <c r="O44" s="76" t="s">
         <v>319</v>
-      </c>
-      <c r="M44" s="335"/>
-      <c r="N44" s="336"/>
-      <c r="O44" s="76" t="s">
-        <v>320</v>
       </c>
       <c r="P44" s="103"/>
       <c r="Q44" s="85"/>
       <c r="S44" s="71"/>
-      <c r="T44" s="288" t="s">
+      <c r="T44" s="310" t="s">
         <v>42</v>
       </c>
-      <c r="U44" s="288"/>
-      <c r="V44" s="288"/>
+      <c r="U44" s="310"/>
+      <c r="V44" s="310"/>
       <c r="W44" s="74" t="s">
         <v>8</v>
       </c>
       <c r="X44" s="73"/>
       <c r="Y44" s="128" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="Z44" s="73"/>
       <c r="AC44" s="69" t="s">
@@ -9385,46 +9385,46 @@
       <c r="AG44" s="236"/>
       <c r="AH44" s="236"/>
       <c r="AI44" s="236"/>
-      <c r="AJ44" s="284"/>
-      <c r="AK44" s="284"/>
-      <c r="AL44" s="284"/>
-      <c r="AM44" s="284"/>
-      <c r="AN44" s="284"/>
-      <c r="AO44" s="284"/>
-      <c r="AP44" s="284"/>
-      <c r="AQ44" s="284"/>
-      <c r="AR44" s="284"/>
-      <c r="AS44" s="284"/>
+      <c r="AJ44" s="316"/>
+      <c r="AK44" s="316"/>
+      <c r="AL44" s="316"/>
+      <c r="AM44" s="316"/>
+      <c r="AN44" s="316"/>
+      <c r="AO44" s="316"/>
+      <c r="AP44" s="316"/>
+      <c r="AQ44" s="316"/>
+      <c r="AR44" s="316"/>
+      <c r="AS44" s="316"/>
     </row>
     <row r="45" spans="1:45" s="69" customFormat="1" ht="12" customHeight="1">
       <c r="A45" s="84"/>
       <c r="B45" s="75"/>
-      <c r="C45" s="247" t="s">
-        <v>111</v>
-      </c>
-      <c r="D45" s="249"/>
-      <c r="E45" s="247" t="s">
-        <v>139</v>
-      </c>
-      <c r="F45" s="249"/>
-      <c r="G45" s="247" t="s">
-        <v>167</v>
-      </c>
-      <c r="H45" s="248"/>
-      <c r="I45" s="249"/>
-      <c r="J45" s="247" t="s">
-        <v>195</v>
-      </c>
-      <c r="K45" s="249"/>
-      <c r="L45" s="247" t="s">
-        <v>223</v>
-      </c>
-      <c r="M45" s="248"/>
-      <c r="N45" s="249"/>
-      <c r="O45" s="247" t="s">
-        <v>321</v>
-      </c>
-      <c r="P45" s="249"/>
+      <c r="C45" s="248" t="s">
+        <v>110</v>
+      </c>
+      <c r="D45" s="250"/>
+      <c r="E45" s="248" t="s">
+        <v>138</v>
+      </c>
+      <c r="F45" s="250"/>
+      <c r="G45" s="248" t="s">
+        <v>166</v>
+      </c>
+      <c r="H45" s="249"/>
+      <c r="I45" s="250"/>
+      <c r="J45" s="248" t="s">
+        <v>194</v>
+      </c>
+      <c r="K45" s="250"/>
+      <c r="L45" s="248" t="s">
+        <v>222</v>
+      </c>
+      <c r="M45" s="249"/>
+      <c r="N45" s="250"/>
+      <c r="O45" s="248" t="s">
+        <v>320</v>
+      </c>
+      <c r="P45" s="250"/>
       <c r="Q45" s="104"/>
       <c r="R45" s="71"/>
       <c r="S45" s="73"/>
@@ -9439,18 +9439,18 @@
     <row r="46" spans="1:45" ht="17.25" customHeight="1">
       <c r="A46" s="56"/>
       <c r="B46" s="131"/>
-      <c r="C46" s="316"/>
-      <c r="D46" s="316"/>
-      <c r="E46" s="316"/>
-      <c r="F46" s="316"/>
-      <c r="G46" s="316"/>
-      <c r="H46" s="316"/>
-      <c r="I46" s="316"/>
-      <c r="J46" s="316"/>
-      <c r="K46" s="316"/>
-      <c r="L46" s="316"/>
-      <c r="M46" s="316"/>
-      <c r="N46" s="316"/>
+      <c r="C46" s="257"/>
+      <c r="D46" s="257"/>
+      <c r="E46" s="257"/>
+      <c r="F46" s="257"/>
+      <c r="G46" s="257"/>
+      <c r="H46" s="257"/>
+      <c r="I46" s="257"/>
+      <c r="J46" s="257"/>
+      <c r="K46" s="257"/>
+      <c r="L46" s="257"/>
+      <c r="M46" s="257"/>
+      <c r="N46" s="257"/>
       <c r="O46" s="113"/>
       <c r="P46" s="112"/>
       <c r="Q46" s="112"/>
@@ -9507,20 +9507,20 @@
       <c r="F48" s="133"/>
       <c r="G48" s="133"/>
       <c r="H48" s="133"/>
-      <c r="I48" s="315"/>
-      <c r="J48" s="315"/>
-      <c r="K48" s="315"/>
-      <c r="L48" s="315"/>
-      <c r="M48" s="323" t="s">
+      <c r="I48" s="291"/>
+      <c r="J48" s="291"/>
+      <c r="K48" s="291"/>
+      <c r="L48" s="291"/>
+      <c r="M48" s="261" t="s">
         <v>15</v>
       </c>
-      <c r="N48" s="324"/>
-      <c r="O48" s="324"/>
-      <c r="P48" s="324"/>
-      <c r="Q48" s="324"/>
-      <c r="R48" s="324"/>
-      <c r="S48" s="324"/>
-      <c r="T48" s="325"/>
+      <c r="N48" s="262"/>
+      <c r="O48" s="262"/>
+      <c r="P48" s="262"/>
+      <c r="Q48" s="262"/>
+      <c r="R48" s="262"/>
+      <c r="S48" s="262"/>
+      <c r="T48" s="263"/>
       <c r="U48" s="136"/>
       <c r="V48" s="136"/>
       <c r="W48" s="136"/>
@@ -9541,22 +9541,22 @@
       <c r="F49" s="139"/>
       <c r="G49" s="139"/>
       <c r="H49" s="140"/>
-      <c r="I49" s="321" t="s">
-        <v>255</v>
-      </c>
-      <c r="J49" s="321"/>
-      <c r="K49" s="321"/>
-      <c r="L49" s="321"/>
-      <c r="M49" s="326" t="s">
-        <v>262</v>
-      </c>
-      <c r="N49" s="327"/>
-      <c r="O49" s="327"/>
-      <c r="P49" s="327"/>
-      <c r="Q49" s="327"/>
-      <c r="R49" s="327"/>
-      <c r="S49" s="327"/>
-      <c r="T49" s="328"/>
+      <c r="I49" s="245" t="s">
+        <v>254</v>
+      </c>
+      <c r="J49" s="245"/>
+      <c r="K49" s="245"/>
+      <c r="L49" s="245"/>
+      <c r="M49" s="264" t="s">
+        <v>261</v>
+      </c>
+      <c r="N49" s="265"/>
+      <c r="O49" s="265"/>
+      <c r="P49" s="265"/>
+      <c r="Q49" s="265"/>
+      <c r="R49" s="265"/>
+      <c r="S49" s="265"/>
+      <c r="T49" s="266"/>
       <c r="U49" s="136"/>
       <c r="V49" s="136"/>
       <c r="W49" s="136"/>
@@ -9577,20 +9577,20 @@
       <c r="F50" s="139"/>
       <c r="G50" s="139"/>
       <c r="H50" s="140"/>
-      <c r="I50" s="321" t="s">
-        <v>256</v>
-      </c>
-      <c r="J50" s="321"/>
-      <c r="K50" s="321"/>
-      <c r="L50" s="321"/>
-      <c r="M50" s="329"/>
-      <c r="N50" s="330"/>
-      <c r="O50" s="330"/>
-      <c r="P50" s="330"/>
-      <c r="Q50" s="330"/>
-      <c r="R50" s="330"/>
-      <c r="S50" s="330"/>
-      <c r="T50" s="331"/>
+      <c r="I50" s="245" t="s">
+        <v>255</v>
+      </c>
+      <c r="J50" s="245"/>
+      <c r="K50" s="245"/>
+      <c r="L50" s="245"/>
+      <c r="M50" s="267"/>
+      <c r="N50" s="268"/>
+      <c r="O50" s="268"/>
+      <c r="P50" s="268"/>
+      <c r="Q50" s="268"/>
+      <c r="R50" s="268"/>
+      <c r="S50" s="268"/>
+      <c r="T50" s="269"/>
       <c r="U50" s="137"/>
       <c r="V50" s="136"/>
       <c r="W50" s="136"/>
@@ -9604,27 +9604,27 @@
       <c r="A51" s="135"/>
       <c r="B51" s="141"/>
       <c r="C51" s="139" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="D51" s="139"/>
       <c r="E51" s="139"/>
       <c r="F51" s="139"/>
       <c r="G51" s="139"/>
       <c r="H51" s="140"/>
-      <c r="I51" s="321" t="s">
-        <v>259</v>
-      </c>
-      <c r="J51" s="321"/>
-      <c r="K51" s="321"/>
-      <c r="L51" s="321"/>
-      <c r="M51" s="329"/>
-      <c r="N51" s="330"/>
-      <c r="O51" s="330"/>
-      <c r="P51" s="330"/>
-      <c r="Q51" s="330"/>
-      <c r="R51" s="330"/>
-      <c r="S51" s="330"/>
-      <c r="T51" s="331"/>
+      <c r="I51" s="245" t="s">
+        <v>258</v>
+      </c>
+      <c r="J51" s="245"/>
+      <c r="K51" s="245"/>
+      <c r="L51" s="245"/>
+      <c r="M51" s="267"/>
+      <c r="N51" s="268"/>
+      <c r="O51" s="268"/>
+      <c r="P51" s="268"/>
+      <c r="Q51" s="268"/>
+      <c r="R51" s="268"/>
+      <c r="S51" s="268"/>
+      <c r="T51" s="269"/>
       <c r="U51" s="137"/>
       <c r="V51" s="136"/>
       <c r="W51" s="136"/>
@@ -9645,20 +9645,20 @@
       <c r="F52" s="139"/>
       <c r="G52" s="139"/>
       <c r="H52" s="140"/>
-      <c r="I52" s="321" t="s">
-        <v>258</v>
-      </c>
-      <c r="J52" s="321"/>
-      <c r="K52" s="321"/>
-      <c r="L52" s="321"/>
-      <c r="M52" s="329"/>
-      <c r="N52" s="330"/>
-      <c r="O52" s="330"/>
-      <c r="P52" s="330"/>
-      <c r="Q52" s="330"/>
-      <c r="R52" s="330"/>
-      <c r="S52" s="330"/>
-      <c r="T52" s="331"/>
+      <c r="I52" s="245" t="s">
+        <v>257</v>
+      </c>
+      <c r="J52" s="245"/>
+      <c r="K52" s="245"/>
+      <c r="L52" s="245"/>
+      <c r="M52" s="267"/>
+      <c r="N52" s="268"/>
+      <c r="O52" s="268"/>
+      <c r="P52" s="268"/>
+      <c r="Q52" s="268"/>
+      <c r="R52" s="268"/>
+      <c r="S52" s="268"/>
+      <c r="T52" s="269"/>
       <c r="U52" s="137"/>
       <c r="V52" s="136"/>
       <c r="W52" s="136"/>
@@ -9679,20 +9679,20 @@
       <c r="F53" s="139"/>
       <c r="G53" s="139"/>
       <c r="H53" s="140"/>
-      <c r="I53" s="321" t="s">
-        <v>257</v>
-      </c>
-      <c r="J53" s="321"/>
-      <c r="K53" s="321"/>
-      <c r="L53" s="321"/>
-      <c r="M53" s="329"/>
-      <c r="N53" s="330"/>
-      <c r="O53" s="330"/>
-      <c r="P53" s="330"/>
-      <c r="Q53" s="330"/>
-      <c r="R53" s="330"/>
-      <c r="S53" s="330"/>
-      <c r="T53" s="331"/>
+      <c r="I53" s="245" t="s">
+        <v>256</v>
+      </c>
+      <c r="J53" s="245"/>
+      <c r="K53" s="245"/>
+      <c r="L53" s="245"/>
+      <c r="M53" s="267"/>
+      <c r="N53" s="268"/>
+      <c r="O53" s="268"/>
+      <c r="P53" s="268"/>
+      <c r="Q53" s="268"/>
+      <c r="R53" s="268"/>
+      <c r="S53" s="268"/>
+      <c r="T53" s="269"/>
       <c r="U53" s="137"/>
       <c r="V53" s="136"/>
       <c r="W53" s="136"/>
@@ -9704,29 +9704,29 @@
     </row>
     <row r="54" spans="1:30" ht="13.2" customHeight="1">
       <c r="A54" s="135"/>
-      <c r="B54" s="337" t="s">
+      <c r="B54" s="287" t="s">
         <v>20</v>
       </c>
-      <c r="C54" s="338"/>
-      <c r="D54" s="338"/>
-      <c r="E54" s="338"/>
-      <c r="F54" s="338"/>
-      <c r="G54" s="338"/>
-      <c r="H54" s="339"/>
-      <c r="I54" s="320" t="s">
-        <v>260</v>
-      </c>
-      <c r="J54" s="320"/>
-      <c r="K54" s="320"/>
-      <c r="L54" s="320"/>
-      <c r="M54" s="329"/>
-      <c r="N54" s="330"/>
-      <c r="O54" s="330"/>
-      <c r="P54" s="330"/>
-      <c r="Q54" s="330"/>
-      <c r="R54" s="330"/>
-      <c r="S54" s="330"/>
-      <c r="T54" s="331"/>
+      <c r="C54" s="288"/>
+      <c r="D54" s="288"/>
+      <c r="E54" s="288"/>
+      <c r="F54" s="288"/>
+      <c r="G54" s="288"/>
+      <c r="H54" s="289"/>
+      <c r="I54" s="296" t="s">
+        <v>259</v>
+      </c>
+      <c r="J54" s="296"/>
+      <c r="K54" s="296"/>
+      <c r="L54" s="296"/>
+      <c r="M54" s="267"/>
+      <c r="N54" s="268"/>
+      <c r="O54" s="268"/>
+      <c r="P54" s="268"/>
+      <c r="Q54" s="268"/>
+      <c r="R54" s="268"/>
+      <c r="S54" s="268"/>
+      <c r="T54" s="269"/>
       <c r="U54" s="137"/>
       <c r="V54" s="136"/>
       <c r="W54" s="136"/>
@@ -9749,18 +9749,18 @@
       <c r="F55" s="143"/>
       <c r="G55" s="143"/>
       <c r="H55" s="144"/>
-      <c r="I55" s="320"/>
-      <c r="J55" s="320"/>
-      <c r="K55" s="320"/>
-      <c r="L55" s="320"/>
-      <c r="M55" s="329"/>
-      <c r="N55" s="330"/>
-      <c r="O55" s="330"/>
-      <c r="P55" s="330"/>
-      <c r="Q55" s="330"/>
-      <c r="R55" s="330"/>
-      <c r="S55" s="330"/>
-      <c r="T55" s="331"/>
+      <c r="I55" s="296"/>
+      <c r="J55" s="296"/>
+      <c r="K55" s="296"/>
+      <c r="L55" s="296"/>
+      <c r="M55" s="267"/>
+      <c r="N55" s="268"/>
+      <c r="O55" s="268"/>
+      <c r="P55" s="268"/>
+      <c r="Q55" s="268"/>
+      <c r="R55" s="268"/>
+      <c r="S55" s="268"/>
+      <c r="T55" s="269"/>
       <c r="U55" s="137"/>
       <c r="V55" s="136"/>
       <c r="W55" s="136"/>
@@ -9783,18 +9783,18 @@
       <c r="F56" s="143"/>
       <c r="G56" s="143"/>
       <c r="H56" s="144"/>
-      <c r="I56" s="320"/>
-      <c r="J56" s="320"/>
-      <c r="K56" s="320"/>
-      <c r="L56" s="320"/>
-      <c r="M56" s="329"/>
-      <c r="N56" s="330"/>
-      <c r="O56" s="330"/>
-      <c r="P56" s="330"/>
-      <c r="Q56" s="330"/>
-      <c r="R56" s="330"/>
-      <c r="S56" s="330"/>
-      <c r="T56" s="331"/>
+      <c r="I56" s="296"/>
+      <c r="J56" s="296"/>
+      <c r="K56" s="296"/>
+      <c r="L56" s="296"/>
+      <c r="M56" s="267"/>
+      <c r="N56" s="268"/>
+      <c r="O56" s="268"/>
+      <c r="P56" s="268"/>
+      <c r="Q56" s="268"/>
+      <c r="R56" s="268"/>
+      <c r="S56" s="268"/>
+      <c r="T56" s="269"/>
       <c r="U56" s="137"/>
       <c r="V56" s="136"/>
       <c r="W56" s="136"/>
@@ -9817,18 +9817,18 @@
       <c r="F57" s="143"/>
       <c r="G57" s="143"/>
       <c r="H57" s="144"/>
-      <c r="I57" s="320"/>
-      <c r="J57" s="320"/>
-      <c r="K57" s="320"/>
-      <c r="L57" s="320"/>
-      <c r="M57" s="329"/>
-      <c r="N57" s="330"/>
-      <c r="O57" s="330"/>
-      <c r="P57" s="330"/>
-      <c r="Q57" s="330"/>
-      <c r="R57" s="330"/>
-      <c r="S57" s="330"/>
-      <c r="T57" s="331"/>
+      <c r="I57" s="296"/>
+      <c r="J57" s="296"/>
+      <c r="K57" s="296"/>
+      <c r="L57" s="296"/>
+      <c r="M57" s="267"/>
+      <c r="N57" s="268"/>
+      <c r="O57" s="268"/>
+      <c r="P57" s="268"/>
+      <c r="Q57" s="268"/>
+      <c r="R57" s="268"/>
+      <c r="S57" s="268"/>
+      <c r="T57" s="269"/>
       <c r="U57" s="137"/>
       <c r="V57" s="136"/>
       <c r="W57" s="136"/>
@@ -9851,18 +9851,18 @@
       <c r="F58" s="143"/>
       <c r="G58" s="143"/>
       <c r="H58" s="144"/>
-      <c r="I58" s="320"/>
-      <c r="J58" s="320"/>
-      <c r="K58" s="320"/>
-      <c r="L58" s="320"/>
-      <c r="M58" s="329"/>
-      <c r="N58" s="330"/>
-      <c r="O58" s="330"/>
-      <c r="P58" s="330"/>
-      <c r="Q58" s="330"/>
-      <c r="R58" s="330"/>
-      <c r="S58" s="330"/>
-      <c r="T58" s="331"/>
+      <c r="I58" s="296"/>
+      <c r="J58" s="296"/>
+      <c r="K58" s="296"/>
+      <c r="L58" s="296"/>
+      <c r="M58" s="267"/>
+      <c r="N58" s="268"/>
+      <c r="O58" s="268"/>
+      <c r="P58" s="268"/>
+      <c r="Q58" s="268"/>
+      <c r="R58" s="268"/>
+      <c r="S58" s="268"/>
+      <c r="T58" s="269"/>
       <c r="U58" s="137"/>
       <c r="V58" s="136"/>
       <c r="W58" s="136"/>
@@ -9885,18 +9885,18 @@
       <c r="F59" s="145"/>
       <c r="G59" s="145"/>
       <c r="H59" s="146"/>
-      <c r="I59" s="320"/>
-      <c r="J59" s="320"/>
-      <c r="K59" s="320"/>
-      <c r="L59" s="320"/>
-      <c r="M59" s="332"/>
-      <c r="N59" s="333"/>
-      <c r="O59" s="333"/>
-      <c r="P59" s="333"/>
-      <c r="Q59" s="333"/>
-      <c r="R59" s="333"/>
-      <c r="S59" s="333"/>
-      <c r="T59" s="334"/>
+      <c r="I59" s="296"/>
+      <c r="J59" s="296"/>
+      <c r="K59" s="296"/>
+      <c r="L59" s="296"/>
+      <c r="M59" s="270"/>
+      <c r="N59" s="271"/>
+      <c r="O59" s="271"/>
+      <c r="P59" s="271"/>
+      <c r="Q59" s="271"/>
+      <c r="R59" s="271"/>
+      <c r="S59" s="271"/>
+      <c r="T59" s="272"/>
       <c r="U59" s="137"/>
       <c r="V59" s="136"/>
       <c r="W59" s="136"/>
@@ -9943,7 +9943,7 @@
         <v>24</v>
       </c>
       <c r="B61" s="148" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C61" s="148"/>
       <c r="D61" s="148"/>
@@ -9982,28 +9982,28 @@
       <c r="C62" s="151"/>
       <c r="D62" s="151"/>
       <c r="E62" s="152"/>
-      <c r="F62" s="303" t="s">
-        <v>244</v>
-      </c>
-      <c r="G62" s="303"/>
-      <c r="H62" s="303"/>
-      <c r="I62" s="303"/>
-      <c r="J62" s="303"/>
-      <c r="K62" s="295"/>
-      <c r="L62" s="295"/>
-      <c r="M62" s="295"/>
-      <c r="N62" s="295"/>
-      <c r="O62" s="295"/>
-      <c r="P62" s="299"/>
-      <c r="Q62" s="299"/>
-      <c r="R62" s="299"/>
-      <c r="S62" s="299"/>
-      <c r="T62" s="299"/>
-      <c r="U62" s="299"/>
-      <c r="V62" s="299"/>
-      <c r="W62" s="299"/>
-      <c r="X62" s="299"/>
-      <c r="Y62" s="299"/>
+      <c r="F62" s="259" t="s">
+        <v>243</v>
+      </c>
+      <c r="G62" s="259"/>
+      <c r="H62" s="259"/>
+      <c r="I62" s="259"/>
+      <c r="J62" s="259"/>
+      <c r="K62" s="297"/>
+      <c r="L62" s="297"/>
+      <c r="M62" s="297"/>
+      <c r="N62" s="297"/>
+      <c r="O62" s="297"/>
+      <c r="P62" s="258"/>
+      <c r="Q62" s="258"/>
+      <c r="R62" s="258"/>
+      <c r="S62" s="258"/>
+      <c r="T62" s="258"/>
+      <c r="U62" s="258"/>
+      <c r="V62" s="258"/>
+      <c r="W62" s="258"/>
+      <c r="X62" s="258"/>
+      <c r="Y62" s="258"/>
       <c r="Z62" s="56"/>
       <c r="AA62" s="56"/>
       <c r="AB62" s="56"/>
@@ -10016,32 +10016,32 @@
         <v>26</v>
       </c>
       <c r="C63" s="154"/>
-      <c r="D63" s="318" t="s">
+      <c r="D63" s="294" t="s">
         <v>27</v>
       </c>
-      <c r="E63" s="319"/>
-      <c r="F63" s="303" t="s">
-        <v>245</v>
-      </c>
-      <c r="G63" s="303"/>
-      <c r="H63" s="303"/>
-      <c r="I63" s="303"/>
-      <c r="J63" s="303"/>
-      <c r="K63" s="295"/>
-      <c r="L63" s="295"/>
-      <c r="M63" s="295"/>
-      <c r="N63" s="295"/>
-      <c r="O63" s="295"/>
-      <c r="P63" s="295"/>
-      <c r="Q63" s="295"/>
-      <c r="R63" s="295"/>
-      <c r="S63" s="295"/>
-      <c r="T63" s="295"/>
-      <c r="U63" s="295"/>
-      <c r="V63" s="295"/>
-      <c r="W63" s="295"/>
-      <c r="X63" s="295"/>
-      <c r="Y63" s="295"/>
+      <c r="E63" s="295"/>
+      <c r="F63" s="259" t="s">
+        <v>244</v>
+      </c>
+      <c r="G63" s="259"/>
+      <c r="H63" s="259"/>
+      <c r="I63" s="259"/>
+      <c r="J63" s="259"/>
+      <c r="K63" s="297"/>
+      <c r="L63" s="297"/>
+      <c r="M63" s="297"/>
+      <c r="N63" s="297"/>
+      <c r="O63" s="297"/>
+      <c r="P63" s="297"/>
+      <c r="Q63" s="297"/>
+      <c r="R63" s="297"/>
+      <c r="S63" s="297"/>
+      <c r="T63" s="297"/>
+      <c r="U63" s="297"/>
+      <c r="V63" s="297"/>
+      <c r="W63" s="297"/>
+      <c r="X63" s="297"/>
+      <c r="Y63" s="297"/>
       <c r="Z63" s="306"/>
       <c r="AA63" s="306"/>
       <c r="AB63" s="306"/>
@@ -10056,28 +10056,28 @@
       <c r="C64" s="151"/>
       <c r="D64" s="151"/>
       <c r="E64" s="152"/>
-      <c r="F64" s="303" t="s">
-        <v>246</v>
-      </c>
-      <c r="G64" s="303"/>
-      <c r="H64" s="303"/>
-      <c r="I64" s="303"/>
-      <c r="J64" s="303"/>
-      <c r="K64" s="295"/>
-      <c r="L64" s="295"/>
-      <c r="M64" s="295"/>
-      <c r="N64" s="295"/>
-      <c r="O64" s="295"/>
-      <c r="P64" s="295"/>
-      <c r="Q64" s="295"/>
-      <c r="R64" s="295"/>
-      <c r="S64" s="295"/>
-      <c r="T64" s="295"/>
-      <c r="U64" s="295"/>
-      <c r="V64" s="295"/>
-      <c r="W64" s="295"/>
-      <c r="X64" s="295"/>
-      <c r="Y64" s="295"/>
+      <c r="F64" s="259" t="s">
+        <v>245</v>
+      </c>
+      <c r="G64" s="259"/>
+      <c r="H64" s="259"/>
+      <c r="I64" s="259"/>
+      <c r="J64" s="259"/>
+      <c r="K64" s="297"/>
+      <c r="L64" s="297"/>
+      <c r="M64" s="297"/>
+      <c r="N64" s="297"/>
+      <c r="O64" s="297"/>
+      <c r="P64" s="297"/>
+      <c r="Q64" s="297"/>
+      <c r="R64" s="297"/>
+      <c r="S64" s="297"/>
+      <c r="T64" s="297"/>
+      <c r="U64" s="297"/>
+      <c r="V64" s="297"/>
+      <c r="W64" s="297"/>
+      <c r="X64" s="297"/>
+      <c r="Y64" s="297"/>
       <c r="Z64" s="306"/>
       <c r="AA64" s="306"/>
       <c r="AB64" s="306"/>
@@ -10092,28 +10092,28 @@
       <c r="C65" s="151"/>
       <c r="D65" s="151"/>
       <c r="E65" s="152"/>
-      <c r="F65" s="303" t="s">
-        <v>247</v>
-      </c>
-      <c r="G65" s="303"/>
-      <c r="H65" s="303"/>
-      <c r="I65" s="303"/>
-      <c r="J65" s="303"/>
-      <c r="K65" s="304"/>
-      <c r="L65" s="304"/>
-      <c r="M65" s="304"/>
-      <c r="N65" s="304"/>
-      <c r="O65" s="304"/>
-      <c r="P65" s="304"/>
-      <c r="Q65" s="304"/>
-      <c r="R65" s="304"/>
-      <c r="S65" s="304"/>
-      <c r="T65" s="304"/>
-      <c r="U65" s="304"/>
-      <c r="V65" s="304"/>
-      <c r="W65" s="304"/>
-      <c r="X65" s="304"/>
-      <c r="Y65" s="304"/>
+      <c r="F65" s="259" t="s">
+        <v>246</v>
+      </c>
+      <c r="G65" s="259"/>
+      <c r="H65" s="259"/>
+      <c r="I65" s="259"/>
+      <c r="J65" s="259"/>
+      <c r="K65" s="308"/>
+      <c r="L65" s="308"/>
+      <c r="M65" s="308"/>
+      <c r="N65" s="308"/>
+      <c r="O65" s="308"/>
+      <c r="P65" s="308"/>
+      <c r="Q65" s="308"/>
+      <c r="R65" s="308"/>
+      <c r="S65" s="308"/>
+      <c r="T65" s="308"/>
+      <c r="U65" s="308"/>
+      <c r="V65" s="308"/>
+      <c r="W65" s="308"/>
+      <c r="X65" s="308"/>
+      <c r="Y65" s="308"/>
       <c r="Z65" s="306"/>
       <c r="AA65" s="306"/>
       <c r="AB65" s="306"/>
@@ -10128,28 +10128,28 @@
       <c r="C66" s="151"/>
       <c r="D66" s="151"/>
       <c r="E66" s="152"/>
-      <c r="F66" s="303" t="s">
-        <v>248</v>
-      </c>
-      <c r="G66" s="303"/>
-      <c r="H66" s="303"/>
-      <c r="I66" s="303"/>
-      <c r="J66" s="303"/>
-      <c r="K66" s="304"/>
-      <c r="L66" s="304"/>
-      <c r="M66" s="304"/>
-      <c r="N66" s="304"/>
-      <c r="O66" s="304"/>
-      <c r="P66" s="304"/>
-      <c r="Q66" s="304"/>
-      <c r="R66" s="304"/>
-      <c r="S66" s="304"/>
-      <c r="T66" s="304"/>
-      <c r="U66" s="304"/>
-      <c r="V66" s="304"/>
-      <c r="W66" s="304"/>
-      <c r="X66" s="304"/>
-      <c r="Y66" s="304"/>
+      <c r="F66" s="259" t="s">
+        <v>247</v>
+      </c>
+      <c r="G66" s="259"/>
+      <c r="H66" s="259"/>
+      <c r="I66" s="259"/>
+      <c r="J66" s="259"/>
+      <c r="K66" s="308"/>
+      <c r="L66" s="308"/>
+      <c r="M66" s="308"/>
+      <c r="N66" s="308"/>
+      <c r="O66" s="308"/>
+      <c r="P66" s="308"/>
+      <c r="Q66" s="308"/>
+      <c r="R66" s="308"/>
+      <c r="S66" s="308"/>
+      <c r="T66" s="308"/>
+      <c r="U66" s="308"/>
+      <c r="V66" s="308"/>
+      <c r="W66" s="308"/>
+      <c r="X66" s="308"/>
+      <c r="Y66" s="308"/>
       <c r="Z66" s="307"/>
       <c r="AA66" s="307"/>
       <c r="AB66" s="307"/>
@@ -10158,34 +10158,34 @@
     </row>
     <row r="67" spans="1:30" ht="17.25" customHeight="1">
       <c r="A67" s="69"/>
-      <c r="B67" s="317" t="s">
+      <c r="B67" s="293" t="s">
         <v>50</v>
       </c>
-      <c r="C67" s="318"/>
-      <c r="D67" s="318"/>
-      <c r="E67" s="319"/>
-      <c r="F67" s="303" t="s">
-        <v>249</v>
-      </c>
-      <c r="G67" s="303"/>
-      <c r="H67" s="303"/>
-      <c r="I67" s="303"/>
-      <c r="J67" s="303"/>
-      <c r="K67" s="304"/>
-      <c r="L67" s="304"/>
-      <c r="M67" s="304"/>
-      <c r="N67" s="304"/>
-      <c r="O67" s="304"/>
-      <c r="P67" s="304"/>
-      <c r="Q67" s="304"/>
-      <c r="R67" s="304"/>
-      <c r="S67" s="304"/>
-      <c r="T67" s="304"/>
-      <c r="U67" s="304"/>
-      <c r="V67" s="304"/>
-      <c r="W67" s="304"/>
-      <c r="X67" s="304"/>
-      <c r="Y67" s="304"/>
+      <c r="C67" s="294"/>
+      <c r="D67" s="294"/>
+      <c r="E67" s="295"/>
+      <c r="F67" s="259" t="s">
+        <v>248</v>
+      </c>
+      <c r="G67" s="259"/>
+      <c r="H67" s="259"/>
+      <c r="I67" s="259"/>
+      <c r="J67" s="259"/>
+      <c r="K67" s="308"/>
+      <c r="L67" s="308"/>
+      <c r="M67" s="308"/>
+      <c r="N67" s="308"/>
+      <c r="O67" s="308"/>
+      <c r="P67" s="308"/>
+      <c r="Q67" s="308"/>
+      <c r="R67" s="308"/>
+      <c r="S67" s="308"/>
+      <c r="T67" s="308"/>
+      <c r="U67" s="308"/>
+      <c r="V67" s="308"/>
+      <c r="W67" s="308"/>
+      <c r="X67" s="308"/>
+      <c r="Y67" s="308"/>
       <c r="Z67" s="307"/>
       <c r="AA67" s="307"/>
       <c r="AB67" s="307"/>
@@ -10200,28 +10200,28 @@
       <c r="C68" s="151"/>
       <c r="D68" s="151"/>
       <c r="E68" s="152"/>
-      <c r="F68" s="303" t="s">
-        <v>250</v>
-      </c>
-      <c r="G68" s="303"/>
-      <c r="H68" s="303"/>
-      <c r="I68" s="303"/>
-      <c r="J68" s="303"/>
-      <c r="K68" s="298"/>
-      <c r="L68" s="298"/>
-      <c r="M68" s="298"/>
-      <c r="N68" s="298"/>
-      <c r="O68" s="298"/>
-      <c r="P68" s="298"/>
-      <c r="Q68" s="298"/>
-      <c r="R68" s="298"/>
-      <c r="S68" s="298"/>
-      <c r="T68" s="298"/>
-      <c r="U68" s="298"/>
-      <c r="V68" s="298"/>
-      <c r="W68" s="298"/>
-      <c r="X68" s="298"/>
-      <c r="Y68" s="298"/>
+      <c r="F68" s="259" t="s">
+        <v>249</v>
+      </c>
+      <c r="G68" s="259"/>
+      <c r="H68" s="259"/>
+      <c r="I68" s="259"/>
+      <c r="J68" s="259"/>
+      <c r="K68" s="292"/>
+      <c r="L68" s="292"/>
+      <c r="M68" s="292"/>
+      <c r="N68" s="292"/>
+      <c r="O68" s="292"/>
+      <c r="P68" s="292"/>
+      <c r="Q68" s="292"/>
+      <c r="R68" s="292"/>
+      <c r="S68" s="292"/>
+      <c r="T68" s="292"/>
+      <c r="U68" s="292"/>
+      <c r="V68" s="292"/>
+      <c r="W68" s="292"/>
+      <c r="X68" s="292"/>
+      <c r="Y68" s="292"/>
       <c r="Z68" s="155"/>
       <c r="AA68" s="156"/>
       <c r="AB68" s="155"/>
@@ -10236,28 +10236,28 @@
       <c r="C69" s="151"/>
       <c r="D69" s="151"/>
       <c r="E69" s="152"/>
-      <c r="F69" s="303" t="s">
-        <v>251</v>
-      </c>
-      <c r="G69" s="303"/>
-      <c r="H69" s="303"/>
-      <c r="I69" s="303"/>
-      <c r="J69" s="303"/>
-      <c r="K69" s="305"/>
-      <c r="L69" s="305"/>
-      <c r="M69" s="305"/>
-      <c r="N69" s="305"/>
-      <c r="O69" s="305"/>
-      <c r="P69" s="305"/>
-      <c r="Q69" s="305"/>
-      <c r="R69" s="305"/>
-      <c r="S69" s="305"/>
-      <c r="T69" s="305"/>
-      <c r="U69" s="305"/>
-      <c r="V69" s="305"/>
-      <c r="W69" s="305"/>
-      <c r="X69" s="305"/>
-      <c r="Y69" s="305"/>
+      <c r="F69" s="259" t="s">
+        <v>250</v>
+      </c>
+      <c r="G69" s="259"/>
+      <c r="H69" s="259"/>
+      <c r="I69" s="259"/>
+      <c r="J69" s="259"/>
+      <c r="K69" s="309"/>
+      <c r="L69" s="309"/>
+      <c r="M69" s="309"/>
+      <c r="N69" s="309"/>
+      <c r="O69" s="309"/>
+      <c r="P69" s="309"/>
+      <c r="Q69" s="309"/>
+      <c r="R69" s="309"/>
+      <c r="S69" s="309"/>
+      <c r="T69" s="309"/>
+      <c r="U69" s="309"/>
+      <c r="V69" s="309"/>
+      <c r="W69" s="309"/>
+      <c r="X69" s="309"/>
+      <c r="Y69" s="309"/>
       <c r="Z69" s="306"/>
       <c r="AA69" s="306"/>
       <c r="AB69" s="306"/>
@@ -10272,27 +10272,27 @@
       <c r="C70" s="151"/>
       <c r="D70" s="151"/>
       <c r="E70" s="152"/>
-      <c r="F70" s="300" t="s">
-        <v>252</v>
-      </c>
-      <c r="G70" s="301"/>
-      <c r="H70" s="301"/>
-      <c r="I70" s="301"/>
-      <c r="J70" s="302"/>
+      <c r="F70" s="313" t="s">
+        <v>251</v>
+      </c>
+      <c r="G70" s="314"/>
+      <c r="H70" s="314"/>
+      <c r="I70" s="314"/>
+      <c r="J70" s="315"/>
       <c r="K70" s="114"/>
-      <c r="L70" s="295"/>
-      <c r="M70" s="295"/>
-      <c r="N70" s="295"/>
+      <c r="L70" s="297"/>
+      <c r="M70" s="297"/>
+      <c r="N70" s="297"/>
       <c r="O70" s="114"/>
       <c r="P70" s="114"/>
-      <c r="Q70" s="295"/>
-      <c r="R70" s="295"/>
-      <c r="S70" s="295"/>
+      <c r="Q70" s="297"/>
+      <c r="R70" s="297"/>
+      <c r="S70" s="297"/>
       <c r="T70" s="114"/>
       <c r="U70" s="114"/>
-      <c r="V70" s="295"/>
-      <c r="W70" s="295"/>
-      <c r="X70" s="295"/>
+      <c r="V70" s="297"/>
+      <c r="W70" s="297"/>
+      <c r="X70" s="297"/>
       <c r="Y70" s="114"/>
       <c r="Z70" s="56"/>
       <c r="AA70" s="56"/>
@@ -10338,10 +10338,10 @@
       <c r="N72" s="160"/>
     </row>
     <row r="73" spans="1:30" ht="17.25" customHeight="1">
-      <c r="J73" s="296"/>
-      <c r="K73" s="297"/>
-      <c r="L73" s="297"/>
-      <c r="M73" s="297"/>
+      <c r="J73" s="311"/>
+      <c r="K73" s="312"/>
+      <c r="L73" s="312"/>
+      <c r="M73" s="312"/>
       <c r="W73" s="161"/>
     </row>
     <row r="75" spans="1:30" ht="17.25" customHeight="1">
@@ -10352,19 +10352,190 @@
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
   <mergeCells count="221">
-    <mergeCell ref="I52:L52"/>
-    <mergeCell ref="O42:P42"/>
-    <mergeCell ref="L45:N45"/>
-    <mergeCell ref="O45:P45"/>
-    <mergeCell ref="M43:N43"/>
-    <mergeCell ref="H43:I43"/>
-    <mergeCell ref="H44:I44"/>
-    <mergeCell ref="I46:J46"/>
-    <mergeCell ref="P62:T62"/>
-    <mergeCell ref="M46:N46"/>
-    <mergeCell ref="J45:K45"/>
-    <mergeCell ref="K46:L46"/>
-    <mergeCell ref="F62:J62"/>
+    <mergeCell ref="L3:O3"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="L34:N34"/>
+    <mergeCell ref="O16:P16"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="D4:H4"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="J7:N7"/>
+    <mergeCell ref="L16:N16"/>
+    <mergeCell ref="L21:N21"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="M37:N37"/>
+    <mergeCell ref="O39:P39"/>
+    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="V5:Z5"/>
+    <mergeCell ref="V6:Z6"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="L18:N18"/>
+    <mergeCell ref="T18:W18"/>
+    <mergeCell ref="O21:P21"/>
+    <mergeCell ref="T19:W19"/>
+    <mergeCell ref="T20:W20"/>
+    <mergeCell ref="V7:Z7"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="T15:W15"/>
+    <mergeCell ref="P12:Z12"/>
+    <mergeCell ref="Y10:Z10"/>
+    <mergeCell ref="W11:Z11"/>
+    <mergeCell ref="T16:W16"/>
+    <mergeCell ref="Q18:Q19"/>
+    <mergeCell ref="Y16:Z16"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="AF20:AF21"/>
+    <mergeCell ref="AJ33:AL33"/>
+    <mergeCell ref="AM33:AN33"/>
+    <mergeCell ref="AO33:AQ33"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="M35:N35"/>
+    <mergeCell ref="T27:V27"/>
+    <mergeCell ref="T28:V28"/>
+    <mergeCell ref="T42:V42"/>
+    <mergeCell ref="T40:W40"/>
+    <mergeCell ref="O27:P27"/>
+    <mergeCell ref="T31:W31"/>
+    <mergeCell ref="J39:K39"/>
+    <mergeCell ref="L39:N39"/>
+    <mergeCell ref="T32:W32"/>
+    <mergeCell ref="G34:I34"/>
+    <mergeCell ref="Q36:Q37"/>
+    <mergeCell ref="Q42:Q43"/>
+    <mergeCell ref="AF38:AF39"/>
+    <mergeCell ref="AJ40:AK40"/>
+    <mergeCell ref="AO40:AP40"/>
+    <mergeCell ref="T24:W24"/>
+    <mergeCell ref="O24:P24"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="AR38:AS38"/>
+    <mergeCell ref="AJ37:AK37"/>
+    <mergeCell ref="AJ32:AK32"/>
+    <mergeCell ref="Y32:Z32"/>
+    <mergeCell ref="AR33:AS33"/>
+    <mergeCell ref="AJ34:AK34"/>
+    <mergeCell ref="AO34:AP34"/>
+    <mergeCell ref="AJ35:AL35"/>
+    <mergeCell ref="AM35:AN35"/>
+    <mergeCell ref="AO35:AQ35"/>
+    <mergeCell ref="AR35:AS35"/>
+    <mergeCell ref="AP37:AQ37"/>
+    <mergeCell ref="AJ38:AL38"/>
+    <mergeCell ref="AM38:AN38"/>
+    <mergeCell ref="AO38:AQ38"/>
+    <mergeCell ref="AO32:AP32"/>
+    <mergeCell ref="AR44:AS44"/>
+    <mergeCell ref="AJ43:AK43"/>
+    <mergeCell ref="AO43:AP43"/>
+    <mergeCell ref="AR41:AS41"/>
+    <mergeCell ref="AJ44:AL44"/>
+    <mergeCell ref="AM44:AN44"/>
+    <mergeCell ref="AO44:AQ44"/>
+    <mergeCell ref="AO41:AQ41"/>
+    <mergeCell ref="AJ41:AL41"/>
+    <mergeCell ref="AM41:AN41"/>
+    <mergeCell ref="V70:X70"/>
+    <mergeCell ref="T43:V43"/>
+    <mergeCell ref="T44:V44"/>
+    <mergeCell ref="J73:M73"/>
+    <mergeCell ref="U68:Y68"/>
+    <mergeCell ref="U62:Y62"/>
+    <mergeCell ref="U63:Y63"/>
+    <mergeCell ref="F70:J70"/>
+    <mergeCell ref="F66:J66"/>
+    <mergeCell ref="F69:J69"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="K67:O67"/>
+    <mergeCell ref="L70:N70"/>
+    <mergeCell ref="K69:O69"/>
+    <mergeCell ref="K65:O65"/>
+    <mergeCell ref="K66:O66"/>
+    <mergeCell ref="P69:T69"/>
+    <mergeCell ref="P65:T65"/>
+    <mergeCell ref="P66:T66"/>
+    <mergeCell ref="Q70:S70"/>
+    <mergeCell ref="K62:O62"/>
+    <mergeCell ref="F68:J68"/>
+    <mergeCell ref="K68:O68"/>
+    <mergeCell ref="G45:I45"/>
+    <mergeCell ref="Z64:AD64"/>
+    <mergeCell ref="U64:Y64"/>
+    <mergeCell ref="P64:T64"/>
+    <mergeCell ref="Z69:AD69"/>
+    <mergeCell ref="Z67:AD67"/>
+    <mergeCell ref="P63:T63"/>
+    <mergeCell ref="U65:Y65"/>
+    <mergeCell ref="U66:Y66"/>
+    <mergeCell ref="Z65:AD65"/>
+    <mergeCell ref="Z66:AD66"/>
+    <mergeCell ref="Z63:AD63"/>
+    <mergeCell ref="U69:Y69"/>
+    <mergeCell ref="U67:Y67"/>
+    <mergeCell ref="P67:T67"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="Q24:Q25"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="G42:I42"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="L36:N36"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="J42:K42"/>
+    <mergeCell ref="M38:N38"/>
+    <mergeCell ref="L42:N42"/>
+    <mergeCell ref="G39:I39"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="C39:F39"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="M40:N40"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="M33:N33"/>
+    <mergeCell ref="F64:J64"/>
+    <mergeCell ref="F63:J63"/>
+    <mergeCell ref="F65:J65"/>
+    <mergeCell ref="I48:L48"/>
+    <mergeCell ref="P68:T68"/>
+    <mergeCell ref="C46:F46"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="B67:E67"/>
+    <mergeCell ref="F67:J67"/>
+    <mergeCell ref="I54:L59"/>
+    <mergeCell ref="O36:P36"/>
+    <mergeCell ref="I49:L49"/>
+    <mergeCell ref="I50:L50"/>
+    <mergeCell ref="M41:N41"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="D40:F40"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="K64:O64"/>
+    <mergeCell ref="D63:E63"/>
+    <mergeCell ref="K63:O63"/>
+    <mergeCell ref="M44:N44"/>
+    <mergeCell ref="I51:L51"/>
     <mergeCell ref="D5:H5"/>
     <mergeCell ref="I53:L53"/>
     <mergeCell ref="M48:T48"/>
@@ -10389,190 +10560,19 @@
     <mergeCell ref="B54:H54"/>
     <mergeCell ref="E24:F24"/>
     <mergeCell ref="T26:V26"/>
-    <mergeCell ref="F64:J64"/>
-    <mergeCell ref="F63:J63"/>
-    <mergeCell ref="F65:J65"/>
-    <mergeCell ref="I48:L48"/>
-    <mergeCell ref="P68:T68"/>
-    <mergeCell ref="C46:F46"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="G46:H46"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="B67:E67"/>
-    <mergeCell ref="F67:J67"/>
-    <mergeCell ref="I54:L59"/>
-    <mergeCell ref="O36:P36"/>
-    <mergeCell ref="I49:L49"/>
-    <mergeCell ref="I50:L50"/>
-    <mergeCell ref="M41:N41"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="D40:F40"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="K64:O64"/>
-    <mergeCell ref="D63:E63"/>
-    <mergeCell ref="K63:O63"/>
-    <mergeCell ref="M44:N44"/>
-    <mergeCell ref="I51:L51"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="M22:N22"/>
-    <mergeCell ref="Q24:Q25"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="G42:I42"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="L36:N36"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="J42:K42"/>
-    <mergeCell ref="M38:N38"/>
-    <mergeCell ref="L42:N42"/>
-    <mergeCell ref="G39:I39"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="J36:K36"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="C39:F39"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="M40:N40"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="M33:N33"/>
-    <mergeCell ref="Z64:AD64"/>
-    <mergeCell ref="U64:Y64"/>
-    <mergeCell ref="P64:T64"/>
-    <mergeCell ref="Z69:AD69"/>
-    <mergeCell ref="Z67:AD67"/>
-    <mergeCell ref="P63:T63"/>
-    <mergeCell ref="U65:Y65"/>
-    <mergeCell ref="U66:Y66"/>
-    <mergeCell ref="Z65:AD65"/>
-    <mergeCell ref="Z66:AD66"/>
-    <mergeCell ref="Z63:AD63"/>
-    <mergeCell ref="U69:Y69"/>
-    <mergeCell ref="U67:Y67"/>
-    <mergeCell ref="P67:T67"/>
-    <mergeCell ref="V70:X70"/>
-    <mergeCell ref="T43:V43"/>
-    <mergeCell ref="T44:V44"/>
-    <mergeCell ref="J73:M73"/>
-    <mergeCell ref="U68:Y68"/>
-    <mergeCell ref="U62:Y62"/>
-    <mergeCell ref="U63:Y63"/>
-    <mergeCell ref="F70:J70"/>
-    <mergeCell ref="F66:J66"/>
-    <mergeCell ref="F69:J69"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="K67:O67"/>
-    <mergeCell ref="L70:N70"/>
-    <mergeCell ref="K69:O69"/>
-    <mergeCell ref="K65:O65"/>
-    <mergeCell ref="K66:O66"/>
-    <mergeCell ref="P69:T69"/>
-    <mergeCell ref="P65:T65"/>
-    <mergeCell ref="P66:T66"/>
-    <mergeCell ref="Q70:S70"/>
-    <mergeCell ref="K62:O62"/>
-    <mergeCell ref="F68:J68"/>
-    <mergeCell ref="K68:O68"/>
-    <mergeCell ref="G45:I45"/>
-    <mergeCell ref="AR44:AS44"/>
-    <mergeCell ref="AJ43:AK43"/>
-    <mergeCell ref="AO43:AP43"/>
-    <mergeCell ref="AR41:AS41"/>
-    <mergeCell ref="AJ44:AL44"/>
-    <mergeCell ref="AM44:AN44"/>
-    <mergeCell ref="AO44:AQ44"/>
-    <mergeCell ref="AO41:AQ41"/>
-    <mergeCell ref="AJ41:AL41"/>
-    <mergeCell ref="AM41:AN41"/>
-    <mergeCell ref="AR38:AS38"/>
-    <mergeCell ref="AJ37:AK37"/>
-    <mergeCell ref="AJ32:AK32"/>
-    <mergeCell ref="Y32:Z32"/>
-    <mergeCell ref="AR33:AS33"/>
-    <mergeCell ref="AJ34:AK34"/>
-    <mergeCell ref="AO34:AP34"/>
-    <mergeCell ref="AJ35:AL35"/>
-    <mergeCell ref="AM35:AN35"/>
-    <mergeCell ref="AO35:AQ35"/>
-    <mergeCell ref="AR35:AS35"/>
-    <mergeCell ref="AP37:AQ37"/>
-    <mergeCell ref="AJ38:AL38"/>
-    <mergeCell ref="AM38:AN38"/>
-    <mergeCell ref="AO38:AQ38"/>
-    <mergeCell ref="AO32:AP32"/>
-    <mergeCell ref="AF20:AF21"/>
-    <mergeCell ref="AJ33:AL33"/>
-    <mergeCell ref="AM33:AN33"/>
-    <mergeCell ref="AO33:AQ33"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="M35:N35"/>
-    <mergeCell ref="T27:V27"/>
-    <mergeCell ref="T28:V28"/>
-    <mergeCell ref="T42:V42"/>
-    <mergeCell ref="T40:W40"/>
-    <mergeCell ref="O27:P27"/>
-    <mergeCell ref="T31:W31"/>
-    <mergeCell ref="J39:K39"/>
-    <mergeCell ref="L39:N39"/>
-    <mergeCell ref="T32:W32"/>
-    <mergeCell ref="G34:I34"/>
-    <mergeCell ref="Q36:Q37"/>
-    <mergeCell ref="Q42:Q43"/>
-    <mergeCell ref="AF38:AF39"/>
-    <mergeCell ref="AJ40:AK40"/>
-    <mergeCell ref="AO40:AP40"/>
-    <mergeCell ref="T24:W24"/>
-    <mergeCell ref="O24:P24"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="V5:Z5"/>
-    <mergeCell ref="V6:Z6"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="L18:N18"/>
-    <mergeCell ref="T18:W18"/>
-    <mergeCell ref="O21:P21"/>
-    <mergeCell ref="T19:W19"/>
-    <mergeCell ref="T20:W20"/>
-    <mergeCell ref="V7:Z7"/>
-    <mergeCell ref="M19:N19"/>
-    <mergeCell ref="T15:W15"/>
-    <mergeCell ref="P12:Z12"/>
-    <mergeCell ref="Y10:Z10"/>
-    <mergeCell ref="W11:Z11"/>
-    <mergeCell ref="T16:W16"/>
-    <mergeCell ref="Q18:Q19"/>
-    <mergeCell ref="Y16:Z16"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="L3:O3"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="L34:N34"/>
-    <mergeCell ref="O16:P16"/>
-    <mergeCell ref="O18:P18"/>
-    <mergeCell ref="D4:H4"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="J7:N7"/>
-    <mergeCell ref="L16:N16"/>
-    <mergeCell ref="L21:N21"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="M37:N37"/>
-    <mergeCell ref="O39:P39"/>
-    <mergeCell ref="M23:N23"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="I52:L52"/>
+    <mergeCell ref="O42:P42"/>
+    <mergeCell ref="L45:N45"/>
+    <mergeCell ref="O45:P45"/>
+    <mergeCell ref="M43:N43"/>
+    <mergeCell ref="H43:I43"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="I46:J46"/>
+    <mergeCell ref="P62:T62"/>
+    <mergeCell ref="M46:N46"/>
+    <mergeCell ref="J45:K45"/>
+    <mergeCell ref="K46:L46"/>
+    <mergeCell ref="F62:J62"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <dataValidations disablePrompts="1" count="1">
@@ -10614,18 +10614,18 @@
     <row r="1" spans="1:28"/>
     <row r="2" spans="1:28">
       <c r="A2" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="3" spans="1:28">
       <c r="A3" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="4" spans="1:28"/>
     <row r="5" spans="1:28">
       <c r="A5" s="2" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B5" s="38"/>
       <c r="C5" s="38"/>
@@ -10660,7 +10660,7 @@
     </row>
     <row r="7" spans="1:28">
       <c r="B7" s="7" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
@@ -10682,72 +10682,72 @@
       <c r="T7" s="8"/>
     </row>
     <row r="8" spans="1:28">
-      <c r="B8" s="346" t="s">
+      <c r="B8" s="368" t="s">
+        <v>479</v>
+      </c>
+      <c r="C8" s="368"/>
+      <c r="D8" s="368"/>
+      <c r="E8" s="368"/>
+      <c r="F8" s="361" t="s">
+        <v>580</v>
+      </c>
+      <c r="G8" s="362"/>
+      <c r="J8" s="368" t="s">
         <v>480</v>
       </c>
-      <c r="C8" s="346"/>
-      <c r="D8" s="346"/>
-      <c r="E8" s="346"/>
-      <c r="F8" s="344" t="s">
-        <v>581</v>
-      </c>
-      <c r="G8" s="345"/>
-      <c r="J8" s="346" t="s">
+      <c r="K8" s="368"/>
+      <c r="L8" s="368"/>
+      <c r="M8" s="369"/>
+      <c r="N8" s="361" t="s">
+        <v>496</v>
+      </c>
+      <c r="O8" s="362"/>
+      <c r="R8" s="8"/>
+    </row>
+    <row r="9" spans="1:28">
+      <c r="B9" s="368" t="s">
+        <v>497</v>
+      </c>
+      <c r="C9" s="368"/>
+      <c r="D9" s="368"/>
+      <c r="E9" s="368"/>
+      <c r="F9" s="361" t="s">
+        <v>503</v>
+      </c>
+      <c r="G9" s="362"/>
+      <c r="J9" s="368" t="s">
+        <v>498</v>
+      </c>
+      <c r="K9" s="368"/>
+      <c r="L9" s="368"/>
+      <c r="M9" s="369"/>
+      <c r="N9" s="361" t="s">
+        <v>500</v>
+      </c>
+      <c r="O9" s="362"/>
+      <c r="R9" s="8"/>
+    </row>
+    <row r="10" spans="1:28">
+      <c r="B10" s="368" t="s">
+        <v>499</v>
+      </c>
+      <c r="C10" s="368"/>
+      <c r="D10" s="368"/>
+      <c r="E10" s="368"/>
+      <c r="F10" s="361" t="s">
+        <v>502</v>
+      </c>
+      <c r="G10" s="362"/>
+      <c r="J10" s="368" t="s">
         <v>481</v>
       </c>
-      <c r="K8" s="346"/>
-      <c r="L8" s="346"/>
-      <c r="M8" s="347"/>
-      <c r="N8" s="344" t="s">
-        <v>497</v>
-      </c>
-      <c r="O8" s="345"/>
-      <c r="R8" s="8"/>
-    </row>
-    <row r="9" spans="1:28">
-      <c r="B9" s="346" t="s">
-        <v>498</v>
-      </c>
-      <c r="C9" s="346"/>
-      <c r="D9" s="346"/>
-      <c r="E9" s="346"/>
-      <c r="F9" s="344" t="s">
-        <v>504</v>
-      </c>
-      <c r="G9" s="345"/>
-      <c r="J9" s="346" t="s">
-        <v>499</v>
-      </c>
-      <c r="K9" s="346"/>
-      <c r="L9" s="346"/>
-      <c r="M9" s="347"/>
-      <c r="N9" s="344" t="s">
+      <c r="K10" s="368"/>
+      <c r="L10" s="368"/>
+      <c r="M10" s="369"/>
+      <c r="N10" s="361" t="s">
         <v>501</v>
       </c>
-      <c r="O9" s="345"/>
-      <c r="R9" s="8"/>
-    </row>
-    <row r="10" spans="1:28">
-      <c r="B10" s="346" t="s">
-        <v>500</v>
-      </c>
-      <c r="C10" s="346"/>
-      <c r="D10" s="346"/>
-      <c r="E10" s="346"/>
-      <c r="F10" s="344" t="s">
-        <v>503</v>
-      </c>
-      <c r="G10" s="345"/>
-      <c r="J10" s="346" t="s">
-        <v>482</v>
-      </c>
-      <c r="K10" s="346"/>
-      <c r="L10" s="346"/>
-      <c r="M10" s="347"/>
-      <c r="N10" s="344" t="s">
-        <v>502</v>
-      </c>
-      <c r="O10" s="345"/>
+      <c r="O10" s="362"/>
       <c r="R10" s="8"/>
     </row>
     <row r="11" spans="1:28">
@@ -10779,108 +10779,108 @@
       <c r="R12" s="8"/>
     </row>
     <row r="13" spans="1:28">
-      <c r="B13" s="358" t="s">
+      <c r="B13" s="363" t="s">
+        <v>452</v>
+      </c>
+      <c r="C13" s="363"/>
+      <c r="D13" s="363"/>
+      <c r="E13" s="361" t="s">
+        <v>504</v>
+      </c>
+      <c r="F13" s="362"/>
+      <c r="H13" s="12" t="s">
         <v>453</v>
-      </c>
-      <c r="C13" s="358"/>
-      <c r="D13" s="358"/>
-      <c r="E13" s="344" t="s">
-        <v>505</v>
-      </c>
-      <c r="F13" s="345"/>
-      <c r="H13" s="12" t="s">
-        <v>454</v>
       </c>
       <c r="I13" s="12"/>
       <c r="J13" s="12"/>
-      <c r="K13" s="353" t="s">
-        <v>506</v>
-      </c>
-      <c r="L13" s="353" t="s">
-        <v>452</v>
+      <c r="K13" s="364" t="s">
+        <v>505</v>
+      </c>
+      <c r="L13" s="364" t="s">
+        <v>451</v>
       </c>
       <c r="M13" s="11"/>
-      <c r="N13" s="358" t="s">
-        <v>455</v>
-      </c>
-      <c r="O13" s="358"/>
-      <c r="P13" s="358"/>
-      <c r="Q13" s="344" t="s">
-        <v>575</v>
-      </c>
-      <c r="R13" s="345"/>
+      <c r="N13" s="363" t="s">
+        <v>454</v>
+      </c>
+      <c r="O13" s="363"/>
+      <c r="P13" s="363"/>
+      <c r="Q13" s="361" t="s">
+        <v>574</v>
+      </c>
+      <c r="R13" s="362"/>
       <c r="S13" s="13"/>
       <c r="T13" s="13"/>
     </row>
     <row r="14" spans="1:28">
-      <c r="B14" s="358" t="s">
+      <c r="B14" s="363" t="s">
+        <v>455</v>
+      </c>
+      <c r="C14" s="363"/>
+      <c r="D14" s="363"/>
+      <c r="E14" s="361" t="s">
+        <v>506</v>
+      </c>
+      <c r="F14" s="362"/>
+      <c r="H14" s="12" t="s">
         <v>456</v>
-      </c>
-      <c r="C14" s="358"/>
-      <c r="D14" s="358"/>
-      <c r="E14" s="344" t="s">
-        <v>507</v>
-      </c>
-      <c r="F14" s="345"/>
-      <c r="H14" s="12" t="s">
-        <v>457</v>
       </c>
       <c r="I14" s="12"/>
       <c r="J14" s="12"/>
-      <c r="K14" s="353" t="s">
+      <c r="K14" s="364" t="s">
+        <v>507</v>
+      </c>
+      <c r="L14" s="364"/>
+      <c r="M14" s="11"/>
+      <c r="N14" s="363" t="s">
+        <v>457</v>
+      </c>
+      <c r="O14" s="363"/>
+      <c r="P14" s="363"/>
+      <c r="Q14" s="361" t="s">
         <v>508</v>
       </c>
-      <c r="L14" s="353"/>
-      <c r="M14" s="11"/>
-      <c r="N14" s="358" t="s">
+      <c r="R14" s="362"/>
+      <c r="T14" s="363" t="s">
         <v>458</v>
       </c>
-      <c r="O14" s="358"/>
-      <c r="P14" s="358"/>
-      <c r="Q14" s="344" t="s">
+      <c r="U14" s="363"/>
+      <c r="V14" s="361" t="s">
+        <v>581</v>
+      </c>
+      <c r="W14" s="362"/>
+    </row>
+    <row r="15" spans="1:28">
+      <c r="B15" s="363" t="s">
+        <v>459</v>
+      </c>
+      <c r="C15" s="363"/>
+      <c r="D15" s="363"/>
+      <c r="E15" s="361" t="s">
         <v>509</v>
       </c>
-      <c r="R14" s="345"/>
-      <c r="T14" s="358" t="s">
-        <v>459</v>
-      </c>
-      <c r="U14" s="358"/>
-      <c r="V14" s="344" t="s">
-        <v>582</v>
-      </c>
-      <c r="W14" s="345"/>
-    </row>
-    <row r="15" spans="1:28">
-      <c r="B15" s="358" t="s">
-        <v>460</v>
-      </c>
-      <c r="C15" s="358"/>
-      <c r="D15" s="358"/>
-      <c r="E15" s="344" t="s">
-        <v>510</v>
-      </c>
-      <c r="F15" s="345"/>
+      <c r="F15" s="362"/>
       <c r="H15" s="12" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="I15" s="12"/>
       <c r="J15" s="12"/>
-      <c r="K15" s="353" t="s">
+      <c r="K15" s="364" t="s">
+        <v>510</v>
+      </c>
+      <c r="L15" s="364" t="s">
+        <v>460</v>
+      </c>
+      <c r="M15" s="11"/>
+      <c r="N15" s="363" t="s">
+        <v>462</v>
+      </c>
+      <c r="O15" s="363"/>
+      <c r="P15" s="363"/>
+      <c r="Q15" s="361" t="s">
         <v>511</v>
       </c>
-      <c r="L15" s="353" t="s">
-        <v>461</v>
-      </c>
-      <c r="M15" s="11"/>
-      <c r="N15" s="358" t="s">
-        <v>463</v>
-      </c>
-      <c r="O15" s="358"/>
-      <c r="P15" s="358"/>
-      <c r="Q15" s="344" t="s">
-        <v>512</v>
-      </c>
-      <c r="R15" s="345"/>
+      <c r="R15" s="362"/>
       <c r="S15" s="13"/>
       <c r="T15" s="13"/>
       <c r="V15" s="3"/>
@@ -10891,7 +10891,7 @@
     </row>
     <row r="17" spans="2:22">
       <c r="B17" s="15" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
@@ -10909,59 +10909,59 @@
     </row>
     <row r="18" spans="2:22" ht="15" customHeight="1">
       <c r="B18" s="20" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C18" s="20"/>
       <c r="D18" s="5"/>
       <c r="E18" s="16"/>
-      <c r="F18" s="351" t="s">
+      <c r="F18" s="370" t="s">
+        <v>465</v>
+      </c>
+      <c r="G18" s="371"/>
+      <c r="H18" s="361" t="s">
+        <v>512</v>
+      </c>
+      <c r="I18" s="362"/>
+      <c r="J18" s="16"/>
+      <c r="K18" s="370" t="s">
         <v>466</v>
       </c>
-      <c r="G18" s="352"/>
-      <c r="H18" s="344" t="s">
+      <c r="L18" s="371"/>
+      <c r="M18" s="361" t="s">
         <v>513</v>
       </c>
-      <c r="I18" s="345"/>
-      <c r="J18" s="16"/>
-      <c r="K18" s="351" t="s">
-        <v>467</v>
-      </c>
-      <c r="L18" s="352"/>
-      <c r="M18" s="344" t="s">
-        <v>514</v>
-      </c>
-      <c r="N18" s="345"/>
+      <c r="N18" s="362"/>
       <c r="O18" s="19"/>
     </row>
     <row r="19" spans="2:22" ht="15" customHeight="1">
       <c r="B19" s="20" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
       <c r="E19" s="16"/>
-      <c r="F19" s="351" t="s">
+      <c r="F19" s="370" t="s">
+        <v>465</v>
+      </c>
+      <c r="G19" s="371"/>
+      <c r="H19" s="361" t="s">
+        <v>514</v>
+      </c>
+      <c r="I19" s="362"/>
+      <c r="J19" s="16"/>
+      <c r="K19" s="370" t="s">
         <v>466</v>
       </c>
-      <c r="G19" s="352"/>
-      <c r="H19" s="344" t="s">
+      <c r="L19" s="371"/>
+      <c r="M19" s="361" t="s">
         <v>515</v>
       </c>
-      <c r="I19" s="345"/>
-      <c r="J19" s="16"/>
-      <c r="K19" s="351" t="s">
-        <v>467</v>
-      </c>
-      <c r="L19" s="352"/>
-      <c r="M19" s="344" t="s">
-        <v>516</v>
-      </c>
-      <c r="N19" s="345"/>
+      <c r="N19" s="362"/>
       <c r="O19" s="19"/>
     </row>
     <row r="20" spans="2:22">
       <c r="B20" s="20" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
@@ -10979,7 +10979,7 @@
     </row>
     <row r="22" spans="2:22">
       <c r="B22" s="15" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
@@ -11004,27 +11004,27 @@
     </row>
     <row r="23" spans="2:22">
       <c r="B23" s="20" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
       <c r="E23" s="16"/>
       <c r="F23" s="16"/>
       <c r="G23" s="4"/>
-      <c r="H23" s="353" t="s">
-        <v>576</v>
-      </c>
-      <c r="I23" s="353" t="s">
-        <v>452</v>
+      <c r="H23" s="364" t="s">
+        <v>575</v>
+      </c>
+      <c r="I23" s="364" t="s">
+        <v>451</v>
       </c>
       <c r="J23" s="16"/>
       <c r="K23" s="16"/>
-      <c r="L23" s="354" t="s">
-        <v>470</v>
-      </c>
-      <c r="M23" s="355"/>
-      <c r="N23" s="356"/>
-      <c r="O23" s="357"/>
+      <c r="L23" s="376" t="s">
+        <v>469</v>
+      </c>
+      <c r="M23" s="377"/>
+      <c r="N23" s="365"/>
+      <c r="O23" s="367"/>
       <c r="P23" s="17"/>
       <c r="Q23" s="18"/>
       <c r="R23" s="19"/>
@@ -11034,22 +11034,22 @@
       <c r="V23" s="19"/>
     </row>
     <row r="24" spans="2:22">
-      <c r="B24" s="360" t="s">
-        <v>471</v>
-      </c>
-      <c r="C24" s="360"/>
-      <c r="D24" s="360"/>
-      <c r="E24" s="360"/>
-      <c r="F24" s="360"/>
-      <c r="G24" s="360"/>
-      <c r="H24" s="356"/>
-      <c r="I24" s="359"/>
-      <c r="J24" s="359"/>
-      <c r="K24" s="359"/>
-      <c r="L24" s="359"/>
-      <c r="M24" s="359"/>
-      <c r="N24" s="359"/>
-      <c r="O24" s="357"/>
+      <c r="B24" s="372" t="s">
+        <v>470</v>
+      </c>
+      <c r="C24" s="372"/>
+      <c r="D24" s="372"/>
+      <c r="E24" s="372"/>
+      <c r="F24" s="372"/>
+      <c r="G24" s="372"/>
+      <c r="H24" s="365"/>
+      <c r="I24" s="366"/>
+      <c r="J24" s="366"/>
+      <c r="K24" s="366"/>
+      <c r="L24" s="366"/>
+      <c r="M24" s="366"/>
+      <c r="N24" s="366"/>
+      <c r="O24" s="367"/>
       <c r="P24" s="21"/>
       <c r="Q24" s="5"/>
       <c r="R24" s="5"/>
@@ -11060,7 +11060,7 @@
     </row>
     <row r="25" spans="2:22">
       <c r="B25" s="22" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
@@ -11084,31 +11084,31 @@
       <c r="V25" s="5"/>
     </row>
     <row r="26" spans="2:22">
-      <c r="B26" s="348"/>
-      <c r="C26" s="349"/>
-      <c r="D26" s="349"/>
-      <c r="E26" s="349"/>
-      <c r="F26" s="349"/>
-      <c r="G26" s="349"/>
-      <c r="H26" s="349"/>
-      <c r="I26" s="349"/>
-      <c r="J26" s="349"/>
-      <c r="K26" s="349"/>
-      <c r="L26" s="349"/>
-      <c r="M26" s="349"/>
-      <c r="N26" s="349"/>
-      <c r="O26" s="349"/>
-      <c r="P26" s="349"/>
-      <c r="Q26" s="349"/>
-      <c r="R26" s="349"/>
-      <c r="S26" s="349"/>
-      <c r="T26" s="350"/>
+      <c r="B26" s="373"/>
+      <c r="C26" s="374"/>
+      <c r="D26" s="374"/>
+      <c r="E26" s="374"/>
+      <c r="F26" s="374"/>
+      <c r="G26" s="374"/>
+      <c r="H26" s="374"/>
+      <c r="I26" s="374"/>
+      <c r="J26" s="374"/>
+      <c r="K26" s="374"/>
+      <c r="L26" s="374"/>
+      <c r="M26" s="374"/>
+      <c r="N26" s="374"/>
+      <c r="O26" s="374"/>
+      <c r="P26" s="374"/>
+      <c r="Q26" s="374"/>
+      <c r="R26" s="374"/>
+      <c r="S26" s="374"/>
+      <c r="T26" s="375"/>
       <c r="U26" s="5"/>
       <c r="V26" s="5"/>
     </row>
     <row r="28" spans="2:22">
       <c r="B28" s="15" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
@@ -11128,21 +11128,21 @@
     </row>
     <row r="29" spans="2:22">
       <c r="B29" s="4" t="s">
+        <v>473</v>
+      </c>
+      <c r="C29" s="365" t="s">
+        <v>563</v>
+      </c>
+      <c r="D29" s="366"/>
+      <c r="E29" s="366"/>
+      <c r="F29" s="367"/>
+      <c r="H29" s="353" t="s">
         <v>474</v>
       </c>
-      <c r="C29" s="356" t="s">
-        <v>564</v>
-      </c>
-      <c r="D29" s="359"/>
-      <c r="E29" s="359"/>
-      <c r="F29" s="357"/>
-      <c r="H29" s="366" t="s">
+      <c r="I29" s="353"/>
+      <c r="J29" s="353"/>
+      <c r="K29" s="27" t="s">
         <v>475</v>
-      </c>
-      <c r="I29" s="366"/>
-      <c r="J29" s="366"/>
-      <c r="K29" s="27" t="s">
-        <v>476</v>
       </c>
       <c r="L29" s="28"/>
       <c r="M29" s="27"/>
@@ -11150,7 +11150,7 @@
     </row>
     <row r="30" spans="2:22">
       <c r="B30" s="29" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C30" s="31"/>
       <c r="D30" s="31"/>
@@ -11170,7 +11170,7 @@
     </row>
     <row r="31" spans="2:22">
       <c r="B31" s="31" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C31" s="31"/>
       <c r="D31" s="31"/>
@@ -11190,7 +11190,7 @@
     </row>
     <row r="32" spans="2:22">
       <c r="B32" s="29" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C32" s="31"/>
       <c r="D32" s="31"/>
@@ -11228,7 +11228,7 @@
     </row>
     <row r="34" spans="1:25">
       <c r="A34" s="2" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B34" s="39"/>
       <c r="C34" s="39"/>
@@ -11257,39 +11257,39 @@
     </row>
     <row r="35" spans="1:25">
       <c r="A35" s="41"/>
-      <c r="B35" s="374" t="s">
+      <c r="B35" s="340" t="s">
+        <v>517</v>
+      </c>
+      <c r="C35" s="341"/>
+      <c r="D35" s="341"/>
+      <c r="E35" s="341"/>
+      <c r="F35" s="342"/>
+      <c r="G35" s="351" t="s">
+        <v>576</v>
+      </c>
+      <c r="H35" s="351"/>
+      <c r="I35" s="351"/>
+      <c r="J35" s="351"/>
+      <c r="K35" s="351"/>
+      <c r="L35" s="42" t="s">
         <v>518</v>
       </c>
-      <c r="C35" s="375"/>
-      <c r="D35" s="375"/>
-      <c r="E35" s="375"/>
-      <c r="F35" s="376"/>
-      <c r="G35" s="364" t="s">
+      <c r="M35" s="358"/>
+      <c r="N35" s="359"/>
+      <c r="O35" s="360"/>
+      <c r="P35" s="344" t="s">
+        <v>519</v>
+      </c>
+      <c r="Q35" s="345"/>
+      <c r="R35" s="345"/>
+      <c r="S35" s="346"/>
+      <c r="T35" s="348" t="s">
         <v>577</v>
       </c>
-      <c r="H35" s="364"/>
-      <c r="I35" s="364"/>
-      <c r="J35" s="364"/>
-      <c r="K35" s="364"/>
-      <c r="L35" s="42" t="s">
-        <v>519</v>
-      </c>
-      <c r="M35" s="371"/>
-      <c r="N35" s="372"/>
-      <c r="O35" s="373"/>
-      <c r="P35" s="378" t="s">
-        <v>520</v>
-      </c>
-      <c r="Q35" s="379"/>
-      <c r="R35" s="379"/>
-      <c r="S35" s="380"/>
-      <c r="T35" s="361" t="s">
-        <v>578</v>
-      </c>
-      <c r="U35" s="362"/>
-      <c r="V35" s="362"/>
-      <c r="W35" s="362"/>
-      <c r="X35" s="363"/>
+      <c r="U35" s="349"/>
+      <c r="V35" s="349"/>
+      <c r="W35" s="349"/>
+      <c r="X35" s="350"/>
       <c r="Y35" s="40"/>
     </row>
     <row r="36" spans="1:25">
@@ -11301,78 +11301,78 @@
       <c r="D36" s="42"/>
       <c r="E36" s="42"/>
       <c r="F36" s="44"/>
-      <c r="G36" s="367"/>
-      <c r="H36" s="368"/>
-      <c r="I36" s="368"/>
-      <c r="J36" s="368"/>
-      <c r="K36" s="368"/>
-      <c r="L36" s="368"/>
-      <c r="M36" s="368"/>
-      <c r="N36" s="368"/>
-      <c r="O36" s="369"/>
-      <c r="P36" s="378" t="s">
-        <v>521</v>
-      </c>
-      <c r="Q36" s="379"/>
-      <c r="R36" s="379"/>
-      <c r="S36" s="380"/>
-      <c r="T36" s="364" t="s">
-        <v>579</v>
-      </c>
-      <c r="U36" s="364"/>
-      <c r="V36" s="364"/>
-      <c r="W36" s="364"/>
-      <c r="X36" s="364"/>
+      <c r="G36" s="354"/>
+      <c r="H36" s="355"/>
+      <c r="I36" s="355"/>
+      <c r="J36" s="355"/>
+      <c r="K36" s="355"/>
+      <c r="L36" s="355"/>
+      <c r="M36" s="355"/>
+      <c r="N36" s="355"/>
+      <c r="O36" s="356"/>
+      <c r="P36" s="344" t="s">
+        <v>520</v>
+      </c>
+      <c r="Q36" s="345"/>
+      <c r="R36" s="345"/>
+      <c r="S36" s="346"/>
+      <c r="T36" s="351" t="s">
+        <v>578</v>
+      </c>
+      <c r="U36" s="351"/>
+      <c r="V36" s="351"/>
+      <c r="W36" s="351"/>
+      <c r="X36" s="351"/>
       <c r="Y36" s="40"/>
     </row>
     <row r="37" spans="1:25" ht="14.4" customHeight="1">
       <c r="A37" s="41"/>
-      <c r="B37" s="377" t="s">
-        <v>524</v>
-      </c>
-      <c r="C37" s="377"/>
-      <c r="D37" s="377"/>
-      <c r="E37" s="377"/>
-      <c r="F37" s="377"/>
-      <c r="G37" s="365" t="s">
-        <v>580</v>
-      </c>
-      <c r="H37" s="365"/>
-      <c r="I37" s="365"/>
-      <c r="J37" s="365"/>
-      <c r="K37" s="365"/>
-      <c r="L37" s="365"/>
-      <c r="M37" s="365"/>
-      <c r="N37" s="365"/>
-      <c r="O37" s="365"/>
-      <c r="P37" s="381" t="s">
+      <c r="B37" s="343" t="s">
+        <v>523</v>
+      </c>
+      <c r="C37" s="343"/>
+      <c r="D37" s="343"/>
+      <c r="E37" s="343"/>
+      <c r="F37" s="343"/>
+      <c r="G37" s="352" t="s">
+        <v>579</v>
+      </c>
+      <c r="H37" s="352"/>
+      <c r="I37" s="352"/>
+      <c r="J37" s="352"/>
+      <c r="K37" s="352"/>
+      <c r="L37" s="352"/>
+      <c r="M37" s="352"/>
+      <c r="N37" s="352"/>
+      <c r="O37" s="352"/>
+      <c r="P37" s="347" t="s">
+        <v>521</v>
+      </c>
+      <c r="Q37" s="347"/>
+      <c r="R37" s="347"/>
+      <c r="S37" s="347"/>
+      <c r="T37" s="357" t="s">
         <v>522</v>
       </c>
-      <c r="Q37" s="381"/>
-      <c r="R37" s="381"/>
-      <c r="S37" s="381"/>
-      <c r="T37" s="370" t="s">
-        <v>523</v>
-      </c>
-      <c r="U37" s="370"/>
-      <c r="V37" s="370"/>
-      <c r="W37" s="370"/>
-      <c r="X37" s="370"/>
+      <c r="U37" s="357"/>
+      <c r="V37" s="357"/>
+      <c r="W37" s="357"/>
+      <c r="X37" s="357"/>
       <c r="Y37" s="40"/>
     </row>
     <row r="38" spans="1:25" customFormat="1" ht="14.4" customHeight="1"/>
     <row r="39" spans="1:25">
-      <c r="B39" s="342" t="s">
-        <v>486</v>
-      </c>
-      <c r="C39" s="342"/>
-      <c r="D39" s="343" t="s">
+      <c r="B39" s="380" t="s">
+        <v>485</v>
+      </c>
+      <c r="C39" s="380"/>
+      <c r="D39" s="381" t="s">
         <v>65</v>
       </c>
-      <c r="E39" s="343"/>
-      <c r="F39" s="343"/>
-      <c r="G39" s="343"/>
-      <c r="H39" s="343"/>
+      <c r="E39" s="381"/>
+      <c r="F39" s="381"/>
+      <c r="G39" s="381"/>
+      <c r="H39" s="381"/>
       <c r="I39" s="5"/>
       <c r="J39" s="5"/>
       <c r="K39" s="5"/>
@@ -11382,15 +11382,15 @@
       <c r="O39" s="5"/>
       <c r="P39" s="5"/>
       <c r="Q39" s="35" t="s">
-        <v>487</v>
-      </c>
-      <c r="R39" s="343" t="s">
+        <v>486</v>
+      </c>
+      <c r="R39" s="381" t="s">
         <v>64</v>
       </c>
-      <c r="S39" s="343"/>
-      <c r="T39" s="343"/>
-      <c r="U39" s="343"/>
-      <c r="V39" s="343"/>
+      <c r="S39" s="381"/>
+      <c r="T39" s="381"/>
+      <c r="U39" s="381"/>
+      <c r="V39" s="381"/>
       <c r="W39" s="216"/>
       <c r="X39" s="19"/>
     </row>
@@ -11421,95 +11421,95 @@
     </row>
     <row r="41" spans="1:25">
       <c r="B41" s="37" t="s">
-        <v>488</v>
-      </c>
-      <c r="C41" s="340"/>
-      <c r="D41" s="340"/>
-      <c r="E41" s="340"/>
-      <c r="F41" s="340"/>
-      <c r="G41" s="340"/>
+        <v>487</v>
+      </c>
+      <c r="C41" s="378"/>
+      <c r="D41" s="378"/>
+      <c r="E41" s="378"/>
+      <c r="F41" s="378"/>
+      <c r="G41" s="378"/>
       <c r="H41" s="5"/>
       <c r="I41" s="4" t="s">
-        <v>489</v>
-      </c>
-      <c r="J41" s="340"/>
-      <c r="K41" s="340"/>
-      <c r="L41" s="340"/>
-      <c r="M41" s="340"/>
-      <c r="N41" s="340"/>
-      <c r="O41" s="340"/>
+        <v>488</v>
+      </c>
+      <c r="J41" s="378"/>
+      <c r="K41" s="378"/>
+      <c r="L41" s="378"/>
+      <c r="M41" s="378"/>
+      <c r="N41" s="378"/>
+      <c r="O41" s="378"/>
       <c r="P41" s="5"/>
       <c r="Q41" s="4" t="s">
-        <v>490</v>
-      </c>
-      <c r="R41" s="341"/>
-      <c r="S41" s="341"/>
-      <c r="T41" s="341"/>
-      <c r="U41" s="341"/>
-      <c r="V41" s="341"/>
-      <c r="W41" s="341"/>
+        <v>489</v>
+      </c>
+      <c r="R41" s="379"/>
+      <c r="S41" s="379"/>
+      <c r="T41" s="379"/>
+      <c r="U41" s="379"/>
+      <c r="V41" s="379"/>
+      <c r="W41" s="379"/>
       <c r="X41" s="19"/>
     </row>
     <row r="42" spans="1:25">
       <c r="B42" s="37" t="s">
-        <v>491</v>
-      </c>
-      <c r="C42" s="340"/>
-      <c r="D42" s="340"/>
-      <c r="E42" s="340"/>
-      <c r="F42" s="340"/>
-      <c r="G42" s="340"/>
+        <v>490</v>
+      </c>
+      <c r="C42" s="378"/>
+      <c r="D42" s="378"/>
+      <c r="E42" s="378"/>
+      <c r="F42" s="378"/>
+      <c r="G42" s="378"/>
       <c r="H42" s="5"/>
       <c r="I42" s="4" t="s">
-        <v>492</v>
-      </c>
-      <c r="J42" s="340"/>
-      <c r="K42" s="340"/>
-      <c r="L42" s="340"/>
-      <c r="M42" s="340"/>
-      <c r="N42" s="340"/>
-      <c r="O42" s="340"/>
+        <v>491</v>
+      </c>
+      <c r="J42" s="378"/>
+      <c r="K42" s="378"/>
+      <c r="L42" s="378"/>
+      <c r="M42" s="378"/>
+      <c r="N42" s="378"/>
+      <c r="O42" s="378"/>
       <c r="P42" s="5"/>
       <c r="Q42" s="4" t="s">
-        <v>493</v>
-      </c>
-      <c r="R42" s="341"/>
-      <c r="S42" s="341"/>
-      <c r="T42" s="341"/>
-      <c r="U42" s="341"/>
-      <c r="V42" s="341"/>
-      <c r="W42" s="341"/>
+        <v>492</v>
+      </c>
+      <c r="R42" s="379"/>
+      <c r="S42" s="379"/>
+      <c r="T42" s="379"/>
+      <c r="U42" s="379"/>
+      <c r="V42" s="379"/>
+      <c r="W42" s="379"/>
       <c r="X42" s="19"/>
     </row>
     <row r="43" spans="1:25">
       <c r="B43" s="37" t="s">
-        <v>494</v>
-      </c>
-      <c r="C43" s="340"/>
-      <c r="D43" s="340"/>
-      <c r="E43" s="340"/>
-      <c r="F43" s="340"/>
-      <c r="G43" s="340"/>
+        <v>493</v>
+      </c>
+      <c r="C43" s="378"/>
+      <c r="D43" s="378"/>
+      <c r="E43" s="378"/>
+      <c r="F43" s="378"/>
+      <c r="G43" s="378"/>
       <c r="H43" s="5"/>
       <c r="I43" s="4" t="s">
-        <v>495</v>
-      </c>
-      <c r="J43" s="340"/>
-      <c r="K43" s="340"/>
-      <c r="L43" s="340"/>
-      <c r="M43" s="340"/>
-      <c r="N43" s="340"/>
-      <c r="O43" s="340"/>
+        <v>494</v>
+      </c>
+      <c r="J43" s="378"/>
+      <c r="K43" s="378"/>
+      <c r="L43" s="378"/>
+      <c r="M43" s="378"/>
+      <c r="N43" s="378"/>
+      <c r="O43" s="378"/>
       <c r="P43" s="5"/>
       <c r="Q43" s="4" t="s">
-        <v>496</v>
-      </c>
-      <c r="R43" s="341"/>
-      <c r="S43" s="341"/>
-      <c r="T43" s="341"/>
-      <c r="U43" s="341"/>
-      <c r="V43" s="341"/>
-      <c r="W43" s="341"/>
+        <v>495</v>
+      </c>
+      <c r="R43" s="379"/>
+      <c r="S43" s="379"/>
+      <c r="T43" s="379"/>
+      <c r="U43" s="379"/>
+      <c r="V43" s="379"/>
+      <c r="W43" s="379"/>
       <c r="X43" s="19"/>
     </row>
     <row r="44" spans="1:25">
@@ -11564,31 +11564,34 @@
     </row>
   </sheetData>
   <mergeCells count="69">
-    <mergeCell ref="B35:F35"/>
-    <mergeCell ref="B37:F37"/>
-    <mergeCell ref="P35:S35"/>
-    <mergeCell ref="P36:S36"/>
-    <mergeCell ref="P37:S37"/>
-    <mergeCell ref="T35:X35"/>
-    <mergeCell ref="T36:X36"/>
-    <mergeCell ref="G37:O37"/>
-    <mergeCell ref="G35:K35"/>
-    <mergeCell ref="H29:J29"/>
-    <mergeCell ref="G36:O36"/>
-    <mergeCell ref="T37:X37"/>
-    <mergeCell ref="M35:O35"/>
-    <mergeCell ref="V14:W14"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="N13:P13"/>
-    <mergeCell ref="N14:P14"/>
-    <mergeCell ref="N15:P15"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="C43:G43"/>
+    <mergeCell ref="J43:O43"/>
+    <mergeCell ref="R43:W43"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="J41:O41"/>
+    <mergeCell ref="R41:W41"/>
+    <mergeCell ref="C42:G42"/>
+    <mergeCell ref="J42:O42"/>
+    <mergeCell ref="R42:W42"/>
+    <mergeCell ref="D39:H39"/>
+    <mergeCell ref="R39:V39"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="J9:M9"/>
+    <mergeCell ref="B26:T26"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="T14:U14"/>
     <mergeCell ref="C29:F29"/>
     <mergeCell ref="J10:M10"/>
     <mergeCell ref="J8:M8"/>
@@ -11605,34 +11608,31 @@
     <mergeCell ref="K15:L15"/>
     <mergeCell ref="B24:G24"/>
     <mergeCell ref="H24:O24"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="J9:M9"/>
-    <mergeCell ref="B26:T26"/>
-    <mergeCell ref="M18:N18"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="M19:N19"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="N23:O23"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="T14:U14"/>
-    <mergeCell ref="C43:G43"/>
-    <mergeCell ref="J43:O43"/>
-    <mergeCell ref="R43:W43"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="C41:G41"/>
-    <mergeCell ref="J41:O41"/>
-    <mergeCell ref="R41:W41"/>
-    <mergeCell ref="C42:G42"/>
-    <mergeCell ref="J42:O42"/>
-    <mergeCell ref="R42:W42"/>
-    <mergeCell ref="D39:H39"/>
-    <mergeCell ref="R39:V39"/>
+    <mergeCell ref="V14:W14"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="N13:P13"/>
+    <mergeCell ref="N14:P14"/>
+    <mergeCell ref="N15:P15"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="T35:X35"/>
+    <mergeCell ref="T36:X36"/>
+    <mergeCell ref="G37:O37"/>
+    <mergeCell ref="G35:K35"/>
+    <mergeCell ref="H29:J29"/>
+    <mergeCell ref="G36:O36"/>
+    <mergeCell ref="T37:X37"/>
+    <mergeCell ref="M35:O35"/>
+    <mergeCell ref="B35:F35"/>
+    <mergeCell ref="B37:F37"/>
+    <mergeCell ref="P35:S35"/>
+    <mergeCell ref="P36:S36"/>
+    <mergeCell ref="P37:S37"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Enter a valid Numeric Value" prompt="Numeric Value" sqref="H25:I25">
@@ -11686,37 +11686,37 @@
       <c r="A2" s="165" t="s">
         <v>45</v>
       </c>
-      <c r="B2" s="410" t="s">
+      <c r="B2" s="425" t="s">
         <v>62</v>
       </c>
-      <c r="C2" s="410"/>
-      <c r="D2" s="410"/>
-      <c r="E2" s="387" t="s">
+      <c r="C2" s="425"/>
+      <c r="D2" s="425"/>
+      <c r="E2" s="441" t="s">
         <v>53</v>
       </c>
-      <c r="F2" s="388"/>
-      <c r="G2" s="388"/>
-      <c r="H2" s="388"/>
-      <c r="I2" s="388"/>
-      <c r="J2" s="388"/>
-      <c r="K2" s="388"/>
-      <c r="L2" s="388"/>
-      <c r="M2" s="388"/>
-      <c r="N2" s="388"/>
-      <c r="O2" s="388"/>
-      <c r="P2" s="388"/>
-      <c r="Q2" s="388"/>
-      <c r="R2" s="388"/>
-      <c r="S2" s="388"/>
-      <c r="T2" s="388"/>
-      <c r="U2" s="388"/>
-      <c r="V2" s="388"/>
-      <c r="W2" s="388"/>
-      <c r="X2" s="388"/>
-      <c r="Y2" s="388"/>
-      <c r="Z2" s="388"/>
-      <c r="AA2" s="388"/>
-      <c r="AB2" s="389"/>
+      <c r="F2" s="442"/>
+      <c r="G2" s="442"/>
+      <c r="H2" s="442"/>
+      <c r="I2" s="442"/>
+      <c r="J2" s="442"/>
+      <c r="K2" s="442"/>
+      <c r="L2" s="442"/>
+      <c r="M2" s="442"/>
+      <c r="N2" s="442"/>
+      <c r="O2" s="442"/>
+      <c r="P2" s="442"/>
+      <c r="Q2" s="442"/>
+      <c r="R2" s="442"/>
+      <c r="S2" s="442"/>
+      <c r="T2" s="442"/>
+      <c r="U2" s="442"/>
+      <c r="V2" s="442"/>
+      <c r="W2" s="442"/>
+      <c r="X2" s="442"/>
+      <c r="Y2" s="442"/>
+      <c r="Z2" s="442"/>
+      <c r="AA2" s="442"/>
+      <c r="AB2" s="443"/>
       <c r="AC2" s="166"/>
       <c r="AD2" s="166"/>
       <c r="AE2" s="166"/>
@@ -11726,54 +11726,54 @@
       <c r="AI2" s="167"/>
       <c r="AJ2" s="167"/>
       <c r="AP2" s="164"/>
-      <c r="BF2" s="411"/>
-      <c r="BG2" s="411"/>
-      <c r="BH2" s="411"/>
-      <c r="BI2" s="411"/>
-      <c r="BJ2" s="411"/>
-      <c r="BK2" s="411"/>
-      <c r="BL2" s="411"/>
-      <c r="BM2" s="411"/>
-      <c r="BN2" s="411"/>
-      <c r="BO2" s="411"/>
-      <c r="BP2" s="411"/>
-      <c r="BQ2" s="411"/>
-      <c r="BR2" s="411"/>
-      <c r="BS2" s="411"/>
+      <c r="BF2" s="426"/>
+      <c r="BG2" s="426"/>
+      <c r="BH2" s="426"/>
+      <c r="BI2" s="426"/>
+      <c r="BJ2" s="426"/>
+      <c r="BK2" s="426"/>
+      <c r="BL2" s="426"/>
+      <c r="BM2" s="426"/>
+      <c r="BN2" s="426"/>
+      <c r="BO2" s="426"/>
+      <c r="BP2" s="426"/>
+      <c r="BQ2" s="426"/>
+      <c r="BR2" s="426"/>
+      <c r="BS2" s="426"/>
     </row>
     <row r="3" spans="1:75" ht="46.8" customHeight="1" thickBot="1">
       <c r="A3" s="165" t="s">
         <v>46</v>
       </c>
-      <c r="B3" s="410" t="s">
+      <c r="B3" s="425" t="s">
         <v>63</v>
       </c>
-      <c r="C3" s="410"/>
-      <c r="D3" s="410"/>
-      <c r="E3" s="390"/>
-      <c r="F3" s="391"/>
-      <c r="G3" s="391"/>
-      <c r="H3" s="391"/>
-      <c r="I3" s="391"/>
-      <c r="J3" s="391"/>
-      <c r="K3" s="391"/>
-      <c r="L3" s="391"/>
-      <c r="M3" s="391"/>
-      <c r="N3" s="391"/>
-      <c r="O3" s="391"/>
-      <c r="P3" s="391"/>
-      <c r="Q3" s="391"/>
-      <c r="R3" s="391"/>
-      <c r="S3" s="391"/>
-      <c r="T3" s="391"/>
-      <c r="U3" s="391"/>
-      <c r="V3" s="391"/>
-      <c r="W3" s="391"/>
-      <c r="X3" s="391"/>
-      <c r="Y3" s="391"/>
-      <c r="Z3" s="391"/>
-      <c r="AA3" s="391"/>
-      <c r="AB3" s="392"/>
+      <c r="C3" s="425"/>
+      <c r="D3" s="425"/>
+      <c r="E3" s="444"/>
+      <c r="F3" s="445"/>
+      <c r="G3" s="445"/>
+      <c r="H3" s="445"/>
+      <c r="I3" s="445"/>
+      <c r="J3" s="445"/>
+      <c r="K3" s="445"/>
+      <c r="L3" s="445"/>
+      <c r="M3" s="445"/>
+      <c r="N3" s="445"/>
+      <c r="O3" s="445"/>
+      <c r="P3" s="445"/>
+      <c r="Q3" s="445"/>
+      <c r="R3" s="445"/>
+      <c r="S3" s="445"/>
+      <c r="T3" s="445"/>
+      <c r="U3" s="445"/>
+      <c r="V3" s="445"/>
+      <c r="W3" s="445"/>
+      <c r="X3" s="445"/>
+      <c r="Y3" s="445"/>
+      <c r="Z3" s="445"/>
+      <c r="AA3" s="445"/>
+      <c r="AB3" s="446"/>
       <c r="AC3" s="166"/>
       <c r="AD3" s="166"/>
       <c r="AE3" s="166"/>
@@ -11882,22 +11882,22 @@
       <c r="BO4" s="162"/>
     </row>
     <row r="5" spans="1:75" ht="18" customHeight="1">
-      <c r="A5" s="420" t="s">
-        <v>322</v>
-      </c>
-      <c r="B5" s="393" t="s">
+      <c r="A5" s="422" t="s">
+        <v>321</v>
+      </c>
+      <c r="B5" s="447" t="s">
+        <v>415</v>
+      </c>
+      <c r="C5" s="428" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="449" t="s">
         <v>416</v>
       </c>
-      <c r="C5" s="415" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" s="395" t="s">
-        <v>417</v>
-      </c>
-      <c r="E5" s="400" t="s">
-        <v>412</v>
-      </c>
-      <c r="F5" s="401"/>
+      <c r="E5" s="451" t="s">
+        <v>411</v>
+      </c>
+      <c r="F5" s="452"/>
       <c r="G5" s="172"/>
       <c r="H5" s="172"/>
       <c r="I5" s="172"/>
@@ -11924,10 +11924,10 @@
       <c r="AD5" s="176"/>
       <c r="AE5" s="177"/>
       <c r="AF5" s="177"/>
-      <c r="AG5" s="412"/>
-      <c r="AH5" s="412"/>
-      <c r="AI5" s="412"/>
-      <c r="AJ5" s="412"/>
+      <c r="AG5" s="427"/>
+      <c r="AH5" s="427"/>
+      <c r="AI5" s="427"/>
+      <c r="AJ5" s="427"/>
       <c r="AK5" s="178"/>
       <c r="AL5" s="179"/>
       <c r="AM5" s="180"/>
@@ -11969,12 +11969,12 @@
       <c r="BW5" s="180"/>
     </row>
     <row r="6" spans="1:75" ht="18" customHeight="1">
-      <c r="A6" s="421"/>
-      <c r="B6" s="394"/>
-      <c r="C6" s="416"/>
-      <c r="D6" s="396"/>
-      <c r="E6" s="402"/>
-      <c r="F6" s="403"/>
+      <c r="A6" s="423"/>
+      <c r="B6" s="448"/>
+      <c r="C6" s="429"/>
+      <c r="D6" s="450"/>
+      <c r="E6" s="453"/>
+      <c r="F6" s="454"/>
       <c r="G6" s="117"/>
       <c r="H6" s="117"/>
       <c r="I6" s="117"/>
@@ -12046,22 +12046,22 @@
       <c r="BW6" s="184"/>
     </row>
     <row r="7" spans="1:75">
-      <c r="A7" s="397" t="s">
+      <c r="A7" s="418" t="s">
+        <v>329</v>
+      </c>
+      <c r="B7" s="419" t="s">
         <v>330</v>
       </c>
-      <c r="B7" s="418" t="s">
+      <c r="C7" s="418" t="s">
         <v>331</v>
       </c>
-      <c r="C7" s="397" t="s">
+      <c r="D7" s="421" t="s">
         <v>332</v>
       </c>
-      <c r="D7" s="399" t="s">
-        <v>333</v>
-      </c>
-      <c r="E7" s="413" t="s">
-        <v>528</v>
-      </c>
-      <c r="F7" s="414"/>
+      <c r="E7" s="394" t="s">
+        <v>527</v>
+      </c>
+      <c r="F7" s="395"/>
       <c r="G7" s="117"/>
       <c r="H7" s="117"/>
       <c r="I7" s="117"/>
@@ -12111,14 +12111,14 @@
       <c r="BW7" s="191"/>
     </row>
     <row r="8" spans="1:75">
-      <c r="A8" s="397"/>
-      <c r="B8" s="419"/>
-      <c r="C8" s="397"/>
-      <c r="D8" s="399"/>
-      <c r="E8" s="413" t="s">
-        <v>418</v>
-      </c>
-      <c r="F8" s="414"/>
+      <c r="A8" s="418"/>
+      <c r="B8" s="420"/>
+      <c r="C8" s="418"/>
+      <c r="D8" s="421"/>
+      <c r="E8" s="394" t="s">
+        <v>417</v>
+      </c>
+      <c r="F8" s="395"/>
       <c r="G8" s="117"/>
       <c r="H8" s="117"/>
       <c r="I8" s="117"/>
@@ -12165,22 +12165,22 @@
       <c r="BW8" s="191"/>
     </row>
     <row r="9" spans="1:75">
-      <c r="A9" s="397" t="s">
+      <c r="A9" s="418" t="s">
+        <v>333</v>
+      </c>
+      <c r="B9" s="424" t="s">
         <v>334</v>
       </c>
-      <c r="B9" s="398" t="s">
+      <c r="C9" s="418" t="s">
         <v>335</v>
       </c>
-      <c r="C9" s="397" t="s">
+      <c r="D9" s="421" t="s">
         <v>336</v>
       </c>
-      <c r="D9" s="399" t="s">
-        <v>337</v>
-      </c>
-      <c r="E9" s="413" t="s">
-        <v>529</v>
-      </c>
-      <c r="F9" s="414"/>
+      <c r="E9" s="394" t="s">
+        <v>528</v>
+      </c>
+      <c r="F9" s="395"/>
       <c r="G9" s="117"/>
       <c r="H9" s="117"/>
       <c r="I9" s="117"/>
@@ -12227,14 +12227,14 @@
       <c r="BW9" s="191"/>
     </row>
     <row r="10" spans="1:75">
-      <c r="A10" s="397"/>
-      <c r="B10" s="398"/>
-      <c r="C10" s="397"/>
-      <c r="D10" s="399"/>
-      <c r="E10" s="413" t="s">
-        <v>419</v>
-      </c>
-      <c r="F10" s="414"/>
+      <c r="A10" s="418"/>
+      <c r="B10" s="424"/>
+      <c r="C10" s="418"/>
+      <c r="D10" s="421"/>
+      <c r="E10" s="394" t="s">
+        <v>418</v>
+      </c>
+      <c r="F10" s="395"/>
       <c r="G10" s="117"/>
       <c r="H10" s="117"/>
       <c r="I10" s="117"/>
@@ -12285,22 +12285,22 @@
       <c r="BW10" s="191"/>
     </row>
     <row r="11" spans="1:75">
-      <c r="A11" s="397" t="s">
+      <c r="A11" s="418" t="s">
+        <v>337</v>
+      </c>
+      <c r="B11" s="424" t="s">
         <v>338</v>
       </c>
-      <c r="B11" s="398" t="s">
+      <c r="C11" s="418" t="s">
         <v>339</v>
       </c>
-      <c r="C11" s="397" t="s">
+      <c r="D11" s="421" t="s">
         <v>340</v>
       </c>
-      <c r="D11" s="399" t="s">
-        <v>341</v>
-      </c>
-      <c r="E11" s="413" t="s">
-        <v>530</v>
-      </c>
-      <c r="F11" s="414"/>
+      <c r="E11" s="394" t="s">
+        <v>529</v>
+      </c>
+      <c r="F11" s="395"/>
       <c r="G11" s="117"/>
       <c r="H11" s="117"/>
       <c r="I11" s="117"/>
@@ -12352,14 +12352,14 @@
       <c r="BW11" s="191"/>
     </row>
     <row r="12" spans="1:75">
-      <c r="A12" s="397"/>
-      <c r="B12" s="398"/>
-      <c r="C12" s="397"/>
-      <c r="D12" s="399"/>
-      <c r="E12" s="413" t="s">
-        <v>420</v>
-      </c>
-      <c r="F12" s="414"/>
+      <c r="A12" s="418"/>
+      <c r="B12" s="424"/>
+      <c r="C12" s="418"/>
+      <c r="D12" s="421"/>
+      <c r="E12" s="394" t="s">
+        <v>419</v>
+      </c>
+      <c r="F12" s="395"/>
       <c r="G12" s="117"/>
       <c r="H12" s="117"/>
       <c r="I12" s="117"/>
@@ -12411,22 +12411,22 @@
       <c r="BW12" s="191"/>
     </row>
     <row r="13" spans="1:75">
-      <c r="A13" s="397" t="s">
+      <c r="A13" s="418" t="s">
+        <v>341</v>
+      </c>
+      <c r="B13" s="424" t="s">
         <v>342</v>
       </c>
-      <c r="B13" s="398" t="s">
+      <c r="C13" s="418" t="s">
         <v>343</v>
       </c>
-      <c r="C13" s="397" t="s">
+      <c r="D13" s="421" t="s">
         <v>344</v>
       </c>
-      <c r="D13" s="399" t="s">
-        <v>345</v>
-      </c>
-      <c r="E13" s="413" t="s">
-        <v>531</v>
-      </c>
-      <c r="F13" s="414"/>
+      <c r="E13" s="394" t="s">
+        <v>530</v>
+      </c>
+      <c r="F13" s="395"/>
       <c r="G13" s="117"/>
       <c r="H13" s="117"/>
       <c r="I13" s="117"/>
@@ -12478,14 +12478,14 @@
       <c r="BW13" s="191"/>
     </row>
     <row r="14" spans="1:75">
-      <c r="A14" s="397"/>
-      <c r="B14" s="398"/>
-      <c r="C14" s="397"/>
-      <c r="D14" s="399"/>
-      <c r="E14" s="413" t="s">
-        <v>421</v>
-      </c>
-      <c r="F14" s="414"/>
+      <c r="A14" s="418"/>
+      <c r="B14" s="424"/>
+      <c r="C14" s="418"/>
+      <c r="D14" s="421"/>
+      <c r="E14" s="394" t="s">
+        <v>420</v>
+      </c>
+      <c r="F14" s="395"/>
       <c r="G14" s="117"/>
       <c r="H14" s="117"/>
       <c r="I14" s="117"/>
@@ -12537,22 +12537,22 @@
       <c r="BW14" s="191"/>
     </row>
     <row r="15" spans="1:75">
-      <c r="A15" s="397" t="s">
+      <c r="A15" s="418" t="s">
+        <v>345</v>
+      </c>
+      <c r="B15" s="424" t="s">
         <v>346</v>
       </c>
-      <c r="B15" s="398" t="s">
+      <c r="C15" s="418" t="s">
         <v>347</v>
       </c>
-      <c r="C15" s="397" t="s">
+      <c r="D15" s="421" t="s">
         <v>348</v>
       </c>
-      <c r="D15" s="399" t="s">
-        <v>349</v>
-      </c>
-      <c r="E15" s="413" t="s">
-        <v>532</v>
-      </c>
-      <c r="F15" s="414"/>
+      <c r="E15" s="394" t="s">
+        <v>531</v>
+      </c>
+      <c r="F15" s="395"/>
       <c r="G15" s="117"/>
       <c r="H15" s="117"/>
       <c r="I15" s="117"/>
@@ -12604,14 +12604,14 @@
       <c r="BW15" s="191"/>
     </row>
     <row r="16" spans="1:75">
-      <c r="A16" s="397"/>
-      <c r="B16" s="398"/>
-      <c r="C16" s="397"/>
-      <c r="D16" s="399"/>
-      <c r="E16" s="413" t="s">
-        <v>422</v>
-      </c>
-      <c r="F16" s="414"/>
+      <c r="A16" s="418"/>
+      <c r="B16" s="424"/>
+      <c r="C16" s="418"/>
+      <c r="D16" s="421"/>
+      <c r="E16" s="394" t="s">
+        <v>421</v>
+      </c>
+      <c r="F16" s="395"/>
       <c r="G16" s="117"/>
       <c r="H16" s="117"/>
       <c r="I16" s="117"/>
@@ -12658,22 +12658,22 @@
       <c r="BW16" s="191"/>
     </row>
     <row r="17" spans="1:75">
-      <c r="A17" s="397" t="s">
+      <c r="A17" s="418" t="s">
+        <v>349</v>
+      </c>
+      <c r="B17" s="424" t="s">
         <v>350</v>
       </c>
-      <c r="B17" s="398" t="s">
+      <c r="C17" s="418" t="s">
         <v>351</v>
       </c>
-      <c r="C17" s="397" t="s">
+      <c r="D17" s="421" t="s">
         <v>352</v>
       </c>
-      <c r="D17" s="399" t="s">
-        <v>353</v>
-      </c>
-      <c r="E17" s="413" t="s">
-        <v>533</v>
-      </c>
-      <c r="F17" s="414"/>
+      <c r="E17" s="394" t="s">
+        <v>532</v>
+      </c>
+      <c r="F17" s="395"/>
       <c r="G17" s="117"/>
       <c r="H17" s="117"/>
       <c r="I17" s="117"/>
@@ -12720,14 +12720,14 @@
       <c r="BW17" s="191"/>
     </row>
     <row r="18" spans="1:75">
-      <c r="A18" s="397"/>
-      <c r="B18" s="398"/>
-      <c r="C18" s="397"/>
-      <c r="D18" s="399"/>
-      <c r="E18" s="413" t="s">
-        <v>423</v>
-      </c>
-      <c r="F18" s="414"/>
+      <c r="A18" s="418"/>
+      <c r="B18" s="424"/>
+      <c r="C18" s="418"/>
+      <c r="D18" s="421"/>
+      <c r="E18" s="394" t="s">
+        <v>422</v>
+      </c>
+      <c r="F18" s="395"/>
       <c r="G18" s="117"/>
       <c r="H18" s="117"/>
       <c r="I18" s="117"/>
@@ -12782,22 +12782,22 @@
       <c r="BW18" s="191"/>
     </row>
     <row r="19" spans="1:75">
-      <c r="A19" s="397" t="s">
+      <c r="A19" s="418" t="s">
+        <v>353</v>
+      </c>
+      <c r="B19" s="424" t="s">
         <v>354</v>
       </c>
-      <c r="B19" s="398" t="s">
+      <c r="C19" s="418" t="s">
         <v>355</v>
       </c>
-      <c r="C19" s="397" t="s">
+      <c r="D19" s="421" t="s">
         <v>356</v>
       </c>
-      <c r="D19" s="399" t="s">
-        <v>357</v>
-      </c>
-      <c r="E19" s="413" t="s">
-        <v>534</v>
-      </c>
-      <c r="F19" s="414"/>
+      <c r="E19" s="394" t="s">
+        <v>533</v>
+      </c>
+      <c r="F19" s="395"/>
       <c r="G19" s="117"/>
       <c r="H19" s="117"/>
       <c r="I19" s="117"/>
@@ -12844,14 +12844,14 @@
       <c r="BW19" s="191"/>
     </row>
     <row r="20" spans="1:75">
-      <c r="A20" s="397"/>
-      <c r="B20" s="398"/>
-      <c r="C20" s="397"/>
-      <c r="D20" s="399"/>
-      <c r="E20" s="413" t="s">
-        <v>424</v>
-      </c>
-      <c r="F20" s="414"/>
+      <c r="A20" s="418"/>
+      <c r="B20" s="424"/>
+      <c r="C20" s="418"/>
+      <c r="D20" s="421"/>
+      <c r="E20" s="394" t="s">
+        <v>423</v>
+      </c>
+      <c r="F20" s="395"/>
       <c r="G20" s="117"/>
       <c r="H20" s="117"/>
       <c r="I20" s="117"/>
@@ -12898,22 +12898,22 @@
       <c r="BW20" s="191"/>
     </row>
     <row r="21" spans="1:75">
-      <c r="A21" s="397" t="s">
+      <c r="A21" s="418" t="s">
+        <v>357</v>
+      </c>
+      <c r="B21" s="424" t="s">
         <v>358</v>
       </c>
-      <c r="B21" s="398" t="s">
+      <c r="C21" s="418" t="s">
         <v>359</v>
       </c>
-      <c r="C21" s="397" t="s">
+      <c r="D21" s="421" t="s">
         <v>360</v>
       </c>
-      <c r="D21" s="399" t="s">
-        <v>361</v>
-      </c>
-      <c r="E21" s="413" t="s">
-        <v>535</v>
-      </c>
-      <c r="F21" s="414"/>
+      <c r="E21" s="394" t="s">
+        <v>534</v>
+      </c>
+      <c r="F21" s="395"/>
       <c r="G21" s="117"/>
       <c r="H21" s="117"/>
       <c r="I21" s="117"/>
@@ -12960,14 +12960,14 @@
       <c r="BW21" s="191"/>
     </row>
     <row r="22" spans="1:75">
-      <c r="A22" s="397"/>
-      <c r="B22" s="398"/>
-      <c r="C22" s="397"/>
-      <c r="D22" s="399"/>
-      <c r="E22" s="413" t="s">
-        <v>425</v>
-      </c>
-      <c r="F22" s="414"/>
+      <c r="A22" s="418"/>
+      <c r="B22" s="424"/>
+      <c r="C22" s="418"/>
+      <c r="D22" s="421"/>
+      <c r="E22" s="394" t="s">
+        <v>424</v>
+      </c>
+      <c r="F22" s="395"/>
       <c r="G22" s="117"/>
       <c r="H22" s="117"/>
       <c r="I22" s="117"/>
@@ -13014,22 +13014,22 @@
       <c r="BW22" s="191"/>
     </row>
     <row r="23" spans="1:75">
-      <c r="A23" s="397" t="s">
+      <c r="A23" s="418" t="s">
+        <v>361</v>
+      </c>
+      <c r="B23" s="424" t="s">
         <v>362</v>
       </c>
-      <c r="B23" s="398" t="s">
+      <c r="C23" s="418" t="s">
         <v>363</v>
       </c>
-      <c r="C23" s="397" t="s">
+      <c r="D23" s="421" t="s">
         <v>364</v>
       </c>
-      <c r="D23" s="399" t="s">
-        <v>365</v>
-      </c>
-      <c r="E23" s="413" t="s">
-        <v>536</v>
-      </c>
-      <c r="F23" s="414"/>
+      <c r="E23" s="394" t="s">
+        <v>535</v>
+      </c>
+      <c r="F23" s="395"/>
       <c r="G23" s="117"/>
       <c r="H23" s="117"/>
       <c r="I23" s="117"/>
@@ -13076,14 +13076,14 @@
       <c r="BW23" s="191"/>
     </row>
     <row r="24" spans="1:75">
-      <c r="A24" s="397"/>
-      <c r="B24" s="398"/>
-      <c r="C24" s="397"/>
-      <c r="D24" s="399"/>
-      <c r="E24" s="413" t="s">
-        <v>426</v>
-      </c>
-      <c r="F24" s="414"/>
+      <c r="A24" s="418"/>
+      <c r="B24" s="424"/>
+      <c r="C24" s="418"/>
+      <c r="D24" s="421"/>
+      <c r="E24" s="394" t="s">
+        <v>425</v>
+      </c>
+      <c r="F24" s="395"/>
       <c r="G24" s="117"/>
       <c r="H24" s="117"/>
       <c r="I24" s="117"/>
@@ -13130,22 +13130,22 @@
       <c r="BW24" s="191"/>
     </row>
     <row r="25" spans="1:75">
-      <c r="A25" s="397" t="s">
+      <c r="A25" s="418" t="s">
+        <v>365</v>
+      </c>
+      <c r="B25" s="424" t="s">
         <v>366</v>
       </c>
-      <c r="B25" s="398" t="s">
+      <c r="C25" s="418" t="s">
         <v>367</v>
       </c>
-      <c r="C25" s="397" t="s">
+      <c r="D25" s="421" t="s">
         <v>368</v>
       </c>
-      <c r="D25" s="399" t="s">
-        <v>369</v>
-      </c>
-      <c r="E25" s="413" t="s">
-        <v>537</v>
-      </c>
-      <c r="F25" s="414"/>
+      <c r="E25" s="394" t="s">
+        <v>536</v>
+      </c>
+      <c r="F25" s="395"/>
       <c r="G25" s="117"/>
       <c r="H25" s="117"/>
       <c r="I25" s="117"/>
@@ -13192,14 +13192,14 @@
       <c r="BW25" s="191"/>
     </row>
     <row r="26" spans="1:75">
-      <c r="A26" s="397"/>
-      <c r="B26" s="398"/>
-      <c r="C26" s="397"/>
-      <c r="D26" s="399"/>
-      <c r="E26" s="413" t="s">
-        <v>427</v>
-      </c>
-      <c r="F26" s="414"/>
+      <c r="A26" s="418"/>
+      <c r="B26" s="424"/>
+      <c r="C26" s="418"/>
+      <c r="D26" s="421"/>
+      <c r="E26" s="394" t="s">
+        <v>426</v>
+      </c>
+      <c r="F26" s="395"/>
       <c r="G26" s="117"/>
       <c r="H26" s="117"/>
       <c r="I26" s="117"/>
@@ -13246,22 +13246,22 @@
       <c r="BW26" s="191"/>
     </row>
     <row r="27" spans="1:75">
-      <c r="A27" s="397" t="s">
+      <c r="A27" s="418" t="s">
+        <v>369</v>
+      </c>
+      <c r="B27" s="424" t="s">
         <v>370</v>
       </c>
-      <c r="B27" s="398" t="s">
+      <c r="C27" s="418" t="s">
         <v>371</v>
       </c>
-      <c r="C27" s="397" t="s">
+      <c r="D27" s="421" t="s">
         <v>372</v>
       </c>
-      <c r="D27" s="399" t="s">
-        <v>373</v>
-      </c>
-      <c r="E27" s="413" t="s">
-        <v>538</v>
-      </c>
-      <c r="F27" s="414"/>
+      <c r="E27" s="394" t="s">
+        <v>537</v>
+      </c>
+      <c r="F27" s="395"/>
       <c r="G27" s="117"/>
       <c r="H27" s="117"/>
       <c r="I27" s="117"/>
@@ -13308,14 +13308,14 @@
       <c r="BW27" s="191"/>
     </row>
     <row r="28" spans="1:75">
-      <c r="A28" s="397"/>
-      <c r="B28" s="398"/>
-      <c r="C28" s="397"/>
-      <c r="D28" s="399"/>
-      <c r="E28" s="413" t="s">
-        <v>428</v>
-      </c>
-      <c r="F28" s="414"/>
+      <c r="A28" s="418"/>
+      <c r="B28" s="424"/>
+      <c r="C28" s="418"/>
+      <c r="D28" s="421"/>
+      <c r="E28" s="394" t="s">
+        <v>427</v>
+      </c>
+      <c r="F28" s="395"/>
       <c r="G28" s="117"/>
       <c r="H28" s="117"/>
       <c r="I28" s="117"/>
@@ -13362,22 +13362,22 @@
       <c r="BW28" s="191"/>
     </row>
     <row r="29" spans="1:75">
-      <c r="A29" s="397" t="s">
+      <c r="A29" s="418" t="s">
+        <v>373</v>
+      </c>
+      <c r="B29" s="424" t="s">
         <v>374</v>
       </c>
-      <c r="B29" s="398" t="s">
+      <c r="C29" s="418" t="s">
         <v>375</v>
       </c>
-      <c r="C29" s="397" t="s">
+      <c r="D29" s="421" t="s">
         <v>376</v>
       </c>
-      <c r="D29" s="399" t="s">
-        <v>377</v>
-      </c>
-      <c r="E29" s="413" t="s">
-        <v>539</v>
-      </c>
-      <c r="F29" s="414"/>
+      <c r="E29" s="394" t="s">
+        <v>538</v>
+      </c>
+      <c r="F29" s="395"/>
       <c r="G29" s="117"/>
       <c r="H29" s="117"/>
       <c r="I29" s="117"/>
@@ -13424,14 +13424,14 @@
       <c r="BW29" s="191"/>
     </row>
     <row r="30" spans="1:75">
-      <c r="A30" s="397"/>
-      <c r="B30" s="398"/>
-      <c r="C30" s="397"/>
-      <c r="D30" s="399"/>
-      <c r="E30" s="413" t="s">
-        <v>429</v>
-      </c>
-      <c r="F30" s="414"/>
+      <c r="A30" s="418"/>
+      <c r="B30" s="424"/>
+      <c r="C30" s="418"/>
+      <c r="D30" s="421"/>
+      <c r="E30" s="394" t="s">
+        <v>428</v>
+      </c>
+      <c r="F30" s="395"/>
       <c r="G30" s="117"/>
       <c r="H30" s="117"/>
       <c r="I30" s="117"/>
@@ -13478,22 +13478,22 @@
       <c r="BW30" s="191"/>
     </row>
     <row r="31" spans="1:75">
-      <c r="A31" s="397" t="s">
+      <c r="A31" s="418" t="s">
+        <v>377</v>
+      </c>
+      <c r="B31" s="424" t="s">
         <v>378</v>
       </c>
-      <c r="B31" s="398" t="s">
+      <c r="C31" s="418" t="s">
         <v>379</v>
       </c>
-      <c r="C31" s="397" t="s">
+      <c r="D31" s="421" t="s">
         <v>380</v>
       </c>
-      <c r="D31" s="399" t="s">
-        <v>381</v>
-      </c>
-      <c r="E31" s="413" t="s">
-        <v>540</v>
-      </c>
-      <c r="F31" s="414"/>
+      <c r="E31" s="394" t="s">
+        <v>539</v>
+      </c>
+      <c r="F31" s="395"/>
       <c r="G31" s="117"/>
       <c r="H31" s="117"/>
       <c r="I31" s="117"/>
@@ -13540,14 +13540,14 @@
       <c r="BW31" s="191"/>
     </row>
     <row r="32" spans="1:75">
-      <c r="A32" s="397"/>
-      <c r="B32" s="398"/>
-      <c r="C32" s="397"/>
-      <c r="D32" s="399"/>
-      <c r="E32" s="413" t="s">
-        <v>430</v>
-      </c>
-      <c r="F32" s="414"/>
+      <c r="A32" s="418"/>
+      <c r="B32" s="424"/>
+      <c r="C32" s="418"/>
+      <c r="D32" s="421"/>
+      <c r="E32" s="394" t="s">
+        <v>429</v>
+      </c>
+      <c r="F32" s="395"/>
       <c r="G32" s="117"/>
       <c r="H32" s="117"/>
       <c r="I32" s="117"/>
@@ -13594,22 +13594,22 @@
       <c r="BW32" s="191"/>
     </row>
     <row r="33" spans="1:75">
-      <c r="A33" s="397" t="s">
+      <c r="A33" s="418" t="s">
+        <v>381</v>
+      </c>
+      <c r="B33" s="424" t="s">
         <v>382</v>
       </c>
-      <c r="B33" s="398" t="s">
+      <c r="C33" s="418" t="s">
         <v>383</v>
       </c>
-      <c r="C33" s="397" t="s">
+      <c r="D33" s="421" t="s">
         <v>384</v>
       </c>
-      <c r="D33" s="399" t="s">
-        <v>385</v>
-      </c>
-      <c r="E33" s="413" t="s">
-        <v>541</v>
-      </c>
-      <c r="F33" s="414"/>
+      <c r="E33" s="394" t="s">
+        <v>540</v>
+      </c>
+      <c r="F33" s="395"/>
       <c r="G33" s="117"/>
       <c r="H33" s="117"/>
       <c r="I33" s="117"/>
@@ -13656,14 +13656,14 @@
       <c r="BW33" s="191"/>
     </row>
     <row r="34" spans="1:75">
-      <c r="A34" s="397"/>
-      <c r="B34" s="398"/>
-      <c r="C34" s="397"/>
-      <c r="D34" s="399"/>
-      <c r="E34" s="413" t="s">
-        <v>431</v>
-      </c>
-      <c r="F34" s="414"/>
+      <c r="A34" s="418"/>
+      <c r="B34" s="424"/>
+      <c r="C34" s="418"/>
+      <c r="D34" s="421"/>
+      <c r="E34" s="394" t="s">
+        <v>430</v>
+      </c>
+      <c r="F34" s="395"/>
       <c r="G34" s="117"/>
       <c r="H34" s="117"/>
       <c r="I34" s="117"/>
@@ -13710,22 +13710,22 @@
       <c r="BW34" s="191"/>
     </row>
     <row r="35" spans="1:75">
-      <c r="A35" s="397" t="s">
+      <c r="A35" s="418" t="s">
+        <v>385</v>
+      </c>
+      <c r="B35" s="424" t="s">
         <v>386</v>
       </c>
-      <c r="B35" s="398" t="s">
+      <c r="C35" s="418" t="s">
         <v>387</v>
       </c>
-      <c r="C35" s="397" t="s">
+      <c r="D35" s="421" t="s">
         <v>388</v>
       </c>
-      <c r="D35" s="399" t="s">
-        <v>389</v>
-      </c>
-      <c r="E35" s="413" t="s">
-        <v>542</v>
-      </c>
-      <c r="F35" s="414"/>
+      <c r="E35" s="394" t="s">
+        <v>541</v>
+      </c>
+      <c r="F35" s="395"/>
       <c r="G35" s="117"/>
       <c r="H35" s="117"/>
       <c r="I35" s="117"/>
@@ -13772,14 +13772,14 @@
       <c r="BW35" s="191"/>
     </row>
     <row r="36" spans="1:75">
-      <c r="A36" s="397"/>
-      <c r="B36" s="398"/>
-      <c r="C36" s="397"/>
-      <c r="D36" s="399"/>
-      <c r="E36" s="413" t="s">
-        <v>432</v>
-      </c>
-      <c r="F36" s="414"/>
+      <c r="A36" s="418"/>
+      <c r="B36" s="424"/>
+      <c r="C36" s="418"/>
+      <c r="D36" s="421"/>
+      <c r="E36" s="394" t="s">
+        <v>431</v>
+      </c>
+      <c r="F36" s="395"/>
       <c r="G36" s="117"/>
       <c r="H36" s="117"/>
       <c r="I36" s="117"/>
@@ -13826,22 +13826,22 @@
       <c r="BW36" s="191"/>
     </row>
     <row r="37" spans="1:75">
-      <c r="A37" s="397" t="s">
+      <c r="A37" s="418" t="s">
+        <v>389</v>
+      </c>
+      <c r="B37" s="424" t="s">
         <v>390</v>
       </c>
-      <c r="B37" s="398" t="s">
+      <c r="C37" s="418" t="s">
         <v>391</v>
       </c>
-      <c r="C37" s="397" t="s">
+      <c r="D37" s="421" t="s">
         <v>392</v>
       </c>
-      <c r="D37" s="399" t="s">
-        <v>393</v>
-      </c>
-      <c r="E37" s="413" t="s">
-        <v>543</v>
-      </c>
-      <c r="F37" s="414"/>
+      <c r="E37" s="394" t="s">
+        <v>542</v>
+      </c>
+      <c r="F37" s="395"/>
       <c r="G37" s="117"/>
       <c r="H37" s="117"/>
       <c r="I37" s="117"/>
@@ -13888,14 +13888,14 @@
       <c r="BW37" s="191"/>
     </row>
     <row r="38" spans="1:75">
-      <c r="A38" s="397"/>
-      <c r="B38" s="398"/>
-      <c r="C38" s="397"/>
-      <c r="D38" s="399"/>
-      <c r="E38" s="413" t="s">
-        <v>433</v>
-      </c>
-      <c r="F38" s="414"/>
+      <c r="A38" s="418"/>
+      <c r="B38" s="424"/>
+      <c r="C38" s="418"/>
+      <c r="D38" s="421"/>
+      <c r="E38" s="394" t="s">
+        <v>432</v>
+      </c>
+      <c r="F38" s="395"/>
       <c r="G38" s="117"/>
       <c r="H38" s="117"/>
       <c r="I38" s="117"/>
@@ -13942,22 +13942,22 @@
       <c r="BW38" s="191"/>
     </row>
     <row r="39" spans="1:75">
-      <c r="A39" s="397" t="s">
+      <c r="A39" s="418" t="s">
+        <v>393</v>
+      </c>
+      <c r="B39" s="424" t="s">
         <v>394</v>
       </c>
-      <c r="B39" s="398" t="s">
+      <c r="C39" s="418" t="s">
         <v>395</v>
       </c>
-      <c r="C39" s="397" t="s">
+      <c r="D39" s="421" t="s">
         <v>396</v>
       </c>
-      <c r="D39" s="399" t="s">
-        <v>397</v>
-      </c>
-      <c r="E39" s="413" t="s">
-        <v>544</v>
-      </c>
-      <c r="F39" s="414"/>
+      <c r="E39" s="394" t="s">
+        <v>543</v>
+      </c>
+      <c r="F39" s="395"/>
       <c r="G39" s="117"/>
       <c r="H39" s="117"/>
       <c r="I39" s="117"/>
@@ -14004,14 +14004,14 @@
       <c r="BW39" s="191"/>
     </row>
     <row r="40" spans="1:75">
-      <c r="A40" s="397"/>
-      <c r="B40" s="398"/>
-      <c r="C40" s="397"/>
-      <c r="D40" s="399"/>
-      <c r="E40" s="413" t="s">
-        <v>434</v>
-      </c>
-      <c r="F40" s="414"/>
+      <c r="A40" s="418"/>
+      <c r="B40" s="424"/>
+      <c r="C40" s="418"/>
+      <c r="D40" s="421"/>
+      <c r="E40" s="394" t="s">
+        <v>433</v>
+      </c>
+      <c r="F40" s="395"/>
       <c r="G40" s="117"/>
       <c r="H40" s="117"/>
       <c r="I40" s="117"/>
@@ -14082,18 +14082,18 @@
       <c r="BW40" s="193"/>
     </row>
     <row r="41" spans="1:75" ht="45.75" customHeight="1">
-      <c r="A41" s="384" t="s">
-        <v>413</v>
-      </c>
-      <c r="B41" s="385"/>
-      <c r="C41" s="385"/>
-      <c r="D41" s="385"/>
-      <c r="E41" s="385"/>
-      <c r="F41" s="386"/>
-      <c r="G41" s="382" t="s">
-        <v>583</v>
-      </c>
-      <c r="H41" s="383"/>
+      <c r="A41" s="438" t="s">
+        <v>412</v>
+      </c>
+      <c r="B41" s="439"/>
+      <c r="C41" s="439"/>
+      <c r="D41" s="439"/>
+      <c r="E41" s="439"/>
+      <c r="F41" s="440"/>
+      <c r="G41" s="436" t="s">
+        <v>582</v>
+      </c>
+      <c r="H41" s="437"/>
       <c r="I41" s="117"/>
       <c r="J41" s="117"/>
       <c r="K41" s="117"/>
@@ -14161,18 +14161,18 @@
       <c r="BW41" s="164"/>
     </row>
     <row r="42" spans="1:75" s="195" customFormat="1" ht="15" customHeight="1">
-      <c r="A42" s="425" t="s">
-        <v>329</v>
-      </c>
-      <c r="B42" s="426"/>
-      <c r="C42" s="429" t="s">
-        <v>398</v>
-      </c>
-      <c r="D42" s="430"/>
-      <c r="E42" s="413" t="s">
-        <v>545</v>
-      </c>
-      <c r="F42" s="414"/>
+      <c r="A42" s="409" t="s">
+        <v>328</v>
+      </c>
+      <c r="B42" s="410"/>
+      <c r="C42" s="413" t="s">
+        <v>397</v>
+      </c>
+      <c r="D42" s="414"/>
+      <c r="E42" s="394" t="s">
+        <v>544</v>
+      </c>
+      <c r="F42" s="395"/>
       <c r="G42" s="117"/>
       <c r="H42" s="117"/>
       <c r="I42" s="117"/>
@@ -14242,14 +14242,14 @@
       <c r="BW42" s="196"/>
     </row>
     <row r="43" spans="1:75" s="195" customFormat="1">
-      <c r="A43" s="425"/>
-      <c r="B43" s="426"/>
-      <c r="C43" s="431"/>
-      <c r="D43" s="432"/>
-      <c r="E43" s="423" t="s">
-        <v>435</v>
-      </c>
-      <c r="F43" s="424"/>
+      <c r="A43" s="409"/>
+      <c r="B43" s="410"/>
+      <c r="C43" s="384"/>
+      <c r="D43" s="385"/>
+      <c r="E43" s="386" t="s">
+        <v>434</v>
+      </c>
+      <c r="F43" s="387"/>
       <c r="G43" s="117"/>
       <c r="H43" s="117"/>
       <c r="I43" s="117"/>
@@ -14319,16 +14319,16 @@
       <c r="BW43" s="196"/>
     </row>
     <row r="44" spans="1:75" s="195" customFormat="1">
-      <c r="A44" s="425"/>
-      <c r="B44" s="426"/>
-      <c r="C44" s="433" t="s">
-        <v>399</v>
-      </c>
-      <c r="D44" s="434"/>
-      <c r="E44" s="413" t="s">
-        <v>546</v>
-      </c>
-      <c r="F44" s="414"/>
+      <c r="A44" s="409"/>
+      <c r="B44" s="410"/>
+      <c r="C44" s="382" t="s">
+        <v>398</v>
+      </c>
+      <c r="D44" s="383"/>
+      <c r="E44" s="394" t="s">
+        <v>545</v>
+      </c>
+      <c r="F44" s="395"/>
       <c r="G44" s="117"/>
       <c r="H44" s="117"/>
       <c r="I44" s="117"/>
@@ -14398,14 +14398,14 @@
       <c r="BW44" s="196"/>
     </row>
     <row r="45" spans="1:75" s="195" customFormat="1">
-      <c r="A45" s="425"/>
-      <c r="B45" s="426"/>
-      <c r="C45" s="431"/>
-      <c r="D45" s="432"/>
-      <c r="E45" s="423" t="s">
-        <v>436</v>
-      </c>
-      <c r="F45" s="424"/>
+      <c r="A45" s="409"/>
+      <c r="B45" s="410"/>
+      <c r="C45" s="384"/>
+      <c r="D45" s="385"/>
+      <c r="E45" s="386" t="s">
+        <v>435</v>
+      </c>
+      <c r="F45" s="387"/>
       <c r="G45" s="117"/>
       <c r="H45" s="117"/>
       <c r="I45" s="117"/>
@@ -14475,16 +14475,16 @@
       <c r="BW45" s="196"/>
     </row>
     <row r="46" spans="1:75" s="195" customFormat="1">
-      <c r="A46" s="425"/>
-      <c r="B46" s="426"/>
-      <c r="C46" s="433" t="s">
-        <v>400</v>
-      </c>
-      <c r="D46" s="434"/>
-      <c r="E46" s="413" t="s">
-        <v>547</v>
-      </c>
-      <c r="F46" s="414"/>
+      <c r="A46" s="409"/>
+      <c r="B46" s="410"/>
+      <c r="C46" s="382" t="s">
+        <v>399</v>
+      </c>
+      <c r="D46" s="383"/>
+      <c r="E46" s="394" t="s">
+        <v>546</v>
+      </c>
+      <c r="F46" s="395"/>
       <c r="G46" s="117"/>
       <c r="H46" s="117"/>
       <c r="I46" s="117"/>
@@ -14509,10 +14509,10 @@
       <c r="AD46" s="117"/>
       <c r="AE46" s="117"/>
       <c r="AF46" s="117"/>
-      <c r="AG46" s="422"/>
-      <c r="AH46" s="422"/>
-      <c r="AI46" s="422"/>
-      <c r="AJ46" s="422"/>
+      <c r="AG46" s="415"/>
+      <c r="AH46" s="415"/>
+      <c r="AI46" s="415"/>
+      <c r="AJ46" s="415"/>
       <c r="AK46" s="196"/>
       <c r="AL46" s="196"/>
       <c r="AM46" s="196"/>
@@ -14554,14 +14554,14 @@
       <c r="BW46" s="196"/>
     </row>
     <row r="47" spans="1:75" s="195" customFormat="1">
-      <c r="A47" s="425"/>
-      <c r="B47" s="426"/>
-      <c r="C47" s="431"/>
-      <c r="D47" s="432"/>
-      <c r="E47" s="423" t="s">
-        <v>437</v>
-      </c>
-      <c r="F47" s="424"/>
+      <c r="A47" s="409"/>
+      <c r="B47" s="410"/>
+      <c r="C47" s="384"/>
+      <c r="D47" s="385"/>
+      <c r="E47" s="386" t="s">
+        <v>436</v>
+      </c>
+      <c r="F47" s="387"/>
       <c r="G47" s="117"/>
       <c r="H47" s="117"/>
       <c r="I47" s="117"/>
@@ -14631,16 +14631,16 @@
       <c r="BW47" s="196"/>
     </row>
     <row r="48" spans="1:75" s="195" customFormat="1">
-      <c r="A48" s="425"/>
-      <c r="B48" s="426"/>
-      <c r="C48" s="433" t="s">
-        <v>401</v>
-      </c>
-      <c r="D48" s="434"/>
-      <c r="E48" s="413" t="s">
-        <v>548</v>
-      </c>
-      <c r="F48" s="414"/>
+      <c r="A48" s="409"/>
+      <c r="B48" s="410"/>
+      <c r="C48" s="382" t="s">
+        <v>400</v>
+      </c>
+      <c r="D48" s="383"/>
+      <c r="E48" s="394" t="s">
+        <v>547</v>
+      </c>
+      <c r="F48" s="395"/>
       <c r="G48" s="117"/>
       <c r="H48" s="117"/>
       <c r="I48" s="117"/>
@@ -14665,10 +14665,10 @@
       <c r="AD48" s="117"/>
       <c r="AE48" s="117"/>
       <c r="AF48" s="117"/>
-      <c r="AG48" s="422"/>
-      <c r="AH48" s="422"/>
-      <c r="AI48" s="422"/>
-      <c r="AJ48" s="422"/>
+      <c r="AG48" s="415"/>
+      <c r="AH48" s="415"/>
+      <c r="AI48" s="415"/>
+      <c r="AJ48" s="415"/>
       <c r="AK48" s="196"/>
       <c r="AL48" s="196"/>
       <c r="AM48" s="196"/>
@@ -14710,14 +14710,14 @@
       <c r="BW48" s="196"/>
     </row>
     <row r="49" spans="1:75" s="195" customFormat="1">
-      <c r="A49" s="425"/>
-      <c r="B49" s="426"/>
-      <c r="C49" s="431"/>
-      <c r="D49" s="432"/>
-      <c r="E49" s="423" t="s">
-        <v>438</v>
-      </c>
-      <c r="F49" s="424"/>
+      <c r="A49" s="409"/>
+      <c r="B49" s="410"/>
+      <c r="C49" s="384"/>
+      <c r="D49" s="385"/>
+      <c r="E49" s="386" t="s">
+        <v>437</v>
+      </c>
+      <c r="F49" s="387"/>
       <c r="G49" s="117"/>
       <c r="H49" s="117"/>
       <c r="I49" s="117"/>
@@ -14787,16 +14787,16 @@
       <c r="BW49" s="196"/>
     </row>
     <row r="50" spans="1:75" s="195" customFormat="1">
-      <c r="A50" s="425"/>
-      <c r="B50" s="426"/>
-      <c r="C50" s="433" t="s">
-        <v>402</v>
-      </c>
-      <c r="D50" s="434"/>
-      <c r="E50" s="413" t="s">
-        <v>549</v>
-      </c>
-      <c r="F50" s="414"/>
+      <c r="A50" s="409"/>
+      <c r="B50" s="410"/>
+      <c r="C50" s="382" t="s">
+        <v>401</v>
+      </c>
+      <c r="D50" s="383"/>
+      <c r="E50" s="394" t="s">
+        <v>548</v>
+      </c>
+      <c r="F50" s="395"/>
       <c r="G50" s="117"/>
       <c r="H50" s="117"/>
       <c r="I50" s="117"/>
@@ -14821,10 +14821,10 @@
       <c r="AD50" s="117"/>
       <c r="AE50" s="117"/>
       <c r="AF50" s="117"/>
-      <c r="AG50" s="422"/>
-      <c r="AH50" s="422"/>
-      <c r="AI50" s="422"/>
-      <c r="AJ50" s="422"/>
+      <c r="AG50" s="415"/>
+      <c r="AH50" s="415"/>
+      <c r="AI50" s="415"/>
+      <c r="AJ50" s="415"/>
       <c r="AK50" s="196"/>
       <c r="AL50" s="196"/>
       <c r="AM50" s="196"/>
@@ -14866,14 +14866,14 @@
       <c r="BW50" s="196"/>
     </row>
     <row r="51" spans="1:75" s="195" customFormat="1">
-      <c r="A51" s="425"/>
-      <c r="B51" s="426"/>
-      <c r="C51" s="431"/>
-      <c r="D51" s="432"/>
-      <c r="E51" s="423" t="s">
-        <v>439</v>
-      </c>
-      <c r="F51" s="424"/>
+      <c r="A51" s="409"/>
+      <c r="B51" s="410"/>
+      <c r="C51" s="384"/>
+      <c r="D51" s="385"/>
+      <c r="E51" s="386" t="s">
+        <v>438</v>
+      </c>
+      <c r="F51" s="387"/>
       <c r="G51" s="117"/>
       <c r="H51" s="117"/>
       <c r="I51" s="117"/>
@@ -14943,16 +14943,16 @@
       <c r="BW51" s="196"/>
     </row>
     <row r="52" spans="1:75" s="195" customFormat="1">
-      <c r="A52" s="425"/>
-      <c r="B52" s="426"/>
-      <c r="C52" s="433" t="s">
-        <v>403</v>
-      </c>
-      <c r="D52" s="434"/>
-      <c r="E52" s="413" t="s">
-        <v>550</v>
-      </c>
-      <c r="F52" s="414"/>
+      <c r="A52" s="409"/>
+      <c r="B52" s="410"/>
+      <c r="C52" s="382" t="s">
+        <v>402</v>
+      </c>
+      <c r="D52" s="383"/>
+      <c r="E52" s="394" t="s">
+        <v>549</v>
+      </c>
+      <c r="F52" s="395"/>
       <c r="G52" s="117"/>
       <c r="H52" s="117"/>
       <c r="I52" s="117"/>
@@ -14977,10 +14977,10 @@
       <c r="AD52" s="117"/>
       <c r="AE52" s="117"/>
       <c r="AF52" s="117"/>
-      <c r="AG52" s="422"/>
-      <c r="AH52" s="422"/>
-      <c r="AI52" s="422"/>
-      <c r="AJ52" s="422"/>
+      <c r="AG52" s="415"/>
+      <c r="AH52" s="415"/>
+      <c r="AI52" s="415"/>
+      <c r="AJ52" s="415"/>
       <c r="AK52" s="196"/>
       <c r="AL52" s="196"/>
       <c r="AM52" s="196"/>
@@ -15022,14 +15022,14 @@
       <c r="BW52" s="196"/>
     </row>
     <row r="53" spans="1:75" s="195" customFormat="1">
-      <c r="A53" s="425"/>
-      <c r="B53" s="426"/>
-      <c r="C53" s="431"/>
-      <c r="D53" s="432"/>
-      <c r="E53" s="423" t="s">
-        <v>440</v>
-      </c>
-      <c r="F53" s="424"/>
+      <c r="A53" s="409"/>
+      <c r="B53" s="410"/>
+      <c r="C53" s="384"/>
+      <c r="D53" s="385"/>
+      <c r="E53" s="386" t="s">
+        <v>439</v>
+      </c>
+      <c r="F53" s="387"/>
       <c r="G53" s="117"/>
       <c r="H53" s="117"/>
       <c r="I53" s="117"/>
@@ -15099,16 +15099,16 @@
       <c r="BW53" s="196"/>
     </row>
     <row r="54" spans="1:75" s="195" customFormat="1">
-      <c r="A54" s="425"/>
-      <c r="B54" s="426"/>
-      <c r="C54" s="433" t="s">
-        <v>404</v>
-      </c>
-      <c r="D54" s="434"/>
-      <c r="E54" s="413" t="s">
-        <v>551</v>
-      </c>
-      <c r="F54" s="414"/>
+      <c r="A54" s="409"/>
+      <c r="B54" s="410"/>
+      <c r="C54" s="382" t="s">
+        <v>403</v>
+      </c>
+      <c r="D54" s="383"/>
+      <c r="E54" s="394" t="s">
+        <v>550</v>
+      </c>
+      <c r="F54" s="395"/>
       <c r="G54" s="117"/>
       <c r="H54" s="117"/>
       <c r="I54" s="117"/>
@@ -15133,10 +15133,10 @@
       <c r="AD54" s="117"/>
       <c r="AE54" s="117"/>
       <c r="AF54" s="117"/>
-      <c r="AG54" s="422"/>
-      <c r="AH54" s="422"/>
-      <c r="AI54" s="422"/>
-      <c r="AJ54" s="422"/>
+      <c r="AG54" s="415"/>
+      <c r="AH54" s="415"/>
+      <c r="AI54" s="415"/>
+      <c r="AJ54" s="415"/>
       <c r="AK54" s="196"/>
       <c r="AL54" s="196"/>
       <c r="AM54" s="196"/>
@@ -15178,14 +15178,14 @@
       <c r="BW54" s="196"/>
     </row>
     <row r="55" spans="1:75" s="195" customFormat="1">
-      <c r="A55" s="425"/>
-      <c r="B55" s="426"/>
-      <c r="C55" s="431"/>
-      <c r="D55" s="432"/>
-      <c r="E55" s="423" t="s">
-        <v>441</v>
-      </c>
-      <c r="F55" s="424"/>
+      <c r="A55" s="409"/>
+      <c r="B55" s="410"/>
+      <c r="C55" s="384"/>
+      <c r="D55" s="385"/>
+      <c r="E55" s="386" t="s">
+        <v>440</v>
+      </c>
+      <c r="F55" s="387"/>
       <c r="G55" s="117"/>
       <c r="H55" s="117"/>
       <c r="I55" s="117"/>
@@ -15255,16 +15255,16 @@
       <c r="BW55" s="196"/>
     </row>
     <row r="56" spans="1:75" s="195" customFormat="1">
-      <c r="A56" s="425"/>
-      <c r="B56" s="426"/>
-      <c r="C56" s="433" t="s">
-        <v>405</v>
-      </c>
-      <c r="D56" s="434"/>
-      <c r="E56" s="423" t="s">
-        <v>552</v>
-      </c>
-      <c r="F56" s="424"/>
+      <c r="A56" s="409"/>
+      <c r="B56" s="410"/>
+      <c r="C56" s="382" t="s">
+        <v>404</v>
+      </c>
+      <c r="D56" s="383"/>
+      <c r="E56" s="386" t="s">
+        <v>551</v>
+      </c>
+      <c r="F56" s="387"/>
       <c r="G56" s="117"/>
       <c r="H56" s="117"/>
       <c r="I56" s="117"/>
@@ -15289,10 +15289,10 @@
       <c r="AD56" s="117"/>
       <c r="AE56" s="117"/>
       <c r="AF56" s="117"/>
-      <c r="AG56" s="422"/>
-      <c r="AH56" s="422"/>
-      <c r="AI56" s="422"/>
-      <c r="AJ56" s="422"/>
+      <c r="AG56" s="415"/>
+      <c r="AH56" s="415"/>
+      <c r="AI56" s="415"/>
+      <c r="AJ56" s="415"/>
       <c r="AK56" s="196"/>
       <c r="AL56" s="196"/>
       <c r="AM56" s="196"/>
@@ -15334,14 +15334,14 @@
       <c r="BW56" s="196"/>
     </row>
     <row r="57" spans="1:75" s="195" customFormat="1">
-      <c r="A57" s="425"/>
-      <c r="B57" s="426"/>
-      <c r="C57" s="431"/>
-      <c r="D57" s="432"/>
-      <c r="E57" s="423" t="s">
-        <v>442</v>
-      </c>
-      <c r="F57" s="424"/>
+      <c r="A57" s="409"/>
+      <c r="B57" s="410"/>
+      <c r="C57" s="384"/>
+      <c r="D57" s="385"/>
+      <c r="E57" s="386" t="s">
+        <v>441</v>
+      </c>
+      <c r="F57" s="387"/>
       <c r="G57" s="117"/>
       <c r="H57" s="117"/>
       <c r="I57" s="117"/>
@@ -15411,16 +15411,16 @@
       <c r="BW57" s="196"/>
     </row>
     <row r="58" spans="1:75" s="195" customFormat="1">
-      <c r="A58" s="425"/>
-      <c r="B58" s="426"/>
-      <c r="C58" s="433" t="s">
-        <v>406</v>
-      </c>
-      <c r="D58" s="434"/>
-      <c r="E58" s="413" t="s">
-        <v>553</v>
-      </c>
-      <c r="F58" s="414"/>
+      <c r="A58" s="409"/>
+      <c r="B58" s="410"/>
+      <c r="C58" s="382" t="s">
+        <v>405</v>
+      </c>
+      <c r="D58" s="383"/>
+      <c r="E58" s="394" t="s">
+        <v>552</v>
+      </c>
+      <c r="F58" s="395"/>
       <c r="G58" s="117"/>
       <c r="H58" s="117"/>
       <c r="I58" s="117"/>
@@ -15445,10 +15445,10 @@
       <c r="AD58" s="117"/>
       <c r="AE58" s="117"/>
       <c r="AF58" s="117"/>
-      <c r="AG58" s="422"/>
-      <c r="AH58" s="422"/>
-      <c r="AI58" s="422"/>
-      <c r="AJ58" s="422"/>
+      <c r="AG58" s="415"/>
+      <c r="AH58" s="415"/>
+      <c r="AI58" s="415"/>
+      <c r="AJ58" s="415"/>
       <c r="AK58" s="196"/>
       <c r="AL58" s="198"/>
       <c r="AM58" s="196"/>
@@ -15490,14 +15490,14 @@
       <c r="BW58" s="196"/>
     </row>
     <row r="59" spans="1:75" s="195" customFormat="1">
-      <c r="A59" s="425"/>
-      <c r="B59" s="426"/>
-      <c r="C59" s="431"/>
-      <c r="D59" s="432"/>
-      <c r="E59" s="423" t="s">
-        <v>443</v>
-      </c>
-      <c r="F59" s="424"/>
+      <c r="A59" s="409"/>
+      <c r="B59" s="410"/>
+      <c r="C59" s="384"/>
+      <c r="D59" s="385"/>
+      <c r="E59" s="386" t="s">
+        <v>442</v>
+      </c>
+      <c r="F59" s="387"/>
       <c r="G59" s="117"/>
       <c r="H59" s="117"/>
       <c r="I59" s="117"/>
@@ -15567,16 +15567,16 @@
       <c r="BW59" s="196"/>
     </row>
     <row r="60" spans="1:75" s="195" customFormat="1">
-      <c r="A60" s="425"/>
-      <c r="B60" s="426"/>
-      <c r="C60" s="433" t="s">
-        <v>407</v>
-      </c>
-      <c r="D60" s="434"/>
-      <c r="E60" s="413" t="s">
-        <v>554</v>
-      </c>
-      <c r="F60" s="414"/>
+      <c r="A60" s="409"/>
+      <c r="B60" s="410"/>
+      <c r="C60" s="382" t="s">
+        <v>406</v>
+      </c>
+      <c r="D60" s="383"/>
+      <c r="E60" s="394" t="s">
+        <v>553</v>
+      </c>
+      <c r="F60" s="395"/>
       <c r="G60" s="117"/>
       <c r="H60" s="117"/>
       <c r="I60" s="117"/>
@@ -15601,10 +15601,10 @@
       <c r="AD60" s="117"/>
       <c r="AE60" s="117"/>
       <c r="AF60" s="117"/>
-      <c r="AG60" s="422"/>
-      <c r="AH60" s="422"/>
-      <c r="AI60" s="422"/>
-      <c r="AJ60" s="422"/>
+      <c r="AG60" s="415"/>
+      <c r="AH60" s="415"/>
+      <c r="AI60" s="415"/>
+      <c r="AJ60" s="415"/>
       <c r="AK60" s="196"/>
       <c r="AL60" s="197"/>
       <c r="AM60" s="196"/>
@@ -15646,14 +15646,14 @@
       <c r="BW60" s="196"/>
     </row>
     <row r="61" spans="1:75" s="195" customFormat="1">
-      <c r="A61" s="425"/>
-      <c r="B61" s="426"/>
-      <c r="C61" s="431"/>
-      <c r="D61" s="432"/>
-      <c r="E61" s="423" t="s">
-        <v>444</v>
-      </c>
-      <c r="F61" s="424"/>
+      <c r="A61" s="409"/>
+      <c r="B61" s="410"/>
+      <c r="C61" s="384"/>
+      <c r="D61" s="385"/>
+      <c r="E61" s="386" t="s">
+        <v>443</v>
+      </c>
+      <c r="F61" s="387"/>
       <c r="G61" s="117"/>
       <c r="H61" s="117"/>
       <c r="I61" s="117"/>
@@ -15723,16 +15723,16 @@
       <c r="BW61" s="196"/>
     </row>
     <row r="62" spans="1:75" s="195" customFormat="1">
-      <c r="A62" s="425"/>
-      <c r="B62" s="426"/>
-      <c r="C62" s="433" t="s">
-        <v>408</v>
-      </c>
-      <c r="D62" s="434"/>
-      <c r="E62" s="413" t="s">
-        <v>555</v>
-      </c>
-      <c r="F62" s="414"/>
+      <c r="A62" s="409"/>
+      <c r="B62" s="410"/>
+      <c r="C62" s="382" t="s">
+        <v>407</v>
+      </c>
+      <c r="D62" s="383"/>
+      <c r="E62" s="394" t="s">
+        <v>554</v>
+      </c>
+      <c r="F62" s="395"/>
       <c r="G62" s="117"/>
       <c r="H62" s="117"/>
       <c r="I62" s="117"/>
@@ -15757,10 +15757,10 @@
       <c r="AD62" s="117"/>
       <c r="AE62" s="117"/>
       <c r="AF62" s="117"/>
-      <c r="AG62" s="422"/>
-      <c r="AH62" s="422"/>
-      <c r="AI62" s="422"/>
-      <c r="AJ62" s="422"/>
+      <c r="AG62" s="415"/>
+      <c r="AH62" s="415"/>
+      <c r="AI62" s="415"/>
+      <c r="AJ62" s="415"/>
       <c r="AK62" s="202"/>
       <c r="AL62" s="198"/>
       <c r="AM62" s="196"/>
@@ -15802,14 +15802,14 @@
       <c r="BW62" s="196"/>
     </row>
     <row r="63" spans="1:75" s="195" customFormat="1">
-      <c r="A63" s="425"/>
-      <c r="B63" s="426"/>
-      <c r="C63" s="431"/>
-      <c r="D63" s="432"/>
-      <c r="E63" s="423" t="s">
-        <v>445</v>
-      </c>
-      <c r="F63" s="424"/>
+      <c r="A63" s="409"/>
+      <c r="B63" s="410"/>
+      <c r="C63" s="384"/>
+      <c r="D63" s="385"/>
+      <c r="E63" s="386" t="s">
+        <v>444</v>
+      </c>
+      <c r="F63" s="387"/>
       <c r="G63" s="117"/>
       <c r="H63" s="117"/>
       <c r="I63" s="117"/>
@@ -15879,16 +15879,16 @@
       <c r="BW63" s="196"/>
     </row>
     <row r="64" spans="1:75" s="195" customFormat="1">
-      <c r="A64" s="425"/>
-      <c r="B64" s="426"/>
-      <c r="C64" s="433" t="s">
-        <v>409</v>
-      </c>
-      <c r="D64" s="434"/>
-      <c r="E64" s="413" t="s">
-        <v>556</v>
-      </c>
-      <c r="F64" s="414"/>
+      <c r="A64" s="409"/>
+      <c r="B64" s="410"/>
+      <c r="C64" s="382" t="s">
+        <v>408</v>
+      </c>
+      <c r="D64" s="383"/>
+      <c r="E64" s="394" t="s">
+        <v>555</v>
+      </c>
+      <c r="F64" s="395"/>
       <c r="G64" s="117"/>
       <c r="H64" s="117"/>
       <c r="I64" s="117"/>
@@ -15913,10 +15913,10 @@
       <c r="AD64" s="117"/>
       <c r="AE64" s="117"/>
       <c r="AF64" s="117"/>
-      <c r="AG64" s="422"/>
-      <c r="AH64" s="422"/>
-      <c r="AI64" s="422"/>
-      <c r="AJ64" s="422"/>
+      <c r="AG64" s="415"/>
+      <c r="AH64" s="415"/>
+      <c r="AI64" s="415"/>
+      <c r="AJ64" s="415"/>
       <c r="AK64" s="196"/>
       <c r="AL64" s="197"/>
       <c r="AM64" s="196"/>
@@ -15958,14 +15958,14 @@
       <c r="BW64" s="196"/>
     </row>
     <row r="65" spans="1:75" s="195" customFormat="1">
-      <c r="A65" s="425"/>
-      <c r="B65" s="426"/>
-      <c r="C65" s="431"/>
-      <c r="D65" s="432"/>
-      <c r="E65" s="423" t="s">
-        <v>446</v>
-      </c>
-      <c r="F65" s="424"/>
+      <c r="A65" s="409"/>
+      <c r="B65" s="410"/>
+      <c r="C65" s="384"/>
+      <c r="D65" s="385"/>
+      <c r="E65" s="386" t="s">
+        <v>445</v>
+      </c>
+      <c r="F65" s="387"/>
       <c r="G65" s="117"/>
       <c r="H65" s="117"/>
       <c r="I65" s="117"/>
@@ -16035,16 +16035,16 @@
       <c r="BW65" s="196"/>
     </row>
     <row r="66" spans="1:75" s="195" customFormat="1">
-      <c r="A66" s="425"/>
-      <c r="B66" s="426"/>
-      <c r="C66" s="433" t="s">
-        <v>410</v>
-      </c>
-      <c r="D66" s="434"/>
-      <c r="E66" s="413" t="s">
-        <v>557</v>
-      </c>
-      <c r="F66" s="414"/>
+      <c r="A66" s="409"/>
+      <c r="B66" s="410"/>
+      <c r="C66" s="382" t="s">
+        <v>409</v>
+      </c>
+      <c r="D66" s="383"/>
+      <c r="E66" s="394" t="s">
+        <v>556</v>
+      </c>
+      <c r="F66" s="395"/>
       <c r="G66" s="117"/>
       <c r="H66" s="117"/>
       <c r="I66" s="117"/>
@@ -16069,10 +16069,10 @@
       <c r="AD66" s="117"/>
       <c r="AE66" s="117"/>
       <c r="AF66" s="117"/>
-      <c r="AG66" s="422"/>
-      <c r="AH66" s="422"/>
-      <c r="AI66" s="422"/>
-      <c r="AJ66" s="422"/>
+      <c r="AG66" s="415"/>
+      <c r="AH66" s="415"/>
+      <c r="AI66" s="415"/>
+      <c r="AJ66" s="415"/>
       <c r="AK66" s="202"/>
       <c r="AL66" s="198"/>
       <c r="AM66" s="196"/>
@@ -16114,14 +16114,14 @@
       <c r="BW66" s="196"/>
     </row>
     <row r="67" spans="1:75" s="195" customFormat="1">
-      <c r="A67" s="425"/>
-      <c r="B67" s="426"/>
-      <c r="C67" s="431"/>
-      <c r="D67" s="432"/>
-      <c r="E67" s="423" t="s">
-        <v>447</v>
-      </c>
-      <c r="F67" s="424"/>
+      <c r="A67" s="409"/>
+      <c r="B67" s="410"/>
+      <c r="C67" s="384"/>
+      <c r="D67" s="385"/>
+      <c r="E67" s="386" t="s">
+        <v>446</v>
+      </c>
+      <c r="F67" s="387"/>
       <c r="G67" s="117"/>
       <c r="H67" s="117"/>
       <c r="I67" s="117"/>
@@ -16191,16 +16191,16 @@
       <c r="BW67" s="196"/>
     </row>
     <row r="68" spans="1:75" s="195" customFormat="1">
-      <c r="A68" s="425"/>
-      <c r="B68" s="426"/>
-      <c r="C68" s="433" t="s">
-        <v>411</v>
-      </c>
-      <c r="D68" s="434"/>
-      <c r="E68" s="413" t="s">
-        <v>558</v>
-      </c>
-      <c r="F68" s="414"/>
+      <c r="A68" s="409"/>
+      <c r="B68" s="410"/>
+      <c r="C68" s="382" t="s">
+        <v>410</v>
+      </c>
+      <c r="D68" s="383"/>
+      <c r="E68" s="394" t="s">
+        <v>557</v>
+      </c>
+      <c r="F68" s="395"/>
       <c r="G68" s="117"/>
       <c r="H68" s="117"/>
       <c r="I68" s="117"/>
@@ -16227,10 +16227,10 @@
       <c r="AD68" s="117"/>
       <c r="AE68" s="117"/>
       <c r="AF68" s="117"/>
-      <c r="AG68" s="422"/>
-      <c r="AH68" s="422"/>
-      <c r="AI68" s="422"/>
-      <c r="AJ68" s="422"/>
+      <c r="AG68" s="415"/>
+      <c r="AH68" s="415"/>
+      <c r="AI68" s="415"/>
+      <c r="AJ68" s="415"/>
       <c r="AK68" s="197"/>
       <c r="AL68" s="197"/>
       <c r="AM68" s="196"/>
@@ -16272,14 +16272,14 @@
       <c r="BW68" s="196"/>
     </row>
     <row r="69" spans="1:75" s="195" customFormat="1">
-      <c r="A69" s="425"/>
-      <c r="B69" s="426"/>
-      <c r="C69" s="431"/>
-      <c r="D69" s="432"/>
-      <c r="E69" s="423" t="s">
-        <v>448</v>
-      </c>
-      <c r="F69" s="424"/>
+      <c r="A69" s="409"/>
+      <c r="B69" s="410"/>
+      <c r="C69" s="384"/>
+      <c r="D69" s="385"/>
+      <c r="E69" s="386" t="s">
+        <v>447</v>
+      </c>
+      <c r="F69" s="387"/>
       <c r="G69" s="117"/>
       <c r="H69" s="117"/>
       <c r="I69" s="117"/>
@@ -16351,16 +16351,16 @@
       <c r="BW69" s="196"/>
     </row>
     <row r="70" spans="1:75" s="195" customFormat="1">
-      <c r="A70" s="425"/>
-      <c r="B70" s="426"/>
-      <c r="C70" s="433" t="s">
-        <v>414</v>
-      </c>
-      <c r="D70" s="434"/>
-      <c r="E70" s="413" t="s">
-        <v>559</v>
-      </c>
-      <c r="F70" s="414"/>
+      <c r="A70" s="409"/>
+      <c r="B70" s="410"/>
+      <c r="C70" s="382" t="s">
+        <v>413</v>
+      </c>
+      <c r="D70" s="383"/>
+      <c r="E70" s="394" t="s">
+        <v>558</v>
+      </c>
+      <c r="F70" s="395"/>
       <c r="G70" s="117"/>
       <c r="H70" s="117"/>
       <c r="I70" s="117"/>
@@ -16432,14 +16432,14 @@
       <c r="BW70" s="196"/>
     </row>
     <row r="71" spans="1:75" s="195" customFormat="1">
-      <c r="A71" s="425"/>
-      <c r="B71" s="426"/>
-      <c r="C71" s="431"/>
-      <c r="D71" s="432"/>
-      <c r="E71" s="423" t="s">
-        <v>449</v>
-      </c>
-      <c r="F71" s="424"/>
+      <c r="A71" s="409"/>
+      <c r="B71" s="410"/>
+      <c r="C71" s="384"/>
+      <c r="D71" s="385"/>
+      <c r="E71" s="386" t="s">
+        <v>448</v>
+      </c>
+      <c r="F71" s="387"/>
       <c r="G71" s="117"/>
       <c r="H71" s="117"/>
       <c r="I71" s="117"/>
@@ -16511,12 +16511,12 @@
       <c r="BW71" s="196"/>
     </row>
     <row r="72" spans="1:75" s="195" customFormat="1">
-      <c r="A72" s="425"/>
-      <c r="B72" s="426"/>
-      <c r="C72" s="404" t="s">
+      <c r="A72" s="409"/>
+      <c r="B72" s="410"/>
+      <c r="C72" s="430" t="s">
         <v>33</v>
       </c>
-      <c r="D72" s="405"/>
+      <c r="D72" s="431"/>
       <c r="E72" s="117"/>
       <c r="F72" s="117"/>
       <c r="G72" s="117"/>
@@ -16545,10 +16545,10 @@
       <c r="AD72" s="117"/>
       <c r="AE72" s="117"/>
       <c r="AF72" s="117"/>
-      <c r="AG72" s="435"/>
-      <c r="AH72" s="435"/>
-      <c r="AI72" s="435"/>
-      <c r="AJ72" s="435"/>
+      <c r="AG72" s="416"/>
+      <c r="AH72" s="416"/>
+      <c r="AI72" s="416"/>
+      <c r="AJ72" s="416"/>
       <c r="AK72" s="202"/>
       <c r="AL72" s="196"/>
       <c r="AM72" s="196"/>
@@ -16590,12 +16590,12 @@
       <c r="BW72" s="196"/>
     </row>
     <row r="73" spans="1:75" s="195" customFormat="1">
-      <c r="A73" s="425"/>
-      <c r="B73" s="426"/>
-      <c r="C73" s="406" t="s">
+      <c r="A73" s="409"/>
+      <c r="B73" s="410"/>
+      <c r="C73" s="432" t="s">
         <v>3</v>
       </c>
-      <c r="D73" s="407"/>
+      <c r="D73" s="433"/>
       <c r="E73" s="117"/>
       <c r="F73" s="117"/>
       <c r="G73" s="117"/>
@@ -16669,12 +16669,12 @@
       <c r="BW73" s="196"/>
     </row>
     <row r="74" spans="1:75" s="195" customFormat="1">
-      <c r="A74" s="427"/>
-      <c r="B74" s="428"/>
-      <c r="C74" s="406" t="s">
+      <c r="A74" s="411"/>
+      <c r="B74" s="412"/>
+      <c r="C74" s="432" t="s">
         <v>4</v>
       </c>
-      <c r="D74" s="407"/>
+      <c r="D74" s="433"/>
       <c r="E74" s="117"/>
       <c r="F74" s="117"/>
       <c r="G74" s="117"/>
@@ -16748,18 +16748,18 @@
       <c r="BW74" s="196"/>
     </row>
     <row r="75" spans="1:75" s="195" customFormat="1" ht="27" customHeight="1">
-      <c r="A75" s="449" t="s">
+      <c r="A75" s="388" t="s">
         <v>1</v>
       </c>
-      <c r="B75" s="450"/>
-      <c r="C75" s="408" t="s">
+      <c r="B75" s="389"/>
+      <c r="C75" s="434" t="s">
         <v>5</v>
       </c>
-      <c r="D75" s="409"/>
-      <c r="E75" s="423" t="s">
-        <v>323</v>
-      </c>
-      <c r="F75" s="424"/>
+      <c r="D75" s="435"/>
+      <c r="E75" s="386" t="s">
+        <v>322</v>
+      </c>
+      <c r="F75" s="387"/>
       <c r="G75" s="117"/>
       <c r="H75" s="117"/>
       <c r="I75" s="117"/>
@@ -16786,10 +16786,10 @@
       <c r="AD75" s="117"/>
       <c r="AE75" s="117"/>
       <c r="AF75" s="117"/>
-      <c r="AG75" s="436"/>
-      <c r="AH75" s="436"/>
-      <c r="AI75" s="436"/>
-      <c r="AJ75" s="436"/>
+      <c r="AG75" s="407"/>
+      <c r="AH75" s="407"/>
+      <c r="AI75" s="407"/>
+      <c r="AJ75" s="407"/>
       <c r="AK75" s="202"/>
       <c r="AL75" s="196"/>
       <c r="AM75" s="196"/>
@@ -16831,16 +16831,16 @@
       <c r="BW75" s="196"/>
     </row>
     <row r="76" spans="1:75" s="195" customFormat="1" ht="27" customHeight="1">
-      <c r="A76" s="451"/>
-      <c r="B76" s="452"/>
-      <c r="C76" s="408" t="s">
+      <c r="A76" s="390"/>
+      <c r="B76" s="391"/>
+      <c r="C76" s="434" t="s">
         <v>6</v>
       </c>
-      <c r="D76" s="409"/>
-      <c r="E76" s="423" t="s">
-        <v>324</v>
-      </c>
-      <c r="F76" s="424"/>
+      <c r="D76" s="435"/>
+      <c r="E76" s="386" t="s">
+        <v>323</v>
+      </c>
+      <c r="F76" s="387"/>
       <c r="G76" s="117"/>
       <c r="H76" s="117"/>
       <c r="I76" s="117"/>
@@ -16867,10 +16867,10 @@
       <c r="AD76" s="117"/>
       <c r="AE76" s="117"/>
       <c r="AF76" s="117"/>
-      <c r="AG76" s="436"/>
-      <c r="AH76" s="436"/>
-      <c r="AI76" s="436"/>
-      <c r="AJ76" s="436"/>
+      <c r="AG76" s="407"/>
+      <c r="AH76" s="407"/>
+      <c r="AI76" s="407"/>
+      <c r="AJ76" s="407"/>
       <c r="AK76" s="202"/>
       <c r="AL76" s="196"/>
       <c r="AM76" s="196"/>
@@ -16912,16 +16912,16 @@
       <c r="BW76" s="196"/>
     </row>
     <row r="77" spans="1:75" s="195" customFormat="1" ht="27" customHeight="1">
-      <c r="A77" s="451"/>
-      <c r="B77" s="452"/>
-      <c r="C77" s="408" t="s">
+      <c r="A77" s="390"/>
+      <c r="B77" s="391"/>
+      <c r="C77" s="434" t="s">
         <v>0</v>
       </c>
-      <c r="D77" s="409"/>
-      <c r="E77" s="423" t="s">
-        <v>325</v>
-      </c>
-      <c r="F77" s="424"/>
+      <c r="D77" s="435"/>
+      <c r="E77" s="386" t="s">
+        <v>324</v>
+      </c>
+      <c r="F77" s="387"/>
       <c r="G77" s="117"/>
       <c r="H77" s="117"/>
       <c r="I77" s="117"/>
@@ -16948,10 +16948,10 @@
       <c r="AD77" s="117"/>
       <c r="AE77" s="117"/>
       <c r="AF77" s="117"/>
-      <c r="AG77" s="437"/>
-      <c r="AH77" s="437"/>
-      <c r="AI77" s="437"/>
-      <c r="AJ77" s="437"/>
+      <c r="AG77" s="408"/>
+      <c r="AH77" s="408"/>
+      <c r="AI77" s="408"/>
+      <c r="AJ77" s="408"/>
       <c r="AK77" s="202"/>
       <c r="AL77" s="196"/>
       <c r="AM77" s="196"/>
@@ -16993,16 +16993,16 @@
       <c r="BW77" s="196"/>
     </row>
     <row r="78" spans="1:75" s="195" customFormat="1" ht="27" customHeight="1">
-      <c r="A78" s="451"/>
-      <c r="B78" s="452"/>
-      <c r="C78" s="408" t="s">
+      <c r="A78" s="390"/>
+      <c r="B78" s="391"/>
+      <c r="C78" s="434" t="s">
         <v>57</v>
       </c>
-      <c r="D78" s="409"/>
-      <c r="E78" s="423" t="s">
-        <v>326</v>
-      </c>
-      <c r="F78" s="424"/>
+      <c r="D78" s="435"/>
+      <c r="E78" s="386" t="s">
+        <v>325</v>
+      </c>
+      <c r="F78" s="387"/>
       <c r="G78" s="117"/>
       <c r="H78" s="117"/>
       <c r="I78" s="117"/>
@@ -17074,16 +17074,16 @@
       <c r="BW78" s="196"/>
     </row>
     <row r="79" spans="1:75" s="195" customFormat="1" ht="27" customHeight="1">
-      <c r="A79" s="451"/>
-      <c r="B79" s="452"/>
-      <c r="C79" s="408" t="s">
+      <c r="A79" s="390"/>
+      <c r="B79" s="391"/>
+      <c r="C79" s="434" t="s">
         <v>36</v>
       </c>
-      <c r="D79" s="409"/>
-      <c r="E79" s="423" t="s">
-        <v>415</v>
-      </c>
-      <c r="F79" s="424"/>
+      <c r="D79" s="435"/>
+      <c r="E79" s="386" t="s">
+        <v>414</v>
+      </c>
+      <c r="F79" s="387"/>
       <c r="G79" s="117"/>
       <c r="H79" s="117"/>
       <c r="I79" s="117"/>
@@ -17110,10 +17110,10 @@
       <c r="AD79" s="117"/>
       <c r="AE79" s="117"/>
       <c r="AF79" s="117"/>
-      <c r="AG79" s="437"/>
-      <c r="AH79" s="437"/>
-      <c r="AI79" s="437"/>
-      <c r="AJ79" s="437"/>
+      <c r="AG79" s="408"/>
+      <c r="AH79" s="408"/>
+      <c r="AI79" s="408"/>
+      <c r="AJ79" s="408"/>
       <c r="AK79" s="202"/>
       <c r="AL79" s="196"/>
       <c r="AM79" s="196"/>
@@ -17155,16 +17155,16 @@
       <c r="BW79" s="196"/>
     </row>
     <row r="80" spans="1:75" s="195" customFormat="1" ht="32.25" customHeight="1">
-      <c r="A80" s="454" t="s">
+      <c r="A80" s="393" t="s">
         <v>47</v>
       </c>
-      <c r="B80" s="454"/>
-      <c r="C80" s="454"/>
-      <c r="D80" s="454"/>
-      <c r="E80" s="453" t="s">
-        <v>327</v>
-      </c>
-      <c r="F80" s="424"/>
+      <c r="B80" s="393"/>
+      <c r="C80" s="393"/>
+      <c r="D80" s="393"/>
+      <c r="E80" s="392" t="s">
+        <v>326</v>
+      </c>
+      <c r="F80" s="387"/>
       <c r="G80" s="117"/>
       <c r="H80" s="117"/>
       <c r="I80" s="117"/>
@@ -17191,10 +17191,10 @@
       <c r="AD80" s="117"/>
       <c r="AE80" s="117"/>
       <c r="AF80" s="117"/>
-      <c r="AG80" s="438"/>
-      <c r="AH80" s="438"/>
-      <c r="AI80" s="438"/>
-      <c r="AJ80" s="438"/>
+      <c r="AG80" s="396"/>
+      <c r="AH80" s="396"/>
+      <c r="AI80" s="396"/>
+      <c r="AJ80" s="396"/>
       <c r="AK80" s="202"/>
       <c r="AL80" s="196"/>
       <c r="AM80" s="196"/>
@@ -17236,16 +17236,16 @@
       <c r="BW80" s="196"/>
     </row>
     <row r="81" spans="1:75" s="195" customFormat="1" ht="32.25" customHeight="1">
-      <c r="A81" s="454" t="s">
+      <c r="A81" s="393" t="s">
         <v>48</v>
       </c>
-      <c r="B81" s="454"/>
-      <c r="C81" s="454"/>
-      <c r="D81" s="454"/>
-      <c r="E81" s="453" t="s">
-        <v>328</v>
-      </c>
-      <c r="F81" s="424"/>
+      <c r="B81" s="393"/>
+      <c r="C81" s="393"/>
+      <c r="D81" s="393"/>
+      <c r="E81" s="392" t="s">
+        <v>327</v>
+      </c>
+      <c r="F81" s="387"/>
       <c r="G81" s="117"/>
       <c r="H81" s="117"/>
       <c r="I81" s="117"/>
@@ -17272,10 +17272,10 @@
       <c r="AD81" s="117"/>
       <c r="AE81" s="117"/>
       <c r="AF81" s="117"/>
-      <c r="AG81" s="438"/>
-      <c r="AH81" s="438"/>
-      <c r="AI81" s="438"/>
-      <c r="AJ81" s="438"/>
+      <c r="AG81" s="396"/>
+      <c r="AH81" s="396"/>
+      <c r="AI81" s="396"/>
+      <c r="AJ81" s="396"/>
       <c r="AK81" s="202"/>
       <c r="AL81" s="196"/>
       <c r="AM81" s="196"/>
@@ -17323,17 +17323,17 @@
       <c r="D82" s="206"/>
       <c r="E82" s="206"/>
       <c r="F82" s="206"/>
-      <c r="G82" s="439"/>
-      <c r="H82" s="439"/>
-      <c r="I82" s="439"/>
+      <c r="G82" s="397"/>
+      <c r="H82" s="397"/>
+      <c r="I82" s="397"/>
       <c r="J82" s="206"/>
       <c r="K82" s="206"/>
       <c r="L82" s="206"/>
       <c r="M82" s="206"/>
       <c r="N82" s="206"/>
-      <c r="O82" s="439"/>
-      <c r="P82" s="439"/>
-      <c r="Q82" s="439"/>
+      <c r="O82" s="397"/>
+      <c r="P82" s="397"/>
+      <c r="Q82" s="397"/>
       <c r="R82" s="206"/>
       <c r="S82" s="206"/>
       <c r="T82" s="206"/>
@@ -17359,13 +17359,13 @@
     <row r="83" spans="1:75" ht="14.1" customHeight="1" thickBot="1">
       <c r="A83" s="205"/>
       <c r="B83" s="214" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C83" s="213"/>
-      <c r="D83" s="448" t="s">
+      <c r="D83" s="406" t="s">
         <v>64</v>
       </c>
-      <c r="E83" s="448"/>
+      <c r="E83" s="406"/>
       <c r="F83" s="206"/>
       <c r="G83" s="212"/>
       <c r="H83" s="212"/>
@@ -17403,13 +17403,13 @@
     <row r="84" spans="1:75" ht="13.8" customHeight="1" thickBot="1">
       <c r="A84" s="205"/>
       <c r="B84" s="215" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C84" s="213"/>
-      <c r="D84" s="448" t="s">
+      <c r="D84" s="406" t="s">
         <v>65</v>
       </c>
-      <c r="E84" s="448"/>
+      <c r="E84" s="406"/>
       <c r="F84" s="206"/>
       <c r="G84" s="212"/>
       <c r="H84" s="212"/>
@@ -17451,9 +17451,9 @@
       <c r="D85" s="206"/>
       <c r="E85" s="206"/>
       <c r="F85" s="206"/>
-      <c r="G85" s="441"/>
-      <c r="H85" s="441"/>
-      <c r="I85" s="441"/>
+      <c r="G85" s="399"/>
+      <c r="H85" s="399"/>
+      <c r="I85" s="399"/>
       <c r="J85" s="206"/>
       <c r="K85" s="206"/>
       <c r="L85" s="206"/>
@@ -17486,35 +17486,35 @@
     </row>
     <row r="86" spans="1:75" ht="14.1" customHeight="1">
       <c r="A86" s="205"/>
-      <c r="B86" s="440" t="s">
+      <c r="B86" s="398" t="s">
         <v>38</v>
       </c>
-      <c r="C86" s="442"/>
-      <c r="D86" s="443"/>
-      <c r="E86" s="443"/>
-      <c r="F86" s="443"/>
-      <c r="G86" s="443"/>
-      <c r="H86" s="443"/>
-      <c r="I86" s="443"/>
-      <c r="J86" s="443"/>
-      <c r="K86" s="443"/>
-      <c r="L86" s="443"/>
-      <c r="M86" s="443"/>
-      <c r="N86" s="443"/>
-      <c r="O86" s="443"/>
-      <c r="P86" s="443"/>
-      <c r="Q86" s="443"/>
-      <c r="R86" s="443"/>
-      <c r="S86" s="443"/>
-      <c r="T86" s="443"/>
-      <c r="U86" s="443"/>
-      <c r="V86" s="443"/>
-      <c r="W86" s="443"/>
-      <c r="X86" s="443"/>
-      <c r="Y86" s="443"/>
-      <c r="Z86" s="443"/>
-      <c r="AA86" s="443"/>
-      <c r="AB86" s="444"/>
+      <c r="C86" s="400"/>
+      <c r="D86" s="401"/>
+      <c r="E86" s="401"/>
+      <c r="F86" s="401"/>
+      <c r="G86" s="401"/>
+      <c r="H86" s="401"/>
+      <c r="I86" s="401"/>
+      <c r="J86" s="401"/>
+      <c r="K86" s="401"/>
+      <c r="L86" s="401"/>
+      <c r="M86" s="401"/>
+      <c r="N86" s="401"/>
+      <c r="O86" s="401"/>
+      <c r="P86" s="401"/>
+      <c r="Q86" s="401"/>
+      <c r="R86" s="401"/>
+      <c r="S86" s="401"/>
+      <c r="T86" s="401"/>
+      <c r="U86" s="401"/>
+      <c r="V86" s="401"/>
+      <c r="W86" s="401"/>
+      <c r="X86" s="401"/>
+      <c r="Y86" s="401"/>
+      <c r="Z86" s="401"/>
+      <c r="AA86" s="401"/>
+      <c r="AB86" s="402"/>
       <c r="AC86" s="208"/>
       <c r="AD86" s="208"/>
       <c r="AE86" s="208"/>
@@ -17535,33 +17535,33 @@
     </row>
     <row r="87" spans="1:75" ht="28.5" customHeight="1">
       <c r="A87" s="205"/>
-      <c r="B87" s="440"/>
-      <c r="C87" s="445"/>
-      <c r="D87" s="446"/>
-      <c r="E87" s="446"/>
-      <c r="F87" s="446"/>
-      <c r="G87" s="446"/>
-      <c r="H87" s="446"/>
-      <c r="I87" s="446"/>
-      <c r="J87" s="446"/>
-      <c r="K87" s="446"/>
-      <c r="L87" s="446"/>
-      <c r="M87" s="446"/>
-      <c r="N87" s="446"/>
-      <c r="O87" s="446"/>
-      <c r="P87" s="446"/>
-      <c r="Q87" s="446"/>
-      <c r="R87" s="446"/>
-      <c r="S87" s="446"/>
-      <c r="T87" s="446"/>
-      <c r="U87" s="446"/>
-      <c r="V87" s="446"/>
-      <c r="W87" s="446"/>
-      <c r="X87" s="446"/>
-      <c r="Y87" s="446"/>
-      <c r="Z87" s="446"/>
-      <c r="AA87" s="446"/>
-      <c r="AB87" s="447"/>
+      <c r="B87" s="398"/>
+      <c r="C87" s="403"/>
+      <c r="D87" s="404"/>
+      <c r="E87" s="404"/>
+      <c r="F87" s="404"/>
+      <c r="G87" s="404"/>
+      <c r="H87" s="404"/>
+      <c r="I87" s="404"/>
+      <c r="J87" s="404"/>
+      <c r="K87" s="404"/>
+      <c r="L87" s="404"/>
+      <c r="M87" s="404"/>
+      <c r="N87" s="404"/>
+      <c r="O87" s="404"/>
+      <c r="P87" s="404"/>
+      <c r="Q87" s="404"/>
+      <c r="R87" s="404"/>
+      <c r="S87" s="404"/>
+      <c r="T87" s="404"/>
+      <c r="U87" s="404"/>
+      <c r="V87" s="404"/>
+      <c r="W87" s="404"/>
+      <c r="X87" s="404"/>
+      <c r="Y87" s="404"/>
+      <c r="Z87" s="404"/>
+      <c r="AA87" s="404"/>
+      <c r="AB87" s="405"/>
       <c r="AC87" s="208"/>
       <c r="AD87" s="208"/>
       <c r="AE87" s="208"/>
@@ -36655,64 +36655,149 @@
   </sheetData>
   <sheetProtection formatColumns="0" formatRows="0"/>
   <mergeCells count="225">
-    <mergeCell ref="C48:D49"/>
-    <mergeCell ref="C50:D51"/>
-    <mergeCell ref="C52:D53"/>
-    <mergeCell ref="C54:D55"/>
-    <mergeCell ref="C56:D57"/>
-    <mergeCell ref="C58:D59"/>
-    <mergeCell ref="C60:D61"/>
-    <mergeCell ref="C62:D63"/>
-    <mergeCell ref="C64:D65"/>
-    <mergeCell ref="E75:F75"/>
-    <mergeCell ref="E76:F76"/>
-    <mergeCell ref="E77:F77"/>
-    <mergeCell ref="E78:F78"/>
-    <mergeCell ref="E79:F79"/>
-    <mergeCell ref="A75:B79"/>
-    <mergeCell ref="E80:F80"/>
-    <mergeCell ref="E81:F81"/>
-    <mergeCell ref="A80:D80"/>
-    <mergeCell ref="A81:D81"/>
-    <mergeCell ref="E55:F55"/>
-    <mergeCell ref="E56:F56"/>
-    <mergeCell ref="E57:F57"/>
-    <mergeCell ref="E58:F58"/>
-    <mergeCell ref="E59:F59"/>
-    <mergeCell ref="E69:F69"/>
-    <mergeCell ref="E70:F70"/>
-    <mergeCell ref="E71:F71"/>
-    <mergeCell ref="C68:D69"/>
-    <mergeCell ref="C70:D71"/>
-    <mergeCell ref="E60:F60"/>
-    <mergeCell ref="E61:F61"/>
-    <mergeCell ref="E62:F62"/>
-    <mergeCell ref="E63:F63"/>
-    <mergeCell ref="E64:F64"/>
-    <mergeCell ref="E65:F65"/>
-    <mergeCell ref="E66:F66"/>
-    <mergeCell ref="E67:F67"/>
-    <mergeCell ref="E68:F68"/>
-    <mergeCell ref="C66:D67"/>
-    <mergeCell ref="AG81:AH81"/>
-    <mergeCell ref="AI81:AJ81"/>
-    <mergeCell ref="G82:I82"/>
-    <mergeCell ref="O82:Q82"/>
-    <mergeCell ref="B86:B87"/>
-    <mergeCell ref="G85:I85"/>
-    <mergeCell ref="C86:AB87"/>
-    <mergeCell ref="D84:E84"/>
-    <mergeCell ref="D83:E83"/>
-    <mergeCell ref="AG75:AH75"/>
-    <mergeCell ref="AI75:AJ75"/>
-    <mergeCell ref="AG76:AH76"/>
-    <mergeCell ref="AI76:AJ76"/>
-    <mergeCell ref="AG77:AH77"/>
-    <mergeCell ref="AG80:AH80"/>
-    <mergeCell ref="AI77:AJ77"/>
-    <mergeCell ref="AI79:AJ79"/>
-    <mergeCell ref="AG79:AH79"/>
-    <mergeCell ref="AI80:AJ80"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="A41:F41"/>
+    <mergeCell ref="E2:AB3"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="E5:F6"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C72:D72"/>
+    <mergeCell ref="C73:D73"/>
+    <mergeCell ref="C74:D74"/>
+    <mergeCell ref="C75:D75"/>
+    <mergeCell ref="C76:D76"/>
+    <mergeCell ref="C77:D77"/>
+    <mergeCell ref="C78:D78"/>
+    <mergeCell ref="C79:D79"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="BF2:BS2"/>
+    <mergeCell ref="AG5:AJ5"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="AE6:AF6"/>
+    <mergeCell ref="AI6:AJ6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="AG46:AH46"/>
+    <mergeCell ref="AI46:AJ46"/>
+    <mergeCell ref="AG48:AH48"/>
+    <mergeCell ref="AI48:AJ48"/>
+    <mergeCell ref="AG50:AH50"/>
+    <mergeCell ref="AI50:AJ50"/>
+    <mergeCell ref="AG52:AH52"/>
+    <mergeCell ref="AI52:AJ52"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="E52:F52"/>
     <mergeCell ref="A42:B74"/>
     <mergeCell ref="C42:D43"/>
     <mergeCell ref="C44:D45"/>
@@ -36737,149 +36822,64 @@
     <mergeCell ref="AI64:AJ64"/>
     <mergeCell ref="E53:F53"/>
     <mergeCell ref="E54:F54"/>
-    <mergeCell ref="AG46:AH46"/>
-    <mergeCell ref="AI46:AJ46"/>
-    <mergeCell ref="AG48:AH48"/>
-    <mergeCell ref="AI48:AJ48"/>
-    <mergeCell ref="AG50:AH50"/>
-    <mergeCell ref="AI50:AJ50"/>
-    <mergeCell ref="AG52:AH52"/>
-    <mergeCell ref="AI52:AJ52"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="E47:F47"/>
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="E49:F49"/>
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="AE6:AF6"/>
-    <mergeCell ref="AI6:AJ6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="BF2:BS2"/>
-    <mergeCell ref="AG5:AJ5"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="C72:D72"/>
-    <mergeCell ref="C73:D73"/>
-    <mergeCell ref="C74:D74"/>
-    <mergeCell ref="C75:D75"/>
-    <mergeCell ref="C76:D76"/>
-    <mergeCell ref="C77:D77"/>
-    <mergeCell ref="C78:D78"/>
-    <mergeCell ref="C79:D79"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="A41:F41"/>
-    <mergeCell ref="E2:AB3"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="E5:F6"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="AG75:AH75"/>
+    <mergeCell ref="AI75:AJ75"/>
+    <mergeCell ref="AG76:AH76"/>
+    <mergeCell ref="AI76:AJ76"/>
+    <mergeCell ref="AG77:AH77"/>
+    <mergeCell ref="AG80:AH80"/>
+    <mergeCell ref="AI77:AJ77"/>
+    <mergeCell ref="AI79:AJ79"/>
+    <mergeCell ref="AG79:AH79"/>
+    <mergeCell ref="AI80:AJ80"/>
+    <mergeCell ref="AG81:AH81"/>
+    <mergeCell ref="AI81:AJ81"/>
+    <mergeCell ref="G82:I82"/>
+    <mergeCell ref="O82:Q82"/>
+    <mergeCell ref="B86:B87"/>
+    <mergeCell ref="G85:I85"/>
+    <mergeCell ref="C86:AB87"/>
+    <mergeCell ref="D84:E84"/>
+    <mergeCell ref="D83:E83"/>
+    <mergeCell ref="E55:F55"/>
+    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="E57:F57"/>
+    <mergeCell ref="E58:F58"/>
+    <mergeCell ref="E59:F59"/>
+    <mergeCell ref="E69:F69"/>
+    <mergeCell ref="E70:F70"/>
+    <mergeCell ref="E71:F71"/>
+    <mergeCell ref="C68:D69"/>
+    <mergeCell ref="C70:D71"/>
+    <mergeCell ref="E60:F60"/>
+    <mergeCell ref="E61:F61"/>
+    <mergeCell ref="E62:F62"/>
+    <mergeCell ref="E63:F63"/>
+    <mergeCell ref="E64:F64"/>
+    <mergeCell ref="E65:F65"/>
+    <mergeCell ref="E66:F66"/>
+    <mergeCell ref="E67:F67"/>
+    <mergeCell ref="E68:F68"/>
+    <mergeCell ref="C66:D67"/>
+    <mergeCell ref="E75:F75"/>
+    <mergeCell ref="E76:F76"/>
+    <mergeCell ref="E77:F77"/>
+    <mergeCell ref="E78:F78"/>
+    <mergeCell ref="E79:F79"/>
+    <mergeCell ref="A75:B79"/>
+    <mergeCell ref="E80:F80"/>
+    <mergeCell ref="E81:F81"/>
+    <mergeCell ref="A80:D80"/>
+    <mergeCell ref="A81:D81"/>
+    <mergeCell ref="C48:D49"/>
+    <mergeCell ref="C50:D51"/>
+    <mergeCell ref="C52:D53"/>
+    <mergeCell ref="C54:D55"/>
+    <mergeCell ref="C56:D57"/>
+    <mergeCell ref="C58:D59"/>
+    <mergeCell ref="C60:D61"/>
+    <mergeCell ref="C62:D63"/>
+    <mergeCell ref="C64:D65"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.118110236220472" right="0.118110236220472" top="0.35433070866141703" bottom="0.55118110236220497" header="0.31496062992126" footer="0.31496062992126"/>
@@ -37073,18 +37073,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -37106,14 +37106,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5458833A-D997-4113-BB83-F938CBB9D86E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ECA946AD-4EA3-4FCA-B864-262800288FDF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
@@ -37127,4 +37119,12 @@
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5458833A-D997-4113-BB83-F938CBB9D86E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/api/cp-dss-api/gateway/src/main/resources/reports/Vessel_1_Loading_Plan_Template.xlsx
+++ b/api/cp-dss-api/gateway/src/main/resources/reports/Vessel_1_Loading_Plan_Template.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17316" windowHeight="6156" tabRatio="738"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="17316" windowHeight="6156" tabRatio="738" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="CRUD - 021 pg1" sheetId="27" r:id="rId1"/>
@@ -5185,16 +5185,11 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="17" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1" shrinkToFit="1"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="173" fontId="35" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="173" fontId="35" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="173" fontId="35" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -5209,11 +5204,66 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="173" fontId="35" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="10" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="173" fontId="39" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="173" fontId="39" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="173" fontId="39" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="173" fontId="39" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="173" fontId="39" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="173" fontId="39" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="173" fontId="35" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="173" fontId="35" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="174" fontId="53" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="174" fontId="53" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -5225,6 +5275,185 @@
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="176" fontId="30" fillId="0" borderId="10" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="10" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="39" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" wrapText="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" wrapText="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="39" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="173" fontId="35" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="173" fontId="40" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="4" fontId="25" fillId="2" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="25" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="17" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="175" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="30" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="54" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="9" fontId="54" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="174" fontId="53" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="174" fontId="53" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
@@ -5233,15 +5462,27 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="17" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="17" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="17" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="8" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -5293,62 +5534,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="173" fontId="39" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="173" fontId="39" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="173" fontId="35" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="173" fontId="39" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="173" fontId="39" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="173" fontId="39" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="9" fontId="54" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="9" fontId="54" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="14" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5358,218 +5543,74 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="9" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="25" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="17" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="174" fontId="53" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="174" fontId="53" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="3" fontId="39" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="173" fontId="39" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" wrapText="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" wrapText="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="30" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="175" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="4" fontId="25" fillId="2" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="173" fontId="35" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="173" fontId="40" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="3" fontId="39" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="176" fontId="30" fillId="0" borderId="10" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="10" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" wrapText="1"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" wrapText="1"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="10" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -5614,264 +5655,33 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="47" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="169" fontId="47" fillId="0" borderId="15" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="43" fillId="5" borderId="14" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="43" fillId="5" borderId="9" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="43" fillId="5" borderId="7" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="43" fillId="5" borderId="2" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="169" fontId="47" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="23" fillId="5" borderId="17" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="169" fontId="47" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="169" fontId="47" fillId="0" borderId="18" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="172" fontId="47" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="2" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="14" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="8" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="9" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="6" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="10" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="11" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="47" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="42" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="49" fillId="5" borderId="7" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="49" fillId="5" borderId="2" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="49" fillId="5" borderId="6" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="49" fillId="5" borderId="11" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="42" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="19" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="20" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="38" fontId="29" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="21" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="16" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="43" fillId="0" borderId="3" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="43" fillId="0" borderId="5" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="43" fillId="0" borderId="3" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="43" fillId="0" borderId="5" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="43" fillId="0" borderId="14" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="43" fillId="0" borderId="9" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="169" fontId="47" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -5929,6 +5739,15 @@
     <xf numFmtId="0" fontId="23" fillId="5" borderId="6" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="46" fillId="4" borderId="1" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" wrapText="1"/>
       <protection locked="0"/>
@@ -5943,6 +5762,187 @@
     </xf>
     <xf numFmtId="0" fontId="46" fillId="4" borderId="18" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="43" fillId="0" borderId="3" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="43" fillId="0" borderId="5" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="43" fillId="0" borderId="3" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="43" fillId="0" borderId="5" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="43" fillId="0" borderId="14" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="43" fillId="0" borderId="9" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="38" fontId="29" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="169" fontId="47" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="169" fontId="47" fillId="0" borderId="18" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="21" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="16" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="19" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="20" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="42" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="47" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="169" fontId="47" fillId="0" borderId="15" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="49" fillId="5" borderId="7" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="49" fillId="5" borderId="2" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="49" fillId="5" borderId="6" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="49" fillId="5" borderId="11" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="47" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="42" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="47" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="2" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="14" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="8" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="9" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="6" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="10" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="11" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="43" fillId="5" borderId="14" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="43" fillId="5" borderId="9" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="43" fillId="5" borderId="7" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="43" fillId="5" borderId="2" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="169" fontId="47" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="23" fillId="5" borderId="17" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -6068,7 +6068,7 @@
         <xdr:cNvPr id="30643" name="Line 59">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{26C26646-7311-46E9-9E78-CC1D2B3F626E}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26C26646-7311-46E9-9E78-CC1D2B3F626E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6122,7 +6122,7 @@
         <xdr:cNvPr id="30644" name="Line 60">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B49276F8-0941-4D7D-8146-C269E6ACE4D6}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B49276F8-0941-4D7D-8146-C269E6ACE4D6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6176,7 +6176,7 @@
         <xdr:cNvPr id="30645" name="Line 62">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{49720863-AFF1-493D-8C5B-3E8A332597CC}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49720863-AFF1-493D-8C5B-3E8A332597CC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6230,7 +6230,7 @@
         <xdr:cNvPr id="30646" name="Line 62">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7695EED5-68DE-4941-B396-30D3C770B8B0}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7695EED5-68DE-4941-B396-30D3C770B8B0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6284,7 +6284,7 @@
         <xdr:cNvPr id="30647" name="Line 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD58331C-81A7-4159-9782-8A7161F85FB4}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD58331C-81A7-4159-9782-8A7161F85FB4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6338,7 +6338,7 @@
         <xdr:cNvPr id="30648" name="Line 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D0300261-277A-4B07-916A-FC3A4EA535EC}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D0300261-277A-4B07-916A-FC3A4EA535EC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6392,7 +6392,7 @@
         <xdr:cNvPr id="30649" name="Line 62">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{92E06221-417C-4981-B737-76380BAE82BA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92E06221-417C-4981-B737-76380BAE82BA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6446,7 +6446,7 @@
         <xdr:cNvPr id="30650" name="Line 62">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EC93D721-69B8-4DB6-8611-B0CA263C6701}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC93D721-69B8-4DB6-8611-B0CA263C6701}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6500,7 +6500,7 @@
         <xdr:cNvPr id="30651" name="Line 62">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8FFC3F25-367F-4CB6-8861-0D589CD691A0}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8FFC3F25-367F-4CB6-8861-0D589CD691A0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6554,7 +6554,7 @@
         <xdr:cNvPr id="30652" name="Line 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{132B4608-E2CC-4568-8160-0038A8B8A9B4}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{132B4608-E2CC-4568-8160-0038A8B8A9B4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6608,7 +6608,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{95E86656-9F63-45D0-BC52-81A2571E9B65}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95E86656-9F63-45D0-BC52-81A2571E9B65}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6658,7 +6658,7 @@
         <xdr:cNvPr id="17" name="Line 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{132B4608-E2CC-4568-8160-0038A8B8A9B4}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{132B4608-E2CC-4568-8160-0038A8B8A9B4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6712,7 +6712,7 @@
         <xdr:cNvPr id="19" name="Line 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{132B4608-E2CC-4568-8160-0038A8B8A9B4}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{132B4608-E2CC-4568-8160-0038A8B8A9B4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6766,7 +6766,7 @@
         <xdr:cNvPr id="21" name="Line 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{132B4608-E2CC-4568-8160-0038A8B8A9B4}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{132B4608-E2CC-4568-8160-0038A8B8A9B4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6820,7 +6820,7 @@
         <xdr:cNvPr id="16" name="Line 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{132B4608-E2CC-4568-8160-0038A8B8A9B4}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{132B4608-E2CC-4568-8160-0038A8B8A9B4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6874,7 +6874,7 @@
         <xdr:cNvPr id="18" name="Line 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{132B4608-E2CC-4568-8160-0038A8B8A9B4}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{132B4608-E2CC-4568-8160-0038A8B8A9B4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6928,7 +6928,7 @@
         <xdr:cNvPr id="29" name="Line 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{132B4608-E2CC-4568-8160-0038A8B8A9B4}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{132B4608-E2CC-4568-8160-0038A8B8A9B4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6982,7 +6982,7 @@
         <xdr:cNvPr id="30" name="Line 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{132B4608-E2CC-4568-8160-0038A8B8A9B4}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{132B4608-E2CC-4568-8160-0038A8B8A9B4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7311,7 +7311,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AS75"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" showRowColHeaders="0" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="W11" sqref="W11:Z11"/>
     </sheetView>
   </sheetViews>
@@ -7369,12 +7369,12 @@
       <c r="I3" s="48"/>
       <c r="J3" s="47"/>
       <c r="K3" s="47"/>
-      <c r="L3" s="335" t="s">
+      <c r="L3" s="245" t="s">
         <v>49</v>
       </c>
-      <c r="M3" s="335"/>
-      <c r="N3" s="335"/>
-      <c r="O3" s="335"/>
+      <c r="M3" s="245"/>
+      <c r="N3" s="245"/>
+      <c r="O3" s="245"/>
       <c r="P3" s="47"/>
       <c r="Q3" s="47"/>
       <c r="R3" s="47"/>
@@ -7394,13 +7394,13 @@
         <v>32</v>
       </c>
       <c r="C4" s="47"/>
-      <c r="D4" s="337" t="s">
+      <c r="D4" s="251" t="s">
         <v>62</v>
       </c>
-      <c r="E4" s="337"/>
-      <c r="F4" s="337"/>
-      <c r="G4" s="337"/>
-      <c r="H4" s="337"/>
+      <c r="E4" s="251"/>
+      <c r="F4" s="251"/>
+      <c r="G4" s="251"/>
+      <c r="H4" s="251"/>
       <c r="I4" s="47"/>
       <c r="J4" s="47"/>
       <c r="K4" s="47"/>
@@ -7427,13 +7427,13 @@
         <v>30</v>
       </c>
       <c r="C5" s="51"/>
-      <c r="D5" s="260" t="s">
+      <c r="D5" s="324" t="s">
         <v>63</v>
       </c>
-      <c r="E5" s="260"/>
-      <c r="F5" s="260"/>
-      <c r="G5" s="260"/>
-      <c r="H5" s="260"/>
+      <c r="E5" s="324"/>
+      <c r="F5" s="324"/>
+      <c r="G5" s="324"/>
+      <c r="H5" s="324"/>
       <c r="I5" s="52"/>
       <c r="J5" s="52"/>
       <c r="K5" s="52"/>
@@ -7451,13 +7451,13 @@
       <c r="U5" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="V5" s="326" t="s">
+      <c r="V5" s="268" t="s">
         <v>66</v>
       </c>
-      <c r="W5" s="326"/>
-      <c r="X5" s="326"/>
-      <c r="Y5" s="326"/>
-      <c r="Z5" s="326"/>
+      <c r="W5" s="268"/>
+      <c r="X5" s="268"/>
+      <c r="Y5" s="268"/>
+      <c r="Z5" s="268"/>
       <c r="AA5" s="48"/>
       <c r="AB5" s="56"/>
     </row>
@@ -7487,13 +7487,13 @@
       <c r="U6" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="V6" s="327" t="s">
+      <c r="V6" s="269" t="s">
         <v>67</v>
       </c>
-      <c r="W6" s="327"/>
-      <c r="X6" s="327"/>
-      <c r="Y6" s="327"/>
-      <c r="Z6" s="327"/>
+      <c r="W6" s="269"/>
+      <c r="X6" s="269"/>
+      <c r="Y6" s="269"/>
+      <c r="Z6" s="269"/>
       <c r="AA6" s="48"/>
       <c r="AB6" s="56"/>
     </row>
@@ -7502,24 +7502,24 @@
       <c r="B7" s="58" t="s">
         <v>58</v>
       </c>
-      <c r="C7" s="338" t="s">
+      <c r="C7" s="252" t="s">
         <v>64</v>
       </c>
-      <c r="D7" s="338"/>
-      <c r="E7" s="338"/>
-      <c r="F7" s="338"/>
-      <c r="G7" s="338"/>
-      <c r="H7" s="339" t="s">
+      <c r="D7" s="252"/>
+      <c r="E7" s="252"/>
+      <c r="F7" s="252"/>
+      <c r="G7" s="252"/>
+      <c r="H7" s="259" t="s">
         <v>59</v>
       </c>
-      <c r="I7" s="339"/>
-      <c r="J7" s="338" t="s">
+      <c r="I7" s="259"/>
+      <c r="J7" s="252" t="s">
         <v>65</v>
       </c>
-      <c r="K7" s="338"/>
-      <c r="L7" s="338"/>
-      <c r="M7" s="338"/>
-      <c r="N7" s="338"/>
+      <c r="K7" s="252"/>
+      <c r="L7" s="252"/>
+      <c r="M7" s="252"/>
+      <c r="N7" s="252"/>
       <c r="O7" s="59"/>
       <c r="P7" s="59"/>
       <c r="Q7" s="59"/>
@@ -7531,13 +7531,13 @@
       <c r="U7" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="V7" s="327" t="s">
+      <c r="V7" s="269" t="s">
         <v>68</v>
       </c>
-      <c r="W7" s="327"/>
-      <c r="X7" s="327"/>
-      <c r="Y7" s="327"/>
-      <c r="Z7" s="327"/>
+      <c r="W7" s="269"/>
+      <c r="X7" s="269"/>
+      <c r="Y7" s="269"/>
+      <c r="Z7" s="269"/>
       <c r="AA7" s="48"/>
       <c r="AB7" s="56"/>
     </row>
@@ -7628,10 +7628,10 @@
       <c r="V10" s="61"/>
       <c r="W10" s="61"/>
       <c r="X10" s="61"/>
-      <c r="Y10" s="330" t="s">
+      <c r="Y10" s="273" t="s">
         <v>69</v>
       </c>
-      <c r="Z10" s="330"/>
+      <c r="Z10" s="273"/>
       <c r="AB10" s="56"/>
     </row>
     <row r="11" spans="1:32" ht="17.25" customHeight="1">
@@ -7663,12 +7663,12 @@
       <c r="T11" s="67"/>
       <c r="U11" s="67"/>
       <c r="V11" s="68"/>
-      <c r="W11" s="331" t="s">
+      <c r="W11" s="274" t="s">
         <v>584</v>
       </c>
-      <c r="X11" s="331"/>
-      <c r="Y11" s="331"/>
-      <c r="Z11" s="331"/>
+      <c r="X11" s="274"/>
+      <c r="Y11" s="274"/>
+      <c r="Z11" s="274"/>
       <c r="AA11" s="69"/>
     </row>
     <row r="12" spans="1:32" s="69" customFormat="1" ht="17.25" customHeight="1">
@@ -7687,19 +7687,19 @@
       <c r="M12" s="71"/>
       <c r="N12" s="71"/>
       <c r="O12" s="71"/>
-      <c r="P12" s="329" t="s">
+      <c r="P12" s="272" t="s">
         <v>55</v>
       </c>
-      <c r="Q12" s="329"/>
-      <c r="R12" s="329"/>
-      <c r="S12" s="329"/>
-      <c r="T12" s="329"/>
-      <c r="U12" s="329"/>
-      <c r="V12" s="329"/>
-      <c r="W12" s="329"/>
-      <c r="X12" s="329"/>
-      <c r="Y12" s="329"/>
-      <c r="Z12" s="329"/>
+      <c r="Q12" s="272"/>
+      <c r="R12" s="272"/>
+      <c r="S12" s="272"/>
+      <c r="T12" s="272"/>
+      <c r="U12" s="272"/>
+      <c r="V12" s="272"/>
+      <c r="W12" s="272"/>
+      <c r="X12" s="272"/>
+      <c r="Y12" s="272"/>
+      <c r="Z12" s="272"/>
     </row>
     <row r="13" spans="1:32" s="69" customFormat="1" ht="17.25" customHeight="1">
       <c r="A13" s="70"/>
@@ -7760,8 +7760,8 @@
       <c r="G15" s="223" t="s">
         <v>264</v>
       </c>
-      <c r="H15" s="255"/>
-      <c r="I15" s="256"/>
+      <c r="H15" s="315"/>
+      <c r="I15" s="316"/>
       <c r="J15" s="79" t="s">
         <v>265</v>
       </c>
@@ -7769,8 +7769,8 @@
       <c r="L15" s="223" t="s">
         <v>266</v>
       </c>
-      <c r="M15" s="255"/>
-      <c r="N15" s="256"/>
+      <c r="M15" s="315"/>
+      <c r="N15" s="316"/>
       <c r="O15" s="79" t="s">
         <v>267</v>
       </c>
@@ -7778,12 +7778,12 @@
       <c r="Q15" s="81"/>
       <c r="R15" s="71"/>
       <c r="S15" s="71"/>
-      <c r="T15" s="324" t="s">
+      <c r="T15" s="271" t="s">
         <v>39</v>
       </c>
-      <c r="U15" s="324"/>
-      <c r="V15" s="324"/>
-      <c r="W15" s="324"/>
+      <c r="U15" s="271"/>
+      <c r="V15" s="271"/>
+      <c r="W15" s="271"/>
       <c r="X15" s="82"/>
       <c r="Y15" s="83"/>
       <c r="Z15" s="74"/>
@@ -7791,47 +7791,47 @@
     <row r="16" spans="1:32" s="69" customFormat="1" ht="12" customHeight="1">
       <c r="A16" s="84"/>
       <c r="B16" s="85"/>
-      <c r="C16" s="248" t="s">
+      <c r="C16" s="247" t="s">
         <v>83</v>
       </c>
-      <c r="D16" s="249"/>
-      <c r="E16" s="248" t="s">
+      <c r="D16" s="248"/>
+      <c r="E16" s="247" t="s">
         <v>111</v>
       </c>
-      <c r="F16" s="250"/>
-      <c r="G16" s="248" t="s">
+      <c r="F16" s="249"/>
+      <c r="G16" s="247" t="s">
         <v>139</v>
       </c>
-      <c r="H16" s="249"/>
-      <c r="I16" s="250"/>
-      <c r="J16" s="248" t="s">
+      <c r="H16" s="248"/>
+      <c r="I16" s="249"/>
+      <c r="J16" s="247" t="s">
         <v>167</v>
       </c>
-      <c r="K16" s="250"/>
-      <c r="L16" s="248" t="s">
+      <c r="K16" s="249"/>
+      <c r="L16" s="247" t="s">
         <v>195</v>
       </c>
-      <c r="M16" s="249"/>
-      <c r="N16" s="250"/>
-      <c r="O16" s="248" t="s">
+      <c r="M16" s="248"/>
+      <c r="N16" s="249"/>
+      <c r="O16" s="247" t="s">
         <v>223</v>
       </c>
-      <c r="P16" s="250"/>
+      <c r="P16" s="249"/>
       <c r="Q16" s="85"/>
       <c r="S16" s="71"/>
-      <c r="T16" s="332" t="s">
+      <c r="T16" s="275" t="s">
         <v>70</v>
       </c>
-      <c r="U16" s="332"/>
-      <c r="V16" s="332"/>
-      <c r="W16" s="332"/>
+      <c r="U16" s="275"/>
+      <c r="V16" s="275"/>
+      <c r="W16" s="275"/>
       <c r="X16" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="Y16" s="319" t="s">
+      <c r="Y16" s="277" t="s">
         <v>78</v>
       </c>
-      <c r="Z16" s="319"/>
+      <c r="Z16" s="277"/>
       <c r="AF16" s="104"/>
     </row>
     <row r="17" spans="1:45" s="69" customFormat="1" ht="12" customHeight="1">
@@ -7852,10 +7852,10 @@
       <c r="G17" s="220" t="s">
         <v>280</v>
       </c>
-      <c r="H17" s="281" t="s">
+      <c r="H17" s="285" t="s">
         <v>140</v>
       </c>
-      <c r="I17" s="282"/>
+      <c r="I17" s="286"/>
       <c r="J17" s="86" t="s">
         <v>283</v>
       </c>
@@ -7865,10 +7865,10 @@
       <c r="L17" s="220" t="s">
         <v>286</v>
       </c>
-      <c r="M17" s="281" t="s">
+      <c r="M17" s="285" t="s">
         <v>196</v>
       </c>
-      <c r="N17" s="282"/>
+      <c r="N17" s="286"/>
       <c r="O17" s="86" t="s">
         <v>289</v>
       </c>
@@ -7897,40 +7897,40 @@
     <row r="18" spans="1:45" s="69" customFormat="1" ht="12" customHeight="1">
       <c r="A18" s="84"/>
       <c r="B18" s="91"/>
-      <c r="C18" s="246" t="s">
+      <c r="C18" s="260" t="s">
         <v>85</v>
       </c>
-      <c r="D18" s="275"/>
-      <c r="E18" s="246" t="s">
+      <c r="D18" s="250"/>
+      <c r="E18" s="260" t="s">
         <v>113</v>
       </c>
-      <c r="F18" s="247"/>
-      <c r="G18" s="246" t="s">
+      <c r="F18" s="261"/>
+      <c r="G18" s="260" t="s">
         <v>141</v>
       </c>
-      <c r="H18" s="275"/>
-      <c r="I18" s="247"/>
-      <c r="J18" s="275" t="s">
+      <c r="H18" s="250"/>
+      <c r="I18" s="261"/>
+      <c r="J18" s="250" t="s">
         <v>169</v>
       </c>
-      <c r="K18" s="275"/>
-      <c r="L18" s="273" t="s">
+      <c r="K18" s="250"/>
+      <c r="L18" s="253" t="s">
         <v>197</v>
       </c>
-      <c r="M18" s="301"/>
-      <c r="N18" s="274"/>
-      <c r="O18" s="275" t="s">
+      <c r="M18" s="254"/>
+      <c r="N18" s="255"/>
+      <c r="O18" s="250" t="s">
         <v>225</v>
       </c>
-      <c r="P18" s="275"/>
-      <c r="Q18" s="300" t="s">
+      <c r="P18" s="250"/>
+      <c r="Q18" s="276" t="s">
         <v>561</v>
       </c>
       <c r="S18" s="71"/>
-      <c r="T18" s="328"/>
-      <c r="U18" s="328"/>
-      <c r="V18" s="328"/>
-      <c r="W18" s="328"/>
+      <c r="T18" s="270"/>
+      <c r="U18" s="270"/>
+      <c r="V18" s="270"/>
+      <c r="W18" s="270"/>
       <c r="X18" s="82"/>
       <c r="Y18" s="90"/>
       <c r="Z18" s="74"/>
@@ -7959,10 +7959,10 @@
       <c r="G19" s="226" t="s">
         <v>142</v>
       </c>
-      <c r="H19" s="251" t="s">
+      <c r="H19" s="262" t="s">
         <v>143</v>
       </c>
-      <c r="I19" s="252"/>
+      <c r="I19" s="263"/>
       <c r="J19" s="224" t="s">
         <v>170</v>
       </c>
@@ -7972,22 +7972,22 @@
       <c r="L19" s="224" t="s">
         <v>198</v>
       </c>
-      <c r="M19" s="251" t="s">
+      <c r="M19" s="262" t="s">
         <v>199</v>
       </c>
-      <c r="N19" s="252"/>
+      <c r="N19" s="263"/>
       <c r="O19" s="227" t="s">
         <v>226</v>
       </c>
       <c r="P19" s="225" t="s">
         <v>227</v>
       </c>
-      <c r="Q19" s="300"/>
+      <c r="Q19" s="276"/>
       <c r="S19" s="71"/>
-      <c r="T19" s="328"/>
-      <c r="U19" s="328"/>
-      <c r="V19" s="328"/>
-      <c r="W19" s="328"/>
+      <c r="T19" s="270"/>
+      <c r="U19" s="270"/>
+      <c r="V19" s="270"/>
+      <c r="W19" s="270"/>
       <c r="X19" s="82"/>
       <c r="Y19" s="90"/>
       <c r="Z19" s="74"/>
@@ -8004,24 +8004,24 @@
     </row>
     <row r="20" spans="1:45" s="69" customFormat="1" ht="12" customHeight="1">
       <c r="A20" s="84"/>
-      <c r="B20" s="336" t="s">
+      <c r="B20" s="246" t="s">
         <v>82</v>
       </c>
       <c r="C20" s="92" t="s">
         <v>275</v>
       </c>
-      <c r="D20" s="333" t="s">
+      <c r="D20" s="278" t="s">
         <v>88</v>
       </c>
-      <c r="E20" s="304"/>
-      <c r="F20" s="334"/>
+      <c r="E20" s="279"/>
+      <c r="F20" s="280"/>
       <c r="G20" s="221" t="s">
         <v>279</v>
       </c>
-      <c r="H20" s="283" t="s">
+      <c r="H20" s="264" t="s">
         <v>116</v>
       </c>
-      <c r="I20" s="284"/>
+      <c r="I20" s="265"/>
       <c r="J20" s="92" t="s">
         <v>281</v>
       </c>
@@ -8031,10 +8031,10 @@
       <c r="L20" s="95" t="s">
         <v>284</v>
       </c>
-      <c r="M20" s="302" t="s">
+      <c r="M20" s="281" t="s">
         <v>172</v>
       </c>
-      <c r="N20" s="303"/>
+      <c r="N20" s="282"/>
       <c r="O20" s="95" t="s">
         <v>287</v>
       </c>
@@ -8043,48 +8043,48 @@
       </c>
       <c r="Q20" s="233"/>
       <c r="S20" s="71"/>
-      <c r="T20" s="328"/>
-      <c r="U20" s="328"/>
-      <c r="V20" s="328"/>
-      <c r="W20" s="328"/>
+      <c r="T20" s="270"/>
+      <c r="U20" s="270"/>
+      <c r="V20" s="270"/>
+      <c r="W20" s="270"/>
       <c r="X20" s="82"/>
       <c r="Y20" s="90"/>
       <c r="Z20" s="74"/>
       <c r="AA20" s="84"/>
       <c r="AD20"/>
       <c r="AE20"/>
-      <c r="AF20" s="323" t="s">
+      <c r="AF20" s="283" t="s">
         <v>566</v>
       </c>
       <c r="AG20"/>
     </row>
     <row r="21" spans="1:45" s="69" customFormat="1" ht="12" customHeight="1">
       <c r="A21" s="84"/>
-      <c r="B21" s="336"/>
-      <c r="C21" s="246" t="s">
+      <c r="B21" s="246"/>
+      <c r="C21" s="260" t="s">
         <v>89</v>
       </c>
-      <c r="D21" s="275"/>
-      <c r="E21" s="275"/>
-      <c r="F21" s="247"/>
-      <c r="G21" s="246" t="s">
+      <c r="D21" s="250"/>
+      <c r="E21" s="250"/>
+      <c r="F21" s="261"/>
+      <c r="G21" s="260" t="s">
         <v>117</v>
       </c>
-      <c r="H21" s="275"/>
-      <c r="I21" s="247"/>
-      <c r="J21" s="273" t="s">
+      <c r="H21" s="250"/>
+      <c r="I21" s="261"/>
+      <c r="J21" s="253" t="s">
         <v>145</v>
       </c>
-      <c r="K21" s="274"/>
-      <c r="L21" s="273" t="s">
+      <c r="K21" s="255"/>
+      <c r="L21" s="253" t="s">
         <v>173</v>
       </c>
-      <c r="M21" s="301"/>
-      <c r="N21" s="274"/>
-      <c r="O21" s="273" t="s">
+      <c r="M21" s="254"/>
+      <c r="N21" s="255"/>
+      <c r="O21" s="253" t="s">
         <v>201</v>
       </c>
-      <c r="P21" s="274"/>
+      <c r="P21" s="255"/>
       <c r="Q21" s="234"/>
       <c r="S21" s="71"/>
       <c r="T21" s="71"/>
@@ -8097,7 +8097,7 @@
       <c r="AA21" s="84"/>
       <c r="AD21"/>
       <c r="AE21"/>
-      <c r="AF21" s="323"/>
+      <c r="AF21" s="283"/>
       <c r="AG21"/>
     </row>
     <row r="22" spans="1:45" s="69" customFormat="1" ht="12" customHeight="1">
@@ -8106,18 +8106,18 @@
       <c r="C22" s="228" t="s">
         <v>90</v>
       </c>
-      <c r="D22" s="279" t="s">
+      <c r="D22" s="308" t="s">
         <v>91</v>
       </c>
-      <c r="E22" s="279"/>
-      <c r="F22" s="280"/>
+      <c r="E22" s="308"/>
+      <c r="F22" s="309"/>
       <c r="G22" s="229" t="s">
         <v>118</v>
       </c>
-      <c r="H22" s="279" t="s">
+      <c r="H22" s="308" t="s">
         <v>119</v>
       </c>
-      <c r="I22" s="280"/>
+      <c r="I22" s="309"/>
       <c r="J22" s="230" t="s">
         <v>146</v>
       </c>
@@ -8127,10 +8127,10 @@
       <c r="L22" s="230" t="s">
         <v>174</v>
       </c>
-      <c r="M22" s="279" t="s">
+      <c r="M22" s="308" t="s">
         <v>175</v>
       </c>
-      <c r="N22" s="280"/>
+      <c r="N22" s="309"/>
       <c r="O22" s="232" t="s">
         <v>202</v>
       </c>
@@ -8169,10 +8169,10 @@
       <c r="G23" s="221" t="s">
         <v>282</v>
       </c>
-      <c r="H23" s="283" t="s">
+      <c r="H23" s="264" t="s">
         <v>148</v>
       </c>
-      <c r="I23" s="284"/>
+      <c r="I23" s="265"/>
       <c r="J23" s="92" t="s">
         <v>285</v>
       </c>
@@ -8182,10 +8182,10 @@
       <c r="L23" s="221" t="s">
         <v>288</v>
       </c>
-      <c r="M23" s="283" t="s">
+      <c r="M23" s="264" t="s">
         <v>204</v>
       </c>
-      <c r="N23" s="284"/>
+      <c r="N23" s="265"/>
       <c r="O23" s="92" t="s">
         <v>290</v>
       </c>
@@ -8215,42 +8215,42 @@
     <row r="24" spans="1:45" s="69" customFormat="1" ht="12" customHeight="1">
       <c r="A24" s="84"/>
       <c r="B24" s="85"/>
-      <c r="C24" s="246" t="s">
+      <c r="C24" s="260" t="s">
         <v>93</v>
       </c>
-      <c r="D24" s="275"/>
-      <c r="E24" s="246" t="s">
+      <c r="D24" s="250"/>
+      <c r="E24" s="260" t="s">
         <v>121</v>
       </c>
-      <c r="F24" s="275"/>
-      <c r="G24" s="276" t="s">
+      <c r="F24" s="250"/>
+      <c r="G24" s="256" t="s">
         <v>149</v>
       </c>
-      <c r="H24" s="277"/>
-      <c r="I24" s="278"/>
-      <c r="J24" s="246" t="s">
+      <c r="H24" s="257"/>
+      <c r="I24" s="258"/>
+      <c r="J24" s="260" t="s">
         <v>177</v>
       </c>
-      <c r="K24" s="275"/>
-      <c r="L24" s="276" t="s">
+      <c r="K24" s="250"/>
+      <c r="L24" s="256" t="s">
         <v>205</v>
       </c>
-      <c r="M24" s="277"/>
-      <c r="N24" s="278"/>
-      <c r="O24" s="246" t="s">
+      <c r="M24" s="257"/>
+      <c r="N24" s="258"/>
+      <c r="O24" s="260" t="s">
         <v>229</v>
       </c>
-      <c r="P24" s="275"/>
-      <c r="Q24" s="300" t="s">
+      <c r="P24" s="250"/>
+      <c r="Q24" s="276" t="s">
         <v>559</v>
       </c>
       <c r="S24" s="71"/>
-      <c r="T24" s="310" t="s">
+      <c r="T24" s="288" t="s">
         <v>252</v>
       </c>
-      <c r="U24" s="310"/>
-      <c r="V24" s="310"/>
-      <c r="W24" s="310"/>
+      <c r="U24" s="288"/>
+      <c r="V24" s="288"/>
+      <c r="W24" s="288"/>
       <c r="X24" s="82"/>
       <c r="Y24" s="99" t="s">
         <v>260</v>
@@ -8281,10 +8281,10 @@
       <c r="G25" s="226" t="s">
         <v>150</v>
       </c>
-      <c r="H25" s="253" t="s">
+      <c r="H25" s="266" t="s">
         <v>151</v>
       </c>
-      <c r="I25" s="254"/>
+      <c r="I25" s="267"/>
       <c r="J25" s="224" t="s">
         <v>178</v>
       </c>
@@ -8294,17 +8294,17 @@
       <c r="L25" s="224" t="s">
         <v>206</v>
       </c>
-      <c r="M25" s="298" t="s">
+      <c r="M25" s="310" t="s">
         <v>207</v>
       </c>
-      <c r="N25" s="299"/>
+      <c r="N25" s="311"/>
       <c r="O25" s="224" t="s">
         <v>230</v>
       </c>
       <c r="P25" s="225" t="s">
         <v>231</v>
       </c>
-      <c r="Q25" s="300"/>
+      <c r="Q25" s="276"/>
       <c r="S25" s="71"/>
       <c r="T25" s="71"/>
       <c r="U25" s="71"/>
@@ -8334,8 +8334,8 @@
       <c r="G26" s="222" t="s">
         <v>270</v>
       </c>
-      <c r="H26" s="285"/>
-      <c r="I26" s="286"/>
+      <c r="H26" s="313"/>
+      <c r="I26" s="314"/>
       <c r="J26" s="100" t="s">
         <v>271</v>
       </c>
@@ -8343,19 +8343,19 @@
       <c r="L26" s="222" t="s">
         <v>272</v>
       </c>
-      <c r="M26" s="285"/>
-      <c r="N26" s="286"/>
+      <c r="M26" s="313"/>
+      <c r="N26" s="314"/>
       <c r="O26" s="76" t="s">
         <v>273</v>
       </c>
       <c r="P26" s="103"/>
       <c r="Q26" s="85"/>
       <c r="S26" s="71"/>
-      <c r="T26" s="290" t="s">
+      <c r="T26" s="287" t="s">
         <v>40</v>
       </c>
-      <c r="U26" s="290"/>
-      <c r="V26" s="290"/>
+      <c r="U26" s="287"/>
+      <c r="V26" s="287"/>
       <c r="W26" s="74" t="s">
         <v>8</v>
       </c>
@@ -8374,40 +8374,40 @@
     <row r="27" spans="1:45" s="69" customFormat="1" ht="12" customHeight="1">
       <c r="A27" s="84"/>
       <c r="B27" s="75"/>
-      <c r="C27" s="248" t="s">
+      <c r="C27" s="247" t="s">
         <v>96</v>
       </c>
-      <c r="D27" s="249"/>
-      <c r="E27" s="248" t="s">
+      <c r="D27" s="248"/>
+      <c r="E27" s="247" t="s">
         <v>124</v>
       </c>
-      <c r="F27" s="249"/>
-      <c r="G27" s="248" t="s">
+      <c r="F27" s="248"/>
+      <c r="G27" s="247" t="s">
         <v>152</v>
       </c>
-      <c r="H27" s="249"/>
-      <c r="I27" s="250"/>
-      <c r="J27" s="248" t="s">
+      <c r="H27" s="248"/>
+      <c r="I27" s="249"/>
+      <c r="J27" s="247" t="s">
         <v>180</v>
       </c>
-      <c r="K27" s="249"/>
-      <c r="L27" s="248" t="s">
+      <c r="K27" s="248"/>
+      <c r="L27" s="247" t="s">
         <v>208</v>
       </c>
-      <c r="M27" s="249"/>
-      <c r="N27" s="250"/>
-      <c r="O27" s="248" t="s">
+      <c r="M27" s="248"/>
+      <c r="N27" s="249"/>
+      <c r="O27" s="247" t="s">
         <v>232</v>
       </c>
-      <c r="P27" s="250"/>
+      <c r="P27" s="249"/>
       <c r="Q27" s="104"/>
       <c r="R27" s="71"/>
       <c r="S27" s="73"/>
-      <c r="T27" s="290" t="s">
+      <c r="T27" s="287" t="s">
         <v>71</v>
       </c>
-      <c r="U27" s="290"/>
-      <c r="V27" s="290"/>
+      <c r="U27" s="287"/>
+      <c r="V27" s="287"/>
       <c r="W27" s="74" t="s">
         <v>8</v>
       </c>
@@ -8443,11 +8443,11 @@
       <c r="Q28" s="104"/>
       <c r="R28" s="71"/>
       <c r="S28" s="73"/>
-      <c r="T28" s="310" t="s">
+      <c r="T28" s="288" t="s">
         <v>42</v>
       </c>
-      <c r="U28" s="310"/>
-      <c r="V28" s="310"/>
+      <c r="U28" s="288"/>
+      <c r="V28" s="288"/>
       <c r="W28" s="74" t="s">
         <v>8</v>
       </c>
@@ -8566,12 +8566,12 @@
       <c r="Q31" s="65"/>
       <c r="R31" s="107"/>
       <c r="S31" s="111"/>
-      <c r="T31" s="324" t="s">
+      <c r="T31" s="271" t="s">
         <v>39</v>
       </c>
-      <c r="U31" s="324"/>
-      <c r="V31" s="324"/>
-      <c r="W31" s="324"/>
+      <c r="U31" s="271"/>
+      <c r="V31" s="271"/>
+      <c r="W31" s="271"/>
       <c r="X31" s="109"/>
       <c r="Y31" s="110"/>
       <c r="Z31" s="74"/>
@@ -8602,32 +8602,32 @@
       <c r="Q32" s="112"/>
       <c r="R32" s="112"/>
       <c r="S32" s="112"/>
-      <c r="T32" s="325" t="s">
+      <c r="T32" s="289" t="s">
         <v>79</v>
       </c>
-      <c r="U32" s="325"/>
-      <c r="V32" s="325"/>
-      <c r="W32" s="325"/>
+      <c r="U32" s="289"/>
+      <c r="V32" s="289"/>
+      <c r="W32" s="289"/>
       <c r="X32" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="Y32" s="319" t="s">
+      <c r="Y32" s="277" t="s">
         <v>80</v>
       </c>
-      <c r="Z32" s="319"/>
+      <c r="Z32" s="277"/>
       <c r="AD32"/>
       <c r="AE32"/>
       <c r="AF32"/>
       <c r="AG32"/>
       <c r="AH32"/>
       <c r="AI32"/>
-      <c r="AJ32" s="317"/>
-      <c r="AK32" s="317"/>
+      <c r="AJ32" s="291"/>
+      <c r="AK32" s="291"/>
       <c r="AL32" s="115"/>
       <c r="AM32" s="115"/>
       <c r="AN32" s="115"/>
-      <c r="AO32" s="317"/>
-      <c r="AP32" s="317"/>
+      <c r="AO32" s="291"/>
+      <c r="AP32" s="291"/>
       <c r="AQ32" s="115"/>
       <c r="AR32" s="115"/>
       <c r="AS32" s="115"/>
@@ -8646,8 +8646,8 @@
       <c r="G33" s="223" t="s">
         <v>293</v>
       </c>
-      <c r="H33" s="255"/>
-      <c r="I33" s="256"/>
+      <c r="H33" s="315"/>
+      <c r="I33" s="316"/>
       <c r="J33" s="217" t="s">
         <v>294</v>
       </c>
@@ -8655,8 +8655,8 @@
       <c r="L33" s="223" t="s">
         <v>295</v>
       </c>
-      <c r="M33" s="255"/>
-      <c r="N33" s="256"/>
+      <c r="M33" s="315"/>
+      <c r="N33" s="316"/>
       <c r="O33" s="217" t="s">
         <v>296</v>
       </c>
@@ -8678,46 +8678,46 @@
       <c r="AG33"/>
       <c r="AH33"/>
       <c r="AI33"/>
-      <c r="AJ33" s="316"/>
-      <c r="AK33" s="316"/>
-      <c r="AL33" s="316"/>
-      <c r="AM33" s="316"/>
-      <c r="AN33" s="316"/>
-      <c r="AO33" s="316"/>
-      <c r="AP33" s="316"/>
-      <c r="AQ33" s="316"/>
-      <c r="AR33" s="316"/>
-      <c r="AS33" s="316"/>
+      <c r="AJ33" s="284"/>
+      <c r="AK33" s="284"/>
+      <c r="AL33" s="284"/>
+      <c r="AM33" s="284"/>
+      <c r="AN33" s="284"/>
+      <c r="AO33" s="284"/>
+      <c r="AP33" s="284"/>
+      <c r="AQ33" s="284"/>
+      <c r="AR33" s="284"/>
+      <c r="AS33" s="284"/>
     </row>
     <row r="34" spans="1:45" s="69" customFormat="1" ht="12" customHeight="1">
       <c r="A34" s="118"/>
       <c r="B34" s="85"/>
-      <c r="C34" s="248" t="s">
+      <c r="C34" s="247" t="s">
         <v>97</v>
       </c>
-      <c r="D34" s="250"/>
-      <c r="E34" s="248" t="s">
+      <c r="D34" s="249"/>
+      <c r="E34" s="247" t="s">
         <v>125</v>
       </c>
-      <c r="F34" s="250"/>
-      <c r="G34" s="248" t="s">
+      <c r="F34" s="249"/>
+      <c r="G34" s="247" t="s">
         <v>153</v>
       </c>
-      <c r="H34" s="249"/>
-      <c r="I34" s="250"/>
-      <c r="J34" s="248" t="s">
+      <c r="H34" s="248"/>
+      <c r="I34" s="249"/>
+      <c r="J34" s="247" t="s">
         <v>181</v>
       </c>
-      <c r="K34" s="250"/>
-      <c r="L34" s="248" t="s">
+      <c r="K34" s="249"/>
+      <c r="L34" s="247" t="s">
         <v>209</v>
       </c>
-      <c r="M34" s="249"/>
-      <c r="N34" s="250"/>
-      <c r="O34" s="248" t="s">
+      <c r="M34" s="248"/>
+      <c r="N34" s="249"/>
+      <c r="O34" s="247" t="s">
         <v>233</v>
       </c>
-      <c r="P34" s="250"/>
+      <c r="P34" s="249"/>
       <c r="Q34" s="85"/>
       <c r="S34" s="116"/>
       <c r="T34" s="117"/>
@@ -8735,13 +8735,13 @@
       <c r="AG34"/>
       <c r="AH34"/>
       <c r="AI34"/>
-      <c r="AJ34" s="320"/>
-      <c r="AK34" s="320"/>
+      <c r="AJ34" s="292"/>
+      <c r="AK34" s="292"/>
       <c r="AL34" s="120"/>
       <c r="AM34" s="119"/>
       <c r="AN34" s="120"/>
-      <c r="AO34" s="320"/>
-      <c r="AP34" s="320"/>
+      <c r="AO34" s="292"/>
+      <c r="AP34" s="292"/>
       <c r="AQ34" s="120"/>
       <c r="AR34" s="119"/>
       <c r="AS34" s="120"/>
@@ -8764,10 +8764,10 @@
       <c r="G35" s="220" t="s">
         <v>299</v>
       </c>
-      <c r="H35" s="281" t="s">
+      <c r="H35" s="285" t="s">
         <v>154</v>
       </c>
-      <c r="I35" s="282"/>
+      <c r="I35" s="286"/>
       <c r="J35" s="220" t="s">
         <v>300</v>
       </c>
@@ -8777,10 +8777,10 @@
       <c r="L35" s="220" t="s">
         <v>301</v>
       </c>
-      <c r="M35" s="281" t="s">
+      <c r="M35" s="285" t="s">
         <v>210</v>
       </c>
-      <c r="N35" s="282"/>
+      <c r="N35" s="286"/>
       <c r="O35" s="220" t="s">
         <v>302</v>
       </c>
@@ -8809,47 +8809,47 @@
       <c r="AG35"/>
       <c r="AH35"/>
       <c r="AI35"/>
-      <c r="AJ35" s="316"/>
-      <c r="AK35" s="316"/>
-      <c r="AL35" s="316"/>
-      <c r="AM35" s="316"/>
-      <c r="AN35" s="316"/>
-      <c r="AO35" s="277"/>
-      <c r="AP35" s="277"/>
-      <c r="AQ35" s="277"/>
-      <c r="AR35" s="321"/>
-      <c r="AS35" s="321"/>
+      <c r="AJ35" s="284"/>
+      <c r="AK35" s="284"/>
+      <c r="AL35" s="284"/>
+      <c r="AM35" s="284"/>
+      <c r="AN35" s="284"/>
+      <c r="AO35" s="257"/>
+      <c r="AP35" s="257"/>
+      <c r="AQ35" s="257"/>
+      <c r="AR35" s="293"/>
+      <c r="AS35" s="293"/>
     </row>
     <row r="36" spans="1:45" s="69" customFormat="1" ht="12" customHeight="1">
       <c r="A36" s="118"/>
       <c r="B36" s="85"/>
-      <c r="C36" s="246" t="s">
+      <c r="C36" s="260" t="s">
         <v>99</v>
       </c>
-      <c r="D36" s="247"/>
-      <c r="E36" s="246" t="s">
+      <c r="D36" s="261"/>
+      <c r="E36" s="260" t="s">
         <v>127</v>
       </c>
-      <c r="F36" s="247"/>
-      <c r="G36" s="246" t="s">
+      <c r="F36" s="261"/>
+      <c r="G36" s="260" t="s">
         <v>155</v>
       </c>
-      <c r="H36" s="275"/>
-      <c r="I36" s="247"/>
-      <c r="J36" s="246" t="s">
+      <c r="H36" s="250"/>
+      <c r="I36" s="261"/>
+      <c r="J36" s="260" t="s">
         <v>183</v>
       </c>
-      <c r="K36" s="247"/>
-      <c r="L36" s="273" t="s">
+      <c r="K36" s="261"/>
+      <c r="L36" s="253" t="s">
         <v>211</v>
       </c>
-      <c r="M36" s="301"/>
-      <c r="N36" s="274"/>
-      <c r="O36" s="246" t="s">
+      <c r="M36" s="254"/>
+      <c r="N36" s="255"/>
+      <c r="O36" s="260" t="s">
         <v>235</v>
       </c>
-      <c r="P36" s="247"/>
-      <c r="Q36" s="300" t="s">
+      <c r="P36" s="261"/>
+      <c r="Q36" s="276" t="s">
         <v>562</v>
       </c>
       <c r="S36" s="116"/>
@@ -8899,10 +8899,10 @@
       <c r="G37" s="224" t="s">
         <v>156</v>
       </c>
-      <c r="H37" s="251" t="s">
+      <c r="H37" s="262" t="s">
         <v>157</v>
       </c>
-      <c r="I37" s="252"/>
+      <c r="I37" s="263"/>
       <c r="J37" s="224" t="s">
         <v>184</v>
       </c>
@@ -8912,17 +8912,17 @@
       <c r="L37" s="224" t="s">
         <v>212</v>
       </c>
-      <c r="M37" s="251" t="s">
+      <c r="M37" s="262" t="s">
         <v>213</v>
       </c>
-      <c r="N37" s="252"/>
+      <c r="N37" s="263"/>
       <c r="O37" s="227" t="s">
         <v>236</v>
       </c>
       <c r="P37" s="225" t="s">
         <v>237</v>
       </c>
-      <c r="Q37" s="300"/>
+      <c r="Q37" s="276"/>
       <c r="S37" s="126"/>
       <c r="T37" s="117"/>
       <c r="U37" s="117"/>
@@ -8941,37 +8941,37 @@
       <c r="AG37" s="237"/>
       <c r="AH37" s="237"/>
       <c r="AI37" s="237"/>
-      <c r="AJ37" s="318"/>
-      <c r="AK37" s="318"/>
+      <c r="AJ37" s="290"/>
+      <c r="AK37" s="290"/>
       <c r="AL37" s="120"/>
       <c r="AM37" s="97"/>
       <c r="AN37" s="121"/>
       <c r="AO37" s="97"/>
-      <c r="AP37" s="322"/>
-      <c r="AQ37" s="322"/>
+      <c r="AP37" s="294"/>
+      <c r="AQ37" s="294"/>
       <c r="AR37" s="97"/>
       <c r="AS37" s="120"/>
     </row>
     <row r="38" spans="1:45" s="69" customFormat="1" ht="12" customHeight="1">
       <c r="A38" s="118"/>
-      <c r="B38" s="336" t="s">
+      <c r="B38" s="246" t="s">
         <v>242</v>
       </c>
       <c r="C38" s="218" t="s">
         <v>303</v>
       </c>
-      <c r="D38" s="304" t="s">
+      <c r="D38" s="279" t="s">
         <v>102</v>
       </c>
-      <c r="E38" s="304"/>
-      <c r="F38" s="305"/>
+      <c r="E38" s="279"/>
+      <c r="F38" s="312"/>
       <c r="G38" s="221" t="s">
         <v>304</v>
       </c>
-      <c r="H38" s="283" t="s">
+      <c r="H38" s="264" t="s">
         <v>130</v>
       </c>
-      <c r="I38" s="284"/>
+      <c r="I38" s="265"/>
       <c r="J38" s="218" t="s">
         <v>305</v>
       </c>
@@ -8981,10 +8981,10 @@
       <c r="L38" s="95" t="s">
         <v>306</v>
       </c>
-      <c r="M38" s="302" t="s">
+      <c r="M38" s="281" t="s">
         <v>186</v>
       </c>
-      <c r="N38" s="303"/>
+      <c r="N38" s="282"/>
       <c r="O38" s="95" t="s">
         <v>307</v>
       </c>
@@ -9000,50 +9000,50 @@
       <c r="X38" s="71"/>
       <c r="Y38" s="127"/>
       <c r="Z38" s="71"/>
-      <c r="AF38" s="323" t="s">
+      <c r="AF38" s="283" t="s">
         <v>573</v>
       </c>
       <c r="AG38" s="236"/>
       <c r="AH38" s="236"/>
       <c r="AI38" s="236"/>
-      <c r="AJ38" s="316"/>
-      <c r="AK38" s="316"/>
-      <c r="AL38" s="316"/>
-      <c r="AM38" s="277"/>
-      <c r="AN38" s="277"/>
-      <c r="AO38" s="277"/>
-      <c r="AP38" s="277"/>
-      <c r="AQ38" s="277"/>
-      <c r="AR38" s="277"/>
-      <c r="AS38" s="277"/>
+      <c r="AJ38" s="284"/>
+      <c r="AK38" s="284"/>
+      <c r="AL38" s="284"/>
+      <c r="AM38" s="257"/>
+      <c r="AN38" s="257"/>
+      <c r="AO38" s="257"/>
+      <c r="AP38" s="257"/>
+      <c r="AQ38" s="257"/>
+      <c r="AR38" s="257"/>
+      <c r="AS38" s="257"/>
     </row>
     <row r="39" spans="1:45" s="69" customFormat="1" ht="12" customHeight="1">
       <c r="A39" s="118"/>
-      <c r="B39" s="336"/>
-      <c r="C39" s="246" t="s">
+      <c r="B39" s="246"/>
+      <c r="C39" s="260" t="s">
         <v>103</v>
       </c>
-      <c r="D39" s="275"/>
-      <c r="E39" s="275"/>
-      <c r="F39" s="247"/>
-      <c r="G39" s="246" t="s">
+      <c r="D39" s="250"/>
+      <c r="E39" s="250"/>
+      <c r="F39" s="261"/>
+      <c r="G39" s="260" t="s">
         <v>131</v>
       </c>
-      <c r="H39" s="275"/>
-      <c r="I39" s="247"/>
-      <c r="J39" s="273" t="s">
+      <c r="H39" s="250"/>
+      <c r="I39" s="261"/>
+      <c r="J39" s="253" t="s">
         <v>159</v>
       </c>
-      <c r="K39" s="274"/>
-      <c r="L39" s="273" t="s">
+      <c r="K39" s="255"/>
+      <c r="L39" s="253" t="s">
         <v>187</v>
       </c>
-      <c r="M39" s="301"/>
-      <c r="N39" s="274"/>
-      <c r="O39" s="273" t="s">
+      <c r="M39" s="254"/>
+      <c r="N39" s="255"/>
+      <c r="O39" s="253" t="s">
         <v>215</v>
       </c>
-      <c r="P39" s="274"/>
+      <c r="P39" s="255"/>
       <c r="Q39" s="234"/>
       <c r="S39" s="126"/>
       <c r="T39" s="73" t="s">
@@ -9055,7 +9055,7 @@
       <c r="X39" s="71"/>
       <c r="Y39" s="127"/>
       <c r="Z39" s="74"/>
-      <c r="AF39" s="323"/>
+      <c r="AF39" s="283"/>
       <c r="AG39" s="238"/>
       <c r="AH39" s="238"/>
       <c r="AI39" s="125"/>
@@ -9076,18 +9076,18 @@
       <c r="C40" s="228" t="s">
         <v>104</v>
       </c>
-      <c r="D40" s="279" t="s">
+      <c r="D40" s="308" t="s">
         <v>105</v>
       </c>
-      <c r="E40" s="279"/>
-      <c r="F40" s="280"/>
+      <c r="E40" s="308"/>
+      <c r="F40" s="309"/>
       <c r="G40" s="229" t="s">
         <v>132</v>
       </c>
-      <c r="H40" s="279" t="s">
+      <c r="H40" s="308" t="s">
         <v>133</v>
       </c>
-      <c r="I40" s="280"/>
+      <c r="I40" s="309"/>
       <c r="J40" s="230" t="s">
         <v>160</v>
       </c>
@@ -9097,10 +9097,10 @@
       <c r="L40" s="230" t="s">
         <v>188</v>
       </c>
-      <c r="M40" s="279" t="s">
+      <c r="M40" s="308" t="s">
         <v>189</v>
       </c>
-      <c r="N40" s="280"/>
+      <c r="N40" s="309"/>
       <c r="O40" s="232" t="s">
         <v>216</v>
       </c>
@@ -9109,12 +9109,12 @@
       </c>
       <c r="Q40" s="98"/>
       <c r="S40" s="65"/>
-      <c r="T40" s="310" t="s">
+      <c r="T40" s="288" t="s">
         <v>252</v>
       </c>
-      <c r="U40" s="310"/>
-      <c r="V40" s="310"/>
-      <c r="W40" s="310"/>
+      <c r="U40" s="288"/>
+      <c r="V40" s="288"/>
+      <c r="W40" s="288"/>
       <c r="X40" s="82"/>
       <c r="Y40" s="128" t="s">
         <v>81</v>
@@ -9124,13 +9124,13 @@
       <c r="AG40" s="120"/>
       <c r="AH40" s="238"/>
       <c r="AI40" s="237"/>
-      <c r="AJ40" s="318"/>
-      <c r="AK40" s="318"/>
+      <c r="AJ40" s="290"/>
+      <c r="AK40" s="290"/>
       <c r="AL40" s="120"/>
       <c r="AM40" s="97"/>
       <c r="AN40" s="120"/>
-      <c r="AO40" s="318"/>
-      <c r="AP40" s="318"/>
+      <c r="AO40" s="290"/>
+      <c r="AP40" s="290"/>
       <c r="AQ40" s="120"/>
       <c r="AR40" s="97"/>
       <c r="AS40" s="120"/>
@@ -9153,10 +9153,10 @@
       <c r="G41" s="221" t="s">
         <v>310</v>
       </c>
-      <c r="H41" s="283" t="s">
+      <c r="H41" s="264" t="s">
         <v>162</v>
       </c>
-      <c r="I41" s="284"/>
+      <c r="I41" s="265"/>
       <c r="J41" s="218" t="s">
         <v>311</v>
       </c>
@@ -9166,10 +9166,10 @@
       <c r="L41" s="221" t="s">
         <v>312</v>
       </c>
-      <c r="M41" s="283" t="s">
+      <c r="M41" s="264" t="s">
         <v>218</v>
       </c>
-      <c r="N41" s="284"/>
+      <c r="N41" s="265"/>
       <c r="O41" s="218" t="s">
         <v>313</v>
       </c>
@@ -9191,55 +9191,55 @@
       <c r="AG41" s="235"/>
       <c r="AH41" s="235"/>
       <c r="AI41" s="235"/>
-      <c r="AJ41" s="277"/>
-      <c r="AK41" s="277"/>
-      <c r="AL41" s="277"/>
-      <c r="AM41" s="316"/>
-      <c r="AN41" s="316"/>
-      <c r="AO41" s="277"/>
-      <c r="AP41" s="277"/>
-      <c r="AQ41" s="277"/>
-      <c r="AR41" s="277"/>
-      <c r="AS41" s="277"/>
+      <c r="AJ41" s="257"/>
+      <c r="AK41" s="257"/>
+      <c r="AL41" s="257"/>
+      <c r="AM41" s="284"/>
+      <c r="AN41" s="284"/>
+      <c r="AO41" s="257"/>
+      <c r="AP41" s="257"/>
+      <c r="AQ41" s="257"/>
+      <c r="AR41" s="257"/>
+      <c r="AS41" s="257"/>
     </row>
     <row r="42" spans="1:45" s="69" customFormat="1" ht="12" customHeight="1">
       <c r="A42" s="118"/>
       <c r="B42" s="85"/>
-      <c r="C42" s="246" t="s">
+      <c r="C42" s="260" t="s">
         <v>107</v>
       </c>
-      <c r="D42" s="247"/>
-      <c r="E42" s="246" t="s">
+      <c r="D42" s="261"/>
+      <c r="E42" s="260" t="s">
         <v>135</v>
       </c>
-      <c r="F42" s="247"/>
-      <c r="G42" s="276" t="s">
+      <c r="F42" s="261"/>
+      <c r="G42" s="256" t="s">
         <v>163</v>
       </c>
-      <c r="H42" s="277"/>
-      <c r="I42" s="278"/>
-      <c r="J42" s="246" t="s">
+      <c r="H42" s="257"/>
+      <c r="I42" s="258"/>
+      <c r="J42" s="260" t="s">
         <v>191</v>
       </c>
-      <c r="K42" s="247"/>
-      <c r="L42" s="276" t="s">
+      <c r="K42" s="261"/>
+      <c r="L42" s="256" t="s">
         <v>219</v>
       </c>
-      <c r="M42" s="277"/>
-      <c r="N42" s="278"/>
-      <c r="O42" s="246" t="s">
+      <c r="M42" s="257"/>
+      <c r="N42" s="258"/>
+      <c r="O42" s="260" t="s">
         <v>239</v>
       </c>
-      <c r="P42" s="247"/>
-      <c r="Q42" s="300" t="s">
+      <c r="P42" s="261"/>
+      <c r="Q42" s="276" t="s">
         <v>560</v>
       </c>
       <c r="S42" s="71"/>
-      <c r="T42" s="290" t="s">
+      <c r="T42" s="287" t="s">
         <v>40</v>
       </c>
-      <c r="U42" s="290"/>
-      <c r="V42" s="290"/>
+      <c r="U42" s="287"/>
+      <c r="V42" s="287"/>
       <c r="W42" s="74" t="s">
         <v>8</v>
       </c>
@@ -9281,10 +9281,10 @@
       <c r="G43" s="224" t="s">
         <v>164</v>
       </c>
-      <c r="H43" s="253" t="s">
+      <c r="H43" s="266" t="s">
         <v>165</v>
       </c>
-      <c r="I43" s="254"/>
+      <c r="I43" s="267"/>
       <c r="J43" s="224" t="s">
         <v>192</v>
       </c>
@@ -9294,23 +9294,23 @@
       <c r="L43" s="224" t="s">
         <v>220</v>
       </c>
-      <c r="M43" s="251" t="s">
+      <c r="M43" s="262" t="s">
         <v>221</v>
       </c>
-      <c r="N43" s="252"/>
+      <c r="N43" s="263"/>
       <c r="O43" s="224" t="s">
         <v>240</v>
       </c>
       <c r="P43" s="225" t="s">
         <v>241</v>
       </c>
-      <c r="Q43" s="300"/>
+      <c r="Q43" s="276"/>
       <c r="S43" s="71"/>
-      <c r="T43" s="290" t="s">
+      <c r="T43" s="287" t="s">
         <v>71</v>
       </c>
-      <c r="U43" s="290"/>
-      <c r="V43" s="290"/>
+      <c r="U43" s="287"/>
+      <c r="V43" s="287"/>
       <c r="W43" s="74" t="s">
         <v>8</v>
       </c>
@@ -9323,13 +9323,13 @@
       <c r="AG43" s="239"/>
       <c r="AH43" s="239"/>
       <c r="AI43" s="239"/>
-      <c r="AJ43" s="317"/>
-      <c r="AK43" s="317"/>
+      <c r="AJ43" s="291"/>
+      <c r="AK43" s="291"/>
       <c r="AL43" s="115"/>
       <c r="AM43" s="115"/>
       <c r="AN43" s="115"/>
-      <c r="AO43" s="317"/>
-      <c r="AP43" s="317"/>
+      <c r="AO43" s="291"/>
+      <c r="AP43" s="291"/>
       <c r="AQ43" s="115"/>
       <c r="AR43" s="115"/>
       <c r="AS43" s="115"/>
@@ -9348,8 +9348,8 @@
       <c r="G44" s="223" t="s">
         <v>316</v>
       </c>
-      <c r="H44" s="255"/>
-      <c r="I44" s="256"/>
+      <c r="H44" s="315"/>
+      <c r="I44" s="316"/>
       <c r="J44" s="100" t="s">
         <v>317</v>
       </c>
@@ -9357,19 +9357,19 @@
       <c r="L44" s="223" t="s">
         <v>318</v>
       </c>
-      <c r="M44" s="255"/>
-      <c r="N44" s="256"/>
+      <c r="M44" s="315"/>
+      <c r="N44" s="316"/>
       <c r="O44" s="76" t="s">
         <v>319</v>
       </c>
       <c r="P44" s="103"/>
       <c r="Q44" s="85"/>
       <c r="S44" s="71"/>
-      <c r="T44" s="310" t="s">
+      <c r="T44" s="288" t="s">
         <v>42</v>
       </c>
-      <c r="U44" s="310"/>
-      <c r="V44" s="310"/>
+      <c r="U44" s="288"/>
+      <c r="V44" s="288"/>
       <c r="W44" s="74" t="s">
         <v>8</v>
       </c>
@@ -9385,46 +9385,46 @@
       <c r="AG44" s="236"/>
       <c r="AH44" s="236"/>
       <c r="AI44" s="236"/>
-      <c r="AJ44" s="316"/>
-      <c r="AK44" s="316"/>
-      <c r="AL44" s="316"/>
-      <c r="AM44" s="316"/>
-      <c r="AN44" s="316"/>
-      <c r="AO44" s="316"/>
-      <c r="AP44" s="316"/>
-      <c r="AQ44" s="316"/>
-      <c r="AR44" s="316"/>
-      <c r="AS44" s="316"/>
+      <c r="AJ44" s="284"/>
+      <c r="AK44" s="284"/>
+      <c r="AL44" s="284"/>
+      <c r="AM44" s="284"/>
+      <c r="AN44" s="284"/>
+      <c r="AO44" s="284"/>
+      <c r="AP44" s="284"/>
+      <c r="AQ44" s="284"/>
+      <c r="AR44" s="284"/>
+      <c r="AS44" s="284"/>
     </row>
     <row r="45" spans="1:45" s="69" customFormat="1" ht="12" customHeight="1">
       <c r="A45" s="84"/>
       <c r="B45" s="75"/>
-      <c r="C45" s="248" t="s">
+      <c r="C45" s="247" t="s">
         <v>110</v>
       </c>
-      <c r="D45" s="250"/>
-      <c r="E45" s="248" t="s">
+      <c r="D45" s="249"/>
+      <c r="E45" s="247" t="s">
         <v>138</v>
       </c>
-      <c r="F45" s="250"/>
-      <c r="G45" s="248" t="s">
+      <c r="F45" s="249"/>
+      <c r="G45" s="247" t="s">
         <v>166</v>
       </c>
-      <c r="H45" s="249"/>
-      <c r="I45" s="250"/>
-      <c r="J45" s="248" t="s">
+      <c r="H45" s="248"/>
+      <c r="I45" s="249"/>
+      <c r="J45" s="247" t="s">
         <v>194</v>
       </c>
-      <c r="K45" s="250"/>
-      <c r="L45" s="248" t="s">
+      <c r="K45" s="249"/>
+      <c r="L45" s="247" t="s">
         <v>222</v>
       </c>
-      <c r="M45" s="249"/>
-      <c r="N45" s="250"/>
-      <c r="O45" s="248" t="s">
+      <c r="M45" s="248"/>
+      <c r="N45" s="249"/>
+      <c r="O45" s="247" t="s">
         <v>320</v>
       </c>
-      <c r="P45" s="250"/>
+      <c r="P45" s="249"/>
       <c r="Q45" s="104"/>
       <c r="R45" s="71"/>
       <c r="S45" s="73"/>
@@ -9439,18 +9439,18 @@
     <row r="46" spans="1:45" ht="17.25" customHeight="1">
       <c r="A46" s="56"/>
       <c r="B46" s="131"/>
-      <c r="C46" s="257"/>
-      <c r="D46" s="257"/>
-      <c r="E46" s="257"/>
-      <c r="F46" s="257"/>
-      <c r="G46" s="257"/>
-      <c r="H46" s="257"/>
-      <c r="I46" s="257"/>
-      <c r="J46" s="257"/>
-      <c r="K46" s="257"/>
-      <c r="L46" s="257"/>
-      <c r="M46" s="257"/>
-      <c r="N46" s="257"/>
+      <c r="C46" s="318"/>
+      <c r="D46" s="318"/>
+      <c r="E46" s="318"/>
+      <c r="F46" s="318"/>
+      <c r="G46" s="318"/>
+      <c r="H46" s="318"/>
+      <c r="I46" s="318"/>
+      <c r="J46" s="318"/>
+      <c r="K46" s="318"/>
+      <c r="L46" s="318"/>
+      <c r="M46" s="318"/>
+      <c r="N46" s="318"/>
       <c r="O46" s="113"/>
       <c r="P46" s="112"/>
       <c r="Q46" s="112"/>
@@ -9507,20 +9507,20 @@
       <c r="F48" s="133"/>
       <c r="G48" s="133"/>
       <c r="H48" s="133"/>
-      <c r="I48" s="291"/>
-      <c r="J48" s="291"/>
-      <c r="K48" s="291"/>
-      <c r="L48" s="291"/>
-      <c r="M48" s="261" t="s">
+      <c r="I48" s="317"/>
+      <c r="J48" s="317"/>
+      <c r="K48" s="317"/>
+      <c r="L48" s="317"/>
+      <c r="M48" s="325" t="s">
         <v>15</v>
       </c>
-      <c r="N48" s="262"/>
-      <c r="O48" s="262"/>
-      <c r="P48" s="262"/>
-      <c r="Q48" s="262"/>
-      <c r="R48" s="262"/>
-      <c r="S48" s="262"/>
-      <c r="T48" s="263"/>
+      <c r="N48" s="326"/>
+      <c r="O48" s="326"/>
+      <c r="P48" s="326"/>
+      <c r="Q48" s="326"/>
+      <c r="R48" s="326"/>
+      <c r="S48" s="326"/>
+      <c r="T48" s="327"/>
       <c r="U48" s="136"/>
       <c r="V48" s="136"/>
       <c r="W48" s="136"/>
@@ -9541,22 +9541,22 @@
       <c r="F49" s="139"/>
       <c r="G49" s="139"/>
       <c r="H49" s="140"/>
-      <c r="I49" s="245" t="s">
+      <c r="I49" s="323" t="s">
         <v>254</v>
       </c>
-      <c r="J49" s="245"/>
-      <c r="K49" s="245"/>
-      <c r="L49" s="245"/>
-      <c r="M49" s="264" t="s">
+      <c r="J49" s="323"/>
+      <c r="K49" s="323"/>
+      <c r="L49" s="323"/>
+      <c r="M49" s="328" t="s">
         <v>261</v>
       </c>
-      <c r="N49" s="265"/>
-      <c r="O49" s="265"/>
-      <c r="P49" s="265"/>
-      <c r="Q49" s="265"/>
-      <c r="R49" s="265"/>
-      <c r="S49" s="265"/>
-      <c r="T49" s="266"/>
+      <c r="N49" s="329"/>
+      <c r="O49" s="329"/>
+      <c r="P49" s="329"/>
+      <c r="Q49" s="329"/>
+      <c r="R49" s="329"/>
+      <c r="S49" s="329"/>
+      <c r="T49" s="330"/>
       <c r="U49" s="136"/>
       <c r="V49" s="136"/>
       <c r="W49" s="136"/>
@@ -9577,20 +9577,20 @@
       <c r="F50" s="139"/>
       <c r="G50" s="139"/>
       <c r="H50" s="140"/>
-      <c r="I50" s="245" t="s">
+      <c r="I50" s="323" t="s">
         <v>255</v>
       </c>
-      <c r="J50" s="245"/>
-      <c r="K50" s="245"/>
-      <c r="L50" s="245"/>
-      <c r="M50" s="267"/>
-      <c r="N50" s="268"/>
-      <c r="O50" s="268"/>
-      <c r="P50" s="268"/>
-      <c r="Q50" s="268"/>
-      <c r="R50" s="268"/>
-      <c r="S50" s="268"/>
-      <c r="T50" s="269"/>
+      <c r="J50" s="323"/>
+      <c r="K50" s="323"/>
+      <c r="L50" s="323"/>
+      <c r="M50" s="331"/>
+      <c r="N50" s="332"/>
+      <c r="O50" s="332"/>
+      <c r="P50" s="332"/>
+      <c r="Q50" s="332"/>
+      <c r="R50" s="332"/>
+      <c r="S50" s="332"/>
+      <c r="T50" s="333"/>
       <c r="U50" s="137"/>
       <c r="V50" s="136"/>
       <c r="W50" s="136"/>
@@ -9611,20 +9611,20 @@
       <c r="F51" s="139"/>
       <c r="G51" s="139"/>
       <c r="H51" s="140"/>
-      <c r="I51" s="245" t="s">
+      <c r="I51" s="323" t="s">
         <v>258</v>
       </c>
-      <c r="J51" s="245"/>
-      <c r="K51" s="245"/>
-      <c r="L51" s="245"/>
-      <c r="M51" s="267"/>
-      <c r="N51" s="268"/>
-      <c r="O51" s="268"/>
-      <c r="P51" s="268"/>
-      <c r="Q51" s="268"/>
-      <c r="R51" s="268"/>
-      <c r="S51" s="268"/>
-      <c r="T51" s="269"/>
+      <c r="J51" s="323"/>
+      <c r="K51" s="323"/>
+      <c r="L51" s="323"/>
+      <c r="M51" s="331"/>
+      <c r="N51" s="332"/>
+      <c r="O51" s="332"/>
+      <c r="P51" s="332"/>
+      <c r="Q51" s="332"/>
+      <c r="R51" s="332"/>
+      <c r="S51" s="332"/>
+      <c r="T51" s="333"/>
       <c r="U51" s="137"/>
       <c r="V51" s="136"/>
       <c r="W51" s="136"/>
@@ -9645,20 +9645,20 @@
       <c r="F52" s="139"/>
       <c r="G52" s="139"/>
       <c r="H52" s="140"/>
-      <c r="I52" s="245" t="s">
+      <c r="I52" s="323" t="s">
         <v>257</v>
       </c>
-      <c r="J52" s="245"/>
-      <c r="K52" s="245"/>
-      <c r="L52" s="245"/>
-      <c r="M52" s="267"/>
-      <c r="N52" s="268"/>
-      <c r="O52" s="268"/>
-      <c r="P52" s="268"/>
-      <c r="Q52" s="268"/>
-      <c r="R52" s="268"/>
-      <c r="S52" s="268"/>
-      <c r="T52" s="269"/>
+      <c r="J52" s="323"/>
+      <c r="K52" s="323"/>
+      <c r="L52" s="323"/>
+      <c r="M52" s="331"/>
+      <c r="N52" s="332"/>
+      <c r="O52" s="332"/>
+      <c r="P52" s="332"/>
+      <c r="Q52" s="332"/>
+      <c r="R52" s="332"/>
+      <c r="S52" s="332"/>
+      <c r="T52" s="333"/>
       <c r="U52" s="137"/>
       <c r="V52" s="136"/>
       <c r="W52" s="136"/>
@@ -9679,20 +9679,20 @@
       <c r="F53" s="139"/>
       <c r="G53" s="139"/>
       <c r="H53" s="140"/>
-      <c r="I53" s="245" t="s">
+      <c r="I53" s="323" t="s">
         <v>256</v>
       </c>
-      <c r="J53" s="245"/>
-      <c r="K53" s="245"/>
-      <c r="L53" s="245"/>
-      <c r="M53" s="267"/>
-      <c r="N53" s="268"/>
-      <c r="O53" s="268"/>
-      <c r="P53" s="268"/>
-      <c r="Q53" s="268"/>
-      <c r="R53" s="268"/>
-      <c r="S53" s="268"/>
-      <c r="T53" s="269"/>
+      <c r="J53" s="323"/>
+      <c r="K53" s="323"/>
+      <c r="L53" s="323"/>
+      <c r="M53" s="331"/>
+      <c r="N53" s="332"/>
+      <c r="O53" s="332"/>
+      <c r="P53" s="332"/>
+      <c r="Q53" s="332"/>
+      <c r="R53" s="332"/>
+      <c r="S53" s="332"/>
+      <c r="T53" s="333"/>
       <c r="U53" s="137"/>
       <c r="V53" s="136"/>
       <c r="W53" s="136"/>
@@ -9704,29 +9704,29 @@
     </row>
     <row r="54" spans="1:30" ht="13.2" customHeight="1">
       <c r="A54" s="135"/>
-      <c r="B54" s="287" t="s">
+      <c r="B54" s="337" t="s">
         <v>20</v>
       </c>
-      <c r="C54" s="288"/>
-      <c r="D54" s="288"/>
-      <c r="E54" s="288"/>
-      <c r="F54" s="288"/>
-      <c r="G54" s="288"/>
-      <c r="H54" s="289"/>
-      <c r="I54" s="296" t="s">
+      <c r="C54" s="338"/>
+      <c r="D54" s="338"/>
+      <c r="E54" s="338"/>
+      <c r="F54" s="338"/>
+      <c r="G54" s="338"/>
+      <c r="H54" s="339"/>
+      <c r="I54" s="322" t="s">
         <v>259</v>
       </c>
-      <c r="J54" s="296"/>
-      <c r="K54" s="296"/>
-      <c r="L54" s="296"/>
-      <c r="M54" s="267"/>
-      <c r="N54" s="268"/>
-      <c r="O54" s="268"/>
-      <c r="P54" s="268"/>
-      <c r="Q54" s="268"/>
-      <c r="R54" s="268"/>
-      <c r="S54" s="268"/>
-      <c r="T54" s="269"/>
+      <c r="J54" s="322"/>
+      <c r="K54" s="322"/>
+      <c r="L54" s="322"/>
+      <c r="M54" s="331"/>
+      <c r="N54" s="332"/>
+      <c r="O54" s="332"/>
+      <c r="P54" s="332"/>
+      <c r="Q54" s="332"/>
+      <c r="R54" s="332"/>
+      <c r="S54" s="332"/>
+      <c r="T54" s="333"/>
       <c r="U54" s="137"/>
       <c r="V54" s="136"/>
       <c r="W54" s="136"/>
@@ -9749,18 +9749,18 @@
       <c r="F55" s="143"/>
       <c r="G55" s="143"/>
       <c r="H55" s="144"/>
-      <c r="I55" s="296"/>
-      <c r="J55" s="296"/>
-      <c r="K55" s="296"/>
-      <c r="L55" s="296"/>
-      <c r="M55" s="267"/>
-      <c r="N55" s="268"/>
-      <c r="O55" s="268"/>
-      <c r="P55" s="268"/>
-      <c r="Q55" s="268"/>
-      <c r="R55" s="268"/>
-      <c r="S55" s="268"/>
-      <c r="T55" s="269"/>
+      <c r="I55" s="322"/>
+      <c r="J55" s="322"/>
+      <c r="K55" s="322"/>
+      <c r="L55" s="322"/>
+      <c r="M55" s="331"/>
+      <c r="N55" s="332"/>
+      <c r="O55" s="332"/>
+      <c r="P55" s="332"/>
+      <c r="Q55" s="332"/>
+      <c r="R55" s="332"/>
+      <c r="S55" s="332"/>
+      <c r="T55" s="333"/>
       <c r="U55" s="137"/>
       <c r="V55" s="136"/>
       <c r="W55" s="136"/>
@@ -9783,18 +9783,18 @@
       <c r="F56" s="143"/>
       <c r="G56" s="143"/>
       <c r="H56" s="144"/>
-      <c r="I56" s="296"/>
-      <c r="J56" s="296"/>
-      <c r="K56" s="296"/>
-      <c r="L56" s="296"/>
-      <c r="M56" s="267"/>
-      <c r="N56" s="268"/>
-      <c r="O56" s="268"/>
-      <c r="P56" s="268"/>
-      <c r="Q56" s="268"/>
-      <c r="R56" s="268"/>
-      <c r="S56" s="268"/>
-      <c r="T56" s="269"/>
+      <c r="I56" s="322"/>
+      <c r="J56" s="322"/>
+      <c r="K56" s="322"/>
+      <c r="L56" s="322"/>
+      <c r="M56" s="331"/>
+      <c r="N56" s="332"/>
+      <c r="O56" s="332"/>
+      <c r="P56" s="332"/>
+      <c r="Q56" s="332"/>
+      <c r="R56" s="332"/>
+      <c r="S56" s="332"/>
+      <c r="T56" s="333"/>
       <c r="U56" s="137"/>
       <c r="V56" s="136"/>
       <c r="W56" s="136"/>
@@ -9817,18 +9817,18 @@
       <c r="F57" s="143"/>
       <c r="G57" s="143"/>
       <c r="H57" s="144"/>
-      <c r="I57" s="296"/>
-      <c r="J57" s="296"/>
-      <c r="K57" s="296"/>
-      <c r="L57" s="296"/>
-      <c r="M57" s="267"/>
-      <c r="N57" s="268"/>
-      <c r="O57" s="268"/>
-      <c r="P57" s="268"/>
-      <c r="Q57" s="268"/>
-      <c r="R57" s="268"/>
-      <c r="S57" s="268"/>
-      <c r="T57" s="269"/>
+      <c r="I57" s="322"/>
+      <c r="J57" s="322"/>
+      <c r="K57" s="322"/>
+      <c r="L57" s="322"/>
+      <c r="M57" s="331"/>
+      <c r="N57" s="332"/>
+      <c r="O57" s="332"/>
+      <c r="P57" s="332"/>
+      <c r="Q57" s="332"/>
+      <c r="R57" s="332"/>
+      <c r="S57" s="332"/>
+      <c r="T57" s="333"/>
       <c r="U57" s="137"/>
       <c r="V57" s="136"/>
       <c r="W57" s="136"/>
@@ -9851,18 +9851,18 @@
       <c r="F58" s="143"/>
       <c r="G58" s="143"/>
       <c r="H58" s="144"/>
-      <c r="I58" s="296"/>
-      <c r="J58" s="296"/>
-      <c r="K58" s="296"/>
-      <c r="L58" s="296"/>
-      <c r="M58" s="267"/>
-      <c r="N58" s="268"/>
-      <c r="O58" s="268"/>
-      <c r="P58" s="268"/>
-      <c r="Q58" s="268"/>
-      <c r="R58" s="268"/>
-      <c r="S58" s="268"/>
-      <c r="T58" s="269"/>
+      <c r="I58" s="322"/>
+      <c r="J58" s="322"/>
+      <c r="K58" s="322"/>
+      <c r="L58" s="322"/>
+      <c r="M58" s="331"/>
+      <c r="N58" s="332"/>
+      <c r="O58" s="332"/>
+      <c r="P58" s="332"/>
+      <c r="Q58" s="332"/>
+      <c r="R58" s="332"/>
+      <c r="S58" s="332"/>
+      <c r="T58" s="333"/>
       <c r="U58" s="137"/>
       <c r="V58" s="136"/>
       <c r="W58" s="136"/>
@@ -9885,18 +9885,18 @@
       <c r="F59" s="145"/>
       <c r="G59" s="145"/>
       <c r="H59" s="146"/>
-      <c r="I59" s="296"/>
-      <c r="J59" s="296"/>
-      <c r="K59" s="296"/>
-      <c r="L59" s="296"/>
-      <c r="M59" s="270"/>
-      <c r="N59" s="271"/>
-      <c r="O59" s="271"/>
-      <c r="P59" s="271"/>
-      <c r="Q59" s="271"/>
-      <c r="R59" s="271"/>
-      <c r="S59" s="271"/>
-      <c r="T59" s="272"/>
+      <c r="I59" s="322"/>
+      <c r="J59" s="322"/>
+      <c r="K59" s="322"/>
+      <c r="L59" s="322"/>
+      <c r="M59" s="334"/>
+      <c r="N59" s="335"/>
+      <c r="O59" s="335"/>
+      <c r="P59" s="335"/>
+      <c r="Q59" s="335"/>
+      <c r="R59" s="335"/>
+      <c r="S59" s="335"/>
+      <c r="T59" s="336"/>
       <c r="U59" s="137"/>
       <c r="V59" s="136"/>
       <c r="W59" s="136"/>
@@ -9982,28 +9982,28 @@
       <c r="C62" s="151"/>
       <c r="D62" s="151"/>
       <c r="E62" s="152"/>
-      <c r="F62" s="259" t="s">
+      <c r="F62" s="303" t="s">
         <v>243</v>
       </c>
-      <c r="G62" s="259"/>
-      <c r="H62" s="259"/>
-      <c r="I62" s="259"/>
-      <c r="J62" s="259"/>
-      <c r="K62" s="297"/>
-      <c r="L62" s="297"/>
-      <c r="M62" s="297"/>
-      <c r="N62" s="297"/>
-      <c r="O62" s="297"/>
-      <c r="P62" s="258"/>
-      <c r="Q62" s="258"/>
-      <c r="R62" s="258"/>
-      <c r="S62" s="258"/>
-      <c r="T62" s="258"/>
-      <c r="U62" s="258"/>
-      <c r="V62" s="258"/>
-      <c r="W62" s="258"/>
-      <c r="X62" s="258"/>
-      <c r="Y62" s="258"/>
+      <c r="G62" s="303"/>
+      <c r="H62" s="303"/>
+      <c r="I62" s="303"/>
+      <c r="J62" s="303"/>
+      <c r="K62" s="295"/>
+      <c r="L62" s="295"/>
+      <c r="M62" s="295"/>
+      <c r="N62" s="295"/>
+      <c r="O62" s="295"/>
+      <c r="P62" s="299"/>
+      <c r="Q62" s="299"/>
+      <c r="R62" s="299"/>
+      <c r="S62" s="299"/>
+      <c r="T62" s="299"/>
+      <c r="U62" s="299"/>
+      <c r="V62" s="299"/>
+      <c r="W62" s="299"/>
+      <c r="X62" s="299"/>
+      <c r="Y62" s="299"/>
       <c r="Z62" s="56"/>
       <c r="AA62" s="56"/>
       <c r="AB62" s="56"/>
@@ -10016,32 +10016,32 @@
         <v>26</v>
       </c>
       <c r="C63" s="154"/>
-      <c r="D63" s="294" t="s">
+      <c r="D63" s="320" t="s">
         <v>27</v>
       </c>
-      <c r="E63" s="295"/>
-      <c r="F63" s="259" t="s">
+      <c r="E63" s="321"/>
+      <c r="F63" s="303" t="s">
         <v>244</v>
       </c>
-      <c r="G63" s="259"/>
-      <c r="H63" s="259"/>
-      <c r="I63" s="259"/>
-      <c r="J63" s="259"/>
-      <c r="K63" s="297"/>
-      <c r="L63" s="297"/>
-      <c r="M63" s="297"/>
-      <c r="N63" s="297"/>
-      <c r="O63" s="297"/>
-      <c r="P63" s="297"/>
-      <c r="Q63" s="297"/>
-      <c r="R63" s="297"/>
-      <c r="S63" s="297"/>
-      <c r="T63" s="297"/>
-      <c r="U63" s="297"/>
-      <c r="V63" s="297"/>
-      <c r="W63" s="297"/>
-      <c r="X63" s="297"/>
-      <c r="Y63" s="297"/>
+      <c r="G63" s="303"/>
+      <c r="H63" s="303"/>
+      <c r="I63" s="303"/>
+      <c r="J63" s="303"/>
+      <c r="K63" s="295"/>
+      <c r="L63" s="295"/>
+      <c r="M63" s="295"/>
+      <c r="N63" s="295"/>
+      <c r="O63" s="295"/>
+      <c r="P63" s="295"/>
+      <c r="Q63" s="295"/>
+      <c r="R63" s="295"/>
+      <c r="S63" s="295"/>
+      <c r="T63" s="295"/>
+      <c r="U63" s="295"/>
+      <c r="V63" s="295"/>
+      <c r="W63" s="295"/>
+      <c r="X63" s="295"/>
+      <c r="Y63" s="295"/>
       <c r="Z63" s="306"/>
       <c r="AA63" s="306"/>
       <c r="AB63" s="306"/>
@@ -10056,28 +10056,28 @@
       <c r="C64" s="151"/>
       <c r="D64" s="151"/>
       <c r="E64" s="152"/>
-      <c r="F64" s="259" t="s">
+      <c r="F64" s="303" t="s">
         <v>245</v>
       </c>
-      <c r="G64" s="259"/>
-      <c r="H64" s="259"/>
-      <c r="I64" s="259"/>
-      <c r="J64" s="259"/>
-      <c r="K64" s="297"/>
-      <c r="L64" s="297"/>
-      <c r="M64" s="297"/>
-      <c r="N64" s="297"/>
-      <c r="O64" s="297"/>
-      <c r="P64" s="297"/>
-      <c r="Q64" s="297"/>
-      <c r="R64" s="297"/>
-      <c r="S64" s="297"/>
-      <c r="T64" s="297"/>
-      <c r="U64" s="297"/>
-      <c r="V64" s="297"/>
-      <c r="W64" s="297"/>
-      <c r="X64" s="297"/>
-      <c r="Y64" s="297"/>
+      <c r="G64" s="303"/>
+      <c r="H64" s="303"/>
+      <c r="I64" s="303"/>
+      <c r="J64" s="303"/>
+      <c r="K64" s="295"/>
+      <c r="L64" s="295"/>
+      <c r="M64" s="295"/>
+      <c r="N64" s="295"/>
+      <c r="O64" s="295"/>
+      <c r="P64" s="295"/>
+      <c r="Q64" s="295"/>
+      <c r="R64" s="295"/>
+      <c r="S64" s="295"/>
+      <c r="T64" s="295"/>
+      <c r="U64" s="295"/>
+      <c r="V64" s="295"/>
+      <c r="W64" s="295"/>
+      <c r="X64" s="295"/>
+      <c r="Y64" s="295"/>
       <c r="Z64" s="306"/>
       <c r="AA64" s="306"/>
       <c r="AB64" s="306"/>
@@ -10092,28 +10092,28 @@
       <c r="C65" s="151"/>
       <c r="D65" s="151"/>
       <c r="E65" s="152"/>
-      <c r="F65" s="259" t="s">
+      <c r="F65" s="303" t="s">
         <v>246</v>
       </c>
-      <c r="G65" s="259"/>
-      <c r="H65" s="259"/>
-      <c r="I65" s="259"/>
-      <c r="J65" s="259"/>
-      <c r="K65" s="308"/>
-      <c r="L65" s="308"/>
-      <c r="M65" s="308"/>
-      <c r="N65" s="308"/>
-      <c r="O65" s="308"/>
-      <c r="P65" s="308"/>
-      <c r="Q65" s="308"/>
-      <c r="R65" s="308"/>
-      <c r="S65" s="308"/>
-      <c r="T65" s="308"/>
-      <c r="U65" s="308"/>
-      <c r="V65" s="308"/>
-      <c r="W65" s="308"/>
-      <c r="X65" s="308"/>
-      <c r="Y65" s="308"/>
+      <c r="G65" s="303"/>
+      <c r="H65" s="303"/>
+      <c r="I65" s="303"/>
+      <c r="J65" s="303"/>
+      <c r="K65" s="304"/>
+      <c r="L65" s="304"/>
+      <c r="M65" s="304"/>
+      <c r="N65" s="304"/>
+      <c r="O65" s="304"/>
+      <c r="P65" s="304"/>
+      <c r="Q65" s="304"/>
+      <c r="R65" s="304"/>
+      <c r="S65" s="304"/>
+      <c r="T65" s="304"/>
+      <c r="U65" s="304"/>
+      <c r="V65" s="304"/>
+      <c r="W65" s="304"/>
+      <c r="X65" s="304"/>
+      <c r="Y65" s="304"/>
       <c r="Z65" s="306"/>
       <c r="AA65" s="306"/>
       <c r="AB65" s="306"/>
@@ -10128,28 +10128,28 @@
       <c r="C66" s="151"/>
       <c r="D66" s="151"/>
       <c r="E66" s="152"/>
-      <c r="F66" s="259" t="s">
+      <c r="F66" s="303" t="s">
         <v>247</v>
       </c>
-      <c r="G66" s="259"/>
-      <c r="H66" s="259"/>
-      <c r="I66" s="259"/>
-      <c r="J66" s="259"/>
-      <c r="K66" s="308"/>
-      <c r="L66" s="308"/>
-      <c r="M66" s="308"/>
-      <c r="N66" s="308"/>
-      <c r="O66" s="308"/>
-      <c r="P66" s="308"/>
-      <c r="Q66" s="308"/>
-      <c r="R66" s="308"/>
-      <c r="S66" s="308"/>
-      <c r="T66" s="308"/>
-      <c r="U66" s="308"/>
-      <c r="V66" s="308"/>
-      <c r="W66" s="308"/>
-      <c r="X66" s="308"/>
-      <c r="Y66" s="308"/>
+      <c r="G66" s="303"/>
+      <c r="H66" s="303"/>
+      <c r="I66" s="303"/>
+      <c r="J66" s="303"/>
+      <c r="K66" s="304"/>
+      <c r="L66" s="304"/>
+      <c r="M66" s="304"/>
+      <c r="N66" s="304"/>
+      <c r="O66" s="304"/>
+      <c r="P66" s="304"/>
+      <c r="Q66" s="304"/>
+      <c r="R66" s="304"/>
+      <c r="S66" s="304"/>
+      <c r="T66" s="304"/>
+      <c r="U66" s="304"/>
+      <c r="V66" s="304"/>
+      <c r="W66" s="304"/>
+      <c r="X66" s="304"/>
+      <c r="Y66" s="304"/>
       <c r="Z66" s="307"/>
       <c r="AA66" s="307"/>
       <c r="AB66" s="307"/>
@@ -10158,34 +10158,34 @@
     </row>
     <row r="67" spans="1:30" ht="17.25" customHeight="1">
       <c r="A67" s="69"/>
-      <c r="B67" s="293" t="s">
+      <c r="B67" s="319" t="s">
         <v>50</v>
       </c>
-      <c r="C67" s="294"/>
-      <c r="D67" s="294"/>
-      <c r="E67" s="295"/>
-      <c r="F67" s="259" t="s">
+      <c r="C67" s="320"/>
+      <c r="D67" s="320"/>
+      <c r="E67" s="321"/>
+      <c r="F67" s="303" t="s">
         <v>248</v>
       </c>
-      <c r="G67" s="259"/>
-      <c r="H67" s="259"/>
-      <c r="I67" s="259"/>
-      <c r="J67" s="259"/>
-      <c r="K67" s="308"/>
-      <c r="L67" s="308"/>
-      <c r="M67" s="308"/>
-      <c r="N67" s="308"/>
-      <c r="O67" s="308"/>
-      <c r="P67" s="308"/>
-      <c r="Q67" s="308"/>
-      <c r="R67" s="308"/>
-      <c r="S67" s="308"/>
-      <c r="T67" s="308"/>
-      <c r="U67" s="308"/>
-      <c r="V67" s="308"/>
-      <c r="W67" s="308"/>
-      <c r="X67" s="308"/>
-      <c r="Y67" s="308"/>
+      <c r="G67" s="303"/>
+      <c r="H67" s="303"/>
+      <c r="I67" s="303"/>
+      <c r="J67" s="303"/>
+      <c r="K67" s="304"/>
+      <c r="L67" s="304"/>
+      <c r="M67" s="304"/>
+      <c r="N67" s="304"/>
+      <c r="O67" s="304"/>
+      <c r="P67" s="304"/>
+      <c r="Q67" s="304"/>
+      <c r="R67" s="304"/>
+      <c r="S67" s="304"/>
+      <c r="T67" s="304"/>
+      <c r="U67" s="304"/>
+      <c r="V67" s="304"/>
+      <c r="W67" s="304"/>
+      <c r="X67" s="304"/>
+      <c r="Y67" s="304"/>
       <c r="Z67" s="307"/>
       <c r="AA67" s="307"/>
       <c r="AB67" s="307"/>
@@ -10200,28 +10200,28 @@
       <c r="C68" s="151"/>
       <c r="D68" s="151"/>
       <c r="E68" s="152"/>
-      <c r="F68" s="259" t="s">
+      <c r="F68" s="303" t="s">
         <v>249</v>
       </c>
-      <c r="G68" s="259"/>
-      <c r="H68" s="259"/>
-      <c r="I68" s="259"/>
-      <c r="J68" s="259"/>
-      <c r="K68" s="292"/>
-      <c r="L68" s="292"/>
-      <c r="M68" s="292"/>
-      <c r="N68" s="292"/>
-      <c r="O68" s="292"/>
-      <c r="P68" s="292"/>
-      <c r="Q68" s="292"/>
-      <c r="R68" s="292"/>
-      <c r="S68" s="292"/>
-      <c r="T68" s="292"/>
-      <c r="U68" s="292"/>
-      <c r="V68" s="292"/>
-      <c r="W68" s="292"/>
-      <c r="X68" s="292"/>
-      <c r="Y68" s="292"/>
+      <c r="G68" s="303"/>
+      <c r="H68" s="303"/>
+      <c r="I68" s="303"/>
+      <c r="J68" s="303"/>
+      <c r="K68" s="298"/>
+      <c r="L68" s="298"/>
+      <c r="M68" s="298"/>
+      <c r="N68" s="298"/>
+      <c r="O68" s="298"/>
+      <c r="P68" s="298"/>
+      <c r="Q68" s="298"/>
+      <c r="R68" s="298"/>
+      <c r="S68" s="298"/>
+      <c r="T68" s="298"/>
+      <c r="U68" s="298"/>
+      <c r="V68" s="298"/>
+      <c r="W68" s="298"/>
+      <c r="X68" s="298"/>
+      <c r="Y68" s="298"/>
       <c r="Z68" s="155"/>
       <c r="AA68" s="156"/>
       <c r="AB68" s="155"/>
@@ -10236,28 +10236,28 @@
       <c r="C69" s="151"/>
       <c r="D69" s="151"/>
       <c r="E69" s="152"/>
-      <c r="F69" s="259" t="s">
+      <c r="F69" s="303" t="s">
         <v>250</v>
       </c>
-      <c r="G69" s="259"/>
-      <c r="H69" s="259"/>
-      <c r="I69" s="259"/>
-      <c r="J69" s="259"/>
-      <c r="K69" s="309"/>
-      <c r="L69" s="309"/>
-      <c r="M69" s="309"/>
-      <c r="N69" s="309"/>
-      <c r="O69" s="309"/>
-      <c r="P69" s="309"/>
-      <c r="Q69" s="309"/>
-      <c r="R69" s="309"/>
-      <c r="S69" s="309"/>
-      <c r="T69" s="309"/>
-      <c r="U69" s="309"/>
-      <c r="V69" s="309"/>
-      <c r="W69" s="309"/>
-      <c r="X69" s="309"/>
-      <c r="Y69" s="309"/>
+      <c r="G69" s="303"/>
+      <c r="H69" s="303"/>
+      <c r="I69" s="303"/>
+      <c r="J69" s="303"/>
+      <c r="K69" s="305"/>
+      <c r="L69" s="305"/>
+      <c r="M69" s="305"/>
+      <c r="N69" s="305"/>
+      <c r="O69" s="305"/>
+      <c r="P69" s="305"/>
+      <c r="Q69" s="305"/>
+      <c r="R69" s="305"/>
+      <c r="S69" s="305"/>
+      <c r="T69" s="305"/>
+      <c r="U69" s="305"/>
+      <c r="V69" s="305"/>
+      <c r="W69" s="305"/>
+      <c r="X69" s="305"/>
+      <c r="Y69" s="305"/>
       <c r="Z69" s="306"/>
       <c r="AA69" s="306"/>
       <c r="AB69" s="306"/>
@@ -10272,27 +10272,27 @@
       <c r="C70" s="151"/>
       <c r="D70" s="151"/>
       <c r="E70" s="152"/>
-      <c r="F70" s="313" t="s">
+      <c r="F70" s="300" t="s">
         <v>251</v>
       </c>
-      <c r="G70" s="314"/>
-      <c r="H70" s="314"/>
-      <c r="I70" s="314"/>
-      <c r="J70" s="315"/>
+      <c r="G70" s="301"/>
+      <c r="H70" s="301"/>
+      <c r="I70" s="301"/>
+      <c r="J70" s="302"/>
       <c r="K70" s="114"/>
-      <c r="L70" s="297"/>
-      <c r="M70" s="297"/>
-      <c r="N70" s="297"/>
+      <c r="L70" s="295"/>
+      <c r="M70" s="295"/>
+      <c r="N70" s="295"/>
       <c r="O70" s="114"/>
       <c r="P70" s="114"/>
-      <c r="Q70" s="297"/>
-      <c r="R70" s="297"/>
-      <c r="S70" s="297"/>
+      <c r="Q70" s="295"/>
+      <c r="R70" s="295"/>
+      <c r="S70" s="295"/>
       <c r="T70" s="114"/>
       <c r="U70" s="114"/>
-      <c r="V70" s="297"/>
-      <c r="W70" s="297"/>
-      <c r="X70" s="297"/>
+      <c r="V70" s="295"/>
+      <c r="W70" s="295"/>
+      <c r="X70" s="295"/>
       <c r="Y70" s="114"/>
       <c r="Z70" s="56"/>
       <c r="AA70" s="56"/>
@@ -10338,10 +10338,10 @@
       <c r="N72" s="160"/>
     </row>
     <row r="73" spans="1:30" ht="17.25" customHeight="1">
-      <c r="J73" s="311"/>
-      <c r="K73" s="312"/>
-      <c r="L73" s="312"/>
-      <c r="M73" s="312"/>
+      <c r="J73" s="296"/>
+      <c r="K73" s="297"/>
+      <c r="L73" s="297"/>
+      <c r="M73" s="297"/>
       <c r="W73" s="161"/>
     </row>
     <row r="75" spans="1:30" ht="17.25" customHeight="1">
@@ -10352,6 +10352,203 @@
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
   <mergeCells count="221">
+    <mergeCell ref="I52:L52"/>
+    <mergeCell ref="O42:P42"/>
+    <mergeCell ref="L45:N45"/>
+    <mergeCell ref="O45:P45"/>
+    <mergeCell ref="M43:N43"/>
+    <mergeCell ref="H43:I43"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="I46:J46"/>
+    <mergeCell ref="P62:T62"/>
+    <mergeCell ref="M46:N46"/>
+    <mergeCell ref="J45:K45"/>
+    <mergeCell ref="K46:L46"/>
+    <mergeCell ref="F62:J62"/>
+    <mergeCell ref="D5:H5"/>
+    <mergeCell ref="I53:L53"/>
+    <mergeCell ref="M48:T48"/>
+    <mergeCell ref="M49:T59"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="L24:N24"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="L27:N27"/>
+    <mergeCell ref="O34:P34"/>
+    <mergeCell ref="B54:H54"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="T26:V26"/>
+    <mergeCell ref="F64:J64"/>
+    <mergeCell ref="F63:J63"/>
+    <mergeCell ref="F65:J65"/>
+    <mergeCell ref="I48:L48"/>
+    <mergeCell ref="P68:T68"/>
+    <mergeCell ref="C46:F46"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="B67:E67"/>
+    <mergeCell ref="F67:J67"/>
+    <mergeCell ref="I54:L59"/>
+    <mergeCell ref="O36:P36"/>
+    <mergeCell ref="I49:L49"/>
+    <mergeCell ref="I50:L50"/>
+    <mergeCell ref="M41:N41"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="D40:F40"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="K64:O64"/>
+    <mergeCell ref="D63:E63"/>
+    <mergeCell ref="K63:O63"/>
+    <mergeCell ref="M44:N44"/>
+    <mergeCell ref="I51:L51"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="Q24:Q25"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="G42:I42"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="L36:N36"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="J42:K42"/>
+    <mergeCell ref="M38:N38"/>
+    <mergeCell ref="L42:N42"/>
+    <mergeCell ref="G39:I39"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="C39:F39"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="M40:N40"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="M33:N33"/>
+    <mergeCell ref="Z64:AD64"/>
+    <mergeCell ref="U64:Y64"/>
+    <mergeCell ref="P64:T64"/>
+    <mergeCell ref="Z69:AD69"/>
+    <mergeCell ref="Z67:AD67"/>
+    <mergeCell ref="P63:T63"/>
+    <mergeCell ref="U65:Y65"/>
+    <mergeCell ref="U66:Y66"/>
+    <mergeCell ref="Z65:AD65"/>
+    <mergeCell ref="Z66:AD66"/>
+    <mergeCell ref="Z63:AD63"/>
+    <mergeCell ref="U69:Y69"/>
+    <mergeCell ref="U67:Y67"/>
+    <mergeCell ref="P67:T67"/>
+    <mergeCell ref="V70:X70"/>
+    <mergeCell ref="T43:V43"/>
+    <mergeCell ref="T44:V44"/>
+    <mergeCell ref="J73:M73"/>
+    <mergeCell ref="U68:Y68"/>
+    <mergeCell ref="U62:Y62"/>
+    <mergeCell ref="U63:Y63"/>
+    <mergeCell ref="F70:J70"/>
+    <mergeCell ref="F66:J66"/>
+    <mergeCell ref="F69:J69"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="K67:O67"/>
+    <mergeCell ref="L70:N70"/>
+    <mergeCell ref="K69:O69"/>
+    <mergeCell ref="K65:O65"/>
+    <mergeCell ref="K66:O66"/>
+    <mergeCell ref="P69:T69"/>
+    <mergeCell ref="P65:T65"/>
+    <mergeCell ref="P66:T66"/>
+    <mergeCell ref="Q70:S70"/>
+    <mergeCell ref="K62:O62"/>
+    <mergeCell ref="F68:J68"/>
+    <mergeCell ref="K68:O68"/>
+    <mergeCell ref="G45:I45"/>
+    <mergeCell ref="AR44:AS44"/>
+    <mergeCell ref="AJ43:AK43"/>
+    <mergeCell ref="AO43:AP43"/>
+    <mergeCell ref="AR41:AS41"/>
+    <mergeCell ref="AJ44:AL44"/>
+    <mergeCell ref="AM44:AN44"/>
+    <mergeCell ref="AO44:AQ44"/>
+    <mergeCell ref="AO41:AQ41"/>
+    <mergeCell ref="AJ41:AL41"/>
+    <mergeCell ref="AM41:AN41"/>
+    <mergeCell ref="AR38:AS38"/>
+    <mergeCell ref="AJ37:AK37"/>
+    <mergeCell ref="AJ32:AK32"/>
+    <mergeCell ref="Y32:Z32"/>
+    <mergeCell ref="AR33:AS33"/>
+    <mergeCell ref="AJ34:AK34"/>
+    <mergeCell ref="AO34:AP34"/>
+    <mergeCell ref="AJ35:AL35"/>
+    <mergeCell ref="AM35:AN35"/>
+    <mergeCell ref="AO35:AQ35"/>
+    <mergeCell ref="AR35:AS35"/>
+    <mergeCell ref="AP37:AQ37"/>
+    <mergeCell ref="AJ38:AL38"/>
+    <mergeCell ref="AM38:AN38"/>
+    <mergeCell ref="AO38:AQ38"/>
+    <mergeCell ref="AO32:AP32"/>
+    <mergeCell ref="AF20:AF21"/>
+    <mergeCell ref="AJ33:AL33"/>
+    <mergeCell ref="AM33:AN33"/>
+    <mergeCell ref="AO33:AQ33"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="M35:N35"/>
+    <mergeCell ref="T27:V27"/>
+    <mergeCell ref="T28:V28"/>
+    <mergeCell ref="T42:V42"/>
+    <mergeCell ref="T40:W40"/>
+    <mergeCell ref="O27:P27"/>
+    <mergeCell ref="T31:W31"/>
+    <mergeCell ref="J39:K39"/>
+    <mergeCell ref="L39:N39"/>
+    <mergeCell ref="T32:W32"/>
+    <mergeCell ref="G34:I34"/>
+    <mergeCell ref="Q36:Q37"/>
+    <mergeCell ref="Q42:Q43"/>
+    <mergeCell ref="AF38:AF39"/>
+    <mergeCell ref="AJ40:AK40"/>
+    <mergeCell ref="AO40:AP40"/>
+    <mergeCell ref="T24:W24"/>
+    <mergeCell ref="O24:P24"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="V5:Z5"/>
+    <mergeCell ref="V6:Z6"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="L18:N18"/>
+    <mergeCell ref="T18:W18"/>
+    <mergeCell ref="O21:P21"/>
+    <mergeCell ref="T19:W19"/>
+    <mergeCell ref="T20:W20"/>
+    <mergeCell ref="V7:Z7"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="T15:W15"/>
+    <mergeCell ref="P12:Z12"/>
+    <mergeCell ref="Y10:Z10"/>
+    <mergeCell ref="W11:Z11"/>
+    <mergeCell ref="T16:W16"/>
+    <mergeCell ref="Q18:Q19"/>
+    <mergeCell ref="Y16:Z16"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E18:F18"/>
     <mergeCell ref="L3:O3"/>
     <mergeCell ref="B20:B21"/>
     <mergeCell ref="B38:B39"/>
@@ -10376,203 +10573,6 @@
     <mergeCell ref="C27:D27"/>
     <mergeCell ref="E27:F27"/>
     <mergeCell ref="C24:D24"/>
-    <mergeCell ref="V5:Z5"/>
-    <mergeCell ref="V6:Z6"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="L18:N18"/>
-    <mergeCell ref="T18:W18"/>
-    <mergeCell ref="O21:P21"/>
-    <mergeCell ref="T19:W19"/>
-    <mergeCell ref="T20:W20"/>
-    <mergeCell ref="V7:Z7"/>
-    <mergeCell ref="M19:N19"/>
-    <mergeCell ref="T15:W15"/>
-    <mergeCell ref="P12:Z12"/>
-    <mergeCell ref="Y10:Z10"/>
-    <mergeCell ref="W11:Z11"/>
-    <mergeCell ref="T16:W16"/>
-    <mergeCell ref="Q18:Q19"/>
-    <mergeCell ref="Y16:Z16"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="AF20:AF21"/>
-    <mergeCell ref="AJ33:AL33"/>
-    <mergeCell ref="AM33:AN33"/>
-    <mergeCell ref="AO33:AQ33"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="M35:N35"/>
-    <mergeCell ref="T27:V27"/>
-    <mergeCell ref="T28:V28"/>
-    <mergeCell ref="T42:V42"/>
-    <mergeCell ref="T40:W40"/>
-    <mergeCell ref="O27:P27"/>
-    <mergeCell ref="T31:W31"/>
-    <mergeCell ref="J39:K39"/>
-    <mergeCell ref="L39:N39"/>
-    <mergeCell ref="T32:W32"/>
-    <mergeCell ref="G34:I34"/>
-    <mergeCell ref="Q36:Q37"/>
-    <mergeCell ref="Q42:Q43"/>
-    <mergeCell ref="AF38:AF39"/>
-    <mergeCell ref="AJ40:AK40"/>
-    <mergeCell ref="AO40:AP40"/>
-    <mergeCell ref="T24:W24"/>
-    <mergeCell ref="O24:P24"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="AR38:AS38"/>
-    <mergeCell ref="AJ37:AK37"/>
-    <mergeCell ref="AJ32:AK32"/>
-    <mergeCell ref="Y32:Z32"/>
-    <mergeCell ref="AR33:AS33"/>
-    <mergeCell ref="AJ34:AK34"/>
-    <mergeCell ref="AO34:AP34"/>
-    <mergeCell ref="AJ35:AL35"/>
-    <mergeCell ref="AM35:AN35"/>
-    <mergeCell ref="AO35:AQ35"/>
-    <mergeCell ref="AR35:AS35"/>
-    <mergeCell ref="AP37:AQ37"/>
-    <mergeCell ref="AJ38:AL38"/>
-    <mergeCell ref="AM38:AN38"/>
-    <mergeCell ref="AO38:AQ38"/>
-    <mergeCell ref="AO32:AP32"/>
-    <mergeCell ref="AR44:AS44"/>
-    <mergeCell ref="AJ43:AK43"/>
-    <mergeCell ref="AO43:AP43"/>
-    <mergeCell ref="AR41:AS41"/>
-    <mergeCell ref="AJ44:AL44"/>
-    <mergeCell ref="AM44:AN44"/>
-    <mergeCell ref="AO44:AQ44"/>
-    <mergeCell ref="AO41:AQ41"/>
-    <mergeCell ref="AJ41:AL41"/>
-    <mergeCell ref="AM41:AN41"/>
-    <mergeCell ref="V70:X70"/>
-    <mergeCell ref="T43:V43"/>
-    <mergeCell ref="T44:V44"/>
-    <mergeCell ref="J73:M73"/>
-    <mergeCell ref="U68:Y68"/>
-    <mergeCell ref="U62:Y62"/>
-    <mergeCell ref="U63:Y63"/>
-    <mergeCell ref="F70:J70"/>
-    <mergeCell ref="F66:J66"/>
-    <mergeCell ref="F69:J69"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="K67:O67"/>
-    <mergeCell ref="L70:N70"/>
-    <mergeCell ref="K69:O69"/>
-    <mergeCell ref="K65:O65"/>
-    <mergeCell ref="K66:O66"/>
-    <mergeCell ref="P69:T69"/>
-    <mergeCell ref="P65:T65"/>
-    <mergeCell ref="P66:T66"/>
-    <mergeCell ref="Q70:S70"/>
-    <mergeCell ref="K62:O62"/>
-    <mergeCell ref="F68:J68"/>
-    <mergeCell ref="K68:O68"/>
-    <mergeCell ref="G45:I45"/>
-    <mergeCell ref="Z64:AD64"/>
-    <mergeCell ref="U64:Y64"/>
-    <mergeCell ref="P64:T64"/>
-    <mergeCell ref="Z69:AD69"/>
-    <mergeCell ref="Z67:AD67"/>
-    <mergeCell ref="P63:T63"/>
-    <mergeCell ref="U65:Y65"/>
-    <mergeCell ref="U66:Y66"/>
-    <mergeCell ref="Z65:AD65"/>
-    <mergeCell ref="Z66:AD66"/>
-    <mergeCell ref="Z63:AD63"/>
-    <mergeCell ref="U69:Y69"/>
-    <mergeCell ref="U67:Y67"/>
-    <mergeCell ref="P67:T67"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="M22:N22"/>
-    <mergeCell ref="Q24:Q25"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="G42:I42"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="L36:N36"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="J42:K42"/>
-    <mergeCell ref="M38:N38"/>
-    <mergeCell ref="L42:N42"/>
-    <mergeCell ref="G39:I39"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="J36:K36"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="C39:F39"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="M40:N40"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="M33:N33"/>
-    <mergeCell ref="F64:J64"/>
-    <mergeCell ref="F63:J63"/>
-    <mergeCell ref="F65:J65"/>
-    <mergeCell ref="I48:L48"/>
-    <mergeCell ref="P68:T68"/>
-    <mergeCell ref="C46:F46"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="G46:H46"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="B67:E67"/>
-    <mergeCell ref="F67:J67"/>
-    <mergeCell ref="I54:L59"/>
-    <mergeCell ref="O36:P36"/>
-    <mergeCell ref="I49:L49"/>
-    <mergeCell ref="I50:L50"/>
-    <mergeCell ref="M41:N41"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="D40:F40"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="K64:O64"/>
-    <mergeCell ref="D63:E63"/>
-    <mergeCell ref="K63:O63"/>
-    <mergeCell ref="M44:N44"/>
-    <mergeCell ref="I51:L51"/>
-    <mergeCell ref="D5:H5"/>
-    <mergeCell ref="I53:L53"/>
-    <mergeCell ref="M48:T48"/>
-    <mergeCell ref="M49:T59"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="L24:N24"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="L27:N27"/>
-    <mergeCell ref="O34:P34"/>
-    <mergeCell ref="B54:H54"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="T26:V26"/>
-    <mergeCell ref="I52:L52"/>
-    <mergeCell ref="O42:P42"/>
-    <mergeCell ref="L45:N45"/>
-    <mergeCell ref="O45:P45"/>
-    <mergeCell ref="M43:N43"/>
-    <mergeCell ref="H43:I43"/>
-    <mergeCell ref="H44:I44"/>
-    <mergeCell ref="I46:J46"/>
-    <mergeCell ref="P62:T62"/>
-    <mergeCell ref="M46:N46"/>
-    <mergeCell ref="J45:K45"/>
-    <mergeCell ref="K46:L46"/>
-    <mergeCell ref="F62:J62"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <dataValidations disablePrompts="1" count="1">
@@ -10598,7 +10598,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB45"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="V14" sqref="V14:W14"/>
     </sheetView>
   </sheetViews>
@@ -10682,72 +10682,72 @@
       <c r="T7" s="8"/>
     </row>
     <row r="8" spans="1:28">
-      <c r="B8" s="368" t="s">
+      <c r="B8" s="346" t="s">
         <v>479</v>
       </c>
-      <c r="C8" s="368"/>
-      <c r="D8" s="368"/>
-      <c r="E8" s="368"/>
-      <c r="F8" s="361" t="s">
+      <c r="C8" s="346"/>
+      <c r="D8" s="346"/>
+      <c r="E8" s="346"/>
+      <c r="F8" s="344" t="s">
         <v>580</v>
       </c>
-      <c r="G8" s="362"/>
-      <c r="J8" s="368" t="s">
+      <c r="G8" s="345"/>
+      <c r="J8" s="346" t="s">
         <v>480</v>
       </c>
-      <c r="K8" s="368"/>
-      <c r="L8" s="368"/>
-      <c r="M8" s="369"/>
-      <c r="N8" s="361" t="s">
+      <c r="K8" s="346"/>
+      <c r="L8" s="346"/>
+      <c r="M8" s="347"/>
+      <c r="N8" s="344" t="s">
         <v>496</v>
       </c>
-      <c r="O8" s="362"/>
+      <c r="O8" s="345"/>
       <c r="R8" s="8"/>
     </row>
     <row r="9" spans="1:28">
-      <c r="B9" s="368" t="s">
+      <c r="B9" s="346" t="s">
         <v>497</v>
       </c>
-      <c r="C9" s="368"/>
-      <c r="D9" s="368"/>
-      <c r="E9" s="368"/>
-      <c r="F9" s="361" t="s">
+      <c r="C9" s="346"/>
+      <c r="D9" s="346"/>
+      <c r="E9" s="346"/>
+      <c r="F9" s="344" t="s">
         <v>503</v>
       </c>
-      <c r="G9" s="362"/>
-      <c r="J9" s="368" t="s">
+      <c r="G9" s="345"/>
+      <c r="J9" s="346" t="s">
         <v>498</v>
       </c>
-      <c r="K9" s="368"/>
-      <c r="L9" s="368"/>
-      <c r="M9" s="369"/>
-      <c r="N9" s="361" t="s">
+      <c r="K9" s="346"/>
+      <c r="L9" s="346"/>
+      <c r="M9" s="347"/>
+      <c r="N9" s="344" t="s">
         <v>500</v>
       </c>
-      <c r="O9" s="362"/>
+      <c r="O9" s="345"/>
       <c r="R9" s="8"/>
     </row>
     <row r="10" spans="1:28">
-      <c r="B10" s="368" t="s">
+      <c r="B10" s="346" t="s">
         <v>499</v>
       </c>
-      <c r="C10" s="368"/>
-      <c r="D10" s="368"/>
-      <c r="E10" s="368"/>
-      <c r="F10" s="361" t="s">
+      <c r="C10" s="346"/>
+      <c r="D10" s="346"/>
+      <c r="E10" s="346"/>
+      <c r="F10" s="344" t="s">
         <v>502</v>
       </c>
-      <c r="G10" s="362"/>
-      <c r="J10" s="368" t="s">
+      <c r="G10" s="345"/>
+      <c r="J10" s="346" t="s">
         <v>481</v>
       </c>
-      <c r="K10" s="368"/>
-      <c r="L10" s="368"/>
-      <c r="M10" s="369"/>
-      <c r="N10" s="361" t="s">
+      <c r="K10" s="346"/>
+      <c r="L10" s="346"/>
+      <c r="M10" s="347"/>
+      <c r="N10" s="344" t="s">
         <v>501</v>
       </c>
-      <c r="O10" s="362"/>
+      <c r="O10" s="345"/>
       <c r="R10" s="8"/>
     </row>
     <row r="11" spans="1:28">
@@ -10779,108 +10779,108 @@
       <c r="R12" s="8"/>
     </row>
     <row r="13" spans="1:28">
-      <c r="B13" s="363" t="s">
+      <c r="B13" s="358" t="s">
         <v>452</v>
       </c>
-      <c r="C13" s="363"/>
-      <c r="D13" s="363"/>
-      <c r="E13" s="361" t="s">
+      <c r="C13" s="358"/>
+      <c r="D13" s="358"/>
+      <c r="E13" s="344" t="s">
         <v>504</v>
       </c>
-      <c r="F13" s="362"/>
+      <c r="F13" s="345"/>
       <c r="H13" s="12" t="s">
         <v>453</v>
       </c>
       <c r="I13" s="12"/>
       <c r="J13" s="12"/>
-      <c r="K13" s="364" t="s">
+      <c r="K13" s="353" t="s">
         <v>505</v>
       </c>
-      <c r="L13" s="364" t="s">
+      <c r="L13" s="353" t="s">
         <v>451</v>
       </c>
       <c r="M13" s="11"/>
-      <c r="N13" s="363" t="s">
+      <c r="N13" s="358" t="s">
         <v>454</v>
       </c>
-      <c r="O13" s="363"/>
-      <c r="P13" s="363"/>
-      <c r="Q13" s="361" t="s">
+      <c r="O13" s="358"/>
+      <c r="P13" s="358"/>
+      <c r="Q13" s="344" t="s">
         <v>574</v>
       </c>
-      <c r="R13" s="362"/>
+      <c r="R13" s="345"/>
       <c r="S13" s="13"/>
       <c r="T13" s="13"/>
     </row>
     <row r="14" spans="1:28">
-      <c r="B14" s="363" t="s">
+      <c r="B14" s="358" t="s">
         <v>455</v>
       </c>
-      <c r="C14" s="363"/>
-      <c r="D14" s="363"/>
-      <c r="E14" s="361" t="s">
+      <c r="C14" s="358"/>
+      <c r="D14" s="358"/>
+      <c r="E14" s="344" t="s">
         <v>506</v>
       </c>
-      <c r="F14" s="362"/>
+      <c r="F14" s="345"/>
       <c r="H14" s="12" t="s">
         <v>456</v>
       </c>
       <c r="I14" s="12"/>
       <c r="J14" s="12"/>
-      <c r="K14" s="364" t="s">
+      <c r="K14" s="353" t="s">
         <v>507</v>
       </c>
-      <c r="L14" s="364"/>
+      <c r="L14" s="353"/>
       <c r="M14" s="11"/>
-      <c r="N14" s="363" t="s">
+      <c r="N14" s="358" t="s">
         <v>457</v>
       </c>
-      <c r="O14" s="363"/>
-      <c r="P14" s="363"/>
-      <c r="Q14" s="361" t="s">
+      <c r="O14" s="358"/>
+      <c r="P14" s="358"/>
+      <c r="Q14" s="344" t="s">
         <v>508</v>
       </c>
-      <c r="R14" s="362"/>
-      <c r="T14" s="363" t="s">
+      <c r="R14" s="345"/>
+      <c r="T14" s="358" t="s">
         <v>458</v>
       </c>
-      <c r="U14" s="363"/>
-      <c r="V14" s="361" t="s">
+      <c r="U14" s="358"/>
+      <c r="V14" s="344" t="s">
         <v>581</v>
       </c>
-      <c r="W14" s="362"/>
+      <c r="W14" s="345"/>
     </row>
     <row r="15" spans="1:28">
-      <c r="B15" s="363" t="s">
+      <c r="B15" s="358" t="s">
         <v>459</v>
       </c>
-      <c r="C15" s="363"/>
-      <c r="D15" s="363"/>
-      <c r="E15" s="361" t="s">
+      <c r="C15" s="358"/>
+      <c r="D15" s="358"/>
+      <c r="E15" s="344" t="s">
         <v>509</v>
       </c>
-      <c r="F15" s="362"/>
+      <c r="F15" s="345"/>
       <c r="H15" s="12" t="s">
         <v>461</v>
       </c>
       <c r="I15" s="12"/>
       <c r="J15" s="12"/>
-      <c r="K15" s="364" t="s">
+      <c r="K15" s="353" t="s">
         <v>510</v>
       </c>
-      <c r="L15" s="364" t="s">
+      <c r="L15" s="353" t="s">
         <v>460</v>
       </c>
       <c r="M15" s="11"/>
-      <c r="N15" s="363" t="s">
+      <c r="N15" s="358" t="s">
         <v>462</v>
       </c>
-      <c r="O15" s="363"/>
-      <c r="P15" s="363"/>
-      <c r="Q15" s="361" t="s">
+      <c r="O15" s="358"/>
+      <c r="P15" s="358"/>
+      <c r="Q15" s="344" t="s">
         <v>511</v>
       </c>
-      <c r="R15" s="362"/>
+      <c r="R15" s="345"/>
       <c r="S15" s="13"/>
       <c r="T15" s="13"/>
       <c r="V15" s="3"/>
@@ -10914,23 +10914,23 @@
       <c r="C18" s="20"/>
       <c r="D18" s="5"/>
       <c r="E18" s="16"/>
-      <c r="F18" s="370" t="s">
+      <c r="F18" s="351" t="s">
         <v>465</v>
       </c>
-      <c r="G18" s="371"/>
-      <c r="H18" s="361" t="s">
+      <c r="G18" s="352"/>
+      <c r="H18" s="344" t="s">
         <v>512</v>
       </c>
-      <c r="I18" s="362"/>
+      <c r="I18" s="345"/>
       <c r="J18" s="16"/>
-      <c r="K18" s="370" t="s">
+      <c r="K18" s="351" t="s">
         <v>466</v>
       </c>
-      <c r="L18" s="371"/>
-      <c r="M18" s="361" t="s">
+      <c r="L18" s="352"/>
+      <c r="M18" s="344" t="s">
         <v>513</v>
       </c>
-      <c r="N18" s="362"/>
+      <c r="N18" s="345"/>
       <c r="O18" s="19"/>
     </row>
     <row r="19" spans="2:22" ht="15" customHeight="1">
@@ -10940,23 +10940,23 @@
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
       <c r="E19" s="16"/>
-      <c r="F19" s="370" t="s">
+      <c r="F19" s="351" t="s">
         <v>465</v>
       </c>
-      <c r="G19" s="371"/>
-      <c r="H19" s="361" t="s">
+      <c r="G19" s="352"/>
+      <c r="H19" s="344" t="s">
         <v>514</v>
       </c>
-      <c r="I19" s="362"/>
+      <c r="I19" s="345"/>
       <c r="J19" s="16"/>
-      <c r="K19" s="370" t="s">
+      <c r="K19" s="351" t="s">
         <v>466</v>
       </c>
-      <c r="L19" s="371"/>
-      <c r="M19" s="361" t="s">
+      <c r="L19" s="352"/>
+      <c r="M19" s="344" t="s">
         <v>515</v>
       </c>
-      <c r="N19" s="362"/>
+      <c r="N19" s="345"/>
       <c r="O19" s="19"/>
     </row>
     <row r="20" spans="2:22">
@@ -11011,20 +11011,20 @@
       <c r="E23" s="16"/>
       <c r="F23" s="16"/>
       <c r="G23" s="4"/>
-      <c r="H23" s="364" t="s">
+      <c r="H23" s="353" t="s">
         <v>575</v>
       </c>
-      <c r="I23" s="364" t="s">
+      <c r="I23" s="353" t="s">
         <v>451</v>
       </c>
       <c r="J23" s="16"/>
       <c r="K23" s="16"/>
-      <c r="L23" s="376" t="s">
+      <c r="L23" s="354" t="s">
         <v>469</v>
       </c>
-      <c r="M23" s="377"/>
-      <c r="N23" s="365"/>
-      <c r="O23" s="367"/>
+      <c r="M23" s="355"/>
+      <c r="N23" s="356"/>
+      <c r="O23" s="357"/>
       <c r="P23" s="17"/>
       <c r="Q23" s="18"/>
       <c r="R23" s="19"/>
@@ -11034,22 +11034,22 @@
       <c r="V23" s="19"/>
     </row>
     <row r="24" spans="2:22">
-      <c r="B24" s="372" t="s">
+      <c r="B24" s="360" t="s">
         <v>470</v>
       </c>
-      <c r="C24" s="372"/>
-      <c r="D24" s="372"/>
-      <c r="E24" s="372"/>
-      <c r="F24" s="372"/>
-      <c r="G24" s="372"/>
-      <c r="H24" s="365"/>
-      <c r="I24" s="366"/>
-      <c r="J24" s="366"/>
-      <c r="K24" s="366"/>
-      <c r="L24" s="366"/>
-      <c r="M24" s="366"/>
-      <c r="N24" s="366"/>
-      <c r="O24" s="367"/>
+      <c r="C24" s="360"/>
+      <c r="D24" s="360"/>
+      <c r="E24" s="360"/>
+      <c r="F24" s="360"/>
+      <c r="G24" s="360"/>
+      <c r="H24" s="356"/>
+      <c r="I24" s="359"/>
+      <c r="J24" s="359"/>
+      <c r="K24" s="359"/>
+      <c r="L24" s="359"/>
+      <c r="M24" s="359"/>
+      <c r="N24" s="359"/>
+      <c r="O24" s="357"/>
       <c r="P24" s="21"/>
       <c r="Q24" s="5"/>
       <c r="R24" s="5"/>
@@ -11084,25 +11084,25 @@
       <c r="V25" s="5"/>
     </row>
     <row r="26" spans="2:22">
-      <c r="B26" s="373"/>
-      <c r="C26" s="374"/>
-      <c r="D26" s="374"/>
-      <c r="E26" s="374"/>
-      <c r="F26" s="374"/>
-      <c r="G26" s="374"/>
-      <c r="H26" s="374"/>
-      <c r="I26" s="374"/>
-      <c r="J26" s="374"/>
-      <c r="K26" s="374"/>
-      <c r="L26" s="374"/>
-      <c r="M26" s="374"/>
-      <c r="N26" s="374"/>
-      <c r="O26" s="374"/>
-      <c r="P26" s="374"/>
-      <c r="Q26" s="374"/>
-      <c r="R26" s="374"/>
-      <c r="S26" s="374"/>
-      <c r="T26" s="375"/>
+      <c r="B26" s="348"/>
+      <c r="C26" s="349"/>
+      <c r="D26" s="349"/>
+      <c r="E26" s="349"/>
+      <c r="F26" s="349"/>
+      <c r="G26" s="349"/>
+      <c r="H26" s="349"/>
+      <c r="I26" s="349"/>
+      <c r="J26" s="349"/>
+      <c r="K26" s="349"/>
+      <c r="L26" s="349"/>
+      <c r="M26" s="349"/>
+      <c r="N26" s="349"/>
+      <c r="O26" s="349"/>
+      <c r="P26" s="349"/>
+      <c r="Q26" s="349"/>
+      <c r="R26" s="349"/>
+      <c r="S26" s="349"/>
+      <c r="T26" s="350"/>
       <c r="U26" s="5"/>
       <c r="V26" s="5"/>
     </row>
@@ -11130,17 +11130,17 @@
       <c r="B29" s="4" t="s">
         <v>473</v>
       </c>
-      <c r="C29" s="365" t="s">
+      <c r="C29" s="356" t="s">
         <v>563</v>
       </c>
-      <c r="D29" s="366"/>
-      <c r="E29" s="366"/>
-      <c r="F29" s="367"/>
-      <c r="H29" s="353" t="s">
+      <c r="D29" s="359"/>
+      <c r="E29" s="359"/>
+      <c r="F29" s="357"/>
+      <c r="H29" s="366" t="s">
         <v>474</v>
       </c>
-      <c r="I29" s="353"/>
-      <c r="J29" s="353"/>
+      <c r="I29" s="366"/>
+      <c r="J29" s="366"/>
       <c r="K29" s="27" t="s">
         <v>475</v>
       </c>
@@ -11257,39 +11257,39 @@
     </row>
     <row r="35" spans="1:25">
       <c r="A35" s="41"/>
-      <c r="B35" s="340" t="s">
+      <c r="B35" s="374" t="s">
         <v>517</v>
       </c>
-      <c r="C35" s="341"/>
-      <c r="D35" s="341"/>
-      <c r="E35" s="341"/>
-      <c r="F35" s="342"/>
-      <c r="G35" s="351" t="s">
+      <c r="C35" s="375"/>
+      <c r="D35" s="375"/>
+      <c r="E35" s="375"/>
+      <c r="F35" s="376"/>
+      <c r="G35" s="364" t="s">
         <v>576</v>
       </c>
-      <c r="H35" s="351"/>
-      <c r="I35" s="351"/>
-      <c r="J35" s="351"/>
-      <c r="K35" s="351"/>
+      <c r="H35" s="364"/>
+      <c r="I35" s="364"/>
+      <c r="J35" s="364"/>
+      <c r="K35" s="364"/>
       <c r="L35" s="42" t="s">
         <v>518</v>
       </c>
-      <c r="M35" s="358"/>
-      <c r="N35" s="359"/>
-      <c r="O35" s="360"/>
-      <c r="P35" s="344" t="s">
+      <c r="M35" s="371"/>
+      <c r="N35" s="372"/>
+      <c r="O35" s="373"/>
+      <c r="P35" s="378" t="s">
         <v>519</v>
       </c>
-      <c r="Q35" s="345"/>
-      <c r="R35" s="345"/>
-      <c r="S35" s="346"/>
-      <c r="T35" s="348" t="s">
+      <c r="Q35" s="379"/>
+      <c r="R35" s="379"/>
+      <c r="S35" s="380"/>
+      <c r="T35" s="361" t="s">
         <v>577</v>
       </c>
-      <c r="U35" s="349"/>
-      <c r="V35" s="349"/>
-      <c r="W35" s="349"/>
-      <c r="X35" s="350"/>
+      <c r="U35" s="362"/>
+      <c r="V35" s="362"/>
+      <c r="W35" s="362"/>
+      <c r="X35" s="363"/>
       <c r="Y35" s="40"/>
     </row>
     <row r="36" spans="1:25">
@@ -11301,78 +11301,78 @@
       <c r="D36" s="42"/>
       <c r="E36" s="42"/>
       <c r="F36" s="44"/>
-      <c r="G36" s="354"/>
-      <c r="H36" s="355"/>
-      <c r="I36" s="355"/>
-      <c r="J36" s="355"/>
-      <c r="K36" s="355"/>
-      <c r="L36" s="355"/>
-      <c r="M36" s="355"/>
-      <c r="N36" s="355"/>
-      <c r="O36" s="356"/>
-      <c r="P36" s="344" t="s">
+      <c r="G36" s="367"/>
+      <c r="H36" s="368"/>
+      <c r="I36" s="368"/>
+      <c r="J36" s="368"/>
+      <c r="K36" s="368"/>
+      <c r="L36" s="368"/>
+      <c r="M36" s="368"/>
+      <c r="N36" s="368"/>
+      <c r="O36" s="369"/>
+      <c r="P36" s="378" t="s">
         <v>520</v>
       </c>
-      <c r="Q36" s="345"/>
-      <c r="R36" s="345"/>
-      <c r="S36" s="346"/>
-      <c r="T36" s="351" t="s">
+      <c r="Q36" s="379"/>
+      <c r="R36" s="379"/>
+      <c r="S36" s="380"/>
+      <c r="T36" s="364" t="s">
         <v>578</v>
       </c>
-      <c r="U36" s="351"/>
-      <c r="V36" s="351"/>
-      <c r="W36" s="351"/>
-      <c r="X36" s="351"/>
+      <c r="U36" s="364"/>
+      <c r="V36" s="364"/>
+      <c r="W36" s="364"/>
+      <c r="X36" s="364"/>
       <c r="Y36" s="40"/>
     </row>
     <row r="37" spans="1:25" ht="14.4" customHeight="1">
       <c r="A37" s="41"/>
-      <c r="B37" s="343" t="s">
+      <c r="B37" s="377" t="s">
         <v>523</v>
       </c>
-      <c r="C37" s="343"/>
-      <c r="D37" s="343"/>
-      <c r="E37" s="343"/>
-      <c r="F37" s="343"/>
-      <c r="G37" s="352" t="s">
+      <c r="C37" s="377"/>
+      <c r="D37" s="377"/>
+      <c r="E37" s="377"/>
+      <c r="F37" s="377"/>
+      <c r="G37" s="365" t="s">
         <v>579</v>
       </c>
-      <c r="H37" s="352"/>
-      <c r="I37" s="352"/>
-      <c r="J37" s="352"/>
-      <c r="K37" s="352"/>
-      <c r="L37" s="352"/>
-      <c r="M37" s="352"/>
-      <c r="N37" s="352"/>
-      <c r="O37" s="352"/>
-      <c r="P37" s="347" t="s">
+      <c r="H37" s="365"/>
+      <c r="I37" s="365"/>
+      <c r="J37" s="365"/>
+      <c r="K37" s="365"/>
+      <c r="L37" s="365"/>
+      <c r="M37" s="365"/>
+      <c r="N37" s="365"/>
+      <c r="O37" s="365"/>
+      <c r="P37" s="381" t="s">
         <v>521</v>
       </c>
-      <c r="Q37" s="347"/>
-      <c r="R37" s="347"/>
-      <c r="S37" s="347"/>
-      <c r="T37" s="357" t="s">
+      <c r="Q37" s="381"/>
+      <c r="R37" s="381"/>
+      <c r="S37" s="381"/>
+      <c r="T37" s="370" t="s">
         <v>522</v>
       </c>
-      <c r="U37" s="357"/>
-      <c r="V37" s="357"/>
-      <c r="W37" s="357"/>
-      <c r="X37" s="357"/>
+      <c r="U37" s="370"/>
+      <c r="V37" s="370"/>
+      <c r="W37" s="370"/>
+      <c r="X37" s="370"/>
       <c r="Y37" s="40"/>
     </row>
     <row r="38" spans="1:25" customFormat="1" ht="14.4" customHeight="1"/>
     <row r="39" spans="1:25">
-      <c r="B39" s="380" t="s">
+      <c r="B39" s="342" t="s">
         <v>485</v>
       </c>
-      <c r="C39" s="380"/>
-      <c r="D39" s="381" t="s">
+      <c r="C39" s="342"/>
+      <c r="D39" s="343" t="s">
         <v>65</v>
       </c>
-      <c r="E39" s="381"/>
-      <c r="F39" s="381"/>
-      <c r="G39" s="381"/>
-      <c r="H39" s="381"/>
+      <c r="E39" s="343"/>
+      <c r="F39" s="343"/>
+      <c r="G39" s="343"/>
+      <c r="H39" s="343"/>
       <c r="I39" s="5"/>
       <c r="J39" s="5"/>
       <c r="K39" s="5"/>
@@ -11384,13 +11384,13 @@
       <c r="Q39" s="35" t="s">
         <v>486</v>
       </c>
-      <c r="R39" s="381" t="s">
+      <c r="R39" s="343" t="s">
         <v>64</v>
       </c>
-      <c r="S39" s="381"/>
-      <c r="T39" s="381"/>
-      <c r="U39" s="381"/>
-      <c r="V39" s="381"/>
+      <c r="S39" s="343"/>
+      <c r="T39" s="343"/>
+      <c r="U39" s="343"/>
+      <c r="V39" s="343"/>
       <c r="W39" s="216"/>
       <c r="X39" s="19"/>
     </row>
@@ -11423,93 +11423,93 @@
       <c r="B41" s="37" t="s">
         <v>487</v>
       </c>
-      <c r="C41" s="378"/>
-      <c r="D41" s="378"/>
-      <c r="E41" s="378"/>
-      <c r="F41" s="378"/>
-      <c r="G41" s="378"/>
+      <c r="C41" s="340"/>
+      <c r="D41" s="340"/>
+      <c r="E41" s="340"/>
+      <c r="F41" s="340"/>
+      <c r="G41" s="340"/>
       <c r="H41" s="5"/>
       <c r="I41" s="4" t="s">
         <v>488</v>
       </c>
-      <c r="J41" s="378"/>
-      <c r="K41" s="378"/>
-      <c r="L41" s="378"/>
-      <c r="M41" s="378"/>
-      <c r="N41" s="378"/>
-      <c r="O41" s="378"/>
+      <c r="J41" s="340"/>
+      <c r="K41" s="340"/>
+      <c r="L41" s="340"/>
+      <c r="M41" s="340"/>
+      <c r="N41" s="340"/>
+      <c r="O41" s="340"/>
       <c r="P41" s="5"/>
       <c r="Q41" s="4" t="s">
         <v>489</v>
       </c>
-      <c r="R41" s="379"/>
-      <c r="S41" s="379"/>
-      <c r="T41" s="379"/>
-      <c r="U41" s="379"/>
-      <c r="V41" s="379"/>
-      <c r="W41" s="379"/>
+      <c r="R41" s="341"/>
+      <c r="S41" s="341"/>
+      <c r="T41" s="341"/>
+      <c r="U41" s="341"/>
+      <c r="V41" s="341"/>
+      <c r="W41" s="341"/>
       <c r="X41" s="19"/>
     </row>
     <row r="42" spans="1:25">
       <c r="B42" s="37" t="s">
         <v>490</v>
       </c>
-      <c r="C42" s="378"/>
-      <c r="D42" s="378"/>
-      <c r="E42" s="378"/>
-      <c r="F42" s="378"/>
-      <c r="G42" s="378"/>
+      <c r="C42" s="340"/>
+      <c r="D42" s="340"/>
+      <c r="E42" s="340"/>
+      <c r="F42" s="340"/>
+      <c r="G42" s="340"/>
       <c r="H42" s="5"/>
       <c r="I42" s="4" t="s">
         <v>491</v>
       </c>
-      <c r="J42" s="378"/>
-      <c r="K42" s="378"/>
-      <c r="L42" s="378"/>
-      <c r="M42" s="378"/>
-      <c r="N42" s="378"/>
-      <c r="O42" s="378"/>
+      <c r="J42" s="340"/>
+      <c r="K42" s="340"/>
+      <c r="L42" s="340"/>
+      <c r="M42" s="340"/>
+      <c r="N42" s="340"/>
+      <c r="O42" s="340"/>
       <c r="P42" s="5"/>
       <c r="Q42" s="4" t="s">
         <v>492</v>
       </c>
-      <c r="R42" s="379"/>
-      <c r="S42" s="379"/>
-      <c r="T42" s="379"/>
-      <c r="U42" s="379"/>
-      <c r="V42" s="379"/>
-      <c r="W42" s="379"/>
+      <c r="R42" s="341"/>
+      <c r="S42" s="341"/>
+      <c r="T42" s="341"/>
+      <c r="U42" s="341"/>
+      <c r="V42" s="341"/>
+      <c r="W42" s="341"/>
       <c r="X42" s="19"/>
     </row>
     <row r="43" spans="1:25">
       <c r="B43" s="37" t="s">
         <v>493</v>
       </c>
-      <c r="C43" s="378"/>
-      <c r="D43" s="378"/>
-      <c r="E43" s="378"/>
-      <c r="F43" s="378"/>
-      <c r="G43" s="378"/>
+      <c r="C43" s="340"/>
+      <c r="D43" s="340"/>
+      <c r="E43" s="340"/>
+      <c r="F43" s="340"/>
+      <c r="G43" s="340"/>
       <c r="H43" s="5"/>
       <c r="I43" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="J43" s="378"/>
-      <c r="K43" s="378"/>
-      <c r="L43" s="378"/>
-      <c r="M43" s="378"/>
-      <c r="N43" s="378"/>
-      <c r="O43" s="378"/>
+      <c r="J43" s="340"/>
+      <c r="K43" s="340"/>
+      <c r="L43" s="340"/>
+      <c r="M43" s="340"/>
+      <c r="N43" s="340"/>
+      <c r="O43" s="340"/>
       <c r="P43" s="5"/>
       <c r="Q43" s="4" t="s">
         <v>495</v>
       </c>
-      <c r="R43" s="379"/>
-      <c r="S43" s="379"/>
-      <c r="T43" s="379"/>
-      <c r="U43" s="379"/>
-      <c r="V43" s="379"/>
-      <c r="W43" s="379"/>
+      <c r="R43" s="341"/>
+      <c r="S43" s="341"/>
+      <c r="T43" s="341"/>
+      <c r="U43" s="341"/>
+      <c r="V43" s="341"/>
+      <c r="W43" s="341"/>
       <c r="X43" s="19"/>
     </row>
     <row r="44" spans="1:25">
@@ -11564,18 +11564,47 @@
     </row>
   </sheetData>
   <mergeCells count="69">
-    <mergeCell ref="C43:G43"/>
-    <mergeCell ref="J43:O43"/>
-    <mergeCell ref="R43:W43"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="C41:G41"/>
-    <mergeCell ref="J41:O41"/>
-    <mergeCell ref="R41:W41"/>
-    <mergeCell ref="C42:G42"/>
-    <mergeCell ref="J42:O42"/>
-    <mergeCell ref="R42:W42"/>
-    <mergeCell ref="D39:H39"/>
-    <mergeCell ref="R39:V39"/>
+    <mergeCell ref="B35:F35"/>
+    <mergeCell ref="B37:F37"/>
+    <mergeCell ref="P35:S35"/>
+    <mergeCell ref="P36:S36"/>
+    <mergeCell ref="P37:S37"/>
+    <mergeCell ref="T35:X35"/>
+    <mergeCell ref="T36:X36"/>
+    <mergeCell ref="G37:O37"/>
+    <mergeCell ref="G35:K35"/>
+    <mergeCell ref="H29:J29"/>
+    <mergeCell ref="G36:O36"/>
+    <mergeCell ref="T37:X37"/>
+    <mergeCell ref="M35:O35"/>
+    <mergeCell ref="V14:W14"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="N13:P13"/>
+    <mergeCell ref="N14:P14"/>
+    <mergeCell ref="N15:P15"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="C29:F29"/>
+    <mergeCell ref="J10:M10"/>
+    <mergeCell ref="J8:M8"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="B24:G24"/>
+    <mergeCell ref="H24:O24"/>
     <mergeCell ref="N8:O8"/>
     <mergeCell ref="N9:O9"/>
     <mergeCell ref="N10:O10"/>
@@ -11592,47 +11621,18 @@
     <mergeCell ref="Q14:R14"/>
     <mergeCell ref="Q15:R15"/>
     <mergeCell ref="T14:U14"/>
-    <mergeCell ref="C29:F29"/>
-    <mergeCell ref="J10:M10"/>
-    <mergeCell ref="J8:M8"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="B24:G24"/>
-    <mergeCell ref="H24:O24"/>
-    <mergeCell ref="V14:W14"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="N13:P13"/>
-    <mergeCell ref="N14:P14"/>
-    <mergeCell ref="N15:P15"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="T35:X35"/>
-    <mergeCell ref="T36:X36"/>
-    <mergeCell ref="G37:O37"/>
-    <mergeCell ref="G35:K35"/>
-    <mergeCell ref="H29:J29"/>
-    <mergeCell ref="G36:O36"/>
-    <mergeCell ref="T37:X37"/>
-    <mergeCell ref="M35:O35"/>
-    <mergeCell ref="B35:F35"/>
-    <mergeCell ref="B37:F37"/>
-    <mergeCell ref="P35:S35"/>
-    <mergeCell ref="P36:S36"/>
-    <mergeCell ref="P37:S37"/>
+    <mergeCell ref="C43:G43"/>
+    <mergeCell ref="J43:O43"/>
+    <mergeCell ref="R43:W43"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="J41:O41"/>
+    <mergeCell ref="R41:W41"/>
+    <mergeCell ref="C42:G42"/>
+    <mergeCell ref="J42:O42"/>
+    <mergeCell ref="R42:W42"/>
+    <mergeCell ref="D39:H39"/>
+    <mergeCell ref="R39:V39"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Enter a valid Numeric Value" prompt="Numeric Value" sqref="H25:I25">
@@ -11650,7 +11650,7 @@
   <dimension ref="A1:BW1041"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:AB3"/>
+      <selection activeCell="E34" sqref="E34:F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.33203125" defaultRowHeight="15.6"/>
@@ -11686,37 +11686,37 @@
       <c r="A2" s="165" t="s">
         <v>45</v>
       </c>
-      <c r="B2" s="425" t="s">
+      <c r="B2" s="410" t="s">
         <v>62</v>
       </c>
-      <c r="C2" s="425"/>
-      <c r="D2" s="425"/>
-      <c r="E2" s="441" t="s">
+      <c r="C2" s="410"/>
+      <c r="D2" s="410"/>
+      <c r="E2" s="387" t="s">
         <v>53</v>
       </c>
-      <c r="F2" s="442"/>
-      <c r="G2" s="442"/>
-      <c r="H2" s="442"/>
-      <c r="I2" s="442"/>
-      <c r="J2" s="442"/>
-      <c r="K2" s="442"/>
-      <c r="L2" s="442"/>
-      <c r="M2" s="442"/>
-      <c r="N2" s="442"/>
-      <c r="O2" s="442"/>
-      <c r="P2" s="442"/>
-      <c r="Q2" s="442"/>
-      <c r="R2" s="442"/>
-      <c r="S2" s="442"/>
-      <c r="T2" s="442"/>
-      <c r="U2" s="442"/>
-      <c r="V2" s="442"/>
-      <c r="W2" s="442"/>
-      <c r="X2" s="442"/>
-      <c r="Y2" s="442"/>
-      <c r="Z2" s="442"/>
-      <c r="AA2" s="442"/>
-      <c r="AB2" s="443"/>
+      <c r="F2" s="388"/>
+      <c r="G2" s="388"/>
+      <c r="H2" s="388"/>
+      <c r="I2" s="388"/>
+      <c r="J2" s="388"/>
+      <c r="K2" s="388"/>
+      <c r="L2" s="388"/>
+      <c r="M2" s="388"/>
+      <c r="N2" s="388"/>
+      <c r="O2" s="388"/>
+      <c r="P2" s="388"/>
+      <c r="Q2" s="388"/>
+      <c r="R2" s="388"/>
+      <c r="S2" s="388"/>
+      <c r="T2" s="388"/>
+      <c r="U2" s="388"/>
+      <c r="V2" s="388"/>
+      <c r="W2" s="388"/>
+      <c r="X2" s="388"/>
+      <c r="Y2" s="388"/>
+      <c r="Z2" s="388"/>
+      <c r="AA2" s="388"/>
+      <c r="AB2" s="389"/>
       <c r="AC2" s="166"/>
       <c r="AD2" s="166"/>
       <c r="AE2" s="166"/>
@@ -11726,54 +11726,54 @@
       <c r="AI2" s="167"/>
       <c r="AJ2" s="167"/>
       <c r="AP2" s="164"/>
-      <c r="BF2" s="426"/>
-      <c r="BG2" s="426"/>
-      <c r="BH2" s="426"/>
-      <c r="BI2" s="426"/>
-      <c r="BJ2" s="426"/>
-      <c r="BK2" s="426"/>
-      <c r="BL2" s="426"/>
-      <c r="BM2" s="426"/>
-      <c r="BN2" s="426"/>
-      <c r="BO2" s="426"/>
-      <c r="BP2" s="426"/>
-      <c r="BQ2" s="426"/>
-      <c r="BR2" s="426"/>
-      <c r="BS2" s="426"/>
+      <c r="BF2" s="411"/>
+      <c r="BG2" s="411"/>
+      <c r="BH2" s="411"/>
+      <c r="BI2" s="411"/>
+      <c r="BJ2" s="411"/>
+      <c r="BK2" s="411"/>
+      <c r="BL2" s="411"/>
+      <c r="BM2" s="411"/>
+      <c r="BN2" s="411"/>
+      <c r="BO2" s="411"/>
+      <c r="BP2" s="411"/>
+      <c r="BQ2" s="411"/>
+      <c r="BR2" s="411"/>
+      <c r="BS2" s="411"/>
     </row>
     <row r="3" spans="1:75" ht="46.8" customHeight="1" thickBot="1">
       <c r="A3" s="165" t="s">
         <v>46</v>
       </c>
-      <c r="B3" s="425" t="s">
+      <c r="B3" s="410" t="s">
         <v>63</v>
       </c>
-      <c r="C3" s="425"/>
-      <c r="D3" s="425"/>
-      <c r="E3" s="444"/>
-      <c r="F3" s="445"/>
-      <c r="G3" s="445"/>
-      <c r="H3" s="445"/>
-      <c r="I3" s="445"/>
-      <c r="J3" s="445"/>
-      <c r="K3" s="445"/>
-      <c r="L3" s="445"/>
-      <c r="M3" s="445"/>
-      <c r="N3" s="445"/>
-      <c r="O3" s="445"/>
-      <c r="P3" s="445"/>
-      <c r="Q3" s="445"/>
-      <c r="R3" s="445"/>
-      <c r="S3" s="445"/>
-      <c r="T3" s="445"/>
-      <c r="U3" s="445"/>
-      <c r="V3" s="445"/>
-      <c r="W3" s="445"/>
-      <c r="X3" s="445"/>
-      <c r="Y3" s="445"/>
-      <c r="Z3" s="445"/>
-      <c r="AA3" s="445"/>
-      <c r="AB3" s="446"/>
+      <c r="C3" s="410"/>
+      <c r="D3" s="410"/>
+      <c r="E3" s="390"/>
+      <c r="F3" s="391"/>
+      <c r="G3" s="391"/>
+      <c r="H3" s="391"/>
+      <c r="I3" s="391"/>
+      <c r="J3" s="391"/>
+      <c r="K3" s="391"/>
+      <c r="L3" s="391"/>
+      <c r="M3" s="391"/>
+      <c r="N3" s="391"/>
+      <c r="O3" s="391"/>
+      <c r="P3" s="391"/>
+      <c r="Q3" s="391"/>
+      <c r="R3" s="391"/>
+      <c r="S3" s="391"/>
+      <c r="T3" s="391"/>
+      <c r="U3" s="391"/>
+      <c r="V3" s="391"/>
+      <c r="W3" s="391"/>
+      <c r="X3" s="391"/>
+      <c r="Y3" s="391"/>
+      <c r="Z3" s="391"/>
+      <c r="AA3" s="391"/>
+      <c r="AB3" s="392"/>
       <c r="AC3" s="166"/>
       <c r="AD3" s="166"/>
       <c r="AE3" s="166"/>
@@ -11882,22 +11882,22 @@
       <c r="BO4" s="162"/>
     </row>
     <row r="5" spans="1:75" ht="18" customHeight="1">
-      <c r="A5" s="422" t="s">
+      <c r="A5" s="420" t="s">
         <v>321</v>
       </c>
-      <c r="B5" s="447" t="s">
+      <c r="B5" s="393" t="s">
         <v>415</v>
       </c>
-      <c r="C5" s="428" t="s">
+      <c r="C5" s="415" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="449" t="s">
+      <c r="D5" s="395" t="s">
         <v>416</v>
       </c>
-      <c r="E5" s="451" t="s">
+      <c r="E5" s="400" t="s">
         <v>411</v>
       </c>
-      <c r="F5" s="452"/>
+      <c r="F5" s="401"/>
       <c r="G5" s="172"/>
       <c r="H5" s="172"/>
       <c r="I5" s="172"/>
@@ -11924,10 +11924,10 @@
       <c r="AD5" s="176"/>
       <c r="AE5" s="177"/>
       <c r="AF5" s="177"/>
-      <c r="AG5" s="427"/>
-      <c r="AH5" s="427"/>
-      <c r="AI5" s="427"/>
-      <c r="AJ5" s="427"/>
+      <c r="AG5" s="412"/>
+      <c r="AH5" s="412"/>
+      <c r="AI5" s="412"/>
+      <c r="AJ5" s="412"/>
       <c r="AK5" s="178"/>
       <c r="AL5" s="179"/>
       <c r="AM5" s="180"/>
@@ -11969,12 +11969,12 @@
       <c r="BW5" s="180"/>
     </row>
     <row r="6" spans="1:75" ht="18" customHeight="1">
-      <c r="A6" s="423"/>
-      <c r="B6" s="448"/>
-      <c r="C6" s="429"/>
-      <c r="D6" s="450"/>
-      <c r="E6" s="453"/>
-      <c r="F6" s="454"/>
+      <c r="A6" s="421"/>
+      <c r="B6" s="394"/>
+      <c r="C6" s="416"/>
+      <c r="D6" s="396"/>
+      <c r="E6" s="402"/>
+      <c r="F6" s="403"/>
       <c r="G6" s="117"/>
       <c r="H6" s="117"/>
       <c r="I6" s="117"/>
@@ -12046,22 +12046,22 @@
       <c r="BW6" s="184"/>
     </row>
     <row r="7" spans="1:75">
-      <c r="A7" s="418" t="s">
+      <c r="A7" s="397" t="s">
         <v>329</v>
       </c>
-      <c r="B7" s="419" t="s">
+      <c r="B7" s="418" t="s">
         <v>330</v>
       </c>
-      <c r="C7" s="418" t="s">
+      <c r="C7" s="397" t="s">
         <v>331</v>
       </c>
-      <c r="D7" s="421" t="s">
+      <c r="D7" s="399" t="s">
         <v>332</v>
       </c>
-      <c r="E7" s="394" t="s">
+      <c r="E7" s="413" t="s">
         <v>527</v>
       </c>
-      <c r="F7" s="395"/>
+      <c r="F7" s="414"/>
       <c r="G7" s="117"/>
       <c r="H7" s="117"/>
       <c r="I7" s="117"/>
@@ -12111,14 +12111,14 @@
       <c r="BW7" s="191"/>
     </row>
     <row r="8" spans="1:75">
-      <c r="A8" s="418"/>
-      <c r="B8" s="420"/>
-      <c r="C8" s="418"/>
-      <c r="D8" s="421"/>
-      <c r="E8" s="394" t="s">
+      <c r="A8" s="397"/>
+      <c r="B8" s="419"/>
+      <c r="C8" s="397"/>
+      <c r="D8" s="399"/>
+      <c r="E8" s="413" t="s">
         <v>417</v>
       </c>
-      <c r="F8" s="395"/>
+      <c r="F8" s="414"/>
       <c r="G8" s="117"/>
       <c r="H8" s="117"/>
       <c r="I8" s="117"/>
@@ -12165,22 +12165,22 @@
       <c r="BW8" s="191"/>
     </row>
     <row r="9" spans="1:75">
-      <c r="A9" s="418" t="s">
+      <c r="A9" s="397" t="s">
         <v>333</v>
       </c>
-      <c r="B9" s="424" t="s">
+      <c r="B9" s="398" t="s">
         <v>334</v>
       </c>
-      <c r="C9" s="418" t="s">
+      <c r="C9" s="397" t="s">
         <v>335</v>
       </c>
-      <c r="D9" s="421" t="s">
+      <c r="D9" s="399" t="s">
         <v>336</v>
       </c>
-      <c r="E9" s="394" t="s">
+      <c r="E9" s="413" t="s">
         <v>528</v>
       </c>
-      <c r="F9" s="395"/>
+      <c r="F9" s="414"/>
       <c r="G9" s="117"/>
       <c r="H9" s="117"/>
       <c r="I9" s="117"/>
@@ -12227,14 +12227,14 @@
       <c r="BW9" s="191"/>
     </row>
     <row r="10" spans="1:75">
-      <c r="A10" s="418"/>
-      <c r="B10" s="424"/>
-      <c r="C10" s="418"/>
-      <c r="D10" s="421"/>
-      <c r="E10" s="394" t="s">
+      <c r="A10" s="397"/>
+      <c r="B10" s="398"/>
+      <c r="C10" s="397"/>
+      <c r="D10" s="399"/>
+      <c r="E10" s="413" t="s">
         <v>418</v>
       </c>
-      <c r="F10" s="395"/>
+      <c r="F10" s="414"/>
       <c r="G10" s="117"/>
       <c r="H10" s="117"/>
       <c r="I10" s="117"/>
@@ -12285,22 +12285,22 @@
       <c r="BW10" s="191"/>
     </row>
     <row r="11" spans="1:75">
-      <c r="A11" s="418" t="s">
+      <c r="A11" s="397" t="s">
         <v>337</v>
       </c>
-      <c r="B11" s="424" t="s">
+      <c r="B11" s="398" t="s">
         <v>338</v>
       </c>
-      <c r="C11" s="418" t="s">
+      <c r="C11" s="397" t="s">
         <v>339</v>
       </c>
-      <c r="D11" s="421" t="s">
+      <c r="D11" s="399" t="s">
         <v>340</v>
       </c>
-      <c r="E11" s="394" t="s">
+      <c r="E11" s="413" t="s">
         <v>529</v>
       </c>
-      <c r="F11" s="395"/>
+      <c r="F11" s="414"/>
       <c r="G11" s="117"/>
       <c r="H11" s="117"/>
       <c r="I11" s="117"/>
@@ -12352,14 +12352,14 @@
       <c r="BW11" s="191"/>
     </row>
     <row r="12" spans="1:75">
-      <c r="A12" s="418"/>
-      <c r="B12" s="424"/>
-      <c r="C12" s="418"/>
-      <c r="D12" s="421"/>
-      <c r="E12" s="394" t="s">
+      <c r="A12" s="397"/>
+      <c r="B12" s="398"/>
+      <c r="C12" s="397"/>
+      <c r="D12" s="399"/>
+      <c r="E12" s="413" t="s">
         <v>419</v>
       </c>
-      <c r="F12" s="395"/>
+      <c r="F12" s="414"/>
       <c r="G12" s="117"/>
       <c r="H12" s="117"/>
       <c r="I12" s="117"/>
@@ -12411,22 +12411,22 @@
       <c r="BW12" s="191"/>
     </row>
     <row r="13" spans="1:75">
-      <c r="A13" s="418" t="s">
+      <c r="A13" s="397" t="s">
         <v>341</v>
       </c>
-      <c r="B13" s="424" t="s">
+      <c r="B13" s="398" t="s">
         <v>342</v>
       </c>
-      <c r="C13" s="418" t="s">
+      <c r="C13" s="397" t="s">
         <v>343</v>
       </c>
-      <c r="D13" s="421" t="s">
+      <c r="D13" s="399" t="s">
         <v>344</v>
       </c>
-      <c r="E13" s="394" t="s">
+      <c r="E13" s="413" t="s">
         <v>530</v>
       </c>
-      <c r="F13" s="395"/>
+      <c r="F13" s="414"/>
       <c r="G13" s="117"/>
       <c r="H13" s="117"/>
       <c r="I13" s="117"/>
@@ -12478,14 +12478,14 @@
       <c r="BW13" s="191"/>
     </row>
     <row r="14" spans="1:75">
-      <c r="A14" s="418"/>
-      <c r="B14" s="424"/>
-      <c r="C14" s="418"/>
-      <c r="D14" s="421"/>
-      <c r="E14" s="394" t="s">
+      <c r="A14" s="397"/>
+      <c r="B14" s="398"/>
+      <c r="C14" s="397"/>
+      <c r="D14" s="399"/>
+      <c r="E14" s="413" t="s">
         <v>420</v>
       </c>
-      <c r="F14" s="395"/>
+      <c r="F14" s="414"/>
       <c r="G14" s="117"/>
       <c r="H14" s="117"/>
       <c r="I14" s="117"/>
@@ -12537,22 +12537,22 @@
       <c r="BW14" s="191"/>
     </row>
     <row r="15" spans="1:75">
-      <c r="A15" s="418" t="s">
+      <c r="A15" s="397" t="s">
         <v>345</v>
       </c>
-      <c r="B15" s="424" t="s">
+      <c r="B15" s="398" t="s">
         <v>346</v>
       </c>
-      <c r="C15" s="418" t="s">
+      <c r="C15" s="397" t="s">
         <v>347</v>
       </c>
-      <c r="D15" s="421" t="s">
+      <c r="D15" s="399" t="s">
         <v>348</v>
       </c>
-      <c r="E15" s="394" t="s">
+      <c r="E15" s="413" t="s">
         <v>531</v>
       </c>
-      <c r="F15" s="395"/>
+      <c r="F15" s="414"/>
       <c r="G15" s="117"/>
       <c r="H15" s="117"/>
       <c r="I15" s="117"/>
@@ -12604,14 +12604,14 @@
       <c r="BW15" s="191"/>
     </row>
     <row r="16" spans="1:75">
-      <c r="A16" s="418"/>
-      <c r="B16" s="424"/>
-      <c r="C16" s="418"/>
-      <c r="D16" s="421"/>
-      <c r="E16" s="394" t="s">
+      <c r="A16" s="397"/>
+      <c r="B16" s="398"/>
+      <c r="C16" s="397"/>
+      <c r="D16" s="399"/>
+      <c r="E16" s="413" t="s">
         <v>421</v>
       </c>
-      <c r="F16" s="395"/>
+      <c r="F16" s="414"/>
       <c r="G16" s="117"/>
       <c r="H16" s="117"/>
       <c r="I16" s="117"/>
@@ -12658,22 +12658,22 @@
       <c r="BW16" s="191"/>
     </row>
     <row r="17" spans="1:75">
-      <c r="A17" s="418" t="s">
+      <c r="A17" s="397" t="s">
         <v>349</v>
       </c>
-      <c r="B17" s="424" t="s">
+      <c r="B17" s="398" t="s">
         <v>350</v>
       </c>
-      <c r="C17" s="418" t="s">
+      <c r="C17" s="397" t="s">
         <v>351</v>
       </c>
-      <c r="D17" s="421" t="s">
+      <c r="D17" s="399" t="s">
         <v>352</v>
       </c>
-      <c r="E17" s="394" t="s">
+      <c r="E17" s="413" t="s">
         <v>532</v>
       </c>
-      <c r="F17" s="395"/>
+      <c r="F17" s="414"/>
       <c r="G17" s="117"/>
       <c r="H17" s="117"/>
       <c r="I17" s="117"/>
@@ -12720,14 +12720,14 @@
       <c r="BW17" s="191"/>
     </row>
     <row r="18" spans="1:75">
-      <c r="A18" s="418"/>
-      <c r="B18" s="424"/>
-      <c r="C18" s="418"/>
-      <c r="D18" s="421"/>
-      <c r="E18" s="394" t="s">
+      <c r="A18" s="397"/>
+      <c r="B18" s="398"/>
+      <c r="C18" s="397"/>
+      <c r="D18" s="399"/>
+      <c r="E18" s="413" t="s">
         <v>422</v>
       </c>
-      <c r="F18" s="395"/>
+      <c r="F18" s="414"/>
       <c r="G18" s="117"/>
       <c r="H18" s="117"/>
       <c r="I18" s="117"/>
@@ -12782,22 +12782,22 @@
       <c r="BW18" s="191"/>
     </row>
     <row r="19" spans="1:75">
-      <c r="A19" s="418" t="s">
+      <c r="A19" s="397" t="s">
         <v>353</v>
       </c>
-      <c r="B19" s="424" t="s">
+      <c r="B19" s="398" t="s">
         <v>354</v>
       </c>
-      <c r="C19" s="418" t="s">
+      <c r="C19" s="397" t="s">
         <v>355</v>
       </c>
-      <c r="D19" s="421" t="s">
+      <c r="D19" s="399" t="s">
         <v>356</v>
       </c>
-      <c r="E19" s="394" t="s">
+      <c r="E19" s="413" t="s">
         <v>533</v>
       </c>
-      <c r="F19" s="395"/>
+      <c r="F19" s="414"/>
       <c r="G19" s="117"/>
       <c r="H19" s="117"/>
       <c r="I19" s="117"/>
@@ -12844,14 +12844,14 @@
       <c r="BW19" s="191"/>
     </row>
     <row r="20" spans="1:75">
-      <c r="A20" s="418"/>
-      <c r="B20" s="424"/>
-      <c r="C20" s="418"/>
-      <c r="D20" s="421"/>
-      <c r="E20" s="394" t="s">
+      <c r="A20" s="397"/>
+      <c r="B20" s="398"/>
+      <c r="C20" s="397"/>
+      <c r="D20" s="399"/>
+      <c r="E20" s="413" t="s">
         <v>423</v>
       </c>
-      <c r="F20" s="395"/>
+      <c r="F20" s="414"/>
       <c r="G20" s="117"/>
       <c r="H20" s="117"/>
       <c r="I20" s="117"/>
@@ -12898,22 +12898,22 @@
       <c r="BW20" s="191"/>
     </row>
     <row r="21" spans="1:75">
-      <c r="A21" s="418" t="s">
+      <c r="A21" s="397" t="s">
         <v>357</v>
       </c>
-      <c r="B21" s="424" t="s">
+      <c r="B21" s="398" t="s">
         <v>358</v>
       </c>
-      <c r="C21" s="418" t="s">
+      <c r="C21" s="397" t="s">
         <v>359</v>
       </c>
-      <c r="D21" s="421" t="s">
+      <c r="D21" s="399" t="s">
         <v>360</v>
       </c>
-      <c r="E21" s="394" t="s">
+      <c r="E21" s="413" t="s">
         <v>534</v>
       </c>
-      <c r="F21" s="395"/>
+      <c r="F21" s="414"/>
       <c r="G21" s="117"/>
       <c r="H21" s="117"/>
       <c r="I21" s="117"/>
@@ -12960,14 +12960,14 @@
       <c r="BW21" s="191"/>
     </row>
     <row r="22" spans="1:75">
-      <c r="A22" s="418"/>
-      <c r="B22" s="424"/>
-      <c r="C22" s="418"/>
-      <c r="D22" s="421"/>
-      <c r="E22" s="394" t="s">
+      <c r="A22" s="397"/>
+      <c r="B22" s="398"/>
+      <c r="C22" s="397"/>
+      <c r="D22" s="399"/>
+      <c r="E22" s="413" t="s">
         <v>424</v>
       </c>
-      <c r="F22" s="395"/>
+      <c r="F22" s="414"/>
       <c r="G22" s="117"/>
       <c r="H22" s="117"/>
       <c r="I22" s="117"/>
@@ -13014,22 +13014,22 @@
       <c r="BW22" s="191"/>
     </row>
     <row r="23" spans="1:75">
-      <c r="A23" s="418" t="s">
+      <c r="A23" s="397" t="s">
         <v>361</v>
       </c>
-      <c r="B23" s="424" t="s">
+      <c r="B23" s="398" t="s">
         <v>362</v>
       </c>
-      <c r="C23" s="418" t="s">
+      <c r="C23" s="397" t="s">
         <v>363</v>
       </c>
-      <c r="D23" s="421" t="s">
+      <c r="D23" s="399" t="s">
         <v>364</v>
       </c>
-      <c r="E23" s="394" t="s">
+      <c r="E23" s="413" t="s">
         <v>535</v>
       </c>
-      <c r="F23" s="395"/>
+      <c r="F23" s="414"/>
       <c r="G23" s="117"/>
       <c r="H23" s="117"/>
       <c r="I23" s="117"/>
@@ -13076,14 +13076,14 @@
       <c r="BW23" s="191"/>
     </row>
     <row r="24" spans="1:75">
-      <c r="A24" s="418"/>
-      <c r="B24" s="424"/>
-      <c r="C24" s="418"/>
-      <c r="D24" s="421"/>
-      <c r="E24" s="394" t="s">
+      <c r="A24" s="397"/>
+      <c r="B24" s="398"/>
+      <c r="C24" s="397"/>
+      <c r="D24" s="399"/>
+      <c r="E24" s="413" t="s">
         <v>425</v>
       </c>
-      <c r="F24" s="395"/>
+      <c r="F24" s="414"/>
       <c r="G24" s="117"/>
       <c r="H24" s="117"/>
       <c r="I24" s="117"/>
@@ -13130,22 +13130,22 @@
       <c r="BW24" s="191"/>
     </row>
     <row r="25" spans="1:75">
-      <c r="A25" s="418" t="s">
+      <c r="A25" s="397" t="s">
         <v>365</v>
       </c>
-      <c r="B25" s="424" t="s">
+      <c r="B25" s="398" t="s">
         <v>366</v>
       </c>
-      <c r="C25" s="418" t="s">
+      <c r="C25" s="397" t="s">
         <v>367</v>
       </c>
-      <c r="D25" s="421" t="s">
+      <c r="D25" s="399" t="s">
         <v>368</v>
       </c>
-      <c r="E25" s="394" t="s">
+      <c r="E25" s="413" t="s">
         <v>536</v>
       </c>
-      <c r="F25" s="395"/>
+      <c r="F25" s="414"/>
       <c r="G25" s="117"/>
       <c r="H25" s="117"/>
       <c r="I25" s="117"/>
@@ -13192,14 +13192,14 @@
       <c r="BW25" s="191"/>
     </row>
     <row r="26" spans="1:75">
-      <c r="A26" s="418"/>
-      <c r="B26" s="424"/>
-      <c r="C26" s="418"/>
-      <c r="D26" s="421"/>
-      <c r="E26" s="394" t="s">
+      <c r="A26" s="397"/>
+      <c r="B26" s="398"/>
+      <c r="C26" s="397"/>
+      <c r="D26" s="399"/>
+      <c r="E26" s="413" t="s">
         <v>426</v>
       </c>
-      <c r="F26" s="395"/>
+      <c r="F26" s="414"/>
       <c r="G26" s="117"/>
       <c r="H26" s="117"/>
       <c r="I26" s="117"/>
@@ -13246,22 +13246,22 @@
       <c r="BW26" s="191"/>
     </row>
     <row r="27" spans="1:75">
-      <c r="A27" s="418" t="s">
+      <c r="A27" s="397" t="s">
         <v>369</v>
       </c>
-      <c r="B27" s="424" t="s">
+      <c r="B27" s="398" t="s">
         <v>370</v>
       </c>
-      <c r="C27" s="418" t="s">
+      <c r="C27" s="397" t="s">
         <v>371</v>
       </c>
-      <c r="D27" s="421" t="s">
+      <c r="D27" s="399" t="s">
         <v>372</v>
       </c>
-      <c r="E27" s="394" t="s">
+      <c r="E27" s="413" t="s">
         <v>537</v>
       </c>
-      <c r="F27" s="395"/>
+      <c r="F27" s="414"/>
       <c r="G27" s="117"/>
       <c r="H27" s="117"/>
       <c r="I27" s="117"/>
@@ -13308,14 +13308,14 @@
       <c r="BW27" s="191"/>
     </row>
     <row r="28" spans="1:75">
-      <c r="A28" s="418"/>
-      <c r="B28" s="424"/>
-      <c r="C28" s="418"/>
-      <c r="D28" s="421"/>
-      <c r="E28" s="394" t="s">
+      <c r="A28" s="397"/>
+      <c r="B28" s="398"/>
+      <c r="C28" s="397"/>
+      <c r="D28" s="399"/>
+      <c r="E28" s="413" t="s">
         <v>427</v>
       </c>
-      <c r="F28" s="395"/>
+      <c r="F28" s="414"/>
       <c r="G28" s="117"/>
       <c r="H28" s="117"/>
       <c r="I28" s="117"/>
@@ -13362,22 +13362,22 @@
       <c r="BW28" s="191"/>
     </row>
     <row r="29" spans="1:75">
-      <c r="A29" s="418" t="s">
+      <c r="A29" s="397" t="s">
         <v>373</v>
       </c>
-      <c r="B29" s="424" t="s">
+      <c r="B29" s="398" t="s">
         <v>374</v>
       </c>
-      <c r="C29" s="418" t="s">
+      <c r="C29" s="397" t="s">
         <v>375</v>
       </c>
-      <c r="D29" s="421" t="s">
+      <c r="D29" s="399" t="s">
         <v>376</v>
       </c>
-      <c r="E29" s="394" t="s">
+      <c r="E29" s="413" t="s">
         <v>538</v>
       </c>
-      <c r="F29" s="395"/>
+      <c r="F29" s="414"/>
       <c r="G29" s="117"/>
       <c r="H29" s="117"/>
       <c r="I29" s="117"/>
@@ -13424,14 +13424,14 @@
       <c r="BW29" s="191"/>
     </row>
     <row r="30" spans="1:75">
-      <c r="A30" s="418"/>
-      <c r="B30" s="424"/>
-      <c r="C30" s="418"/>
-      <c r="D30" s="421"/>
-      <c r="E30" s="394" t="s">
+      <c r="A30" s="397"/>
+      <c r="B30" s="398"/>
+      <c r="C30" s="397"/>
+      <c r="D30" s="399"/>
+      <c r="E30" s="413" t="s">
         <v>428</v>
       </c>
-      <c r="F30" s="395"/>
+      <c r="F30" s="414"/>
       <c r="G30" s="117"/>
       <c r="H30" s="117"/>
       <c r="I30" s="117"/>
@@ -13478,22 +13478,22 @@
       <c r="BW30" s="191"/>
     </row>
     <row r="31" spans="1:75">
-      <c r="A31" s="418" t="s">
+      <c r="A31" s="397" t="s">
         <v>377</v>
       </c>
-      <c r="B31" s="424" t="s">
+      <c r="B31" s="398" t="s">
         <v>378</v>
       </c>
-      <c r="C31" s="418" t="s">
+      <c r="C31" s="397" t="s">
         <v>379</v>
       </c>
-      <c r="D31" s="421" t="s">
+      <c r="D31" s="399" t="s">
         <v>380</v>
       </c>
-      <c r="E31" s="394" t="s">
+      <c r="E31" s="413" t="s">
         <v>539</v>
       </c>
-      <c r="F31" s="395"/>
+      <c r="F31" s="414"/>
       <c r="G31" s="117"/>
       <c r="H31" s="117"/>
       <c r="I31" s="117"/>
@@ -13540,14 +13540,14 @@
       <c r="BW31" s="191"/>
     </row>
     <row r="32" spans="1:75">
-      <c r="A32" s="418"/>
-      <c r="B32" s="424"/>
-      <c r="C32" s="418"/>
-      <c r="D32" s="421"/>
-      <c r="E32" s="394" t="s">
+      <c r="A32" s="397"/>
+      <c r="B32" s="398"/>
+      <c r="C32" s="397"/>
+      <c r="D32" s="399"/>
+      <c r="E32" s="413" t="s">
         <v>429</v>
       </c>
-      <c r="F32" s="395"/>
+      <c r="F32" s="414"/>
       <c r="G32" s="117"/>
       <c r="H32" s="117"/>
       <c r="I32" s="117"/>
@@ -13594,22 +13594,22 @@
       <c r="BW32" s="191"/>
     </row>
     <row r="33" spans="1:75">
-      <c r="A33" s="418" t="s">
+      <c r="A33" s="397" t="s">
         <v>381</v>
       </c>
-      <c r="B33" s="424" t="s">
+      <c r="B33" s="398" t="s">
         <v>382</v>
       </c>
-      <c r="C33" s="418" t="s">
+      <c r="C33" s="397" t="s">
         <v>383</v>
       </c>
-      <c r="D33" s="421" t="s">
+      <c r="D33" s="399" t="s">
         <v>384</v>
       </c>
-      <c r="E33" s="394" t="s">
+      <c r="E33" s="413" t="s">
         <v>540</v>
       </c>
-      <c r="F33" s="395"/>
+      <c r="F33" s="414"/>
       <c r="G33" s="117"/>
       <c r="H33" s="117"/>
       <c r="I33" s="117"/>
@@ -13656,14 +13656,14 @@
       <c r="BW33" s="191"/>
     </row>
     <row r="34" spans="1:75">
-      <c r="A34" s="418"/>
-      <c r="B34" s="424"/>
-      <c r="C34" s="418"/>
-      <c r="D34" s="421"/>
-      <c r="E34" s="394" t="s">
+      <c r="A34" s="397"/>
+      <c r="B34" s="398"/>
+      <c r="C34" s="397"/>
+      <c r="D34" s="399"/>
+      <c r="E34" s="413" t="s">
         <v>430</v>
       </c>
-      <c r="F34" s="395"/>
+      <c r="F34" s="414"/>
       <c r="G34" s="117"/>
       <c r="H34" s="117"/>
       <c r="I34" s="117"/>
@@ -13710,22 +13710,22 @@
       <c r="BW34" s="191"/>
     </row>
     <row r="35" spans="1:75">
-      <c r="A35" s="418" t="s">
+      <c r="A35" s="397" t="s">
         <v>385</v>
       </c>
-      <c r="B35" s="424" t="s">
+      <c r="B35" s="398" t="s">
         <v>386</v>
       </c>
-      <c r="C35" s="418" t="s">
+      <c r="C35" s="397" t="s">
         <v>387</v>
       </c>
-      <c r="D35" s="421" t="s">
+      <c r="D35" s="399" t="s">
         <v>388</v>
       </c>
-      <c r="E35" s="394" t="s">
+      <c r="E35" s="413" t="s">
         <v>541</v>
       </c>
-      <c r="F35" s="395"/>
+      <c r="F35" s="414"/>
       <c r="G35" s="117"/>
       <c r="H35" s="117"/>
       <c r="I35" s="117"/>
@@ -13772,14 +13772,14 @@
       <c r="BW35" s="191"/>
     </row>
     <row r="36" spans="1:75">
-      <c r="A36" s="418"/>
-      <c r="B36" s="424"/>
-      <c r="C36" s="418"/>
-      <c r="D36" s="421"/>
-      <c r="E36" s="394" t="s">
+      <c r="A36" s="397"/>
+      <c r="B36" s="398"/>
+      <c r="C36" s="397"/>
+      <c r="D36" s="399"/>
+      <c r="E36" s="413" t="s">
         <v>431</v>
       </c>
-      <c r="F36" s="395"/>
+      <c r="F36" s="414"/>
       <c r="G36" s="117"/>
       <c r="H36" s="117"/>
       <c r="I36" s="117"/>
@@ -13826,22 +13826,22 @@
       <c r="BW36" s="191"/>
     </row>
     <row r="37" spans="1:75">
-      <c r="A37" s="418" t="s">
+      <c r="A37" s="397" t="s">
         <v>389</v>
       </c>
-      <c r="B37" s="424" t="s">
+      <c r="B37" s="398" t="s">
         <v>390</v>
       </c>
-      <c r="C37" s="418" t="s">
+      <c r="C37" s="397" t="s">
         <v>391</v>
       </c>
-      <c r="D37" s="421" t="s">
+      <c r="D37" s="399" t="s">
         <v>392</v>
       </c>
-      <c r="E37" s="394" t="s">
+      <c r="E37" s="413" t="s">
         <v>542</v>
       </c>
-      <c r="F37" s="395"/>
+      <c r="F37" s="414"/>
       <c r="G37" s="117"/>
       <c r="H37" s="117"/>
       <c r="I37" s="117"/>
@@ -13888,14 +13888,14 @@
       <c r="BW37" s="191"/>
     </row>
     <row r="38" spans="1:75">
-      <c r="A38" s="418"/>
-      <c r="B38" s="424"/>
-      <c r="C38" s="418"/>
-      <c r="D38" s="421"/>
-      <c r="E38" s="394" t="s">
+      <c r="A38" s="397"/>
+      <c r="B38" s="398"/>
+      <c r="C38" s="397"/>
+      <c r="D38" s="399"/>
+      <c r="E38" s="413" t="s">
         <v>432</v>
       </c>
-      <c r="F38" s="395"/>
+      <c r="F38" s="414"/>
       <c r="G38" s="117"/>
       <c r="H38" s="117"/>
       <c r="I38" s="117"/>
@@ -13942,22 +13942,22 @@
       <c r="BW38" s="191"/>
     </row>
     <row r="39" spans="1:75">
-      <c r="A39" s="418" t="s">
+      <c r="A39" s="397" t="s">
         <v>393</v>
       </c>
-      <c r="B39" s="424" t="s">
+      <c r="B39" s="398" t="s">
         <v>394</v>
       </c>
-      <c r="C39" s="418" t="s">
+      <c r="C39" s="397" t="s">
         <v>395</v>
       </c>
-      <c r="D39" s="421" t="s">
+      <c r="D39" s="399" t="s">
         <v>396</v>
       </c>
-      <c r="E39" s="394" t="s">
+      <c r="E39" s="413" t="s">
         <v>543</v>
       </c>
-      <c r="F39" s="395"/>
+      <c r="F39" s="414"/>
       <c r="G39" s="117"/>
       <c r="H39" s="117"/>
       <c r="I39" s="117"/>
@@ -14004,14 +14004,14 @@
       <c r="BW39" s="191"/>
     </row>
     <row r="40" spans="1:75">
-      <c r="A40" s="418"/>
-      <c r="B40" s="424"/>
-      <c r="C40" s="418"/>
-      <c r="D40" s="421"/>
-      <c r="E40" s="394" t="s">
+      <c r="A40" s="397"/>
+      <c r="B40" s="398"/>
+      <c r="C40" s="397"/>
+      <c r="D40" s="399"/>
+      <c r="E40" s="413" t="s">
         <v>433</v>
       </c>
-      <c r="F40" s="395"/>
+      <c r="F40" s="414"/>
       <c r="G40" s="117"/>
       <c r="H40" s="117"/>
       <c r="I40" s="117"/>
@@ -14082,18 +14082,18 @@
       <c r="BW40" s="193"/>
     </row>
     <row r="41" spans="1:75" ht="45.75" customHeight="1">
-      <c r="A41" s="438" t="s">
+      <c r="A41" s="384" t="s">
         <v>412</v>
       </c>
-      <c r="B41" s="439"/>
-      <c r="C41" s="439"/>
-      <c r="D41" s="439"/>
-      <c r="E41" s="439"/>
-      <c r="F41" s="440"/>
-      <c r="G41" s="436" t="s">
+      <c r="B41" s="385"/>
+      <c r="C41" s="385"/>
+      <c r="D41" s="385"/>
+      <c r="E41" s="385"/>
+      <c r="F41" s="386"/>
+      <c r="G41" s="382" t="s">
         <v>582</v>
       </c>
-      <c r="H41" s="437"/>
+      <c r="H41" s="383"/>
       <c r="I41" s="117"/>
       <c r="J41" s="117"/>
       <c r="K41" s="117"/>
@@ -14161,18 +14161,18 @@
       <c r="BW41" s="164"/>
     </row>
     <row r="42" spans="1:75" s="195" customFormat="1" ht="15" customHeight="1">
-      <c r="A42" s="409" t="s">
+      <c r="A42" s="425" t="s">
         <v>328</v>
       </c>
-      <c r="B42" s="410"/>
-      <c r="C42" s="413" t="s">
+      <c r="B42" s="426"/>
+      <c r="C42" s="429" t="s">
         <v>397</v>
       </c>
-      <c r="D42" s="414"/>
-      <c r="E42" s="394" t="s">
+      <c r="D42" s="430"/>
+      <c r="E42" s="413" t="s">
         <v>544</v>
       </c>
-      <c r="F42" s="395"/>
+      <c r="F42" s="414"/>
       <c r="G42" s="117"/>
       <c r="H42" s="117"/>
       <c r="I42" s="117"/>
@@ -14242,14 +14242,14 @@
       <c r="BW42" s="196"/>
     </row>
     <row r="43" spans="1:75" s="195" customFormat="1">
-      <c r="A43" s="409"/>
-      <c r="B43" s="410"/>
-      <c r="C43" s="384"/>
-      <c r="D43" s="385"/>
-      <c r="E43" s="386" t="s">
+      <c r="A43" s="425"/>
+      <c r="B43" s="426"/>
+      <c r="C43" s="431"/>
+      <c r="D43" s="432"/>
+      <c r="E43" s="423" t="s">
         <v>434</v>
       </c>
-      <c r="F43" s="387"/>
+      <c r="F43" s="424"/>
       <c r="G43" s="117"/>
       <c r="H43" s="117"/>
       <c r="I43" s="117"/>
@@ -14319,16 +14319,16 @@
       <c r="BW43" s="196"/>
     </row>
     <row r="44" spans="1:75" s="195" customFormat="1">
-      <c r="A44" s="409"/>
-      <c r="B44" s="410"/>
-      <c r="C44" s="382" t="s">
+      <c r="A44" s="425"/>
+      <c r="B44" s="426"/>
+      <c r="C44" s="433" t="s">
         <v>398</v>
       </c>
-      <c r="D44" s="383"/>
-      <c r="E44" s="394" t="s">
+      <c r="D44" s="434"/>
+      <c r="E44" s="413" t="s">
         <v>545</v>
       </c>
-      <c r="F44" s="395"/>
+      <c r="F44" s="414"/>
       <c r="G44" s="117"/>
       <c r="H44" s="117"/>
       <c r="I44" s="117"/>
@@ -14398,14 +14398,14 @@
       <c r="BW44" s="196"/>
     </row>
     <row r="45" spans="1:75" s="195" customFormat="1">
-      <c r="A45" s="409"/>
-      <c r="B45" s="410"/>
-      <c r="C45" s="384"/>
-      <c r="D45" s="385"/>
-      <c r="E45" s="386" t="s">
+      <c r="A45" s="425"/>
+      <c r="B45" s="426"/>
+      <c r="C45" s="431"/>
+      <c r="D45" s="432"/>
+      <c r="E45" s="423" t="s">
         <v>435</v>
       </c>
-      <c r="F45" s="387"/>
+      <c r="F45" s="424"/>
       <c r="G45" s="117"/>
       <c r="H45" s="117"/>
       <c r="I45" s="117"/>
@@ -14475,16 +14475,16 @@
       <c r="BW45" s="196"/>
     </row>
     <row r="46" spans="1:75" s="195" customFormat="1">
-      <c r="A46" s="409"/>
-      <c r="B46" s="410"/>
-      <c r="C46" s="382" t="s">
+      <c r="A46" s="425"/>
+      <c r="B46" s="426"/>
+      <c r="C46" s="433" t="s">
         <v>399</v>
       </c>
-      <c r="D46" s="383"/>
-      <c r="E46" s="394" t="s">
+      <c r="D46" s="434"/>
+      <c r="E46" s="413" t="s">
         <v>546</v>
       </c>
-      <c r="F46" s="395"/>
+      <c r="F46" s="414"/>
       <c r="G46" s="117"/>
       <c r="H46" s="117"/>
       <c r="I46" s="117"/>
@@ -14509,10 +14509,10 @@
       <c r="AD46" s="117"/>
       <c r="AE46" s="117"/>
       <c r="AF46" s="117"/>
-      <c r="AG46" s="415"/>
-      <c r="AH46" s="415"/>
-      <c r="AI46" s="415"/>
-      <c r="AJ46" s="415"/>
+      <c r="AG46" s="422"/>
+      <c r="AH46" s="422"/>
+      <c r="AI46" s="422"/>
+      <c r="AJ46" s="422"/>
       <c r="AK46" s="196"/>
       <c r="AL46" s="196"/>
       <c r="AM46" s="196"/>
@@ -14554,14 +14554,14 @@
       <c r="BW46" s="196"/>
     </row>
     <row r="47" spans="1:75" s="195" customFormat="1">
-      <c r="A47" s="409"/>
-      <c r="B47" s="410"/>
-      <c r="C47" s="384"/>
-      <c r="D47" s="385"/>
-      <c r="E47" s="386" t="s">
+      <c r="A47" s="425"/>
+      <c r="B47" s="426"/>
+      <c r="C47" s="431"/>
+      <c r="D47" s="432"/>
+      <c r="E47" s="423" t="s">
         <v>436</v>
       </c>
-      <c r="F47" s="387"/>
+      <c r="F47" s="424"/>
       <c r="G47" s="117"/>
       <c r="H47" s="117"/>
       <c r="I47" s="117"/>
@@ -14631,16 +14631,16 @@
       <c r="BW47" s="196"/>
     </row>
     <row r="48" spans="1:75" s="195" customFormat="1">
-      <c r="A48" s="409"/>
-      <c r="B48" s="410"/>
-      <c r="C48" s="382" t="s">
+      <c r="A48" s="425"/>
+      <c r="B48" s="426"/>
+      <c r="C48" s="433" t="s">
         <v>400</v>
       </c>
-      <c r="D48" s="383"/>
-      <c r="E48" s="394" t="s">
+      <c r="D48" s="434"/>
+      <c r="E48" s="413" t="s">
         <v>547</v>
       </c>
-      <c r="F48" s="395"/>
+      <c r="F48" s="414"/>
       <c r="G48" s="117"/>
       <c r="H48" s="117"/>
       <c r="I48" s="117"/>
@@ -14665,10 +14665,10 @@
       <c r="AD48" s="117"/>
       <c r="AE48" s="117"/>
       <c r="AF48" s="117"/>
-      <c r="AG48" s="415"/>
-      <c r="AH48" s="415"/>
-      <c r="AI48" s="415"/>
-      <c r="AJ48" s="415"/>
+      <c r="AG48" s="422"/>
+      <c r="AH48" s="422"/>
+      <c r="AI48" s="422"/>
+      <c r="AJ48" s="422"/>
       <c r="AK48" s="196"/>
       <c r="AL48" s="196"/>
       <c r="AM48" s="196"/>
@@ -14710,14 +14710,14 @@
       <c r="BW48" s="196"/>
     </row>
     <row r="49" spans="1:75" s="195" customFormat="1">
-      <c r="A49" s="409"/>
-      <c r="B49" s="410"/>
-      <c r="C49" s="384"/>
-      <c r="D49" s="385"/>
-      <c r="E49" s="386" t="s">
+      <c r="A49" s="425"/>
+      <c r="B49" s="426"/>
+      <c r="C49" s="431"/>
+      <c r="D49" s="432"/>
+      <c r="E49" s="423" t="s">
         <v>437</v>
       </c>
-      <c r="F49" s="387"/>
+      <c r="F49" s="424"/>
       <c r="G49" s="117"/>
       <c r="H49" s="117"/>
       <c r="I49" s="117"/>
@@ -14787,16 +14787,16 @@
       <c r="BW49" s="196"/>
     </row>
     <row r="50" spans="1:75" s="195" customFormat="1">
-      <c r="A50" s="409"/>
-      <c r="B50" s="410"/>
-      <c r="C50" s="382" t="s">
+      <c r="A50" s="425"/>
+      <c r="B50" s="426"/>
+      <c r="C50" s="433" t="s">
         <v>401</v>
       </c>
-      <c r="D50" s="383"/>
-      <c r="E50" s="394" t="s">
+      <c r="D50" s="434"/>
+      <c r="E50" s="413" t="s">
         <v>548</v>
       </c>
-      <c r="F50" s="395"/>
+      <c r="F50" s="414"/>
       <c r="G50" s="117"/>
       <c r="H50" s="117"/>
       <c r="I50" s="117"/>
@@ -14821,10 +14821,10 @@
       <c r="AD50" s="117"/>
       <c r="AE50" s="117"/>
       <c r="AF50" s="117"/>
-      <c r="AG50" s="415"/>
-      <c r="AH50" s="415"/>
-      <c r="AI50" s="415"/>
-      <c r="AJ50" s="415"/>
+      <c r="AG50" s="422"/>
+      <c r="AH50" s="422"/>
+      <c r="AI50" s="422"/>
+      <c r="AJ50" s="422"/>
       <c r="AK50" s="196"/>
       <c r="AL50" s="196"/>
       <c r="AM50" s="196"/>
@@ -14866,14 +14866,14 @@
       <c r="BW50" s="196"/>
     </row>
     <row r="51" spans="1:75" s="195" customFormat="1">
-      <c r="A51" s="409"/>
-      <c r="B51" s="410"/>
-      <c r="C51" s="384"/>
-      <c r="D51" s="385"/>
-      <c r="E51" s="386" t="s">
+      <c r="A51" s="425"/>
+      <c r="B51" s="426"/>
+      <c r="C51" s="431"/>
+      <c r="D51" s="432"/>
+      <c r="E51" s="423" t="s">
         <v>438</v>
       </c>
-      <c r="F51" s="387"/>
+      <c r="F51" s="424"/>
       <c r="G51" s="117"/>
       <c r="H51" s="117"/>
       <c r="I51" s="117"/>
@@ -14943,16 +14943,16 @@
       <c r="BW51" s="196"/>
     </row>
     <row r="52" spans="1:75" s="195" customFormat="1">
-      <c r="A52" s="409"/>
-      <c r="B52" s="410"/>
-      <c r="C52" s="382" t="s">
+      <c r="A52" s="425"/>
+      <c r="B52" s="426"/>
+      <c r="C52" s="433" t="s">
         <v>402</v>
       </c>
-      <c r="D52" s="383"/>
-      <c r="E52" s="394" t="s">
+      <c r="D52" s="434"/>
+      <c r="E52" s="413" t="s">
         <v>549</v>
       </c>
-      <c r="F52" s="395"/>
+      <c r="F52" s="414"/>
       <c r="G52" s="117"/>
       <c r="H52" s="117"/>
       <c r="I52" s="117"/>
@@ -14977,10 +14977,10 @@
       <c r="AD52" s="117"/>
       <c r="AE52" s="117"/>
       <c r="AF52" s="117"/>
-      <c r="AG52" s="415"/>
-      <c r="AH52" s="415"/>
-      <c r="AI52" s="415"/>
-      <c r="AJ52" s="415"/>
+      <c r="AG52" s="422"/>
+      <c r="AH52" s="422"/>
+      <c r="AI52" s="422"/>
+      <c r="AJ52" s="422"/>
       <c r="AK52" s="196"/>
       <c r="AL52" s="196"/>
       <c r="AM52" s="196"/>
@@ -15022,14 +15022,14 @@
       <c r="BW52" s="196"/>
     </row>
     <row r="53" spans="1:75" s="195" customFormat="1">
-      <c r="A53" s="409"/>
-      <c r="B53" s="410"/>
-      <c r="C53" s="384"/>
-      <c r="D53" s="385"/>
-      <c r="E53" s="386" t="s">
+      <c r="A53" s="425"/>
+      <c r="B53" s="426"/>
+      <c r="C53" s="431"/>
+      <c r="D53" s="432"/>
+      <c r="E53" s="423" t="s">
         <v>439</v>
       </c>
-      <c r="F53" s="387"/>
+      <c r="F53" s="424"/>
       <c r="G53" s="117"/>
       <c r="H53" s="117"/>
       <c r="I53" s="117"/>
@@ -15099,16 +15099,16 @@
       <c r="BW53" s="196"/>
     </row>
     <row r="54" spans="1:75" s="195" customFormat="1">
-      <c r="A54" s="409"/>
-      <c r="B54" s="410"/>
-      <c r="C54" s="382" t="s">
+      <c r="A54" s="425"/>
+      <c r="B54" s="426"/>
+      <c r="C54" s="433" t="s">
         <v>403</v>
       </c>
-      <c r="D54" s="383"/>
-      <c r="E54" s="394" t="s">
+      <c r="D54" s="434"/>
+      <c r="E54" s="413" t="s">
         <v>550</v>
       </c>
-      <c r="F54" s="395"/>
+      <c r="F54" s="414"/>
       <c r="G54" s="117"/>
       <c r="H54" s="117"/>
       <c r="I54" s="117"/>
@@ -15133,10 +15133,10 @@
       <c r="AD54" s="117"/>
       <c r="AE54" s="117"/>
       <c r="AF54" s="117"/>
-      <c r="AG54" s="415"/>
-      <c r="AH54" s="415"/>
-      <c r="AI54" s="415"/>
-      <c r="AJ54" s="415"/>
+      <c r="AG54" s="422"/>
+      <c r="AH54" s="422"/>
+      <c r="AI54" s="422"/>
+      <c r="AJ54" s="422"/>
       <c r="AK54" s="196"/>
       <c r="AL54" s="196"/>
       <c r="AM54" s="196"/>
@@ -15178,14 +15178,14 @@
       <c r="BW54" s="196"/>
     </row>
     <row r="55" spans="1:75" s="195" customFormat="1">
-      <c r="A55" s="409"/>
-      <c r="B55" s="410"/>
-      <c r="C55" s="384"/>
-      <c r="D55" s="385"/>
-      <c r="E55" s="386" t="s">
+      <c r="A55" s="425"/>
+      <c r="B55" s="426"/>
+      <c r="C55" s="431"/>
+      <c r="D55" s="432"/>
+      <c r="E55" s="423" t="s">
         <v>440</v>
       </c>
-      <c r="F55" s="387"/>
+      <c r="F55" s="424"/>
       <c r="G55" s="117"/>
       <c r="H55" s="117"/>
       <c r="I55" s="117"/>
@@ -15255,16 +15255,16 @@
       <c r="BW55" s="196"/>
     </row>
     <row r="56" spans="1:75" s="195" customFormat="1">
-      <c r="A56" s="409"/>
-      <c r="B56" s="410"/>
-      <c r="C56" s="382" t="s">
+      <c r="A56" s="425"/>
+      <c r="B56" s="426"/>
+      <c r="C56" s="433" t="s">
         <v>404</v>
       </c>
-      <c r="D56" s="383"/>
-      <c r="E56" s="386" t="s">
+      <c r="D56" s="434"/>
+      <c r="E56" s="423" t="s">
         <v>551</v>
       </c>
-      <c r="F56" s="387"/>
+      <c r="F56" s="424"/>
       <c r="G56" s="117"/>
       <c r="H56" s="117"/>
       <c r="I56" s="117"/>
@@ -15289,10 +15289,10 @@
       <c r="AD56" s="117"/>
       <c r="AE56" s="117"/>
       <c r="AF56" s="117"/>
-      <c r="AG56" s="415"/>
-      <c r="AH56" s="415"/>
-      <c r="AI56" s="415"/>
-      <c r="AJ56" s="415"/>
+      <c r="AG56" s="422"/>
+      <c r="AH56" s="422"/>
+      <c r="AI56" s="422"/>
+      <c r="AJ56" s="422"/>
       <c r="AK56" s="196"/>
       <c r="AL56" s="196"/>
       <c r="AM56" s="196"/>
@@ -15334,14 +15334,14 @@
       <c r="BW56" s="196"/>
     </row>
     <row r="57" spans="1:75" s="195" customFormat="1">
-      <c r="A57" s="409"/>
-      <c r="B57" s="410"/>
-      <c r="C57" s="384"/>
-      <c r="D57" s="385"/>
-      <c r="E57" s="386" t="s">
+      <c r="A57" s="425"/>
+      <c r="B57" s="426"/>
+      <c r="C57" s="431"/>
+      <c r="D57" s="432"/>
+      <c r="E57" s="423" t="s">
         <v>441</v>
       </c>
-      <c r="F57" s="387"/>
+      <c r="F57" s="424"/>
       <c r="G57" s="117"/>
       <c r="H57" s="117"/>
       <c r="I57" s="117"/>
@@ -15411,16 +15411,16 @@
       <c r="BW57" s="196"/>
     </row>
     <row r="58" spans="1:75" s="195" customFormat="1">
-      <c r="A58" s="409"/>
-      <c r="B58" s="410"/>
-      <c r="C58" s="382" t="s">
+      <c r="A58" s="425"/>
+      <c r="B58" s="426"/>
+      <c r="C58" s="433" t="s">
         <v>405</v>
       </c>
-      <c r="D58" s="383"/>
-      <c r="E58" s="394" t="s">
+      <c r="D58" s="434"/>
+      <c r="E58" s="413" t="s">
         <v>552</v>
       </c>
-      <c r="F58" s="395"/>
+      <c r="F58" s="414"/>
       <c r="G58" s="117"/>
       <c r="H58" s="117"/>
       <c r="I58" s="117"/>
@@ -15445,10 +15445,10 @@
       <c r="AD58" s="117"/>
       <c r="AE58" s="117"/>
       <c r="AF58" s="117"/>
-      <c r="AG58" s="415"/>
-      <c r="AH58" s="415"/>
-      <c r="AI58" s="415"/>
-      <c r="AJ58" s="415"/>
+      <c r="AG58" s="422"/>
+      <c r="AH58" s="422"/>
+      <c r="AI58" s="422"/>
+      <c r="AJ58" s="422"/>
       <c r="AK58" s="196"/>
       <c r="AL58" s="198"/>
       <c r="AM58" s="196"/>
@@ -15490,14 +15490,14 @@
       <c r="BW58" s="196"/>
     </row>
     <row r="59" spans="1:75" s="195" customFormat="1">
-      <c r="A59" s="409"/>
-      <c r="B59" s="410"/>
-      <c r="C59" s="384"/>
-      <c r="D59" s="385"/>
-      <c r="E59" s="386" t="s">
+      <c r="A59" s="425"/>
+      <c r="B59" s="426"/>
+      <c r="C59" s="431"/>
+      <c r="D59" s="432"/>
+      <c r="E59" s="423" t="s">
         <v>442</v>
       </c>
-      <c r="F59" s="387"/>
+      <c r="F59" s="424"/>
       <c r="G59" s="117"/>
       <c r="H59" s="117"/>
       <c r="I59" s="117"/>
@@ -15567,16 +15567,16 @@
       <c r="BW59" s="196"/>
     </row>
     <row r="60" spans="1:75" s="195" customFormat="1">
-      <c r="A60" s="409"/>
-      <c r="B60" s="410"/>
-      <c r="C60" s="382" t="s">
+      <c r="A60" s="425"/>
+      <c r="B60" s="426"/>
+      <c r="C60" s="433" t="s">
         <v>406</v>
       </c>
-      <c r="D60" s="383"/>
-      <c r="E60" s="394" t="s">
+      <c r="D60" s="434"/>
+      <c r="E60" s="413" t="s">
         <v>553</v>
       </c>
-      <c r="F60" s="395"/>
+      <c r="F60" s="414"/>
       <c r="G60" s="117"/>
       <c r="H60" s="117"/>
       <c r="I60" s="117"/>
@@ -15601,10 +15601,10 @@
       <c r="AD60" s="117"/>
       <c r="AE60" s="117"/>
       <c r="AF60" s="117"/>
-      <c r="AG60" s="415"/>
-      <c r="AH60" s="415"/>
-      <c r="AI60" s="415"/>
-      <c r="AJ60" s="415"/>
+      <c r="AG60" s="422"/>
+      <c r="AH60" s="422"/>
+      <c r="AI60" s="422"/>
+      <c r="AJ60" s="422"/>
       <c r="AK60" s="196"/>
       <c r="AL60" s="197"/>
       <c r="AM60" s="196"/>
@@ -15646,14 +15646,14 @@
       <c r="BW60" s="196"/>
     </row>
     <row r="61" spans="1:75" s="195" customFormat="1">
-      <c r="A61" s="409"/>
-      <c r="B61" s="410"/>
-      <c r="C61" s="384"/>
-      <c r="D61" s="385"/>
-      <c r="E61" s="386" t="s">
+      <c r="A61" s="425"/>
+      <c r="B61" s="426"/>
+      <c r="C61" s="431"/>
+      <c r="D61" s="432"/>
+      <c r="E61" s="423" t="s">
         <v>443</v>
       </c>
-      <c r="F61" s="387"/>
+      <c r="F61" s="424"/>
       <c r="G61" s="117"/>
       <c r="H61" s="117"/>
       <c r="I61" s="117"/>
@@ -15723,16 +15723,16 @@
       <c r="BW61" s="196"/>
     </row>
     <row r="62" spans="1:75" s="195" customFormat="1">
-      <c r="A62" s="409"/>
-      <c r="B62" s="410"/>
-      <c r="C62" s="382" t="s">
+      <c r="A62" s="425"/>
+      <c r="B62" s="426"/>
+      <c r="C62" s="433" t="s">
         <v>407</v>
       </c>
-      <c r="D62" s="383"/>
-      <c r="E62" s="394" t="s">
+      <c r="D62" s="434"/>
+      <c r="E62" s="413" t="s">
         <v>554</v>
       </c>
-      <c r="F62" s="395"/>
+      <c r="F62" s="414"/>
       <c r="G62" s="117"/>
       <c r="H62" s="117"/>
       <c r="I62" s="117"/>
@@ -15757,10 +15757,10 @@
       <c r="AD62" s="117"/>
       <c r="AE62" s="117"/>
       <c r="AF62" s="117"/>
-      <c r="AG62" s="415"/>
-      <c r="AH62" s="415"/>
-      <c r="AI62" s="415"/>
-      <c r="AJ62" s="415"/>
+      <c r="AG62" s="422"/>
+      <c r="AH62" s="422"/>
+      <c r="AI62" s="422"/>
+      <c r="AJ62" s="422"/>
       <c r="AK62" s="202"/>
       <c r="AL62" s="198"/>
       <c r="AM62" s="196"/>
@@ -15802,14 +15802,14 @@
       <c r="BW62" s="196"/>
     </row>
     <row r="63" spans="1:75" s="195" customFormat="1">
-      <c r="A63" s="409"/>
-      <c r="B63" s="410"/>
-      <c r="C63" s="384"/>
-      <c r="D63" s="385"/>
-      <c r="E63" s="386" t="s">
+      <c r="A63" s="425"/>
+      <c r="B63" s="426"/>
+      <c r="C63" s="431"/>
+      <c r="D63" s="432"/>
+      <c r="E63" s="423" t="s">
         <v>444</v>
       </c>
-      <c r="F63" s="387"/>
+      <c r="F63" s="424"/>
       <c r="G63" s="117"/>
       <c r="H63" s="117"/>
       <c r="I63" s="117"/>
@@ -15879,16 +15879,16 @@
       <c r="BW63" s="196"/>
     </row>
     <row r="64" spans="1:75" s="195" customFormat="1">
-      <c r="A64" s="409"/>
-      <c r="B64" s="410"/>
-      <c r="C64" s="382" t="s">
+      <c r="A64" s="425"/>
+      <c r="B64" s="426"/>
+      <c r="C64" s="433" t="s">
         <v>408</v>
       </c>
-      <c r="D64" s="383"/>
-      <c r="E64" s="394" t="s">
+      <c r="D64" s="434"/>
+      <c r="E64" s="413" t="s">
         <v>555</v>
       </c>
-      <c r="F64" s="395"/>
+      <c r="F64" s="414"/>
       <c r="G64" s="117"/>
       <c r="H64" s="117"/>
       <c r="I64" s="117"/>
@@ -15913,10 +15913,10 @@
       <c r="AD64" s="117"/>
       <c r="AE64" s="117"/>
       <c r="AF64" s="117"/>
-      <c r="AG64" s="415"/>
-      <c r="AH64" s="415"/>
-      <c r="AI64" s="415"/>
-      <c r="AJ64" s="415"/>
+      <c r="AG64" s="422"/>
+      <c r="AH64" s="422"/>
+      <c r="AI64" s="422"/>
+      <c r="AJ64" s="422"/>
       <c r="AK64" s="196"/>
       <c r="AL64" s="197"/>
       <c r="AM64" s="196"/>
@@ -15958,14 +15958,14 @@
       <c r="BW64" s="196"/>
     </row>
     <row r="65" spans="1:75" s="195" customFormat="1">
-      <c r="A65" s="409"/>
-      <c r="B65" s="410"/>
-      <c r="C65" s="384"/>
-      <c r="D65" s="385"/>
-      <c r="E65" s="386" t="s">
+      <c r="A65" s="425"/>
+      <c r="B65" s="426"/>
+      <c r="C65" s="431"/>
+      <c r="D65" s="432"/>
+      <c r="E65" s="423" t="s">
         <v>445</v>
       </c>
-      <c r="F65" s="387"/>
+      <c r="F65" s="424"/>
       <c r="G65" s="117"/>
       <c r="H65" s="117"/>
       <c r="I65" s="117"/>
@@ -16035,16 +16035,16 @@
       <c r="BW65" s="196"/>
     </row>
     <row r="66" spans="1:75" s="195" customFormat="1">
-      <c r="A66" s="409"/>
-      <c r="B66" s="410"/>
-      <c r="C66" s="382" t="s">
+      <c r="A66" s="425"/>
+      <c r="B66" s="426"/>
+      <c r="C66" s="433" t="s">
         <v>409</v>
       </c>
-      <c r="D66" s="383"/>
-      <c r="E66" s="394" t="s">
+      <c r="D66" s="434"/>
+      <c r="E66" s="413" t="s">
         <v>556</v>
       </c>
-      <c r="F66" s="395"/>
+      <c r="F66" s="414"/>
       <c r="G66" s="117"/>
       <c r="H66" s="117"/>
       <c r="I66" s="117"/>
@@ -16069,10 +16069,10 @@
       <c r="AD66" s="117"/>
       <c r="AE66" s="117"/>
       <c r="AF66" s="117"/>
-      <c r="AG66" s="415"/>
-      <c r="AH66" s="415"/>
-      <c r="AI66" s="415"/>
-      <c r="AJ66" s="415"/>
+      <c r="AG66" s="422"/>
+      <c r="AH66" s="422"/>
+      <c r="AI66" s="422"/>
+      <c r="AJ66" s="422"/>
       <c r="AK66" s="202"/>
       <c r="AL66" s="198"/>
       <c r="AM66" s="196"/>
@@ -16114,14 +16114,14 @@
       <c r="BW66" s="196"/>
     </row>
     <row r="67" spans="1:75" s="195" customFormat="1">
-      <c r="A67" s="409"/>
-      <c r="B67" s="410"/>
-      <c r="C67" s="384"/>
-      <c r="D67" s="385"/>
-      <c r="E67" s="386" t="s">
+      <c r="A67" s="425"/>
+      <c r="B67" s="426"/>
+      <c r="C67" s="431"/>
+      <c r="D67" s="432"/>
+      <c r="E67" s="423" t="s">
         <v>446</v>
       </c>
-      <c r="F67" s="387"/>
+      <c r="F67" s="424"/>
       <c r="G67" s="117"/>
       <c r="H67" s="117"/>
       <c r="I67" s="117"/>
@@ -16191,16 +16191,16 @@
       <c r="BW67" s="196"/>
     </row>
     <row r="68" spans="1:75" s="195" customFormat="1">
-      <c r="A68" s="409"/>
-      <c r="B68" s="410"/>
-      <c r="C68" s="382" t="s">
+      <c r="A68" s="425"/>
+      <c r="B68" s="426"/>
+      <c r="C68" s="433" t="s">
         <v>410</v>
       </c>
-      <c r="D68" s="383"/>
-      <c r="E68" s="394" t="s">
+      <c r="D68" s="434"/>
+      <c r="E68" s="413" t="s">
         <v>557</v>
       </c>
-      <c r="F68" s="395"/>
+      <c r="F68" s="414"/>
       <c r="G68" s="117"/>
       <c r="H68" s="117"/>
       <c r="I68" s="117"/>
@@ -16227,10 +16227,10 @@
       <c r="AD68" s="117"/>
       <c r="AE68" s="117"/>
       <c r="AF68" s="117"/>
-      <c r="AG68" s="415"/>
-      <c r="AH68" s="415"/>
-      <c r="AI68" s="415"/>
-      <c r="AJ68" s="415"/>
+      <c r="AG68" s="422"/>
+      <c r="AH68" s="422"/>
+      <c r="AI68" s="422"/>
+      <c r="AJ68" s="422"/>
       <c r="AK68" s="197"/>
       <c r="AL68" s="197"/>
       <c r="AM68" s="196"/>
@@ -16272,14 +16272,14 @@
       <c r="BW68" s="196"/>
     </row>
     <row r="69" spans="1:75" s="195" customFormat="1">
-      <c r="A69" s="409"/>
-      <c r="B69" s="410"/>
-      <c r="C69" s="384"/>
-      <c r="D69" s="385"/>
-      <c r="E69" s="386" t="s">
+      <c r="A69" s="425"/>
+      <c r="B69" s="426"/>
+      <c r="C69" s="431"/>
+      <c r="D69" s="432"/>
+      <c r="E69" s="423" t="s">
         <v>447</v>
       </c>
-      <c r="F69" s="387"/>
+      <c r="F69" s="424"/>
       <c r="G69" s="117"/>
       <c r="H69" s="117"/>
       <c r="I69" s="117"/>
@@ -16351,16 +16351,16 @@
       <c r="BW69" s="196"/>
     </row>
     <row r="70" spans="1:75" s="195" customFormat="1">
-      <c r="A70" s="409"/>
-      <c r="B70" s="410"/>
-      <c r="C70" s="382" t="s">
+      <c r="A70" s="425"/>
+      <c r="B70" s="426"/>
+      <c r="C70" s="433" t="s">
         <v>413</v>
       </c>
-      <c r="D70" s="383"/>
-      <c r="E70" s="394" t="s">
+      <c r="D70" s="434"/>
+      <c r="E70" s="413" t="s">
         <v>558</v>
       </c>
-      <c r="F70" s="395"/>
+      <c r="F70" s="414"/>
       <c r="G70" s="117"/>
       <c r="H70" s="117"/>
       <c r="I70" s="117"/>
@@ -16432,14 +16432,14 @@
       <c r="BW70" s="196"/>
     </row>
     <row r="71" spans="1:75" s="195" customFormat="1">
-      <c r="A71" s="409"/>
-      <c r="B71" s="410"/>
-      <c r="C71" s="384"/>
-      <c r="D71" s="385"/>
-      <c r="E71" s="386" t="s">
+      <c r="A71" s="425"/>
+      <c r="B71" s="426"/>
+      <c r="C71" s="431"/>
+      <c r="D71" s="432"/>
+      <c r="E71" s="423" t="s">
         <v>448</v>
       </c>
-      <c r="F71" s="387"/>
+      <c r="F71" s="424"/>
       <c r="G71" s="117"/>
       <c r="H71" s="117"/>
       <c r="I71" s="117"/>
@@ -16511,12 +16511,12 @@
       <c r="BW71" s="196"/>
     </row>
     <row r="72" spans="1:75" s="195" customFormat="1">
-      <c r="A72" s="409"/>
-      <c r="B72" s="410"/>
-      <c r="C72" s="430" t="s">
+      <c r="A72" s="425"/>
+      <c r="B72" s="426"/>
+      <c r="C72" s="404" t="s">
         <v>33</v>
       </c>
-      <c r="D72" s="431"/>
+      <c r="D72" s="405"/>
       <c r="E72" s="117"/>
       <c r="F72" s="117"/>
       <c r="G72" s="117"/>
@@ -16545,10 +16545,10 @@
       <c r="AD72" s="117"/>
       <c r="AE72" s="117"/>
       <c r="AF72" s="117"/>
-      <c r="AG72" s="416"/>
-      <c r="AH72" s="416"/>
-      <c r="AI72" s="416"/>
-      <c r="AJ72" s="416"/>
+      <c r="AG72" s="435"/>
+      <c r="AH72" s="435"/>
+      <c r="AI72" s="435"/>
+      <c r="AJ72" s="435"/>
       <c r="AK72" s="202"/>
       <c r="AL72" s="196"/>
       <c r="AM72" s="196"/>
@@ -16590,12 +16590,12 @@
       <c r="BW72" s="196"/>
     </row>
     <row r="73" spans="1:75" s="195" customFormat="1">
-      <c r="A73" s="409"/>
-      <c r="B73" s="410"/>
-      <c r="C73" s="432" t="s">
+      <c r="A73" s="425"/>
+      <c r="B73" s="426"/>
+      <c r="C73" s="406" t="s">
         <v>3</v>
       </c>
-      <c r="D73" s="433"/>
+      <c r="D73" s="407"/>
       <c r="E73" s="117"/>
       <c r="F73" s="117"/>
       <c r="G73" s="117"/>
@@ -16669,12 +16669,12 @@
       <c r="BW73" s="196"/>
     </row>
     <row r="74" spans="1:75" s="195" customFormat="1">
-      <c r="A74" s="411"/>
-      <c r="B74" s="412"/>
-      <c r="C74" s="432" t="s">
+      <c r="A74" s="427"/>
+      <c r="B74" s="428"/>
+      <c r="C74" s="406" t="s">
         <v>4</v>
       </c>
-      <c r="D74" s="433"/>
+      <c r="D74" s="407"/>
       <c r="E74" s="117"/>
       <c r="F74" s="117"/>
       <c r="G74" s="117"/>
@@ -16748,18 +16748,18 @@
       <c r="BW74" s="196"/>
     </row>
     <row r="75" spans="1:75" s="195" customFormat="1" ht="27" customHeight="1">
-      <c r="A75" s="388" t="s">
+      <c r="A75" s="449" t="s">
         <v>1</v>
       </c>
-      <c r="B75" s="389"/>
-      <c r="C75" s="434" t="s">
+      <c r="B75" s="450"/>
+      <c r="C75" s="408" t="s">
         <v>5</v>
       </c>
-      <c r="D75" s="435"/>
-      <c r="E75" s="386" t="s">
+      <c r="D75" s="409"/>
+      <c r="E75" s="423" t="s">
         <v>322</v>
       </c>
-      <c r="F75" s="387"/>
+      <c r="F75" s="424"/>
       <c r="G75" s="117"/>
       <c r="H75" s="117"/>
       <c r="I75" s="117"/>
@@ -16786,10 +16786,10 @@
       <c r="AD75" s="117"/>
       <c r="AE75" s="117"/>
       <c r="AF75" s="117"/>
-      <c r="AG75" s="407"/>
-      <c r="AH75" s="407"/>
-      <c r="AI75" s="407"/>
-      <c r="AJ75" s="407"/>
+      <c r="AG75" s="436"/>
+      <c r="AH75" s="436"/>
+      <c r="AI75" s="436"/>
+      <c r="AJ75" s="436"/>
       <c r="AK75" s="202"/>
       <c r="AL75" s="196"/>
       <c r="AM75" s="196"/>
@@ -16831,16 +16831,16 @@
       <c r="BW75" s="196"/>
     </row>
     <row r="76" spans="1:75" s="195" customFormat="1" ht="27" customHeight="1">
-      <c r="A76" s="390"/>
-      <c r="B76" s="391"/>
-      <c r="C76" s="434" t="s">
+      <c r="A76" s="451"/>
+      <c r="B76" s="452"/>
+      <c r="C76" s="408" t="s">
         <v>6</v>
       </c>
-      <c r="D76" s="435"/>
-      <c r="E76" s="386" t="s">
+      <c r="D76" s="409"/>
+      <c r="E76" s="423" t="s">
         <v>323</v>
       </c>
-      <c r="F76" s="387"/>
+      <c r="F76" s="424"/>
       <c r="G76" s="117"/>
       <c r="H76" s="117"/>
       <c r="I76" s="117"/>
@@ -16867,10 +16867,10 @@
       <c r="AD76" s="117"/>
       <c r="AE76" s="117"/>
       <c r="AF76" s="117"/>
-      <c r="AG76" s="407"/>
-      <c r="AH76" s="407"/>
-      <c r="AI76" s="407"/>
-      <c r="AJ76" s="407"/>
+      <c r="AG76" s="436"/>
+      <c r="AH76" s="436"/>
+      <c r="AI76" s="436"/>
+      <c r="AJ76" s="436"/>
       <c r="AK76" s="202"/>
       <c r="AL76" s="196"/>
       <c r="AM76" s="196"/>
@@ -16912,16 +16912,16 @@
       <c r="BW76" s="196"/>
     </row>
     <row r="77" spans="1:75" s="195" customFormat="1" ht="27" customHeight="1">
-      <c r="A77" s="390"/>
-      <c r="B77" s="391"/>
-      <c r="C77" s="434" t="s">
+      <c r="A77" s="451"/>
+      <c r="B77" s="452"/>
+      <c r="C77" s="408" t="s">
         <v>0</v>
       </c>
-      <c r="D77" s="435"/>
-      <c r="E77" s="386" t="s">
+      <c r="D77" s="409"/>
+      <c r="E77" s="423" t="s">
         <v>324</v>
       </c>
-      <c r="F77" s="387"/>
+      <c r="F77" s="424"/>
       <c r="G77" s="117"/>
       <c r="H77" s="117"/>
       <c r="I77" s="117"/>
@@ -16948,10 +16948,10 @@
       <c r="AD77" s="117"/>
       <c r="AE77" s="117"/>
       <c r="AF77" s="117"/>
-      <c r="AG77" s="408"/>
-      <c r="AH77" s="408"/>
-      <c r="AI77" s="408"/>
-      <c r="AJ77" s="408"/>
+      <c r="AG77" s="437"/>
+      <c r="AH77" s="437"/>
+      <c r="AI77" s="437"/>
+      <c r="AJ77" s="437"/>
       <c r="AK77" s="202"/>
       <c r="AL77" s="196"/>
       <c r="AM77" s="196"/>
@@ -16993,16 +16993,16 @@
       <c r="BW77" s="196"/>
     </row>
     <row r="78" spans="1:75" s="195" customFormat="1" ht="27" customHeight="1">
-      <c r="A78" s="390"/>
-      <c r="B78" s="391"/>
-      <c r="C78" s="434" t="s">
+      <c r="A78" s="451"/>
+      <c r="B78" s="452"/>
+      <c r="C78" s="408" t="s">
         <v>57</v>
       </c>
-      <c r="D78" s="435"/>
-      <c r="E78" s="386" t="s">
+      <c r="D78" s="409"/>
+      <c r="E78" s="423" t="s">
         <v>325</v>
       </c>
-      <c r="F78" s="387"/>
+      <c r="F78" s="424"/>
       <c r="G78" s="117"/>
       <c r="H78" s="117"/>
       <c r="I78" s="117"/>
@@ -17074,16 +17074,16 @@
       <c r="BW78" s="196"/>
     </row>
     <row r="79" spans="1:75" s="195" customFormat="1" ht="27" customHeight="1">
-      <c r="A79" s="390"/>
-      <c r="B79" s="391"/>
-      <c r="C79" s="434" t="s">
+      <c r="A79" s="451"/>
+      <c r="B79" s="452"/>
+      <c r="C79" s="408" t="s">
         <v>36</v>
       </c>
-      <c r="D79" s="435"/>
-      <c r="E79" s="386" t="s">
+      <c r="D79" s="409"/>
+      <c r="E79" s="423" t="s">
         <v>414</v>
       </c>
-      <c r="F79" s="387"/>
+      <c r="F79" s="424"/>
       <c r="G79" s="117"/>
       <c r="H79" s="117"/>
       <c r="I79" s="117"/>
@@ -17110,10 +17110,10 @@
       <c r="AD79" s="117"/>
       <c r="AE79" s="117"/>
       <c r="AF79" s="117"/>
-      <c r="AG79" s="408"/>
-      <c r="AH79" s="408"/>
-      <c r="AI79" s="408"/>
-      <c r="AJ79" s="408"/>
+      <c r="AG79" s="437"/>
+      <c r="AH79" s="437"/>
+      <c r="AI79" s="437"/>
+      <c r="AJ79" s="437"/>
       <c r="AK79" s="202"/>
       <c r="AL79" s="196"/>
       <c r="AM79" s="196"/>
@@ -17155,16 +17155,16 @@
       <c r="BW79" s="196"/>
     </row>
     <row r="80" spans="1:75" s="195" customFormat="1" ht="32.25" customHeight="1">
-      <c r="A80" s="393" t="s">
+      <c r="A80" s="454" t="s">
         <v>47</v>
       </c>
-      <c r="B80" s="393"/>
-      <c r="C80" s="393"/>
-      <c r="D80" s="393"/>
-      <c r="E80" s="392" t="s">
+      <c r="B80" s="454"/>
+      <c r="C80" s="454"/>
+      <c r="D80" s="454"/>
+      <c r="E80" s="453" t="s">
         <v>326</v>
       </c>
-      <c r="F80" s="387"/>
+      <c r="F80" s="424"/>
       <c r="G80" s="117"/>
       <c r="H80" s="117"/>
       <c r="I80" s="117"/>
@@ -17191,10 +17191,10 @@
       <c r="AD80" s="117"/>
       <c r="AE80" s="117"/>
       <c r="AF80" s="117"/>
-      <c r="AG80" s="396"/>
-      <c r="AH80" s="396"/>
-      <c r="AI80" s="396"/>
-      <c r="AJ80" s="396"/>
+      <c r="AG80" s="438"/>
+      <c r="AH80" s="438"/>
+      <c r="AI80" s="438"/>
+      <c r="AJ80" s="438"/>
       <c r="AK80" s="202"/>
       <c r="AL80" s="196"/>
       <c r="AM80" s="196"/>
@@ -17236,16 +17236,16 @@
       <c r="BW80" s="196"/>
     </row>
     <row r="81" spans="1:75" s="195" customFormat="1" ht="32.25" customHeight="1">
-      <c r="A81" s="393" t="s">
+      <c r="A81" s="454" t="s">
         <v>48</v>
       </c>
-      <c r="B81" s="393"/>
-      <c r="C81" s="393"/>
-      <c r="D81" s="393"/>
-      <c r="E81" s="392" t="s">
+      <c r="B81" s="454"/>
+      <c r="C81" s="454"/>
+      <c r="D81" s="454"/>
+      <c r="E81" s="453" t="s">
         <v>327</v>
       </c>
-      <c r="F81" s="387"/>
+      <c r="F81" s="424"/>
       <c r="G81" s="117"/>
       <c r="H81" s="117"/>
       <c r="I81" s="117"/>
@@ -17272,10 +17272,10 @@
       <c r="AD81" s="117"/>
       <c r="AE81" s="117"/>
       <c r="AF81" s="117"/>
-      <c r="AG81" s="396"/>
-      <c r="AH81" s="396"/>
-      <c r="AI81" s="396"/>
-      <c r="AJ81" s="396"/>
+      <c r="AG81" s="438"/>
+      <c r="AH81" s="438"/>
+      <c r="AI81" s="438"/>
+      <c r="AJ81" s="438"/>
       <c r="AK81" s="202"/>
       <c r="AL81" s="196"/>
       <c r="AM81" s="196"/>
@@ -17323,17 +17323,17 @@
       <c r="D82" s="206"/>
       <c r="E82" s="206"/>
       <c r="F82" s="206"/>
-      <c r="G82" s="397"/>
-      <c r="H82" s="397"/>
-      <c r="I82" s="397"/>
+      <c r="G82" s="439"/>
+      <c r="H82" s="439"/>
+      <c r="I82" s="439"/>
       <c r="J82" s="206"/>
       <c r="K82" s="206"/>
       <c r="L82" s="206"/>
       <c r="M82" s="206"/>
       <c r="N82" s="206"/>
-      <c r="O82" s="397"/>
-      <c r="P82" s="397"/>
-      <c r="Q82" s="397"/>
+      <c r="O82" s="439"/>
+      <c r="P82" s="439"/>
+      <c r="Q82" s="439"/>
       <c r="R82" s="206"/>
       <c r="S82" s="206"/>
       <c r="T82" s="206"/>
@@ -17362,10 +17362,10 @@
         <v>524</v>
       </c>
       <c r="C83" s="213"/>
-      <c r="D83" s="406" t="s">
+      <c r="D83" s="448" t="s">
         <v>64</v>
       </c>
-      <c r="E83" s="406"/>
+      <c r="E83" s="448"/>
       <c r="F83" s="206"/>
       <c r="G83" s="212"/>
       <c r="H83" s="212"/>
@@ -17406,10 +17406,10 @@
         <v>525</v>
       </c>
       <c r="C84" s="213"/>
-      <c r="D84" s="406" t="s">
+      <c r="D84" s="448" t="s">
         <v>65</v>
       </c>
-      <c r="E84" s="406"/>
+      <c r="E84" s="448"/>
       <c r="F84" s="206"/>
       <c r="G84" s="212"/>
       <c r="H84" s="212"/>
@@ -17451,9 +17451,9 @@
       <c r="D85" s="206"/>
       <c r="E85" s="206"/>
       <c r="F85" s="206"/>
-      <c r="G85" s="399"/>
-      <c r="H85" s="399"/>
-      <c r="I85" s="399"/>
+      <c r="G85" s="441"/>
+      <c r="H85" s="441"/>
+      <c r="I85" s="441"/>
       <c r="J85" s="206"/>
       <c r="K85" s="206"/>
       <c r="L85" s="206"/>
@@ -17486,35 +17486,35 @@
     </row>
     <row r="86" spans="1:75" ht="14.1" customHeight="1">
       <c r="A86" s="205"/>
-      <c r="B86" s="398" t="s">
+      <c r="B86" s="440" t="s">
         <v>38</v>
       </c>
-      <c r="C86" s="400"/>
-      <c r="D86" s="401"/>
-      <c r="E86" s="401"/>
-      <c r="F86" s="401"/>
-      <c r="G86" s="401"/>
-      <c r="H86" s="401"/>
-      <c r="I86" s="401"/>
-      <c r="J86" s="401"/>
-      <c r="K86" s="401"/>
-      <c r="L86" s="401"/>
-      <c r="M86" s="401"/>
-      <c r="N86" s="401"/>
-      <c r="O86" s="401"/>
-      <c r="P86" s="401"/>
-      <c r="Q86" s="401"/>
-      <c r="R86" s="401"/>
-      <c r="S86" s="401"/>
-      <c r="T86" s="401"/>
-      <c r="U86" s="401"/>
-      <c r="V86" s="401"/>
-      <c r="W86" s="401"/>
-      <c r="X86" s="401"/>
-      <c r="Y86" s="401"/>
-      <c r="Z86" s="401"/>
-      <c r="AA86" s="401"/>
-      <c r="AB86" s="402"/>
+      <c r="C86" s="442"/>
+      <c r="D86" s="443"/>
+      <c r="E86" s="443"/>
+      <c r="F86" s="443"/>
+      <c r="G86" s="443"/>
+      <c r="H86" s="443"/>
+      <c r="I86" s="443"/>
+      <c r="J86" s="443"/>
+      <c r="K86" s="443"/>
+      <c r="L86" s="443"/>
+      <c r="M86" s="443"/>
+      <c r="N86" s="443"/>
+      <c r="O86" s="443"/>
+      <c r="P86" s="443"/>
+      <c r="Q86" s="443"/>
+      <c r="R86" s="443"/>
+      <c r="S86" s="443"/>
+      <c r="T86" s="443"/>
+      <c r="U86" s="443"/>
+      <c r="V86" s="443"/>
+      <c r="W86" s="443"/>
+      <c r="X86" s="443"/>
+      <c r="Y86" s="443"/>
+      <c r="Z86" s="443"/>
+      <c r="AA86" s="443"/>
+      <c r="AB86" s="444"/>
       <c r="AC86" s="208"/>
       <c r="AD86" s="208"/>
       <c r="AE86" s="208"/>
@@ -17535,33 +17535,33 @@
     </row>
     <row r="87" spans="1:75" ht="28.5" customHeight="1">
       <c r="A87" s="205"/>
-      <c r="B87" s="398"/>
-      <c r="C87" s="403"/>
-      <c r="D87" s="404"/>
-      <c r="E87" s="404"/>
-      <c r="F87" s="404"/>
-      <c r="G87" s="404"/>
-      <c r="H87" s="404"/>
-      <c r="I87" s="404"/>
-      <c r="J87" s="404"/>
-      <c r="K87" s="404"/>
-      <c r="L87" s="404"/>
-      <c r="M87" s="404"/>
-      <c r="N87" s="404"/>
-      <c r="O87" s="404"/>
-      <c r="P87" s="404"/>
-      <c r="Q87" s="404"/>
-      <c r="R87" s="404"/>
-      <c r="S87" s="404"/>
-      <c r="T87" s="404"/>
-      <c r="U87" s="404"/>
-      <c r="V87" s="404"/>
-      <c r="W87" s="404"/>
-      <c r="X87" s="404"/>
-      <c r="Y87" s="404"/>
-      <c r="Z87" s="404"/>
-      <c r="AA87" s="404"/>
-      <c r="AB87" s="405"/>
+      <c r="B87" s="440"/>
+      <c r="C87" s="445"/>
+      <c r="D87" s="446"/>
+      <c r="E87" s="446"/>
+      <c r="F87" s="446"/>
+      <c r="G87" s="446"/>
+      <c r="H87" s="446"/>
+      <c r="I87" s="446"/>
+      <c r="J87" s="446"/>
+      <c r="K87" s="446"/>
+      <c r="L87" s="446"/>
+      <c r="M87" s="446"/>
+      <c r="N87" s="446"/>
+      <c r="O87" s="446"/>
+      <c r="P87" s="446"/>
+      <c r="Q87" s="446"/>
+      <c r="R87" s="446"/>
+      <c r="S87" s="446"/>
+      <c r="T87" s="446"/>
+      <c r="U87" s="446"/>
+      <c r="V87" s="446"/>
+      <c r="W87" s="446"/>
+      <c r="X87" s="446"/>
+      <c r="Y87" s="446"/>
+      <c r="Z87" s="446"/>
+      <c r="AA87" s="446"/>
+      <c r="AB87" s="447"/>
       <c r="AC87" s="208"/>
       <c r="AD87" s="208"/>
       <c r="AE87" s="208"/>
@@ -36655,6 +36655,207 @@
   </sheetData>
   <sheetProtection formatColumns="0" formatRows="0"/>
   <mergeCells count="225">
+    <mergeCell ref="C48:D49"/>
+    <mergeCell ref="C50:D51"/>
+    <mergeCell ref="C52:D53"/>
+    <mergeCell ref="C54:D55"/>
+    <mergeCell ref="C56:D57"/>
+    <mergeCell ref="C58:D59"/>
+    <mergeCell ref="C60:D61"/>
+    <mergeCell ref="C62:D63"/>
+    <mergeCell ref="C64:D65"/>
+    <mergeCell ref="E75:F75"/>
+    <mergeCell ref="E76:F76"/>
+    <mergeCell ref="E77:F77"/>
+    <mergeCell ref="E78:F78"/>
+    <mergeCell ref="E79:F79"/>
+    <mergeCell ref="A75:B79"/>
+    <mergeCell ref="E80:F80"/>
+    <mergeCell ref="E81:F81"/>
+    <mergeCell ref="A80:D80"/>
+    <mergeCell ref="A81:D81"/>
+    <mergeCell ref="E55:F55"/>
+    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="E57:F57"/>
+    <mergeCell ref="E58:F58"/>
+    <mergeCell ref="E59:F59"/>
+    <mergeCell ref="E69:F69"/>
+    <mergeCell ref="E70:F70"/>
+    <mergeCell ref="E71:F71"/>
+    <mergeCell ref="C68:D69"/>
+    <mergeCell ref="C70:D71"/>
+    <mergeCell ref="E60:F60"/>
+    <mergeCell ref="E61:F61"/>
+    <mergeCell ref="E62:F62"/>
+    <mergeCell ref="E63:F63"/>
+    <mergeCell ref="E64:F64"/>
+    <mergeCell ref="E65:F65"/>
+    <mergeCell ref="E66:F66"/>
+    <mergeCell ref="E67:F67"/>
+    <mergeCell ref="E68:F68"/>
+    <mergeCell ref="C66:D67"/>
+    <mergeCell ref="AG81:AH81"/>
+    <mergeCell ref="AI81:AJ81"/>
+    <mergeCell ref="G82:I82"/>
+    <mergeCell ref="O82:Q82"/>
+    <mergeCell ref="B86:B87"/>
+    <mergeCell ref="G85:I85"/>
+    <mergeCell ref="C86:AB87"/>
+    <mergeCell ref="D84:E84"/>
+    <mergeCell ref="D83:E83"/>
+    <mergeCell ref="AG75:AH75"/>
+    <mergeCell ref="AI75:AJ75"/>
+    <mergeCell ref="AG76:AH76"/>
+    <mergeCell ref="AI76:AJ76"/>
+    <mergeCell ref="AG77:AH77"/>
+    <mergeCell ref="AG80:AH80"/>
+    <mergeCell ref="AI77:AJ77"/>
+    <mergeCell ref="AI79:AJ79"/>
+    <mergeCell ref="AG79:AH79"/>
+    <mergeCell ref="AI80:AJ80"/>
+    <mergeCell ref="A42:B74"/>
+    <mergeCell ref="C42:D43"/>
+    <mergeCell ref="C44:D45"/>
+    <mergeCell ref="C46:D47"/>
+    <mergeCell ref="AG66:AH66"/>
+    <mergeCell ref="AI66:AJ66"/>
+    <mergeCell ref="AG68:AH68"/>
+    <mergeCell ref="AI68:AJ68"/>
+    <mergeCell ref="AG72:AH72"/>
+    <mergeCell ref="AI72:AJ72"/>
+    <mergeCell ref="AG54:AH54"/>
+    <mergeCell ref="AI54:AJ54"/>
+    <mergeCell ref="AG56:AH56"/>
+    <mergeCell ref="AI56:AJ56"/>
+    <mergeCell ref="AG58:AH58"/>
+    <mergeCell ref="AI58:AJ58"/>
+    <mergeCell ref="AG60:AH60"/>
+    <mergeCell ref="AI60:AJ60"/>
+    <mergeCell ref="AG62:AH62"/>
+    <mergeCell ref="AI62:AJ62"/>
+    <mergeCell ref="AG64:AH64"/>
+    <mergeCell ref="AI64:AJ64"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="AG46:AH46"/>
+    <mergeCell ref="AI46:AJ46"/>
+    <mergeCell ref="AG48:AH48"/>
+    <mergeCell ref="AI48:AJ48"/>
+    <mergeCell ref="AG50:AH50"/>
+    <mergeCell ref="AI50:AJ50"/>
+    <mergeCell ref="AG52:AH52"/>
+    <mergeCell ref="AI52:AJ52"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="AE6:AF6"/>
+    <mergeCell ref="AI6:AJ6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="BF2:BS2"/>
+    <mergeCell ref="AG5:AJ5"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="C72:D72"/>
+    <mergeCell ref="C73:D73"/>
+    <mergeCell ref="C74:D74"/>
+    <mergeCell ref="C75:D75"/>
+    <mergeCell ref="C76:D76"/>
+    <mergeCell ref="C77:D77"/>
+    <mergeCell ref="C78:D78"/>
+    <mergeCell ref="C79:D79"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="B27:B28"/>
     <mergeCell ref="G41:H41"/>
     <mergeCell ref="A41:F41"/>
     <mergeCell ref="E2:AB3"/>
@@ -36679,207 +36880,6 @@
     <mergeCell ref="C31:C32"/>
     <mergeCell ref="D31:D32"/>
     <mergeCell ref="A33:A34"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="C72:D72"/>
-    <mergeCell ref="C73:D73"/>
-    <mergeCell ref="C74:D74"/>
-    <mergeCell ref="C75:D75"/>
-    <mergeCell ref="C76:D76"/>
-    <mergeCell ref="C77:D77"/>
-    <mergeCell ref="C78:D78"/>
-    <mergeCell ref="C79:D79"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="BF2:BS2"/>
-    <mergeCell ref="AG5:AJ5"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="AE6:AF6"/>
-    <mergeCell ref="AI6:AJ6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="AG46:AH46"/>
-    <mergeCell ref="AI46:AJ46"/>
-    <mergeCell ref="AG48:AH48"/>
-    <mergeCell ref="AI48:AJ48"/>
-    <mergeCell ref="AG50:AH50"/>
-    <mergeCell ref="AI50:AJ50"/>
-    <mergeCell ref="AG52:AH52"/>
-    <mergeCell ref="AI52:AJ52"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="E47:F47"/>
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="E49:F49"/>
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="A42:B74"/>
-    <mergeCell ref="C42:D43"/>
-    <mergeCell ref="C44:D45"/>
-    <mergeCell ref="C46:D47"/>
-    <mergeCell ref="AG66:AH66"/>
-    <mergeCell ref="AI66:AJ66"/>
-    <mergeCell ref="AG68:AH68"/>
-    <mergeCell ref="AI68:AJ68"/>
-    <mergeCell ref="AG72:AH72"/>
-    <mergeCell ref="AI72:AJ72"/>
-    <mergeCell ref="AG54:AH54"/>
-    <mergeCell ref="AI54:AJ54"/>
-    <mergeCell ref="AG56:AH56"/>
-    <mergeCell ref="AI56:AJ56"/>
-    <mergeCell ref="AG58:AH58"/>
-    <mergeCell ref="AI58:AJ58"/>
-    <mergeCell ref="AG60:AH60"/>
-    <mergeCell ref="AI60:AJ60"/>
-    <mergeCell ref="AG62:AH62"/>
-    <mergeCell ref="AI62:AJ62"/>
-    <mergeCell ref="AG64:AH64"/>
-    <mergeCell ref="AI64:AJ64"/>
-    <mergeCell ref="E53:F53"/>
-    <mergeCell ref="E54:F54"/>
-    <mergeCell ref="AG75:AH75"/>
-    <mergeCell ref="AI75:AJ75"/>
-    <mergeCell ref="AG76:AH76"/>
-    <mergeCell ref="AI76:AJ76"/>
-    <mergeCell ref="AG77:AH77"/>
-    <mergeCell ref="AG80:AH80"/>
-    <mergeCell ref="AI77:AJ77"/>
-    <mergeCell ref="AI79:AJ79"/>
-    <mergeCell ref="AG79:AH79"/>
-    <mergeCell ref="AI80:AJ80"/>
-    <mergeCell ref="AG81:AH81"/>
-    <mergeCell ref="AI81:AJ81"/>
-    <mergeCell ref="G82:I82"/>
-    <mergeCell ref="O82:Q82"/>
-    <mergeCell ref="B86:B87"/>
-    <mergeCell ref="G85:I85"/>
-    <mergeCell ref="C86:AB87"/>
-    <mergeCell ref="D84:E84"/>
-    <mergeCell ref="D83:E83"/>
-    <mergeCell ref="E55:F55"/>
-    <mergeCell ref="E56:F56"/>
-    <mergeCell ref="E57:F57"/>
-    <mergeCell ref="E58:F58"/>
-    <mergeCell ref="E59:F59"/>
-    <mergeCell ref="E69:F69"/>
-    <mergeCell ref="E70:F70"/>
-    <mergeCell ref="E71:F71"/>
-    <mergeCell ref="C68:D69"/>
-    <mergeCell ref="C70:D71"/>
-    <mergeCell ref="E60:F60"/>
-    <mergeCell ref="E61:F61"/>
-    <mergeCell ref="E62:F62"/>
-    <mergeCell ref="E63:F63"/>
-    <mergeCell ref="E64:F64"/>
-    <mergeCell ref="E65:F65"/>
-    <mergeCell ref="E66:F66"/>
-    <mergeCell ref="E67:F67"/>
-    <mergeCell ref="E68:F68"/>
-    <mergeCell ref="C66:D67"/>
-    <mergeCell ref="E75:F75"/>
-    <mergeCell ref="E76:F76"/>
-    <mergeCell ref="E77:F77"/>
-    <mergeCell ref="E78:F78"/>
-    <mergeCell ref="E79:F79"/>
-    <mergeCell ref="A75:B79"/>
-    <mergeCell ref="E80:F80"/>
-    <mergeCell ref="E81:F81"/>
-    <mergeCell ref="A80:D80"/>
-    <mergeCell ref="A81:D81"/>
-    <mergeCell ref="C48:D49"/>
-    <mergeCell ref="C50:D51"/>
-    <mergeCell ref="C52:D53"/>
-    <mergeCell ref="C54:D55"/>
-    <mergeCell ref="C56:D57"/>
-    <mergeCell ref="C58:D59"/>
-    <mergeCell ref="C60:D61"/>
-    <mergeCell ref="C62:D63"/>
-    <mergeCell ref="C64:D65"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.118110236220472" right="0.118110236220472" top="0.35433070866141703" bottom="0.55118110236220497" header="0.31496062992126" footer="0.31496062992126"/>
@@ -37073,18 +37073,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -37106,6 +37106,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5458833A-D997-4113-BB83-F938CBB9D86E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ECA946AD-4EA3-4FCA-B864-262800288FDF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
@@ -37119,12 +37127,4 @@
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5458833A-D997-4113-BB83-F938CBB9D86E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/api/cp-dss-api/gateway/src/main/resources/reports/Vessel_1_Loading_Plan_Template.xlsx
+++ b/api/cp-dss-api/gateway/src/main/resources/reports/Vessel_1_Loading_Plan_Template.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="17316" windowHeight="6156" tabRatio="738" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17316" windowHeight="6156" tabRatio="738"/>
   </bookViews>
   <sheets>
     <sheet name="CRUD - 021 pg1" sheetId="27" r:id="rId1"/>
@@ -101,7 +101,7 @@
     <definedName name="SSSN_YESE">#REF!</definedName>
     <definedName name="SSSN_YS">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511" calcOnSave="0"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -2188,9 +2188,6 @@
     <t xml:space="preserve">Max.Bend Moment(Fr.No./%)    </t>
   </si>
   <si>
-    <t>LOADING PLAN</t>
-  </si>
-  <si>
     <t xml:space="preserve">   Tolerance +/- %</t>
   </si>
   <si>
@@ -2198,9 +2195,6 @@
   </si>
   <si>
     <t>Time required for Loading (Hrs)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     LOADING  SEQUENCE </t>
   </si>
   <si>
     <t>Restricting Load Line Zone for the Voyage:</t>
@@ -3806,6 +3800,12 @@
   </si>
   <si>
     <t>${sheetOne.loadLineZone}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     LOADING  SEQUENCE @ ${sheetOne.portName}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LOADING PLAN </t>
   </si>
 </sst>
 </file>
@@ -7311,8 +7311,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AS75"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="W11" sqref="W11:Z11"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="L3" sqref="L3:O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="17.25" customHeight="1"/>
@@ -7370,7 +7370,7 @@
       <c r="J3" s="47"/>
       <c r="K3" s="47"/>
       <c r="L3" s="245" t="s">
-        <v>49</v>
+        <v>584</v>
       </c>
       <c r="M3" s="245"/>
       <c r="N3" s="245"/>
@@ -7395,7 +7395,7 @@
       </c>
       <c r="C4" s="47"/>
       <c r="D4" s="251" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E4" s="251"/>
       <c r="F4" s="251"/>
@@ -7428,7 +7428,7 @@
       </c>
       <c r="C5" s="51"/>
       <c r="D5" s="324" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E5" s="324"/>
       <c r="F5" s="324"/>
@@ -7452,7 +7452,7 @@
         <v>8</v>
       </c>
       <c r="V5" s="268" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="W5" s="268"/>
       <c r="X5" s="268"/>
@@ -7488,7 +7488,7 @@
         <v>8</v>
       </c>
       <c r="V6" s="269" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="W6" s="269"/>
       <c r="X6" s="269"/>
@@ -7500,21 +7500,21 @@
     <row r="7" spans="1:32" ht="17.25" customHeight="1">
       <c r="A7" s="57"/>
       <c r="B7" s="58" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C7" s="252" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D7" s="252"/>
       <c r="E7" s="252"/>
       <c r="F7" s="252"/>
       <c r="G7" s="252"/>
       <c r="H7" s="259" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I7" s="259"/>
       <c r="J7" s="252" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="K7" s="252"/>
       <c r="L7" s="252"/>
@@ -7532,7 +7532,7 @@
         <v>8</v>
       </c>
       <c r="V7" s="269" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="W7" s="269"/>
       <c r="X7" s="269"/>
@@ -7618,7 +7618,7 @@
       <c r="N10" s="60"/>
       <c r="O10" s="60"/>
       <c r="P10" s="61" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="62"/>
       <c r="R10" s="62"/>
@@ -7629,7 +7629,7 @@
       <c r="W10" s="61"/>
       <c r="X10" s="61"/>
       <c r="Y10" s="273" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="Z10" s="273"/>
       <c r="AB10" s="56"/>
@@ -7655,7 +7655,7 @@
       <c r="N11" s="65"/>
       <c r="O11" s="66"/>
       <c r="P11" s="67" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="Q11" s="67"/>
       <c r="R11" s="67"/>
@@ -7664,7 +7664,7 @@
       <c r="U11" s="67"/>
       <c r="V11" s="68"/>
       <c r="W11" s="274" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="X11" s="274"/>
       <c r="Y11" s="274"/>
@@ -7688,7 +7688,7 @@
       <c r="N12" s="71"/>
       <c r="O12" s="71"/>
       <c r="P12" s="272" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="Q12" s="272"/>
       <c r="R12" s="272"/>
@@ -7750,29 +7750,29 @@
       <c r="A15" s="70"/>
       <c r="B15" s="75"/>
       <c r="C15" s="76" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D15" s="77"/>
       <c r="E15" s="76" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F15" s="78"/>
       <c r="G15" s="223" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="H15" s="315"/>
       <c r="I15" s="316"/>
       <c r="J15" s="79" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="K15" s="80"/>
       <c r="L15" s="223" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="M15" s="315"/>
       <c r="N15" s="316"/>
       <c r="O15" s="79" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="P15" s="80"/>
       <c r="Q15" s="81"/>
@@ -7792,35 +7792,35 @@
       <c r="A16" s="84"/>
       <c r="B16" s="85"/>
       <c r="C16" s="247" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D16" s="248"/>
       <c r="E16" s="247" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F16" s="249"/>
       <c r="G16" s="247" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="H16" s="248"/>
       <c r="I16" s="249"/>
       <c r="J16" s="247" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="K16" s="249"/>
       <c r="L16" s="247" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="M16" s="248"/>
       <c r="N16" s="249"/>
       <c r="O16" s="247" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="P16" s="249"/>
       <c r="Q16" s="85"/>
       <c r="S16" s="71"/>
       <c r="T16" s="275" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="U16" s="275"/>
       <c r="V16" s="275"/>
@@ -7829,7 +7829,7 @@
         <v>8</v>
       </c>
       <c r="Y16" s="277" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="Z16" s="277"/>
       <c r="AF16" s="104"/>
@@ -7838,45 +7838,45 @@
       <c r="A17" s="84"/>
       <c r="B17" s="85"/>
       <c r="C17" s="86" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D17" s="87" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E17" s="86" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="F17" s="88" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G17" s="220" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="H17" s="285" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="I17" s="286"/>
       <c r="J17" s="86" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="K17" s="87" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="L17" s="220" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="M17" s="285" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="N17" s="286"/>
       <c r="O17" s="86" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="P17" s="89" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="Q17" s="240" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="S17" s="71"/>
       <c r="T17" s="84"/>
@@ -7898,33 +7898,33 @@
       <c r="A18" s="84"/>
       <c r="B18" s="91"/>
       <c r="C18" s="260" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D18" s="250"/>
       <c r="E18" s="260" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F18" s="261"/>
       <c r="G18" s="260" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H18" s="250"/>
       <c r="I18" s="261"/>
       <c r="J18" s="250" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="K18" s="250"/>
       <c r="L18" s="253" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="M18" s="254"/>
       <c r="N18" s="255"/>
       <c r="O18" s="250" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="P18" s="250"/>
       <c r="Q18" s="276" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="S18" s="71"/>
       <c r="T18" s="270"/>
@@ -7942,45 +7942,45 @@
     <row r="19" spans="1:45" s="69" customFormat="1" ht="12" customHeight="1">
       <c r="A19" s="84"/>
       <c r="B19" s="240" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="C19" s="224" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D19" s="225" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E19" s="224" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F19" s="225" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G19" s="226" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="H19" s="262" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I19" s="263"/>
       <c r="J19" s="224" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="K19" s="225" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="L19" s="224" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="M19" s="262" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="N19" s="263"/>
       <c r="O19" s="227" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="P19" s="225" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="Q19" s="276"/>
       <c r="S19" s="71"/>
@@ -7998,48 +7998,48 @@
       <c r="AD19"/>
       <c r="AE19"/>
       <c r="AF19" s="243" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="AG19"/>
     </row>
     <row r="20" spans="1:45" s="69" customFormat="1" ht="12" customHeight="1">
       <c r="A20" s="84"/>
       <c r="B20" s="246" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C20" s="92" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D20" s="278" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E20" s="279"/>
       <c r="F20" s="280"/>
       <c r="G20" s="221" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="H20" s="264" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="I20" s="265"/>
       <c r="J20" s="92" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="K20" s="94" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="L20" s="95" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="M20" s="281" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="N20" s="282"/>
       <c r="O20" s="95" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="P20" s="93" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="Q20" s="233"/>
       <c r="S20" s="71"/>
@@ -8054,7 +8054,7 @@
       <c r="AD20"/>
       <c r="AE20"/>
       <c r="AF20" s="283" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="AG20"/>
     </row>
@@ -8062,27 +8062,27 @@
       <c r="A21" s="84"/>
       <c r="B21" s="246"/>
       <c r="C21" s="260" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D21" s="250"/>
       <c r="E21" s="250"/>
       <c r="F21" s="261"/>
       <c r="G21" s="260" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="H21" s="250"/>
       <c r="I21" s="261"/>
       <c r="J21" s="253" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="K21" s="255"/>
       <c r="L21" s="253" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="M21" s="254"/>
       <c r="N21" s="255"/>
       <c r="O21" s="253" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="P21" s="255"/>
       <c r="Q21" s="234"/>
@@ -8104,38 +8104,38 @@
       <c r="A22" s="84"/>
       <c r="B22" s="85"/>
       <c r="C22" s="228" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D22" s="308" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E22" s="308"/>
       <c r="F22" s="309"/>
       <c r="G22" s="229" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H22" s="308" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="I22" s="309"/>
       <c r="J22" s="230" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="K22" s="231" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="L22" s="230" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="M22" s="308" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="N22" s="309"/>
       <c r="O22" s="232" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="P22" s="231" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="Q22" s="98"/>
       <c r="S22" s="71"/>
@@ -8155,45 +8155,45 @@
       <c r="A23" s="84"/>
       <c r="B23" s="85"/>
       <c r="C23" s="92" t="s">
+        <v>274</v>
+      </c>
+      <c r="D23" s="89" t="s">
+        <v>90</v>
+      </c>
+      <c r="E23" s="92" t="s">
         <v>276</v>
       </c>
-      <c r="D23" s="89" t="s">
-        <v>92</v>
-      </c>
-      <c r="E23" s="92" t="s">
-        <v>278</v>
-      </c>
       <c r="F23" s="89" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G23" s="221" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="H23" s="264" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="I23" s="265"/>
       <c r="J23" s="92" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="K23" s="89" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="L23" s="221" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="M23" s="264" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="N23" s="265"/>
       <c r="O23" s="92" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="P23" s="89" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="Q23" s="240" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="S23" s="71"/>
       <c r="T23" s="73" t="s">
@@ -8216,44 +8216,44 @@
       <c r="A24" s="84"/>
       <c r="B24" s="85"/>
       <c r="C24" s="260" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D24" s="250"/>
       <c r="E24" s="260" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F24" s="250"/>
       <c r="G24" s="256" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="H24" s="257"/>
       <c r="I24" s="258"/>
       <c r="J24" s="260" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="K24" s="250"/>
       <c r="L24" s="256" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="M24" s="257"/>
       <c r="N24" s="258"/>
       <c r="O24" s="260" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="P24" s="250"/>
       <c r="Q24" s="276" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="S24" s="71"/>
       <c r="T24" s="288" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="U24" s="288"/>
       <c r="V24" s="288"/>
       <c r="W24" s="288"/>
       <c r="X24" s="82"/>
       <c r="Y24" s="99" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="Z24" s="74"/>
       <c r="AD24"/>
@@ -8267,42 +8267,42 @@
       <c r="A25" s="84"/>
       <c r="B25" s="85"/>
       <c r="C25" s="224" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D25" s="225" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E25" s="224" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F25" s="225" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G25" s="226" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H25" s="266" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="I25" s="267"/>
       <c r="J25" s="224" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="K25" s="225" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="L25" s="224" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="M25" s="310" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="N25" s="311"/>
       <c r="O25" s="224" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="P25" s="225" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="Q25" s="276"/>
       <c r="S25" s="71"/>
@@ -8324,29 +8324,29 @@
       <c r="A26" s="70"/>
       <c r="B26" s="85"/>
       <c r="C26" s="100" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D26" s="101"/>
       <c r="E26" s="100" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="F26" s="102"/>
       <c r="G26" s="222" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="H26" s="313"/>
       <c r="I26" s="314"/>
       <c r="J26" s="100" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="K26" s="103"/>
       <c r="L26" s="222" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="M26" s="313"/>
       <c r="N26" s="314"/>
       <c r="O26" s="76" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="P26" s="103"/>
       <c r="Q26" s="85"/>
@@ -8361,7 +8361,7 @@
       </c>
       <c r="X26" s="82"/>
       <c r="Y26" s="99" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="Z26" s="71"/>
       <c r="AD26"/>
@@ -8375,36 +8375,36 @@
       <c r="A27" s="84"/>
       <c r="B27" s="75"/>
       <c r="C27" s="247" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D27" s="248"/>
       <c r="E27" s="247" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F27" s="248"/>
       <c r="G27" s="247" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="H27" s="248"/>
       <c r="I27" s="249"/>
       <c r="J27" s="247" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="K27" s="248"/>
       <c r="L27" s="247" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="M27" s="248"/>
       <c r="N27" s="249"/>
       <c r="O27" s="247" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="P27" s="249"/>
       <c r="Q27" s="104"/>
       <c r="R27" s="71"/>
       <c r="S27" s="73"/>
       <c r="T27" s="287" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="U27" s="287"/>
       <c r="V27" s="287"/>
@@ -8413,7 +8413,7 @@
       </c>
       <c r="X27" s="82"/>
       <c r="Y27" s="99" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="Z27" s="73"/>
       <c r="AD27"/>
@@ -8453,7 +8453,7 @@
       </c>
       <c r="X28" s="73"/>
       <c r="Y28" s="99" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="Z28" s="73"/>
       <c r="AD28"/>
@@ -8603,7 +8603,7 @@
       <c r="R32" s="112"/>
       <c r="S32" s="112"/>
       <c r="T32" s="289" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="U32" s="289"/>
       <c r="V32" s="289"/>
@@ -8612,7 +8612,7 @@
         <v>8</v>
       </c>
       <c r="Y32" s="277" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="Z32" s="277"/>
       <c r="AD32"/>
@@ -8636,29 +8636,29 @@
       <c r="A33" s="70"/>
       <c r="B33" s="75"/>
       <c r="C33" s="76" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D33" s="77"/>
       <c r="E33" s="76" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="F33" s="78"/>
       <c r="G33" s="223" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="H33" s="315"/>
       <c r="I33" s="316"/>
       <c r="J33" s="217" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="K33" s="80"/>
       <c r="L33" s="223" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="M33" s="315"/>
       <c r="N33" s="316"/>
       <c r="O33" s="217" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="P33" s="80"/>
       <c r="Q33" s="81"/>
@@ -8693,29 +8693,29 @@
       <c r="A34" s="118"/>
       <c r="B34" s="85"/>
       <c r="C34" s="247" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D34" s="249"/>
       <c r="E34" s="247" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F34" s="249"/>
       <c r="G34" s="247" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H34" s="248"/>
       <c r="I34" s="249"/>
       <c r="J34" s="247" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="K34" s="249"/>
       <c r="L34" s="247" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="M34" s="248"/>
       <c r="N34" s="249"/>
       <c r="O34" s="247" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="P34" s="249"/>
       <c r="Q34" s="85"/>
@@ -8750,45 +8750,45 @@
       <c r="A35" s="118"/>
       <c r="B35" s="85"/>
       <c r="C35" s="220" t="s">
+        <v>295</v>
+      </c>
+      <c r="D35" s="87" t="s">
+        <v>96</v>
+      </c>
+      <c r="E35" s="220" t="s">
+        <v>296</v>
+      </c>
+      <c r="F35" s="88" t="s">
+        <v>124</v>
+      </c>
+      <c r="G35" s="220" t="s">
         <v>297</v>
       </c>
-      <c r="D35" s="87" t="s">
-        <v>98</v>
-      </c>
-      <c r="E35" s="220" t="s">
-        <v>298</v>
-      </c>
-      <c r="F35" s="88" t="s">
-        <v>126</v>
-      </c>
-      <c r="G35" s="220" t="s">
-        <v>299</v>
-      </c>
       <c r="H35" s="285" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="I35" s="286"/>
       <c r="J35" s="220" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="K35" s="87" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="L35" s="220" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="M35" s="285" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="N35" s="286"/>
       <c r="O35" s="220" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="P35" s="89" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="Q35" s="244" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="S35" s="116"/>
       <c r="T35" s="117"/>
@@ -8824,33 +8824,33 @@
       <c r="A36" s="118"/>
       <c r="B36" s="85"/>
       <c r="C36" s="260" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D36" s="261"/>
       <c r="E36" s="260" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F36" s="261"/>
       <c r="G36" s="260" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="H36" s="250"/>
       <c r="I36" s="261"/>
       <c r="J36" s="260" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="K36" s="261"/>
       <c r="L36" s="253" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="M36" s="254"/>
       <c r="N36" s="255"/>
       <c r="O36" s="260" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="P36" s="261"/>
       <c r="Q36" s="276" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="S36" s="116"/>
       <c r="T36" s="117"/>
@@ -8882,45 +8882,45 @@
     <row r="37" spans="1:45" s="69" customFormat="1" ht="12" customHeight="1">
       <c r="A37" s="118"/>
       <c r="B37" s="242" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C37" s="224" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D37" s="225" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E37" s="224" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F37" s="225" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G37" s="224" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="H37" s="262" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="I37" s="263"/>
       <c r="J37" s="224" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="K37" s="225" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="L37" s="224" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="M37" s="262" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="N37" s="263"/>
       <c r="O37" s="227" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="P37" s="225" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="Q37" s="276"/>
       <c r="S37" s="126"/>
@@ -8936,7 +8936,7 @@
         <v>34</v>
       </c>
       <c r="AF37" s="243" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="AG37" s="237"/>
       <c r="AH37" s="237"/>
@@ -8955,41 +8955,41 @@
     <row r="38" spans="1:45" s="69" customFormat="1" ht="12" customHeight="1">
       <c r="A38" s="118"/>
       <c r="B38" s="246" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C38" s="218" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D38" s="279" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E38" s="279"/>
       <c r="F38" s="312"/>
       <c r="G38" s="221" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="H38" s="264" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="I38" s="265"/>
       <c r="J38" s="218" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="K38" s="219" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="L38" s="95" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="M38" s="281" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="N38" s="282"/>
       <c r="O38" s="95" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="P38" s="93" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="Q38" s="233"/>
       <c r="S38" s="116"/>
@@ -9001,7 +9001,7 @@
       <c r="Y38" s="127"/>
       <c r="Z38" s="71"/>
       <c r="AF38" s="283" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="AG38" s="236"/>
       <c r="AH38" s="236"/>
@@ -9021,27 +9021,27 @@
       <c r="A39" s="118"/>
       <c r="B39" s="246"/>
       <c r="C39" s="260" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D39" s="250"/>
       <c r="E39" s="250"/>
       <c r="F39" s="261"/>
       <c r="G39" s="260" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="H39" s="250"/>
       <c r="I39" s="261"/>
       <c r="J39" s="253" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="K39" s="255"/>
       <c r="L39" s="253" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="M39" s="254"/>
       <c r="N39" s="255"/>
       <c r="O39" s="253" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="P39" s="255"/>
       <c r="Q39" s="234"/>
@@ -9074,50 +9074,50 @@
       <c r="A40" s="118"/>
       <c r="B40" s="85"/>
       <c r="C40" s="228" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D40" s="308" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E40" s="308"/>
       <c r="F40" s="309"/>
       <c r="G40" s="229" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="H40" s="308" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I40" s="309"/>
       <c r="J40" s="230" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="K40" s="231" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="L40" s="230" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="M40" s="308" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="N40" s="309"/>
       <c r="O40" s="232" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="P40" s="231" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="Q40" s="98"/>
       <c r="S40" s="65"/>
       <c r="T40" s="288" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="U40" s="288"/>
       <c r="V40" s="288"/>
       <c r="W40" s="288"/>
       <c r="X40" s="82"/>
       <c r="Y40" s="128" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="Z40" s="74"/>
       <c r="AF40" s="241"/>
@@ -9139,45 +9139,45 @@
       <c r="A41" s="118"/>
       <c r="B41" s="85"/>
       <c r="C41" s="218" t="s">
+        <v>306</v>
+      </c>
+      <c r="D41" s="89" t="s">
+        <v>104</v>
+      </c>
+      <c r="E41" s="218" t="s">
+        <v>307</v>
+      </c>
+      <c r="F41" s="89" t="s">
+        <v>132</v>
+      </c>
+      <c r="G41" s="221" t="s">
         <v>308</v>
       </c>
-      <c r="D41" s="89" t="s">
-        <v>106</v>
-      </c>
-      <c r="E41" s="218" t="s">
-        <v>309</v>
-      </c>
-      <c r="F41" s="89" t="s">
-        <v>134</v>
-      </c>
-      <c r="G41" s="221" t="s">
-        <v>310</v>
-      </c>
       <c r="H41" s="264" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="I41" s="265"/>
       <c r="J41" s="218" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="K41" s="89" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="L41" s="221" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="M41" s="264" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="N41" s="265"/>
       <c r="O41" s="218" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="P41" s="89" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="Q41" s="244" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="S41" s="112"/>
       <c r="T41" s="71"/>
@@ -9206,33 +9206,33 @@
       <c r="A42" s="118"/>
       <c r="B42" s="85"/>
       <c r="C42" s="260" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D42" s="261"/>
       <c r="E42" s="260" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F42" s="261"/>
       <c r="G42" s="256" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="H42" s="257"/>
       <c r="I42" s="258"/>
       <c r="J42" s="260" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="K42" s="261"/>
       <c r="L42" s="256" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="M42" s="257"/>
       <c r="N42" s="258"/>
       <c r="O42" s="260" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="P42" s="261"/>
       <c r="Q42" s="276" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="S42" s="71"/>
       <c r="T42" s="287" t="s">
@@ -9245,7 +9245,7 @@
       </c>
       <c r="X42" s="82"/>
       <c r="Y42" s="128" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="Z42" s="71"/>
       <c r="AF42" s="104"/>
@@ -9267,47 +9267,47 @@
       <c r="A43" s="118"/>
       <c r="B43" s="85"/>
       <c r="C43" s="224" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D43" s="225" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E43" s="224" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F43" s="225" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="G43" s="224" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="H43" s="266" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="I43" s="267"/>
       <c r="J43" s="224" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="K43" s="225" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="L43" s="224" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="M43" s="262" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="N43" s="263"/>
       <c r="O43" s="224" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="P43" s="225" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="Q43" s="276"/>
       <c r="S43" s="71"/>
       <c r="T43" s="287" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="U43" s="287"/>
       <c r="V43" s="287"/>
@@ -9316,7 +9316,7 @@
       </c>
       <c r="X43" s="82"/>
       <c r="Y43" s="128" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="Z43" s="73"/>
       <c r="AF43" s="104"/>
@@ -9338,29 +9338,29 @@
       <c r="A44" s="129"/>
       <c r="B44" s="85"/>
       <c r="C44" s="100" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D44" s="101"/>
       <c r="E44" s="100" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="F44" s="102"/>
       <c r="G44" s="223" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="H44" s="315"/>
       <c r="I44" s="316"/>
       <c r="J44" s="100" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="K44" s="103"/>
       <c r="L44" s="223" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="M44" s="315"/>
       <c r="N44" s="316"/>
       <c r="O44" s="76" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="P44" s="103"/>
       <c r="Q44" s="85"/>
@@ -9375,7 +9375,7 @@
       </c>
       <c r="X44" s="73"/>
       <c r="Y44" s="128" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="Z44" s="73"/>
       <c r="AC44" s="69" t="s">
@@ -9400,29 +9400,29 @@
       <c r="A45" s="84"/>
       <c r="B45" s="75"/>
       <c r="C45" s="247" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D45" s="249"/>
       <c r="E45" s="247" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F45" s="249"/>
       <c r="G45" s="247" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="H45" s="248"/>
       <c r="I45" s="249"/>
       <c r="J45" s="247" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="K45" s="249"/>
       <c r="L45" s="247" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="M45" s="248"/>
       <c r="N45" s="249"/>
       <c r="O45" s="247" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="P45" s="249"/>
       <c r="Q45" s="104"/>
@@ -9542,13 +9542,13 @@
       <c r="G49" s="139"/>
       <c r="H49" s="140"/>
       <c r="I49" s="323" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="J49" s="323"/>
       <c r="K49" s="323"/>
       <c r="L49" s="323"/>
       <c r="M49" s="328" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="N49" s="329"/>
       <c r="O49" s="329"/>
@@ -9578,7 +9578,7 @@
       <c r="G50" s="139"/>
       <c r="H50" s="140"/>
       <c r="I50" s="323" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="J50" s="323"/>
       <c r="K50" s="323"/>
@@ -9604,7 +9604,7 @@
       <c r="A51" s="135"/>
       <c r="B51" s="141"/>
       <c r="C51" s="139" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="D51" s="139"/>
       <c r="E51" s="139"/>
@@ -9612,7 +9612,7 @@
       <c r="G51" s="139"/>
       <c r="H51" s="140"/>
       <c r="I51" s="323" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="J51" s="323"/>
       <c r="K51" s="323"/>
@@ -9646,7 +9646,7 @@
       <c r="G52" s="139"/>
       <c r="H52" s="140"/>
       <c r="I52" s="323" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="J52" s="323"/>
       <c r="K52" s="323"/>
@@ -9680,7 +9680,7 @@
       <c r="G53" s="139"/>
       <c r="H53" s="140"/>
       <c r="I53" s="323" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="J53" s="323"/>
       <c r="K53" s="323"/>
@@ -9714,7 +9714,7 @@
       <c r="G54" s="338"/>
       <c r="H54" s="339"/>
       <c r="I54" s="322" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="J54" s="322"/>
       <c r="K54" s="322"/>
@@ -9844,7 +9844,7 @@
         <v>4</v>
       </c>
       <c r="C58" s="143" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D58" s="143"/>
       <c r="E58" s="143"/>
@@ -9943,7 +9943,7 @@
         <v>24</v>
       </c>
       <c r="B61" s="148" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C61" s="148"/>
       <c r="D61" s="148"/>
@@ -9983,7 +9983,7 @@
       <c r="D62" s="151"/>
       <c r="E62" s="152"/>
       <c r="F62" s="303" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="G62" s="303"/>
       <c r="H62" s="303"/>
@@ -10021,7 +10021,7 @@
       </c>
       <c r="E63" s="321"/>
       <c r="F63" s="303" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="G63" s="303"/>
       <c r="H63" s="303"/>
@@ -10057,7 +10057,7 @@
       <c r="D64" s="151"/>
       <c r="E64" s="152"/>
       <c r="F64" s="303" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="G64" s="303"/>
       <c r="H64" s="303"/>
@@ -10093,7 +10093,7 @@
       <c r="D65" s="151"/>
       <c r="E65" s="152"/>
       <c r="F65" s="303" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G65" s="303"/>
       <c r="H65" s="303"/>
@@ -10129,7 +10129,7 @@
       <c r="D66" s="151"/>
       <c r="E66" s="152"/>
       <c r="F66" s="303" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G66" s="303"/>
       <c r="H66" s="303"/>
@@ -10159,13 +10159,13 @@
     <row r="67" spans="1:30" ht="17.25" customHeight="1">
       <c r="A67" s="69"/>
       <c r="B67" s="319" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C67" s="320"/>
       <c r="D67" s="320"/>
       <c r="E67" s="321"/>
       <c r="F67" s="303" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="G67" s="303"/>
       <c r="H67" s="303"/>
@@ -10195,13 +10195,13 @@
     <row r="68" spans="1:30" ht="17.25" customHeight="1">
       <c r="A68" s="69"/>
       <c r="B68" s="150" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C68" s="151"/>
       <c r="D68" s="151"/>
       <c r="E68" s="152"/>
       <c r="F68" s="303" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="G68" s="303"/>
       <c r="H68" s="303"/>
@@ -10231,13 +10231,13 @@
     <row r="69" spans="1:30" ht="17.25" customHeight="1">
       <c r="A69" s="69"/>
       <c r="B69" s="150" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C69" s="151"/>
       <c r="D69" s="151"/>
       <c r="E69" s="152"/>
       <c r="F69" s="303" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="G69" s="303"/>
       <c r="H69" s="303"/>
@@ -10273,7 +10273,7 @@
       <c r="D70" s="151"/>
       <c r="E70" s="152"/>
       <c r="F70" s="300" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="G70" s="301"/>
       <c r="H70" s="301"/>
@@ -10302,7 +10302,7 @@
     </row>
     <row r="71" spans="1:30" ht="15.75" customHeight="1">
       <c r="A71" s="157" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B71" s="69"/>
       <c r="C71" s="158"/>
@@ -10598,9 +10598,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB45"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="V14" sqref="V14:W14"/>
-    </sheetView>
+    <sheetView showGridLines="0" showRowColHeaders="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
@@ -10614,18 +10612,18 @@
     <row r="1" spans="1:28"/>
     <row r="2" spans="1:28">
       <c r="A2" s="2" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="3" spans="1:28">
       <c r="A3" s="3" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="4" spans="1:28"/>
     <row r="5" spans="1:28">
       <c r="A5" s="2" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="B5" s="38"/>
       <c r="C5" s="38"/>
@@ -10660,7 +10658,7 @@
     </row>
     <row r="7" spans="1:28">
       <c r="B7" s="7" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
@@ -10683,69 +10681,69 @@
     </row>
     <row r="8" spans="1:28">
       <c r="B8" s="346" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="C8" s="346"/>
       <c r="D8" s="346"/>
       <c r="E8" s="346"/>
       <c r="F8" s="344" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="G8" s="345"/>
       <c r="J8" s="346" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="K8" s="346"/>
       <c r="L8" s="346"/>
       <c r="M8" s="347"/>
       <c r="N8" s="344" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="O8" s="345"/>
       <c r="R8" s="8"/>
     </row>
     <row r="9" spans="1:28">
       <c r="B9" s="346" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C9" s="346"/>
       <c r="D9" s="346"/>
       <c r="E9" s="346"/>
       <c r="F9" s="344" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="G9" s="345"/>
       <c r="J9" s="346" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="K9" s="346"/>
       <c r="L9" s="346"/>
       <c r="M9" s="347"/>
       <c r="N9" s="344" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="O9" s="345"/>
       <c r="R9" s="8"/>
     </row>
     <row r="10" spans="1:28">
       <c r="B10" s="346" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="C10" s="346"/>
       <c r="D10" s="346"/>
       <c r="E10" s="346"/>
       <c r="F10" s="344" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="G10" s="345"/>
       <c r="J10" s="346" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="K10" s="346"/>
       <c r="L10" s="346"/>
       <c r="M10" s="347"/>
       <c r="N10" s="344" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="O10" s="345"/>
       <c r="R10" s="8"/>
@@ -10780,33 +10778,33 @@
     </row>
     <row r="13" spans="1:28">
       <c r="B13" s="358" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="C13" s="358"/>
       <c r="D13" s="358"/>
       <c r="E13" s="344" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="F13" s="345"/>
       <c r="H13" s="12" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="I13" s="12"/>
       <c r="J13" s="12"/>
       <c r="K13" s="353" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="L13" s="353" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="M13" s="11"/>
       <c r="N13" s="358" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="O13" s="358"/>
       <c r="P13" s="358"/>
       <c r="Q13" s="344" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="R13" s="345"/>
       <c r="S13" s="13"/>
@@ -10814,71 +10812,71 @@
     </row>
     <row r="14" spans="1:28">
       <c r="B14" s="358" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="C14" s="358"/>
       <c r="D14" s="358"/>
       <c r="E14" s="344" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="F14" s="345"/>
       <c r="H14" s="12" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="I14" s="12"/>
       <c r="J14" s="12"/>
       <c r="K14" s="353" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="L14" s="353"/>
       <c r="M14" s="11"/>
       <c r="N14" s="358" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="O14" s="358"/>
       <c r="P14" s="358"/>
       <c r="Q14" s="344" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="R14" s="345"/>
       <c r="T14" s="358" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="U14" s="358"/>
       <c r="V14" s="344" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="W14" s="345"/>
     </row>
     <row r="15" spans="1:28">
       <c r="B15" s="358" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="C15" s="358"/>
       <c r="D15" s="358"/>
       <c r="E15" s="344" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="F15" s="345"/>
       <c r="H15" s="12" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="I15" s="12"/>
       <c r="J15" s="12"/>
       <c r="K15" s="353" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="L15" s="353" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="M15" s="11"/>
       <c r="N15" s="358" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="O15" s="358"/>
       <c r="P15" s="358"/>
       <c r="Q15" s="344" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="R15" s="345"/>
       <c r="S15" s="13"/>
@@ -10891,7 +10889,7 @@
     </row>
     <row r="17" spans="2:22">
       <c r="B17" s="15" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
@@ -10909,59 +10907,59 @@
     </row>
     <row r="18" spans="2:22" ht="15" customHeight="1">
       <c r="B18" s="20" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="C18" s="20"/>
       <c r="D18" s="5"/>
       <c r="E18" s="16"/>
       <c r="F18" s="351" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="G18" s="352"/>
       <c r="H18" s="344" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="I18" s="345"/>
       <c r="J18" s="16"/>
       <c r="K18" s="351" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="L18" s="352"/>
       <c r="M18" s="344" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="N18" s="345"/>
       <c r="O18" s="19"/>
     </row>
     <row r="19" spans="2:22" ht="15" customHeight="1">
       <c r="B19" s="20" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
       <c r="E19" s="16"/>
       <c r="F19" s="351" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="G19" s="352"/>
       <c r="H19" s="344" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="I19" s="345"/>
       <c r="J19" s="16"/>
       <c r="K19" s="351" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="L19" s="352"/>
       <c r="M19" s="344" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="N19" s="345"/>
       <c r="O19" s="19"/>
     </row>
     <row r="20" spans="2:22">
       <c r="B20" s="20" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
@@ -10979,7 +10977,7 @@
     </row>
     <row r="22" spans="2:22">
       <c r="B22" s="15" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
@@ -11004,7 +11002,7 @@
     </row>
     <row r="23" spans="2:22">
       <c r="B23" s="20" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
@@ -11012,15 +11010,15 @@
       <c r="F23" s="16"/>
       <c r="G23" s="4"/>
       <c r="H23" s="353" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="I23" s="353" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="J23" s="16"/>
       <c r="K23" s="16"/>
       <c r="L23" s="354" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="M23" s="355"/>
       <c r="N23" s="356"/>
@@ -11035,7 +11033,7 @@
     </row>
     <row r="24" spans="2:22">
       <c r="B24" s="360" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="C24" s="360"/>
       <c r="D24" s="360"/>
@@ -11060,7 +11058,7 @@
     </row>
     <row r="25" spans="2:22">
       <c r="B25" s="22" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
@@ -11108,7 +11106,7 @@
     </row>
     <row r="28" spans="2:22">
       <c r="B28" s="15" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
@@ -11128,21 +11126,21 @@
     </row>
     <row r="29" spans="2:22">
       <c r="B29" s="4" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="C29" s="356" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="D29" s="359"/>
       <c r="E29" s="359"/>
       <c r="F29" s="357"/>
       <c r="H29" s="366" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="I29" s="366"/>
       <c r="J29" s="366"/>
       <c r="K29" s="27" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="L29" s="28"/>
       <c r="M29" s="27"/>
@@ -11150,7 +11148,7 @@
     </row>
     <row r="30" spans="2:22">
       <c r="B30" s="29" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="C30" s="31"/>
       <c r="D30" s="31"/>
@@ -11170,7 +11168,7 @@
     </row>
     <row r="31" spans="2:22">
       <c r="B31" s="31" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="C31" s="31"/>
       <c r="D31" s="31"/>
@@ -11190,7 +11188,7 @@
     </row>
     <row r="32" spans="2:22">
       <c r="B32" s="29" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="C32" s="31"/>
       <c r="D32" s="31"/>
@@ -11228,7 +11226,7 @@
     </row>
     <row r="34" spans="1:25">
       <c r="A34" s="2" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="B34" s="39"/>
       <c r="C34" s="39"/>
@@ -11258,33 +11256,33 @@
     <row r="35" spans="1:25">
       <c r="A35" s="41"/>
       <c r="B35" s="374" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="C35" s="375"/>
       <c r="D35" s="375"/>
       <c r="E35" s="375"/>
       <c r="F35" s="376"/>
       <c r="G35" s="364" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="H35" s="364"/>
       <c r="I35" s="364"/>
       <c r="J35" s="364"/>
       <c r="K35" s="364"/>
       <c r="L35" s="42" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="M35" s="371"/>
       <c r="N35" s="372"/>
       <c r="O35" s="373"/>
       <c r="P35" s="378" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="Q35" s="379"/>
       <c r="R35" s="379"/>
       <c r="S35" s="380"/>
       <c r="T35" s="361" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="U35" s="362"/>
       <c r="V35" s="362"/>
@@ -11311,13 +11309,13 @@
       <c r="N36" s="368"/>
       <c r="O36" s="369"/>
       <c r="P36" s="378" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="Q36" s="379"/>
       <c r="R36" s="379"/>
       <c r="S36" s="380"/>
       <c r="T36" s="364" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="U36" s="364"/>
       <c r="V36" s="364"/>
@@ -11328,14 +11326,14 @@
     <row r="37" spans="1:25" ht="14.4" customHeight="1">
       <c r="A37" s="41"/>
       <c r="B37" s="377" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="C37" s="377"/>
       <c r="D37" s="377"/>
       <c r="E37" s="377"/>
       <c r="F37" s="377"/>
       <c r="G37" s="365" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="H37" s="365"/>
       <c r="I37" s="365"/>
@@ -11346,13 +11344,13 @@
       <c r="N37" s="365"/>
       <c r="O37" s="365"/>
       <c r="P37" s="381" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="Q37" s="381"/>
       <c r="R37" s="381"/>
       <c r="S37" s="381"/>
       <c r="T37" s="370" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="U37" s="370"/>
       <c r="V37" s="370"/>
@@ -11363,11 +11361,11 @@
     <row r="38" spans="1:25" customFormat="1" ht="14.4" customHeight="1"/>
     <row r="39" spans="1:25">
       <c r="B39" s="342" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="C39" s="342"/>
       <c r="D39" s="343" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E39" s="343"/>
       <c r="F39" s="343"/>
@@ -11382,10 +11380,10 @@
       <c r="O39" s="5"/>
       <c r="P39" s="5"/>
       <c r="Q39" s="35" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="R39" s="343" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="S39" s="343"/>
       <c r="T39" s="343"/>
@@ -11421,7 +11419,7 @@
     </row>
     <row r="41" spans="1:25">
       <c r="B41" s="37" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="C41" s="340"/>
       <c r="D41" s="340"/>
@@ -11430,7 +11428,7 @@
       <c r="G41" s="340"/>
       <c r="H41" s="5"/>
       <c r="I41" s="4" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="J41" s="340"/>
       <c r="K41" s="340"/>
@@ -11440,7 +11438,7 @@
       <c r="O41" s="340"/>
       <c r="P41" s="5"/>
       <c r="Q41" s="4" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="R41" s="341"/>
       <c r="S41" s="341"/>
@@ -11452,7 +11450,7 @@
     </row>
     <row r="42" spans="1:25">
       <c r="B42" s="37" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="C42" s="340"/>
       <c r="D42" s="340"/>
@@ -11461,7 +11459,7 @@
       <c r="G42" s="340"/>
       <c r="H42" s="5"/>
       <c r="I42" s="4" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="J42" s="340"/>
       <c r="K42" s="340"/>
@@ -11471,7 +11469,7 @@
       <c r="O42" s="340"/>
       <c r="P42" s="5"/>
       <c r="Q42" s="4" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="R42" s="341"/>
       <c r="S42" s="341"/>
@@ -11483,7 +11481,7 @@
     </row>
     <row r="43" spans="1:25">
       <c r="B43" s="37" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="C43" s="340"/>
       <c r="D43" s="340"/>
@@ -11492,7 +11490,7 @@
       <c r="G43" s="340"/>
       <c r="H43" s="5"/>
       <c r="I43" s="4" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="J43" s="340"/>
       <c r="K43" s="340"/>
@@ -11502,7 +11500,7 @@
       <c r="O43" s="340"/>
       <c r="P43" s="5"/>
       <c r="Q43" s="4" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="R43" s="341"/>
       <c r="S43" s="341"/>
@@ -11649,9 +11647,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BW1041"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34:F34"/>
-    </sheetView>
+    <sheetView showGridLines="0" showRowColHeaders="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.33203125" defaultRowHeight="15.6"/>
   <cols>
@@ -11687,12 +11683,12 @@
         <v>45</v>
       </c>
       <c r="B2" s="410" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C2" s="410"/>
       <c r="D2" s="410"/>
       <c r="E2" s="387" t="s">
-        <v>53</v>
+        <v>583</v>
       </c>
       <c r="F2" s="388"/>
       <c r="G2" s="388"/>
@@ -11746,7 +11742,7 @@
         <v>46</v>
       </c>
       <c r="B3" s="410" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C3" s="410"/>
       <c r="D3" s="410"/>
@@ -11883,19 +11879,19 @@
     </row>
     <row r="5" spans="1:75" ht="18" customHeight="1">
       <c r="A5" s="420" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B5" s="393" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="C5" s="415" t="s">
         <v>2</v>
       </c>
       <c r="D5" s="395" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="E5" s="400" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F5" s="401"/>
       <c r="G5" s="172"/>
@@ -12047,19 +12043,19 @@
     </row>
     <row r="7" spans="1:75">
       <c r="A7" s="397" t="s">
+        <v>327</v>
+      </c>
+      <c r="B7" s="418" t="s">
+        <v>328</v>
+      </c>
+      <c r="C7" s="397" t="s">
         <v>329</v>
       </c>
-      <c r="B7" s="418" t="s">
+      <c r="D7" s="399" t="s">
         <v>330</v>
       </c>
-      <c r="C7" s="397" t="s">
-        <v>331</v>
-      </c>
-      <c r="D7" s="399" t="s">
-        <v>332</v>
-      </c>
       <c r="E7" s="413" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="F7" s="414"/>
       <c r="G7" s="117"/>
@@ -12116,7 +12112,7 @@
       <c r="C8" s="397"/>
       <c r="D8" s="399"/>
       <c r="E8" s="413" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="F8" s="414"/>
       <c r="G8" s="117"/>
@@ -12166,19 +12162,19 @@
     </row>
     <row r="9" spans="1:75">
       <c r="A9" s="397" t="s">
+        <v>331</v>
+      </c>
+      <c r="B9" s="398" t="s">
+        <v>332</v>
+      </c>
+      <c r="C9" s="397" t="s">
         <v>333</v>
       </c>
-      <c r="B9" s="398" t="s">
+      <c r="D9" s="399" t="s">
         <v>334</v>
       </c>
-      <c r="C9" s="397" t="s">
-        <v>335</v>
-      </c>
-      <c r="D9" s="399" t="s">
-        <v>336</v>
-      </c>
       <c r="E9" s="413" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="F9" s="414"/>
       <c r="G9" s="117"/>
@@ -12232,7 +12228,7 @@
       <c r="C10" s="397"/>
       <c r="D10" s="399"/>
       <c r="E10" s="413" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="F10" s="414"/>
       <c r="G10" s="117"/>
@@ -12286,19 +12282,19 @@
     </row>
     <row r="11" spans="1:75">
       <c r="A11" s="397" t="s">
+        <v>335</v>
+      </c>
+      <c r="B11" s="398" t="s">
+        <v>336</v>
+      </c>
+      <c r="C11" s="397" t="s">
         <v>337</v>
       </c>
-      <c r="B11" s="398" t="s">
+      <c r="D11" s="399" t="s">
         <v>338</v>
       </c>
-      <c r="C11" s="397" t="s">
-        <v>339</v>
-      </c>
-      <c r="D11" s="399" t="s">
-        <v>340</v>
-      </c>
       <c r="E11" s="413" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="F11" s="414"/>
       <c r="G11" s="117"/>
@@ -12357,7 +12353,7 @@
       <c r="C12" s="397"/>
       <c r="D12" s="399"/>
       <c r="E12" s="413" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="F12" s="414"/>
       <c r="G12" s="117"/>
@@ -12412,19 +12408,19 @@
     </row>
     <row r="13" spans="1:75">
       <c r="A13" s="397" t="s">
+        <v>339</v>
+      </c>
+      <c r="B13" s="398" t="s">
+        <v>340</v>
+      </c>
+      <c r="C13" s="397" t="s">
         <v>341</v>
       </c>
-      <c r="B13" s="398" t="s">
+      <c r="D13" s="399" t="s">
         <v>342</v>
       </c>
-      <c r="C13" s="397" t="s">
-        <v>343</v>
-      </c>
-      <c r="D13" s="399" t="s">
-        <v>344</v>
-      </c>
       <c r="E13" s="413" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="F13" s="414"/>
       <c r="G13" s="117"/>
@@ -12483,7 +12479,7 @@
       <c r="C14" s="397"/>
       <c r="D14" s="399"/>
       <c r="E14" s="413" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="F14" s="414"/>
       <c r="G14" s="117"/>
@@ -12538,19 +12534,19 @@
     </row>
     <row r="15" spans="1:75">
       <c r="A15" s="397" t="s">
+        <v>343</v>
+      </c>
+      <c r="B15" s="398" t="s">
+        <v>344</v>
+      </c>
+      <c r="C15" s="397" t="s">
         <v>345</v>
       </c>
-      <c r="B15" s="398" t="s">
+      <c r="D15" s="399" t="s">
         <v>346</v>
       </c>
-      <c r="C15" s="397" t="s">
-        <v>347</v>
-      </c>
-      <c r="D15" s="399" t="s">
-        <v>348</v>
-      </c>
       <c r="E15" s="413" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="F15" s="414"/>
       <c r="G15" s="117"/>
@@ -12609,7 +12605,7 @@
       <c r="C16" s="397"/>
       <c r="D16" s="399"/>
       <c r="E16" s="413" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="F16" s="414"/>
       <c r="G16" s="117"/>
@@ -12659,19 +12655,19 @@
     </row>
     <row r="17" spans="1:75">
       <c r="A17" s="397" t="s">
+        <v>347</v>
+      </c>
+      <c r="B17" s="398" t="s">
+        <v>348</v>
+      </c>
+      <c r="C17" s="397" t="s">
         <v>349</v>
       </c>
-      <c r="B17" s="398" t="s">
+      <c r="D17" s="399" t="s">
         <v>350</v>
       </c>
-      <c r="C17" s="397" t="s">
-        <v>351</v>
-      </c>
-      <c r="D17" s="399" t="s">
-        <v>352</v>
-      </c>
       <c r="E17" s="413" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="F17" s="414"/>
       <c r="G17" s="117"/>
@@ -12725,7 +12721,7 @@
       <c r="C18" s="397"/>
       <c r="D18" s="399"/>
       <c r="E18" s="413" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="F18" s="414"/>
       <c r="G18" s="117"/>
@@ -12783,19 +12779,19 @@
     </row>
     <row r="19" spans="1:75">
       <c r="A19" s="397" t="s">
+        <v>351</v>
+      </c>
+      <c r="B19" s="398" t="s">
+        <v>352</v>
+      </c>
+      <c r="C19" s="397" t="s">
         <v>353</v>
       </c>
-      <c r="B19" s="398" t="s">
+      <c r="D19" s="399" t="s">
         <v>354</v>
       </c>
-      <c r="C19" s="397" t="s">
-        <v>355</v>
-      </c>
-      <c r="D19" s="399" t="s">
-        <v>356</v>
-      </c>
       <c r="E19" s="413" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="F19" s="414"/>
       <c r="G19" s="117"/>
@@ -12849,7 +12845,7 @@
       <c r="C20" s="397"/>
       <c r="D20" s="399"/>
       <c r="E20" s="413" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="F20" s="414"/>
       <c r="G20" s="117"/>
@@ -12899,19 +12895,19 @@
     </row>
     <row r="21" spans="1:75">
       <c r="A21" s="397" t="s">
+        <v>355</v>
+      </c>
+      <c r="B21" s="398" t="s">
+        <v>356</v>
+      </c>
+      <c r="C21" s="397" t="s">
         <v>357</v>
       </c>
-      <c r="B21" s="398" t="s">
+      <c r="D21" s="399" t="s">
         <v>358</v>
       </c>
-      <c r="C21" s="397" t="s">
-        <v>359</v>
-      </c>
-      <c r="D21" s="399" t="s">
-        <v>360</v>
-      </c>
       <c r="E21" s="413" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="F21" s="414"/>
       <c r="G21" s="117"/>
@@ -12965,7 +12961,7 @@
       <c r="C22" s="397"/>
       <c r="D22" s="399"/>
       <c r="E22" s="413" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="F22" s="414"/>
       <c r="G22" s="117"/>
@@ -13015,19 +13011,19 @@
     </row>
     <row r="23" spans="1:75">
       <c r="A23" s="397" t="s">
+        <v>359</v>
+      </c>
+      <c r="B23" s="398" t="s">
+        <v>360</v>
+      </c>
+      <c r="C23" s="397" t="s">
         <v>361</v>
       </c>
-      <c r="B23" s="398" t="s">
+      <c r="D23" s="399" t="s">
         <v>362</v>
       </c>
-      <c r="C23" s="397" t="s">
-        <v>363</v>
-      </c>
-      <c r="D23" s="399" t="s">
-        <v>364</v>
-      </c>
       <c r="E23" s="413" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="F23" s="414"/>
       <c r="G23" s="117"/>
@@ -13081,7 +13077,7 @@
       <c r="C24" s="397"/>
       <c r="D24" s="399"/>
       <c r="E24" s="413" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="F24" s="414"/>
       <c r="G24" s="117"/>
@@ -13131,19 +13127,19 @@
     </row>
     <row r="25" spans="1:75">
       <c r="A25" s="397" t="s">
+        <v>363</v>
+      </c>
+      <c r="B25" s="398" t="s">
+        <v>364</v>
+      </c>
+      <c r="C25" s="397" t="s">
         <v>365</v>
       </c>
-      <c r="B25" s="398" t="s">
+      <c r="D25" s="399" t="s">
         <v>366</v>
       </c>
-      <c r="C25" s="397" t="s">
-        <v>367</v>
-      </c>
-      <c r="D25" s="399" t="s">
-        <v>368</v>
-      </c>
       <c r="E25" s="413" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="F25" s="414"/>
       <c r="G25" s="117"/>
@@ -13197,7 +13193,7 @@
       <c r="C26" s="397"/>
       <c r="D26" s="399"/>
       <c r="E26" s="413" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="F26" s="414"/>
       <c r="G26" s="117"/>
@@ -13247,19 +13243,19 @@
     </row>
     <row r="27" spans="1:75">
       <c r="A27" s="397" t="s">
+        <v>367</v>
+      </c>
+      <c r="B27" s="398" t="s">
+        <v>368</v>
+      </c>
+      <c r="C27" s="397" t="s">
         <v>369</v>
       </c>
-      <c r="B27" s="398" t="s">
+      <c r="D27" s="399" t="s">
         <v>370</v>
       </c>
-      <c r="C27" s="397" t="s">
-        <v>371</v>
-      </c>
-      <c r="D27" s="399" t="s">
-        <v>372</v>
-      </c>
       <c r="E27" s="413" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="F27" s="414"/>
       <c r="G27" s="117"/>
@@ -13313,7 +13309,7 @@
       <c r="C28" s="397"/>
       <c r="D28" s="399"/>
       <c r="E28" s="413" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="F28" s="414"/>
       <c r="G28" s="117"/>
@@ -13363,19 +13359,19 @@
     </row>
     <row r="29" spans="1:75">
       <c r="A29" s="397" t="s">
+        <v>371</v>
+      </c>
+      <c r="B29" s="398" t="s">
+        <v>372</v>
+      </c>
+      <c r="C29" s="397" t="s">
         <v>373</v>
       </c>
-      <c r="B29" s="398" t="s">
+      <c r="D29" s="399" t="s">
         <v>374</v>
       </c>
-      <c r="C29" s="397" t="s">
-        <v>375</v>
-      </c>
-      <c r="D29" s="399" t="s">
-        <v>376</v>
-      </c>
       <c r="E29" s="413" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="F29" s="414"/>
       <c r="G29" s="117"/>
@@ -13429,7 +13425,7 @@
       <c r="C30" s="397"/>
       <c r="D30" s="399"/>
       <c r="E30" s="413" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="F30" s="414"/>
       <c r="G30" s="117"/>
@@ -13479,19 +13475,19 @@
     </row>
     <row r="31" spans="1:75">
       <c r="A31" s="397" t="s">
+        <v>375</v>
+      </c>
+      <c r="B31" s="398" t="s">
+        <v>376</v>
+      </c>
+      <c r="C31" s="397" t="s">
         <v>377</v>
       </c>
-      <c r="B31" s="398" t="s">
+      <c r="D31" s="399" t="s">
         <v>378</v>
       </c>
-      <c r="C31" s="397" t="s">
-        <v>379</v>
-      </c>
-      <c r="D31" s="399" t="s">
-        <v>380</v>
-      </c>
       <c r="E31" s="413" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="F31" s="414"/>
       <c r="G31" s="117"/>
@@ -13545,7 +13541,7 @@
       <c r="C32" s="397"/>
       <c r="D32" s="399"/>
       <c r="E32" s="413" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="F32" s="414"/>
       <c r="G32" s="117"/>
@@ -13595,19 +13591,19 @@
     </row>
     <row r="33" spans="1:75">
       <c r="A33" s="397" t="s">
+        <v>379</v>
+      </c>
+      <c r="B33" s="398" t="s">
+        <v>380</v>
+      </c>
+      <c r="C33" s="397" t="s">
         <v>381</v>
       </c>
-      <c r="B33" s="398" t="s">
+      <c r="D33" s="399" t="s">
         <v>382</v>
       </c>
-      <c r="C33" s="397" t="s">
-        <v>383</v>
-      </c>
-      <c r="D33" s="399" t="s">
-        <v>384</v>
-      </c>
       <c r="E33" s="413" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="F33" s="414"/>
       <c r="G33" s="117"/>
@@ -13661,7 +13657,7 @@
       <c r="C34" s="397"/>
       <c r="D34" s="399"/>
       <c r="E34" s="413" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="F34" s="414"/>
       <c r="G34" s="117"/>
@@ -13711,19 +13707,19 @@
     </row>
     <row r="35" spans="1:75">
       <c r="A35" s="397" t="s">
+        <v>383</v>
+      </c>
+      <c r="B35" s="398" t="s">
+        <v>384</v>
+      </c>
+      <c r="C35" s="397" t="s">
         <v>385</v>
       </c>
-      <c r="B35" s="398" t="s">
+      <c r="D35" s="399" t="s">
         <v>386</v>
       </c>
-      <c r="C35" s="397" t="s">
-        <v>387</v>
-      </c>
-      <c r="D35" s="399" t="s">
-        <v>388</v>
-      </c>
       <c r="E35" s="413" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="F35" s="414"/>
       <c r="G35" s="117"/>
@@ -13777,7 +13773,7 @@
       <c r="C36" s="397"/>
       <c r="D36" s="399"/>
       <c r="E36" s="413" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="F36" s="414"/>
       <c r="G36" s="117"/>
@@ -13827,19 +13823,19 @@
     </row>
     <row r="37" spans="1:75">
       <c r="A37" s="397" t="s">
+        <v>387</v>
+      </c>
+      <c r="B37" s="398" t="s">
+        <v>388</v>
+      </c>
+      <c r="C37" s="397" t="s">
         <v>389</v>
       </c>
-      <c r="B37" s="398" t="s">
+      <c r="D37" s="399" t="s">
         <v>390</v>
       </c>
-      <c r="C37" s="397" t="s">
-        <v>391</v>
-      </c>
-      <c r="D37" s="399" t="s">
-        <v>392</v>
-      </c>
       <c r="E37" s="413" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="F37" s="414"/>
       <c r="G37" s="117"/>
@@ -13893,7 +13889,7 @@
       <c r="C38" s="397"/>
       <c r="D38" s="399"/>
       <c r="E38" s="413" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="F38" s="414"/>
       <c r="G38" s="117"/>
@@ -13943,19 +13939,19 @@
     </row>
     <row r="39" spans="1:75">
       <c r="A39" s="397" t="s">
+        <v>391</v>
+      </c>
+      <c r="B39" s="398" t="s">
+        <v>392</v>
+      </c>
+      <c r="C39" s="397" t="s">
         <v>393</v>
       </c>
-      <c r="B39" s="398" t="s">
+      <c r="D39" s="399" t="s">
         <v>394</v>
       </c>
-      <c r="C39" s="397" t="s">
-        <v>395</v>
-      </c>
-      <c r="D39" s="399" t="s">
-        <v>396</v>
-      </c>
       <c r="E39" s="413" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="F39" s="414"/>
       <c r="G39" s="117"/>
@@ -14009,7 +14005,7 @@
       <c r="C40" s="397"/>
       <c r="D40" s="399"/>
       <c r="E40" s="413" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="F40" s="414"/>
       <c r="G40" s="117"/>
@@ -14083,7 +14079,7 @@
     </row>
     <row r="41" spans="1:75" ht="45.75" customHeight="1">
       <c r="A41" s="384" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B41" s="385"/>
       <c r="C41" s="385"/>
@@ -14091,7 +14087,7 @@
       <c r="E41" s="385"/>
       <c r="F41" s="386"/>
       <c r="G41" s="382" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="H41" s="383"/>
       <c r="I41" s="117"/>
@@ -14162,15 +14158,15 @@
     </row>
     <row r="42" spans="1:75" s="195" customFormat="1" ht="15" customHeight="1">
       <c r="A42" s="425" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B42" s="426"/>
       <c r="C42" s="429" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="D42" s="430"/>
       <c r="E42" s="413" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="F42" s="414"/>
       <c r="G42" s="117"/>
@@ -14247,7 +14243,7 @@
       <c r="C43" s="431"/>
       <c r="D43" s="432"/>
       <c r="E43" s="423" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="F43" s="424"/>
       <c r="G43" s="117"/>
@@ -14322,11 +14318,11 @@
       <c r="A44" s="425"/>
       <c r="B44" s="426"/>
       <c r="C44" s="433" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="D44" s="434"/>
       <c r="E44" s="413" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="F44" s="414"/>
       <c r="G44" s="117"/>
@@ -14403,7 +14399,7 @@
       <c r="C45" s="431"/>
       <c r="D45" s="432"/>
       <c r="E45" s="423" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="F45" s="424"/>
       <c r="G45" s="117"/>
@@ -14478,11 +14474,11 @@
       <c r="A46" s="425"/>
       <c r="B46" s="426"/>
       <c r="C46" s="433" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="D46" s="434"/>
       <c r="E46" s="413" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="F46" s="414"/>
       <c r="G46" s="117"/>
@@ -14559,7 +14555,7 @@
       <c r="C47" s="431"/>
       <c r="D47" s="432"/>
       <c r="E47" s="423" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="F47" s="424"/>
       <c r="G47" s="117"/>
@@ -14634,11 +14630,11 @@
       <c r="A48" s="425"/>
       <c r="B48" s="426"/>
       <c r="C48" s="433" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D48" s="434"/>
       <c r="E48" s="413" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="F48" s="414"/>
       <c r="G48" s="117"/>
@@ -14715,7 +14711,7 @@
       <c r="C49" s="431"/>
       <c r="D49" s="432"/>
       <c r="E49" s="423" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="F49" s="424"/>
       <c r="G49" s="117"/>
@@ -14790,11 +14786,11 @@
       <c r="A50" s="425"/>
       <c r="B50" s="426"/>
       <c r="C50" s="433" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D50" s="434"/>
       <c r="E50" s="413" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="F50" s="414"/>
       <c r="G50" s="117"/>
@@ -14871,7 +14867,7 @@
       <c r="C51" s="431"/>
       <c r="D51" s="432"/>
       <c r="E51" s="423" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="F51" s="424"/>
       <c r="G51" s="117"/>
@@ -14946,11 +14942,11 @@
       <c r="A52" s="425"/>
       <c r="B52" s="426"/>
       <c r="C52" s="433" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D52" s="434"/>
       <c r="E52" s="413" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="F52" s="414"/>
       <c r="G52" s="117"/>
@@ -15027,7 +15023,7 @@
       <c r="C53" s="431"/>
       <c r="D53" s="432"/>
       <c r="E53" s="423" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="F53" s="424"/>
       <c r="G53" s="117"/>
@@ -15102,11 +15098,11 @@
       <c r="A54" s="425"/>
       <c r="B54" s="426"/>
       <c r="C54" s="433" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="D54" s="434"/>
       <c r="E54" s="413" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="F54" s="414"/>
       <c r="G54" s="117"/>
@@ -15183,7 +15179,7 @@
       <c r="C55" s="431"/>
       <c r="D55" s="432"/>
       <c r="E55" s="423" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="F55" s="424"/>
       <c r="G55" s="117"/>
@@ -15258,11 +15254,11 @@
       <c r="A56" s="425"/>
       <c r="B56" s="426"/>
       <c r="C56" s="433" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="D56" s="434"/>
       <c r="E56" s="423" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="F56" s="424"/>
       <c r="G56" s="117"/>
@@ -15339,7 +15335,7 @@
       <c r="C57" s="431"/>
       <c r="D57" s="432"/>
       <c r="E57" s="423" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="F57" s="424"/>
       <c r="G57" s="117"/>
@@ -15414,11 +15410,11 @@
       <c r="A58" s="425"/>
       <c r="B58" s="426"/>
       <c r="C58" s="433" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="D58" s="434"/>
       <c r="E58" s="413" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="F58" s="414"/>
       <c r="G58" s="117"/>
@@ -15495,7 +15491,7 @@
       <c r="C59" s="431"/>
       <c r="D59" s="432"/>
       <c r="E59" s="423" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="F59" s="424"/>
       <c r="G59" s="117"/>
@@ -15570,11 +15566,11 @@
       <c r="A60" s="425"/>
       <c r="B60" s="426"/>
       <c r="C60" s="433" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="D60" s="434"/>
       <c r="E60" s="413" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="F60" s="414"/>
       <c r="G60" s="117"/>
@@ -15651,7 +15647,7 @@
       <c r="C61" s="431"/>
       <c r="D61" s="432"/>
       <c r="E61" s="423" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="F61" s="424"/>
       <c r="G61" s="117"/>
@@ -15726,11 +15722,11 @@
       <c r="A62" s="425"/>
       <c r="B62" s="426"/>
       <c r="C62" s="433" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D62" s="434"/>
       <c r="E62" s="413" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="F62" s="414"/>
       <c r="G62" s="117"/>
@@ -15807,7 +15803,7 @@
       <c r="C63" s="431"/>
       <c r="D63" s="432"/>
       <c r="E63" s="423" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="F63" s="424"/>
       <c r="G63" s="117"/>
@@ -15882,11 +15878,11 @@
       <c r="A64" s="425"/>
       <c r="B64" s="426"/>
       <c r="C64" s="433" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D64" s="434"/>
       <c r="E64" s="413" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="F64" s="414"/>
       <c r="G64" s="117"/>
@@ -15963,7 +15959,7 @@
       <c r="C65" s="431"/>
       <c r="D65" s="432"/>
       <c r="E65" s="423" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="F65" s="424"/>
       <c r="G65" s="117"/>
@@ -16038,11 +16034,11 @@
       <c r="A66" s="425"/>
       <c r="B66" s="426"/>
       <c r="C66" s="433" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="D66" s="434"/>
       <c r="E66" s="413" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="F66" s="414"/>
       <c r="G66" s="117"/>
@@ -16119,7 +16115,7 @@
       <c r="C67" s="431"/>
       <c r="D67" s="432"/>
       <c r="E67" s="423" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="F67" s="424"/>
       <c r="G67" s="117"/>
@@ -16194,11 +16190,11 @@
       <c r="A68" s="425"/>
       <c r="B68" s="426"/>
       <c r="C68" s="433" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="D68" s="434"/>
       <c r="E68" s="413" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="F68" s="414"/>
       <c r="G68" s="117"/>
@@ -16277,7 +16273,7 @@
       <c r="C69" s="431"/>
       <c r="D69" s="432"/>
       <c r="E69" s="423" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="F69" s="424"/>
       <c r="G69" s="117"/>
@@ -16354,11 +16350,11 @@
       <c r="A70" s="425"/>
       <c r="B70" s="426"/>
       <c r="C70" s="433" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D70" s="434"/>
       <c r="E70" s="413" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="F70" s="414"/>
       <c r="G70" s="117"/>
@@ -16437,7 +16433,7 @@
       <c r="C71" s="431"/>
       <c r="D71" s="432"/>
       <c r="E71" s="423" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="F71" s="424"/>
       <c r="G71" s="117"/>
@@ -16757,7 +16753,7 @@
       </c>
       <c r="D75" s="409"/>
       <c r="E75" s="423" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="F75" s="424"/>
       <c r="G75" s="117"/>
@@ -16838,7 +16834,7 @@
       </c>
       <c r="D76" s="409"/>
       <c r="E76" s="423" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="F76" s="424"/>
       <c r="G76" s="117"/>
@@ -16919,7 +16915,7 @@
       </c>
       <c r="D77" s="409"/>
       <c r="E77" s="423" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="F77" s="424"/>
       <c r="G77" s="117"/>
@@ -16996,11 +16992,11 @@
       <c r="A78" s="451"/>
       <c r="B78" s="452"/>
       <c r="C78" s="408" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D78" s="409"/>
       <c r="E78" s="423" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="F78" s="424"/>
       <c r="G78" s="117"/>
@@ -17081,7 +17077,7 @@
       </c>
       <c r="D79" s="409"/>
       <c r="E79" s="423" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="F79" s="424"/>
       <c r="G79" s="117"/>
@@ -17162,7 +17158,7 @@
       <c r="C80" s="454"/>
       <c r="D80" s="454"/>
       <c r="E80" s="453" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="F80" s="424"/>
       <c r="G80" s="117"/>
@@ -17243,7 +17239,7 @@
       <c r="C81" s="454"/>
       <c r="D81" s="454"/>
       <c r="E81" s="453" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="F81" s="424"/>
       <c r="G81" s="117"/>
@@ -17359,11 +17355,11 @@
     <row r="83" spans="1:75" ht="14.1" customHeight="1" thickBot="1">
       <c r="A83" s="205"/>
       <c r="B83" s="214" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="C83" s="213"/>
       <c r="D83" s="448" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E83" s="448"/>
       <c r="F83" s="206"/>
@@ -17403,11 +17399,11 @@
     <row r="84" spans="1:75" ht="13.8" customHeight="1" thickBot="1">
       <c r="A84" s="205"/>
       <c r="B84" s="215" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="C84" s="213"/>
       <c r="D84" s="448" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E84" s="448"/>
       <c r="F84" s="206"/>

--- a/api/cp-dss-api/gateway/src/main/resources/reports/Vessel_1_Loading_Plan_Template.xlsx
+++ b/api/cp-dss-api/gateway/src/main/resources/reports/Vessel_1_Loading_Plan_Template.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sanal\Codebase2\AOT-CP-DSS\api\cp-dss-api\gateway\src\main\resources\reports\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java Projects\CP-DSS_New\AOT-CP-DSS\api\cp-dss-api\gateway\src\main\resources\reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17316" windowHeight="6156" tabRatio="738"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17310" windowHeight="6150" tabRatio="738"/>
   </bookViews>
   <sheets>
     <sheet name="CRUD - 021 pg1" sheetId="27" r:id="rId1"/>
@@ -5185,11 +5185,16 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="17" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1" shrinkToFit="1"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="173" fontId="35" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="173" fontId="35" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="173" fontId="35" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -5204,66 +5209,11 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="173" fontId="35" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="10" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="173" fontId="39" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="173" fontId="39" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="173" fontId="39" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="173" fontId="39" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="173" fontId="39" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="173" fontId="39" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="173" fontId="35" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="173" fontId="35" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="174" fontId="53" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="174" fontId="53" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -5275,185 +5225,6 @@
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="176" fontId="30" fillId="0" borderId="10" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="10" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="3" fontId="39" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" wrapText="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" wrapText="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="3" fontId="39" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="173" fontId="35" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="173" fontId="40" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="4" fontId="25" fillId="2" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="25" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="17" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="3" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="175" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="30" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="54" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="9" fontId="54" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="174" fontId="53" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="174" fontId="53" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
@@ -5462,27 +5233,15 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="17" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="17" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="17" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="8" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -5534,6 +5293,62 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="173" fontId="39" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="173" fontId="39" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="173" fontId="35" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="173" fontId="39" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="173" fontId="39" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="173" fontId="39" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="9" fontId="54" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="9" fontId="54" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="14" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5543,74 +5358,218 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="9" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="25" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="17" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="174" fontId="53" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="174" fontId="53" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="39" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="173" fontId="39" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" wrapText="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" wrapText="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="30" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="175" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="4" fontId="25" fillId="2" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="173" fontId="35" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="173" fontId="40" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="39" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="176" fontId="30" fillId="0" borderId="10" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="10" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="10" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -5655,33 +5614,264 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="47" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="169" fontId="47" fillId="0" borderId="15" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="43" fillId="5" borderId="14" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="43" fillId="5" borderId="9" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="43" fillId="5" borderId="7" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="43" fillId="5" borderId="2" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="169" fontId="47" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="23" fillId="5" borderId="17" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="169" fontId="47" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="169" fontId="47" fillId="0" borderId="18" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="172" fontId="47" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="2" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="14" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="8" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="9" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="6" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="10" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="11" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="47" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="42" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="49" fillId="5" borderId="7" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="49" fillId="5" borderId="2" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="49" fillId="5" borderId="6" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="49" fillId="5" borderId="11" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="42" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="19" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="20" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="38" fontId="29" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="21" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="16" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="43" fillId="0" borderId="3" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="43" fillId="0" borderId="5" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="43" fillId="0" borderId="3" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="43" fillId="0" borderId="5" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="43" fillId="0" borderId="14" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="43" fillId="0" borderId="9" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="169" fontId="47" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -5739,15 +5929,6 @@
     <xf numFmtId="0" fontId="23" fillId="5" borderId="6" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="46" fillId="4" borderId="1" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" wrapText="1"/>
       <protection locked="0"/>
@@ -5762,187 +5943,6 @@
     </xf>
     <xf numFmtId="0" fontId="46" fillId="4" borderId="18" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="43" fillId="0" borderId="3" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="43" fillId="0" borderId="5" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="43" fillId="0" borderId="3" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="43" fillId="0" borderId="5" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="43" fillId="0" borderId="14" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="43" fillId="0" borderId="9" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="38" fontId="29" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="169" fontId="47" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="169" fontId="47" fillId="0" borderId="18" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="21" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="16" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="19" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="20" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="42" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="47" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="169" fontId="47" fillId="0" borderId="15" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="49" fillId="5" borderId="7" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="49" fillId="5" borderId="2" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="49" fillId="5" borderId="6" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="49" fillId="5" borderId="11" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="47" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="42" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="47" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="2" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="14" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="8" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="9" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="6" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="10" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="11" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="43" fillId="5" borderId="14" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="43" fillId="5" borderId="9" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="43" fillId="5" borderId="7" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="43" fillId="5" borderId="2" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="169" fontId="47" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="23" fillId="5" borderId="17" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -6068,7 +6068,7 @@
         <xdr:cNvPr id="30643" name="Line 59">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26C26646-7311-46E9-9E78-CC1D2B3F626E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{26C26646-7311-46E9-9E78-CC1D2B3F626E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6122,7 +6122,7 @@
         <xdr:cNvPr id="30644" name="Line 60">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B49276F8-0941-4D7D-8146-C269E6ACE4D6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B49276F8-0941-4D7D-8146-C269E6ACE4D6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6176,7 +6176,7 @@
         <xdr:cNvPr id="30645" name="Line 62">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49720863-AFF1-493D-8C5B-3E8A332597CC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{49720863-AFF1-493D-8C5B-3E8A332597CC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6230,7 +6230,7 @@
         <xdr:cNvPr id="30646" name="Line 62">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7695EED5-68DE-4941-B396-30D3C770B8B0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7695EED5-68DE-4941-B396-30D3C770B8B0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6284,7 +6284,7 @@
         <xdr:cNvPr id="30647" name="Line 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD58331C-81A7-4159-9782-8A7161F85FB4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD58331C-81A7-4159-9782-8A7161F85FB4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6338,7 +6338,7 @@
         <xdr:cNvPr id="30648" name="Line 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D0300261-277A-4B07-916A-FC3A4EA535EC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D0300261-277A-4B07-916A-FC3A4EA535EC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6392,7 +6392,7 @@
         <xdr:cNvPr id="30649" name="Line 62">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92E06221-417C-4981-B737-76380BAE82BA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{92E06221-417C-4981-B737-76380BAE82BA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6446,7 +6446,7 @@
         <xdr:cNvPr id="30650" name="Line 62">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC93D721-69B8-4DB6-8611-B0CA263C6701}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EC93D721-69B8-4DB6-8611-B0CA263C6701}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6500,7 +6500,7 @@
         <xdr:cNvPr id="30651" name="Line 62">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8FFC3F25-367F-4CB6-8861-0D589CD691A0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8FFC3F25-367F-4CB6-8861-0D589CD691A0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6554,7 +6554,7 @@
         <xdr:cNvPr id="30652" name="Line 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{132B4608-E2CC-4568-8160-0038A8B8A9B4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{132B4608-E2CC-4568-8160-0038A8B8A9B4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6608,7 +6608,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95E86656-9F63-45D0-BC52-81A2571E9B65}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{95E86656-9F63-45D0-BC52-81A2571E9B65}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6658,7 +6658,7 @@
         <xdr:cNvPr id="17" name="Line 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{132B4608-E2CC-4568-8160-0038A8B8A9B4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{132B4608-E2CC-4568-8160-0038A8B8A9B4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6712,7 +6712,7 @@
         <xdr:cNvPr id="19" name="Line 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{132B4608-E2CC-4568-8160-0038A8B8A9B4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{132B4608-E2CC-4568-8160-0038A8B8A9B4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6766,7 +6766,7 @@
         <xdr:cNvPr id="21" name="Line 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{132B4608-E2CC-4568-8160-0038A8B8A9B4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{132B4608-E2CC-4568-8160-0038A8B8A9B4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6820,7 +6820,7 @@
         <xdr:cNvPr id="16" name="Line 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{132B4608-E2CC-4568-8160-0038A8B8A9B4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{132B4608-E2CC-4568-8160-0038A8B8A9B4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6874,7 +6874,7 @@
         <xdr:cNvPr id="18" name="Line 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{132B4608-E2CC-4568-8160-0038A8B8A9B4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{132B4608-E2CC-4568-8160-0038A8B8A9B4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6928,7 +6928,7 @@
         <xdr:cNvPr id="29" name="Line 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{132B4608-E2CC-4568-8160-0038A8B8A9B4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{132B4608-E2CC-4568-8160-0038A8B8A9B4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6982,7 +6982,7 @@
         <xdr:cNvPr id="30" name="Line 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{132B4608-E2CC-4568-8160-0038A8B8A9B4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{132B4608-E2CC-4568-8160-0038A8B8A9B4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7311,44 +7311,42 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AS75"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3:O3"/>
-    </sheetView>
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="17.25" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="17.25" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="3.6640625" style="45" customWidth="1"/>
-    <col min="2" max="2" width="8.88671875" style="45" customWidth="1"/>
-    <col min="3" max="3" width="7.44140625" style="45" customWidth="1"/>
-    <col min="4" max="4" width="6.6640625" style="45" customWidth="1"/>
-    <col min="5" max="5" width="6.88671875" style="45" customWidth="1"/>
-    <col min="6" max="6" width="6.77734375" style="45" customWidth="1"/>
-    <col min="7" max="7" width="6.88671875" style="45" customWidth="1"/>
-    <col min="8" max="8" width="3.5546875" style="45" customWidth="1"/>
-    <col min="9" max="9" width="5.88671875" style="45" customWidth="1"/>
-    <col min="10" max="10" width="7.33203125" style="45" customWidth="1"/>
-    <col min="11" max="11" width="8.88671875" style="45" customWidth="1"/>
-    <col min="12" max="12" width="7.44140625" style="45" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" style="45" customWidth="1"/>
+    <col min="2" max="2" width="8.85546875" style="45" customWidth="1"/>
+    <col min="3" max="3" width="7.42578125" style="45" customWidth="1"/>
+    <col min="4" max="4" width="6.7109375" style="45" customWidth="1"/>
+    <col min="5" max="5" width="6.85546875" style="45" customWidth="1"/>
+    <col min="6" max="6" width="6.7109375" style="45" customWidth="1"/>
+    <col min="7" max="7" width="6.85546875" style="45" customWidth="1"/>
+    <col min="8" max="8" width="3.5703125" style="45" customWidth="1"/>
+    <col min="9" max="9" width="5.85546875" style="45" customWidth="1"/>
+    <col min="10" max="10" width="7.28515625" style="45" customWidth="1"/>
+    <col min="11" max="11" width="8.85546875" style="45" customWidth="1"/>
+    <col min="12" max="12" width="7.42578125" style="45" customWidth="1"/>
     <col min="13" max="13" width="4" style="45" customWidth="1"/>
-    <col min="14" max="14" width="5.88671875" style="45" customWidth="1"/>
-    <col min="15" max="15" width="7.109375" style="45" customWidth="1"/>
-    <col min="16" max="16" width="7.44140625" style="45" customWidth="1"/>
-    <col min="17" max="17" width="8.109375" style="45" customWidth="1"/>
+    <col min="14" max="14" width="5.85546875" style="45" customWidth="1"/>
+    <col min="15" max="15" width="7.140625" style="45" customWidth="1"/>
+    <col min="16" max="16" width="7.42578125" style="45" customWidth="1"/>
+    <col min="17" max="17" width="8.140625" style="45" customWidth="1"/>
     <col min="18" max="18" width="10" style="45" customWidth="1"/>
-    <col min="19" max="19" width="7.5546875" style="45" customWidth="1"/>
-    <col min="20" max="20" width="2.109375" style="45" customWidth="1"/>
-    <col min="21" max="21" width="4.109375" style="45" customWidth="1"/>
-    <col min="22" max="22" width="2.44140625" style="45" customWidth="1"/>
-    <col min="23" max="23" width="7.33203125" style="45" customWidth="1"/>
-    <col min="24" max="24" width="3.44140625" style="45" customWidth="1"/>
-    <col min="25" max="25" width="11.6640625" style="45" customWidth="1"/>
+    <col min="19" max="19" width="7.5703125" style="45" customWidth="1"/>
+    <col min="20" max="20" width="2.140625" style="45" customWidth="1"/>
+    <col min="21" max="21" width="4.140625" style="45" customWidth="1"/>
+    <col min="22" max="22" width="2.42578125" style="45" customWidth="1"/>
+    <col min="23" max="23" width="7.28515625" style="45" customWidth="1"/>
+    <col min="24" max="24" width="3.42578125" style="45" customWidth="1"/>
+    <col min="25" max="25" width="11.7109375" style="45" customWidth="1"/>
     <col min="26" max="26" width="4" style="45" customWidth="1"/>
     <col min="27" max="27" width="6" style="45" customWidth="1"/>
-    <col min="28" max="28" width="6.33203125" style="45" customWidth="1"/>
-    <col min="29" max="29" width="1.88671875" style="45" customWidth="1"/>
+    <col min="28" max="28" width="6.28515625" style="45" customWidth="1"/>
+    <col min="29" max="29" width="1.85546875" style="45" customWidth="1"/>
     <col min="30" max="30" width="4" style="45" customWidth="1"/>
-    <col min="31" max="31" width="4.6640625" style="45" customWidth="1"/>
-    <col min="32" max="16384" width="9.109375" style="45"/>
+    <col min="31" max="31" width="4.7109375" style="45" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="45"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="72" customHeight="1">
@@ -7369,12 +7367,12 @@
       <c r="I3" s="48"/>
       <c r="J3" s="47"/>
       <c r="K3" s="47"/>
-      <c r="L3" s="245" t="s">
+      <c r="L3" s="335" t="s">
         <v>584</v>
       </c>
-      <c r="M3" s="245"/>
-      <c r="N3" s="245"/>
-      <c r="O3" s="245"/>
+      <c r="M3" s="335"/>
+      <c r="N3" s="335"/>
+      <c r="O3" s="335"/>
       <c r="P3" s="47"/>
       <c r="Q3" s="47"/>
       <c r="R3" s="47"/>
@@ -7394,13 +7392,13 @@
         <v>32</v>
       </c>
       <c r="C4" s="47"/>
-      <c r="D4" s="251" t="s">
+      <c r="D4" s="337" t="s">
         <v>60</v>
       </c>
-      <c r="E4" s="251"/>
-      <c r="F4" s="251"/>
-      <c r="G4" s="251"/>
-      <c r="H4" s="251"/>
+      <c r="E4" s="337"/>
+      <c r="F4" s="337"/>
+      <c r="G4" s="337"/>
+      <c r="H4" s="337"/>
       <c r="I4" s="47"/>
       <c r="J4" s="47"/>
       <c r="K4" s="47"/>
@@ -7427,13 +7425,13 @@
         <v>30</v>
       </c>
       <c r="C5" s="51"/>
-      <c r="D5" s="324" t="s">
+      <c r="D5" s="260" t="s">
         <v>61</v>
       </c>
-      <c r="E5" s="324"/>
-      <c r="F5" s="324"/>
-      <c r="G5" s="324"/>
-      <c r="H5" s="324"/>
+      <c r="E5" s="260"/>
+      <c r="F5" s="260"/>
+      <c r="G5" s="260"/>
+      <c r="H5" s="260"/>
       <c r="I5" s="52"/>
       <c r="J5" s="52"/>
       <c r="K5" s="52"/>
@@ -7451,13 +7449,13 @@
       <c r="U5" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="V5" s="268" t="s">
+      <c r="V5" s="326" t="s">
         <v>64</v>
       </c>
-      <c r="W5" s="268"/>
-      <c r="X5" s="268"/>
-      <c r="Y5" s="268"/>
-      <c r="Z5" s="268"/>
+      <c r="W5" s="326"/>
+      <c r="X5" s="326"/>
+      <c r="Y5" s="326"/>
+      <c r="Z5" s="326"/>
       <c r="AA5" s="48"/>
       <c r="AB5" s="56"/>
     </row>
@@ -7487,13 +7485,13 @@
       <c r="U6" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="V6" s="269" t="s">
+      <c r="V6" s="327" t="s">
         <v>65</v>
       </c>
-      <c r="W6" s="269"/>
-      <c r="X6" s="269"/>
-      <c r="Y6" s="269"/>
-      <c r="Z6" s="269"/>
+      <c r="W6" s="327"/>
+      <c r="X6" s="327"/>
+      <c r="Y6" s="327"/>
+      <c r="Z6" s="327"/>
       <c r="AA6" s="48"/>
       <c r="AB6" s="56"/>
     </row>
@@ -7502,24 +7500,24 @@
       <c r="B7" s="58" t="s">
         <v>56</v>
       </c>
-      <c r="C7" s="252" t="s">
+      <c r="C7" s="338" t="s">
         <v>62</v>
       </c>
-      <c r="D7" s="252"/>
-      <c r="E7" s="252"/>
-      <c r="F7" s="252"/>
-      <c r="G7" s="252"/>
-      <c r="H7" s="259" t="s">
+      <c r="D7" s="338"/>
+      <c r="E7" s="338"/>
+      <c r="F7" s="338"/>
+      <c r="G7" s="338"/>
+      <c r="H7" s="339" t="s">
         <v>57</v>
       </c>
-      <c r="I7" s="259"/>
-      <c r="J7" s="252" t="s">
+      <c r="I7" s="339"/>
+      <c r="J7" s="338" t="s">
         <v>63</v>
       </c>
-      <c r="K7" s="252"/>
-      <c r="L7" s="252"/>
-      <c r="M7" s="252"/>
-      <c r="N7" s="252"/>
+      <c r="K7" s="338"/>
+      <c r="L7" s="338"/>
+      <c r="M7" s="338"/>
+      <c r="N7" s="338"/>
       <c r="O7" s="59"/>
       <c r="P7" s="59"/>
       <c r="Q7" s="59"/>
@@ -7531,13 +7529,13 @@
       <c r="U7" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="V7" s="269" t="s">
+      <c r="V7" s="327" t="s">
         <v>66</v>
       </c>
-      <c r="W7" s="269"/>
-      <c r="X7" s="269"/>
-      <c r="Y7" s="269"/>
-      <c r="Z7" s="269"/>
+      <c r="W7" s="327"/>
+      <c r="X7" s="327"/>
+      <c r="Y7" s="327"/>
+      <c r="Z7" s="327"/>
       <c r="AA7" s="48"/>
       <c r="AB7" s="56"/>
     </row>
@@ -7628,10 +7626,10 @@
       <c r="V10" s="61"/>
       <c r="W10" s="61"/>
       <c r="X10" s="61"/>
-      <c r="Y10" s="273" t="s">
+      <c r="Y10" s="330" t="s">
         <v>67</v>
       </c>
-      <c r="Z10" s="273"/>
+      <c r="Z10" s="330"/>
       <c r="AB10" s="56"/>
     </row>
     <row r="11" spans="1:32" ht="17.25" customHeight="1">
@@ -7663,12 +7661,12 @@
       <c r="T11" s="67"/>
       <c r="U11" s="67"/>
       <c r="V11" s="68"/>
-      <c r="W11" s="274" t="s">
+      <c r="W11" s="331" t="s">
         <v>582</v>
       </c>
-      <c r="X11" s="274"/>
-      <c r="Y11" s="274"/>
-      <c r="Z11" s="274"/>
+      <c r="X11" s="331"/>
+      <c r="Y11" s="331"/>
+      <c r="Z11" s="331"/>
       <c r="AA11" s="69"/>
     </row>
     <row r="12" spans="1:32" s="69" customFormat="1" ht="17.25" customHeight="1">
@@ -7687,19 +7685,19 @@
       <c r="M12" s="71"/>
       <c r="N12" s="71"/>
       <c r="O12" s="71"/>
-      <c r="P12" s="272" t="s">
+      <c r="P12" s="329" t="s">
         <v>53</v>
       </c>
-      <c r="Q12" s="272"/>
-      <c r="R12" s="272"/>
-      <c r="S12" s="272"/>
-      <c r="T12" s="272"/>
-      <c r="U12" s="272"/>
-      <c r="V12" s="272"/>
-      <c r="W12" s="272"/>
-      <c r="X12" s="272"/>
-      <c r="Y12" s="272"/>
-      <c r="Z12" s="272"/>
+      <c r="Q12" s="329"/>
+      <c r="R12" s="329"/>
+      <c r="S12" s="329"/>
+      <c r="T12" s="329"/>
+      <c r="U12" s="329"/>
+      <c r="V12" s="329"/>
+      <c r="W12" s="329"/>
+      <c r="X12" s="329"/>
+      <c r="Y12" s="329"/>
+      <c r="Z12" s="329"/>
     </row>
     <row r="13" spans="1:32" s="69" customFormat="1" ht="17.25" customHeight="1">
       <c r="A13" s="70"/>
@@ -7760,8 +7758,8 @@
       <c r="G15" s="223" t="s">
         <v>262</v>
       </c>
-      <c r="H15" s="315"/>
-      <c r="I15" s="316"/>
+      <c r="H15" s="255"/>
+      <c r="I15" s="256"/>
       <c r="J15" s="79" t="s">
         <v>263</v>
       </c>
@@ -7769,8 +7767,8 @@
       <c r="L15" s="223" t="s">
         <v>264</v>
       </c>
-      <c r="M15" s="315"/>
-      <c r="N15" s="316"/>
+      <c r="M15" s="255"/>
+      <c r="N15" s="256"/>
       <c r="O15" s="79" t="s">
         <v>265</v>
       </c>
@@ -7778,12 +7776,12 @@
       <c r="Q15" s="81"/>
       <c r="R15" s="71"/>
       <c r="S15" s="71"/>
-      <c r="T15" s="271" t="s">
+      <c r="T15" s="324" t="s">
         <v>39</v>
       </c>
-      <c r="U15" s="271"/>
-      <c r="V15" s="271"/>
-      <c r="W15" s="271"/>
+      <c r="U15" s="324"/>
+      <c r="V15" s="324"/>
+      <c r="W15" s="324"/>
       <c r="X15" s="82"/>
       <c r="Y15" s="83"/>
       <c r="Z15" s="74"/>
@@ -7791,47 +7789,47 @@
     <row r="16" spans="1:32" s="69" customFormat="1" ht="12" customHeight="1">
       <c r="A16" s="84"/>
       <c r="B16" s="85"/>
-      <c r="C16" s="247" t="s">
+      <c r="C16" s="248" t="s">
         <v>81</v>
       </c>
-      <c r="D16" s="248"/>
-      <c r="E16" s="247" t="s">
+      <c r="D16" s="249"/>
+      <c r="E16" s="248" t="s">
         <v>109</v>
       </c>
-      <c r="F16" s="249"/>
-      <c r="G16" s="247" t="s">
+      <c r="F16" s="250"/>
+      <c r="G16" s="248" t="s">
         <v>137</v>
       </c>
-      <c r="H16" s="248"/>
-      <c r="I16" s="249"/>
-      <c r="J16" s="247" t="s">
+      <c r="H16" s="249"/>
+      <c r="I16" s="250"/>
+      <c r="J16" s="248" t="s">
         <v>165</v>
       </c>
-      <c r="K16" s="249"/>
-      <c r="L16" s="247" t="s">
+      <c r="K16" s="250"/>
+      <c r="L16" s="248" t="s">
         <v>193</v>
       </c>
-      <c r="M16" s="248"/>
-      <c r="N16" s="249"/>
-      <c r="O16" s="247" t="s">
+      <c r="M16" s="249"/>
+      <c r="N16" s="250"/>
+      <c r="O16" s="248" t="s">
         <v>221</v>
       </c>
-      <c r="P16" s="249"/>
+      <c r="P16" s="250"/>
       <c r="Q16" s="85"/>
       <c r="S16" s="71"/>
-      <c r="T16" s="275" t="s">
+      <c r="T16" s="332" t="s">
         <v>68</v>
       </c>
-      <c r="U16" s="275"/>
-      <c r="V16" s="275"/>
-      <c r="W16" s="275"/>
+      <c r="U16" s="332"/>
+      <c r="V16" s="332"/>
+      <c r="W16" s="332"/>
       <c r="X16" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="Y16" s="277" t="s">
+      <c r="Y16" s="319" t="s">
         <v>76</v>
       </c>
-      <c r="Z16" s="277"/>
+      <c r="Z16" s="319"/>
       <c r="AF16" s="104"/>
     </row>
     <row r="17" spans="1:45" s="69" customFormat="1" ht="12" customHeight="1">
@@ -7852,10 +7850,10 @@
       <c r="G17" s="220" t="s">
         <v>278</v>
       </c>
-      <c r="H17" s="285" t="s">
+      <c r="H17" s="281" t="s">
         <v>138</v>
       </c>
-      <c r="I17" s="286"/>
+      <c r="I17" s="282"/>
       <c r="J17" s="86" t="s">
         <v>281</v>
       </c>
@@ -7865,10 +7863,10 @@
       <c r="L17" s="220" t="s">
         <v>284</v>
       </c>
-      <c r="M17" s="285" t="s">
+      <c r="M17" s="281" t="s">
         <v>194</v>
       </c>
-      <c r="N17" s="286"/>
+      <c r="N17" s="282"/>
       <c r="O17" s="86" t="s">
         <v>287</v>
       </c>
@@ -7897,40 +7895,40 @@
     <row r="18" spans="1:45" s="69" customFormat="1" ht="12" customHeight="1">
       <c r="A18" s="84"/>
       <c r="B18" s="91"/>
-      <c r="C18" s="260" t="s">
+      <c r="C18" s="246" t="s">
         <v>83</v>
       </c>
-      <c r="D18" s="250"/>
-      <c r="E18" s="260" t="s">
+      <c r="D18" s="275"/>
+      <c r="E18" s="246" t="s">
         <v>111</v>
       </c>
-      <c r="F18" s="261"/>
-      <c r="G18" s="260" t="s">
+      <c r="F18" s="247"/>
+      <c r="G18" s="246" t="s">
         <v>139</v>
       </c>
-      <c r="H18" s="250"/>
-      <c r="I18" s="261"/>
-      <c r="J18" s="250" t="s">
+      <c r="H18" s="275"/>
+      <c r="I18" s="247"/>
+      <c r="J18" s="275" t="s">
         <v>167</v>
       </c>
-      <c r="K18" s="250"/>
-      <c r="L18" s="253" t="s">
+      <c r="K18" s="275"/>
+      <c r="L18" s="273" t="s">
         <v>195</v>
       </c>
-      <c r="M18" s="254"/>
-      <c r="N18" s="255"/>
-      <c r="O18" s="250" t="s">
+      <c r="M18" s="301"/>
+      <c r="N18" s="274"/>
+      <c r="O18" s="275" t="s">
         <v>223</v>
       </c>
-      <c r="P18" s="250"/>
-      <c r="Q18" s="276" t="s">
+      <c r="P18" s="275"/>
+      <c r="Q18" s="300" t="s">
         <v>559</v>
       </c>
       <c r="S18" s="71"/>
-      <c r="T18" s="270"/>
-      <c r="U18" s="270"/>
-      <c r="V18" s="270"/>
-      <c r="W18" s="270"/>
+      <c r="T18" s="328"/>
+      <c r="U18" s="328"/>
+      <c r="V18" s="328"/>
+      <c r="W18" s="328"/>
       <c r="X18" s="82"/>
       <c r="Y18" s="90"/>
       <c r="Z18" s="74"/>
@@ -7959,10 +7957,10 @@
       <c r="G19" s="226" t="s">
         <v>140</v>
       </c>
-      <c r="H19" s="262" t="s">
+      <c r="H19" s="251" t="s">
         <v>141</v>
       </c>
-      <c r="I19" s="263"/>
+      <c r="I19" s="252"/>
       <c r="J19" s="224" t="s">
         <v>168</v>
       </c>
@@ -7972,22 +7970,22 @@
       <c r="L19" s="224" t="s">
         <v>196</v>
       </c>
-      <c r="M19" s="262" t="s">
+      <c r="M19" s="251" t="s">
         <v>197</v>
       </c>
-      <c r="N19" s="263"/>
+      <c r="N19" s="252"/>
       <c r="O19" s="227" t="s">
         <v>224</v>
       </c>
       <c r="P19" s="225" t="s">
         <v>225</v>
       </c>
-      <c r="Q19" s="276"/>
+      <c r="Q19" s="300"/>
       <c r="S19" s="71"/>
-      <c r="T19" s="270"/>
-      <c r="U19" s="270"/>
-      <c r="V19" s="270"/>
-      <c r="W19" s="270"/>
+      <c r="T19" s="328"/>
+      <c r="U19" s="328"/>
+      <c r="V19" s="328"/>
+      <c r="W19" s="328"/>
       <c r="X19" s="82"/>
       <c r="Y19" s="90"/>
       <c r="Z19" s="74"/>
@@ -8004,24 +8002,24 @@
     </row>
     <row r="20" spans="1:45" s="69" customFormat="1" ht="12" customHeight="1">
       <c r="A20" s="84"/>
-      <c r="B20" s="246" t="s">
+      <c r="B20" s="336" t="s">
         <v>80</v>
       </c>
       <c r="C20" s="92" t="s">
         <v>273</v>
       </c>
-      <c r="D20" s="278" t="s">
+      <c r="D20" s="333" t="s">
         <v>86</v>
       </c>
-      <c r="E20" s="279"/>
-      <c r="F20" s="280"/>
+      <c r="E20" s="304"/>
+      <c r="F20" s="334"/>
       <c r="G20" s="221" t="s">
         <v>277</v>
       </c>
-      <c r="H20" s="264" t="s">
+      <c r="H20" s="283" t="s">
         <v>114</v>
       </c>
-      <c r="I20" s="265"/>
+      <c r="I20" s="284"/>
       <c r="J20" s="92" t="s">
         <v>279</v>
       </c>
@@ -8031,10 +8029,10 @@
       <c r="L20" s="95" t="s">
         <v>282</v>
       </c>
-      <c r="M20" s="281" t="s">
+      <c r="M20" s="302" t="s">
         <v>170</v>
       </c>
-      <c r="N20" s="282"/>
+      <c r="N20" s="303"/>
       <c r="O20" s="95" t="s">
         <v>285</v>
       </c>
@@ -8043,48 +8041,48 @@
       </c>
       <c r="Q20" s="233"/>
       <c r="S20" s="71"/>
-      <c r="T20" s="270"/>
-      <c r="U20" s="270"/>
-      <c r="V20" s="270"/>
-      <c r="W20" s="270"/>
+      <c r="T20" s="328"/>
+      <c r="U20" s="328"/>
+      <c r="V20" s="328"/>
+      <c r="W20" s="328"/>
       <c r="X20" s="82"/>
       <c r="Y20" s="90"/>
       <c r="Z20" s="74"/>
       <c r="AA20" s="84"/>
       <c r="AD20"/>
       <c r="AE20"/>
-      <c r="AF20" s="283" t="s">
+      <c r="AF20" s="323" t="s">
         <v>564</v>
       </c>
       <c r="AG20"/>
     </row>
     <row r="21" spans="1:45" s="69" customFormat="1" ht="12" customHeight="1">
       <c r="A21" s="84"/>
-      <c r="B21" s="246"/>
-      <c r="C21" s="260" t="s">
+      <c r="B21" s="336"/>
+      <c r="C21" s="246" t="s">
         <v>87</v>
       </c>
-      <c r="D21" s="250"/>
-      <c r="E21" s="250"/>
-      <c r="F21" s="261"/>
-      <c r="G21" s="260" t="s">
+      <c r="D21" s="275"/>
+      <c r="E21" s="275"/>
+      <c r="F21" s="247"/>
+      <c r="G21" s="246" t="s">
         <v>115</v>
       </c>
-      <c r="H21" s="250"/>
-      <c r="I21" s="261"/>
-      <c r="J21" s="253" t="s">
+      <c r="H21" s="275"/>
+      <c r="I21" s="247"/>
+      <c r="J21" s="273" t="s">
         <v>143</v>
       </c>
-      <c r="K21" s="255"/>
-      <c r="L21" s="253" t="s">
+      <c r="K21" s="274"/>
+      <c r="L21" s="273" t="s">
         <v>171</v>
       </c>
-      <c r="M21" s="254"/>
-      <c r="N21" s="255"/>
-      <c r="O21" s="253" t="s">
+      <c r="M21" s="301"/>
+      <c r="N21" s="274"/>
+      <c r="O21" s="273" t="s">
         <v>199</v>
       </c>
-      <c r="P21" s="255"/>
+      <c r="P21" s="274"/>
       <c r="Q21" s="234"/>
       <c r="S21" s="71"/>
       <c r="T21" s="71"/>
@@ -8097,7 +8095,7 @@
       <c r="AA21" s="84"/>
       <c r="AD21"/>
       <c r="AE21"/>
-      <c r="AF21" s="283"/>
+      <c r="AF21" s="323"/>
       <c r="AG21"/>
     </row>
     <row r="22" spans="1:45" s="69" customFormat="1" ht="12" customHeight="1">
@@ -8106,18 +8104,18 @@
       <c r="C22" s="228" t="s">
         <v>88</v>
       </c>
-      <c r="D22" s="308" t="s">
+      <c r="D22" s="279" t="s">
         <v>89</v>
       </c>
-      <c r="E22" s="308"/>
-      <c r="F22" s="309"/>
+      <c r="E22" s="279"/>
+      <c r="F22" s="280"/>
       <c r="G22" s="229" t="s">
         <v>116</v>
       </c>
-      <c r="H22" s="308" t="s">
+      <c r="H22" s="279" t="s">
         <v>117</v>
       </c>
-      <c r="I22" s="309"/>
+      <c r="I22" s="280"/>
       <c r="J22" s="230" t="s">
         <v>144</v>
       </c>
@@ -8127,10 +8125,10 @@
       <c r="L22" s="230" t="s">
         <v>172</v>
       </c>
-      <c r="M22" s="308" t="s">
+      <c r="M22" s="279" t="s">
         <v>173</v>
       </c>
-      <c r="N22" s="309"/>
+      <c r="N22" s="280"/>
       <c r="O22" s="232" t="s">
         <v>200</v>
       </c>
@@ -8169,10 +8167,10 @@
       <c r="G23" s="221" t="s">
         <v>280</v>
       </c>
-      <c r="H23" s="264" t="s">
+      <c r="H23" s="283" t="s">
         <v>146</v>
       </c>
-      <c r="I23" s="265"/>
+      <c r="I23" s="284"/>
       <c r="J23" s="92" t="s">
         <v>283</v>
       </c>
@@ -8182,10 +8180,10 @@
       <c r="L23" s="221" t="s">
         <v>286</v>
       </c>
-      <c r="M23" s="264" t="s">
+      <c r="M23" s="283" t="s">
         <v>202</v>
       </c>
-      <c r="N23" s="265"/>
+      <c r="N23" s="284"/>
       <c r="O23" s="92" t="s">
         <v>288</v>
       </c>
@@ -8215,42 +8213,42 @@
     <row r="24" spans="1:45" s="69" customFormat="1" ht="12" customHeight="1">
       <c r="A24" s="84"/>
       <c r="B24" s="85"/>
-      <c r="C24" s="260" t="s">
+      <c r="C24" s="246" t="s">
         <v>91</v>
       </c>
-      <c r="D24" s="250"/>
-      <c r="E24" s="260" t="s">
+      <c r="D24" s="275"/>
+      <c r="E24" s="246" t="s">
         <v>119</v>
       </c>
-      <c r="F24" s="250"/>
-      <c r="G24" s="256" t="s">
+      <c r="F24" s="275"/>
+      <c r="G24" s="276" t="s">
         <v>147</v>
       </c>
-      <c r="H24" s="257"/>
-      <c r="I24" s="258"/>
-      <c r="J24" s="260" t="s">
+      <c r="H24" s="277"/>
+      <c r="I24" s="278"/>
+      <c r="J24" s="246" t="s">
         <v>175</v>
       </c>
-      <c r="K24" s="250"/>
-      <c r="L24" s="256" t="s">
+      <c r="K24" s="275"/>
+      <c r="L24" s="276" t="s">
         <v>203</v>
       </c>
-      <c r="M24" s="257"/>
-      <c r="N24" s="258"/>
-      <c r="O24" s="260" t="s">
+      <c r="M24" s="277"/>
+      <c r="N24" s="278"/>
+      <c r="O24" s="246" t="s">
         <v>227</v>
       </c>
-      <c r="P24" s="250"/>
-      <c r="Q24" s="276" t="s">
+      <c r="P24" s="275"/>
+      <c r="Q24" s="300" t="s">
         <v>557</v>
       </c>
       <c r="S24" s="71"/>
-      <c r="T24" s="288" t="s">
+      <c r="T24" s="310" t="s">
         <v>250</v>
       </c>
-      <c r="U24" s="288"/>
-      <c r="V24" s="288"/>
-      <c r="W24" s="288"/>
+      <c r="U24" s="310"/>
+      <c r="V24" s="310"/>
+      <c r="W24" s="310"/>
       <c r="X24" s="82"/>
       <c r="Y24" s="99" t="s">
         <v>258</v>
@@ -8281,10 +8279,10 @@
       <c r="G25" s="226" t="s">
         <v>148</v>
       </c>
-      <c r="H25" s="266" t="s">
+      <c r="H25" s="253" t="s">
         <v>149</v>
       </c>
-      <c r="I25" s="267"/>
+      <c r="I25" s="254"/>
       <c r="J25" s="224" t="s">
         <v>176</v>
       </c>
@@ -8294,17 +8292,17 @@
       <c r="L25" s="224" t="s">
         <v>204</v>
       </c>
-      <c r="M25" s="310" t="s">
+      <c r="M25" s="298" t="s">
         <v>205</v>
       </c>
-      <c r="N25" s="311"/>
+      <c r="N25" s="299"/>
       <c r="O25" s="224" t="s">
         <v>228</v>
       </c>
       <c r="P25" s="225" t="s">
         <v>229</v>
       </c>
-      <c r="Q25" s="276"/>
+      <c r="Q25" s="300"/>
       <c r="S25" s="71"/>
       <c r="T25" s="71"/>
       <c r="U25" s="71"/>
@@ -8334,8 +8332,8 @@
       <c r="G26" s="222" t="s">
         <v>268</v>
       </c>
-      <c r="H26" s="313"/>
-      <c r="I26" s="314"/>
+      <c r="H26" s="285"/>
+      <c r="I26" s="286"/>
       <c r="J26" s="100" t="s">
         <v>269</v>
       </c>
@@ -8343,19 +8341,19 @@
       <c r="L26" s="222" t="s">
         <v>270</v>
       </c>
-      <c r="M26" s="313"/>
-      <c r="N26" s="314"/>
+      <c r="M26" s="285"/>
+      <c r="N26" s="286"/>
       <c r="O26" s="76" t="s">
         <v>271</v>
       </c>
       <c r="P26" s="103"/>
       <c r="Q26" s="85"/>
       <c r="S26" s="71"/>
-      <c r="T26" s="287" t="s">
+      <c r="T26" s="290" t="s">
         <v>40</v>
       </c>
-      <c r="U26" s="287"/>
-      <c r="V26" s="287"/>
+      <c r="U26" s="290"/>
+      <c r="V26" s="290"/>
       <c r="W26" s="74" t="s">
         <v>8</v>
       </c>
@@ -8374,40 +8372,40 @@
     <row r="27" spans="1:45" s="69" customFormat="1" ht="12" customHeight="1">
       <c r="A27" s="84"/>
       <c r="B27" s="75"/>
-      <c r="C27" s="247" t="s">
+      <c r="C27" s="248" t="s">
         <v>94</v>
       </c>
-      <c r="D27" s="248"/>
-      <c r="E27" s="247" t="s">
+      <c r="D27" s="249"/>
+      <c r="E27" s="248" t="s">
         <v>122</v>
       </c>
-      <c r="F27" s="248"/>
-      <c r="G27" s="247" t="s">
+      <c r="F27" s="249"/>
+      <c r="G27" s="248" t="s">
         <v>150</v>
       </c>
-      <c r="H27" s="248"/>
-      <c r="I27" s="249"/>
-      <c r="J27" s="247" t="s">
+      <c r="H27" s="249"/>
+      <c r="I27" s="250"/>
+      <c r="J27" s="248" t="s">
         <v>178</v>
       </c>
-      <c r="K27" s="248"/>
-      <c r="L27" s="247" t="s">
+      <c r="K27" s="249"/>
+      <c r="L27" s="248" t="s">
         <v>206</v>
       </c>
-      <c r="M27" s="248"/>
-      <c r="N27" s="249"/>
-      <c r="O27" s="247" t="s">
+      <c r="M27" s="249"/>
+      <c r="N27" s="250"/>
+      <c r="O27" s="248" t="s">
         <v>230</v>
       </c>
-      <c r="P27" s="249"/>
+      <c r="P27" s="250"/>
       <c r="Q27" s="104"/>
       <c r="R27" s="71"/>
       <c r="S27" s="73"/>
-      <c r="T27" s="287" t="s">
+      <c r="T27" s="290" t="s">
         <v>69</v>
       </c>
-      <c r="U27" s="287"/>
-      <c r="V27" s="287"/>
+      <c r="U27" s="290"/>
+      <c r="V27" s="290"/>
       <c r="W27" s="74" t="s">
         <v>8</v>
       </c>
@@ -8443,11 +8441,11 @@
       <c r="Q28" s="104"/>
       <c r="R28" s="71"/>
       <c r="S28" s="73"/>
-      <c r="T28" s="288" t="s">
+      <c r="T28" s="310" t="s">
         <v>42</v>
       </c>
-      <c r="U28" s="288"/>
-      <c r="V28" s="288"/>
+      <c r="U28" s="310"/>
+      <c r="V28" s="310"/>
       <c r="W28" s="74" t="s">
         <v>8</v>
       </c>
@@ -8566,12 +8564,12 @@
       <c r="Q31" s="65"/>
       <c r="R31" s="107"/>
       <c r="S31" s="111"/>
-      <c r="T31" s="271" t="s">
+      <c r="T31" s="324" t="s">
         <v>39</v>
       </c>
-      <c r="U31" s="271"/>
-      <c r="V31" s="271"/>
-      <c r="W31" s="271"/>
+      <c r="U31" s="324"/>
+      <c r="V31" s="324"/>
+      <c r="W31" s="324"/>
       <c r="X31" s="109"/>
       <c r="Y31" s="110"/>
       <c r="Z31" s="74"/>
@@ -8582,7 +8580,7 @@
       <c r="AH31"/>
       <c r="AI31"/>
     </row>
-    <row r="32" spans="1:45" ht="13.8">
+    <row r="32" spans="1:45" ht="12.75">
       <c r="A32" s="56"/>
       <c r="B32" s="112"/>
       <c r="C32" s="112"/>
@@ -8602,32 +8600,32 @@
       <c r="Q32" s="112"/>
       <c r="R32" s="112"/>
       <c r="S32" s="112"/>
-      <c r="T32" s="289" t="s">
+      <c r="T32" s="325" t="s">
         <v>77</v>
       </c>
-      <c r="U32" s="289"/>
-      <c r="V32" s="289"/>
-      <c r="W32" s="289"/>
+      <c r="U32" s="325"/>
+      <c r="V32" s="325"/>
+      <c r="W32" s="325"/>
       <c r="X32" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="Y32" s="277" t="s">
+      <c r="Y32" s="319" t="s">
         <v>78</v>
       </c>
-      <c r="Z32" s="277"/>
+      <c r="Z32" s="319"/>
       <c r="AD32"/>
       <c r="AE32"/>
       <c r="AF32"/>
       <c r="AG32"/>
       <c r="AH32"/>
       <c r="AI32"/>
-      <c r="AJ32" s="291"/>
-      <c r="AK32" s="291"/>
+      <c r="AJ32" s="317"/>
+      <c r="AK32" s="317"/>
       <c r="AL32" s="115"/>
       <c r="AM32" s="115"/>
       <c r="AN32" s="115"/>
-      <c r="AO32" s="291"/>
-      <c r="AP32" s="291"/>
+      <c r="AO32" s="317"/>
+      <c r="AP32" s="317"/>
       <c r="AQ32" s="115"/>
       <c r="AR32" s="115"/>
       <c r="AS32" s="115"/>
@@ -8646,8 +8644,8 @@
       <c r="G33" s="223" t="s">
         <v>291</v>
       </c>
-      <c r="H33" s="315"/>
-      <c r="I33" s="316"/>
+      <c r="H33" s="255"/>
+      <c r="I33" s="256"/>
       <c r="J33" s="217" t="s">
         <v>292</v>
       </c>
@@ -8655,8 +8653,8 @@
       <c r="L33" s="223" t="s">
         <v>293</v>
       </c>
-      <c r="M33" s="315"/>
-      <c r="N33" s="316"/>
+      <c r="M33" s="255"/>
+      <c r="N33" s="256"/>
       <c r="O33" s="217" t="s">
         <v>294</v>
       </c>
@@ -8678,46 +8676,46 @@
       <c r="AG33"/>
       <c r="AH33"/>
       <c r="AI33"/>
-      <c r="AJ33" s="284"/>
-      <c r="AK33" s="284"/>
-      <c r="AL33" s="284"/>
-      <c r="AM33" s="284"/>
-      <c r="AN33" s="284"/>
-      <c r="AO33" s="284"/>
-      <c r="AP33" s="284"/>
-      <c r="AQ33" s="284"/>
-      <c r="AR33" s="284"/>
-      <c r="AS33" s="284"/>
+      <c r="AJ33" s="316"/>
+      <c r="AK33" s="316"/>
+      <c r="AL33" s="316"/>
+      <c r="AM33" s="316"/>
+      <c r="AN33" s="316"/>
+      <c r="AO33" s="316"/>
+      <c r="AP33" s="316"/>
+      <c r="AQ33" s="316"/>
+      <c r="AR33" s="316"/>
+      <c r="AS33" s="316"/>
     </row>
     <row r="34" spans="1:45" s="69" customFormat="1" ht="12" customHeight="1">
       <c r="A34" s="118"/>
       <c r="B34" s="85"/>
-      <c r="C34" s="247" t="s">
+      <c r="C34" s="248" t="s">
         <v>95</v>
       </c>
-      <c r="D34" s="249"/>
-      <c r="E34" s="247" t="s">
+      <c r="D34" s="250"/>
+      <c r="E34" s="248" t="s">
         <v>123</v>
       </c>
-      <c r="F34" s="249"/>
-      <c r="G34" s="247" t="s">
+      <c r="F34" s="250"/>
+      <c r="G34" s="248" t="s">
         <v>151</v>
       </c>
-      <c r="H34" s="248"/>
-      <c r="I34" s="249"/>
-      <c r="J34" s="247" t="s">
+      <c r="H34" s="249"/>
+      <c r="I34" s="250"/>
+      <c r="J34" s="248" t="s">
         <v>179</v>
       </c>
-      <c r="K34" s="249"/>
-      <c r="L34" s="247" t="s">
+      <c r="K34" s="250"/>
+      <c r="L34" s="248" t="s">
         <v>207</v>
       </c>
-      <c r="M34" s="248"/>
-      <c r="N34" s="249"/>
-      <c r="O34" s="247" t="s">
+      <c r="M34" s="249"/>
+      <c r="N34" s="250"/>
+      <c r="O34" s="248" t="s">
         <v>231</v>
       </c>
-      <c r="P34" s="249"/>
+      <c r="P34" s="250"/>
       <c r="Q34" s="85"/>
       <c r="S34" s="116"/>
       <c r="T34" s="117"/>
@@ -8735,13 +8733,13 @@
       <c r="AG34"/>
       <c r="AH34"/>
       <c r="AI34"/>
-      <c r="AJ34" s="292"/>
-      <c r="AK34" s="292"/>
+      <c r="AJ34" s="320"/>
+      <c r="AK34" s="320"/>
       <c r="AL34" s="120"/>
       <c r="AM34" s="119"/>
       <c r="AN34" s="120"/>
-      <c r="AO34" s="292"/>
-      <c r="AP34" s="292"/>
+      <c r="AO34" s="320"/>
+      <c r="AP34" s="320"/>
       <c r="AQ34" s="120"/>
       <c r="AR34" s="119"/>
       <c r="AS34" s="120"/>
@@ -8764,10 +8762,10 @@
       <c r="G35" s="220" t="s">
         <v>297</v>
       </c>
-      <c r="H35" s="285" t="s">
+      <c r="H35" s="281" t="s">
         <v>152</v>
       </c>
-      <c r="I35" s="286"/>
+      <c r="I35" s="282"/>
       <c r="J35" s="220" t="s">
         <v>298</v>
       </c>
@@ -8777,10 +8775,10 @@
       <c r="L35" s="220" t="s">
         <v>299</v>
       </c>
-      <c r="M35" s="285" t="s">
+      <c r="M35" s="281" t="s">
         <v>208</v>
       </c>
-      <c r="N35" s="286"/>
+      <c r="N35" s="282"/>
       <c r="O35" s="220" t="s">
         <v>300</v>
       </c>
@@ -8809,47 +8807,47 @@
       <c r="AG35"/>
       <c r="AH35"/>
       <c r="AI35"/>
-      <c r="AJ35" s="284"/>
-      <c r="AK35" s="284"/>
-      <c r="AL35" s="284"/>
-      <c r="AM35" s="284"/>
-      <c r="AN35" s="284"/>
-      <c r="AO35" s="257"/>
-      <c r="AP35" s="257"/>
-      <c r="AQ35" s="257"/>
-      <c r="AR35" s="293"/>
-      <c r="AS35" s="293"/>
+      <c r="AJ35" s="316"/>
+      <c r="AK35" s="316"/>
+      <c r="AL35" s="316"/>
+      <c r="AM35" s="316"/>
+      <c r="AN35" s="316"/>
+      <c r="AO35" s="277"/>
+      <c r="AP35" s="277"/>
+      <c r="AQ35" s="277"/>
+      <c r="AR35" s="321"/>
+      <c r="AS35" s="321"/>
     </row>
     <row r="36" spans="1:45" s="69" customFormat="1" ht="12" customHeight="1">
       <c r="A36" s="118"/>
       <c r="B36" s="85"/>
-      <c r="C36" s="260" t="s">
+      <c r="C36" s="246" t="s">
         <v>97</v>
       </c>
-      <c r="D36" s="261"/>
-      <c r="E36" s="260" t="s">
+      <c r="D36" s="247"/>
+      <c r="E36" s="246" t="s">
         <v>125</v>
       </c>
-      <c r="F36" s="261"/>
-      <c r="G36" s="260" t="s">
+      <c r="F36" s="247"/>
+      <c r="G36" s="246" t="s">
         <v>153</v>
       </c>
-      <c r="H36" s="250"/>
-      <c r="I36" s="261"/>
-      <c r="J36" s="260" t="s">
+      <c r="H36" s="275"/>
+      <c r="I36" s="247"/>
+      <c r="J36" s="246" t="s">
         <v>181</v>
       </c>
-      <c r="K36" s="261"/>
-      <c r="L36" s="253" t="s">
+      <c r="K36" s="247"/>
+      <c r="L36" s="273" t="s">
         <v>209</v>
       </c>
-      <c r="M36" s="254"/>
-      <c r="N36" s="255"/>
-      <c r="O36" s="260" t="s">
+      <c r="M36" s="301"/>
+      <c r="N36" s="274"/>
+      <c r="O36" s="246" t="s">
         <v>233</v>
       </c>
-      <c r="P36" s="261"/>
-      <c r="Q36" s="276" t="s">
+      <c r="P36" s="247"/>
+      <c r="Q36" s="300" t="s">
         <v>560</v>
       </c>
       <c r="S36" s="116"/>
@@ -8899,10 +8897,10 @@
       <c r="G37" s="224" t="s">
         <v>154</v>
       </c>
-      <c r="H37" s="262" t="s">
+      <c r="H37" s="251" t="s">
         <v>155</v>
       </c>
-      <c r="I37" s="263"/>
+      <c r="I37" s="252"/>
       <c r="J37" s="224" t="s">
         <v>182</v>
       </c>
@@ -8912,17 +8910,17 @@
       <c r="L37" s="224" t="s">
         <v>210</v>
       </c>
-      <c r="M37" s="262" t="s">
+      <c r="M37" s="251" t="s">
         <v>211</v>
       </c>
-      <c r="N37" s="263"/>
+      <c r="N37" s="252"/>
       <c r="O37" s="227" t="s">
         <v>234</v>
       </c>
       <c r="P37" s="225" t="s">
         <v>235</v>
       </c>
-      <c r="Q37" s="276"/>
+      <c r="Q37" s="300"/>
       <c r="S37" s="126"/>
       <c r="T37" s="117"/>
       <c r="U37" s="117"/>
@@ -8941,37 +8939,37 @@
       <c r="AG37" s="237"/>
       <c r="AH37" s="237"/>
       <c r="AI37" s="237"/>
-      <c r="AJ37" s="290"/>
-      <c r="AK37" s="290"/>
+      <c r="AJ37" s="318"/>
+      <c r="AK37" s="318"/>
       <c r="AL37" s="120"/>
       <c r="AM37" s="97"/>
       <c r="AN37" s="121"/>
       <c r="AO37" s="97"/>
-      <c r="AP37" s="294"/>
-      <c r="AQ37" s="294"/>
+      <c r="AP37" s="322"/>
+      <c r="AQ37" s="322"/>
       <c r="AR37" s="97"/>
       <c r="AS37" s="120"/>
     </row>
     <row r="38" spans="1:45" s="69" customFormat="1" ht="12" customHeight="1">
       <c r="A38" s="118"/>
-      <c r="B38" s="246" t="s">
+      <c r="B38" s="336" t="s">
         <v>240</v>
       </c>
       <c r="C38" s="218" t="s">
         <v>301</v>
       </c>
-      <c r="D38" s="279" t="s">
+      <c r="D38" s="304" t="s">
         <v>100</v>
       </c>
-      <c r="E38" s="279"/>
-      <c r="F38" s="312"/>
+      <c r="E38" s="304"/>
+      <c r="F38" s="305"/>
       <c r="G38" s="221" t="s">
         <v>302</v>
       </c>
-      <c r="H38" s="264" t="s">
+      <c r="H38" s="283" t="s">
         <v>128</v>
       </c>
-      <c r="I38" s="265"/>
+      <c r="I38" s="284"/>
       <c r="J38" s="218" t="s">
         <v>303</v>
       </c>
@@ -8981,10 +8979,10 @@
       <c r="L38" s="95" t="s">
         <v>304</v>
       </c>
-      <c r="M38" s="281" t="s">
+      <c r="M38" s="302" t="s">
         <v>184</v>
       </c>
-      <c r="N38" s="282"/>
+      <c r="N38" s="303"/>
       <c r="O38" s="95" t="s">
         <v>305</v>
       </c>
@@ -9000,50 +8998,50 @@
       <c r="X38" s="71"/>
       <c r="Y38" s="127"/>
       <c r="Z38" s="71"/>
-      <c r="AF38" s="283" t="s">
+      <c r="AF38" s="323" t="s">
         <v>571</v>
       </c>
       <c r="AG38" s="236"/>
       <c r="AH38" s="236"/>
       <c r="AI38" s="236"/>
-      <c r="AJ38" s="284"/>
-      <c r="AK38" s="284"/>
-      <c r="AL38" s="284"/>
-      <c r="AM38" s="257"/>
-      <c r="AN38" s="257"/>
-      <c r="AO38" s="257"/>
-      <c r="AP38" s="257"/>
-      <c r="AQ38" s="257"/>
-      <c r="AR38" s="257"/>
-      <c r="AS38" s="257"/>
+      <c r="AJ38" s="316"/>
+      <c r="AK38" s="316"/>
+      <c r="AL38" s="316"/>
+      <c r="AM38" s="277"/>
+      <c r="AN38" s="277"/>
+      <c r="AO38" s="277"/>
+      <c r="AP38" s="277"/>
+      <c r="AQ38" s="277"/>
+      <c r="AR38" s="277"/>
+      <c r="AS38" s="277"/>
     </row>
     <row r="39" spans="1:45" s="69" customFormat="1" ht="12" customHeight="1">
       <c r="A39" s="118"/>
-      <c r="B39" s="246"/>
-      <c r="C39" s="260" t="s">
+      <c r="B39" s="336"/>
+      <c r="C39" s="246" t="s">
         <v>101</v>
       </c>
-      <c r="D39" s="250"/>
-      <c r="E39" s="250"/>
-      <c r="F39" s="261"/>
-      <c r="G39" s="260" t="s">
+      <c r="D39" s="275"/>
+      <c r="E39" s="275"/>
+      <c r="F39" s="247"/>
+      <c r="G39" s="246" t="s">
         <v>129</v>
       </c>
-      <c r="H39" s="250"/>
-      <c r="I39" s="261"/>
-      <c r="J39" s="253" t="s">
+      <c r="H39" s="275"/>
+      <c r="I39" s="247"/>
+      <c r="J39" s="273" t="s">
         <v>157</v>
       </c>
-      <c r="K39" s="255"/>
-      <c r="L39" s="253" t="s">
+      <c r="K39" s="274"/>
+      <c r="L39" s="273" t="s">
         <v>185</v>
       </c>
-      <c r="M39" s="254"/>
-      <c r="N39" s="255"/>
-      <c r="O39" s="253" t="s">
+      <c r="M39" s="301"/>
+      <c r="N39" s="274"/>
+      <c r="O39" s="273" t="s">
         <v>213</v>
       </c>
-      <c r="P39" s="255"/>
+      <c r="P39" s="274"/>
       <c r="Q39" s="234"/>
       <c r="S39" s="126"/>
       <c r="T39" s="73" t="s">
@@ -9055,7 +9053,7 @@
       <c r="X39" s="71"/>
       <c r="Y39" s="127"/>
       <c r="Z39" s="74"/>
-      <c r="AF39" s="283"/>
+      <c r="AF39" s="323"/>
       <c r="AG39" s="238"/>
       <c r="AH39" s="238"/>
       <c r="AI39" s="125"/>
@@ -9076,18 +9074,18 @@
       <c r="C40" s="228" t="s">
         <v>102</v>
       </c>
-      <c r="D40" s="308" t="s">
+      <c r="D40" s="279" t="s">
         <v>103</v>
       </c>
-      <c r="E40" s="308"/>
-      <c r="F40" s="309"/>
+      <c r="E40" s="279"/>
+      <c r="F40" s="280"/>
       <c r="G40" s="229" t="s">
         <v>130</v>
       </c>
-      <c r="H40" s="308" t="s">
+      <c r="H40" s="279" t="s">
         <v>131</v>
       </c>
-      <c r="I40" s="309"/>
+      <c r="I40" s="280"/>
       <c r="J40" s="230" t="s">
         <v>158</v>
       </c>
@@ -9097,10 +9095,10 @@
       <c r="L40" s="230" t="s">
         <v>186</v>
       </c>
-      <c r="M40" s="308" t="s">
+      <c r="M40" s="279" t="s">
         <v>187</v>
       </c>
-      <c r="N40" s="309"/>
+      <c r="N40" s="280"/>
       <c r="O40" s="232" t="s">
         <v>214</v>
       </c>
@@ -9109,12 +9107,12 @@
       </c>
       <c r="Q40" s="98"/>
       <c r="S40" s="65"/>
-      <c r="T40" s="288" t="s">
+      <c r="T40" s="310" t="s">
         <v>250</v>
       </c>
-      <c r="U40" s="288"/>
-      <c r="V40" s="288"/>
-      <c r="W40" s="288"/>
+      <c r="U40" s="310"/>
+      <c r="V40" s="310"/>
+      <c r="W40" s="310"/>
       <c r="X40" s="82"/>
       <c r="Y40" s="128" t="s">
         <v>79</v>
@@ -9124,13 +9122,13 @@
       <c r="AG40" s="120"/>
       <c r="AH40" s="238"/>
       <c r="AI40" s="237"/>
-      <c r="AJ40" s="290"/>
-      <c r="AK40" s="290"/>
+      <c r="AJ40" s="318"/>
+      <c r="AK40" s="318"/>
       <c r="AL40" s="120"/>
       <c r="AM40" s="97"/>
       <c r="AN40" s="120"/>
-      <c r="AO40" s="290"/>
-      <c r="AP40" s="290"/>
+      <c r="AO40" s="318"/>
+      <c r="AP40" s="318"/>
       <c r="AQ40" s="120"/>
       <c r="AR40" s="97"/>
       <c r="AS40" s="120"/>
@@ -9153,10 +9151,10 @@
       <c r="G41" s="221" t="s">
         <v>308</v>
       </c>
-      <c r="H41" s="264" t="s">
+      <c r="H41" s="283" t="s">
         <v>160</v>
       </c>
-      <c r="I41" s="265"/>
+      <c r="I41" s="284"/>
       <c r="J41" s="218" t="s">
         <v>309</v>
       </c>
@@ -9166,10 +9164,10 @@
       <c r="L41" s="221" t="s">
         <v>310</v>
       </c>
-      <c r="M41" s="264" t="s">
+      <c r="M41" s="283" t="s">
         <v>216</v>
       </c>
-      <c r="N41" s="265"/>
+      <c r="N41" s="284"/>
       <c r="O41" s="218" t="s">
         <v>311</v>
       </c>
@@ -9191,55 +9189,55 @@
       <c r="AG41" s="235"/>
       <c r="AH41" s="235"/>
       <c r="AI41" s="235"/>
-      <c r="AJ41" s="257"/>
-      <c r="AK41" s="257"/>
-      <c r="AL41" s="257"/>
-      <c r="AM41" s="284"/>
-      <c r="AN41" s="284"/>
-      <c r="AO41" s="257"/>
-      <c r="AP41" s="257"/>
-      <c r="AQ41" s="257"/>
-      <c r="AR41" s="257"/>
-      <c r="AS41" s="257"/>
+      <c r="AJ41" s="277"/>
+      <c r="AK41" s="277"/>
+      <c r="AL41" s="277"/>
+      <c r="AM41" s="316"/>
+      <c r="AN41" s="316"/>
+      <c r="AO41" s="277"/>
+      <c r="AP41" s="277"/>
+      <c r="AQ41" s="277"/>
+      <c r="AR41" s="277"/>
+      <c r="AS41" s="277"/>
     </row>
     <row r="42" spans="1:45" s="69" customFormat="1" ht="12" customHeight="1">
       <c r="A42" s="118"/>
       <c r="B42" s="85"/>
-      <c r="C42" s="260" t="s">
+      <c r="C42" s="246" t="s">
         <v>105</v>
       </c>
-      <c r="D42" s="261"/>
-      <c r="E42" s="260" t="s">
+      <c r="D42" s="247"/>
+      <c r="E42" s="246" t="s">
         <v>133</v>
       </c>
-      <c r="F42" s="261"/>
-      <c r="G42" s="256" t="s">
+      <c r="F42" s="247"/>
+      <c r="G42" s="276" t="s">
         <v>161</v>
       </c>
-      <c r="H42" s="257"/>
-      <c r="I42" s="258"/>
-      <c r="J42" s="260" t="s">
+      <c r="H42" s="277"/>
+      <c r="I42" s="278"/>
+      <c r="J42" s="246" t="s">
         <v>189</v>
       </c>
-      <c r="K42" s="261"/>
-      <c r="L42" s="256" t="s">
+      <c r="K42" s="247"/>
+      <c r="L42" s="276" t="s">
         <v>217</v>
       </c>
-      <c r="M42" s="257"/>
-      <c r="N42" s="258"/>
-      <c r="O42" s="260" t="s">
+      <c r="M42" s="277"/>
+      <c r="N42" s="278"/>
+      <c r="O42" s="246" t="s">
         <v>237</v>
       </c>
-      <c r="P42" s="261"/>
-      <c r="Q42" s="276" t="s">
+      <c r="P42" s="247"/>
+      <c r="Q42" s="300" t="s">
         <v>558</v>
       </c>
       <c r="S42" s="71"/>
-      <c r="T42" s="287" t="s">
+      <c r="T42" s="290" t="s">
         <v>40</v>
       </c>
-      <c r="U42" s="287"/>
-      <c r="V42" s="287"/>
+      <c r="U42" s="290"/>
+      <c r="V42" s="290"/>
       <c r="W42" s="74" t="s">
         <v>8</v>
       </c>
@@ -9281,10 +9279,10 @@
       <c r="G43" s="224" t="s">
         <v>162</v>
       </c>
-      <c r="H43" s="266" t="s">
+      <c r="H43" s="253" t="s">
         <v>163</v>
       </c>
-      <c r="I43" s="267"/>
+      <c r="I43" s="254"/>
       <c r="J43" s="224" t="s">
         <v>190</v>
       </c>
@@ -9294,23 +9292,23 @@
       <c r="L43" s="224" t="s">
         <v>218</v>
       </c>
-      <c r="M43" s="262" t="s">
+      <c r="M43" s="251" t="s">
         <v>219</v>
       </c>
-      <c r="N43" s="263"/>
+      <c r="N43" s="252"/>
       <c r="O43" s="224" t="s">
         <v>238</v>
       </c>
       <c r="P43" s="225" t="s">
         <v>239</v>
       </c>
-      <c r="Q43" s="276"/>
+      <c r="Q43" s="300"/>
       <c r="S43" s="71"/>
-      <c r="T43" s="287" t="s">
+      <c r="T43" s="290" t="s">
         <v>69</v>
       </c>
-      <c r="U43" s="287"/>
-      <c r="V43" s="287"/>
+      <c r="U43" s="290"/>
+      <c r="V43" s="290"/>
       <c r="W43" s="74" t="s">
         <v>8</v>
       </c>
@@ -9323,13 +9321,13 @@
       <c r="AG43" s="239"/>
       <c r="AH43" s="239"/>
       <c r="AI43" s="239"/>
-      <c r="AJ43" s="291"/>
-      <c r="AK43" s="291"/>
+      <c r="AJ43" s="317"/>
+      <c r="AK43" s="317"/>
       <c r="AL43" s="115"/>
       <c r="AM43" s="115"/>
       <c r="AN43" s="115"/>
-      <c r="AO43" s="291"/>
-      <c r="AP43" s="291"/>
+      <c r="AO43" s="317"/>
+      <c r="AP43" s="317"/>
       <c r="AQ43" s="115"/>
       <c r="AR43" s="115"/>
       <c r="AS43" s="115"/>
@@ -9348,8 +9346,8 @@
       <c r="G44" s="223" t="s">
         <v>314</v>
       </c>
-      <c r="H44" s="315"/>
-      <c r="I44" s="316"/>
+      <c r="H44" s="255"/>
+      <c r="I44" s="256"/>
       <c r="J44" s="100" t="s">
         <v>315</v>
       </c>
@@ -9357,19 +9355,19 @@
       <c r="L44" s="223" t="s">
         <v>316</v>
       </c>
-      <c r="M44" s="315"/>
-      <c r="N44" s="316"/>
+      <c r="M44" s="255"/>
+      <c r="N44" s="256"/>
       <c r="O44" s="76" t="s">
         <v>317</v>
       </c>
       <c r="P44" s="103"/>
       <c r="Q44" s="85"/>
       <c r="S44" s="71"/>
-      <c r="T44" s="288" t="s">
+      <c r="T44" s="310" t="s">
         <v>42</v>
       </c>
-      <c r="U44" s="288"/>
-      <c r="V44" s="288"/>
+      <c r="U44" s="310"/>
+      <c r="V44" s="310"/>
       <c r="W44" s="74" t="s">
         <v>8</v>
       </c>
@@ -9385,46 +9383,46 @@
       <c r="AG44" s="236"/>
       <c r="AH44" s="236"/>
       <c r="AI44" s="236"/>
-      <c r="AJ44" s="284"/>
-      <c r="AK44" s="284"/>
-      <c r="AL44" s="284"/>
-      <c r="AM44" s="284"/>
-      <c r="AN44" s="284"/>
-      <c r="AO44" s="284"/>
-      <c r="AP44" s="284"/>
-      <c r="AQ44" s="284"/>
-      <c r="AR44" s="284"/>
-      <c r="AS44" s="284"/>
+      <c r="AJ44" s="316"/>
+      <c r="AK44" s="316"/>
+      <c r="AL44" s="316"/>
+      <c r="AM44" s="316"/>
+      <c r="AN44" s="316"/>
+      <c r="AO44" s="316"/>
+      <c r="AP44" s="316"/>
+      <c r="AQ44" s="316"/>
+      <c r="AR44" s="316"/>
+      <c r="AS44" s="316"/>
     </row>
     <row r="45" spans="1:45" s="69" customFormat="1" ht="12" customHeight="1">
       <c r="A45" s="84"/>
       <c r="B45" s="75"/>
-      <c r="C45" s="247" t="s">
+      <c r="C45" s="248" t="s">
         <v>108</v>
       </c>
-      <c r="D45" s="249"/>
-      <c r="E45" s="247" t="s">
+      <c r="D45" s="250"/>
+      <c r="E45" s="248" t="s">
         <v>136</v>
       </c>
-      <c r="F45" s="249"/>
-      <c r="G45" s="247" t="s">
+      <c r="F45" s="250"/>
+      <c r="G45" s="248" t="s">
         <v>164</v>
       </c>
-      <c r="H45" s="248"/>
-      <c r="I45" s="249"/>
-      <c r="J45" s="247" t="s">
+      <c r="H45" s="249"/>
+      <c r="I45" s="250"/>
+      <c r="J45" s="248" t="s">
         <v>192</v>
       </c>
-      <c r="K45" s="249"/>
-      <c r="L45" s="247" t="s">
+      <c r="K45" s="250"/>
+      <c r="L45" s="248" t="s">
         <v>220</v>
       </c>
-      <c r="M45" s="248"/>
-      <c r="N45" s="249"/>
-      <c r="O45" s="247" t="s">
+      <c r="M45" s="249"/>
+      <c r="N45" s="250"/>
+      <c r="O45" s="248" t="s">
         <v>318</v>
       </c>
-      <c r="P45" s="249"/>
+      <c r="P45" s="250"/>
       <c r="Q45" s="104"/>
       <c r="R45" s="71"/>
       <c r="S45" s="73"/>
@@ -9439,18 +9437,18 @@
     <row r="46" spans="1:45" ht="17.25" customHeight="1">
       <c r="A46" s="56"/>
       <c r="B46" s="131"/>
-      <c r="C46" s="318"/>
-      <c r="D46" s="318"/>
-      <c r="E46" s="318"/>
-      <c r="F46" s="318"/>
-      <c r="G46" s="318"/>
-      <c r="H46" s="318"/>
-      <c r="I46" s="318"/>
-      <c r="J46" s="318"/>
-      <c r="K46" s="318"/>
-      <c r="L46" s="318"/>
-      <c r="M46" s="318"/>
-      <c r="N46" s="318"/>
+      <c r="C46" s="257"/>
+      <c r="D46" s="257"/>
+      <c r="E46" s="257"/>
+      <c r="F46" s="257"/>
+      <c r="G46" s="257"/>
+      <c r="H46" s="257"/>
+      <c r="I46" s="257"/>
+      <c r="J46" s="257"/>
+      <c r="K46" s="257"/>
+      <c r="L46" s="257"/>
+      <c r="M46" s="257"/>
+      <c r="N46" s="257"/>
       <c r="O46" s="113"/>
       <c r="P46" s="112"/>
       <c r="Q46" s="112"/>
@@ -9507,20 +9505,20 @@
       <c r="F48" s="133"/>
       <c r="G48" s="133"/>
       <c r="H48" s="133"/>
-      <c r="I48" s="317"/>
-      <c r="J48" s="317"/>
-      <c r="K48" s="317"/>
-      <c r="L48" s="317"/>
-      <c r="M48" s="325" t="s">
+      <c r="I48" s="291"/>
+      <c r="J48" s="291"/>
+      <c r="K48" s="291"/>
+      <c r="L48" s="291"/>
+      <c r="M48" s="261" t="s">
         <v>15</v>
       </c>
-      <c r="N48" s="326"/>
-      <c r="O48" s="326"/>
-      <c r="P48" s="326"/>
-      <c r="Q48" s="326"/>
-      <c r="R48" s="326"/>
-      <c r="S48" s="326"/>
-      <c r="T48" s="327"/>
+      <c r="N48" s="262"/>
+      <c r="O48" s="262"/>
+      <c r="P48" s="262"/>
+      <c r="Q48" s="262"/>
+      <c r="R48" s="262"/>
+      <c r="S48" s="262"/>
+      <c r="T48" s="263"/>
       <c r="U48" s="136"/>
       <c r="V48" s="136"/>
       <c r="W48" s="136"/>
@@ -9541,22 +9539,22 @@
       <c r="F49" s="139"/>
       <c r="G49" s="139"/>
       <c r="H49" s="140"/>
-      <c r="I49" s="323" t="s">
+      <c r="I49" s="245" t="s">
         <v>252</v>
       </c>
-      <c r="J49" s="323"/>
-      <c r="K49" s="323"/>
-      <c r="L49" s="323"/>
-      <c r="M49" s="328" t="s">
+      <c r="J49" s="245"/>
+      <c r="K49" s="245"/>
+      <c r="L49" s="245"/>
+      <c r="M49" s="264" t="s">
         <v>259</v>
       </c>
-      <c r="N49" s="329"/>
-      <c r="O49" s="329"/>
-      <c r="P49" s="329"/>
-      <c r="Q49" s="329"/>
-      <c r="R49" s="329"/>
-      <c r="S49" s="329"/>
-      <c r="T49" s="330"/>
+      <c r="N49" s="265"/>
+      <c r="O49" s="265"/>
+      <c r="P49" s="265"/>
+      <c r="Q49" s="265"/>
+      <c r="R49" s="265"/>
+      <c r="S49" s="265"/>
+      <c r="T49" s="266"/>
       <c r="U49" s="136"/>
       <c r="V49" s="136"/>
       <c r="W49" s="136"/>
@@ -9566,7 +9564,7 @@
       <c r="AA49" s="137"/>
       <c r="AB49" s="56"/>
     </row>
-    <row r="50" spans="1:30" ht="13.8">
+    <row r="50" spans="1:30" ht="12.75">
       <c r="A50" s="135"/>
       <c r="B50" s="141"/>
       <c r="C50" s="139" t="s">
@@ -9577,20 +9575,20 @@
       <c r="F50" s="139"/>
       <c r="G50" s="139"/>
       <c r="H50" s="140"/>
-      <c r="I50" s="323" t="s">
+      <c r="I50" s="245" t="s">
         <v>253</v>
       </c>
-      <c r="J50" s="323"/>
-      <c r="K50" s="323"/>
-      <c r="L50" s="323"/>
-      <c r="M50" s="331"/>
-      <c r="N50" s="332"/>
-      <c r="O50" s="332"/>
-      <c r="P50" s="332"/>
-      <c r="Q50" s="332"/>
-      <c r="R50" s="332"/>
-      <c r="S50" s="332"/>
-      <c r="T50" s="333"/>
+      <c r="J50" s="245"/>
+      <c r="K50" s="245"/>
+      <c r="L50" s="245"/>
+      <c r="M50" s="267"/>
+      <c r="N50" s="268"/>
+      <c r="O50" s="268"/>
+      <c r="P50" s="268"/>
+      <c r="Q50" s="268"/>
+      <c r="R50" s="268"/>
+      <c r="S50" s="268"/>
+      <c r="T50" s="269"/>
       <c r="U50" s="137"/>
       <c r="V50" s="136"/>
       <c r="W50" s="136"/>
@@ -9600,7 +9598,7 @@
       <c r="AA50" s="137"/>
       <c r="AB50" s="56"/>
     </row>
-    <row r="51" spans="1:30" ht="13.8">
+    <row r="51" spans="1:30" ht="12.75">
       <c r="A51" s="135"/>
       <c r="B51" s="141"/>
       <c r="C51" s="139" t="s">
@@ -9611,20 +9609,20 @@
       <c r="F51" s="139"/>
       <c r="G51" s="139"/>
       <c r="H51" s="140"/>
-      <c r="I51" s="323" t="s">
+      <c r="I51" s="245" t="s">
         <v>256</v>
       </c>
-      <c r="J51" s="323"/>
-      <c r="K51" s="323"/>
-      <c r="L51" s="323"/>
-      <c r="M51" s="331"/>
-      <c r="N51" s="332"/>
-      <c r="O51" s="332"/>
-      <c r="P51" s="332"/>
-      <c r="Q51" s="332"/>
-      <c r="R51" s="332"/>
-      <c r="S51" s="332"/>
-      <c r="T51" s="333"/>
+      <c r="J51" s="245"/>
+      <c r="K51" s="245"/>
+      <c r="L51" s="245"/>
+      <c r="M51" s="267"/>
+      <c r="N51" s="268"/>
+      <c r="O51" s="268"/>
+      <c r="P51" s="268"/>
+      <c r="Q51" s="268"/>
+      <c r="R51" s="268"/>
+      <c r="S51" s="268"/>
+      <c r="T51" s="269"/>
       <c r="U51" s="137"/>
       <c r="V51" s="136"/>
       <c r="W51" s="136"/>
@@ -9634,7 +9632,7 @@
       <c r="AA51" s="137"/>
       <c r="AB51" s="56"/>
     </row>
-    <row r="52" spans="1:30" ht="13.8">
+    <row r="52" spans="1:30" ht="12.75">
       <c r="A52" s="135"/>
       <c r="B52" s="141"/>
       <c r="C52" s="139" t="s">
@@ -9645,20 +9643,20 @@
       <c r="F52" s="139"/>
       <c r="G52" s="139"/>
       <c r="H52" s="140"/>
-      <c r="I52" s="323" t="s">
+      <c r="I52" s="245" t="s">
         <v>255</v>
       </c>
-      <c r="J52" s="323"/>
-      <c r="K52" s="323"/>
-      <c r="L52" s="323"/>
-      <c r="M52" s="331"/>
-      <c r="N52" s="332"/>
-      <c r="O52" s="332"/>
-      <c r="P52" s="332"/>
-      <c r="Q52" s="332"/>
-      <c r="R52" s="332"/>
-      <c r="S52" s="332"/>
-      <c r="T52" s="333"/>
+      <c r="J52" s="245"/>
+      <c r="K52" s="245"/>
+      <c r="L52" s="245"/>
+      <c r="M52" s="267"/>
+      <c r="N52" s="268"/>
+      <c r="O52" s="268"/>
+      <c r="P52" s="268"/>
+      <c r="Q52" s="268"/>
+      <c r="R52" s="268"/>
+      <c r="S52" s="268"/>
+      <c r="T52" s="269"/>
       <c r="U52" s="137"/>
       <c r="V52" s="136"/>
       <c r="W52" s="136"/>
@@ -9668,7 +9666,7 @@
       <c r="AA52" s="137"/>
       <c r="AB52" s="56"/>
     </row>
-    <row r="53" spans="1:30" ht="13.8">
+    <row r="53" spans="1:30" ht="12.75">
       <c r="A53" s="135"/>
       <c r="B53" s="141"/>
       <c r="C53" s="139" t="s">
@@ -9679,20 +9677,20 @@
       <c r="F53" s="139"/>
       <c r="G53" s="139"/>
       <c r="H53" s="140"/>
-      <c r="I53" s="323" t="s">
+      <c r="I53" s="245" t="s">
         <v>254</v>
       </c>
-      <c r="J53" s="323"/>
-      <c r="K53" s="323"/>
-      <c r="L53" s="323"/>
-      <c r="M53" s="331"/>
-      <c r="N53" s="332"/>
-      <c r="O53" s="332"/>
-      <c r="P53" s="332"/>
-      <c r="Q53" s="332"/>
-      <c r="R53" s="332"/>
-      <c r="S53" s="332"/>
-      <c r="T53" s="333"/>
+      <c r="J53" s="245"/>
+      <c r="K53" s="245"/>
+      <c r="L53" s="245"/>
+      <c r="M53" s="267"/>
+      <c r="N53" s="268"/>
+      <c r="O53" s="268"/>
+      <c r="P53" s="268"/>
+      <c r="Q53" s="268"/>
+      <c r="R53" s="268"/>
+      <c r="S53" s="268"/>
+      <c r="T53" s="269"/>
       <c r="U53" s="137"/>
       <c r="V53" s="136"/>
       <c r="W53" s="136"/>
@@ -9702,31 +9700,31 @@
       <c r="AA53" s="137"/>
       <c r="AB53" s="56"/>
     </row>
-    <row r="54" spans="1:30" ht="13.2" customHeight="1">
+    <row r="54" spans="1:30" ht="13.15" customHeight="1">
       <c r="A54" s="135"/>
-      <c r="B54" s="337" t="s">
+      <c r="B54" s="287" t="s">
         <v>20</v>
       </c>
-      <c r="C54" s="338"/>
-      <c r="D54" s="338"/>
-      <c r="E54" s="338"/>
-      <c r="F54" s="338"/>
-      <c r="G54" s="338"/>
-      <c r="H54" s="339"/>
-      <c r="I54" s="322" t="s">
+      <c r="C54" s="288"/>
+      <c r="D54" s="288"/>
+      <c r="E54" s="288"/>
+      <c r="F54" s="288"/>
+      <c r="G54" s="288"/>
+      <c r="H54" s="289"/>
+      <c r="I54" s="296" t="s">
         <v>257</v>
       </c>
-      <c r="J54" s="322"/>
-      <c r="K54" s="322"/>
-      <c r="L54" s="322"/>
-      <c r="M54" s="331"/>
-      <c r="N54" s="332"/>
-      <c r="O54" s="332"/>
-      <c r="P54" s="332"/>
-      <c r="Q54" s="332"/>
-      <c r="R54" s="332"/>
-      <c r="S54" s="332"/>
-      <c r="T54" s="333"/>
+      <c r="J54" s="296"/>
+      <c r="K54" s="296"/>
+      <c r="L54" s="296"/>
+      <c r="M54" s="267"/>
+      <c r="N54" s="268"/>
+      <c r="O54" s="268"/>
+      <c r="P54" s="268"/>
+      <c r="Q54" s="268"/>
+      <c r="R54" s="268"/>
+      <c r="S54" s="268"/>
+      <c r="T54" s="269"/>
       <c r="U54" s="137"/>
       <c r="V54" s="136"/>
       <c r="W54" s="136"/>
@@ -9736,7 +9734,7 @@
       <c r="AA54" s="137"/>
       <c r="AB54" s="56"/>
     </row>
-    <row r="55" spans="1:30" ht="13.8" customHeight="1">
+    <row r="55" spans="1:30" ht="13.9" customHeight="1">
       <c r="A55" s="135"/>
       <c r="B55" s="142">
         <v>1</v>
@@ -9749,18 +9747,18 @@
       <c r="F55" s="143"/>
       <c r="G55" s="143"/>
       <c r="H55" s="144"/>
-      <c r="I55" s="322"/>
-      <c r="J55" s="322"/>
-      <c r="K55" s="322"/>
-      <c r="L55" s="322"/>
-      <c r="M55" s="331"/>
-      <c r="N55" s="332"/>
-      <c r="O55" s="332"/>
-      <c r="P55" s="332"/>
-      <c r="Q55" s="332"/>
-      <c r="R55" s="332"/>
-      <c r="S55" s="332"/>
-      <c r="T55" s="333"/>
+      <c r="I55" s="296"/>
+      <c r="J55" s="296"/>
+      <c r="K55" s="296"/>
+      <c r="L55" s="296"/>
+      <c r="M55" s="267"/>
+      <c r="N55" s="268"/>
+      <c r="O55" s="268"/>
+      <c r="P55" s="268"/>
+      <c r="Q55" s="268"/>
+      <c r="R55" s="268"/>
+      <c r="S55" s="268"/>
+      <c r="T55" s="269"/>
       <c r="U55" s="137"/>
       <c r="V55" s="136"/>
       <c r="W55" s="136"/>
@@ -9770,7 +9768,7 @@
       <c r="AA55" s="137"/>
       <c r="AB55" s="56"/>
     </row>
-    <row r="56" spans="1:30" ht="13.8">
+    <row r="56" spans="1:30" ht="12.75">
       <c r="A56" s="135"/>
       <c r="B56" s="142">
         <v>2</v>
@@ -9783,18 +9781,18 @@
       <c r="F56" s="143"/>
       <c r="G56" s="143"/>
       <c r="H56" s="144"/>
-      <c r="I56" s="322"/>
-      <c r="J56" s="322"/>
-      <c r="K56" s="322"/>
-      <c r="L56" s="322"/>
-      <c r="M56" s="331"/>
-      <c r="N56" s="332"/>
-      <c r="O56" s="332"/>
-      <c r="P56" s="332"/>
-      <c r="Q56" s="332"/>
-      <c r="R56" s="332"/>
-      <c r="S56" s="332"/>
-      <c r="T56" s="333"/>
+      <c r="I56" s="296"/>
+      <c r="J56" s="296"/>
+      <c r="K56" s="296"/>
+      <c r="L56" s="296"/>
+      <c r="M56" s="267"/>
+      <c r="N56" s="268"/>
+      <c r="O56" s="268"/>
+      <c r="P56" s="268"/>
+      <c r="Q56" s="268"/>
+      <c r="R56" s="268"/>
+      <c r="S56" s="268"/>
+      <c r="T56" s="269"/>
       <c r="U56" s="137"/>
       <c r="V56" s="136"/>
       <c r="W56" s="136"/>
@@ -9804,7 +9802,7 @@
       <c r="AA56" s="137"/>
       <c r="AB56" s="56"/>
     </row>
-    <row r="57" spans="1:30" ht="13.8">
+    <row r="57" spans="1:30" ht="12.75">
       <c r="A57" s="135"/>
       <c r="B57" s="142">
         <v>3</v>
@@ -9817,18 +9815,18 @@
       <c r="F57" s="143"/>
       <c r="G57" s="143"/>
       <c r="H57" s="144"/>
-      <c r="I57" s="322"/>
-      <c r="J57" s="322"/>
-      <c r="K57" s="322"/>
-      <c r="L57" s="322"/>
-      <c r="M57" s="331"/>
-      <c r="N57" s="332"/>
-      <c r="O57" s="332"/>
-      <c r="P57" s="332"/>
-      <c r="Q57" s="332"/>
-      <c r="R57" s="332"/>
-      <c r="S57" s="332"/>
-      <c r="T57" s="333"/>
+      <c r="I57" s="296"/>
+      <c r="J57" s="296"/>
+      <c r="K57" s="296"/>
+      <c r="L57" s="296"/>
+      <c r="M57" s="267"/>
+      <c r="N57" s="268"/>
+      <c r="O57" s="268"/>
+      <c r="P57" s="268"/>
+      <c r="Q57" s="268"/>
+      <c r="R57" s="268"/>
+      <c r="S57" s="268"/>
+      <c r="T57" s="269"/>
       <c r="U57" s="137"/>
       <c r="V57" s="136"/>
       <c r="W57" s="136"/>
@@ -9838,7 +9836,7 @@
       <c r="AA57" s="137"/>
       <c r="AB57" s="56"/>
     </row>
-    <row r="58" spans="1:30" ht="13.8">
+    <row r="58" spans="1:30" ht="12.75">
       <c r="A58" s="135"/>
       <c r="B58" s="142">
         <v>4</v>
@@ -9851,18 +9849,18 @@
       <c r="F58" s="143"/>
       <c r="G58" s="143"/>
       <c r="H58" s="144"/>
-      <c r="I58" s="322"/>
-      <c r="J58" s="322"/>
-      <c r="K58" s="322"/>
-      <c r="L58" s="322"/>
-      <c r="M58" s="331"/>
-      <c r="N58" s="332"/>
-      <c r="O58" s="332"/>
-      <c r="P58" s="332"/>
-      <c r="Q58" s="332"/>
-      <c r="R58" s="332"/>
-      <c r="S58" s="332"/>
-      <c r="T58" s="333"/>
+      <c r="I58" s="296"/>
+      <c r="J58" s="296"/>
+      <c r="K58" s="296"/>
+      <c r="L58" s="296"/>
+      <c r="M58" s="267"/>
+      <c r="N58" s="268"/>
+      <c r="O58" s="268"/>
+      <c r="P58" s="268"/>
+      <c r="Q58" s="268"/>
+      <c r="R58" s="268"/>
+      <c r="S58" s="268"/>
+      <c r="T58" s="269"/>
       <c r="U58" s="137"/>
       <c r="V58" s="136"/>
       <c r="W58" s="136"/>
@@ -9872,7 +9870,7 @@
       <c r="AA58" s="137"/>
       <c r="AB58" s="56"/>
     </row>
-    <row r="59" spans="1:30" ht="13.8">
+    <row r="59" spans="1:30" ht="12.75">
       <c r="A59" s="135"/>
       <c r="B59" s="141">
         <v>5</v>
@@ -9885,18 +9883,18 @@
       <c r="F59" s="145"/>
       <c r="G59" s="145"/>
       <c r="H59" s="146"/>
-      <c r="I59" s="322"/>
-      <c r="J59" s="322"/>
-      <c r="K59" s="322"/>
-      <c r="L59" s="322"/>
-      <c r="M59" s="334"/>
-      <c r="N59" s="335"/>
-      <c r="O59" s="335"/>
-      <c r="P59" s="335"/>
-      <c r="Q59" s="335"/>
-      <c r="R59" s="335"/>
-      <c r="S59" s="335"/>
-      <c r="T59" s="336"/>
+      <c r="I59" s="296"/>
+      <c r="J59" s="296"/>
+      <c r="K59" s="296"/>
+      <c r="L59" s="296"/>
+      <c r="M59" s="270"/>
+      <c r="N59" s="271"/>
+      <c r="O59" s="271"/>
+      <c r="P59" s="271"/>
+      <c r="Q59" s="271"/>
+      <c r="R59" s="271"/>
+      <c r="S59" s="271"/>
+      <c r="T59" s="272"/>
       <c r="U59" s="137"/>
       <c r="V59" s="136"/>
       <c r="W59" s="136"/>
@@ -9982,28 +9980,28 @@
       <c r="C62" s="151"/>
       <c r="D62" s="151"/>
       <c r="E62" s="152"/>
-      <c r="F62" s="303" t="s">
+      <c r="F62" s="259" t="s">
         <v>241</v>
       </c>
-      <c r="G62" s="303"/>
-      <c r="H62" s="303"/>
-      <c r="I62" s="303"/>
-      <c r="J62" s="303"/>
-      <c r="K62" s="295"/>
-      <c r="L62" s="295"/>
-      <c r="M62" s="295"/>
-      <c r="N62" s="295"/>
-      <c r="O62" s="295"/>
-      <c r="P62" s="299"/>
-      <c r="Q62" s="299"/>
-      <c r="R62" s="299"/>
-      <c r="S62" s="299"/>
-      <c r="T62" s="299"/>
-      <c r="U62" s="299"/>
-      <c r="V62" s="299"/>
-      <c r="W62" s="299"/>
-      <c r="X62" s="299"/>
-      <c r="Y62" s="299"/>
+      <c r="G62" s="259"/>
+      <c r="H62" s="259"/>
+      <c r="I62" s="259"/>
+      <c r="J62" s="259"/>
+      <c r="K62" s="297"/>
+      <c r="L62" s="297"/>
+      <c r="M62" s="297"/>
+      <c r="N62" s="297"/>
+      <c r="O62" s="297"/>
+      <c r="P62" s="258"/>
+      <c r="Q62" s="258"/>
+      <c r="R62" s="258"/>
+      <c r="S62" s="258"/>
+      <c r="T62" s="258"/>
+      <c r="U62" s="258"/>
+      <c r="V62" s="258"/>
+      <c r="W62" s="258"/>
+      <c r="X62" s="258"/>
+      <c r="Y62" s="258"/>
       <c r="Z62" s="56"/>
       <c r="AA62" s="56"/>
       <c r="AB62" s="56"/>
@@ -10016,32 +10014,32 @@
         <v>26</v>
       </c>
       <c r="C63" s="154"/>
-      <c r="D63" s="320" t="s">
+      <c r="D63" s="294" t="s">
         <v>27</v>
       </c>
-      <c r="E63" s="321"/>
-      <c r="F63" s="303" t="s">
+      <c r="E63" s="295"/>
+      <c r="F63" s="259" t="s">
         <v>242</v>
       </c>
-      <c r="G63" s="303"/>
-      <c r="H63" s="303"/>
-      <c r="I63" s="303"/>
-      <c r="J63" s="303"/>
-      <c r="K63" s="295"/>
-      <c r="L63" s="295"/>
-      <c r="M63" s="295"/>
-      <c r="N63" s="295"/>
-      <c r="O63" s="295"/>
-      <c r="P63" s="295"/>
-      <c r="Q63" s="295"/>
-      <c r="R63" s="295"/>
-      <c r="S63" s="295"/>
-      <c r="T63" s="295"/>
-      <c r="U63" s="295"/>
-      <c r="V63" s="295"/>
-      <c r="W63" s="295"/>
-      <c r="X63" s="295"/>
-      <c r="Y63" s="295"/>
+      <c r="G63" s="259"/>
+      <c r="H63" s="259"/>
+      <c r="I63" s="259"/>
+      <c r="J63" s="259"/>
+      <c r="K63" s="297"/>
+      <c r="L63" s="297"/>
+      <c r="M63" s="297"/>
+      <c r="N63" s="297"/>
+      <c r="O63" s="297"/>
+      <c r="P63" s="297"/>
+      <c r="Q63" s="297"/>
+      <c r="R63" s="297"/>
+      <c r="S63" s="297"/>
+      <c r="T63" s="297"/>
+      <c r="U63" s="297"/>
+      <c r="V63" s="297"/>
+      <c r="W63" s="297"/>
+      <c r="X63" s="297"/>
+      <c r="Y63" s="297"/>
       <c r="Z63" s="306"/>
       <c r="AA63" s="306"/>
       <c r="AB63" s="306"/>
@@ -10056,28 +10054,28 @@
       <c r="C64" s="151"/>
       <c r="D64" s="151"/>
       <c r="E64" s="152"/>
-      <c r="F64" s="303" t="s">
+      <c r="F64" s="259" t="s">
         <v>243</v>
       </c>
-      <c r="G64" s="303"/>
-      <c r="H64" s="303"/>
-      <c r="I64" s="303"/>
-      <c r="J64" s="303"/>
-      <c r="K64" s="295"/>
-      <c r="L64" s="295"/>
-      <c r="M64" s="295"/>
-      <c r="N64" s="295"/>
-      <c r="O64" s="295"/>
-      <c r="P64" s="295"/>
-      <c r="Q64" s="295"/>
-      <c r="R64" s="295"/>
-      <c r="S64" s="295"/>
-      <c r="T64" s="295"/>
-      <c r="U64" s="295"/>
-      <c r="V64" s="295"/>
-      <c r="W64" s="295"/>
-      <c r="X64" s="295"/>
-      <c r="Y64" s="295"/>
+      <c r="G64" s="259"/>
+      <c r="H64" s="259"/>
+      <c r="I64" s="259"/>
+      <c r="J64" s="259"/>
+      <c r="K64" s="297"/>
+      <c r="L64" s="297"/>
+      <c r="M64" s="297"/>
+      <c r="N64" s="297"/>
+      <c r="O64" s="297"/>
+      <c r="P64" s="297"/>
+      <c r="Q64" s="297"/>
+      <c r="R64" s="297"/>
+      <c r="S64" s="297"/>
+      <c r="T64" s="297"/>
+      <c r="U64" s="297"/>
+      <c r="V64" s="297"/>
+      <c r="W64" s="297"/>
+      <c r="X64" s="297"/>
+      <c r="Y64" s="297"/>
       <c r="Z64" s="306"/>
       <c r="AA64" s="306"/>
       <c r="AB64" s="306"/>
@@ -10092,28 +10090,28 @@
       <c r="C65" s="151"/>
       <c r="D65" s="151"/>
       <c r="E65" s="152"/>
-      <c r="F65" s="303" t="s">
+      <c r="F65" s="259" t="s">
         <v>244</v>
       </c>
-      <c r="G65" s="303"/>
-      <c r="H65" s="303"/>
-      <c r="I65" s="303"/>
-      <c r="J65" s="303"/>
-      <c r="K65" s="304"/>
-      <c r="L65" s="304"/>
-      <c r="M65" s="304"/>
-      <c r="N65" s="304"/>
-      <c r="O65" s="304"/>
-      <c r="P65" s="304"/>
-      <c r="Q65" s="304"/>
-      <c r="R65" s="304"/>
-      <c r="S65" s="304"/>
-      <c r="T65" s="304"/>
-      <c r="U65" s="304"/>
-      <c r="V65" s="304"/>
-      <c r="W65" s="304"/>
-      <c r="X65" s="304"/>
-      <c r="Y65" s="304"/>
+      <c r="G65" s="259"/>
+      <c r="H65" s="259"/>
+      <c r="I65" s="259"/>
+      <c r="J65" s="259"/>
+      <c r="K65" s="308"/>
+      <c r="L65" s="308"/>
+      <c r="M65" s="308"/>
+      <c r="N65" s="308"/>
+      <c r="O65" s="308"/>
+      <c r="P65" s="308"/>
+      <c r="Q65" s="308"/>
+      <c r="R65" s="308"/>
+      <c r="S65" s="308"/>
+      <c r="T65" s="308"/>
+      <c r="U65" s="308"/>
+      <c r="V65" s="308"/>
+      <c r="W65" s="308"/>
+      <c r="X65" s="308"/>
+      <c r="Y65" s="308"/>
       <c r="Z65" s="306"/>
       <c r="AA65" s="306"/>
       <c r="AB65" s="306"/>
@@ -10128,28 +10126,28 @@
       <c r="C66" s="151"/>
       <c r="D66" s="151"/>
       <c r="E66" s="152"/>
-      <c r="F66" s="303" t="s">
+      <c r="F66" s="259" t="s">
         <v>245</v>
       </c>
-      <c r="G66" s="303"/>
-      <c r="H66" s="303"/>
-      <c r="I66" s="303"/>
-      <c r="J66" s="303"/>
-      <c r="K66" s="304"/>
-      <c r="L66" s="304"/>
-      <c r="M66" s="304"/>
-      <c r="N66" s="304"/>
-      <c r="O66" s="304"/>
-      <c r="P66" s="304"/>
-      <c r="Q66" s="304"/>
-      <c r="R66" s="304"/>
-      <c r="S66" s="304"/>
-      <c r="T66" s="304"/>
-      <c r="U66" s="304"/>
-      <c r="V66" s="304"/>
-      <c r="W66" s="304"/>
-      <c r="X66" s="304"/>
-      <c r="Y66" s="304"/>
+      <c r="G66" s="259"/>
+      <c r="H66" s="259"/>
+      <c r="I66" s="259"/>
+      <c r="J66" s="259"/>
+      <c r="K66" s="308"/>
+      <c r="L66" s="308"/>
+      <c r="M66" s="308"/>
+      <c r="N66" s="308"/>
+      <c r="O66" s="308"/>
+      <c r="P66" s="308"/>
+      <c r="Q66" s="308"/>
+      <c r="R66" s="308"/>
+      <c r="S66" s="308"/>
+      <c r="T66" s="308"/>
+      <c r="U66" s="308"/>
+      <c r="V66" s="308"/>
+      <c r="W66" s="308"/>
+      <c r="X66" s="308"/>
+      <c r="Y66" s="308"/>
       <c r="Z66" s="307"/>
       <c r="AA66" s="307"/>
       <c r="AB66" s="307"/>
@@ -10158,34 +10156,34 @@
     </row>
     <row r="67" spans="1:30" ht="17.25" customHeight="1">
       <c r="A67" s="69"/>
-      <c r="B67" s="319" t="s">
+      <c r="B67" s="293" t="s">
         <v>49</v>
       </c>
-      <c r="C67" s="320"/>
-      <c r="D67" s="320"/>
-      <c r="E67" s="321"/>
-      <c r="F67" s="303" t="s">
+      <c r="C67" s="294"/>
+      <c r="D67" s="294"/>
+      <c r="E67" s="295"/>
+      <c r="F67" s="259" t="s">
         <v>246</v>
       </c>
-      <c r="G67" s="303"/>
-      <c r="H67" s="303"/>
-      <c r="I67" s="303"/>
-      <c r="J67" s="303"/>
-      <c r="K67" s="304"/>
-      <c r="L67" s="304"/>
-      <c r="M67" s="304"/>
-      <c r="N67" s="304"/>
-      <c r="O67" s="304"/>
-      <c r="P67" s="304"/>
-      <c r="Q67" s="304"/>
-      <c r="R67" s="304"/>
-      <c r="S67" s="304"/>
-      <c r="T67" s="304"/>
-      <c r="U67" s="304"/>
-      <c r="V67" s="304"/>
-      <c r="W67" s="304"/>
-      <c r="X67" s="304"/>
-      <c r="Y67" s="304"/>
+      <c r="G67" s="259"/>
+      <c r="H67" s="259"/>
+      <c r="I67" s="259"/>
+      <c r="J67" s="259"/>
+      <c r="K67" s="308"/>
+      <c r="L67" s="308"/>
+      <c r="M67" s="308"/>
+      <c r="N67" s="308"/>
+      <c r="O67" s="308"/>
+      <c r="P67" s="308"/>
+      <c r="Q67" s="308"/>
+      <c r="R67" s="308"/>
+      <c r="S67" s="308"/>
+      <c r="T67" s="308"/>
+      <c r="U67" s="308"/>
+      <c r="V67" s="308"/>
+      <c r="W67" s="308"/>
+      <c r="X67" s="308"/>
+      <c r="Y67" s="308"/>
       <c r="Z67" s="307"/>
       <c r="AA67" s="307"/>
       <c r="AB67" s="307"/>
@@ -10200,28 +10198,28 @@
       <c r="C68" s="151"/>
       <c r="D68" s="151"/>
       <c r="E68" s="152"/>
-      <c r="F68" s="303" t="s">
+      <c r="F68" s="259" t="s">
         <v>247</v>
       </c>
-      <c r="G68" s="303"/>
-      <c r="H68" s="303"/>
-      <c r="I68" s="303"/>
-      <c r="J68" s="303"/>
-      <c r="K68" s="298"/>
-      <c r="L68" s="298"/>
-      <c r="M68" s="298"/>
-      <c r="N68" s="298"/>
-      <c r="O68" s="298"/>
-      <c r="P68" s="298"/>
-      <c r="Q68" s="298"/>
-      <c r="R68" s="298"/>
-      <c r="S68" s="298"/>
-      <c r="T68" s="298"/>
-      <c r="U68" s="298"/>
-      <c r="V68" s="298"/>
-      <c r="W68" s="298"/>
-      <c r="X68" s="298"/>
-      <c r="Y68" s="298"/>
+      <c r="G68" s="259"/>
+      <c 